--- a/doc/chiffrier_sim_vie.xlsx
+++ b/doc/chiffrier_sim_vie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\travail\sim_vie\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68355356-B3F3-4F7C-961B-0D236D3B3288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709D6D87-995D-41D8-8056-332588C98B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Méthodes SCRUM" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="CRC" sheetId="5" r:id="rId5"/>
     <sheet name="Planning global" sheetId="7" r:id="rId6"/>
     <sheet name="Sprint 1" sheetId="8" r:id="rId7"/>
-    <sheet name="Sprint 2" sheetId="9" r:id="rId8"/>
+    <sheet name="Sprint 1 (maj)" sheetId="10" r:id="rId8"/>
+    <sheet name="Sprint 2" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="627">
   <si>
     <t>Chiffrier de documentation de projets</t>
   </si>
@@ -2040,6 +2041,84 @@
   </si>
   <si>
     <t>Dessiner l'aura de la vision (peut-être activé et désactivé)</t>
+  </si>
+  <si>
+    <t>On s'est rendus compte que, dans la planification de départ, nous avions simplifié le modèle biologique de la créature pour se concentrer sur des fonctionnalités en lien avec son ADN. Après avoir reparlé avec le client, nous avons dû revoir nos priorités et le détail du travail, ainsi que la définition de notre créature. Par conséquent, ce sprint ne correspond pas à la réalité du travail accompli et, en ce 24 novembre (3ième jour du premier sprint), nous nous sommes réalignés. La version mise à jour (prochaine feuille) du sprint correspond mieux au travail projeté et accompli. S'il vous plaît, vous y référez.</t>
+  </si>
+  <si>
+    <t>Classe Glande</t>
+  </si>
+  <si>
+    <t>Odorat</t>
+  </si>
+  <si>
+    <t>Classe Nez (rôle : stockage des stimulis)</t>
+  </si>
+  <si>
+    <t>Nez - méthode sentir</t>
+  </si>
+  <si>
+    <t>Classe Capteur (rôle : réagir aux stimulis et se connecter aux ganglions)</t>
+  </si>
+  <si>
+    <t>Capteur (méthode activer)</t>
+  </si>
+  <si>
+    <t>Classe GanglionOlfactif (rôle : laisser passer ou bloquer stimulis)</t>
+  </si>
+  <si>
+    <t>méthode : gestion_stimulis (bloquer ou laisser passer)</t>
+  </si>
+  <si>
+    <t>méthode : propager (vers ses sorties)</t>
+  </si>
+  <si>
+    <t>Moteur</t>
+  </si>
+  <si>
+    <t>Classe Pattes (rôle : orienter et avancer)</t>
+  </si>
+  <si>
+    <t>Connecter les pattes aux ganglions</t>
+  </si>
+  <si>
+    <t>méthode : activer</t>
+  </si>
+  <si>
+    <t>L'implémenter à la classe Nez</t>
+  </si>
+  <si>
+    <t>L'implémenter à la classe Pattes</t>
+  </si>
+  <si>
+    <t>Refactorisation Neurone :</t>
+  </si>
+  <si>
+    <t>Refactorisation Créature :</t>
+  </si>
+  <si>
+    <t>L'implémenter à la classe Glandes</t>
+  </si>
+  <si>
+    <t>Mise au point du nouveau modèle</t>
+  </si>
+  <si>
+    <t>Gestion de poids des neuronnes pour se défaire de la logique binaire :</t>
+  </si>
+  <si>
+    <t>- Stocker des poids dans les neuronnes à l'instanciation pour les distinguer</t>
+  </si>
+  <si>
+    <t>- Stocker le poids des stimulis dans les neuronnes pour qu'elles réagissent plus subtilement à l'environnement</t>
+  </si>
+  <si>
+    <t>- Revoir le calcul de l'orientation pour qu'elle prenne mieux en compte la refactorisation des neurones</t>
+  </si>
+  <si>
+    <t>Action manger</t>
+  </si>
+  <si>
+    <t>Action se reproduire</t>
   </si>
 </sst>
 </file>
@@ -3304,7 +3383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="303">
+  <cellXfs count="312">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3821,6 +3900,7 @@
     <xf numFmtId="164" fontId="29" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="29" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="35" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3851,20 +3931,93 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3893,84 +4046,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -3981,18 +4070,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4023,7 +4103,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="4" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="75" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="29" fillId="4" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="29" fillId="4" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4738,22 +4828,22 @@
       </c>
     </row>
     <row r="36" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F36" s="234"/>
-      <c r="G36" s="235"/>
-      <c r="H36" s="235"/>
-      <c r="I36" s="235"/>
+      <c r="F36" s="235"/>
+      <c r="G36" s="236"/>
+      <c r="H36" s="236"/>
+      <c r="I36" s="236"/>
     </row>
     <row r="37" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F37" s="235"/>
-      <c r="G37" s="235"/>
-      <c r="H37" s="235"/>
-      <c r="I37" s="235"/>
+      <c r="F37" s="236"/>
+      <c r="G37" s="236"/>
+      <c r="H37" s="236"/>
+      <c r="I37" s="236"/>
     </row>
     <row r="38" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F38" s="235"/>
-      <c r="G38" s="235"/>
-      <c r="H38" s="235"/>
-      <c r="I38" s="235"/>
+      <c r="F38" s="236"/>
+      <c r="G38" s="236"/>
+      <c r="H38" s="236"/>
+      <c r="I38" s="236"/>
     </row>
     <row r="39" spans="6:9" ht="17.25" customHeight="1">
       <c r="F39" s="29"/>
@@ -4762,22 +4852,22 @@
       <c r="I39" s="29"/>
     </row>
     <row r="40" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F40" s="234"/>
-      <c r="G40" s="235"/>
-      <c r="H40" s="235"/>
-      <c r="I40" s="235"/>
+      <c r="F40" s="235"/>
+      <c r="G40" s="236"/>
+      <c r="H40" s="236"/>
+      <c r="I40" s="236"/>
     </row>
     <row r="41" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F41" s="235"/>
-      <c r="G41" s="235"/>
-      <c r="H41" s="235"/>
-      <c r="I41" s="235"/>
+      <c r="F41" s="236"/>
+      <c r="G41" s="236"/>
+      <c r="H41" s="236"/>
+      <c r="I41" s="236"/>
     </row>
     <row r="42" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F42" s="235"/>
-      <c r="G42" s="235"/>
-      <c r="H42" s="235"/>
-      <c r="I42" s="235"/>
+      <c r="F42" s="236"/>
+      <c r="G42" s="236"/>
+      <c r="H42" s="236"/>
+      <c r="I42" s="236"/>
     </row>
     <row r="43" spans="6:9" ht="17.25" customHeight="1">
       <c r="F43" s="29"/>
@@ -4792,34 +4882,34 @@
       <c r="I44" s="29"/>
     </row>
     <row r="45" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F45" s="234"/>
-      <c r="G45" s="235"/>
-      <c r="H45" s="235"/>
-      <c r="I45" s="235"/>
+      <c r="F45" s="235"/>
+      <c r="G45" s="236"/>
+      <c r="H45" s="236"/>
+      <c r="I45" s="236"/>
     </row>
     <row r="46" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F46" s="235"/>
-      <c r="G46" s="235"/>
-      <c r="H46" s="235"/>
-      <c r="I46" s="235"/>
+      <c r="F46" s="236"/>
+      <c r="G46" s="236"/>
+      <c r="H46" s="236"/>
+      <c r="I46" s="236"/>
     </row>
     <row r="47" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F47" s="235"/>
-      <c r="G47" s="235"/>
-      <c r="H47" s="235"/>
-      <c r="I47" s="235"/>
+      <c r="F47" s="236"/>
+      <c r="G47" s="236"/>
+      <c r="H47" s="236"/>
+      <c r="I47" s="236"/>
     </row>
     <row r="48" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F48" s="235"/>
-      <c r="G48" s="235"/>
-      <c r="H48" s="235"/>
-      <c r="I48" s="235"/>
+      <c r="F48" s="236"/>
+      <c r="G48" s="236"/>
+      <c r="H48" s="236"/>
+      <c r="I48" s="236"/>
     </row>
     <row r="49" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F49" s="235"/>
-      <c r="G49" s="235"/>
-      <c r="H49" s="235"/>
-      <c r="I49" s="235"/>
+      <c r="F49" s="236"/>
+      <c r="G49" s="236"/>
+      <c r="H49" s="236"/>
+      <c r="I49" s="236"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4959,7 +5049,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B13" s="236" t="s">
+      <c r="B13" s="237" t="s">
         <v>60</v>
       </c>
       <c r="C13" s="49"/>
@@ -4968,7 +5058,7 @@
       <c r="H13" s="70"/>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B14" s="237"/>
+      <c r="B14" s="238"/>
       <c r="C14" s="50" t="s">
         <v>104</v>
       </c>
@@ -4981,13 +5071,13 @@
       <c r="H14" s="70"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B15" s="237"/>
+      <c r="B15" s="238"/>
       <c r="C15" s="53"/>
       <c r="D15" s="51"/>
       <c r="E15" s="52"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B16" s="237"/>
+      <c r="B16" s="238"/>
       <c r="C16" s="63" t="s">
         <v>171</v>
       </c>
@@ -4999,7 +5089,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B17" s="238"/>
+      <c r="B17" s="239"/>
       <c r="C17" s="53" t="s">
         <v>101</v>
       </c>
@@ -5007,7 +5097,7 @@
       <c r="E17" s="52"/>
     </row>
     <row r="18" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B18" s="238"/>
+      <c r="B18" s="239"/>
       <c r="C18" s="63" t="s">
         <v>172</v>
       </c>
@@ -5017,13 +5107,13 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B19" s="238"/>
+      <c r="B19" s="239"/>
       <c r="C19" s="53"/>
       <c r="D19" s="51"/>
       <c r="E19" s="52"/>
     </row>
     <row r="20" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B20" s="238"/>
+      <c r="B20" s="239"/>
       <c r="C20" s="50" t="s">
         <v>105</v>
       </c>
@@ -5035,13 +5125,13 @@
       </c>
     </row>
     <row r="21" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B21" s="238"/>
+      <c r="B21" s="239"/>
       <c r="C21" s="53"/>
       <c r="D21" s="51"/>
       <c r="E21" s="52"/>
     </row>
     <row r="22" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B22" s="238"/>
+      <c r="B22" s="239"/>
       <c r="C22" s="63" t="s">
         <v>174</v>
       </c>
@@ -5053,7 +5143,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B23" s="238"/>
+      <c r="B23" s="239"/>
       <c r="C23" s="68" t="s">
         <v>110</v>
       </c>
@@ -5065,7 +5155,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B24" s="238"/>
+      <c r="B24" s="239"/>
       <c r="C24" s="53"/>
       <c r="D24" s="64" t="s">
         <v>176</v>
@@ -5073,7 +5163,7 @@
       <c r="E24" s="65"/>
     </row>
     <row r="25" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B25" s="238"/>
+      <c r="B25" s="239"/>
       <c r="C25" s="63"/>
       <c r="D25" s="64" t="s">
         <v>113</v>
@@ -5081,7 +5171,7 @@
       <c r="E25" s="65"/>
     </row>
     <row r="26" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B26" s="238"/>
+      <c r="B26" s="239"/>
       <c r="C26" s="63" t="s">
         <v>114</v>
       </c>
@@ -5091,7 +5181,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B27" s="238"/>
+      <c r="B27" s="239"/>
       <c r="C27" s="63" t="s">
         <v>116</v>
       </c>
@@ -5101,13 +5191,13 @@
       </c>
     </row>
     <row r="28" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B28" s="238"/>
+      <c r="B28" s="239"/>
       <c r="C28" s="53"/>
       <c r="D28" s="51"/>
       <c r="E28" s="52"/>
     </row>
     <row r="29" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B29" s="238"/>
+      <c r="B29" s="239"/>
       <c r="C29" s="50" t="s">
         <v>118</v>
       </c>
@@ -5115,13 +5205,13 @@
       <c r="E29" s="52"/>
     </row>
     <row r="30" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B30" s="238"/>
+      <c r="B30" s="239"/>
       <c r="C30" s="53"/>
       <c r="D30" s="51"/>
       <c r="E30" s="52"/>
     </row>
     <row r="31" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B31" s="238"/>
+      <c r="B31" s="239"/>
       <c r="C31" s="63" t="s">
         <v>119</v>
       </c>
@@ -5131,7 +5221,7 @@
       <c r="E31" s="52"/>
     </row>
     <row r="32" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B32" s="238"/>
+      <c r="B32" s="239"/>
       <c r="C32" s="63" t="s">
         <v>120</v>
       </c>
@@ -5139,7 +5229,7 @@
       <c r="E32" s="52"/>
     </row>
     <row r="33" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B33" s="238"/>
+      <c r="B33" s="239"/>
       <c r="C33" s="63" t="s">
         <v>121</v>
       </c>
@@ -5147,7 +5237,7 @@
       <c r="E33" s="52"/>
     </row>
     <row r="34" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B34" s="238"/>
+      <c r="B34" s="239"/>
       <c r="C34" s="63" t="s">
         <v>122</v>
       </c>
@@ -5155,7 +5245,7 @@
       <c r="E34" s="52"/>
     </row>
     <row r="35" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B35" s="238"/>
+      <c r="B35" s="239"/>
       <c r="C35" s="63" t="s">
         <v>123</v>
       </c>
@@ -5163,13 +5253,13 @@
       <c r="E35" s="52"/>
     </row>
     <row r="36" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B36" s="238"/>
+      <c r="B36" s="239"/>
       <c r="C36" s="63"/>
       <c r="D36" s="64"/>
       <c r="E36" s="52"/>
     </row>
     <row r="37" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B37" s="238"/>
+      <c r="B37" s="239"/>
       <c r="C37" s="63" t="s">
         <v>177</v>
       </c>
@@ -5177,7 +5267,7 @@
       <c r="E37" s="52"/>
     </row>
     <row r="38" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B38" s="238"/>
+      <c r="B38" s="239"/>
       <c r="C38" s="63" t="s">
         <v>127</v>
       </c>
@@ -5185,7 +5275,7 @@
       <c r="E38" s="52"/>
     </row>
     <row r="39" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B39" s="238"/>
+      <c r="B39" s="239"/>
       <c r="C39" s="63" t="s">
         <v>125</v>
       </c>
@@ -5195,13 +5285,13 @@
       </c>
     </row>
     <row r="40" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B40" s="238"/>
+      <c r="B40" s="239"/>
       <c r="C40" s="63"/>
       <c r="D40" s="51"/>
       <c r="E40" s="52"/>
     </row>
     <row r="41" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B41" s="238"/>
+      <c r="B41" s="239"/>
       <c r="C41" s="50" t="s">
         <v>128</v>
       </c>
@@ -5209,13 +5299,13 @@
       <c r="E41" s="52"/>
     </row>
     <row r="42" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B42" s="238"/>
+      <c r="B42" s="239"/>
       <c r="C42" s="63"/>
       <c r="D42" s="51"/>
       <c r="E42" s="52"/>
     </row>
     <row r="43" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B43" s="238"/>
+      <c r="B43" s="239"/>
       <c r="C43" s="63" t="s">
         <v>129</v>
       </c>
@@ -5223,7 +5313,7 @@
       <c r="E43" s="52"/>
     </row>
     <row r="44" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B44" s="238"/>
+      <c r="B44" s="239"/>
       <c r="C44" s="63" t="s">
         <v>101</v>
       </c>
@@ -5233,7 +5323,7 @@
       <c r="E44" s="52"/>
     </row>
     <row r="45" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B45" s="238"/>
+      <c r="B45" s="239"/>
       <c r="C45" s="63" t="s">
         <v>131</v>
       </c>
@@ -5243,7 +5333,7 @@
       <c r="E45" s="52"/>
     </row>
     <row r="46" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B46" s="238"/>
+      <c r="B46" s="239"/>
       <c r="C46" s="63" t="s">
         <v>133</v>
       </c>
@@ -5253,7 +5343,7 @@
       <c r="E46" s="52"/>
     </row>
     <row r="47" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B47" s="238"/>
+      <c r="B47" s="239"/>
       <c r="C47" s="63" t="s">
         <v>135</v>
       </c>
@@ -5263,7 +5353,7 @@
       </c>
     </row>
     <row r="48" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B48" s="238"/>
+      <c r="B48" s="239"/>
       <c r="C48" s="68" t="s">
         <v>137</v>
       </c>
@@ -5271,7 +5361,7 @@
       <c r="E48" s="52"/>
     </row>
     <row r="49" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B49" s="238"/>
+      <c r="B49" s="239"/>
       <c r="C49" s="68" t="s">
         <v>138</v>
       </c>
@@ -5279,13 +5369,13 @@
       <c r="E49" s="52"/>
     </row>
     <row r="50" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B50" s="238"/>
+      <c r="B50" s="239"/>
       <c r="C50" s="63"/>
       <c r="D50" s="51"/>
       <c r="E50" s="52"/>
     </row>
     <row r="51" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B51" s="238"/>
+      <c r="B51" s="239"/>
       <c r="C51" s="50" t="s">
         <v>139</v>
       </c>
@@ -5293,13 +5383,13 @@
       <c r="E51" s="52"/>
     </row>
     <row r="52" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B52" s="238"/>
+      <c r="B52" s="239"/>
       <c r="C52" s="63"/>
       <c r="D52" s="51"/>
       <c r="E52" s="52"/>
     </row>
     <row r="53" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B53" s="238"/>
+      <c r="B53" s="239"/>
       <c r="C53" s="63" t="s">
         <v>140</v>
       </c>
@@ -5309,7 +5399,7 @@
       </c>
     </row>
     <row r="54" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B54" s="238"/>
+      <c r="B54" s="239"/>
       <c r="C54" s="63" t="s">
         <v>142</v>
       </c>
@@ -5317,7 +5407,7 @@
       <c r="E54" s="52"/>
     </row>
     <row r="55" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B55" s="238"/>
+      <c r="B55" s="239"/>
       <c r="C55" s="63" t="s">
         <v>143</v>
       </c>
@@ -5325,7 +5415,7 @@
       <c r="E55" s="52"/>
     </row>
     <row r="56" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B56" s="238"/>
+      <c r="B56" s="239"/>
       <c r="C56" s="63" t="s">
         <v>144</v>
       </c>
@@ -5333,7 +5423,7 @@
       <c r="E56" s="52"/>
     </row>
     <row r="57" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B57" s="238"/>
+      <c r="B57" s="239"/>
       <c r="C57" s="63" t="s">
         <v>145</v>
       </c>
@@ -5341,7 +5431,7 @@
       <c r="E57" s="52"/>
     </row>
     <row r="58" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B58" s="238"/>
+      <c r="B58" s="239"/>
       <c r="C58" s="63" t="s">
         <v>146</v>
       </c>
@@ -5351,7 +5441,7 @@
       <c r="E58" s="52"/>
     </row>
     <row r="59" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B59" s="238"/>
+      <c r="B59" s="239"/>
       <c r="C59" s="63" t="s">
         <v>138</v>
       </c>
@@ -5361,7 +5451,7 @@
       <c r="E59" s="52"/>
     </row>
     <row r="60" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B60" s="238"/>
+      <c r="B60" s="239"/>
       <c r="C60" s="63" t="s">
         <v>149</v>
       </c>
@@ -5369,7 +5459,7 @@
       <c r="E60" s="52"/>
     </row>
     <row r="61" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B61" s="238"/>
+      <c r="B61" s="239"/>
       <c r="C61" s="63" t="s">
         <v>150</v>
       </c>
@@ -5379,7 +5469,7 @@
       </c>
     </row>
     <row r="62" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B62" s="238"/>
+      <c r="B62" s="239"/>
       <c r="C62" s="63" t="s">
         <v>152</v>
       </c>
@@ -5387,13 +5477,13 @@
       <c r="E62" s="52"/>
     </row>
     <row r="63" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B63" s="238"/>
+      <c r="B63" s="239"/>
       <c r="C63" s="63"/>
       <c r="D63" s="51"/>
       <c r="E63" s="52"/>
     </row>
     <row r="64" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B64" s="238"/>
+      <c r="B64" s="239"/>
       <c r="C64" s="50" t="s">
         <v>153</v>
       </c>
@@ -5401,13 +5491,13 @@
       <c r="E64" s="52"/>
     </row>
     <row r="65" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B65" s="238"/>
+      <c r="B65" s="239"/>
       <c r="C65" s="63"/>
       <c r="D65" s="51"/>
       <c r="E65" s="52"/>
     </row>
     <row r="66" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B66" s="238"/>
+      <c r="B66" s="239"/>
       <c r="C66" s="63" t="s">
         <v>155</v>
       </c>
@@ -5415,7 +5505,7 @@
       <c r="E66" s="52"/>
     </row>
     <row r="67" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B67" s="238"/>
+      <c r="B67" s="239"/>
       <c r="C67" s="63" t="s">
         <v>156</v>
       </c>
@@ -5423,7 +5513,7 @@
       <c r="E67" s="52"/>
     </row>
     <row r="68" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B68" s="238"/>
+      <c r="B68" s="239"/>
       <c r="C68" s="63" t="s">
         <v>154</v>
       </c>
@@ -5431,7 +5521,7 @@
       <c r="E68" s="52"/>
     </row>
     <row r="69" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B69" s="238"/>
+      <c r="B69" s="239"/>
       <c r="C69" s="63" t="s">
         <v>157</v>
       </c>
@@ -5439,25 +5529,25 @@
       <c r="E69" s="52"/>
     </row>
     <row r="70" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B70" s="238"/>
+      <c r="B70" s="239"/>
       <c r="C70" s="63"/>
       <c r="D70" s="51"/>
       <c r="E70" s="52"/>
     </row>
     <row r="71" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B71" s="238"/>
+      <c r="B71" s="239"/>
       <c r="C71" s="63"/>
       <c r="D71" s="51"/>
       <c r="E71" s="52"/>
     </row>
     <row r="72" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B72" s="239"/>
+      <c r="B72" s="240"/>
       <c r="C72" s="54"/>
       <c r="D72" s="55"/>
       <c r="E72" s="56"/>
     </row>
     <row r="73" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B73" s="236" t="s">
+      <c r="B73" s="237" t="s">
         <v>61</v>
       </c>
       <c r="C73" s="63"/>
@@ -5469,7 +5559,7 @@
       </c>
     </row>
     <row r="74" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B74" s="238"/>
+      <c r="B74" s="239"/>
       <c r="C74" s="63" t="s">
         <v>188</v>
       </c>
@@ -5481,7 +5571,7 @@
       </c>
     </row>
     <row r="75" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B75" s="238"/>
+      <c r="B75" s="239"/>
       <c r="C75" s="53"/>
       <c r="D75" s="64" t="s">
         <v>162</v>
@@ -5491,7 +5581,7 @@
       </c>
     </row>
     <row r="76" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B76" s="238"/>
+      <c r="B76" s="239"/>
       <c r="C76" s="53"/>
       <c r="D76" s="51" t="s">
         <v>102</v>
@@ -5501,7 +5591,7 @@
       </c>
     </row>
     <row r="77" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B77" s="238"/>
+      <c r="B77" s="239"/>
       <c r="C77" s="53"/>
       <c r="D77" s="51" t="s">
         <v>103</v>
@@ -5511,7 +5601,7 @@
       </c>
     </row>
     <row r="78" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B78" s="238"/>
+      <c r="B78" s="239"/>
       <c r="C78" s="53"/>
       <c r="D78" s="64" t="s">
         <v>106</v>
@@ -5521,7 +5611,7 @@
       </c>
     </row>
     <row r="79" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B79" s="238"/>
+      <c r="B79" s="239"/>
       <c r="C79" s="53"/>
       <c r="D79" s="64" t="s">
         <v>179</v>
@@ -5531,7 +5621,7 @@
       </c>
     </row>
     <row r="80" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B80" s="238"/>
+      <c r="B80" s="239"/>
       <c r="C80" s="53"/>
       <c r="D80" s="64" t="s">
         <v>158</v>
@@ -5541,7 +5631,7 @@
       </c>
     </row>
     <row r="81" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B81" s="238"/>
+      <c r="B81" s="239"/>
       <c r="C81" s="53"/>
       <c r="D81" s="64" t="s">
         <v>159</v>
@@ -5551,7 +5641,7 @@
       </c>
     </row>
     <row r="82" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B82" s="238"/>
+      <c r="B82" s="239"/>
       <c r="C82" s="53"/>
       <c r="D82" s="64" t="s">
         <v>160</v>
@@ -5561,7 +5651,7 @@
       </c>
     </row>
     <row r="83" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B83" s="238"/>
+      <c r="B83" s="239"/>
       <c r="C83" s="63"/>
       <c r="D83" s="64" t="s">
         <v>180</v>
@@ -5571,7 +5661,7 @@
       </c>
     </row>
     <row r="84" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B84" s="238"/>
+      <c r="B84" s="239"/>
       <c r="C84" s="63"/>
       <c r="D84" s="64" t="s">
         <v>181</v>
@@ -5581,7 +5671,7 @@
       </c>
     </row>
     <row r="85" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B85" s="238"/>
+      <c r="B85" s="239"/>
       <c r="C85" s="53"/>
       <c r="D85" s="64" t="s">
         <v>182</v>
@@ -5591,7 +5681,7 @@
       </c>
     </row>
     <row r="86" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B86" s="238"/>
+      <c r="B86" s="239"/>
       <c r="C86" s="53"/>
       <c r="D86" s="64" t="s">
         <v>184</v>
@@ -5601,7 +5691,7 @@
       </c>
     </row>
     <row r="87" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B87" s="238"/>
+      <c r="B87" s="239"/>
       <c r="C87" s="53"/>
       <c r="D87" s="64" t="s">
         <v>193</v>
@@ -5611,7 +5701,7 @@
       </c>
     </row>
     <row r="88" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B88" s="238"/>
+      <c r="B88" s="239"/>
       <c r="C88" s="53"/>
       <c r="D88" s="64" t="s">
         <v>194</v>
@@ -5621,13 +5711,13 @@
       </c>
     </row>
     <row r="89" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B89" s="239"/>
+      <c r="B89" s="240"/>
       <c r="C89" s="54"/>
       <c r="D89" s="55"/>
       <c r="E89" s="56"/>
     </row>
     <row r="90" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B90" s="236" t="s">
+      <c r="B90" s="237" t="s">
         <v>62</v>
       </c>
       <c r="C90" s="57"/>
@@ -5635,7 +5725,7 @@
       <c r="E90" s="59"/>
     </row>
     <row r="91" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B91" s="238"/>
+      <c r="B91" s="239"/>
       <c r="C91" s="63" t="s">
         <v>189</v>
       </c>
@@ -5643,7 +5733,7 @@
       <c r="E91" s="52"/>
     </row>
     <row r="92" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B92" s="238"/>
+      <c r="B92" s="239"/>
       <c r="C92" s="63" t="s">
         <v>190</v>
       </c>
@@ -5651,7 +5741,7 @@
       <c r="E92" s="52"/>
     </row>
     <row r="93" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B93" s="238"/>
+      <c r="B93" s="239"/>
       <c r="C93" s="53" t="s">
         <v>191</v>
       </c>
@@ -5659,37 +5749,37 @@
       <c r="E93" s="52"/>
     </row>
     <row r="94" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B94" s="238"/>
+      <c r="B94" s="239"/>
       <c r="C94" s="53"/>
       <c r="D94" s="51"/>
       <c r="E94" s="52"/>
     </row>
     <row r="95" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B95" s="238"/>
+      <c r="B95" s="239"/>
       <c r="C95" s="53"/>
       <c r="D95" s="51"/>
       <c r="E95" s="52"/>
     </row>
     <row r="96" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B96" s="238"/>
+      <c r="B96" s="239"/>
       <c r="C96" s="53"/>
       <c r="D96" s="51"/>
       <c r="E96" s="52"/>
     </row>
     <row r="97" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B97" s="238"/>
+      <c r="B97" s="239"/>
       <c r="C97" s="53"/>
       <c r="D97" s="51"/>
       <c r="E97" s="52"/>
     </row>
     <row r="98" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B98" s="238"/>
+      <c r="B98" s="239"/>
       <c r="C98" s="53"/>
       <c r="D98" s="51"/>
       <c r="E98" s="52"/>
     </row>
     <row r="99" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B99" s="239"/>
+      <c r="B99" s="240"/>
       <c r="C99" s="60"/>
       <c r="D99" s="61"/>
       <c r="E99" s="62"/>
@@ -5752,11 +5842,11 @@
         <v>476</v>
       </c>
       <c r="C3" s="106"/>
-      <c r="D3" s="240" t="s">
+      <c r="D3" s="241" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="241"/>
-      <c r="F3" s="242"/>
+      <c r="E3" s="242"/>
+      <c r="F3" s="243"/>
       <c r="H3" s="75"/>
     </row>
     <row r="4" spans="1:8" s="76" customFormat="1" ht="30.75" customHeight="1">
@@ -5764,11 +5854,11 @@
         <v>477</v>
       </c>
       <c r="C4" s="106"/>
-      <c r="D4" s="243" t="s">
+      <c r="D4" s="244" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="241"/>
-      <c r="F4" s="242"/>
+      <c r="E4" s="242"/>
+      <c r="F4" s="243"/>
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1">
       <c r="A5" s="156" t="s">
@@ -7232,16 +7322,16 @@
       <c r="W10" s="29"/>
     </row>
     <row r="11" spans="1:107" thickBot="1">
-      <c r="G11" s="270" t="s">
+      <c r="G11" s="251" t="s">
         <v>324</v>
       </c>
-      <c r="H11" s="271"/>
-      <c r="I11" s="271"/>
-      <c r="J11" s="271"/>
-      <c r="K11" s="271"/>
-      <c r="L11" s="271"/>
-      <c r="M11" s="271"/>
-      <c r="N11" s="272"/>
+      <c r="H11" s="252"/>
+      <c r="I11" s="252"/>
+      <c r="J11" s="252"/>
+      <c r="K11" s="252"/>
+      <c r="L11" s="252"/>
+      <c r="M11" s="252"/>
+      <c r="N11" s="253"/>
       <c r="O11" s="48"/>
       <c r="P11" s="39"/>
       <c r="Q11" s="39"/>
@@ -7279,66 +7369,66 @@
       <c r="AW11" s="47"/>
       <c r="AX11" s="113"/>
       <c r="AY11" s="115"/>
-      <c r="BD11" s="270" t="s">
+      <c r="BD11" s="251" t="s">
         <v>324</v>
       </c>
-      <c r="BE11" s="271"/>
-      <c r="BF11" s="271"/>
-      <c r="BG11" s="271"/>
-      <c r="BH11" s="271"/>
-      <c r="BI11" s="271"/>
-      <c r="BJ11" s="271"/>
-      <c r="BK11" s="272"/>
-      <c r="BP11" s="270" t="s">
+      <c r="BE11" s="252"/>
+      <c r="BF11" s="252"/>
+      <c r="BG11" s="252"/>
+      <c r="BH11" s="252"/>
+      <c r="BI11" s="252"/>
+      <c r="BJ11" s="252"/>
+      <c r="BK11" s="253"/>
+      <c r="BP11" s="251" t="s">
         <v>324</v>
       </c>
-      <c r="BQ11" s="271"/>
-      <c r="BR11" s="271"/>
-      <c r="BS11" s="271"/>
-      <c r="BT11" s="271"/>
-      <c r="BU11" s="271"/>
-      <c r="BV11" s="271"/>
-      <c r="BW11" s="272"/>
-      <c r="CA11" s="270" t="s">
+      <c r="BQ11" s="252"/>
+      <c r="BR11" s="252"/>
+      <c r="BS11" s="252"/>
+      <c r="BT11" s="252"/>
+      <c r="BU11" s="252"/>
+      <c r="BV11" s="252"/>
+      <c r="BW11" s="253"/>
+      <c r="CA11" s="251" t="s">
         <v>324</v>
       </c>
-      <c r="CB11" s="271"/>
-      <c r="CC11" s="271"/>
-      <c r="CD11" s="271"/>
-      <c r="CE11" s="271"/>
-      <c r="CF11" s="271"/>
-      <c r="CG11" s="271"/>
-      <c r="CH11" s="272"/>
-      <c r="CL11" s="270" t="s">
+      <c r="CB11" s="252"/>
+      <c r="CC11" s="252"/>
+      <c r="CD11" s="252"/>
+      <c r="CE11" s="252"/>
+      <c r="CF11" s="252"/>
+      <c r="CG11" s="252"/>
+      <c r="CH11" s="253"/>
+      <c r="CL11" s="251" t="s">
         <v>324</v>
       </c>
-      <c r="CM11" s="271"/>
-      <c r="CN11" s="271"/>
-      <c r="CO11" s="271"/>
-      <c r="CP11" s="271"/>
-      <c r="CQ11" s="271"/>
-      <c r="CR11" s="271"/>
-      <c r="CS11" s="272"/>
-      <c r="CV11" s="270" t="s">
+      <c r="CM11" s="252"/>
+      <c r="CN11" s="252"/>
+      <c r="CO11" s="252"/>
+      <c r="CP11" s="252"/>
+      <c r="CQ11" s="252"/>
+      <c r="CR11" s="252"/>
+      <c r="CS11" s="253"/>
+      <c r="CV11" s="251" t="s">
         <v>324</v>
       </c>
-      <c r="CW11" s="271"/>
-      <c r="CX11" s="271"/>
-      <c r="CY11" s="271"/>
-      <c r="CZ11" s="271"/>
-      <c r="DA11" s="271"/>
-      <c r="DB11" s="271"/>
-      <c r="DC11" s="272"/>
+      <c r="CW11" s="252"/>
+      <c r="CX11" s="252"/>
+      <c r="CY11" s="252"/>
+      <c r="CZ11" s="252"/>
+      <c r="DA11" s="252"/>
+      <c r="DB11" s="252"/>
+      <c r="DC11" s="253"/>
     </row>
     <row r="12" spans="1:107" thickBot="1">
-      <c r="G12" s="273"/>
-      <c r="H12" s="274"/>
-      <c r="I12" s="274"/>
-      <c r="J12" s="274"/>
-      <c r="K12" s="274"/>
-      <c r="L12" s="274"/>
-      <c r="M12" s="274"/>
-      <c r="N12" s="275"/>
+      <c r="G12" s="254"/>
+      <c r="H12" s="255"/>
+      <c r="I12" s="255"/>
+      <c r="J12" s="255"/>
+      <c r="K12" s="255"/>
+      <c r="L12" s="255"/>
+      <c r="M12" s="255"/>
+      <c r="N12" s="256"/>
       <c r="O12" s="40"/>
       <c r="P12" s="29"/>
       <c r="Q12" s="29"/>
@@ -7349,49 +7439,49 @@
       <c r="V12" s="29"/>
       <c r="W12" s="29"/>
       <c r="AX12" s="42"/>
-      <c r="AY12" s="279" t="s">
+      <c r="AY12" s="248" t="s">
         <v>323</v>
       </c>
-      <c r="BD12" s="273"/>
-      <c r="BE12" s="274"/>
-      <c r="BF12" s="274"/>
-      <c r="BG12" s="274"/>
-      <c r="BH12" s="274"/>
-      <c r="BI12" s="274"/>
-      <c r="BJ12" s="274"/>
-      <c r="BK12" s="275"/>
-      <c r="BP12" s="273"/>
-      <c r="BQ12" s="274"/>
-      <c r="BR12" s="274"/>
-      <c r="BS12" s="274"/>
-      <c r="BT12" s="274"/>
-      <c r="BU12" s="274"/>
-      <c r="BV12" s="274"/>
-      <c r="BW12" s="275"/>
-      <c r="CA12" s="273"/>
-      <c r="CB12" s="274"/>
-      <c r="CC12" s="274"/>
-      <c r="CD12" s="274"/>
-      <c r="CE12" s="274"/>
-      <c r="CF12" s="274"/>
-      <c r="CG12" s="274"/>
-      <c r="CH12" s="275"/>
-      <c r="CL12" s="273"/>
-      <c r="CM12" s="274"/>
-      <c r="CN12" s="274"/>
-      <c r="CO12" s="274"/>
-      <c r="CP12" s="274"/>
-      <c r="CQ12" s="274"/>
-      <c r="CR12" s="274"/>
-      <c r="CS12" s="275"/>
-      <c r="CV12" s="273"/>
-      <c r="CW12" s="274"/>
-      <c r="CX12" s="274"/>
-      <c r="CY12" s="274"/>
-      <c r="CZ12" s="274"/>
-      <c r="DA12" s="274"/>
-      <c r="DB12" s="274"/>
-      <c r="DC12" s="275"/>
+      <c r="BD12" s="254"/>
+      <c r="BE12" s="255"/>
+      <c r="BF12" s="255"/>
+      <c r="BG12" s="255"/>
+      <c r="BH12" s="255"/>
+      <c r="BI12" s="255"/>
+      <c r="BJ12" s="255"/>
+      <c r="BK12" s="256"/>
+      <c r="BP12" s="254"/>
+      <c r="BQ12" s="255"/>
+      <c r="BR12" s="255"/>
+      <c r="BS12" s="255"/>
+      <c r="BT12" s="255"/>
+      <c r="BU12" s="255"/>
+      <c r="BV12" s="255"/>
+      <c r="BW12" s="256"/>
+      <c r="CA12" s="254"/>
+      <c r="CB12" s="255"/>
+      <c r="CC12" s="255"/>
+      <c r="CD12" s="255"/>
+      <c r="CE12" s="255"/>
+      <c r="CF12" s="255"/>
+      <c r="CG12" s="255"/>
+      <c r="CH12" s="256"/>
+      <c r="CL12" s="254"/>
+      <c r="CM12" s="255"/>
+      <c r="CN12" s="255"/>
+      <c r="CO12" s="255"/>
+      <c r="CP12" s="255"/>
+      <c r="CQ12" s="255"/>
+      <c r="CR12" s="255"/>
+      <c r="CS12" s="256"/>
+      <c r="CV12" s="254"/>
+      <c r="CW12" s="255"/>
+      <c r="CX12" s="255"/>
+      <c r="CY12" s="255"/>
+      <c r="CZ12" s="255"/>
+      <c r="DA12" s="255"/>
+      <c r="DB12" s="255"/>
+      <c r="DC12" s="256"/>
     </row>
     <row r="13" spans="1:107" thickBot="1">
       <c r="G13" s="40"/>
@@ -7410,7 +7500,7 @@
       <c r="V13" s="29"/>
       <c r="W13" s="29"/>
       <c r="AX13" s="42"/>
-      <c r="AY13" s="280"/>
+      <c r="AY13" s="249"/>
       <c r="BD13" s="40"/>
       <c r="BG13" s="29"/>
       <c r="BH13" s="29"/>
@@ -7435,16 +7525,16 @@
       <c r="DC13" s="42"/>
     </row>
     <row r="14" spans="1:107" thickBot="1">
-      <c r="G14" s="276" t="s">
+      <c r="G14" s="257" t="s">
         <v>325</v>
       </c>
-      <c r="H14" s="277"/>
-      <c r="I14" s="277"/>
-      <c r="J14" s="277"/>
-      <c r="K14" s="277"/>
-      <c r="L14" s="277"/>
-      <c r="M14" s="277"/>
-      <c r="N14" s="278"/>
+      <c r="H14" s="258"/>
+      <c r="I14" s="258"/>
+      <c r="J14" s="258"/>
+      <c r="K14" s="258"/>
+      <c r="L14" s="258"/>
+      <c r="M14" s="258"/>
+      <c r="N14" s="259"/>
       <c r="O14" s="40"/>
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
@@ -7455,57 +7545,57 @@
       <c r="V14" s="29"/>
       <c r="W14" s="29"/>
       <c r="AX14" s="42"/>
-      <c r="AY14" s="280"/>
-      <c r="BD14" s="276" t="s">
+      <c r="AY14" s="249"/>
+      <c r="BD14" s="257" t="s">
         <v>338</v>
       </c>
-      <c r="BE14" s="277"/>
-      <c r="BF14" s="277"/>
-      <c r="BG14" s="277"/>
-      <c r="BH14" s="277"/>
-      <c r="BI14" s="277"/>
-      <c r="BJ14" s="277"/>
-      <c r="BK14" s="278"/>
-      <c r="BP14" s="276" t="s">
+      <c r="BE14" s="258"/>
+      <c r="BF14" s="258"/>
+      <c r="BG14" s="258"/>
+      <c r="BH14" s="258"/>
+      <c r="BI14" s="258"/>
+      <c r="BJ14" s="258"/>
+      <c r="BK14" s="259"/>
+      <c r="BP14" s="257" t="s">
         <v>327</v>
       </c>
-      <c r="BQ14" s="277"/>
-      <c r="BR14" s="277"/>
-      <c r="BS14" s="277"/>
-      <c r="BT14" s="277"/>
-      <c r="BU14" s="277"/>
-      <c r="BV14" s="277"/>
-      <c r="BW14" s="278"/>
-      <c r="CA14" s="276" t="s">
+      <c r="BQ14" s="258"/>
+      <c r="BR14" s="258"/>
+      <c r="BS14" s="258"/>
+      <c r="BT14" s="258"/>
+      <c r="BU14" s="258"/>
+      <c r="BV14" s="258"/>
+      <c r="BW14" s="259"/>
+      <c r="CA14" s="257" t="s">
         <v>326</v>
       </c>
-      <c r="CB14" s="277"/>
-      <c r="CC14" s="277"/>
-      <c r="CD14" s="277"/>
-      <c r="CE14" s="277"/>
-      <c r="CF14" s="277"/>
-      <c r="CG14" s="277"/>
-      <c r="CH14" s="278"/>
-      <c r="CL14" s="276" t="s">
+      <c r="CB14" s="258"/>
+      <c r="CC14" s="258"/>
+      <c r="CD14" s="258"/>
+      <c r="CE14" s="258"/>
+      <c r="CF14" s="258"/>
+      <c r="CG14" s="258"/>
+      <c r="CH14" s="259"/>
+      <c r="CL14" s="257" t="s">
         <v>329</v>
       </c>
-      <c r="CM14" s="277"/>
-      <c r="CN14" s="277"/>
-      <c r="CO14" s="277"/>
-      <c r="CP14" s="277"/>
-      <c r="CQ14" s="277"/>
-      <c r="CR14" s="277"/>
-      <c r="CS14" s="278"/>
-      <c r="CV14" s="276" t="s">
+      <c r="CM14" s="258"/>
+      <c r="CN14" s="258"/>
+      <c r="CO14" s="258"/>
+      <c r="CP14" s="258"/>
+      <c r="CQ14" s="258"/>
+      <c r="CR14" s="258"/>
+      <c r="CS14" s="259"/>
+      <c r="CV14" s="257" t="s">
         <v>328</v>
       </c>
-      <c r="CW14" s="277"/>
-      <c r="CX14" s="277"/>
-      <c r="CY14" s="277"/>
-      <c r="CZ14" s="277"/>
-      <c r="DA14" s="277"/>
-      <c r="DB14" s="277"/>
-      <c r="DC14" s="278"/>
+      <c r="CW14" s="258"/>
+      <c r="CX14" s="258"/>
+      <c r="CY14" s="258"/>
+      <c r="CZ14" s="258"/>
+      <c r="DA14" s="258"/>
+      <c r="DB14" s="258"/>
+      <c r="DC14" s="259"/>
     </row>
     <row r="15" spans="1:107" thickBot="1">
       <c r="G15" s="117"/>
@@ -7526,7 +7616,7 @@
       <c r="V15" s="29"/>
       <c r="W15" s="29"/>
       <c r="AX15" s="42"/>
-      <c r="AY15" s="280"/>
+      <c r="AY15" s="249"/>
       <c r="BD15" s="117"/>
       <c r="BE15" s="116"/>
       <c r="BF15" s="114"/>
@@ -7587,7 +7677,7 @@
       <c r="V16" s="29"/>
       <c r="W16" s="29"/>
       <c r="AX16" s="42"/>
-      <c r="AY16" s="280"/>
+      <c r="AY16" s="249"/>
       <c r="BD16" s="40"/>
       <c r="BE16" s="29"/>
       <c r="BF16" s="29"/>
@@ -7639,16 +7729,16 @@
       <c r="M17" s="29"/>
       <c r="N17" s="29"/>
       <c r="O17" s="40"/>
-      <c r="P17" s="282"/>
-      <c r="Q17" s="235"/>
-      <c r="R17" s="235"/>
+      <c r="P17" s="260"/>
+      <c r="Q17" s="236"/>
+      <c r="R17" s="236"/>
       <c r="S17" s="29"/>
-      <c r="T17" s="282"/>
-      <c r="U17" s="235"/>
-      <c r="V17" s="235"/>
-      <c r="W17" s="235"/>
+      <c r="T17" s="260"/>
+      <c r="U17" s="236"/>
+      <c r="V17" s="236"/>
+      <c r="W17" s="236"/>
       <c r="AX17" s="42"/>
-      <c r="AY17" s="280"/>
+      <c r="AY17" s="249"/>
       <c r="BD17" s="40"/>
       <c r="BE17" s="29"/>
       <c r="BF17" s="29"/>
@@ -7666,14 +7756,14 @@
       <c r="BV17" s="29"/>
       <c r="BW17" s="46"/>
       <c r="CA17" s="40"/>
-      <c r="CB17" s="244" t="s">
+      <c r="CB17" s="261" t="s">
         <v>349</v>
       </c>
-      <c r="CC17" s="247"/>
-      <c r="CD17" s="247"/>
-      <c r="CE17" s="247"/>
-      <c r="CF17" s="247"/>
-      <c r="CG17" s="248"/>
+      <c r="CC17" s="246"/>
+      <c r="CD17" s="246"/>
+      <c r="CE17" s="246"/>
+      <c r="CF17" s="246"/>
+      <c r="CG17" s="247"/>
       <c r="CH17" s="46"/>
       <c r="CL17" s="40"/>
       <c r="CM17" s="29"/>
@@ -7696,96 +7786,96 @@
       <c r="G18" s="41"/>
       <c r="O18" s="41"/>
       <c r="AX18" s="42"/>
-      <c r="AY18" s="280"/>
+      <c r="AY18" s="249"/>
       <c r="BD18" s="41"/>
-      <c r="BE18" s="258" t="s">
+      <c r="BE18" s="245" t="s">
         <v>335</v>
       </c>
-      <c r="BF18" s="247"/>
-      <c r="BG18" s="247"/>
-      <c r="BH18" s="247"/>
-      <c r="BI18" s="247"/>
-      <c r="BJ18" s="248"/>
+      <c r="BF18" s="246"/>
+      <c r="BG18" s="246"/>
+      <c r="BH18" s="246"/>
+      <c r="BI18" s="246"/>
+      <c r="BJ18" s="247"/>
       <c r="BK18" s="42"/>
       <c r="BP18" s="41"/>
-      <c r="BQ18" s="258" t="s">
+      <c r="BQ18" s="245" t="s">
         <v>331</v>
       </c>
-      <c r="BR18" s="247"/>
-      <c r="BS18" s="247"/>
-      <c r="BT18" s="247"/>
-      <c r="BU18" s="247"/>
-      <c r="BV18" s="248"/>
+      <c r="BR18" s="246"/>
+      <c r="BS18" s="246"/>
+      <c r="BT18" s="246"/>
+      <c r="BU18" s="246"/>
+      <c r="BV18" s="247"/>
       <c r="BW18" s="42"/>
       <c r="CA18" s="41"/>
-      <c r="CB18" s="259" t="s">
+      <c r="CB18" s="262" t="s">
         <v>342</v>
       </c>
-      <c r="CC18" s="260"/>
-      <c r="CD18" s="258"/>
-      <c r="CE18" s="248"/>
-      <c r="CF18" s="259" t="s">
+      <c r="CC18" s="263"/>
+      <c r="CD18" s="245"/>
+      <c r="CE18" s="247"/>
+      <c r="CF18" s="262" t="s">
         <v>341</v>
       </c>
-      <c r="CG18" s="260"/>
+      <c r="CG18" s="263"/>
       <c r="CH18" s="42"/>
       <c r="CL18" s="41"/>
-      <c r="CM18" s="244" t="s">
+      <c r="CM18" s="261" t="s">
         <v>354</v>
       </c>
-      <c r="CN18" s="247"/>
-      <c r="CO18" s="247"/>
-      <c r="CP18" s="247"/>
-      <c r="CQ18" s="247"/>
-      <c r="CR18" s="248"/>
+      <c r="CN18" s="246"/>
+      <c r="CO18" s="246"/>
+      <c r="CP18" s="246"/>
+      <c r="CQ18" s="246"/>
+      <c r="CR18" s="247"/>
       <c r="CS18" s="42"/>
       <c r="CV18" s="41"/>
-      <c r="CW18" s="244" t="s">
+      <c r="CW18" s="261" t="s">
         <v>359</v>
       </c>
-      <c r="CX18" s="247"/>
-      <c r="CY18" s="247"/>
-      <c r="CZ18" s="247"/>
-      <c r="DA18" s="247"/>
-      <c r="DB18" s="248"/>
+      <c r="CX18" s="246"/>
+      <c r="CY18" s="246"/>
+      <c r="CZ18" s="246"/>
+      <c r="DA18" s="246"/>
+      <c r="DB18" s="247"/>
       <c r="DC18" s="42"/>
     </row>
     <row r="19" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G19" s="41"/>
       <c r="O19" s="41"/>
       <c r="AX19" s="42"/>
-      <c r="AY19" s="280"/>
+      <c r="AY19" s="249"/>
       <c r="BD19" s="41"/>
-      <c r="BE19" s="258" t="s">
+      <c r="BE19" s="245" t="s">
         <v>336</v>
       </c>
-      <c r="BF19" s="247"/>
-      <c r="BG19" s="247"/>
-      <c r="BH19" s="247"/>
-      <c r="BI19" s="247"/>
-      <c r="BJ19" s="248"/>
+      <c r="BF19" s="246"/>
+      <c r="BG19" s="246"/>
+      <c r="BH19" s="246"/>
+      <c r="BI19" s="246"/>
+      <c r="BJ19" s="247"/>
       <c r="BK19" s="42"/>
       <c r="BP19" s="41"/>
-      <c r="BQ19" s="258" t="s">
+      <c r="BQ19" s="245" t="s">
         <v>330</v>
       </c>
-      <c r="BR19" s="247"/>
-      <c r="BS19" s="247"/>
-      <c r="BT19" s="247"/>
-      <c r="BU19" s="247"/>
-      <c r="BV19" s="248"/>
+      <c r="BR19" s="246"/>
+      <c r="BS19" s="246"/>
+      <c r="BT19" s="246"/>
+      <c r="BU19" s="246"/>
+      <c r="BV19" s="247"/>
       <c r="BW19" s="42"/>
       <c r="CA19" s="41"/>
       <c r="CH19" s="42"/>
       <c r="CL19" s="41"/>
-      <c r="CM19" s="244" t="s">
+      <c r="CM19" s="261" t="s">
         <v>355</v>
       </c>
-      <c r="CN19" s="247"/>
-      <c r="CO19" s="247"/>
-      <c r="CP19" s="247"/>
-      <c r="CQ19" s="247"/>
-      <c r="CR19" s="248"/>
+      <c r="CN19" s="246"/>
+      <c r="CO19" s="246"/>
+      <c r="CP19" s="246"/>
+      <c r="CQ19" s="246"/>
+      <c r="CR19" s="247"/>
       <c r="CS19" s="42"/>
       <c r="CV19" s="41"/>
       <c r="DC19" s="42"/>
@@ -7794,114 +7884,114 @@
       <c r="G20" s="41"/>
       <c r="O20" s="41"/>
       <c r="AX20" s="42"/>
-      <c r="AY20" s="280"/>
+      <c r="AY20" s="249"/>
       <c r="BD20" s="41"/>
       <c r="BK20" s="42"/>
       <c r="BP20" s="41"/>
       <c r="BW20" s="42"/>
       <c r="CA20" s="41"/>
-      <c r="CB20" s="244" t="s">
+      <c r="CB20" s="261" t="s">
         <v>350</v>
       </c>
-      <c r="CC20" s="247"/>
-      <c r="CD20" s="247"/>
-      <c r="CE20" s="247"/>
-      <c r="CF20" s="247"/>
-      <c r="CG20" s="248"/>
+      <c r="CC20" s="246"/>
+      <c r="CD20" s="246"/>
+      <c r="CE20" s="246"/>
+      <c r="CF20" s="246"/>
+      <c r="CG20" s="247"/>
       <c r="CH20" s="42"/>
       <c r="CL20" s="41"/>
       <c r="CS20" s="42"/>
       <c r="CV20" s="41"/>
-      <c r="CW20" s="244" t="s">
+      <c r="CW20" s="261" t="s">
         <v>360</v>
       </c>
-      <c r="CX20" s="247"/>
-      <c r="CY20" s="247"/>
-      <c r="CZ20" s="247"/>
-      <c r="DA20" s="247"/>
-      <c r="DB20" s="248"/>
+      <c r="CX20" s="246"/>
+      <c r="CY20" s="246"/>
+      <c r="CZ20" s="246"/>
+      <c r="DA20" s="246"/>
+      <c r="DB20" s="247"/>
       <c r="DC20" s="42"/>
     </row>
     <row r="21" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G21" s="41"/>
       <c r="O21" s="41"/>
       <c r="AX21" s="42"/>
-      <c r="AY21" s="280"/>
+      <c r="AY21" s="249"/>
       <c r="BD21" s="41"/>
-      <c r="BE21" s="258" t="s">
+      <c r="BE21" s="245" t="s">
         <v>337</v>
       </c>
-      <c r="BF21" s="247"/>
-      <c r="BG21" s="247"/>
-      <c r="BH21" s="247"/>
-      <c r="BI21" s="247"/>
-      <c r="BJ21" s="248"/>
+      <c r="BF21" s="246"/>
+      <c r="BG21" s="246"/>
+      <c r="BH21" s="246"/>
+      <c r="BI21" s="246"/>
+      <c r="BJ21" s="247"/>
       <c r="BK21" s="42"/>
       <c r="BP21" s="41"/>
-      <c r="BQ21" s="258" t="s">
+      <c r="BQ21" s="245" t="s">
         <v>332</v>
       </c>
-      <c r="BR21" s="247"/>
-      <c r="BS21" s="247"/>
-      <c r="BT21" s="247"/>
-      <c r="BU21" s="247"/>
-      <c r="BV21" s="248"/>
+      <c r="BR21" s="246"/>
+      <c r="BS21" s="246"/>
+      <c r="BT21" s="246"/>
+      <c r="BU21" s="246"/>
+      <c r="BV21" s="247"/>
       <c r="BW21" s="42"/>
       <c r="CA21" s="41"/>
-      <c r="CB21" s="244" t="s">
+      <c r="CB21" s="261" t="s">
         <v>336</v>
       </c>
-      <c r="CC21" s="247"/>
-      <c r="CD21" s="247"/>
-      <c r="CE21" s="247"/>
-      <c r="CF21" s="247"/>
-      <c r="CG21" s="248"/>
+      <c r="CC21" s="246"/>
+      <c r="CD21" s="246"/>
+      <c r="CE21" s="246"/>
+      <c r="CF21" s="246"/>
+      <c r="CG21" s="247"/>
       <c r="CH21" s="42"/>
       <c r="CL21" s="41"/>
-      <c r="CM21" s="244" t="s">
+      <c r="CM21" s="261" t="s">
         <v>356</v>
       </c>
-      <c r="CN21" s="247"/>
-      <c r="CO21" s="247"/>
-      <c r="CP21" s="247"/>
-      <c r="CQ21" s="247"/>
-      <c r="CR21" s="248"/>
+      <c r="CN21" s="246"/>
+      <c r="CO21" s="246"/>
+      <c r="CP21" s="246"/>
+      <c r="CQ21" s="246"/>
+      <c r="CR21" s="247"/>
       <c r="CS21" s="42"/>
       <c r="CV21" s="41"/>
-      <c r="CW21" s="244" t="s">
+      <c r="CW21" s="261" t="s">
         <v>355</v>
       </c>
-      <c r="CX21" s="247"/>
-      <c r="CY21" s="247"/>
-      <c r="CZ21" s="247"/>
-      <c r="DA21" s="247"/>
-      <c r="DB21" s="248"/>
+      <c r="CX21" s="246"/>
+      <c r="CY21" s="246"/>
+      <c r="CZ21" s="246"/>
+      <c r="DA21" s="246"/>
+      <c r="DB21" s="247"/>
       <c r="DC21" s="42"/>
     </row>
     <row r="22" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G22" s="41"/>
       <c r="O22" s="41"/>
       <c r="AX22" s="42"/>
-      <c r="AY22" s="280"/>
+      <c r="AY22" s="249"/>
       <c r="BD22" s="41"/>
-      <c r="BE22" s="258" t="s">
+      <c r="BE22" s="245" t="s">
         <v>336</v>
       </c>
-      <c r="BF22" s="247"/>
-      <c r="BG22" s="247"/>
-      <c r="BH22" s="247"/>
-      <c r="BI22" s="247"/>
-      <c r="BJ22" s="248"/>
+      <c r="BF22" s="246"/>
+      <c r="BG22" s="246"/>
+      <c r="BH22" s="246"/>
+      <c r="BI22" s="246"/>
+      <c r="BJ22" s="247"/>
       <c r="BK22" s="42"/>
       <c r="BP22" s="41"/>
-      <c r="BQ22" s="258" t="s">
+      <c r="BQ22" s="245" t="s">
         <v>330</v>
       </c>
-      <c r="BR22" s="247"/>
-      <c r="BS22" s="247"/>
-      <c r="BT22" s="247"/>
-      <c r="BU22" s="247"/>
-      <c r="BV22" s="248"/>
+      <c r="BR22" s="246"/>
+      <c r="BS22" s="246"/>
+      <c r="BT22" s="246"/>
+      <c r="BU22" s="246"/>
+      <c r="BV22" s="247"/>
       <c r="BW22" s="42"/>
       <c r="CA22" s="41"/>
       <c r="CH22" s="42"/>
@@ -7914,7 +8004,7 @@
       <c r="G23" s="41"/>
       <c r="O23" s="41"/>
       <c r="AX23" s="42"/>
-      <c r="AY23" s="280"/>
+      <c r="AY23" s="249"/>
       <c r="BD23" s="41"/>
       <c r="BK23" s="42"/>
       <c r="BP23" s="41"/>
@@ -7923,57 +8013,57 @@
       <c r="CB23" s="29"/>
       <c r="CC23" s="29"/>
       <c r="CD23" s="29"/>
-      <c r="CE23" s="267" t="s">
+      <c r="CE23" s="272" t="s">
         <v>348</v>
       </c>
-      <c r="CF23" s="268"/>
-      <c r="CG23" s="268"/>
-      <c r="CH23" s="269"/>
+      <c r="CF23" s="273"/>
+      <c r="CG23" s="273"/>
+      <c r="CH23" s="274"/>
       <c r="CL23" s="41"/>
-      <c r="CM23" s="244" t="s">
+      <c r="CM23" s="261" t="s">
         <v>357</v>
       </c>
-      <c r="CN23" s="247"/>
-      <c r="CO23" s="247"/>
-      <c r="CP23" s="247"/>
-      <c r="CQ23" s="247"/>
-      <c r="CR23" s="248"/>
+      <c r="CN23" s="246"/>
+      <c r="CO23" s="246"/>
+      <c r="CP23" s="246"/>
+      <c r="CQ23" s="246"/>
+      <c r="CR23" s="247"/>
       <c r="CS23" s="42"/>
       <c r="CV23" s="41"/>
-      <c r="CW23" s="244" t="s">
+      <c r="CW23" s="261" t="s">
         <v>361</v>
       </c>
-      <c r="CX23" s="247"/>
-      <c r="CY23" s="247"/>
-      <c r="CZ23" s="247"/>
-      <c r="DA23" s="247"/>
-      <c r="DB23" s="248"/>
+      <c r="CX23" s="246"/>
+      <c r="CY23" s="246"/>
+      <c r="CZ23" s="246"/>
+      <c r="DA23" s="246"/>
+      <c r="DB23" s="247"/>
       <c r="DC23" s="42"/>
     </row>
     <row r="24" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G24" s="41"/>
       <c r="O24" s="41"/>
       <c r="AX24" s="42"/>
-      <c r="AY24" s="280"/>
+      <c r="AY24" s="249"/>
       <c r="BD24" s="41"/>
-      <c r="BE24" s="258" t="s">
+      <c r="BE24" s="245" t="s">
         <v>339</v>
       </c>
-      <c r="BF24" s="247"/>
-      <c r="BG24" s="247"/>
-      <c r="BH24" s="247"/>
-      <c r="BI24" s="247"/>
-      <c r="BJ24" s="248"/>
+      <c r="BF24" s="246"/>
+      <c r="BG24" s="246"/>
+      <c r="BH24" s="246"/>
+      <c r="BI24" s="246"/>
+      <c r="BJ24" s="247"/>
       <c r="BK24" s="42"/>
       <c r="BP24" s="41"/>
-      <c r="BQ24" s="258" t="s">
+      <c r="BQ24" s="245" t="s">
         <v>333</v>
       </c>
-      <c r="BR24" s="247"/>
-      <c r="BS24" s="247"/>
-      <c r="BT24" s="247"/>
-      <c r="BU24" s="247"/>
-      <c r="BV24" s="248"/>
+      <c r="BR24" s="246"/>
+      <c r="BS24" s="246"/>
+      <c r="BT24" s="246"/>
+      <c r="BU24" s="246"/>
+      <c r="BV24" s="247"/>
       <c r="BW24" s="42"/>
       <c r="CA24" s="40"/>
       <c r="CB24" s="29"/>
@@ -7984,60 +8074,60 @@
       <c r="CG24" s="29"/>
       <c r="CH24" s="46"/>
       <c r="CL24" s="41"/>
-      <c r="CM24" s="244" t="s">
+      <c r="CM24" s="261" t="s">
         <v>355</v>
       </c>
-      <c r="CN24" s="247"/>
-      <c r="CO24" s="247"/>
-      <c r="CP24" s="247"/>
-      <c r="CQ24" s="247"/>
-      <c r="CR24" s="248"/>
+      <c r="CN24" s="246"/>
+      <c r="CO24" s="246"/>
+      <c r="CP24" s="246"/>
+      <c r="CQ24" s="246"/>
+      <c r="CR24" s="247"/>
       <c r="CS24" s="42"/>
       <c r="CV24" s="41"/>
-      <c r="CW24" s="244" t="s">
+      <c r="CW24" s="261" t="s">
         <v>355</v>
       </c>
-      <c r="CX24" s="247"/>
-      <c r="CY24" s="247"/>
-      <c r="CZ24" s="247"/>
-      <c r="DA24" s="247"/>
-      <c r="DB24" s="248"/>
+      <c r="CX24" s="246"/>
+      <c r="CY24" s="246"/>
+      <c r="CZ24" s="246"/>
+      <c r="DA24" s="246"/>
+      <c r="DB24" s="247"/>
       <c r="DC24" s="42"/>
     </row>
     <row r="25" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G25" s="41"/>
       <c r="O25" s="41"/>
       <c r="AX25" s="42"/>
-      <c r="AY25" s="280"/>
+      <c r="AY25" s="249"/>
       <c r="BD25" s="41"/>
-      <c r="BE25" s="258" t="s">
+      <c r="BE25" s="245" t="s">
         <v>336</v>
       </c>
-      <c r="BF25" s="247"/>
-      <c r="BG25" s="247"/>
-      <c r="BH25" s="247"/>
-      <c r="BI25" s="247"/>
-      <c r="BJ25" s="248"/>
+      <c r="BF25" s="246"/>
+      <c r="BG25" s="246"/>
+      <c r="BH25" s="246"/>
+      <c r="BI25" s="246"/>
+      <c r="BJ25" s="247"/>
       <c r="BK25" s="42"/>
       <c r="BP25" s="41"/>
-      <c r="BQ25" s="258" t="s">
+      <c r="BQ25" s="245" t="s">
         <v>330</v>
       </c>
-      <c r="BR25" s="247"/>
-      <c r="BS25" s="247"/>
-      <c r="BT25" s="247"/>
-      <c r="BU25" s="247"/>
-      <c r="BV25" s="248"/>
+      <c r="BR25" s="246"/>
+      <c r="BS25" s="246"/>
+      <c r="BT25" s="246"/>
+      <c r="BU25" s="246"/>
+      <c r="BV25" s="247"/>
       <c r="BW25" s="42"/>
       <c r="CA25" s="41"/>
-      <c r="CB25" s="244" t="s">
+      <c r="CB25" s="261" t="s">
         <v>343</v>
       </c>
-      <c r="CC25" s="245"/>
-      <c r="CD25" s="245"/>
-      <c r="CE25" s="245"/>
-      <c r="CF25" s="245"/>
-      <c r="CG25" s="246"/>
+      <c r="CC25" s="270"/>
+      <c r="CD25" s="270"/>
+      <c r="CE25" s="270"/>
+      <c r="CF25" s="270"/>
+      <c r="CG25" s="271"/>
       <c r="CH25" s="42"/>
       <c r="CL25" s="41"/>
       <c r="CS25" s="42"/>
@@ -8048,128 +8138,128 @@
       <c r="G26" s="41"/>
       <c r="O26" s="41"/>
       <c r="AX26" s="42"/>
-      <c r="AY26" s="280"/>
+      <c r="AY26" s="249"/>
       <c r="BD26" s="41"/>
       <c r="BK26" s="42"/>
       <c r="BP26" s="41"/>
       <c r="BW26" s="42"/>
       <c r="CA26" s="41"/>
-      <c r="CB26" s="259" t="s">
+      <c r="CB26" s="262" t="s">
         <v>342</v>
       </c>
-      <c r="CC26" s="260"/>
-      <c r="CD26" s="258"/>
-      <c r="CE26" s="248"/>
-      <c r="CF26" s="259" t="s">
+      <c r="CC26" s="263"/>
+      <c r="CD26" s="245"/>
+      <c r="CE26" s="247"/>
+      <c r="CF26" s="262" t="s">
         <v>341</v>
       </c>
-      <c r="CG26" s="260"/>
+      <c r="CG26" s="263"/>
       <c r="CH26" s="42"/>
       <c r="CL26" s="41"/>
-      <c r="CM26" s="258" t="s">
+      <c r="CM26" s="245" t="s">
         <v>331</v>
       </c>
-      <c r="CN26" s="247"/>
-      <c r="CO26" s="247"/>
-      <c r="CP26" s="247"/>
-      <c r="CQ26" s="247"/>
-      <c r="CR26" s="248"/>
+      <c r="CN26" s="246"/>
+      <c r="CO26" s="246"/>
+      <c r="CP26" s="246"/>
+      <c r="CQ26" s="246"/>
+      <c r="CR26" s="247"/>
       <c r="CS26" s="42"/>
       <c r="CV26" s="41"/>
-      <c r="CW26" s="244" t="s">
+      <c r="CW26" s="261" t="s">
         <v>362</v>
       </c>
-      <c r="CX26" s="247"/>
-      <c r="CY26" s="247"/>
-      <c r="CZ26" s="247"/>
-      <c r="DA26" s="247"/>
-      <c r="DB26" s="248"/>
+      <c r="CX26" s="246"/>
+      <c r="CY26" s="246"/>
+      <c r="CZ26" s="246"/>
+      <c r="DA26" s="246"/>
+      <c r="DB26" s="247"/>
       <c r="DC26" s="42"/>
     </row>
     <row r="27" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G27" s="41"/>
       <c r="O27" s="41"/>
       <c r="AX27" s="42"/>
-      <c r="AY27" s="280"/>
+      <c r="AY27" s="249"/>
       <c r="BD27" s="41"/>
-      <c r="BE27" s="258" t="s">
+      <c r="BE27" s="245" t="s">
         <v>340</v>
       </c>
-      <c r="BF27" s="247"/>
-      <c r="BG27" s="247"/>
-      <c r="BH27" s="247"/>
-      <c r="BI27" s="247"/>
-      <c r="BJ27" s="248"/>
+      <c r="BF27" s="246"/>
+      <c r="BG27" s="246"/>
+      <c r="BH27" s="246"/>
+      <c r="BI27" s="246"/>
+      <c r="BJ27" s="247"/>
       <c r="BK27" s="42"/>
       <c r="BP27" s="41"/>
-      <c r="BQ27" s="258" t="s">
+      <c r="BQ27" s="245" t="s">
         <v>334</v>
       </c>
-      <c r="BR27" s="247"/>
-      <c r="BS27" s="247"/>
-      <c r="BT27" s="247"/>
-      <c r="BU27" s="247"/>
-      <c r="BV27" s="248"/>
+      <c r="BR27" s="246"/>
+      <c r="BS27" s="246"/>
+      <c r="BT27" s="246"/>
+      <c r="BU27" s="246"/>
+      <c r="BV27" s="247"/>
       <c r="BW27" s="42"/>
       <c r="CA27" s="41"/>
       <c r="CH27" s="42"/>
       <c r="CL27" s="41"/>
-      <c r="CM27" s="244" t="s">
+      <c r="CM27" s="261" t="s">
         <v>355</v>
       </c>
-      <c r="CN27" s="247"/>
-      <c r="CO27" s="247"/>
-      <c r="CP27" s="247"/>
-      <c r="CQ27" s="247"/>
-      <c r="CR27" s="248"/>
+      <c r="CN27" s="246"/>
+      <c r="CO27" s="246"/>
+      <c r="CP27" s="246"/>
+      <c r="CQ27" s="246"/>
+      <c r="CR27" s="247"/>
       <c r="CS27" s="42"/>
       <c r="CV27" s="41"/>
-      <c r="CW27" s="244" t="s">
+      <c r="CW27" s="261" t="s">
         <v>355</v>
       </c>
-      <c r="CX27" s="247"/>
-      <c r="CY27" s="247"/>
-      <c r="CZ27" s="247"/>
-      <c r="DA27" s="247"/>
-      <c r="DB27" s="248"/>
+      <c r="CX27" s="246"/>
+      <c r="CY27" s="246"/>
+      <c r="CZ27" s="246"/>
+      <c r="DA27" s="246"/>
+      <c r="DB27" s="247"/>
       <c r="DC27" s="42"/>
     </row>
     <row r="28" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G28" s="41"/>
       <c r="O28" s="41"/>
       <c r="AX28" s="42"/>
-      <c r="AY28" s="280"/>
+      <c r="AY28" s="249"/>
       <c r="BD28" s="119"/>
-      <c r="BE28" s="259" t="s">
+      <c r="BE28" s="262" t="s">
         <v>342</v>
       </c>
-      <c r="BF28" s="260"/>
-      <c r="BG28" s="258"/>
-      <c r="BH28" s="248"/>
-      <c r="BI28" s="259" t="s">
+      <c r="BF28" s="263"/>
+      <c r="BG28" s="245"/>
+      <c r="BH28" s="247"/>
+      <c r="BI28" s="262" t="s">
         <v>341</v>
       </c>
-      <c r="BJ28" s="260"/>
+      <c r="BJ28" s="263"/>
       <c r="BK28" s="42"/>
       <c r="BP28" s="41"/>
-      <c r="BQ28" s="258" t="s">
+      <c r="BQ28" s="245" t="s">
         <v>330</v>
       </c>
-      <c r="BR28" s="247"/>
-      <c r="BS28" s="247"/>
-      <c r="BT28" s="247"/>
-      <c r="BU28" s="247"/>
-      <c r="BV28" s="248"/>
+      <c r="BR28" s="246"/>
+      <c r="BS28" s="246"/>
+      <c r="BT28" s="246"/>
+      <c r="BU28" s="246"/>
+      <c r="BV28" s="247"/>
       <c r="BW28" s="42"/>
       <c r="CA28" s="41"/>
-      <c r="CB28" s="244" t="s">
+      <c r="CB28" s="261" t="s">
         <v>344</v>
       </c>
-      <c r="CC28" s="245"/>
-      <c r="CD28" s="245"/>
-      <c r="CE28" s="245"/>
-      <c r="CF28" s="245"/>
-      <c r="CG28" s="246"/>
+      <c r="CC28" s="270"/>
+      <c r="CD28" s="270"/>
+      <c r="CE28" s="270"/>
+      <c r="CF28" s="270"/>
+      <c r="CG28" s="271"/>
       <c r="CH28" s="42"/>
       <c r="CL28" s="41"/>
       <c r="CS28" s="42"/>
@@ -8180,49 +8270,49 @@
       <c r="G29" s="41"/>
       <c r="O29" s="41"/>
       <c r="AX29" s="42"/>
-      <c r="AY29" s="280"/>
+      <c r="AY29" s="249"/>
       <c r="BD29" s="41"/>
       <c r="BK29" s="42"/>
       <c r="BP29" s="41"/>
       <c r="BW29" s="42"/>
       <c r="CA29" s="41"/>
-      <c r="CB29" s="259" t="s">
+      <c r="CB29" s="262" t="s">
         <v>342</v>
       </c>
-      <c r="CC29" s="260"/>
-      <c r="CD29" s="258"/>
-      <c r="CE29" s="248"/>
-      <c r="CF29" s="259" t="s">
+      <c r="CC29" s="263"/>
+      <c r="CD29" s="245"/>
+      <c r="CE29" s="247"/>
+      <c r="CF29" s="262" t="s">
         <v>341</v>
       </c>
-      <c r="CG29" s="260"/>
+      <c r="CG29" s="263"/>
       <c r="CH29" s="42"/>
       <c r="CL29" s="41"/>
-      <c r="CM29" s="258" t="s">
+      <c r="CM29" s="245" t="s">
         <v>332</v>
       </c>
-      <c r="CN29" s="247"/>
-      <c r="CO29" s="247"/>
-      <c r="CP29" s="247"/>
-      <c r="CQ29" s="247"/>
-      <c r="CR29" s="248"/>
+      <c r="CN29" s="246"/>
+      <c r="CO29" s="246"/>
+      <c r="CP29" s="246"/>
+      <c r="CQ29" s="246"/>
+      <c r="CR29" s="247"/>
       <c r="CS29" s="42"/>
       <c r="CV29" s="41"/>
-      <c r="CW29" s="244" t="s">
+      <c r="CW29" s="261" t="s">
         <v>363</v>
       </c>
-      <c r="CX29" s="247"/>
-      <c r="CY29" s="247"/>
-      <c r="CZ29" s="247"/>
-      <c r="DA29" s="247"/>
-      <c r="DB29" s="248"/>
+      <c r="CX29" s="246"/>
+      <c r="CY29" s="246"/>
+      <c r="CZ29" s="246"/>
+      <c r="DA29" s="246"/>
+      <c r="DB29" s="247"/>
       <c r="DC29" s="42"/>
     </row>
     <row r="30" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G30" s="41"/>
       <c r="O30" s="41"/>
       <c r="AX30" s="42"/>
-      <c r="AY30" s="280"/>
+      <c r="AY30" s="249"/>
       <c r="BD30" s="41"/>
       <c r="BK30" s="42"/>
       <c r="BP30" s="41"/>
@@ -8230,44 +8320,44 @@
       <c r="CA30" s="41"/>
       <c r="CH30" s="42"/>
       <c r="CL30" s="41"/>
-      <c r="CM30" s="244" t="s">
+      <c r="CM30" s="261" t="s">
         <v>355</v>
       </c>
-      <c r="CN30" s="247"/>
-      <c r="CO30" s="247"/>
-      <c r="CP30" s="247"/>
-      <c r="CQ30" s="247"/>
-      <c r="CR30" s="248"/>
+      <c r="CN30" s="246"/>
+      <c r="CO30" s="246"/>
+      <c r="CP30" s="246"/>
+      <c r="CQ30" s="246"/>
+      <c r="CR30" s="247"/>
       <c r="CS30" s="42"/>
       <c r="CV30" s="41"/>
-      <c r="CW30" s="244" t="s">
+      <c r="CW30" s="261" t="s">
         <v>355</v>
       </c>
-      <c r="CX30" s="245"/>
-      <c r="CY30" s="245"/>
-      <c r="CZ30" s="245"/>
-      <c r="DA30" s="245"/>
-      <c r="DB30" s="246"/>
+      <c r="CX30" s="270"/>
+      <c r="CY30" s="270"/>
+      <c r="CZ30" s="270"/>
+      <c r="DA30" s="270"/>
+      <c r="DB30" s="271"/>
       <c r="DC30" s="42"/>
     </row>
     <row r="31" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G31" s="41"/>
       <c r="O31" s="41"/>
       <c r="AX31" s="42"/>
-      <c r="AY31" s="280"/>
+      <c r="AY31" s="249"/>
       <c r="BD31" s="41"/>
       <c r="BK31" s="42"/>
       <c r="BP31" s="41"/>
       <c r="BW31" s="42"/>
       <c r="CA31" s="41"/>
-      <c r="CB31" s="244" t="s">
+      <c r="CB31" s="261" t="s">
         <v>345</v>
       </c>
-      <c r="CC31" s="245"/>
-      <c r="CD31" s="245"/>
-      <c r="CE31" s="245"/>
-      <c r="CF31" s="245"/>
-      <c r="CG31" s="246"/>
+      <c r="CC31" s="270"/>
+      <c r="CD31" s="270"/>
+      <c r="CE31" s="270"/>
+      <c r="CF31" s="270"/>
+      <c r="CG31" s="271"/>
       <c r="CH31" s="42"/>
       <c r="CL31" s="41"/>
       <c r="CS31" s="42"/>
@@ -8278,122 +8368,122 @@
       <c r="G32" s="41"/>
       <c r="O32" s="41"/>
       <c r="AX32" s="42"/>
-      <c r="AY32" s="280"/>
+      <c r="AY32" s="249"/>
       <c r="BD32" s="41"/>
-      <c r="BE32" s="261" t="s">
+      <c r="BE32" s="264" t="s">
         <v>277</v>
       </c>
-      <c r="BF32" s="262"/>
-      <c r="BG32" s="262"/>
-      <c r="BH32" s="262"/>
-      <c r="BI32" s="262"/>
-      <c r="BJ32" s="263"/>
+      <c r="BF32" s="265"/>
+      <c r="BG32" s="265"/>
+      <c r="BH32" s="265"/>
+      <c r="BI32" s="265"/>
+      <c r="BJ32" s="266"/>
       <c r="BK32" s="42"/>
       <c r="BP32" s="41"/>
-      <c r="BQ32" s="261" t="s">
+      <c r="BQ32" s="264" t="s">
         <v>352</v>
       </c>
-      <c r="BR32" s="262"/>
-      <c r="BS32" s="262"/>
-      <c r="BT32" s="262"/>
-      <c r="BU32" s="262"/>
-      <c r="BV32" s="263"/>
+      <c r="BR32" s="265"/>
+      <c r="BS32" s="265"/>
+      <c r="BT32" s="265"/>
+      <c r="BU32" s="265"/>
+      <c r="BV32" s="266"/>
       <c r="BW32" s="42"/>
       <c r="CA32" s="41"/>
-      <c r="CB32" s="259" t="s">
+      <c r="CB32" s="262" t="s">
         <v>342</v>
       </c>
-      <c r="CC32" s="260"/>
-      <c r="CD32" s="258"/>
-      <c r="CE32" s="248"/>
-      <c r="CF32" s="259" t="s">
+      <c r="CC32" s="263"/>
+      <c r="CD32" s="245"/>
+      <c r="CE32" s="247"/>
+      <c r="CF32" s="262" t="s">
         <v>341</v>
       </c>
-      <c r="CG32" s="260"/>
+      <c r="CG32" s="263"/>
       <c r="CH32" s="42"/>
       <c r="CL32" s="41"/>
-      <c r="CM32" s="258" t="s">
+      <c r="CM32" s="245" t="s">
         <v>333</v>
       </c>
-      <c r="CN32" s="247"/>
-      <c r="CO32" s="247"/>
-      <c r="CP32" s="247"/>
-      <c r="CQ32" s="247"/>
-      <c r="CR32" s="248"/>
+      <c r="CN32" s="246"/>
+      <c r="CO32" s="246"/>
+      <c r="CP32" s="246"/>
+      <c r="CQ32" s="246"/>
+      <c r="CR32" s="247"/>
       <c r="CS32" s="42"/>
       <c r="CV32" s="41"/>
-      <c r="CW32" s="244" t="s">
+      <c r="CW32" s="261" t="s">
         <v>364</v>
       </c>
-      <c r="CX32" s="247"/>
-      <c r="CY32" s="247"/>
-      <c r="CZ32" s="247"/>
-      <c r="DA32" s="247"/>
-      <c r="DB32" s="248"/>
+      <c r="CX32" s="246"/>
+      <c r="CY32" s="246"/>
+      <c r="CZ32" s="246"/>
+      <c r="DA32" s="246"/>
+      <c r="DB32" s="247"/>
       <c r="DC32" s="42"/>
     </row>
     <row r="33" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G33" s="41"/>
       <c r="O33" s="41"/>
       <c r="AX33" s="42"/>
-      <c r="AY33" s="280"/>
+      <c r="AY33" s="249"/>
       <c r="BD33" s="41"/>
-      <c r="BE33" s="264"/>
-      <c r="BF33" s="265"/>
-      <c r="BG33" s="265"/>
-      <c r="BH33" s="265"/>
-      <c r="BI33" s="265"/>
-      <c r="BJ33" s="266"/>
+      <c r="BE33" s="267"/>
+      <c r="BF33" s="268"/>
+      <c r="BG33" s="268"/>
+      <c r="BH33" s="268"/>
+      <c r="BI33" s="268"/>
+      <c r="BJ33" s="269"/>
       <c r="BK33" s="42"/>
       <c r="BP33" s="41"/>
-      <c r="BQ33" s="264"/>
-      <c r="BR33" s="265"/>
-      <c r="BS33" s="265"/>
-      <c r="BT33" s="265"/>
-      <c r="BU33" s="265"/>
-      <c r="BV33" s="266"/>
+      <c r="BQ33" s="267"/>
+      <c r="BR33" s="268"/>
+      <c r="BS33" s="268"/>
+      <c r="BT33" s="268"/>
+      <c r="BU33" s="268"/>
+      <c r="BV33" s="269"/>
       <c r="BW33" s="42"/>
       <c r="CA33" s="41"/>
       <c r="CH33" s="42"/>
       <c r="CL33" s="41"/>
-      <c r="CM33" s="244" t="s">
+      <c r="CM33" s="261" t="s">
         <v>355</v>
       </c>
-      <c r="CN33" s="245"/>
-      <c r="CO33" s="245"/>
-      <c r="CP33" s="245"/>
-      <c r="CQ33" s="245"/>
-      <c r="CR33" s="246"/>
+      <c r="CN33" s="270"/>
+      <c r="CO33" s="270"/>
+      <c r="CP33" s="270"/>
+      <c r="CQ33" s="270"/>
+      <c r="CR33" s="271"/>
       <c r="CS33" s="42"/>
       <c r="CV33" s="41"/>
-      <c r="CW33" s="244" t="s">
+      <c r="CW33" s="261" t="s">
         <v>355</v>
       </c>
-      <c r="CX33" s="245"/>
-      <c r="CY33" s="245"/>
-      <c r="CZ33" s="245"/>
-      <c r="DA33" s="245"/>
-      <c r="DB33" s="246"/>
+      <c r="CX33" s="270"/>
+      <c r="CY33" s="270"/>
+      <c r="CZ33" s="270"/>
+      <c r="DA33" s="270"/>
+      <c r="DB33" s="271"/>
       <c r="DC33" s="42"/>
     </row>
     <row r="34" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G34" s="41"/>
       <c r="O34" s="41"/>
       <c r="AX34" s="42"/>
-      <c r="AY34" s="280"/>
+      <c r="AY34" s="249"/>
       <c r="BD34" s="41"/>
       <c r="BK34" s="42"/>
       <c r="BP34" s="41"/>
       <c r="BW34" s="42"/>
       <c r="CA34" s="41"/>
-      <c r="CB34" s="244" t="s">
+      <c r="CB34" s="261" t="s">
         <v>346</v>
       </c>
-      <c r="CC34" s="245"/>
-      <c r="CD34" s="245"/>
-      <c r="CE34" s="245"/>
-      <c r="CF34" s="245"/>
-      <c r="CG34" s="246"/>
+      <c r="CC34" s="270"/>
+      <c r="CD34" s="270"/>
+      <c r="CE34" s="270"/>
+      <c r="CF34" s="270"/>
+      <c r="CG34" s="271"/>
       <c r="CH34" s="42"/>
       <c r="CL34" s="41"/>
       <c r="CS34" s="42"/>
@@ -8404,95 +8494,95 @@
       <c r="G35" s="41"/>
       <c r="O35" s="41"/>
       <c r="AX35" s="42"/>
-      <c r="AY35" s="280"/>
+      <c r="AY35" s="249"/>
       <c r="BD35" s="41"/>
       <c r="BK35" s="42"/>
       <c r="BP35" s="41"/>
-      <c r="BQ35" s="244" t="s">
+      <c r="BQ35" s="261" t="s">
         <v>351</v>
       </c>
-      <c r="BR35" s="247"/>
-      <c r="BS35" s="247"/>
-      <c r="BT35" s="247"/>
-      <c r="BU35" s="247"/>
-      <c r="BV35" s="248"/>
+      <c r="BR35" s="246"/>
+      <c r="BS35" s="246"/>
+      <c r="BT35" s="246"/>
+      <c r="BU35" s="246"/>
+      <c r="BV35" s="247"/>
       <c r="BW35" s="42"/>
       <c r="CA35" s="41"/>
-      <c r="CB35" s="259" t="s">
+      <c r="CB35" s="262" t="s">
         <v>342</v>
       </c>
-      <c r="CC35" s="260"/>
-      <c r="CD35" s="258"/>
-      <c r="CE35" s="248"/>
-      <c r="CF35" s="259" t="s">
+      <c r="CC35" s="263"/>
+      <c r="CD35" s="245"/>
+      <c r="CE35" s="247"/>
+      <c r="CF35" s="262" t="s">
         <v>341</v>
       </c>
-      <c r="CG35" s="260"/>
+      <c r="CG35" s="263"/>
       <c r="CH35" s="42"/>
       <c r="CL35" s="41"/>
-      <c r="CM35" s="244" t="s">
+      <c r="CM35" s="261" t="s">
         <v>358</v>
       </c>
-      <c r="CN35" s="247"/>
-      <c r="CO35" s="247"/>
-      <c r="CP35" s="247"/>
-      <c r="CQ35" s="247"/>
-      <c r="CR35" s="248"/>
+      <c r="CN35" s="246"/>
+      <c r="CO35" s="246"/>
+      <c r="CP35" s="246"/>
+      <c r="CQ35" s="246"/>
+      <c r="CR35" s="247"/>
       <c r="CS35" s="42"/>
       <c r="CV35" s="41"/>
-      <c r="CW35" s="244" t="s">
+      <c r="CW35" s="261" t="s">
         <v>365</v>
       </c>
-      <c r="CX35" s="247"/>
-      <c r="CY35" s="247"/>
-      <c r="CZ35" s="247"/>
-      <c r="DA35" s="247"/>
-      <c r="DB35" s="248"/>
+      <c r="CX35" s="246"/>
+      <c r="CY35" s="246"/>
+      <c r="CZ35" s="246"/>
+      <c r="DA35" s="246"/>
+      <c r="DB35" s="247"/>
       <c r="DC35" s="42"/>
     </row>
     <row r="36" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G36" s="41"/>
       <c r="O36" s="41"/>
       <c r="AX36" s="42"/>
-      <c r="AY36" s="280"/>
+      <c r="AY36" s="249"/>
       <c r="BD36" s="41"/>
       <c r="BK36" s="42"/>
       <c r="BP36" s="41"/>
-      <c r="BQ36" s="244" t="s">
+      <c r="BQ36" s="261" t="s">
         <v>353</v>
       </c>
-      <c r="BR36" s="247"/>
-      <c r="BS36" s="247"/>
-      <c r="BT36" s="247"/>
-      <c r="BU36" s="247"/>
-      <c r="BV36" s="248"/>
+      <c r="BR36" s="246"/>
+      <c r="BS36" s="246"/>
+      <c r="BT36" s="246"/>
+      <c r="BU36" s="246"/>
+      <c r="BV36" s="247"/>
       <c r="BW36" s="42"/>
       <c r="CA36" s="41"/>
       <c r="CH36" s="42"/>
       <c r="CL36" s="41"/>
-      <c r="CM36" s="244" t="s">
+      <c r="CM36" s="261" t="s">
         <v>355</v>
       </c>
-      <c r="CN36" s="245"/>
-      <c r="CO36" s="245"/>
-      <c r="CP36" s="245"/>
-      <c r="CQ36" s="245"/>
-      <c r="CR36" s="246"/>
+      <c r="CN36" s="270"/>
+      <c r="CO36" s="270"/>
+      <c r="CP36" s="270"/>
+      <c r="CQ36" s="270"/>
+      <c r="CR36" s="271"/>
       <c r="CS36" s="42"/>
       <c r="CV36" s="41"/>
-      <c r="CW36" s="249"/>
-      <c r="CX36" s="250"/>
-      <c r="CY36" s="250"/>
-      <c r="CZ36" s="250"/>
-      <c r="DA36" s="250"/>
-      <c r="DB36" s="251"/>
+      <c r="CW36" s="275"/>
+      <c r="CX36" s="276"/>
+      <c r="CY36" s="276"/>
+      <c r="CZ36" s="276"/>
+      <c r="DA36" s="276"/>
+      <c r="DB36" s="277"/>
       <c r="DC36" s="42"/>
     </row>
     <row r="37" spans="7:107" ht="15.75" customHeight="1">
       <c r="G37" s="41"/>
       <c r="O37" s="41"/>
       <c r="AX37" s="42"/>
-      <c r="AY37" s="280"/>
+      <c r="AY37" s="249"/>
       <c r="BD37" s="41"/>
       <c r="BK37" s="42"/>
       <c r="BP37" s="41"/>
@@ -8502,19 +8592,19 @@
       <c r="CL37" s="41"/>
       <c r="CS37" s="42"/>
       <c r="CV37" s="41"/>
-      <c r="CW37" s="252"/>
-      <c r="CX37" s="253"/>
-      <c r="CY37" s="253"/>
-      <c r="CZ37" s="253"/>
-      <c r="DA37" s="253"/>
-      <c r="DB37" s="254"/>
+      <c r="CW37" s="278"/>
+      <c r="CX37" s="279"/>
+      <c r="CY37" s="279"/>
+      <c r="CZ37" s="279"/>
+      <c r="DA37" s="279"/>
+      <c r="DB37" s="280"/>
       <c r="DC37" s="42"/>
     </row>
     <row r="38" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G38" s="41"/>
       <c r="O38" s="41"/>
       <c r="AX38" s="42"/>
-      <c r="AY38" s="280"/>
+      <c r="AY38" s="249"/>
       <c r="BD38" s="41"/>
       <c r="BK38" s="42"/>
       <c r="BP38" s="41"/>
@@ -8524,70 +8614,70 @@
       <c r="CL38" s="41"/>
       <c r="CS38" s="42"/>
       <c r="CV38" s="41"/>
-      <c r="CW38" s="252"/>
-      <c r="CX38" s="253"/>
-      <c r="CY38" s="253"/>
-      <c r="CZ38" s="253"/>
-      <c r="DA38" s="253"/>
-      <c r="DB38" s="254"/>
+      <c r="CW38" s="278"/>
+      <c r="CX38" s="279"/>
+      <c r="CY38" s="279"/>
+      <c r="CZ38" s="279"/>
+      <c r="DA38" s="279"/>
+      <c r="DB38" s="280"/>
       <c r="DC38" s="42"/>
     </row>
     <row r="39" spans="7:107" ht="15.75" customHeight="1">
       <c r="G39" s="41"/>
       <c r="O39" s="41"/>
       <c r="AX39" s="42"/>
-      <c r="AY39" s="280"/>
+      <c r="AY39" s="249"/>
       <c r="BD39" s="41"/>
       <c r="BK39" s="42"/>
       <c r="BP39" s="41"/>
       <c r="BW39" s="42"/>
       <c r="CA39" s="41"/>
-      <c r="CB39" s="261" t="s">
+      <c r="CB39" s="264" t="s">
         <v>347</v>
       </c>
-      <c r="CC39" s="262"/>
-      <c r="CD39" s="262"/>
-      <c r="CE39" s="262"/>
-      <c r="CF39" s="262"/>
-      <c r="CG39" s="263"/>
+      <c r="CC39" s="265"/>
+      <c r="CD39" s="265"/>
+      <c r="CE39" s="265"/>
+      <c r="CF39" s="265"/>
+      <c r="CG39" s="266"/>
       <c r="CH39" s="42"/>
       <c r="CL39" s="41"/>
       <c r="CS39" s="42"/>
       <c r="CV39" s="41"/>
-      <c r="CW39" s="252"/>
-      <c r="CX39" s="253"/>
-      <c r="CY39" s="253"/>
-      <c r="CZ39" s="253"/>
-      <c r="DA39" s="253"/>
-      <c r="DB39" s="254"/>
+      <c r="CW39" s="278"/>
+      <c r="CX39" s="279"/>
+      <c r="CY39" s="279"/>
+      <c r="CZ39" s="279"/>
+      <c r="DA39" s="279"/>
+      <c r="DB39" s="280"/>
       <c r="DC39" s="42"/>
     </row>
     <row r="40" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G40" s="41"/>
       <c r="O40" s="41"/>
       <c r="AX40" s="42"/>
-      <c r="AY40" s="281"/>
+      <c r="AY40" s="250"/>
       <c r="BD40" s="41"/>
       <c r="BK40" s="42"/>
       <c r="BP40" s="41"/>
       <c r="BW40" s="42"/>
       <c r="CA40" s="41"/>
-      <c r="CB40" s="264"/>
-      <c r="CC40" s="265"/>
-      <c r="CD40" s="265"/>
-      <c r="CE40" s="265"/>
-      <c r="CF40" s="265"/>
-      <c r="CG40" s="266"/>
+      <c r="CB40" s="267"/>
+      <c r="CC40" s="268"/>
+      <c r="CD40" s="268"/>
+      <c r="CE40" s="268"/>
+      <c r="CF40" s="268"/>
+      <c r="CG40" s="269"/>
       <c r="CH40" s="42"/>
       <c r="CL40" s="41"/>
       <c r="CS40" s="42"/>
       <c r="CV40" s="41"/>
-      <c r="CW40" s="255"/>
-      <c r="CX40" s="256"/>
-      <c r="CY40" s="256"/>
-      <c r="CZ40" s="256"/>
-      <c r="DA40" s="256"/>
-      <c r="DB40" s="257"/>
+      <c r="CW40" s="281"/>
+      <c r="CX40" s="282"/>
+      <c r="CY40" s="282"/>
+      <c r="CZ40" s="282"/>
+      <c r="DA40" s="282"/>
+      <c r="DB40" s="283"/>
       <c r="DC40" s="42"/>
     </row>
     <row r="41" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
@@ -8650,43 +8740,43 @@
       <c r="M42" s="44"/>
       <c r="N42" s="44"/>
       <c r="O42" s="115"/>
-      <c r="P42" s="258" t="s">
+      <c r="P42" s="245" t="s">
         <v>323</v>
       </c>
-      <c r="Q42" s="247"/>
-      <c r="R42" s="247"/>
-      <c r="S42" s="247"/>
-      <c r="T42" s="247"/>
-      <c r="U42" s="247"/>
-      <c r="V42" s="247"/>
-      <c r="W42" s="247"/>
-      <c r="X42" s="247"/>
-      <c r="Y42" s="247"/>
-      <c r="Z42" s="247"/>
-      <c r="AA42" s="247"/>
-      <c r="AB42" s="247"/>
-      <c r="AC42" s="247"/>
-      <c r="AD42" s="247"/>
-      <c r="AE42" s="247"/>
-      <c r="AF42" s="247"/>
-      <c r="AG42" s="247"/>
-      <c r="AH42" s="247"/>
-      <c r="AI42" s="247"/>
-      <c r="AJ42" s="247"/>
-      <c r="AK42" s="247"/>
-      <c r="AL42" s="247"/>
-      <c r="AM42" s="247"/>
-      <c r="AN42" s="247"/>
-      <c r="AO42" s="247"/>
-      <c r="AP42" s="247"/>
-      <c r="AQ42" s="247"/>
-      <c r="AR42" s="247"/>
-      <c r="AS42" s="247"/>
-      <c r="AT42" s="247"/>
-      <c r="AU42" s="247"/>
-      <c r="AV42" s="247"/>
-      <c r="AW42" s="247"/>
-      <c r="AX42" s="248"/>
+      <c r="Q42" s="246"/>
+      <c r="R42" s="246"/>
+      <c r="S42" s="246"/>
+      <c r="T42" s="246"/>
+      <c r="U42" s="246"/>
+      <c r="V42" s="246"/>
+      <c r="W42" s="246"/>
+      <c r="X42" s="246"/>
+      <c r="Y42" s="246"/>
+      <c r="Z42" s="246"/>
+      <c r="AA42" s="246"/>
+      <c r="AB42" s="246"/>
+      <c r="AC42" s="246"/>
+      <c r="AD42" s="246"/>
+      <c r="AE42" s="246"/>
+      <c r="AF42" s="246"/>
+      <c r="AG42" s="246"/>
+      <c r="AH42" s="246"/>
+      <c r="AI42" s="246"/>
+      <c r="AJ42" s="246"/>
+      <c r="AK42" s="246"/>
+      <c r="AL42" s="246"/>
+      <c r="AM42" s="246"/>
+      <c r="AN42" s="246"/>
+      <c r="AO42" s="246"/>
+      <c r="AP42" s="246"/>
+      <c r="AQ42" s="246"/>
+      <c r="AR42" s="246"/>
+      <c r="AS42" s="246"/>
+      <c r="AT42" s="246"/>
+      <c r="AU42" s="246"/>
+      <c r="AV42" s="246"/>
+      <c r="AW42" s="246"/>
+      <c r="AX42" s="247"/>
       <c r="AY42" s="115"/>
       <c r="BD42" s="43"/>
       <c r="BE42" s="44"/>
@@ -8731,78 +8821,6 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="P42:AX42"/>
-    <mergeCell ref="AY12:AY40"/>
-    <mergeCell ref="G11:N12"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="BD11:BK12"/>
-    <mergeCell ref="BD14:BK14"/>
-    <mergeCell ref="BP11:BW12"/>
-    <mergeCell ref="BP14:BW14"/>
-    <mergeCell ref="CA11:CH12"/>
-    <mergeCell ref="CA14:CH14"/>
-    <mergeCell ref="CL11:CS12"/>
-    <mergeCell ref="CL14:CS14"/>
-    <mergeCell ref="CV11:DC12"/>
-    <mergeCell ref="CV14:DC14"/>
-    <mergeCell ref="BQ24:BV24"/>
-    <mergeCell ref="CM18:CR18"/>
-    <mergeCell ref="CM19:CR19"/>
-    <mergeCell ref="CM21:CR21"/>
-    <mergeCell ref="CM24:CR24"/>
-    <mergeCell ref="CM23:CR23"/>
-    <mergeCell ref="BE19:BJ19"/>
-    <mergeCell ref="BE18:BJ18"/>
-    <mergeCell ref="BE21:BJ21"/>
-    <mergeCell ref="BE22:BJ22"/>
-    <mergeCell ref="BQ19:BV19"/>
-    <mergeCell ref="BQ18:BV18"/>
-    <mergeCell ref="BQ21:BV21"/>
-    <mergeCell ref="BQ22:BV22"/>
-    <mergeCell ref="BE24:BJ24"/>
-    <mergeCell ref="BE25:BJ25"/>
-    <mergeCell ref="BE27:BJ27"/>
-    <mergeCell ref="BE28:BF28"/>
-    <mergeCell ref="BI28:BJ28"/>
-    <mergeCell ref="BG28:BH28"/>
-    <mergeCell ref="BE32:BJ33"/>
-    <mergeCell ref="CF29:CG29"/>
-    <mergeCell ref="CD29:CE29"/>
-    <mergeCell ref="CB29:CC29"/>
-    <mergeCell ref="CB28:CG28"/>
-    <mergeCell ref="BQ28:BV28"/>
-    <mergeCell ref="CB39:CG40"/>
-    <mergeCell ref="CB17:CG17"/>
-    <mergeCell ref="CB18:CC18"/>
-    <mergeCell ref="CD18:CE18"/>
-    <mergeCell ref="CF18:CG18"/>
-    <mergeCell ref="CB20:CG20"/>
-    <mergeCell ref="CF26:CG26"/>
-    <mergeCell ref="CD26:CE26"/>
-    <mergeCell ref="CB26:CC26"/>
-    <mergeCell ref="CB25:CG25"/>
-    <mergeCell ref="CE23:CH23"/>
-    <mergeCell ref="CB21:CG21"/>
-    <mergeCell ref="BQ36:BV36"/>
-    <mergeCell ref="CB31:CG31"/>
-    <mergeCell ref="CB32:CC32"/>
-    <mergeCell ref="CD32:CE32"/>
-    <mergeCell ref="CF32:CG32"/>
-    <mergeCell ref="CB34:CG34"/>
-    <mergeCell ref="CB35:CC35"/>
-    <mergeCell ref="CD35:CE35"/>
-    <mergeCell ref="CF35:CG35"/>
-    <mergeCell ref="BQ32:BV33"/>
-    <mergeCell ref="BQ25:BV25"/>
-    <mergeCell ref="BQ27:BV27"/>
-    <mergeCell ref="CM32:CR32"/>
-    <mergeCell ref="CM33:CR33"/>
-    <mergeCell ref="CM35:CR35"/>
-    <mergeCell ref="CM27:CR27"/>
-    <mergeCell ref="CM26:CR26"/>
-    <mergeCell ref="BQ35:BV35"/>
     <mergeCell ref="CM36:CR36"/>
     <mergeCell ref="CW18:DB18"/>
     <mergeCell ref="CW20:DB20"/>
@@ -8819,6 +8837,78 @@
     <mergeCell ref="CW36:DB40"/>
     <mergeCell ref="CM29:CR29"/>
     <mergeCell ref="CM30:CR30"/>
+    <mergeCell ref="BQ25:BV25"/>
+    <mergeCell ref="BQ27:BV27"/>
+    <mergeCell ref="CM32:CR32"/>
+    <mergeCell ref="CM33:CR33"/>
+    <mergeCell ref="CM35:CR35"/>
+    <mergeCell ref="CM27:CR27"/>
+    <mergeCell ref="CM26:CR26"/>
+    <mergeCell ref="BQ35:BV35"/>
+    <mergeCell ref="BQ36:BV36"/>
+    <mergeCell ref="CB31:CG31"/>
+    <mergeCell ref="CB32:CC32"/>
+    <mergeCell ref="CD32:CE32"/>
+    <mergeCell ref="CF32:CG32"/>
+    <mergeCell ref="CB34:CG34"/>
+    <mergeCell ref="CB35:CC35"/>
+    <mergeCell ref="CD35:CE35"/>
+    <mergeCell ref="CF35:CG35"/>
+    <mergeCell ref="BQ32:BV33"/>
+    <mergeCell ref="CB39:CG40"/>
+    <mergeCell ref="CB17:CG17"/>
+    <mergeCell ref="CB18:CC18"/>
+    <mergeCell ref="CD18:CE18"/>
+    <mergeCell ref="CF18:CG18"/>
+    <mergeCell ref="CB20:CG20"/>
+    <mergeCell ref="CF26:CG26"/>
+    <mergeCell ref="CD26:CE26"/>
+    <mergeCell ref="CB26:CC26"/>
+    <mergeCell ref="CB25:CG25"/>
+    <mergeCell ref="CE23:CH23"/>
+    <mergeCell ref="CB21:CG21"/>
+    <mergeCell ref="BE32:BJ33"/>
+    <mergeCell ref="CF29:CG29"/>
+    <mergeCell ref="CD29:CE29"/>
+    <mergeCell ref="CB29:CC29"/>
+    <mergeCell ref="CB28:CG28"/>
+    <mergeCell ref="BQ28:BV28"/>
+    <mergeCell ref="BE24:BJ24"/>
+    <mergeCell ref="BE25:BJ25"/>
+    <mergeCell ref="BE27:BJ27"/>
+    <mergeCell ref="BE28:BF28"/>
+    <mergeCell ref="BI28:BJ28"/>
+    <mergeCell ref="BG28:BH28"/>
+    <mergeCell ref="BE19:BJ19"/>
+    <mergeCell ref="BE18:BJ18"/>
+    <mergeCell ref="BE21:BJ21"/>
+    <mergeCell ref="BE22:BJ22"/>
+    <mergeCell ref="BQ19:BV19"/>
+    <mergeCell ref="BQ18:BV18"/>
+    <mergeCell ref="BQ21:BV21"/>
+    <mergeCell ref="BQ22:BV22"/>
+    <mergeCell ref="CL11:CS12"/>
+    <mergeCell ref="CL14:CS14"/>
+    <mergeCell ref="CV11:DC12"/>
+    <mergeCell ref="CV14:DC14"/>
+    <mergeCell ref="BQ24:BV24"/>
+    <mergeCell ref="CM18:CR18"/>
+    <mergeCell ref="CM19:CR19"/>
+    <mergeCell ref="CM21:CR21"/>
+    <mergeCell ref="CM24:CR24"/>
+    <mergeCell ref="CM23:CR23"/>
+    <mergeCell ref="BD11:BK12"/>
+    <mergeCell ref="BD14:BK14"/>
+    <mergeCell ref="BP11:BW12"/>
+    <mergeCell ref="BP14:BW14"/>
+    <mergeCell ref="CA11:CH12"/>
+    <mergeCell ref="CA14:CH14"/>
+    <mergeCell ref="P42:AX42"/>
+    <mergeCell ref="AY12:AY40"/>
+    <mergeCell ref="G11:N12"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="P17:R17"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8877,14 +8967,14 @@
         <v>476</v>
       </c>
       <c r="C3" s="28"/>
-      <c r="D3" s="285" t="s">
+      <c r="D3" s="289" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="286"/>
-      <c r="F3" s="286"/>
-      <c r="G3" s="286"/>
-      <c r="H3" s="286"/>
-      <c r="I3" s="287"/>
+      <c r="E3" s="290"/>
+      <c r="F3" s="290"/>
+      <c r="G3" s="290"/>
+      <c r="H3" s="290"/>
+      <c r="I3" s="291"/>
     </row>
     <row r="4" spans="1:16" ht="21" customHeight="1">
       <c r="A4" s="156" t="s">
@@ -9023,18 +9113,18 @@
         <v>375</v>
       </c>
       <c r="F12" s="132"/>
-      <c r="H12" s="288" t="s">
+      <c r="H12" s="284" t="s">
         <v>400</v>
       </c>
-      <c r="I12" s="289"/>
+      <c r="I12" s="292"/>
       <c r="J12" s="140" t="s">
         <v>404</v>
       </c>
       <c r="K12" s="132"/>
-      <c r="M12" s="288" t="s">
+      <c r="M12" s="284" t="s">
         <v>415</v>
       </c>
-      <c r="N12" s="284"/>
+      <c r="N12" s="285"/>
       <c r="O12" s="140" t="s">
         <v>422</v>
       </c>
@@ -9048,18 +9138,18 @@
         <v>368</v>
       </c>
       <c r="F13" s="132"/>
-      <c r="H13" s="288" t="s">
+      <c r="H13" s="284" t="s">
         <v>401</v>
       </c>
-      <c r="I13" s="289"/>
+      <c r="I13" s="292"/>
       <c r="J13" s="140" t="s">
         <v>403</v>
       </c>
       <c r="K13" s="132"/>
-      <c r="M13" s="288" t="s">
+      <c r="M13" s="284" t="s">
         <v>216</v>
       </c>
-      <c r="N13" s="284"/>
+      <c r="N13" s="285"/>
       <c r="O13" s="131" t="s">
         <v>417</v>
       </c>
@@ -9071,18 +9161,18 @@
       </c>
       <c r="E14" s="131"/>
       <c r="F14" s="132"/>
-      <c r="H14" s="288" t="s">
+      <c r="H14" s="284" t="s">
         <v>402</v>
       </c>
-      <c r="I14" s="289"/>
+      <c r="I14" s="292"/>
       <c r="J14" s="140" t="s">
         <v>369</v>
       </c>
       <c r="K14" s="132"/>
-      <c r="M14" s="288" t="s">
+      <c r="M14" s="284" t="s">
         <v>215</v>
       </c>
-      <c r="N14" s="284"/>
+      <c r="N14" s="285"/>
       <c r="O14" s="131" t="s">
         <v>418</v>
       </c>
@@ -9094,14 +9184,14 @@
       </c>
       <c r="E15" s="140"/>
       <c r="F15" s="132"/>
-      <c r="H15" s="290"/>
-      <c r="I15" s="291"/>
+      <c r="H15" s="287"/>
+      <c r="I15" s="288"/>
       <c r="J15" s="140"/>
       <c r="K15" s="132"/>
-      <c r="M15" s="288" t="s">
+      <c r="M15" s="284" t="s">
         <v>211</v>
       </c>
-      <c r="N15" s="284"/>
+      <c r="N15" s="285"/>
       <c r="O15" s="131" t="s">
         <v>419</v>
       </c>
@@ -9113,14 +9203,14 @@
       </c>
       <c r="E16" s="131"/>
       <c r="F16" s="134"/>
-      <c r="H16" s="290"/>
-      <c r="I16" s="291"/>
+      <c r="H16" s="287"/>
+      <c r="I16" s="288"/>
       <c r="J16" s="140"/>
       <c r="K16" s="132"/>
-      <c r="M16" s="288" t="s">
+      <c r="M16" s="284" t="s">
         <v>212</v>
       </c>
-      <c r="N16" s="284"/>
+      <c r="N16" s="285"/>
       <c r="O16" s="131" t="s">
         <v>169</v>
       </c>
@@ -9136,10 +9226,10 @@
       <c r="I17" s="135"/>
       <c r="J17" s="136"/>
       <c r="K17" s="137"/>
-      <c r="M17" s="288" t="s">
+      <c r="M17" s="284" t="s">
         <v>416</v>
       </c>
-      <c r="N17" s="284"/>
+      <c r="N17" s="285"/>
       <c r="O17" s="131" t="s">
         <v>420</v>
       </c>
@@ -9149,10 +9239,10 @@
       <c r="C18" s="133"/>
       <c r="E18" s="131"/>
       <c r="F18" s="134"/>
-      <c r="M18" s="288" t="s">
+      <c r="M18" s="284" t="s">
         <v>213</v>
       </c>
-      <c r="N18" s="284"/>
+      <c r="N18" s="285"/>
       <c r="O18" s="131" t="s">
         <v>421</v>
       </c>
@@ -9172,10 +9262,10 @@
       <c r="K19" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="M19" s="288" t="s">
+      <c r="M19" s="284" t="s">
         <v>290</v>
       </c>
-      <c r="N19" s="284"/>
+      <c r="N19" s="285"/>
       <c r="O19" s="131" t="s">
         <v>427</v>
       </c>
@@ -9193,10 +9283,10 @@
       <c r="I20" s="29"/>
       <c r="J20" s="29"/>
       <c r="K20" s="127"/>
-      <c r="M20" s="283" t="s">
+      <c r="M20" s="286" t="s">
         <v>423</v>
       </c>
-      <c r="N20" s="284"/>
+      <c r="N20" s="285"/>
       <c r="O20" s="140" t="s">
         <v>480</v>
       </c>
@@ -9210,10 +9300,10 @@
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
       <c r="K21" s="127"/>
-      <c r="M21" s="283" t="s">
+      <c r="M21" s="286" t="s">
         <v>424</v>
       </c>
-      <c r="N21" s="284"/>
+      <c r="N21" s="285"/>
       <c r="O21" s="131"/>
       <c r="P21" s="132"/>
     </row>
@@ -9230,22 +9320,22 @@
         <v>84</v>
       </c>
       <c r="K22" s="130"/>
-      <c r="M22" s="283"/>
-      <c r="N22" s="284"/>
+      <c r="M22" s="286"/>
+      <c r="N22" s="285"/>
       <c r="O22" s="131"/>
       <c r="P22" s="132"/>
     </row>
     <row r="23" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="H23" s="288" t="s">
+      <c r="H23" s="284" t="s">
         <v>405</v>
       </c>
-      <c r="I23" s="289"/>
+      <c r="I23" s="292"/>
       <c r="J23" s="140" t="s">
         <v>369</v>
       </c>
       <c r="K23" s="132"/>
-      <c r="M23" s="283"/>
-      <c r="N23" s="284"/>
+      <c r="M23" s="286"/>
+      <c r="N23" s="285"/>
       <c r="O23" s="131"/>
       <c r="P23" s="132"/>
     </row>
@@ -9258,12 +9348,12 @@
       <c r="F24" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="H24" s="288"/>
-      <c r="I24" s="289"/>
+      <c r="H24" s="284"/>
+      <c r="I24" s="292"/>
       <c r="J24" s="140"/>
       <c r="K24" s="132"/>
-      <c r="M24" s="283"/>
-      <c r="N24" s="284"/>
+      <c r="M24" s="286"/>
+      <c r="N24" s="285"/>
       <c r="O24" s="131"/>
       <c r="P24" s="132"/>
     </row>
@@ -9276,12 +9366,12 @@
       <c r="F25" s="143" t="s">
         <v>373</v>
       </c>
-      <c r="H25" s="288"/>
-      <c r="I25" s="289"/>
+      <c r="H25" s="284"/>
+      <c r="I25" s="292"/>
       <c r="J25" s="140"/>
       <c r="K25" s="132"/>
-      <c r="M25" s="283"/>
-      <c r="N25" s="284"/>
+      <c r="M25" s="286"/>
+      <c r="N25" s="285"/>
       <c r="O25" s="131"/>
       <c r="P25" s="132"/>
     </row>
@@ -9290,12 +9380,12 @@
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
       <c r="F26" s="127"/>
-      <c r="H26" s="290"/>
-      <c r="I26" s="291"/>
+      <c r="H26" s="287"/>
+      <c r="I26" s="288"/>
       <c r="J26" s="140"/>
       <c r="K26" s="132"/>
-      <c r="M26" s="283"/>
-      <c r="N26" s="284"/>
+      <c r="M26" s="286"/>
+      <c r="N26" s="285"/>
       <c r="O26" s="131"/>
       <c r="P26" s="132"/>
     </row>
@@ -9308,12 +9398,12 @@
         <v>84</v>
       </c>
       <c r="F27" s="130"/>
-      <c r="H27" s="290"/>
-      <c r="I27" s="291"/>
+      <c r="H27" s="287"/>
+      <c r="I27" s="288"/>
       <c r="J27" s="140"/>
       <c r="K27" s="132"/>
-      <c r="M27" s="283"/>
-      <c r="N27" s="284"/>
+      <c r="M27" s="286"/>
+      <c r="N27" s="285"/>
       <c r="O27" s="131"/>
       <c r="P27" s="132"/>
     </row>
@@ -9329,8 +9419,8 @@
       <c r="I28" s="135"/>
       <c r="J28" s="136"/>
       <c r="K28" s="137"/>
-      <c r="M28" s="283"/>
-      <c r="N28" s="284"/>
+      <c r="M28" s="286"/>
+      <c r="N28" s="285"/>
       <c r="O28" s="131"/>
       <c r="P28" s="132"/>
     </row>
@@ -9342,8 +9432,8 @@
         <v>388</v>
       </c>
       <c r="F29" s="132"/>
-      <c r="M29" s="283"/>
-      <c r="N29" s="284"/>
+      <c r="M29" s="286"/>
+      <c r="N29" s="285"/>
       <c r="O29" s="131"/>
       <c r="P29" s="132"/>
     </row>
@@ -9353,8 +9443,8 @@
       </c>
       <c r="E30" s="140"/>
       <c r="F30" s="132"/>
-      <c r="M30" s="283"/>
-      <c r="N30" s="284"/>
+      <c r="M30" s="286"/>
+      <c r="N30" s="285"/>
       <c r="O30" s="131"/>
       <c r="P30" s="132"/>
     </row>
@@ -9434,10 +9524,10 @@
       <c r="C37" s="133"/>
       <c r="E37" s="131"/>
       <c r="F37" s="134"/>
-      <c r="M37" s="288" t="s">
+      <c r="M37" s="284" t="s">
         <v>428</v>
       </c>
-      <c r="N37" s="284"/>
+      <c r="N37" s="285"/>
       <c r="O37" s="131" t="s">
         <v>430</v>
       </c>
@@ -9447,10 +9537,10 @@
       <c r="C38" s="133"/>
       <c r="E38" s="131"/>
       <c r="F38" s="134"/>
-      <c r="M38" s="283" t="s">
+      <c r="M38" s="286" t="s">
         <v>429</v>
       </c>
-      <c r="N38" s="284"/>
+      <c r="N38" s="285"/>
       <c r="O38" s="131" t="s">
         <v>431</v>
       </c>
@@ -9461,16 +9551,16 @@
       <c r="D39" s="135"/>
       <c r="E39" s="136"/>
       <c r="F39" s="139"/>
-      <c r="M39" s="283"/>
-      <c r="N39" s="284"/>
+      <c r="M39" s="286"/>
+      <c r="N39" s="285"/>
       <c r="O39" s="131" t="s">
         <v>432</v>
       </c>
       <c r="P39" s="132"/>
     </row>
     <row r="40" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="M40" s="283"/>
-      <c r="N40" s="284"/>
+      <c r="M40" s="286"/>
+      <c r="N40" s="285"/>
       <c r="O40" s="131" t="s">
         <v>433</v>
       </c>
@@ -9485,8 +9575,8 @@
       <c r="F41" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="M41" s="283"/>
-      <c r="N41" s="284"/>
+      <c r="M41" s="286"/>
+      <c r="N41" s="285"/>
       <c r="O41" s="131" t="s">
         <v>435</v>
       </c>
@@ -9501,8 +9591,8 @@
       <c r="F42" s="143" t="s">
         <v>373</v>
       </c>
-      <c r="M42" s="283"/>
-      <c r="N42" s="284"/>
+      <c r="M42" s="286"/>
+      <c r="N42" s="285"/>
       <c r="O42" s="131" t="s">
         <v>434</v>
       </c>
@@ -9596,10 +9686,10 @@
         <v>397</v>
       </c>
       <c r="F49" s="134"/>
-      <c r="M49" s="288" t="s">
+      <c r="M49" s="284" t="s">
         <v>436</v>
       </c>
-      <c r="N49" s="284"/>
+      <c r="N49" s="285"/>
       <c r="O49" s="131" t="s">
         <v>439</v>
       </c>
@@ -9613,10 +9703,10 @@
         <v>334</v>
       </c>
       <c r="F50" s="134"/>
-      <c r="M50" s="283" t="s">
+      <c r="M50" s="286" t="s">
         <v>437</v>
       </c>
-      <c r="N50" s="284"/>
+      <c r="N50" s="285"/>
       <c r="O50" s="131" t="s">
         <v>440</v>
       </c>
@@ -9630,10 +9720,10 @@
         <v>369</v>
       </c>
       <c r="F51" s="134"/>
-      <c r="M51" s="283" t="s">
+      <c r="M51" s="286" t="s">
         <v>438</v>
       </c>
-      <c r="N51" s="284"/>
+      <c r="N51" s="285"/>
       <c r="O51" s="131"/>
       <c r="P51" s="132"/>
     </row>
@@ -9643,10 +9733,10 @@
         <v>456</v>
       </c>
       <c r="F52" s="134"/>
-      <c r="M52" s="283" t="s">
+      <c r="M52" s="286" t="s">
         <v>441</v>
       </c>
-      <c r="N52" s="284"/>
+      <c r="N52" s="285"/>
       <c r="O52" s="131"/>
       <c r="P52" s="132"/>
     </row>
@@ -9657,8 +9747,8 @@
         <v>457</v>
       </c>
       <c r="F53" s="137"/>
-      <c r="M53" s="283"/>
-      <c r="N53" s="284"/>
+      <c r="M53" s="286"/>
+      <c r="N53" s="285"/>
       <c r="O53" s="131"/>
       <c r="P53" s="132"/>
     </row>
@@ -9710,10 +9800,10 @@
       </c>
     </row>
     <row r="60" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M60" s="288" t="s">
+      <c r="M60" s="284" t="s">
         <v>442</v>
       </c>
-      <c r="N60" s="284"/>
+      <c r="N60" s="285"/>
       <c r="O60" s="140" t="s">
         <v>446</v>
       </c>
@@ -9722,10 +9812,10 @@
       </c>
     </row>
     <row r="61" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M61" s="283" t="s">
+      <c r="M61" s="286" t="s">
         <v>443</v>
       </c>
-      <c r="N61" s="284"/>
+      <c r="N61" s="285"/>
       <c r="O61" s="140" t="s">
         <v>447</v>
       </c>
@@ -9734,10 +9824,10 @@
       </c>
     </row>
     <row r="62" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M62" s="288" t="s">
+      <c r="M62" s="284" t="s">
         <v>448</v>
       </c>
-      <c r="N62" s="284"/>
+      <c r="N62" s="285"/>
       <c r="O62" s="140" t="s">
         <v>85</v>
       </c>
@@ -9746,14 +9836,14 @@
       </c>
     </row>
     <row r="63" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M63" s="283"/>
-      <c r="N63" s="284"/>
+      <c r="M63" s="286"/>
+      <c r="N63" s="285"/>
       <c r="O63" s="131"/>
       <c r="P63" s="132"/>
     </row>
     <row r="64" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M64" s="283"/>
-      <c r="N64" s="284"/>
+      <c r="M64" s="286"/>
+      <c r="N64" s="285"/>
       <c r="O64" s="131"/>
       <c r="P64" s="132"/>
     </row>
@@ -9801,40 +9891,40 @@
       <c r="P70" s="130"/>
     </row>
     <row r="71" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M71" s="288" t="s">
+      <c r="M71" s="284" t="s">
         <v>449</v>
       </c>
-      <c r="N71" s="284"/>
+      <c r="N71" s="285"/>
       <c r="O71" s="140" t="s">
         <v>369</v>
       </c>
       <c r="P71" s="132"/>
     </row>
     <row r="72" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M72" s="288" t="s">
+      <c r="M72" s="284" t="s">
         <v>450</v>
       </c>
-      <c r="N72" s="284"/>
+      <c r="N72" s="285"/>
       <c r="O72" s="140" t="s">
         <v>451</v>
       </c>
       <c r="P72" s="132"/>
     </row>
     <row r="73" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M73" s="283"/>
-      <c r="N73" s="284"/>
+      <c r="M73" s="286"/>
+      <c r="N73" s="285"/>
       <c r="O73" s="131"/>
       <c r="P73" s="132"/>
     </row>
     <row r="74" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M74" s="283"/>
-      <c r="N74" s="284"/>
+      <c r="M74" s="286"/>
+      <c r="N74" s="285"/>
       <c r="O74" s="131"/>
       <c r="P74" s="132"/>
     </row>
     <row r="75" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M75" s="283"/>
-      <c r="N75" s="284"/>
+      <c r="M75" s="286"/>
+      <c r="N75" s="285"/>
       <c r="O75" s="131"/>
       <c r="P75" s="132"/>
     </row>
@@ -9882,40 +9972,40 @@
       <c r="P81" s="130"/>
     </row>
     <row r="82" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M82" s="288" t="s">
+      <c r="M82" s="284" t="s">
         <v>449</v>
       </c>
-      <c r="N82" s="284"/>
+      <c r="N82" s="285"/>
       <c r="O82" s="140" t="s">
         <v>369</v>
       </c>
       <c r="P82" s="132"/>
     </row>
     <row r="83" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M83" s="288" t="s">
+      <c r="M83" s="284" t="s">
         <v>452</v>
       </c>
-      <c r="N83" s="284"/>
+      <c r="N83" s="285"/>
       <c r="O83" s="140" t="s">
         <v>451</v>
       </c>
       <c r="P83" s="132"/>
     </row>
     <row r="84" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M84" s="283"/>
-      <c r="N84" s="284"/>
+      <c r="M84" s="286"/>
+      <c r="N84" s="285"/>
       <c r="O84" s="131"/>
       <c r="P84" s="132"/>
     </row>
     <row r="85" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M85" s="283"/>
-      <c r="N85" s="284"/>
+      <c r="M85" s="286"/>
+      <c r="N85" s="285"/>
       <c r="O85" s="131"/>
       <c r="P85" s="132"/>
     </row>
     <row r="86" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M86" s="283"/>
-      <c r="N86" s="284"/>
+      <c r="M86" s="286"/>
+      <c r="N86" s="285"/>
       <c r="O86" s="131"/>
       <c r="P86" s="132"/>
     </row>
@@ -9961,40 +10051,40 @@
       <c r="P92" s="130"/>
     </row>
     <row r="93" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M93" s="288" t="s">
+      <c r="M93" s="284" t="s">
         <v>216</v>
       </c>
-      <c r="N93" s="284"/>
+      <c r="N93" s="285"/>
       <c r="O93" s="140" t="s">
         <v>453</v>
       </c>
       <c r="P93" s="132"/>
     </row>
     <row r="94" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M94" s="283"/>
-      <c r="N94" s="284"/>
+      <c r="M94" s="286"/>
+      <c r="N94" s="285"/>
       <c r="O94" s="140" t="s">
         <v>454</v>
       </c>
       <c r="P94" s="132"/>
     </row>
     <row r="95" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M95" s="283"/>
-      <c r="N95" s="284"/>
+      <c r="M95" s="286"/>
+      <c r="N95" s="285"/>
       <c r="O95" s="140" t="s">
         <v>455</v>
       </c>
       <c r="P95" s="132"/>
     </row>
     <row r="96" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M96" s="283"/>
-      <c r="N96" s="284"/>
+      <c r="M96" s="286"/>
+      <c r="N96" s="285"/>
       <c r="O96" s="131"/>
       <c r="P96" s="132"/>
     </row>
     <row r="97" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M97" s="283"/>
-      <c r="N97" s="284"/>
+      <c r="M97" s="286"/>
+      <c r="N97" s="285"/>
       <c r="O97" s="131"/>
       <c r="P97" s="132"/>
     </row>
@@ -10040,46 +10130,46 @@
       <c r="P103" s="130"/>
     </row>
     <row r="104" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M104" s="288" t="s">
+      <c r="M104" s="284" t="s">
         <v>465</v>
       </c>
-      <c r="N104" s="284"/>
+      <c r="N104" s="285"/>
       <c r="O104" s="140" t="s">
         <v>462</v>
       </c>
       <c r="P104" s="132"/>
     </row>
     <row r="105" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M105" s="288" t="s">
+      <c r="M105" s="284" t="s">
         <v>466</v>
       </c>
-      <c r="N105" s="284"/>
+      <c r="N105" s="285"/>
       <c r="O105" s="140" t="s">
         <v>461</v>
       </c>
       <c r="P105" s="132"/>
     </row>
     <row r="106" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M106" s="288" t="s">
+      <c r="M106" s="284" t="s">
         <v>467</v>
       </c>
-      <c r="N106" s="284"/>
+      <c r="N106" s="285"/>
       <c r="O106" s="140" t="s">
         <v>463</v>
       </c>
       <c r="P106" s="132"/>
     </row>
     <row r="107" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M107" s="283"/>
-      <c r="N107" s="284"/>
+      <c r="M107" s="286"/>
+      <c r="N107" s="285"/>
       <c r="O107" s="140" t="s">
         <v>464</v>
       </c>
       <c r="P107" s="132"/>
     </row>
     <row r="108" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M108" s="283"/>
-      <c r="N108" s="284"/>
+      <c r="M108" s="286"/>
+      <c r="N108" s="285"/>
       <c r="O108" s="131"/>
       <c r="P108" s="132"/>
     </row>
@@ -10127,42 +10217,42 @@
       <c r="P114" s="130"/>
     </row>
     <row r="115" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M115" s="288" t="s">
+      <c r="M115" s="284" t="s">
         <v>482</v>
       </c>
-      <c r="N115" s="284"/>
+      <c r="N115" s="285"/>
       <c r="O115" s="140" t="s">
         <v>483</v>
       </c>
       <c r="P115" s="132"/>
     </row>
     <row r="116" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M116" s="283"/>
-      <c r="N116" s="284"/>
+      <c r="M116" s="286"/>
+      <c r="N116" s="285"/>
       <c r="O116" s="131"/>
       <c r="P116" s="132"/>
     </row>
     <row r="117" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M117" s="283"/>
-      <c r="N117" s="284"/>
+      <c r="M117" s="286"/>
+      <c r="N117" s="285"/>
       <c r="O117" s="131"/>
       <c r="P117" s="132"/>
     </row>
     <row r="118" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M118" s="283"/>
-      <c r="N118" s="284"/>
+      <c r="M118" s="286"/>
+      <c r="N118" s="285"/>
       <c r="O118" s="131"/>
       <c r="P118" s="132"/>
     </row>
     <row r="119" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M119" s="283"/>
-      <c r="N119" s="284"/>
+      <c r="M119" s="286"/>
+      <c r="N119" s="285"/>
       <c r="O119" s="131"/>
       <c r="P119" s="132"/>
     </row>
     <row r="120" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M120" s="283"/>
-      <c r="N120" s="284"/>
+      <c r="M120" s="286"/>
+      <c r="N120" s="285"/>
       <c r="O120" s="131"/>
       <c r="P120" s="132"/>
     </row>
@@ -10174,46 +10264,22 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="M105:N105"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="M107:N107"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="M95:N95"/>
-    <mergeCell ref="M96:N96"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="M104:N104"/>
-    <mergeCell ref="M83:N83"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="M86:N86"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="M75:N75"/>
-    <mergeCell ref="M82:N82"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M119:N119"/>
+    <mergeCell ref="M120:N120"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="M115:N115"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="M117:N117"/>
+    <mergeCell ref="M118:N118"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
     <mergeCell ref="M37:N37"/>
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="M12:N12"/>
@@ -10230,22 +10296,46 @@
     <mergeCell ref="M21:N21"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M119:N119"/>
-    <mergeCell ref="M120:N120"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="M115:N115"/>
-    <mergeCell ref="M116:N116"/>
-    <mergeCell ref="M117:N117"/>
-    <mergeCell ref="M118:N118"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="M82:N82"/>
+    <mergeCell ref="M83:N83"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="M107:N107"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="M95:N95"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="M104:N104"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
@@ -11768,8 +11858,8 @@
   </sheetPr>
   <dimension ref="B2:U95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6:U94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
@@ -11815,15 +11905,15 @@
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
-      <c r="H3" s="292"/>
-      <c r="I3" s="235"/>
-      <c r="J3" s="235"/>
-      <c r="K3" s="235"/>
-      <c r="L3" s="235"/>
-      <c r="M3" s="235"/>
-      <c r="N3" s="235"/>
-      <c r="O3" s="235"/>
-      <c r="P3" s="235"/>
+      <c r="H3" s="293"/>
+      <c r="I3" s="236"/>
+      <c r="J3" s="236"/>
+      <c r="K3" s="236"/>
+      <c r="L3" s="236"/>
+      <c r="M3" s="236"/>
+      <c r="N3" s="236"/>
+      <c r="O3" s="236"/>
+      <c r="P3" s="236"/>
     </row>
     <row r="4" spans="2:21" ht="21.75" customHeight="1" thickBot="1">
       <c r="B4" s="26"/>
@@ -11876,12 +11966,12 @@
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
       <c r="N6" s="26"/>
-      <c r="R6" s="293" t="s">
-        <v>590</v>
-      </c>
-      <c r="S6" s="294"/>
-      <c r="T6" s="294"/>
-      <c r="U6" s="295"/>
+      <c r="R6" s="294" t="s">
+        <v>601</v>
+      </c>
+      <c r="S6" s="295"/>
+      <c r="T6" s="295"/>
+      <c r="U6" s="296"/>
     </row>
     <row r="7" spans="2:21" ht="21.75" customHeight="1" thickBot="1">
       <c r="B7" s="183" t="s">
@@ -11899,10 +11989,10 @@
       <c r="L7" s="184"/>
       <c r="M7" s="184"/>
       <c r="N7" s="184"/>
-      <c r="R7" s="296"/>
-      <c r="S7" s="297"/>
-      <c r="T7" s="297"/>
-      <c r="U7" s="298"/>
+      <c r="R7" s="297"/>
+      <c r="S7" s="298"/>
+      <c r="T7" s="298"/>
+      <c r="U7" s="299"/>
     </row>
     <row r="8" spans="2:21" ht="15">
       <c r="B8" s="187" t="s">
@@ -11924,10 +12014,10 @@
       <c r="L8" s="184"/>
       <c r="M8" s="184"/>
       <c r="N8" s="190"/>
-      <c r="R8" s="296"/>
-      <c r="S8" s="297"/>
-      <c r="T8" s="297"/>
-      <c r="U8" s="298"/>
+      <c r="R8" s="297"/>
+      <c r="S8" s="298"/>
+      <c r="T8" s="298"/>
+      <c r="U8" s="299"/>
     </row>
     <row r="9" spans="2:21" thickBot="1">
       <c r="B9" s="191" t="s">
@@ -11949,10 +12039,10 @@
       <c r="L9" s="194"/>
       <c r="M9" s="194"/>
       <c r="N9" s="194"/>
-      <c r="R9" s="296"/>
-      <c r="S9" s="297"/>
-      <c r="T9" s="297"/>
-      <c r="U9" s="298"/>
+      <c r="R9" s="297"/>
+      <c r="S9" s="298"/>
+      <c r="T9" s="298"/>
+      <c r="U9" s="299"/>
     </row>
     <row r="10" spans="2:21" thickBot="1">
       <c r="B10" s="191" t="s">
@@ -11984,10 +12074,10 @@
       </c>
       <c r="O10" s="200"/>
       <c r="P10" s="201"/>
-      <c r="R10" s="296"/>
-      <c r="S10" s="297"/>
-      <c r="T10" s="297"/>
-      <c r="U10" s="298"/>
+      <c r="R10" s="297"/>
+      <c r="S10" s="298"/>
+      <c r="T10" s="298"/>
+      <c r="U10" s="299"/>
     </row>
     <row r="11" spans="2:21" ht="15" customHeight="1" thickBot="1">
       <c r="B11" s="202"/>
@@ -12029,10 +12119,10 @@
       <c r="P11" s="211" t="s">
         <v>100</v>
       </c>
-      <c r="R11" s="296"/>
-      <c r="S11" s="297"/>
-      <c r="T11" s="297"/>
-      <c r="U11" s="298"/>
+      <c r="R11" s="297"/>
+      <c r="S11" s="298"/>
+      <c r="T11" s="298"/>
+      <c r="U11" s="299"/>
     </row>
     <row r="12" spans="2:21" ht="20.25" customHeight="1">
       <c r="B12" s="171" t="s">
@@ -12054,10 +12144,10 @@
       <c r="N12" s="231"/>
       <c r="O12" s="216"/>
       <c r="P12" s="217"/>
-      <c r="R12" s="296"/>
-      <c r="S12" s="297"/>
-      <c r="T12" s="297"/>
-      <c r="U12" s="298"/>
+      <c r="R12" s="297"/>
+      <c r="S12" s="298"/>
+      <c r="T12" s="298"/>
+      <c r="U12" s="299"/>
     </row>
     <row r="13" spans="2:21" ht="20.25" customHeight="1">
       <c r="B13" s="172"/>
@@ -12081,10 +12171,10 @@
       <c r="N13" s="231"/>
       <c r="O13" s="216"/>
       <c r="P13" s="217"/>
-      <c r="R13" s="296"/>
-      <c r="S13" s="297"/>
-      <c r="T13" s="297"/>
-      <c r="U13" s="298"/>
+      <c r="R13" s="297"/>
+      <c r="S13" s="298"/>
+      <c r="T13" s="298"/>
+      <c r="U13" s="299"/>
     </row>
     <row r="14" spans="2:21" ht="20.25" customHeight="1">
       <c r="B14" s="174"/>
@@ -12102,10 +12192,10 @@
       <c r="N14" s="231"/>
       <c r="O14" s="216"/>
       <c r="P14" s="217"/>
-      <c r="R14" s="296"/>
-      <c r="S14" s="297"/>
-      <c r="T14" s="297"/>
-      <c r="U14" s="298"/>
+      <c r="R14" s="297"/>
+      <c r="S14" s="298"/>
+      <c r="T14" s="298"/>
+      <c r="U14" s="299"/>
     </row>
     <row r="15" spans="2:21" ht="20.25" customHeight="1">
       <c r="B15" s="174" t="s">
@@ -12127,10 +12217,10 @@
       <c r="N15" s="231"/>
       <c r="O15" s="216"/>
       <c r="P15" s="217"/>
-      <c r="R15" s="296"/>
-      <c r="S15" s="297"/>
-      <c r="T15" s="297"/>
-      <c r="U15" s="298"/>
+      <c r="R15" s="297"/>
+      <c r="S15" s="298"/>
+      <c r="T15" s="298"/>
+      <c r="U15" s="299"/>
     </row>
     <row r="16" spans="2:21" ht="20.25" customHeight="1">
       <c r="B16" s="172"/>
@@ -12154,10 +12244,10 @@
       <c r="N16" s="231"/>
       <c r="O16" s="216"/>
       <c r="P16" s="217"/>
-      <c r="R16" s="296"/>
-      <c r="S16" s="297"/>
-      <c r="T16" s="297"/>
-      <c r="U16" s="298"/>
+      <c r="R16" s="297"/>
+      <c r="S16" s="298"/>
+      <c r="T16" s="298"/>
+      <c r="U16" s="299"/>
     </row>
     <row r="17" spans="2:21" ht="20.25" customHeight="1">
       <c r="B17" s="172"/>
@@ -12181,10 +12271,10 @@
       <c r="N17" s="231"/>
       <c r="O17" s="216"/>
       <c r="P17" s="217"/>
-      <c r="R17" s="296"/>
-      <c r="S17" s="297"/>
-      <c r="T17" s="297"/>
-      <c r="U17" s="298"/>
+      <c r="R17" s="297"/>
+      <c r="S17" s="298"/>
+      <c r="T17" s="298"/>
+      <c r="U17" s="299"/>
     </row>
     <row r="18" spans="2:21" ht="20.25" customHeight="1">
       <c r="B18" s="172"/>
@@ -12204,10 +12294,10 @@
       <c r="N18" s="231"/>
       <c r="O18" s="216"/>
       <c r="P18" s="217"/>
-      <c r="R18" s="296"/>
-      <c r="S18" s="297"/>
-      <c r="T18" s="297"/>
-      <c r="U18" s="298"/>
+      <c r="R18" s="297"/>
+      <c r="S18" s="298"/>
+      <c r="T18" s="298"/>
+      <c r="U18" s="299"/>
     </row>
     <row r="19" spans="2:21" ht="20.25" customHeight="1">
       <c r="B19" s="172"/>
@@ -12231,10 +12321,10 @@
       <c r="N19" s="231"/>
       <c r="O19" s="216"/>
       <c r="P19" s="217"/>
-      <c r="R19" s="296"/>
-      <c r="S19" s="297"/>
-      <c r="T19" s="297"/>
-      <c r="U19" s="298"/>
+      <c r="R19" s="297"/>
+      <c r="S19" s="298"/>
+      <c r="T19" s="298"/>
+      <c r="U19" s="299"/>
     </row>
     <row r="20" spans="2:21" ht="20.25" customHeight="1">
       <c r="B20" s="172"/>
@@ -12252,10 +12342,10 @@
       <c r="N20" s="231"/>
       <c r="O20" s="216"/>
       <c r="P20" s="217"/>
-      <c r="R20" s="296"/>
-      <c r="S20" s="297"/>
-      <c r="T20" s="297"/>
-      <c r="U20" s="298"/>
+      <c r="R20" s="297"/>
+      <c r="S20" s="298"/>
+      <c r="T20" s="298"/>
+      <c r="U20" s="299"/>
     </row>
     <row r="21" spans="2:21" ht="20.25" customHeight="1">
       <c r="B21" s="174" t="s">
@@ -12277,10 +12367,10 @@
       <c r="N21" s="231"/>
       <c r="O21" s="216"/>
       <c r="P21" s="217"/>
-      <c r="R21" s="296"/>
-      <c r="S21" s="297"/>
-      <c r="T21" s="297"/>
-      <c r="U21" s="298"/>
+      <c r="R21" s="297"/>
+      <c r="S21" s="298"/>
+      <c r="T21" s="298"/>
+      <c r="U21" s="299"/>
     </row>
     <row r="22" spans="2:21" ht="20.25" customHeight="1">
       <c r="B22" s="172"/>
@@ -12304,10 +12394,10 @@
       <c r="N22" s="231"/>
       <c r="O22" s="216"/>
       <c r="P22" s="217"/>
-      <c r="R22" s="296"/>
-      <c r="S22" s="297"/>
-      <c r="T22" s="297"/>
-      <c r="U22" s="298"/>
+      <c r="R22" s="297"/>
+      <c r="S22" s="298"/>
+      <c r="T22" s="298"/>
+      <c r="U22" s="299"/>
     </row>
     <row r="23" spans="2:21" ht="20.25" customHeight="1">
       <c r="B23" s="172"/>
@@ -12331,10 +12421,10 @@
       <c r="N23" s="231"/>
       <c r="O23" s="216"/>
       <c r="P23" s="217"/>
-      <c r="R23" s="296"/>
-      <c r="S23" s="297"/>
-      <c r="T23" s="297"/>
-      <c r="U23" s="298"/>
+      <c r="R23" s="297"/>
+      <c r="S23" s="298"/>
+      <c r="T23" s="298"/>
+      <c r="U23" s="299"/>
     </row>
     <row r="24" spans="2:21" ht="20.25" customHeight="1">
       <c r="B24" s="172"/>
@@ -12358,10 +12448,10 @@
       <c r="N24" s="231"/>
       <c r="O24" s="216"/>
       <c r="P24" s="217"/>
-      <c r="R24" s="296"/>
-      <c r="S24" s="297"/>
-      <c r="T24" s="297"/>
-      <c r="U24" s="298"/>
+      <c r="R24" s="297"/>
+      <c r="S24" s="298"/>
+      <c r="T24" s="298"/>
+      <c r="U24" s="299"/>
     </row>
     <row r="25" spans="2:21" ht="20.25" customHeight="1">
       <c r="B25" s="172"/>
@@ -12385,10 +12475,10 @@
       <c r="N25" s="231"/>
       <c r="O25" s="216"/>
       <c r="P25" s="217"/>
-      <c r="R25" s="296"/>
-      <c r="S25" s="297"/>
-      <c r="T25" s="297"/>
-      <c r="U25" s="298"/>
+      <c r="R25" s="297"/>
+      <c r="S25" s="298"/>
+      <c r="T25" s="298"/>
+      <c r="U25" s="299"/>
     </row>
     <row r="26" spans="2:21" ht="20.25" customHeight="1">
       <c r="B26" s="169"/>
@@ -12412,10 +12502,10 @@
       <c r="N26" s="231"/>
       <c r="O26" s="216"/>
       <c r="P26" s="217"/>
-      <c r="R26" s="296"/>
-      <c r="S26" s="297"/>
-      <c r="T26" s="297"/>
-      <c r="U26" s="298"/>
+      <c r="R26" s="297"/>
+      <c r="S26" s="298"/>
+      <c r="T26" s="298"/>
+      <c r="U26" s="299"/>
     </row>
     <row r="27" spans="2:21" ht="20.25" customHeight="1">
       <c r="B27" s="169"/>
@@ -12439,10 +12529,10 @@
       <c r="N27" s="231"/>
       <c r="O27" s="216"/>
       <c r="P27" s="217"/>
-      <c r="R27" s="296"/>
-      <c r="S27" s="297"/>
-      <c r="T27" s="297"/>
-      <c r="U27" s="298"/>
+      <c r="R27" s="297"/>
+      <c r="S27" s="298"/>
+      <c r="T27" s="298"/>
+      <c r="U27" s="299"/>
     </row>
     <row r="28" spans="2:21" ht="20.25" customHeight="1">
       <c r="B28" s="169"/>
@@ -12460,10 +12550,10 @@
       <c r="N28" s="231"/>
       <c r="O28" s="216"/>
       <c r="P28" s="217"/>
-      <c r="R28" s="296"/>
-      <c r="S28" s="297"/>
-      <c r="T28" s="297"/>
-      <c r="U28" s="298"/>
+      <c r="R28" s="297"/>
+      <c r="S28" s="298"/>
+      <c r="T28" s="298"/>
+      <c r="U28" s="299"/>
     </row>
     <row r="29" spans="2:21" ht="20.25" customHeight="1">
       <c r="B29" s="174" t="s">
@@ -12473,7 +12563,7 @@
       <c r="D29" s="218"/>
       <c r="E29" s="231"/>
       <c r="F29" s="232"/>
-      <c r="G29" s="302" t="s">
+      <c r="G29" s="234" t="s">
         <v>599</v>
       </c>
       <c r="H29" s="231"/>
@@ -12485,10 +12575,10 @@
       <c r="N29" s="231"/>
       <c r="O29" s="216"/>
       <c r="P29" s="217"/>
-      <c r="R29" s="296"/>
-      <c r="S29" s="297"/>
-      <c r="T29" s="297"/>
-      <c r="U29" s="298"/>
+      <c r="R29" s="297"/>
+      <c r="S29" s="298"/>
+      <c r="T29" s="298"/>
+      <c r="U29" s="299"/>
     </row>
     <row r="30" spans="2:21" ht="20.25" customHeight="1">
       <c r="B30" s="172"/>
@@ -12498,7 +12588,7 @@
       <c r="D30" s="218"/>
       <c r="E30" s="231"/>
       <c r="F30" s="232"/>
-      <c r="G30" s="302"/>
+      <c r="G30" s="234"/>
       <c r="H30" s="231"/>
       <c r="I30" s="216"/>
       <c r="J30" s="217"/>
@@ -12508,10 +12598,10 @@
       <c r="N30" s="231"/>
       <c r="O30" s="216"/>
       <c r="P30" s="217"/>
-      <c r="R30" s="296"/>
-      <c r="S30" s="297"/>
-      <c r="T30" s="297"/>
-      <c r="U30" s="298"/>
+      <c r="R30" s="297"/>
+      <c r="S30" s="298"/>
+      <c r="T30" s="298"/>
+      <c r="U30" s="299"/>
     </row>
     <row r="31" spans="2:21" ht="20.25" customHeight="1">
       <c r="B31" s="172"/>
@@ -12521,7 +12611,7 @@
       <c r="D31" s="218"/>
       <c r="E31" s="231"/>
       <c r="F31" s="232"/>
-      <c r="G31" s="302"/>
+      <c r="G31" s="234"/>
       <c r="H31" s="231"/>
       <c r="I31" s="216"/>
       <c r="J31" s="217"/>
@@ -12531,10 +12621,10 @@
       <c r="N31" s="231"/>
       <c r="O31" s="216"/>
       <c r="P31" s="217"/>
-      <c r="R31" s="296"/>
-      <c r="S31" s="297"/>
-      <c r="T31" s="297"/>
-      <c r="U31" s="298"/>
+      <c r="R31" s="297"/>
+      <c r="S31" s="298"/>
+      <c r="T31" s="298"/>
+      <c r="U31" s="299"/>
     </row>
     <row r="32" spans="2:21" ht="20.25" customHeight="1">
       <c r="B32" s="169"/>
@@ -12544,7 +12634,7 @@
       <c r="D32" s="218"/>
       <c r="E32" s="231"/>
       <c r="F32" s="232"/>
-      <c r="G32" s="302"/>
+      <c r="G32" s="234"/>
       <c r="H32" s="231"/>
       <c r="I32" s="216"/>
       <c r="J32" s="217"/>
@@ -12554,10 +12644,10 @@
       <c r="N32" s="231"/>
       <c r="O32" s="216"/>
       <c r="P32" s="217"/>
-      <c r="R32" s="296"/>
-      <c r="S32" s="297"/>
-      <c r="T32" s="297"/>
-      <c r="U32" s="298"/>
+      <c r="R32" s="297"/>
+      <c r="S32" s="298"/>
+      <c r="T32" s="298"/>
+      <c r="U32" s="299"/>
     </row>
     <row r="33" spans="2:21" ht="20.25" customHeight="1">
       <c r="B33" s="169"/>
@@ -12575,10 +12665,10 @@
       <c r="N33" s="231"/>
       <c r="O33" s="216"/>
       <c r="P33" s="217"/>
-      <c r="R33" s="296"/>
-      <c r="S33" s="297"/>
-      <c r="T33" s="297"/>
-      <c r="U33" s="298"/>
+      <c r="R33" s="297"/>
+      <c r="S33" s="298"/>
+      <c r="T33" s="298"/>
+      <c r="U33" s="299"/>
     </row>
     <row r="34" spans="2:21" ht="20.25" customHeight="1">
       <c r="B34" s="174" t="s">
@@ -12598,10 +12688,10 @@
       <c r="N34" s="231"/>
       <c r="O34" s="216"/>
       <c r="P34" s="217"/>
-      <c r="R34" s="296"/>
-      <c r="S34" s="297"/>
-      <c r="T34" s="297"/>
-      <c r="U34" s="298"/>
+      <c r="R34" s="297"/>
+      <c r="S34" s="298"/>
+      <c r="T34" s="298"/>
+      <c r="U34" s="299"/>
     </row>
     <row r="35" spans="2:21" ht="20.25" customHeight="1">
       <c r="B35" s="172"/>
@@ -12625,10 +12715,10 @@
       <c r="N35" s="231"/>
       <c r="O35" s="216"/>
       <c r="P35" s="217"/>
-      <c r="R35" s="296"/>
-      <c r="S35" s="297"/>
-      <c r="T35" s="297"/>
-      <c r="U35" s="298"/>
+      <c r="R35" s="297"/>
+      <c r="S35" s="298"/>
+      <c r="T35" s="298"/>
+      <c r="U35" s="299"/>
     </row>
     <row r="36" spans="2:21" ht="20.25" customHeight="1">
       <c r="B36" s="172"/>
@@ -12652,10 +12742,10 @@
       <c r="N36" s="231"/>
       <c r="O36" s="216"/>
       <c r="P36" s="217"/>
-      <c r="R36" s="296"/>
-      <c r="S36" s="297"/>
-      <c r="T36" s="297"/>
-      <c r="U36" s="298"/>
+      <c r="R36" s="297"/>
+      <c r="S36" s="298"/>
+      <c r="T36" s="298"/>
+      <c r="U36" s="299"/>
     </row>
     <row r="37" spans="2:21" ht="20.25" customHeight="1">
       <c r="B37" s="169"/>
@@ -12673,10 +12763,10 @@
       <c r="N37" s="231"/>
       <c r="O37" s="216"/>
       <c r="P37" s="217"/>
-      <c r="R37" s="296"/>
-      <c r="S37" s="297"/>
-      <c r="T37" s="297"/>
-      <c r="U37" s="298"/>
+      <c r="R37" s="297"/>
+      <c r="S37" s="298"/>
+      <c r="T37" s="298"/>
+      <c r="U37" s="299"/>
     </row>
     <row r="38" spans="2:21" ht="20.25" customHeight="1">
       <c r="B38" s="174" t="s">
@@ -12696,10 +12786,10 @@
       <c r="N38" s="231"/>
       <c r="O38" s="216"/>
       <c r="P38" s="217"/>
-      <c r="R38" s="296"/>
-      <c r="S38" s="297"/>
-      <c r="T38" s="297"/>
-      <c r="U38" s="298"/>
+      <c r="R38" s="297"/>
+      <c r="S38" s="298"/>
+      <c r="T38" s="298"/>
+      <c r="U38" s="299"/>
     </row>
     <row r="39" spans="2:21" ht="20.25" customHeight="1">
       <c r="B39" s="172"/>
@@ -12721,10 +12811,10 @@
       <c r="N39" s="231"/>
       <c r="O39" s="216"/>
       <c r="P39" s="217"/>
-      <c r="R39" s="296"/>
-      <c r="S39" s="297"/>
-      <c r="T39" s="297"/>
-      <c r="U39" s="298"/>
+      <c r="R39" s="297"/>
+      <c r="S39" s="298"/>
+      <c r="T39" s="298"/>
+      <c r="U39" s="299"/>
     </row>
     <row r="40" spans="2:21" ht="20.25" customHeight="1">
       <c r="B40" s="172"/>
@@ -12746,10 +12836,10 @@
       <c r="N40" s="231"/>
       <c r="O40" s="216"/>
       <c r="P40" s="217"/>
-      <c r="R40" s="296"/>
-      <c r="S40" s="297"/>
-      <c r="T40" s="297"/>
-      <c r="U40" s="298"/>
+      <c r="R40" s="297"/>
+      <c r="S40" s="298"/>
+      <c r="T40" s="298"/>
+      <c r="U40" s="299"/>
     </row>
     <row r="41" spans="2:21" ht="20.25" customHeight="1">
       <c r="B41" s="172"/>
@@ -12771,10 +12861,10 @@
       <c r="N41" s="231"/>
       <c r="O41" s="216"/>
       <c r="P41" s="217"/>
-      <c r="R41" s="296"/>
-      <c r="S41" s="297"/>
-      <c r="T41" s="297"/>
-      <c r="U41" s="298"/>
+      <c r="R41" s="297"/>
+      <c r="S41" s="298"/>
+      <c r="T41" s="298"/>
+      <c r="U41" s="299"/>
     </row>
     <row r="42" spans="2:21" ht="20.25" customHeight="1">
       <c r="B42" s="172"/>
@@ -12796,10 +12886,10 @@
       <c r="N42" s="231"/>
       <c r="O42" s="216"/>
       <c r="P42" s="217"/>
-      <c r="R42" s="296"/>
-      <c r="S42" s="297"/>
-      <c r="T42" s="297"/>
-      <c r="U42" s="298"/>
+      <c r="R42" s="297"/>
+      <c r="S42" s="298"/>
+      <c r="T42" s="298"/>
+      <c r="U42" s="299"/>
     </row>
     <row r="43" spans="2:21" ht="20.25" customHeight="1">
       <c r="B43" s="172"/>
@@ -12821,10 +12911,10 @@
       <c r="N43" s="231"/>
       <c r="O43" s="216"/>
       <c r="P43" s="217"/>
-      <c r="R43" s="296"/>
-      <c r="S43" s="297"/>
-      <c r="T43" s="297"/>
-      <c r="U43" s="298"/>
+      <c r="R43" s="297"/>
+      <c r="S43" s="298"/>
+      <c r="T43" s="298"/>
+      <c r="U43" s="299"/>
     </row>
     <row r="44" spans="2:21" ht="20.25" customHeight="1">
       <c r="B44" s="172"/>
@@ -12846,10 +12936,10 @@
       <c r="N44" s="231"/>
       <c r="O44" s="216"/>
       <c r="P44" s="217"/>
-      <c r="R44" s="296"/>
-      <c r="S44" s="297"/>
-      <c r="T44" s="297"/>
-      <c r="U44" s="298"/>
+      <c r="R44" s="297"/>
+      <c r="S44" s="298"/>
+      <c r="T44" s="298"/>
+      <c r="U44" s="299"/>
     </row>
     <row r="45" spans="2:21" ht="20.25" customHeight="1">
       <c r="B45" s="172"/>
@@ -12871,10 +12961,10 @@
       <c r="N45" s="231"/>
       <c r="O45" s="216"/>
       <c r="P45" s="217"/>
-      <c r="R45" s="296"/>
-      <c r="S45" s="297"/>
-      <c r="T45" s="297"/>
-      <c r="U45" s="298"/>
+      <c r="R45" s="297"/>
+      <c r="S45" s="298"/>
+      <c r="T45" s="298"/>
+      <c r="U45" s="299"/>
     </row>
     <row r="46" spans="2:21" ht="20.25" customHeight="1">
       <c r="B46" s="172"/>
@@ -12896,10 +12986,10 @@
       <c r="N46" s="231"/>
       <c r="O46" s="216"/>
       <c r="P46" s="217"/>
-      <c r="R46" s="296"/>
-      <c r="S46" s="297"/>
-      <c r="T46" s="297"/>
-      <c r="U46" s="298"/>
+      <c r="R46" s="297"/>
+      <c r="S46" s="298"/>
+      <c r="T46" s="298"/>
+      <c r="U46" s="299"/>
     </row>
     <row r="47" spans="2:21" ht="20.25" customHeight="1">
       <c r="B47" s="172"/>
@@ -12921,10 +13011,10 @@
       <c r="N47" s="231"/>
       <c r="O47" s="216"/>
       <c r="P47" s="217"/>
-      <c r="R47" s="296"/>
-      <c r="S47" s="297"/>
-      <c r="T47" s="297"/>
-      <c r="U47" s="298"/>
+      <c r="R47" s="297"/>
+      <c r="S47" s="298"/>
+      <c r="T47" s="298"/>
+      <c r="U47" s="299"/>
     </row>
     <row r="48" spans="2:21" ht="20.25" customHeight="1">
       <c r="B48" s="169"/>
@@ -12942,10 +13032,10 @@
       <c r="N48" s="231"/>
       <c r="O48" s="216"/>
       <c r="P48" s="217"/>
-      <c r="R48" s="296"/>
-      <c r="S48" s="297"/>
-      <c r="T48" s="297"/>
-      <c r="U48" s="298"/>
+      <c r="R48" s="297"/>
+      <c r="S48" s="298"/>
+      <c r="T48" s="298"/>
+      <c r="U48" s="299"/>
     </row>
     <row r="49" spans="2:21" ht="20.25" customHeight="1">
       <c r="B49" s="174" t="s">
@@ -12965,10 +13055,10 @@
       <c r="N49" s="231"/>
       <c r="O49" s="216"/>
       <c r="P49" s="217"/>
-      <c r="R49" s="296"/>
-      <c r="S49" s="297"/>
-      <c r="T49" s="297"/>
-      <c r="U49" s="298"/>
+      <c r="R49" s="297"/>
+      <c r="S49" s="298"/>
+      <c r="T49" s="298"/>
+      <c r="U49" s="299"/>
     </row>
     <row r="50" spans="2:21" ht="20.25" customHeight="1">
       <c r="B50" s="172"/>
@@ -12990,10 +13080,10 @@
       <c r="N50" s="231"/>
       <c r="O50" s="216"/>
       <c r="P50" s="217"/>
-      <c r="R50" s="296"/>
-      <c r="S50" s="297"/>
-      <c r="T50" s="297"/>
-      <c r="U50" s="298"/>
+      <c r="R50" s="297"/>
+      <c r="S50" s="298"/>
+      <c r="T50" s="298"/>
+      <c r="U50" s="299"/>
     </row>
     <row r="51" spans="2:21" ht="20.25" customHeight="1">
       <c r="B51" s="172"/>
@@ -13015,10 +13105,10 @@
       <c r="N51" s="231"/>
       <c r="O51" s="216"/>
       <c r="P51" s="217"/>
-      <c r="R51" s="296"/>
-      <c r="S51" s="297"/>
-      <c r="T51" s="297"/>
-      <c r="U51" s="298"/>
+      <c r="R51" s="297"/>
+      <c r="S51" s="298"/>
+      <c r="T51" s="298"/>
+      <c r="U51" s="299"/>
     </row>
     <row r="52" spans="2:21" ht="20.25" customHeight="1">
       <c r="B52" s="172"/>
@@ -13040,10 +13130,10 @@
       <c r="N52" s="231"/>
       <c r="O52" s="216"/>
       <c r="P52" s="217"/>
-      <c r="R52" s="296"/>
-      <c r="S52" s="297"/>
-      <c r="T52" s="297"/>
-      <c r="U52" s="298"/>
+      <c r="R52" s="297"/>
+      <c r="S52" s="298"/>
+      <c r="T52" s="298"/>
+      <c r="U52" s="299"/>
     </row>
     <row r="53" spans="2:21" ht="20.25" customHeight="1">
       <c r="B53" s="172"/>
@@ -13065,10 +13155,10 @@
       <c r="N53" s="231"/>
       <c r="O53" s="216"/>
       <c r="P53" s="217"/>
-      <c r="R53" s="296"/>
-      <c r="S53" s="297"/>
-      <c r="T53" s="297"/>
-      <c r="U53" s="298"/>
+      <c r="R53" s="297"/>
+      <c r="S53" s="298"/>
+      <c r="T53" s="298"/>
+      <c r="U53" s="299"/>
     </row>
     <row r="54" spans="2:21" ht="20.25" customHeight="1">
       <c r="B54" s="172"/>
@@ -13086,10 +13176,10 @@
       <c r="N54" s="231"/>
       <c r="O54" s="216"/>
       <c r="P54" s="217"/>
-      <c r="R54" s="296"/>
-      <c r="S54" s="297"/>
-      <c r="T54" s="297"/>
-      <c r="U54" s="298"/>
+      <c r="R54" s="297"/>
+      <c r="S54" s="298"/>
+      <c r="T54" s="298"/>
+      <c r="U54" s="299"/>
     </row>
     <row r="55" spans="2:21" ht="20.25" customHeight="1">
       <c r="B55" s="174" t="s">
@@ -13109,10 +13199,10 @@
       <c r="N55" s="231"/>
       <c r="O55" s="216"/>
       <c r="P55" s="217"/>
-      <c r="R55" s="296"/>
-      <c r="S55" s="297"/>
-      <c r="T55" s="297"/>
-      <c r="U55" s="298"/>
+      <c r="R55" s="297"/>
+      <c r="S55" s="298"/>
+      <c r="T55" s="298"/>
+      <c r="U55" s="299"/>
     </row>
     <row r="56" spans="2:21" ht="20.25" customHeight="1">
       <c r="B56" s="172"/>
@@ -13134,10 +13224,10 @@
       <c r="N56" s="231"/>
       <c r="O56" s="216"/>
       <c r="P56" s="217"/>
-      <c r="R56" s="296"/>
-      <c r="S56" s="297"/>
-      <c r="T56" s="297"/>
-      <c r="U56" s="298"/>
+      <c r="R56" s="297"/>
+      <c r="S56" s="298"/>
+      <c r="T56" s="298"/>
+      <c r="U56" s="299"/>
     </row>
     <row r="57" spans="2:21" ht="20.25" customHeight="1">
       <c r="B57" s="172"/>
@@ -13159,10 +13249,10 @@
       <c r="N57" s="231"/>
       <c r="O57" s="216"/>
       <c r="P57" s="217"/>
-      <c r="R57" s="296"/>
-      <c r="S57" s="297"/>
-      <c r="T57" s="297"/>
-      <c r="U57" s="298"/>
+      <c r="R57" s="297"/>
+      <c r="S57" s="298"/>
+      <c r="T57" s="298"/>
+      <c r="U57" s="299"/>
     </row>
     <row r="58" spans="2:21" ht="20.25" customHeight="1">
       <c r="B58" s="172"/>
@@ -13184,10 +13274,10 @@
       <c r="N58" s="231"/>
       <c r="O58" s="216"/>
       <c r="P58" s="217"/>
-      <c r="R58" s="296"/>
-      <c r="S58" s="297"/>
-      <c r="T58" s="297"/>
-      <c r="U58" s="298"/>
+      <c r="R58" s="297"/>
+      <c r="S58" s="298"/>
+      <c r="T58" s="298"/>
+      <c r="U58" s="299"/>
     </row>
     <row r="59" spans="2:21" ht="20.25" customHeight="1">
       <c r="B59" s="172"/>
@@ -13209,10 +13299,10 @@
       <c r="N59" s="231"/>
       <c r="O59" s="216"/>
       <c r="P59" s="217"/>
-      <c r="R59" s="296"/>
-      <c r="S59" s="297"/>
-      <c r="T59" s="297"/>
-      <c r="U59" s="298"/>
+      <c r="R59" s="297"/>
+      <c r="S59" s="298"/>
+      <c r="T59" s="298"/>
+      <c r="U59" s="299"/>
     </row>
     <row r="60" spans="2:21" ht="20.25" customHeight="1">
       <c r="B60" s="172"/>
@@ -13234,10 +13324,10 @@
       <c r="N60" s="231"/>
       <c r="O60" s="216"/>
       <c r="P60" s="217"/>
-      <c r="R60" s="296"/>
-      <c r="S60" s="297"/>
-      <c r="T60" s="297"/>
-      <c r="U60" s="298"/>
+      <c r="R60" s="297"/>
+      <c r="S60" s="298"/>
+      <c r="T60" s="298"/>
+      <c r="U60" s="299"/>
     </row>
     <row r="61" spans="2:21" ht="20.25" customHeight="1">
       <c r="B61" s="218"/>
@@ -13255,10 +13345,10 @@
       <c r="N61" s="231"/>
       <c r="O61" s="216"/>
       <c r="P61" s="217"/>
-      <c r="R61" s="296"/>
-      <c r="S61" s="297"/>
-      <c r="T61" s="297"/>
-      <c r="U61" s="298"/>
+      <c r="R61" s="297"/>
+      <c r="S61" s="298"/>
+      <c r="T61" s="298"/>
+      <c r="U61" s="299"/>
     </row>
     <row r="62" spans="2:21" ht="20.25" customHeight="1">
       <c r="B62" s="174" t="s">
@@ -13278,10 +13368,10 @@
       <c r="N62" s="231"/>
       <c r="O62" s="216"/>
       <c r="P62" s="217"/>
-      <c r="R62" s="296"/>
-      <c r="S62" s="297"/>
-      <c r="T62" s="297"/>
-      <c r="U62" s="298"/>
+      <c r="R62" s="297"/>
+      <c r="S62" s="298"/>
+      <c r="T62" s="298"/>
+      <c r="U62" s="299"/>
     </row>
     <row r="63" spans="2:21" ht="20.25" customHeight="1">
       <c r="B63" s="172"/>
@@ -13303,10 +13393,10 @@
       <c r="N63" s="231"/>
       <c r="O63" s="216"/>
       <c r="P63" s="217"/>
-      <c r="R63" s="296"/>
-      <c r="S63" s="297"/>
-      <c r="T63" s="297"/>
-      <c r="U63" s="298"/>
+      <c r="R63" s="297"/>
+      <c r="S63" s="298"/>
+      <c r="T63" s="298"/>
+      <c r="U63" s="299"/>
     </row>
     <row r="64" spans="2:21" ht="20.25" customHeight="1">
       <c r="B64" s="172"/>
@@ -13328,10 +13418,10 @@
       <c r="N64" s="231"/>
       <c r="O64" s="216"/>
       <c r="P64" s="217"/>
-      <c r="R64" s="296"/>
-      <c r="S64" s="297"/>
-      <c r="T64" s="297"/>
-      <c r="U64" s="298"/>
+      <c r="R64" s="297"/>
+      <c r="S64" s="298"/>
+      <c r="T64" s="298"/>
+      <c r="U64" s="299"/>
     </row>
     <row r="65" spans="2:21" ht="20.25" customHeight="1">
       <c r="B65" s="169"/>
@@ -13349,10 +13439,10 @@
       <c r="N65" s="231"/>
       <c r="O65" s="216"/>
       <c r="P65" s="217"/>
-      <c r="R65" s="296"/>
-      <c r="S65" s="297"/>
-      <c r="T65" s="297"/>
-      <c r="U65" s="298"/>
+      <c r="R65" s="297"/>
+      <c r="S65" s="298"/>
+      <c r="T65" s="298"/>
+      <c r="U65" s="299"/>
     </row>
     <row r="66" spans="2:21" ht="20.25" customHeight="1">
       <c r="B66" s="174" t="s">
@@ -13374,10 +13464,10 @@
       </c>
       <c r="O66" s="216"/>
       <c r="P66" s="217"/>
-      <c r="R66" s="296"/>
-      <c r="S66" s="297"/>
-      <c r="T66" s="297"/>
-      <c r="U66" s="298"/>
+      <c r="R66" s="297"/>
+      <c r="S66" s="298"/>
+      <c r="T66" s="298"/>
+      <c r="U66" s="299"/>
     </row>
     <row r="67" spans="2:21" ht="20.25" customHeight="1">
       <c r="B67" s="172"/>
@@ -13399,10 +13489,10 @@
       </c>
       <c r="O67" s="216"/>
       <c r="P67" s="217"/>
-      <c r="R67" s="296"/>
-      <c r="S67" s="297"/>
-      <c r="T67" s="297"/>
-      <c r="U67" s="298"/>
+      <c r="R67" s="297"/>
+      <c r="S67" s="298"/>
+      <c r="T67" s="298"/>
+      <c r="U67" s="299"/>
     </row>
     <row r="68" spans="2:21" ht="20.25" customHeight="1">
       <c r="B68" s="169"/>
@@ -13424,10 +13514,10 @@
       </c>
       <c r="O68" s="216"/>
       <c r="P68" s="217"/>
-      <c r="R68" s="296"/>
-      <c r="S68" s="297"/>
-      <c r="T68" s="297"/>
-      <c r="U68" s="298"/>
+      <c r="R68" s="297"/>
+      <c r="S68" s="298"/>
+      <c r="T68" s="298"/>
+      <c r="U68" s="299"/>
     </row>
     <row r="69" spans="2:21" ht="20.25" customHeight="1">
       <c r="B69" s="169"/>
@@ -13449,10 +13539,10 @@
       </c>
       <c r="O69" s="216"/>
       <c r="P69" s="217"/>
-      <c r="R69" s="296"/>
-      <c r="S69" s="297"/>
-      <c r="T69" s="297"/>
-      <c r="U69" s="298"/>
+      <c r="R69" s="297"/>
+      <c r="S69" s="298"/>
+      <c r="T69" s="298"/>
+      <c r="U69" s="299"/>
     </row>
     <row r="70" spans="2:21" ht="20.25" customHeight="1">
       <c r="B70" s="169"/>
@@ -13474,10 +13564,10 @@
       </c>
       <c r="O70" s="216"/>
       <c r="P70" s="217"/>
-      <c r="R70" s="296"/>
-      <c r="S70" s="297"/>
-      <c r="T70" s="297"/>
-      <c r="U70" s="298"/>
+      <c r="R70" s="297"/>
+      <c r="S70" s="298"/>
+      <c r="T70" s="298"/>
+      <c r="U70" s="299"/>
     </row>
     <row r="71" spans="2:21" ht="20.25" customHeight="1">
       <c r="B71" s="169"/>
@@ -13499,10 +13589,10 @@
       </c>
       <c r="O71" s="216"/>
       <c r="P71" s="217"/>
-      <c r="R71" s="296"/>
-      <c r="S71" s="297"/>
-      <c r="T71" s="297"/>
-      <c r="U71" s="298"/>
+      <c r="R71" s="297"/>
+      <c r="S71" s="298"/>
+      <c r="T71" s="298"/>
+      <c r="U71" s="299"/>
     </row>
     <row r="72" spans="2:21" ht="20.25" customHeight="1">
       <c r="B72" s="169"/>
@@ -13524,10 +13614,10 @@
       </c>
       <c r="O72" s="216"/>
       <c r="P72" s="217"/>
-      <c r="R72" s="296"/>
-      <c r="S72" s="297"/>
-      <c r="T72" s="297"/>
-      <c r="U72" s="298"/>
+      <c r="R72" s="297"/>
+      <c r="S72" s="298"/>
+      <c r="T72" s="298"/>
+      <c r="U72" s="299"/>
     </row>
     <row r="73" spans="2:21" ht="20.25" customHeight="1">
       <c r="B73" s="169"/>
@@ -13549,10 +13639,10 @@
       </c>
       <c r="O73" s="216"/>
       <c r="P73" s="217"/>
-      <c r="R73" s="296"/>
-      <c r="S73" s="297"/>
-      <c r="T73" s="297"/>
-      <c r="U73" s="298"/>
+      <c r="R73" s="297"/>
+      <c r="S73" s="298"/>
+      <c r="T73" s="298"/>
+      <c r="U73" s="299"/>
     </row>
     <row r="74" spans="2:21" ht="20.25" customHeight="1">
       <c r="B74" s="169"/>
@@ -13574,10 +13664,10 @@
       </c>
       <c r="O74" s="216"/>
       <c r="P74" s="217"/>
-      <c r="R74" s="296"/>
-      <c r="S74" s="297"/>
-      <c r="T74" s="297"/>
-      <c r="U74" s="298"/>
+      <c r="R74" s="297"/>
+      <c r="S74" s="298"/>
+      <c r="T74" s="298"/>
+      <c r="U74" s="299"/>
     </row>
     <row r="75" spans="2:21" ht="20.25" customHeight="1">
       <c r="B75" s="169"/>
@@ -13599,10 +13689,10 @@
       </c>
       <c r="O75" s="216"/>
       <c r="P75" s="217"/>
-      <c r="R75" s="296"/>
-      <c r="S75" s="297"/>
-      <c r="T75" s="297"/>
-      <c r="U75" s="298"/>
+      <c r="R75" s="297"/>
+      <c r="S75" s="298"/>
+      <c r="T75" s="298"/>
+      <c r="U75" s="299"/>
     </row>
     <row r="76" spans="2:21" ht="20.25" customHeight="1">
       <c r="B76" s="169"/>
@@ -13620,10 +13710,10 @@
       <c r="N76" s="231"/>
       <c r="O76" s="216"/>
       <c r="P76" s="217"/>
-      <c r="R76" s="296"/>
-      <c r="S76" s="297"/>
-      <c r="T76" s="297"/>
-      <c r="U76" s="298"/>
+      <c r="R76" s="297"/>
+      <c r="S76" s="298"/>
+      <c r="T76" s="298"/>
+      <c r="U76" s="299"/>
     </row>
     <row r="77" spans="2:21" ht="20.25" customHeight="1">
       <c r="B77" s="174" t="s">
@@ -13645,10 +13735,10 @@
       </c>
       <c r="O77" s="216"/>
       <c r="P77" s="217"/>
-      <c r="R77" s="296"/>
-      <c r="S77" s="297"/>
-      <c r="T77" s="297"/>
-      <c r="U77" s="298"/>
+      <c r="R77" s="297"/>
+      <c r="S77" s="298"/>
+      <c r="T77" s="298"/>
+      <c r="U77" s="299"/>
     </row>
     <row r="78" spans="2:21" ht="20.25" customHeight="1">
       <c r="B78" s="172"/>
@@ -13670,10 +13760,10 @@
       </c>
       <c r="O78" s="216"/>
       <c r="P78" s="217"/>
-      <c r="R78" s="296"/>
-      <c r="S78" s="297"/>
-      <c r="T78" s="297"/>
-      <c r="U78" s="298"/>
+      <c r="R78" s="297"/>
+      <c r="S78" s="298"/>
+      <c r="T78" s="298"/>
+      <c r="U78" s="299"/>
     </row>
     <row r="79" spans="2:21" ht="20.25" customHeight="1">
       <c r="B79" s="172"/>
@@ -13695,10 +13785,10 @@
       </c>
       <c r="O79" s="216"/>
       <c r="P79" s="217"/>
-      <c r="R79" s="296"/>
-      <c r="S79" s="297"/>
-      <c r="T79" s="297"/>
-      <c r="U79" s="298"/>
+      <c r="R79" s="297"/>
+      <c r="S79" s="298"/>
+      <c r="T79" s="298"/>
+      <c r="U79" s="299"/>
     </row>
     <row r="80" spans="2:21" ht="20.25" customHeight="1">
       <c r="B80" s="169"/>
@@ -13716,10 +13806,10 @@
       <c r="N80" s="231"/>
       <c r="O80" s="216"/>
       <c r="P80" s="217"/>
-      <c r="R80" s="296"/>
-      <c r="S80" s="297"/>
-      <c r="T80" s="297"/>
-      <c r="U80" s="298"/>
+      <c r="R80" s="297"/>
+      <c r="S80" s="298"/>
+      <c r="T80" s="298"/>
+      <c r="U80" s="299"/>
     </row>
     <row r="81" spans="2:21" ht="20.25" customHeight="1">
       <c r="B81" s="174" t="s">
@@ -13741,10 +13831,10 @@
       </c>
       <c r="O81" s="216"/>
       <c r="P81" s="217"/>
-      <c r="R81" s="296"/>
-      <c r="S81" s="297"/>
-      <c r="T81" s="297"/>
-      <c r="U81" s="298"/>
+      <c r="R81" s="297"/>
+      <c r="S81" s="298"/>
+      <c r="T81" s="298"/>
+      <c r="U81" s="299"/>
     </row>
     <row r="82" spans="2:21" ht="20.25" customHeight="1">
       <c r="B82" s="172"/>
@@ -13766,10 +13856,10 @@
       </c>
       <c r="O82" s="216"/>
       <c r="P82" s="217"/>
-      <c r="R82" s="296"/>
-      <c r="S82" s="297"/>
-      <c r="T82" s="297"/>
-      <c r="U82" s="298"/>
+      <c r="R82" s="297"/>
+      <c r="S82" s="298"/>
+      <c r="T82" s="298"/>
+      <c r="U82" s="299"/>
     </row>
     <row r="83" spans="2:21" ht="20.25" customHeight="1">
       <c r="B83" s="172"/>
@@ -13791,10 +13881,10 @@
       </c>
       <c r="O83" s="216"/>
       <c r="P83" s="217"/>
-      <c r="R83" s="296"/>
-      <c r="S83" s="297"/>
-      <c r="T83" s="297"/>
-      <c r="U83" s="298"/>
+      <c r="R83" s="297"/>
+      <c r="S83" s="298"/>
+      <c r="T83" s="298"/>
+      <c r="U83" s="299"/>
     </row>
     <row r="84" spans="2:21" ht="20.25" customHeight="1">
       <c r="B84" s="172"/>
@@ -13816,10 +13906,10 @@
       </c>
       <c r="O84" s="216"/>
       <c r="P84" s="217"/>
-      <c r="R84" s="296"/>
-      <c r="S84" s="297"/>
-      <c r="T84" s="297"/>
-      <c r="U84" s="298"/>
+      <c r="R84" s="297"/>
+      <c r="S84" s="298"/>
+      <c r="T84" s="298"/>
+      <c r="U84" s="299"/>
     </row>
     <row r="85" spans="2:21" ht="20.25" customHeight="1">
       <c r="B85" s="172"/>
@@ -13841,10 +13931,10 @@
       </c>
       <c r="O85" s="216"/>
       <c r="P85" s="217"/>
-      <c r="R85" s="296"/>
-      <c r="S85" s="297"/>
-      <c r="T85" s="297"/>
-      <c r="U85" s="298"/>
+      <c r="R85" s="297"/>
+      <c r="S85" s="298"/>
+      <c r="T85" s="298"/>
+      <c r="U85" s="299"/>
     </row>
     <row r="86" spans="2:21" ht="20.25" customHeight="1">
       <c r="B86" s="172"/>
@@ -13866,10 +13956,10 @@
       </c>
       <c r="O86" s="216"/>
       <c r="P86" s="217"/>
-      <c r="R86" s="296"/>
-      <c r="S86" s="297"/>
-      <c r="T86" s="297"/>
-      <c r="U86" s="298"/>
+      <c r="R86" s="297"/>
+      <c r="S86" s="298"/>
+      <c r="T86" s="298"/>
+      <c r="U86" s="299"/>
     </row>
     <row r="87" spans="2:21" ht="20.25" customHeight="1">
       <c r="B87" s="169"/>
@@ -13887,10 +13977,10 @@
       <c r="N87" s="231"/>
       <c r="O87" s="216"/>
       <c r="P87" s="217"/>
-      <c r="R87" s="296"/>
-      <c r="S87" s="297"/>
-      <c r="T87" s="297"/>
-      <c r="U87" s="298"/>
+      <c r="R87" s="297"/>
+      <c r="S87" s="298"/>
+      <c r="T87" s="298"/>
+      <c r="U87" s="299"/>
     </row>
     <row r="88" spans="2:21" ht="20.25" customHeight="1">
       <c r="B88" s="174" t="s">
@@ -13912,10 +14002,10 @@
       </c>
       <c r="O88" s="216"/>
       <c r="P88" s="217"/>
-      <c r="R88" s="296"/>
-      <c r="S88" s="297"/>
-      <c r="T88" s="297"/>
-      <c r="U88" s="298"/>
+      <c r="R88" s="297"/>
+      <c r="S88" s="298"/>
+      <c r="T88" s="298"/>
+      <c r="U88" s="299"/>
     </row>
     <row r="89" spans="2:21" ht="20.25" customHeight="1">
       <c r="B89" s="172"/>
@@ -13937,10 +14027,10 @@
       </c>
       <c r="O89" s="216"/>
       <c r="P89" s="217"/>
-      <c r="R89" s="296"/>
-      <c r="S89" s="297"/>
-      <c r="T89" s="297"/>
-      <c r="U89" s="298"/>
+      <c r="R89" s="297"/>
+      <c r="S89" s="298"/>
+      <c r="T89" s="298"/>
+      <c r="U89" s="299"/>
     </row>
     <row r="90" spans="2:21" ht="20.25" customHeight="1">
       <c r="B90" s="172"/>
@@ -13962,10 +14052,10 @@
       </c>
       <c r="O90" s="216"/>
       <c r="P90" s="217"/>
-      <c r="R90" s="296"/>
-      <c r="S90" s="297"/>
-      <c r="T90" s="297"/>
-      <c r="U90" s="298"/>
+      <c r="R90" s="297"/>
+      <c r="S90" s="298"/>
+      <c r="T90" s="298"/>
+      <c r="U90" s="299"/>
     </row>
     <row r="91" spans="2:21" ht="20.25" customHeight="1">
       <c r="B91" s="172"/>
@@ -13987,10 +14077,10 @@
       </c>
       <c r="O91" s="216"/>
       <c r="P91" s="217"/>
-      <c r="R91" s="296"/>
-      <c r="S91" s="297"/>
-      <c r="T91" s="297"/>
-      <c r="U91" s="298"/>
+      <c r="R91" s="297"/>
+      <c r="S91" s="298"/>
+      <c r="T91" s="298"/>
+      <c r="U91" s="299"/>
     </row>
     <row r="92" spans="2:21" ht="20.25" customHeight="1">
       <c r="B92" s="169"/>
@@ -14012,10 +14102,10 @@
       </c>
       <c r="O92" s="216"/>
       <c r="P92" s="217"/>
-      <c r="R92" s="296"/>
-      <c r="S92" s="297"/>
-      <c r="T92" s="297"/>
-      <c r="U92" s="298"/>
+      <c r="R92" s="297"/>
+      <c r="S92" s="298"/>
+      <c r="T92" s="298"/>
+      <c r="U92" s="299"/>
     </row>
     <row r="93" spans="2:21" ht="20.25" customHeight="1">
       <c r="B93" s="218"/>
@@ -14033,10 +14123,10 @@
       <c r="N93" s="231"/>
       <c r="O93" s="216"/>
       <c r="P93" s="217"/>
-      <c r="R93" s="296"/>
-      <c r="S93" s="297"/>
-      <c r="T93" s="297"/>
-      <c r="U93" s="298"/>
+      <c r="R93" s="297"/>
+      <c r="S93" s="298"/>
+      <c r="T93" s="298"/>
+      <c r="U93" s="299"/>
     </row>
     <row r="94" spans="2:21" ht="20.25" customHeight="1" thickBot="1">
       <c r="B94" s="225"/>
@@ -14054,10 +14144,10 @@
       <c r="N94" s="230"/>
       <c r="O94" s="226"/>
       <c r="P94" s="228"/>
-      <c r="R94" s="299"/>
-      <c r="S94" s="300"/>
-      <c r="T94" s="300"/>
-      <c r="U94" s="301"/>
+      <c r="R94" s="300"/>
+      <c r="S94" s="301"/>
+      <c r="T94" s="301"/>
+      <c r="U94" s="302"/>
     </row>
     <row r="95" spans="2:21" ht="15.75" customHeight="1">
       <c r="B95" s="186"/>
@@ -14087,6 +14177,1482 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF37BED3-50F6-4257-8DB9-5FEA2D15DF1E}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="B2:U61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="47.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.42578125" customWidth="1"/>
+    <col min="10" max="10" width="20.5703125" customWidth="1"/>
+    <col min="11" max="12" width="9.42578125" customWidth="1"/>
+    <col min="13" max="13" width="20.5703125" customWidth="1"/>
+    <col min="14" max="15" width="9.42578125" customWidth="1"/>
+    <col min="16" max="16" width="17.140625" customWidth="1"/>
+    <col min="17" max="17" width="3.85546875" customWidth="1"/>
+    <col min="18" max="26" width="11.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" ht="21.75" customHeight="1">
+      <c r="B2" s="23"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+    </row>
+    <row r="3" spans="2:21" ht="21.75" customHeight="1">
+      <c r="B3" s="176" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="293"/>
+      <c r="I3" s="236"/>
+      <c r="J3" s="236"/>
+      <c r="K3" s="236"/>
+      <c r="L3" s="236"/>
+      <c r="M3" s="236"/>
+      <c r="N3" s="236"/>
+      <c r="O3" s="236"/>
+      <c r="P3" s="236"/>
+    </row>
+    <row r="4" spans="2:21" ht="21.75" customHeight="1" thickBot="1">
+      <c r="B4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+    </row>
+    <row r="5" spans="2:21" s="150" customFormat="1" ht="21.75" customHeight="1" thickTop="1" thickBot="1">
+      <c r="B5" s="177" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="178"/>
+      <c r="D5" s="179"/>
+      <c r="E5" s="177" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" s="180"/>
+      <c r="G5" s="181"/>
+      <c r="H5" s="181"/>
+      <c r="I5" s="181"/>
+      <c r="J5" s="182"/>
+      <c r="K5" s="163"/>
+      <c r="L5" s="163"/>
+      <c r="M5" s="163"/>
+      <c r="N5" s="163"/>
+      <c r="R5" s="120" t="s">
+        <v>589</v>
+      </c>
+      <c r="S5" s="181"/>
+      <c r="T5" s="121"/>
+      <c r="U5" s="122"/>
+    </row>
+    <row r="6" spans="2:21" ht="21.75" customHeight="1" thickTop="1">
+      <c r="B6" s="26"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="26"/>
+      <c r="M6" s="26"/>
+      <c r="N6" s="26"/>
+      <c r="R6" s="294" t="s">
+        <v>601</v>
+      </c>
+      <c r="S6" s="295"/>
+      <c r="T6" s="295"/>
+      <c r="U6" s="296"/>
+    </row>
+    <row r="7" spans="2:21" ht="21.75" customHeight="1" thickBot="1">
+      <c r="B7" s="183" t="s">
+        <v>591</v>
+      </c>
+      <c r="C7" s="184"/>
+      <c r="D7" s="185"/>
+      <c r="E7" s="186"/>
+      <c r="F7" s="184"/>
+      <c r="G7" s="184"/>
+      <c r="H7" s="184"/>
+      <c r="I7" s="184"/>
+      <c r="J7" s="184"/>
+      <c r="K7" s="184"/>
+      <c r="L7" s="184"/>
+      <c r="M7" s="184"/>
+      <c r="N7" s="184"/>
+      <c r="R7" s="297"/>
+      <c r="S7" s="298"/>
+      <c r="T7" s="298"/>
+      <c r="U7" s="299"/>
+    </row>
+    <row r="8" spans="2:21" ht="15">
+      <c r="B8" s="187" t="s">
+        <v>89</v>
+      </c>
+      <c r="C8" s="188" t="s">
+        <v>90</v>
+      </c>
+      <c r="D8" s="189" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="190"/>
+      <c r="F8" s="184"/>
+      <c r="G8" s="184"/>
+      <c r="H8" s="190"/>
+      <c r="I8" s="184"/>
+      <c r="J8" s="184"/>
+      <c r="K8" s="184"/>
+      <c r="L8" s="184"/>
+      <c r="M8" s="184"/>
+      <c r="N8" s="190"/>
+      <c r="R8" s="297"/>
+      <c r="S8" s="298"/>
+      <c r="T8" s="298"/>
+      <c r="U8" s="299"/>
+    </row>
+    <row r="9" spans="2:21" thickBot="1">
+      <c r="B9" s="191" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="192" t="s">
+        <v>93</v>
+      </c>
+      <c r="D9" s="193" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="194"/>
+      <c r="F9" s="194"/>
+      <c r="G9" s="194"/>
+      <c r="H9" s="194"/>
+      <c r="I9" s="194"/>
+      <c r="J9" s="194"/>
+      <c r="K9" s="194"/>
+      <c r="L9" s="194"/>
+      <c r="M9" s="194"/>
+      <c r="N9" s="194"/>
+      <c r="R9" s="297"/>
+      <c r="S9" s="298"/>
+      <c r="T9" s="298"/>
+      <c r="U9" s="299"/>
+    </row>
+    <row r="10" spans="2:21" thickBot="1">
+      <c r="B10" s="191" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="195" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="192" t="s">
+        <v>97</v>
+      </c>
+      <c r="E10" s="196" t="s">
+        <v>592</v>
+      </c>
+      <c r="F10" s="197"/>
+      <c r="G10" s="197"/>
+      <c r="H10" s="198" t="s">
+        <v>593</v>
+      </c>
+      <c r="I10" s="199"/>
+      <c r="J10" s="199"/>
+      <c r="K10" s="198" t="s">
+        <v>594</v>
+      </c>
+      <c r="L10" s="199"/>
+      <c r="M10" s="199"/>
+      <c r="N10" s="196" t="s">
+        <v>595</v>
+      </c>
+      <c r="O10" s="200"/>
+      <c r="P10" s="201"/>
+      <c r="R10" s="297"/>
+      <c r="S10" s="298"/>
+      <c r="T10" s="298"/>
+      <c r="U10" s="299"/>
+    </row>
+    <row r="11" spans="2:21" ht="15" customHeight="1" thickBot="1">
+      <c r="B11" s="202"/>
+      <c r="C11" s="203"/>
+      <c r="D11" s="204"/>
+      <c r="E11" s="205" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="206" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="207" t="s">
+        <v>100</v>
+      </c>
+      <c r="H11" s="208" t="s">
+        <v>98</v>
+      </c>
+      <c r="I11" s="209" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" s="210" t="s">
+        <v>100</v>
+      </c>
+      <c r="K11" s="208" t="s">
+        <v>98</v>
+      </c>
+      <c r="L11" s="209" t="s">
+        <v>99</v>
+      </c>
+      <c r="M11" s="210" t="s">
+        <v>100</v>
+      </c>
+      <c r="N11" s="205" t="s">
+        <v>98</v>
+      </c>
+      <c r="O11" s="206" t="s">
+        <v>99</v>
+      </c>
+      <c r="P11" s="211" t="s">
+        <v>100</v>
+      </c>
+      <c r="R11" s="297"/>
+      <c r="S11" s="298"/>
+      <c r="T11" s="298"/>
+      <c r="U11" s="299"/>
+    </row>
+    <row r="12" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B12" s="171"/>
+      <c r="C12" s="171"/>
+      <c r="D12" s="218"/>
+      <c r="E12" s="231"/>
+      <c r="F12" s="232"/>
+      <c r="G12" s="217"/>
+      <c r="H12" s="231"/>
+      <c r="I12" s="216"/>
+      <c r="J12" s="217"/>
+      <c r="K12" s="231"/>
+      <c r="L12" s="216"/>
+      <c r="M12" s="217"/>
+      <c r="N12" s="231"/>
+      <c r="O12" s="216"/>
+      <c r="P12" s="217"/>
+      <c r="R12" s="297"/>
+      <c r="S12" s="298"/>
+      <c r="T12" s="298"/>
+      <c r="U12" s="299"/>
+    </row>
+    <row r="13" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B13" s="174" t="s">
+        <v>602</v>
+      </c>
+      <c r="C13" s="174"/>
+      <c r="D13" s="218"/>
+      <c r="E13" s="231"/>
+      <c r="F13" s="232"/>
+      <c r="G13" s="217"/>
+      <c r="H13" s="231"/>
+      <c r="I13" s="216"/>
+      <c r="J13" s="217"/>
+      <c r="K13" s="231"/>
+      <c r="L13" s="216"/>
+      <c r="M13" s="217"/>
+      <c r="N13" s="231"/>
+      <c r="O13" s="216"/>
+      <c r="P13" s="217"/>
+      <c r="R13" s="297"/>
+      <c r="S13" s="298"/>
+      <c r="T13" s="298"/>
+      <c r="U13" s="299"/>
+    </row>
+    <row r="14" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B14" s="172"/>
+      <c r="C14" s="172" t="s">
+        <v>484</v>
+      </c>
+      <c r="D14" s="218" t="s">
+        <v>596</v>
+      </c>
+      <c r="E14" s="231">
+        <v>45978</v>
+      </c>
+      <c r="F14" s="233"/>
+      <c r="G14" s="217"/>
+      <c r="H14" s="231"/>
+      <c r="I14" s="216"/>
+      <c r="J14" s="217"/>
+      <c r="K14" s="231"/>
+      <c r="L14" s="216"/>
+      <c r="M14" s="217"/>
+      <c r="N14" s="231"/>
+      <c r="O14" s="216"/>
+      <c r="P14" s="217"/>
+      <c r="R14" s="297"/>
+      <c r="S14" s="298"/>
+      <c r="T14" s="298"/>
+      <c r="U14" s="299"/>
+    </row>
+    <row r="15" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B15" s="172"/>
+      <c r="C15" s="172" t="s">
+        <v>487</v>
+      </c>
+      <c r="D15" s="218" t="s">
+        <v>596</v>
+      </c>
+      <c r="E15" s="231">
+        <v>45978</v>
+      </c>
+      <c r="F15" s="233"/>
+      <c r="G15" s="217"/>
+      <c r="H15" s="231"/>
+      <c r="I15" s="216"/>
+      <c r="J15" s="217"/>
+      <c r="K15" s="231"/>
+      <c r="L15" s="216"/>
+      <c r="M15" s="217"/>
+      <c r="N15" s="231"/>
+      <c r="O15" s="216"/>
+      <c r="P15" s="217"/>
+      <c r="R15" s="297"/>
+      <c r="S15" s="298"/>
+      <c r="T15" s="298"/>
+      <c r="U15" s="299"/>
+    </row>
+    <row r="16" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B16" s="172"/>
+      <c r="C16" s="172" t="s">
+        <v>598</v>
+      </c>
+      <c r="D16" s="218" t="s">
+        <v>596</v>
+      </c>
+      <c r="E16" s="231"/>
+      <c r="F16" s="303"/>
+      <c r="G16" s="217"/>
+      <c r="H16" s="231"/>
+      <c r="I16" s="216"/>
+      <c r="J16" s="217"/>
+      <c r="K16" s="231">
+        <v>45985</v>
+      </c>
+      <c r="L16" s="233"/>
+      <c r="M16" s="217"/>
+      <c r="N16" s="231"/>
+      <c r="O16" s="216"/>
+      <c r="P16" s="217"/>
+      <c r="R16" s="297"/>
+      <c r="S16" s="298"/>
+      <c r="T16" s="298"/>
+      <c r="U16" s="299"/>
+    </row>
+    <row r="17" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B17" s="172"/>
+      <c r="C17" s="172" t="s">
+        <v>486</v>
+      </c>
+      <c r="D17" s="218" t="s">
+        <v>596</v>
+      </c>
+      <c r="E17" s="231"/>
+      <c r="F17" s="232"/>
+      <c r="G17" s="217"/>
+      <c r="H17" s="231"/>
+      <c r="I17" s="216"/>
+      <c r="J17" s="217"/>
+      <c r="K17" s="231">
+        <v>45985</v>
+      </c>
+      <c r="L17" s="233"/>
+      <c r="M17" s="217"/>
+      <c r="N17" s="231"/>
+      <c r="O17" s="216"/>
+      <c r="P17" s="217"/>
+      <c r="R17" s="297"/>
+      <c r="S17" s="298"/>
+      <c r="T17" s="298"/>
+      <c r="U17" s="299"/>
+    </row>
+    <row r="18" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B18" s="172"/>
+      <c r="C18" s="172"/>
+      <c r="D18" s="218"/>
+      <c r="E18" s="231"/>
+      <c r="F18" s="232"/>
+      <c r="G18" s="217"/>
+      <c r="H18" s="231"/>
+      <c r="I18" s="216"/>
+      <c r="J18" s="217"/>
+      <c r="K18" s="231"/>
+      <c r="L18" s="216"/>
+      <c r="M18" s="217"/>
+      <c r="N18" s="231"/>
+      <c r="O18" s="216"/>
+      <c r="P18" s="217"/>
+      <c r="R18" s="297"/>
+      <c r="S18" s="298"/>
+      <c r="T18" s="298"/>
+      <c r="U18" s="299"/>
+    </row>
+    <row r="19" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B19" s="174" t="s">
+        <v>603</v>
+      </c>
+      <c r="C19" s="172"/>
+      <c r="D19" s="218"/>
+      <c r="E19" s="231"/>
+      <c r="F19" s="232"/>
+      <c r="G19" s="217"/>
+      <c r="H19" s="231"/>
+      <c r="I19" s="216"/>
+      <c r="J19" s="217"/>
+      <c r="K19" s="231"/>
+      <c r="L19" s="216"/>
+      <c r="M19" s="217"/>
+      <c r="N19" s="231"/>
+      <c r="O19" s="216"/>
+      <c r="P19" s="217"/>
+      <c r="R19" s="297"/>
+      <c r="S19" s="298"/>
+      <c r="T19" s="298"/>
+      <c r="U19" s="299"/>
+    </row>
+    <row r="20" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B20" s="174"/>
+      <c r="C20" s="172" t="s">
+        <v>604</v>
+      </c>
+      <c r="D20" s="218" t="s">
+        <v>596</v>
+      </c>
+      <c r="E20" s="231"/>
+      <c r="F20" s="232"/>
+      <c r="G20" s="217"/>
+      <c r="H20" s="231">
+        <v>45982</v>
+      </c>
+      <c r="I20" s="233"/>
+      <c r="J20" s="217"/>
+      <c r="K20" s="231"/>
+      <c r="L20" s="216"/>
+      <c r="M20" s="217"/>
+      <c r="N20" s="231"/>
+      <c r="O20" s="216"/>
+      <c r="P20" s="217"/>
+      <c r="R20" s="297"/>
+      <c r="S20" s="298"/>
+      <c r="T20" s="298"/>
+      <c r="U20" s="299"/>
+    </row>
+    <row r="21" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B21" s="172"/>
+      <c r="C21" s="172" t="s">
+        <v>605</v>
+      </c>
+      <c r="D21" s="218" t="s">
+        <v>596</v>
+      </c>
+      <c r="E21" s="231"/>
+      <c r="F21" s="232"/>
+      <c r="G21" s="217"/>
+      <c r="H21" s="231">
+        <v>45982</v>
+      </c>
+      <c r="I21" s="233"/>
+      <c r="J21" s="217"/>
+      <c r="K21" s="231"/>
+      <c r="L21" s="216"/>
+      <c r="M21" s="217"/>
+      <c r="N21" s="231"/>
+      <c r="O21" s="216"/>
+      <c r="P21" s="217"/>
+      <c r="R21" s="297"/>
+      <c r="S21" s="298"/>
+      <c r="T21" s="298"/>
+      <c r="U21" s="299"/>
+    </row>
+    <row r="22" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B22" s="172"/>
+      <c r="C22" s="172" t="s">
+        <v>606</v>
+      </c>
+      <c r="D22" s="218" t="s">
+        <v>596</v>
+      </c>
+      <c r="E22" s="231"/>
+      <c r="F22" s="232"/>
+      <c r="G22" s="217"/>
+      <c r="H22" s="231">
+        <v>45982</v>
+      </c>
+      <c r="I22" s="233"/>
+      <c r="J22" s="217"/>
+      <c r="K22" s="231"/>
+      <c r="L22" s="216"/>
+      <c r="M22" s="217"/>
+      <c r="N22" s="231"/>
+      <c r="O22" s="216"/>
+      <c r="P22" s="217"/>
+      <c r="R22" s="297"/>
+      <c r="S22" s="298"/>
+      <c r="T22" s="298"/>
+      <c r="U22" s="299"/>
+    </row>
+    <row r="23" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B23" s="172"/>
+      <c r="C23" s="172" t="s">
+        <v>607</v>
+      </c>
+      <c r="D23" s="218" t="s">
+        <v>596</v>
+      </c>
+      <c r="E23" s="231"/>
+      <c r="F23" s="232"/>
+      <c r="G23" s="217"/>
+      <c r="H23" s="231"/>
+      <c r="I23" s="216"/>
+      <c r="J23" s="217"/>
+      <c r="K23" s="231">
+        <v>45985</v>
+      </c>
+      <c r="L23" s="233"/>
+      <c r="M23" s="217"/>
+      <c r="N23" s="231"/>
+      <c r="O23" s="216"/>
+      <c r="P23" s="217"/>
+      <c r="R23" s="297"/>
+      <c r="S23" s="298"/>
+      <c r="T23" s="298"/>
+      <c r="U23" s="299"/>
+    </row>
+    <row r="24" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B24" s="172"/>
+      <c r="C24" s="172" t="s">
+        <v>608</v>
+      </c>
+      <c r="D24" s="218" t="s">
+        <v>596</v>
+      </c>
+      <c r="E24" s="231"/>
+      <c r="F24" s="232"/>
+      <c r="G24" s="217"/>
+      <c r="H24" s="231">
+        <v>45982</v>
+      </c>
+      <c r="I24" s="233"/>
+      <c r="J24" s="217"/>
+      <c r="K24" s="231"/>
+      <c r="L24" s="216"/>
+      <c r="M24" s="217"/>
+      <c r="N24" s="231"/>
+      <c r="O24" s="216"/>
+      <c r="P24" s="217"/>
+      <c r="R24" s="297"/>
+      <c r="S24" s="298"/>
+      <c r="T24" s="298"/>
+      <c r="U24" s="299"/>
+    </row>
+    <row r="25" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B25" s="172"/>
+      <c r="C25" s="172" t="s">
+        <v>610</v>
+      </c>
+      <c r="D25" s="218" t="s">
+        <v>596</v>
+      </c>
+      <c r="E25" s="231"/>
+      <c r="F25" s="232"/>
+      <c r="G25" s="217"/>
+      <c r="H25" s="231"/>
+      <c r="I25" s="216"/>
+      <c r="J25" s="217"/>
+      <c r="K25" s="231">
+        <v>45985</v>
+      </c>
+      <c r="L25" s="233"/>
+      <c r="M25" s="217"/>
+      <c r="N25" s="231"/>
+      <c r="O25" s="216"/>
+      <c r="P25" s="217"/>
+      <c r="R25" s="297"/>
+      <c r="S25" s="298"/>
+      <c r="T25" s="298"/>
+      <c r="U25" s="299"/>
+    </row>
+    <row r="26" spans="2:21" s="311" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B26" s="306"/>
+      <c r="C26" s="306" t="s">
+        <v>609</v>
+      </c>
+      <c r="D26" s="307" t="s">
+        <v>596</v>
+      </c>
+      <c r="E26" s="308"/>
+      <c r="F26" s="309"/>
+      <c r="G26" s="234"/>
+      <c r="H26" s="308"/>
+      <c r="I26" s="310"/>
+      <c r="J26" s="234"/>
+      <c r="K26" s="308"/>
+      <c r="L26" s="310"/>
+      <c r="M26" s="234"/>
+      <c r="N26" s="308">
+        <v>45989</v>
+      </c>
+      <c r="O26" s="310"/>
+      <c r="P26" s="234"/>
+      <c r="R26" s="297"/>
+      <c r="S26" s="298"/>
+      <c r="T26" s="298"/>
+      <c r="U26" s="299"/>
+    </row>
+    <row r="27" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B27" s="172"/>
+      <c r="C27" s="172"/>
+      <c r="D27" s="218"/>
+      <c r="E27" s="231"/>
+      <c r="F27" s="232"/>
+      <c r="G27" s="217"/>
+      <c r="H27" s="231"/>
+      <c r="I27" s="216"/>
+      <c r="J27" s="217"/>
+      <c r="K27" s="231"/>
+      <c r="L27" s="216"/>
+      <c r="M27" s="217"/>
+      <c r="N27" s="231"/>
+      <c r="O27" s="216"/>
+      <c r="P27" s="217"/>
+      <c r="R27" s="297"/>
+      <c r="S27" s="298"/>
+      <c r="T27" s="298"/>
+      <c r="U27" s="299"/>
+    </row>
+    <row r="28" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B28" s="174" t="s">
+        <v>611</v>
+      </c>
+      <c r="C28" s="172"/>
+      <c r="D28" s="218"/>
+      <c r="E28" s="231"/>
+      <c r="F28" s="232"/>
+      <c r="G28" s="217"/>
+      <c r="H28" s="231"/>
+      <c r="I28" s="216"/>
+      <c r="J28" s="217"/>
+      <c r="K28" s="231"/>
+      <c r="L28" s="216"/>
+      <c r="M28" s="217"/>
+      <c r="N28" s="231"/>
+      <c r="O28" s="216"/>
+      <c r="P28" s="217"/>
+      <c r="R28" s="297"/>
+      <c r="S28" s="298"/>
+      <c r="T28" s="298"/>
+      <c r="U28" s="299"/>
+    </row>
+    <row r="29" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B29" s="172"/>
+      <c r="C29" s="172" t="s">
+        <v>612</v>
+      </c>
+      <c r="D29" s="218" t="s">
+        <v>596</v>
+      </c>
+      <c r="E29" s="231"/>
+      <c r="F29" s="232"/>
+      <c r="G29" s="217"/>
+      <c r="H29" s="231"/>
+      <c r="I29" s="216"/>
+      <c r="J29" s="217"/>
+      <c r="K29" s="231">
+        <v>45985</v>
+      </c>
+      <c r="L29" s="233"/>
+      <c r="M29" s="217"/>
+      <c r="N29" s="231"/>
+      <c r="O29" s="216"/>
+      <c r="P29" s="217"/>
+      <c r="R29" s="297"/>
+      <c r="S29" s="298"/>
+      <c r="T29" s="298"/>
+      <c r="U29" s="299"/>
+    </row>
+    <row r="30" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B30" s="172"/>
+      <c r="C30" s="172" t="s">
+        <v>613</v>
+      </c>
+      <c r="D30" s="218" t="s">
+        <v>596</v>
+      </c>
+      <c r="E30" s="231"/>
+      <c r="F30" s="232"/>
+      <c r="G30" s="217"/>
+      <c r="H30" s="231"/>
+      <c r="I30" s="216"/>
+      <c r="J30" s="217"/>
+      <c r="K30" s="231">
+        <v>45985</v>
+      </c>
+      <c r="L30" s="233"/>
+      <c r="M30" s="217"/>
+      <c r="N30" s="231"/>
+      <c r="O30" s="216"/>
+      <c r="P30" s="217"/>
+      <c r="R30" s="297"/>
+      <c r="S30" s="298"/>
+      <c r="T30" s="298"/>
+      <c r="U30" s="299"/>
+    </row>
+    <row r="31" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B31" s="172"/>
+      <c r="C31" s="172" t="s">
+        <v>614</v>
+      </c>
+      <c r="D31" s="218" t="s">
+        <v>596</v>
+      </c>
+      <c r="E31" s="231"/>
+      <c r="F31" s="232"/>
+      <c r="G31" s="217"/>
+      <c r="H31" s="231"/>
+      <c r="I31" s="216"/>
+      <c r="J31" s="217"/>
+      <c r="K31" s="231">
+        <v>45985</v>
+      </c>
+      <c r="L31" s="233"/>
+      <c r="M31" s="217"/>
+      <c r="N31" s="231"/>
+      <c r="O31" s="216"/>
+      <c r="P31" s="217"/>
+      <c r="R31" s="297"/>
+      <c r="S31" s="298"/>
+      <c r="T31" s="298"/>
+      <c r="U31" s="299"/>
+    </row>
+    <row r="32" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B32" s="172"/>
+      <c r="C32" s="172"/>
+      <c r="D32" s="218"/>
+      <c r="E32" s="231"/>
+      <c r="F32" s="232"/>
+      <c r="G32" s="217"/>
+      <c r="H32" s="231"/>
+      <c r="I32" s="216"/>
+      <c r="J32" s="217"/>
+      <c r="K32" s="231"/>
+      <c r="L32" s="216"/>
+      <c r="M32" s="217"/>
+      <c r="N32" s="231"/>
+      <c r="O32" s="216"/>
+      <c r="P32" s="217"/>
+      <c r="R32" s="297"/>
+      <c r="S32" s="298"/>
+      <c r="T32" s="298"/>
+      <c r="U32" s="299"/>
+    </row>
+    <row r="33" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B33" s="174" t="s">
+        <v>617</v>
+      </c>
+      <c r="C33" s="172"/>
+      <c r="D33" s="218"/>
+      <c r="E33" s="231"/>
+      <c r="F33" s="232"/>
+      <c r="G33" s="217"/>
+      <c r="H33" s="231"/>
+      <c r="I33" s="216"/>
+      <c r="J33" s="217"/>
+      <c r="K33" s="231"/>
+      <c r="L33" s="216"/>
+      <c r="M33" s="217"/>
+      <c r="N33" s="231"/>
+      <c r="O33" s="216"/>
+      <c r="P33" s="217"/>
+      <c r="R33" s="297"/>
+      <c r="S33" s="298"/>
+      <c r="T33" s="298"/>
+      <c r="U33" s="299"/>
+    </row>
+    <row r="34" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B34" s="169"/>
+      <c r="C34" s="172" t="s">
+        <v>615</v>
+      </c>
+      <c r="D34" s="218" t="s">
+        <v>596</v>
+      </c>
+      <c r="E34" s="231"/>
+      <c r="F34" s="232"/>
+      <c r="G34" s="217"/>
+      <c r="H34" s="231"/>
+      <c r="I34" s="216"/>
+      <c r="J34" s="217"/>
+      <c r="K34" s="231">
+        <v>45985</v>
+      </c>
+      <c r="L34" s="233"/>
+      <c r="M34" s="217"/>
+      <c r="N34" s="231"/>
+      <c r="O34" s="216"/>
+      <c r="P34" s="217"/>
+      <c r="R34" s="297"/>
+      <c r="S34" s="298"/>
+      <c r="T34" s="298"/>
+      <c r="U34" s="299"/>
+    </row>
+    <row r="35" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B35" s="169"/>
+      <c r="C35" s="172" t="s">
+        <v>616</v>
+      </c>
+      <c r="D35" s="218" t="s">
+        <v>596</v>
+      </c>
+      <c r="E35" s="231"/>
+      <c r="F35" s="232"/>
+      <c r="G35" s="217"/>
+      <c r="H35" s="231"/>
+      <c r="I35" s="216"/>
+      <c r="J35" s="217"/>
+      <c r="K35" s="231">
+        <v>45985</v>
+      </c>
+      <c r="L35" s="233"/>
+      <c r="M35" s="217"/>
+      <c r="N35" s="231"/>
+      <c r="O35" s="216"/>
+      <c r="P35" s="217"/>
+      <c r="R35" s="297"/>
+      <c r="S35" s="298"/>
+      <c r="T35" s="298"/>
+      <c r="U35" s="299"/>
+    </row>
+    <row r="36" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B36" s="169"/>
+      <c r="C36" s="169"/>
+      <c r="D36" s="218"/>
+      <c r="E36" s="231"/>
+      <c r="F36" s="232"/>
+      <c r="G36" s="217"/>
+      <c r="H36" s="231"/>
+      <c r="I36" s="216"/>
+      <c r="J36" s="217"/>
+      <c r="K36" s="231"/>
+      <c r="L36" s="216"/>
+      <c r="M36" s="217"/>
+      <c r="N36" s="231"/>
+      <c r="O36" s="216"/>
+      <c r="P36" s="217"/>
+      <c r="R36" s="297"/>
+      <c r="S36" s="298"/>
+      <c r="T36" s="298"/>
+      <c r="U36" s="299"/>
+    </row>
+    <row r="37" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B37" s="174" t="s">
+        <v>618</v>
+      </c>
+      <c r="C37" s="169"/>
+      <c r="D37" s="218"/>
+      <c r="E37" s="231"/>
+      <c r="F37" s="232"/>
+      <c r="G37" s="217"/>
+      <c r="H37" s="231"/>
+      <c r="I37" s="216"/>
+      <c r="J37" s="217"/>
+      <c r="K37" s="231"/>
+      <c r="L37" s="216"/>
+      <c r="M37" s="217"/>
+      <c r="N37" s="231"/>
+      <c r="O37" s="216"/>
+      <c r="P37" s="217"/>
+      <c r="R37" s="297"/>
+      <c r="S37" s="298"/>
+      <c r="T37" s="298"/>
+      <c r="U37" s="299"/>
+    </row>
+    <row r="38" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B38" s="169"/>
+      <c r="C38" s="172" t="s">
+        <v>615</v>
+      </c>
+      <c r="D38" s="218" t="s">
+        <v>596</v>
+      </c>
+      <c r="E38" s="231"/>
+      <c r="F38" s="232"/>
+      <c r="G38" s="217"/>
+      <c r="H38" s="231">
+        <v>45985</v>
+      </c>
+      <c r="I38" s="233"/>
+      <c r="J38" s="217"/>
+      <c r="K38" s="231"/>
+      <c r="L38" s="216"/>
+      <c r="M38" s="217"/>
+      <c r="N38" s="231"/>
+      <c r="O38" s="216"/>
+      <c r="P38" s="217"/>
+      <c r="R38" s="297"/>
+      <c r="S38" s="298"/>
+      <c r="T38" s="298"/>
+      <c r="U38" s="299"/>
+    </row>
+    <row r="39" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B39" s="169"/>
+      <c r="C39" s="172" t="s">
+        <v>616</v>
+      </c>
+      <c r="D39" s="218" t="s">
+        <v>596</v>
+      </c>
+      <c r="E39" s="231"/>
+      <c r="F39" s="232"/>
+      <c r="G39" s="217"/>
+      <c r="H39" s="231"/>
+      <c r="I39" s="216"/>
+      <c r="J39" s="217"/>
+      <c r="K39" s="231">
+        <v>45985</v>
+      </c>
+      <c r="L39" s="233"/>
+      <c r="M39" s="217"/>
+      <c r="N39" s="231"/>
+      <c r="O39" s="216"/>
+      <c r="P39" s="217"/>
+      <c r="R39" s="297"/>
+      <c r="S39" s="298"/>
+      <c r="T39" s="298"/>
+      <c r="U39" s="299"/>
+    </row>
+    <row r="40" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B40" s="169"/>
+      <c r="C40" s="172" t="s">
+        <v>619</v>
+      </c>
+      <c r="D40" s="218" t="s">
+        <v>596</v>
+      </c>
+      <c r="E40" s="231">
+        <v>45978</v>
+      </c>
+      <c r="F40" s="233"/>
+      <c r="G40" s="217"/>
+      <c r="H40" s="231"/>
+      <c r="I40" s="216"/>
+      <c r="J40" s="217"/>
+      <c r="K40" s="231"/>
+      <c r="L40" s="216"/>
+      <c r="M40" s="217"/>
+      <c r="N40" s="231"/>
+      <c r="O40" s="216"/>
+      <c r="P40" s="217"/>
+      <c r="R40" s="297"/>
+      <c r="S40" s="298"/>
+      <c r="T40" s="298"/>
+      <c r="U40" s="299"/>
+    </row>
+    <row r="41" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B41" s="169"/>
+      <c r="C41" s="169"/>
+      <c r="D41" s="218"/>
+      <c r="E41" s="231"/>
+      <c r="F41" s="232"/>
+      <c r="G41" s="217"/>
+      <c r="H41" s="231"/>
+      <c r="I41" s="216"/>
+      <c r="J41" s="217"/>
+      <c r="K41" s="231"/>
+      <c r="L41" s="216"/>
+      <c r="M41" s="217"/>
+      <c r="N41" s="231"/>
+      <c r="O41" s="216"/>
+      <c r="P41" s="217"/>
+      <c r="R41" s="297"/>
+      <c r="S41" s="298"/>
+      <c r="T41" s="298"/>
+      <c r="U41" s="299"/>
+    </row>
+    <row r="42" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B42" s="174" t="s">
+        <v>620</v>
+      </c>
+      <c r="C42" s="169"/>
+      <c r="D42" s="218"/>
+      <c r="E42" s="231"/>
+      <c r="F42" s="232"/>
+      <c r="G42" s="217"/>
+      <c r="H42" s="231"/>
+      <c r="I42" s="216"/>
+      <c r="J42" s="217"/>
+      <c r="K42" s="231"/>
+      <c r="L42" s="216"/>
+      <c r="M42" s="217"/>
+      <c r="N42" s="231"/>
+      <c r="O42" s="216"/>
+      <c r="P42" s="217"/>
+      <c r="R42" s="297"/>
+      <c r="S42" s="298"/>
+      <c r="T42" s="298"/>
+      <c r="U42" s="299"/>
+    </row>
+    <row r="43" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B43" s="169"/>
+      <c r="C43" s="172" t="s">
+        <v>621</v>
+      </c>
+      <c r="D43" s="218" t="s">
+        <v>596</v>
+      </c>
+      <c r="E43" s="231"/>
+      <c r="F43" s="232"/>
+      <c r="G43" s="217"/>
+      <c r="H43" s="231"/>
+      <c r="I43" s="216"/>
+      <c r="J43" s="217"/>
+      <c r="K43" s="231"/>
+      <c r="L43" s="216"/>
+      <c r="M43" s="217"/>
+      <c r="N43" s="231"/>
+      <c r="O43" s="216"/>
+      <c r="P43" s="217"/>
+      <c r="R43" s="297"/>
+      <c r="S43" s="298"/>
+      <c r="T43" s="298"/>
+      <c r="U43" s="299"/>
+    </row>
+    <row r="44" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B44" s="169"/>
+      <c r="C44" s="304" t="s">
+        <v>622</v>
+      </c>
+      <c r="D44" s="218" t="s">
+        <v>596</v>
+      </c>
+      <c r="E44" s="231"/>
+      <c r="F44" s="232"/>
+      <c r="G44" s="217"/>
+      <c r="H44" s="231"/>
+      <c r="I44" s="216"/>
+      <c r="J44" s="217"/>
+      <c r="K44" s="231"/>
+      <c r="L44" s="216"/>
+      <c r="M44" s="217"/>
+      <c r="N44" s="231"/>
+      <c r="O44" s="216"/>
+      <c r="P44" s="217"/>
+      <c r="R44" s="297"/>
+      <c r="S44" s="298"/>
+      <c r="T44" s="298"/>
+      <c r="U44" s="299"/>
+    </row>
+    <row r="45" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B45" s="169"/>
+      <c r="C45" s="304" t="s">
+        <v>623</v>
+      </c>
+      <c r="D45" s="218" t="s">
+        <v>596</v>
+      </c>
+      <c r="E45" s="231"/>
+      <c r="F45" s="232"/>
+      <c r="G45" s="217"/>
+      <c r="H45" s="231"/>
+      <c r="I45" s="216"/>
+      <c r="J45" s="217"/>
+      <c r="K45" s="231"/>
+      <c r="L45" s="216"/>
+      <c r="M45" s="217"/>
+      <c r="N45" s="231"/>
+      <c r="O45" s="216"/>
+      <c r="P45" s="217"/>
+      <c r="R45" s="297"/>
+      <c r="S45" s="298"/>
+      <c r="T45" s="298"/>
+      <c r="U45" s="299"/>
+    </row>
+    <row r="46" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B46" s="169"/>
+      <c r="C46" s="304" t="s">
+        <v>624</v>
+      </c>
+      <c r="D46" s="218" t="s">
+        <v>596</v>
+      </c>
+      <c r="E46" s="231"/>
+      <c r="F46" s="232"/>
+      <c r="G46" s="217"/>
+      <c r="H46" s="231"/>
+      <c r="I46" s="216"/>
+      <c r="J46" s="217"/>
+      <c r="K46" s="231"/>
+      <c r="L46" s="216"/>
+      <c r="M46" s="217"/>
+      <c r="N46" s="231"/>
+      <c r="O46" s="216"/>
+      <c r="P46" s="217"/>
+      <c r="R46" s="297"/>
+      <c r="S46" s="298"/>
+      <c r="T46" s="298"/>
+      <c r="U46" s="299"/>
+    </row>
+    <row r="47" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B47" s="169"/>
+      <c r="C47" s="304"/>
+      <c r="D47" s="218"/>
+      <c r="E47" s="231"/>
+      <c r="F47" s="232"/>
+      <c r="G47" s="217"/>
+      <c r="H47" s="231"/>
+      <c r="I47" s="216"/>
+      <c r="J47" s="217"/>
+      <c r="K47" s="231"/>
+      <c r="L47" s="216"/>
+      <c r="M47" s="217"/>
+      <c r="N47" s="231"/>
+      <c r="O47" s="216"/>
+      <c r="P47" s="217"/>
+      <c r="R47" s="297"/>
+      <c r="S47" s="298"/>
+      <c r="T47" s="298"/>
+      <c r="U47" s="299"/>
+    </row>
+    <row r="48" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B48" s="174" t="s">
+        <v>625</v>
+      </c>
+      <c r="C48" s="304"/>
+      <c r="D48" s="218"/>
+      <c r="E48" s="231"/>
+      <c r="F48" s="232"/>
+      <c r="G48" s="217"/>
+      <c r="H48" s="231"/>
+      <c r="I48" s="216"/>
+      <c r="J48" s="217"/>
+      <c r="K48" s="231"/>
+      <c r="L48" s="216"/>
+      <c r="M48" s="217"/>
+      <c r="N48" s="231"/>
+      <c r="O48" s="216"/>
+      <c r="P48" s="217"/>
+      <c r="R48" s="297"/>
+      <c r="S48" s="298"/>
+      <c r="T48" s="298"/>
+      <c r="U48" s="299"/>
+    </row>
+    <row r="49" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B49" s="169"/>
+      <c r="C49" s="169"/>
+      <c r="D49" s="218"/>
+      <c r="E49" s="231"/>
+      <c r="F49" s="232"/>
+      <c r="G49" s="217"/>
+      <c r="H49" s="231"/>
+      <c r="I49" s="216"/>
+      <c r="J49" s="217"/>
+      <c r="K49" s="231"/>
+      <c r="L49" s="216"/>
+      <c r="M49" s="217"/>
+      <c r="N49" s="231"/>
+      <c r="O49" s="216"/>
+      <c r="P49" s="217"/>
+      <c r="R49" s="297"/>
+      <c r="S49" s="298"/>
+      <c r="T49" s="298"/>
+      <c r="U49" s="299"/>
+    </row>
+    <row r="50" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B50" s="169"/>
+      <c r="C50" s="169"/>
+      <c r="D50" s="218"/>
+      <c r="E50" s="231"/>
+      <c r="F50" s="232"/>
+      <c r="G50" s="217"/>
+      <c r="H50" s="231"/>
+      <c r="I50" s="216"/>
+      <c r="J50" s="217"/>
+      <c r="K50" s="231"/>
+      <c r="L50" s="216"/>
+      <c r="M50" s="217"/>
+      <c r="N50" s="231"/>
+      <c r="O50" s="216"/>
+      <c r="P50" s="217"/>
+      <c r="R50" s="297"/>
+      <c r="S50" s="298"/>
+      <c r="T50" s="298"/>
+      <c r="U50" s="299"/>
+    </row>
+    <row r="51" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B51" s="169"/>
+      <c r="C51" s="169"/>
+      <c r="D51" s="218"/>
+      <c r="E51" s="231"/>
+      <c r="F51" s="232"/>
+      <c r="G51" s="217"/>
+      <c r="H51" s="231"/>
+      <c r="I51" s="216"/>
+      <c r="J51" s="217"/>
+      <c r="K51" s="231"/>
+      <c r="L51" s="216"/>
+      <c r="M51" s="217"/>
+      <c r="N51" s="231"/>
+      <c r="O51" s="216"/>
+      <c r="P51" s="217"/>
+      <c r="R51" s="297"/>
+      <c r="S51" s="298"/>
+      <c r="T51" s="298"/>
+      <c r="U51" s="299"/>
+    </row>
+    <row r="52" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B52" s="169"/>
+      <c r="C52" s="169"/>
+      <c r="D52" s="218"/>
+      <c r="E52" s="231"/>
+      <c r="F52" s="232"/>
+      <c r="G52" s="217"/>
+      <c r="H52" s="231"/>
+      <c r="I52" s="216"/>
+      <c r="J52" s="217"/>
+      <c r="K52" s="231"/>
+      <c r="L52" s="216"/>
+      <c r="M52" s="217"/>
+      <c r="N52" s="231"/>
+      <c r="O52" s="216"/>
+      <c r="P52" s="217"/>
+      <c r="R52" s="297"/>
+      <c r="S52" s="298"/>
+      <c r="T52" s="298"/>
+      <c r="U52" s="299"/>
+    </row>
+    <row r="53" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B53" s="174" t="s">
+        <v>626</v>
+      </c>
+      <c r="C53" s="169"/>
+      <c r="D53" s="218"/>
+      <c r="E53" s="231"/>
+      <c r="F53" s="232"/>
+      <c r="G53" s="217"/>
+      <c r="H53" s="231"/>
+      <c r="I53" s="216"/>
+      <c r="J53" s="217"/>
+      <c r="K53" s="231"/>
+      <c r="L53" s="216"/>
+      <c r="M53" s="217"/>
+      <c r="N53" s="231"/>
+      <c r="O53" s="216"/>
+      <c r="P53" s="217"/>
+      <c r="R53" s="297"/>
+      <c r="S53" s="298"/>
+      <c r="T53" s="298"/>
+      <c r="U53" s="299"/>
+    </row>
+    <row r="54" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B54" s="169"/>
+      <c r="C54" s="305"/>
+      <c r="D54" s="218"/>
+      <c r="E54" s="231"/>
+      <c r="F54" s="232"/>
+      <c r="G54" s="217"/>
+      <c r="H54" s="231"/>
+      <c r="I54" s="216"/>
+      <c r="J54" s="217"/>
+      <c r="K54" s="231"/>
+      <c r="L54" s="216"/>
+      <c r="M54" s="217"/>
+      <c r="N54" s="231"/>
+      <c r="O54" s="216"/>
+      <c r="P54" s="217"/>
+      <c r="R54" s="297"/>
+      <c r="S54" s="298"/>
+      <c r="T54" s="298"/>
+      <c r="U54" s="299"/>
+    </row>
+    <row r="55" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B55" s="169"/>
+      <c r="C55" s="305"/>
+      <c r="D55" s="218"/>
+      <c r="E55" s="231"/>
+      <c r="F55" s="232"/>
+      <c r="G55" s="217"/>
+      <c r="H55" s="231"/>
+      <c r="I55" s="216"/>
+      <c r="J55" s="217"/>
+      <c r="K55" s="231"/>
+      <c r="L55" s="216"/>
+      <c r="M55" s="217"/>
+      <c r="N55" s="231"/>
+      <c r="O55" s="216"/>
+      <c r="P55" s="217"/>
+      <c r="R55" s="297"/>
+      <c r="S55" s="298"/>
+      <c r="T55" s="298"/>
+      <c r="U55" s="299"/>
+    </row>
+    <row r="56" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B56" s="169"/>
+      <c r="C56" s="305"/>
+      <c r="D56" s="218"/>
+      <c r="E56" s="231"/>
+      <c r="F56" s="232"/>
+      <c r="G56" s="217"/>
+      <c r="H56" s="231"/>
+      <c r="I56" s="216"/>
+      <c r="J56" s="217"/>
+      <c r="K56" s="231"/>
+      <c r="L56" s="216"/>
+      <c r="M56" s="217"/>
+      <c r="N56" s="231"/>
+      <c r="O56" s="216"/>
+      <c r="P56" s="217"/>
+      <c r="R56" s="297"/>
+      <c r="S56" s="298"/>
+      <c r="T56" s="298"/>
+      <c r="U56" s="299"/>
+    </row>
+    <row r="57" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B57" s="169"/>
+      <c r="C57" s="305"/>
+      <c r="D57" s="218"/>
+      <c r="E57" s="231"/>
+      <c r="F57" s="232"/>
+      <c r="G57" s="217"/>
+      <c r="H57" s="231"/>
+      <c r="I57" s="216"/>
+      <c r="J57" s="217"/>
+      <c r="K57" s="231"/>
+      <c r="L57" s="216"/>
+      <c r="M57" s="217"/>
+      <c r="N57" s="231"/>
+      <c r="O57" s="216"/>
+      <c r="P57" s="217"/>
+      <c r="R57" s="297"/>
+      <c r="S57" s="298"/>
+      <c r="T57" s="298"/>
+      <c r="U57" s="299"/>
+    </row>
+    <row r="58" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B58" s="169"/>
+      <c r="C58" s="305"/>
+      <c r="D58" s="218"/>
+      <c r="E58" s="231"/>
+      <c r="F58" s="232"/>
+      <c r="G58" s="217"/>
+      <c r="H58" s="231"/>
+      <c r="I58" s="216"/>
+      <c r="J58" s="217"/>
+      <c r="K58" s="231"/>
+      <c r="L58" s="216"/>
+      <c r="M58" s="217"/>
+      <c r="N58" s="231"/>
+      <c r="O58" s="216"/>
+      <c r="P58" s="217"/>
+      <c r="R58" s="297"/>
+      <c r="S58" s="298"/>
+      <c r="T58" s="298"/>
+      <c r="U58" s="299"/>
+    </row>
+    <row r="59" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B59" s="169"/>
+      <c r="C59" s="218"/>
+      <c r="D59" s="218"/>
+      <c r="E59" s="231"/>
+      <c r="F59" s="232"/>
+      <c r="G59" s="217"/>
+      <c r="H59" s="231"/>
+      <c r="I59" s="216"/>
+      <c r="J59" s="217"/>
+      <c r="K59" s="231"/>
+      <c r="L59" s="216"/>
+      <c r="M59" s="217"/>
+      <c r="N59" s="231"/>
+      <c r="O59" s="216"/>
+      <c r="P59" s="217"/>
+      <c r="R59" s="297"/>
+      <c r="S59" s="298"/>
+      <c r="T59" s="298"/>
+      <c r="U59" s="299"/>
+    </row>
+    <row r="60" spans="2:21" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B60" s="225"/>
+      <c r="C60" s="226"/>
+      <c r="D60" s="227"/>
+      <c r="E60" s="230"/>
+      <c r="F60" s="226"/>
+      <c r="G60" s="228"/>
+      <c r="H60" s="230"/>
+      <c r="I60" s="226"/>
+      <c r="J60" s="228"/>
+      <c r="K60" s="230"/>
+      <c r="L60" s="226"/>
+      <c r="M60" s="228"/>
+      <c r="N60" s="230"/>
+      <c r="O60" s="226"/>
+      <c r="P60" s="228"/>
+      <c r="R60" s="300"/>
+      <c r="S60" s="301"/>
+      <c r="T60" s="301"/>
+      <c r="U60" s="302"/>
+    </row>
+    <row r="61" spans="2:21" ht="15.75" customHeight="1">
+      <c r="B61" s="186"/>
+      <c r="C61" s="186"/>
+      <c r="D61" s="186"/>
+      <c r="E61" s="186"/>
+      <c r="F61" s="186"/>
+      <c r="G61" s="186"/>
+      <c r="H61" s="186"/>
+      <c r="I61" s="186"/>
+      <c r="J61" s="186"/>
+      <c r="K61" s="186"/>
+      <c r="L61" s="186"/>
+      <c r="M61" s="186"/>
+      <c r="N61" s="186"/>
+      <c r="O61" s="186"/>
+      <c r="P61" s="186"/>
+      <c r="Q61" s="186"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="H3:P3"/>
+    <mergeCell ref="R6:U60"/>
+  </mergeCells>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6FC3FB-C3D4-4DA4-9122-01840FACE500}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -14139,15 +15705,15 @@
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
-      <c r="H3" s="292"/>
-      <c r="I3" s="235"/>
-      <c r="J3" s="235"/>
-      <c r="K3" s="235"/>
-      <c r="L3" s="235"/>
-      <c r="M3" s="235"/>
-      <c r="N3" s="235"/>
-      <c r="O3" s="235"/>
-      <c r="P3" s="235"/>
+      <c r="H3" s="293"/>
+      <c r="I3" s="236"/>
+      <c r="J3" s="236"/>
+      <c r="K3" s="236"/>
+      <c r="L3" s="236"/>
+      <c r="M3" s="236"/>
+      <c r="N3" s="236"/>
+      <c r="O3" s="236"/>
+      <c r="P3" s="236"/>
     </row>
     <row r="4" spans="2:21" ht="21.75" customHeight="1" thickBot="1">
       <c r="B4" s="26"/>
@@ -14200,12 +15766,12 @@
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
       <c r="N6" s="26"/>
-      <c r="R6" s="293" t="s">
+      <c r="R6" s="294" t="s">
         <v>590</v>
       </c>
-      <c r="S6" s="294"/>
-      <c r="T6" s="294"/>
-      <c r="U6" s="295"/>
+      <c r="S6" s="295"/>
+      <c r="T6" s="295"/>
+      <c r="U6" s="296"/>
     </row>
     <row r="7" spans="2:21" ht="21.75" customHeight="1" thickBot="1">
       <c r="B7" s="183" t="s">
@@ -14223,10 +15789,10 @@
       <c r="L7" s="184"/>
       <c r="M7" s="184"/>
       <c r="N7" s="184"/>
-      <c r="R7" s="296"/>
-      <c r="S7" s="297"/>
-      <c r="T7" s="297"/>
-      <c r="U7" s="298"/>
+      <c r="R7" s="297"/>
+      <c r="S7" s="298"/>
+      <c r="T7" s="298"/>
+      <c r="U7" s="299"/>
     </row>
     <row r="8" spans="2:21" ht="15">
       <c r="B8" s="187" t="s">
@@ -14248,10 +15814,10 @@
       <c r="L8" s="184"/>
       <c r="M8" s="184"/>
       <c r="N8" s="190"/>
-      <c r="R8" s="296"/>
-      <c r="S8" s="297"/>
-      <c r="T8" s="297"/>
-      <c r="U8" s="298"/>
+      <c r="R8" s="297"/>
+      <c r="S8" s="298"/>
+      <c r="T8" s="298"/>
+      <c r="U8" s="299"/>
     </row>
     <row r="9" spans="2:21" thickBot="1">
       <c r="B9" s="191" t="s">
@@ -14273,10 +15839,10 @@
       <c r="L9" s="194"/>
       <c r="M9" s="194"/>
       <c r="N9" s="194"/>
-      <c r="R9" s="296"/>
-      <c r="S9" s="297"/>
-      <c r="T9" s="297"/>
-      <c r="U9" s="298"/>
+      <c r="R9" s="297"/>
+      <c r="S9" s="298"/>
+      <c r="T9" s="298"/>
+      <c r="U9" s="299"/>
     </row>
     <row r="10" spans="2:21" thickBot="1">
       <c r="B10" s="191" t="s">
@@ -14308,10 +15874,10 @@
       </c>
       <c r="O10" s="200"/>
       <c r="P10" s="201"/>
-      <c r="R10" s="296"/>
-      <c r="S10" s="297"/>
-      <c r="T10" s="297"/>
-      <c r="U10" s="298"/>
+      <c r="R10" s="297"/>
+      <c r="S10" s="298"/>
+      <c r="T10" s="298"/>
+      <c r="U10" s="299"/>
     </row>
     <row r="11" spans="2:21" ht="15" customHeight="1" thickBot="1">
       <c r="B11" s="202"/>
@@ -14353,10 +15919,10 @@
       <c r="P11" s="211" t="s">
         <v>100</v>
       </c>
-      <c r="R11" s="296"/>
-      <c r="S11" s="297"/>
-      <c r="T11" s="297"/>
-      <c r="U11" s="298"/>
+      <c r="R11" s="297"/>
+      <c r="S11" s="298"/>
+      <c r="T11" s="298"/>
+      <c r="U11" s="299"/>
     </row>
     <row r="12" spans="2:21" ht="20.25" customHeight="1">
       <c r="B12" s="218"/>
@@ -14374,10 +15940,10 @@
       <c r="N12" s="213"/>
       <c r="O12" s="212"/>
       <c r="P12" s="215"/>
-      <c r="R12" s="296"/>
-      <c r="S12" s="297"/>
-      <c r="T12" s="297"/>
-      <c r="U12" s="298"/>
+      <c r="R12" s="297"/>
+      <c r="S12" s="298"/>
+      <c r="T12" s="298"/>
+      <c r="U12" s="299"/>
     </row>
     <row r="13" spans="2:21" ht="20.25" customHeight="1">
       <c r="B13" s="218"/>
@@ -14395,10 +15961,10 @@
       <c r="N13" s="231"/>
       <c r="O13" s="216"/>
       <c r="P13" s="217"/>
-      <c r="R13" s="296"/>
-      <c r="S13" s="297"/>
-      <c r="T13" s="297"/>
-      <c r="U13" s="298"/>
+      <c r="R13" s="297"/>
+      <c r="S13" s="298"/>
+      <c r="T13" s="298"/>
+      <c r="U13" s="299"/>
     </row>
     <row r="14" spans="2:21" ht="20.25" customHeight="1">
       <c r="B14" s="218"/>
@@ -14416,10 +15982,10 @@
       <c r="N14" s="231"/>
       <c r="O14" s="216"/>
       <c r="P14" s="217"/>
-      <c r="R14" s="296"/>
-      <c r="S14" s="297"/>
-      <c r="T14" s="297"/>
-      <c r="U14" s="298"/>
+      <c r="R14" s="297"/>
+      <c r="S14" s="298"/>
+      <c r="T14" s="298"/>
+      <c r="U14" s="299"/>
     </row>
     <row r="15" spans="2:21" ht="20.25" customHeight="1">
       <c r="B15" s="218"/>
@@ -14437,10 +16003,10 @@
       <c r="N15" s="231"/>
       <c r="O15" s="216"/>
       <c r="P15" s="217"/>
-      <c r="R15" s="296"/>
-      <c r="S15" s="297"/>
-      <c r="T15" s="297"/>
-      <c r="U15" s="298"/>
+      <c r="R15" s="297"/>
+      <c r="S15" s="298"/>
+      <c r="T15" s="298"/>
+      <c r="U15" s="299"/>
     </row>
     <row r="16" spans="2:21" ht="20.25" customHeight="1">
       <c r="B16" s="218"/>
@@ -14458,10 +16024,10 @@
       <c r="N16" s="231"/>
       <c r="O16" s="216"/>
       <c r="P16" s="217"/>
-      <c r="R16" s="296"/>
-      <c r="S16" s="297"/>
-      <c r="T16" s="297"/>
-      <c r="U16" s="298"/>
+      <c r="R16" s="297"/>
+      <c r="S16" s="298"/>
+      <c r="T16" s="298"/>
+      <c r="U16" s="299"/>
     </row>
     <row r="17" spans="2:21" ht="20.25" customHeight="1">
       <c r="B17" s="218"/>
@@ -14479,10 +16045,10 @@
       <c r="N17" s="231"/>
       <c r="O17" s="216"/>
       <c r="P17" s="217"/>
-      <c r="R17" s="296"/>
-      <c r="S17" s="297"/>
-      <c r="T17" s="297"/>
-      <c r="U17" s="298"/>
+      <c r="R17" s="297"/>
+      <c r="S17" s="298"/>
+      <c r="T17" s="298"/>
+      <c r="U17" s="299"/>
     </row>
     <row r="18" spans="2:21" ht="20.25" customHeight="1">
       <c r="B18" s="218"/>
@@ -14500,10 +16066,10 @@
       <c r="N18" s="231"/>
       <c r="O18" s="216"/>
       <c r="P18" s="217"/>
-      <c r="R18" s="296"/>
-      <c r="S18" s="297"/>
-      <c r="T18" s="297"/>
-      <c r="U18" s="298"/>
+      <c r="R18" s="297"/>
+      <c r="S18" s="298"/>
+      <c r="T18" s="298"/>
+      <c r="U18" s="299"/>
     </row>
     <row r="19" spans="2:21" ht="20.25" customHeight="1">
       <c r="B19" s="218"/>
@@ -14521,10 +16087,10 @@
       <c r="N19" s="231"/>
       <c r="O19" s="216"/>
       <c r="P19" s="217"/>
-      <c r="R19" s="296"/>
-      <c r="S19" s="297"/>
-      <c r="T19" s="297"/>
-      <c r="U19" s="298"/>
+      <c r="R19" s="297"/>
+      <c r="S19" s="298"/>
+      <c r="T19" s="298"/>
+      <c r="U19" s="299"/>
     </row>
     <row r="20" spans="2:21" ht="20.25" customHeight="1">
       <c r="B20" s="218"/>
@@ -14542,10 +16108,10 @@
       <c r="N20" s="231"/>
       <c r="O20" s="216"/>
       <c r="P20" s="217"/>
-      <c r="R20" s="296"/>
-      <c r="S20" s="297"/>
-      <c r="T20" s="297"/>
-      <c r="U20" s="298"/>
+      <c r="R20" s="297"/>
+      <c r="S20" s="298"/>
+      <c r="T20" s="298"/>
+      <c r="U20" s="299"/>
     </row>
     <row r="21" spans="2:21" ht="20.25" customHeight="1">
       <c r="B21" s="218"/>
@@ -14563,10 +16129,10 @@
       <c r="N21" s="231"/>
       <c r="O21" s="216"/>
       <c r="P21" s="217"/>
-      <c r="R21" s="296"/>
-      <c r="S21" s="297"/>
-      <c r="T21" s="297"/>
-      <c r="U21" s="298"/>
+      <c r="R21" s="297"/>
+      <c r="S21" s="298"/>
+      <c r="T21" s="298"/>
+      <c r="U21" s="299"/>
     </row>
     <row r="22" spans="2:21" ht="20.25" customHeight="1">
       <c r="B22" s="218"/>
@@ -14584,10 +16150,10 @@
       <c r="N22" s="231"/>
       <c r="O22" s="216"/>
       <c r="P22" s="217"/>
-      <c r="R22" s="296"/>
-      <c r="S22" s="297"/>
-      <c r="T22" s="297"/>
-      <c r="U22" s="298"/>
+      <c r="R22" s="297"/>
+      <c r="S22" s="298"/>
+      <c r="T22" s="298"/>
+      <c r="U22" s="299"/>
     </row>
     <row r="23" spans="2:21" ht="20.25" customHeight="1">
       <c r="B23" s="218"/>
@@ -14605,10 +16171,10 @@
       <c r="N23" s="231"/>
       <c r="O23" s="216"/>
       <c r="P23" s="217"/>
-      <c r="R23" s="296"/>
-      <c r="S23" s="297"/>
-      <c r="T23" s="297"/>
-      <c r="U23" s="298"/>
+      <c r="R23" s="297"/>
+      <c r="S23" s="298"/>
+      <c r="T23" s="298"/>
+      <c r="U23" s="299"/>
     </row>
     <row r="24" spans="2:21" ht="20.25" customHeight="1">
       <c r="B24" s="218"/>
@@ -14626,10 +16192,10 @@
       <c r="N24" s="231"/>
       <c r="O24" s="216"/>
       <c r="P24" s="217"/>
-      <c r="R24" s="296"/>
-      <c r="S24" s="297"/>
-      <c r="T24" s="297"/>
-      <c r="U24" s="298"/>
+      <c r="R24" s="297"/>
+      <c r="S24" s="298"/>
+      <c r="T24" s="298"/>
+      <c r="U24" s="299"/>
     </row>
     <row r="25" spans="2:21" ht="20.25" customHeight="1">
       <c r="B25" s="218"/>
@@ -14647,10 +16213,10 @@
       <c r="N25" s="231"/>
       <c r="O25" s="216"/>
       <c r="P25" s="217"/>
-      <c r="R25" s="296"/>
-      <c r="S25" s="297"/>
-      <c r="T25" s="297"/>
-      <c r="U25" s="298"/>
+      <c r="R25" s="297"/>
+      <c r="S25" s="298"/>
+      <c r="T25" s="298"/>
+      <c r="U25" s="299"/>
     </row>
     <row r="26" spans="2:21" ht="20.25" customHeight="1">
       <c r="B26" s="218"/>
@@ -14668,10 +16234,10 @@
       <c r="N26" s="231"/>
       <c r="O26" s="216"/>
       <c r="P26" s="217"/>
-      <c r="R26" s="296"/>
-      <c r="S26" s="297"/>
-      <c r="T26" s="297"/>
-      <c r="U26" s="298"/>
+      <c r="R26" s="297"/>
+      <c r="S26" s="298"/>
+      <c r="T26" s="298"/>
+      <c r="U26" s="299"/>
     </row>
     <row r="27" spans="2:21" ht="20.25" customHeight="1">
       <c r="B27" s="218"/>
@@ -14689,10 +16255,10 @@
       <c r="N27" s="231"/>
       <c r="O27" s="216"/>
       <c r="P27" s="217"/>
-      <c r="R27" s="296"/>
-      <c r="S27" s="297"/>
-      <c r="T27" s="297"/>
-      <c r="U27" s="298"/>
+      <c r="R27" s="297"/>
+      <c r="S27" s="298"/>
+      <c r="T27" s="298"/>
+      <c r="U27" s="299"/>
     </row>
     <row r="28" spans="2:21" ht="20.25" customHeight="1">
       <c r="B28" s="218"/>
@@ -14710,10 +16276,10 @@
       <c r="N28" s="231"/>
       <c r="O28" s="216"/>
       <c r="P28" s="217"/>
-      <c r="R28" s="296"/>
-      <c r="S28" s="297"/>
-      <c r="T28" s="297"/>
-      <c r="U28" s="298"/>
+      <c r="R28" s="297"/>
+      <c r="S28" s="298"/>
+      <c r="T28" s="298"/>
+      <c r="U28" s="299"/>
     </row>
     <row r="29" spans="2:21" ht="20.25" customHeight="1">
       <c r="B29" s="218"/>
@@ -14731,10 +16297,10 @@
       <c r="N29" s="231"/>
       <c r="O29" s="216"/>
       <c r="P29" s="217"/>
-      <c r="R29" s="296"/>
-      <c r="S29" s="297"/>
-      <c r="T29" s="297"/>
-      <c r="U29" s="298"/>
+      <c r="R29" s="297"/>
+      <c r="S29" s="298"/>
+      <c r="T29" s="298"/>
+      <c r="U29" s="299"/>
     </row>
     <row r="30" spans="2:21" ht="20.25" customHeight="1">
       <c r="B30" s="218"/>
@@ -14752,10 +16318,10 @@
       <c r="N30" s="231"/>
       <c r="O30" s="216"/>
       <c r="P30" s="217"/>
-      <c r="R30" s="296"/>
-      <c r="S30" s="297"/>
-      <c r="T30" s="297"/>
-      <c r="U30" s="298"/>
+      <c r="R30" s="297"/>
+      <c r="S30" s="298"/>
+      <c r="T30" s="298"/>
+      <c r="U30" s="299"/>
     </row>
     <row r="31" spans="2:21" ht="20.25" customHeight="1">
       <c r="B31" s="218"/>
@@ -14773,10 +16339,10 @@
       <c r="N31" s="231"/>
       <c r="O31" s="216"/>
       <c r="P31" s="217"/>
-      <c r="R31" s="296"/>
-      <c r="S31" s="297"/>
-      <c r="T31" s="297"/>
-      <c r="U31" s="298"/>
+      <c r="R31" s="297"/>
+      <c r="S31" s="298"/>
+      <c r="T31" s="298"/>
+      <c r="U31" s="299"/>
     </row>
     <row r="32" spans="2:21" ht="20.25" customHeight="1">
       <c r="B32" s="218"/>
@@ -14794,10 +16360,10 @@
       <c r="N32" s="231"/>
       <c r="O32" s="216"/>
       <c r="P32" s="217"/>
-      <c r="R32" s="296"/>
-      <c r="S32" s="297"/>
-      <c r="T32" s="297"/>
-      <c r="U32" s="298"/>
+      <c r="R32" s="297"/>
+      <c r="S32" s="298"/>
+      <c r="T32" s="298"/>
+      <c r="U32" s="299"/>
     </row>
     <row r="33" spans="2:21" ht="20.25" customHeight="1">
       <c r="B33" s="218"/>
@@ -14815,10 +16381,10 @@
       <c r="N33" s="231"/>
       <c r="O33" s="216"/>
       <c r="P33" s="217"/>
-      <c r="R33" s="296"/>
-      <c r="S33" s="297"/>
-      <c r="T33" s="297"/>
-      <c r="U33" s="298"/>
+      <c r="R33" s="297"/>
+      <c r="S33" s="298"/>
+      <c r="T33" s="298"/>
+      <c r="U33" s="299"/>
     </row>
     <row r="34" spans="2:21" ht="20.25" customHeight="1">
       <c r="B34" s="218"/>
@@ -14836,10 +16402,10 @@
       <c r="N34" s="231"/>
       <c r="O34" s="216"/>
       <c r="P34" s="217"/>
-      <c r="R34" s="296"/>
-      <c r="S34" s="297"/>
-      <c r="T34" s="297"/>
-      <c r="U34" s="298"/>
+      <c r="R34" s="297"/>
+      <c r="S34" s="298"/>
+      <c r="T34" s="298"/>
+      <c r="U34" s="299"/>
     </row>
     <row r="35" spans="2:21" ht="20.25" customHeight="1">
       <c r="B35" s="218"/>
@@ -14857,10 +16423,10 @@
       <c r="N35" s="231"/>
       <c r="O35" s="216"/>
       <c r="P35" s="217"/>
-      <c r="R35" s="296"/>
-      <c r="S35" s="297"/>
-      <c r="T35" s="297"/>
-      <c r="U35" s="298"/>
+      <c r="R35" s="297"/>
+      <c r="S35" s="298"/>
+      <c r="T35" s="298"/>
+      <c r="U35" s="299"/>
     </row>
     <row r="36" spans="2:21" ht="20.25" customHeight="1">
       <c r="B36" s="218"/>
@@ -14878,10 +16444,10 @@
       <c r="N36" s="231"/>
       <c r="O36" s="216"/>
       <c r="P36" s="217"/>
-      <c r="R36" s="296"/>
-      <c r="S36" s="297"/>
-      <c r="T36" s="297"/>
-      <c r="U36" s="298"/>
+      <c r="R36" s="297"/>
+      <c r="S36" s="298"/>
+      <c r="T36" s="298"/>
+      <c r="U36" s="299"/>
     </row>
     <row r="37" spans="2:21" ht="20.25" customHeight="1">
       <c r="B37" s="218"/>
@@ -14899,10 +16465,10 @@
       <c r="N37" s="231"/>
       <c r="O37" s="216"/>
       <c r="P37" s="217"/>
-      <c r="R37" s="296"/>
-      <c r="S37" s="297"/>
-      <c r="T37" s="297"/>
-      <c r="U37" s="298"/>
+      <c r="R37" s="297"/>
+      <c r="S37" s="298"/>
+      <c r="T37" s="298"/>
+      <c r="U37" s="299"/>
     </row>
     <row r="38" spans="2:21" ht="20.25" customHeight="1">
       <c r="B38" s="218"/>
@@ -14920,10 +16486,10 @@
       <c r="N38" s="231"/>
       <c r="O38" s="216"/>
       <c r="P38" s="217"/>
-      <c r="R38" s="296"/>
-      <c r="S38" s="297"/>
-      <c r="T38" s="297"/>
-      <c r="U38" s="298"/>
+      <c r="R38" s="297"/>
+      <c r="S38" s="298"/>
+      <c r="T38" s="298"/>
+      <c r="U38" s="299"/>
     </row>
     <row r="39" spans="2:21" ht="20.25" customHeight="1">
       <c r="B39" s="218"/>
@@ -14941,10 +16507,10 @@
       <c r="N39" s="231"/>
       <c r="O39" s="216"/>
       <c r="P39" s="217"/>
-      <c r="R39" s="296"/>
-      <c r="S39" s="297"/>
-      <c r="T39" s="297"/>
-      <c r="U39" s="298"/>
+      <c r="R39" s="297"/>
+      <c r="S39" s="298"/>
+      <c r="T39" s="298"/>
+      <c r="U39" s="299"/>
     </row>
     <row r="40" spans="2:21" ht="20.25" customHeight="1">
       <c r="B40" s="218"/>
@@ -14962,10 +16528,10 @@
       <c r="N40" s="231"/>
       <c r="O40" s="216"/>
       <c r="P40" s="217"/>
-      <c r="R40" s="296"/>
-      <c r="S40" s="297"/>
-      <c r="T40" s="297"/>
-      <c r="U40" s="298"/>
+      <c r="R40" s="297"/>
+      <c r="S40" s="298"/>
+      <c r="T40" s="298"/>
+      <c r="U40" s="299"/>
     </row>
     <row r="41" spans="2:21" ht="20.25" customHeight="1">
       <c r="B41" s="218"/>
@@ -14983,10 +16549,10 @@
       <c r="N41" s="231"/>
       <c r="O41" s="216"/>
       <c r="P41" s="217"/>
-      <c r="R41" s="296"/>
-      <c r="S41" s="297"/>
-      <c r="T41" s="297"/>
-      <c r="U41" s="298"/>
+      <c r="R41" s="297"/>
+      <c r="S41" s="298"/>
+      <c r="T41" s="298"/>
+      <c r="U41" s="299"/>
     </row>
     <row r="42" spans="2:21" ht="20.25" customHeight="1">
       <c r="B42" s="218"/>
@@ -15004,10 +16570,10 @@
       <c r="N42" s="231"/>
       <c r="O42" s="216"/>
       <c r="P42" s="217"/>
-      <c r="R42" s="296"/>
-      <c r="S42" s="297"/>
-      <c r="T42" s="297"/>
-      <c r="U42" s="298"/>
+      <c r="R42" s="297"/>
+      <c r="S42" s="298"/>
+      <c r="T42" s="298"/>
+      <c r="U42" s="299"/>
     </row>
     <row r="43" spans="2:21" ht="20.25" customHeight="1">
       <c r="B43" s="218"/>
@@ -15025,10 +16591,10 @@
       <c r="N43" s="231"/>
       <c r="O43" s="216"/>
       <c r="P43" s="217"/>
-      <c r="R43" s="296"/>
-      <c r="S43" s="297"/>
-      <c r="T43" s="297"/>
-      <c r="U43" s="298"/>
+      <c r="R43" s="297"/>
+      <c r="S43" s="298"/>
+      <c r="T43" s="298"/>
+      <c r="U43" s="299"/>
     </row>
     <row r="44" spans="2:21" ht="20.25" customHeight="1">
       <c r="B44" s="218"/>
@@ -15046,10 +16612,10 @@
       <c r="N44" s="231"/>
       <c r="O44" s="216"/>
       <c r="P44" s="217"/>
-      <c r="R44" s="296"/>
-      <c r="S44" s="297"/>
-      <c r="T44" s="297"/>
-      <c r="U44" s="298"/>
+      <c r="R44" s="297"/>
+      <c r="S44" s="298"/>
+      <c r="T44" s="298"/>
+      <c r="U44" s="299"/>
     </row>
     <row r="45" spans="2:21" ht="20.25" customHeight="1">
       <c r="B45" s="218"/>
@@ -15067,10 +16633,10 @@
       <c r="N45" s="231"/>
       <c r="O45" s="216"/>
       <c r="P45" s="217"/>
-      <c r="R45" s="296"/>
-      <c r="S45" s="297"/>
-      <c r="T45" s="297"/>
-      <c r="U45" s="298"/>
+      <c r="R45" s="297"/>
+      <c r="S45" s="298"/>
+      <c r="T45" s="298"/>
+      <c r="U45" s="299"/>
     </row>
     <row r="46" spans="2:21" ht="20.25" customHeight="1">
       <c r="B46" s="218"/>
@@ -15088,10 +16654,10 @@
       <c r="N46" s="231"/>
       <c r="O46" s="216"/>
       <c r="P46" s="217"/>
-      <c r="R46" s="296"/>
-      <c r="S46" s="297"/>
-      <c r="T46" s="297"/>
-      <c r="U46" s="298"/>
+      <c r="R46" s="297"/>
+      <c r="S46" s="298"/>
+      <c r="T46" s="298"/>
+      <c r="U46" s="299"/>
     </row>
     <row r="47" spans="2:21" ht="20.25" customHeight="1">
       <c r="B47" s="218"/>
@@ -15109,10 +16675,10 @@
       <c r="N47" s="231"/>
       <c r="O47" s="216"/>
       <c r="P47" s="217"/>
-      <c r="R47" s="296"/>
-      <c r="S47" s="297"/>
-      <c r="T47" s="297"/>
-      <c r="U47" s="298"/>
+      <c r="R47" s="297"/>
+      <c r="S47" s="298"/>
+      <c r="T47" s="298"/>
+      <c r="U47" s="299"/>
     </row>
     <row r="48" spans="2:21" ht="20.25" customHeight="1">
       <c r="B48" s="218"/>
@@ -15130,10 +16696,10 @@
       <c r="N48" s="231"/>
       <c r="O48" s="216"/>
       <c r="P48" s="217"/>
-      <c r="R48" s="296"/>
-      <c r="S48" s="297"/>
-      <c r="T48" s="297"/>
-      <c r="U48" s="298"/>
+      <c r="R48" s="297"/>
+      <c r="S48" s="298"/>
+      <c r="T48" s="298"/>
+      <c r="U48" s="299"/>
     </row>
     <row r="49" spans="2:21" ht="20.25" customHeight="1">
       <c r="B49" s="218"/>
@@ -15151,10 +16717,10 @@
       <c r="N49" s="231"/>
       <c r="O49" s="216"/>
       <c r="P49" s="217"/>
-      <c r="R49" s="296"/>
-      <c r="S49" s="297"/>
-      <c r="T49" s="297"/>
-      <c r="U49" s="298"/>
+      <c r="R49" s="297"/>
+      <c r="S49" s="298"/>
+      <c r="T49" s="298"/>
+      <c r="U49" s="299"/>
     </row>
     <row r="50" spans="2:21" ht="20.25" customHeight="1">
       <c r="B50" s="218"/>
@@ -15172,10 +16738,10 @@
       <c r="N50" s="231"/>
       <c r="O50" s="216"/>
       <c r="P50" s="217"/>
-      <c r="R50" s="296"/>
-      <c r="S50" s="297"/>
-      <c r="T50" s="297"/>
-      <c r="U50" s="298"/>
+      <c r="R50" s="297"/>
+      <c r="S50" s="298"/>
+      <c r="T50" s="298"/>
+      <c r="U50" s="299"/>
     </row>
     <row r="51" spans="2:21" ht="20.25" customHeight="1">
       <c r="B51" s="218"/>
@@ -15193,10 +16759,10 @@
       <c r="N51" s="231"/>
       <c r="O51" s="216"/>
       <c r="P51" s="217"/>
-      <c r="R51" s="296"/>
-      <c r="S51" s="297"/>
-      <c r="T51" s="297"/>
-      <c r="U51" s="298"/>
+      <c r="R51" s="297"/>
+      <c r="S51" s="298"/>
+      <c r="T51" s="298"/>
+      <c r="U51" s="299"/>
     </row>
     <row r="52" spans="2:21" ht="20.25" customHeight="1">
       <c r="B52" s="218"/>
@@ -15214,10 +16780,10 @@
       <c r="N52" s="231"/>
       <c r="O52" s="216"/>
       <c r="P52" s="217"/>
-      <c r="R52" s="296"/>
-      <c r="S52" s="297"/>
-      <c r="T52" s="297"/>
-      <c r="U52" s="298"/>
+      <c r="R52" s="297"/>
+      <c r="S52" s="298"/>
+      <c r="T52" s="298"/>
+      <c r="U52" s="299"/>
     </row>
     <row r="53" spans="2:21" ht="20.25" customHeight="1">
       <c r="B53" s="218"/>
@@ -15235,10 +16801,10 @@
       <c r="N53" s="231"/>
       <c r="O53" s="216"/>
       <c r="P53" s="217"/>
-      <c r="R53" s="296"/>
-      <c r="S53" s="297"/>
-      <c r="T53" s="297"/>
-      <c r="U53" s="298"/>
+      <c r="R53" s="297"/>
+      <c r="S53" s="298"/>
+      <c r="T53" s="298"/>
+      <c r="U53" s="299"/>
     </row>
     <row r="54" spans="2:21" ht="20.25" customHeight="1">
       <c r="B54" s="218"/>
@@ -15256,10 +16822,10 @@
       <c r="N54" s="231"/>
       <c r="O54" s="216"/>
       <c r="P54" s="217"/>
-      <c r="R54" s="296"/>
-      <c r="S54" s="297"/>
-      <c r="T54" s="297"/>
-      <c r="U54" s="298"/>
+      <c r="R54" s="297"/>
+      <c r="S54" s="298"/>
+      <c r="T54" s="298"/>
+      <c r="U54" s="299"/>
     </row>
     <row r="55" spans="2:21" ht="20.25" customHeight="1">
       <c r="B55" s="218"/>
@@ -15277,10 +16843,10 @@
       <c r="N55" s="231"/>
       <c r="O55" s="216"/>
       <c r="P55" s="217"/>
-      <c r="R55" s="296"/>
-      <c r="S55" s="297"/>
-      <c r="T55" s="297"/>
-      <c r="U55" s="298"/>
+      <c r="R55" s="297"/>
+      <c r="S55" s="298"/>
+      <c r="T55" s="298"/>
+      <c r="U55" s="299"/>
     </row>
     <row r="56" spans="2:21" ht="20.25" customHeight="1">
       <c r="B56" s="218"/>
@@ -15298,10 +16864,10 @@
       <c r="N56" s="231"/>
       <c r="O56" s="216"/>
       <c r="P56" s="217"/>
-      <c r="R56" s="296"/>
-      <c r="S56" s="297"/>
-      <c r="T56" s="297"/>
-      <c r="U56" s="298"/>
+      <c r="R56" s="297"/>
+      <c r="S56" s="298"/>
+      <c r="T56" s="298"/>
+      <c r="U56" s="299"/>
     </row>
     <row r="57" spans="2:21" ht="20.25" customHeight="1">
       <c r="B57" s="218"/>
@@ -15319,10 +16885,10 @@
       <c r="N57" s="231"/>
       <c r="O57" s="216"/>
       <c r="P57" s="217"/>
-      <c r="R57" s="296"/>
-      <c r="S57" s="297"/>
-      <c r="T57" s="297"/>
-      <c r="U57" s="298"/>
+      <c r="R57" s="297"/>
+      <c r="S57" s="298"/>
+      <c r="T57" s="298"/>
+      <c r="U57" s="299"/>
     </row>
     <row r="58" spans="2:21" ht="20.25" customHeight="1">
       <c r="B58" s="218"/>
@@ -15340,10 +16906,10 @@
       <c r="N58" s="231"/>
       <c r="O58" s="216"/>
       <c r="P58" s="217"/>
-      <c r="R58" s="296"/>
-      <c r="S58" s="297"/>
-      <c r="T58" s="297"/>
-      <c r="U58" s="298"/>
+      <c r="R58" s="297"/>
+      <c r="S58" s="298"/>
+      <c r="T58" s="298"/>
+      <c r="U58" s="299"/>
     </row>
     <row r="59" spans="2:21" ht="20.25" customHeight="1">
       <c r="B59" s="218"/>
@@ -15361,10 +16927,10 @@
       <c r="N59" s="231"/>
       <c r="O59" s="216"/>
       <c r="P59" s="217"/>
-      <c r="R59" s="296"/>
-      <c r="S59" s="297"/>
-      <c r="T59" s="297"/>
-      <c r="U59" s="298"/>
+      <c r="R59" s="297"/>
+      <c r="S59" s="298"/>
+      <c r="T59" s="298"/>
+      <c r="U59" s="299"/>
     </row>
     <row r="60" spans="2:21" ht="20.25" customHeight="1">
       <c r="B60" s="218"/>
@@ -15382,10 +16948,10 @@
       <c r="N60" s="231"/>
       <c r="O60" s="216"/>
       <c r="P60" s="217"/>
-      <c r="R60" s="296"/>
-      <c r="S60" s="297"/>
-      <c r="T60" s="297"/>
-      <c r="U60" s="298"/>
+      <c r="R60" s="297"/>
+      <c r="S60" s="298"/>
+      <c r="T60" s="298"/>
+      <c r="U60" s="299"/>
     </row>
     <row r="61" spans="2:21" ht="20.25" customHeight="1">
       <c r="B61" s="218"/>
@@ -15403,10 +16969,10 @@
       <c r="N61" s="231"/>
       <c r="O61" s="216"/>
       <c r="P61" s="217"/>
-      <c r="R61" s="296"/>
-      <c r="S61" s="297"/>
-      <c r="T61" s="297"/>
-      <c r="U61" s="298"/>
+      <c r="R61" s="297"/>
+      <c r="S61" s="298"/>
+      <c r="T61" s="298"/>
+      <c r="U61" s="299"/>
     </row>
     <row r="62" spans="2:21" ht="20.25" customHeight="1">
       <c r="B62" s="218"/>
@@ -15424,10 +16990,10 @@
       <c r="N62" s="231"/>
       <c r="O62" s="216"/>
       <c r="P62" s="217"/>
-      <c r="R62" s="296"/>
-      <c r="S62" s="297"/>
-      <c r="T62" s="297"/>
-      <c r="U62" s="298"/>
+      <c r="R62" s="297"/>
+      <c r="S62" s="298"/>
+      <c r="T62" s="298"/>
+      <c r="U62" s="299"/>
     </row>
     <row r="63" spans="2:21" ht="20.25" customHeight="1">
       <c r="B63" s="218"/>
@@ -15445,10 +17011,10 @@
       <c r="N63" s="231"/>
       <c r="O63" s="216"/>
       <c r="P63" s="217"/>
-      <c r="R63" s="296"/>
-      <c r="S63" s="297"/>
-      <c r="T63" s="297"/>
-      <c r="U63" s="298"/>
+      <c r="R63" s="297"/>
+      <c r="S63" s="298"/>
+      <c r="T63" s="298"/>
+      <c r="U63" s="299"/>
     </row>
     <row r="64" spans="2:21" ht="20.25" customHeight="1">
       <c r="B64" s="218"/>
@@ -15466,10 +17032,10 @@
       <c r="N64" s="231"/>
       <c r="O64" s="216"/>
       <c r="P64" s="217"/>
-      <c r="R64" s="296"/>
-      <c r="S64" s="297"/>
-      <c r="T64" s="297"/>
-      <c r="U64" s="298"/>
+      <c r="R64" s="297"/>
+      <c r="S64" s="298"/>
+      <c r="T64" s="298"/>
+      <c r="U64" s="299"/>
     </row>
     <row r="65" spans="2:21" ht="20.25" customHeight="1">
       <c r="B65" s="218"/>
@@ -15487,10 +17053,10 @@
       <c r="N65" s="231"/>
       <c r="O65" s="216"/>
       <c r="P65" s="217"/>
-      <c r="R65" s="296"/>
-      <c r="S65" s="297"/>
-      <c r="T65" s="297"/>
-      <c r="U65" s="298"/>
+      <c r="R65" s="297"/>
+      <c r="S65" s="298"/>
+      <c r="T65" s="298"/>
+      <c r="U65" s="299"/>
     </row>
     <row r="66" spans="2:21" ht="20.25" customHeight="1">
       <c r="B66" s="218"/>
@@ -15508,10 +17074,10 @@
       <c r="N66" s="231"/>
       <c r="O66" s="216"/>
       <c r="P66" s="217"/>
-      <c r="R66" s="296"/>
-      <c r="S66" s="297"/>
-      <c r="T66" s="297"/>
-      <c r="U66" s="298"/>
+      <c r="R66" s="297"/>
+      <c r="S66" s="298"/>
+      <c r="T66" s="298"/>
+      <c r="U66" s="299"/>
     </row>
     <row r="67" spans="2:21" ht="20.25" customHeight="1">
       <c r="B67" s="218"/>
@@ -15529,10 +17095,10 @@
       <c r="N67" s="231"/>
       <c r="O67" s="216"/>
       <c r="P67" s="217"/>
-      <c r="R67" s="296"/>
-      <c r="S67" s="297"/>
-      <c r="T67" s="297"/>
-      <c r="U67" s="298"/>
+      <c r="R67" s="297"/>
+      <c r="S67" s="298"/>
+      <c r="T67" s="298"/>
+      <c r="U67" s="299"/>
     </row>
     <row r="68" spans="2:21" ht="20.25" customHeight="1">
       <c r="B68" s="218"/>
@@ -15550,10 +17116,10 @@
       <c r="N68" s="231"/>
       <c r="O68" s="216"/>
       <c r="P68" s="217"/>
-      <c r="R68" s="296"/>
-      <c r="S68" s="297"/>
-      <c r="T68" s="297"/>
-      <c r="U68" s="298"/>
+      <c r="R68" s="297"/>
+      <c r="S68" s="298"/>
+      <c r="T68" s="298"/>
+      <c r="U68" s="299"/>
     </row>
     <row r="69" spans="2:21" ht="20.25" customHeight="1">
       <c r="B69" s="218"/>
@@ -15571,10 +17137,10 @@
       <c r="N69" s="231"/>
       <c r="O69" s="216"/>
       <c r="P69" s="217"/>
-      <c r="R69" s="296"/>
-      <c r="S69" s="297"/>
-      <c r="T69" s="297"/>
-      <c r="U69" s="298"/>
+      <c r="R69" s="297"/>
+      <c r="S69" s="298"/>
+      <c r="T69" s="298"/>
+      <c r="U69" s="299"/>
     </row>
     <row r="70" spans="2:21" ht="20.25" customHeight="1">
       <c r="B70" s="218"/>
@@ -15592,10 +17158,10 @@
       <c r="N70" s="231"/>
       <c r="O70" s="216"/>
       <c r="P70" s="217"/>
-      <c r="R70" s="296"/>
-      <c r="S70" s="297"/>
-      <c r="T70" s="297"/>
-      <c r="U70" s="298"/>
+      <c r="R70" s="297"/>
+      <c r="S70" s="298"/>
+      <c r="T70" s="298"/>
+      <c r="U70" s="299"/>
     </row>
     <row r="71" spans="2:21" ht="20.25" customHeight="1">
       <c r="B71" s="218"/>
@@ -15613,10 +17179,10 @@
       <c r="N71" s="231"/>
       <c r="O71" s="216"/>
       <c r="P71" s="217"/>
-      <c r="R71" s="296"/>
-      <c r="S71" s="297"/>
-      <c r="T71" s="297"/>
-      <c r="U71" s="298"/>
+      <c r="R71" s="297"/>
+      <c r="S71" s="298"/>
+      <c r="T71" s="298"/>
+      <c r="U71" s="299"/>
     </row>
     <row r="72" spans="2:21" ht="20.25" customHeight="1">
       <c r="B72" s="218"/>
@@ -15634,10 +17200,10 @@
       <c r="N72" s="231"/>
       <c r="O72" s="216"/>
       <c r="P72" s="217"/>
-      <c r="R72" s="296"/>
-      <c r="S72" s="297"/>
-      <c r="T72" s="297"/>
-      <c r="U72" s="298"/>
+      <c r="R72" s="297"/>
+      <c r="S72" s="298"/>
+      <c r="T72" s="298"/>
+      <c r="U72" s="299"/>
     </row>
     <row r="73" spans="2:21" ht="20.25" customHeight="1">
       <c r="B73" s="218"/>
@@ -15655,10 +17221,10 @@
       <c r="N73" s="231"/>
       <c r="O73" s="216"/>
       <c r="P73" s="217"/>
-      <c r="R73" s="296"/>
-      <c r="S73" s="297"/>
-      <c r="T73" s="297"/>
-      <c r="U73" s="298"/>
+      <c r="R73" s="297"/>
+      <c r="S73" s="298"/>
+      <c r="T73" s="298"/>
+      <c r="U73" s="299"/>
     </row>
     <row r="74" spans="2:21" ht="20.25" customHeight="1">
       <c r="B74" s="218"/>
@@ -15676,10 +17242,10 @@
       <c r="N74" s="231"/>
       <c r="O74" s="216"/>
       <c r="P74" s="217"/>
-      <c r="R74" s="296"/>
-      <c r="S74" s="297"/>
-      <c r="T74" s="297"/>
-      <c r="U74" s="298"/>
+      <c r="R74" s="297"/>
+      <c r="S74" s="298"/>
+      <c r="T74" s="298"/>
+      <c r="U74" s="299"/>
     </row>
     <row r="75" spans="2:21" ht="20.25" customHeight="1">
       <c r="B75" s="218"/>
@@ -15697,10 +17263,10 @@
       <c r="N75" s="231"/>
       <c r="O75" s="216"/>
       <c r="P75" s="217"/>
-      <c r="R75" s="296"/>
-      <c r="S75" s="297"/>
-      <c r="T75" s="297"/>
-      <c r="U75" s="298"/>
+      <c r="R75" s="297"/>
+      <c r="S75" s="298"/>
+      <c r="T75" s="298"/>
+      <c r="U75" s="299"/>
     </row>
     <row r="76" spans="2:21" ht="20.25" customHeight="1">
       <c r="B76" s="218"/>
@@ -15718,10 +17284,10 @@
       <c r="N76" s="231"/>
       <c r="O76" s="216"/>
       <c r="P76" s="217"/>
-      <c r="R76" s="296"/>
-      <c r="S76" s="297"/>
-      <c r="T76" s="297"/>
-      <c r="U76" s="298"/>
+      <c r="R76" s="297"/>
+      <c r="S76" s="298"/>
+      <c r="T76" s="298"/>
+      <c r="U76" s="299"/>
     </row>
     <row r="77" spans="2:21" ht="20.25" customHeight="1">
       <c r="B77" s="218"/>
@@ -15739,10 +17305,10 @@
       <c r="N77" s="231"/>
       <c r="O77" s="216"/>
       <c r="P77" s="217"/>
-      <c r="R77" s="296"/>
-      <c r="S77" s="297"/>
-      <c r="T77" s="297"/>
-      <c r="U77" s="298"/>
+      <c r="R77" s="297"/>
+      <c r="S77" s="298"/>
+      <c r="T77" s="298"/>
+      <c r="U77" s="299"/>
     </row>
     <row r="78" spans="2:21" ht="20.25" customHeight="1">
       <c r="B78" s="218"/>
@@ -15760,10 +17326,10 @@
       <c r="N78" s="231"/>
       <c r="O78" s="216"/>
       <c r="P78" s="217"/>
-      <c r="R78" s="296"/>
-      <c r="S78" s="297"/>
-      <c r="T78" s="297"/>
-      <c r="U78" s="298"/>
+      <c r="R78" s="297"/>
+      <c r="S78" s="298"/>
+      <c r="T78" s="298"/>
+      <c r="U78" s="299"/>
     </row>
     <row r="79" spans="2:21" ht="20.25" customHeight="1">
       <c r="B79" s="218"/>
@@ -15781,10 +17347,10 @@
       <c r="N79" s="231"/>
       <c r="O79" s="216"/>
       <c r="P79" s="217"/>
-      <c r="R79" s="296"/>
-      <c r="S79" s="297"/>
-      <c r="T79" s="297"/>
-      <c r="U79" s="298"/>
+      <c r="R79" s="297"/>
+      <c r="S79" s="298"/>
+      <c r="T79" s="298"/>
+      <c r="U79" s="299"/>
     </row>
     <row r="80" spans="2:21" ht="20.25" customHeight="1">
       <c r="B80" s="218"/>
@@ -15802,10 +17368,10 @@
       <c r="N80" s="231"/>
       <c r="O80" s="216"/>
       <c r="P80" s="217"/>
-      <c r="R80" s="296"/>
-      <c r="S80" s="297"/>
-      <c r="T80" s="297"/>
-      <c r="U80" s="298"/>
+      <c r="R80" s="297"/>
+      <c r="S80" s="298"/>
+      <c r="T80" s="298"/>
+      <c r="U80" s="299"/>
     </row>
     <row r="81" spans="2:21" ht="20.25" customHeight="1">
       <c r="B81" s="218"/>
@@ -15823,10 +17389,10 @@
       <c r="N81" s="231"/>
       <c r="O81" s="216"/>
       <c r="P81" s="217"/>
-      <c r="R81" s="296"/>
-      <c r="S81" s="297"/>
-      <c r="T81" s="297"/>
-      <c r="U81" s="298"/>
+      <c r="R81" s="297"/>
+      <c r="S81" s="298"/>
+      <c r="T81" s="298"/>
+      <c r="U81" s="299"/>
     </row>
     <row r="82" spans="2:21" ht="20.25" customHeight="1">
       <c r="B82" s="218"/>
@@ -15844,10 +17410,10 @@
       <c r="N82" s="231"/>
       <c r="O82" s="216"/>
       <c r="P82" s="217"/>
-      <c r="R82" s="296"/>
-      <c r="S82" s="297"/>
-      <c r="T82" s="297"/>
-      <c r="U82" s="298"/>
+      <c r="R82" s="297"/>
+      <c r="S82" s="298"/>
+      <c r="T82" s="298"/>
+      <c r="U82" s="299"/>
     </row>
     <row r="83" spans="2:21" ht="20.25" customHeight="1">
       <c r="B83" s="218"/>
@@ -15865,10 +17431,10 @@
       <c r="N83" s="231"/>
       <c r="O83" s="216"/>
       <c r="P83" s="217"/>
-      <c r="R83" s="296"/>
-      <c r="S83" s="297"/>
-      <c r="T83" s="297"/>
-      <c r="U83" s="298"/>
+      <c r="R83" s="297"/>
+      <c r="S83" s="298"/>
+      <c r="T83" s="298"/>
+      <c r="U83" s="299"/>
     </row>
     <row r="84" spans="2:21" ht="20.25" customHeight="1">
       <c r="B84" s="218"/>
@@ -15886,10 +17452,10 @@
       <c r="N84" s="231"/>
       <c r="O84" s="216"/>
       <c r="P84" s="217"/>
-      <c r="R84" s="296"/>
-      <c r="S84" s="297"/>
-      <c r="T84" s="297"/>
-      <c r="U84" s="298"/>
+      <c r="R84" s="297"/>
+      <c r="S84" s="298"/>
+      <c r="T84" s="298"/>
+      <c r="U84" s="299"/>
     </row>
     <row r="85" spans="2:21" ht="20.25" customHeight="1">
       <c r="B85" s="218"/>
@@ -15907,10 +17473,10 @@
       <c r="N85" s="231"/>
       <c r="O85" s="216"/>
       <c r="P85" s="217"/>
-      <c r="R85" s="296"/>
-      <c r="S85" s="297"/>
-      <c r="T85" s="297"/>
-      <c r="U85" s="298"/>
+      <c r="R85" s="297"/>
+      <c r="S85" s="298"/>
+      <c r="T85" s="298"/>
+      <c r="U85" s="299"/>
     </row>
     <row r="86" spans="2:21" ht="20.25" customHeight="1">
       <c r="B86" s="218"/>
@@ -15928,10 +17494,10 @@
       <c r="N86" s="231"/>
       <c r="O86" s="216"/>
       <c r="P86" s="217"/>
-      <c r="R86" s="296"/>
-      <c r="S86" s="297"/>
-      <c r="T86" s="297"/>
-      <c r="U86" s="298"/>
+      <c r="R86" s="297"/>
+      <c r="S86" s="298"/>
+      <c r="T86" s="298"/>
+      <c r="U86" s="299"/>
     </row>
     <row r="87" spans="2:21" ht="20.25" customHeight="1">
       <c r="B87" s="218"/>
@@ -15949,10 +17515,10 @@
       <c r="N87" s="231"/>
       <c r="O87" s="216"/>
       <c r="P87" s="217"/>
-      <c r="R87" s="296"/>
-      <c r="S87" s="297"/>
-      <c r="T87" s="297"/>
-      <c r="U87" s="298"/>
+      <c r="R87" s="297"/>
+      <c r="S87" s="298"/>
+      <c r="T87" s="298"/>
+      <c r="U87" s="299"/>
     </row>
     <row r="88" spans="2:21" ht="20.25" customHeight="1">
       <c r="B88" s="218"/>
@@ -15970,10 +17536,10 @@
       <c r="N88" s="231"/>
       <c r="O88" s="216"/>
       <c r="P88" s="217"/>
-      <c r="R88" s="296"/>
-      <c r="S88" s="297"/>
-      <c r="T88" s="297"/>
-      <c r="U88" s="298"/>
+      <c r="R88" s="297"/>
+      <c r="S88" s="298"/>
+      <c r="T88" s="298"/>
+      <c r="U88" s="299"/>
     </row>
     <row r="89" spans="2:21" ht="20.25" customHeight="1">
       <c r="B89" s="218"/>
@@ -15991,10 +17557,10 @@
       <c r="N89" s="231"/>
       <c r="O89" s="216"/>
       <c r="P89" s="217"/>
-      <c r="R89" s="296"/>
-      <c r="S89" s="297"/>
-      <c r="T89" s="297"/>
-      <c r="U89" s="298"/>
+      <c r="R89" s="297"/>
+      <c r="S89" s="298"/>
+      <c r="T89" s="298"/>
+      <c r="U89" s="299"/>
     </row>
     <row r="90" spans="2:21" ht="20.25" customHeight="1">
       <c r="B90" s="218"/>
@@ -16012,10 +17578,10 @@
       <c r="N90" s="231"/>
       <c r="O90" s="216"/>
       <c r="P90" s="217"/>
-      <c r="R90" s="296"/>
-      <c r="S90" s="297"/>
-      <c r="T90" s="297"/>
-      <c r="U90" s="298"/>
+      <c r="R90" s="297"/>
+      <c r="S90" s="298"/>
+      <c r="T90" s="298"/>
+      <c r="U90" s="299"/>
     </row>
     <row r="91" spans="2:21" ht="20.25" customHeight="1">
       <c r="B91" s="218"/>
@@ -16033,10 +17599,10 @@
       <c r="N91" s="231"/>
       <c r="O91" s="216"/>
       <c r="P91" s="217"/>
-      <c r="R91" s="296"/>
-      <c r="S91" s="297"/>
-      <c r="T91" s="297"/>
-      <c r="U91" s="298"/>
+      <c r="R91" s="297"/>
+      <c r="S91" s="298"/>
+      <c r="T91" s="298"/>
+      <c r="U91" s="299"/>
     </row>
     <row r="92" spans="2:21" ht="20.25" customHeight="1">
       <c r="B92" s="218"/>
@@ -16054,10 +17620,10 @@
       <c r="N92" s="231"/>
       <c r="O92" s="216"/>
       <c r="P92" s="217"/>
-      <c r="R92" s="296"/>
-      <c r="S92" s="297"/>
-      <c r="T92" s="297"/>
-      <c r="U92" s="298"/>
+      <c r="R92" s="297"/>
+      <c r="S92" s="298"/>
+      <c r="T92" s="298"/>
+      <c r="U92" s="299"/>
     </row>
     <row r="93" spans="2:21" ht="20.25" customHeight="1">
       <c r="B93" s="218"/>
@@ -16075,10 +17641,10 @@
       <c r="N93" s="231"/>
       <c r="O93" s="216"/>
       <c r="P93" s="217"/>
-      <c r="R93" s="296"/>
-      <c r="S93" s="297"/>
-      <c r="T93" s="297"/>
-      <c r="U93" s="298"/>
+      <c r="R93" s="297"/>
+      <c r="S93" s="298"/>
+      <c r="T93" s="298"/>
+      <c r="U93" s="299"/>
     </row>
     <row r="94" spans="2:21" ht="20.25" customHeight="1">
       <c r="B94" s="218"/>
@@ -16096,10 +17662,10 @@
       <c r="N94" s="231"/>
       <c r="O94" s="216"/>
       <c r="P94" s="217"/>
-      <c r="R94" s="296"/>
-      <c r="S94" s="297"/>
-      <c r="T94" s="297"/>
-      <c r="U94" s="298"/>
+      <c r="R94" s="297"/>
+      <c r="S94" s="298"/>
+      <c r="T94" s="298"/>
+      <c r="U94" s="299"/>
     </row>
     <row r="95" spans="2:21" ht="20.25" customHeight="1">
       <c r="B95" s="218"/>
@@ -16117,10 +17683,10 @@
       <c r="N95" s="231"/>
       <c r="O95" s="216"/>
       <c r="P95" s="217"/>
-      <c r="R95" s="296"/>
-      <c r="S95" s="297"/>
-      <c r="T95" s="297"/>
-      <c r="U95" s="298"/>
+      <c r="R95" s="297"/>
+      <c r="S95" s="298"/>
+      <c r="T95" s="298"/>
+      <c r="U95" s="299"/>
     </row>
     <row r="96" spans="2:21" ht="20.25" customHeight="1">
       <c r="B96" s="218"/>
@@ -16138,10 +17704,10 @@
       <c r="N96" s="231"/>
       <c r="O96" s="216"/>
       <c r="P96" s="217"/>
-      <c r="R96" s="296"/>
-      <c r="S96" s="297"/>
-      <c r="T96" s="297"/>
-      <c r="U96" s="298"/>
+      <c r="R96" s="297"/>
+      <c r="S96" s="298"/>
+      <c r="T96" s="298"/>
+      <c r="U96" s="299"/>
     </row>
     <row r="97" spans="2:21" ht="20.25" customHeight="1">
       <c r="B97" s="218"/>
@@ -16159,10 +17725,10 @@
       <c r="N97" s="231"/>
       <c r="O97" s="216"/>
       <c r="P97" s="217"/>
-      <c r="R97" s="296"/>
-      <c r="S97" s="297"/>
-      <c r="T97" s="297"/>
-      <c r="U97" s="298"/>
+      <c r="R97" s="297"/>
+      <c r="S97" s="298"/>
+      <c r="T97" s="298"/>
+      <c r="U97" s="299"/>
     </row>
     <row r="98" spans="2:21" ht="20.25" customHeight="1">
       <c r="B98" s="218"/>
@@ -16180,10 +17746,10 @@
       <c r="N98" s="231"/>
       <c r="O98" s="216"/>
       <c r="P98" s="217"/>
-      <c r="R98" s="296"/>
-      <c r="S98" s="297"/>
-      <c r="T98" s="297"/>
-      <c r="U98" s="298"/>
+      <c r="R98" s="297"/>
+      <c r="S98" s="298"/>
+      <c r="T98" s="298"/>
+      <c r="U98" s="299"/>
     </row>
     <row r="99" spans="2:21" ht="20.25" customHeight="1">
       <c r="B99" s="218"/>
@@ -16201,10 +17767,10 @@
       <c r="N99" s="231"/>
       <c r="O99" s="216"/>
       <c r="P99" s="217"/>
-      <c r="R99" s="296"/>
-      <c r="S99" s="297"/>
-      <c r="T99" s="297"/>
-      <c r="U99" s="298"/>
+      <c r="R99" s="297"/>
+      <c r="S99" s="298"/>
+      <c r="T99" s="298"/>
+      <c r="U99" s="299"/>
     </row>
     <row r="100" spans="2:21" ht="20.25" customHeight="1">
       <c r="B100" s="218"/>
@@ -16222,10 +17788,10 @@
       <c r="N100" s="231"/>
       <c r="O100" s="216"/>
       <c r="P100" s="217"/>
-      <c r="R100" s="296"/>
-      <c r="S100" s="297"/>
-      <c r="T100" s="297"/>
-      <c r="U100" s="298"/>
+      <c r="R100" s="297"/>
+      <c r="S100" s="298"/>
+      <c r="T100" s="298"/>
+      <c r="U100" s="299"/>
     </row>
     <row r="101" spans="2:21" ht="20.25" customHeight="1">
       <c r="B101" s="218"/>
@@ -16243,10 +17809,10 @@
       <c r="N101" s="231"/>
       <c r="O101" s="216"/>
       <c r="P101" s="217"/>
-      <c r="R101" s="296"/>
-      <c r="S101" s="297"/>
-      <c r="T101" s="297"/>
-      <c r="U101" s="298"/>
+      <c r="R101" s="297"/>
+      <c r="S101" s="298"/>
+      <c r="T101" s="298"/>
+      <c r="U101" s="299"/>
     </row>
     <row r="102" spans="2:21" ht="20.25" customHeight="1">
       <c r="B102" s="218"/>
@@ -16264,10 +17830,10 @@
       <c r="N102" s="231"/>
       <c r="O102" s="216"/>
       <c r="P102" s="217"/>
-      <c r="R102" s="296"/>
-      <c r="S102" s="297"/>
-      <c r="T102" s="297"/>
-      <c r="U102" s="298"/>
+      <c r="R102" s="297"/>
+      <c r="S102" s="298"/>
+      <c r="T102" s="298"/>
+      <c r="U102" s="299"/>
     </row>
     <row r="103" spans="2:21" ht="20.25" customHeight="1">
       <c r="B103" s="218"/>
@@ -16285,10 +17851,10 @@
       <c r="N103" s="231"/>
       <c r="O103" s="216"/>
       <c r="P103" s="217"/>
-      <c r="R103" s="296"/>
-      <c r="S103" s="297"/>
-      <c r="T103" s="297"/>
-      <c r="U103" s="298"/>
+      <c r="R103" s="297"/>
+      <c r="S103" s="298"/>
+      <c r="T103" s="298"/>
+      <c r="U103" s="299"/>
     </row>
     <row r="104" spans="2:21" ht="20.25" customHeight="1">
       <c r="B104" s="218"/>
@@ -16306,10 +17872,10 @@
       <c r="N104" s="231"/>
       <c r="O104" s="216"/>
       <c r="P104" s="217"/>
-      <c r="R104" s="296"/>
-      <c r="S104" s="297"/>
-      <c r="T104" s="297"/>
-      <c r="U104" s="298"/>
+      <c r="R104" s="297"/>
+      <c r="S104" s="298"/>
+      <c r="T104" s="298"/>
+      <c r="U104" s="299"/>
     </row>
     <row r="105" spans="2:21" ht="20.25" customHeight="1">
       <c r="B105" s="218"/>
@@ -16327,10 +17893,10 @@
       <c r="N105" s="231"/>
       <c r="O105" s="216"/>
       <c r="P105" s="217"/>
-      <c r="R105" s="296"/>
-      <c r="S105" s="297"/>
-      <c r="T105" s="297"/>
-      <c r="U105" s="298"/>
+      <c r="R105" s="297"/>
+      <c r="S105" s="298"/>
+      <c r="T105" s="298"/>
+      <c r="U105" s="299"/>
     </row>
     <row r="106" spans="2:21" ht="20.25" customHeight="1">
       <c r="B106" s="218"/>
@@ -16348,10 +17914,10 @@
       <c r="N106" s="231"/>
       <c r="O106" s="216"/>
       <c r="P106" s="217"/>
-      <c r="R106" s="296"/>
-      <c r="S106" s="297"/>
-      <c r="T106" s="297"/>
-      <c r="U106" s="298"/>
+      <c r="R106" s="297"/>
+      <c r="S106" s="298"/>
+      <c r="T106" s="298"/>
+      <c r="U106" s="299"/>
     </row>
     <row r="107" spans="2:21" ht="20.25" customHeight="1">
       <c r="B107" s="218"/>
@@ -16369,10 +17935,10 @@
       <c r="N107" s="231"/>
       <c r="O107" s="216"/>
       <c r="P107" s="217"/>
-      <c r="R107" s="296"/>
-      <c r="S107" s="297"/>
-      <c r="T107" s="297"/>
-      <c r="U107" s="298"/>
+      <c r="R107" s="297"/>
+      <c r="S107" s="298"/>
+      <c r="T107" s="298"/>
+      <c r="U107" s="299"/>
     </row>
     <row r="108" spans="2:21" ht="20.25" customHeight="1">
       <c r="B108" s="218"/>
@@ -16390,10 +17956,10 @@
       <c r="N108" s="231"/>
       <c r="O108" s="216"/>
       <c r="P108" s="217"/>
-      <c r="R108" s="296"/>
-      <c r="S108" s="297"/>
-      <c r="T108" s="297"/>
-      <c r="U108" s="298"/>
+      <c r="R108" s="297"/>
+      <c r="S108" s="298"/>
+      <c r="T108" s="298"/>
+      <c r="U108" s="299"/>
     </row>
     <row r="109" spans="2:21" ht="20.25" customHeight="1">
       <c r="B109" s="218"/>
@@ -16411,10 +17977,10 @@
       <c r="N109" s="231"/>
       <c r="O109" s="216"/>
       <c r="P109" s="217"/>
-      <c r="R109" s="296"/>
-      <c r="S109" s="297"/>
-      <c r="T109" s="297"/>
-      <c r="U109" s="298"/>
+      <c r="R109" s="297"/>
+      <c r="S109" s="298"/>
+      <c r="T109" s="298"/>
+      <c r="U109" s="299"/>
     </row>
     <row r="110" spans="2:21" ht="20.25" customHeight="1">
       <c r="B110" s="218"/>
@@ -16432,10 +17998,10 @@
       <c r="N110" s="231"/>
       <c r="O110" s="216"/>
       <c r="P110" s="217"/>
-      <c r="R110" s="296"/>
-      <c r="S110" s="297"/>
-      <c r="T110" s="297"/>
-      <c r="U110" s="298"/>
+      <c r="R110" s="297"/>
+      <c r="S110" s="298"/>
+      <c r="T110" s="298"/>
+      <c r="U110" s="299"/>
     </row>
     <row r="111" spans="2:21" ht="20.25" customHeight="1">
       <c r="B111" s="218"/>
@@ -16453,10 +18019,10 @@
       <c r="N111" s="231"/>
       <c r="O111" s="216"/>
       <c r="P111" s="217"/>
-      <c r="R111" s="296"/>
-      <c r="S111" s="297"/>
-      <c r="T111" s="297"/>
-      <c r="U111" s="298"/>
+      <c r="R111" s="297"/>
+      <c r="S111" s="298"/>
+      <c r="T111" s="298"/>
+      <c r="U111" s="299"/>
     </row>
     <row r="112" spans="2:21" ht="20.25" customHeight="1">
       <c r="B112" s="218"/>
@@ -16474,10 +18040,10 @@
       <c r="N112" s="231"/>
       <c r="O112" s="216"/>
       <c r="P112" s="217"/>
-      <c r="R112" s="296"/>
-      <c r="S112" s="297"/>
-      <c r="T112" s="297"/>
-      <c r="U112" s="298"/>
+      <c r="R112" s="297"/>
+      <c r="S112" s="298"/>
+      <c r="T112" s="298"/>
+      <c r="U112" s="299"/>
     </row>
     <row r="113" spans="2:21" ht="20.25" customHeight="1">
       <c r="B113" s="218"/>
@@ -16495,10 +18061,10 @@
       <c r="N113" s="231"/>
       <c r="O113" s="216"/>
       <c r="P113" s="217"/>
-      <c r="R113" s="296"/>
-      <c r="S113" s="297"/>
-      <c r="T113" s="297"/>
-      <c r="U113" s="298"/>
+      <c r="R113" s="297"/>
+      <c r="S113" s="298"/>
+      <c r="T113" s="298"/>
+      <c r="U113" s="299"/>
     </row>
     <row r="114" spans="2:21" ht="20.25" customHeight="1">
       <c r="B114" s="218"/>
@@ -16516,10 +18082,10 @@
       <c r="N114" s="231"/>
       <c r="O114" s="216"/>
       <c r="P114" s="217"/>
-      <c r="R114" s="296"/>
-      <c r="S114" s="297"/>
-      <c r="T114" s="297"/>
-      <c r="U114" s="298"/>
+      <c r="R114" s="297"/>
+      <c r="S114" s="298"/>
+      <c r="T114" s="298"/>
+      <c r="U114" s="299"/>
     </row>
     <row r="115" spans="2:21" ht="20.25" customHeight="1">
       <c r="B115" s="218"/>
@@ -16537,10 +18103,10 @@
       <c r="N115" s="231"/>
       <c r="O115" s="216"/>
       <c r="P115" s="217"/>
-      <c r="R115" s="296"/>
-      <c r="S115" s="297"/>
-      <c r="T115" s="297"/>
-      <c r="U115" s="298"/>
+      <c r="R115" s="297"/>
+      <c r="S115" s="298"/>
+      <c r="T115" s="298"/>
+      <c r="U115" s="299"/>
     </row>
     <row r="116" spans="2:21" ht="20.25" customHeight="1">
       <c r="B116" s="218"/>
@@ -16558,10 +18124,10 @@
       <c r="N116" s="231"/>
       <c r="O116" s="216"/>
       <c r="P116" s="217"/>
-      <c r="R116" s="296"/>
-      <c r="S116" s="297"/>
-      <c r="T116" s="297"/>
-      <c r="U116" s="298"/>
+      <c r="R116" s="297"/>
+      <c r="S116" s="298"/>
+      <c r="T116" s="298"/>
+      <c r="U116" s="299"/>
     </row>
     <row r="117" spans="2:21" ht="20.25" customHeight="1">
       <c r="B117" s="218"/>
@@ -16579,10 +18145,10 @@
       <c r="N117" s="231"/>
       <c r="O117" s="216"/>
       <c r="P117" s="217"/>
-      <c r="R117" s="296"/>
-      <c r="S117" s="297"/>
-      <c r="T117" s="297"/>
-      <c r="U117" s="298"/>
+      <c r="R117" s="297"/>
+      <c r="S117" s="298"/>
+      <c r="T117" s="298"/>
+      <c r="U117" s="299"/>
     </row>
     <row r="118" spans="2:21" ht="20.25" customHeight="1">
       <c r="B118" s="218"/>
@@ -16600,10 +18166,10 @@
       <c r="N118" s="231"/>
       <c r="O118" s="216"/>
       <c r="P118" s="217"/>
-      <c r="R118" s="296"/>
-      <c r="S118" s="297"/>
-      <c r="T118" s="297"/>
-      <c r="U118" s="298"/>
+      <c r="R118" s="297"/>
+      <c r="S118" s="298"/>
+      <c r="T118" s="298"/>
+      <c r="U118" s="299"/>
     </row>
     <row r="119" spans="2:21" ht="20.25" customHeight="1">
       <c r="B119" s="218"/>
@@ -16621,10 +18187,10 @@
       <c r="N119" s="231"/>
       <c r="O119" s="216"/>
       <c r="P119" s="217"/>
-      <c r="R119" s="296"/>
-      <c r="S119" s="297"/>
-      <c r="T119" s="297"/>
-      <c r="U119" s="298"/>
+      <c r="R119" s="297"/>
+      <c r="S119" s="298"/>
+      <c r="T119" s="298"/>
+      <c r="U119" s="299"/>
     </row>
     <row r="120" spans="2:21" ht="20.25" customHeight="1">
       <c r="B120" s="218"/>
@@ -16642,10 +18208,10 @@
       <c r="N120" s="231"/>
       <c r="O120" s="216"/>
       <c r="P120" s="217"/>
-      <c r="R120" s="296"/>
-      <c r="S120" s="297"/>
-      <c r="T120" s="297"/>
-      <c r="U120" s="298"/>
+      <c r="R120" s="297"/>
+      <c r="S120" s="298"/>
+      <c r="T120" s="298"/>
+      <c r="U120" s="299"/>
     </row>
     <row r="121" spans="2:21" ht="20.25" customHeight="1">
       <c r="B121" s="218"/>
@@ -16663,10 +18229,10 @@
       <c r="N121" s="231"/>
       <c r="O121" s="216"/>
       <c r="P121" s="217"/>
-      <c r="R121" s="296"/>
-      <c r="S121" s="297"/>
-      <c r="T121" s="297"/>
-      <c r="U121" s="298"/>
+      <c r="R121" s="297"/>
+      <c r="S121" s="298"/>
+      <c r="T121" s="298"/>
+      <c r="U121" s="299"/>
     </row>
     <row r="122" spans="2:21" ht="20.25" customHeight="1">
       <c r="B122" s="218"/>
@@ -16684,10 +18250,10 @@
       <c r="N122" s="231"/>
       <c r="O122" s="216"/>
       <c r="P122" s="217"/>
-      <c r="R122" s="296"/>
-      <c r="S122" s="297"/>
-      <c r="T122" s="297"/>
-      <c r="U122" s="298"/>
+      <c r="R122" s="297"/>
+      <c r="S122" s="298"/>
+      <c r="T122" s="298"/>
+      <c r="U122" s="299"/>
     </row>
     <row r="123" spans="2:21" ht="20.25" customHeight="1">
       <c r="B123" s="218"/>
@@ -16705,10 +18271,10 @@
       <c r="N123" s="231"/>
       <c r="O123" s="216"/>
       <c r="P123" s="217"/>
-      <c r="R123" s="296"/>
-      <c r="S123" s="297"/>
-      <c r="T123" s="297"/>
-      <c r="U123" s="298"/>
+      <c r="R123" s="297"/>
+      <c r="S123" s="298"/>
+      <c r="T123" s="298"/>
+      <c r="U123" s="299"/>
     </row>
     <row r="124" spans="2:21" ht="20.25" customHeight="1">
       <c r="B124" s="218"/>
@@ -16726,10 +18292,10 @@
       <c r="N124" s="231"/>
       <c r="O124" s="216"/>
       <c r="P124" s="217"/>
-      <c r="R124" s="296"/>
-      <c r="S124" s="297"/>
-      <c r="T124" s="297"/>
-      <c r="U124" s="298"/>
+      <c r="R124" s="297"/>
+      <c r="S124" s="298"/>
+      <c r="T124" s="298"/>
+      <c r="U124" s="299"/>
     </row>
     <row r="125" spans="2:21" ht="20.25" customHeight="1">
       <c r="B125" s="218"/>
@@ -16747,10 +18313,10 @@
       <c r="N125" s="231"/>
       <c r="O125" s="216"/>
       <c r="P125" s="217"/>
-      <c r="R125" s="296"/>
-      <c r="S125" s="297"/>
-      <c r="T125" s="297"/>
-      <c r="U125" s="298"/>
+      <c r="R125" s="297"/>
+      <c r="S125" s="298"/>
+      <c r="T125" s="298"/>
+      <c r="U125" s="299"/>
     </row>
     <row r="126" spans="2:21" ht="20.25" customHeight="1">
       <c r="B126" s="218"/>
@@ -16768,10 +18334,10 @@
       <c r="N126" s="231"/>
       <c r="O126" s="216"/>
       <c r="P126" s="217"/>
-      <c r="R126" s="296"/>
-      <c r="S126" s="297"/>
-      <c r="T126" s="297"/>
-      <c r="U126" s="298"/>
+      <c r="R126" s="297"/>
+      <c r="S126" s="298"/>
+      <c r="T126" s="298"/>
+      <c r="U126" s="299"/>
     </row>
     <row r="127" spans="2:21" ht="20.25" customHeight="1">
       <c r="B127" s="218"/>
@@ -16789,10 +18355,10 @@
       <c r="N127" s="231"/>
       <c r="O127" s="216"/>
       <c r="P127" s="217"/>
-      <c r="R127" s="296"/>
-      <c r="S127" s="297"/>
-      <c r="T127" s="297"/>
-      <c r="U127" s="298"/>
+      <c r="R127" s="297"/>
+      <c r="S127" s="298"/>
+      <c r="T127" s="298"/>
+      <c r="U127" s="299"/>
     </row>
     <row r="128" spans="2:21" ht="20.25" customHeight="1">
       <c r="B128" s="218"/>
@@ -16810,10 +18376,10 @@
       <c r="N128" s="231"/>
       <c r="O128" s="216"/>
       <c r="P128" s="217"/>
-      <c r="R128" s="296"/>
-      <c r="S128" s="297"/>
-      <c r="T128" s="297"/>
-      <c r="U128" s="298"/>
+      <c r="R128" s="297"/>
+      <c r="S128" s="298"/>
+      <c r="T128" s="298"/>
+      <c r="U128" s="299"/>
     </row>
     <row r="129" spans="2:21" ht="20.25" customHeight="1">
       <c r="B129" s="218"/>
@@ -16831,10 +18397,10 @@
       <c r="N129" s="231"/>
       <c r="O129" s="216"/>
       <c r="P129" s="217"/>
-      <c r="R129" s="296"/>
-      <c r="S129" s="297"/>
-      <c r="T129" s="297"/>
-      <c r="U129" s="298"/>
+      <c r="R129" s="297"/>
+      <c r="S129" s="298"/>
+      <c r="T129" s="298"/>
+      <c r="U129" s="299"/>
     </row>
     <row r="130" spans="2:21" ht="20.25" customHeight="1">
       <c r="B130" s="218"/>
@@ -16852,10 +18418,10 @@
       <c r="N130" s="231"/>
       <c r="O130" s="216"/>
       <c r="P130" s="217"/>
-      <c r="R130" s="296"/>
-      <c r="S130" s="297"/>
-      <c r="T130" s="297"/>
-      <c r="U130" s="298"/>
+      <c r="R130" s="297"/>
+      <c r="S130" s="298"/>
+      <c r="T130" s="298"/>
+      <c r="U130" s="299"/>
     </row>
     <row r="131" spans="2:21" ht="20.25" customHeight="1">
       <c r="B131" s="218"/>
@@ -16873,10 +18439,10 @@
       <c r="N131" s="231"/>
       <c r="O131" s="216"/>
       <c r="P131" s="217"/>
-      <c r="R131" s="296"/>
-      <c r="S131" s="297"/>
-      <c r="T131" s="297"/>
-      <c r="U131" s="298"/>
+      <c r="R131" s="297"/>
+      <c r="S131" s="298"/>
+      <c r="T131" s="298"/>
+      <c r="U131" s="299"/>
     </row>
     <row r="132" spans="2:21" ht="20.25" customHeight="1">
       <c r="B132" s="218"/>
@@ -16894,10 +18460,10 @@
       <c r="N132" s="231"/>
       <c r="O132" s="216"/>
       <c r="P132" s="217"/>
-      <c r="R132" s="296"/>
-      <c r="S132" s="297"/>
-      <c r="T132" s="297"/>
-      <c r="U132" s="298"/>
+      <c r="R132" s="297"/>
+      <c r="S132" s="298"/>
+      <c r="T132" s="298"/>
+      <c r="U132" s="299"/>
     </row>
     <row r="133" spans="2:21" ht="20.25" customHeight="1">
       <c r="B133" s="218"/>
@@ -16915,10 +18481,10 @@
       <c r="N133" s="231"/>
       <c r="O133" s="216"/>
       <c r="P133" s="217"/>
-      <c r="R133" s="296"/>
-      <c r="S133" s="297"/>
-      <c r="T133" s="297"/>
-      <c r="U133" s="298"/>
+      <c r="R133" s="297"/>
+      <c r="S133" s="298"/>
+      <c r="T133" s="298"/>
+      <c r="U133" s="299"/>
     </row>
     <row r="134" spans="2:21" ht="20.25" customHeight="1">
       <c r="B134" s="218"/>
@@ -16936,10 +18502,10 @@
       <c r="N134" s="231"/>
       <c r="O134" s="216"/>
       <c r="P134" s="217"/>
-      <c r="R134" s="296"/>
-      <c r="S134" s="297"/>
-      <c r="T134" s="297"/>
-      <c r="U134" s="298"/>
+      <c r="R134" s="297"/>
+      <c r="S134" s="298"/>
+      <c r="T134" s="298"/>
+      <c r="U134" s="299"/>
     </row>
     <row r="135" spans="2:21" ht="20.25" customHeight="1">
       <c r="B135" s="218"/>
@@ -16957,10 +18523,10 @@
       <c r="N135" s="231"/>
       <c r="O135" s="216"/>
       <c r="P135" s="217"/>
-      <c r="R135" s="296"/>
-      <c r="S135" s="297"/>
-      <c r="T135" s="297"/>
-      <c r="U135" s="298"/>
+      <c r="R135" s="297"/>
+      <c r="S135" s="298"/>
+      <c r="T135" s="298"/>
+      <c r="U135" s="299"/>
     </row>
     <row r="136" spans="2:21" ht="20.25" customHeight="1">
       <c r="B136" s="218"/>
@@ -16978,10 +18544,10 @@
       <c r="N136" s="231"/>
       <c r="O136" s="216"/>
       <c r="P136" s="217"/>
-      <c r="R136" s="296"/>
-      <c r="S136" s="297"/>
-      <c r="T136" s="297"/>
-      <c r="U136" s="298"/>
+      <c r="R136" s="297"/>
+      <c r="S136" s="298"/>
+      <c r="T136" s="298"/>
+      <c r="U136" s="299"/>
     </row>
     <row r="137" spans="2:21" ht="20.25" customHeight="1">
       <c r="B137" s="218"/>
@@ -16999,10 +18565,10 @@
       <c r="N137" s="231"/>
       <c r="O137" s="216"/>
       <c r="P137" s="217"/>
-      <c r="R137" s="296"/>
-      <c r="S137" s="297"/>
-      <c r="T137" s="297"/>
-      <c r="U137" s="298"/>
+      <c r="R137" s="297"/>
+      <c r="S137" s="298"/>
+      <c r="T137" s="298"/>
+      <c r="U137" s="299"/>
     </row>
     <row r="138" spans="2:21" ht="20.25" customHeight="1">
       <c r="B138" s="218"/>
@@ -17020,10 +18586,10 @@
       <c r="N138" s="231"/>
       <c r="O138" s="216"/>
       <c r="P138" s="217"/>
-      <c r="R138" s="296"/>
-      <c r="S138" s="297"/>
-      <c r="T138" s="297"/>
-      <c r="U138" s="298"/>
+      <c r="R138" s="297"/>
+      <c r="S138" s="298"/>
+      <c r="T138" s="298"/>
+      <c r="U138" s="299"/>
     </row>
     <row r="139" spans="2:21" ht="20.25" customHeight="1">
       <c r="B139" s="218"/>
@@ -17041,10 +18607,10 @@
       <c r="N139" s="231"/>
       <c r="O139" s="216"/>
       <c r="P139" s="217"/>
-      <c r="R139" s="296"/>
-      <c r="S139" s="297"/>
-      <c r="T139" s="297"/>
-      <c r="U139" s="298"/>
+      <c r="R139" s="297"/>
+      <c r="S139" s="298"/>
+      <c r="T139" s="298"/>
+      <c r="U139" s="299"/>
     </row>
     <row r="140" spans="2:21" ht="20.25" customHeight="1">
       <c r="B140" s="218"/>
@@ -17062,10 +18628,10 @@
       <c r="N140" s="231"/>
       <c r="O140" s="216"/>
       <c r="P140" s="217"/>
-      <c r="R140" s="296"/>
-      <c r="S140" s="297"/>
-      <c r="T140" s="297"/>
-      <c r="U140" s="298"/>
+      <c r="R140" s="297"/>
+      <c r="S140" s="298"/>
+      <c r="T140" s="298"/>
+      <c r="U140" s="299"/>
     </row>
     <row r="141" spans="2:21" ht="20.25" customHeight="1">
       <c r="B141" s="218"/>
@@ -17083,10 +18649,10 @@
       <c r="N141" s="231"/>
       <c r="O141" s="216"/>
       <c r="P141" s="217"/>
-      <c r="R141" s="296"/>
-      <c r="S141" s="297"/>
-      <c r="T141" s="297"/>
-      <c r="U141" s="298"/>
+      <c r="R141" s="297"/>
+      <c r="S141" s="298"/>
+      <c r="T141" s="298"/>
+      <c r="U141" s="299"/>
     </row>
     <row r="142" spans="2:21" ht="20.25" customHeight="1">
       <c r="B142" s="218"/>
@@ -17104,10 +18670,10 @@
       <c r="N142" s="231"/>
       <c r="O142" s="216"/>
       <c r="P142" s="217"/>
-      <c r="R142" s="296"/>
-      <c r="S142" s="297"/>
-      <c r="T142" s="297"/>
-      <c r="U142" s="298"/>
+      <c r="R142" s="297"/>
+      <c r="S142" s="298"/>
+      <c r="T142" s="298"/>
+      <c r="U142" s="299"/>
     </row>
     <row r="143" spans="2:21" ht="20.25" customHeight="1">
       <c r="B143" s="218"/>
@@ -17125,10 +18691,10 @@
       <c r="N143" s="231"/>
       <c r="O143" s="216"/>
       <c r="P143" s="217"/>
-      <c r="R143" s="296"/>
-      <c r="S143" s="297"/>
-      <c r="T143" s="297"/>
-      <c r="U143" s="298"/>
+      <c r="R143" s="297"/>
+      <c r="S143" s="298"/>
+      <c r="T143" s="298"/>
+      <c r="U143" s="299"/>
     </row>
     <row r="144" spans="2:21" ht="20.25" customHeight="1">
       <c r="B144" s="218"/>
@@ -17146,10 +18712,10 @@
       <c r="N144" s="231"/>
       <c r="O144" s="216"/>
       <c r="P144" s="217"/>
-      <c r="R144" s="296"/>
-      <c r="S144" s="297"/>
-      <c r="T144" s="297"/>
-      <c r="U144" s="298"/>
+      <c r="R144" s="297"/>
+      <c r="S144" s="298"/>
+      <c r="T144" s="298"/>
+      <c r="U144" s="299"/>
     </row>
     <row r="145" spans="2:21" ht="20.25" customHeight="1">
       <c r="B145" s="218"/>
@@ -17167,10 +18733,10 @@
       <c r="N145" s="231"/>
       <c r="O145" s="216"/>
       <c r="P145" s="217"/>
-      <c r="R145" s="296"/>
-      <c r="S145" s="297"/>
-      <c r="T145" s="297"/>
-      <c r="U145" s="298"/>
+      <c r="R145" s="297"/>
+      <c r="S145" s="298"/>
+      <c r="T145" s="298"/>
+      <c r="U145" s="299"/>
     </row>
     <row r="146" spans="2:21" ht="20.25" customHeight="1">
       <c r="B146" s="218"/>
@@ -17188,10 +18754,10 @@
       <c r="N146" s="231"/>
       <c r="O146" s="216"/>
       <c r="P146" s="217"/>
-      <c r="R146" s="296"/>
-      <c r="S146" s="297"/>
-      <c r="T146" s="297"/>
-      <c r="U146" s="298"/>
+      <c r="R146" s="297"/>
+      <c r="S146" s="298"/>
+      <c r="T146" s="298"/>
+      <c r="U146" s="299"/>
     </row>
     <row r="147" spans="2:21" ht="20.25" customHeight="1">
       <c r="B147" s="218"/>
@@ -17209,10 +18775,10 @@
       <c r="N147" s="231"/>
       <c r="O147" s="216"/>
       <c r="P147" s="217"/>
-      <c r="R147" s="296"/>
-      <c r="S147" s="297"/>
-      <c r="T147" s="297"/>
-      <c r="U147" s="298"/>
+      <c r="R147" s="297"/>
+      <c r="S147" s="298"/>
+      <c r="T147" s="298"/>
+      <c r="U147" s="299"/>
     </row>
     <row r="148" spans="2:21" ht="20.25" customHeight="1">
       <c r="B148" s="218"/>
@@ -17230,10 +18796,10 @@
       <c r="N148" s="231"/>
       <c r="O148" s="216"/>
       <c r="P148" s="217"/>
-      <c r="R148" s="296"/>
-      <c r="S148" s="297"/>
-      <c r="T148" s="297"/>
-      <c r="U148" s="298"/>
+      <c r="R148" s="297"/>
+      <c r="S148" s="298"/>
+      <c r="T148" s="298"/>
+      <c r="U148" s="299"/>
     </row>
     <row r="149" spans="2:21" ht="20.25" customHeight="1">
       <c r="B149" s="218"/>
@@ -17251,10 +18817,10 @@
       <c r="N149" s="231"/>
       <c r="O149" s="216"/>
       <c r="P149" s="217"/>
-      <c r="R149" s="296"/>
-      <c r="S149" s="297"/>
-      <c r="T149" s="297"/>
-      <c r="U149" s="298"/>
+      <c r="R149" s="297"/>
+      <c r="S149" s="298"/>
+      <c r="T149" s="298"/>
+      <c r="U149" s="299"/>
     </row>
     <row r="150" spans="2:21" ht="20.25" customHeight="1">
       <c r="B150" s="218"/>
@@ -17272,10 +18838,10 @@
       <c r="N150" s="231"/>
       <c r="O150" s="216"/>
       <c r="P150" s="217"/>
-      <c r="R150" s="296"/>
-      <c r="S150" s="297"/>
-      <c r="T150" s="297"/>
-      <c r="U150" s="298"/>
+      <c r="R150" s="297"/>
+      <c r="S150" s="298"/>
+      <c r="T150" s="298"/>
+      <c r="U150" s="299"/>
     </row>
     <row r="151" spans="2:21" ht="20.25" customHeight="1">
       <c r="B151" s="218"/>
@@ -17293,10 +18859,10 @@
       <c r="N151" s="231"/>
       <c r="O151" s="216"/>
       <c r="P151" s="217"/>
-      <c r="R151" s="296"/>
-      <c r="S151" s="297"/>
-      <c r="T151" s="297"/>
-      <c r="U151" s="298"/>
+      <c r="R151" s="297"/>
+      <c r="S151" s="298"/>
+      <c r="T151" s="298"/>
+      <c r="U151" s="299"/>
     </row>
     <row r="152" spans="2:21" ht="20.25" customHeight="1">
       <c r="B152" s="218"/>
@@ -17314,10 +18880,10 @@
       <c r="N152" s="231"/>
       <c r="O152" s="216"/>
       <c r="P152" s="217"/>
-      <c r="R152" s="296"/>
-      <c r="S152" s="297"/>
-      <c r="T152" s="297"/>
-      <c r="U152" s="298"/>
+      <c r="R152" s="297"/>
+      <c r="S152" s="298"/>
+      <c r="T152" s="298"/>
+      <c r="U152" s="299"/>
     </row>
     <row r="153" spans="2:21" ht="20.25" customHeight="1">
       <c r="B153" s="218"/>
@@ -17335,10 +18901,10 @@
       <c r="N153" s="231"/>
       <c r="O153" s="216"/>
       <c r="P153" s="217"/>
-      <c r="R153" s="296"/>
-      <c r="S153" s="297"/>
-      <c r="T153" s="297"/>
-      <c r="U153" s="298"/>
+      <c r="R153" s="297"/>
+      <c r="S153" s="298"/>
+      <c r="T153" s="298"/>
+      <c r="U153" s="299"/>
     </row>
     <row r="154" spans="2:21" ht="20.25" customHeight="1">
       <c r="B154" s="218"/>
@@ -17356,10 +18922,10 @@
       <c r="N154" s="231"/>
       <c r="O154" s="216"/>
       <c r="P154" s="217"/>
-      <c r="R154" s="296"/>
-      <c r="S154" s="297"/>
-      <c r="T154" s="297"/>
-      <c r="U154" s="298"/>
+      <c r="R154" s="297"/>
+      <c r="S154" s="298"/>
+      <c r="T154" s="298"/>
+      <c r="U154" s="299"/>
     </row>
     <row r="155" spans="2:21" ht="20.25" customHeight="1">
       <c r="B155" s="218"/>
@@ -17377,10 +18943,10 @@
       <c r="N155" s="231"/>
       <c r="O155" s="216"/>
       <c r="P155" s="217"/>
-      <c r="R155" s="296"/>
-      <c r="S155" s="297"/>
-      <c r="T155" s="297"/>
-      <c r="U155" s="298"/>
+      <c r="R155" s="297"/>
+      <c r="S155" s="298"/>
+      <c r="T155" s="298"/>
+      <c r="U155" s="299"/>
     </row>
     <row r="156" spans="2:21" ht="20.25" customHeight="1">
       <c r="B156" s="218"/>
@@ -17398,10 +18964,10 @@
       <c r="N156" s="231"/>
       <c r="O156" s="216"/>
       <c r="P156" s="217"/>
-      <c r="R156" s="296"/>
-      <c r="S156" s="297"/>
-      <c r="T156" s="297"/>
-      <c r="U156" s="298"/>
+      <c r="R156" s="297"/>
+      <c r="S156" s="298"/>
+      <c r="T156" s="298"/>
+      <c r="U156" s="299"/>
     </row>
     <row r="157" spans="2:21" ht="20.25" customHeight="1">
       <c r="B157" s="218"/>
@@ -17419,10 +18985,10 @@
       <c r="N157" s="231"/>
       <c r="O157" s="216"/>
       <c r="P157" s="217"/>
-      <c r="R157" s="296"/>
-      <c r="S157" s="297"/>
-      <c r="T157" s="297"/>
-      <c r="U157" s="298"/>
+      <c r="R157" s="297"/>
+      <c r="S157" s="298"/>
+      <c r="T157" s="298"/>
+      <c r="U157" s="299"/>
     </row>
     <row r="158" spans="2:21" ht="20.25" customHeight="1">
       <c r="B158" s="218"/>
@@ -17440,10 +19006,10 @@
       <c r="N158" s="231"/>
       <c r="O158" s="216"/>
       <c r="P158" s="217"/>
-      <c r="R158" s="296"/>
-      <c r="S158" s="297"/>
-      <c r="T158" s="297"/>
-      <c r="U158" s="298"/>
+      <c r="R158" s="297"/>
+      <c r="S158" s="298"/>
+      <c r="T158" s="298"/>
+      <c r="U158" s="299"/>
     </row>
     <row r="159" spans="2:21" ht="20.25" customHeight="1">
       <c r="B159" s="218"/>
@@ -17461,10 +19027,10 @@
       <c r="N159" s="231"/>
       <c r="O159" s="216"/>
       <c r="P159" s="217"/>
-      <c r="R159" s="296"/>
-      <c r="S159" s="297"/>
-      <c r="T159" s="297"/>
-      <c r="U159" s="298"/>
+      <c r="R159" s="297"/>
+      <c r="S159" s="298"/>
+      <c r="T159" s="298"/>
+      <c r="U159" s="299"/>
     </row>
     <row r="160" spans="2:21" ht="20.25" customHeight="1">
       <c r="B160" s="218"/>
@@ -17482,10 +19048,10 @@
       <c r="N160" s="231"/>
       <c r="O160" s="216"/>
       <c r="P160" s="217"/>
-      <c r="R160" s="296"/>
-      <c r="S160" s="297"/>
-      <c r="T160" s="297"/>
-      <c r="U160" s="298"/>
+      <c r="R160" s="297"/>
+      <c r="S160" s="298"/>
+      <c r="T160" s="298"/>
+      <c r="U160" s="299"/>
     </row>
     <row r="161" spans="2:21" ht="20.25" customHeight="1">
       <c r="B161" s="218"/>
@@ -17503,10 +19069,10 @@
       <c r="N161" s="231"/>
       <c r="O161" s="216"/>
       <c r="P161" s="217"/>
-      <c r="R161" s="296"/>
-      <c r="S161" s="297"/>
-      <c r="T161" s="297"/>
-      <c r="U161" s="298"/>
+      <c r="R161" s="297"/>
+      <c r="S161" s="298"/>
+      <c r="T161" s="298"/>
+      <c r="U161" s="299"/>
     </row>
     <row r="162" spans="2:21" ht="20.25" customHeight="1">
       <c r="B162" s="218"/>
@@ -17524,10 +19090,10 @@
       <c r="N162" s="231"/>
       <c r="O162" s="216"/>
       <c r="P162" s="217"/>
-      <c r="R162" s="296"/>
-      <c r="S162" s="297"/>
-      <c r="T162" s="297"/>
-      <c r="U162" s="298"/>
+      <c r="R162" s="297"/>
+      <c r="S162" s="298"/>
+      <c r="T162" s="298"/>
+      <c r="U162" s="299"/>
     </row>
     <row r="163" spans="2:21" ht="20.25" customHeight="1">
       <c r="B163" s="218"/>
@@ -17545,10 +19111,10 @@
       <c r="N163" s="231"/>
       <c r="O163" s="216"/>
       <c r="P163" s="217"/>
-      <c r="R163" s="296"/>
-      <c r="S163" s="297"/>
-      <c r="T163" s="297"/>
-      <c r="U163" s="298"/>
+      <c r="R163" s="297"/>
+      <c r="S163" s="298"/>
+      <c r="T163" s="298"/>
+      <c r="U163" s="299"/>
     </row>
     <row r="164" spans="2:21" ht="20.25" customHeight="1">
       <c r="B164" s="218"/>
@@ -17566,10 +19132,10 @@
       <c r="N164" s="231"/>
       <c r="O164" s="216"/>
       <c r="P164" s="217"/>
-      <c r="R164" s="296"/>
-      <c r="S164" s="297"/>
-      <c r="T164" s="297"/>
-      <c r="U164" s="298"/>
+      <c r="R164" s="297"/>
+      <c r="S164" s="298"/>
+      <c r="T164" s="298"/>
+      <c r="U164" s="299"/>
     </row>
     <row r="165" spans="2:21" ht="20.25" customHeight="1">
       <c r="B165" s="218"/>
@@ -17587,10 +19153,10 @@
       <c r="N165" s="231"/>
       <c r="O165" s="216"/>
       <c r="P165" s="217"/>
-      <c r="R165" s="296"/>
-      <c r="S165" s="297"/>
-      <c r="T165" s="297"/>
-      <c r="U165" s="298"/>
+      <c r="R165" s="297"/>
+      <c r="S165" s="298"/>
+      <c r="T165" s="298"/>
+      <c r="U165" s="299"/>
     </row>
     <row r="166" spans="2:21" ht="20.25" customHeight="1">
       <c r="B166" s="218"/>
@@ -17608,10 +19174,10 @@
       <c r="N166" s="231"/>
       <c r="O166" s="216"/>
       <c r="P166" s="217"/>
-      <c r="R166" s="296"/>
-      <c r="S166" s="297"/>
-      <c r="T166" s="297"/>
-      <c r="U166" s="298"/>
+      <c r="R166" s="297"/>
+      <c r="S166" s="298"/>
+      <c r="T166" s="298"/>
+      <c r="U166" s="299"/>
     </row>
     <row r="167" spans="2:21" ht="20.25" customHeight="1">
       <c r="B167" s="218"/>
@@ -17629,10 +19195,10 @@
       <c r="N167" s="231"/>
       <c r="O167" s="216"/>
       <c r="P167" s="217"/>
-      <c r="R167" s="296"/>
-      <c r="S167" s="297"/>
-      <c r="T167" s="297"/>
-      <c r="U167" s="298"/>
+      <c r="R167" s="297"/>
+      <c r="S167" s="298"/>
+      <c r="T167" s="298"/>
+      <c r="U167" s="299"/>
     </row>
     <row r="168" spans="2:21" ht="20.25" customHeight="1">
       <c r="B168" s="218"/>
@@ -17650,10 +19216,10 @@
       <c r="N168" s="231"/>
       <c r="O168" s="216"/>
       <c r="P168" s="217"/>
-      <c r="R168" s="296"/>
-      <c r="S168" s="297"/>
-      <c r="T168" s="297"/>
-      <c r="U168" s="298"/>
+      <c r="R168" s="297"/>
+      <c r="S168" s="298"/>
+      <c r="T168" s="298"/>
+      <c r="U168" s="299"/>
     </row>
     <row r="169" spans="2:21" ht="20.25" customHeight="1">
       <c r="B169" s="218"/>
@@ -17671,10 +19237,10 @@
       <c r="N169" s="231"/>
       <c r="O169" s="216"/>
       <c r="P169" s="217"/>
-      <c r="R169" s="296"/>
-      <c r="S169" s="297"/>
-      <c r="T169" s="297"/>
-      <c r="U169" s="298"/>
+      <c r="R169" s="297"/>
+      <c r="S169" s="298"/>
+      <c r="T169" s="298"/>
+      <c r="U169" s="299"/>
     </row>
     <row r="170" spans="2:21" ht="20.25" customHeight="1">
       <c r="B170" s="218"/>
@@ -17692,10 +19258,10 @@
       <c r="N170" s="231"/>
       <c r="O170" s="216"/>
       <c r="P170" s="217"/>
-      <c r="R170" s="296"/>
-      <c r="S170" s="297"/>
-      <c r="T170" s="297"/>
-      <c r="U170" s="298"/>
+      <c r="R170" s="297"/>
+      <c r="S170" s="298"/>
+      <c r="T170" s="298"/>
+      <c r="U170" s="299"/>
     </row>
     <row r="171" spans="2:21" ht="20.25" customHeight="1">
       <c r="B171" s="218"/>
@@ -17713,10 +19279,10 @@
       <c r="N171" s="231"/>
       <c r="O171" s="216"/>
       <c r="P171" s="217"/>
-      <c r="R171" s="296"/>
-      <c r="S171" s="297"/>
-      <c r="T171" s="297"/>
-      <c r="U171" s="298"/>
+      <c r="R171" s="297"/>
+      <c r="S171" s="298"/>
+      <c r="T171" s="298"/>
+      <c r="U171" s="299"/>
     </row>
     <row r="172" spans="2:21" ht="20.25" customHeight="1">
       <c r="B172" s="218"/>
@@ -17734,10 +19300,10 @@
       <c r="N172" s="231"/>
       <c r="O172" s="216"/>
       <c r="P172" s="217"/>
-      <c r="R172" s="296"/>
-      <c r="S172" s="297"/>
-      <c r="T172" s="297"/>
-      <c r="U172" s="298"/>
+      <c r="R172" s="297"/>
+      <c r="S172" s="298"/>
+      <c r="T172" s="298"/>
+      <c r="U172" s="299"/>
     </row>
     <row r="173" spans="2:21" ht="20.25" customHeight="1">
       <c r="B173" s="218"/>
@@ -17755,10 +19321,10 @@
       <c r="N173" s="219"/>
       <c r="O173" s="218"/>
       <c r="P173" s="221"/>
-      <c r="R173" s="296"/>
-      <c r="S173" s="297"/>
-      <c r="T173" s="297"/>
-      <c r="U173" s="298"/>
+      <c r="R173" s="297"/>
+      <c r="S173" s="298"/>
+      <c r="T173" s="298"/>
+      <c r="U173" s="299"/>
     </row>
     <row r="174" spans="2:21" ht="20.25" customHeight="1">
       <c r="B174" s="218"/>
@@ -17776,10 +19342,10 @@
       <c r="N174" s="222"/>
       <c r="O174" s="218"/>
       <c r="P174" s="221"/>
-      <c r="R174" s="296"/>
-      <c r="S174" s="297"/>
-      <c r="T174" s="297"/>
-      <c r="U174" s="298"/>
+      <c r="R174" s="297"/>
+      <c r="S174" s="298"/>
+      <c r="T174" s="298"/>
+      <c r="U174" s="299"/>
     </row>
     <row r="175" spans="2:21" ht="20.25" customHeight="1">
       <c r="B175" s="218"/>
@@ -17797,10 +19363,10 @@
       <c r="N175" s="222"/>
       <c r="O175" s="218"/>
       <c r="P175" s="221"/>
-      <c r="R175" s="296"/>
-      <c r="S175" s="297"/>
-      <c r="T175" s="297"/>
-      <c r="U175" s="298"/>
+      <c r="R175" s="297"/>
+      <c r="S175" s="298"/>
+      <c r="T175" s="298"/>
+      <c r="U175" s="299"/>
     </row>
     <row r="176" spans="2:21" ht="20.25" customHeight="1">
       <c r="B176" s="218"/>
@@ -17818,10 +19384,10 @@
       <c r="N176" s="219"/>
       <c r="O176" s="223"/>
       <c r="P176" s="224"/>
-      <c r="R176" s="296"/>
-      <c r="S176" s="297"/>
-      <c r="T176" s="297"/>
-      <c r="U176" s="298"/>
+      <c r="R176" s="297"/>
+      <c r="S176" s="298"/>
+      <c r="T176" s="298"/>
+      <c r="U176" s="299"/>
     </row>
     <row r="177" spans="2:21" ht="20.25" customHeight="1">
       <c r="B177" s="218"/>
@@ -17839,10 +19405,10 @@
       <c r="N177" s="222"/>
       <c r="O177" s="223"/>
       <c r="P177" s="224"/>
-      <c r="R177" s="296"/>
-      <c r="S177" s="297"/>
-      <c r="T177" s="297"/>
-      <c r="U177" s="298"/>
+      <c r="R177" s="297"/>
+      <c r="S177" s="298"/>
+      <c r="T177" s="298"/>
+      <c r="U177" s="299"/>
     </row>
     <row r="178" spans="2:21" ht="20.25" customHeight="1">
       <c r="B178" s="229"/>
@@ -17860,10 +19426,10 @@
       <c r="N178" s="222"/>
       <c r="O178" s="223"/>
       <c r="P178" s="224"/>
-      <c r="R178" s="296"/>
-      <c r="S178" s="297"/>
-      <c r="T178" s="297"/>
-      <c r="U178" s="298"/>
+      <c r="R178" s="297"/>
+      <c r="S178" s="298"/>
+      <c r="T178" s="298"/>
+      <c r="U178" s="299"/>
     </row>
     <row r="179" spans="2:21" ht="20.25" customHeight="1">
       <c r="B179" s="218"/>
@@ -17881,10 +19447,10 @@
       <c r="N179" s="219"/>
       <c r="O179" s="223"/>
       <c r="P179" s="224"/>
-      <c r="R179" s="296"/>
-      <c r="S179" s="297"/>
-      <c r="T179" s="297"/>
-      <c r="U179" s="298"/>
+      <c r="R179" s="297"/>
+      <c r="S179" s="298"/>
+      <c r="T179" s="298"/>
+      <c r="U179" s="299"/>
     </row>
     <row r="180" spans="2:21" ht="20.25" customHeight="1">
       <c r="B180" s="218"/>
@@ -17902,10 +19468,10 @@
       <c r="N180" s="222"/>
       <c r="O180" s="223"/>
       <c r="P180" s="224"/>
-      <c r="R180" s="296"/>
-      <c r="S180" s="297"/>
-      <c r="T180" s="297"/>
-      <c r="U180" s="298"/>
+      <c r="R180" s="297"/>
+      <c r="S180" s="298"/>
+      <c r="T180" s="298"/>
+      <c r="U180" s="299"/>
     </row>
     <row r="181" spans="2:21" ht="20.25" customHeight="1">
       <c r="B181" s="218"/>
@@ -17923,10 +19489,10 @@
       <c r="N181" s="222"/>
       <c r="O181" s="223"/>
       <c r="P181" s="224"/>
-      <c r="R181" s="296"/>
-      <c r="S181" s="297"/>
-      <c r="T181" s="297"/>
-      <c r="U181" s="298"/>
+      <c r="R181" s="297"/>
+      <c r="S181" s="298"/>
+      <c r="T181" s="298"/>
+      <c r="U181" s="299"/>
     </row>
     <row r="182" spans="2:21" ht="20.25" customHeight="1">
       <c r="B182" s="218"/>
@@ -17944,10 +19510,10 @@
       <c r="N182" s="219"/>
       <c r="O182" s="223"/>
       <c r="P182" s="224"/>
-      <c r="R182" s="296"/>
-      <c r="S182" s="297"/>
-      <c r="T182" s="297"/>
-      <c r="U182" s="298"/>
+      <c r="R182" s="297"/>
+      <c r="S182" s="298"/>
+      <c r="T182" s="298"/>
+      <c r="U182" s="299"/>
     </row>
     <row r="183" spans="2:21" ht="20.25" customHeight="1" thickBot="1">
       <c r="B183" s="225"/>
@@ -17965,10 +19531,10 @@
       <c r="N183" s="230"/>
       <c r="O183" s="226"/>
       <c r="P183" s="228"/>
-      <c r="R183" s="299"/>
-      <c r="S183" s="300"/>
-      <c r="T183" s="300"/>
-      <c r="U183" s="301"/>
+      <c r="R183" s="300"/>
+      <c r="S183" s="301"/>
+      <c r="T183" s="301"/>
+      <c r="U183" s="302"/>
     </row>
     <row r="184" spans="2:21" ht="15.75" customHeight="1">
       <c r="B184" s="186"/>

--- a/doc/chiffrier_sim_vie.xlsx
+++ b/doc/chiffrier_sim_vie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\travail\sim_vie\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{709D6D87-995D-41D8-8056-332588C98B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DC802A-06AF-4FC0-B1A9-DDD18EAECEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Méthodes SCRUM" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="627">
   <si>
     <t>Chiffrier de documentation de projets</t>
   </si>
@@ -2010,9 +2010,6 @@
     <t>Debriefing</t>
   </si>
   <si>
-    <t>Ceci est un exemple de debriefing de SPRINT. On devrait y colliger tous les éléments importants relativement au livrable vraiment remis, les difficultés rencontrées etc</t>
-  </si>
-  <si>
     <t>SPRINT 1</t>
   </si>
   <si>
@@ -2103,22 +2100,25 @@
     <t>Mise au point du nouveau modèle</t>
   </si>
   <si>
-    <t>Gestion de poids des neuronnes pour se défaire de la logique binaire :</t>
-  </si>
-  <si>
-    <t>- Stocker des poids dans les neuronnes à l'instanciation pour les distinguer</t>
-  </si>
-  <si>
-    <t>- Stocker le poids des stimulis dans les neuronnes pour qu'elles réagissent plus subtilement à l'environnement</t>
-  </si>
-  <si>
-    <t>- Revoir le calcul de l'orientation pour qu'elle prenne mieux en compte la refactorisation des neurones</t>
-  </si>
-  <si>
     <t>Action manger</t>
   </si>
   <si>
-    <t>Action se reproduire</t>
+    <t>Revoir le calcul de l'orientation en fonction des neurones motrices</t>
+  </si>
+  <si>
+    <t>Distinguer les stimulis gauche / droite pour l'activation des capteurs</t>
+  </si>
+  <si>
+    <t>Détecter la position de la nourriture et augmenter le niveau d'énergie</t>
+  </si>
+  <si>
+    <t>Distinguer les neurones motrices droite et gauche</t>
+  </si>
+  <si>
+    <t>On manque de temps, on le reporte pour le sprint 2</t>
+  </si>
+  <si>
+    <t>Notre créature prend maintenant des décisions ! Ses neurones s'activent ou non selon son environnement et elle se déplace selon ses neurones moteurs. On a créé des classes pour compartimenter les organes de notre créature, ainsi que ses neurones, pour que les responsabilités de chacun d'eux soient localisées et localisables. La table a été mise pour la détection des phéromones et leurs émissions, il reste à les implémenter dans le calcul des déplacements et dans les distinctions entre droite / gauche. Nous aurons également l'occasion dans le sprint 2 de déterminer le rôle des ganglions : c'est-à-dire de laisser passer ou non les stimuli selon les messages envoyés du système nerveux. Un des gros objectifs de notre sprint 2 sera d'implémenter la possibilité de reproduction entre nos créatures et d'avoir un petit système d'ADN qui aurait la capacité d'être complexifié dans un futur possible. Il ne nous semble pas réaliste, dans le temps imparti, d'implémenter l'épigénétique et les mécanismes environnementaux et génétiques plus complexes prévues. Il sera pertinent d'ajouter des paramètres dans l'interface : intensité de rotation, vitesse de base, etc.</t>
   </si>
 </sst>
 </file>
@@ -3383,7 +3383,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="312">
+  <cellXfs count="313">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3901,218 +3901,223 @@
     <xf numFmtId="164" fontId="29" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="35" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="35" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="75" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="29" fillId="4" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="29" fillId="4" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4828,22 +4833,22 @@
       </c>
     </row>
     <row r="36" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F36" s="235"/>
-      <c r="G36" s="236"/>
-      <c r="H36" s="236"/>
-      <c r="I36" s="236"/>
+      <c r="F36" s="243"/>
+      <c r="G36" s="244"/>
+      <c r="H36" s="244"/>
+      <c r="I36" s="244"/>
     </row>
     <row r="37" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F37" s="236"/>
-      <c r="G37" s="236"/>
-      <c r="H37" s="236"/>
-      <c r="I37" s="236"/>
+      <c r="F37" s="244"/>
+      <c r="G37" s="244"/>
+      <c r="H37" s="244"/>
+      <c r="I37" s="244"/>
     </row>
     <row r="38" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F38" s="236"/>
-      <c r="G38" s="236"/>
-      <c r="H38" s="236"/>
-      <c r="I38" s="236"/>
+      <c r="F38" s="244"/>
+      <c r="G38" s="244"/>
+      <c r="H38" s="244"/>
+      <c r="I38" s="244"/>
     </row>
     <row r="39" spans="6:9" ht="17.25" customHeight="1">
       <c r="F39" s="29"/>
@@ -4852,22 +4857,22 @@
       <c r="I39" s="29"/>
     </row>
     <row r="40" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F40" s="235"/>
-      <c r="G40" s="236"/>
-      <c r="H40" s="236"/>
-      <c r="I40" s="236"/>
+      <c r="F40" s="243"/>
+      <c r="G40" s="244"/>
+      <c r="H40" s="244"/>
+      <c r="I40" s="244"/>
     </row>
     <row r="41" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F41" s="236"/>
-      <c r="G41" s="236"/>
-      <c r="H41" s="236"/>
-      <c r="I41" s="236"/>
+      <c r="F41" s="244"/>
+      <c r="G41" s="244"/>
+      <c r="H41" s="244"/>
+      <c r="I41" s="244"/>
     </row>
     <row r="42" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F42" s="236"/>
-      <c r="G42" s="236"/>
-      <c r="H42" s="236"/>
-      <c r="I42" s="236"/>
+      <c r="F42" s="244"/>
+      <c r="G42" s="244"/>
+      <c r="H42" s="244"/>
+      <c r="I42" s="244"/>
     </row>
     <row r="43" spans="6:9" ht="17.25" customHeight="1">
       <c r="F43" s="29"/>
@@ -4882,34 +4887,34 @@
       <c r="I44" s="29"/>
     </row>
     <row r="45" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F45" s="235"/>
-      <c r="G45" s="236"/>
-      <c r="H45" s="236"/>
-      <c r="I45" s="236"/>
+      <c r="F45" s="243"/>
+      <c r="G45" s="244"/>
+      <c r="H45" s="244"/>
+      <c r="I45" s="244"/>
     </row>
     <row r="46" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F46" s="236"/>
-      <c r="G46" s="236"/>
-      <c r="H46" s="236"/>
-      <c r="I46" s="236"/>
+      <c r="F46" s="244"/>
+      <c r="G46" s="244"/>
+      <c r="H46" s="244"/>
+      <c r="I46" s="244"/>
     </row>
     <row r="47" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F47" s="236"/>
-      <c r="G47" s="236"/>
-      <c r="H47" s="236"/>
-      <c r="I47" s="236"/>
+      <c r="F47" s="244"/>
+      <c r="G47" s="244"/>
+      <c r="H47" s="244"/>
+      <c r="I47" s="244"/>
     </row>
     <row r="48" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F48" s="236"/>
-      <c r="G48" s="236"/>
-      <c r="H48" s="236"/>
-      <c r="I48" s="236"/>
+      <c r="F48" s="244"/>
+      <c r="G48" s="244"/>
+      <c r="H48" s="244"/>
+      <c r="I48" s="244"/>
     </row>
     <row r="49" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F49" s="236"/>
-      <c r="G49" s="236"/>
-      <c r="H49" s="236"/>
-      <c r="I49" s="236"/>
+      <c r="F49" s="244"/>
+      <c r="G49" s="244"/>
+      <c r="H49" s="244"/>
+      <c r="I49" s="244"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5049,7 +5054,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B13" s="237" t="s">
+      <c r="B13" s="245" t="s">
         <v>60</v>
       </c>
       <c r="C13" s="49"/>
@@ -5058,7 +5063,7 @@
       <c r="H13" s="70"/>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B14" s="238"/>
+      <c r="B14" s="246"/>
       <c r="C14" s="50" t="s">
         <v>104</v>
       </c>
@@ -5071,13 +5076,13 @@
       <c r="H14" s="70"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B15" s="238"/>
+      <c r="B15" s="246"/>
       <c r="C15" s="53"/>
       <c r="D15" s="51"/>
       <c r="E15" s="52"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B16" s="238"/>
+      <c r="B16" s="246"/>
       <c r="C16" s="63" t="s">
         <v>171</v>
       </c>
@@ -5089,7 +5094,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B17" s="239"/>
+      <c r="B17" s="247"/>
       <c r="C17" s="53" t="s">
         <v>101</v>
       </c>
@@ -5097,7 +5102,7 @@
       <c r="E17" s="52"/>
     </row>
     <row r="18" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B18" s="239"/>
+      <c r="B18" s="247"/>
       <c r="C18" s="63" t="s">
         <v>172</v>
       </c>
@@ -5107,13 +5112,13 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B19" s="239"/>
+      <c r="B19" s="247"/>
       <c r="C19" s="53"/>
       <c r="D19" s="51"/>
       <c r="E19" s="52"/>
     </row>
     <row r="20" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B20" s="239"/>
+      <c r="B20" s="247"/>
       <c r="C20" s="50" t="s">
         <v>105</v>
       </c>
@@ -5125,13 +5130,13 @@
       </c>
     </row>
     <row r="21" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B21" s="239"/>
+      <c r="B21" s="247"/>
       <c r="C21" s="53"/>
       <c r="D21" s="51"/>
       <c r="E21" s="52"/>
     </row>
     <row r="22" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B22" s="239"/>
+      <c r="B22" s="247"/>
       <c r="C22" s="63" t="s">
         <v>174</v>
       </c>
@@ -5143,7 +5148,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B23" s="239"/>
+      <c r="B23" s="247"/>
       <c r="C23" s="68" t="s">
         <v>110</v>
       </c>
@@ -5155,7 +5160,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B24" s="239"/>
+      <c r="B24" s="247"/>
       <c r="C24" s="53"/>
       <c r="D24" s="64" t="s">
         <v>176</v>
@@ -5163,7 +5168,7 @@
       <c r="E24" s="65"/>
     </row>
     <row r="25" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B25" s="239"/>
+      <c r="B25" s="247"/>
       <c r="C25" s="63"/>
       <c r="D25" s="64" t="s">
         <v>113</v>
@@ -5171,7 +5176,7 @@
       <c r="E25" s="65"/>
     </row>
     <row r="26" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B26" s="239"/>
+      <c r="B26" s="247"/>
       <c r="C26" s="63" t="s">
         <v>114</v>
       </c>
@@ -5181,7 +5186,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B27" s="239"/>
+      <c r="B27" s="247"/>
       <c r="C27" s="63" t="s">
         <v>116</v>
       </c>
@@ -5191,13 +5196,13 @@
       </c>
     </row>
     <row r="28" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B28" s="239"/>
+      <c r="B28" s="247"/>
       <c r="C28" s="53"/>
       <c r="D28" s="51"/>
       <c r="E28" s="52"/>
     </row>
     <row r="29" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B29" s="239"/>
+      <c r="B29" s="247"/>
       <c r="C29" s="50" t="s">
         <v>118</v>
       </c>
@@ -5205,13 +5210,13 @@
       <c r="E29" s="52"/>
     </row>
     <row r="30" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B30" s="239"/>
+      <c r="B30" s="247"/>
       <c r="C30" s="53"/>
       <c r="D30" s="51"/>
       <c r="E30" s="52"/>
     </row>
     <row r="31" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B31" s="239"/>
+      <c r="B31" s="247"/>
       <c r="C31" s="63" t="s">
         <v>119</v>
       </c>
@@ -5221,7 +5226,7 @@
       <c r="E31" s="52"/>
     </row>
     <row r="32" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B32" s="239"/>
+      <c r="B32" s="247"/>
       <c r="C32" s="63" t="s">
         <v>120</v>
       </c>
@@ -5229,7 +5234,7 @@
       <c r="E32" s="52"/>
     </row>
     <row r="33" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B33" s="239"/>
+      <c r="B33" s="247"/>
       <c r="C33" s="63" t="s">
         <v>121</v>
       </c>
@@ -5237,7 +5242,7 @@
       <c r="E33" s="52"/>
     </row>
     <row r="34" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B34" s="239"/>
+      <c r="B34" s="247"/>
       <c r="C34" s="63" t="s">
         <v>122</v>
       </c>
@@ -5245,7 +5250,7 @@
       <c r="E34" s="52"/>
     </row>
     <row r="35" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B35" s="239"/>
+      <c r="B35" s="247"/>
       <c r="C35" s="63" t="s">
         <v>123</v>
       </c>
@@ -5253,13 +5258,13 @@
       <c r="E35" s="52"/>
     </row>
     <row r="36" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B36" s="239"/>
+      <c r="B36" s="247"/>
       <c r="C36" s="63"/>
       <c r="D36" s="64"/>
       <c r="E36" s="52"/>
     </row>
     <row r="37" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B37" s="239"/>
+      <c r="B37" s="247"/>
       <c r="C37" s="63" t="s">
         <v>177</v>
       </c>
@@ -5267,7 +5272,7 @@
       <c r="E37" s="52"/>
     </row>
     <row r="38" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B38" s="239"/>
+      <c r="B38" s="247"/>
       <c r="C38" s="63" t="s">
         <v>127</v>
       </c>
@@ -5275,7 +5280,7 @@
       <c r="E38" s="52"/>
     </row>
     <row r="39" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B39" s="239"/>
+      <c r="B39" s="247"/>
       <c r="C39" s="63" t="s">
         <v>125</v>
       </c>
@@ -5285,13 +5290,13 @@
       </c>
     </row>
     <row r="40" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B40" s="239"/>
+      <c r="B40" s="247"/>
       <c r="C40" s="63"/>
       <c r="D40" s="51"/>
       <c r="E40" s="52"/>
     </row>
     <row r="41" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B41" s="239"/>
+      <c r="B41" s="247"/>
       <c r="C41" s="50" t="s">
         <v>128</v>
       </c>
@@ -5299,13 +5304,13 @@
       <c r="E41" s="52"/>
     </row>
     <row r="42" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B42" s="239"/>
+      <c r="B42" s="247"/>
       <c r="C42" s="63"/>
       <c r="D42" s="51"/>
       <c r="E42" s="52"/>
     </row>
     <row r="43" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B43" s="239"/>
+      <c r="B43" s="247"/>
       <c r="C43" s="63" t="s">
         <v>129</v>
       </c>
@@ -5313,7 +5318,7 @@
       <c r="E43" s="52"/>
     </row>
     <row r="44" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B44" s="239"/>
+      <c r="B44" s="247"/>
       <c r="C44" s="63" t="s">
         <v>101</v>
       </c>
@@ -5323,7 +5328,7 @@
       <c r="E44" s="52"/>
     </row>
     <row r="45" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B45" s="239"/>
+      <c r="B45" s="247"/>
       <c r="C45" s="63" t="s">
         <v>131</v>
       </c>
@@ -5333,7 +5338,7 @@
       <c r="E45" s="52"/>
     </row>
     <row r="46" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B46" s="239"/>
+      <c r="B46" s="247"/>
       <c r="C46" s="63" t="s">
         <v>133</v>
       </c>
@@ -5343,7 +5348,7 @@
       <c r="E46" s="52"/>
     </row>
     <row r="47" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B47" s="239"/>
+      <c r="B47" s="247"/>
       <c r="C47" s="63" t="s">
         <v>135</v>
       </c>
@@ -5353,7 +5358,7 @@
       </c>
     </row>
     <row r="48" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B48" s="239"/>
+      <c r="B48" s="247"/>
       <c r="C48" s="68" t="s">
         <v>137</v>
       </c>
@@ -5361,7 +5366,7 @@
       <c r="E48" s="52"/>
     </row>
     <row r="49" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B49" s="239"/>
+      <c r="B49" s="247"/>
       <c r="C49" s="68" t="s">
         <v>138</v>
       </c>
@@ -5369,13 +5374,13 @@
       <c r="E49" s="52"/>
     </row>
     <row r="50" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B50" s="239"/>
+      <c r="B50" s="247"/>
       <c r="C50" s="63"/>
       <c r="D50" s="51"/>
       <c r="E50" s="52"/>
     </row>
     <row r="51" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B51" s="239"/>
+      <c r="B51" s="247"/>
       <c r="C51" s="50" t="s">
         <v>139</v>
       </c>
@@ -5383,13 +5388,13 @@
       <c r="E51" s="52"/>
     </row>
     <row r="52" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B52" s="239"/>
+      <c r="B52" s="247"/>
       <c r="C52" s="63"/>
       <c r="D52" s="51"/>
       <c r="E52" s="52"/>
     </row>
     <row r="53" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B53" s="239"/>
+      <c r="B53" s="247"/>
       <c r="C53" s="63" t="s">
         <v>140</v>
       </c>
@@ -5399,7 +5404,7 @@
       </c>
     </row>
     <row r="54" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B54" s="239"/>
+      <c r="B54" s="247"/>
       <c r="C54" s="63" t="s">
         <v>142</v>
       </c>
@@ -5407,7 +5412,7 @@
       <c r="E54" s="52"/>
     </row>
     <row r="55" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B55" s="239"/>
+      <c r="B55" s="247"/>
       <c r="C55" s="63" t="s">
         <v>143</v>
       </c>
@@ -5415,7 +5420,7 @@
       <c r="E55" s="52"/>
     </row>
     <row r="56" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B56" s="239"/>
+      <c r="B56" s="247"/>
       <c r="C56" s="63" t="s">
         <v>144</v>
       </c>
@@ -5423,7 +5428,7 @@
       <c r="E56" s="52"/>
     </row>
     <row r="57" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B57" s="239"/>
+      <c r="B57" s="247"/>
       <c r="C57" s="63" t="s">
         <v>145</v>
       </c>
@@ -5431,7 +5436,7 @@
       <c r="E57" s="52"/>
     </row>
     <row r="58" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B58" s="239"/>
+      <c r="B58" s="247"/>
       <c r="C58" s="63" t="s">
         <v>146</v>
       </c>
@@ -5441,7 +5446,7 @@
       <c r="E58" s="52"/>
     </row>
     <row r="59" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B59" s="239"/>
+      <c r="B59" s="247"/>
       <c r="C59" s="63" t="s">
         <v>138</v>
       </c>
@@ -5451,7 +5456,7 @@
       <c r="E59" s="52"/>
     </row>
     <row r="60" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B60" s="239"/>
+      <c r="B60" s="247"/>
       <c r="C60" s="63" t="s">
         <v>149</v>
       </c>
@@ -5459,7 +5464,7 @@
       <c r="E60" s="52"/>
     </row>
     <row r="61" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B61" s="239"/>
+      <c r="B61" s="247"/>
       <c r="C61" s="63" t="s">
         <v>150</v>
       </c>
@@ -5469,7 +5474,7 @@
       </c>
     </row>
     <row r="62" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B62" s="239"/>
+      <c r="B62" s="247"/>
       <c r="C62" s="63" t="s">
         <v>152</v>
       </c>
@@ -5477,13 +5482,13 @@
       <c r="E62" s="52"/>
     </row>
     <row r="63" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B63" s="239"/>
+      <c r="B63" s="247"/>
       <c r="C63" s="63"/>
       <c r="D63" s="51"/>
       <c r="E63" s="52"/>
     </row>
     <row r="64" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B64" s="239"/>
+      <c r="B64" s="247"/>
       <c r="C64" s="50" t="s">
         <v>153</v>
       </c>
@@ -5491,13 +5496,13 @@
       <c r="E64" s="52"/>
     </row>
     <row r="65" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B65" s="239"/>
+      <c r="B65" s="247"/>
       <c r="C65" s="63"/>
       <c r="D65" s="51"/>
       <c r="E65" s="52"/>
     </row>
     <row r="66" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B66" s="239"/>
+      <c r="B66" s="247"/>
       <c r="C66" s="63" t="s">
         <v>155</v>
       </c>
@@ -5505,7 +5510,7 @@
       <c r="E66" s="52"/>
     </row>
     <row r="67" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B67" s="239"/>
+      <c r="B67" s="247"/>
       <c r="C67" s="63" t="s">
         <v>156</v>
       </c>
@@ -5513,7 +5518,7 @@
       <c r="E67" s="52"/>
     </row>
     <row r="68" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B68" s="239"/>
+      <c r="B68" s="247"/>
       <c r="C68" s="63" t="s">
         <v>154</v>
       </c>
@@ -5521,7 +5526,7 @@
       <c r="E68" s="52"/>
     </row>
     <row r="69" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B69" s="239"/>
+      <c r="B69" s="247"/>
       <c r="C69" s="63" t="s">
         <v>157</v>
       </c>
@@ -5529,25 +5534,25 @@
       <c r="E69" s="52"/>
     </row>
     <row r="70" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B70" s="239"/>
+      <c r="B70" s="247"/>
       <c r="C70" s="63"/>
       <c r="D70" s="51"/>
       <c r="E70" s="52"/>
     </row>
     <row r="71" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B71" s="239"/>
+      <c r="B71" s="247"/>
       <c r="C71" s="63"/>
       <c r="D71" s="51"/>
       <c r="E71" s="52"/>
     </row>
     <row r="72" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B72" s="240"/>
+      <c r="B72" s="248"/>
       <c r="C72" s="54"/>
       <c r="D72" s="55"/>
       <c r="E72" s="56"/>
     </row>
     <row r="73" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B73" s="237" t="s">
+      <c r="B73" s="245" t="s">
         <v>61</v>
       </c>
       <c r="C73" s="63"/>
@@ -5559,7 +5564,7 @@
       </c>
     </row>
     <row r="74" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B74" s="239"/>
+      <c r="B74" s="247"/>
       <c r="C74" s="63" t="s">
         <v>188</v>
       </c>
@@ -5571,7 +5576,7 @@
       </c>
     </row>
     <row r="75" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B75" s="239"/>
+      <c r="B75" s="247"/>
       <c r="C75" s="53"/>
       <c r="D75" s="64" t="s">
         <v>162</v>
@@ -5581,7 +5586,7 @@
       </c>
     </row>
     <row r="76" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B76" s="239"/>
+      <c r="B76" s="247"/>
       <c r="C76" s="53"/>
       <c r="D76" s="51" t="s">
         <v>102</v>
@@ -5591,7 +5596,7 @@
       </c>
     </row>
     <row r="77" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B77" s="239"/>
+      <c r="B77" s="247"/>
       <c r="C77" s="53"/>
       <c r="D77" s="51" t="s">
         <v>103</v>
@@ -5601,7 +5606,7 @@
       </c>
     </row>
     <row r="78" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B78" s="239"/>
+      <c r="B78" s="247"/>
       <c r="C78" s="53"/>
       <c r="D78" s="64" t="s">
         <v>106</v>
@@ -5611,7 +5616,7 @@
       </c>
     </row>
     <row r="79" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B79" s="239"/>
+      <c r="B79" s="247"/>
       <c r="C79" s="53"/>
       <c r="D79" s="64" t="s">
         <v>179</v>
@@ -5621,7 +5626,7 @@
       </c>
     </row>
     <row r="80" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B80" s="239"/>
+      <c r="B80" s="247"/>
       <c r="C80" s="53"/>
       <c r="D80" s="64" t="s">
         <v>158</v>
@@ -5631,7 +5636,7 @@
       </c>
     </row>
     <row r="81" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B81" s="239"/>
+      <c r="B81" s="247"/>
       <c r="C81" s="53"/>
       <c r="D81" s="64" t="s">
         <v>159</v>
@@ -5641,7 +5646,7 @@
       </c>
     </row>
     <row r="82" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B82" s="239"/>
+      <c r="B82" s="247"/>
       <c r="C82" s="53"/>
       <c r="D82" s="64" t="s">
         <v>160</v>
@@ -5651,7 +5656,7 @@
       </c>
     </row>
     <row r="83" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B83" s="239"/>
+      <c r="B83" s="247"/>
       <c r="C83" s="63"/>
       <c r="D83" s="64" t="s">
         <v>180</v>
@@ -5661,7 +5666,7 @@
       </c>
     </row>
     <row r="84" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B84" s="239"/>
+      <c r="B84" s="247"/>
       <c r="C84" s="63"/>
       <c r="D84" s="64" t="s">
         <v>181</v>
@@ -5671,7 +5676,7 @@
       </c>
     </row>
     <row r="85" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B85" s="239"/>
+      <c r="B85" s="247"/>
       <c r="C85" s="53"/>
       <c r="D85" s="64" t="s">
         <v>182</v>
@@ -5681,7 +5686,7 @@
       </c>
     </row>
     <row r="86" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B86" s="239"/>
+      <c r="B86" s="247"/>
       <c r="C86" s="53"/>
       <c r="D86" s="64" t="s">
         <v>184</v>
@@ -5691,7 +5696,7 @@
       </c>
     </row>
     <row r="87" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B87" s="239"/>
+      <c r="B87" s="247"/>
       <c r="C87" s="53"/>
       <c r="D87" s="64" t="s">
         <v>193</v>
@@ -5701,7 +5706,7 @@
       </c>
     </row>
     <row r="88" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B88" s="239"/>
+      <c r="B88" s="247"/>
       <c r="C88" s="53"/>
       <c r="D88" s="64" t="s">
         <v>194</v>
@@ -5711,13 +5716,13 @@
       </c>
     </row>
     <row r="89" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B89" s="240"/>
+      <c r="B89" s="248"/>
       <c r="C89" s="54"/>
       <c r="D89" s="55"/>
       <c r="E89" s="56"/>
     </row>
     <row r="90" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B90" s="237" t="s">
+      <c r="B90" s="245" t="s">
         <v>62</v>
       </c>
       <c r="C90" s="57"/>
@@ -5725,7 +5730,7 @@
       <c r="E90" s="59"/>
     </row>
     <row r="91" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B91" s="239"/>
+      <c r="B91" s="247"/>
       <c r="C91" s="63" t="s">
         <v>189</v>
       </c>
@@ -5733,7 +5738,7 @@
       <c r="E91" s="52"/>
     </row>
     <row r="92" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B92" s="239"/>
+      <c r="B92" s="247"/>
       <c r="C92" s="63" t="s">
         <v>190</v>
       </c>
@@ -5741,7 +5746,7 @@
       <c r="E92" s="52"/>
     </row>
     <row r="93" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B93" s="239"/>
+      <c r="B93" s="247"/>
       <c r="C93" s="53" t="s">
         <v>191</v>
       </c>
@@ -5749,37 +5754,37 @@
       <c r="E93" s="52"/>
     </row>
     <row r="94" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B94" s="239"/>
+      <c r="B94" s="247"/>
       <c r="C94" s="53"/>
       <c r="D94" s="51"/>
       <c r="E94" s="52"/>
     </row>
     <row r="95" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B95" s="239"/>
+      <c r="B95" s="247"/>
       <c r="C95" s="53"/>
       <c r="D95" s="51"/>
       <c r="E95" s="52"/>
     </row>
     <row r="96" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B96" s="239"/>
+      <c r="B96" s="247"/>
       <c r="C96" s="53"/>
       <c r="D96" s="51"/>
       <c r="E96" s="52"/>
     </row>
     <row r="97" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B97" s="239"/>
+      <c r="B97" s="247"/>
       <c r="C97" s="53"/>
       <c r="D97" s="51"/>
       <c r="E97" s="52"/>
     </row>
     <row r="98" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B98" s="239"/>
+      <c r="B98" s="247"/>
       <c r="C98" s="53"/>
       <c r="D98" s="51"/>
       <c r="E98" s="52"/>
     </row>
     <row r="99" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B99" s="240"/>
+      <c r="B99" s="248"/>
       <c r="C99" s="60"/>
       <c r="D99" s="61"/>
       <c r="E99" s="62"/>
@@ -5842,11 +5847,11 @@
         <v>476</v>
       </c>
       <c r="C3" s="106"/>
-      <c r="D3" s="241" t="s">
+      <c r="D3" s="249" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="242"/>
-      <c r="F3" s="243"/>
+      <c r="E3" s="250"/>
+      <c r="F3" s="251"/>
       <c r="H3" s="75"/>
     </row>
     <row r="4" spans="1:8" s="76" customFormat="1" ht="30.75" customHeight="1">
@@ -5854,11 +5859,11 @@
         <v>477</v>
       </c>
       <c r="C4" s="106"/>
-      <c r="D4" s="244" t="s">
+      <c r="D4" s="252" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="242"/>
-      <c r="F4" s="243"/>
+      <c r="E4" s="250"/>
+      <c r="F4" s="251"/>
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1">
       <c r="A5" s="156" t="s">
@@ -7322,16 +7327,16 @@
       <c r="W10" s="29"/>
     </row>
     <row r="11" spans="1:107" thickBot="1">
-      <c r="G11" s="251" t="s">
+      <c r="G11" s="279" t="s">
         <v>324</v>
       </c>
-      <c r="H11" s="252"/>
-      <c r="I11" s="252"/>
-      <c r="J11" s="252"/>
-      <c r="K11" s="252"/>
-      <c r="L11" s="252"/>
-      <c r="M11" s="252"/>
-      <c r="N11" s="253"/>
+      <c r="H11" s="280"/>
+      <c r="I11" s="280"/>
+      <c r="J11" s="280"/>
+      <c r="K11" s="280"/>
+      <c r="L11" s="280"/>
+      <c r="M11" s="280"/>
+      <c r="N11" s="281"/>
       <c r="O11" s="48"/>
       <c r="P11" s="39"/>
       <c r="Q11" s="39"/>
@@ -7369,66 +7374,66 @@
       <c r="AW11" s="47"/>
       <c r="AX11" s="113"/>
       <c r="AY11" s="115"/>
-      <c r="BD11" s="251" t="s">
+      <c r="BD11" s="279" t="s">
         <v>324</v>
       </c>
-      <c r="BE11" s="252"/>
-      <c r="BF11" s="252"/>
-      <c r="BG11" s="252"/>
-      <c r="BH11" s="252"/>
-      <c r="BI11" s="252"/>
-      <c r="BJ11" s="252"/>
-      <c r="BK11" s="253"/>
-      <c r="BP11" s="251" t="s">
+      <c r="BE11" s="280"/>
+      <c r="BF11" s="280"/>
+      <c r="BG11" s="280"/>
+      <c r="BH11" s="280"/>
+      <c r="BI11" s="280"/>
+      <c r="BJ11" s="280"/>
+      <c r="BK11" s="281"/>
+      <c r="BP11" s="279" t="s">
         <v>324</v>
       </c>
-      <c r="BQ11" s="252"/>
-      <c r="BR11" s="252"/>
-      <c r="BS11" s="252"/>
-      <c r="BT11" s="252"/>
-      <c r="BU11" s="252"/>
-      <c r="BV11" s="252"/>
-      <c r="BW11" s="253"/>
-      <c r="CA11" s="251" t="s">
+      <c r="BQ11" s="280"/>
+      <c r="BR11" s="280"/>
+      <c r="BS11" s="280"/>
+      <c r="BT11" s="280"/>
+      <c r="BU11" s="280"/>
+      <c r="BV11" s="280"/>
+      <c r="BW11" s="281"/>
+      <c r="CA11" s="279" t="s">
         <v>324</v>
       </c>
-      <c r="CB11" s="252"/>
-      <c r="CC11" s="252"/>
-      <c r="CD11" s="252"/>
-      <c r="CE11" s="252"/>
-      <c r="CF11" s="252"/>
-      <c r="CG11" s="252"/>
-      <c r="CH11" s="253"/>
-      <c r="CL11" s="251" t="s">
+      <c r="CB11" s="280"/>
+      <c r="CC11" s="280"/>
+      <c r="CD11" s="280"/>
+      <c r="CE11" s="280"/>
+      <c r="CF11" s="280"/>
+      <c r="CG11" s="280"/>
+      <c r="CH11" s="281"/>
+      <c r="CL11" s="279" t="s">
         <v>324</v>
       </c>
-      <c r="CM11" s="252"/>
-      <c r="CN11" s="252"/>
-      <c r="CO11" s="252"/>
-      <c r="CP11" s="252"/>
-      <c r="CQ11" s="252"/>
-      <c r="CR11" s="252"/>
-      <c r="CS11" s="253"/>
-      <c r="CV11" s="251" t="s">
+      <c r="CM11" s="280"/>
+      <c r="CN11" s="280"/>
+      <c r="CO11" s="280"/>
+      <c r="CP11" s="280"/>
+      <c r="CQ11" s="280"/>
+      <c r="CR11" s="280"/>
+      <c r="CS11" s="281"/>
+      <c r="CV11" s="279" t="s">
         <v>324</v>
       </c>
-      <c r="CW11" s="252"/>
-      <c r="CX11" s="252"/>
-      <c r="CY11" s="252"/>
-      <c r="CZ11" s="252"/>
-      <c r="DA11" s="252"/>
-      <c r="DB11" s="252"/>
-      <c r="DC11" s="253"/>
+      <c r="CW11" s="280"/>
+      <c r="CX11" s="280"/>
+      <c r="CY11" s="280"/>
+      <c r="CZ11" s="280"/>
+      <c r="DA11" s="280"/>
+      <c r="DB11" s="280"/>
+      <c r="DC11" s="281"/>
     </row>
     <row r="12" spans="1:107" thickBot="1">
-      <c r="G12" s="254"/>
-      <c r="H12" s="255"/>
-      <c r="I12" s="255"/>
-      <c r="J12" s="255"/>
-      <c r="K12" s="255"/>
-      <c r="L12" s="255"/>
-      <c r="M12" s="255"/>
-      <c r="N12" s="256"/>
+      <c r="G12" s="282"/>
+      <c r="H12" s="283"/>
+      <c r="I12" s="283"/>
+      <c r="J12" s="283"/>
+      <c r="K12" s="283"/>
+      <c r="L12" s="283"/>
+      <c r="M12" s="283"/>
+      <c r="N12" s="284"/>
       <c r="O12" s="40"/>
       <c r="P12" s="29"/>
       <c r="Q12" s="29"/>
@@ -7439,49 +7444,49 @@
       <c r="V12" s="29"/>
       <c r="W12" s="29"/>
       <c r="AX12" s="42"/>
-      <c r="AY12" s="248" t="s">
+      <c r="AY12" s="288" t="s">
         <v>323</v>
       </c>
-      <c r="BD12" s="254"/>
-      <c r="BE12" s="255"/>
-      <c r="BF12" s="255"/>
-      <c r="BG12" s="255"/>
-      <c r="BH12" s="255"/>
-      <c r="BI12" s="255"/>
-      <c r="BJ12" s="255"/>
-      <c r="BK12" s="256"/>
-      <c r="BP12" s="254"/>
-      <c r="BQ12" s="255"/>
-      <c r="BR12" s="255"/>
-      <c r="BS12" s="255"/>
-      <c r="BT12" s="255"/>
-      <c r="BU12" s="255"/>
-      <c r="BV12" s="255"/>
-      <c r="BW12" s="256"/>
-      <c r="CA12" s="254"/>
-      <c r="CB12" s="255"/>
-      <c r="CC12" s="255"/>
-      <c r="CD12" s="255"/>
-      <c r="CE12" s="255"/>
-      <c r="CF12" s="255"/>
-      <c r="CG12" s="255"/>
-      <c r="CH12" s="256"/>
-      <c r="CL12" s="254"/>
-      <c r="CM12" s="255"/>
-      <c r="CN12" s="255"/>
-      <c r="CO12" s="255"/>
-      <c r="CP12" s="255"/>
-      <c r="CQ12" s="255"/>
-      <c r="CR12" s="255"/>
-      <c r="CS12" s="256"/>
-      <c r="CV12" s="254"/>
-      <c r="CW12" s="255"/>
-      <c r="CX12" s="255"/>
-      <c r="CY12" s="255"/>
-      <c r="CZ12" s="255"/>
-      <c r="DA12" s="255"/>
-      <c r="DB12" s="255"/>
-      <c r="DC12" s="256"/>
+      <c r="BD12" s="282"/>
+      <c r="BE12" s="283"/>
+      <c r="BF12" s="283"/>
+      <c r="BG12" s="283"/>
+      <c r="BH12" s="283"/>
+      <c r="BI12" s="283"/>
+      <c r="BJ12" s="283"/>
+      <c r="BK12" s="284"/>
+      <c r="BP12" s="282"/>
+      <c r="BQ12" s="283"/>
+      <c r="BR12" s="283"/>
+      <c r="BS12" s="283"/>
+      <c r="BT12" s="283"/>
+      <c r="BU12" s="283"/>
+      <c r="BV12" s="283"/>
+      <c r="BW12" s="284"/>
+      <c r="CA12" s="282"/>
+      <c r="CB12" s="283"/>
+      <c r="CC12" s="283"/>
+      <c r="CD12" s="283"/>
+      <c r="CE12" s="283"/>
+      <c r="CF12" s="283"/>
+      <c r="CG12" s="283"/>
+      <c r="CH12" s="284"/>
+      <c r="CL12" s="282"/>
+      <c r="CM12" s="283"/>
+      <c r="CN12" s="283"/>
+      <c r="CO12" s="283"/>
+      <c r="CP12" s="283"/>
+      <c r="CQ12" s="283"/>
+      <c r="CR12" s="283"/>
+      <c r="CS12" s="284"/>
+      <c r="CV12" s="282"/>
+      <c r="CW12" s="283"/>
+      <c r="CX12" s="283"/>
+      <c r="CY12" s="283"/>
+      <c r="CZ12" s="283"/>
+      <c r="DA12" s="283"/>
+      <c r="DB12" s="283"/>
+      <c r="DC12" s="284"/>
     </row>
     <row r="13" spans="1:107" thickBot="1">
       <c r="G13" s="40"/>
@@ -7500,7 +7505,7 @@
       <c r="V13" s="29"/>
       <c r="W13" s="29"/>
       <c r="AX13" s="42"/>
-      <c r="AY13" s="249"/>
+      <c r="AY13" s="289"/>
       <c r="BD13" s="40"/>
       <c r="BG13" s="29"/>
       <c r="BH13" s="29"/>
@@ -7525,16 +7530,16 @@
       <c r="DC13" s="42"/>
     </row>
     <row r="14" spans="1:107" thickBot="1">
-      <c r="G14" s="257" t="s">
+      <c r="G14" s="285" t="s">
         <v>325</v>
       </c>
-      <c r="H14" s="258"/>
-      <c r="I14" s="258"/>
-      <c r="J14" s="258"/>
-      <c r="K14" s="258"/>
-      <c r="L14" s="258"/>
-      <c r="M14" s="258"/>
-      <c r="N14" s="259"/>
+      <c r="H14" s="286"/>
+      <c r="I14" s="286"/>
+      <c r="J14" s="286"/>
+      <c r="K14" s="286"/>
+      <c r="L14" s="286"/>
+      <c r="M14" s="286"/>
+      <c r="N14" s="287"/>
       <c r="O14" s="40"/>
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
@@ -7545,57 +7550,57 @@
       <c r="V14" s="29"/>
       <c r="W14" s="29"/>
       <c r="AX14" s="42"/>
-      <c r="AY14" s="249"/>
-      <c r="BD14" s="257" t="s">
+      <c r="AY14" s="289"/>
+      <c r="BD14" s="285" t="s">
         <v>338</v>
       </c>
-      <c r="BE14" s="258"/>
-      <c r="BF14" s="258"/>
-      <c r="BG14" s="258"/>
-      <c r="BH14" s="258"/>
-      <c r="BI14" s="258"/>
-      <c r="BJ14" s="258"/>
-      <c r="BK14" s="259"/>
-      <c r="BP14" s="257" t="s">
+      <c r="BE14" s="286"/>
+      <c r="BF14" s="286"/>
+      <c r="BG14" s="286"/>
+      <c r="BH14" s="286"/>
+      <c r="BI14" s="286"/>
+      <c r="BJ14" s="286"/>
+      <c r="BK14" s="287"/>
+      <c r="BP14" s="285" t="s">
         <v>327</v>
       </c>
-      <c r="BQ14" s="258"/>
-      <c r="BR14" s="258"/>
-      <c r="BS14" s="258"/>
-      <c r="BT14" s="258"/>
-      <c r="BU14" s="258"/>
-      <c r="BV14" s="258"/>
-      <c r="BW14" s="259"/>
-      <c r="CA14" s="257" t="s">
+      <c r="BQ14" s="286"/>
+      <c r="BR14" s="286"/>
+      <c r="BS14" s="286"/>
+      <c r="BT14" s="286"/>
+      <c r="BU14" s="286"/>
+      <c r="BV14" s="286"/>
+      <c r="BW14" s="287"/>
+      <c r="CA14" s="285" t="s">
         <v>326</v>
       </c>
-      <c r="CB14" s="258"/>
-      <c r="CC14" s="258"/>
-      <c r="CD14" s="258"/>
-      <c r="CE14" s="258"/>
-      <c r="CF14" s="258"/>
-      <c r="CG14" s="258"/>
-      <c r="CH14" s="259"/>
-      <c r="CL14" s="257" t="s">
+      <c r="CB14" s="286"/>
+      <c r="CC14" s="286"/>
+      <c r="CD14" s="286"/>
+      <c r="CE14" s="286"/>
+      <c r="CF14" s="286"/>
+      <c r="CG14" s="286"/>
+      <c r="CH14" s="287"/>
+      <c r="CL14" s="285" t="s">
         <v>329</v>
       </c>
-      <c r="CM14" s="258"/>
-      <c r="CN14" s="258"/>
-      <c r="CO14" s="258"/>
-      <c r="CP14" s="258"/>
-      <c r="CQ14" s="258"/>
-      <c r="CR14" s="258"/>
-      <c r="CS14" s="259"/>
-      <c r="CV14" s="257" t="s">
+      <c r="CM14" s="286"/>
+      <c r="CN14" s="286"/>
+      <c r="CO14" s="286"/>
+      <c r="CP14" s="286"/>
+      <c r="CQ14" s="286"/>
+      <c r="CR14" s="286"/>
+      <c r="CS14" s="287"/>
+      <c r="CV14" s="285" t="s">
         <v>328</v>
       </c>
-      <c r="CW14" s="258"/>
-      <c r="CX14" s="258"/>
-      <c r="CY14" s="258"/>
-      <c r="CZ14" s="258"/>
-      <c r="DA14" s="258"/>
-      <c r="DB14" s="258"/>
-      <c r="DC14" s="259"/>
+      <c r="CW14" s="286"/>
+      <c r="CX14" s="286"/>
+      <c r="CY14" s="286"/>
+      <c r="CZ14" s="286"/>
+      <c r="DA14" s="286"/>
+      <c r="DB14" s="286"/>
+      <c r="DC14" s="287"/>
     </row>
     <row r="15" spans="1:107" thickBot="1">
       <c r="G15" s="117"/>
@@ -7616,7 +7621,7 @@
       <c r="V15" s="29"/>
       <c r="W15" s="29"/>
       <c r="AX15" s="42"/>
-      <c r="AY15" s="249"/>
+      <c r="AY15" s="289"/>
       <c r="BD15" s="117"/>
       <c r="BE15" s="116"/>
       <c r="BF15" s="114"/>
@@ -7677,7 +7682,7 @@
       <c r="V16" s="29"/>
       <c r="W16" s="29"/>
       <c r="AX16" s="42"/>
-      <c r="AY16" s="249"/>
+      <c r="AY16" s="289"/>
       <c r="BD16" s="40"/>
       <c r="BE16" s="29"/>
       <c r="BF16" s="29"/>
@@ -7729,16 +7734,16 @@
       <c r="M17" s="29"/>
       <c r="N17" s="29"/>
       <c r="O17" s="40"/>
-      <c r="P17" s="260"/>
-      <c r="Q17" s="236"/>
-      <c r="R17" s="236"/>
+      <c r="P17" s="291"/>
+      <c r="Q17" s="244"/>
+      <c r="R17" s="244"/>
       <c r="S17" s="29"/>
-      <c r="T17" s="260"/>
-      <c r="U17" s="236"/>
-      <c r="V17" s="236"/>
-      <c r="W17" s="236"/>
+      <c r="T17" s="291"/>
+      <c r="U17" s="244"/>
+      <c r="V17" s="244"/>
+      <c r="W17" s="244"/>
       <c r="AX17" s="42"/>
-      <c r="AY17" s="249"/>
+      <c r="AY17" s="289"/>
       <c r="BD17" s="40"/>
       <c r="BE17" s="29"/>
       <c r="BF17" s="29"/>
@@ -7756,14 +7761,14 @@
       <c r="BV17" s="29"/>
       <c r="BW17" s="46"/>
       <c r="CA17" s="40"/>
-      <c r="CB17" s="261" t="s">
+      <c r="CB17" s="253" t="s">
         <v>349</v>
       </c>
-      <c r="CC17" s="246"/>
-      <c r="CD17" s="246"/>
-      <c r="CE17" s="246"/>
-      <c r="CF17" s="246"/>
-      <c r="CG17" s="247"/>
+      <c r="CC17" s="256"/>
+      <c r="CD17" s="256"/>
+      <c r="CE17" s="256"/>
+      <c r="CF17" s="256"/>
+      <c r="CG17" s="257"/>
       <c r="CH17" s="46"/>
       <c r="CL17" s="40"/>
       <c r="CM17" s="29"/>
@@ -7786,96 +7791,96 @@
       <c r="G18" s="41"/>
       <c r="O18" s="41"/>
       <c r="AX18" s="42"/>
-      <c r="AY18" s="249"/>
+      <c r="AY18" s="289"/>
       <c r="BD18" s="41"/>
-      <c r="BE18" s="245" t="s">
+      <c r="BE18" s="267" t="s">
         <v>335</v>
       </c>
-      <c r="BF18" s="246"/>
-      <c r="BG18" s="246"/>
-      <c r="BH18" s="246"/>
-      <c r="BI18" s="246"/>
-      <c r="BJ18" s="247"/>
+      <c r="BF18" s="256"/>
+      <c r="BG18" s="256"/>
+      <c r="BH18" s="256"/>
+      <c r="BI18" s="256"/>
+      <c r="BJ18" s="257"/>
       <c r="BK18" s="42"/>
       <c r="BP18" s="41"/>
-      <c r="BQ18" s="245" t="s">
+      <c r="BQ18" s="267" t="s">
         <v>331</v>
       </c>
-      <c r="BR18" s="246"/>
-      <c r="BS18" s="246"/>
-      <c r="BT18" s="246"/>
-      <c r="BU18" s="246"/>
-      <c r="BV18" s="247"/>
+      <c r="BR18" s="256"/>
+      <c r="BS18" s="256"/>
+      <c r="BT18" s="256"/>
+      <c r="BU18" s="256"/>
+      <c r="BV18" s="257"/>
       <c r="BW18" s="42"/>
       <c r="CA18" s="41"/>
-      <c r="CB18" s="262" t="s">
+      <c r="CB18" s="268" t="s">
         <v>342</v>
       </c>
-      <c r="CC18" s="263"/>
-      <c r="CD18" s="245"/>
-      <c r="CE18" s="247"/>
-      <c r="CF18" s="262" t="s">
+      <c r="CC18" s="269"/>
+      <c r="CD18" s="267"/>
+      <c r="CE18" s="257"/>
+      <c r="CF18" s="268" t="s">
         <v>341</v>
       </c>
-      <c r="CG18" s="263"/>
+      <c r="CG18" s="269"/>
       <c r="CH18" s="42"/>
       <c r="CL18" s="41"/>
-      <c r="CM18" s="261" t="s">
+      <c r="CM18" s="253" t="s">
         <v>354</v>
       </c>
-      <c r="CN18" s="246"/>
-      <c r="CO18" s="246"/>
-      <c r="CP18" s="246"/>
-      <c r="CQ18" s="246"/>
-      <c r="CR18" s="247"/>
+      <c r="CN18" s="256"/>
+      <c r="CO18" s="256"/>
+      <c r="CP18" s="256"/>
+      <c r="CQ18" s="256"/>
+      <c r="CR18" s="257"/>
       <c r="CS18" s="42"/>
       <c r="CV18" s="41"/>
-      <c r="CW18" s="261" t="s">
+      <c r="CW18" s="253" t="s">
         <v>359</v>
       </c>
-      <c r="CX18" s="246"/>
-      <c r="CY18" s="246"/>
-      <c r="CZ18" s="246"/>
-      <c r="DA18" s="246"/>
-      <c r="DB18" s="247"/>
+      <c r="CX18" s="256"/>
+      <c r="CY18" s="256"/>
+      <c r="CZ18" s="256"/>
+      <c r="DA18" s="256"/>
+      <c r="DB18" s="257"/>
       <c r="DC18" s="42"/>
     </row>
     <row r="19" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G19" s="41"/>
       <c r="O19" s="41"/>
       <c r="AX19" s="42"/>
-      <c r="AY19" s="249"/>
+      <c r="AY19" s="289"/>
       <c r="BD19" s="41"/>
-      <c r="BE19" s="245" t="s">
+      <c r="BE19" s="267" t="s">
         <v>336</v>
       </c>
-      <c r="BF19" s="246"/>
-      <c r="BG19" s="246"/>
-      <c r="BH19" s="246"/>
-      <c r="BI19" s="246"/>
-      <c r="BJ19" s="247"/>
+      <c r="BF19" s="256"/>
+      <c r="BG19" s="256"/>
+      <c r="BH19" s="256"/>
+      <c r="BI19" s="256"/>
+      <c r="BJ19" s="257"/>
       <c r="BK19" s="42"/>
       <c r="BP19" s="41"/>
-      <c r="BQ19" s="245" t="s">
+      <c r="BQ19" s="267" t="s">
         <v>330</v>
       </c>
-      <c r="BR19" s="246"/>
-      <c r="BS19" s="246"/>
-      <c r="BT19" s="246"/>
-      <c r="BU19" s="246"/>
-      <c r="BV19" s="247"/>
+      <c r="BR19" s="256"/>
+      <c r="BS19" s="256"/>
+      <c r="BT19" s="256"/>
+      <c r="BU19" s="256"/>
+      <c r="BV19" s="257"/>
       <c r="BW19" s="42"/>
       <c r="CA19" s="41"/>
       <c r="CH19" s="42"/>
       <c r="CL19" s="41"/>
-      <c r="CM19" s="261" t="s">
+      <c r="CM19" s="253" t="s">
         <v>355</v>
       </c>
-      <c r="CN19" s="246"/>
-      <c r="CO19" s="246"/>
-      <c r="CP19" s="246"/>
-      <c r="CQ19" s="246"/>
-      <c r="CR19" s="247"/>
+      <c r="CN19" s="256"/>
+      <c r="CO19" s="256"/>
+      <c r="CP19" s="256"/>
+      <c r="CQ19" s="256"/>
+      <c r="CR19" s="257"/>
       <c r="CS19" s="42"/>
       <c r="CV19" s="41"/>
       <c r="DC19" s="42"/>
@@ -7884,114 +7889,114 @@
       <c r="G20" s="41"/>
       <c r="O20" s="41"/>
       <c r="AX20" s="42"/>
-      <c r="AY20" s="249"/>
+      <c r="AY20" s="289"/>
       <c r="BD20" s="41"/>
       <c r="BK20" s="42"/>
       <c r="BP20" s="41"/>
       <c r="BW20" s="42"/>
       <c r="CA20" s="41"/>
-      <c r="CB20" s="261" t="s">
+      <c r="CB20" s="253" t="s">
         <v>350</v>
       </c>
-      <c r="CC20" s="246"/>
-      <c r="CD20" s="246"/>
-      <c r="CE20" s="246"/>
-      <c r="CF20" s="246"/>
-      <c r="CG20" s="247"/>
+      <c r="CC20" s="256"/>
+      <c r="CD20" s="256"/>
+      <c r="CE20" s="256"/>
+      <c r="CF20" s="256"/>
+      <c r="CG20" s="257"/>
       <c r="CH20" s="42"/>
       <c r="CL20" s="41"/>
       <c r="CS20" s="42"/>
       <c r="CV20" s="41"/>
-      <c r="CW20" s="261" t="s">
+      <c r="CW20" s="253" t="s">
         <v>360</v>
       </c>
-      <c r="CX20" s="246"/>
-      <c r="CY20" s="246"/>
-      <c r="CZ20" s="246"/>
-      <c r="DA20" s="246"/>
-      <c r="DB20" s="247"/>
+      <c r="CX20" s="256"/>
+      <c r="CY20" s="256"/>
+      <c r="CZ20" s="256"/>
+      <c r="DA20" s="256"/>
+      <c r="DB20" s="257"/>
       <c r="DC20" s="42"/>
     </row>
     <row r="21" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G21" s="41"/>
       <c r="O21" s="41"/>
       <c r="AX21" s="42"/>
-      <c r="AY21" s="249"/>
+      <c r="AY21" s="289"/>
       <c r="BD21" s="41"/>
-      <c r="BE21" s="245" t="s">
+      <c r="BE21" s="267" t="s">
         <v>337</v>
       </c>
-      <c r="BF21" s="246"/>
-      <c r="BG21" s="246"/>
-      <c r="BH21" s="246"/>
-      <c r="BI21" s="246"/>
-      <c r="BJ21" s="247"/>
+      <c r="BF21" s="256"/>
+      <c r="BG21" s="256"/>
+      <c r="BH21" s="256"/>
+      <c r="BI21" s="256"/>
+      <c r="BJ21" s="257"/>
       <c r="BK21" s="42"/>
       <c r="BP21" s="41"/>
-      <c r="BQ21" s="245" t="s">
+      <c r="BQ21" s="267" t="s">
         <v>332</v>
       </c>
-      <c r="BR21" s="246"/>
-      <c r="BS21" s="246"/>
-      <c r="BT21" s="246"/>
-      <c r="BU21" s="246"/>
-      <c r="BV21" s="247"/>
+      <c r="BR21" s="256"/>
+      <c r="BS21" s="256"/>
+      <c r="BT21" s="256"/>
+      <c r="BU21" s="256"/>
+      <c r="BV21" s="257"/>
       <c r="BW21" s="42"/>
       <c r="CA21" s="41"/>
-      <c r="CB21" s="261" t="s">
+      <c r="CB21" s="253" t="s">
         <v>336</v>
       </c>
-      <c r="CC21" s="246"/>
-      <c r="CD21" s="246"/>
-      <c r="CE21" s="246"/>
-      <c r="CF21" s="246"/>
-      <c r="CG21" s="247"/>
+      <c r="CC21" s="256"/>
+      <c r="CD21" s="256"/>
+      <c r="CE21" s="256"/>
+      <c r="CF21" s="256"/>
+      <c r="CG21" s="257"/>
       <c r="CH21" s="42"/>
       <c r="CL21" s="41"/>
-      <c r="CM21" s="261" t="s">
+      <c r="CM21" s="253" t="s">
         <v>356</v>
       </c>
-      <c r="CN21" s="246"/>
-      <c r="CO21" s="246"/>
-      <c r="CP21" s="246"/>
-      <c r="CQ21" s="246"/>
-      <c r="CR21" s="247"/>
+      <c r="CN21" s="256"/>
+      <c r="CO21" s="256"/>
+      <c r="CP21" s="256"/>
+      <c r="CQ21" s="256"/>
+      <c r="CR21" s="257"/>
       <c r="CS21" s="42"/>
       <c r="CV21" s="41"/>
-      <c r="CW21" s="261" t="s">
+      <c r="CW21" s="253" t="s">
         <v>355</v>
       </c>
-      <c r="CX21" s="246"/>
-      <c r="CY21" s="246"/>
-      <c r="CZ21" s="246"/>
-      <c r="DA21" s="246"/>
-      <c r="DB21" s="247"/>
+      <c r="CX21" s="256"/>
+      <c r="CY21" s="256"/>
+      <c r="CZ21" s="256"/>
+      <c r="DA21" s="256"/>
+      <c r="DB21" s="257"/>
       <c r="DC21" s="42"/>
     </row>
     <row r="22" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G22" s="41"/>
       <c r="O22" s="41"/>
       <c r="AX22" s="42"/>
-      <c r="AY22" s="249"/>
+      <c r="AY22" s="289"/>
       <c r="BD22" s="41"/>
-      <c r="BE22" s="245" t="s">
+      <c r="BE22" s="267" t="s">
         <v>336</v>
       </c>
-      <c r="BF22" s="246"/>
-      <c r="BG22" s="246"/>
-      <c r="BH22" s="246"/>
-      <c r="BI22" s="246"/>
-      <c r="BJ22" s="247"/>
+      <c r="BF22" s="256"/>
+      <c r="BG22" s="256"/>
+      <c r="BH22" s="256"/>
+      <c r="BI22" s="256"/>
+      <c r="BJ22" s="257"/>
       <c r="BK22" s="42"/>
       <c r="BP22" s="41"/>
-      <c r="BQ22" s="245" t="s">
+      <c r="BQ22" s="267" t="s">
         <v>330</v>
       </c>
-      <c r="BR22" s="246"/>
-      <c r="BS22" s="246"/>
-      <c r="BT22" s="246"/>
-      <c r="BU22" s="246"/>
-      <c r="BV22" s="247"/>
+      <c r="BR22" s="256"/>
+      <c r="BS22" s="256"/>
+      <c r="BT22" s="256"/>
+      <c r="BU22" s="256"/>
+      <c r="BV22" s="257"/>
       <c r="BW22" s="42"/>
       <c r="CA22" s="41"/>
       <c r="CH22" s="42"/>
@@ -8004,7 +8009,7 @@
       <c r="G23" s="41"/>
       <c r="O23" s="41"/>
       <c r="AX23" s="42"/>
-      <c r="AY23" s="249"/>
+      <c r="AY23" s="289"/>
       <c r="BD23" s="41"/>
       <c r="BK23" s="42"/>
       <c r="BP23" s="41"/>
@@ -8013,57 +8018,57 @@
       <c r="CB23" s="29"/>
       <c r="CC23" s="29"/>
       <c r="CD23" s="29"/>
-      <c r="CE23" s="272" t="s">
+      <c r="CE23" s="276" t="s">
         <v>348</v>
       </c>
-      <c r="CF23" s="273"/>
-      <c r="CG23" s="273"/>
-      <c r="CH23" s="274"/>
+      <c r="CF23" s="277"/>
+      <c r="CG23" s="277"/>
+      <c r="CH23" s="278"/>
       <c r="CL23" s="41"/>
-      <c r="CM23" s="261" t="s">
+      <c r="CM23" s="253" t="s">
         <v>357</v>
       </c>
-      <c r="CN23" s="246"/>
-      <c r="CO23" s="246"/>
-      <c r="CP23" s="246"/>
-      <c r="CQ23" s="246"/>
-      <c r="CR23" s="247"/>
+      <c r="CN23" s="256"/>
+      <c r="CO23" s="256"/>
+      <c r="CP23" s="256"/>
+      <c r="CQ23" s="256"/>
+      <c r="CR23" s="257"/>
       <c r="CS23" s="42"/>
       <c r="CV23" s="41"/>
-      <c r="CW23" s="261" t="s">
+      <c r="CW23" s="253" t="s">
         <v>361</v>
       </c>
-      <c r="CX23" s="246"/>
-      <c r="CY23" s="246"/>
-      <c r="CZ23" s="246"/>
-      <c r="DA23" s="246"/>
-      <c r="DB23" s="247"/>
+      <c r="CX23" s="256"/>
+      <c r="CY23" s="256"/>
+      <c r="CZ23" s="256"/>
+      <c r="DA23" s="256"/>
+      <c r="DB23" s="257"/>
       <c r="DC23" s="42"/>
     </row>
     <row r="24" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G24" s="41"/>
       <c r="O24" s="41"/>
       <c r="AX24" s="42"/>
-      <c r="AY24" s="249"/>
+      <c r="AY24" s="289"/>
       <c r="BD24" s="41"/>
-      <c r="BE24" s="245" t="s">
+      <c r="BE24" s="267" t="s">
         <v>339</v>
       </c>
-      <c r="BF24" s="246"/>
-      <c r="BG24" s="246"/>
-      <c r="BH24" s="246"/>
-      <c r="BI24" s="246"/>
-      <c r="BJ24" s="247"/>
+      <c r="BF24" s="256"/>
+      <c r="BG24" s="256"/>
+      <c r="BH24" s="256"/>
+      <c r="BI24" s="256"/>
+      <c r="BJ24" s="257"/>
       <c r="BK24" s="42"/>
       <c r="BP24" s="41"/>
-      <c r="BQ24" s="245" t="s">
+      <c r="BQ24" s="267" t="s">
         <v>333</v>
       </c>
-      <c r="BR24" s="246"/>
-      <c r="BS24" s="246"/>
-      <c r="BT24" s="246"/>
-      <c r="BU24" s="246"/>
-      <c r="BV24" s="247"/>
+      <c r="BR24" s="256"/>
+      <c r="BS24" s="256"/>
+      <c r="BT24" s="256"/>
+      <c r="BU24" s="256"/>
+      <c r="BV24" s="257"/>
       <c r="BW24" s="42"/>
       <c r="CA24" s="40"/>
       <c r="CB24" s="29"/>
@@ -8074,60 +8079,60 @@
       <c r="CG24" s="29"/>
       <c r="CH24" s="46"/>
       <c r="CL24" s="41"/>
-      <c r="CM24" s="261" t="s">
+      <c r="CM24" s="253" t="s">
         <v>355</v>
       </c>
-      <c r="CN24" s="246"/>
-      <c r="CO24" s="246"/>
-      <c r="CP24" s="246"/>
-      <c r="CQ24" s="246"/>
-      <c r="CR24" s="247"/>
+      <c r="CN24" s="256"/>
+      <c r="CO24" s="256"/>
+      <c r="CP24" s="256"/>
+      <c r="CQ24" s="256"/>
+      <c r="CR24" s="257"/>
       <c r="CS24" s="42"/>
       <c r="CV24" s="41"/>
-      <c r="CW24" s="261" t="s">
+      <c r="CW24" s="253" t="s">
         <v>355</v>
       </c>
-      <c r="CX24" s="246"/>
-      <c r="CY24" s="246"/>
-      <c r="CZ24" s="246"/>
-      <c r="DA24" s="246"/>
-      <c r="DB24" s="247"/>
+      <c r="CX24" s="256"/>
+      <c r="CY24" s="256"/>
+      <c r="CZ24" s="256"/>
+      <c r="DA24" s="256"/>
+      <c r="DB24" s="257"/>
       <c r="DC24" s="42"/>
     </row>
     <row r="25" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G25" s="41"/>
       <c r="O25" s="41"/>
       <c r="AX25" s="42"/>
-      <c r="AY25" s="249"/>
+      <c r="AY25" s="289"/>
       <c r="BD25" s="41"/>
-      <c r="BE25" s="245" t="s">
+      <c r="BE25" s="267" t="s">
         <v>336</v>
       </c>
-      <c r="BF25" s="246"/>
-      <c r="BG25" s="246"/>
-      <c r="BH25" s="246"/>
-      <c r="BI25" s="246"/>
-      <c r="BJ25" s="247"/>
+      <c r="BF25" s="256"/>
+      <c r="BG25" s="256"/>
+      <c r="BH25" s="256"/>
+      <c r="BI25" s="256"/>
+      <c r="BJ25" s="257"/>
       <c r="BK25" s="42"/>
       <c r="BP25" s="41"/>
-      <c r="BQ25" s="245" t="s">
+      <c r="BQ25" s="267" t="s">
         <v>330</v>
       </c>
-      <c r="BR25" s="246"/>
-      <c r="BS25" s="246"/>
-      <c r="BT25" s="246"/>
-      <c r="BU25" s="246"/>
-      <c r="BV25" s="247"/>
+      <c r="BR25" s="256"/>
+      <c r="BS25" s="256"/>
+      <c r="BT25" s="256"/>
+      <c r="BU25" s="256"/>
+      <c r="BV25" s="257"/>
       <c r="BW25" s="42"/>
       <c r="CA25" s="41"/>
-      <c r="CB25" s="261" t="s">
+      <c r="CB25" s="253" t="s">
         <v>343</v>
       </c>
-      <c r="CC25" s="270"/>
-      <c r="CD25" s="270"/>
-      <c r="CE25" s="270"/>
-      <c r="CF25" s="270"/>
-      <c r="CG25" s="271"/>
+      <c r="CC25" s="254"/>
+      <c r="CD25" s="254"/>
+      <c r="CE25" s="254"/>
+      <c r="CF25" s="254"/>
+      <c r="CG25" s="255"/>
       <c r="CH25" s="42"/>
       <c r="CL25" s="41"/>
       <c r="CS25" s="42"/>
@@ -8138,128 +8143,128 @@
       <c r="G26" s="41"/>
       <c r="O26" s="41"/>
       <c r="AX26" s="42"/>
-      <c r="AY26" s="249"/>
+      <c r="AY26" s="289"/>
       <c r="BD26" s="41"/>
       <c r="BK26" s="42"/>
       <c r="BP26" s="41"/>
       <c r="BW26" s="42"/>
       <c r="CA26" s="41"/>
-      <c r="CB26" s="262" t="s">
+      <c r="CB26" s="268" t="s">
         <v>342</v>
       </c>
-      <c r="CC26" s="263"/>
-      <c r="CD26" s="245"/>
-      <c r="CE26" s="247"/>
-      <c r="CF26" s="262" t="s">
+      <c r="CC26" s="269"/>
+      <c r="CD26" s="267"/>
+      <c r="CE26" s="257"/>
+      <c r="CF26" s="268" t="s">
         <v>341</v>
       </c>
-      <c r="CG26" s="263"/>
+      <c r="CG26" s="269"/>
       <c r="CH26" s="42"/>
       <c r="CL26" s="41"/>
-      <c r="CM26" s="245" t="s">
+      <c r="CM26" s="267" t="s">
         <v>331</v>
       </c>
-      <c r="CN26" s="246"/>
-      <c r="CO26" s="246"/>
-      <c r="CP26" s="246"/>
-      <c r="CQ26" s="246"/>
-      <c r="CR26" s="247"/>
+      <c r="CN26" s="256"/>
+      <c r="CO26" s="256"/>
+      <c r="CP26" s="256"/>
+      <c r="CQ26" s="256"/>
+      <c r="CR26" s="257"/>
       <c r="CS26" s="42"/>
       <c r="CV26" s="41"/>
-      <c r="CW26" s="261" t="s">
+      <c r="CW26" s="253" t="s">
         <v>362</v>
       </c>
-      <c r="CX26" s="246"/>
-      <c r="CY26" s="246"/>
-      <c r="CZ26" s="246"/>
-      <c r="DA26" s="246"/>
-      <c r="DB26" s="247"/>
+      <c r="CX26" s="256"/>
+      <c r="CY26" s="256"/>
+      <c r="CZ26" s="256"/>
+      <c r="DA26" s="256"/>
+      <c r="DB26" s="257"/>
       <c r="DC26" s="42"/>
     </row>
     <row r="27" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G27" s="41"/>
       <c r="O27" s="41"/>
       <c r="AX27" s="42"/>
-      <c r="AY27" s="249"/>
+      <c r="AY27" s="289"/>
       <c r="BD27" s="41"/>
-      <c r="BE27" s="245" t="s">
+      <c r="BE27" s="267" t="s">
         <v>340</v>
       </c>
-      <c r="BF27" s="246"/>
-      <c r="BG27" s="246"/>
-      <c r="BH27" s="246"/>
-      <c r="BI27" s="246"/>
-      <c r="BJ27" s="247"/>
+      <c r="BF27" s="256"/>
+      <c r="BG27" s="256"/>
+      <c r="BH27" s="256"/>
+      <c r="BI27" s="256"/>
+      <c r="BJ27" s="257"/>
       <c r="BK27" s="42"/>
       <c r="BP27" s="41"/>
-      <c r="BQ27" s="245" t="s">
+      <c r="BQ27" s="267" t="s">
         <v>334</v>
       </c>
-      <c r="BR27" s="246"/>
-      <c r="BS27" s="246"/>
-      <c r="BT27" s="246"/>
-      <c r="BU27" s="246"/>
-      <c r="BV27" s="247"/>
+      <c r="BR27" s="256"/>
+      <c r="BS27" s="256"/>
+      <c r="BT27" s="256"/>
+      <c r="BU27" s="256"/>
+      <c r="BV27" s="257"/>
       <c r="BW27" s="42"/>
       <c r="CA27" s="41"/>
       <c r="CH27" s="42"/>
       <c r="CL27" s="41"/>
-      <c r="CM27" s="261" t="s">
+      <c r="CM27" s="253" t="s">
         <v>355</v>
       </c>
-      <c r="CN27" s="246"/>
-      <c r="CO27" s="246"/>
-      <c r="CP27" s="246"/>
-      <c r="CQ27" s="246"/>
-      <c r="CR27" s="247"/>
+      <c r="CN27" s="256"/>
+      <c r="CO27" s="256"/>
+      <c r="CP27" s="256"/>
+      <c r="CQ27" s="256"/>
+      <c r="CR27" s="257"/>
       <c r="CS27" s="42"/>
       <c r="CV27" s="41"/>
-      <c r="CW27" s="261" t="s">
+      <c r="CW27" s="253" t="s">
         <v>355</v>
       </c>
-      <c r="CX27" s="246"/>
-      <c r="CY27" s="246"/>
-      <c r="CZ27" s="246"/>
-      <c r="DA27" s="246"/>
-      <c r="DB27" s="247"/>
+      <c r="CX27" s="256"/>
+      <c r="CY27" s="256"/>
+      <c r="CZ27" s="256"/>
+      <c r="DA27" s="256"/>
+      <c r="DB27" s="257"/>
       <c r="DC27" s="42"/>
     </row>
     <row r="28" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G28" s="41"/>
       <c r="O28" s="41"/>
       <c r="AX28" s="42"/>
-      <c r="AY28" s="249"/>
+      <c r="AY28" s="289"/>
       <c r="BD28" s="119"/>
-      <c r="BE28" s="262" t="s">
+      <c r="BE28" s="268" t="s">
         <v>342</v>
       </c>
-      <c r="BF28" s="263"/>
-      <c r="BG28" s="245"/>
-      <c r="BH28" s="247"/>
-      <c r="BI28" s="262" t="s">
+      <c r="BF28" s="269"/>
+      <c r="BG28" s="267"/>
+      <c r="BH28" s="257"/>
+      <c r="BI28" s="268" t="s">
         <v>341</v>
       </c>
-      <c r="BJ28" s="263"/>
+      <c r="BJ28" s="269"/>
       <c r="BK28" s="42"/>
       <c r="BP28" s="41"/>
-      <c r="BQ28" s="245" t="s">
+      <c r="BQ28" s="267" t="s">
         <v>330</v>
       </c>
-      <c r="BR28" s="246"/>
-      <c r="BS28" s="246"/>
-      <c r="BT28" s="246"/>
-      <c r="BU28" s="246"/>
-      <c r="BV28" s="247"/>
+      <c r="BR28" s="256"/>
+      <c r="BS28" s="256"/>
+      <c r="BT28" s="256"/>
+      <c r="BU28" s="256"/>
+      <c r="BV28" s="257"/>
       <c r="BW28" s="42"/>
       <c r="CA28" s="41"/>
-      <c r="CB28" s="261" t="s">
+      <c r="CB28" s="253" t="s">
         <v>344</v>
       </c>
-      <c r="CC28" s="270"/>
-      <c r="CD28" s="270"/>
-      <c r="CE28" s="270"/>
-      <c r="CF28" s="270"/>
-      <c r="CG28" s="271"/>
+      <c r="CC28" s="254"/>
+      <c r="CD28" s="254"/>
+      <c r="CE28" s="254"/>
+      <c r="CF28" s="254"/>
+      <c r="CG28" s="255"/>
       <c r="CH28" s="42"/>
       <c r="CL28" s="41"/>
       <c r="CS28" s="42"/>
@@ -8270,49 +8275,49 @@
       <c r="G29" s="41"/>
       <c r="O29" s="41"/>
       <c r="AX29" s="42"/>
-      <c r="AY29" s="249"/>
+      <c r="AY29" s="289"/>
       <c r="BD29" s="41"/>
       <c r="BK29" s="42"/>
       <c r="BP29" s="41"/>
       <c r="BW29" s="42"/>
       <c r="CA29" s="41"/>
-      <c r="CB29" s="262" t="s">
+      <c r="CB29" s="268" t="s">
         <v>342</v>
       </c>
-      <c r="CC29" s="263"/>
-      <c r="CD29" s="245"/>
-      <c r="CE29" s="247"/>
-      <c r="CF29" s="262" t="s">
+      <c r="CC29" s="269"/>
+      <c r="CD29" s="267"/>
+      <c r="CE29" s="257"/>
+      <c r="CF29" s="268" t="s">
         <v>341</v>
       </c>
-      <c r="CG29" s="263"/>
+      <c r="CG29" s="269"/>
       <c r="CH29" s="42"/>
       <c r="CL29" s="41"/>
-      <c r="CM29" s="245" t="s">
+      <c r="CM29" s="267" t="s">
         <v>332</v>
       </c>
-      <c r="CN29" s="246"/>
-      <c r="CO29" s="246"/>
-      <c r="CP29" s="246"/>
-      <c r="CQ29" s="246"/>
-      <c r="CR29" s="247"/>
+      <c r="CN29" s="256"/>
+      <c r="CO29" s="256"/>
+      <c r="CP29" s="256"/>
+      <c r="CQ29" s="256"/>
+      <c r="CR29" s="257"/>
       <c r="CS29" s="42"/>
       <c r="CV29" s="41"/>
-      <c r="CW29" s="261" t="s">
+      <c r="CW29" s="253" t="s">
         <v>363</v>
       </c>
-      <c r="CX29" s="246"/>
-      <c r="CY29" s="246"/>
-      <c r="CZ29" s="246"/>
-      <c r="DA29" s="246"/>
-      <c r="DB29" s="247"/>
+      <c r="CX29" s="256"/>
+      <c r="CY29" s="256"/>
+      <c r="CZ29" s="256"/>
+      <c r="DA29" s="256"/>
+      <c r="DB29" s="257"/>
       <c r="DC29" s="42"/>
     </row>
     <row r="30" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G30" s="41"/>
       <c r="O30" s="41"/>
       <c r="AX30" s="42"/>
-      <c r="AY30" s="249"/>
+      <c r="AY30" s="289"/>
       <c r="BD30" s="41"/>
       <c r="BK30" s="42"/>
       <c r="BP30" s="41"/>
@@ -8320,44 +8325,44 @@
       <c r="CA30" s="41"/>
       <c r="CH30" s="42"/>
       <c r="CL30" s="41"/>
-      <c r="CM30" s="261" t="s">
+      <c r="CM30" s="253" t="s">
         <v>355</v>
       </c>
-      <c r="CN30" s="246"/>
-      <c r="CO30" s="246"/>
-      <c r="CP30" s="246"/>
-      <c r="CQ30" s="246"/>
-      <c r="CR30" s="247"/>
+      <c r="CN30" s="256"/>
+      <c r="CO30" s="256"/>
+      <c r="CP30" s="256"/>
+      <c r="CQ30" s="256"/>
+      <c r="CR30" s="257"/>
       <c r="CS30" s="42"/>
       <c r="CV30" s="41"/>
-      <c r="CW30" s="261" t="s">
+      <c r="CW30" s="253" t="s">
         <v>355</v>
       </c>
-      <c r="CX30" s="270"/>
-      <c r="CY30" s="270"/>
-      <c r="CZ30" s="270"/>
-      <c r="DA30" s="270"/>
-      <c r="DB30" s="271"/>
+      <c r="CX30" s="254"/>
+      <c r="CY30" s="254"/>
+      <c r="CZ30" s="254"/>
+      <c r="DA30" s="254"/>
+      <c r="DB30" s="255"/>
       <c r="DC30" s="42"/>
     </row>
     <row r="31" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G31" s="41"/>
       <c r="O31" s="41"/>
       <c r="AX31" s="42"/>
-      <c r="AY31" s="249"/>
+      <c r="AY31" s="289"/>
       <c r="BD31" s="41"/>
       <c r="BK31" s="42"/>
       <c r="BP31" s="41"/>
       <c r="BW31" s="42"/>
       <c r="CA31" s="41"/>
-      <c r="CB31" s="261" t="s">
+      <c r="CB31" s="253" t="s">
         <v>345</v>
       </c>
-      <c r="CC31" s="270"/>
-      <c r="CD31" s="270"/>
-      <c r="CE31" s="270"/>
-      <c r="CF31" s="270"/>
-      <c r="CG31" s="271"/>
+      <c r="CC31" s="254"/>
+      <c r="CD31" s="254"/>
+      <c r="CE31" s="254"/>
+      <c r="CF31" s="254"/>
+      <c r="CG31" s="255"/>
       <c r="CH31" s="42"/>
       <c r="CL31" s="41"/>
       <c r="CS31" s="42"/>
@@ -8368,122 +8373,122 @@
       <c r="G32" s="41"/>
       <c r="O32" s="41"/>
       <c r="AX32" s="42"/>
-      <c r="AY32" s="249"/>
+      <c r="AY32" s="289"/>
       <c r="BD32" s="41"/>
-      <c r="BE32" s="264" t="s">
+      <c r="BE32" s="270" t="s">
         <v>277</v>
       </c>
-      <c r="BF32" s="265"/>
-      <c r="BG32" s="265"/>
-      <c r="BH32" s="265"/>
-      <c r="BI32" s="265"/>
-      <c r="BJ32" s="266"/>
+      <c r="BF32" s="271"/>
+      <c r="BG32" s="271"/>
+      <c r="BH32" s="271"/>
+      <c r="BI32" s="271"/>
+      <c r="BJ32" s="272"/>
       <c r="BK32" s="42"/>
       <c r="BP32" s="41"/>
-      <c r="BQ32" s="264" t="s">
+      <c r="BQ32" s="270" t="s">
         <v>352</v>
       </c>
-      <c r="BR32" s="265"/>
-      <c r="BS32" s="265"/>
-      <c r="BT32" s="265"/>
-      <c r="BU32" s="265"/>
-      <c r="BV32" s="266"/>
+      <c r="BR32" s="271"/>
+      <c r="BS32" s="271"/>
+      <c r="BT32" s="271"/>
+      <c r="BU32" s="271"/>
+      <c r="BV32" s="272"/>
       <c r="BW32" s="42"/>
       <c r="CA32" s="41"/>
-      <c r="CB32" s="262" t="s">
+      <c r="CB32" s="268" t="s">
         <v>342</v>
       </c>
-      <c r="CC32" s="263"/>
-      <c r="CD32" s="245"/>
-      <c r="CE32" s="247"/>
-      <c r="CF32" s="262" t="s">
+      <c r="CC32" s="269"/>
+      <c r="CD32" s="267"/>
+      <c r="CE32" s="257"/>
+      <c r="CF32" s="268" t="s">
         <v>341</v>
       </c>
-      <c r="CG32" s="263"/>
+      <c r="CG32" s="269"/>
       <c r="CH32" s="42"/>
       <c r="CL32" s="41"/>
-      <c r="CM32" s="245" t="s">
+      <c r="CM32" s="267" t="s">
         <v>333</v>
       </c>
-      <c r="CN32" s="246"/>
-      <c r="CO32" s="246"/>
-      <c r="CP32" s="246"/>
-      <c r="CQ32" s="246"/>
-      <c r="CR32" s="247"/>
+      <c r="CN32" s="256"/>
+      <c r="CO32" s="256"/>
+      <c r="CP32" s="256"/>
+      <c r="CQ32" s="256"/>
+      <c r="CR32" s="257"/>
       <c r="CS32" s="42"/>
       <c r="CV32" s="41"/>
-      <c r="CW32" s="261" t="s">
+      <c r="CW32" s="253" t="s">
         <v>364</v>
       </c>
-      <c r="CX32" s="246"/>
-      <c r="CY32" s="246"/>
-      <c r="CZ32" s="246"/>
-      <c r="DA32" s="246"/>
-      <c r="DB32" s="247"/>
+      <c r="CX32" s="256"/>
+      <c r="CY32" s="256"/>
+      <c r="CZ32" s="256"/>
+      <c r="DA32" s="256"/>
+      <c r="DB32" s="257"/>
       <c r="DC32" s="42"/>
     </row>
     <row r="33" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G33" s="41"/>
       <c r="O33" s="41"/>
       <c r="AX33" s="42"/>
-      <c r="AY33" s="249"/>
+      <c r="AY33" s="289"/>
       <c r="BD33" s="41"/>
-      <c r="BE33" s="267"/>
-      <c r="BF33" s="268"/>
-      <c r="BG33" s="268"/>
-      <c r="BH33" s="268"/>
-      <c r="BI33" s="268"/>
-      <c r="BJ33" s="269"/>
+      <c r="BE33" s="273"/>
+      <c r="BF33" s="274"/>
+      <c r="BG33" s="274"/>
+      <c r="BH33" s="274"/>
+      <c r="BI33" s="274"/>
+      <c r="BJ33" s="275"/>
       <c r="BK33" s="42"/>
       <c r="BP33" s="41"/>
-      <c r="BQ33" s="267"/>
-      <c r="BR33" s="268"/>
-      <c r="BS33" s="268"/>
-      <c r="BT33" s="268"/>
-      <c r="BU33" s="268"/>
-      <c r="BV33" s="269"/>
+      <c r="BQ33" s="273"/>
+      <c r="BR33" s="274"/>
+      <c r="BS33" s="274"/>
+      <c r="BT33" s="274"/>
+      <c r="BU33" s="274"/>
+      <c r="BV33" s="275"/>
       <c r="BW33" s="42"/>
       <c r="CA33" s="41"/>
       <c r="CH33" s="42"/>
       <c r="CL33" s="41"/>
-      <c r="CM33" s="261" t="s">
+      <c r="CM33" s="253" t="s">
         <v>355</v>
       </c>
-      <c r="CN33" s="270"/>
-      <c r="CO33" s="270"/>
-      <c r="CP33" s="270"/>
-      <c r="CQ33" s="270"/>
-      <c r="CR33" s="271"/>
+      <c r="CN33" s="254"/>
+      <c r="CO33" s="254"/>
+      <c r="CP33" s="254"/>
+      <c r="CQ33" s="254"/>
+      <c r="CR33" s="255"/>
       <c r="CS33" s="42"/>
       <c r="CV33" s="41"/>
-      <c r="CW33" s="261" t="s">
+      <c r="CW33" s="253" t="s">
         <v>355</v>
       </c>
-      <c r="CX33" s="270"/>
-      <c r="CY33" s="270"/>
-      <c r="CZ33" s="270"/>
-      <c r="DA33" s="270"/>
-      <c r="DB33" s="271"/>
+      <c r="CX33" s="254"/>
+      <c r="CY33" s="254"/>
+      <c r="CZ33" s="254"/>
+      <c r="DA33" s="254"/>
+      <c r="DB33" s="255"/>
       <c r="DC33" s="42"/>
     </row>
     <row r="34" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G34" s="41"/>
       <c r="O34" s="41"/>
       <c r="AX34" s="42"/>
-      <c r="AY34" s="249"/>
+      <c r="AY34" s="289"/>
       <c r="BD34" s="41"/>
       <c r="BK34" s="42"/>
       <c r="BP34" s="41"/>
       <c r="BW34" s="42"/>
       <c r="CA34" s="41"/>
-      <c r="CB34" s="261" t="s">
+      <c r="CB34" s="253" t="s">
         <v>346</v>
       </c>
-      <c r="CC34" s="270"/>
-      <c r="CD34" s="270"/>
-      <c r="CE34" s="270"/>
-      <c r="CF34" s="270"/>
-      <c r="CG34" s="271"/>
+      <c r="CC34" s="254"/>
+      <c r="CD34" s="254"/>
+      <c r="CE34" s="254"/>
+      <c r="CF34" s="254"/>
+      <c r="CG34" s="255"/>
       <c r="CH34" s="42"/>
       <c r="CL34" s="41"/>
       <c r="CS34" s="42"/>
@@ -8494,95 +8499,95 @@
       <c r="G35" s="41"/>
       <c r="O35" s="41"/>
       <c r="AX35" s="42"/>
-      <c r="AY35" s="249"/>
+      <c r="AY35" s="289"/>
       <c r="BD35" s="41"/>
       <c r="BK35" s="42"/>
       <c r="BP35" s="41"/>
-      <c r="BQ35" s="261" t="s">
+      <c r="BQ35" s="253" t="s">
         <v>351</v>
       </c>
-      <c r="BR35" s="246"/>
-      <c r="BS35" s="246"/>
-      <c r="BT35" s="246"/>
-      <c r="BU35" s="246"/>
-      <c r="BV35" s="247"/>
+      <c r="BR35" s="256"/>
+      <c r="BS35" s="256"/>
+      <c r="BT35" s="256"/>
+      <c r="BU35" s="256"/>
+      <c r="BV35" s="257"/>
       <c r="BW35" s="42"/>
       <c r="CA35" s="41"/>
-      <c r="CB35" s="262" t="s">
+      <c r="CB35" s="268" t="s">
         <v>342</v>
       </c>
-      <c r="CC35" s="263"/>
-      <c r="CD35" s="245"/>
-      <c r="CE35" s="247"/>
-      <c r="CF35" s="262" t="s">
+      <c r="CC35" s="269"/>
+      <c r="CD35" s="267"/>
+      <c r="CE35" s="257"/>
+      <c r="CF35" s="268" t="s">
         <v>341</v>
       </c>
-      <c r="CG35" s="263"/>
+      <c r="CG35" s="269"/>
       <c r="CH35" s="42"/>
       <c r="CL35" s="41"/>
-      <c r="CM35" s="261" t="s">
+      <c r="CM35" s="253" t="s">
         <v>358</v>
       </c>
-      <c r="CN35" s="246"/>
-      <c r="CO35" s="246"/>
-      <c r="CP35" s="246"/>
-      <c r="CQ35" s="246"/>
-      <c r="CR35" s="247"/>
+      <c r="CN35" s="256"/>
+      <c r="CO35" s="256"/>
+      <c r="CP35" s="256"/>
+      <c r="CQ35" s="256"/>
+      <c r="CR35" s="257"/>
       <c r="CS35" s="42"/>
       <c r="CV35" s="41"/>
-      <c r="CW35" s="261" t="s">
+      <c r="CW35" s="253" t="s">
         <v>365</v>
       </c>
-      <c r="CX35" s="246"/>
-      <c r="CY35" s="246"/>
-      <c r="CZ35" s="246"/>
-      <c r="DA35" s="246"/>
-      <c r="DB35" s="247"/>
+      <c r="CX35" s="256"/>
+      <c r="CY35" s="256"/>
+      <c r="CZ35" s="256"/>
+      <c r="DA35" s="256"/>
+      <c r="DB35" s="257"/>
       <c r="DC35" s="42"/>
     </row>
     <row r="36" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G36" s="41"/>
       <c r="O36" s="41"/>
       <c r="AX36" s="42"/>
-      <c r="AY36" s="249"/>
+      <c r="AY36" s="289"/>
       <c r="BD36" s="41"/>
       <c r="BK36" s="42"/>
       <c r="BP36" s="41"/>
-      <c r="BQ36" s="261" t="s">
+      <c r="BQ36" s="253" t="s">
         <v>353</v>
       </c>
-      <c r="BR36" s="246"/>
-      <c r="BS36" s="246"/>
-      <c r="BT36" s="246"/>
-      <c r="BU36" s="246"/>
-      <c r="BV36" s="247"/>
+      <c r="BR36" s="256"/>
+      <c r="BS36" s="256"/>
+      <c r="BT36" s="256"/>
+      <c r="BU36" s="256"/>
+      <c r="BV36" s="257"/>
       <c r="BW36" s="42"/>
       <c r="CA36" s="41"/>
       <c r="CH36" s="42"/>
       <c r="CL36" s="41"/>
-      <c r="CM36" s="261" t="s">
+      <c r="CM36" s="253" t="s">
         <v>355</v>
       </c>
-      <c r="CN36" s="270"/>
-      <c r="CO36" s="270"/>
-      <c r="CP36" s="270"/>
-      <c r="CQ36" s="270"/>
-      <c r="CR36" s="271"/>
+      <c r="CN36" s="254"/>
+      <c r="CO36" s="254"/>
+      <c r="CP36" s="254"/>
+      <c r="CQ36" s="254"/>
+      <c r="CR36" s="255"/>
       <c r="CS36" s="42"/>
       <c r="CV36" s="41"/>
-      <c r="CW36" s="275"/>
-      <c r="CX36" s="276"/>
-      <c r="CY36" s="276"/>
-      <c r="CZ36" s="276"/>
-      <c r="DA36" s="276"/>
-      <c r="DB36" s="277"/>
+      <c r="CW36" s="258"/>
+      <c r="CX36" s="259"/>
+      <c r="CY36" s="259"/>
+      <c r="CZ36" s="259"/>
+      <c r="DA36" s="259"/>
+      <c r="DB36" s="260"/>
       <c r="DC36" s="42"/>
     </row>
     <row r="37" spans="7:107" ht="15.75" customHeight="1">
       <c r="G37" s="41"/>
       <c r="O37" s="41"/>
       <c r="AX37" s="42"/>
-      <c r="AY37" s="249"/>
+      <c r="AY37" s="289"/>
       <c r="BD37" s="41"/>
       <c r="BK37" s="42"/>
       <c r="BP37" s="41"/>
@@ -8592,19 +8597,19 @@
       <c r="CL37" s="41"/>
       <c r="CS37" s="42"/>
       <c r="CV37" s="41"/>
-      <c r="CW37" s="278"/>
-      <c r="CX37" s="279"/>
-      <c r="CY37" s="279"/>
-      <c r="CZ37" s="279"/>
-      <c r="DA37" s="279"/>
-      <c r="DB37" s="280"/>
+      <c r="CW37" s="261"/>
+      <c r="CX37" s="262"/>
+      <c r="CY37" s="262"/>
+      <c r="CZ37" s="262"/>
+      <c r="DA37" s="262"/>
+      <c r="DB37" s="263"/>
       <c r="DC37" s="42"/>
     </row>
     <row r="38" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G38" s="41"/>
       <c r="O38" s="41"/>
       <c r="AX38" s="42"/>
-      <c r="AY38" s="249"/>
+      <c r="AY38" s="289"/>
       <c r="BD38" s="41"/>
       <c r="BK38" s="42"/>
       <c r="BP38" s="41"/>
@@ -8614,70 +8619,70 @@
       <c r="CL38" s="41"/>
       <c r="CS38" s="42"/>
       <c r="CV38" s="41"/>
-      <c r="CW38" s="278"/>
-      <c r="CX38" s="279"/>
-      <c r="CY38" s="279"/>
-      <c r="CZ38" s="279"/>
-      <c r="DA38" s="279"/>
-      <c r="DB38" s="280"/>
+      <c r="CW38" s="261"/>
+      <c r="CX38" s="262"/>
+      <c r="CY38" s="262"/>
+      <c r="CZ38" s="262"/>
+      <c r="DA38" s="262"/>
+      <c r="DB38" s="263"/>
       <c r="DC38" s="42"/>
     </row>
     <row r="39" spans="7:107" ht="15.75" customHeight="1">
       <c r="G39" s="41"/>
       <c r="O39" s="41"/>
       <c r="AX39" s="42"/>
-      <c r="AY39" s="249"/>
+      <c r="AY39" s="289"/>
       <c r="BD39" s="41"/>
       <c r="BK39" s="42"/>
       <c r="BP39" s="41"/>
       <c r="BW39" s="42"/>
       <c r="CA39" s="41"/>
-      <c r="CB39" s="264" t="s">
+      <c r="CB39" s="270" t="s">
         <v>347</v>
       </c>
-      <c r="CC39" s="265"/>
-      <c r="CD39" s="265"/>
-      <c r="CE39" s="265"/>
-      <c r="CF39" s="265"/>
-      <c r="CG39" s="266"/>
+      <c r="CC39" s="271"/>
+      <c r="CD39" s="271"/>
+      <c r="CE39" s="271"/>
+      <c r="CF39" s="271"/>
+      <c r="CG39" s="272"/>
       <c r="CH39" s="42"/>
       <c r="CL39" s="41"/>
       <c r="CS39" s="42"/>
       <c r="CV39" s="41"/>
-      <c r="CW39" s="278"/>
-      <c r="CX39" s="279"/>
-      <c r="CY39" s="279"/>
-      <c r="CZ39" s="279"/>
-      <c r="DA39" s="279"/>
-      <c r="DB39" s="280"/>
+      <c r="CW39" s="261"/>
+      <c r="CX39" s="262"/>
+      <c r="CY39" s="262"/>
+      <c r="CZ39" s="262"/>
+      <c r="DA39" s="262"/>
+      <c r="DB39" s="263"/>
       <c r="DC39" s="42"/>
     </row>
     <row r="40" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G40" s="41"/>
       <c r="O40" s="41"/>
       <c r="AX40" s="42"/>
-      <c r="AY40" s="250"/>
+      <c r="AY40" s="290"/>
       <c r="BD40" s="41"/>
       <c r="BK40" s="42"/>
       <c r="BP40" s="41"/>
       <c r="BW40" s="42"/>
       <c r="CA40" s="41"/>
-      <c r="CB40" s="267"/>
-      <c r="CC40" s="268"/>
-      <c r="CD40" s="268"/>
-      <c r="CE40" s="268"/>
-      <c r="CF40" s="268"/>
-      <c r="CG40" s="269"/>
+      <c r="CB40" s="273"/>
+      <c r="CC40" s="274"/>
+      <c r="CD40" s="274"/>
+      <c r="CE40" s="274"/>
+      <c r="CF40" s="274"/>
+      <c r="CG40" s="275"/>
       <c r="CH40" s="42"/>
       <c r="CL40" s="41"/>
       <c r="CS40" s="42"/>
       <c r="CV40" s="41"/>
-      <c r="CW40" s="281"/>
-      <c r="CX40" s="282"/>
-      <c r="CY40" s="282"/>
-      <c r="CZ40" s="282"/>
-      <c r="DA40" s="282"/>
-      <c r="DB40" s="283"/>
+      <c r="CW40" s="264"/>
+      <c r="CX40" s="265"/>
+      <c r="CY40" s="265"/>
+      <c r="CZ40" s="265"/>
+      <c r="DA40" s="265"/>
+      <c r="DB40" s="266"/>
       <c r="DC40" s="42"/>
     </row>
     <row r="41" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
@@ -8740,43 +8745,43 @@
       <c r="M42" s="44"/>
       <c r="N42" s="44"/>
       <c r="O42" s="115"/>
-      <c r="P42" s="245" t="s">
+      <c r="P42" s="267" t="s">
         <v>323</v>
       </c>
-      <c r="Q42" s="246"/>
-      <c r="R42" s="246"/>
-      <c r="S42" s="246"/>
-      <c r="T42" s="246"/>
-      <c r="U42" s="246"/>
-      <c r="V42" s="246"/>
-      <c r="W42" s="246"/>
-      <c r="X42" s="246"/>
-      <c r="Y42" s="246"/>
-      <c r="Z42" s="246"/>
-      <c r="AA42" s="246"/>
-      <c r="AB42" s="246"/>
-      <c r="AC42" s="246"/>
-      <c r="AD42" s="246"/>
-      <c r="AE42" s="246"/>
-      <c r="AF42" s="246"/>
-      <c r="AG42" s="246"/>
-      <c r="AH42" s="246"/>
-      <c r="AI42" s="246"/>
-      <c r="AJ42" s="246"/>
-      <c r="AK42" s="246"/>
-      <c r="AL42" s="246"/>
-      <c r="AM42" s="246"/>
-      <c r="AN42" s="246"/>
-      <c r="AO42" s="246"/>
-      <c r="AP42" s="246"/>
-      <c r="AQ42" s="246"/>
-      <c r="AR42" s="246"/>
-      <c r="AS42" s="246"/>
-      <c r="AT42" s="246"/>
-      <c r="AU42" s="246"/>
-      <c r="AV42" s="246"/>
-      <c r="AW42" s="246"/>
-      <c r="AX42" s="247"/>
+      <c r="Q42" s="256"/>
+      <c r="R42" s="256"/>
+      <c r="S42" s="256"/>
+      <c r="T42" s="256"/>
+      <c r="U42" s="256"/>
+      <c r="V42" s="256"/>
+      <c r="W42" s="256"/>
+      <c r="X42" s="256"/>
+      <c r="Y42" s="256"/>
+      <c r="Z42" s="256"/>
+      <c r="AA42" s="256"/>
+      <c r="AB42" s="256"/>
+      <c r="AC42" s="256"/>
+      <c r="AD42" s="256"/>
+      <c r="AE42" s="256"/>
+      <c r="AF42" s="256"/>
+      <c r="AG42" s="256"/>
+      <c r="AH42" s="256"/>
+      <c r="AI42" s="256"/>
+      <c r="AJ42" s="256"/>
+      <c r="AK42" s="256"/>
+      <c r="AL42" s="256"/>
+      <c r="AM42" s="256"/>
+      <c r="AN42" s="256"/>
+      <c r="AO42" s="256"/>
+      <c r="AP42" s="256"/>
+      <c r="AQ42" s="256"/>
+      <c r="AR42" s="256"/>
+      <c r="AS42" s="256"/>
+      <c r="AT42" s="256"/>
+      <c r="AU42" s="256"/>
+      <c r="AV42" s="256"/>
+      <c r="AW42" s="256"/>
+      <c r="AX42" s="257"/>
       <c r="AY42" s="115"/>
       <c r="BD42" s="43"/>
       <c r="BE42" s="44"/>
@@ -8821,6 +8826,78 @@
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="P42:AX42"/>
+    <mergeCell ref="AY12:AY40"/>
+    <mergeCell ref="G11:N12"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="BD11:BK12"/>
+    <mergeCell ref="BD14:BK14"/>
+    <mergeCell ref="BP11:BW12"/>
+    <mergeCell ref="BP14:BW14"/>
+    <mergeCell ref="CA11:CH12"/>
+    <mergeCell ref="CA14:CH14"/>
+    <mergeCell ref="CL11:CS12"/>
+    <mergeCell ref="CL14:CS14"/>
+    <mergeCell ref="CV11:DC12"/>
+    <mergeCell ref="CV14:DC14"/>
+    <mergeCell ref="BQ24:BV24"/>
+    <mergeCell ref="CM18:CR18"/>
+    <mergeCell ref="CM19:CR19"/>
+    <mergeCell ref="CM21:CR21"/>
+    <mergeCell ref="CM24:CR24"/>
+    <mergeCell ref="CM23:CR23"/>
+    <mergeCell ref="BE19:BJ19"/>
+    <mergeCell ref="BE18:BJ18"/>
+    <mergeCell ref="BE21:BJ21"/>
+    <mergeCell ref="BE22:BJ22"/>
+    <mergeCell ref="BQ19:BV19"/>
+    <mergeCell ref="BQ18:BV18"/>
+    <mergeCell ref="BQ21:BV21"/>
+    <mergeCell ref="BQ22:BV22"/>
+    <mergeCell ref="BE24:BJ24"/>
+    <mergeCell ref="BE25:BJ25"/>
+    <mergeCell ref="BE27:BJ27"/>
+    <mergeCell ref="BE28:BF28"/>
+    <mergeCell ref="BI28:BJ28"/>
+    <mergeCell ref="BG28:BH28"/>
+    <mergeCell ref="BE32:BJ33"/>
+    <mergeCell ref="CF29:CG29"/>
+    <mergeCell ref="CD29:CE29"/>
+    <mergeCell ref="CB29:CC29"/>
+    <mergeCell ref="CB28:CG28"/>
+    <mergeCell ref="BQ28:BV28"/>
+    <mergeCell ref="CB39:CG40"/>
+    <mergeCell ref="CB17:CG17"/>
+    <mergeCell ref="CB18:CC18"/>
+    <mergeCell ref="CD18:CE18"/>
+    <mergeCell ref="CF18:CG18"/>
+    <mergeCell ref="CB20:CG20"/>
+    <mergeCell ref="CF26:CG26"/>
+    <mergeCell ref="CD26:CE26"/>
+    <mergeCell ref="CB26:CC26"/>
+    <mergeCell ref="CB25:CG25"/>
+    <mergeCell ref="CE23:CH23"/>
+    <mergeCell ref="CB21:CG21"/>
+    <mergeCell ref="BQ36:BV36"/>
+    <mergeCell ref="CB31:CG31"/>
+    <mergeCell ref="CB32:CC32"/>
+    <mergeCell ref="CD32:CE32"/>
+    <mergeCell ref="CF32:CG32"/>
+    <mergeCell ref="CB34:CG34"/>
+    <mergeCell ref="CB35:CC35"/>
+    <mergeCell ref="CD35:CE35"/>
+    <mergeCell ref="CF35:CG35"/>
+    <mergeCell ref="BQ32:BV33"/>
+    <mergeCell ref="BQ25:BV25"/>
+    <mergeCell ref="BQ27:BV27"/>
+    <mergeCell ref="CM32:CR32"/>
+    <mergeCell ref="CM33:CR33"/>
+    <mergeCell ref="CM35:CR35"/>
+    <mergeCell ref="CM27:CR27"/>
+    <mergeCell ref="CM26:CR26"/>
+    <mergeCell ref="BQ35:BV35"/>
     <mergeCell ref="CM36:CR36"/>
     <mergeCell ref="CW18:DB18"/>
     <mergeCell ref="CW20:DB20"/>
@@ -8837,78 +8914,6 @@
     <mergeCell ref="CW36:DB40"/>
     <mergeCell ref="CM29:CR29"/>
     <mergeCell ref="CM30:CR30"/>
-    <mergeCell ref="BQ25:BV25"/>
-    <mergeCell ref="BQ27:BV27"/>
-    <mergeCell ref="CM32:CR32"/>
-    <mergeCell ref="CM33:CR33"/>
-    <mergeCell ref="CM35:CR35"/>
-    <mergeCell ref="CM27:CR27"/>
-    <mergeCell ref="CM26:CR26"/>
-    <mergeCell ref="BQ35:BV35"/>
-    <mergeCell ref="BQ36:BV36"/>
-    <mergeCell ref="CB31:CG31"/>
-    <mergeCell ref="CB32:CC32"/>
-    <mergeCell ref="CD32:CE32"/>
-    <mergeCell ref="CF32:CG32"/>
-    <mergeCell ref="CB34:CG34"/>
-    <mergeCell ref="CB35:CC35"/>
-    <mergeCell ref="CD35:CE35"/>
-    <mergeCell ref="CF35:CG35"/>
-    <mergeCell ref="BQ32:BV33"/>
-    <mergeCell ref="CB39:CG40"/>
-    <mergeCell ref="CB17:CG17"/>
-    <mergeCell ref="CB18:CC18"/>
-    <mergeCell ref="CD18:CE18"/>
-    <mergeCell ref="CF18:CG18"/>
-    <mergeCell ref="CB20:CG20"/>
-    <mergeCell ref="CF26:CG26"/>
-    <mergeCell ref="CD26:CE26"/>
-    <mergeCell ref="CB26:CC26"/>
-    <mergeCell ref="CB25:CG25"/>
-    <mergeCell ref="CE23:CH23"/>
-    <mergeCell ref="CB21:CG21"/>
-    <mergeCell ref="BE32:BJ33"/>
-    <mergeCell ref="CF29:CG29"/>
-    <mergeCell ref="CD29:CE29"/>
-    <mergeCell ref="CB29:CC29"/>
-    <mergeCell ref="CB28:CG28"/>
-    <mergeCell ref="BQ28:BV28"/>
-    <mergeCell ref="BE24:BJ24"/>
-    <mergeCell ref="BE25:BJ25"/>
-    <mergeCell ref="BE27:BJ27"/>
-    <mergeCell ref="BE28:BF28"/>
-    <mergeCell ref="BI28:BJ28"/>
-    <mergeCell ref="BG28:BH28"/>
-    <mergeCell ref="BE19:BJ19"/>
-    <mergeCell ref="BE18:BJ18"/>
-    <mergeCell ref="BE21:BJ21"/>
-    <mergeCell ref="BE22:BJ22"/>
-    <mergeCell ref="BQ19:BV19"/>
-    <mergeCell ref="BQ18:BV18"/>
-    <mergeCell ref="BQ21:BV21"/>
-    <mergeCell ref="BQ22:BV22"/>
-    <mergeCell ref="CL11:CS12"/>
-    <mergeCell ref="CL14:CS14"/>
-    <mergeCell ref="CV11:DC12"/>
-    <mergeCell ref="CV14:DC14"/>
-    <mergeCell ref="BQ24:BV24"/>
-    <mergeCell ref="CM18:CR18"/>
-    <mergeCell ref="CM19:CR19"/>
-    <mergeCell ref="CM21:CR21"/>
-    <mergeCell ref="CM24:CR24"/>
-    <mergeCell ref="CM23:CR23"/>
-    <mergeCell ref="BD11:BK12"/>
-    <mergeCell ref="BD14:BK14"/>
-    <mergeCell ref="BP11:BW12"/>
-    <mergeCell ref="BP14:BW14"/>
-    <mergeCell ref="CA11:CH12"/>
-    <mergeCell ref="CA14:CH14"/>
-    <mergeCell ref="P42:AX42"/>
-    <mergeCell ref="AY12:AY40"/>
-    <mergeCell ref="G11:N12"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="P17:R17"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8967,14 +8972,14 @@
         <v>476</v>
       </c>
       <c r="C3" s="28"/>
-      <c r="D3" s="289" t="s">
+      <c r="D3" s="294" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="290"/>
-      <c r="F3" s="290"/>
-      <c r="G3" s="290"/>
-      <c r="H3" s="290"/>
-      <c r="I3" s="291"/>
+      <c r="E3" s="295"/>
+      <c r="F3" s="295"/>
+      <c r="G3" s="295"/>
+      <c r="H3" s="295"/>
+      <c r="I3" s="296"/>
     </row>
     <row r="4" spans="1:16" ht="21" customHeight="1">
       <c r="A4" s="156" t="s">
@@ -9113,18 +9118,18 @@
         <v>375</v>
       </c>
       <c r="F12" s="132"/>
-      <c r="H12" s="284" t="s">
+      <c r="H12" s="297" t="s">
         <v>400</v>
       </c>
-      <c r="I12" s="292"/>
+      <c r="I12" s="298"/>
       <c r="J12" s="140" t="s">
         <v>404</v>
       </c>
       <c r="K12" s="132"/>
-      <c r="M12" s="284" t="s">
+      <c r="M12" s="297" t="s">
         <v>415</v>
       </c>
-      <c r="N12" s="285"/>
+      <c r="N12" s="293"/>
       <c r="O12" s="140" t="s">
         <v>422</v>
       </c>
@@ -9138,18 +9143,18 @@
         <v>368</v>
       </c>
       <c r="F13" s="132"/>
-      <c r="H13" s="284" t="s">
+      <c r="H13" s="297" t="s">
         <v>401</v>
       </c>
-      <c r="I13" s="292"/>
+      <c r="I13" s="298"/>
       <c r="J13" s="140" t="s">
         <v>403</v>
       </c>
       <c r="K13" s="132"/>
-      <c r="M13" s="284" t="s">
+      <c r="M13" s="297" t="s">
         <v>216</v>
       </c>
-      <c r="N13" s="285"/>
+      <c r="N13" s="293"/>
       <c r="O13" s="131" t="s">
         <v>417</v>
       </c>
@@ -9161,18 +9166,18 @@
       </c>
       <c r="E14" s="131"/>
       <c r="F14" s="132"/>
-      <c r="H14" s="284" t="s">
+      <c r="H14" s="297" t="s">
         <v>402</v>
       </c>
-      <c r="I14" s="292"/>
+      <c r="I14" s="298"/>
       <c r="J14" s="140" t="s">
         <v>369</v>
       </c>
       <c r="K14" s="132"/>
-      <c r="M14" s="284" t="s">
+      <c r="M14" s="297" t="s">
         <v>215</v>
       </c>
-      <c r="N14" s="285"/>
+      <c r="N14" s="293"/>
       <c r="O14" s="131" t="s">
         <v>418</v>
       </c>
@@ -9184,14 +9189,14 @@
       </c>
       <c r="E15" s="140"/>
       <c r="F15" s="132"/>
-      <c r="H15" s="287"/>
-      <c r="I15" s="288"/>
+      <c r="H15" s="299"/>
+      <c r="I15" s="300"/>
       <c r="J15" s="140"/>
       <c r="K15" s="132"/>
-      <c r="M15" s="284" t="s">
+      <c r="M15" s="297" t="s">
         <v>211</v>
       </c>
-      <c r="N15" s="285"/>
+      <c r="N15" s="293"/>
       <c r="O15" s="131" t="s">
         <v>419</v>
       </c>
@@ -9203,14 +9208,14 @@
       </c>
       <c r="E16" s="131"/>
       <c r="F16" s="134"/>
-      <c r="H16" s="287"/>
-      <c r="I16" s="288"/>
+      <c r="H16" s="299"/>
+      <c r="I16" s="300"/>
       <c r="J16" s="140"/>
       <c r="K16" s="132"/>
-      <c r="M16" s="284" t="s">
+      <c r="M16" s="297" t="s">
         <v>212</v>
       </c>
-      <c r="N16" s="285"/>
+      <c r="N16" s="293"/>
       <c r="O16" s="131" t="s">
         <v>169</v>
       </c>
@@ -9226,10 +9231,10 @@
       <c r="I17" s="135"/>
       <c r="J17" s="136"/>
       <c r="K17" s="137"/>
-      <c r="M17" s="284" t="s">
+      <c r="M17" s="297" t="s">
         <v>416</v>
       </c>
-      <c r="N17" s="285"/>
+      <c r="N17" s="293"/>
       <c r="O17" s="131" t="s">
         <v>420</v>
       </c>
@@ -9239,10 +9244,10 @@
       <c r="C18" s="133"/>
       <c r="E18" s="131"/>
       <c r="F18" s="134"/>
-      <c r="M18" s="284" t="s">
+      <c r="M18" s="297" t="s">
         <v>213</v>
       </c>
-      <c r="N18" s="285"/>
+      <c r="N18" s="293"/>
       <c r="O18" s="131" t="s">
         <v>421</v>
       </c>
@@ -9262,10 +9267,10 @@
       <c r="K19" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="M19" s="284" t="s">
+      <c r="M19" s="297" t="s">
         <v>290</v>
       </c>
-      <c r="N19" s="285"/>
+      <c r="N19" s="293"/>
       <c r="O19" s="131" t="s">
         <v>427</v>
       </c>
@@ -9283,10 +9288,10 @@
       <c r="I20" s="29"/>
       <c r="J20" s="29"/>
       <c r="K20" s="127"/>
-      <c r="M20" s="286" t="s">
+      <c r="M20" s="292" t="s">
         <v>423</v>
       </c>
-      <c r="N20" s="285"/>
+      <c r="N20" s="293"/>
       <c r="O20" s="140" t="s">
         <v>480</v>
       </c>
@@ -9300,10 +9305,10 @@
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
       <c r="K21" s="127"/>
-      <c r="M21" s="286" t="s">
+      <c r="M21" s="292" t="s">
         <v>424</v>
       </c>
-      <c r="N21" s="285"/>
+      <c r="N21" s="293"/>
       <c r="O21" s="131"/>
       <c r="P21" s="132"/>
     </row>
@@ -9320,22 +9325,22 @@
         <v>84</v>
       </c>
       <c r="K22" s="130"/>
-      <c r="M22" s="286"/>
-      <c r="N22" s="285"/>
+      <c r="M22" s="292"/>
+      <c r="N22" s="293"/>
       <c r="O22" s="131"/>
       <c r="P22" s="132"/>
     </row>
     <row r="23" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="H23" s="284" t="s">
+      <c r="H23" s="297" t="s">
         <v>405</v>
       </c>
-      <c r="I23" s="292"/>
+      <c r="I23" s="298"/>
       <c r="J23" s="140" t="s">
         <v>369</v>
       </c>
       <c r="K23" s="132"/>
-      <c r="M23" s="286"/>
-      <c r="N23" s="285"/>
+      <c r="M23" s="292"/>
+      <c r="N23" s="293"/>
       <c r="O23" s="131"/>
       <c r="P23" s="132"/>
     </row>
@@ -9348,12 +9353,12 @@
       <c r="F24" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="H24" s="284"/>
-      <c r="I24" s="292"/>
+      <c r="H24" s="297"/>
+      <c r="I24" s="298"/>
       <c r="J24" s="140"/>
       <c r="K24" s="132"/>
-      <c r="M24" s="286"/>
-      <c r="N24" s="285"/>
+      <c r="M24" s="292"/>
+      <c r="N24" s="293"/>
       <c r="O24" s="131"/>
       <c r="P24" s="132"/>
     </row>
@@ -9366,12 +9371,12 @@
       <c r="F25" s="143" t="s">
         <v>373</v>
       </c>
-      <c r="H25" s="284"/>
-      <c r="I25" s="292"/>
+      <c r="H25" s="297"/>
+      <c r="I25" s="298"/>
       <c r="J25" s="140"/>
       <c r="K25" s="132"/>
-      <c r="M25" s="286"/>
-      <c r="N25" s="285"/>
+      <c r="M25" s="292"/>
+      <c r="N25" s="293"/>
       <c r="O25" s="131"/>
       <c r="P25" s="132"/>
     </row>
@@ -9380,12 +9385,12 @@
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
       <c r="F26" s="127"/>
-      <c r="H26" s="287"/>
-      <c r="I26" s="288"/>
+      <c r="H26" s="299"/>
+      <c r="I26" s="300"/>
       <c r="J26" s="140"/>
       <c r="K26" s="132"/>
-      <c r="M26" s="286"/>
-      <c r="N26" s="285"/>
+      <c r="M26" s="292"/>
+      <c r="N26" s="293"/>
       <c r="O26" s="131"/>
       <c r="P26" s="132"/>
     </row>
@@ -9398,12 +9403,12 @@
         <v>84</v>
       </c>
       <c r="F27" s="130"/>
-      <c r="H27" s="287"/>
-      <c r="I27" s="288"/>
+      <c r="H27" s="299"/>
+      <c r="I27" s="300"/>
       <c r="J27" s="140"/>
       <c r="K27" s="132"/>
-      <c r="M27" s="286"/>
-      <c r="N27" s="285"/>
+      <c r="M27" s="292"/>
+      <c r="N27" s="293"/>
       <c r="O27" s="131"/>
       <c r="P27" s="132"/>
     </row>
@@ -9419,8 +9424,8 @@
       <c r="I28" s="135"/>
       <c r="J28" s="136"/>
       <c r="K28" s="137"/>
-      <c r="M28" s="286"/>
-      <c r="N28" s="285"/>
+      <c r="M28" s="292"/>
+      <c r="N28" s="293"/>
       <c r="O28" s="131"/>
       <c r="P28" s="132"/>
     </row>
@@ -9432,8 +9437,8 @@
         <v>388</v>
       </c>
       <c r="F29" s="132"/>
-      <c r="M29" s="286"/>
-      <c r="N29" s="285"/>
+      <c r="M29" s="292"/>
+      <c r="N29" s="293"/>
       <c r="O29" s="131"/>
       <c r="P29" s="132"/>
     </row>
@@ -9443,8 +9448,8 @@
       </c>
       <c r="E30" s="140"/>
       <c r="F30" s="132"/>
-      <c r="M30" s="286"/>
-      <c r="N30" s="285"/>
+      <c r="M30" s="292"/>
+      <c r="N30" s="293"/>
       <c r="O30" s="131"/>
       <c r="P30" s="132"/>
     </row>
@@ -9524,10 +9529,10 @@
       <c r="C37" s="133"/>
       <c r="E37" s="131"/>
       <c r="F37" s="134"/>
-      <c r="M37" s="284" t="s">
+      <c r="M37" s="297" t="s">
         <v>428</v>
       </c>
-      <c r="N37" s="285"/>
+      <c r="N37" s="293"/>
       <c r="O37" s="131" t="s">
         <v>430</v>
       </c>
@@ -9537,10 +9542,10 @@
       <c r="C38" s="133"/>
       <c r="E38" s="131"/>
       <c r="F38" s="134"/>
-      <c r="M38" s="286" t="s">
+      <c r="M38" s="292" t="s">
         <v>429</v>
       </c>
-      <c r="N38" s="285"/>
+      <c r="N38" s="293"/>
       <c r="O38" s="131" t="s">
         <v>431</v>
       </c>
@@ -9551,16 +9556,16 @@
       <c r="D39" s="135"/>
       <c r="E39" s="136"/>
       <c r="F39" s="139"/>
-      <c r="M39" s="286"/>
-      <c r="N39" s="285"/>
+      <c r="M39" s="292"/>
+      <c r="N39" s="293"/>
       <c r="O39" s="131" t="s">
         <v>432</v>
       </c>
       <c r="P39" s="132"/>
     </row>
     <row r="40" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="M40" s="286"/>
-      <c r="N40" s="285"/>
+      <c r="M40" s="292"/>
+      <c r="N40" s="293"/>
       <c r="O40" s="131" t="s">
         <v>433</v>
       </c>
@@ -9575,8 +9580,8 @@
       <c r="F41" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="M41" s="286"/>
-      <c r="N41" s="285"/>
+      <c r="M41" s="292"/>
+      <c r="N41" s="293"/>
       <c r="O41" s="131" t="s">
         <v>435</v>
       </c>
@@ -9591,8 +9596,8 @@
       <c r="F42" s="143" t="s">
         <v>373</v>
       </c>
-      <c r="M42" s="286"/>
-      <c r="N42" s="285"/>
+      <c r="M42" s="292"/>
+      <c r="N42" s="293"/>
       <c r="O42" s="131" t="s">
         <v>434</v>
       </c>
@@ -9686,10 +9691,10 @@
         <v>397</v>
       </c>
       <c r="F49" s="134"/>
-      <c r="M49" s="284" t="s">
+      <c r="M49" s="297" t="s">
         <v>436</v>
       </c>
-      <c r="N49" s="285"/>
+      <c r="N49" s="293"/>
       <c r="O49" s="131" t="s">
         <v>439</v>
       </c>
@@ -9703,10 +9708,10 @@
         <v>334</v>
       </c>
       <c r="F50" s="134"/>
-      <c r="M50" s="286" t="s">
+      <c r="M50" s="292" t="s">
         <v>437</v>
       </c>
-      <c r="N50" s="285"/>
+      <c r="N50" s="293"/>
       <c r="O50" s="131" t="s">
         <v>440</v>
       </c>
@@ -9720,10 +9725,10 @@
         <v>369</v>
       </c>
       <c r="F51" s="134"/>
-      <c r="M51" s="286" t="s">
+      <c r="M51" s="292" t="s">
         <v>438</v>
       </c>
-      <c r="N51" s="285"/>
+      <c r="N51" s="293"/>
       <c r="O51" s="131"/>
       <c r="P51" s="132"/>
     </row>
@@ -9733,10 +9738,10 @@
         <v>456</v>
       </c>
       <c r="F52" s="134"/>
-      <c r="M52" s="286" t="s">
+      <c r="M52" s="292" t="s">
         <v>441</v>
       </c>
-      <c r="N52" s="285"/>
+      <c r="N52" s="293"/>
       <c r="O52" s="131"/>
       <c r="P52" s="132"/>
     </row>
@@ -9747,8 +9752,8 @@
         <v>457</v>
       </c>
       <c r="F53" s="137"/>
-      <c r="M53" s="286"/>
-      <c r="N53" s="285"/>
+      <c r="M53" s="292"/>
+      <c r="N53" s="293"/>
       <c r="O53" s="131"/>
       <c r="P53" s="132"/>
     </row>
@@ -9800,10 +9805,10 @@
       </c>
     </row>
     <row r="60" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M60" s="284" t="s">
+      <c r="M60" s="297" t="s">
         <v>442</v>
       </c>
-      <c r="N60" s="285"/>
+      <c r="N60" s="293"/>
       <c r="O60" s="140" t="s">
         <v>446</v>
       </c>
@@ -9812,10 +9817,10 @@
       </c>
     </row>
     <row r="61" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M61" s="286" t="s">
+      <c r="M61" s="292" t="s">
         <v>443</v>
       </c>
-      <c r="N61" s="285"/>
+      <c r="N61" s="293"/>
       <c r="O61" s="140" t="s">
         <v>447</v>
       </c>
@@ -9824,10 +9829,10 @@
       </c>
     </row>
     <row r="62" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M62" s="284" t="s">
+      <c r="M62" s="297" t="s">
         <v>448</v>
       </c>
-      <c r="N62" s="285"/>
+      <c r="N62" s="293"/>
       <c r="O62" s="140" t="s">
         <v>85</v>
       </c>
@@ -9836,14 +9841,14 @@
       </c>
     </row>
     <row r="63" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M63" s="286"/>
-      <c r="N63" s="285"/>
+      <c r="M63" s="292"/>
+      <c r="N63" s="293"/>
       <c r="O63" s="131"/>
       <c r="P63" s="132"/>
     </row>
     <row r="64" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M64" s="286"/>
-      <c r="N64" s="285"/>
+      <c r="M64" s="292"/>
+      <c r="N64" s="293"/>
       <c r="O64" s="131"/>
       <c r="P64" s="132"/>
     </row>
@@ -9891,40 +9896,40 @@
       <c r="P70" s="130"/>
     </row>
     <row r="71" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M71" s="284" t="s">
+      <c r="M71" s="297" t="s">
         <v>449</v>
       </c>
-      <c r="N71" s="285"/>
+      <c r="N71" s="293"/>
       <c r="O71" s="140" t="s">
         <v>369</v>
       </c>
       <c r="P71" s="132"/>
     </row>
     <row r="72" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M72" s="284" t="s">
+      <c r="M72" s="297" t="s">
         <v>450</v>
       </c>
-      <c r="N72" s="285"/>
+      <c r="N72" s="293"/>
       <c r="O72" s="140" t="s">
         <v>451</v>
       </c>
       <c r="P72" s="132"/>
     </row>
     <row r="73" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M73" s="286"/>
-      <c r="N73" s="285"/>
+      <c r="M73" s="292"/>
+      <c r="N73" s="293"/>
       <c r="O73" s="131"/>
       <c r="P73" s="132"/>
     </row>
     <row r="74" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M74" s="286"/>
-      <c r="N74" s="285"/>
+      <c r="M74" s="292"/>
+      <c r="N74" s="293"/>
       <c r="O74" s="131"/>
       <c r="P74" s="132"/>
     </row>
     <row r="75" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M75" s="286"/>
-      <c r="N75" s="285"/>
+      <c r="M75" s="292"/>
+      <c r="N75" s="293"/>
       <c r="O75" s="131"/>
       <c r="P75" s="132"/>
     </row>
@@ -9972,40 +9977,40 @@
       <c r="P81" s="130"/>
     </row>
     <row r="82" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M82" s="284" t="s">
+      <c r="M82" s="297" t="s">
         <v>449</v>
       </c>
-      <c r="N82" s="285"/>
+      <c r="N82" s="293"/>
       <c r="O82" s="140" t="s">
         <v>369</v>
       </c>
       <c r="P82" s="132"/>
     </row>
     <row r="83" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M83" s="284" t="s">
+      <c r="M83" s="297" t="s">
         <v>452</v>
       </c>
-      <c r="N83" s="285"/>
+      <c r="N83" s="293"/>
       <c r="O83" s="140" t="s">
         <v>451</v>
       </c>
       <c r="P83" s="132"/>
     </row>
     <row r="84" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M84" s="286"/>
-      <c r="N84" s="285"/>
+      <c r="M84" s="292"/>
+      <c r="N84" s="293"/>
       <c r="O84" s="131"/>
       <c r="P84" s="132"/>
     </row>
     <row r="85" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M85" s="286"/>
-      <c r="N85" s="285"/>
+      <c r="M85" s="292"/>
+      <c r="N85" s="293"/>
       <c r="O85" s="131"/>
       <c r="P85" s="132"/>
     </row>
     <row r="86" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M86" s="286"/>
-      <c r="N86" s="285"/>
+      <c r="M86" s="292"/>
+      <c r="N86" s="293"/>
       <c r="O86" s="131"/>
       <c r="P86" s="132"/>
     </row>
@@ -10051,40 +10056,40 @@
       <c r="P92" s="130"/>
     </row>
     <row r="93" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M93" s="284" t="s">
+      <c r="M93" s="297" t="s">
         <v>216</v>
       </c>
-      <c r="N93" s="285"/>
+      <c r="N93" s="293"/>
       <c r="O93" s="140" t="s">
         <v>453</v>
       </c>
       <c r="P93" s="132"/>
     </row>
     <row r="94" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M94" s="286"/>
-      <c r="N94" s="285"/>
+      <c r="M94" s="292"/>
+      <c r="N94" s="293"/>
       <c r="O94" s="140" t="s">
         <v>454</v>
       </c>
       <c r="P94" s="132"/>
     </row>
     <row r="95" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M95" s="286"/>
-      <c r="N95" s="285"/>
+      <c r="M95" s="292"/>
+      <c r="N95" s="293"/>
       <c r="O95" s="140" t="s">
         <v>455</v>
       </c>
       <c r="P95" s="132"/>
     </row>
     <row r="96" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M96" s="286"/>
-      <c r="N96" s="285"/>
+      <c r="M96" s="292"/>
+      <c r="N96" s="293"/>
       <c r="O96" s="131"/>
       <c r="P96" s="132"/>
     </row>
     <row r="97" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M97" s="286"/>
-      <c r="N97" s="285"/>
+      <c r="M97" s="292"/>
+      <c r="N97" s="293"/>
       <c r="O97" s="131"/>
       <c r="P97" s="132"/>
     </row>
@@ -10130,46 +10135,46 @@
       <c r="P103" s="130"/>
     </row>
     <row r="104" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M104" s="284" t="s">
+      <c r="M104" s="297" t="s">
         <v>465</v>
       </c>
-      <c r="N104" s="285"/>
+      <c r="N104" s="293"/>
       <c r="O104" s="140" t="s">
         <v>462</v>
       </c>
       <c r="P104" s="132"/>
     </row>
     <row r="105" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M105" s="284" t="s">
+      <c r="M105" s="297" t="s">
         <v>466</v>
       </c>
-      <c r="N105" s="285"/>
+      <c r="N105" s="293"/>
       <c r="O105" s="140" t="s">
         <v>461</v>
       </c>
       <c r="P105" s="132"/>
     </row>
     <row r="106" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M106" s="284" t="s">
+      <c r="M106" s="297" t="s">
         <v>467</v>
       </c>
-      <c r="N106" s="285"/>
+      <c r="N106" s="293"/>
       <c r="O106" s="140" t="s">
         <v>463</v>
       </c>
       <c r="P106" s="132"/>
     </row>
     <row r="107" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M107" s="286"/>
-      <c r="N107" s="285"/>
+      <c r="M107" s="292"/>
+      <c r="N107" s="293"/>
       <c r="O107" s="140" t="s">
         <v>464</v>
       </c>
       <c r="P107" s="132"/>
     </row>
     <row r="108" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M108" s="286"/>
-      <c r="N108" s="285"/>
+      <c r="M108" s="292"/>
+      <c r="N108" s="293"/>
       <c r="O108" s="131"/>
       <c r="P108" s="132"/>
     </row>
@@ -10217,42 +10222,42 @@
       <c r="P114" s="130"/>
     </row>
     <row r="115" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M115" s="284" t="s">
+      <c r="M115" s="297" t="s">
         <v>482</v>
       </c>
-      <c r="N115" s="285"/>
+      <c r="N115" s="293"/>
       <c r="O115" s="140" t="s">
         <v>483</v>
       </c>
       <c r="P115" s="132"/>
     </row>
     <row r="116" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M116" s="286"/>
-      <c r="N116" s="285"/>
+      <c r="M116" s="292"/>
+      <c r="N116" s="293"/>
       <c r="O116" s="131"/>
       <c r="P116" s="132"/>
     </row>
     <row r="117" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M117" s="286"/>
-      <c r="N117" s="285"/>
+      <c r="M117" s="292"/>
+      <c r="N117" s="293"/>
       <c r="O117" s="131"/>
       <c r="P117" s="132"/>
     </row>
     <row r="118" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M118" s="286"/>
-      <c r="N118" s="285"/>
+      <c r="M118" s="292"/>
+      <c r="N118" s="293"/>
       <c r="O118" s="131"/>
       <c r="P118" s="132"/>
     </row>
     <row r="119" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M119" s="286"/>
-      <c r="N119" s="285"/>
+      <c r="M119" s="292"/>
+      <c r="N119" s="293"/>
       <c r="O119" s="131"/>
       <c r="P119" s="132"/>
     </row>
     <row r="120" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M120" s="286"/>
-      <c r="N120" s="285"/>
+      <c r="M120" s="292"/>
+      <c r="N120" s="293"/>
       <c r="O120" s="131"/>
       <c r="P120" s="132"/>
     </row>
@@ -10264,6 +10269,62 @@
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="M107:N107"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="M95:N95"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="M104:N104"/>
+    <mergeCell ref="M83:N83"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="M82:N82"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
     <mergeCell ref="M119:N119"/>
     <mergeCell ref="M120:N120"/>
     <mergeCell ref="D3:I3"/>
@@ -10280,62 +10341,6 @@
     <mergeCell ref="H24:I24"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="H26:I26"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="M75:N75"/>
-    <mergeCell ref="M82:N82"/>
-    <mergeCell ref="M83:N83"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="M86:N86"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="M105:N105"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="M107:N107"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="M95:N95"/>
-    <mergeCell ref="M96:N96"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="M104:N104"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
@@ -11858,7 +11863,7 @@
   </sheetPr>
   <dimension ref="B2:U95"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="C10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="R6" sqref="R6:U94"/>
     </sheetView>
   </sheetViews>
@@ -11905,15 +11910,15 @@
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
-      <c r="H3" s="293"/>
-      <c r="I3" s="236"/>
-      <c r="J3" s="236"/>
-      <c r="K3" s="236"/>
-      <c r="L3" s="236"/>
-      <c r="M3" s="236"/>
-      <c r="N3" s="236"/>
-      <c r="O3" s="236"/>
-      <c r="P3" s="236"/>
+      <c r="H3" s="301"/>
+      <c r="I3" s="244"/>
+      <c r="J3" s="244"/>
+      <c r="K3" s="244"/>
+      <c r="L3" s="244"/>
+      <c r="M3" s="244"/>
+      <c r="N3" s="244"/>
+      <c r="O3" s="244"/>
+      <c r="P3" s="244"/>
     </row>
     <row r="4" spans="2:21" ht="21.75" customHeight="1" thickBot="1">
       <c r="B4" s="26"/>
@@ -11966,16 +11971,16 @@
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
       <c r="N6" s="26"/>
-      <c r="R6" s="294" t="s">
-        <v>601</v>
-      </c>
-      <c r="S6" s="295"/>
-      <c r="T6" s="295"/>
-      <c r="U6" s="296"/>
+      <c r="R6" s="302" t="s">
+        <v>600</v>
+      </c>
+      <c r="S6" s="303"/>
+      <c r="T6" s="303"/>
+      <c r="U6" s="304"/>
     </row>
     <row r="7" spans="2:21" ht="21.75" customHeight="1" thickBot="1">
       <c r="B7" s="183" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C7" s="184"/>
       <c r="D7" s="185"/>
@@ -11989,10 +11994,10 @@
       <c r="L7" s="184"/>
       <c r="M7" s="184"/>
       <c r="N7" s="184"/>
-      <c r="R7" s="297"/>
-      <c r="S7" s="298"/>
-      <c r="T7" s="298"/>
-      <c r="U7" s="299"/>
+      <c r="R7" s="305"/>
+      <c r="S7" s="306"/>
+      <c r="T7" s="306"/>
+      <c r="U7" s="307"/>
     </row>
     <row r="8" spans="2:21" ht="15">
       <c r="B8" s="187" t="s">
@@ -12014,10 +12019,10 @@
       <c r="L8" s="184"/>
       <c r="M8" s="184"/>
       <c r="N8" s="190"/>
-      <c r="R8" s="297"/>
-      <c r="S8" s="298"/>
-      <c r="T8" s="298"/>
-      <c r="U8" s="299"/>
+      <c r="R8" s="305"/>
+      <c r="S8" s="306"/>
+      <c r="T8" s="306"/>
+      <c r="U8" s="307"/>
     </row>
     <row r="9" spans="2:21" thickBot="1">
       <c r="B9" s="191" t="s">
@@ -12039,10 +12044,10 @@
       <c r="L9" s="194"/>
       <c r="M9" s="194"/>
       <c r="N9" s="194"/>
-      <c r="R9" s="297"/>
-      <c r="S9" s="298"/>
-      <c r="T9" s="298"/>
-      <c r="U9" s="299"/>
+      <c r="R9" s="305"/>
+      <c r="S9" s="306"/>
+      <c r="T9" s="306"/>
+      <c r="U9" s="307"/>
     </row>
     <row r="10" spans="2:21" thickBot="1">
       <c r="B10" s="191" t="s">
@@ -12055,29 +12060,29 @@
         <v>97</v>
       </c>
       <c r="E10" s="196" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F10" s="197"/>
       <c r="G10" s="197"/>
       <c r="H10" s="198" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I10" s="199"/>
       <c r="J10" s="199"/>
       <c r="K10" s="198" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L10" s="199"/>
       <c r="M10" s="199"/>
       <c r="N10" s="196" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="O10" s="200"/>
       <c r="P10" s="201"/>
-      <c r="R10" s="297"/>
-      <c r="S10" s="298"/>
-      <c r="T10" s="298"/>
-      <c r="U10" s="299"/>
+      <c r="R10" s="305"/>
+      <c r="S10" s="306"/>
+      <c r="T10" s="306"/>
+      <c r="U10" s="307"/>
     </row>
     <row r="11" spans="2:21" ht="15" customHeight="1" thickBot="1">
       <c r="B11" s="202"/>
@@ -12119,10 +12124,10 @@
       <c r="P11" s="211" t="s">
         <v>100</v>
       </c>
-      <c r="R11" s="297"/>
-      <c r="S11" s="298"/>
-      <c r="T11" s="298"/>
-      <c r="U11" s="299"/>
+      <c r="R11" s="305"/>
+      <c r="S11" s="306"/>
+      <c r="T11" s="306"/>
+      <c r="U11" s="307"/>
     </row>
     <row r="12" spans="2:21" ht="20.25" customHeight="1">
       <c r="B12" s="171" t="s">
@@ -12144,10 +12149,10 @@
       <c r="N12" s="231"/>
       <c r="O12" s="216"/>
       <c r="P12" s="217"/>
-      <c r="R12" s="297"/>
-      <c r="S12" s="298"/>
-      <c r="T12" s="298"/>
-      <c r="U12" s="299"/>
+      <c r="R12" s="305"/>
+      <c r="S12" s="306"/>
+      <c r="T12" s="306"/>
+      <c r="U12" s="307"/>
     </row>
     <row r="13" spans="2:21" ht="20.25" customHeight="1">
       <c r="B13" s="172"/>
@@ -12155,7 +12160,7 @@
         <v>499</v>
       </c>
       <c r="D13" s="218" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E13" s="231">
         <v>45978</v>
@@ -12171,10 +12176,10 @@
       <c r="N13" s="231"/>
       <c r="O13" s="216"/>
       <c r="P13" s="217"/>
-      <c r="R13" s="297"/>
-      <c r="S13" s="298"/>
-      <c r="T13" s="298"/>
-      <c r="U13" s="299"/>
+      <c r="R13" s="305"/>
+      <c r="S13" s="306"/>
+      <c r="T13" s="306"/>
+      <c r="U13" s="307"/>
     </row>
     <row r="14" spans="2:21" ht="20.25" customHeight="1">
       <c r="B14" s="174"/>
@@ -12192,10 +12197,10 @@
       <c r="N14" s="231"/>
       <c r="O14" s="216"/>
       <c r="P14" s="217"/>
-      <c r="R14" s="297"/>
-      <c r="S14" s="298"/>
-      <c r="T14" s="298"/>
-      <c r="U14" s="299"/>
+      <c r="R14" s="305"/>
+      <c r="S14" s="306"/>
+      <c r="T14" s="306"/>
+      <c r="U14" s="307"/>
     </row>
     <row r="15" spans="2:21" ht="20.25" customHeight="1">
       <c r="B15" s="174" t="s">
@@ -12217,10 +12222,10 @@
       <c r="N15" s="231"/>
       <c r="O15" s="216"/>
       <c r="P15" s="217"/>
-      <c r="R15" s="297"/>
-      <c r="S15" s="298"/>
-      <c r="T15" s="298"/>
-      <c r="U15" s="299"/>
+      <c r="R15" s="305"/>
+      <c r="S15" s="306"/>
+      <c r="T15" s="306"/>
+      <c r="U15" s="307"/>
     </row>
     <row r="16" spans="2:21" ht="20.25" customHeight="1">
       <c r="B16" s="172"/>
@@ -12228,7 +12233,7 @@
         <v>484</v>
       </c>
       <c r="D16" s="218" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E16" s="231">
         <v>45978</v>
@@ -12244,10 +12249,10 @@
       <c r="N16" s="231"/>
       <c r="O16" s="216"/>
       <c r="P16" s="217"/>
-      <c r="R16" s="297"/>
-      <c r="S16" s="298"/>
-      <c r="T16" s="298"/>
-      <c r="U16" s="299"/>
+      <c r="R16" s="305"/>
+      <c r="S16" s="306"/>
+      <c r="T16" s="306"/>
+      <c r="U16" s="307"/>
     </row>
     <row r="17" spans="2:21" ht="20.25" customHeight="1">
       <c r="B17" s="172"/>
@@ -12255,7 +12260,7 @@
         <v>487</v>
       </c>
       <c r="D17" s="218" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E17" s="231">
         <v>45978</v>
@@ -12271,15 +12276,15 @@
       <c r="N17" s="231"/>
       <c r="O17" s="216"/>
       <c r="P17" s="217"/>
-      <c r="R17" s="297"/>
-      <c r="S17" s="298"/>
-      <c r="T17" s="298"/>
-      <c r="U17" s="299"/>
+      <c r="R17" s="305"/>
+      <c r="S17" s="306"/>
+      <c r="T17" s="306"/>
+      <c r="U17" s="307"/>
     </row>
     <row r="18" spans="2:21" ht="20.25" customHeight="1">
       <c r="B18" s="172"/>
       <c r="C18" s="172" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D18" s="218"/>
       <c r="E18" s="231"/>
@@ -12294,10 +12299,10 @@
       <c r="N18" s="231"/>
       <c r="O18" s="216"/>
       <c r="P18" s="217"/>
-      <c r="R18" s="297"/>
-      <c r="S18" s="298"/>
-      <c r="T18" s="298"/>
-      <c r="U18" s="299"/>
+      <c r="R18" s="305"/>
+      <c r="S18" s="306"/>
+      <c r="T18" s="306"/>
+      <c r="U18" s="307"/>
     </row>
     <row r="19" spans="2:21" ht="20.25" customHeight="1">
       <c r="B19" s="172"/>
@@ -12305,7 +12310,7 @@
         <v>486</v>
       </c>
       <c r="D19" s="218" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E19" s="231">
         <v>45978</v>
@@ -12321,10 +12326,10 @@
       <c r="N19" s="231"/>
       <c r="O19" s="216"/>
       <c r="P19" s="217"/>
-      <c r="R19" s="297"/>
-      <c r="S19" s="298"/>
-      <c r="T19" s="298"/>
-      <c r="U19" s="299"/>
+      <c r="R19" s="305"/>
+      <c r="S19" s="306"/>
+      <c r="T19" s="306"/>
+      <c r="U19" s="307"/>
     </row>
     <row r="20" spans="2:21" ht="20.25" customHeight="1">
       <c r="B20" s="172"/>
@@ -12342,10 +12347,10 @@
       <c r="N20" s="231"/>
       <c r="O20" s="216"/>
       <c r="P20" s="217"/>
-      <c r="R20" s="297"/>
-      <c r="S20" s="298"/>
-      <c r="T20" s="298"/>
-      <c r="U20" s="299"/>
+      <c r="R20" s="305"/>
+      <c r="S20" s="306"/>
+      <c r="T20" s="306"/>
+      <c r="U20" s="307"/>
     </row>
     <row r="21" spans="2:21" ht="20.25" customHeight="1">
       <c r="B21" s="174" t="s">
@@ -12367,10 +12372,10 @@
       <c r="N21" s="231"/>
       <c r="O21" s="216"/>
       <c r="P21" s="217"/>
-      <c r="R21" s="297"/>
-      <c r="S21" s="298"/>
-      <c r="T21" s="298"/>
-      <c r="U21" s="299"/>
+      <c r="R21" s="305"/>
+      <c r="S21" s="306"/>
+      <c r="T21" s="306"/>
+      <c r="U21" s="307"/>
     </row>
     <row r="22" spans="2:21" ht="20.25" customHeight="1">
       <c r="B22" s="172"/>
@@ -12378,7 +12383,7 @@
         <v>488</v>
       </c>
       <c r="D22" s="218" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E22" s="231">
         <v>45978</v>
@@ -12394,10 +12399,10 @@
       <c r="N22" s="231"/>
       <c r="O22" s="216"/>
       <c r="P22" s="217"/>
-      <c r="R22" s="297"/>
-      <c r="S22" s="298"/>
-      <c r="T22" s="298"/>
-      <c r="U22" s="299"/>
+      <c r="R22" s="305"/>
+      <c r="S22" s="306"/>
+      <c r="T22" s="306"/>
+      <c r="U22" s="307"/>
     </row>
     <row r="23" spans="2:21" ht="20.25" customHeight="1">
       <c r="B23" s="172"/>
@@ -12405,7 +12410,7 @@
         <v>489</v>
       </c>
       <c r="D23" s="218" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E23" s="231">
         <v>45978</v>
@@ -12421,18 +12426,18 @@
       <c r="N23" s="231"/>
       <c r="O23" s="216"/>
       <c r="P23" s="217"/>
-      <c r="R23" s="297"/>
-      <c r="S23" s="298"/>
-      <c r="T23" s="298"/>
-      <c r="U23" s="299"/>
+      <c r="R23" s="305"/>
+      <c r="S23" s="306"/>
+      <c r="T23" s="306"/>
+      <c r="U23" s="307"/>
     </row>
     <row r="24" spans="2:21" ht="20.25" customHeight="1">
       <c r="B24" s="172"/>
       <c r="C24" s="172" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="D24" s="218" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E24" s="231">
         <v>45978</v>
@@ -12448,10 +12453,10 @@
       <c r="N24" s="231"/>
       <c r="O24" s="216"/>
       <c r="P24" s="217"/>
-      <c r="R24" s="297"/>
-      <c r="S24" s="298"/>
-      <c r="T24" s="298"/>
-      <c r="U24" s="299"/>
+      <c r="R24" s="305"/>
+      <c r="S24" s="306"/>
+      <c r="T24" s="306"/>
+      <c r="U24" s="307"/>
     </row>
     <row r="25" spans="2:21" ht="20.25" customHeight="1">
       <c r="B25" s="172"/>
@@ -12459,7 +12464,7 @@
         <v>490</v>
       </c>
       <c r="D25" s="218" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E25" s="231">
         <v>45978</v>
@@ -12475,10 +12480,10 @@
       <c r="N25" s="231"/>
       <c r="O25" s="216"/>
       <c r="P25" s="217"/>
-      <c r="R25" s="297"/>
-      <c r="S25" s="298"/>
-      <c r="T25" s="298"/>
-      <c r="U25" s="299"/>
+      <c r="R25" s="305"/>
+      <c r="S25" s="306"/>
+      <c r="T25" s="306"/>
+      <c r="U25" s="307"/>
     </row>
     <row r="26" spans="2:21" ht="20.25" customHeight="1">
       <c r="B26" s="169"/>
@@ -12486,7 +12491,7 @@
         <v>491</v>
       </c>
       <c r="D26" s="218" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E26" s="231">
         <v>45978</v>
@@ -12502,10 +12507,10 @@
       <c r="N26" s="231"/>
       <c r="O26" s="216"/>
       <c r="P26" s="217"/>
-      <c r="R26" s="297"/>
-      <c r="S26" s="298"/>
-      <c r="T26" s="298"/>
-      <c r="U26" s="299"/>
+      <c r="R26" s="305"/>
+      <c r="S26" s="306"/>
+      <c r="T26" s="306"/>
+      <c r="U26" s="307"/>
     </row>
     <row r="27" spans="2:21" ht="20.25" customHeight="1">
       <c r="B27" s="169"/>
@@ -12513,7 +12518,7 @@
         <v>492</v>
       </c>
       <c r="D27" s="218" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E27" s="231">
         <v>45978</v>
@@ -12529,10 +12534,10 @@
       <c r="N27" s="231"/>
       <c r="O27" s="216"/>
       <c r="P27" s="217"/>
-      <c r="R27" s="297"/>
-      <c r="S27" s="298"/>
-      <c r="T27" s="298"/>
-      <c r="U27" s="299"/>
+      <c r="R27" s="305"/>
+      <c r="S27" s="306"/>
+      <c r="T27" s="306"/>
+      <c r="U27" s="307"/>
     </row>
     <row r="28" spans="2:21" ht="20.25" customHeight="1">
       <c r="B28" s="169"/>
@@ -12550,10 +12555,10 @@
       <c r="N28" s="231"/>
       <c r="O28" s="216"/>
       <c r="P28" s="217"/>
-      <c r="R28" s="297"/>
-      <c r="S28" s="298"/>
-      <c r="T28" s="298"/>
-      <c r="U28" s="299"/>
+      <c r="R28" s="305"/>
+      <c r="S28" s="306"/>
+      <c r="T28" s="306"/>
+      <c r="U28" s="307"/>
     </row>
     <row r="29" spans="2:21" ht="20.25" customHeight="1">
       <c r="B29" s="174" t="s">
@@ -12564,7 +12569,7 @@
       <c r="E29" s="231"/>
       <c r="F29" s="232"/>
       <c r="G29" s="234" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="H29" s="231"/>
       <c r="I29" s="216"/>
@@ -12575,10 +12580,10 @@
       <c r="N29" s="231"/>
       <c r="O29" s="216"/>
       <c r="P29" s="217"/>
-      <c r="R29" s="297"/>
-      <c r="S29" s="298"/>
-      <c r="T29" s="298"/>
-      <c r="U29" s="299"/>
+      <c r="R29" s="305"/>
+      <c r="S29" s="306"/>
+      <c r="T29" s="306"/>
+      <c r="U29" s="307"/>
     </row>
     <row r="30" spans="2:21" ht="20.25" customHeight="1">
       <c r="B30" s="172"/>
@@ -12598,10 +12603,10 @@
       <c r="N30" s="231"/>
       <c r="O30" s="216"/>
       <c r="P30" s="217"/>
-      <c r="R30" s="297"/>
-      <c r="S30" s="298"/>
-      <c r="T30" s="298"/>
-      <c r="U30" s="299"/>
+      <c r="R30" s="305"/>
+      <c r="S30" s="306"/>
+      <c r="T30" s="306"/>
+      <c r="U30" s="307"/>
     </row>
     <row r="31" spans="2:21" ht="20.25" customHeight="1">
       <c r="B31" s="172"/>
@@ -12621,15 +12626,15 @@
       <c r="N31" s="231"/>
       <c r="O31" s="216"/>
       <c r="P31" s="217"/>
-      <c r="R31" s="297"/>
-      <c r="S31" s="298"/>
-      <c r="T31" s="298"/>
-      <c r="U31" s="299"/>
+      <c r="R31" s="305"/>
+      <c r="S31" s="306"/>
+      <c r="T31" s="306"/>
+      <c r="U31" s="307"/>
     </row>
     <row r="32" spans="2:21" ht="20.25" customHeight="1">
       <c r="B32" s="169"/>
       <c r="C32" s="169" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D32" s="218"/>
       <c r="E32" s="231"/>
@@ -12644,10 +12649,10 @@
       <c r="N32" s="231"/>
       <c r="O32" s="216"/>
       <c r="P32" s="217"/>
-      <c r="R32" s="297"/>
-      <c r="S32" s="298"/>
-      <c r="T32" s="298"/>
-      <c r="U32" s="299"/>
+      <c r="R32" s="305"/>
+      <c r="S32" s="306"/>
+      <c r="T32" s="306"/>
+      <c r="U32" s="307"/>
     </row>
     <row r="33" spans="2:21" ht="20.25" customHeight="1">
       <c r="B33" s="169"/>
@@ -12665,10 +12670,10 @@
       <c r="N33" s="231"/>
       <c r="O33" s="216"/>
       <c r="P33" s="217"/>
-      <c r="R33" s="297"/>
-      <c r="S33" s="298"/>
-      <c r="T33" s="298"/>
-      <c r="U33" s="299"/>
+      <c r="R33" s="305"/>
+      <c r="S33" s="306"/>
+      <c r="T33" s="306"/>
+      <c r="U33" s="307"/>
     </row>
     <row r="34" spans="2:21" ht="20.25" customHeight="1">
       <c r="B34" s="174" t="s">
@@ -12688,10 +12693,10 @@
       <c r="N34" s="231"/>
       <c r="O34" s="216"/>
       <c r="P34" s="217"/>
-      <c r="R34" s="297"/>
-      <c r="S34" s="298"/>
-      <c r="T34" s="298"/>
-      <c r="U34" s="299"/>
+      <c r="R34" s="305"/>
+      <c r="S34" s="306"/>
+      <c r="T34" s="306"/>
+      <c r="U34" s="307"/>
     </row>
     <row r="35" spans="2:21" ht="20.25" customHeight="1">
       <c r="B35" s="172"/>
@@ -12699,7 +12704,7 @@
         <v>502</v>
       </c>
       <c r="D35" s="218" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E35" s="231">
         <v>45978</v>
@@ -12715,10 +12720,10 @@
       <c r="N35" s="231"/>
       <c r="O35" s="216"/>
       <c r="P35" s="217"/>
-      <c r="R35" s="297"/>
-      <c r="S35" s="298"/>
-      <c r="T35" s="298"/>
-      <c r="U35" s="299"/>
+      <c r="R35" s="305"/>
+      <c r="S35" s="306"/>
+      <c r="T35" s="306"/>
+      <c r="U35" s="307"/>
     </row>
     <row r="36" spans="2:21" ht="20.25" customHeight="1">
       <c r="B36" s="172"/>
@@ -12726,7 +12731,7 @@
         <v>312</v>
       </c>
       <c r="D36" s="218" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E36" s="231">
         <v>45978</v>
@@ -12742,10 +12747,10 @@
       <c r="N36" s="231"/>
       <c r="O36" s="216"/>
       <c r="P36" s="217"/>
-      <c r="R36" s="297"/>
-      <c r="S36" s="298"/>
-      <c r="T36" s="298"/>
-      <c r="U36" s="299"/>
+      <c r="R36" s="305"/>
+      <c r="S36" s="306"/>
+      <c r="T36" s="306"/>
+      <c r="U36" s="307"/>
     </row>
     <row r="37" spans="2:21" ht="20.25" customHeight="1">
       <c r="B37" s="169"/>
@@ -12763,10 +12768,10 @@
       <c r="N37" s="231"/>
       <c r="O37" s="216"/>
       <c r="P37" s="217"/>
-      <c r="R37" s="297"/>
-      <c r="S37" s="298"/>
-      <c r="T37" s="298"/>
-      <c r="U37" s="299"/>
+      <c r="R37" s="305"/>
+      <c r="S37" s="306"/>
+      <c r="T37" s="306"/>
+      <c r="U37" s="307"/>
     </row>
     <row r="38" spans="2:21" ht="20.25" customHeight="1">
       <c r="B38" s="174" t="s">
@@ -12786,10 +12791,10 @@
       <c r="N38" s="231"/>
       <c r="O38" s="216"/>
       <c r="P38" s="217"/>
-      <c r="R38" s="297"/>
-      <c r="S38" s="298"/>
-      <c r="T38" s="298"/>
-      <c r="U38" s="299"/>
+      <c r="R38" s="305"/>
+      <c r="S38" s="306"/>
+      <c r="T38" s="306"/>
+      <c r="U38" s="307"/>
     </row>
     <row r="39" spans="2:21" ht="20.25" customHeight="1">
       <c r="B39" s="172"/>
@@ -12811,10 +12816,10 @@
       <c r="N39" s="231"/>
       <c r="O39" s="216"/>
       <c r="P39" s="217"/>
-      <c r="R39" s="297"/>
-      <c r="S39" s="298"/>
-      <c r="T39" s="298"/>
-      <c r="U39" s="299"/>
+      <c r="R39" s="305"/>
+      <c r="S39" s="306"/>
+      <c r="T39" s="306"/>
+      <c r="U39" s="307"/>
     </row>
     <row r="40" spans="2:21" ht="20.25" customHeight="1">
       <c r="B40" s="172"/>
@@ -12836,10 +12841,10 @@
       <c r="N40" s="231"/>
       <c r="O40" s="216"/>
       <c r="P40" s="217"/>
-      <c r="R40" s="297"/>
-      <c r="S40" s="298"/>
-      <c r="T40" s="298"/>
-      <c r="U40" s="299"/>
+      <c r="R40" s="305"/>
+      <c r="S40" s="306"/>
+      <c r="T40" s="306"/>
+      <c r="U40" s="307"/>
     </row>
     <row r="41" spans="2:21" ht="20.25" customHeight="1">
       <c r="B41" s="172"/>
@@ -12861,10 +12866,10 @@
       <c r="N41" s="231"/>
       <c r="O41" s="216"/>
       <c r="P41" s="217"/>
-      <c r="R41" s="297"/>
-      <c r="S41" s="298"/>
-      <c r="T41" s="298"/>
-      <c r="U41" s="299"/>
+      <c r="R41" s="305"/>
+      <c r="S41" s="306"/>
+      <c r="T41" s="306"/>
+      <c r="U41" s="307"/>
     </row>
     <row r="42" spans="2:21" ht="20.25" customHeight="1">
       <c r="B42" s="172"/>
@@ -12886,10 +12891,10 @@
       <c r="N42" s="231"/>
       <c r="O42" s="216"/>
       <c r="P42" s="217"/>
-      <c r="R42" s="297"/>
-      <c r="S42" s="298"/>
-      <c r="T42" s="298"/>
-      <c r="U42" s="299"/>
+      <c r="R42" s="305"/>
+      <c r="S42" s="306"/>
+      <c r="T42" s="306"/>
+      <c r="U42" s="307"/>
     </row>
     <row r="43" spans="2:21" ht="20.25" customHeight="1">
       <c r="B43" s="172"/>
@@ -12911,10 +12916,10 @@
       <c r="N43" s="231"/>
       <c r="O43" s="216"/>
       <c r="P43" s="217"/>
-      <c r="R43" s="297"/>
-      <c r="S43" s="298"/>
-      <c r="T43" s="298"/>
-      <c r="U43" s="299"/>
+      <c r="R43" s="305"/>
+      <c r="S43" s="306"/>
+      <c r="T43" s="306"/>
+      <c r="U43" s="307"/>
     </row>
     <row r="44" spans="2:21" ht="20.25" customHeight="1">
       <c r="B44" s="172"/>
@@ -12936,10 +12941,10 @@
       <c r="N44" s="231"/>
       <c r="O44" s="216"/>
       <c r="P44" s="217"/>
-      <c r="R44" s="297"/>
-      <c r="S44" s="298"/>
-      <c r="T44" s="298"/>
-      <c r="U44" s="299"/>
+      <c r="R44" s="305"/>
+      <c r="S44" s="306"/>
+      <c r="T44" s="306"/>
+      <c r="U44" s="307"/>
     </row>
     <row r="45" spans="2:21" ht="20.25" customHeight="1">
       <c r="B45" s="172"/>
@@ -12961,10 +12966,10 @@
       <c r="N45" s="231"/>
       <c r="O45" s="216"/>
       <c r="P45" s="217"/>
-      <c r="R45" s="297"/>
-      <c r="S45" s="298"/>
-      <c r="T45" s="298"/>
-      <c r="U45" s="299"/>
+      <c r="R45" s="305"/>
+      <c r="S45" s="306"/>
+      <c r="T45" s="306"/>
+      <c r="U45" s="307"/>
     </row>
     <row r="46" spans="2:21" ht="20.25" customHeight="1">
       <c r="B46" s="172"/>
@@ -12986,10 +12991,10 @@
       <c r="N46" s="231"/>
       <c r="O46" s="216"/>
       <c r="P46" s="217"/>
-      <c r="R46" s="297"/>
-      <c r="S46" s="298"/>
-      <c r="T46" s="298"/>
-      <c r="U46" s="299"/>
+      <c r="R46" s="305"/>
+      <c r="S46" s="306"/>
+      <c r="T46" s="306"/>
+      <c r="U46" s="307"/>
     </row>
     <row r="47" spans="2:21" ht="20.25" customHeight="1">
       <c r="B47" s="172"/>
@@ -13011,10 +13016,10 @@
       <c r="N47" s="231"/>
       <c r="O47" s="216"/>
       <c r="P47" s="217"/>
-      <c r="R47" s="297"/>
-      <c r="S47" s="298"/>
-      <c r="T47" s="298"/>
-      <c r="U47" s="299"/>
+      <c r="R47" s="305"/>
+      <c r="S47" s="306"/>
+      <c r="T47" s="306"/>
+      <c r="U47" s="307"/>
     </row>
     <row r="48" spans="2:21" ht="20.25" customHeight="1">
       <c r="B48" s="169"/>
@@ -13032,10 +13037,10 @@
       <c r="N48" s="231"/>
       <c r="O48" s="216"/>
       <c r="P48" s="217"/>
-      <c r="R48" s="297"/>
-      <c r="S48" s="298"/>
-      <c r="T48" s="298"/>
-      <c r="U48" s="299"/>
+      <c r="R48" s="305"/>
+      <c r="S48" s="306"/>
+      <c r="T48" s="306"/>
+      <c r="U48" s="307"/>
     </row>
     <row r="49" spans="2:21" ht="20.25" customHeight="1">
       <c r="B49" s="174" t="s">
@@ -13055,10 +13060,10 @@
       <c r="N49" s="231"/>
       <c r="O49" s="216"/>
       <c r="P49" s="217"/>
-      <c r="R49" s="297"/>
-      <c r="S49" s="298"/>
-      <c r="T49" s="298"/>
-      <c r="U49" s="299"/>
+      <c r="R49" s="305"/>
+      <c r="S49" s="306"/>
+      <c r="T49" s="306"/>
+      <c r="U49" s="307"/>
     </row>
     <row r="50" spans="2:21" ht="20.25" customHeight="1">
       <c r="B50" s="172"/>
@@ -13080,10 +13085,10 @@
       <c r="N50" s="231"/>
       <c r="O50" s="216"/>
       <c r="P50" s="217"/>
-      <c r="R50" s="297"/>
-      <c r="S50" s="298"/>
-      <c r="T50" s="298"/>
-      <c r="U50" s="299"/>
+      <c r="R50" s="305"/>
+      <c r="S50" s="306"/>
+      <c r="T50" s="306"/>
+      <c r="U50" s="307"/>
     </row>
     <row r="51" spans="2:21" ht="20.25" customHeight="1">
       <c r="B51" s="172"/>
@@ -13105,10 +13110,10 @@
       <c r="N51" s="231"/>
       <c r="O51" s="216"/>
       <c r="P51" s="217"/>
-      <c r="R51" s="297"/>
-      <c r="S51" s="298"/>
-      <c r="T51" s="298"/>
-      <c r="U51" s="299"/>
+      <c r="R51" s="305"/>
+      <c r="S51" s="306"/>
+      <c r="T51" s="306"/>
+      <c r="U51" s="307"/>
     </row>
     <row r="52" spans="2:21" ht="20.25" customHeight="1">
       <c r="B52" s="172"/>
@@ -13130,10 +13135,10 @@
       <c r="N52" s="231"/>
       <c r="O52" s="216"/>
       <c r="P52" s="217"/>
-      <c r="R52" s="297"/>
-      <c r="S52" s="298"/>
-      <c r="T52" s="298"/>
-      <c r="U52" s="299"/>
+      <c r="R52" s="305"/>
+      <c r="S52" s="306"/>
+      <c r="T52" s="306"/>
+      <c r="U52" s="307"/>
     </row>
     <row r="53" spans="2:21" ht="20.25" customHeight="1">
       <c r="B53" s="172"/>
@@ -13155,10 +13160,10 @@
       <c r="N53" s="231"/>
       <c r="O53" s="216"/>
       <c r="P53" s="217"/>
-      <c r="R53" s="297"/>
-      <c r="S53" s="298"/>
-      <c r="T53" s="298"/>
-      <c r="U53" s="299"/>
+      <c r="R53" s="305"/>
+      <c r="S53" s="306"/>
+      <c r="T53" s="306"/>
+      <c r="U53" s="307"/>
     </row>
     <row r="54" spans="2:21" ht="20.25" customHeight="1">
       <c r="B54" s="172"/>
@@ -13176,10 +13181,10 @@
       <c r="N54" s="231"/>
       <c r="O54" s="216"/>
       <c r="P54" s="217"/>
-      <c r="R54" s="297"/>
-      <c r="S54" s="298"/>
-      <c r="T54" s="298"/>
-      <c r="U54" s="299"/>
+      <c r="R54" s="305"/>
+      <c r="S54" s="306"/>
+      <c r="T54" s="306"/>
+      <c r="U54" s="307"/>
     </row>
     <row r="55" spans="2:21" ht="20.25" customHeight="1">
       <c r="B55" s="174" t="s">
@@ -13199,10 +13204,10 @@
       <c r="N55" s="231"/>
       <c r="O55" s="216"/>
       <c r="P55" s="217"/>
-      <c r="R55" s="297"/>
-      <c r="S55" s="298"/>
-      <c r="T55" s="298"/>
-      <c r="U55" s="299"/>
+      <c r="R55" s="305"/>
+      <c r="S55" s="306"/>
+      <c r="T55" s="306"/>
+      <c r="U55" s="307"/>
     </row>
     <row r="56" spans="2:21" ht="20.25" customHeight="1">
       <c r="B56" s="172"/>
@@ -13224,10 +13229,10 @@
       <c r="N56" s="231"/>
       <c r="O56" s="216"/>
       <c r="P56" s="217"/>
-      <c r="R56" s="297"/>
-      <c r="S56" s="298"/>
-      <c r="T56" s="298"/>
-      <c r="U56" s="299"/>
+      <c r="R56" s="305"/>
+      <c r="S56" s="306"/>
+      <c r="T56" s="306"/>
+      <c r="U56" s="307"/>
     </row>
     <row r="57" spans="2:21" ht="20.25" customHeight="1">
       <c r="B57" s="172"/>
@@ -13249,10 +13254,10 @@
       <c r="N57" s="231"/>
       <c r="O57" s="216"/>
       <c r="P57" s="217"/>
-      <c r="R57" s="297"/>
-      <c r="S57" s="298"/>
-      <c r="T57" s="298"/>
-      <c r="U57" s="299"/>
+      <c r="R57" s="305"/>
+      <c r="S57" s="306"/>
+      <c r="T57" s="306"/>
+      <c r="U57" s="307"/>
     </row>
     <row r="58" spans="2:21" ht="20.25" customHeight="1">
       <c r="B58" s="172"/>
@@ -13274,10 +13279,10 @@
       <c r="N58" s="231"/>
       <c r="O58" s="216"/>
       <c r="P58" s="217"/>
-      <c r="R58" s="297"/>
-      <c r="S58" s="298"/>
-      <c r="T58" s="298"/>
-      <c r="U58" s="299"/>
+      <c r="R58" s="305"/>
+      <c r="S58" s="306"/>
+      <c r="T58" s="306"/>
+      <c r="U58" s="307"/>
     </row>
     <row r="59" spans="2:21" ht="20.25" customHeight="1">
       <c r="B59" s="172"/>
@@ -13299,10 +13304,10 @@
       <c r="N59" s="231"/>
       <c r="O59" s="216"/>
       <c r="P59" s="217"/>
-      <c r="R59" s="297"/>
-      <c r="S59" s="298"/>
-      <c r="T59" s="298"/>
-      <c r="U59" s="299"/>
+      <c r="R59" s="305"/>
+      <c r="S59" s="306"/>
+      <c r="T59" s="306"/>
+      <c r="U59" s="307"/>
     </row>
     <row r="60" spans="2:21" ht="20.25" customHeight="1">
       <c r="B60" s="172"/>
@@ -13324,10 +13329,10 @@
       <c r="N60" s="231"/>
       <c r="O60" s="216"/>
       <c r="P60" s="217"/>
-      <c r="R60" s="297"/>
-      <c r="S60" s="298"/>
-      <c r="T60" s="298"/>
-      <c r="U60" s="299"/>
+      <c r="R60" s="305"/>
+      <c r="S60" s="306"/>
+      <c r="T60" s="306"/>
+      <c r="U60" s="307"/>
     </row>
     <row r="61" spans="2:21" ht="20.25" customHeight="1">
       <c r="B61" s="218"/>
@@ -13345,10 +13350,10 @@
       <c r="N61" s="231"/>
       <c r="O61" s="216"/>
       <c r="P61" s="217"/>
-      <c r="R61" s="297"/>
-      <c r="S61" s="298"/>
-      <c r="T61" s="298"/>
-      <c r="U61" s="299"/>
+      <c r="R61" s="305"/>
+      <c r="S61" s="306"/>
+      <c r="T61" s="306"/>
+      <c r="U61" s="307"/>
     </row>
     <row r="62" spans="2:21" ht="20.25" customHeight="1">
       <c r="B62" s="174" t="s">
@@ -13368,10 +13373,10 @@
       <c r="N62" s="231"/>
       <c r="O62" s="216"/>
       <c r="P62" s="217"/>
-      <c r="R62" s="297"/>
-      <c r="S62" s="298"/>
-      <c r="T62" s="298"/>
-      <c r="U62" s="299"/>
+      <c r="R62" s="305"/>
+      <c r="S62" s="306"/>
+      <c r="T62" s="306"/>
+      <c r="U62" s="307"/>
     </row>
     <row r="63" spans="2:21" ht="20.25" customHeight="1">
       <c r="B63" s="172"/>
@@ -13393,10 +13398,10 @@
       <c r="N63" s="231"/>
       <c r="O63" s="216"/>
       <c r="P63" s="217"/>
-      <c r="R63" s="297"/>
-      <c r="S63" s="298"/>
-      <c r="T63" s="298"/>
-      <c r="U63" s="299"/>
+      <c r="R63" s="305"/>
+      <c r="S63" s="306"/>
+      <c r="T63" s="306"/>
+      <c r="U63" s="307"/>
     </row>
     <row r="64" spans="2:21" ht="20.25" customHeight="1">
       <c r="B64" s="172"/>
@@ -13418,10 +13423,10 @@
       <c r="N64" s="231"/>
       <c r="O64" s="216"/>
       <c r="P64" s="217"/>
-      <c r="R64" s="297"/>
-      <c r="S64" s="298"/>
-      <c r="T64" s="298"/>
-      <c r="U64" s="299"/>
+      <c r="R64" s="305"/>
+      <c r="S64" s="306"/>
+      <c r="T64" s="306"/>
+      <c r="U64" s="307"/>
     </row>
     <row r="65" spans="2:21" ht="20.25" customHeight="1">
       <c r="B65" s="169"/>
@@ -13439,10 +13444,10 @@
       <c r="N65" s="231"/>
       <c r="O65" s="216"/>
       <c r="P65" s="217"/>
-      <c r="R65" s="297"/>
-      <c r="S65" s="298"/>
-      <c r="T65" s="298"/>
-      <c r="U65" s="299"/>
+      <c r="R65" s="305"/>
+      <c r="S65" s="306"/>
+      <c r="T65" s="306"/>
+      <c r="U65" s="307"/>
     </row>
     <row r="66" spans="2:21" ht="20.25" customHeight="1">
       <c r="B66" s="174" t="s">
@@ -13464,10 +13469,10 @@
       </c>
       <c r="O66" s="216"/>
       <c r="P66" s="217"/>
-      <c r="R66" s="297"/>
-      <c r="S66" s="298"/>
-      <c r="T66" s="298"/>
-      <c r="U66" s="299"/>
+      <c r="R66" s="305"/>
+      <c r="S66" s="306"/>
+      <c r="T66" s="306"/>
+      <c r="U66" s="307"/>
     </row>
     <row r="67" spans="2:21" ht="20.25" customHeight="1">
       <c r="B67" s="172"/>
@@ -13489,10 +13494,10 @@
       </c>
       <c r="O67" s="216"/>
       <c r="P67" s="217"/>
-      <c r="R67" s="297"/>
-      <c r="S67" s="298"/>
-      <c r="T67" s="298"/>
-      <c r="U67" s="299"/>
+      <c r="R67" s="305"/>
+      <c r="S67" s="306"/>
+      <c r="T67" s="306"/>
+      <c r="U67" s="307"/>
     </row>
     <row r="68" spans="2:21" ht="20.25" customHeight="1">
       <c r="B68" s="169"/>
@@ -13514,10 +13519,10 @@
       </c>
       <c r="O68" s="216"/>
       <c r="P68" s="217"/>
-      <c r="R68" s="297"/>
-      <c r="S68" s="298"/>
-      <c r="T68" s="298"/>
-      <c r="U68" s="299"/>
+      <c r="R68" s="305"/>
+      <c r="S68" s="306"/>
+      <c r="T68" s="306"/>
+      <c r="U68" s="307"/>
     </row>
     <row r="69" spans="2:21" ht="20.25" customHeight="1">
       <c r="B69" s="169"/>
@@ -13539,10 +13544,10 @@
       </c>
       <c r="O69" s="216"/>
       <c r="P69" s="217"/>
-      <c r="R69" s="297"/>
-      <c r="S69" s="298"/>
-      <c r="T69" s="298"/>
-      <c r="U69" s="299"/>
+      <c r="R69" s="305"/>
+      <c r="S69" s="306"/>
+      <c r="T69" s="306"/>
+      <c r="U69" s="307"/>
     </row>
     <row r="70" spans="2:21" ht="20.25" customHeight="1">
       <c r="B70" s="169"/>
@@ -13564,10 +13569,10 @@
       </c>
       <c r="O70" s="216"/>
       <c r="P70" s="217"/>
-      <c r="R70" s="297"/>
-      <c r="S70" s="298"/>
-      <c r="T70" s="298"/>
-      <c r="U70" s="299"/>
+      <c r="R70" s="305"/>
+      <c r="S70" s="306"/>
+      <c r="T70" s="306"/>
+      <c r="U70" s="307"/>
     </row>
     <row r="71" spans="2:21" ht="20.25" customHeight="1">
       <c r="B71" s="169"/>
@@ -13589,10 +13594,10 @@
       </c>
       <c r="O71" s="216"/>
       <c r="P71" s="217"/>
-      <c r="R71" s="297"/>
-      <c r="S71" s="298"/>
-      <c r="T71" s="298"/>
-      <c r="U71" s="299"/>
+      <c r="R71" s="305"/>
+      <c r="S71" s="306"/>
+      <c r="T71" s="306"/>
+      <c r="U71" s="307"/>
     </row>
     <row r="72" spans="2:21" ht="20.25" customHeight="1">
       <c r="B72" s="169"/>
@@ -13614,10 +13619,10 @@
       </c>
       <c r="O72" s="216"/>
       <c r="P72" s="217"/>
-      <c r="R72" s="297"/>
-      <c r="S72" s="298"/>
-      <c r="T72" s="298"/>
-      <c r="U72" s="299"/>
+      <c r="R72" s="305"/>
+      <c r="S72" s="306"/>
+      <c r="T72" s="306"/>
+      <c r="U72" s="307"/>
     </row>
     <row r="73" spans="2:21" ht="20.25" customHeight="1">
       <c r="B73" s="169"/>
@@ -13639,10 +13644,10 @@
       </c>
       <c r="O73" s="216"/>
       <c r="P73" s="217"/>
-      <c r="R73" s="297"/>
-      <c r="S73" s="298"/>
-      <c r="T73" s="298"/>
-      <c r="U73" s="299"/>
+      <c r="R73" s="305"/>
+      <c r="S73" s="306"/>
+      <c r="T73" s="306"/>
+      <c r="U73" s="307"/>
     </row>
     <row r="74" spans="2:21" ht="20.25" customHeight="1">
       <c r="B74" s="169"/>
@@ -13664,10 +13669,10 @@
       </c>
       <c r="O74" s="216"/>
       <c r="P74" s="217"/>
-      <c r="R74" s="297"/>
-      <c r="S74" s="298"/>
-      <c r="T74" s="298"/>
-      <c r="U74" s="299"/>
+      <c r="R74" s="305"/>
+      <c r="S74" s="306"/>
+      <c r="T74" s="306"/>
+      <c r="U74" s="307"/>
     </row>
     <row r="75" spans="2:21" ht="20.25" customHeight="1">
       <c r="B75" s="169"/>
@@ -13689,10 +13694,10 @@
       </c>
       <c r="O75" s="216"/>
       <c r="P75" s="217"/>
-      <c r="R75" s="297"/>
-      <c r="S75" s="298"/>
-      <c r="T75" s="298"/>
-      <c r="U75" s="299"/>
+      <c r="R75" s="305"/>
+      <c r="S75" s="306"/>
+      <c r="T75" s="306"/>
+      <c r="U75" s="307"/>
     </row>
     <row r="76" spans="2:21" ht="20.25" customHeight="1">
       <c r="B76" s="169"/>
@@ -13710,10 +13715,10 @@
       <c r="N76" s="231"/>
       <c r="O76" s="216"/>
       <c r="P76" s="217"/>
-      <c r="R76" s="297"/>
-      <c r="S76" s="298"/>
-      <c r="T76" s="298"/>
-      <c r="U76" s="299"/>
+      <c r="R76" s="305"/>
+      <c r="S76" s="306"/>
+      <c r="T76" s="306"/>
+      <c r="U76" s="307"/>
     </row>
     <row r="77" spans="2:21" ht="20.25" customHeight="1">
       <c r="B77" s="174" t="s">
@@ -13735,10 +13740,10 @@
       </c>
       <c r="O77" s="216"/>
       <c r="P77" s="217"/>
-      <c r="R77" s="297"/>
-      <c r="S77" s="298"/>
-      <c r="T77" s="298"/>
-      <c r="U77" s="299"/>
+      <c r="R77" s="305"/>
+      <c r="S77" s="306"/>
+      <c r="T77" s="306"/>
+      <c r="U77" s="307"/>
     </row>
     <row r="78" spans="2:21" ht="20.25" customHeight="1">
       <c r="B78" s="172"/>
@@ -13760,10 +13765,10 @@
       </c>
       <c r="O78" s="216"/>
       <c r="P78" s="217"/>
-      <c r="R78" s="297"/>
-      <c r="S78" s="298"/>
-      <c r="T78" s="298"/>
-      <c r="U78" s="299"/>
+      <c r="R78" s="305"/>
+      <c r="S78" s="306"/>
+      <c r="T78" s="306"/>
+      <c r="U78" s="307"/>
     </row>
     <row r="79" spans="2:21" ht="20.25" customHeight="1">
       <c r="B79" s="172"/>
@@ -13785,10 +13790,10 @@
       </c>
       <c r="O79" s="216"/>
       <c r="P79" s="217"/>
-      <c r="R79" s="297"/>
-      <c r="S79" s="298"/>
-      <c r="T79" s="298"/>
-      <c r="U79" s="299"/>
+      <c r="R79" s="305"/>
+      <c r="S79" s="306"/>
+      <c r="T79" s="306"/>
+      <c r="U79" s="307"/>
     </row>
     <row r="80" spans="2:21" ht="20.25" customHeight="1">
       <c r="B80" s="169"/>
@@ -13806,10 +13811,10 @@
       <c r="N80" s="231"/>
       <c r="O80" s="216"/>
       <c r="P80" s="217"/>
-      <c r="R80" s="297"/>
-      <c r="S80" s="298"/>
-      <c r="T80" s="298"/>
-      <c r="U80" s="299"/>
+      <c r="R80" s="305"/>
+      <c r="S80" s="306"/>
+      <c r="T80" s="306"/>
+      <c r="U80" s="307"/>
     </row>
     <row r="81" spans="2:21" ht="20.25" customHeight="1">
       <c r="B81" s="174" t="s">
@@ -13831,10 +13836,10 @@
       </c>
       <c r="O81" s="216"/>
       <c r="P81" s="217"/>
-      <c r="R81" s="297"/>
-      <c r="S81" s="298"/>
-      <c r="T81" s="298"/>
-      <c r="U81" s="299"/>
+      <c r="R81" s="305"/>
+      <c r="S81" s="306"/>
+      <c r="T81" s="306"/>
+      <c r="U81" s="307"/>
     </row>
     <row r="82" spans="2:21" ht="20.25" customHeight="1">
       <c r="B82" s="172"/>
@@ -13856,10 +13861,10 @@
       </c>
       <c r="O82" s="216"/>
       <c r="P82" s="217"/>
-      <c r="R82" s="297"/>
-      <c r="S82" s="298"/>
-      <c r="T82" s="298"/>
-      <c r="U82" s="299"/>
+      <c r="R82" s="305"/>
+      <c r="S82" s="306"/>
+      <c r="T82" s="306"/>
+      <c r="U82" s="307"/>
     </row>
     <row r="83" spans="2:21" ht="20.25" customHeight="1">
       <c r="B83" s="172"/>
@@ -13881,10 +13886,10 @@
       </c>
       <c r="O83" s="216"/>
       <c r="P83" s="217"/>
-      <c r="R83" s="297"/>
-      <c r="S83" s="298"/>
-      <c r="T83" s="298"/>
-      <c r="U83" s="299"/>
+      <c r="R83" s="305"/>
+      <c r="S83" s="306"/>
+      <c r="T83" s="306"/>
+      <c r="U83" s="307"/>
     </row>
     <row r="84" spans="2:21" ht="20.25" customHeight="1">
       <c r="B84" s="172"/>
@@ -13906,10 +13911,10 @@
       </c>
       <c r="O84" s="216"/>
       <c r="P84" s="217"/>
-      <c r="R84" s="297"/>
-      <c r="S84" s="298"/>
-      <c r="T84" s="298"/>
-      <c r="U84" s="299"/>
+      <c r="R84" s="305"/>
+      <c r="S84" s="306"/>
+      <c r="T84" s="306"/>
+      <c r="U84" s="307"/>
     </row>
     <row r="85" spans="2:21" ht="20.25" customHeight="1">
       <c r="B85" s="172"/>
@@ -13931,10 +13936,10 @@
       </c>
       <c r="O85" s="216"/>
       <c r="P85" s="217"/>
-      <c r="R85" s="297"/>
-      <c r="S85" s="298"/>
-      <c r="T85" s="298"/>
-      <c r="U85" s="299"/>
+      <c r="R85" s="305"/>
+      <c r="S85" s="306"/>
+      <c r="T85" s="306"/>
+      <c r="U85" s="307"/>
     </row>
     <row r="86" spans="2:21" ht="20.25" customHeight="1">
       <c r="B86" s="172"/>
@@ -13956,10 +13961,10 @@
       </c>
       <c r="O86" s="216"/>
       <c r="P86" s="217"/>
-      <c r="R86" s="297"/>
-      <c r="S86" s="298"/>
-      <c r="T86" s="298"/>
-      <c r="U86" s="299"/>
+      <c r="R86" s="305"/>
+      <c r="S86" s="306"/>
+      <c r="T86" s="306"/>
+      <c r="U86" s="307"/>
     </row>
     <row r="87" spans="2:21" ht="20.25" customHeight="1">
       <c r="B87" s="169"/>
@@ -13977,10 +13982,10 @@
       <c r="N87" s="231"/>
       <c r="O87" s="216"/>
       <c r="P87" s="217"/>
-      <c r="R87" s="297"/>
-      <c r="S87" s="298"/>
-      <c r="T87" s="298"/>
-      <c r="U87" s="299"/>
+      <c r="R87" s="305"/>
+      <c r="S87" s="306"/>
+      <c r="T87" s="306"/>
+      <c r="U87" s="307"/>
     </row>
     <row r="88" spans="2:21" ht="20.25" customHeight="1">
       <c r="B88" s="174" t="s">
@@ -14002,10 +14007,10 @@
       </c>
       <c r="O88" s="216"/>
       <c r="P88" s="217"/>
-      <c r="R88" s="297"/>
-      <c r="S88" s="298"/>
-      <c r="T88" s="298"/>
-      <c r="U88" s="299"/>
+      <c r="R88" s="305"/>
+      <c r="S88" s="306"/>
+      <c r="T88" s="306"/>
+      <c r="U88" s="307"/>
     </row>
     <row r="89" spans="2:21" ht="20.25" customHeight="1">
       <c r="B89" s="172"/>
@@ -14027,10 +14032,10 @@
       </c>
       <c r="O89" s="216"/>
       <c r="P89" s="217"/>
-      <c r="R89" s="297"/>
-      <c r="S89" s="298"/>
-      <c r="T89" s="298"/>
-      <c r="U89" s="299"/>
+      <c r="R89" s="305"/>
+      <c r="S89" s="306"/>
+      <c r="T89" s="306"/>
+      <c r="U89" s="307"/>
     </row>
     <row r="90" spans="2:21" ht="20.25" customHeight="1">
       <c r="B90" s="172"/>
@@ -14052,10 +14057,10 @@
       </c>
       <c r="O90" s="216"/>
       <c r="P90" s="217"/>
-      <c r="R90" s="297"/>
-      <c r="S90" s="298"/>
-      <c r="T90" s="298"/>
-      <c r="U90" s="299"/>
+      <c r="R90" s="305"/>
+      <c r="S90" s="306"/>
+      <c r="T90" s="306"/>
+      <c r="U90" s="307"/>
     </row>
     <row r="91" spans="2:21" ht="20.25" customHeight="1">
       <c r="B91" s="172"/>
@@ -14077,10 +14082,10 @@
       </c>
       <c r="O91" s="216"/>
       <c r="P91" s="217"/>
-      <c r="R91" s="297"/>
-      <c r="S91" s="298"/>
-      <c r="T91" s="298"/>
-      <c r="U91" s="299"/>
+      <c r="R91" s="305"/>
+      <c r="S91" s="306"/>
+      <c r="T91" s="306"/>
+      <c r="U91" s="307"/>
     </row>
     <row r="92" spans="2:21" ht="20.25" customHeight="1">
       <c r="B92" s="169"/>
@@ -14102,10 +14107,10 @@
       </c>
       <c r="O92" s="216"/>
       <c r="P92" s="217"/>
-      <c r="R92" s="297"/>
-      <c r="S92" s="298"/>
-      <c r="T92" s="298"/>
-      <c r="U92" s="299"/>
+      <c r="R92" s="305"/>
+      <c r="S92" s="306"/>
+      <c r="T92" s="306"/>
+      <c r="U92" s="307"/>
     </row>
     <row r="93" spans="2:21" ht="20.25" customHeight="1">
       <c r="B93" s="218"/>
@@ -14123,10 +14128,10 @@
       <c r="N93" s="231"/>
       <c r="O93" s="216"/>
       <c r="P93" s="217"/>
-      <c r="R93" s="297"/>
-      <c r="S93" s="298"/>
-      <c r="T93" s="298"/>
-      <c r="U93" s="299"/>
+      <c r="R93" s="305"/>
+      <c r="S93" s="306"/>
+      <c r="T93" s="306"/>
+      <c r="U93" s="307"/>
     </row>
     <row r="94" spans="2:21" ht="20.25" customHeight="1" thickBot="1">
       <c r="B94" s="225"/>
@@ -14144,10 +14149,10 @@
       <c r="N94" s="230"/>
       <c r="O94" s="226"/>
       <c r="P94" s="228"/>
-      <c r="R94" s="300"/>
-      <c r="S94" s="301"/>
-      <c r="T94" s="301"/>
-      <c r="U94" s="302"/>
+      <c r="R94" s="308"/>
+      <c r="S94" s="309"/>
+      <c r="T94" s="309"/>
+      <c r="U94" s="310"/>
     </row>
     <row r="95" spans="2:21" ht="15.75" customHeight="1">
       <c r="B95" s="186"/>
@@ -14181,10 +14186,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:U61"/>
+  <dimension ref="A2:U50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
@@ -14201,8 +14206,8 @@
     <col min="11" max="12" width="9.42578125" customWidth="1"/>
     <col min="13" max="13" width="20.5703125" customWidth="1"/>
     <col min="14" max="15" width="9.42578125" customWidth="1"/>
-    <col min="16" max="16" width="17.140625" customWidth="1"/>
-    <col min="17" max="17" width="3.85546875" customWidth="1"/>
+    <col min="16" max="16" width="49.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.85546875" customWidth="1"/>
     <col min="18" max="26" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -14230,15 +14235,15 @@
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
-      <c r="H3" s="293"/>
-      <c r="I3" s="236"/>
-      <c r="J3" s="236"/>
-      <c r="K3" s="236"/>
-      <c r="L3" s="236"/>
-      <c r="M3" s="236"/>
-      <c r="N3" s="236"/>
-      <c r="O3" s="236"/>
-      <c r="P3" s="236"/>
+      <c r="H3" s="301"/>
+      <c r="I3" s="244"/>
+      <c r="J3" s="244"/>
+      <c r="K3" s="244"/>
+      <c r="L3" s="244"/>
+      <c r="M3" s="244"/>
+      <c r="N3" s="244"/>
+      <c r="O3" s="244"/>
+      <c r="P3" s="244"/>
     </row>
     <row r="4" spans="2:21" ht="21.75" customHeight="1" thickBot="1">
       <c r="B4" s="26"/>
@@ -14291,16 +14296,16 @@
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
       <c r="N6" s="26"/>
-      <c r="R6" s="294" t="s">
-        <v>601</v>
-      </c>
-      <c r="S6" s="295"/>
-      <c r="T6" s="295"/>
-      <c r="U6" s="296"/>
+      <c r="R6" s="312" t="s">
+        <v>626</v>
+      </c>
+      <c r="S6" s="303"/>
+      <c r="T6" s="303"/>
+      <c r="U6" s="304"/>
     </row>
     <row r="7" spans="2:21" ht="21.75" customHeight="1" thickBot="1">
       <c r="B7" s="183" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C7" s="184"/>
       <c r="D7" s="185"/>
@@ -14314,10 +14319,10 @@
       <c r="L7" s="184"/>
       <c r="M7" s="184"/>
       <c r="N7" s="184"/>
-      <c r="R7" s="297"/>
-      <c r="S7" s="298"/>
-      <c r="T7" s="298"/>
-      <c r="U7" s="299"/>
+      <c r="R7" s="305"/>
+      <c r="S7" s="306"/>
+      <c r="T7" s="306"/>
+      <c r="U7" s="307"/>
     </row>
     <row r="8" spans="2:21" ht="15">
       <c r="B8" s="187" t="s">
@@ -14339,10 +14344,10 @@
       <c r="L8" s="184"/>
       <c r="M8" s="184"/>
       <c r="N8" s="190"/>
-      <c r="R8" s="297"/>
-      <c r="S8" s="298"/>
-      <c r="T8" s="298"/>
-      <c r="U8" s="299"/>
+      <c r="R8" s="305"/>
+      <c r="S8" s="306"/>
+      <c r="T8" s="306"/>
+      <c r="U8" s="307"/>
     </row>
     <row r="9" spans="2:21" thickBot="1">
       <c r="B9" s="191" t="s">
@@ -14364,10 +14369,10 @@
       <c r="L9" s="194"/>
       <c r="M9" s="194"/>
       <c r="N9" s="194"/>
-      <c r="R9" s="297"/>
-      <c r="S9" s="298"/>
-      <c r="T9" s="298"/>
-      <c r="U9" s="299"/>
+      <c r="R9" s="305"/>
+      <c r="S9" s="306"/>
+      <c r="T9" s="306"/>
+      <c r="U9" s="307"/>
     </row>
     <row r="10" spans="2:21" thickBot="1">
       <c r="B10" s="191" t="s">
@@ -14380,29 +14385,29 @@
         <v>97</v>
       </c>
       <c r="E10" s="196" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F10" s="197"/>
       <c r="G10" s="197"/>
       <c r="H10" s="198" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I10" s="199"/>
       <c r="J10" s="199"/>
       <c r="K10" s="198" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="L10" s="199"/>
       <c r="M10" s="199"/>
       <c r="N10" s="196" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="O10" s="200"/>
       <c r="P10" s="201"/>
-      <c r="R10" s="297"/>
-      <c r="S10" s="298"/>
-      <c r="T10" s="298"/>
-      <c r="U10" s="299"/>
+      <c r="R10" s="305"/>
+      <c r="S10" s="306"/>
+      <c r="T10" s="306"/>
+      <c r="U10" s="307"/>
     </row>
     <row r="11" spans="2:21" ht="15" customHeight="1" thickBot="1">
       <c r="B11" s="202"/>
@@ -14444,10 +14449,10 @@
       <c r="P11" s="211" t="s">
         <v>100</v>
       </c>
-      <c r="R11" s="297"/>
-      <c r="S11" s="298"/>
-      <c r="T11" s="298"/>
-      <c r="U11" s="299"/>
+      <c r="R11" s="305"/>
+      <c r="S11" s="306"/>
+      <c r="T11" s="306"/>
+      <c r="U11" s="307"/>
     </row>
     <row r="12" spans="2:21" ht="20.25" customHeight="1">
       <c r="B12" s="171"/>
@@ -14465,14 +14470,14 @@
       <c r="N12" s="231"/>
       <c r="O12" s="216"/>
       <c r="P12" s="217"/>
-      <c r="R12" s="297"/>
-      <c r="S12" s="298"/>
-      <c r="T12" s="298"/>
-      <c r="U12" s="299"/>
+      <c r="R12" s="305"/>
+      <c r="S12" s="306"/>
+      <c r="T12" s="306"/>
+      <c r="U12" s="307"/>
     </row>
     <row r="13" spans="2:21" ht="20.25" customHeight="1">
       <c r="B13" s="174" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C13" s="174"/>
       <c r="D13" s="218"/>
@@ -14488,10 +14493,10 @@
       <c r="N13" s="231"/>
       <c r="O13" s="216"/>
       <c r="P13" s="217"/>
-      <c r="R13" s="297"/>
-      <c r="S13" s="298"/>
-      <c r="T13" s="298"/>
-      <c r="U13" s="299"/>
+      <c r="R13" s="305"/>
+      <c r="S13" s="306"/>
+      <c r="T13" s="306"/>
+      <c r="U13" s="307"/>
     </row>
     <row r="14" spans="2:21" ht="20.25" customHeight="1">
       <c r="B14" s="172"/>
@@ -14499,7 +14504,7 @@
         <v>484</v>
       </c>
       <c r="D14" s="218" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E14" s="231">
         <v>45978</v>
@@ -14515,10 +14520,10 @@
       <c r="N14" s="231"/>
       <c r="O14" s="216"/>
       <c r="P14" s="217"/>
-      <c r="R14" s="297"/>
-      <c r="S14" s="298"/>
-      <c r="T14" s="298"/>
-      <c r="U14" s="299"/>
+      <c r="R14" s="305"/>
+      <c r="S14" s="306"/>
+      <c r="T14" s="306"/>
+      <c r="U14" s="307"/>
     </row>
     <row r="15" spans="2:21" ht="20.25" customHeight="1">
       <c r="B15" s="172"/>
@@ -14526,7 +14531,7 @@
         <v>487</v>
       </c>
       <c r="D15" s="218" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E15" s="231">
         <v>45978</v>
@@ -14542,21 +14547,21 @@
       <c r="N15" s="231"/>
       <c r="O15" s="216"/>
       <c r="P15" s="217"/>
-      <c r="R15" s="297"/>
-      <c r="S15" s="298"/>
-      <c r="T15" s="298"/>
-      <c r="U15" s="299"/>
+      <c r="R15" s="305"/>
+      <c r="S15" s="306"/>
+      <c r="T15" s="306"/>
+      <c r="U15" s="307"/>
     </row>
     <row r="16" spans="2:21" ht="20.25" customHeight="1">
       <c r="B16" s="172"/>
       <c r="C16" s="172" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="D16" s="218" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E16" s="231"/>
-      <c r="F16" s="303"/>
+      <c r="F16" s="236"/>
       <c r="G16" s="217"/>
       <c r="H16" s="231"/>
       <c r="I16" s="216"/>
@@ -14569,18 +14574,18 @@
       <c r="N16" s="231"/>
       <c r="O16" s="216"/>
       <c r="P16" s="217"/>
-      <c r="R16" s="297"/>
-      <c r="S16" s="298"/>
-      <c r="T16" s="298"/>
-      <c r="U16" s="299"/>
-    </row>
-    <row r="17" spans="2:21" ht="20.25" customHeight="1">
+      <c r="R16" s="305"/>
+      <c r="S16" s="306"/>
+      <c r="T16" s="306"/>
+      <c r="U16" s="307"/>
+    </row>
+    <row r="17" spans="1:21" ht="20.25" customHeight="1">
       <c r="B17" s="172"/>
       <c r="C17" s="172" t="s">
         <v>486</v>
       </c>
       <c r="D17" s="218" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E17" s="231"/>
       <c r="F17" s="232"/>
@@ -14596,12 +14601,12 @@
       <c r="N17" s="231"/>
       <c r="O17" s="216"/>
       <c r="P17" s="217"/>
-      <c r="R17" s="297"/>
-      <c r="S17" s="298"/>
-      <c r="T17" s="298"/>
-      <c r="U17" s="299"/>
-    </row>
-    <row r="18" spans="2:21" ht="20.25" customHeight="1">
+      <c r="R17" s="305"/>
+      <c r="S17" s="306"/>
+      <c r="T17" s="306"/>
+      <c r="U17" s="307"/>
+    </row>
+    <row r="18" spans="1:21" ht="20.25" customHeight="1">
       <c r="B18" s="172"/>
       <c r="C18" s="172"/>
       <c r="D18" s="218"/>
@@ -14617,14 +14622,14 @@
       <c r="N18" s="231"/>
       <c r="O18" s="216"/>
       <c r="P18" s="217"/>
-      <c r="R18" s="297"/>
-      <c r="S18" s="298"/>
-      <c r="T18" s="298"/>
-      <c r="U18" s="299"/>
-    </row>
-    <row r="19" spans="2:21" ht="20.25" customHeight="1">
+      <c r="R18" s="305"/>
+      <c r="S18" s="306"/>
+      <c r="T18" s="306"/>
+      <c r="U18" s="307"/>
+    </row>
+    <row r="19" spans="1:21" ht="20.25" customHeight="1">
       <c r="B19" s="174" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C19" s="172"/>
       <c r="D19" s="218"/>
@@ -14640,18 +14645,18 @@
       <c r="N19" s="231"/>
       <c r="O19" s="216"/>
       <c r="P19" s="217"/>
-      <c r="R19" s="297"/>
-      <c r="S19" s="298"/>
-      <c r="T19" s="298"/>
-      <c r="U19" s="299"/>
-    </row>
-    <row r="20" spans="2:21" ht="20.25" customHeight="1">
+      <c r="R19" s="305"/>
+      <c r="S19" s="306"/>
+      <c r="T19" s="306"/>
+      <c r="U19" s="307"/>
+    </row>
+    <row r="20" spans="1:21" ht="20.25" customHeight="1">
       <c r="B20" s="174"/>
       <c r="C20" s="172" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D20" s="218" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E20" s="231"/>
       <c r="F20" s="232"/>
@@ -14667,18 +14672,18 @@
       <c r="N20" s="231"/>
       <c r="O20" s="216"/>
       <c r="P20" s="217"/>
-      <c r="R20" s="297"/>
-      <c r="S20" s="298"/>
-      <c r="T20" s="298"/>
-      <c r="U20" s="299"/>
-    </row>
-    <row r="21" spans="2:21" ht="20.25" customHeight="1">
+      <c r="R20" s="305"/>
+      <c r="S20" s="306"/>
+      <c r="T20" s="306"/>
+      <c r="U20" s="307"/>
+    </row>
+    <row r="21" spans="1:21" ht="20.25" customHeight="1">
       <c r="B21" s="172"/>
       <c r="C21" s="172" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D21" s="218" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E21" s="231"/>
       <c r="F21" s="232"/>
@@ -14694,18 +14699,18 @@
       <c r="N21" s="231"/>
       <c r="O21" s="216"/>
       <c r="P21" s="217"/>
-      <c r="R21" s="297"/>
-      <c r="S21" s="298"/>
-      <c r="T21" s="298"/>
-      <c r="U21" s="299"/>
-    </row>
-    <row r="22" spans="2:21" ht="20.25" customHeight="1">
+      <c r="R21" s="305"/>
+      <c r="S21" s="306"/>
+      <c r="T21" s="306"/>
+      <c r="U21" s="307"/>
+    </row>
+    <row r="22" spans="1:21" ht="20.25" customHeight="1">
       <c r="B22" s="172"/>
       <c r="C22" s="172" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D22" s="218" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E22" s="231"/>
       <c r="F22" s="232"/>
@@ -14721,18 +14726,18 @@
       <c r="N22" s="231"/>
       <c r="O22" s="216"/>
       <c r="P22" s="217"/>
-      <c r="R22" s="297"/>
-      <c r="S22" s="298"/>
-      <c r="T22" s="298"/>
-      <c r="U22" s="299"/>
-    </row>
-    <row r="23" spans="2:21" ht="20.25" customHeight="1">
+      <c r="R22" s="305"/>
+      <c r="S22" s="306"/>
+      <c r="T22" s="306"/>
+      <c r="U22" s="307"/>
+    </row>
+    <row r="23" spans="1:21" ht="20.25" customHeight="1">
       <c r="B23" s="172"/>
       <c r="C23" s="172" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D23" s="218" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E23" s="231"/>
       <c r="F23" s="232"/>
@@ -14748,18 +14753,18 @@
       <c r="N23" s="231"/>
       <c r="O23" s="216"/>
       <c r="P23" s="217"/>
-      <c r="R23" s="297"/>
-      <c r="S23" s="298"/>
-      <c r="T23" s="298"/>
-      <c r="U23" s="299"/>
-    </row>
-    <row r="24" spans="2:21" ht="20.25" customHeight="1">
+      <c r="R23" s="305"/>
+      <c r="S23" s="306"/>
+      <c r="T23" s="306"/>
+      <c r="U23" s="307"/>
+    </row>
+    <row r="24" spans="1:21" ht="20.25" customHeight="1">
       <c r="B24" s="172"/>
       <c r="C24" s="172" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="D24" s="218" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E24" s="231"/>
       <c r="F24" s="232"/>
@@ -14775,18 +14780,18 @@
       <c r="N24" s="231"/>
       <c r="O24" s="216"/>
       <c r="P24" s="217"/>
-      <c r="R24" s="297"/>
-      <c r="S24" s="298"/>
-      <c r="T24" s="298"/>
-      <c r="U24" s="299"/>
-    </row>
-    <row r="25" spans="2:21" ht="20.25" customHeight="1">
+      <c r="R24" s="305"/>
+      <c r="S24" s="306"/>
+      <c r="T24" s="306"/>
+      <c r="U24" s="307"/>
+    </row>
+    <row r="25" spans="1:21" ht="20.25" customHeight="1">
       <c r="B25" s="172"/>
       <c r="C25" s="172" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D25" s="218" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E25" s="231"/>
       <c r="F25" s="232"/>
@@ -14802,39 +14807,41 @@
       <c r="N25" s="231"/>
       <c r="O25" s="216"/>
       <c r="P25" s="217"/>
-      <c r="R25" s="297"/>
-      <c r="S25" s="298"/>
-      <c r="T25" s="298"/>
-      <c r="U25" s="299"/>
-    </row>
-    <row r="26" spans="2:21" s="311" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B26" s="306"/>
-      <c r="C26" s="306" t="s">
-        <v>609</v>
-      </c>
-      <c r="D26" s="307" t="s">
-        <v>596</v>
-      </c>
-      <c r="E26" s="308"/>
-      <c r="F26" s="309"/>
+      <c r="R25" s="305"/>
+      <c r="S25" s="306"/>
+      <c r="T25" s="306"/>
+      <c r="U25" s="307"/>
+    </row>
+    <row r="26" spans="1:21" s="311" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A26" s="235"/>
+      <c r="B26" s="238"/>
+      <c r="C26" s="238" t="s">
+        <v>608</v>
+      </c>
+      <c r="D26" s="239" t="s">
+        <v>595</v>
+      </c>
+      <c r="E26" s="240"/>
+      <c r="F26" s="241"/>
       <c r="G26" s="234"/>
-      <c r="H26" s="308"/>
-      <c r="I26" s="310"/>
+      <c r="H26" s="240"/>
+      <c r="I26" s="242"/>
       <c r="J26" s="234"/>
-      <c r="K26" s="308"/>
-      <c r="L26" s="310"/>
+      <c r="K26" s="240"/>
+      <c r="L26" s="242"/>
       <c r="M26" s="234"/>
-      <c r="N26" s="308">
-        <v>45989</v>
-      </c>
-      <c r="O26" s="310"/>
-      <c r="P26" s="234"/>
-      <c r="R26" s="297"/>
-      <c r="S26" s="298"/>
-      <c r="T26" s="298"/>
-      <c r="U26" s="299"/>
-    </row>
-    <row r="27" spans="2:21" ht="20.25" customHeight="1">
+      <c r="N26" s="240"/>
+      <c r="O26" s="242"/>
+      <c r="P26" s="234" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q26" s="235"/>
+      <c r="R26" s="305"/>
+      <c r="S26" s="306"/>
+      <c r="T26" s="306"/>
+      <c r="U26" s="307"/>
+    </row>
+    <row r="27" spans="1:21" ht="20.25" customHeight="1">
       <c r="B27" s="172"/>
       <c r="C27" s="172"/>
       <c r="D27" s="218"/>
@@ -14850,14 +14857,14 @@
       <c r="N27" s="231"/>
       <c r="O27" s="216"/>
       <c r="P27" s="217"/>
-      <c r="R27" s="297"/>
-      <c r="S27" s="298"/>
-      <c r="T27" s="298"/>
-      <c r="U27" s="299"/>
-    </row>
-    <row r="28" spans="2:21" ht="20.25" customHeight="1">
+      <c r="R27" s="305"/>
+      <c r="S27" s="306"/>
+      <c r="T27" s="306"/>
+      <c r="U27" s="307"/>
+    </row>
+    <row r="28" spans="1:21" ht="20.25" customHeight="1">
       <c r="B28" s="174" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C28" s="172"/>
       <c r="D28" s="218"/>
@@ -14873,18 +14880,18 @@
       <c r="N28" s="231"/>
       <c r="O28" s="216"/>
       <c r="P28" s="217"/>
-      <c r="R28" s="297"/>
-      <c r="S28" s="298"/>
-      <c r="T28" s="298"/>
-      <c r="U28" s="299"/>
-    </row>
-    <row r="29" spans="2:21" ht="20.25" customHeight="1">
+      <c r="R28" s="305"/>
+      <c r="S28" s="306"/>
+      <c r="T28" s="306"/>
+      <c r="U28" s="307"/>
+    </row>
+    <row r="29" spans="1:21" ht="20.25" customHeight="1">
       <c r="B29" s="172"/>
       <c r="C29" s="172" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D29" s="218" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E29" s="231"/>
       <c r="F29" s="232"/>
@@ -14900,18 +14907,18 @@
       <c r="N29" s="231"/>
       <c r="O29" s="216"/>
       <c r="P29" s="217"/>
-      <c r="R29" s="297"/>
-      <c r="S29" s="298"/>
-      <c r="T29" s="298"/>
-      <c r="U29" s="299"/>
-    </row>
-    <row r="30" spans="2:21" ht="20.25" customHeight="1">
+      <c r="R29" s="305"/>
+      <c r="S29" s="306"/>
+      <c r="T29" s="306"/>
+      <c r="U29" s="307"/>
+    </row>
+    <row r="30" spans="1:21" ht="20.25" customHeight="1">
       <c r="B30" s="172"/>
       <c r="C30" s="172" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D30" s="218" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E30" s="231"/>
       <c r="F30" s="232"/>
@@ -14927,18 +14934,18 @@
       <c r="N30" s="231"/>
       <c r="O30" s="216"/>
       <c r="P30" s="217"/>
-      <c r="R30" s="297"/>
-      <c r="S30" s="298"/>
-      <c r="T30" s="298"/>
-      <c r="U30" s="299"/>
-    </row>
-    <row r="31" spans="2:21" ht="20.25" customHeight="1">
+      <c r="R30" s="305"/>
+      <c r="S30" s="306"/>
+      <c r="T30" s="306"/>
+      <c r="U30" s="307"/>
+    </row>
+    <row r="31" spans="1:21" ht="20.25" customHeight="1">
       <c r="B31" s="172"/>
       <c r="C31" s="172" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D31" s="218" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E31" s="231"/>
       <c r="F31" s="232"/>
@@ -14954,12 +14961,12 @@
       <c r="N31" s="231"/>
       <c r="O31" s="216"/>
       <c r="P31" s="217"/>
-      <c r="R31" s="297"/>
-      <c r="S31" s="298"/>
-      <c r="T31" s="298"/>
-      <c r="U31" s="299"/>
-    </row>
-    <row r="32" spans="2:21" ht="20.25" customHeight="1">
+      <c r="R31" s="305"/>
+      <c r="S31" s="306"/>
+      <c r="T31" s="306"/>
+      <c r="U31" s="307"/>
+    </row>
+    <row r="32" spans="1:21" ht="20.25" customHeight="1">
       <c r="B32" s="172"/>
       <c r="C32" s="172"/>
       <c r="D32" s="218"/>
@@ -14975,14 +14982,14 @@
       <c r="N32" s="231"/>
       <c r="O32" s="216"/>
       <c r="P32" s="217"/>
-      <c r="R32" s="297"/>
-      <c r="S32" s="298"/>
-      <c r="T32" s="298"/>
-      <c r="U32" s="299"/>
+      <c r="R32" s="305"/>
+      <c r="S32" s="306"/>
+      <c r="T32" s="306"/>
+      <c r="U32" s="307"/>
     </row>
     <row r="33" spans="2:21" ht="20.25" customHeight="1">
       <c r="B33" s="174" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="C33" s="172"/>
       <c r="D33" s="218"/>
@@ -14998,18 +15005,18 @@
       <c r="N33" s="231"/>
       <c r="O33" s="216"/>
       <c r="P33" s="217"/>
-      <c r="R33" s="297"/>
-      <c r="S33" s="298"/>
-      <c r="T33" s="298"/>
-      <c r="U33" s="299"/>
+      <c r="R33" s="305"/>
+      <c r="S33" s="306"/>
+      <c r="T33" s="306"/>
+      <c r="U33" s="307"/>
     </row>
     <row r="34" spans="2:21" ht="20.25" customHeight="1">
       <c r="B34" s="169"/>
       <c r="C34" s="172" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D34" s="218" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E34" s="231"/>
       <c r="F34" s="232"/>
@@ -15025,18 +15032,18 @@
       <c r="N34" s="231"/>
       <c r="O34" s="216"/>
       <c r="P34" s="217"/>
-      <c r="R34" s="297"/>
-      <c r="S34" s="298"/>
-      <c r="T34" s="298"/>
-      <c r="U34" s="299"/>
+      <c r="R34" s="305"/>
+      <c r="S34" s="306"/>
+      <c r="T34" s="306"/>
+      <c r="U34" s="307"/>
     </row>
     <row r="35" spans="2:21" ht="20.25" customHeight="1">
       <c r="B35" s="169"/>
       <c r="C35" s="172" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D35" s="218" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E35" s="231"/>
       <c r="F35" s="232"/>
@@ -15052,10 +15059,10 @@
       <c r="N35" s="231"/>
       <c r="O35" s="216"/>
       <c r="P35" s="217"/>
-      <c r="R35" s="297"/>
-      <c r="S35" s="298"/>
-      <c r="T35" s="298"/>
-      <c r="U35" s="299"/>
+      <c r="R35" s="305"/>
+      <c r="S35" s="306"/>
+      <c r="T35" s="306"/>
+      <c r="U35" s="307"/>
     </row>
     <row r="36" spans="2:21" ht="20.25" customHeight="1">
       <c r="B36" s="169"/>
@@ -15073,14 +15080,14 @@
       <c r="N36" s="231"/>
       <c r="O36" s="216"/>
       <c r="P36" s="217"/>
-      <c r="R36" s="297"/>
-      <c r="S36" s="298"/>
-      <c r="T36" s="298"/>
-      <c r="U36" s="299"/>
+      <c r="R36" s="305"/>
+      <c r="S36" s="306"/>
+      <c r="T36" s="306"/>
+      <c r="U36" s="307"/>
     </row>
     <row r="37" spans="2:21" ht="20.25" customHeight="1">
       <c r="B37" s="174" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="C37" s="169"/>
       <c r="D37" s="218"/>
@@ -15096,18 +15103,18 @@
       <c r="N37" s="231"/>
       <c r="O37" s="216"/>
       <c r="P37" s="217"/>
-      <c r="R37" s="297"/>
-      <c r="S37" s="298"/>
-      <c r="T37" s="298"/>
-      <c r="U37" s="299"/>
+      <c r="R37" s="305"/>
+      <c r="S37" s="306"/>
+      <c r="T37" s="306"/>
+      <c r="U37" s="307"/>
     </row>
     <row r="38" spans="2:21" ht="20.25" customHeight="1">
       <c r="B38" s="169"/>
       <c r="C38" s="172" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D38" s="218" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E38" s="231"/>
       <c r="F38" s="232"/>
@@ -15123,18 +15130,18 @@
       <c r="N38" s="231"/>
       <c r="O38" s="216"/>
       <c r="P38" s="217"/>
-      <c r="R38" s="297"/>
-      <c r="S38" s="298"/>
-      <c r="T38" s="298"/>
-      <c r="U38" s="299"/>
+      <c r="R38" s="305"/>
+      <c r="S38" s="306"/>
+      <c r="T38" s="306"/>
+      <c r="U38" s="307"/>
     </row>
     <row r="39" spans="2:21" ht="20.25" customHeight="1">
       <c r="B39" s="169"/>
       <c r="C39" s="172" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D39" s="218" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E39" s="231"/>
       <c r="F39" s="232"/>
@@ -15150,18 +15157,18 @@
       <c r="N39" s="231"/>
       <c r="O39" s="216"/>
       <c r="P39" s="217"/>
-      <c r="R39" s="297"/>
-      <c r="S39" s="298"/>
-      <c r="T39" s="298"/>
-      <c r="U39" s="299"/>
+      <c r="R39" s="305"/>
+      <c r="S39" s="306"/>
+      <c r="T39" s="306"/>
+      <c r="U39" s="307"/>
     </row>
     <row r="40" spans="2:21" ht="20.25" customHeight="1">
       <c r="B40" s="169"/>
       <c r="C40" s="172" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D40" s="218" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E40" s="231">
         <v>45978</v>
@@ -15177,10 +15184,10 @@
       <c r="N40" s="231"/>
       <c r="O40" s="216"/>
       <c r="P40" s="217"/>
-      <c r="R40" s="297"/>
-      <c r="S40" s="298"/>
-      <c r="T40" s="298"/>
-      <c r="U40" s="299"/>
+      <c r="R40" s="305"/>
+      <c r="S40" s="306"/>
+      <c r="T40" s="306"/>
+      <c r="U40" s="307"/>
     </row>
     <row r="41" spans="2:21" ht="20.25" customHeight="1">
       <c r="B41" s="169"/>
@@ -15198,14 +15205,14 @@
       <c r="N41" s="231"/>
       <c r="O41" s="216"/>
       <c r="P41" s="217"/>
-      <c r="R41" s="297"/>
-      <c r="S41" s="298"/>
-      <c r="T41" s="298"/>
-      <c r="U41" s="299"/>
+      <c r="R41" s="305"/>
+      <c r="S41" s="306"/>
+      <c r="T41" s="306"/>
+      <c r="U41" s="307"/>
     </row>
     <row r="42" spans="2:21" ht="20.25" customHeight="1">
       <c r="B42" s="174" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C42" s="169"/>
       <c r="D42" s="218"/>
@@ -15221,10 +15228,10 @@
       <c r="N42" s="231"/>
       <c r="O42" s="216"/>
       <c r="P42" s="217"/>
-      <c r="R42" s="297"/>
-      <c r="S42" s="298"/>
-      <c r="T42" s="298"/>
-      <c r="U42" s="299"/>
+      <c r="R42" s="305"/>
+      <c r="S42" s="306"/>
+      <c r="T42" s="306"/>
+      <c r="U42" s="307"/>
     </row>
     <row r="43" spans="2:21" ht="20.25" customHeight="1">
       <c r="B43" s="169"/>
@@ -15232,7 +15239,7 @@
         <v>621</v>
       </c>
       <c r="D43" s="218" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E43" s="231"/>
       <c r="F43" s="232"/>
@@ -15243,21 +15250,23 @@
       <c r="K43" s="231"/>
       <c r="L43" s="216"/>
       <c r="M43" s="217"/>
-      <c r="N43" s="231"/>
-      <c r="O43" s="216"/>
+      <c r="N43" s="231">
+        <v>45989</v>
+      </c>
+      <c r="O43" s="233"/>
       <c r="P43" s="217"/>
-      <c r="R43" s="297"/>
-      <c r="S43" s="298"/>
-      <c r="T43" s="298"/>
-      <c r="U43" s="299"/>
+      <c r="R43" s="305"/>
+      <c r="S43" s="306"/>
+      <c r="T43" s="306"/>
+      <c r="U43" s="307"/>
     </row>
     <row r="44" spans="2:21" ht="20.25" customHeight="1">
       <c r="B44" s="169"/>
-      <c r="C44" s="304" t="s">
+      <c r="C44" s="237" t="s">
         <v>622</v>
       </c>
       <c r="D44" s="218" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E44" s="231"/>
       <c r="F44" s="232"/>
@@ -15268,21 +15277,23 @@
       <c r="K44" s="231"/>
       <c r="L44" s="216"/>
       <c r="M44" s="217"/>
-      <c r="N44" s="231"/>
-      <c r="O44" s="216"/>
+      <c r="N44" s="231">
+        <v>45989</v>
+      </c>
+      <c r="O44" s="233"/>
       <c r="P44" s="217"/>
-      <c r="R44" s="297"/>
-      <c r="S44" s="298"/>
-      <c r="T44" s="298"/>
-      <c r="U44" s="299"/>
+      <c r="R44" s="305"/>
+      <c r="S44" s="306"/>
+      <c r="T44" s="306"/>
+      <c r="U44" s="307"/>
     </row>
     <row r="45" spans="2:21" ht="20.25" customHeight="1">
       <c r="B45" s="169"/>
-      <c r="C45" s="304" t="s">
-        <v>623</v>
+      <c r="C45" s="237" t="s">
+        <v>624</v>
       </c>
       <c r="D45" s="218" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E45" s="231"/>
       <c r="F45" s="232"/>
@@ -15293,22 +15304,20 @@
       <c r="K45" s="231"/>
       <c r="L45" s="216"/>
       <c r="M45" s="217"/>
-      <c r="N45" s="231"/>
-      <c r="O45" s="216"/>
+      <c r="N45" s="231">
+        <v>45989</v>
+      </c>
+      <c r="O45" s="233"/>
       <c r="P45" s="217"/>
-      <c r="R45" s="297"/>
-      <c r="S45" s="298"/>
-      <c r="T45" s="298"/>
-      <c r="U45" s="299"/>
+      <c r="R45" s="305"/>
+      <c r="S45" s="306"/>
+      <c r="T45" s="306"/>
+      <c r="U45" s="307"/>
     </row>
     <row r="46" spans="2:21" ht="20.25" customHeight="1">
       <c r="B46" s="169"/>
-      <c r="C46" s="304" t="s">
-        <v>624</v>
-      </c>
-      <c r="D46" s="218" t="s">
-        <v>596</v>
-      </c>
+      <c r="C46" s="237"/>
+      <c r="D46" s="218"/>
       <c r="E46" s="231"/>
       <c r="F46" s="232"/>
       <c r="G46" s="217"/>
@@ -15321,14 +15330,16 @@
       <c r="N46" s="231"/>
       <c r="O46" s="216"/>
       <c r="P46" s="217"/>
-      <c r="R46" s="297"/>
-      <c r="S46" s="298"/>
-      <c r="T46" s="298"/>
-      <c r="U46" s="299"/>
+      <c r="R46" s="305"/>
+      <c r="S46" s="306"/>
+      <c r="T46" s="306"/>
+      <c r="U46" s="307"/>
     </row>
     <row r="47" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B47" s="169"/>
-      <c r="C47" s="304"/>
+      <c r="B47" s="174" t="s">
+        <v>620</v>
+      </c>
+      <c r="C47" s="237"/>
       <c r="D47" s="218"/>
       <c r="E47" s="231"/>
       <c r="F47" s="232"/>
@@ -15342,17 +15353,19 @@
       <c r="N47" s="231"/>
       <c r="O47" s="216"/>
       <c r="P47" s="217"/>
-      <c r="R47" s="297"/>
-      <c r="S47" s="298"/>
-      <c r="T47" s="298"/>
-      <c r="U47" s="299"/>
+      <c r="R47" s="305"/>
+      <c r="S47" s="306"/>
+      <c r="T47" s="306"/>
+      <c r="U47" s="307"/>
     </row>
     <row r="48" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B48" s="174" t="s">
-        <v>625</v>
-      </c>
-      <c r="C48" s="304"/>
-      <c r="D48" s="218"/>
+      <c r="B48" s="169"/>
+      <c r="C48" s="169" t="s">
+        <v>623</v>
+      </c>
+      <c r="D48" s="218" t="s">
+        <v>595</v>
+      </c>
       <c r="E48" s="231"/>
       <c r="F48" s="232"/>
       <c r="G48" s="217"/>
@@ -15362,290 +15375,59 @@
       <c r="K48" s="231"/>
       <c r="L48" s="216"/>
       <c r="M48" s="217"/>
-      <c r="N48" s="231"/>
-      <c r="O48" s="216"/>
+      <c r="N48" s="231">
+        <v>45989</v>
+      </c>
+      <c r="O48" s="233"/>
       <c r="P48" s="217"/>
-      <c r="R48" s="297"/>
-      <c r="S48" s="298"/>
-      <c r="T48" s="298"/>
-      <c r="U48" s="299"/>
-    </row>
-    <row r="49" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B49" s="169"/>
-      <c r="C49" s="169"/>
-      <c r="D49" s="218"/>
-      <c r="E49" s="231"/>
-      <c r="F49" s="232"/>
-      <c r="G49" s="217"/>
-      <c r="H49" s="231"/>
-      <c r="I49" s="216"/>
-      <c r="J49" s="217"/>
-      <c r="K49" s="231"/>
-      <c r="L49" s="216"/>
-      <c r="M49" s="217"/>
-      <c r="N49" s="231"/>
-      <c r="O49" s="216"/>
-      <c r="P49" s="217"/>
-      <c r="R49" s="297"/>
-      <c r="S49" s="298"/>
-      <c r="T49" s="298"/>
-      <c r="U49" s="299"/>
-    </row>
-    <row r="50" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B50" s="169"/>
-      <c r="C50" s="169"/>
-      <c r="D50" s="218"/>
-      <c r="E50" s="231"/>
-      <c r="F50" s="232"/>
-      <c r="G50" s="217"/>
-      <c r="H50" s="231"/>
-      <c r="I50" s="216"/>
-      <c r="J50" s="217"/>
-      <c r="K50" s="231"/>
-      <c r="L50" s="216"/>
-      <c r="M50" s="217"/>
-      <c r="N50" s="231"/>
-      <c r="O50" s="216"/>
-      <c r="P50" s="217"/>
-      <c r="R50" s="297"/>
-      <c r="S50" s="298"/>
-      <c r="T50" s="298"/>
-      <c r="U50" s="299"/>
-    </row>
-    <row r="51" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B51" s="169"/>
-      <c r="C51" s="169"/>
-      <c r="D51" s="218"/>
-      <c r="E51" s="231"/>
-      <c r="F51" s="232"/>
-      <c r="G51" s="217"/>
-      <c r="H51" s="231"/>
-      <c r="I51" s="216"/>
-      <c r="J51" s="217"/>
-      <c r="K51" s="231"/>
-      <c r="L51" s="216"/>
-      <c r="M51" s="217"/>
-      <c r="N51" s="231"/>
-      <c r="O51" s="216"/>
-      <c r="P51" s="217"/>
-      <c r="R51" s="297"/>
-      <c r="S51" s="298"/>
-      <c r="T51" s="298"/>
-      <c r="U51" s="299"/>
-    </row>
-    <row r="52" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B52" s="169"/>
-      <c r="C52" s="169"/>
-      <c r="D52" s="218"/>
-      <c r="E52" s="231"/>
-      <c r="F52" s="232"/>
-      <c r="G52" s="217"/>
-      <c r="H52" s="231"/>
-      <c r="I52" s="216"/>
-      <c r="J52" s="217"/>
-      <c r="K52" s="231"/>
-      <c r="L52" s="216"/>
-      <c r="M52" s="217"/>
-      <c r="N52" s="231"/>
-      <c r="O52" s="216"/>
-      <c r="P52" s="217"/>
-      <c r="R52" s="297"/>
-      <c r="S52" s="298"/>
-      <c r="T52" s="298"/>
-      <c r="U52" s="299"/>
-    </row>
-    <row r="53" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B53" s="174" t="s">
-        <v>626</v>
-      </c>
-      <c r="C53" s="169"/>
-      <c r="D53" s="218"/>
-      <c r="E53" s="231"/>
-      <c r="F53" s="232"/>
-      <c r="G53" s="217"/>
-      <c r="H53" s="231"/>
-      <c r="I53" s="216"/>
-      <c r="J53" s="217"/>
-      <c r="K53" s="231"/>
-      <c r="L53" s="216"/>
-      <c r="M53" s="217"/>
-      <c r="N53" s="231"/>
-      <c r="O53" s="216"/>
-      <c r="P53" s="217"/>
-      <c r="R53" s="297"/>
-      <c r="S53" s="298"/>
-      <c r="T53" s="298"/>
-      <c r="U53" s="299"/>
-    </row>
-    <row r="54" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B54" s="169"/>
-      <c r="C54" s="305"/>
-      <c r="D54" s="218"/>
-      <c r="E54" s="231"/>
-      <c r="F54" s="232"/>
-      <c r="G54" s="217"/>
-      <c r="H54" s="231"/>
-      <c r="I54" s="216"/>
-      <c r="J54" s="217"/>
-      <c r="K54" s="231"/>
-      <c r="L54" s="216"/>
-      <c r="M54" s="217"/>
-      <c r="N54" s="231"/>
-      <c r="O54" s="216"/>
-      <c r="P54" s="217"/>
-      <c r="R54" s="297"/>
-      <c r="S54" s="298"/>
-      <c r="T54" s="298"/>
-      <c r="U54" s="299"/>
-    </row>
-    <row r="55" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B55" s="169"/>
-      <c r="C55" s="305"/>
-      <c r="D55" s="218"/>
-      <c r="E55" s="231"/>
-      <c r="F55" s="232"/>
-      <c r="G55" s="217"/>
-      <c r="H55" s="231"/>
-      <c r="I55" s="216"/>
-      <c r="J55" s="217"/>
-      <c r="K55" s="231"/>
-      <c r="L55" s="216"/>
-      <c r="M55" s="217"/>
-      <c r="N55" s="231"/>
-      <c r="O55" s="216"/>
-      <c r="P55" s="217"/>
-      <c r="R55" s="297"/>
-      <c r="S55" s="298"/>
-      <c r="T55" s="298"/>
-      <c r="U55" s="299"/>
-    </row>
-    <row r="56" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B56" s="169"/>
-      <c r="C56" s="305"/>
-      <c r="D56" s="218"/>
-      <c r="E56" s="231"/>
-      <c r="F56" s="232"/>
-      <c r="G56" s="217"/>
-      <c r="H56" s="231"/>
-      <c r="I56" s="216"/>
-      <c r="J56" s="217"/>
-      <c r="K56" s="231"/>
-      <c r="L56" s="216"/>
-      <c r="M56" s="217"/>
-      <c r="N56" s="231"/>
-      <c r="O56" s="216"/>
-      <c r="P56" s="217"/>
-      <c r="R56" s="297"/>
-      <c r="S56" s="298"/>
-      <c r="T56" s="298"/>
-      <c r="U56" s="299"/>
-    </row>
-    <row r="57" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B57" s="169"/>
-      <c r="C57" s="305"/>
-      <c r="D57" s="218"/>
-      <c r="E57" s="231"/>
-      <c r="F57" s="232"/>
-      <c r="G57" s="217"/>
-      <c r="H57" s="231"/>
-      <c r="I57" s="216"/>
-      <c r="J57" s="217"/>
-      <c r="K57" s="231"/>
-      <c r="L57" s="216"/>
-      <c r="M57" s="217"/>
-      <c r="N57" s="231"/>
-      <c r="O57" s="216"/>
-      <c r="P57" s="217"/>
-      <c r="R57" s="297"/>
-      <c r="S57" s="298"/>
-      <c r="T57" s="298"/>
-      <c r="U57" s="299"/>
-    </row>
-    <row r="58" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B58" s="169"/>
-      <c r="C58" s="305"/>
-      <c r="D58" s="218"/>
-      <c r="E58" s="231"/>
-      <c r="F58" s="232"/>
-      <c r="G58" s="217"/>
-      <c r="H58" s="231"/>
-      <c r="I58" s="216"/>
-      <c r="J58" s="217"/>
-      <c r="K58" s="231"/>
-      <c r="L58" s="216"/>
-      <c r="M58" s="217"/>
-      <c r="N58" s="231"/>
-      <c r="O58" s="216"/>
-      <c r="P58" s="217"/>
-      <c r="R58" s="297"/>
-      <c r="S58" s="298"/>
-      <c r="T58" s="298"/>
-      <c r="U58" s="299"/>
-    </row>
-    <row r="59" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B59" s="169"/>
-      <c r="C59" s="218"/>
-      <c r="D59" s="218"/>
-      <c r="E59" s="231"/>
-      <c r="F59" s="232"/>
-      <c r="G59" s="217"/>
-      <c r="H59" s="231"/>
-      <c r="I59" s="216"/>
-      <c r="J59" s="217"/>
-      <c r="K59" s="231"/>
-      <c r="L59" s="216"/>
-      <c r="M59" s="217"/>
-      <c r="N59" s="231"/>
-      <c r="O59" s="216"/>
-      <c r="P59" s="217"/>
-      <c r="R59" s="297"/>
-      <c r="S59" s="298"/>
-      <c r="T59" s="298"/>
-      <c r="U59" s="299"/>
-    </row>
-    <row r="60" spans="2:21" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B60" s="225"/>
-      <c r="C60" s="226"/>
-      <c r="D60" s="227"/>
-      <c r="E60" s="230"/>
-      <c r="F60" s="226"/>
-      <c r="G60" s="228"/>
-      <c r="H60" s="230"/>
-      <c r="I60" s="226"/>
-      <c r="J60" s="228"/>
-      <c r="K60" s="230"/>
-      <c r="L60" s="226"/>
-      <c r="M60" s="228"/>
-      <c r="N60" s="230"/>
-      <c r="O60" s="226"/>
-      <c r="P60" s="228"/>
-      <c r="R60" s="300"/>
-      <c r="S60" s="301"/>
-      <c r="T60" s="301"/>
-      <c r="U60" s="302"/>
-    </row>
-    <row r="61" spans="2:21" ht="15.75" customHeight="1">
-      <c r="B61" s="186"/>
-      <c r="C61" s="186"/>
-      <c r="D61" s="186"/>
-      <c r="E61" s="186"/>
-      <c r="F61" s="186"/>
-      <c r="G61" s="186"/>
-      <c r="H61" s="186"/>
-      <c r="I61" s="186"/>
-      <c r="J61" s="186"/>
-      <c r="K61" s="186"/>
-      <c r="L61" s="186"/>
-      <c r="M61" s="186"/>
-      <c r="N61" s="186"/>
-      <c r="O61" s="186"/>
-      <c r="P61" s="186"/>
-      <c r="Q61" s="186"/>
+      <c r="R48" s="305"/>
+      <c r="S48" s="306"/>
+      <c r="T48" s="306"/>
+      <c r="U48" s="307"/>
+    </row>
+    <row r="49" spans="2:21" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B49" s="225"/>
+      <c r="C49" s="226"/>
+      <c r="D49" s="227"/>
+      <c r="E49" s="230"/>
+      <c r="F49" s="226"/>
+      <c r="G49" s="228"/>
+      <c r="H49" s="230"/>
+      <c r="I49" s="226"/>
+      <c r="J49" s="228"/>
+      <c r="K49" s="230"/>
+      <c r="L49" s="226"/>
+      <c r="M49" s="228"/>
+      <c r="N49" s="230"/>
+      <c r="O49" s="226"/>
+      <c r="P49" s="228"/>
+      <c r="R49" s="308"/>
+      <c r="S49" s="309"/>
+      <c r="T49" s="309"/>
+      <c r="U49" s="310"/>
+    </row>
+    <row r="50" spans="2:21" ht="15.75" customHeight="1">
+      <c r="B50" s="186"/>
+      <c r="C50" s="186"/>
+      <c r="D50" s="186"/>
+      <c r="E50" s="186"/>
+      <c r="F50" s="186"/>
+      <c r="G50" s="186"/>
+      <c r="H50" s="186"/>
+      <c r="I50" s="186"/>
+      <c r="J50" s="186"/>
+      <c r="K50" s="186"/>
+      <c r="L50" s="186"/>
+      <c r="M50" s="186"/>
+      <c r="N50" s="186"/>
+      <c r="O50" s="186"/>
+      <c r="P50" s="186"/>
+      <c r="Q50" s="186"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="H3:P3"/>
-    <mergeCell ref="R6:U60"/>
+    <mergeCell ref="R6:U49"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -15659,8 +15441,8 @@
   </sheetPr>
   <dimension ref="B2:U184"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
@@ -15705,15 +15487,15 @@
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
-      <c r="H3" s="293"/>
-      <c r="I3" s="236"/>
-      <c r="J3" s="236"/>
-      <c r="K3" s="236"/>
-      <c r="L3" s="236"/>
-      <c r="M3" s="236"/>
-      <c r="N3" s="236"/>
-      <c r="O3" s="236"/>
-      <c r="P3" s="236"/>
+      <c r="H3" s="301"/>
+      <c r="I3" s="244"/>
+      <c r="J3" s="244"/>
+      <c r="K3" s="244"/>
+      <c r="L3" s="244"/>
+      <c r="M3" s="244"/>
+      <c r="N3" s="244"/>
+      <c r="O3" s="244"/>
+      <c r="P3" s="244"/>
     </row>
     <row r="4" spans="2:21" ht="21.75" customHeight="1" thickBot="1">
       <c r="B4" s="26"/>
@@ -15766,16 +15548,14 @@
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
       <c r="N6" s="26"/>
-      <c r="R6" s="294" t="s">
-        <v>590</v>
-      </c>
-      <c r="S6" s="295"/>
-      <c r="T6" s="295"/>
-      <c r="U6" s="296"/>
+      <c r="R6" s="302"/>
+      <c r="S6" s="303"/>
+      <c r="T6" s="303"/>
+      <c r="U6" s="304"/>
     </row>
     <row r="7" spans="2:21" ht="21.75" customHeight="1" thickBot="1">
       <c r="B7" s="183" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C7" s="184"/>
       <c r="D7" s="185"/>
@@ -15789,10 +15569,10 @@
       <c r="L7" s="184"/>
       <c r="M7" s="184"/>
       <c r="N7" s="184"/>
-      <c r="R7" s="297"/>
-      <c r="S7" s="298"/>
-      <c r="T7" s="298"/>
-      <c r="U7" s="299"/>
+      <c r="R7" s="305"/>
+      <c r="S7" s="306"/>
+      <c r="T7" s="306"/>
+      <c r="U7" s="307"/>
     </row>
     <row r="8" spans="2:21" ht="15">
       <c r="B8" s="187" t="s">
@@ -15814,10 +15594,10 @@
       <c r="L8" s="184"/>
       <c r="M8" s="184"/>
       <c r="N8" s="190"/>
-      <c r="R8" s="297"/>
-      <c r="S8" s="298"/>
-      <c r="T8" s="298"/>
-      <c r="U8" s="299"/>
+      <c r="R8" s="305"/>
+      <c r="S8" s="306"/>
+      <c r="T8" s="306"/>
+      <c r="U8" s="307"/>
     </row>
     <row r="9" spans="2:21" thickBot="1">
       <c r="B9" s="191" t="s">
@@ -15839,10 +15619,10 @@
       <c r="L9" s="194"/>
       <c r="M9" s="194"/>
       <c r="N9" s="194"/>
-      <c r="R9" s="297"/>
-      <c r="S9" s="298"/>
-      <c r="T9" s="298"/>
-      <c r="U9" s="299"/>
+      <c r="R9" s="305"/>
+      <c r="S9" s="306"/>
+      <c r="T9" s="306"/>
+      <c r="U9" s="307"/>
     </row>
     <row r="10" spans="2:21" thickBot="1">
       <c r="B10" s="191" t="s">
@@ -15855,29 +15635,29 @@
         <v>97</v>
       </c>
       <c r="E10" s="196" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="F10" s="197"/>
       <c r="G10" s="197"/>
       <c r="H10" s="198" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I10" s="199"/>
       <c r="J10" s="199"/>
       <c r="K10" s="198" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="L10" s="199"/>
       <c r="M10" s="199"/>
       <c r="N10" s="196" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="O10" s="200"/>
       <c r="P10" s="201"/>
-      <c r="R10" s="297"/>
-      <c r="S10" s="298"/>
-      <c r="T10" s="298"/>
-      <c r="U10" s="299"/>
+      <c r="R10" s="305"/>
+      <c r="S10" s="306"/>
+      <c r="T10" s="306"/>
+      <c r="U10" s="307"/>
     </row>
     <row r="11" spans="2:21" ht="15" customHeight="1" thickBot="1">
       <c r="B11" s="202"/>
@@ -15919,10 +15699,10 @@
       <c r="P11" s="211" t="s">
         <v>100</v>
       </c>
-      <c r="R11" s="297"/>
-      <c r="S11" s="298"/>
-      <c r="T11" s="298"/>
-      <c r="U11" s="299"/>
+      <c r="R11" s="305"/>
+      <c r="S11" s="306"/>
+      <c r="T11" s="306"/>
+      <c r="U11" s="307"/>
     </row>
     <row r="12" spans="2:21" ht="20.25" customHeight="1">
       <c r="B12" s="218"/>
@@ -15940,10 +15720,10 @@
       <c r="N12" s="213"/>
       <c r="O12" s="212"/>
       <c r="P12" s="215"/>
-      <c r="R12" s="297"/>
-      <c r="S12" s="298"/>
-      <c r="T12" s="298"/>
-      <c r="U12" s="299"/>
+      <c r="R12" s="305"/>
+      <c r="S12" s="306"/>
+      <c r="T12" s="306"/>
+      <c r="U12" s="307"/>
     </row>
     <row r="13" spans="2:21" ht="20.25" customHeight="1">
       <c r="B13" s="218"/>
@@ -15961,10 +15741,10 @@
       <c r="N13" s="231"/>
       <c r="O13" s="216"/>
       <c r="P13" s="217"/>
-      <c r="R13" s="297"/>
-      <c r="S13" s="298"/>
-      <c r="T13" s="298"/>
-      <c r="U13" s="299"/>
+      <c r="R13" s="305"/>
+      <c r="S13" s="306"/>
+      <c r="T13" s="306"/>
+      <c r="U13" s="307"/>
     </row>
     <row r="14" spans="2:21" ht="20.25" customHeight="1">
       <c r="B14" s="218"/>
@@ -15982,10 +15762,10 @@
       <c r="N14" s="231"/>
       <c r="O14" s="216"/>
       <c r="P14" s="217"/>
-      <c r="R14" s="297"/>
-      <c r="S14" s="298"/>
-      <c r="T14" s="298"/>
-      <c r="U14" s="299"/>
+      <c r="R14" s="305"/>
+      <c r="S14" s="306"/>
+      <c r="T14" s="306"/>
+      <c r="U14" s="307"/>
     </row>
     <row r="15" spans="2:21" ht="20.25" customHeight="1">
       <c r="B15" s="218"/>
@@ -16003,10 +15783,10 @@
       <c r="N15" s="231"/>
       <c r="O15" s="216"/>
       <c r="P15" s="217"/>
-      <c r="R15" s="297"/>
-      <c r="S15" s="298"/>
-      <c r="T15" s="298"/>
-      <c r="U15" s="299"/>
+      <c r="R15" s="305"/>
+      <c r="S15" s="306"/>
+      <c r="T15" s="306"/>
+      <c r="U15" s="307"/>
     </row>
     <row r="16" spans="2:21" ht="20.25" customHeight="1">
       <c r="B16" s="218"/>
@@ -16024,10 +15804,10 @@
       <c r="N16" s="231"/>
       <c r="O16" s="216"/>
       <c r="P16" s="217"/>
-      <c r="R16" s="297"/>
-      <c r="S16" s="298"/>
-      <c r="T16" s="298"/>
-      <c r="U16" s="299"/>
+      <c r="R16" s="305"/>
+      <c r="S16" s="306"/>
+      <c r="T16" s="306"/>
+      <c r="U16" s="307"/>
     </row>
     <row r="17" spans="2:21" ht="20.25" customHeight="1">
       <c r="B17" s="218"/>
@@ -16045,10 +15825,10 @@
       <c r="N17" s="231"/>
       <c r="O17" s="216"/>
       <c r="P17" s="217"/>
-      <c r="R17" s="297"/>
-      <c r="S17" s="298"/>
-      <c r="T17" s="298"/>
-      <c r="U17" s="299"/>
+      <c r="R17" s="305"/>
+      <c r="S17" s="306"/>
+      <c r="T17" s="306"/>
+      <c r="U17" s="307"/>
     </row>
     <row r="18" spans="2:21" ht="20.25" customHeight="1">
       <c r="B18" s="218"/>
@@ -16066,10 +15846,10 @@
       <c r="N18" s="231"/>
       <c r="O18" s="216"/>
       <c r="P18" s="217"/>
-      <c r="R18" s="297"/>
-      <c r="S18" s="298"/>
-      <c r="T18" s="298"/>
-      <c r="U18" s="299"/>
+      <c r="R18" s="305"/>
+      <c r="S18" s="306"/>
+      <c r="T18" s="306"/>
+      <c r="U18" s="307"/>
     </row>
     <row r="19" spans="2:21" ht="20.25" customHeight="1">
       <c r="B19" s="218"/>
@@ -16087,10 +15867,10 @@
       <c r="N19" s="231"/>
       <c r="O19" s="216"/>
       <c r="P19" s="217"/>
-      <c r="R19" s="297"/>
-      <c r="S19" s="298"/>
-      <c r="T19" s="298"/>
-      <c r="U19" s="299"/>
+      <c r="R19" s="305"/>
+      <c r="S19" s="306"/>
+      <c r="T19" s="306"/>
+      <c r="U19" s="307"/>
     </row>
     <row r="20" spans="2:21" ht="20.25" customHeight="1">
       <c r="B20" s="218"/>
@@ -16108,10 +15888,10 @@
       <c r="N20" s="231"/>
       <c r="O20" s="216"/>
       <c r="P20" s="217"/>
-      <c r="R20" s="297"/>
-      <c r="S20" s="298"/>
-      <c r="T20" s="298"/>
-      <c r="U20" s="299"/>
+      <c r="R20" s="305"/>
+      <c r="S20" s="306"/>
+      <c r="T20" s="306"/>
+      <c r="U20" s="307"/>
     </row>
     <row r="21" spans="2:21" ht="20.25" customHeight="1">
       <c r="B21" s="218"/>
@@ -16129,10 +15909,10 @@
       <c r="N21" s="231"/>
       <c r="O21" s="216"/>
       <c r="P21" s="217"/>
-      <c r="R21" s="297"/>
-      <c r="S21" s="298"/>
-      <c r="T21" s="298"/>
-      <c r="U21" s="299"/>
+      <c r="R21" s="305"/>
+      <c r="S21" s="306"/>
+      <c r="T21" s="306"/>
+      <c r="U21" s="307"/>
     </row>
     <row r="22" spans="2:21" ht="20.25" customHeight="1">
       <c r="B22" s="218"/>
@@ -16150,10 +15930,10 @@
       <c r="N22" s="231"/>
       <c r="O22" s="216"/>
       <c r="P22" s="217"/>
-      <c r="R22" s="297"/>
-      <c r="S22" s="298"/>
-      <c r="T22" s="298"/>
-      <c r="U22" s="299"/>
+      <c r="R22" s="305"/>
+      <c r="S22" s="306"/>
+      <c r="T22" s="306"/>
+      <c r="U22" s="307"/>
     </row>
     <row r="23" spans="2:21" ht="20.25" customHeight="1">
       <c r="B23" s="218"/>
@@ -16171,10 +15951,10 @@
       <c r="N23" s="231"/>
       <c r="O23" s="216"/>
       <c r="P23" s="217"/>
-      <c r="R23" s="297"/>
-      <c r="S23" s="298"/>
-      <c r="T23" s="298"/>
-      <c r="U23" s="299"/>
+      <c r="R23" s="305"/>
+      <c r="S23" s="306"/>
+      <c r="T23" s="306"/>
+      <c r="U23" s="307"/>
     </row>
     <row r="24" spans="2:21" ht="20.25" customHeight="1">
       <c r="B24" s="218"/>
@@ -16192,10 +15972,10 @@
       <c r="N24" s="231"/>
       <c r="O24" s="216"/>
       <c r="P24" s="217"/>
-      <c r="R24" s="297"/>
-      <c r="S24" s="298"/>
-      <c r="T24" s="298"/>
-      <c r="U24" s="299"/>
+      <c r="R24" s="305"/>
+      <c r="S24" s="306"/>
+      <c r="T24" s="306"/>
+      <c r="U24" s="307"/>
     </row>
     <row r="25" spans="2:21" ht="20.25" customHeight="1">
       <c r="B25" s="218"/>
@@ -16213,10 +15993,10 @@
       <c r="N25" s="231"/>
       <c r="O25" s="216"/>
       <c r="P25" s="217"/>
-      <c r="R25" s="297"/>
-      <c r="S25" s="298"/>
-      <c r="T25" s="298"/>
-      <c r="U25" s="299"/>
+      <c r="R25" s="305"/>
+      <c r="S25" s="306"/>
+      <c r="T25" s="306"/>
+      <c r="U25" s="307"/>
     </row>
     <row r="26" spans="2:21" ht="20.25" customHeight="1">
       <c r="B26" s="218"/>
@@ -16234,10 +16014,10 @@
       <c r="N26" s="231"/>
       <c r="O26" s="216"/>
       <c r="P26" s="217"/>
-      <c r="R26" s="297"/>
-      <c r="S26" s="298"/>
-      <c r="T26" s="298"/>
-      <c r="U26" s="299"/>
+      <c r="R26" s="305"/>
+      <c r="S26" s="306"/>
+      <c r="T26" s="306"/>
+      <c r="U26" s="307"/>
     </row>
     <row r="27" spans="2:21" ht="20.25" customHeight="1">
       <c r="B27" s="218"/>
@@ -16255,10 +16035,10 @@
       <c r="N27" s="231"/>
       <c r="O27" s="216"/>
       <c r="P27" s="217"/>
-      <c r="R27" s="297"/>
-      <c r="S27" s="298"/>
-      <c r="T27" s="298"/>
-      <c r="U27" s="299"/>
+      <c r="R27" s="305"/>
+      <c r="S27" s="306"/>
+      <c r="T27" s="306"/>
+      <c r="U27" s="307"/>
     </row>
     <row r="28" spans="2:21" ht="20.25" customHeight="1">
       <c r="B28" s="218"/>
@@ -16276,10 +16056,10 @@
       <c r="N28" s="231"/>
       <c r="O28" s="216"/>
       <c r="P28" s="217"/>
-      <c r="R28" s="297"/>
-      <c r="S28" s="298"/>
-      <c r="T28" s="298"/>
-      <c r="U28" s="299"/>
+      <c r="R28" s="305"/>
+      <c r="S28" s="306"/>
+      <c r="T28" s="306"/>
+      <c r="U28" s="307"/>
     </row>
     <row r="29" spans="2:21" ht="20.25" customHeight="1">
       <c r="B29" s="218"/>
@@ -16297,10 +16077,10 @@
       <c r="N29" s="231"/>
       <c r="O29" s="216"/>
       <c r="P29" s="217"/>
-      <c r="R29" s="297"/>
-      <c r="S29" s="298"/>
-      <c r="T29" s="298"/>
-      <c r="U29" s="299"/>
+      <c r="R29" s="305"/>
+      <c r="S29" s="306"/>
+      <c r="T29" s="306"/>
+      <c r="U29" s="307"/>
     </row>
     <row r="30" spans="2:21" ht="20.25" customHeight="1">
       <c r="B30" s="218"/>
@@ -16318,10 +16098,10 @@
       <c r="N30" s="231"/>
       <c r="O30" s="216"/>
       <c r="P30" s="217"/>
-      <c r="R30" s="297"/>
-      <c r="S30" s="298"/>
-      <c r="T30" s="298"/>
-      <c r="U30" s="299"/>
+      <c r="R30" s="305"/>
+      <c r="S30" s="306"/>
+      <c r="T30" s="306"/>
+      <c r="U30" s="307"/>
     </row>
     <row r="31" spans="2:21" ht="20.25" customHeight="1">
       <c r="B31" s="218"/>
@@ -16339,10 +16119,10 @@
       <c r="N31" s="231"/>
       <c r="O31" s="216"/>
       <c r="P31" s="217"/>
-      <c r="R31" s="297"/>
-      <c r="S31" s="298"/>
-      <c r="T31" s="298"/>
-      <c r="U31" s="299"/>
+      <c r="R31" s="305"/>
+      <c r="S31" s="306"/>
+      <c r="T31" s="306"/>
+      <c r="U31" s="307"/>
     </row>
     <row r="32" spans="2:21" ht="20.25" customHeight="1">
       <c r="B32" s="218"/>
@@ -16360,10 +16140,10 @@
       <c r="N32" s="231"/>
       <c r="O32" s="216"/>
       <c r="P32" s="217"/>
-      <c r="R32" s="297"/>
-      <c r="S32" s="298"/>
-      <c r="T32" s="298"/>
-      <c r="U32" s="299"/>
+      <c r="R32" s="305"/>
+      <c r="S32" s="306"/>
+      <c r="T32" s="306"/>
+      <c r="U32" s="307"/>
     </row>
     <row r="33" spans="2:21" ht="20.25" customHeight="1">
       <c r="B33" s="218"/>
@@ -16381,10 +16161,10 @@
       <c r="N33" s="231"/>
       <c r="O33" s="216"/>
       <c r="P33" s="217"/>
-      <c r="R33" s="297"/>
-      <c r="S33" s="298"/>
-      <c r="T33" s="298"/>
-      <c r="U33" s="299"/>
+      <c r="R33" s="305"/>
+      <c r="S33" s="306"/>
+      <c r="T33" s="306"/>
+      <c r="U33" s="307"/>
     </row>
     <row r="34" spans="2:21" ht="20.25" customHeight="1">
       <c r="B34" s="218"/>
@@ -16402,10 +16182,10 @@
       <c r="N34" s="231"/>
       <c r="O34" s="216"/>
       <c r="P34" s="217"/>
-      <c r="R34" s="297"/>
-      <c r="S34" s="298"/>
-      <c r="T34" s="298"/>
-      <c r="U34" s="299"/>
+      <c r="R34" s="305"/>
+      <c r="S34" s="306"/>
+      <c r="T34" s="306"/>
+      <c r="U34" s="307"/>
     </row>
     <row r="35" spans="2:21" ht="20.25" customHeight="1">
       <c r="B35" s="218"/>
@@ -16423,10 +16203,10 @@
       <c r="N35" s="231"/>
       <c r="O35" s="216"/>
       <c r="P35" s="217"/>
-      <c r="R35" s="297"/>
-      <c r="S35" s="298"/>
-      <c r="T35" s="298"/>
-      <c r="U35" s="299"/>
+      <c r="R35" s="305"/>
+      <c r="S35" s="306"/>
+      <c r="T35" s="306"/>
+      <c r="U35" s="307"/>
     </row>
     <row r="36" spans="2:21" ht="20.25" customHeight="1">
       <c r="B36" s="218"/>
@@ -16444,10 +16224,10 @@
       <c r="N36" s="231"/>
       <c r="O36" s="216"/>
       <c r="P36" s="217"/>
-      <c r="R36" s="297"/>
-      <c r="S36" s="298"/>
-      <c r="T36" s="298"/>
-      <c r="U36" s="299"/>
+      <c r="R36" s="305"/>
+      <c r="S36" s="306"/>
+      <c r="T36" s="306"/>
+      <c r="U36" s="307"/>
     </row>
     <row r="37" spans="2:21" ht="20.25" customHeight="1">
       <c r="B37" s="218"/>
@@ -16465,10 +16245,10 @@
       <c r="N37" s="231"/>
       <c r="O37" s="216"/>
       <c r="P37" s="217"/>
-      <c r="R37" s="297"/>
-      <c r="S37" s="298"/>
-      <c r="T37" s="298"/>
-      <c r="U37" s="299"/>
+      <c r="R37" s="305"/>
+      <c r="S37" s="306"/>
+      <c r="T37" s="306"/>
+      <c r="U37" s="307"/>
     </row>
     <row r="38" spans="2:21" ht="20.25" customHeight="1">
       <c r="B38" s="218"/>
@@ -16486,10 +16266,10 @@
       <c r="N38" s="231"/>
       <c r="O38" s="216"/>
       <c r="P38" s="217"/>
-      <c r="R38" s="297"/>
-      <c r="S38" s="298"/>
-      <c r="T38" s="298"/>
-      <c r="U38" s="299"/>
+      <c r="R38" s="305"/>
+      <c r="S38" s="306"/>
+      <c r="T38" s="306"/>
+      <c r="U38" s="307"/>
     </row>
     <row r="39" spans="2:21" ht="20.25" customHeight="1">
       <c r="B39" s="218"/>
@@ -16507,10 +16287,10 @@
       <c r="N39" s="231"/>
       <c r="O39" s="216"/>
       <c r="P39" s="217"/>
-      <c r="R39" s="297"/>
-      <c r="S39" s="298"/>
-      <c r="T39" s="298"/>
-      <c r="U39" s="299"/>
+      <c r="R39" s="305"/>
+      <c r="S39" s="306"/>
+      <c r="T39" s="306"/>
+      <c r="U39" s="307"/>
     </row>
     <row r="40" spans="2:21" ht="20.25" customHeight="1">
       <c r="B40" s="218"/>
@@ -16528,10 +16308,10 @@
       <c r="N40" s="231"/>
       <c r="O40" s="216"/>
       <c r="P40" s="217"/>
-      <c r="R40" s="297"/>
-      <c r="S40" s="298"/>
-      <c r="T40" s="298"/>
-      <c r="U40" s="299"/>
+      <c r="R40" s="305"/>
+      <c r="S40" s="306"/>
+      <c r="T40" s="306"/>
+      <c r="U40" s="307"/>
     </row>
     <row r="41" spans="2:21" ht="20.25" customHeight="1">
       <c r="B41" s="218"/>
@@ -16549,10 +16329,10 @@
       <c r="N41" s="231"/>
       <c r="O41" s="216"/>
       <c r="P41" s="217"/>
-      <c r="R41" s="297"/>
-      <c r="S41" s="298"/>
-      <c r="T41" s="298"/>
-      <c r="U41" s="299"/>
+      <c r="R41" s="305"/>
+      <c r="S41" s="306"/>
+      <c r="T41" s="306"/>
+      <c r="U41" s="307"/>
     </row>
     <row r="42" spans="2:21" ht="20.25" customHeight="1">
       <c r="B42" s="218"/>
@@ -16570,10 +16350,10 @@
       <c r="N42" s="231"/>
       <c r="O42" s="216"/>
       <c r="P42" s="217"/>
-      <c r="R42" s="297"/>
-      <c r="S42" s="298"/>
-      <c r="T42" s="298"/>
-      <c r="U42" s="299"/>
+      <c r="R42" s="305"/>
+      <c r="S42" s="306"/>
+      <c r="T42" s="306"/>
+      <c r="U42" s="307"/>
     </row>
     <row r="43" spans="2:21" ht="20.25" customHeight="1">
       <c r="B43" s="218"/>
@@ -16591,10 +16371,10 @@
       <c r="N43" s="231"/>
       <c r="O43" s="216"/>
       <c r="P43" s="217"/>
-      <c r="R43" s="297"/>
-      <c r="S43" s="298"/>
-      <c r="T43" s="298"/>
-      <c r="U43" s="299"/>
+      <c r="R43" s="305"/>
+      <c r="S43" s="306"/>
+      <c r="T43" s="306"/>
+      <c r="U43" s="307"/>
     </row>
     <row r="44" spans="2:21" ht="20.25" customHeight="1">
       <c r="B44" s="218"/>
@@ -16612,10 +16392,10 @@
       <c r="N44" s="231"/>
       <c r="O44" s="216"/>
       <c r="P44" s="217"/>
-      <c r="R44" s="297"/>
-      <c r="S44" s="298"/>
-      <c r="T44" s="298"/>
-      <c r="U44" s="299"/>
+      <c r="R44" s="305"/>
+      <c r="S44" s="306"/>
+      <c r="T44" s="306"/>
+      <c r="U44" s="307"/>
     </row>
     <row r="45" spans="2:21" ht="20.25" customHeight="1">
       <c r="B45" s="218"/>
@@ -16633,10 +16413,10 @@
       <c r="N45" s="231"/>
       <c r="O45" s="216"/>
       <c r="P45" s="217"/>
-      <c r="R45" s="297"/>
-      <c r="S45" s="298"/>
-      <c r="T45" s="298"/>
-      <c r="U45" s="299"/>
+      <c r="R45" s="305"/>
+      <c r="S45" s="306"/>
+      <c r="T45" s="306"/>
+      <c r="U45" s="307"/>
     </row>
     <row r="46" spans="2:21" ht="20.25" customHeight="1">
       <c r="B46" s="218"/>
@@ -16654,10 +16434,10 @@
       <c r="N46" s="231"/>
       <c r="O46" s="216"/>
       <c r="P46" s="217"/>
-      <c r="R46" s="297"/>
-      <c r="S46" s="298"/>
-      <c r="T46" s="298"/>
-      <c r="U46" s="299"/>
+      <c r="R46" s="305"/>
+      <c r="S46" s="306"/>
+      <c r="T46" s="306"/>
+      <c r="U46" s="307"/>
     </row>
     <row r="47" spans="2:21" ht="20.25" customHeight="1">
       <c r="B47" s="218"/>
@@ -16675,10 +16455,10 @@
       <c r="N47" s="231"/>
       <c r="O47" s="216"/>
       <c r="P47" s="217"/>
-      <c r="R47" s="297"/>
-      <c r="S47" s="298"/>
-      <c r="T47" s="298"/>
-      <c r="U47" s="299"/>
+      <c r="R47" s="305"/>
+      <c r="S47" s="306"/>
+      <c r="T47" s="306"/>
+      <c r="U47" s="307"/>
     </row>
     <row r="48" spans="2:21" ht="20.25" customHeight="1">
       <c r="B48" s="218"/>
@@ -16696,10 +16476,10 @@
       <c r="N48" s="231"/>
       <c r="O48" s="216"/>
       <c r="P48" s="217"/>
-      <c r="R48" s="297"/>
-      <c r="S48" s="298"/>
-      <c r="T48" s="298"/>
-      <c r="U48" s="299"/>
+      <c r="R48" s="305"/>
+      <c r="S48" s="306"/>
+      <c r="T48" s="306"/>
+      <c r="U48" s="307"/>
     </row>
     <row r="49" spans="2:21" ht="20.25" customHeight="1">
       <c r="B49" s="218"/>
@@ -16717,10 +16497,10 @@
       <c r="N49" s="231"/>
       <c r="O49" s="216"/>
       <c r="P49" s="217"/>
-      <c r="R49" s="297"/>
-      <c r="S49" s="298"/>
-      <c r="T49" s="298"/>
-      <c r="U49" s="299"/>
+      <c r="R49" s="305"/>
+      <c r="S49" s="306"/>
+      <c r="T49" s="306"/>
+      <c r="U49" s="307"/>
     </row>
     <row r="50" spans="2:21" ht="20.25" customHeight="1">
       <c r="B50" s="218"/>
@@ -16738,10 +16518,10 @@
       <c r="N50" s="231"/>
       <c r="O50" s="216"/>
       <c r="P50" s="217"/>
-      <c r="R50" s="297"/>
-      <c r="S50" s="298"/>
-      <c r="T50" s="298"/>
-      <c r="U50" s="299"/>
+      <c r="R50" s="305"/>
+      <c r="S50" s="306"/>
+      <c r="T50" s="306"/>
+      <c r="U50" s="307"/>
     </row>
     <row r="51" spans="2:21" ht="20.25" customHeight="1">
       <c r="B51" s="218"/>
@@ -16759,10 +16539,10 @@
       <c r="N51" s="231"/>
       <c r="O51" s="216"/>
       <c r="P51" s="217"/>
-      <c r="R51" s="297"/>
-      <c r="S51" s="298"/>
-      <c r="T51" s="298"/>
-      <c r="U51" s="299"/>
+      <c r="R51" s="305"/>
+      <c r="S51" s="306"/>
+      <c r="T51" s="306"/>
+      <c r="U51" s="307"/>
     </row>
     <row r="52" spans="2:21" ht="20.25" customHeight="1">
       <c r="B52" s="218"/>
@@ -16780,10 +16560,10 @@
       <c r="N52" s="231"/>
       <c r="O52" s="216"/>
       <c r="P52" s="217"/>
-      <c r="R52" s="297"/>
-      <c r="S52" s="298"/>
-      <c r="T52" s="298"/>
-      <c r="U52" s="299"/>
+      <c r="R52" s="305"/>
+      <c r="S52" s="306"/>
+      <c r="T52" s="306"/>
+      <c r="U52" s="307"/>
     </row>
     <row r="53" spans="2:21" ht="20.25" customHeight="1">
       <c r="B53" s="218"/>
@@ -16801,10 +16581,10 @@
       <c r="N53" s="231"/>
       <c r="O53" s="216"/>
       <c r="P53" s="217"/>
-      <c r="R53" s="297"/>
-      <c r="S53" s="298"/>
-      <c r="T53" s="298"/>
-      <c r="U53" s="299"/>
+      <c r="R53" s="305"/>
+      <c r="S53" s="306"/>
+      <c r="T53" s="306"/>
+      <c r="U53" s="307"/>
     </row>
     <row r="54" spans="2:21" ht="20.25" customHeight="1">
       <c r="B54" s="218"/>
@@ -16822,10 +16602,10 @@
       <c r="N54" s="231"/>
       <c r="O54" s="216"/>
       <c r="P54" s="217"/>
-      <c r="R54" s="297"/>
-      <c r="S54" s="298"/>
-      <c r="T54" s="298"/>
-      <c r="U54" s="299"/>
+      <c r="R54" s="305"/>
+      <c r="S54" s="306"/>
+      <c r="T54" s="306"/>
+      <c r="U54" s="307"/>
     </row>
     <row r="55" spans="2:21" ht="20.25" customHeight="1">
       <c r="B55" s="218"/>
@@ -16843,10 +16623,10 @@
       <c r="N55" s="231"/>
       <c r="O55" s="216"/>
       <c r="P55" s="217"/>
-      <c r="R55" s="297"/>
-      <c r="S55" s="298"/>
-      <c r="T55" s="298"/>
-      <c r="U55" s="299"/>
+      <c r="R55" s="305"/>
+      <c r="S55" s="306"/>
+      <c r="T55" s="306"/>
+      <c r="U55" s="307"/>
     </row>
     <row r="56" spans="2:21" ht="20.25" customHeight="1">
       <c r="B56" s="218"/>
@@ -16864,10 +16644,10 @@
       <c r="N56" s="231"/>
       <c r="O56" s="216"/>
       <c r="P56" s="217"/>
-      <c r="R56" s="297"/>
-      <c r="S56" s="298"/>
-      <c r="T56" s="298"/>
-      <c r="U56" s="299"/>
+      <c r="R56" s="305"/>
+      <c r="S56" s="306"/>
+      <c r="T56" s="306"/>
+      <c r="U56" s="307"/>
     </row>
     <row r="57" spans="2:21" ht="20.25" customHeight="1">
       <c r="B57" s="218"/>
@@ -16885,10 +16665,10 @@
       <c r="N57" s="231"/>
       <c r="O57" s="216"/>
       <c r="P57" s="217"/>
-      <c r="R57" s="297"/>
-      <c r="S57" s="298"/>
-      <c r="T57" s="298"/>
-      <c r="U57" s="299"/>
+      <c r="R57" s="305"/>
+      <c r="S57" s="306"/>
+      <c r="T57" s="306"/>
+      <c r="U57" s="307"/>
     </row>
     <row r="58" spans="2:21" ht="20.25" customHeight="1">
       <c r="B58" s="218"/>
@@ -16906,10 +16686,10 @@
       <c r="N58" s="231"/>
       <c r="O58" s="216"/>
       <c r="P58" s="217"/>
-      <c r="R58" s="297"/>
-      <c r="S58" s="298"/>
-      <c r="T58" s="298"/>
-      <c r="U58" s="299"/>
+      <c r="R58" s="305"/>
+      <c r="S58" s="306"/>
+      <c r="T58" s="306"/>
+      <c r="U58" s="307"/>
     </row>
     <row r="59" spans="2:21" ht="20.25" customHeight="1">
       <c r="B59" s="218"/>
@@ -16927,10 +16707,10 @@
       <c r="N59" s="231"/>
       <c r="O59" s="216"/>
       <c r="P59" s="217"/>
-      <c r="R59" s="297"/>
-      <c r="S59" s="298"/>
-      <c r="T59" s="298"/>
-      <c r="U59" s="299"/>
+      <c r="R59" s="305"/>
+      <c r="S59" s="306"/>
+      <c r="T59" s="306"/>
+      <c r="U59" s="307"/>
     </row>
     <row r="60" spans="2:21" ht="20.25" customHeight="1">
       <c r="B60" s="218"/>
@@ -16948,10 +16728,10 @@
       <c r="N60" s="231"/>
       <c r="O60" s="216"/>
       <c r="P60" s="217"/>
-      <c r="R60" s="297"/>
-      <c r="S60" s="298"/>
-      <c r="T60" s="298"/>
-      <c r="U60" s="299"/>
+      <c r="R60" s="305"/>
+      <c r="S60" s="306"/>
+      <c r="T60" s="306"/>
+      <c r="U60" s="307"/>
     </row>
     <row r="61" spans="2:21" ht="20.25" customHeight="1">
       <c r="B61" s="218"/>
@@ -16969,10 +16749,10 @@
       <c r="N61" s="231"/>
       <c r="O61" s="216"/>
       <c r="P61" s="217"/>
-      <c r="R61" s="297"/>
-      <c r="S61" s="298"/>
-      <c r="T61" s="298"/>
-      <c r="U61" s="299"/>
+      <c r="R61" s="305"/>
+      <c r="S61" s="306"/>
+      <c r="T61" s="306"/>
+      <c r="U61" s="307"/>
     </row>
     <row r="62" spans="2:21" ht="20.25" customHeight="1">
       <c r="B62" s="218"/>
@@ -16990,10 +16770,10 @@
       <c r="N62" s="231"/>
       <c r="O62" s="216"/>
       <c r="P62" s="217"/>
-      <c r="R62" s="297"/>
-      <c r="S62" s="298"/>
-      <c r="T62" s="298"/>
-      <c r="U62" s="299"/>
+      <c r="R62" s="305"/>
+      <c r="S62" s="306"/>
+      <c r="T62" s="306"/>
+      <c r="U62" s="307"/>
     </row>
     <row r="63" spans="2:21" ht="20.25" customHeight="1">
       <c r="B63" s="218"/>
@@ -17011,10 +16791,10 @@
       <c r="N63" s="231"/>
       <c r="O63" s="216"/>
       <c r="P63" s="217"/>
-      <c r="R63" s="297"/>
-      <c r="S63" s="298"/>
-      <c r="T63" s="298"/>
-      <c r="U63" s="299"/>
+      <c r="R63" s="305"/>
+      <c r="S63" s="306"/>
+      <c r="T63" s="306"/>
+      <c r="U63" s="307"/>
     </row>
     <row r="64" spans="2:21" ht="20.25" customHeight="1">
       <c r="B64" s="218"/>
@@ -17032,10 +16812,10 @@
       <c r="N64" s="231"/>
       <c r="O64" s="216"/>
       <c r="P64" s="217"/>
-      <c r="R64" s="297"/>
-      <c r="S64" s="298"/>
-      <c r="T64" s="298"/>
-      <c r="U64" s="299"/>
+      <c r="R64" s="305"/>
+      <c r="S64" s="306"/>
+      <c r="T64" s="306"/>
+      <c r="U64" s="307"/>
     </row>
     <row r="65" spans="2:21" ht="20.25" customHeight="1">
       <c r="B65" s="218"/>
@@ -17053,10 +16833,10 @@
       <c r="N65" s="231"/>
       <c r="O65" s="216"/>
       <c r="P65" s="217"/>
-      <c r="R65" s="297"/>
-      <c r="S65" s="298"/>
-      <c r="T65" s="298"/>
-      <c r="U65" s="299"/>
+      <c r="R65" s="305"/>
+      <c r="S65" s="306"/>
+      <c r="T65" s="306"/>
+      <c r="U65" s="307"/>
     </row>
     <row r="66" spans="2:21" ht="20.25" customHeight="1">
       <c r="B66" s="218"/>
@@ -17074,10 +16854,10 @@
       <c r="N66" s="231"/>
       <c r="O66" s="216"/>
       <c r="P66" s="217"/>
-      <c r="R66" s="297"/>
-      <c r="S66" s="298"/>
-      <c r="T66" s="298"/>
-      <c r="U66" s="299"/>
+      <c r="R66" s="305"/>
+      <c r="S66" s="306"/>
+      <c r="T66" s="306"/>
+      <c r="U66" s="307"/>
     </row>
     <row r="67" spans="2:21" ht="20.25" customHeight="1">
       <c r="B67" s="218"/>
@@ -17095,10 +16875,10 @@
       <c r="N67" s="231"/>
       <c r="O67" s="216"/>
       <c r="P67" s="217"/>
-      <c r="R67" s="297"/>
-      <c r="S67" s="298"/>
-      <c r="T67" s="298"/>
-      <c r="U67" s="299"/>
+      <c r="R67" s="305"/>
+      <c r="S67" s="306"/>
+      <c r="T67" s="306"/>
+      <c r="U67" s="307"/>
     </row>
     <row r="68" spans="2:21" ht="20.25" customHeight="1">
       <c r="B68" s="218"/>
@@ -17116,10 +16896,10 @@
       <c r="N68" s="231"/>
       <c r="O68" s="216"/>
       <c r="P68" s="217"/>
-      <c r="R68" s="297"/>
-      <c r="S68" s="298"/>
-      <c r="T68" s="298"/>
-      <c r="U68" s="299"/>
+      <c r="R68" s="305"/>
+      <c r="S68" s="306"/>
+      <c r="T68" s="306"/>
+      <c r="U68" s="307"/>
     </row>
     <row r="69" spans="2:21" ht="20.25" customHeight="1">
       <c r="B69" s="218"/>
@@ -17137,10 +16917,10 @@
       <c r="N69" s="231"/>
       <c r="O69" s="216"/>
       <c r="P69" s="217"/>
-      <c r="R69" s="297"/>
-      <c r="S69" s="298"/>
-      <c r="T69" s="298"/>
-      <c r="U69" s="299"/>
+      <c r="R69" s="305"/>
+      <c r="S69" s="306"/>
+      <c r="T69" s="306"/>
+      <c r="U69" s="307"/>
     </row>
     <row r="70" spans="2:21" ht="20.25" customHeight="1">
       <c r="B70" s="218"/>
@@ -17158,10 +16938,10 @@
       <c r="N70" s="231"/>
       <c r="O70" s="216"/>
       <c r="P70" s="217"/>
-      <c r="R70" s="297"/>
-      <c r="S70" s="298"/>
-      <c r="T70" s="298"/>
-      <c r="U70" s="299"/>
+      <c r="R70" s="305"/>
+      <c r="S70" s="306"/>
+      <c r="T70" s="306"/>
+      <c r="U70" s="307"/>
     </row>
     <row r="71" spans="2:21" ht="20.25" customHeight="1">
       <c r="B71" s="218"/>
@@ -17179,10 +16959,10 @@
       <c r="N71" s="231"/>
       <c r="O71" s="216"/>
       <c r="P71" s="217"/>
-      <c r="R71" s="297"/>
-      <c r="S71" s="298"/>
-      <c r="T71" s="298"/>
-      <c r="U71" s="299"/>
+      <c r="R71" s="305"/>
+      <c r="S71" s="306"/>
+      <c r="T71" s="306"/>
+      <c r="U71" s="307"/>
     </row>
     <row r="72" spans="2:21" ht="20.25" customHeight="1">
       <c r="B72" s="218"/>
@@ -17200,10 +16980,10 @@
       <c r="N72" s="231"/>
       <c r="O72" s="216"/>
       <c r="P72" s="217"/>
-      <c r="R72" s="297"/>
-      <c r="S72" s="298"/>
-      <c r="T72" s="298"/>
-      <c r="U72" s="299"/>
+      <c r="R72" s="305"/>
+      <c r="S72" s="306"/>
+      <c r="T72" s="306"/>
+      <c r="U72" s="307"/>
     </row>
     <row r="73" spans="2:21" ht="20.25" customHeight="1">
       <c r="B73" s="218"/>
@@ -17221,10 +17001,10 @@
       <c r="N73" s="231"/>
       <c r="O73" s="216"/>
       <c r="P73" s="217"/>
-      <c r="R73" s="297"/>
-      <c r="S73" s="298"/>
-      <c r="T73" s="298"/>
-      <c r="U73" s="299"/>
+      <c r="R73" s="305"/>
+      <c r="S73" s="306"/>
+      <c r="T73" s="306"/>
+      <c r="U73" s="307"/>
     </row>
     <row r="74" spans="2:21" ht="20.25" customHeight="1">
       <c r="B74" s="218"/>
@@ -17242,10 +17022,10 @@
       <c r="N74" s="231"/>
       <c r="O74" s="216"/>
       <c r="P74" s="217"/>
-      <c r="R74" s="297"/>
-      <c r="S74" s="298"/>
-      <c r="T74" s="298"/>
-      <c r="U74" s="299"/>
+      <c r="R74" s="305"/>
+      <c r="S74" s="306"/>
+      <c r="T74" s="306"/>
+      <c r="U74" s="307"/>
     </row>
     <row r="75" spans="2:21" ht="20.25" customHeight="1">
       <c r="B75" s="218"/>
@@ -17263,10 +17043,10 @@
       <c r="N75" s="231"/>
       <c r="O75" s="216"/>
       <c r="P75" s="217"/>
-      <c r="R75" s="297"/>
-      <c r="S75" s="298"/>
-      <c r="T75" s="298"/>
-      <c r="U75" s="299"/>
+      <c r="R75" s="305"/>
+      <c r="S75" s="306"/>
+      <c r="T75" s="306"/>
+      <c r="U75" s="307"/>
     </row>
     <row r="76" spans="2:21" ht="20.25" customHeight="1">
       <c r="B76" s="218"/>
@@ -17284,10 +17064,10 @@
       <c r="N76" s="231"/>
       <c r="O76" s="216"/>
       <c r="P76" s="217"/>
-      <c r="R76" s="297"/>
-      <c r="S76" s="298"/>
-      <c r="T76" s="298"/>
-      <c r="U76" s="299"/>
+      <c r="R76" s="305"/>
+      <c r="S76" s="306"/>
+      <c r="T76" s="306"/>
+      <c r="U76" s="307"/>
     </row>
     <row r="77" spans="2:21" ht="20.25" customHeight="1">
       <c r="B77" s="218"/>
@@ -17305,10 +17085,10 @@
       <c r="N77" s="231"/>
       <c r="O77" s="216"/>
       <c r="P77" s="217"/>
-      <c r="R77" s="297"/>
-      <c r="S77" s="298"/>
-      <c r="T77" s="298"/>
-      <c r="U77" s="299"/>
+      <c r="R77" s="305"/>
+      <c r="S77" s="306"/>
+      <c r="T77" s="306"/>
+      <c r="U77" s="307"/>
     </row>
     <row r="78" spans="2:21" ht="20.25" customHeight="1">
       <c r="B78" s="218"/>
@@ -17326,10 +17106,10 @@
       <c r="N78" s="231"/>
       <c r="O78" s="216"/>
       <c r="P78" s="217"/>
-      <c r="R78" s="297"/>
-      <c r="S78" s="298"/>
-      <c r="T78" s="298"/>
-      <c r="U78" s="299"/>
+      <c r="R78" s="305"/>
+      <c r="S78" s="306"/>
+      <c r="T78" s="306"/>
+      <c r="U78" s="307"/>
     </row>
     <row r="79" spans="2:21" ht="20.25" customHeight="1">
       <c r="B79" s="218"/>
@@ -17347,10 +17127,10 @@
       <c r="N79" s="231"/>
       <c r="O79" s="216"/>
       <c r="P79" s="217"/>
-      <c r="R79" s="297"/>
-      <c r="S79" s="298"/>
-      <c r="T79" s="298"/>
-      <c r="U79" s="299"/>
+      <c r="R79" s="305"/>
+      <c r="S79" s="306"/>
+      <c r="T79" s="306"/>
+      <c r="U79" s="307"/>
     </row>
     <row r="80" spans="2:21" ht="20.25" customHeight="1">
       <c r="B80" s="218"/>
@@ -17368,10 +17148,10 @@
       <c r="N80" s="231"/>
       <c r="O80" s="216"/>
       <c r="P80" s="217"/>
-      <c r="R80" s="297"/>
-      <c r="S80" s="298"/>
-      <c r="T80" s="298"/>
-      <c r="U80" s="299"/>
+      <c r="R80" s="305"/>
+      <c r="S80" s="306"/>
+      <c r="T80" s="306"/>
+      <c r="U80" s="307"/>
     </row>
     <row r="81" spans="2:21" ht="20.25" customHeight="1">
       <c r="B81" s="218"/>
@@ -17389,10 +17169,10 @@
       <c r="N81" s="231"/>
       <c r="O81" s="216"/>
       <c r="P81" s="217"/>
-      <c r="R81" s="297"/>
-      <c r="S81" s="298"/>
-      <c r="T81" s="298"/>
-      <c r="U81" s="299"/>
+      <c r="R81" s="305"/>
+      <c r="S81" s="306"/>
+      <c r="T81" s="306"/>
+      <c r="U81" s="307"/>
     </row>
     <row r="82" spans="2:21" ht="20.25" customHeight="1">
       <c r="B82" s="218"/>
@@ -17410,10 +17190,10 @@
       <c r="N82" s="231"/>
       <c r="O82" s="216"/>
       <c r="P82" s="217"/>
-      <c r="R82" s="297"/>
-      <c r="S82" s="298"/>
-      <c r="T82" s="298"/>
-      <c r="U82" s="299"/>
+      <c r="R82" s="305"/>
+      <c r="S82" s="306"/>
+      <c r="T82" s="306"/>
+      <c r="U82" s="307"/>
     </row>
     <row r="83" spans="2:21" ht="20.25" customHeight="1">
       <c r="B83" s="218"/>
@@ -17431,10 +17211,10 @@
       <c r="N83" s="231"/>
       <c r="O83" s="216"/>
       <c r="P83" s="217"/>
-      <c r="R83" s="297"/>
-      <c r="S83" s="298"/>
-      <c r="T83" s="298"/>
-      <c r="U83" s="299"/>
+      <c r="R83" s="305"/>
+      <c r="S83" s="306"/>
+      <c r="T83" s="306"/>
+      <c r="U83" s="307"/>
     </row>
     <row r="84" spans="2:21" ht="20.25" customHeight="1">
       <c r="B84" s="218"/>
@@ -17452,10 +17232,10 @@
       <c r="N84" s="231"/>
       <c r="O84" s="216"/>
       <c r="P84" s="217"/>
-      <c r="R84" s="297"/>
-      <c r="S84" s="298"/>
-      <c r="T84" s="298"/>
-      <c r="U84" s="299"/>
+      <c r="R84" s="305"/>
+      <c r="S84" s="306"/>
+      <c r="T84" s="306"/>
+      <c r="U84" s="307"/>
     </row>
     <row r="85" spans="2:21" ht="20.25" customHeight="1">
       <c r="B85" s="218"/>
@@ -17473,10 +17253,10 @@
       <c r="N85" s="231"/>
       <c r="O85" s="216"/>
       <c r="P85" s="217"/>
-      <c r="R85" s="297"/>
-      <c r="S85" s="298"/>
-      <c r="T85" s="298"/>
-      <c r="U85" s="299"/>
+      <c r="R85" s="305"/>
+      <c r="S85" s="306"/>
+      <c r="T85" s="306"/>
+      <c r="U85" s="307"/>
     </row>
     <row r="86" spans="2:21" ht="20.25" customHeight="1">
       <c r="B86" s="218"/>
@@ -17494,10 +17274,10 @@
       <c r="N86" s="231"/>
       <c r="O86" s="216"/>
       <c r="P86" s="217"/>
-      <c r="R86" s="297"/>
-      <c r="S86" s="298"/>
-      <c r="T86" s="298"/>
-      <c r="U86" s="299"/>
+      <c r="R86" s="305"/>
+      <c r="S86" s="306"/>
+      <c r="T86" s="306"/>
+      <c r="U86" s="307"/>
     </row>
     <row r="87" spans="2:21" ht="20.25" customHeight="1">
       <c r="B87" s="218"/>
@@ -17515,10 +17295,10 @@
       <c r="N87" s="231"/>
       <c r="O87" s="216"/>
       <c r="P87" s="217"/>
-      <c r="R87" s="297"/>
-      <c r="S87" s="298"/>
-      <c r="T87" s="298"/>
-      <c r="U87" s="299"/>
+      <c r="R87" s="305"/>
+      <c r="S87" s="306"/>
+      <c r="T87" s="306"/>
+      <c r="U87" s="307"/>
     </row>
     <row r="88" spans="2:21" ht="20.25" customHeight="1">
       <c r="B88" s="218"/>
@@ -17536,10 +17316,10 @@
       <c r="N88" s="231"/>
       <c r="O88" s="216"/>
       <c r="P88" s="217"/>
-      <c r="R88" s="297"/>
-      <c r="S88" s="298"/>
-      <c r="T88" s="298"/>
-      <c r="U88" s="299"/>
+      <c r="R88" s="305"/>
+      <c r="S88" s="306"/>
+      <c r="T88" s="306"/>
+      <c r="U88" s="307"/>
     </row>
     <row r="89" spans="2:21" ht="20.25" customHeight="1">
       <c r="B89" s="218"/>
@@ -17557,10 +17337,10 @@
       <c r="N89" s="231"/>
       <c r="O89" s="216"/>
       <c r="P89" s="217"/>
-      <c r="R89" s="297"/>
-      <c r="S89" s="298"/>
-      <c r="T89" s="298"/>
-      <c r="U89" s="299"/>
+      <c r="R89" s="305"/>
+      <c r="S89" s="306"/>
+      <c r="T89" s="306"/>
+      <c r="U89" s="307"/>
     </row>
     <row r="90" spans="2:21" ht="20.25" customHeight="1">
       <c r="B90" s="218"/>
@@ -17578,10 +17358,10 @@
       <c r="N90" s="231"/>
       <c r="O90" s="216"/>
       <c r="P90" s="217"/>
-      <c r="R90" s="297"/>
-      <c r="S90" s="298"/>
-      <c r="T90" s="298"/>
-      <c r="U90" s="299"/>
+      <c r="R90" s="305"/>
+      <c r="S90" s="306"/>
+      <c r="T90" s="306"/>
+      <c r="U90" s="307"/>
     </row>
     <row r="91" spans="2:21" ht="20.25" customHeight="1">
       <c r="B91" s="218"/>
@@ -17599,10 +17379,10 @@
       <c r="N91" s="231"/>
       <c r="O91" s="216"/>
       <c r="P91" s="217"/>
-      <c r="R91" s="297"/>
-      <c r="S91" s="298"/>
-      <c r="T91" s="298"/>
-      <c r="U91" s="299"/>
+      <c r="R91" s="305"/>
+      <c r="S91" s="306"/>
+      <c r="T91" s="306"/>
+      <c r="U91" s="307"/>
     </row>
     <row r="92" spans="2:21" ht="20.25" customHeight="1">
       <c r="B92" s="218"/>
@@ -17620,10 +17400,10 @@
       <c r="N92" s="231"/>
       <c r="O92" s="216"/>
       <c r="P92" s="217"/>
-      <c r="R92" s="297"/>
-      <c r="S92" s="298"/>
-      <c r="T92" s="298"/>
-      <c r="U92" s="299"/>
+      <c r="R92" s="305"/>
+      <c r="S92" s="306"/>
+      <c r="T92" s="306"/>
+      <c r="U92" s="307"/>
     </row>
     <row r="93" spans="2:21" ht="20.25" customHeight="1">
       <c r="B93" s="218"/>
@@ -17641,10 +17421,10 @@
       <c r="N93" s="231"/>
       <c r="O93" s="216"/>
       <c r="P93" s="217"/>
-      <c r="R93" s="297"/>
-      <c r="S93" s="298"/>
-      <c r="T93" s="298"/>
-      <c r="U93" s="299"/>
+      <c r="R93" s="305"/>
+      <c r="S93" s="306"/>
+      <c r="T93" s="306"/>
+      <c r="U93" s="307"/>
     </row>
     <row r="94" spans="2:21" ht="20.25" customHeight="1">
       <c r="B94" s="218"/>
@@ -17662,10 +17442,10 @@
       <c r="N94" s="231"/>
       <c r="O94" s="216"/>
       <c r="P94" s="217"/>
-      <c r="R94" s="297"/>
-      <c r="S94" s="298"/>
-      <c r="T94" s="298"/>
-      <c r="U94" s="299"/>
+      <c r="R94" s="305"/>
+      <c r="S94" s="306"/>
+      <c r="T94" s="306"/>
+      <c r="U94" s="307"/>
     </row>
     <row r="95" spans="2:21" ht="20.25" customHeight="1">
       <c r="B95" s="218"/>
@@ -17683,10 +17463,10 @@
       <c r="N95" s="231"/>
       <c r="O95" s="216"/>
       <c r="P95" s="217"/>
-      <c r="R95" s="297"/>
-      <c r="S95" s="298"/>
-      <c r="T95" s="298"/>
-      <c r="U95" s="299"/>
+      <c r="R95" s="305"/>
+      <c r="S95" s="306"/>
+      <c r="T95" s="306"/>
+      <c r="U95" s="307"/>
     </row>
     <row r="96" spans="2:21" ht="20.25" customHeight="1">
       <c r="B96" s="218"/>
@@ -17704,10 +17484,10 @@
       <c r="N96" s="231"/>
       <c r="O96" s="216"/>
       <c r="P96" s="217"/>
-      <c r="R96" s="297"/>
-      <c r="S96" s="298"/>
-      <c r="T96" s="298"/>
-      <c r="U96" s="299"/>
+      <c r="R96" s="305"/>
+      <c r="S96" s="306"/>
+      <c r="T96" s="306"/>
+      <c r="U96" s="307"/>
     </row>
     <row r="97" spans="2:21" ht="20.25" customHeight="1">
       <c r="B97" s="218"/>
@@ -17725,10 +17505,10 @@
       <c r="N97" s="231"/>
       <c r="O97" s="216"/>
       <c r="P97" s="217"/>
-      <c r="R97" s="297"/>
-      <c r="S97" s="298"/>
-      <c r="T97" s="298"/>
-      <c r="U97" s="299"/>
+      <c r="R97" s="305"/>
+      <c r="S97" s="306"/>
+      <c r="T97" s="306"/>
+      <c r="U97" s="307"/>
     </row>
     <row r="98" spans="2:21" ht="20.25" customHeight="1">
       <c r="B98" s="218"/>
@@ -17746,10 +17526,10 @@
       <c r="N98" s="231"/>
       <c r="O98" s="216"/>
       <c r="P98" s="217"/>
-      <c r="R98" s="297"/>
-      <c r="S98" s="298"/>
-      <c r="T98" s="298"/>
-      <c r="U98" s="299"/>
+      <c r="R98" s="305"/>
+      <c r="S98" s="306"/>
+      <c r="T98" s="306"/>
+      <c r="U98" s="307"/>
     </row>
     <row r="99" spans="2:21" ht="20.25" customHeight="1">
       <c r="B99" s="218"/>
@@ -17767,10 +17547,10 @@
       <c r="N99" s="231"/>
       <c r="O99" s="216"/>
       <c r="P99" s="217"/>
-      <c r="R99" s="297"/>
-      <c r="S99" s="298"/>
-      <c r="T99" s="298"/>
-      <c r="U99" s="299"/>
+      <c r="R99" s="305"/>
+      <c r="S99" s="306"/>
+      <c r="T99" s="306"/>
+      <c r="U99" s="307"/>
     </row>
     <row r="100" spans="2:21" ht="20.25" customHeight="1">
       <c r="B100" s="218"/>
@@ -17788,10 +17568,10 @@
       <c r="N100" s="231"/>
       <c r="O100" s="216"/>
       <c r="P100" s="217"/>
-      <c r="R100" s="297"/>
-      <c r="S100" s="298"/>
-      <c r="T100" s="298"/>
-      <c r="U100" s="299"/>
+      <c r="R100" s="305"/>
+      <c r="S100" s="306"/>
+      <c r="T100" s="306"/>
+      <c r="U100" s="307"/>
     </row>
     <row r="101" spans="2:21" ht="20.25" customHeight="1">
       <c r="B101" s="218"/>
@@ -17809,10 +17589,10 @@
       <c r="N101" s="231"/>
       <c r="O101" s="216"/>
       <c r="P101" s="217"/>
-      <c r="R101" s="297"/>
-      <c r="S101" s="298"/>
-      <c r="T101" s="298"/>
-      <c r="U101" s="299"/>
+      <c r="R101" s="305"/>
+      <c r="S101" s="306"/>
+      <c r="T101" s="306"/>
+      <c r="U101" s="307"/>
     </row>
     <row r="102" spans="2:21" ht="20.25" customHeight="1">
       <c r="B102" s="218"/>
@@ -17830,10 +17610,10 @@
       <c r="N102" s="231"/>
       <c r="O102" s="216"/>
       <c r="P102" s="217"/>
-      <c r="R102" s="297"/>
-      <c r="S102" s="298"/>
-      <c r="T102" s="298"/>
-      <c r="U102" s="299"/>
+      <c r="R102" s="305"/>
+      <c r="S102" s="306"/>
+      <c r="T102" s="306"/>
+      <c r="U102" s="307"/>
     </row>
     <row r="103" spans="2:21" ht="20.25" customHeight="1">
       <c r="B103" s="218"/>
@@ -17851,10 +17631,10 @@
       <c r="N103" s="231"/>
       <c r="O103" s="216"/>
       <c r="P103" s="217"/>
-      <c r="R103" s="297"/>
-      <c r="S103" s="298"/>
-      <c r="T103" s="298"/>
-      <c r="U103" s="299"/>
+      <c r="R103" s="305"/>
+      <c r="S103" s="306"/>
+      <c r="T103" s="306"/>
+      <c r="U103" s="307"/>
     </row>
     <row r="104" spans="2:21" ht="20.25" customHeight="1">
       <c r="B104" s="218"/>
@@ -17872,10 +17652,10 @@
       <c r="N104" s="231"/>
       <c r="O104" s="216"/>
       <c r="P104" s="217"/>
-      <c r="R104" s="297"/>
-      <c r="S104" s="298"/>
-      <c r="T104" s="298"/>
-      <c r="U104" s="299"/>
+      <c r="R104" s="305"/>
+      <c r="S104" s="306"/>
+      <c r="T104" s="306"/>
+      <c r="U104" s="307"/>
     </row>
     <row r="105" spans="2:21" ht="20.25" customHeight="1">
       <c r="B105" s="218"/>
@@ -17893,10 +17673,10 @@
       <c r="N105" s="231"/>
       <c r="O105" s="216"/>
       <c r="P105" s="217"/>
-      <c r="R105" s="297"/>
-      <c r="S105" s="298"/>
-      <c r="T105" s="298"/>
-      <c r="U105" s="299"/>
+      <c r="R105" s="305"/>
+      <c r="S105" s="306"/>
+      <c r="T105" s="306"/>
+      <c r="U105" s="307"/>
     </row>
     <row r="106" spans="2:21" ht="20.25" customHeight="1">
       <c r="B106" s="218"/>
@@ -17914,10 +17694,10 @@
       <c r="N106" s="231"/>
       <c r="O106" s="216"/>
       <c r="P106" s="217"/>
-      <c r="R106" s="297"/>
-      <c r="S106" s="298"/>
-      <c r="T106" s="298"/>
-      <c r="U106" s="299"/>
+      <c r="R106" s="305"/>
+      <c r="S106" s="306"/>
+      <c r="T106" s="306"/>
+      <c r="U106" s="307"/>
     </row>
     <row r="107" spans="2:21" ht="20.25" customHeight="1">
       <c r="B107" s="218"/>
@@ -17935,10 +17715,10 @@
       <c r="N107" s="231"/>
       <c r="O107" s="216"/>
       <c r="P107" s="217"/>
-      <c r="R107" s="297"/>
-      <c r="S107" s="298"/>
-      <c r="T107" s="298"/>
-      <c r="U107" s="299"/>
+      <c r="R107" s="305"/>
+      <c r="S107" s="306"/>
+      <c r="T107" s="306"/>
+      <c r="U107" s="307"/>
     </row>
     <row r="108" spans="2:21" ht="20.25" customHeight="1">
       <c r="B108" s="218"/>
@@ -17956,10 +17736,10 @@
       <c r="N108" s="231"/>
       <c r="O108" s="216"/>
       <c r="P108" s="217"/>
-      <c r="R108" s="297"/>
-      <c r="S108" s="298"/>
-      <c r="T108" s="298"/>
-      <c r="U108" s="299"/>
+      <c r="R108" s="305"/>
+      <c r="S108" s="306"/>
+      <c r="T108" s="306"/>
+      <c r="U108" s="307"/>
     </row>
     <row r="109" spans="2:21" ht="20.25" customHeight="1">
       <c r="B109" s="218"/>
@@ -17977,10 +17757,10 @@
       <c r="N109" s="231"/>
       <c r="O109" s="216"/>
       <c r="P109" s="217"/>
-      <c r="R109" s="297"/>
-      <c r="S109" s="298"/>
-      <c r="T109" s="298"/>
-      <c r="U109" s="299"/>
+      <c r="R109" s="305"/>
+      <c r="S109" s="306"/>
+      <c r="T109" s="306"/>
+      <c r="U109" s="307"/>
     </row>
     <row r="110" spans="2:21" ht="20.25" customHeight="1">
       <c r="B110" s="218"/>
@@ -17998,10 +17778,10 @@
       <c r="N110" s="231"/>
       <c r="O110" s="216"/>
       <c r="P110" s="217"/>
-      <c r="R110" s="297"/>
-      <c r="S110" s="298"/>
-      <c r="T110" s="298"/>
-      <c r="U110" s="299"/>
+      <c r="R110" s="305"/>
+      <c r="S110" s="306"/>
+      <c r="T110" s="306"/>
+      <c r="U110" s="307"/>
     </row>
     <row r="111" spans="2:21" ht="20.25" customHeight="1">
       <c r="B111" s="218"/>
@@ -18019,10 +17799,10 @@
       <c r="N111" s="231"/>
       <c r="O111" s="216"/>
       <c r="P111" s="217"/>
-      <c r="R111" s="297"/>
-      <c r="S111" s="298"/>
-      <c r="T111" s="298"/>
-      <c r="U111" s="299"/>
+      <c r="R111" s="305"/>
+      <c r="S111" s="306"/>
+      <c r="T111" s="306"/>
+      <c r="U111" s="307"/>
     </row>
     <row r="112" spans="2:21" ht="20.25" customHeight="1">
       <c r="B112" s="218"/>
@@ -18040,10 +17820,10 @@
       <c r="N112" s="231"/>
       <c r="O112" s="216"/>
       <c r="P112" s="217"/>
-      <c r="R112" s="297"/>
-      <c r="S112" s="298"/>
-      <c r="T112" s="298"/>
-      <c r="U112" s="299"/>
+      <c r="R112" s="305"/>
+      <c r="S112" s="306"/>
+      <c r="T112" s="306"/>
+      <c r="U112" s="307"/>
     </row>
     <row r="113" spans="2:21" ht="20.25" customHeight="1">
       <c r="B113" s="218"/>
@@ -18061,10 +17841,10 @@
       <c r="N113" s="231"/>
       <c r="O113" s="216"/>
       <c r="P113" s="217"/>
-      <c r="R113" s="297"/>
-      <c r="S113" s="298"/>
-      <c r="T113" s="298"/>
-      <c r="U113" s="299"/>
+      <c r="R113" s="305"/>
+      <c r="S113" s="306"/>
+      <c r="T113" s="306"/>
+      <c r="U113" s="307"/>
     </row>
     <row r="114" spans="2:21" ht="20.25" customHeight="1">
       <c r="B114" s="218"/>
@@ -18082,10 +17862,10 @@
       <c r="N114" s="231"/>
       <c r="O114" s="216"/>
       <c r="P114" s="217"/>
-      <c r="R114" s="297"/>
-      <c r="S114" s="298"/>
-      <c r="T114" s="298"/>
-      <c r="U114" s="299"/>
+      <c r="R114" s="305"/>
+      <c r="S114" s="306"/>
+      <c r="T114" s="306"/>
+      <c r="U114" s="307"/>
     </row>
     <row r="115" spans="2:21" ht="20.25" customHeight="1">
       <c r="B115" s="218"/>
@@ -18103,10 +17883,10 @@
       <c r="N115" s="231"/>
       <c r="O115" s="216"/>
       <c r="P115" s="217"/>
-      <c r="R115" s="297"/>
-      <c r="S115" s="298"/>
-      <c r="T115" s="298"/>
-      <c r="U115" s="299"/>
+      <c r="R115" s="305"/>
+      <c r="S115" s="306"/>
+      <c r="T115" s="306"/>
+      <c r="U115" s="307"/>
     </row>
     <row r="116" spans="2:21" ht="20.25" customHeight="1">
       <c r="B116" s="218"/>
@@ -18124,10 +17904,10 @@
       <c r="N116" s="231"/>
       <c r="O116" s="216"/>
       <c r="P116" s="217"/>
-      <c r="R116" s="297"/>
-      <c r="S116" s="298"/>
-      <c r="T116" s="298"/>
-      <c r="U116" s="299"/>
+      <c r="R116" s="305"/>
+      <c r="S116" s="306"/>
+      <c r="T116" s="306"/>
+      <c r="U116" s="307"/>
     </row>
     <row r="117" spans="2:21" ht="20.25" customHeight="1">
       <c r="B117" s="218"/>
@@ -18145,10 +17925,10 @@
       <c r="N117" s="231"/>
       <c r="O117" s="216"/>
       <c r="P117" s="217"/>
-      <c r="R117" s="297"/>
-      <c r="S117" s="298"/>
-      <c r="T117" s="298"/>
-      <c r="U117" s="299"/>
+      <c r="R117" s="305"/>
+      <c r="S117" s="306"/>
+      <c r="T117" s="306"/>
+      <c r="U117" s="307"/>
     </row>
     <row r="118" spans="2:21" ht="20.25" customHeight="1">
       <c r="B118" s="218"/>
@@ -18166,10 +17946,10 @@
       <c r="N118" s="231"/>
       <c r="O118" s="216"/>
       <c r="P118" s="217"/>
-      <c r="R118" s="297"/>
-      <c r="S118" s="298"/>
-      <c r="T118" s="298"/>
-      <c r="U118" s="299"/>
+      <c r="R118" s="305"/>
+      <c r="S118" s="306"/>
+      <c r="T118" s="306"/>
+      <c r="U118" s="307"/>
     </row>
     <row r="119" spans="2:21" ht="20.25" customHeight="1">
       <c r="B119" s="218"/>
@@ -18187,10 +17967,10 @@
       <c r="N119" s="231"/>
       <c r="O119" s="216"/>
       <c r="P119" s="217"/>
-      <c r="R119" s="297"/>
-      <c r="S119" s="298"/>
-      <c r="T119" s="298"/>
-      <c r="U119" s="299"/>
+      <c r="R119" s="305"/>
+      <c r="S119" s="306"/>
+      <c r="T119" s="306"/>
+      <c r="U119" s="307"/>
     </row>
     <row r="120" spans="2:21" ht="20.25" customHeight="1">
       <c r="B120" s="218"/>
@@ -18208,10 +17988,10 @@
       <c r="N120" s="231"/>
       <c r="O120" s="216"/>
       <c r="P120" s="217"/>
-      <c r="R120" s="297"/>
-      <c r="S120" s="298"/>
-      <c r="T120" s="298"/>
-      <c r="U120" s="299"/>
+      <c r="R120" s="305"/>
+      <c r="S120" s="306"/>
+      <c r="T120" s="306"/>
+      <c r="U120" s="307"/>
     </row>
     <row r="121" spans="2:21" ht="20.25" customHeight="1">
       <c r="B121" s="218"/>
@@ -18229,10 +18009,10 @@
       <c r="N121" s="231"/>
       <c r="O121" s="216"/>
       <c r="P121" s="217"/>
-      <c r="R121" s="297"/>
-      <c r="S121" s="298"/>
-      <c r="T121" s="298"/>
-      <c r="U121" s="299"/>
+      <c r="R121" s="305"/>
+      <c r="S121" s="306"/>
+      <c r="T121" s="306"/>
+      <c r="U121" s="307"/>
     </row>
     <row r="122" spans="2:21" ht="20.25" customHeight="1">
       <c r="B122" s="218"/>
@@ -18250,10 +18030,10 @@
       <c r="N122" s="231"/>
       <c r="O122" s="216"/>
       <c r="P122" s="217"/>
-      <c r="R122" s="297"/>
-      <c r="S122" s="298"/>
-      <c r="T122" s="298"/>
-      <c r="U122" s="299"/>
+      <c r="R122" s="305"/>
+      <c r="S122" s="306"/>
+      <c r="T122" s="306"/>
+      <c r="U122" s="307"/>
     </row>
     <row r="123" spans="2:21" ht="20.25" customHeight="1">
       <c r="B123" s="218"/>
@@ -18271,10 +18051,10 @@
       <c r="N123" s="231"/>
       <c r="O123" s="216"/>
       <c r="P123" s="217"/>
-      <c r="R123" s="297"/>
-      <c r="S123" s="298"/>
-      <c r="T123" s="298"/>
-      <c r="U123" s="299"/>
+      <c r="R123" s="305"/>
+      <c r="S123" s="306"/>
+      <c r="T123" s="306"/>
+      <c r="U123" s="307"/>
     </row>
     <row r="124" spans="2:21" ht="20.25" customHeight="1">
       <c r="B124" s="218"/>
@@ -18292,10 +18072,10 @@
       <c r="N124" s="231"/>
       <c r="O124" s="216"/>
       <c r="P124" s="217"/>
-      <c r="R124" s="297"/>
-      <c r="S124" s="298"/>
-      <c r="T124" s="298"/>
-      <c r="U124" s="299"/>
+      <c r="R124" s="305"/>
+      <c r="S124" s="306"/>
+      <c r="T124" s="306"/>
+      <c r="U124" s="307"/>
     </row>
     <row r="125" spans="2:21" ht="20.25" customHeight="1">
       <c r="B125" s="218"/>
@@ -18313,10 +18093,10 @@
       <c r="N125" s="231"/>
       <c r="O125" s="216"/>
       <c r="P125" s="217"/>
-      <c r="R125" s="297"/>
-      <c r="S125" s="298"/>
-      <c r="T125" s="298"/>
-      <c r="U125" s="299"/>
+      <c r="R125" s="305"/>
+      <c r="S125" s="306"/>
+      <c r="T125" s="306"/>
+      <c r="U125" s="307"/>
     </row>
     <row r="126" spans="2:21" ht="20.25" customHeight="1">
       <c r="B126" s="218"/>
@@ -18334,10 +18114,10 @@
       <c r="N126" s="231"/>
       <c r="O126" s="216"/>
       <c r="P126" s="217"/>
-      <c r="R126" s="297"/>
-      <c r="S126" s="298"/>
-      <c r="T126" s="298"/>
-      <c r="U126" s="299"/>
+      <c r="R126" s="305"/>
+      <c r="S126" s="306"/>
+      <c r="T126" s="306"/>
+      <c r="U126" s="307"/>
     </row>
     <row r="127" spans="2:21" ht="20.25" customHeight="1">
       <c r="B127" s="218"/>
@@ -18355,10 +18135,10 @@
       <c r="N127" s="231"/>
       <c r="O127" s="216"/>
       <c r="P127" s="217"/>
-      <c r="R127" s="297"/>
-      <c r="S127" s="298"/>
-      <c r="T127" s="298"/>
-      <c r="U127" s="299"/>
+      <c r="R127" s="305"/>
+      <c r="S127" s="306"/>
+      <c r="T127" s="306"/>
+      <c r="U127" s="307"/>
     </row>
     <row r="128" spans="2:21" ht="20.25" customHeight="1">
       <c r="B128" s="218"/>
@@ -18376,10 +18156,10 @@
       <c r="N128" s="231"/>
       <c r="O128" s="216"/>
       <c r="P128" s="217"/>
-      <c r="R128" s="297"/>
-      <c r="S128" s="298"/>
-      <c r="T128" s="298"/>
-      <c r="U128" s="299"/>
+      <c r="R128" s="305"/>
+      <c r="S128" s="306"/>
+      <c r="T128" s="306"/>
+      <c r="U128" s="307"/>
     </row>
     <row r="129" spans="2:21" ht="20.25" customHeight="1">
       <c r="B129" s="218"/>
@@ -18397,10 +18177,10 @@
       <c r="N129" s="231"/>
       <c r="O129" s="216"/>
       <c r="P129" s="217"/>
-      <c r="R129" s="297"/>
-      <c r="S129" s="298"/>
-      <c r="T129" s="298"/>
-      <c r="U129" s="299"/>
+      <c r="R129" s="305"/>
+      <c r="S129" s="306"/>
+      <c r="T129" s="306"/>
+      <c r="U129" s="307"/>
     </row>
     <row r="130" spans="2:21" ht="20.25" customHeight="1">
       <c r="B130" s="218"/>
@@ -18418,10 +18198,10 @@
       <c r="N130" s="231"/>
       <c r="O130" s="216"/>
       <c r="P130" s="217"/>
-      <c r="R130" s="297"/>
-      <c r="S130" s="298"/>
-      <c r="T130" s="298"/>
-      <c r="U130" s="299"/>
+      <c r="R130" s="305"/>
+      <c r="S130" s="306"/>
+      <c r="T130" s="306"/>
+      <c r="U130" s="307"/>
     </row>
     <row r="131" spans="2:21" ht="20.25" customHeight="1">
       <c r="B131" s="218"/>
@@ -18439,10 +18219,10 @@
       <c r="N131" s="231"/>
       <c r="O131" s="216"/>
       <c r="P131" s="217"/>
-      <c r="R131" s="297"/>
-      <c r="S131" s="298"/>
-      <c r="T131" s="298"/>
-      <c r="U131" s="299"/>
+      <c r="R131" s="305"/>
+      <c r="S131" s="306"/>
+      <c r="T131" s="306"/>
+      <c r="U131" s="307"/>
     </row>
     <row r="132" spans="2:21" ht="20.25" customHeight="1">
       <c r="B132" s="218"/>
@@ -18460,10 +18240,10 @@
       <c r="N132" s="231"/>
       <c r="O132" s="216"/>
       <c r="P132" s="217"/>
-      <c r="R132" s="297"/>
-      <c r="S132" s="298"/>
-      <c r="T132" s="298"/>
-      <c r="U132" s="299"/>
+      <c r="R132" s="305"/>
+      <c r="S132" s="306"/>
+      <c r="T132" s="306"/>
+      <c r="U132" s="307"/>
     </row>
     <row r="133" spans="2:21" ht="20.25" customHeight="1">
       <c r="B133" s="218"/>
@@ -18481,10 +18261,10 @@
       <c r="N133" s="231"/>
       <c r="O133" s="216"/>
       <c r="P133" s="217"/>
-      <c r="R133" s="297"/>
-      <c r="S133" s="298"/>
-      <c r="T133" s="298"/>
-      <c r="U133" s="299"/>
+      <c r="R133" s="305"/>
+      <c r="S133" s="306"/>
+      <c r="T133" s="306"/>
+      <c r="U133" s="307"/>
     </row>
     <row r="134" spans="2:21" ht="20.25" customHeight="1">
       <c r="B134" s="218"/>
@@ -18502,10 +18282,10 @@
       <c r="N134" s="231"/>
       <c r="O134" s="216"/>
       <c r="P134" s="217"/>
-      <c r="R134" s="297"/>
-      <c r="S134" s="298"/>
-      <c r="T134" s="298"/>
-      <c r="U134" s="299"/>
+      <c r="R134" s="305"/>
+      <c r="S134" s="306"/>
+      <c r="T134" s="306"/>
+      <c r="U134" s="307"/>
     </row>
     <row r="135" spans="2:21" ht="20.25" customHeight="1">
       <c r="B135" s="218"/>
@@ -18523,10 +18303,10 @@
       <c r="N135" s="231"/>
       <c r="O135" s="216"/>
       <c r="P135" s="217"/>
-      <c r="R135" s="297"/>
-      <c r="S135" s="298"/>
-      <c r="T135" s="298"/>
-      <c r="U135" s="299"/>
+      <c r="R135" s="305"/>
+      <c r="S135" s="306"/>
+      <c r="T135" s="306"/>
+      <c r="U135" s="307"/>
     </row>
     <row r="136" spans="2:21" ht="20.25" customHeight="1">
       <c r="B136" s="218"/>
@@ -18544,10 +18324,10 @@
       <c r="N136" s="231"/>
       <c r="O136" s="216"/>
       <c r="P136" s="217"/>
-      <c r="R136" s="297"/>
-      <c r="S136" s="298"/>
-      <c r="T136" s="298"/>
-      <c r="U136" s="299"/>
+      <c r="R136" s="305"/>
+      <c r="S136" s="306"/>
+      <c r="T136" s="306"/>
+      <c r="U136" s="307"/>
     </row>
     <row r="137" spans="2:21" ht="20.25" customHeight="1">
       <c r="B137" s="218"/>
@@ -18565,10 +18345,10 @@
       <c r="N137" s="231"/>
       <c r="O137" s="216"/>
       <c r="P137" s="217"/>
-      <c r="R137" s="297"/>
-      <c r="S137" s="298"/>
-      <c r="T137" s="298"/>
-      <c r="U137" s="299"/>
+      <c r="R137" s="305"/>
+      <c r="S137" s="306"/>
+      <c r="T137" s="306"/>
+      <c r="U137" s="307"/>
     </row>
     <row r="138" spans="2:21" ht="20.25" customHeight="1">
       <c r="B138" s="218"/>
@@ -18586,10 +18366,10 @@
       <c r="N138" s="231"/>
       <c r="O138" s="216"/>
       <c r="P138" s="217"/>
-      <c r="R138" s="297"/>
-      <c r="S138" s="298"/>
-      <c r="T138" s="298"/>
-      <c r="U138" s="299"/>
+      <c r="R138" s="305"/>
+      <c r="S138" s="306"/>
+      <c r="T138" s="306"/>
+      <c r="U138" s="307"/>
     </row>
     <row r="139" spans="2:21" ht="20.25" customHeight="1">
       <c r="B139" s="218"/>
@@ -18607,10 +18387,10 @@
       <c r="N139" s="231"/>
       <c r="O139" s="216"/>
       <c r="P139" s="217"/>
-      <c r="R139" s="297"/>
-      <c r="S139" s="298"/>
-      <c r="T139" s="298"/>
-      <c r="U139" s="299"/>
+      <c r="R139" s="305"/>
+      <c r="S139" s="306"/>
+      <c r="T139" s="306"/>
+      <c r="U139" s="307"/>
     </row>
     <row r="140" spans="2:21" ht="20.25" customHeight="1">
       <c r="B140" s="218"/>
@@ -18628,10 +18408,10 @@
       <c r="N140" s="231"/>
       <c r="O140" s="216"/>
       <c r="P140" s="217"/>
-      <c r="R140" s="297"/>
-      <c r="S140" s="298"/>
-      <c r="T140" s="298"/>
-      <c r="U140" s="299"/>
+      <c r="R140" s="305"/>
+      <c r="S140" s="306"/>
+      <c r="T140" s="306"/>
+      <c r="U140" s="307"/>
     </row>
     <row r="141" spans="2:21" ht="20.25" customHeight="1">
       <c r="B141" s="218"/>
@@ -18649,10 +18429,10 @@
       <c r="N141" s="231"/>
       <c r="O141" s="216"/>
       <c r="P141" s="217"/>
-      <c r="R141" s="297"/>
-      <c r="S141" s="298"/>
-      <c r="T141" s="298"/>
-      <c r="U141" s="299"/>
+      <c r="R141" s="305"/>
+      <c r="S141" s="306"/>
+      <c r="T141" s="306"/>
+      <c r="U141" s="307"/>
     </row>
     <row r="142" spans="2:21" ht="20.25" customHeight="1">
       <c r="B142" s="218"/>
@@ -18670,10 +18450,10 @@
       <c r="N142" s="231"/>
       <c r="O142" s="216"/>
       <c r="P142" s="217"/>
-      <c r="R142" s="297"/>
-      <c r="S142" s="298"/>
-      <c r="T142" s="298"/>
-      <c r="U142" s="299"/>
+      <c r="R142" s="305"/>
+      <c r="S142" s="306"/>
+      <c r="T142" s="306"/>
+      <c r="U142" s="307"/>
     </row>
     <row r="143" spans="2:21" ht="20.25" customHeight="1">
       <c r="B143" s="218"/>
@@ -18691,10 +18471,10 @@
       <c r="N143" s="231"/>
       <c r="O143" s="216"/>
       <c r="P143" s="217"/>
-      <c r="R143" s="297"/>
-      <c r="S143" s="298"/>
-      <c r="T143" s="298"/>
-      <c r="U143" s="299"/>
+      <c r="R143" s="305"/>
+      <c r="S143" s="306"/>
+      <c r="T143" s="306"/>
+      <c r="U143" s="307"/>
     </row>
     <row r="144" spans="2:21" ht="20.25" customHeight="1">
       <c r="B144" s="218"/>
@@ -18712,10 +18492,10 @@
       <c r="N144" s="231"/>
       <c r="O144" s="216"/>
       <c r="P144" s="217"/>
-      <c r="R144" s="297"/>
-      <c r="S144" s="298"/>
-      <c r="T144" s="298"/>
-      <c r="U144" s="299"/>
+      <c r="R144" s="305"/>
+      <c r="S144" s="306"/>
+      <c r="T144" s="306"/>
+      <c r="U144" s="307"/>
     </row>
     <row r="145" spans="2:21" ht="20.25" customHeight="1">
       <c r="B145" s="218"/>
@@ -18733,10 +18513,10 @@
       <c r="N145" s="231"/>
       <c r="O145" s="216"/>
       <c r="P145" s="217"/>
-      <c r="R145" s="297"/>
-      <c r="S145" s="298"/>
-      <c r="T145" s="298"/>
-      <c r="U145" s="299"/>
+      <c r="R145" s="305"/>
+      <c r="S145" s="306"/>
+      <c r="T145" s="306"/>
+      <c r="U145" s="307"/>
     </row>
     <row r="146" spans="2:21" ht="20.25" customHeight="1">
       <c r="B146" s="218"/>
@@ -18754,10 +18534,10 @@
       <c r="N146" s="231"/>
       <c r="O146" s="216"/>
       <c r="P146" s="217"/>
-      <c r="R146" s="297"/>
-      <c r="S146" s="298"/>
-      <c r="T146" s="298"/>
-      <c r="U146" s="299"/>
+      <c r="R146" s="305"/>
+      <c r="S146" s="306"/>
+      <c r="T146" s="306"/>
+      <c r="U146" s="307"/>
     </row>
     <row r="147" spans="2:21" ht="20.25" customHeight="1">
       <c r="B147" s="218"/>
@@ -18775,10 +18555,10 @@
       <c r="N147" s="231"/>
       <c r="O147" s="216"/>
       <c r="P147" s="217"/>
-      <c r="R147" s="297"/>
-      <c r="S147" s="298"/>
-      <c r="T147" s="298"/>
-      <c r="U147" s="299"/>
+      <c r="R147" s="305"/>
+      <c r="S147" s="306"/>
+      <c r="T147" s="306"/>
+      <c r="U147" s="307"/>
     </row>
     <row r="148" spans="2:21" ht="20.25" customHeight="1">
       <c r="B148" s="218"/>
@@ -18796,10 +18576,10 @@
       <c r="N148" s="231"/>
       <c r="O148" s="216"/>
       <c r="P148" s="217"/>
-      <c r="R148" s="297"/>
-      <c r="S148" s="298"/>
-      <c r="T148" s="298"/>
-      <c r="U148" s="299"/>
+      <c r="R148" s="305"/>
+      <c r="S148" s="306"/>
+      <c r="T148" s="306"/>
+      <c r="U148" s="307"/>
     </row>
     <row r="149" spans="2:21" ht="20.25" customHeight="1">
       <c r="B149" s="218"/>
@@ -18817,10 +18597,10 @@
       <c r="N149" s="231"/>
       <c r="O149" s="216"/>
       <c r="P149" s="217"/>
-      <c r="R149" s="297"/>
-      <c r="S149" s="298"/>
-      <c r="T149" s="298"/>
-      <c r="U149" s="299"/>
+      <c r="R149" s="305"/>
+      <c r="S149" s="306"/>
+      <c r="T149" s="306"/>
+      <c r="U149" s="307"/>
     </row>
     <row r="150" spans="2:21" ht="20.25" customHeight="1">
       <c r="B150" s="218"/>
@@ -18838,10 +18618,10 @@
       <c r="N150" s="231"/>
       <c r="O150" s="216"/>
       <c r="P150" s="217"/>
-      <c r="R150" s="297"/>
-      <c r="S150" s="298"/>
-      <c r="T150" s="298"/>
-      <c r="U150" s="299"/>
+      <c r="R150" s="305"/>
+      <c r="S150" s="306"/>
+      <c r="T150" s="306"/>
+      <c r="U150" s="307"/>
     </row>
     <row r="151" spans="2:21" ht="20.25" customHeight="1">
       <c r="B151" s="218"/>
@@ -18859,10 +18639,10 @@
       <c r="N151" s="231"/>
       <c r="O151" s="216"/>
       <c r="P151" s="217"/>
-      <c r="R151" s="297"/>
-      <c r="S151" s="298"/>
-      <c r="T151" s="298"/>
-      <c r="U151" s="299"/>
+      <c r="R151" s="305"/>
+      <c r="S151" s="306"/>
+      <c r="T151" s="306"/>
+      <c r="U151" s="307"/>
     </row>
     <row r="152" spans="2:21" ht="20.25" customHeight="1">
       <c r="B152" s="218"/>
@@ -18880,10 +18660,10 @@
       <c r="N152" s="231"/>
       <c r="O152" s="216"/>
       <c r="P152" s="217"/>
-      <c r="R152" s="297"/>
-      <c r="S152" s="298"/>
-      <c r="T152" s="298"/>
-      <c r="U152" s="299"/>
+      <c r="R152" s="305"/>
+      <c r="S152" s="306"/>
+      <c r="T152" s="306"/>
+      <c r="U152" s="307"/>
     </row>
     <row r="153" spans="2:21" ht="20.25" customHeight="1">
       <c r="B153" s="218"/>
@@ -18901,10 +18681,10 @@
       <c r="N153" s="231"/>
       <c r="O153" s="216"/>
       <c r="P153" s="217"/>
-      <c r="R153" s="297"/>
-      <c r="S153" s="298"/>
-      <c r="T153" s="298"/>
-      <c r="U153" s="299"/>
+      <c r="R153" s="305"/>
+      <c r="S153" s="306"/>
+      <c r="T153" s="306"/>
+      <c r="U153" s="307"/>
     </row>
     <row r="154" spans="2:21" ht="20.25" customHeight="1">
       <c r="B154" s="218"/>
@@ -18922,10 +18702,10 @@
       <c r="N154" s="231"/>
       <c r="O154" s="216"/>
       <c r="P154" s="217"/>
-      <c r="R154" s="297"/>
-      <c r="S154" s="298"/>
-      <c r="T154" s="298"/>
-      <c r="U154" s="299"/>
+      <c r="R154" s="305"/>
+      <c r="S154" s="306"/>
+      <c r="T154" s="306"/>
+      <c r="U154" s="307"/>
     </row>
     <row r="155" spans="2:21" ht="20.25" customHeight="1">
       <c r="B155" s="218"/>
@@ -18943,10 +18723,10 @@
       <c r="N155" s="231"/>
       <c r="O155" s="216"/>
       <c r="P155" s="217"/>
-      <c r="R155" s="297"/>
-      <c r="S155" s="298"/>
-      <c r="T155" s="298"/>
-      <c r="U155" s="299"/>
+      <c r="R155" s="305"/>
+      <c r="S155" s="306"/>
+      <c r="T155" s="306"/>
+      <c r="U155" s="307"/>
     </row>
     <row r="156" spans="2:21" ht="20.25" customHeight="1">
       <c r="B156" s="218"/>
@@ -18964,10 +18744,10 @@
       <c r="N156" s="231"/>
       <c r="O156" s="216"/>
       <c r="P156" s="217"/>
-      <c r="R156" s="297"/>
-      <c r="S156" s="298"/>
-      <c r="T156" s="298"/>
-      <c r="U156" s="299"/>
+      <c r="R156" s="305"/>
+      <c r="S156" s="306"/>
+      <c r="T156" s="306"/>
+      <c r="U156" s="307"/>
     </row>
     <row r="157" spans="2:21" ht="20.25" customHeight="1">
       <c r="B157" s="218"/>
@@ -18985,10 +18765,10 @@
       <c r="N157" s="231"/>
       <c r="O157" s="216"/>
       <c r="P157" s="217"/>
-      <c r="R157" s="297"/>
-      <c r="S157" s="298"/>
-      <c r="T157" s="298"/>
-      <c r="U157" s="299"/>
+      <c r="R157" s="305"/>
+      <c r="S157" s="306"/>
+      <c r="T157" s="306"/>
+      <c r="U157" s="307"/>
     </row>
     <row r="158" spans="2:21" ht="20.25" customHeight="1">
       <c r="B158" s="218"/>
@@ -19006,10 +18786,10 @@
       <c r="N158" s="231"/>
       <c r="O158" s="216"/>
       <c r="P158" s="217"/>
-      <c r="R158" s="297"/>
-      <c r="S158" s="298"/>
-      <c r="T158" s="298"/>
-      <c r="U158" s="299"/>
+      <c r="R158" s="305"/>
+      <c r="S158" s="306"/>
+      <c r="T158" s="306"/>
+      <c r="U158" s="307"/>
     </row>
     <row r="159" spans="2:21" ht="20.25" customHeight="1">
       <c r="B159" s="218"/>
@@ -19027,10 +18807,10 @@
       <c r="N159" s="231"/>
       <c r="O159" s="216"/>
       <c r="P159" s="217"/>
-      <c r="R159" s="297"/>
-      <c r="S159" s="298"/>
-      <c r="T159" s="298"/>
-      <c r="U159" s="299"/>
+      <c r="R159" s="305"/>
+      <c r="S159" s="306"/>
+      <c r="T159" s="306"/>
+      <c r="U159" s="307"/>
     </row>
     <row r="160" spans="2:21" ht="20.25" customHeight="1">
       <c r="B160" s="218"/>
@@ -19048,10 +18828,10 @@
       <c r="N160" s="231"/>
       <c r="O160" s="216"/>
       <c r="P160" s="217"/>
-      <c r="R160" s="297"/>
-      <c r="S160" s="298"/>
-      <c r="T160" s="298"/>
-      <c r="U160" s="299"/>
+      <c r="R160" s="305"/>
+      <c r="S160" s="306"/>
+      <c r="T160" s="306"/>
+      <c r="U160" s="307"/>
     </row>
     <row r="161" spans="2:21" ht="20.25" customHeight="1">
       <c r="B161" s="218"/>
@@ -19069,10 +18849,10 @@
       <c r="N161" s="231"/>
       <c r="O161" s="216"/>
       <c r="P161" s="217"/>
-      <c r="R161" s="297"/>
-      <c r="S161" s="298"/>
-      <c r="T161" s="298"/>
-      <c r="U161" s="299"/>
+      <c r="R161" s="305"/>
+      <c r="S161" s="306"/>
+      <c r="T161" s="306"/>
+      <c r="U161" s="307"/>
     </row>
     <row r="162" spans="2:21" ht="20.25" customHeight="1">
       <c r="B162" s="218"/>
@@ -19090,10 +18870,10 @@
       <c r="N162" s="231"/>
       <c r="O162" s="216"/>
       <c r="P162" s="217"/>
-      <c r="R162" s="297"/>
-      <c r="S162" s="298"/>
-      <c r="T162" s="298"/>
-      <c r="U162" s="299"/>
+      <c r="R162" s="305"/>
+      <c r="S162" s="306"/>
+      <c r="T162" s="306"/>
+      <c r="U162" s="307"/>
     </row>
     <row r="163" spans="2:21" ht="20.25" customHeight="1">
       <c r="B163" s="218"/>
@@ -19111,10 +18891,10 @@
       <c r="N163" s="231"/>
       <c r="O163" s="216"/>
       <c r="P163" s="217"/>
-      <c r="R163" s="297"/>
-      <c r="S163" s="298"/>
-      <c r="T163" s="298"/>
-      <c r="U163" s="299"/>
+      <c r="R163" s="305"/>
+      <c r="S163" s="306"/>
+      <c r="T163" s="306"/>
+      <c r="U163" s="307"/>
     </row>
     <row r="164" spans="2:21" ht="20.25" customHeight="1">
       <c r="B164" s="218"/>
@@ -19132,10 +18912,10 @@
       <c r="N164" s="231"/>
       <c r="O164" s="216"/>
       <c r="P164" s="217"/>
-      <c r="R164" s="297"/>
-      <c r="S164" s="298"/>
-      <c r="T164" s="298"/>
-      <c r="U164" s="299"/>
+      <c r="R164" s="305"/>
+      <c r="S164" s="306"/>
+      <c r="T164" s="306"/>
+      <c r="U164" s="307"/>
     </row>
     <row r="165" spans="2:21" ht="20.25" customHeight="1">
       <c r="B165" s="218"/>
@@ -19153,10 +18933,10 @@
       <c r="N165" s="231"/>
       <c r="O165" s="216"/>
       <c r="P165" s="217"/>
-      <c r="R165" s="297"/>
-      <c r="S165" s="298"/>
-      <c r="T165" s="298"/>
-      <c r="U165" s="299"/>
+      <c r="R165" s="305"/>
+      <c r="S165" s="306"/>
+      <c r="T165" s="306"/>
+      <c r="U165" s="307"/>
     </row>
     <row r="166" spans="2:21" ht="20.25" customHeight="1">
       <c r="B166" s="218"/>
@@ -19174,10 +18954,10 @@
       <c r="N166" s="231"/>
       <c r="O166" s="216"/>
       <c r="P166" s="217"/>
-      <c r="R166" s="297"/>
-      <c r="S166" s="298"/>
-      <c r="T166" s="298"/>
-      <c r="U166" s="299"/>
+      <c r="R166" s="305"/>
+      <c r="S166" s="306"/>
+      <c r="T166" s="306"/>
+      <c r="U166" s="307"/>
     </row>
     <row r="167" spans="2:21" ht="20.25" customHeight="1">
       <c r="B167" s="218"/>
@@ -19195,10 +18975,10 @@
       <c r="N167" s="231"/>
       <c r="O167" s="216"/>
       <c r="P167" s="217"/>
-      <c r="R167" s="297"/>
-      <c r="S167" s="298"/>
-      <c r="T167" s="298"/>
-      <c r="U167" s="299"/>
+      <c r="R167" s="305"/>
+      <c r="S167" s="306"/>
+      <c r="T167" s="306"/>
+      <c r="U167" s="307"/>
     </row>
     <row r="168" spans="2:21" ht="20.25" customHeight="1">
       <c r="B168" s="218"/>
@@ -19216,10 +18996,10 @@
       <c r="N168" s="231"/>
       <c r="O168" s="216"/>
       <c r="P168" s="217"/>
-      <c r="R168" s="297"/>
-      <c r="S168" s="298"/>
-      <c r="T168" s="298"/>
-      <c r="U168" s="299"/>
+      <c r="R168" s="305"/>
+      <c r="S168" s="306"/>
+      <c r="T168" s="306"/>
+      <c r="U168" s="307"/>
     </row>
     <row r="169" spans="2:21" ht="20.25" customHeight="1">
       <c r="B169" s="218"/>
@@ -19237,10 +19017,10 @@
       <c r="N169" s="231"/>
       <c r="O169" s="216"/>
       <c r="P169" s="217"/>
-      <c r="R169" s="297"/>
-      <c r="S169" s="298"/>
-      <c r="T169" s="298"/>
-      <c r="U169" s="299"/>
+      <c r="R169" s="305"/>
+      <c r="S169" s="306"/>
+      <c r="T169" s="306"/>
+      <c r="U169" s="307"/>
     </row>
     <row r="170" spans="2:21" ht="20.25" customHeight="1">
       <c r="B170" s="218"/>
@@ -19258,10 +19038,10 @@
       <c r="N170" s="231"/>
       <c r="O170" s="216"/>
       <c r="P170" s="217"/>
-      <c r="R170" s="297"/>
-      <c r="S170" s="298"/>
-      <c r="T170" s="298"/>
-      <c r="U170" s="299"/>
+      <c r="R170" s="305"/>
+      <c r="S170" s="306"/>
+      <c r="T170" s="306"/>
+      <c r="U170" s="307"/>
     </row>
     <row r="171" spans="2:21" ht="20.25" customHeight="1">
       <c r="B171" s="218"/>
@@ -19279,10 +19059,10 @@
       <c r="N171" s="231"/>
       <c r="O171" s="216"/>
       <c r="P171" s="217"/>
-      <c r="R171" s="297"/>
-      <c r="S171" s="298"/>
-      <c r="T171" s="298"/>
-      <c r="U171" s="299"/>
+      <c r="R171" s="305"/>
+      <c r="S171" s="306"/>
+      <c r="T171" s="306"/>
+      <c r="U171" s="307"/>
     </row>
     <row r="172" spans="2:21" ht="20.25" customHeight="1">
       <c r="B172" s="218"/>
@@ -19300,10 +19080,10 @@
       <c r="N172" s="231"/>
       <c r="O172" s="216"/>
       <c r="P172" s="217"/>
-      <c r="R172" s="297"/>
-      <c r="S172" s="298"/>
-      <c r="T172" s="298"/>
-      <c r="U172" s="299"/>
+      <c r="R172" s="305"/>
+      <c r="S172" s="306"/>
+      <c r="T172" s="306"/>
+      <c r="U172" s="307"/>
     </row>
     <row r="173" spans="2:21" ht="20.25" customHeight="1">
       <c r="B173" s="218"/>
@@ -19321,10 +19101,10 @@
       <c r="N173" s="219"/>
       <c r="O173" s="218"/>
       <c r="P173" s="221"/>
-      <c r="R173" s="297"/>
-      <c r="S173" s="298"/>
-      <c r="T173" s="298"/>
-      <c r="U173" s="299"/>
+      <c r="R173" s="305"/>
+      <c r="S173" s="306"/>
+      <c r="T173" s="306"/>
+      <c r="U173" s="307"/>
     </row>
     <row r="174" spans="2:21" ht="20.25" customHeight="1">
       <c r="B174" s="218"/>
@@ -19342,10 +19122,10 @@
       <c r="N174" s="222"/>
       <c r="O174" s="218"/>
       <c r="P174" s="221"/>
-      <c r="R174" s="297"/>
-      <c r="S174" s="298"/>
-      <c r="T174" s="298"/>
-      <c r="U174" s="299"/>
+      <c r="R174" s="305"/>
+      <c r="S174" s="306"/>
+      <c r="T174" s="306"/>
+      <c r="U174" s="307"/>
     </row>
     <row r="175" spans="2:21" ht="20.25" customHeight="1">
       <c r="B175" s="218"/>
@@ -19363,10 +19143,10 @@
       <c r="N175" s="222"/>
       <c r="O175" s="218"/>
       <c r="P175" s="221"/>
-      <c r="R175" s="297"/>
-      <c r="S175" s="298"/>
-      <c r="T175" s="298"/>
-      <c r="U175" s="299"/>
+      <c r="R175" s="305"/>
+      <c r="S175" s="306"/>
+      <c r="T175" s="306"/>
+      <c r="U175" s="307"/>
     </row>
     <row r="176" spans="2:21" ht="20.25" customHeight="1">
       <c r="B176" s="218"/>
@@ -19384,10 +19164,10 @@
       <c r="N176" s="219"/>
       <c r="O176" s="223"/>
       <c r="P176" s="224"/>
-      <c r="R176" s="297"/>
-      <c r="S176" s="298"/>
-      <c r="T176" s="298"/>
-      <c r="U176" s="299"/>
+      <c r="R176" s="305"/>
+      <c r="S176" s="306"/>
+      <c r="T176" s="306"/>
+      <c r="U176" s="307"/>
     </row>
     <row r="177" spans="2:21" ht="20.25" customHeight="1">
       <c r="B177" s="218"/>
@@ -19405,10 +19185,10 @@
       <c r="N177" s="222"/>
       <c r="O177" s="223"/>
       <c r="P177" s="224"/>
-      <c r="R177" s="297"/>
-      <c r="S177" s="298"/>
-      <c r="T177" s="298"/>
-      <c r="U177" s="299"/>
+      <c r="R177" s="305"/>
+      <c r="S177" s="306"/>
+      <c r="T177" s="306"/>
+      <c r="U177" s="307"/>
     </row>
     <row r="178" spans="2:21" ht="20.25" customHeight="1">
       <c r="B178" s="229"/>
@@ -19426,10 +19206,10 @@
       <c r="N178" s="222"/>
       <c r="O178" s="223"/>
       <c r="P178" s="224"/>
-      <c r="R178" s="297"/>
-      <c r="S178" s="298"/>
-      <c r="T178" s="298"/>
-      <c r="U178" s="299"/>
+      <c r="R178" s="305"/>
+      <c r="S178" s="306"/>
+      <c r="T178" s="306"/>
+      <c r="U178" s="307"/>
     </row>
     <row r="179" spans="2:21" ht="20.25" customHeight="1">
       <c r="B179" s="218"/>
@@ -19447,10 +19227,10 @@
       <c r="N179" s="219"/>
       <c r="O179" s="223"/>
       <c r="P179" s="224"/>
-      <c r="R179" s="297"/>
-      <c r="S179" s="298"/>
-      <c r="T179" s="298"/>
-      <c r="U179" s="299"/>
+      <c r="R179" s="305"/>
+      <c r="S179" s="306"/>
+      <c r="T179" s="306"/>
+      <c r="U179" s="307"/>
     </row>
     <row r="180" spans="2:21" ht="20.25" customHeight="1">
       <c r="B180" s="218"/>
@@ -19468,10 +19248,10 @@
       <c r="N180" s="222"/>
       <c r="O180" s="223"/>
       <c r="P180" s="224"/>
-      <c r="R180" s="297"/>
-      <c r="S180" s="298"/>
-      <c r="T180" s="298"/>
-      <c r="U180" s="299"/>
+      <c r="R180" s="305"/>
+      <c r="S180" s="306"/>
+      <c r="T180" s="306"/>
+      <c r="U180" s="307"/>
     </row>
     <row r="181" spans="2:21" ht="20.25" customHeight="1">
       <c r="B181" s="218"/>
@@ -19489,10 +19269,10 @@
       <c r="N181" s="222"/>
       <c r="O181" s="223"/>
       <c r="P181" s="224"/>
-      <c r="R181" s="297"/>
-      <c r="S181" s="298"/>
-      <c r="T181" s="298"/>
-      <c r="U181" s="299"/>
+      <c r="R181" s="305"/>
+      <c r="S181" s="306"/>
+      <c r="T181" s="306"/>
+      <c r="U181" s="307"/>
     </row>
     <row r="182" spans="2:21" ht="20.25" customHeight="1">
       <c r="B182" s="218"/>
@@ -19510,10 +19290,10 @@
       <c r="N182" s="219"/>
       <c r="O182" s="223"/>
       <c r="P182" s="224"/>
-      <c r="R182" s="297"/>
-      <c r="S182" s="298"/>
-      <c r="T182" s="298"/>
-      <c r="U182" s="299"/>
+      <c r="R182" s="305"/>
+      <c r="S182" s="306"/>
+      <c r="T182" s="306"/>
+      <c r="U182" s="307"/>
     </row>
     <row r="183" spans="2:21" ht="20.25" customHeight="1" thickBot="1">
       <c r="B183" s="225"/>
@@ -19531,10 +19311,10 @@
       <c r="N183" s="230"/>
       <c r="O183" s="226"/>
       <c r="P183" s="228"/>
-      <c r="R183" s="300"/>
-      <c r="S183" s="301"/>
-      <c r="T183" s="301"/>
-      <c r="U183" s="302"/>
+      <c r="R183" s="308"/>
+      <c r="S183" s="309"/>
+      <c r="T183" s="309"/>
+      <c r="U183" s="310"/>
     </row>
     <row r="184" spans="2:21" ht="15.75" customHeight="1">
       <c r="B184" s="186"/>

--- a/doc/chiffrier_sim_vie.xlsx
+++ b/doc/chiffrier_sim_vie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\travail\sim_vie\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DC802A-06AF-4FC0-B1A9-DDD18EAECEE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83F683B-5150-41C6-A5AE-F21D9B309B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="627">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="639">
   <si>
     <t>Chiffrier de documentation de projets</t>
   </si>
@@ -2120,6 +2120,42 @@
   <si>
     <t>Notre créature prend maintenant des décisions ! Ses neurones s'activent ou non selon son environnement et elle se déplace selon ses neurones moteurs. On a créé des classes pour compartimenter les organes de notre créature, ainsi que ses neurones, pour que les responsabilités de chacun d'eux soient localisées et localisables. La table a été mise pour la détection des phéromones et leurs émissions, il reste à les implémenter dans le calcul des déplacements et dans les distinctions entre droite / gauche. Nous aurons également l'occasion dans le sprint 2 de déterminer le rôle des ganglions : c'est-à-dire de laisser passer ou non les stimuli selon les messages envoyés du système nerveux. Un des gros objectifs de notre sprint 2 sera d'implémenter la possibilité de reproduction entre nos créatures et d'avoir un petit système d'ADN qui aurait la capacité d'être complexifié dans un futur possible. Il ne nous semble pas réaliste, dans le temps imparti, d'implémenter l'épigénétique et les mécanismes environnementaux et génétiques plus complexes prévues. Il sera pertinent d'ajouter des paramètres dans l'interface : intensité de rotation, vitesse de base, etc.</t>
   </si>
+  <si>
+    <t>Glandes</t>
+  </si>
+  <si>
+    <t>Implémenter les glandes aux neuronnes</t>
+  </si>
+  <si>
+    <t>Implémenter les glandes dans le calcul de déplacement (neurones moteurs)</t>
+  </si>
+  <si>
+    <t>Distinction entre phéromones détectées à droite et à gauche</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>Ajout des paramètres de rotation</t>
+  </si>
+  <si>
+    <t>Ajout des paramètres vitesse</t>
+  </si>
+  <si>
+    <t>Ganglion</t>
+  </si>
+  <si>
+    <t>Ajout du rôle de gestion de stimuli (bloquer ou laisser passer signaux)</t>
+  </si>
+  <si>
+    <t>Implémenter jauge besoins (envie de reproduction, faim, énergie)</t>
+  </si>
+  <si>
+    <t>Implémenter rôle du système nerveux (envoyer message aux ganglions)</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
 </sst>
 </file>
 
@@ -2129,7 +2165,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="37">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -2329,6 +2365,13 @@
     <font>
       <sz val="11"/>
       <color theme="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3383,7 +3426,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="313">
+  <cellXfs count="312">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3901,10 +3944,7 @@
     <xf numFmtId="164" fontId="29" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="35" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="35" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="35" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="75" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="4" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -3941,20 +3981,93 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -3983,84 +4096,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4071,18 +4120,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4113,12 +4153,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4833,22 +4871,22 @@
       </c>
     </row>
     <row r="36" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F36" s="243"/>
-      <c r="G36" s="244"/>
-      <c r="H36" s="244"/>
-      <c r="I36" s="244"/>
+      <c r="F36" s="242"/>
+      <c r="G36" s="243"/>
+      <c r="H36" s="243"/>
+      <c r="I36" s="243"/>
     </row>
     <row r="37" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F37" s="244"/>
-      <c r="G37" s="244"/>
-      <c r="H37" s="244"/>
-      <c r="I37" s="244"/>
+      <c r="F37" s="243"/>
+      <c r="G37" s="243"/>
+      <c r="H37" s="243"/>
+      <c r="I37" s="243"/>
     </row>
     <row r="38" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F38" s="244"/>
-      <c r="G38" s="244"/>
-      <c r="H38" s="244"/>
-      <c r="I38" s="244"/>
+      <c r="F38" s="243"/>
+      <c r="G38" s="243"/>
+      <c r="H38" s="243"/>
+      <c r="I38" s="243"/>
     </row>
     <row r="39" spans="6:9" ht="17.25" customHeight="1">
       <c r="F39" s="29"/>
@@ -4857,22 +4895,22 @@
       <c r="I39" s="29"/>
     </row>
     <row r="40" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F40" s="243"/>
-      <c r="G40" s="244"/>
-      <c r="H40" s="244"/>
-      <c r="I40" s="244"/>
+      <c r="F40" s="242"/>
+      <c r="G40" s="243"/>
+      <c r="H40" s="243"/>
+      <c r="I40" s="243"/>
     </row>
     <row r="41" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F41" s="244"/>
-      <c r="G41" s="244"/>
-      <c r="H41" s="244"/>
-      <c r="I41" s="244"/>
+      <c r="F41" s="243"/>
+      <c r="G41" s="243"/>
+      <c r="H41" s="243"/>
+      <c r="I41" s="243"/>
     </row>
     <row r="42" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F42" s="244"/>
-      <c r="G42" s="244"/>
-      <c r="H42" s="244"/>
-      <c r="I42" s="244"/>
+      <c r="F42" s="243"/>
+      <c r="G42" s="243"/>
+      <c r="H42" s="243"/>
+      <c r="I42" s="243"/>
     </row>
     <row r="43" spans="6:9" ht="17.25" customHeight="1">
       <c r="F43" s="29"/>
@@ -4887,34 +4925,34 @@
       <c r="I44" s="29"/>
     </row>
     <row r="45" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F45" s="243"/>
-      <c r="G45" s="244"/>
-      <c r="H45" s="244"/>
-      <c r="I45" s="244"/>
+      <c r="F45" s="242"/>
+      <c r="G45" s="243"/>
+      <c r="H45" s="243"/>
+      <c r="I45" s="243"/>
     </row>
     <row r="46" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F46" s="244"/>
-      <c r="G46" s="244"/>
-      <c r="H46" s="244"/>
-      <c r="I46" s="244"/>
+      <c r="F46" s="243"/>
+      <c r="G46" s="243"/>
+      <c r="H46" s="243"/>
+      <c r="I46" s="243"/>
     </row>
     <row r="47" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F47" s="244"/>
-      <c r="G47" s="244"/>
-      <c r="H47" s="244"/>
-      <c r="I47" s="244"/>
+      <c r="F47" s="243"/>
+      <c r="G47" s="243"/>
+      <c r="H47" s="243"/>
+      <c r="I47" s="243"/>
     </row>
     <row r="48" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F48" s="244"/>
-      <c r="G48" s="244"/>
-      <c r="H48" s="244"/>
-      <c r="I48" s="244"/>
+      <c r="F48" s="243"/>
+      <c r="G48" s="243"/>
+      <c r="H48" s="243"/>
+      <c r="I48" s="243"/>
     </row>
     <row r="49" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F49" s="244"/>
-      <c r="G49" s="244"/>
-      <c r="H49" s="244"/>
-      <c r="I49" s="244"/>
+      <c r="F49" s="243"/>
+      <c r="G49" s="243"/>
+      <c r="H49" s="243"/>
+      <c r="I49" s="243"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5054,7 +5092,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B13" s="245" t="s">
+      <c r="B13" s="244" t="s">
         <v>60</v>
       </c>
       <c r="C13" s="49"/>
@@ -5063,7 +5101,7 @@
       <c r="H13" s="70"/>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B14" s="246"/>
+      <c r="B14" s="245"/>
       <c r="C14" s="50" t="s">
         <v>104</v>
       </c>
@@ -5076,13 +5114,13 @@
       <c r="H14" s="70"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B15" s="246"/>
+      <c r="B15" s="245"/>
       <c r="C15" s="53"/>
       <c r="D15" s="51"/>
       <c r="E15" s="52"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B16" s="246"/>
+      <c r="B16" s="245"/>
       <c r="C16" s="63" t="s">
         <v>171</v>
       </c>
@@ -5094,7 +5132,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B17" s="247"/>
+      <c r="B17" s="246"/>
       <c r="C17" s="53" t="s">
         <v>101</v>
       </c>
@@ -5102,7 +5140,7 @@
       <c r="E17" s="52"/>
     </row>
     <row r="18" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B18" s="247"/>
+      <c r="B18" s="246"/>
       <c r="C18" s="63" t="s">
         <v>172</v>
       </c>
@@ -5112,13 +5150,13 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B19" s="247"/>
+      <c r="B19" s="246"/>
       <c r="C19" s="53"/>
       <c r="D19" s="51"/>
       <c r="E19" s="52"/>
     </row>
     <row r="20" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B20" s="247"/>
+      <c r="B20" s="246"/>
       <c r="C20" s="50" t="s">
         <v>105</v>
       </c>
@@ -5130,13 +5168,13 @@
       </c>
     </row>
     <row r="21" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B21" s="247"/>
+      <c r="B21" s="246"/>
       <c r="C21" s="53"/>
       <c r="D21" s="51"/>
       <c r="E21" s="52"/>
     </row>
     <row r="22" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B22" s="247"/>
+      <c r="B22" s="246"/>
       <c r="C22" s="63" t="s">
         <v>174</v>
       </c>
@@ -5148,7 +5186,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B23" s="247"/>
+      <c r="B23" s="246"/>
       <c r="C23" s="68" t="s">
         <v>110</v>
       </c>
@@ -5160,7 +5198,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B24" s="247"/>
+      <c r="B24" s="246"/>
       <c r="C24" s="53"/>
       <c r="D24" s="64" t="s">
         <v>176</v>
@@ -5168,7 +5206,7 @@
       <c r="E24" s="65"/>
     </row>
     <row r="25" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B25" s="247"/>
+      <c r="B25" s="246"/>
       <c r="C25" s="63"/>
       <c r="D25" s="64" t="s">
         <v>113</v>
@@ -5176,7 +5214,7 @@
       <c r="E25" s="65"/>
     </row>
     <row r="26" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B26" s="247"/>
+      <c r="B26" s="246"/>
       <c r="C26" s="63" t="s">
         <v>114</v>
       </c>
@@ -5186,7 +5224,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B27" s="247"/>
+      <c r="B27" s="246"/>
       <c r="C27" s="63" t="s">
         <v>116</v>
       </c>
@@ -5196,13 +5234,13 @@
       </c>
     </row>
     <row r="28" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B28" s="247"/>
+      <c r="B28" s="246"/>
       <c r="C28" s="53"/>
       <c r="D28" s="51"/>
       <c r="E28" s="52"/>
     </row>
     <row r="29" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B29" s="247"/>
+      <c r="B29" s="246"/>
       <c r="C29" s="50" t="s">
         <v>118</v>
       </c>
@@ -5210,13 +5248,13 @@
       <c r="E29" s="52"/>
     </row>
     <row r="30" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B30" s="247"/>
+      <c r="B30" s="246"/>
       <c r="C30" s="53"/>
       <c r="D30" s="51"/>
       <c r="E30" s="52"/>
     </row>
     <row r="31" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B31" s="247"/>
+      <c r="B31" s="246"/>
       <c r="C31" s="63" t="s">
         <v>119</v>
       </c>
@@ -5226,7 +5264,7 @@
       <c r="E31" s="52"/>
     </row>
     <row r="32" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B32" s="247"/>
+      <c r="B32" s="246"/>
       <c r="C32" s="63" t="s">
         <v>120</v>
       </c>
@@ -5234,7 +5272,7 @@
       <c r="E32" s="52"/>
     </row>
     <row r="33" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B33" s="247"/>
+      <c r="B33" s="246"/>
       <c r="C33" s="63" t="s">
         <v>121</v>
       </c>
@@ -5242,7 +5280,7 @@
       <c r="E33" s="52"/>
     </row>
     <row r="34" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B34" s="247"/>
+      <c r="B34" s="246"/>
       <c r="C34" s="63" t="s">
         <v>122</v>
       </c>
@@ -5250,7 +5288,7 @@
       <c r="E34" s="52"/>
     </row>
     <row r="35" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B35" s="247"/>
+      <c r="B35" s="246"/>
       <c r="C35" s="63" t="s">
         <v>123</v>
       </c>
@@ -5258,13 +5296,13 @@
       <c r="E35" s="52"/>
     </row>
     <row r="36" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B36" s="247"/>
+      <c r="B36" s="246"/>
       <c r="C36" s="63"/>
       <c r="D36" s="64"/>
       <c r="E36" s="52"/>
     </row>
     <row r="37" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B37" s="247"/>
+      <c r="B37" s="246"/>
       <c r="C37" s="63" t="s">
         <v>177</v>
       </c>
@@ -5272,7 +5310,7 @@
       <c r="E37" s="52"/>
     </row>
     <row r="38" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B38" s="247"/>
+      <c r="B38" s="246"/>
       <c r="C38" s="63" t="s">
         <v>127</v>
       </c>
@@ -5280,7 +5318,7 @@
       <c r="E38" s="52"/>
     </row>
     <row r="39" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B39" s="247"/>
+      <c r="B39" s="246"/>
       <c r="C39" s="63" t="s">
         <v>125</v>
       </c>
@@ -5290,13 +5328,13 @@
       </c>
     </row>
     <row r="40" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B40" s="247"/>
+      <c r="B40" s="246"/>
       <c r="C40" s="63"/>
       <c r="D40" s="51"/>
       <c r="E40" s="52"/>
     </row>
     <row r="41" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B41" s="247"/>
+      <c r="B41" s="246"/>
       <c r="C41" s="50" t="s">
         <v>128</v>
       </c>
@@ -5304,13 +5342,13 @@
       <c r="E41" s="52"/>
     </row>
     <row r="42" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B42" s="247"/>
+      <c r="B42" s="246"/>
       <c r="C42" s="63"/>
       <c r="D42" s="51"/>
       <c r="E42" s="52"/>
     </row>
     <row r="43" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B43" s="247"/>
+      <c r="B43" s="246"/>
       <c r="C43" s="63" t="s">
         <v>129</v>
       </c>
@@ -5318,7 +5356,7 @@
       <c r="E43" s="52"/>
     </row>
     <row r="44" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B44" s="247"/>
+      <c r="B44" s="246"/>
       <c r="C44" s="63" t="s">
         <v>101</v>
       </c>
@@ -5328,7 +5366,7 @@
       <c r="E44" s="52"/>
     </row>
     <row r="45" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B45" s="247"/>
+      <c r="B45" s="246"/>
       <c r="C45" s="63" t="s">
         <v>131</v>
       </c>
@@ -5338,7 +5376,7 @@
       <c r="E45" s="52"/>
     </row>
     <row r="46" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B46" s="247"/>
+      <c r="B46" s="246"/>
       <c r="C46" s="63" t="s">
         <v>133</v>
       </c>
@@ -5348,7 +5386,7 @@
       <c r="E46" s="52"/>
     </row>
     <row r="47" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B47" s="247"/>
+      <c r="B47" s="246"/>
       <c r="C47" s="63" t="s">
         <v>135</v>
       </c>
@@ -5358,7 +5396,7 @@
       </c>
     </row>
     <row r="48" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B48" s="247"/>
+      <c r="B48" s="246"/>
       <c r="C48" s="68" t="s">
         <v>137</v>
       </c>
@@ -5366,7 +5404,7 @@
       <c r="E48" s="52"/>
     </row>
     <row r="49" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B49" s="247"/>
+      <c r="B49" s="246"/>
       <c r="C49" s="68" t="s">
         <v>138</v>
       </c>
@@ -5374,13 +5412,13 @@
       <c r="E49" s="52"/>
     </row>
     <row r="50" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B50" s="247"/>
+      <c r="B50" s="246"/>
       <c r="C50" s="63"/>
       <c r="D50" s="51"/>
       <c r="E50" s="52"/>
     </row>
     <row r="51" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B51" s="247"/>
+      <c r="B51" s="246"/>
       <c r="C51" s="50" t="s">
         <v>139</v>
       </c>
@@ -5388,13 +5426,13 @@
       <c r="E51" s="52"/>
     </row>
     <row r="52" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B52" s="247"/>
+      <c r="B52" s="246"/>
       <c r="C52" s="63"/>
       <c r="D52" s="51"/>
       <c r="E52" s="52"/>
     </row>
     <row r="53" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B53" s="247"/>
+      <c r="B53" s="246"/>
       <c r="C53" s="63" t="s">
         <v>140</v>
       </c>
@@ -5404,7 +5442,7 @@
       </c>
     </row>
     <row r="54" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B54" s="247"/>
+      <c r="B54" s="246"/>
       <c r="C54" s="63" t="s">
         <v>142</v>
       </c>
@@ -5412,7 +5450,7 @@
       <c r="E54" s="52"/>
     </row>
     <row r="55" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B55" s="247"/>
+      <c r="B55" s="246"/>
       <c r="C55" s="63" t="s">
         <v>143</v>
       </c>
@@ -5420,7 +5458,7 @@
       <c r="E55" s="52"/>
     </row>
     <row r="56" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B56" s="247"/>
+      <c r="B56" s="246"/>
       <c r="C56" s="63" t="s">
         <v>144</v>
       </c>
@@ -5428,7 +5466,7 @@
       <c r="E56" s="52"/>
     </row>
     <row r="57" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B57" s="247"/>
+      <c r="B57" s="246"/>
       <c r="C57" s="63" t="s">
         <v>145</v>
       </c>
@@ -5436,7 +5474,7 @@
       <c r="E57" s="52"/>
     </row>
     <row r="58" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B58" s="247"/>
+      <c r="B58" s="246"/>
       <c r="C58" s="63" t="s">
         <v>146</v>
       </c>
@@ -5446,7 +5484,7 @@
       <c r="E58" s="52"/>
     </row>
     <row r="59" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B59" s="247"/>
+      <c r="B59" s="246"/>
       <c r="C59" s="63" t="s">
         <v>138</v>
       </c>
@@ -5456,7 +5494,7 @@
       <c r="E59" s="52"/>
     </row>
     <row r="60" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B60" s="247"/>
+      <c r="B60" s="246"/>
       <c r="C60" s="63" t="s">
         <v>149</v>
       </c>
@@ -5464,7 +5502,7 @@
       <c r="E60" s="52"/>
     </row>
     <row r="61" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B61" s="247"/>
+      <c r="B61" s="246"/>
       <c r="C61" s="63" t="s">
         <v>150</v>
       </c>
@@ -5474,7 +5512,7 @@
       </c>
     </row>
     <row r="62" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B62" s="247"/>
+      <c r="B62" s="246"/>
       <c r="C62" s="63" t="s">
         <v>152</v>
       </c>
@@ -5482,13 +5520,13 @@
       <c r="E62" s="52"/>
     </row>
     <row r="63" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B63" s="247"/>
+      <c r="B63" s="246"/>
       <c r="C63" s="63"/>
       <c r="D63" s="51"/>
       <c r="E63" s="52"/>
     </row>
     <row r="64" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B64" s="247"/>
+      <c r="B64" s="246"/>
       <c r="C64" s="50" t="s">
         <v>153</v>
       </c>
@@ -5496,13 +5534,13 @@
       <c r="E64" s="52"/>
     </row>
     <row r="65" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B65" s="247"/>
+      <c r="B65" s="246"/>
       <c r="C65" s="63"/>
       <c r="D65" s="51"/>
       <c r="E65" s="52"/>
     </row>
     <row r="66" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B66" s="247"/>
+      <c r="B66" s="246"/>
       <c r="C66" s="63" t="s">
         <v>155</v>
       </c>
@@ -5510,7 +5548,7 @@
       <c r="E66" s="52"/>
     </row>
     <row r="67" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B67" s="247"/>
+      <c r="B67" s="246"/>
       <c r="C67" s="63" t="s">
         <v>156</v>
       </c>
@@ -5518,7 +5556,7 @@
       <c r="E67" s="52"/>
     </row>
     <row r="68" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B68" s="247"/>
+      <c r="B68" s="246"/>
       <c r="C68" s="63" t="s">
         <v>154</v>
       </c>
@@ -5526,7 +5564,7 @@
       <c r="E68" s="52"/>
     </row>
     <row r="69" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B69" s="247"/>
+      <c r="B69" s="246"/>
       <c r="C69" s="63" t="s">
         <v>157</v>
       </c>
@@ -5534,25 +5572,25 @@
       <c r="E69" s="52"/>
     </row>
     <row r="70" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B70" s="247"/>
+      <c r="B70" s="246"/>
       <c r="C70" s="63"/>
       <c r="D70" s="51"/>
       <c r="E70" s="52"/>
     </row>
     <row r="71" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B71" s="247"/>
+      <c r="B71" s="246"/>
       <c r="C71" s="63"/>
       <c r="D71" s="51"/>
       <c r="E71" s="52"/>
     </row>
     <row r="72" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B72" s="248"/>
+      <c r="B72" s="247"/>
       <c r="C72" s="54"/>
       <c r="D72" s="55"/>
       <c r="E72" s="56"/>
     </row>
     <row r="73" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B73" s="245" t="s">
+      <c r="B73" s="244" t="s">
         <v>61</v>
       </c>
       <c r="C73" s="63"/>
@@ -5564,7 +5602,7 @@
       </c>
     </row>
     <row r="74" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B74" s="247"/>
+      <c r="B74" s="246"/>
       <c r="C74" s="63" t="s">
         <v>188</v>
       </c>
@@ -5576,7 +5614,7 @@
       </c>
     </row>
     <row r="75" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B75" s="247"/>
+      <c r="B75" s="246"/>
       <c r="C75" s="53"/>
       <c r="D75" s="64" t="s">
         <v>162</v>
@@ -5586,7 +5624,7 @@
       </c>
     </row>
     <row r="76" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B76" s="247"/>
+      <c r="B76" s="246"/>
       <c r="C76" s="53"/>
       <c r="D76" s="51" t="s">
         <v>102</v>
@@ -5596,7 +5634,7 @@
       </c>
     </row>
     <row r="77" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B77" s="247"/>
+      <c r="B77" s="246"/>
       <c r="C77" s="53"/>
       <c r="D77" s="51" t="s">
         <v>103</v>
@@ -5606,7 +5644,7 @@
       </c>
     </row>
     <row r="78" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B78" s="247"/>
+      <c r="B78" s="246"/>
       <c r="C78" s="53"/>
       <c r="D78" s="64" t="s">
         <v>106</v>
@@ -5616,7 +5654,7 @@
       </c>
     </row>
     <row r="79" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B79" s="247"/>
+      <c r="B79" s="246"/>
       <c r="C79" s="53"/>
       <c r="D79" s="64" t="s">
         <v>179</v>
@@ -5626,7 +5664,7 @@
       </c>
     </row>
     <row r="80" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B80" s="247"/>
+      <c r="B80" s="246"/>
       <c r="C80" s="53"/>
       <c r="D80" s="64" t="s">
         <v>158</v>
@@ -5636,7 +5674,7 @@
       </c>
     </row>
     <row r="81" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B81" s="247"/>
+      <c r="B81" s="246"/>
       <c r="C81" s="53"/>
       <c r="D81" s="64" t="s">
         <v>159</v>
@@ -5646,7 +5684,7 @@
       </c>
     </row>
     <row r="82" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B82" s="247"/>
+      <c r="B82" s="246"/>
       <c r="C82" s="53"/>
       <c r="D82" s="64" t="s">
         <v>160</v>
@@ -5656,7 +5694,7 @@
       </c>
     </row>
     <row r="83" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B83" s="247"/>
+      <c r="B83" s="246"/>
       <c r="C83" s="63"/>
       <c r="D83" s="64" t="s">
         <v>180</v>
@@ -5666,7 +5704,7 @@
       </c>
     </row>
     <row r="84" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B84" s="247"/>
+      <c r="B84" s="246"/>
       <c r="C84" s="63"/>
       <c r="D84" s="64" t="s">
         <v>181</v>
@@ -5676,7 +5714,7 @@
       </c>
     </row>
     <row r="85" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B85" s="247"/>
+      <c r="B85" s="246"/>
       <c r="C85" s="53"/>
       <c r="D85" s="64" t="s">
         <v>182</v>
@@ -5686,7 +5724,7 @@
       </c>
     </row>
     <row r="86" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B86" s="247"/>
+      <c r="B86" s="246"/>
       <c r="C86" s="53"/>
       <c r="D86" s="64" t="s">
         <v>184</v>
@@ -5696,7 +5734,7 @@
       </c>
     </row>
     <row r="87" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B87" s="247"/>
+      <c r="B87" s="246"/>
       <c r="C87" s="53"/>
       <c r="D87" s="64" t="s">
         <v>193</v>
@@ -5706,7 +5744,7 @@
       </c>
     </row>
     <row r="88" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B88" s="247"/>
+      <c r="B88" s="246"/>
       <c r="C88" s="53"/>
       <c r="D88" s="64" t="s">
         <v>194</v>
@@ -5716,13 +5754,13 @@
       </c>
     </row>
     <row r="89" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B89" s="248"/>
+      <c r="B89" s="247"/>
       <c r="C89" s="54"/>
       <c r="D89" s="55"/>
       <c r="E89" s="56"/>
     </row>
     <row r="90" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B90" s="245" t="s">
+      <c r="B90" s="244" t="s">
         <v>62</v>
       </c>
       <c r="C90" s="57"/>
@@ -5730,7 +5768,7 @@
       <c r="E90" s="59"/>
     </row>
     <row r="91" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B91" s="247"/>
+      <c r="B91" s="246"/>
       <c r="C91" s="63" t="s">
         <v>189</v>
       </c>
@@ -5738,7 +5776,7 @@
       <c r="E91" s="52"/>
     </row>
     <row r="92" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B92" s="247"/>
+      <c r="B92" s="246"/>
       <c r="C92" s="63" t="s">
         <v>190</v>
       </c>
@@ -5746,7 +5784,7 @@
       <c r="E92" s="52"/>
     </row>
     <row r="93" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B93" s="247"/>
+      <c r="B93" s="246"/>
       <c r="C93" s="53" t="s">
         <v>191</v>
       </c>
@@ -5754,37 +5792,37 @@
       <c r="E93" s="52"/>
     </row>
     <row r="94" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B94" s="247"/>
+      <c r="B94" s="246"/>
       <c r="C94" s="53"/>
       <c r="D94" s="51"/>
       <c r="E94" s="52"/>
     </row>
     <row r="95" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B95" s="247"/>
+      <c r="B95" s="246"/>
       <c r="C95" s="53"/>
       <c r="D95" s="51"/>
       <c r="E95" s="52"/>
     </row>
     <row r="96" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B96" s="247"/>
+      <c r="B96" s="246"/>
       <c r="C96" s="53"/>
       <c r="D96" s="51"/>
       <c r="E96" s="52"/>
     </row>
     <row r="97" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B97" s="247"/>
+      <c r="B97" s="246"/>
       <c r="C97" s="53"/>
       <c r="D97" s="51"/>
       <c r="E97" s="52"/>
     </row>
     <row r="98" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B98" s="247"/>
+      <c r="B98" s="246"/>
       <c r="C98" s="53"/>
       <c r="D98" s="51"/>
       <c r="E98" s="52"/>
     </row>
     <row r="99" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B99" s="248"/>
+      <c r="B99" s="247"/>
       <c r="C99" s="60"/>
       <c r="D99" s="61"/>
       <c r="E99" s="62"/>
@@ -5847,11 +5885,11 @@
         <v>476</v>
       </c>
       <c r="C3" s="106"/>
-      <c r="D3" s="249" t="s">
+      <c r="D3" s="248" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="250"/>
-      <c r="F3" s="251"/>
+      <c r="E3" s="249"/>
+      <c r="F3" s="250"/>
       <c r="H3" s="75"/>
     </row>
     <row r="4" spans="1:8" s="76" customFormat="1" ht="30.75" customHeight="1">
@@ -5859,11 +5897,11 @@
         <v>477</v>
       </c>
       <c r="C4" s="106"/>
-      <c r="D4" s="252" t="s">
+      <c r="D4" s="251" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="250"/>
-      <c r="F4" s="251"/>
+      <c r="E4" s="249"/>
+      <c r="F4" s="250"/>
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1">
       <c r="A5" s="156" t="s">
@@ -7327,16 +7365,16 @@
       <c r="W10" s="29"/>
     </row>
     <row r="11" spans="1:107" thickBot="1">
-      <c r="G11" s="279" t="s">
+      <c r="G11" s="258" t="s">
         <v>324</v>
       </c>
-      <c r="H11" s="280"/>
-      <c r="I11" s="280"/>
-      <c r="J11" s="280"/>
-      <c r="K11" s="280"/>
-      <c r="L11" s="280"/>
-      <c r="M11" s="280"/>
-      <c r="N11" s="281"/>
+      <c r="H11" s="259"/>
+      <c r="I11" s="259"/>
+      <c r="J11" s="259"/>
+      <c r="K11" s="259"/>
+      <c r="L11" s="259"/>
+      <c r="M11" s="259"/>
+      <c r="N11" s="260"/>
       <c r="O11" s="48"/>
       <c r="P11" s="39"/>
       <c r="Q11" s="39"/>
@@ -7374,66 +7412,66 @@
       <c r="AW11" s="47"/>
       <c r="AX11" s="113"/>
       <c r="AY11" s="115"/>
-      <c r="BD11" s="279" t="s">
+      <c r="BD11" s="258" t="s">
         <v>324</v>
       </c>
-      <c r="BE11" s="280"/>
-      <c r="BF11" s="280"/>
-      <c r="BG11" s="280"/>
-      <c r="BH11" s="280"/>
-      <c r="BI11" s="280"/>
-      <c r="BJ11" s="280"/>
-      <c r="BK11" s="281"/>
-      <c r="BP11" s="279" t="s">
+      <c r="BE11" s="259"/>
+      <c r="BF11" s="259"/>
+      <c r="BG11" s="259"/>
+      <c r="BH11" s="259"/>
+      <c r="BI11" s="259"/>
+      <c r="BJ11" s="259"/>
+      <c r="BK11" s="260"/>
+      <c r="BP11" s="258" t="s">
         <v>324</v>
       </c>
-      <c r="BQ11" s="280"/>
-      <c r="BR11" s="280"/>
-      <c r="BS11" s="280"/>
-      <c r="BT11" s="280"/>
-      <c r="BU11" s="280"/>
-      <c r="BV11" s="280"/>
-      <c r="BW11" s="281"/>
-      <c r="CA11" s="279" t="s">
+      <c r="BQ11" s="259"/>
+      <c r="BR11" s="259"/>
+      <c r="BS11" s="259"/>
+      <c r="BT11" s="259"/>
+      <c r="BU11" s="259"/>
+      <c r="BV11" s="259"/>
+      <c r="BW11" s="260"/>
+      <c r="CA11" s="258" t="s">
         <v>324</v>
       </c>
-      <c r="CB11" s="280"/>
-      <c r="CC11" s="280"/>
-      <c r="CD11" s="280"/>
-      <c r="CE11" s="280"/>
-      <c r="CF11" s="280"/>
-      <c r="CG11" s="280"/>
-      <c r="CH11" s="281"/>
-      <c r="CL11" s="279" t="s">
+      <c r="CB11" s="259"/>
+      <c r="CC11" s="259"/>
+      <c r="CD11" s="259"/>
+      <c r="CE11" s="259"/>
+      <c r="CF11" s="259"/>
+      <c r="CG11" s="259"/>
+      <c r="CH11" s="260"/>
+      <c r="CL11" s="258" t="s">
         <v>324</v>
       </c>
-      <c r="CM11" s="280"/>
-      <c r="CN11" s="280"/>
-      <c r="CO11" s="280"/>
-      <c r="CP11" s="280"/>
-      <c r="CQ11" s="280"/>
-      <c r="CR11" s="280"/>
-      <c r="CS11" s="281"/>
-      <c r="CV11" s="279" t="s">
+      <c r="CM11" s="259"/>
+      <c r="CN11" s="259"/>
+      <c r="CO11" s="259"/>
+      <c r="CP11" s="259"/>
+      <c r="CQ11" s="259"/>
+      <c r="CR11" s="259"/>
+      <c r="CS11" s="260"/>
+      <c r="CV11" s="258" t="s">
         <v>324</v>
       </c>
-      <c r="CW11" s="280"/>
-      <c r="CX11" s="280"/>
-      <c r="CY11" s="280"/>
-      <c r="CZ11" s="280"/>
-      <c r="DA11" s="280"/>
-      <c r="DB11" s="280"/>
-      <c r="DC11" s="281"/>
+      <c r="CW11" s="259"/>
+      <c r="CX11" s="259"/>
+      <c r="CY11" s="259"/>
+      <c r="CZ11" s="259"/>
+      <c r="DA11" s="259"/>
+      <c r="DB11" s="259"/>
+      <c r="DC11" s="260"/>
     </row>
     <row r="12" spans="1:107" thickBot="1">
-      <c r="G12" s="282"/>
-      <c r="H12" s="283"/>
-      <c r="I12" s="283"/>
-      <c r="J12" s="283"/>
-      <c r="K12" s="283"/>
-      <c r="L12" s="283"/>
-      <c r="M12" s="283"/>
-      <c r="N12" s="284"/>
+      <c r="G12" s="261"/>
+      <c r="H12" s="262"/>
+      <c r="I12" s="262"/>
+      <c r="J12" s="262"/>
+      <c r="K12" s="262"/>
+      <c r="L12" s="262"/>
+      <c r="M12" s="262"/>
+      <c r="N12" s="263"/>
       <c r="O12" s="40"/>
       <c r="P12" s="29"/>
       <c r="Q12" s="29"/>
@@ -7444,49 +7482,49 @@
       <c r="V12" s="29"/>
       <c r="W12" s="29"/>
       <c r="AX12" s="42"/>
-      <c r="AY12" s="288" t="s">
+      <c r="AY12" s="255" t="s">
         <v>323</v>
       </c>
-      <c r="BD12" s="282"/>
-      <c r="BE12" s="283"/>
-      <c r="BF12" s="283"/>
-      <c r="BG12" s="283"/>
-      <c r="BH12" s="283"/>
-      <c r="BI12" s="283"/>
-      <c r="BJ12" s="283"/>
-      <c r="BK12" s="284"/>
-      <c r="BP12" s="282"/>
-      <c r="BQ12" s="283"/>
-      <c r="BR12" s="283"/>
-      <c r="BS12" s="283"/>
-      <c r="BT12" s="283"/>
-      <c r="BU12" s="283"/>
-      <c r="BV12" s="283"/>
-      <c r="BW12" s="284"/>
-      <c r="CA12" s="282"/>
-      <c r="CB12" s="283"/>
-      <c r="CC12" s="283"/>
-      <c r="CD12" s="283"/>
-      <c r="CE12" s="283"/>
-      <c r="CF12" s="283"/>
-      <c r="CG12" s="283"/>
-      <c r="CH12" s="284"/>
-      <c r="CL12" s="282"/>
-      <c r="CM12" s="283"/>
-      <c r="CN12" s="283"/>
-      <c r="CO12" s="283"/>
-      <c r="CP12" s="283"/>
-      <c r="CQ12" s="283"/>
-      <c r="CR12" s="283"/>
-      <c r="CS12" s="284"/>
-      <c r="CV12" s="282"/>
-      <c r="CW12" s="283"/>
-      <c r="CX12" s="283"/>
-      <c r="CY12" s="283"/>
-      <c r="CZ12" s="283"/>
-      <c r="DA12" s="283"/>
-      <c r="DB12" s="283"/>
-      <c r="DC12" s="284"/>
+      <c r="BD12" s="261"/>
+      <c r="BE12" s="262"/>
+      <c r="BF12" s="262"/>
+      <c r="BG12" s="262"/>
+      <c r="BH12" s="262"/>
+      <c r="BI12" s="262"/>
+      <c r="BJ12" s="262"/>
+      <c r="BK12" s="263"/>
+      <c r="BP12" s="261"/>
+      <c r="BQ12" s="262"/>
+      <c r="BR12" s="262"/>
+      <c r="BS12" s="262"/>
+      <c r="BT12" s="262"/>
+      <c r="BU12" s="262"/>
+      <c r="BV12" s="262"/>
+      <c r="BW12" s="263"/>
+      <c r="CA12" s="261"/>
+      <c r="CB12" s="262"/>
+      <c r="CC12" s="262"/>
+      <c r="CD12" s="262"/>
+      <c r="CE12" s="262"/>
+      <c r="CF12" s="262"/>
+      <c r="CG12" s="262"/>
+      <c r="CH12" s="263"/>
+      <c r="CL12" s="261"/>
+      <c r="CM12" s="262"/>
+      <c r="CN12" s="262"/>
+      <c r="CO12" s="262"/>
+      <c r="CP12" s="262"/>
+      <c r="CQ12" s="262"/>
+      <c r="CR12" s="262"/>
+      <c r="CS12" s="263"/>
+      <c r="CV12" s="261"/>
+      <c r="CW12" s="262"/>
+      <c r="CX12" s="262"/>
+      <c r="CY12" s="262"/>
+      <c r="CZ12" s="262"/>
+      <c r="DA12" s="262"/>
+      <c r="DB12" s="262"/>
+      <c r="DC12" s="263"/>
     </row>
     <row r="13" spans="1:107" thickBot="1">
       <c r="G13" s="40"/>
@@ -7505,7 +7543,7 @@
       <c r="V13" s="29"/>
       <c r="W13" s="29"/>
       <c r="AX13" s="42"/>
-      <c r="AY13" s="289"/>
+      <c r="AY13" s="256"/>
       <c r="BD13" s="40"/>
       <c r="BG13" s="29"/>
       <c r="BH13" s="29"/>
@@ -7530,16 +7568,16 @@
       <c r="DC13" s="42"/>
     </row>
     <row r="14" spans="1:107" thickBot="1">
-      <c r="G14" s="285" t="s">
+      <c r="G14" s="264" t="s">
         <v>325</v>
       </c>
-      <c r="H14" s="286"/>
-      <c r="I14" s="286"/>
-      <c r="J14" s="286"/>
-      <c r="K14" s="286"/>
-      <c r="L14" s="286"/>
-      <c r="M14" s="286"/>
-      <c r="N14" s="287"/>
+      <c r="H14" s="265"/>
+      <c r="I14" s="265"/>
+      <c r="J14" s="265"/>
+      <c r="K14" s="265"/>
+      <c r="L14" s="265"/>
+      <c r="M14" s="265"/>
+      <c r="N14" s="266"/>
       <c r="O14" s="40"/>
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
@@ -7550,57 +7588,57 @@
       <c r="V14" s="29"/>
       <c r="W14" s="29"/>
       <c r="AX14" s="42"/>
-      <c r="AY14" s="289"/>
-      <c r="BD14" s="285" t="s">
+      <c r="AY14" s="256"/>
+      <c r="BD14" s="264" t="s">
         <v>338</v>
       </c>
-      <c r="BE14" s="286"/>
-      <c r="BF14" s="286"/>
-      <c r="BG14" s="286"/>
-      <c r="BH14" s="286"/>
-      <c r="BI14" s="286"/>
-      <c r="BJ14" s="286"/>
-      <c r="BK14" s="287"/>
-      <c r="BP14" s="285" t="s">
+      <c r="BE14" s="265"/>
+      <c r="BF14" s="265"/>
+      <c r="BG14" s="265"/>
+      <c r="BH14" s="265"/>
+      <c r="BI14" s="265"/>
+      <c r="BJ14" s="265"/>
+      <c r="BK14" s="266"/>
+      <c r="BP14" s="264" t="s">
         <v>327</v>
       </c>
-      <c r="BQ14" s="286"/>
-      <c r="BR14" s="286"/>
-      <c r="BS14" s="286"/>
-      <c r="BT14" s="286"/>
-      <c r="BU14" s="286"/>
-      <c r="BV14" s="286"/>
-      <c r="BW14" s="287"/>
-      <c r="CA14" s="285" t="s">
+      <c r="BQ14" s="265"/>
+      <c r="BR14" s="265"/>
+      <c r="BS14" s="265"/>
+      <c r="BT14" s="265"/>
+      <c r="BU14" s="265"/>
+      <c r="BV14" s="265"/>
+      <c r="BW14" s="266"/>
+      <c r="CA14" s="264" t="s">
         <v>326</v>
       </c>
-      <c r="CB14" s="286"/>
-      <c r="CC14" s="286"/>
-      <c r="CD14" s="286"/>
-      <c r="CE14" s="286"/>
-      <c r="CF14" s="286"/>
-      <c r="CG14" s="286"/>
-      <c r="CH14" s="287"/>
-      <c r="CL14" s="285" t="s">
+      <c r="CB14" s="265"/>
+      <c r="CC14" s="265"/>
+      <c r="CD14" s="265"/>
+      <c r="CE14" s="265"/>
+      <c r="CF14" s="265"/>
+      <c r="CG14" s="265"/>
+      <c r="CH14" s="266"/>
+      <c r="CL14" s="264" t="s">
         <v>329</v>
       </c>
-      <c r="CM14" s="286"/>
-      <c r="CN14" s="286"/>
-      <c r="CO14" s="286"/>
-      <c r="CP14" s="286"/>
-      <c r="CQ14" s="286"/>
-      <c r="CR14" s="286"/>
-      <c r="CS14" s="287"/>
-      <c r="CV14" s="285" t="s">
+      <c r="CM14" s="265"/>
+      <c r="CN14" s="265"/>
+      <c r="CO14" s="265"/>
+      <c r="CP14" s="265"/>
+      <c r="CQ14" s="265"/>
+      <c r="CR14" s="265"/>
+      <c r="CS14" s="266"/>
+      <c r="CV14" s="264" t="s">
         <v>328</v>
       </c>
-      <c r="CW14" s="286"/>
-      <c r="CX14" s="286"/>
-      <c r="CY14" s="286"/>
-      <c r="CZ14" s="286"/>
-      <c r="DA14" s="286"/>
-      <c r="DB14" s="286"/>
-      <c r="DC14" s="287"/>
+      <c r="CW14" s="265"/>
+      <c r="CX14" s="265"/>
+      <c r="CY14" s="265"/>
+      <c r="CZ14" s="265"/>
+      <c r="DA14" s="265"/>
+      <c r="DB14" s="265"/>
+      <c r="DC14" s="266"/>
     </row>
     <row r="15" spans="1:107" thickBot="1">
       <c r="G15" s="117"/>
@@ -7621,7 +7659,7 @@
       <c r="V15" s="29"/>
       <c r="W15" s="29"/>
       <c r="AX15" s="42"/>
-      <c r="AY15" s="289"/>
+      <c r="AY15" s="256"/>
       <c r="BD15" s="117"/>
       <c r="BE15" s="116"/>
       <c r="BF15" s="114"/>
@@ -7682,7 +7720,7 @@
       <c r="V16" s="29"/>
       <c r="W16" s="29"/>
       <c r="AX16" s="42"/>
-      <c r="AY16" s="289"/>
+      <c r="AY16" s="256"/>
       <c r="BD16" s="40"/>
       <c r="BE16" s="29"/>
       <c r="BF16" s="29"/>
@@ -7734,16 +7772,16 @@
       <c r="M17" s="29"/>
       <c r="N17" s="29"/>
       <c r="O17" s="40"/>
-      <c r="P17" s="291"/>
-      <c r="Q17" s="244"/>
-      <c r="R17" s="244"/>
+      <c r="P17" s="267"/>
+      <c r="Q17" s="243"/>
+      <c r="R17" s="243"/>
       <c r="S17" s="29"/>
-      <c r="T17" s="291"/>
-      <c r="U17" s="244"/>
-      <c r="V17" s="244"/>
-      <c r="W17" s="244"/>
+      <c r="T17" s="267"/>
+      <c r="U17" s="243"/>
+      <c r="V17" s="243"/>
+      <c r="W17" s="243"/>
       <c r="AX17" s="42"/>
-      <c r="AY17" s="289"/>
+      <c r="AY17" s="256"/>
       <c r="BD17" s="40"/>
       <c r="BE17" s="29"/>
       <c r="BF17" s="29"/>
@@ -7761,14 +7799,14 @@
       <c r="BV17" s="29"/>
       <c r="BW17" s="46"/>
       <c r="CA17" s="40"/>
-      <c r="CB17" s="253" t="s">
+      <c r="CB17" s="268" t="s">
         <v>349</v>
       </c>
-      <c r="CC17" s="256"/>
-      <c r="CD17" s="256"/>
-      <c r="CE17" s="256"/>
-      <c r="CF17" s="256"/>
-      <c r="CG17" s="257"/>
+      <c r="CC17" s="253"/>
+      <c r="CD17" s="253"/>
+      <c r="CE17" s="253"/>
+      <c r="CF17" s="253"/>
+      <c r="CG17" s="254"/>
       <c r="CH17" s="46"/>
       <c r="CL17" s="40"/>
       <c r="CM17" s="29"/>
@@ -7791,96 +7829,96 @@
       <c r="G18" s="41"/>
       <c r="O18" s="41"/>
       <c r="AX18" s="42"/>
-      <c r="AY18" s="289"/>
+      <c r="AY18" s="256"/>
       <c r="BD18" s="41"/>
-      <c r="BE18" s="267" t="s">
+      <c r="BE18" s="252" t="s">
         <v>335</v>
       </c>
-      <c r="BF18" s="256"/>
-      <c r="BG18" s="256"/>
-      <c r="BH18" s="256"/>
-      <c r="BI18" s="256"/>
-      <c r="BJ18" s="257"/>
+      <c r="BF18" s="253"/>
+      <c r="BG18" s="253"/>
+      <c r="BH18" s="253"/>
+      <c r="BI18" s="253"/>
+      <c r="BJ18" s="254"/>
       <c r="BK18" s="42"/>
       <c r="BP18" s="41"/>
-      <c r="BQ18" s="267" t="s">
+      <c r="BQ18" s="252" t="s">
         <v>331</v>
       </c>
-      <c r="BR18" s="256"/>
-      <c r="BS18" s="256"/>
-      <c r="BT18" s="256"/>
-      <c r="BU18" s="256"/>
-      <c r="BV18" s="257"/>
+      <c r="BR18" s="253"/>
+      <c r="BS18" s="253"/>
+      <c r="BT18" s="253"/>
+      <c r="BU18" s="253"/>
+      <c r="BV18" s="254"/>
       <c r="BW18" s="42"/>
       <c r="CA18" s="41"/>
-      <c r="CB18" s="268" t="s">
+      <c r="CB18" s="269" t="s">
         <v>342</v>
       </c>
-      <c r="CC18" s="269"/>
-      <c r="CD18" s="267"/>
-      <c r="CE18" s="257"/>
-      <c r="CF18" s="268" t="s">
+      <c r="CC18" s="270"/>
+      <c r="CD18" s="252"/>
+      <c r="CE18" s="254"/>
+      <c r="CF18" s="269" t="s">
         <v>341</v>
       </c>
-      <c r="CG18" s="269"/>
+      <c r="CG18" s="270"/>
       <c r="CH18" s="42"/>
       <c r="CL18" s="41"/>
-      <c r="CM18" s="253" t="s">
+      <c r="CM18" s="268" t="s">
         <v>354</v>
       </c>
-      <c r="CN18" s="256"/>
-      <c r="CO18" s="256"/>
-      <c r="CP18" s="256"/>
-      <c r="CQ18" s="256"/>
-      <c r="CR18" s="257"/>
+      <c r="CN18" s="253"/>
+      <c r="CO18" s="253"/>
+      <c r="CP18" s="253"/>
+      <c r="CQ18" s="253"/>
+      <c r="CR18" s="254"/>
       <c r="CS18" s="42"/>
       <c r="CV18" s="41"/>
-      <c r="CW18" s="253" t="s">
+      <c r="CW18" s="268" t="s">
         <v>359</v>
       </c>
-      <c r="CX18" s="256"/>
-      <c r="CY18" s="256"/>
-      <c r="CZ18" s="256"/>
-      <c r="DA18" s="256"/>
-      <c r="DB18" s="257"/>
+      <c r="CX18" s="253"/>
+      <c r="CY18" s="253"/>
+      <c r="CZ18" s="253"/>
+      <c r="DA18" s="253"/>
+      <c r="DB18" s="254"/>
       <c r="DC18" s="42"/>
     </row>
     <row r="19" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G19" s="41"/>
       <c r="O19" s="41"/>
       <c r="AX19" s="42"/>
-      <c r="AY19" s="289"/>
+      <c r="AY19" s="256"/>
       <c r="BD19" s="41"/>
-      <c r="BE19" s="267" t="s">
+      <c r="BE19" s="252" t="s">
         <v>336</v>
       </c>
-      <c r="BF19" s="256"/>
-      <c r="BG19" s="256"/>
-      <c r="BH19" s="256"/>
-      <c r="BI19" s="256"/>
-      <c r="BJ19" s="257"/>
+      <c r="BF19" s="253"/>
+      <c r="BG19" s="253"/>
+      <c r="BH19" s="253"/>
+      <c r="BI19" s="253"/>
+      <c r="BJ19" s="254"/>
       <c r="BK19" s="42"/>
       <c r="BP19" s="41"/>
-      <c r="BQ19" s="267" t="s">
+      <c r="BQ19" s="252" t="s">
         <v>330</v>
       </c>
-      <c r="BR19" s="256"/>
-      <c r="BS19" s="256"/>
-      <c r="BT19" s="256"/>
-      <c r="BU19" s="256"/>
-      <c r="BV19" s="257"/>
+      <c r="BR19" s="253"/>
+      <c r="BS19" s="253"/>
+      <c r="BT19" s="253"/>
+      <c r="BU19" s="253"/>
+      <c r="BV19" s="254"/>
       <c r="BW19" s="42"/>
       <c r="CA19" s="41"/>
       <c r="CH19" s="42"/>
       <c r="CL19" s="41"/>
-      <c r="CM19" s="253" t="s">
+      <c r="CM19" s="268" t="s">
         <v>355</v>
       </c>
-      <c r="CN19" s="256"/>
-      <c r="CO19" s="256"/>
-      <c r="CP19" s="256"/>
-      <c r="CQ19" s="256"/>
-      <c r="CR19" s="257"/>
+      <c r="CN19" s="253"/>
+      <c r="CO19" s="253"/>
+      <c r="CP19" s="253"/>
+      <c r="CQ19" s="253"/>
+      <c r="CR19" s="254"/>
       <c r="CS19" s="42"/>
       <c r="CV19" s="41"/>
       <c r="DC19" s="42"/>
@@ -7889,114 +7927,114 @@
       <c r="G20" s="41"/>
       <c r="O20" s="41"/>
       <c r="AX20" s="42"/>
-      <c r="AY20" s="289"/>
+      <c r="AY20" s="256"/>
       <c r="BD20" s="41"/>
       <c r="BK20" s="42"/>
       <c r="BP20" s="41"/>
       <c r="BW20" s="42"/>
       <c r="CA20" s="41"/>
-      <c r="CB20" s="253" t="s">
+      <c r="CB20" s="268" t="s">
         <v>350</v>
       </c>
-      <c r="CC20" s="256"/>
-      <c r="CD20" s="256"/>
-      <c r="CE20" s="256"/>
-      <c r="CF20" s="256"/>
-      <c r="CG20" s="257"/>
+      <c r="CC20" s="253"/>
+      <c r="CD20" s="253"/>
+      <c r="CE20" s="253"/>
+      <c r="CF20" s="253"/>
+      <c r="CG20" s="254"/>
       <c r="CH20" s="42"/>
       <c r="CL20" s="41"/>
       <c r="CS20" s="42"/>
       <c r="CV20" s="41"/>
-      <c r="CW20" s="253" t="s">
+      <c r="CW20" s="268" t="s">
         <v>360</v>
       </c>
-      <c r="CX20" s="256"/>
-      <c r="CY20" s="256"/>
-      <c r="CZ20" s="256"/>
-      <c r="DA20" s="256"/>
-      <c r="DB20" s="257"/>
+      <c r="CX20" s="253"/>
+      <c r="CY20" s="253"/>
+      <c r="CZ20" s="253"/>
+      <c r="DA20" s="253"/>
+      <c r="DB20" s="254"/>
       <c r="DC20" s="42"/>
     </row>
     <row r="21" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G21" s="41"/>
       <c r="O21" s="41"/>
       <c r="AX21" s="42"/>
-      <c r="AY21" s="289"/>
+      <c r="AY21" s="256"/>
       <c r="BD21" s="41"/>
-      <c r="BE21" s="267" t="s">
+      <c r="BE21" s="252" t="s">
         <v>337</v>
       </c>
-      <c r="BF21" s="256"/>
-      <c r="BG21" s="256"/>
-      <c r="BH21" s="256"/>
-      <c r="BI21" s="256"/>
-      <c r="BJ21" s="257"/>
+      <c r="BF21" s="253"/>
+      <c r="BG21" s="253"/>
+      <c r="BH21" s="253"/>
+      <c r="BI21" s="253"/>
+      <c r="BJ21" s="254"/>
       <c r="BK21" s="42"/>
       <c r="BP21" s="41"/>
-      <c r="BQ21" s="267" t="s">
+      <c r="BQ21" s="252" t="s">
         <v>332</v>
       </c>
-      <c r="BR21" s="256"/>
-      <c r="BS21" s="256"/>
-      <c r="BT21" s="256"/>
-      <c r="BU21" s="256"/>
-      <c r="BV21" s="257"/>
+      <c r="BR21" s="253"/>
+      <c r="BS21" s="253"/>
+      <c r="BT21" s="253"/>
+      <c r="BU21" s="253"/>
+      <c r="BV21" s="254"/>
       <c r="BW21" s="42"/>
       <c r="CA21" s="41"/>
-      <c r="CB21" s="253" t="s">
+      <c r="CB21" s="268" t="s">
         <v>336</v>
       </c>
-      <c r="CC21" s="256"/>
-      <c r="CD21" s="256"/>
-      <c r="CE21" s="256"/>
-      <c r="CF21" s="256"/>
-      <c r="CG21" s="257"/>
+      <c r="CC21" s="253"/>
+      <c r="CD21" s="253"/>
+      <c r="CE21" s="253"/>
+      <c r="CF21" s="253"/>
+      <c r="CG21" s="254"/>
       <c r="CH21" s="42"/>
       <c r="CL21" s="41"/>
-      <c r="CM21" s="253" t="s">
+      <c r="CM21" s="268" t="s">
         <v>356</v>
       </c>
-      <c r="CN21" s="256"/>
-      <c r="CO21" s="256"/>
-      <c r="CP21" s="256"/>
-      <c r="CQ21" s="256"/>
-      <c r="CR21" s="257"/>
+      <c r="CN21" s="253"/>
+      <c r="CO21" s="253"/>
+      <c r="CP21" s="253"/>
+      <c r="CQ21" s="253"/>
+      <c r="CR21" s="254"/>
       <c r="CS21" s="42"/>
       <c r="CV21" s="41"/>
-      <c r="CW21" s="253" t="s">
+      <c r="CW21" s="268" t="s">
         <v>355</v>
       </c>
-      <c r="CX21" s="256"/>
-      <c r="CY21" s="256"/>
-      <c r="CZ21" s="256"/>
-      <c r="DA21" s="256"/>
-      <c r="DB21" s="257"/>
+      <c r="CX21" s="253"/>
+      <c r="CY21" s="253"/>
+      <c r="CZ21" s="253"/>
+      <c r="DA21" s="253"/>
+      <c r="DB21" s="254"/>
       <c r="DC21" s="42"/>
     </row>
     <row r="22" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G22" s="41"/>
       <c r="O22" s="41"/>
       <c r="AX22" s="42"/>
-      <c r="AY22" s="289"/>
+      <c r="AY22" s="256"/>
       <c r="BD22" s="41"/>
-      <c r="BE22" s="267" t="s">
+      <c r="BE22" s="252" t="s">
         <v>336</v>
       </c>
-      <c r="BF22" s="256"/>
-      <c r="BG22" s="256"/>
-      <c r="BH22" s="256"/>
-      <c r="BI22" s="256"/>
-      <c r="BJ22" s="257"/>
+      <c r="BF22" s="253"/>
+      <c r="BG22" s="253"/>
+      <c r="BH22" s="253"/>
+      <c r="BI22" s="253"/>
+      <c r="BJ22" s="254"/>
       <c r="BK22" s="42"/>
       <c r="BP22" s="41"/>
-      <c r="BQ22" s="267" t="s">
+      <c r="BQ22" s="252" t="s">
         <v>330</v>
       </c>
-      <c r="BR22" s="256"/>
-      <c r="BS22" s="256"/>
-      <c r="BT22" s="256"/>
-      <c r="BU22" s="256"/>
-      <c r="BV22" s="257"/>
+      <c r="BR22" s="253"/>
+      <c r="BS22" s="253"/>
+      <c r="BT22" s="253"/>
+      <c r="BU22" s="253"/>
+      <c r="BV22" s="254"/>
       <c r="BW22" s="42"/>
       <c r="CA22" s="41"/>
       <c r="CH22" s="42"/>
@@ -8009,7 +8047,7 @@
       <c r="G23" s="41"/>
       <c r="O23" s="41"/>
       <c r="AX23" s="42"/>
-      <c r="AY23" s="289"/>
+      <c r="AY23" s="256"/>
       <c r="BD23" s="41"/>
       <c r="BK23" s="42"/>
       <c r="BP23" s="41"/>
@@ -8018,57 +8056,57 @@
       <c r="CB23" s="29"/>
       <c r="CC23" s="29"/>
       <c r="CD23" s="29"/>
-      <c r="CE23" s="276" t="s">
+      <c r="CE23" s="279" t="s">
         <v>348</v>
       </c>
-      <c r="CF23" s="277"/>
-      <c r="CG23" s="277"/>
-      <c r="CH23" s="278"/>
+      <c r="CF23" s="280"/>
+      <c r="CG23" s="280"/>
+      <c r="CH23" s="281"/>
       <c r="CL23" s="41"/>
-      <c r="CM23" s="253" t="s">
+      <c r="CM23" s="268" t="s">
         <v>357</v>
       </c>
-      <c r="CN23" s="256"/>
-      <c r="CO23" s="256"/>
-      <c r="CP23" s="256"/>
-      <c r="CQ23" s="256"/>
-      <c r="CR23" s="257"/>
+      <c r="CN23" s="253"/>
+      <c r="CO23" s="253"/>
+      <c r="CP23" s="253"/>
+      <c r="CQ23" s="253"/>
+      <c r="CR23" s="254"/>
       <c r="CS23" s="42"/>
       <c r="CV23" s="41"/>
-      <c r="CW23" s="253" t="s">
+      <c r="CW23" s="268" t="s">
         <v>361</v>
       </c>
-      <c r="CX23" s="256"/>
-      <c r="CY23" s="256"/>
-      <c r="CZ23" s="256"/>
-      <c r="DA23" s="256"/>
-      <c r="DB23" s="257"/>
+      <c r="CX23" s="253"/>
+      <c r="CY23" s="253"/>
+      <c r="CZ23" s="253"/>
+      <c r="DA23" s="253"/>
+      <c r="DB23" s="254"/>
       <c r="DC23" s="42"/>
     </row>
     <row r="24" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G24" s="41"/>
       <c r="O24" s="41"/>
       <c r="AX24" s="42"/>
-      <c r="AY24" s="289"/>
+      <c r="AY24" s="256"/>
       <c r="BD24" s="41"/>
-      <c r="BE24" s="267" t="s">
+      <c r="BE24" s="252" t="s">
         <v>339</v>
       </c>
-      <c r="BF24" s="256"/>
-      <c r="BG24" s="256"/>
-      <c r="BH24" s="256"/>
-      <c r="BI24" s="256"/>
-      <c r="BJ24" s="257"/>
+      <c r="BF24" s="253"/>
+      <c r="BG24" s="253"/>
+      <c r="BH24" s="253"/>
+      <c r="BI24" s="253"/>
+      <c r="BJ24" s="254"/>
       <c r="BK24" s="42"/>
       <c r="BP24" s="41"/>
-      <c r="BQ24" s="267" t="s">
+      <c r="BQ24" s="252" t="s">
         <v>333</v>
       </c>
-      <c r="BR24" s="256"/>
-      <c r="BS24" s="256"/>
-      <c r="BT24" s="256"/>
-      <c r="BU24" s="256"/>
-      <c r="BV24" s="257"/>
+      <c r="BR24" s="253"/>
+      <c r="BS24" s="253"/>
+      <c r="BT24" s="253"/>
+      <c r="BU24" s="253"/>
+      <c r="BV24" s="254"/>
       <c r="BW24" s="42"/>
       <c r="CA24" s="40"/>
       <c r="CB24" s="29"/>
@@ -8079,60 +8117,60 @@
       <c r="CG24" s="29"/>
       <c r="CH24" s="46"/>
       <c r="CL24" s="41"/>
-      <c r="CM24" s="253" t="s">
+      <c r="CM24" s="268" t="s">
         <v>355</v>
       </c>
-      <c r="CN24" s="256"/>
-      <c r="CO24" s="256"/>
-      <c r="CP24" s="256"/>
-      <c r="CQ24" s="256"/>
-      <c r="CR24" s="257"/>
+      <c r="CN24" s="253"/>
+      <c r="CO24" s="253"/>
+      <c r="CP24" s="253"/>
+      <c r="CQ24" s="253"/>
+      <c r="CR24" s="254"/>
       <c r="CS24" s="42"/>
       <c r="CV24" s="41"/>
-      <c r="CW24" s="253" t="s">
+      <c r="CW24" s="268" t="s">
         <v>355</v>
       </c>
-      <c r="CX24" s="256"/>
-      <c r="CY24" s="256"/>
-      <c r="CZ24" s="256"/>
-      <c r="DA24" s="256"/>
-      <c r="DB24" s="257"/>
+      <c r="CX24" s="253"/>
+      <c r="CY24" s="253"/>
+      <c r="CZ24" s="253"/>
+      <c r="DA24" s="253"/>
+      <c r="DB24" s="254"/>
       <c r="DC24" s="42"/>
     </row>
     <row r="25" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G25" s="41"/>
       <c r="O25" s="41"/>
       <c r="AX25" s="42"/>
-      <c r="AY25" s="289"/>
+      <c r="AY25" s="256"/>
       <c r="BD25" s="41"/>
-      <c r="BE25" s="267" t="s">
+      <c r="BE25" s="252" t="s">
         <v>336</v>
       </c>
-      <c r="BF25" s="256"/>
-      <c r="BG25" s="256"/>
-      <c r="BH25" s="256"/>
-      <c r="BI25" s="256"/>
-      <c r="BJ25" s="257"/>
+      <c r="BF25" s="253"/>
+      <c r="BG25" s="253"/>
+      <c r="BH25" s="253"/>
+      <c r="BI25" s="253"/>
+      <c r="BJ25" s="254"/>
       <c r="BK25" s="42"/>
       <c r="BP25" s="41"/>
-      <c r="BQ25" s="267" t="s">
+      <c r="BQ25" s="252" t="s">
         <v>330</v>
       </c>
-      <c r="BR25" s="256"/>
-      <c r="BS25" s="256"/>
-      <c r="BT25" s="256"/>
-      <c r="BU25" s="256"/>
-      <c r="BV25" s="257"/>
+      <c r="BR25" s="253"/>
+      <c r="BS25" s="253"/>
+      <c r="BT25" s="253"/>
+      <c r="BU25" s="253"/>
+      <c r="BV25" s="254"/>
       <c r="BW25" s="42"/>
       <c r="CA25" s="41"/>
-      <c r="CB25" s="253" t="s">
+      <c r="CB25" s="268" t="s">
         <v>343</v>
       </c>
-      <c r="CC25" s="254"/>
-      <c r="CD25" s="254"/>
-      <c r="CE25" s="254"/>
-      <c r="CF25" s="254"/>
-      <c r="CG25" s="255"/>
+      <c r="CC25" s="277"/>
+      <c r="CD25" s="277"/>
+      <c r="CE25" s="277"/>
+      <c r="CF25" s="277"/>
+      <c r="CG25" s="278"/>
       <c r="CH25" s="42"/>
       <c r="CL25" s="41"/>
       <c r="CS25" s="42"/>
@@ -8143,128 +8181,128 @@
       <c r="G26" s="41"/>
       <c r="O26" s="41"/>
       <c r="AX26" s="42"/>
-      <c r="AY26" s="289"/>
+      <c r="AY26" s="256"/>
       <c r="BD26" s="41"/>
       <c r="BK26" s="42"/>
       <c r="BP26" s="41"/>
       <c r="BW26" s="42"/>
       <c r="CA26" s="41"/>
-      <c r="CB26" s="268" t="s">
+      <c r="CB26" s="269" t="s">
         <v>342</v>
       </c>
-      <c r="CC26" s="269"/>
-      <c r="CD26" s="267"/>
-      <c r="CE26" s="257"/>
-      <c r="CF26" s="268" t="s">
+      <c r="CC26" s="270"/>
+      <c r="CD26" s="252"/>
+      <c r="CE26" s="254"/>
+      <c r="CF26" s="269" t="s">
         <v>341</v>
       </c>
-      <c r="CG26" s="269"/>
+      <c r="CG26" s="270"/>
       <c r="CH26" s="42"/>
       <c r="CL26" s="41"/>
-      <c r="CM26" s="267" t="s">
+      <c r="CM26" s="252" t="s">
         <v>331</v>
       </c>
-      <c r="CN26" s="256"/>
-      <c r="CO26" s="256"/>
-      <c r="CP26" s="256"/>
-      <c r="CQ26" s="256"/>
-      <c r="CR26" s="257"/>
+      <c r="CN26" s="253"/>
+      <c r="CO26" s="253"/>
+      <c r="CP26" s="253"/>
+      <c r="CQ26" s="253"/>
+      <c r="CR26" s="254"/>
       <c r="CS26" s="42"/>
       <c r="CV26" s="41"/>
-      <c r="CW26" s="253" t="s">
+      <c r="CW26" s="268" t="s">
         <v>362</v>
       </c>
-      <c r="CX26" s="256"/>
-      <c r="CY26" s="256"/>
-      <c r="CZ26" s="256"/>
-      <c r="DA26" s="256"/>
-      <c r="DB26" s="257"/>
+      <c r="CX26" s="253"/>
+      <c r="CY26" s="253"/>
+      <c r="CZ26" s="253"/>
+      <c r="DA26" s="253"/>
+      <c r="DB26" s="254"/>
       <c r="DC26" s="42"/>
     </row>
     <row r="27" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G27" s="41"/>
       <c r="O27" s="41"/>
       <c r="AX27" s="42"/>
-      <c r="AY27" s="289"/>
+      <c r="AY27" s="256"/>
       <c r="BD27" s="41"/>
-      <c r="BE27" s="267" t="s">
+      <c r="BE27" s="252" t="s">
         <v>340</v>
       </c>
-      <c r="BF27" s="256"/>
-      <c r="BG27" s="256"/>
-      <c r="BH27" s="256"/>
-      <c r="BI27" s="256"/>
-      <c r="BJ27" s="257"/>
+      <c r="BF27" s="253"/>
+      <c r="BG27" s="253"/>
+      <c r="BH27" s="253"/>
+      <c r="BI27" s="253"/>
+      <c r="BJ27" s="254"/>
       <c r="BK27" s="42"/>
       <c r="BP27" s="41"/>
-      <c r="BQ27" s="267" t="s">
+      <c r="BQ27" s="252" t="s">
         <v>334</v>
       </c>
-      <c r="BR27" s="256"/>
-      <c r="BS27" s="256"/>
-      <c r="BT27" s="256"/>
-      <c r="BU27" s="256"/>
-      <c r="BV27" s="257"/>
+      <c r="BR27" s="253"/>
+      <c r="BS27" s="253"/>
+      <c r="BT27" s="253"/>
+      <c r="BU27" s="253"/>
+      <c r="BV27" s="254"/>
       <c r="BW27" s="42"/>
       <c r="CA27" s="41"/>
       <c r="CH27" s="42"/>
       <c r="CL27" s="41"/>
-      <c r="CM27" s="253" t="s">
+      <c r="CM27" s="268" t="s">
         <v>355</v>
       </c>
-      <c r="CN27" s="256"/>
-      <c r="CO27" s="256"/>
-      <c r="CP27" s="256"/>
-      <c r="CQ27" s="256"/>
-      <c r="CR27" s="257"/>
+      <c r="CN27" s="253"/>
+      <c r="CO27" s="253"/>
+      <c r="CP27" s="253"/>
+      <c r="CQ27" s="253"/>
+      <c r="CR27" s="254"/>
       <c r="CS27" s="42"/>
       <c r="CV27" s="41"/>
-      <c r="CW27" s="253" t="s">
+      <c r="CW27" s="268" t="s">
         <v>355</v>
       </c>
-      <c r="CX27" s="256"/>
-      <c r="CY27" s="256"/>
-      <c r="CZ27" s="256"/>
-      <c r="DA27" s="256"/>
-      <c r="DB27" s="257"/>
+      <c r="CX27" s="253"/>
+      <c r="CY27" s="253"/>
+      <c r="CZ27" s="253"/>
+      <c r="DA27" s="253"/>
+      <c r="DB27" s="254"/>
       <c r="DC27" s="42"/>
     </row>
     <row r="28" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G28" s="41"/>
       <c r="O28" s="41"/>
       <c r="AX28" s="42"/>
-      <c r="AY28" s="289"/>
+      <c r="AY28" s="256"/>
       <c r="BD28" s="119"/>
-      <c r="BE28" s="268" t="s">
+      <c r="BE28" s="269" t="s">
         <v>342</v>
       </c>
-      <c r="BF28" s="269"/>
-      <c r="BG28" s="267"/>
-      <c r="BH28" s="257"/>
-      <c r="BI28" s="268" t="s">
+      <c r="BF28" s="270"/>
+      <c r="BG28" s="252"/>
+      <c r="BH28" s="254"/>
+      <c r="BI28" s="269" t="s">
         <v>341</v>
       </c>
-      <c r="BJ28" s="269"/>
+      <c r="BJ28" s="270"/>
       <c r="BK28" s="42"/>
       <c r="BP28" s="41"/>
-      <c r="BQ28" s="267" t="s">
+      <c r="BQ28" s="252" t="s">
         <v>330</v>
       </c>
-      <c r="BR28" s="256"/>
-      <c r="BS28" s="256"/>
-      <c r="BT28" s="256"/>
-      <c r="BU28" s="256"/>
-      <c r="BV28" s="257"/>
+      <c r="BR28" s="253"/>
+      <c r="BS28" s="253"/>
+      <c r="BT28" s="253"/>
+      <c r="BU28" s="253"/>
+      <c r="BV28" s="254"/>
       <c r="BW28" s="42"/>
       <c r="CA28" s="41"/>
-      <c r="CB28" s="253" t="s">
+      <c r="CB28" s="268" t="s">
         <v>344</v>
       </c>
-      <c r="CC28" s="254"/>
-      <c r="CD28" s="254"/>
-      <c r="CE28" s="254"/>
-      <c r="CF28" s="254"/>
-      <c r="CG28" s="255"/>
+      <c r="CC28" s="277"/>
+      <c r="CD28" s="277"/>
+      <c r="CE28" s="277"/>
+      <c r="CF28" s="277"/>
+      <c r="CG28" s="278"/>
       <c r="CH28" s="42"/>
       <c r="CL28" s="41"/>
       <c r="CS28" s="42"/>
@@ -8275,49 +8313,49 @@
       <c r="G29" s="41"/>
       <c r="O29" s="41"/>
       <c r="AX29" s="42"/>
-      <c r="AY29" s="289"/>
+      <c r="AY29" s="256"/>
       <c r="BD29" s="41"/>
       <c r="BK29" s="42"/>
       <c r="BP29" s="41"/>
       <c r="BW29" s="42"/>
       <c r="CA29" s="41"/>
-      <c r="CB29" s="268" t="s">
+      <c r="CB29" s="269" t="s">
         <v>342</v>
       </c>
-      <c r="CC29" s="269"/>
-      <c r="CD29" s="267"/>
-      <c r="CE29" s="257"/>
-      <c r="CF29" s="268" t="s">
+      <c r="CC29" s="270"/>
+      <c r="CD29" s="252"/>
+      <c r="CE29" s="254"/>
+      <c r="CF29" s="269" t="s">
         <v>341</v>
       </c>
-      <c r="CG29" s="269"/>
+      <c r="CG29" s="270"/>
       <c r="CH29" s="42"/>
       <c r="CL29" s="41"/>
-      <c r="CM29" s="267" t="s">
+      <c r="CM29" s="252" t="s">
         <v>332</v>
       </c>
-      <c r="CN29" s="256"/>
-      <c r="CO29" s="256"/>
-      <c r="CP29" s="256"/>
-      <c r="CQ29" s="256"/>
-      <c r="CR29" s="257"/>
+      <c r="CN29" s="253"/>
+      <c r="CO29" s="253"/>
+      <c r="CP29" s="253"/>
+      <c r="CQ29" s="253"/>
+      <c r="CR29" s="254"/>
       <c r="CS29" s="42"/>
       <c r="CV29" s="41"/>
-      <c r="CW29" s="253" t="s">
+      <c r="CW29" s="268" t="s">
         <v>363</v>
       </c>
-      <c r="CX29" s="256"/>
-      <c r="CY29" s="256"/>
-      <c r="CZ29" s="256"/>
-      <c r="DA29" s="256"/>
-      <c r="DB29" s="257"/>
+      <c r="CX29" s="253"/>
+      <c r="CY29" s="253"/>
+      <c r="CZ29" s="253"/>
+      <c r="DA29" s="253"/>
+      <c r="DB29" s="254"/>
       <c r="DC29" s="42"/>
     </row>
     <row r="30" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G30" s="41"/>
       <c r="O30" s="41"/>
       <c r="AX30" s="42"/>
-      <c r="AY30" s="289"/>
+      <c r="AY30" s="256"/>
       <c r="BD30" s="41"/>
       <c r="BK30" s="42"/>
       <c r="BP30" s="41"/>
@@ -8325,44 +8363,44 @@
       <c r="CA30" s="41"/>
       <c r="CH30" s="42"/>
       <c r="CL30" s="41"/>
-      <c r="CM30" s="253" t="s">
+      <c r="CM30" s="268" t="s">
         <v>355</v>
       </c>
-      <c r="CN30" s="256"/>
-      <c r="CO30" s="256"/>
-      <c r="CP30" s="256"/>
-      <c r="CQ30" s="256"/>
-      <c r="CR30" s="257"/>
+      <c r="CN30" s="253"/>
+      <c r="CO30" s="253"/>
+      <c r="CP30" s="253"/>
+      <c r="CQ30" s="253"/>
+      <c r="CR30" s="254"/>
       <c r="CS30" s="42"/>
       <c r="CV30" s="41"/>
-      <c r="CW30" s="253" t="s">
+      <c r="CW30" s="268" t="s">
         <v>355</v>
       </c>
-      <c r="CX30" s="254"/>
-      <c r="CY30" s="254"/>
-      <c r="CZ30" s="254"/>
-      <c r="DA30" s="254"/>
-      <c r="DB30" s="255"/>
+      <c r="CX30" s="277"/>
+      <c r="CY30" s="277"/>
+      <c r="CZ30" s="277"/>
+      <c r="DA30" s="277"/>
+      <c r="DB30" s="278"/>
       <c r="DC30" s="42"/>
     </row>
     <row r="31" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G31" s="41"/>
       <c r="O31" s="41"/>
       <c r="AX31" s="42"/>
-      <c r="AY31" s="289"/>
+      <c r="AY31" s="256"/>
       <c r="BD31" s="41"/>
       <c r="BK31" s="42"/>
       <c r="BP31" s="41"/>
       <c r="BW31" s="42"/>
       <c r="CA31" s="41"/>
-      <c r="CB31" s="253" t="s">
+      <c r="CB31" s="268" t="s">
         <v>345</v>
       </c>
-      <c r="CC31" s="254"/>
-      <c r="CD31" s="254"/>
-      <c r="CE31" s="254"/>
-      <c r="CF31" s="254"/>
-      <c r="CG31" s="255"/>
+      <c r="CC31" s="277"/>
+      <c r="CD31" s="277"/>
+      <c r="CE31" s="277"/>
+      <c r="CF31" s="277"/>
+      <c r="CG31" s="278"/>
       <c r="CH31" s="42"/>
       <c r="CL31" s="41"/>
       <c r="CS31" s="42"/>
@@ -8373,122 +8411,122 @@
       <c r="G32" s="41"/>
       <c r="O32" s="41"/>
       <c r="AX32" s="42"/>
-      <c r="AY32" s="289"/>
+      <c r="AY32" s="256"/>
       <c r="BD32" s="41"/>
-      <c r="BE32" s="270" t="s">
+      <c r="BE32" s="271" t="s">
         <v>277</v>
       </c>
-      <c r="BF32" s="271"/>
-      <c r="BG32" s="271"/>
-      <c r="BH32" s="271"/>
-      <c r="BI32" s="271"/>
-      <c r="BJ32" s="272"/>
+      <c r="BF32" s="272"/>
+      <c r="BG32" s="272"/>
+      <c r="BH32" s="272"/>
+      <c r="BI32" s="272"/>
+      <c r="BJ32" s="273"/>
       <c r="BK32" s="42"/>
       <c r="BP32" s="41"/>
-      <c r="BQ32" s="270" t="s">
+      <c r="BQ32" s="271" t="s">
         <v>352</v>
       </c>
-      <c r="BR32" s="271"/>
-      <c r="BS32" s="271"/>
-      <c r="BT32" s="271"/>
-      <c r="BU32" s="271"/>
-      <c r="BV32" s="272"/>
+      <c r="BR32" s="272"/>
+      <c r="BS32" s="272"/>
+      <c r="BT32" s="272"/>
+      <c r="BU32" s="272"/>
+      <c r="BV32" s="273"/>
       <c r="BW32" s="42"/>
       <c r="CA32" s="41"/>
-      <c r="CB32" s="268" t="s">
+      <c r="CB32" s="269" t="s">
         <v>342</v>
       </c>
-      <c r="CC32" s="269"/>
-      <c r="CD32" s="267"/>
-      <c r="CE32" s="257"/>
-      <c r="CF32" s="268" t="s">
+      <c r="CC32" s="270"/>
+      <c r="CD32" s="252"/>
+      <c r="CE32" s="254"/>
+      <c r="CF32" s="269" t="s">
         <v>341</v>
       </c>
-      <c r="CG32" s="269"/>
+      <c r="CG32" s="270"/>
       <c r="CH32" s="42"/>
       <c r="CL32" s="41"/>
-      <c r="CM32" s="267" t="s">
+      <c r="CM32" s="252" t="s">
         <v>333</v>
       </c>
-      <c r="CN32" s="256"/>
-      <c r="CO32" s="256"/>
-      <c r="CP32" s="256"/>
-      <c r="CQ32" s="256"/>
-      <c r="CR32" s="257"/>
+      <c r="CN32" s="253"/>
+      <c r="CO32" s="253"/>
+      <c r="CP32" s="253"/>
+      <c r="CQ32" s="253"/>
+      <c r="CR32" s="254"/>
       <c r="CS32" s="42"/>
       <c r="CV32" s="41"/>
-      <c r="CW32" s="253" t="s">
+      <c r="CW32" s="268" t="s">
         <v>364</v>
       </c>
-      <c r="CX32" s="256"/>
-      <c r="CY32" s="256"/>
-      <c r="CZ32" s="256"/>
-      <c r="DA32" s="256"/>
-      <c r="DB32" s="257"/>
+      <c r="CX32" s="253"/>
+      <c r="CY32" s="253"/>
+      <c r="CZ32" s="253"/>
+      <c r="DA32" s="253"/>
+      <c r="DB32" s="254"/>
       <c r="DC32" s="42"/>
     </row>
     <row r="33" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G33" s="41"/>
       <c r="O33" s="41"/>
       <c r="AX33" s="42"/>
-      <c r="AY33" s="289"/>
+      <c r="AY33" s="256"/>
       <c r="BD33" s="41"/>
-      <c r="BE33" s="273"/>
-      <c r="BF33" s="274"/>
-      <c r="BG33" s="274"/>
-      <c r="BH33" s="274"/>
-      <c r="BI33" s="274"/>
-      <c r="BJ33" s="275"/>
+      <c r="BE33" s="274"/>
+      <c r="BF33" s="275"/>
+      <c r="BG33" s="275"/>
+      <c r="BH33" s="275"/>
+      <c r="BI33" s="275"/>
+      <c r="BJ33" s="276"/>
       <c r="BK33" s="42"/>
       <c r="BP33" s="41"/>
-      <c r="BQ33" s="273"/>
-      <c r="BR33" s="274"/>
-      <c r="BS33" s="274"/>
-      <c r="BT33" s="274"/>
-      <c r="BU33" s="274"/>
-      <c r="BV33" s="275"/>
+      <c r="BQ33" s="274"/>
+      <c r="BR33" s="275"/>
+      <c r="BS33" s="275"/>
+      <c r="BT33" s="275"/>
+      <c r="BU33" s="275"/>
+      <c r="BV33" s="276"/>
       <c r="BW33" s="42"/>
       <c r="CA33" s="41"/>
       <c r="CH33" s="42"/>
       <c r="CL33" s="41"/>
-      <c r="CM33" s="253" t="s">
+      <c r="CM33" s="268" t="s">
         <v>355</v>
       </c>
-      <c r="CN33" s="254"/>
-      <c r="CO33" s="254"/>
-      <c r="CP33" s="254"/>
-      <c r="CQ33" s="254"/>
-      <c r="CR33" s="255"/>
+      <c r="CN33" s="277"/>
+      <c r="CO33" s="277"/>
+      <c r="CP33" s="277"/>
+      <c r="CQ33" s="277"/>
+      <c r="CR33" s="278"/>
       <c r="CS33" s="42"/>
       <c r="CV33" s="41"/>
-      <c r="CW33" s="253" t="s">
+      <c r="CW33" s="268" t="s">
         <v>355</v>
       </c>
-      <c r="CX33" s="254"/>
-      <c r="CY33" s="254"/>
-      <c r="CZ33" s="254"/>
-      <c r="DA33" s="254"/>
-      <c r="DB33" s="255"/>
+      <c r="CX33" s="277"/>
+      <c r="CY33" s="277"/>
+      <c r="CZ33" s="277"/>
+      <c r="DA33" s="277"/>
+      <c r="DB33" s="278"/>
       <c r="DC33" s="42"/>
     </row>
     <row r="34" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G34" s="41"/>
       <c r="O34" s="41"/>
       <c r="AX34" s="42"/>
-      <c r="AY34" s="289"/>
+      <c r="AY34" s="256"/>
       <c r="BD34" s="41"/>
       <c r="BK34" s="42"/>
       <c r="BP34" s="41"/>
       <c r="BW34" s="42"/>
       <c r="CA34" s="41"/>
-      <c r="CB34" s="253" t="s">
+      <c r="CB34" s="268" t="s">
         <v>346</v>
       </c>
-      <c r="CC34" s="254"/>
-      <c r="CD34" s="254"/>
-      <c r="CE34" s="254"/>
-      <c r="CF34" s="254"/>
-      <c r="CG34" s="255"/>
+      <c r="CC34" s="277"/>
+      <c r="CD34" s="277"/>
+      <c r="CE34" s="277"/>
+      <c r="CF34" s="277"/>
+      <c r="CG34" s="278"/>
       <c r="CH34" s="42"/>
       <c r="CL34" s="41"/>
       <c r="CS34" s="42"/>
@@ -8499,95 +8537,95 @@
       <c r="G35" s="41"/>
       <c r="O35" s="41"/>
       <c r="AX35" s="42"/>
-      <c r="AY35" s="289"/>
+      <c r="AY35" s="256"/>
       <c r="BD35" s="41"/>
       <c r="BK35" s="42"/>
       <c r="BP35" s="41"/>
-      <c r="BQ35" s="253" t="s">
+      <c r="BQ35" s="268" t="s">
         <v>351</v>
       </c>
-      <c r="BR35" s="256"/>
-      <c r="BS35" s="256"/>
-      <c r="BT35" s="256"/>
-      <c r="BU35" s="256"/>
-      <c r="BV35" s="257"/>
+      <c r="BR35" s="253"/>
+      <c r="BS35" s="253"/>
+      <c r="BT35" s="253"/>
+      <c r="BU35" s="253"/>
+      <c r="BV35" s="254"/>
       <c r="BW35" s="42"/>
       <c r="CA35" s="41"/>
-      <c r="CB35" s="268" t="s">
+      <c r="CB35" s="269" t="s">
         <v>342</v>
       </c>
-      <c r="CC35" s="269"/>
-      <c r="CD35" s="267"/>
-      <c r="CE35" s="257"/>
-      <c r="CF35" s="268" t="s">
+      <c r="CC35" s="270"/>
+      <c r="CD35" s="252"/>
+      <c r="CE35" s="254"/>
+      <c r="CF35" s="269" t="s">
         <v>341</v>
       </c>
-      <c r="CG35" s="269"/>
+      <c r="CG35" s="270"/>
       <c r="CH35" s="42"/>
       <c r="CL35" s="41"/>
-      <c r="CM35" s="253" t="s">
+      <c r="CM35" s="268" t="s">
         <v>358</v>
       </c>
-      <c r="CN35" s="256"/>
-      <c r="CO35" s="256"/>
-      <c r="CP35" s="256"/>
-      <c r="CQ35" s="256"/>
-      <c r="CR35" s="257"/>
+      <c r="CN35" s="253"/>
+      <c r="CO35" s="253"/>
+      <c r="CP35" s="253"/>
+      <c r="CQ35" s="253"/>
+      <c r="CR35" s="254"/>
       <c r="CS35" s="42"/>
       <c r="CV35" s="41"/>
-      <c r="CW35" s="253" t="s">
+      <c r="CW35" s="268" t="s">
         <v>365</v>
       </c>
-      <c r="CX35" s="256"/>
-      <c r="CY35" s="256"/>
-      <c r="CZ35" s="256"/>
-      <c r="DA35" s="256"/>
-      <c r="DB35" s="257"/>
+      <c r="CX35" s="253"/>
+      <c r="CY35" s="253"/>
+      <c r="CZ35" s="253"/>
+      <c r="DA35" s="253"/>
+      <c r="DB35" s="254"/>
       <c r="DC35" s="42"/>
     </row>
     <row r="36" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G36" s="41"/>
       <c r="O36" s="41"/>
       <c r="AX36" s="42"/>
-      <c r="AY36" s="289"/>
+      <c r="AY36" s="256"/>
       <c r="BD36" s="41"/>
       <c r="BK36" s="42"/>
       <c r="BP36" s="41"/>
-      <c r="BQ36" s="253" t="s">
+      <c r="BQ36" s="268" t="s">
         <v>353</v>
       </c>
-      <c r="BR36" s="256"/>
-      <c r="BS36" s="256"/>
-      <c r="BT36" s="256"/>
-      <c r="BU36" s="256"/>
-      <c r="BV36" s="257"/>
+      <c r="BR36" s="253"/>
+      <c r="BS36" s="253"/>
+      <c r="BT36" s="253"/>
+      <c r="BU36" s="253"/>
+      <c r="BV36" s="254"/>
       <c r="BW36" s="42"/>
       <c r="CA36" s="41"/>
       <c r="CH36" s="42"/>
       <c r="CL36" s="41"/>
-      <c r="CM36" s="253" t="s">
+      <c r="CM36" s="268" t="s">
         <v>355</v>
       </c>
-      <c r="CN36" s="254"/>
-      <c r="CO36" s="254"/>
-      <c r="CP36" s="254"/>
-      <c r="CQ36" s="254"/>
-      <c r="CR36" s="255"/>
+      <c r="CN36" s="277"/>
+      <c r="CO36" s="277"/>
+      <c r="CP36" s="277"/>
+      <c r="CQ36" s="277"/>
+      <c r="CR36" s="278"/>
       <c r="CS36" s="42"/>
       <c r="CV36" s="41"/>
-      <c r="CW36" s="258"/>
-      <c r="CX36" s="259"/>
-      <c r="CY36" s="259"/>
-      <c r="CZ36" s="259"/>
-      <c r="DA36" s="259"/>
-      <c r="DB36" s="260"/>
+      <c r="CW36" s="282"/>
+      <c r="CX36" s="283"/>
+      <c r="CY36" s="283"/>
+      <c r="CZ36" s="283"/>
+      <c r="DA36" s="283"/>
+      <c r="DB36" s="284"/>
       <c r="DC36" s="42"/>
     </row>
     <row r="37" spans="7:107" ht="15.75" customHeight="1">
       <c r="G37" s="41"/>
       <c r="O37" s="41"/>
       <c r="AX37" s="42"/>
-      <c r="AY37" s="289"/>
+      <c r="AY37" s="256"/>
       <c r="BD37" s="41"/>
       <c r="BK37" s="42"/>
       <c r="BP37" s="41"/>
@@ -8597,19 +8635,19 @@
       <c r="CL37" s="41"/>
       <c r="CS37" s="42"/>
       <c r="CV37" s="41"/>
-      <c r="CW37" s="261"/>
-      <c r="CX37" s="262"/>
-      <c r="CY37" s="262"/>
-      <c r="CZ37" s="262"/>
-      <c r="DA37" s="262"/>
-      <c r="DB37" s="263"/>
+      <c r="CW37" s="285"/>
+      <c r="CX37" s="286"/>
+      <c r="CY37" s="286"/>
+      <c r="CZ37" s="286"/>
+      <c r="DA37" s="286"/>
+      <c r="DB37" s="287"/>
       <c r="DC37" s="42"/>
     </row>
     <row r="38" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G38" s="41"/>
       <c r="O38" s="41"/>
       <c r="AX38" s="42"/>
-      <c r="AY38" s="289"/>
+      <c r="AY38" s="256"/>
       <c r="BD38" s="41"/>
       <c r="BK38" s="42"/>
       <c r="BP38" s="41"/>
@@ -8619,70 +8657,70 @@
       <c r="CL38" s="41"/>
       <c r="CS38" s="42"/>
       <c r="CV38" s="41"/>
-      <c r="CW38" s="261"/>
-      <c r="CX38" s="262"/>
-      <c r="CY38" s="262"/>
-      <c r="CZ38" s="262"/>
-      <c r="DA38" s="262"/>
-      <c r="DB38" s="263"/>
+      <c r="CW38" s="285"/>
+      <c r="CX38" s="286"/>
+      <c r="CY38" s="286"/>
+      <c r="CZ38" s="286"/>
+      <c r="DA38" s="286"/>
+      <c r="DB38" s="287"/>
       <c r="DC38" s="42"/>
     </row>
     <row r="39" spans="7:107" ht="15.75" customHeight="1">
       <c r="G39" s="41"/>
       <c r="O39" s="41"/>
       <c r="AX39" s="42"/>
-      <c r="AY39" s="289"/>
+      <c r="AY39" s="256"/>
       <c r="BD39" s="41"/>
       <c r="BK39" s="42"/>
       <c r="BP39" s="41"/>
       <c r="BW39" s="42"/>
       <c r="CA39" s="41"/>
-      <c r="CB39" s="270" t="s">
+      <c r="CB39" s="271" t="s">
         <v>347</v>
       </c>
-      <c r="CC39" s="271"/>
-      <c r="CD39" s="271"/>
-      <c r="CE39" s="271"/>
-      <c r="CF39" s="271"/>
-      <c r="CG39" s="272"/>
+      <c r="CC39" s="272"/>
+      <c r="CD39" s="272"/>
+      <c r="CE39" s="272"/>
+      <c r="CF39" s="272"/>
+      <c r="CG39" s="273"/>
       <c r="CH39" s="42"/>
       <c r="CL39" s="41"/>
       <c r="CS39" s="42"/>
       <c r="CV39" s="41"/>
-      <c r="CW39" s="261"/>
-      <c r="CX39" s="262"/>
-      <c r="CY39" s="262"/>
-      <c r="CZ39" s="262"/>
-      <c r="DA39" s="262"/>
-      <c r="DB39" s="263"/>
+      <c r="CW39" s="285"/>
+      <c r="CX39" s="286"/>
+      <c r="CY39" s="286"/>
+      <c r="CZ39" s="286"/>
+      <c r="DA39" s="286"/>
+      <c r="DB39" s="287"/>
       <c r="DC39" s="42"/>
     </row>
     <row r="40" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G40" s="41"/>
       <c r="O40" s="41"/>
       <c r="AX40" s="42"/>
-      <c r="AY40" s="290"/>
+      <c r="AY40" s="257"/>
       <c r="BD40" s="41"/>
       <c r="BK40" s="42"/>
       <c r="BP40" s="41"/>
       <c r="BW40" s="42"/>
       <c r="CA40" s="41"/>
-      <c r="CB40" s="273"/>
-      <c r="CC40" s="274"/>
-      <c r="CD40" s="274"/>
-      <c r="CE40" s="274"/>
-      <c r="CF40" s="274"/>
-      <c r="CG40" s="275"/>
+      <c r="CB40" s="274"/>
+      <c r="CC40" s="275"/>
+      <c r="CD40" s="275"/>
+      <c r="CE40" s="275"/>
+      <c r="CF40" s="275"/>
+      <c r="CG40" s="276"/>
       <c r="CH40" s="42"/>
       <c r="CL40" s="41"/>
       <c r="CS40" s="42"/>
       <c r="CV40" s="41"/>
-      <c r="CW40" s="264"/>
-      <c r="CX40" s="265"/>
-      <c r="CY40" s="265"/>
-      <c r="CZ40" s="265"/>
-      <c r="DA40" s="265"/>
-      <c r="DB40" s="266"/>
+      <c r="CW40" s="288"/>
+      <c r="CX40" s="289"/>
+      <c r="CY40" s="289"/>
+      <c r="CZ40" s="289"/>
+      <c r="DA40" s="289"/>
+      <c r="DB40" s="290"/>
       <c r="DC40" s="42"/>
     </row>
     <row r="41" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
@@ -8745,43 +8783,43 @@
       <c r="M42" s="44"/>
       <c r="N42" s="44"/>
       <c r="O42" s="115"/>
-      <c r="P42" s="267" t="s">
+      <c r="P42" s="252" t="s">
         <v>323</v>
       </c>
-      <c r="Q42" s="256"/>
-      <c r="R42" s="256"/>
-      <c r="S42" s="256"/>
-      <c r="T42" s="256"/>
-      <c r="U42" s="256"/>
-      <c r="V42" s="256"/>
-      <c r="W42" s="256"/>
-      <c r="X42" s="256"/>
-      <c r="Y42" s="256"/>
-      <c r="Z42" s="256"/>
-      <c r="AA42" s="256"/>
-      <c r="AB42" s="256"/>
-      <c r="AC42" s="256"/>
-      <c r="AD42" s="256"/>
-      <c r="AE42" s="256"/>
-      <c r="AF42" s="256"/>
-      <c r="AG42" s="256"/>
-      <c r="AH42" s="256"/>
-      <c r="AI42" s="256"/>
-      <c r="AJ42" s="256"/>
-      <c r="AK42" s="256"/>
-      <c r="AL42" s="256"/>
-      <c r="AM42" s="256"/>
-      <c r="AN42" s="256"/>
-      <c r="AO42" s="256"/>
-      <c r="AP42" s="256"/>
-      <c r="AQ42" s="256"/>
-      <c r="AR42" s="256"/>
-      <c r="AS42" s="256"/>
-      <c r="AT42" s="256"/>
-      <c r="AU42" s="256"/>
-      <c r="AV42" s="256"/>
-      <c r="AW42" s="256"/>
-      <c r="AX42" s="257"/>
+      <c r="Q42" s="253"/>
+      <c r="R42" s="253"/>
+      <c r="S42" s="253"/>
+      <c r="T42" s="253"/>
+      <c r="U42" s="253"/>
+      <c r="V42" s="253"/>
+      <c r="W42" s="253"/>
+      <c r="X42" s="253"/>
+      <c r="Y42" s="253"/>
+      <c r="Z42" s="253"/>
+      <c r="AA42" s="253"/>
+      <c r="AB42" s="253"/>
+      <c r="AC42" s="253"/>
+      <c r="AD42" s="253"/>
+      <c r="AE42" s="253"/>
+      <c r="AF42" s="253"/>
+      <c r="AG42" s="253"/>
+      <c r="AH42" s="253"/>
+      <c r="AI42" s="253"/>
+      <c r="AJ42" s="253"/>
+      <c r="AK42" s="253"/>
+      <c r="AL42" s="253"/>
+      <c r="AM42" s="253"/>
+      <c r="AN42" s="253"/>
+      <c r="AO42" s="253"/>
+      <c r="AP42" s="253"/>
+      <c r="AQ42" s="253"/>
+      <c r="AR42" s="253"/>
+      <c r="AS42" s="253"/>
+      <c r="AT42" s="253"/>
+      <c r="AU42" s="253"/>
+      <c r="AV42" s="253"/>
+      <c r="AW42" s="253"/>
+      <c r="AX42" s="254"/>
       <c r="AY42" s="115"/>
       <c r="BD42" s="43"/>
       <c r="BE42" s="44"/>
@@ -8826,78 +8864,6 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="P42:AX42"/>
-    <mergeCell ref="AY12:AY40"/>
-    <mergeCell ref="G11:N12"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="BD11:BK12"/>
-    <mergeCell ref="BD14:BK14"/>
-    <mergeCell ref="BP11:BW12"/>
-    <mergeCell ref="BP14:BW14"/>
-    <mergeCell ref="CA11:CH12"/>
-    <mergeCell ref="CA14:CH14"/>
-    <mergeCell ref="CL11:CS12"/>
-    <mergeCell ref="CL14:CS14"/>
-    <mergeCell ref="CV11:DC12"/>
-    <mergeCell ref="CV14:DC14"/>
-    <mergeCell ref="BQ24:BV24"/>
-    <mergeCell ref="CM18:CR18"/>
-    <mergeCell ref="CM19:CR19"/>
-    <mergeCell ref="CM21:CR21"/>
-    <mergeCell ref="CM24:CR24"/>
-    <mergeCell ref="CM23:CR23"/>
-    <mergeCell ref="BE19:BJ19"/>
-    <mergeCell ref="BE18:BJ18"/>
-    <mergeCell ref="BE21:BJ21"/>
-    <mergeCell ref="BE22:BJ22"/>
-    <mergeCell ref="BQ19:BV19"/>
-    <mergeCell ref="BQ18:BV18"/>
-    <mergeCell ref="BQ21:BV21"/>
-    <mergeCell ref="BQ22:BV22"/>
-    <mergeCell ref="BE24:BJ24"/>
-    <mergeCell ref="BE25:BJ25"/>
-    <mergeCell ref="BE27:BJ27"/>
-    <mergeCell ref="BE28:BF28"/>
-    <mergeCell ref="BI28:BJ28"/>
-    <mergeCell ref="BG28:BH28"/>
-    <mergeCell ref="BE32:BJ33"/>
-    <mergeCell ref="CF29:CG29"/>
-    <mergeCell ref="CD29:CE29"/>
-    <mergeCell ref="CB29:CC29"/>
-    <mergeCell ref="CB28:CG28"/>
-    <mergeCell ref="BQ28:BV28"/>
-    <mergeCell ref="CB39:CG40"/>
-    <mergeCell ref="CB17:CG17"/>
-    <mergeCell ref="CB18:CC18"/>
-    <mergeCell ref="CD18:CE18"/>
-    <mergeCell ref="CF18:CG18"/>
-    <mergeCell ref="CB20:CG20"/>
-    <mergeCell ref="CF26:CG26"/>
-    <mergeCell ref="CD26:CE26"/>
-    <mergeCell ref="CB26:CC26"/>
-    <mergeCell ref="CB25:CG25"/>
-    <mergeCell ref="CE23:CH23"/>
-    <mergeCell ref="CB21:CG21"/>
-    <mergeCell ref="BQ36:BV36"/>
-    <mergeCell ref="CB31:CG31"/>
-    <mergeCell ref="CB32:CC32"/>
-    <mergeCell ref="CD32:CE32"/>
-    <mergeCell ref="CF32:CG32"/>
-    <mergeCell ref="CB34:CG34"/>
-    <mergeCell ref="CB35:CC35"/>
-    <mergeCell ref="CD35:CE35"/>
-    <mergeCell ref="CF35:CG35"/>
-    <mergeCell ref="BQ32:BV33"/>
-    <mergeCell ref="BQ25:BV25"/>
-    <mergeCell ref="BQ27:BV27"/>
-    <mergeCell ref="CM32:CR32"/>
-    <mergeCell ref="CM33:CR33"/>
-    <mergeCell ref="CM35:CR35"/>
-    <mergeCell ref="CM27:CR27"/>
-    <mergeCell ref="CM26:CR26"/>
-    <mergeCell ref="BQ35:BV35"/>
     <mergeCell ref="CM36:CR36"/>
     <mergeCell ref="CW18:DB18"/>
     <mergeCell ref="CW20:DB20"/>
@@ -8914,6 +8880,78 @@
     <mergeCell ref="CW36:DB40"/>
     <mergeCell ref="CM29:CR29"/>
     <mergeCell ref="CM30:CR30"/>
+    <mergeCell ref="BQ25:BV25"/>
+    <mergeCell ref="BQ27:BV27"/>
+    <mergeCell ref="CM32:CR32"/>
+    <mergeCell ref="CM33:CR33"/>
+    <mergeCell ref="CM35:CR35"/>
+    <mergeCell ref="CM27:CR27"/>
+    <mergeCell ref="CM26:CR26"/>
+    <mergeCell ref="BQ35:BV35"/>
+    <mergeCell ref="BQ36:BV36"/>
+    <mergeCell ref="CB31:CG31"/>
+    <mergeCell ref="CB32:CC32"/>
+    <mergeCell ref="CD32:CE32"/>
+    <mergeCell ref="CF32:CG32"/>
+    <mergeCell ref="CB34:CG34"/>
+    <mergeCell ref="CB35:CC35"/>
+    <mergeCell ref="CD35:CE35"/>
+    <mergeCell ref="CF35:CG35"/>
+    <mergeCell ref="BQ32:BV33"/>
+    <mergeCell ref="CB39:CG40"/>
+    <mergeCell ref="CB17:CG17"/>
+    <mergeCell ref="CB18:CC18"/>
+    <mergeCell ref="CD18:CE18"/>
+    <mergeCell ref="CF18:CG18"/>
+    <mergeCell ref="CB20:CG20"/>
+    <mergeCell ref="CF26:CG26"/>
+    <mergeCell ref="CD26:CE26"/>
+    <mergeCell ref="CB26:CC26"/>
+    <mergeCell ref="CB25:CG25"/>
+    <mergeCell ref="CE23:CH23"/>
+    <mergeCell ref="CB21:CG21"/>
+    <mergeCell ref="BE32:BJ33"/>
+    <mergeCell ref="CF29:CG29"/>
+    <mergeCell ref="CD29:CE29"/>
+    <mergeCell ref="CB29:CC29"/>
+    <mergeCell ref="CB28:CG28"/>
+    <mergeCell ref="BQ28:BV28"/>
+    <mergeCell ref="BE24:BJ24"/>
+    <mergeCell ref="BE25:BJ25"/>
+    <mergeCell ref="BE27:BJ27"/>
+    <mergeCell ref="BE28:BF28"/>
+    <mergeCell ref="BI28:BJ28"/>
+    <mergeCell ref="BG28:BH28"/>
+    <mergeCell ref="BE19:BJ19"/>
+    <mergeCell ref="BE18:BJ18"/>
+    <mergeCell ref="BE21:BJ21"/>
+    <mergeCell ref="BE22:BJ22"/>
+    <mergeCell ref="BQ19:BV19"/>
+    <mergeCell ref="BQ18:BV18"/>
+    <mergeCell ref="BQ21:BV21"/>
+    <mergeCell ref="BQ22:BV22"/>
+    <mergeCell ref="CL11:CS12"/>
+    <mergeCell ref="CL14:CS14"/>
+    <mergeCell ref="CV11:DC12"/>
+    <mergeCell ref="CV14:DC14"/>
+    <mergeCell ref="BQ24:BV24"/>
+    <mergeCell ref="CM18:CR18"/>
+    <mergeCell ref="CM19:CR19"/>
+    <mergeCell ref="CM21:CR21"/>
+    <mergeCell ref="CM24:CR24"/>
+    <mergeCell ref="CM23:CR23"/>
+    <mergeCell ref="BD11:BK12"/>
+    <mergeCell ref="BD14:BK14"/>
+    <mergeCell ref="BP11:BW12"/>
+    <mergeCell ref="BP14:BW14"/>
+    <mergeCell ref="CA11:CH12"/>
+    <mergeCell ref="CA14:CH14"/>
+    <mergeCell ref="P42:AX42"/>
+    <mergeCell ref="AY12:AY40"/>
+    <mergeCell ref="G11:N12"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="P17:R17"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8972,14 +9010,14 @@
         <v>476</v>
       </c>
       <c r="C3" s="28"/>
-      <c r="D3" s="294" t="s">
+      <c r="D3" s="296" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="295"/>
-      <c r="F3" s="295"/>
-      <c r="G3" s="295"/>
-      <c r="H3" s="295"/>
-      <c r="I3" s="296"/>
+      <c r="E3" s="297"/>
+      <c r="F3" s="297"/>
+      <c r="G3" s="297"/>
+      <c r="H3" s="297"/>
+      <c r="I3" s="298"/>
     </row>
     <row r="4" spans="1:16" ht="21" customHeight="1">
       <c r="A4" s="156" t="s">
@@ -9118,18 +9156,18 @@
         <v>375</v>
       </c>
       <c r="F12" s="132"/>
-      <c r="H12" s="297" t="s">
+      <c r="H12" s="291" t="s">
         <v>400</v>
       </c>
-      <c r="I12" s="298"/>
+      <c r="I12" s="299"/>
       <c r="J12" s="140" t="s">
         <v>404</v>
       </c>
       <c r="K12" s="132"/>
-      <c r="M12" s="297" t="s">
+      <c r="M12" s="291" t="s">
         <v>415</v>
       </c>
-      <c r="N12" s="293"/>
+      <c r="N12" s="292"/>
       <c r="O12" s="140" t="s">
         <v>422</v>
       </c>
@@ -9143,18 +9181,18 @@
         <v>368</v>
       </c>
       <c r="F13" s="132"/>
-      <c r="H13" s="297" t="s">
+      <c r="H13" s="291" t="s">
         <v>401</v>
       </c>
-      <c r="I13" s="298"/>
+      <c r="I13" s="299"/>
       <c r="J13" s="140" t="s">
         <v>403</v>
       </c>
       <c r="K13" s="132"/>
-      <c r="M13" s="297" t="s">
+      <c r="M13" s="291" t="s">
         <v>216</v>
       </c>
-      <c r="N13" s="293"/>
+      <c r="N13" s="292"/>
       <c r="O13" s="131" t="s">
         <v>417</v>
       </c>
@@ -9166,18 +9204,18 @@
       </c>
       <c r="E14" s="131"/>
       <c r="F14" s="132"/>
-      <c r="H14" s="297" t="s">
+      <c r="H14" s="291" t="s">
         <v>402</v>
       </c>
-      <c r="I14" s="298"/>
+      <c r="I14" s="299"/>
       <c r="J14" s="140" t="s">
         <v>369</v>
       </c>
       <c r="K14" s="132"/>
-      <c r="M14" s="297" t="s">
+      <c r="M14" s="291" t="s">
         <v>215</v>
       </c>
-      <c r="N14" s="293"/>
+      <c r="N14" s="292"/>
       <c r="O14" s="131" t="s">
         <v>418</v>
       </c>
@@ -9189,14 +9227,14 @@
       </c>
       <c r="E15" s="140"/>
       <c r="F15" s="132"/>
-      <c r="H15" s="299"/>
-      <c r="I15" s="300"/>
+      <c r="H15" s="294"/>
+      <c r="I15" s="295"/>
       <c r="J15" s="140"/>
       <c r="K15" s="132"/>
-      <c r="M15" s="297" t="s">
+      <c r="M15" s="291" t="s">
         <v>211</v>
       </c>
-      <c r="N15" s="293"/>
+      <c r="N15" s="292"/>
       <c r="O15" s="131" t="s">
         <v>419</v>
       </c>
@@ -9208,14 +9246,14 @@
       </c>
       <c r="E16" s="131"/>
       <c r="F16" s="134"/>
-      <c r="H16" s="299"/>
-      <c r="I16" s="300"/>
+      <c r="H16" s="294"/>
+      <c r="I16" s="295"/>
       <c r="J16" s="140"/>
       <c r="K16" s="132"/>
-      <c r="M16" s="297" t="s">
+      <c r="M16" s="291" t="s">
         <v>212</v>
       </c>
-      <c r="N16" s="293"/>
+      <c r="N16" s="292"/>
       <c r="O16" s="131" t="s">
         <v>169</v>
       </c>
@@ -9231,10 +9269,10 @@
       <c r="I17" s="135"/>
       <c r="J17" s="136"/>
       <c r="K17" s="137"/>
-      <c r="M17" s="297" t="s">
+      <c r="M17" s="291" t="s">
         <v>416</v>
       </c>
-      <c r="N17" s="293"/>
+      <c r="N17" s="292"/>
       <c r="O17" s="131" t="s">
         <v>420</v>
       </c>
@@ -9244,10 +9282,10 @@
       <c r="C18" s="133"/>
       <c r="E18" s="131"/>
       <c r="F18" s="134"/>
-      <c r="M18" s="297" t="s">
+      <c r="M18" s="291" t="s">
         <v>213</v>
       </c>
-      <c r="N18" s="293"/>
+      <c r="N18" s="292"/>
       <c r="O18" s="131" t="s">
         <v>421</v>
       </c>
@@ -9267,10 +9305,10 @@
       <c r="K19" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="M19" s="297" t="s">
+      <c r="M19" s="291" t="s">
         <v>290</v>
       </c>
-      <c r="N19" s="293"/>
+      <c r="N19" s="292"/>
       <c r="O19" s="131" t="s">
         <v>427</v>
       </c>
@@ -9288,10 +9326,10 @@
       <c r="I20" s="29"/>
       <c r="J20" s="29"/>
       <c r="K20" s="127"/>
-      <c r="M20" s="292" t="s">
+      <c r="M20" s="293" t="s">
         <v>423</v>
       </c>
-      <c r="N20" s="293"/>
+      <c r="N20" s="292"/>
       <c r="O20" s="140" t="s">
         <v>480</v>
       </c>
@@ -9305,10 +9343,10 @@
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
       <c r="K21" s="127"/>
-      <c r="M21" s="292" t="s">
+      <c r="M21" s="293" t="s">
         <v>424</v>
       </c>
-      <c r="N21" s="293"/>
+      <c r="N21" s="292"/>
       <c r="O21" s="131"/>
       <c r="P21" s="132"/>
     </row>
@@ -9325,22 +9363,22 @@
         <v>84</v>
       </c>
       <c r="K22" s="130"/>
-      <c r="M22" s="292"/>
-      <c r="N22" s="293"/>
+      <c r="M22" s="293"/>
+      <c r="N22" s="292"/>
       <c r="O22" s="131"/>
       <c r="P22" s="132"/>
     </row>
     <row r="23" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="H23" s="297" t="s">
+      <c r="H23" s="291" t="s">
         <v>405</v>
       </c>
-      <c r="I23" s="298"/>
+      <c r="I23" s="299"/>
       <c r="J23" s="140" t="s">
         <v>369</v>
       </c>
       <c r="K23" s="132"/>
-      <c r="M23" s="292"/>
-      <c r="N23" s="293"/>
+      <c r="M23" s="293"/>
+      <c r="N23" s="292"/>
       <c r="O23" s="131"/>
       <c r="P23" s="132"/>
     </row>
@@ -9353,12 +9391,12 @@
       <c r="F24" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="H24" s="297"/>
-      <c r="I24" s="298"/>
+      <c r="H24" s="291"/>
+      <c r="I24" s="299"/>
       <c r="J24" s="140"/>
       <c r="K24" s="132"/>
-      <c r="M24" s="292"/>
-      <c r="N24" s="293"/>
+      <c r="M24" s="293"/>
+      <c r="N24" s="292"/>
       <c r="O24" s="131"/>
       <c r="P24" s="132"/>
     </row>
@@ -9371,12 +9409,12 @@
       <c r="F25" s="143" t="s">
         <v>373</v>
       </c>
-      <c r="H25" s="297"/>
-      <c r="I25" s="298"/>
+      <c r="H25" s="291"/>
+      <c r="I25" s="299"/>
       <c r="J25" s="140"/>
       <c r="K25" s="132"/>
-      <c r="M25" s="292"/>
-      <c r="N25" s="293"/>
+      <c r="M25" s="293"/>
+      <c r="N25" s="292"/>
       <c r="O25" s="131"/>
       <c r="P25" s="132"/>
     </row>
@@ -9385,12 +9423,12 @@
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
       <c r="F26" s="127"/>
-      <c r="H26" s="299"/>
-      <c r="I26" s="300"/>
+      <c r="H26" s="294"/>
+      <c r="I26" s="295"/>
       <c r="J26" s="140"/>
       <c r="K26" s="132"/>
-      <c r="M26" s="292"/>
-      <c r="N26" s="293"/>
+      <c r="M26" s="293"/>
+      <c r="N26" s="292"/>
       <c r="O26" s="131"/>
       <c r="P26" s="132"/>
     </row>
@@ -9403,12 +9441,12 @@
         <v>84</v>
       </c>
       <c r="F27" s="130"/>
-      <c r="H27" s="299"/>
-      <c r="I27" s="300"/>
+      <c r="H27" s="294"/>
+      <c r="I27" s="295"/>
       <c r="J27" s="140"/>
       <c r="K27" s="132"/>
-      <c r="M27" s="292"/>
-      <c r="N27" s="293"/>
+      <c r="M27" s="293"/>
+      <c r="N27" s="292"/>
       <c r="O27" s="131"/>
       <c r="P27" s="132"/>
     </row>
@@ -9424,8 +9462,8 @@
       <c r="I28" s="135"/>
       <c r="J28" s="136"/>
       <c r="K28" s="137"/>
-      <c r="M28" s="292"/>
-      <c r="N28" s="293"/>
+      <c r="M28" s="293"/>
+      <c r="N28" s="292"/>
       <c r="O28" s="131"/>
       <c r="P28" s="132"/>
     </row>
@@ -9437,8 +9475,8 @@
         <v>388</v>
       </c>
       <c r="F29" s="132"/>
-      <c r="M29" s="292"/>
-      <c r="N29" s="293"/>
+      <c r="M29" s="293"/>
+      <c r="N29" s="292"/>
       <c r="O29" s="131"/>
       <c r="P29" s="132"/>
     </row>
@@ -9448,8 +9486,8 @@
       </c>
       <c r="E30" s="140"/>
       <c r="F30" s="132"/>
-      <c r="M30" s="292"/>
-      <c r="N30" s="293"/>
+      <c r="M30" s="293"/>
+      <c r="N30" s="292"/>
       <c r="O30" s="131"/>
       <c r="P30" s="132"/>
     </row>
@@ -9529,10 +9567,10 @@
       <c r="C37" s="133"/>
       <c r="E37" s="131"/>
       <c r="F37" s="134"/>
-      <c r="M37" s="297" t="s">
+      <c r="M37" s="291" t="s">
         <v>428</v>
       </c>
-      <c r="N37" s="293"/>
+      <c r="N37" s="292"/>
       <c r="O37" s="131" t="s">
         <v>430</v>
       </c>
@@ -9542,10 +9580,10 @@
       <c r="C38" s="133"/>
       <c r="E38" s="131"/>
       <c r="F38" s="134"/>
-      <c r="M38" s="292" t="s">
+      <c r="M38" s="293" t="s">
         <v>429</v>
       </c>
-      <c r="N38" s="293"/>
+      <c r="N38" s="292"/>
       <c r="O38" s="131" t="s">
         <v>431</v>
       </c>
@@ -9556,16 +9594,16 @@
       <c r="D39" s="135"/>
       <c r="E39" s="136"/>
       <c r="F39" s="139"/>
-      <c r="M39" s="292"/>
-      <c r="N39" s="293"/>
+      <c r="M39" s="293"/>
+      <c r="N39" s="292"/>
       <c r="O39" s="131" t="s">
         <v>432</v>
       </c>
       <c r="P39" s="132"/>
     </row>
     <row r="40" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="M40" s="292"/>
-      <c r="N40" s="293"/>
+      <c r="M40" s="293"/>
+      <c r="N40" s="292"/>
       <c r="O40" s="131" t="s">
         <v>433</v>
       </c>
@@ -9580,8 +9618,8 @@
       <c r="F41" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="M41" s="292"/>
-      <c r="N41" s="293"/>
+      <c r="M41" s="293"/>
+      <c r="N41" s="292"/>
       <c r="O41" s="131" t="s">
         <v>435</v>
       </c>
@@ -9596,8 +9634,8 @@
       <c r="F42" s="143" t="s">
         <v>373</v>
       </c>
-      <c r="M42" s="292"/>
-      <c r="N42" s="293"/>
+      <c r="M42" s="293"/>
+      <c r="N42" s="292"/>
       <c r="O42" s="131" t="s">
         <v>434</v>
       </c>
@@ -9691,10 +9729,10 @@
         <v>397</v>
       </c>
       <c r="F49" s="134"/>
-      <c r="M49" s="297" t="s">
+      <c r="M49" s="291" t="s">
         <v>436</v>
       </c>
-      <c r="N49" s="293"/>
+      <c r="N49" s="292"/>
       <c r="O49" s="131" t="s">
         <v>439</v>
       </c>
@@ -9708,10 +9746,10 @@
         <v>334</v>
       </c>
       <c r="F50" s="134"/>
-      <c r="M50" s="292" t="s">
+      <c r="M50" s="293" t="s">
         <v>437</v>
       </c>
-      <c r="N50" s="293"/>
+      <c r="N50" s="292"/>
       <c r="O50" s="131" t="s">
         <v>440</v>
       </c>
@@ -9725,10 +9763,10 @@
         <v>369</v>
       </c>
       <c r="F51" s="134"/>
-      <c r="M51" s="292" t="s">
+      <c r="M51" s="293" t="s">
         <v>438</v>
       </c>
-      <c r="N51" s="293"/>
+      <c r="N51" s="292"/>
       <c r="O51" s="131"/>
       <c r="P51" s="132"/>
     </row>
@@ -9738,10 +9776,10 @@
         <v>456</v>
       </c>
       <c r="F52" s="134"/>
-      <c r="M52" s="292" t="s">
+      <c r="M52" s="293" t="s">
         <v>441</v>
       </c>
-      <c r="N52" s="293"/>
+      <c r="N52" s="292"/>
       <c r="O52" s="131"/>
       <c r="P52" s="132"/>
     </row>
@@ -9752,8 +9790,8 @@
         <v>457</v>
       </c>
       <c r="F53" s="137"/>
-      <c r="M53" s="292"/>
-      <c r="N53" s="293"/>
+      <c r="M53" s="293"/>
+      <c r="N53" s="292"/>
       <c r="O53" s="131"/>
       <c r="P53" s="132"/>
     </row>
@@ -9805,10 +9843,10 @@
       </c>
     </row>
     <row r="60" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M60" s="297" t="s">
+      <c r="M60" s="291" t="s">
         <v>442</v>
       </c>
-      <c r="N60" s="293"/>
+      <c r="N60" s="292"/>
       <c r="O60" s="140" t="s">
         <v>446</v>
       </c>
@@ -9817,10 +9855,10 @@
       </c>
     </row>
     <row r="61" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M61" s="292" t="s">
+      <c r="M61" s="293" t="s">
         <v>443</v>
       </c>
-      <c r="N61" s="293"/>
+      <c r="N61" s="292"/>
       <c r="O61" s="140" t="s">
         <v>447</v>
       </c>
@@ -9829,10 +9867,10 @@
       </c>
     </row>
     <row r="62" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M62" s="297" t="s">
+      <c r="M62" s="291" t="s">
         <v>448</v>
       </c>
-      <c r="N62" s="293"/>
+      <c r="N62" s="292"/>
       <c r="O62" s="140" t="s">
         <v>85</v>
       </c>
@@ -9841,14 +9879,14 @@
       </c>
     </row>
     <row r="63" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M63" s="292"/>
-      <c r="N63" s="293"/>
+      <c r="M63" s="293"/>
+      <c r="N63" s="292"/>
       <c r="O63" s="131"/>
       <c r="P63" s="132"/>
     </row>
     <row r="64" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M64" s="292"/>
-      <c r="N64" s="293"/>
+      <c r="M64" s="293"/>
+      <c r="N64" s="292"/>
       <c r="O64" s="131"/>
       <c r="P64" s="132"/>
     </row>
@@ -9896,40 +9934,40 @@
       <c r="P70" s="130"/>
     </row>
     <row r="71" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M71" s="297" t="s">
+      <c r="M71" s="291" t="s">
         <v>449</v>
       </c>
-      <c r="N71" s="293"/>
+      <c r="N71" s="292"/>
       <c r="O71" s="140" t="s">
         <v>369</v>
       </c>
       <c r="P71" s="132"/>
     </row>
     <row r="72" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M72" s="297" t="s">
+      <c r="M72" s="291" t="s">
         <v>450</v>
       </c>
-      <c r="N72" s="293"/>
+      <c r="N72" s="292"/>
       <c r="O72" s="140" t="s">
         <v>451</v>
       </c>
       <c r="P72" s="132"/>
     </row>
     <row r="73" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M73" s="292"/>
-      <c r="N73" s="293"/>
+      <c r="M73" s="293"/>
+      <c r="N73" s="292"/>
       <c r="O73" s="131"/>
       <c r="P73" s="132"/>
     </row>
     <row r="74" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M74" s="292"/>
-      <c r="N74" s="293"/>
+      <c r="M74" s="293"/>
+      <c r="N74" s="292"/>
       <c r="O74" s="131"/>
       <c r="P74" s="132"/>
     </row>
     <row r="75" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M75" s="292"/>
-      <c r="N75" s="293"/>
+      <c r="M75" s="293"/>
+      <c r="N75" s="292"/>
       <c r="O75" s="131"/>
       <c r="P75" s="132"/>
     </row>
@@ -9977,40 +10015,40 @@
       <c r="P81" s="130"/>
     </row>
     <row r="82" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M82" s="297" t="s">
+      <c r="M82" s="291" t="s">
         <v>449</v>
       </c>
-      <c r="N82" s="293"/>
+      <c r="N82" s="292"/>
       <c r="O82" s="140" t="s">
         <v>369</v>
       </c>
       <c r="P82" s="132"/>
     </row>
     <row r="83" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M83" s="297" t="s">
+      <c r="M83" s="291" t="s">
         <v>452</v>
       </c>
-      <c r="N83" s="293"/>
+      <c r="N83" s="292"/>
       <c r="O83" s="140" t="s">
         <v>451</v>
       </c>
       <c r="P83" s="132"/>
     </row>
     <row r="84" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M84" s="292"/>
-      <c r="N84" s="293"/>
+      <c r="M84" s="293"/>
+      <c r="N84" s="292"/>
       <c r="O84" s="131"/>
       <c r="P84" s="132"/>
     </row>
     <row r="85" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M85" s="292"/>
-      <c r="N85" s="293"/>
+      <c r="M85" s="293"/>
+      <c r="N85" s="292"/>
       <c r="O85" s="131"/>
       <c r="P85" s="132"/>
     </row>
     <row r="86" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M86" s="292"/>
-      <c r="N86" s="293"/>
+      <c r="M86" s="293"/>
+      <c r="N86" s="292"/>
       <c r="O86" s="131"/>
       <c r="P86" s="132"/>
     </row>
@@ -10056,40 +10094,40 @@
       <c r="P92" s="130"/>
     </row>
     <row r="93" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M93" s="297" t="s">
+      <c r="M93" s="291" t="s">
         <v>216</v>
       </c>
-      <c r="N93" s="293"/>
+      <c r="N93" s="292"/>
       <c r="O93" s="140" t="s">
         <v>453</v>
       </c>
       <c r="P93" s="132"/>
     </row>
     <row r="94" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M94" s="292"/>
-      <c r="N94" s="293"/>
+      <c r="M94" s="293"/>
+      <c r="N94" s="292"/>
       <c r="O94" s="140" t="s">
         <v>454</v>
       </c>
       <c r="P94" s="132"/>
     </row>
     <row r="95" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M95" s="292"/>
-      <c r="N95" s="293"/>
+      <c r="M95" s="293"/>
+      <c r="N95" s="292"/>
       <c r="O95" s="140" t="s">
         <v>455</v>
       </c>
       <c r="P95" s="132"/>
     </row>
     <row r="96" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M96" s="292"/>
-      <c r="N96" s="293"/>
+      <c r="M96" s="293"/>
+      <c r="N96" s="292"/>
       <c r="O96" s="131"/>
       <c r="P96" s="132"/>
     </row>
     <row r="97" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M97" s="292"/>
-      <c r="N97" s="293"/>
+      <c r="M97" s="293"/>
+      <c r="N97" s="292"/>
       <c r="O97" s="131"/>
       <c r="P97" s="132"/>
     </row>
@@ -10135,46 +10173,46 @@
       <c r="P103" s="130"/>
     </row>
     <row r="104" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M104" s="297" t="s">
+      <c r="M104" s="291" t="s">
         <v>465</v>
       </c>
-      <c r="N104" s="293"/>
+      <c r="N104" s="292"/>
       <c r="O104" s="140" t="s">
         <v>462</v>
       </c>
       <c r="P104" s="132"/>
     </row>
     <row r="105" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M105" s="297" t="s">
+      <c r="M105" s="291" t="s">
         <v>466</v>
       </c>
-      <c r="N105" s="293"/>
+      <c r="N105" s="292"/>
       <c r="O105" s="140" t="s">
         <v>461</v>
       </c>
       <c r="P105" s="132"/>
     </row>
     <row r="106" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M106" s="297" t="s">
+      <c r="M106" s="291" t="s">
         <v>467</v>
       </c>
-      <c r="N106" s="293"/>
+      <c r="N106" s="292"/>
       <c r="O106" s="140" t="s">
         <v>463</v>
       </c>
       <c r="P106" s="132"/>
     </row>
     <row r="107" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M107" s="292"/>
-      <c r="N107" s="293"/>
+      <c r="M107" s="293"/>
+      <c r="N107" s="292"/>
       <c r="O107" s="140" t="s">
         <v>464</v>
       </c>
       <c r="P107" s="132"/>
     </row>
     <row r="108" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M108" s="292"/>
-      <c r="N108" s="293"/>
+      <c r="M108" s="293"/>
+      <c r="N108" s="292"/>
       <c r="O108" s="131"/>
       <c r="P108" s="132"/>
     </row>
@@ -10222,42 +10260,42 @@
       <c r="P114" s="130"/>
     </row>
     <row r="115" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M115" s="297" t="s">
+      <c r="M115" s="291" t="s">
         <v>482</v>
       </c>
-      <c r="N115" s="293"/>
+      <c r="N115" s="292"/>
       <c r="O115" s="140" t="s">
         <v>483</v>
       </c>
       <c r="P115" s="132"/>
     </row>
     <row r="116" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M116" s="292"/>
-      <c r="N116" s="293"/>
+      <c r="M116" s="293"/>
+      <c r="N116" s="292"/>
       <c r="O116" s="131"/>
       <c r="P116" s="132"/>
     </row>
     <row r="117" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M117" s="292"/>
-      <c r="N117" s="293"/>
+      <c r="M117" s="293"/>
+      <c r="N117" s="292"/>
       <c r="O117" s="131"/>
       <c r="P117" s="132"/>
     </row>
     <row r="118" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M118" s="292"/>
-      <c r="N118" s="293"/>
+      <c r="M118" s="293"/>
+      <c r="N118" s="292"/>
       <c r="O118" s="131"/>
       <c r="P118" s="132"/>
     </row>
     <row r="119" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M119" s="292"/>
-      <c r="N119" s="293"/>
+      <c r="M119" s="293"/>
+      <c r="N119" s="292"/>
       <c r="O119" s="131"/>
       <c r="P119" s="132"/>
     </row>
     <row r="120" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M120" s="292"/>
-      <c r="N120" s="293"/>
+      <c r="M120" s="293"/>
+      <c r="N120" s="292"/>
       <c r="O120" s="131"/>
       <c r="P120" s="132"/>
     </row>
@@ -10269,46 +10307,22 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="M105:N105"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="M107:N107"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="M95:N95"/>
-    <mergeCell ref="M96:N96"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="M104:N104"/>
-    <mergeCell ref="M83:N83"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="M86:N86"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="M75:N75"/>
-    <mergeCell ref="M82:N82"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M119:N119"/>
+    <mergeCell ref="M120:N120"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="M115:N115"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="M117:N117"/>
+    <mergeCell ref="M118:N118"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
     <mergeCell ref="M37:N37"/>
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="M12:N12"/>
@@ -10325,22 +10339,46 @@
     <mergeCell ref="M21:N21"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M119:N119"/>
-    <mergeCell ref="M120:N120"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="M115:N115"/>
-    <mergeCell ref="M116:N116"/>
-    <mergeCell ref="M117:N117"/>
-    <mergeCell ref="M118:N118"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="M82:N82"/>
+    <mergeCell ref="M83:N83"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="M107:N107"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="M95:N95"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="M104:N104"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
@@ -11910,15 +11948,15 @@
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
-      <c r="H3" s="301"/>
-      <c r="I3" s="244"/>
-      <c r="J3" s="244"/>
-      <c r="K3" s="244"/>
-      <c r="L3" s="244"/>
-      <c r="M3" s="244"/>
-      <c r="N3" s="244"/>
-      <c r="O3" s="244"/>
-      <c r="P3" s="244"/>
+      <c r="H3" s="300"/>
+      <c r="I3" s="243"/>
+      <c r="J3" s="243"/>
+      <c r="K3" s="243"/>
+      <c r="L3" s="243"/>
+      <c r="M3" s="243"/>
+      <c r="N3" s="243"/>
+      <c r="O3" s="243"/>
+      <c r="P3" s="243"/>
     </row>
     <row r="4" spans="2:21" ht="21.75" customHeight="1" thickBot="1">
       <c r="B4" s="26"/>
@@ -11971,12 +12009,12 @@
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
       <c r="N6" s="26"/>
-      <c r="R6" s="302" t="s">
+      <c r="R6" s="301" t="s">
         <v>600</v>
       </c>
-      <c r="S6" s="303"/>
-      <c r="T6" s="303"/>
-      <c r="U6" s="304"/>
+      <c r="S6" s="302"/>
+      <c r="T6" s="302"/>
+      <c r="U6" s="303"/>
     </row>
     <row r="7" spans="2:21" ht="21.75" customHeight="1" thickBot="1">
       <c r="B7" s="183" t="s">
@@ -11994,10 +12032,10 @@
       <c r="L7" s="184"/>
       <c r="M7" s="184"/>
       <c r="N7" s="184"/>
-      <c r="R7" s="305"/>
-      <c r="S7" s="306"/>
-      <c r="T7" s="306"/>
-      <c r="U7" s="307"/>
+      <c r="R7" s="304"/>
+      <c r="S7" s="305"/>
+      <c r="T7" s="305"/>
+      <c r="U7" s="306"/>
     </row>
     <row r="8" spans="2:21" ht="15">
       <c r="B8" s="187" t="s">
@@ -12019,10 +12057,10 @@
       <c r="L8" s="184"/>
       <c r="M8" s="184"/>
       <c r="N8" s="190"/>
-      <c r="R8" s="305"/>
-      <c r="S8" s="306"/>
-      <c r="T8" s="306"/>
-      <c r="U8" s="307"/>
+      <c r="R8" s="304"/>
+      <c r="S8" s="305"/>
+      <c r="T8" s="305"/>
+      <c r="U8" s="306"/>
     </row>
     <row r="9" spans="2:21" thickBot="1">
       <c r="B9" s="191" t="s">
@@ -12044,10 +12082,10 @@
       <c r="L9" s="194"/>
       <c r="M9" s="194"/>
       <c r="N9" s="194"/>
-      <c r="R9" s="305"/>
-      <c r="S9" s="306"/>
-      <c r="T9" s="306"/>
-      <c r="U9" s="307"/>
+      <c r="R9" s="304"/>
+      <c r="S9" s="305"/>
+      <c r="T9" s="305"/>
+      <c r="U9" s="306"/>
     </row>
     <row r="10" spans="2:21" thickBot="1">
       <c r="B10" s="191" t="s">
@@ -12079,10 +12117,10 @@
       </c>
       <c r="O10" s="200"/>
       <c r="P10" s="201"/>
-      <c r="R10" s="305"/>
-      <c r="S10" s="306"/>
-      <c r="T10" s="306"/>
-      <c r="U10" s="307"/>
+      <c r="R10" s="304"/>
+      <c r="S10" s="305"/>
+      <c r="T10" s="305"/>
+      <c r="U10" s="306"/>
     </row>
     <row r="11" spans="2:21" ht="15" customHeight="1" thickBot="1">
       <c r="B11" s="202"/>
@@ -12124,10 +12162,10 @@
       <c r="P11" s="211" t="s">
         <v>100</v>
       </c>
-      <c r="R11" s="305"/>
-      <c r="S11" s="306"/>
-      <c r="T11" s="306"/>
-      <c r="U11" s="307"/>
+      <c r="R11" s="304"/>
+      <c r="S11" s="305"/>
+      <c r="T11" s="305"/>
+      <c r="U11" s="306"/>
     </row>
     <row r="12" spans="2:21" ht="20.25" customHeight="1">
       <c r="B12" s="171" t="s">
@@ -12149,10 +12187,10 @@
       <c r="N12" s="231"/>
       <c r="O12" s="216"/>
       <c r="P12" s="217"/>
-      <c r="R12" s="305"/>
-      <c r="S12" s="306"/>
-      <c r="T12" s="306"/>
-      <c r="U12" s="307"/>
+      <c r="R12" s="304"/>
+      <c r="S12" s="305"/>
+      <c r="T12" s="305"/>
+      <c r="U12" s="306"/>
     </row>
     <row r="13" spans="2:21" ht="20.25" customHeight="1">
       <c r="B13" s="172"/>
@@ -12176,10 +12214,10 @@
       <c r="N13" s="231"/>
       <c r="O13" s="216"/>
       <c r="P13" s="217"/>
-      <c r="R13" s="305"/>
-      <c r="S13" s="306"/>
-      <c r="T13" s="306"/>
-      <c r="U13" s="307"/>
+      <c r="R13" s="304"/>
+      <c r="S13" s="305"/>
+      <c r="T13" s="305"/>
+      <c r="U13" s="306"/>
     </row>
     <row r="14" spans="2:21" ht="20.25" customHeight="1">
       <c r="B14" s="174"/>
@@ -12197,10 +12235,10 @@
       <c r="N14" s="231"/>
       <c r="O14" s="216"/>
       <c r="P14" s="217"/>
-      <c r="R14" s="305"/>
-      <c r="S14" s="306"/>
-      <c r="T14" s="306"/>
-      <c r="U14" s="307"/>
+      <c r="R14" s="304"/>
+      <c r="S14" s="305"/>
+      <c r="T14" s="305"/>
+      <c r="U14" s="306"/>
     </row>
     <row r="15" spans="2:21" ht="20.25" customHeight="1">
       <c r="B15" s="174" t="s">
@@ -12222,10 +12260,10 @@
       <c r="N15" s="231"/>
       <c r="O15" s="216"/>
       <c r="P15" s="217"/>
-      <c r="R15" s="305"/>
-      <c r="S15" s="306"/>
-      <c r="T15" s="306"/>
-      <c r="U15" s="307"/>
+      <c r="R15" s="304"/>
+      <c r="S15" s="305"/>
+      <c r="T15" s="305"/>
+      <c r="U15" s="306"/>
     </row>
     <row r="16" spans="2:21" ht="20.25" customHeight="1">
       <c r="B16" s="172"/>
@@ -12249,10 +12287,10 @@
       <c r="N16" s="231"/>
       <c r="O16" s="216"/>
       <c r="P16" s="217"/>
-      <c r="R16" s="305"/>
-      <c r="S16" s="306"/>
-      <c r="T16" s="306"/>
-      <c r="U16" s="307"/>
+      <c r="R16" s="304"/>
+      <c r="S16" s="305"/>
+      <c r="T16" s="305"/>
+      <c r="U16" s="306"/>
     </row>
     <row r="17" spans="2:21" ht="20.25" customHeight="1">
       <c r="B17" s="172"/>
@@ -12276,10 +12314,10 @@
       <c r="N17" s="231"/>
       <c r="O17" s="216"/>
       <c r="P17" s="217"/>
-      <c r="R17" s="305"/>
-      <c r="S17" s="306"/>
-      <c r="T17" s="306"/>
-      <c r="U17" s="307"/>
+      <c r="R17" s="304"/>
+      <c r="S17" s="305"/>
+      <c r="T17" s="305"/>
+      <c r="U17" s="306"/>
     </row>
     <row r="18" spans="2:21" ht="20.25" customHeight="1">
       <c r="B18" s="172"/>
@@ -12299,10 +12337,10 @@
       <c r="N18" s="231"/>
       <c r="O18" s="216"/>
       <c r="P18" s="217"/>
-      <c r="R18" s="305"/>
-      <c r="S18" s="306"/>
-      <c r="T18" s="306"/>
-      <c r="U18" s="307"/>
+      <c r="R18" s="304"/>
+      <c r="S18" s="305"/>
+      <c r="T18" s="305"/>
+      <c r="U18" s="306"/>
     </row>
     <row r="19" spans="2:21" ht="20.25" customHeight="1">
       <c r="B19" s="172"/>
@@ -12326,10 +12364,10 @@
       <c r="N19" s="231"/>
       <c r="O19" s="216"/>
       <c r="P19" s="217"/>
-      <c r="R19" s="305"/>
-      <c r="S19" s="306"/>
-      <c r="T19" s="306"/>
-      <c r="U19" s="307"/>
+      <c r="R19" s="304"/>
+      <c r="S19" s="305"/>
+      <c r="T19" s="305"/>
+      <c r="U19" s="306"/>
     </row>
     <row r="20" spans="2:21" ht="20.25" customHeight="1">
       <c r="B20" s="172"/>
@@ -12347,10 +12385,10 @@
       <c r="N20" s="231"/>
       <c r="O20" s="216"/>
       <c r="P20" s="217"/>
-      <c r="R20" s="305"/>
-      <c r="S20" s="306"/>
-      <c r="T20" s="306"/>
-      <c r="U20" s="307"/>
+      <c r="R20" s="304"/>
+      <c r="S20" s="305"/>
+      <c r="T20" s="305"/>
+      <c r="U20" s="306"/>
     </row>
     <row r="21" spans="2:21" ht="20.25" customHeight="1">
       <c r="B21" s="174" t="s">
@@ -12372,10 +12410,10 @@
       <c r="N21" s="231"/>
       <c r="O21" s="216"/>
       <c r="P21" s="217"/>
-      <c r="R21" s="305"/>
-      <c r="S21" s="306"/>
-      <c r="T21" s="306"/>
-      <c r="U21" s="307"/>
+      <c r="R21" s="304"/>
+      <c r="S21" s="305"/>
+      <c r="T21" s="305"/>
+      <c r="U21" s="306"/>
     </row>
     <row r="22" spans="2:21" ht="20.25" customHeight="1">
       <c r="B22" s="172"/>
@@ -12399,10 +12437,10 @@
       <c r="N22" s="231"/>
       <c r="O22" s="216"/>
       <c r="P22" s="217"/>
-      <c r="R22" s="305"/>
-      <c r="S22" s="306"/>
-      <c r="T22" s="306"/>
-      <c r="U22" s="307"/>
+      <c r="R22" s="304"/>
+      <c r="S22" s="305"/>
+      <c r="T22" s="305"/>
+      <c r="U22" s="306"/>
     </row>
     <row r="23" spans="2:21" ht="20.25" customHeight="1">
       <c r="B23" s="172"/>
@@ -12426,10 +12464,10 @@
       <c r="N23" s="231"/>
       <c r="O23" s="216"/>
       <c r="P23" s="217"/>
-      <c r="R23" s="305"/>
-      <c r="S23" s="306"/>
-      <c r="T23" s="306"/>
-      <c r="U23" s="307"/>
+      <c r="R23" s="304"/>
+      <c r="S23" s="305"/>
+      <c r="T23" s="305"/>
+      <c r="U23" s="306"/>
     </row>
     <row r="24" spans="2:21" ht="20.25" customHeight="1">
       <c r="B24" s="172"/>
@@ -12453,10 +12491,10 @@
       <c r="N24" s="231"/>
       <c r="O24" s="216"/>
       <c r="P24" s="217"/>
-      <c r="R24" s="305"/>
-      <c r="S24" s="306"/>
-      <c r="T24" s="306"/>
-      <c r="U24" s="307"/>
+      <c r="R24" s="304"/>
+      <c r="S24" s="305"/>
+      <c r="T24" s="305"/>
+      <c r="U24" s="306"/>
     </row>
     <row r="25" spans="2:21" ht="20.25" customHeight="1">
       <c r="B25" s="172"/>
@@ -12480,10 +12518,10 @@
       <c r="N25" s="231"/>
       <c r="O25" s="216"/>
       <c r="P25" s="217"/>
-      <c r="R25" s="305"/>
-      <c r="S25" s="306"/>
-      <c r="T25" s="306"/>
-      <c r="U25" s="307"/>
+      <c r="R25" s="304"/>
+      <c r="S25" s="305"/>
+      <c r="T25" s="305"/>
+      <c r="U25" s="306"/>
     </row>
     <row r="26" spans="2:21" ht="20.25" customHeight="1">
       <c r="B26" s="169"/>
@@ -12507,10 +12545,10 @@
       <c r="N26" s="231"/>
       <c r="O26" s="216"/>
       <c r="P26" s="217"/>
-      <c r="R26" s="305"/>
-      <c r="S26" s="306"/>
-      <c r="T26" s="306"/>
-      <c r="U26" s="307"/>
+      <c r="R26" s="304"/>
+      <c r="S26" s="305"/>
+      <c r="T26" s="305"/>
+      <c r="U26" s="306"/>
     </row>
     <row r="27" spans="2:21" ht="20.25" customHeight="1">
       <c r="B27" s="169"/>
@@ -12534,10 +12572,10 @@
       <c r="N27" s="231"/>
       <c r="O27" s="216"/>
       <c r="P27" s="217"/>
-      <c r="R27" s="305"/>
-      <c r="S27" s="306"/>
-      <c r="T27" s="306"/>
-      <c r="U27" s="307"/>
+      <c r="R27" s="304"/>
+      <c r="S27" s="305"/>
+      <c r="T27" s="305"/>
+      <c r="U27" s="306"/>
     </row>
     <row r="28" spans="2:21" ht="20.25" customHeight="1">
       <c r="B28" s="169"/>
@@ -12555,10 +12593,10 @@
       <c r="N28" s="231"/>
       <c r="O28" s="216"/>
       <c r="P28" s="217"/>
-      <c r="R28" s="305"/>
-      <c r="S28" s="306"/>
-      <c r="T28" s="306"/>
-      <c r="U28" s="307"/>
+      <c r="R28" s="304"/>
+      <c r="S28" s="305"/>
+      <c r="T28" s="305"/>
+      <c r="U28" s="306"/>
     </row>
     <row r="29" spans="2:21" ht="20.25" customHeight="1">
       <c r="B29" s="174" t="s">
@@ -12580,10 +12618,10 @@
       <c r="N29" s="231"/>
       <c r="O29" s="216"/>
       <c r="P29" s="217"/>
-      <c r="R29" s="305"/>
-      <c r="S29" s="306"/>
-      <c r="T29" s="306"/>
-      <c r="U29" s="307"/>
+      <c r="R29" s="304"/>
+      <c r="S29" s="305"/>
+      <c r="T29" s="305"/>
+      <c r="U29" s="306"/>
     </row>
     <row r="30" spans="2:21" ht="20.25" customHeight="1">
       <c r="B30" s="172"/>
@@ -12603,10 +12641,10 @@
       <c r="N30" s="231"/>
       <c r="O30" s="216"/>
       <c r="P30" s="217"/>
-      <c r="R30" s="305"/>
-      <c r="S30" s="306"/>
-      <c r="T30" s="306"/>
-      <c r="U30" s="307"/>
+      <c r="R30" s="304"/>
+      <c r="S30" s="305"/>
+      <c r="T30" s="305"/>
+      <c r="U30" s="306"/>
     </row>
     <row r="31" spans="2:21" ht="20.25" customHeight="1">
       <c r="B31" s="172"/>
@@ -12626,10 +12664,10 @@
       <c r="N31" s="231"/>
       <c r="O31" s="216"/>
       <c r="P31" s="217"/>
-      <c r="R31" s="305"/>
-      <c r="S31" s="306"/>
-      <c r="T31" s="306"/>
-      <c r="U31" s="307"/>
+      <c r="R31" s="304"/>
+      <c r="S31" s="305"/>
+      <c r="T31" s="305"/>
+      <c r="U31" s="306"/>
     </row>
     <row r="32" spans="2:21" ht="20.25" customHeight="1">
       <c r="B32" s="169"/>
@@ -12649,10 +12687,10 @@
       <c r="N32" s="231"/>
       <c r="O32" s="216"/>
       <c r="P32" s="217"/>
-      <c r="R32" s="305"/>
-      <c r="S32" s="306"/>
-      <c r="T32" s="306"/>
-      <c r="U32" s="307"/>
+      <c r="R32" s="304"/>
+      <c r="S32" s="305"/>
+      <c r="T32" s="305"/>
+      <c r="U32" s="306"/>
     </row>
     <row r="33" spans="2:21" ht="20.25" customHeight="1">
       <c r="B33" s="169"/>
@@ -12670,10 +12708,10 @@
       <c r="N33" s="231"/>
       <c r="O33" s="216"/>
       <c r="P33" s="217"/>
-      <c r="R33" s="305"/>
-      <c r="S33" s="306"/>
-      <c r="T33" s="306"/>
-      <c r="U33" s="307"/>
+      <c r="R33" s="304"/>
+      <c r="S33" s="305"/>
+      <c r="T33" s="305"/>
+      <c r="U33" s="306"/>
     </row>
     <row r="34" spans="2:21" ht="20.25" customHeight="1">
       <c r="B34" s="174" t="s">
@@ -12693,10 +12731,10 @@
       <c r="N34" s="231"/>
       <c r="O34" s="216"/>
       <c r="P34" s="217"/>
-      <c r="R34" s="305"/>
-      <c r="S34" s="306"/>
-      <c r="T34" s="306"/>
-      <c r="U34" s="307"/>
+      <c r="R34" s="304"/>
+      <c r="S34" s="305"/>
+      <c r="T34" s="305"/>
+      <c r="U34" s="306"/>
     </row>
     <row r="35" spans="2:21" ht="20.25" customHeight="1">
       <c r="B35" s="172"/>
@@ -12720,10 +12758,10 @@
       <c r="N35" s="231"/>
       <c r="O35" s="216"/>
       <c r="P35" s="217"/>
-      <c r="R35" s="305"/>
-      <c r="S35" s="306"/>
-      <c r="T35" s="306"/>
-      <c r="U35" s="307"/>
+      <c r="R35" s="304"/>
+      <c r="S35" s="305"/>
+      <c r="T35" s="305"/>
+      <c r="U35" s="306"/>
     </row>
     <row r="36" spans="2:21" ht="20.25" customHeight="1">
       <c r="B36" s="172"/>
@@ -12747,10 +12785,10 @@
       <c r="N36" s="231"/>
       <c r="O36" s="216"/>
       <c r="P36" s="217"/>
-      <c r="R36" s="305"/>
-      <c r="S36" s="306"/>
-      <c r="T36" s="306"/>
-      <c r="U36" s="307"/>
+      <c r="R36" s="304"/>
+      <c r="S36" s="305"/>
+      <c r="T36" s="305"/>
+      <c r="U36" s="306"/>
     </row>
     <row r="37" spans="2:21" ht="20.25" customHeight="1">
       <c r="B37" s="169"/>
@@ -12768,10 +12806,10 @@
       <c r="N37" s="231"/>
       <c r="O37" s="216"/>
       <c r="P37" s="217"/>
-      <c r="R37" s="305"/>
-      <c r="S37" s="306"/>
-      <c r="T37" s="306"/>
-      <c r="U37" s="307"/>
+      <c r="R37" s="304"/>
+      <c r="S37" s="305"/>
+      <c r="T37" s="305"/>
+      <c r="U37" s="306"/>
     </row>
     <row r="38" spans="2:21" ht="20.25" customHeight="1">
       <c r="B38" s="174" t="s">
@@ -12791,10 +12829,10 @@
       <c r="N38" s="231"/>
       <c r="O38" s="216"/>
       <c r="P38" s="217"/>
-      <c r="R38" s="305"/>
-      <c r="S38" s="306"/>
-      <c r="T38" s="306"/>
-      <c r="U38" s="307"/>
+      <c r="R38" s="304"/>
+      <c r="S38" s="305"/>
+      <c r="T38" s="305"/>
+      <c r="U38" s="306"/>
     </row>
     <row r="39" spans="2:21" ht="20.25" customHeight="1">
       <c r="B39" s="172"/>
@@ -12816,10 +12854,10 @@
       <c r="N39" s="231"/>
       <c r="O39" s="216"/>
       <c r="P39" s="217"/>
-      <c r="R39" s="305"/>
-      <c r="S39" s="306"/>
-      <c r="T39" s="306"/>
-      <c r="U39" s="307"/>
+      <c r="R39" s="304"/>
+      <c r="S39" s="305"/>
+      <c r="T39" s="305"/>
+      <c r="U39" s="306"/>
     </row>
     <row r="40" spans="2:21" ht="20.25" customHeight="1">
       <c r="B40" s="172"/>
@@ -12841,10 +12879,10 @@
       <c r="N40" s="231"/>
       <c r="O40" s="216"/>
       <c r="P40" s="217"/>
-      <c r="R40" s="305"/>
-      <c r="S40" s="306"/>
-      <c r="T40" s="306"/>
-      <c r="U40" s="307"/>
+      <c r="R40" s="304"/>
+      <c r="S40" s="305"/>
+      <c r="T40" s="305"/>
+      <c r="U40" s="306"/>
     </row>
     <row r="41" spans="2:21" ht="20.25" customHeight="1">
       <c r="B41" s="172"/>
@@ -12866,10 +12904,10 @@
       <c r="N41" s="231"/>
       <c r="O41" s="216"/>
       <c r="P41" s="217"/>
-      <c r="R41" s="305"/>
-      <c r="S41" s="306"/>
-      <c r="T41" s="306"/>
-      <c r="U41" s="307"/>
+      <c r="R41" s="304"/>
+      <c r="S41" s="305"/>
+      <c r="T41" s="305"/>
+      <c r="U41" s="306"/>
     </row>
     <row r="42" spans="2:21" ht="20.25" customHeight="1">
       <c r="B42" s="172"/>
@@ -12891,10 +12929,10 @@
       <c r="N42" s="231"/>
       <c r="O42" s="216"/>
       <c r="P42" s="217"/>
-      <c r="R42" s="305"/>
-      <c r="S42" s="306"/>
-      <c r="T42" s="306"/>
-      <c r="U42" s="307"/>
+      <c r="R42" s="304"/>
+      <c r="S42" s="305"/>
+      <c r="T42" s="305"/>
+      <c r="U42" s="306"/>
     </row>
     <row r="43" spans="2:21" ht="20.25" customHeight="1">
       <c r="B43" s="172"/>
@@ -12916,10 +12954,10 @@
       <c r="N43" s="231"/>
       <c r="O43" s="216"/>
       <c r="P43" s="217"/>
-      <c r="R43" s="305"/>
-      <c r="S43" s="306"/>
-      <c r="T43" s="306"/>
-      <c r="U43" s="307"/>
+      <c r="R43" s="304"/>
+      <c r="S43" s="305"/>
+      <c r="T43" s="305"/>
+      <c r="U43" s="306"/>
     </row>
     <row r="44" spans="2:21" ht="20.25" customHeight="1">
       <c r="B44" s="172"/>
@@ -12941,10 +12979,10 @@
       <c r="N44" s="231"/>
       <c r="O44" s="216"/>
       <c r="P44" s="217"/>
-      <c r="R44" s="305"/>
-      <c r="S44" s="306"/>
-      <c r="T44" s="306"/>
-      <c r="U44" s="307"/>
+      <c r="R44" s="304"/>
+      <c r="S44" s="305"/>
+      <c r="T44" s="305"/>
+      <c r="U44" s="306"/>
     </row>
     <row r="45" spans="2:21" ht="20.25" customHeight="1">
       <c r="B45" s="172"/>
@@ -12966,10 +13004,10 @@
       <c r="N45" s="231"/>
       <c r="O45" s="216"/>
       <c r="P45" s="217"/>
-      <c r="R45" s="305"/>
-      <c r="S45" s="306"/>
-      <c r="T45" s="306"/>
-      <c r="U45" s="307"/>
+      <c r="R45" s="304"/>
+      <c r="S45" s="305"/>
+      <c r="T45" s="305"/>
+      <c r="U45" s="306"/>
     </row>
     <row r="46" spans="2:21" ht="20.25" customHeight="1">
       <c r="B46" s="172"/>
@@ -12991,10 +13029,10 @@
       <c r="N46" s="231"/>
       <c r="O46" s="216"/>
       <c r="P46" s="217"/>
-      <c r="R46" s="305"/>
-      <c r="S46" s="306"/>
-      <c r="T46" s="306"/>
-      <c r="U46" s="307"/>
+      <c r="R46" s="304"/>
+      <c r="S46" s="305"/>
+      <c r="T46" s="305"/>
+      <c r="U46" s="306"/>
     </row>
     <row r="47" spans="2:21" ht="20.25" customHeight="1">
       <c r="B47" s="172"/>
@@ -13016,10 +13054,10 @@
       <c r="N47" s="231"/>
       <c r="O47" s="216"/>
       <c r="P47" s="217"/>
-      <c r="R47" s="305"/>
-      <c r="S47" s="306"/>
-      <c r="T47" s="306"/>
-      <c r="U47" s="307"/>
+      <c r="R47" s="304"/>
+      <c r="S47" s="305"/>
+      <c r="T47" s="305"/>
+      <c r="U47" s="306"/>
     </row>
     <row r="48" spans="2:21" ht="20.25" customHeight="1">
       <c r="B48" s="169"/>
@@ -13037,10 +13075,10 @@
       <c r="N48" s="231"/>
       <c r="O48" s="216"/>
       <c r="P48" s="217"/>
-      <c r="R48" s="305"/>
-      <c r="S48" s="306"/>
-      <c r="T48" s="306"/>
-      <c r="U48" s="307"/>
+      <c r="R48" s="304"/>
+      <c r="S48" s="305"/>
+      <c r="T48" s="305"/>
+      <c r="U48" s="306"/>
     </row>
     <row r="49" spans="2:21" ht="20.25" customHeight="1">
       <c r="B49" s="174" t="s">
@@ -13060,10 +13098,10 @@
       <c r="N49" s="231"/>
       <c r="O49" s="216"/>
       <c r="P49" s="217"/>
-      <c r="R49" s="305"/>
-      <c r="S49" s="306"/>
-      <c r="T49" s="306"/>
-      <c r="U49" s="307"/>
+      <c r="R49" s="304"/>
+      <c r="S49" s="305"/>
+      <c r="T49" s="305"/>
+      <c r="U49" s="306"/>
     </row>
     <row r="50" spans="2:21" ht="20.25" customHeight="1">
       <c r="B50" s="172"/>
@@ -13085,10 +13123,10 @@
       <c r="N50" s="231"/>
       <c r="O50" s="216"/>
       <c r="P50" s="217"/>
-      <c r="R50" s="305"/>
-      <c r="S50" s="306"/>
-      <c r="T50" s="306"/>
-      <c r="U50" s="307"/>
+      <c r="R50" s="304"/>
+      <c r="S50" s="305"/>
+      <c r="T50" s="305"/>
+      <c r="U50" s="306"/>
     </row>
     <row r="51" spans="2:21" ht="20.25" customHeight="1">
       <c r="B51" s="172"/>
@@ -13110,10 +13148,10 @@
       <c r="N51" s="231"/>
       <c r="O51" s="216"/>
       <c r="P51" s="217"/>
-      <c r="R51" s="305"/>
-      <c r="S51" s="306"/>
-      <c r="T51" s="306"/>
-      <c r="U51" s="307"/>
+      <c r="R51" s="304"/>
+      <c r="S51" s="305"/>
+      <c r="T51" s="305"/>
+      <c r="U51" s="306"/>
     </row>
     <row r="52" spans="2:21" ht="20.25" customHeight="1">
       <c r="B52" s="172"/>
@@ -13135,10 +13173,10 @@
       <c r="N52" s="231"/>
       <c r="O52" s="216"/>
       <c r="P52" s="217"/>
-      <c r="R52" s="305"/>
-      <c r="S52" s="306"/>
-      <c r="T52" s="306"/>
-      <c r="U52" s="307"/>
+      <c r="R52" s="304"/>
+      <c r="S52" s="305"/>
+      <c r="T52" s="305"/>
+      <c r="U52" s="306"/>
     </row>
     <row r="53" spans="2:21" ht="20.25" customHeight="1">
       <c r="B53" s="172"/>
@@ -13160,10 +13198,10 @@
       <c r="N53" s="231"/>
       <c r="O53" s="216"/>
       <c r="P53" s="217"/>
-      <c r="R53" s="305"/>
-      <c r="S53" s="306"/>
-      <c r="T53" s="306"/>
-      <c r="U53" s="307"/>
+      <c r="R53" s="304"/>
+      <c r="S53" s="305"/>
+      <c r="T53" s="305"/>
+      <c r="U53" s="306"/>
     </row>
     <row r="54" spans="2:21" ht="20.25" customHeight="1">
       <c r="B54" s="172"/>
@@ -13181,10 +13219,10 @@
       <c r="N54" s="231"/>
       <c r="O54" s="216"/>
       <c r="P54" s="217"/>
-      <c r="R54" s="305"/>
-      <c r="S54" s="306"/>
-      <c r="T54" s="306"/>
-      <c r="U54" s="307"/>
+      <c r="R54" s="304"/>
+      <c r="S54" s="305"/>
+      <c r="T54" s="305"/>
+      <c r="U54" s="306"/>
     </row>
     <row r="55" spans="2:21" ht="20.25" customHeight="1">
       <c r="B55" s="174" t="s">
@@ -13204,10 +13242,10 @@
       <c r="N55" s="231"/>
       <c r="O55" s="216"/>
       <c r="P55" s="217"/>
-      <c r="R55" s="305"/>
-      <c r="S55" s="306"/>
-      <c r="T55" s="306"/>
-      <c r="U55" s="307"/>
+      <c r="R55" s="304"/>
+      <c r="S55" s="305"/>
+      <c r="T55" s="305"/>
+      <c r="U55" s="306"/>
     </row>
     <row r="56" spans="2:21" ht="20.25" customHeight="1">
       <c r="B56" s="172"/>
@@ -13229,10 +13267,10 @@
       <c r="N56" s="231"/>
       <c r="O56" s="216"/>
       <c r="P56" s="217"/>
-      <c r="R56" s="305"/>
-      <c r="S56" s="306"/>
-      <c r="T56" s="306"/>
-      <c r="U56" s="307"/>
+      <c r="R56" s="304"/>
+      <c r="S56" s="305"/>
+      <c r="T56" s="305"/>
+      <c r="U56" s="306"/>
     </row>
     <row r="57" spans="2:21" ht="20.25" customHeight="1">
       <c r="B57" s="172"/>
@@ -13254,10 +13292,10 @@
       <c r="N57" s="231"/>
       <c r="O57" s="216"/>
       <c r="P57" s="217"/>
-      <c r="R57" s="305"/>
-      <c r="S57" s="306"/>
-      <c r="T57" s="306"/>
-      <c r="U57" s="307"/>
+      <c r="R57" s="304"/>
+      <c r="S57" s="305"/>
+      <c r="T57" s="305"/>
+      <c r="U57" s="306"/>
     </row>
     <row r="58" spans="2:21" ht="20.25" customHeight="1">
       <c r="B58" s="172"/>
@@ -13279,10 +13317,10 @@
       <c r="N58" s="231"/>
       <c r="O58" s="216"/>
       <c r="P58" s="217"/>
-      <c r="R58" s="305"/>
-      <c r="S58" s="306"/>
-      <c r="T58" s="306"/>
-      <c r="U58" s="307"/>
+      <c r="R58" s="304"/>
+      <c r="S58" s="305"/>
+      <c r="T58" s="305"/>
+      <c r="U58" s="306"/>
     </row>
     <row r="59" spans="2:21" ht="20.25" customHeight="1">
       <c r="B59" s="172"/>
@@ -13304,10 +13342,10 @@
       <c r="N59" s="231"/>
       <c r="O59" s="216"/>
       <c r="P59" s="217"/>
-      <c r="R59" s="305"/>
-      <c r="S59" s="306"/>
-      <c r="T59" s="306"/>
-      <c r="U59" s="307"/>
+      <c r="R59" s="304"/>
+      <c r="S59" s="305"/>
+      <c r="T59" s="305"/>
+      <c r="U59" s="306"/>
     </row>
     <row r="60" spans="2:21" ht="20.25" customHeight="1">
       <c r="B60" s="172"/>
@@ -13329,10 +13367,10 @@
       <c r="N60" s="231"/>
       <c r="O60" s="216"/>
       <c r="P60" s="217"/>
-      <c r="R60" s="305"/>
-      <c r="S60" s="306"/>
-      <c r="T60" s="306"/>
-      <c r="U60" s="307"/>
+      <c r="R60" s="304"/>
+      <c r="S60" s="305"/>
+      <c r="T60" s="305"/>
+      <c r="U60" s="306"/>
     </row>
     <row r="61" spans="2:21" ht="20.25" customHeight="1">
       <c r="B61" s="218"/>
@@ -13350,10 +13388,10 @@
       <c r="N61" s="231"/>
       <c r="O61" s="216"/>
       <c r="P61" s="217"/>
-      <c r="R61" s="305"/>
-      <c r="S61" s="306"/>
-      <c r="T61" s="306"/>
-      <c r="U61" s="307"/>
+      <c r="R61" s="304"/>
+      <c r="S61" s="305"/>
+      <c r="T61" s="305"/>
+      <c r="U61" s="306"/>
     </row>
     <row r="62" spans="2:21" ht="20.25" customHeight="1">
       <c r="B62" s="174" t="s">
@@ -13373,10 +13411,10 @@
       <c r="N62" s="231"/>
       <c r="O62" s="216"/>
       <c r="P62" s="217"/>
-      <c r="R62" s="305"/>
-      <c r="S62" s="306"/>
-      <c r="T62" s="306"/>
-      <c r="U62" s="307"/>
+      <c r="R62" s="304"/>
+      <c r="S62" s="305"/>
+      <c r="T62" s="305"/>
+      <c r="U62" s="306"/>
     </row>
     <row r="63" spans="2:21" ht="20.25" customHeight="1">
       <c r="B63" s="172"/>
@@ -13398,10 +13436,10 @@
       <c r="N63" s="231"/>
       <c r="O63" s="216"/>
       <c r="P63" s="217"/>
-      <c r="R63" s="305"/>
-      <c r="S63" s="306"/>
-      <c r="T63" s="306"/>
-      <c r="U63" s="307"/>
+      <c r="R63" s="304"/>
+      <c r="S63" s="305"/>
+      <c r="T63" s="305"/>
+      <c r="U63" s="306"/>
     </row>
     <row r="64" spans="2:21" ht="20.25" customHeight="1">
       <c r="B64" s="172"/>
@@ -13423,10 +13461,10 @@
       <c r="N64" s="231"/>
       <c r="O64" s="216"/>
       <c r="P64" s="217"/>
-      <c r="R64" s="305"/>
-      <c r="S64" s="306"/>
-      <c r="T64" s="306"/>
-      <c r="U64" s="307"/>
+      <c r="R64" s="304"/>
+      <c r="S64" s="305"/>
+      <c r="T64" s="305"/>
+      <c r="U64" s="306"/>
     </row>
     <row r="65" spans="2:21" ht="20.25" customHeight="1">
       <c r="B65" s="169"/>
@@ -13444,10 +13482,10 @@
       <c r="N65" s="231"/>
       <c r="O65" s="216"/>
       <c r="P65" s="217"/>
-      <c r="R65" s="305"/>
-      <c r="S65" s="306"/>
-      <c r="T65" s="306"/>
-      <c r="U65" s="307"/>
+      <c r="R65" s="304"/>
+      <c r="S65" s="305"/>
+      <c r="T65" s="305"/>
+      <c r="U65" s="306"/>
     </row>
     <row r="66" spans="2:21" ht="20.25" customHeight="1">
       <c r="B66" s="174" t="s">
@@ -13469,10 +13507,10 @@
       </c>
       <c r="O66" s="216"/>
       <c r="P66" s="217"/>
-      <c r="R66" s="305"/>
-      <c r="S66" s="306"/>
-      <c r="T66" s="306"/>
-      <c r="U66" s="307"/>
+      <c r="R66" s="304"/>
+      <c r="S66" s="305"/>
+      <c r="T66" s="305"/>
+      <c r="U66" s="306"/>
     </row>
     <row r="67" spans="2:21" ht="20.25" customHeight="1">
       <c r="B67" s="172"/>
@@ -13494,10 +13532,10 @@
       </c>
       <c r="O67" s="216"/>
       <c r="P67" s="217"/>
-      <c r="R67" s="305"/>
-      <c r="S67" s="306"/>
-      <c r="T67" s="306"/>
-      <c r="U67" s="307"/>
+      <c r="R67" s="304"/>
+      <c r="S67" s="305"/>
+      <c r="T67" s="305"/>
+      <c r="U67" s="306"/>
     </row>
     <row r="68" spans="2:21" ht="20.25" customHeight="1">
       <c r="B68" s="169"/>
@@ -13519,10 +13557,10 @@
       </c>
       <c r="O68" s="216"/>
       <c r="P68" s="217"/>
-      <c r="R68" s="305"/>
-      <c r="S68" s="306"/>
-      <c r="T68" s="306"/>
-      <c r="U68" s="307"/>
+      <c r="R68" s="304"/>
+      <c r="S68" s="305"/>
+      <c r="T68" s="305"/>
+      <c r="U68" s="306"/>
     </row>
     <row r="69" spans="2:21" ht="20.25" customHeight="1">
       <c r="B69" s="169"/>
@@ -13544,10 +13582,10 @@
       </c>
       <c r="O69" s="216"/>
       <c r="P69" s="217"/>
-      <c r="R69" s="305"/>
-      <c r="S69" s="306"/>
-      <c r="T69" s="306"/>
-      <c r="U69" s="307"/>
+      <c r="R69" s="304"/>
+      <c r="S69" s="305"/>
+      <c r="T69" s="305"/>
+      <c r="U69" s="306"/>
     </row>
     <row r="70" spans="2:21" ht="20.25" customHeight="1">
       <c r="B70" s="169"/>
@@ -13569,10 +13607,10 @@
       </c>
       <c r="O70" s="216"/>
       <c r="P70" s="217"/>
-      <c r="R70" s="305"/>
-      <c r="S70" s="306"/>
-      <c r="T70" s="306"/>
-      <c r="U70" s="307"/>
+      <c r="R70" s="304"/>
+      <c r="S70" s="305"/>
+      <c r="T70" s="305"/>
+      <c r="U70" s="306"/>
     </row>
     <row r="71" spans="2:21" ht="20.25" customHeight="1">
       <c r="B71" s="169"/>
@@ -13594,10 +13632,10 @@
       </c>
       <c r="O71" s="216"/>
       <c r="P71" s="217"/>
-      <c r="R71" s="305"/>
-      <c r="S71" s="306"/>
-      <c r="T71" s="306"/>
-      <c r="U71" s="307"/>
+      <c r="R71" s="304"/>
+      <c r="S71" s="305"/>
+      <c r="T71" s="305"/>
+      <c r="U71" s="306"/>
     </row>
     <row r="72" spans="2:21" ht="20.25" customHeight="1">
       <c r="B72" s="169"/>
@@ -13619,10 +13657,10 @@
       </c>
       <c r="O72" s="216"/>
       <c r="P72" s="217"/>
-      <c r="R72" s="305"/>
-      <c r="S72" s="306"/>
-      <c r="T72" s="306"/>
-      <c r="U72" s="307"/>
+      <c r="R72" s="304"/>
+      <c r="S72" s="305"/>
+      <c r="T72" s="305"/>
+      <c r="U72" s="306"/>
     </row>
     <row r="73" spans="2:21" ht="20.25" customHeight="1">
       <c r="B73" s="169"/>
@@ -13644,10 +13682,10 @@
       </c>
       <c r="O73" s="216"/>
       <c r="P73" s="217"/>
-      <c r="R73" s="305"/>
-      <c r="S73" s="306"/>
-      <c r="T73" s="306"/>
-      <c r="U73" s="307"/>
+      <c r="R73" s="304"/>
+      <c r="S73" s="305"/>
+      <c r="T73" s="305"/>
+      <c r="U73" s="306"/>
     </row>
     <row r="74" spans="2:21" ht="20.25" customHeight="1">
       <c r="B74" s="169"/>
@@ -13669,10 +13707,10 @@
       </c>
       <c r="O74" s="216"/>
       <c r="P74" s="217"/>
-      <c r="R74" s="305"/>
-      <c r="S74" s="306"/>
-      <c r="T74" s="306"/>
-      <c r="U74" s="307"/>
+      <c r="R74" s="304"/>
+      <c r="S74" s="305"/>
+      <c r="T74" s="305"/>
+      <c r="U74" s="306"/>
     </row>
     <row r="75" spans="2:21" ht="20.25" customHeight="1">
       <c r="B75" s="169"/>
@@ -13694,10 +13732,10 @@
       </c>
       <c r="O75" s="216"/>
       <c r="P75" s="217"/>
-      <c r="R75" s="305"/>
-      <c r="S75" s="306"/>
-      <c r="T75" s="306"/>
-      <c r="U75" s="307"/>
+      <c r="R75" s="304"/>
+      <c r="S75" s="305"/>
+      <c r="T75" s="305"/>
+      <c r="U75" s="306"/>
     </row>
     <row r="76" spans="2:21" ht="20.25" customHeight="1">
       <c r="B76" s="169"/>
@@ -13715,10 +13753,10 @@
       <c r="N76" s="231"/>
       <c r="O76" s="216"/>
       <c r="P76" s="217"/>
-      <c r="R76" s="305"/>
-      <c r="S76" s="306"/>
-      <c r="T76" s="306"/>
-      <c r="U76" s="307"/>
+      <c r="R76" s="304"/>
+      <c r="S76" s="305"/>
+      <c r="T76" s="305"/>
+      <c r="U76" s="306"/>
     </row>
     <row r="77" spans="2:21" ht="20.25" customHeight="1">
       <c r="B77" s="174" t="s">
@@ -13740,10 +13778,10 @@
       </c>
       <c r="O77" s="216"/>
       <c r="P77" s="217"/>
-      <c r="R77" s="305"/>
-      <c r="S77" s="306"/>
-      <c r="T77" s="306"/>
-      <c r="U77" s="307"/>
+      <c r="R77" s="304"/>
+      <c r="S77" s="305"/>
+      <c r="T77" s="305"/>
+      <c r="U77" s="306"/>
     </row>
     <row r="78" spans="2:21" ht="20.25" customHeight="1">
       <c r="B78" s="172"/>
@@ -13765,10 +13803,10 @@
       </c>
       <c r="O78" s="216"/>
       <c r="P78" s="217"/>
-      <c r="R78" s="305"/>
-      <c r="S78" s="306"/>
-      <c r="T78" s="306"/>
-      <c r="U78" s="307"/>
+      <c r="R78" s="304"/>
+      <c r="S78" s="305"/>
+      <c r="T78" s="305"/>
+      <c r="U78" s="306"/>
     </row>
     <row r="79" spans="2:21" ht="20.25" customHeight="1">
       <c r="B79" s="172"/>
@@ -13790,10 +13828,10 @@
       </c>
       <c r="O79" s="216"/>
       <c r="P79" s="217"/>
-      <c r="R79" s="305"/>
-      <c r="S79" s="306"/>
-      <c r="T79" s="306"/>
-      <c r="U79" s="307"/>
+      <c r="R79" s="304"/>
+      <c r="S79" s="305"/>
+      <c r="T79" s="305"/>
+      <c r="U79" s="306"/>
     </row>
     <row r="80" spans="2:21" ht="20.25" customHeight="1">
       <c r="B80" s="169"/>
@@ -13811,10 +13849,10 @@
       <c r="N80" s="231"/>
       <c r="O80" s="216"/>
       <c r="P80" s="217"/>
-      <c r="R80" s="305"/>
-      <c r="S80" s="306"/>
-      <c r="T80" s="306"/>
-      <c r="U80" s="307"/>
+      <c r="R80" s="304"/>
+      <c r="S80" s="305"/>
+      <c r="T80" s="305"/>
+      <c r="U80" s="306"/>
     </row>
     <row r="81" spans="2:21" ht="20.25" customHeight="1">
       <c r="B81" s="174" t="s">
@@ -13836,10 +13874,10 @@
       </c>
       <c r="O81" s="216"/>
       <c r="P81" s="217"/>
-      <c r="R81" s="305"/>
-      <c r="S81" s="306"/>
-      <c r="T81" s="306"/>
-      <c r="U81" s="307"/>
+      <c r="R81" s="304"/>
+      <c r="S81" s="305"/>
+      <c r="T81" s="305"/>
+      <c r="U81" s="306"/>
     </row>
     <row r="82" spans="2:21" ht="20.25" customHeight="1">
       <c r="B82" s="172"/>
@@ -13861,10 +13899,10 @@
       </c>
       <c r="O82" s="216"/>
       <c r="P82" s="217"/>
-      <c r="R82" s="305"/>
-      <c r="S82" s="306"/>
-      <c r="T82" s="306"/>
-      <c r="U82" s="307"/>
+      <c r="R82" s="304"/>
+      <c r="S82" s="305"/>
+      <c r="T82" s="305"/>
+      <c r="U82" s="306"/>
     </row>
     <row r="83" spans="2:21" ht="20.25" customHeight="1">
       <c r="B83" s="172"/>
@@ -13886,10 +13924,10 @@
       </c>
       <c r="O83" s="216"/>
       <c r="P83" s="217"/>
-      <c r="R83" s="305"/>
-      <c r="S83" s="306"/>
-      <c r="T83" s="306"/>
-      <c r="U83" s="307"/>
+      <c r="R83" s="304"/>
+      <c r="S83" s="305"/>
+      <c r="T83" s="305"/>
+      <c r="U83" s="306"/>
     </row>
     <row r="84" spans="2:21" ht="20.25" customHeight="1">
       <c r="B84" s="172"/>
@@ -13911,10 +13949,10 @@
       </c>
       <c r="O84" s="216"/>
       <c r="P84" s="217"/>
-      <c r="R84" s="305"/>
-      <c r="S84" s="306"/>
-      <c r="T84" s="306"/>
-      <c r="U84" s="307"/>
+      <c r="R84" s="304"/>
+      <c r="S84" s="305"/>
+      <c r="T84" s="305"/>
+      <c r="U84" s="306"/>
     </row>
     <row r="85" spans="2:21" ht="20.25" customHeight="1">
       <c r="B85" s="172"/>
@@ -13936,10 +13974,10 @@
       </c>
       <c r="O85" s="216"/>
       <c r="P85" s="217"/>
-      <c r="R85" s="305"/>
-      <c r="S85" s="306"/>
-      <c r="T85" s="306"/>
-      <c r="U85" s="307"/>
+      <c r="R85" s="304"/>
+      <c r="S85" s="305"/>
+      <c r="T85" s="305"/>
+      <c r="U85" s="306"/>
     </row>
     <row r="86" spans="2:21" ht="20.25" customHeight="1">
       <c r="B86" s="172"/>
@@ -13961,10 +13999,10 @@
       </c>
       <c r="O86" s="216"/>
       <c r="P86" s="217"/>
-      <c r="R86" s="305"/>
-      <c r="S86" s="306"/>
-      <c r="T86" s="306"/>
-      <c r="U86" s="307"/>
+      <c r="R86" s="304"/>
+      <c r="S86" s="305"/>
+      <c r="T86" s="305"/>
+      <c r="U86" s="306"/>
     </row>
     <row r="87" spans="2:21" ht="20.25" customHeight="1">
       <c r="B87" s="169"/>
@@ -13982,10 +14020,10 @@
       <c r="N87" s="231"/>
       <c r="O87" s="216"/>
       <c r="P87" s="217"/>
-      <c r="R87" s="305"/>
-      <c r="S87" s="306"/>
-      <c r="T87" s="306"/>
-      <c r="U87" s="307"/>
+      <c r="R87" s="304"/>
+      <c r="S87" s="305"/>
+      <c r="T87" s="305"/>
+      <c r="U87" s="306"/>
     </row>
     <row r="88" spans="2:21" ht="20.25" customHeight="1">
       <c r="B88" s="174" t="s">
@@ -14007,10 +14045,10 @@
       </c>
       <c r="O88" s="216"/>
       <c r="P88" s="217"/>
-      <c r="R88" s="305"/>
-      <c r="S88" s="306"/>
-      <c r="T88" s="306"/>
-      <c r="U88" s="307"/>
+      <c r="R88" s="304"/>
+      <c r="S88" s="305"/>
+      <c r="T88" s="305"/>
+      <c r="U88" s="306"/>
     </row>
     <row r="89" spans="2:21" ht="20.25" customHeight="1">
       <c r="B89" s="172"/>
@@ -14032,10 +14070,10 @@
       </c>
       <c r="O89" s="216"/>
       <c r="P89" s="217"/>
-      <c r="R89" s="305"/>
-      <c r="S89" s="306"/>
-      <c r="T89" s="306"/>
-      <c r="U89" s="307"/>
+      <c r="R89" s="304"/>
+      <c r="S89" s="305"/>
+      <c r="T89" s="305"/>
+      <c r="U89" s="306"/>
     </row>
     <row r="90" spans="2:21" ht="20.25" customHeight="1">
       <c r="B90" s="172"/>
@@ -14057,10 +14095,10 @@
       </c>
       <c r="O90" s="216"/>
       <c r="P90" s="217"/>
-      <c r="R90" s="305"/>
-      <c r="S90" s="306"/>
-      <c r="T90" s="306"/>
-      <c r="U90" s="307"/>
+      <c r="R90" s="304"/>
+      <c r="S90" s="305"/>
+      <c r="T90" s="305"/>
+      <c r="U90" s="306"/>
     </row>
     <row r="91" spans="2:21" ht="20.25" customHeight="1">
       <c r="B91" s="172"/>
@@ -14082,10 +14120,10 @@
       </c>
       <c r="O91" s="216"/>
       <c r="P91" s="217"/>
-      <c r="R91" s="305"/>
-      <c r="S91" s="306"/>
-      <c r="T91" s="306"/>
-      <c r="U91" s="307"/>
+      <c r="R91" s="304"/>
+      <c r="S91" s="305"/>
+      <c r="T91" s="305"/>
+      <c r="U91" s="306"/>
     </row>
     <row r="92" spans="2:21" ht="20.25" customHeight="1">
       <c r="B92" s="169"/>
@@ -14107,10 +14145,10 @@
       </c>
       <c r="O92" s="216"/>
       <c r="P92" s="217"/>
-      <c r="R92" s="305"/>
-      <c r="S92" s="306"/>
-      <c r="T92" s="306"/>
-      <c r="U92" s="307"/>
+      <c r="R92" s="304"/>
+      <c r="S92" s="305"/>
+      <c r="T92" s="305"/>
+      <c r="U92" s="306"/>
     </row>
     <row r="93" spans="2:21" ht="20.25" customHeight="1">
       <c r="B93" s="218"/>
@@ -14128,10 +14166,10 @@
       <c r="N93" s="231"/>
       <c r="O93" s="216"/>
       <c r="P93" s="217"/>
-      <c r="R93" s="305"/>
-      <c r="S93" s="306"/>
-      <c r="T93" s="306"/>
-      <c r="U93" s="307"/>
+      <c r="R93" s="304"/>
+      <c r="S93" s="305"/>
+      <c r="T93" s="305"/>
+      <c r="U93" s="306"/>
     </row>
     <row r="94" spans="2:21" ht="20.25" customHeight="1" thickBot="1">
       <c r="B94" s="225"/>
@@ -14149,10 +14187,10 @@
       <c r="N94" s="230"/>
       <c r="O94" s="226"/>
       <c r="P94" s="228"/>
-      <c r="R94" s="308"/>
-      <c r="S94" s="309"/>
-      <c r="T94" s="309"/>
-      <c r="U94" s="310"/>
+      <c r="R94" s="307"/>
+      <c r="S94" s="308"/>
+      <c r="T94" s="308"/>
+      <c r="U94" s="309"/>
     </row>
     <row r="95" spans="2:21" ht="15.75" customHeight="1">
       <c r="B95" s="186"/>
@@ -14186,10 +14224,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A2:U50"/>
+  <dimension ref="B2:U50"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
@@ -14235,15 +14273,15 @@
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
-      <c r="H3" s="301"/>
-      <c r="I3" s="244"/>
-      <c r="J3" s="244"/>
-      <c r="K3" s="244"/>
-      <c r="L3" s="244"/>
-      <c r="M3" s="244"/>
-      <c r="N3" s="244"/>
-      <c r="O3" s="244"/>
-      <c r="P3" s="244"/>
+      <c r="H3" s="300"/>
+      <c r="I3" s="243"/>
+      <c r="J3" s="243"/>
+      <c r="K3" s="243"/>
+      <c r="L3" s="243"/>
+      <c r="M3" s="243"/>
+      <c r="N3" s="243"/>
+      <c r="O3" s="243"/>
+      <c r="P3" s="243"/>
     </row>
     <row r="4" spans="2:21" ht="21.75" customHeight="1" thickBot="1">
       <c r="B4" s="26"/>
@@ -14296,12 +14334,12 @@
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
       <c r="N6" s="26"/>
-      <c r="R6" s="312" t="s">
+      <c r="R6" s="310" t="s">
         <v>626</v>
       </c>
-      <c r="S6" s="303"/>
-      <c r="T6" s="303"/>
-      <c r="U6" s="304"/>
+      <c r="S6" s="302"/>
+      <c r="T6" s="302"/>
+      <c r="U6" s="303"/>
     </row>
     <row r="7" spans="2:21" ht="21.75" customHeight="1" thickBot="1">
       <c r="B7" s="183" t="s">
@@ -14319,10 +14357,10 @@
       <c r="L7" s="184"/>
       <c r="M7" s="184"/>
       <c r="N7" s="184"/>
-      <c r="R7" s="305"/>
-      <c r="S7" s="306"/>
-      <c r="T7" s="306"/>
-      <c r="U7" s="307"/>
+      <c r="R7" s="304"/>
+      <c r="S7" s="305"/>
+      <c r="T7" s="305"/>
+      <c r="U7" s="306"/>
     </row>
     <row r="8" spans="2:21" ht="15">
       <c r="B8" s="187" t="s">
@@ -14344,10 +14382,10 @@
       <c r="L8" s="184"/>
       <c r="M8" s="184"/>
       <c r="N8" s="190"/>
-      <c r="R8" s="305"/>
-      <c r="S8" s="306"/>
-      <c r="T8" s="306"/>
-      <c r="U8" s="307"/>
+      <c r="R8" s="304"/>
+      <c r="S8" s="305"/>
+      <c r="T8" s="305"/>
+      <c r="U8" s="306"/>
     </row>
     <row r="9" spans="2:21" thickBot="1">
       <c r="B9" s="191" t="s">
@@ -14369,10 +14407,10 @@
       <c r="L9" s="194"/>
       <c r="M9" s="194"/>
       <c r="N9" s="194"/>
-      <c r="R9" s="305"/>
-      <c r="S9" s="306"/>
-      <c r="T9" s="306"/>
-      <c r="U9" s="307"/>
+      <c r="R9" s="304"/>
+      <c r="S9" s="305"/>
+      <c r="T9" s="305"/>
+      <c r="U9" s="306"/>
     </row>
     <row r="10" spans="2:21" thickBot="1">
       <c r="B10" s="191" t="s">
@@ -14404,10 +14442,10 @@
       </c>
       <c r="O10" s="200"/>
       <c r="P10" s="201"/>
-      <c r="R10" s="305"/>
-      <c r="S10" s="306"/>
-      <c r="T10" s="306"/>
-      <c r="U10" s="307"/>
+      <c r="R10" s="304"/>
+      <c r="S10" s="305"/>
+      <c r="T10" s="305"/>
+      <c r="U10" s="306"/>
     </row>
     <row r="11" spans="2:21" ht="15" customHeight="1" thickBot="1">
       <c r="B11" s="202"/>
@@ -14449,10 +14487,10 @@
       <c r="P11" s="211" t="s">
         <v>100</v>
       </c>
-      <c r="R11" s="305"/>
-      <c r="S11" s="306"/>
-      <c r="T11" s="306"/>
-      <c r="U11" s="307"/>
+      <c r="R11" s="304"/>
+      <c r="S11" s="305"/>
+      <c r="T11" s="305"/>
+      <c r="U11" s="306"/>
     </row>
     <row r="12" spans="2:21" ht="20.25" customHeight="1">
       <c r="B12" s="171"/>
@@ -14470,10 +14508,10 @@
       <c r="N12" s="231"/>
       <c r="O12" s="216"/>
       <c r="P12" s="217"/>
-      <c r="R12" s="305"/>
-      <c r="S12" s="306"/>
-      <c r="T12" s="306"/>
-      <c r="U12" s="307"/>
+      <c r="R12" s="304"/>
+      <c r="S12" s="305"/>
+      <c r="T12" s="305"/>
+      <c r="U12" s="306"/>
     </row>
     <row r="13" spans="2:21" ht="20.25" customHeight="1">
       <c r="B13" s="174" t="s">
@@ -14493,10 +14531,10 @@
       <c r="N13" s="231"/>
       <c r="O13" s="216"/>
       <c r="P13" s="217"/>
-      <c r="R13" s="305"/>
-      <c r="S13" s="306"/>
-      <c r="T13" s="306"/>
-      <c r="U13" s="307"/>
+      <c r="R13" s="304"/>
+      <c r="S13" s="305"/>
+      <c r="T13" s="305"/>
+      <c r="U13" s="306"/>
     </row>
     <row r="14" spans="2:21" ht="20.25" customHeight="1">
       <c r="B14" s="172"/>
@@ -14520,10 +14558,10 @@
       <c r="N14" s="231"/>
       <c r="O14" s="216"/>
       <c r="P14" s="217"/>
-      <c r="R14" s="305"/>
-      <c r="S14" s="306"/>
-      <c r="T14" s="306"/>
-      <c r="U14" s="307"/>
+      <c r="R14" s="304"/>
+      <c r="S14" s="305"/>
+      <c r="T14" s="305"/>
+      <c r="U14" s="306"/>
     </row>
     <row r="15" spans="2:21" ht="20.25" customHeight="1">
       <c r="B15" s="172"/>
@@ -14547,10 +14585,10 @@
       <c r="N15" s="231"/>
       <c r="O15" s="216"/>
       <c r="P15" s="217"/>
-      <c r="R15" s="305"/>
-      <c r="S15" s="306"/>
-      <c r="T15" s="306"/>
-      <c r="U15" s="307"/>
+      <c r="R15" s="304"/>
+      <c r="S15" s="305"/>
+      <c r="T15" s="305"/>
+      <c r="U15" s="306"/>
     </row>
     <row r="16" spans="2:21" ht="20.25" customHeight="1">
       <c r="B16" s="172"/>
@@ -14561,7 +14599,7 @@
         <v>595</v>
       </c>
       <c r="E16" s="231"/>
-      <c r="F16" s="236"/>
+      <c r="F16" s="235"/>
       <c r="G16" s="217"/>
       <c r="H16" s="231"/>
       <c r="I16" s="216"/>
@@ -14574,12 +14612,12 @@
       <c r="N16" s="231"/>
       <c r="O16" s="216"/>
       <c r="P16" s="217"/>
-      <c r="R16" s="305"/>
-      <c r="S16" s="306"/>
-      <c r="T16" s="306"/>
-      <c r="U16" s="307"/>
-    </row>
-    <row r="17" spans="1:21" ht="20.25" customHeight="1">
+      <c r="R16" s="304"/>
+      <c r="S16" s="305"/>
+      <c r="T16" s="305"/>
+      <c r="U16" s="306"/>
+    </row>
+    <row r="17" spans="2:21" ht="20.25" customHeight="1">
       <c r="B17" s="172"/>
       <c r="C17" s="172" t="s">
         <v>486</v>
@@ -14601,12 +14639,12 @@
       <c r="N17" s="231"/>
       <c r="O17" s="216"/>
       <c r="P17" s="217"/>
-      <c r="R17" s="305"/>
-      <c r="S17" s="306"/>
-      <c r="T17" s="306"/>
-      <c r="U17" s="307"/>
-    </row>
-    <row r="18" spans="1:21" ht="20.25" customHeight="1">
+      <c r="R17" s="304"/>
+      <c r="S17" s="305"/>
+      <c r="T17" s="305"/>
+      <c r="U17" s="306"/>
+    </row>
+    <row r="18" spans="2:21" ht="20.25" customHeight="1">
       <c r="B18" s="172"/>
       <c r="C18" s="172"/>
       <c r="D18" s="218"/>
@@ -14622,12 +14660,12 @@
       <c r="N18" s="231"/>
       <c r="O18" s="216"/>
       <c r="P18" s="217"/>
-      <c r="R18" s="305"/>
-      <c r="S18" s="306"/>
-      <c r="T18" s="306"/>
-      <c r="U18" s="307"/>
-    </row>
-    <row r="19" spans="1:21" ht="20.25" customHeight="1">
+      <c r="R18" s="304"/>
+      <c r="S18" s="305"/>
+      <c r="T18" s="305"/>
+      <c r="U18" s="306"/>
+    </row>
+    <row r="19" spans="2:21" ht="20.25" customHeight="1">
       <c r="B19" s="174" t="s">
         <v>602</v>
       </c>
@@ -14645,12 +14683,12 @@
       <c r="N19" s="231"/>
       <c r="O19" s="216"/>
       <c r="P19" s="217"/>
-      <c r="R19" s="305"/>
-      <c r="S19" s="306"/>
-      <c r="T19" s="306"/>
-      <c r="U19" s="307"/>
-    </row>
-    <row r="20" spans="1:21" ht="20.25" customHeight="1">
+      <c r="R19" s="304"/>
+      <c r="S19" s="305"/>
+      <c r="T19" s="305"/>
+      <c r="U19" s="306"/>
+    </row>
+    <row r="20" spans="2:21" ht="20.25" customHeight="1">
       <c r="B20" s="174"/>
       <c r="C20" s="172" t="s">
         <v>603</v>
@@ -14672,12 +14710,12 @@
       <c r="N20" s="231"/>
       <c r="O20" s="216"/>
       <c r="P20" s="217"/>
-      <c r="R20" s="305"/>
-      <c r="S20" s="306"/>
-      <c r="T20" s="306"/>
-      <c r="U20" s="307"/>
-    </row>
-    <row r="21" spans="1:21" ht="20.25" customHeight="1">
+      <c r="R20" s="304"/>
+      <c r="S20" s="305"/>
+      <c r="T20" s="305"/>
+      <c r="U20" s="306"/>
+    </row>
+    <row r="21" spans="2:21" ht="20.25" customHeight="1">
       <c r="B21" s="172"/>
       <c r="C21" s="172" t="s">
         <v>604</v>
@@ -14699,12 +14737,12 @@
       <c r="N21" s="231"/>
       <c r="O21" s="216"/>
       <c r="P21" s="217"/>
-      <c r="R21" s="305"/>
-      <c r="S21" s="306"/>
-      <c r="T21" s="306"/>
-      <c r="U21" s="307"/>
-    </row>
-    <row r="22" spans="1:21" ht="20.25" customHeight="1">
+      <c r="R21" s="304"/>
+      <c r="S21" s="305"/>
+      <c r="T21" s="305"/>
+      <c r="U21" s="306"/>
+    </row>
+    <row r="22" spans="2:21" ht="20.25" customHeight="1">
       <c r="B22" s="172"/>
       <c r="C22" s="172" t="s">
         <v>605</v>
@@ -14726,12 +14764,12 @@
       <c r="N22" s="231"/>
       <c r="O22" s="216"/>
       <c r="P22" s="217"/>
-      <c r="R22" s="305"/>
-      <c r="S22" s="306"/>
-      <c r="T22" s="306"/>
-      <c r="U22" s="307"/>
-    </row>
-    <row r="23" spans="1:21" ht="20.25" customHeight="1">
+      <c r="R22" s="304"/>
+      <c r="S22" s="305"/>
+      <c r="T22" s="305"/>
+      <c r="U22" s="306"/>
+    </row>
+    <row r="23" spans="2:21" ht="20.25" customHeight="1">
       <c r="B23" s="172"/>
       <c r="C23" s="172" t="s">
         <v>606</v>
@@ -14753,12 +14791,12 @@
       <c r="N23" s="231"/>
       <c r="O23" s="216"/>
       <c r="P23" s="217"/>
-      <c r="R23" s="305"/>
-      <c r="S23" s="306"/>
-      <c r="T23" s="306"/>
-      <c r="U23" s="307"/>
-    </row>
-    <row r="24" spans="1:21" ht="20.25" customHeight="1">
+      <c r="R23" s="304"/>
+      <c r="S23" s="305"/>
+      <c r="T23" s="305"/>
+      <c r="U23" s="306"/>
+    </row>
+    <row r="24" spans="2:21" ht="20.25" customHeight="1">
       <c r="B24" s="172"/>
       <c r="C24" s="172" t="s">
         <v>607</v>
@@ -14780,12 +14818,12 @@
       <c r="N24" s="231"/>
       <c r="O24" s="216"/>
       <c r="P24" s="217"/>
-      <c r="R24" s="305"/>
-      <c r="S24" s="306"/>
-      <c r="T24" s="306"/>
-      <c r="U24" s="307"/>
-    </row>
-    <row r="25" spans="1:21" ht="20.25" customHeight="1">
+      <c r="R24" s="304"/>
+      <c r="S24" s="305"/>
+      <c r="T24" s="305"/>
+      <c r="U24" s="306"/>
+    </row>
+    <row r="25" spans="2:21" ht="20.25" customHeight="1">
       <c r="B25" s="172"/>
       <c r="C25" s="172" t="s">
         <v>609</v>
@@ -14807,41 +14845,39 @@
       <c r="N25" s="231"/>
       <c r="O25" s="216"/>
       <c r="P25" s="217"/>
-      <c r="R25" s="305"/>
-      <c r="S25" s="306"/>
-      <c r="T25" s="306"/>
-      <c r="U25" s="307"/>
-    </row>
-    <row r="26" spans="1:21" s="311" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A26" s="235"/>
-      <c r="B26" s="238"/>
-      <c r="C26" s="238" t="s">
+      <c r="R25" s="304"/>
+      <c r="S25" s="305"/>
+      <c r="T25" s="305"/>
+      <c r="U25" s="306"/>
+    </row>
+    <row r="26" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B26" s="237"/>
+      <c r="C26" s="237" t="s">
         <v>608</v>
       </c>
-      <c r="D26" s="239" t="s">
+      <c r="D26" s="238" t="s">
         <v>595</v>
       </c>
-      <c r="E26" s="240"/>
-      <c r="F26" s="241"/>
+      <c r="E26" s="239"/>
+      <c r="F26" s="240"/>
       <c r="G26" s="234"/>
-      <c r="H26" s="240"/>
-      <c r="I26" s="242"/>
+      <c r="H26" s="239"/>
+      <c r="I26" s="241"/>
       <c r="J26" s="234"/>
-      <c r="K26" s="240"/>
-      <c r="L26" s="242"/>
+      <c r="K26" s="239"/>
+      <c r="L26" s="241"/>
       <c r="M26" s="234"/>
-      <c r="N26" s="240"/>
-      <c r="O26" s="242"/>
+      <c r="N26" s="239"/>
+      <c r="O26" s="241"/>
       <c r="P26" s="234" t="s">
         <v>625</v>
       </c>
-      <c r="Q26" s="235"/>
-      <c r="R26" s="305"/>
-      <c r="S26" s="306"/>
-      <c r="T26" s="306"/>
-      <c r="U26" s="307"/>
-    </row>
-    <row r="27" spans="1:21" ht="20.25" customHeight="1">
+      <c r="R26" s="304"/>
+      <c r="S26" s="305"/>
+      <c r="T26" s="305"/>
+      <c r="U26" s="306"/>
+    </row>
+    <row r="27" spans="2:21" ht="20.25" customHeight="1">
       <c r="B27" s="172"/>
       <c r="C27" s="172"/>
       <c r="D27" s="218"/>
@@ -14857,12 +14893,12 @@
       <c r="N27" s="231"/>
       <c r="O27" s="216"/>
       <c r="P27" s="217"/>
-      <c r="R27" s="305"/>
-      <c r="S27" s="306"/>
-      <c r="T27" s="306"/>
-      <c r="U27" s="307"/>
-    </row>
-    <row r="28" spans="1:21" ht="20.25" customHeight="1">
+      <c r="R27" s="304"/>
+      <c r="S27" s="305"/>
+      <c r="T27" s="305"/>
+      <c r="U27" s="306"/>
+    </row>
+    <row r="28" spans="2:21" ht="20.25" customHeight="1">
       <c r="B28" s="174" t="s">
         <v>610</v>
       </c>
@@ -14880,12 +14916,12 @@
       <c r="N28" s="231"/>
       <c r="O28" s="216"/>
       <c r="P28" s="217"/>
-      <c r="R28" s="305"/>
-      <c r="S28" s="306"/>
-      <c r="T28" s="306"/>
-      <c r="U28" s="307"/>
-    </row>
-    <row r="29" spans="1:21" ht="20.25" customHeight="1">
+      <c r="R28" s="304"/>
+      <c r="S28" s="305"/>
+      <c r="T28" s="305"/>
+      <c r="U28" s="306"/>
+    </row>
+    <row r="29" spans="2:21" ht="20.25" customHeight="1">
       <c r="B29" s="172"/>
       <c r="C29" s="172" t="s">
         <v>611</v>
@@ -14907,12 +14943,12 @@
       <c r="N29" s="231"/>
       <c r="O29" s="216"/>
       <c r="P29" s="217"/>
-      <c r="R29" s="305"/>
-      <c r="S29" s="306"/>
-      <c r="T29" s="306"/>
-      <c r="U29" s="307"/>
-    </row>
-    <row r="30" spans="1:21" ht="20.25" customHeight="1">
+      <c r="R29" s="304"/>
+      <c r="S29" s="305"/>
+      <c r="T29" s="305"/>
+      <c r="U29" s="306"/>
+    </row>
+    <row r="30" spans="2:21" ht="20.25" customHeight="1">
       <c r="B30" s="172"/>
       <c r="C30" s="172" t="s">
         <v>612</v>
@@ -14934,12 +14970,12 @@
       <c r="N30" s="231"/>
       <c r="O30" s="216"/>
       <c r="P30" s="217"/>
-      <c r="R30" s="305"/>
-      <c r="S30" s="306"/>
-      <c r="T30" s="306"/>
-      <c r="U30" s="307"/>
-    </row>
-    <row r="31" spans="1:21" ht="20.25" customHeight="1">
+      <c r="R30" s="304"/>
+      <c r="S30" s="305"/>
+      <c r="T30" s="305"/>
+      <c r="U30" s="306"/>
+    </row>
+    <row r="31" spans="2:21" ht="20.25" customHeight="1">
       <c r="B31" s="172"/>
       <c r="C31" s="172" t="s">
         <v>613</v>
@@ -14961,12 +14997,12 @@
       <c r="N31" s="231"/>
       <c r="O31" s="216"/>
       <c r="P31" s="217"/>
-      <c r="R31" s="305"/>
-      <c r="S31" s="306"/>
-      <c r="T31" s="306"/>
-      <c r="U31" s="307"/>
-    </row>
-    <row r="32" spans="1:21" ht="20.25" customHeight="1">
+      <c r="R31" s="304"/>
+      <c r="S31" s="305"/>
+      <c r="T31" s="305"/>
+      <c r="U31" s="306"/>
+    </row>
+    <row r="32" spans="2:21" ht="20.25" customHeight="1">
       <c r="B32" s="172"/>
       <c r="C32" s="172"/>
       <c r="D32" s="218"/>
@@ -14982,10 +15018,10 @@
       <c r="N32" s="231"/>
       <c r="O32" s="216"/>
       <c r="P32" s="217"/>
-      <c r="R32" s="305"/>
-      <c r="S32" s="306"/>
-      <c r="T32" s="306"/>
-      <c r="U32" s="307"/>
+      <c r="R32" s="304"/>
+      <c r="S32" s="305"/>
+      <c r="T32" s="305"/>
+      <c r="U32" s="306"/>
     </row>
     <row r="33" spans="2:21" ht="20.25" customHeight="1">
       <c r="B33" s="174" t="s">
@@ -15005,10 +15041,10 @@
       <c r="N33" s="231"/>
       <c r="O33" s="216"/>
       <c r="P33" s="217"/>
-      <c r="R33" s="305"/>
-      <c r="S33" s="306"/>
-      <c r="T33" s="306"/>
-      <c r="U33" s="307"/>
+      <c r="R33" s="304"/>
+      <c r="S33" s="305"/>
+      <c r="T33" s="305"/>
+      <c r="U33" s="306"/>
     </row>
     <row r="34" spans="2:21" ht="20.25" customHeight="1">
       <c r="B34" s="169"/>
@@ -15032,10 +15068,10 @@
       <c r="N34" s="231"/>
       <c r="O34" s="216"/>
       <c r="P34" s="217"/>
-      <c r="R34" s="305"/>
-      <c r="S34" s="306"/>
-      <c r="T34" s="306"/>
-      <c r="U34" s="307"/>
+      <c r="R34" s="304"/>
+      <c r="S34" s="305"/>
+      <c r="T34" s="305"/>
+      <c r="U34" s="306"/>
     </row>
     <row r="35" spans="2:21" ht="20.25" customHeight="1">
       <c r="B35" s="169"/>
@@ -15059,10 +15095,10 @@
       <c r="N35" s="231"/>
       <c r="O35" s="216"/>
       <c r="P35" s="217"/>
-      <c r="R35" s="305"/>
-      <c r="S35" s="306"/>
-      <c r="T35" s="306"/>
-      <c r="U35" s="307"/>
+      <c r="R35" s="304"/>
+      <c r="S35" s="305"/>
+      <c r="T35" s="305"/>
+      <c r="U35" s="306"/>
     </row>
     <row r="36" spans="2:21" ht="20.25" customHeight="1">
       <c r="B36" s="169"/>
@@ -15080,10 +15116,10 @@
       <c r="N36" s="231"/>
       <c r="O36" s="216"/>
       <c r="P36" s="217"/>
-      <c r="R36" s="305"/>
-      <c r="S36" s="306"/>
-      <c r="T36" s="306"/>
-      <c r="U36" s="307"/>
+      <c r="R36" s="304"/>
+      <c r="S36" s="305"/>
+      <c r="T36" s="305"/>
+      <c r="U36" s="306"/>
     </row>
     <row r="37" spans="2:21" ht="20.25" customHeight="1">
       <c r="B37" s="174" t="s">
@@ -15103,10 +15139,10 @@
       <c r="N37" s="231"/>
       <c r="O37" s="216"/>
       <c r="P37" s="217"/>
-      <c r="R37" s="305"/>
-      <c r="S37" s="306"/>
-      <c r="T37" s="306"/>
-      <c r="U37" s="307"/>
+      <c r="R37" s="304"/>
+      <c r="S37" s="305"/>
+      <c r="T37" s="305"/>
+      <c r="U37" s="306"/>
     </row>
     <row r="38" spans="2:21" ht="20.25" customHeight="1">
       <c r="B38" s="169"/>
@@ -15130,10 +15166,10 @@
       <c r="N38" s="231"/>
       <c r="O38" s="216"/>
       <c r="P38" s="217"/>
-      <c r="R38" s="305"/>
-      <c r="S38" s="306"/>
-      <c r="T38" s="306"/>
-      <c r="U38" s="307"/>
+      <c r="R38" s="304"/>
+      <c r="S38" s="305"/>
+      <c r="T38" s="305"/>
+      <c r="U38" s="306"/>
     </row>
     <row r="39" spans="2:21" ht="20.25" customHeight="1">
       <c r="B39" s="169"/>
@@ -15157,10 +15193,10 @@
       <c r="N39" s="231"/>
       <c r="O39" s="216"/>
       <c r="P39" s="217"/>
-      <c r="R39" s="305"/>
-      <c r="S39" s="306"/>
-      <c r="T39" s="306"/>
-      <c r="U39" s="307"/>
+      <c r="R39" s="304"/>
+      <c r="S39" s="305"/>
+      <c r="T39" s="305"/>
+      <c r="U39" s="306"/>
     </row>
     <row r="40" spans="2:21" ht="20.25" customHeight="1">
       <c r="B40" s="169"/>
@@ -15184,10 +15220,10 @@
       <c r="N40" s="231"/>
       <c r="O40" s="216"/>
       <c r="P40" s="217"/>
-      <c r="R40" s="305"/>
-      <c r="S40" s="306"/>
-      <c r="T40" s="306"/>
-      <c r="U40" s="307"/>
+      <c r="R40" s="304"/>
+      <c r="S40" s="305"/>
+      <c r="T40" s="305"/>
+      <c r="U40" s="306"/>
     </row>
     <row r="41" spans="2:21" ht="20.25" customHeight="1">
       <c r="B41" s="169"/>
@@ -15205,10 +15241,10 @@
       <c r="N41" s="231"/>
       <c r="O41" s="216"/>
       <c r="P41" s="217"/>
-      <c r="R41" s="305"/>
-      <c r="S41" s="306"/>
-      <c r="T41" s="306"/>
-      <c r="U41" s="307"/>
+      <c r="R41" s="304"/>
+      <c r="S41" s="305"/>
+      <c r="T41" s="305"/>
+      <c r="U41" s="306"/>
     </row>
     <row r="42" spans="2:21" ht="20.25" customHeight="1">
       <c r="B42" s="174" t="s">
@@ -15228,10 +15264,10 @@
       <c r="N42" s="231"/>
       <c r="O42" s="216"/>
       <c r="P42" s="217"/>
-      <c r="R42" s="305"/>
-      <c r="S42" s="306"/>
-      <c r="T42" s="306"/>
-      <c r="U42" s="307"/>
+      <c r="R42" s="304"/>
+      <c r="S42" s="305"/>
+      <c r="T42" s="305"/>
+      <c r="U42" s="306"/>
     </row>
     <row r="43" spans="2:21" ht="20.25" customHeight="1">
       <c r="B43" s="169"/>
@@ -15255,14 +15291,14 @@
       </c>
       <c r="O43" s="233"/>
       <c r="P43" s="217"/>
-      <c r="R43" s="305"/>
-      <c r="S43" s="306"/>
-      <c r="T43" s="306"/>
-      <c r="U43" s="307"/>
+      <c r="R43" s="304"/>
+      <c r="S43" s="305"/>
+      <c r="T43" s="305"/>
+      <c r="U43" s="306"/>
     </row>
     <row r="44" spans="2:21" ht="20.25" customHeight="1">
       <c r="B44" s="169"/>
-      <c r="C44" s="237" t="s">
+      <c r="C44" s="236" t="s">
         <v>622</v>
       </c>
       <c r="D44" s="218" t="s">
@@ -15282,14 +15318,14 @@
       </c>
       <c r="O44" s="233"/>
       <c r="P44" s="217"/>
-      <c r="R44" s="305"/>
-      <c r="S44" s="306"/>
-      <c r="T44" s="306"/>
-      <c r="U44" s="307"/>
+      <c r="R44" s="304"/>
+      <c r="S44" s="305"/>
+      <c r="T44" s="305"/>
+      <c r="U44" s="306"/>
     </row>
     <row r="45" spans="2:21" ht="20.25" customHeight="1">
       <c r="B45" s="169"/>
-      <c r="C45" s="237" t="s">
+      <c r="C45" s="236" t="s">
         <v>624</v>
       </c>
       <c r="D45" s="218" t="s">
@@ -15309,14 +15345,14 @@
       </c>
       <c r="O45" s="233"/>
       <c r="P45" s="217"/>
-      <c r="R45" s="305"/>
-      <c r="S45" s="306"/>
-      <c r="T45" s="306"/>
-      <c r="U45" s="307"/>
+      <c r="R45" s="304"/>
+      <c r="S45" s="305"/>
+      <c r="T45" s="305"/>
+      <c r="U45" s="306"/>
     </row>
     <row r="46" spans="2:21" ht="20.25" customHeight="1">
       <c r="B46" s="169"/>
-      <c r="C46" s="237"/>
+      <c r="C46" s="236"/>
       <c r="D46" s="218"/>
       <c r="E46" s="231"/>
       <c r="F46" s="232"/>
@@ -15330,16 +15366,16 @@
       <c r="N46" s="231"/>
       <c r="O46" s="216"/>
       <c r="P46" s="217"/>
-      <c r="R46" s="305"/>
-      <c r="S46" s="306"/>
-      <c r="T46" s="306"/>
-      <c r="U46" s="307"/>
+      <c r="R46" s="304"/>
+      <c r="S46" s="305"/>
+      <c r="T46" s="305"/>
+      <c r="U46" s="306"/>
     </row>
     <row r="47" spans="2:21" ht="20.25" customHeight="1">
       <c r="B47" s="174" t="s">
         <v>620</v>
       </c>
-      <c r="C47" s="237"/>
+      <c r="C47" s="236"/>
       <c r="D47" s="218"/>
       <c r="E47" s="231"/>
       <c r="F47" s="232"/>
@@ -15353,10 +15389,10 @@
       <c r="N47" s="231"/>
       <c r="O47" s="216"/>
       <c r="P47" s="217"/>
-      <c r="R47" s="305"/>
-      <c r="S47" s="306"/>
-      <c r="T47" s="306"/>
-      <c r="U47" s="307"/>
+      <c r="R47" s="304"/>
+      <c r="S47" s="305"/>
+      <c r="T47" s="305"/>
+      <c r="U47" s="306"/>
     </row>
     <row r="48" spans="2:21" ht="20.25" customHeight="1">
       <c r="B48" s="169"/>
@@ -15380,10 +15416,10 @@
       </c>
       <c r="O48" s="233"/>
       <c r="P48" s="217"/>
-      <c r="R48" s="305"/>
-      <c r="S48" s="306"/>
-      <c r="T48" s="306"/>
-      <c r="U48" s="307"/>
+      <c r="R48" s="304"/>
+      <c r="S48" s="305"/>
+      <c r="T48" s="305"/>
+      <c r="U48" s="306"/>
     </row>
     <row r="49" spans="2:21" ht="20.25" customHeight="1" thickBot="1">
       <c r="B49" s="225"/>
@@ -15401,10 +15437,10 @@
       <c r="N49" s="230"/>
       <c r="O49" s="226"/>
       <c r="P49" s="228"/>
-      <c r="R49" s="308"/>
-      <c r="S49" s="309"/>
-      <c r="T49" s="309"/>
-      <c r="U49" s="310"/>
+      <c r="R49" s="307"/>
+      <c r="S49" s="308"/>
+      <c r="T49" s="308"/>
+      <c r="U49" s="309"/>
     </row>
     <row r="50" spans="2:21" ht="15.75" customHeight="1">
       <c r="B50" s="186"/>
@@ -15441,15 +15477,15 @@
   </sheetPr>
   <dimension ref="B2:U184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="39.28515625" customWidth="1"/>
+    <col min="3" max="3" width="69.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.42578125" customWidth="1"/>
     <col min="5" max="6" width="9.42578125" customWidth="1"/>
     <col min="7" max="7" width="20.5703125" customWidth="1"/>
@@ -15487,15 +15523,15 @@
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
-      <c r="H3" s="301"/>
-      <c r="I3" s="244"/>
-      <c r="J3" s="244"/>
-      <c r="K3" s="244"/>
-      <c r="L3" s="244"/>
-      <c r="M3" s="244"/>
-      <c r="N3" s="244"/>
-      <c r="O3" s="244"/>
-      <c r="P3" s="244"/>
+      <c r="H3" s="300"/>
+      <c r="I3" s="243"/>
+      <c r="J3" s="243"/>
+      <c r="K3" s="243"/>
+      <c r="L3" s="243"/>
+      <c r="M3" s="243"/>
+      <c r="N3" s="243"/>
+      <c r="O3" s="243"/>
+      <c r="P3" s="243"/>
     </row>
     <row r="4" spans="2:21" ht="21.75" customHeight="1" thickBot="1">
       <c r="B4" s="26"/>
@@ -15548,10 +15584,10 @@
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
       <c r="N6" s="26"/>
-      <c r="R6" s="302"/>
-      <c r="S6" s="303"/>
-      <c r="T6" s="303"/>
-      <c r="U6" s="304"/>
+      <c r="R6" s="301"/>
+      <c r="S6" s="302"/>
+      <c r="T6" s="302"/>
+      <c r="U6" s="303"/>
     </row>
     <row r="7" spans="2:21" ht="21.75" customHeight="1" thickBot="1">
       <c r="B7" s="183" t="s">
@@ -15569,10 +15605,10 @@
       <c r="L7" s="184"/>
       <c r="M7" s="184"/>
       <c r="N7" s="184"/>
-      <c r="R7" s="305"/>
-      <c r="S7" s="306"/>
-      <c r="T7" s="306"/>
-      <c r="U7" s="307"/>
+      <c r="R7" s="304"/>
+      <c r="S7" s="305"/>
+      <c r="T7" s="305"/>
+      <c r="U7" s="306"/>
     </row>
     <row r="8" spans="2:21" ht="15">
       <c r="B8" s="187" t="s">
@@ -15594,10 +15630,10 @@
       <c r="L8" s="184"/>
       <c r="M8" s="184"/>
       <c r="N8" s="190"/>
-      <c r="R8" s="305"/>
-      <c r="S8" s="306"/>
-      <c r="T8" s="306"/>
-      <c r="U8" s="307"/>
+      <c r="R8" s="304"/>
+      <c r="S8" s="305"/>
+      <c r="T8" s="305"/>
+      <c r="U8" s="306"/>
     </row>
     <row r="9" spans="2:21" thickBot="1">
       <c r="B9" s="191" t="s">
@@ -15619,10 +15655,10 @@
       <c r="L9" s="194"/>
       <c r="M9" s="194"/>
       <c r="N9" s="194"/>
-      <c r="R9" s="305"/>
-      <c r="S9" s="306"/>
-      <c r="T9" s="306"/>
-      <c r="U9" s="307"/>
+      <c r="R9" s="304"/>
+      <c r="S9" s="305"/>
+      <c r="T9" s="305"/>
+      <c r="U9" s="306"/>
     </row>
     <row r="10" spans="2:21" thickBot="1">
       <c r="B10" s="191" t="s">
@@ -15654,10 +15690,10 @@
       </c>
       <c r="O10" s="200"/>
       <c r="P10" s="201"/>
-      <c r="R10" s="305"/>
-      <c r="S10" s="306"/>
-      <c r="T10" s="306"/>
-      <c r="U10" s="307"/>
+      <c r="R10" s="304"/>
+      <c r="S10" s="305"/>
+      <c r="T10" s="305"/>
+      <c r="U10" s="306"/>
     </row>
     <row r="11" spans="2:21" ht="15" customHeight="1" thickBot="1">
       <c r="B11" s="202"/>
@@ -15699,10 +15735,10 @@
       <c r="P11" s="211" t="s">
         <v>100</v>
       </c>
-      <c r="R11" s="305"/>
-      <c r="S11" s="306"/>
-      <c r="T11" s="306"/>
-      <c r="U11" s="307"/>
+      <c r="R11" s="304"/>
+      <c r="S11" s="305"/>
+      <c r="T11" s="305"/>
+      <c r="U11" s="306"/>
     </row>
     <row r="12" spans="2:21" ht="20.25" customHeight="1">
       <c r="B12" s="218"/>
@@ -15720,13 +15756,15 @@
       <c r="N12" s="213"/>
       <c r="O12" s="212"/>
       <c r="P12" s="215"/>
-      <c r="R12" s="305"/>
-      <c r="S12" s="306"/>
-      <c r="T12" s="306"/>
-      <c r="U12" s="307"/>
+      <c r="R12" s="304"/>
+      <c r="S12" s="305"/>
+      <c r="T12" s="305"/>
+      <c r="U12" s="306"/>
     </row>
     <row r="13" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B13" s="218"/>
+      <c r="B13" s="311" t="s">
+        <v>627</v>
+      </c>
       <c r="C13" s="218"/>
       <c r="D13" s="218"/>
       <c r="E13" s="231"/>
@@ -15741,14 +15779,16 @@
       <c r="N13" s="231"/>
       <c r="O13" s="216"/>
       <c r="P13" s="217"/>
-      <c r="R13" s="305"/>
-      <c r="S13" s="306"/>
-      <c r="T13" s="306"/>
-      <c r="U13" s="307"/>
+      <c r="R13" s="304"/>
+      <c r="S13" s="305"/>
+      <c r="T13" s="305"/>
+      <c r="U13" s="306"/>
     </row>
     <row r="14" spans="2:21" ht="20.25" customHeight="1">
       <c r="B14" s="218"/>
-      <c r="C14" s="218"/>
+      <c r="C14" s="229" t="s">
+        <v>628</v>
+      </c>
       <c r="D14" s="218"/>
       <c r="E14" s="231"/>
       <c r="F14" s="232"/>
@@ -15762,14 +15802,16 @@
       <c r="N14" s="231"/>
       <c r="O14" s="216"/>
       <c r="P14" s="217"/>
-      <c r="R14" s="305"/>
-      <c r="S14" s="306"/>
-      <c r="T14" s="306"/>
-      <c r="U14" s="307"/>
+      <c r="R14" s="304"/>
+      <c r="S14" s="305"/>
+      <c r="T14" s="305"/>
+      <c r="U14" s="306"/>
     </row>
     <row r="15" spans="2:21" ht="20.25" customHeight="1">
       <c r="B15" s="218"/>
-      <c r="C15" s="218"/>
+      <c r="C15" s="229" t="s">
+        <v>629</v>
+      </c>
       <c r="D15" s="218"/>
       <c r="E15" s="231"/>
       <c r="F15" s="232"/>
@@ -15783,14 +15825,16 @@
       <c r="N15" s="231"/>
       <c r="O15" s="216"/>
       <c r="P15" s="217"/>
-      <c r="R15" s="305"/>
-      <c r="S15" s="306"/>
-      <c r="T15" s="306"/>
-      <c r="U15" s="307"/>
+      <c r="R15" s="304"/>
+      <c r="S15" s="305"/>
+      <c r="T15" s="305"/>
+      <c r="U15" s="306"/>
     </row>
     <row r="16" spans="2:21" ht="20.25" customHeight="1">
       <c r="B16" s="218"/>
-      <c r="C16" s="218"/>
+      <c r="C16" s="229" t="s">
+        <v>630</v>
+      </c>
       <c r="D16" s="218"/>
       <c r="E16" s="231"/>
       <c r="F16" s="232"/>
@@ -15804,10 +15848,10 @@
       <c r="N16" s="231"/>
       <c r="O16" s="216"/>
       <c r="P16" s="217"/>
-      <c r="R16" s="305"/>
-      <c r="S16" s="306"/>
-      <c r="T16" s="306"/>
-      <c r="U16" s="307"/>
+      <c r="R16" s="304"/>
+      <c r="S16" s="305"/>
+      <c r="T16" s="305"/>
+      <c r="U16" s="306"/>
     </row>
     <row r="17" spans="2:21" ht="20.25" customHeight="1">
       <c r="B17" s="218"/>
@@ -15825,13 +15869,15 @@
       <c r="N17" s="231"/>
       <c r="O17" s="216"/>
       <c r="P17" s="217"/>
-      <c r="R17" s="305"/>
-      <c r="S17" s="306"/>
-      <c r="T17" s="306"/>
-      <c r="U17" s="307"/>
+      <c r="R17" s="304"/>
+      <c r="S17" s="305"/>
+      <c r="T17" s="305"/>
+      <c r="U17" s="306"/>
     </row>
     <row r="18" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B18" s="218"/>
+      <c r="B18" s="311" t="s">
+        <v>631</v>
+      </c>
       <c r="C18" s="218"/>
       <c r="D18" s="218"/>
       <c r="E18" s="231"/>
@@ -15846,14 +15892,16 @@
       <c r="N18" s="231"/>
       <c r="O18" s="216"/>
       <c r="P18" s="217"/>
-      <c r="R18" s="305"/>
-      <c r="S18" s="306"/>
-      <c r="T18" s="306"/>
-      <c r="U18" s="307"/>
+      <c r="R18" s="304"/>
+      <c r="S18" s="305"/>
+      <c r="T18" s="305"/>
+      <c r="U18" s="306"/>
     </row>
     <row r="19" spans="2:21" ht="20.25" customHeight="1">
       <c r="B19" s="218"/>
-      <c r="C19" s="218"/>
+      <c r="C19" s="229" t="s">
+        <v>632</v>
+      </c>
       <c r="D19" s="218"/>
       <c r="E19" s="231"/>
       <c r="F19" s="232"/>
@@ -15867,14 +15915,16 @@
       <c r="N19" s="231"/>
       <c r="O19" s="216"/>
       <c r="P19" s="217"/>
-      <c r="R19" s="305"/>
-      <c r="S19" s="306"/>
-      <c r="T19" s="306"/>
-      <c r="U19" s="307"/>
+      <c r="R19" s="304"/>
+      <c r="S19" s="305"/>
+      <c r="T19" s="305"/>
+      <c r="U19" s="306"/>
     </row>
     <row r="20" spans="2:21" ht="20.25" customHeight="1">
       <c r="B20" s="218"/>
-      <c r="C20" s="218"/>
+      <c r="C20" s="229" t="s">
+        <v>633</v>
+      </c>
       <c r="D20" s="218"/>
       <c r="E20" s="231"/>
       <c r="F20" s="232"/>
@@ -15888,10 +15938,10 @@
       <c r="N20" s="231"/>
       <c r="O20" s="216"/>
       <c r="P20" s="217"/>
-      <c r="R20" s="305"/>
-      <c r="S20" s="306"/>
-      <c r="T20" s="306"/>
-      <c r="U20" s="307"/>
+      <c r="R20" s="304"/>
+      <c r="S20" s="305"/>
+      <c r="T20" s="305"/>
+      <c r="U20" s="306"/>
     </row>
     <row r="21" spans="2:21" ht="20.25" customHeight="1">
       <c r="B21" s="218"/>
@@ -15909,13 +15959,15 @@
       <c r="N21" s="231"/>
       <c r="O21" s="216"/>
       <c r="P21" s="217"/>
-      <c r="R21" s="305"/>
-      <c r="S21" s="306"/>
-      <c r="T21" s="306"/>
-      <c r="U21" s="307"/>
+      <c r="R21" s="304"/>
+      <c r="S21" s="305"/>
+      <c r="T21" s="305"/>
+      <c r="U21" s="306"/>
     </row>
     <row r="22" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B22" s="218"/>
+      <c r="B22" s="311" t="s">
+        <v>634</v>
+      </c>
       <c r="C22" s="218"/>
       <c r="D22" s="218"/>
       <c r="E22" s="231"/>
@@ -15930,14 +15982,16 @@
       <c r="N22" s="231"/>
       <c r="O22" s="216"/>
       <c r="P22" s="217"/>
-      <c r="R22" s="305"/>
-      <c r="S22" s="306"/>
-      <c r="T22" s="306"/>
-      <c r="U22" s="307"/>
+      <c r="R22" s="304"/>
+      <c r="S22" s="305"/>
+      <c r="T22" s="305"/>
+      <c r="U22" s="306"/>
     </row>
     <row r="23" spans="2:21" ht="20.25" customHeight="1">
       <c r="B23" s="218"/>
-      <c r="C23" s="218"/>
+      <c r="C23" s="229" t="s">
+        <v>635</v>
+      </c>
       <c r="D23" s="218"/>
       <c r="E23" s="231"/>
       <c r="F23" s="232"/>
@@ -15951,10 +16005,10 @@
       <c r="N23" s="231"/>
       <c r="O23" s="216"/>
       <c r="P23" s="217"/>
-      <c r="R23" s="305"/>
-      <c r="S23" s="306"/>
-      <c r="T23" s="306"/>
-      <c r="U23" s="307"/>
+      <c r="R23" s="304"/>
+      <c r="S23" s="305"/>
+      <c r="T23" s="305"/>
+      <c r="U23" s="306"/>
     </row>
     <row r="24" spans="2:21" ht="20.25" customHeight="1">
       <c r="B24" s="218"/>
@@ -15972,13 +16026,15 @@
       <c r="N24" s="231"/>
       <c r="O24" s="216"/>
       <c r="P24" s="217"/>
-      <c r="R24" s="305"/>
-      <c r="S24" s="306"/>
-      <c r="T24" s="306"/>
-      <c r="U24" s="307"/>
+      <c r="R24" s="304"/>
+      <c r="S24" s="305"/>
+      <c r="T24" s="305"/>
+      <c r="U24" s="306"/>
     </row>
     <row r="25" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B25" s="218"/>
+      <c r="B25" s="229" t="s">
+        <v>425</v>
+      </c>
       <c r="C25" s="218"/>
       <c r="D25" s="218"/>
       <c r="E25" s="231"/>
@@ -15993,14 +16049,16 @@
       <c r="N25" s="231"/>
       <c r="O25" s="216"/>
       <c r="P25" s="217"/>
-      <c r="R25" s="305"/>
-      <c r="S25" s="306"/>
-      <c r="T25" s="306"/>
-      <c r="U25" s="307"/>
+      <c r="R25" s="304"/>
+      <c r="S25" s="305"/>
+      <c r="T25" s="305"/>
+      <c r="U25" s="306"/>
     </row>
     <row r="26" spans="2:21" ht="20.25" customHeight="1">
       <c r="B26" s="218"/>
-      <c r="C26" s="218"/>
+      <c r="C26" s="229" t="s">
+        <v>636</v>
+      </c>
       <c r="D26" s="218"/>
       <c r="E26" s="231"/>
       <c r="F26" s="232"/>
@@ -16014,14 +16072,16 @@
       <c r="N26" s="231"/>
       <c r="O26" s="216"/>
       <c r="P26" s="217"/>
-      <c r="R26" s="305"/>
-      <c r="S26" s="306"/>
-      <c r="T26" s="306"/>
-      <c r="U26" s="307"/>
+      <c r="R26" s="304"/>
+      <c r="S26" s="305"/>
+      <c r="T26" s="305"/>
+      <c r="U26" s="306"/>
     </row>
     <row r="27" spans="2:21" ht="20.25" customHeight="1">
       <c r="B27" s="218"/>
-      <c r="C27" s="218"/>
+      <c r="C27" s="229" t="s">
+        <v>637</v>
+      </c>
       <c r="D27" s="218"/>
       <c r="E27" s="231"/>
       <c r="F27" s="232"/>
@@ -16035,10 +16095,10 @@
       <c r="N27" s="231"/>
       <c r="O27" s="216"/>
       <c r="P27" s="217"/>
-      <c r="R27" s="305"/>
-      <c r="S27" s="306"/>
-      <c r="T27" s="306"/>
-      <c r="U27" s="307"/>
+      <c r="R27" s="304"/>
+      <c r="S27" s="305"/>
+      <c r="T27" s="305"/>
+      <c r="U27" s="306"/>
     </row>
     <row r="28" spans="2:21" ht="20.25" customHeight="1">
       <c r="B28" s="218"/>
@@ -16056,13 +16116,15 @@
       <c r="N28" s="231"/>
       <c r="O28" s="216"/>
       <c r="P28" s="217"/>
-      <c r="R28" s="305"/>
-      <c r="S28" s="306"/>
-      <c r="T28" s="306"/>
-      <c r="U28" s="307"/>
+      <c r="R28" s="304"/>
+      <c r="S28" s="305"/>
+      <c r="T28" s="305"/>
+      <c r="U28" s="306"/>
     </row>
     <row r="29" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B29" s="218"/>
+      <c r="B29" s="229" t="s">
+        <v>479</v>
+      </c>
       <c r="C29" s="218"/>
       <c r="D29" s="218"/>
       <c r="E29" s="231"/>
@@ -16077,14 +16139,16 @@
       <c r="N29" s="231"/>
       <c r="O29" s="216"/>
       <c r="P29" s="217"/>
-      <c r="R29" s="305"/>
-      <c r="S29" s="306"/>
-      <c r="T29" s="306"/>
-      <c r="U29" s="307"/>
+      <c r="R29" s="304"/>
+      <c r="S29" s="305"/>
+      <c r="T29" s="305"/>
+      <c r="U29" s="306"/>
     </row>
     <row r="30" spans="2:21" ht="20.25" customHeight="1">
       <c r="B30" s="218"/>
-      <c r="C30" s="218"/>
+      <c r="C30" s="229" t="s">
+        <v>638</v>
+      </c>
       <c r="D30" s="218"/>
       <c r="E30" s="231"/>
       <c r="F30" s="232"/>
@@ -16098,10 +16162,10 @@
       <c r="N30" s="231"/>
       <c r="O30" s="216"/>
       <c r="P30" s="217"/>
-      <c r="R30" s="305"/>
-      <c r="S30" s="306"/>
-      <c r="T30" s="306"/>
-      <c r="U30" s="307"/>
+      <c r="R30" s="304"/>
+      <c r="S30" s="305"/>
+      <c r="T30" s="305"/>
+      <c r="U30" s="306"/>
     </row>
     <row r="31" spans="2:21" ht="20.25" customHeight="1">
       <c r="B31" s="218"/>
@@ -16119,13 +16183,15 @@
       <c r="N31" s="231"/>
       <c r="O31" s="216"/>
       <c r="P31" s="217"/>
-      <c r="R31" s="305"/>
-      <c r="S31" s="306"/>
-      <c r="T31" s="306"/>
-      <c r="U31" s="307"/>
+      <c r="R31" s="304"/>
+      <c r="S31" s="305"/>
+      <c r="T31" s="305"/>
+      <c r="U31" s="306"/>
     </row>
     <row r="32" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B32" s="218"/>
+      <c r="B32" s="229" t="s">
+        <v>427</v>
+      </c>
       <c r="C32" s="218"/>
       <c r="D32" s="218"/>
       <c r="E32" s="231"/>
@@ -16140,14 +16206,16 @@
       <c r="N32" s="231"/>
       <c r="O32" s="216"/>
       <c r="P32" s="217"/>
-      <c r="R32" s="305"/>
-      <c r="S32" s="306"/>
-      <c r="T32" s="306"/>
-      <c r="U32" s="307"/>
+      <c r="R32" s="304"/>
+      <c r="S32" s="305"/>
+      <c r="T32" s="305"/>
+      <c r="U32" s="306"/>
     </row>
     <row r="33" spans="2:21" ht="20.25" customHeight="1">
       <c r="B33" s="218"/>
-      <c r="C33" s="218"/>
+      <c r="C33" s="229" t="s">
+        <v>638</v>
+      </c>
       <c r="D33" s="218"/>
       <c r="E33" s="231"/>
       <c r="F33" s="232"/>
@@ -16161,10 +16229,10 @@
       <c r="N33" s="231"/>
       <c r="O33" s="216"/>
       <c r="P33" s="217"/>
-      <c r="R33" s="305"/>
-      <c r="S33" s="306"/>
-      <c r="T33" s="306"/>
-      <c r="U33" s="307"/>
+      <c r="R33" s="304"/>
+      <c r="S33" s="305"/>
+      <c r="T33" s="305"/>
+      <c r="U33" s="306"/>
     </row>
     <row r="34" spans="2:21" ht="20.25" customHeight="1">
       <c r="B34" s="218"/>
@@ -16182,10 +16250,10 @@
       <c r="N34" s="231"/>
       <c r="O34" s="216"/>
       <c r="P34" s="217"/>
-      <c r="R34" s="305"/>
-      <c r="S34" s="306"/>
-      <c r="T34" s="306"/>
-      <c r="U34" s="307"/>
+      <c r="R34" s="304"/>
+      <c r="S34" s="305"/>
+      <c r="T34" s="305"/>
+      <c r="U34" s="306"/>
     </row>
     <row r="35" spans="2:21" ht="20.25" customHeight="1">
       <c r="B35" s="218"/>
@@ -16203,10 +16271,10 @@
       <c r="N35" s="231"/>
       <c r="O35" s="216"/>
       <c r="P35" s="217"/>
-      <c r="R35" s="305"/>
-      <c r="S35" s="306"/>
-      <c r="T35" s="306"/>
-      <c r="U35" s="307"/>
+      <c r="R35" s="304"/>
+      <c r="S35" s="305"/>
+      <c r="T35" s="305"/>
+      <c r="U35" s="306"/>
     </row>
     <row r="36" spans="2:21" ht="20.25" customHeight="1">
       <c r="B36" s="218"/>
@@ -16224,10 +16292,10 @@
       <c r="N36" s="231"/>
       <c r="O36" s="216"/>
       <c r="P36" s="217"/>
-      <c r="R36" s="305"/>
-      <c r="S36" s="306"/>
-      <c r="T36" s="306"/>
-      <c r="U36" s="307"/>
+      <c r="R36" s="304"/>
+      <c r="S36" s="305"/>
+      <c r="T36" s="305"/>
+      <c r="U36" s="306"/>
     </row>
     <row r="37" spans="2:21" ht="20.25" customHeight="1">
       <c r="B37" s="218"/>
@@ -16245,10 +16313,10 @@
       <c r="N37" s="231"/>
       <c r="O37" s="216"/>
       <c r="P37" s="217"/>
-      <c r="R37" s="305"/>
-      <c r="S37" s="306"/>
-      <c r="T37" s="306"/>
-      <c r="U37" s="307"/>
+      <c r="R37" s="304"/>
+      <c r="S37" s="305"/>
+      <c r="T37" s="305"/>
+      <c r="U37" s="306"/>
     </row>
     <row r="38" spans="2:21" ht="20.25" customHeight="1">
       <c r="B38" s="218"/>
@@ -16266,10 +16334,10 @@
       <c r="N38" s="231"/>
       <c r="O38" s="216"/>
       <c r="P38" s="217"/>
-      <c r="R38" s="305"/>
-      <c r="S38" s="306"/>
-      <c r="T38" s="306"/>
-      <c r="U38" s="307"/>
+      <c r="R38" s="304"/>
+      <c r="S38" s="305"/>
+      <c r="T38" s="305"/>
+      <c r="U38" s="306"/>
     </row>
     <row r="39" spans="2:21" ht="20.25" customHeight="1">
       <c r="B39" s="218"/>
@@ -16287,10 +16355,10 @@
       <c r="N39" s="231"/>
       <c r="O39" s="216"/>
       <c r="P39" s="217"/>
-      <c r="R39" s="305"/>
-      <c r="S39" s="306"/>
-      <c r="T39" s="306"/>
-      <c r="U39" s="307"/>
+      <c r="R39" s="304"/>
+      <c r="S39" s="305"/>
+      <c r="T39" s="305"/>
+      <c r="U39" s="306"/>
     </row>
     <row r="40" spans="2:21" ht="20.25" customHeight="1">
       <c r="B40" s="218"/>
@@ -16308,10 +16376,10 @@
       <c r="N40" s="231"/>
       <c r="O40" s="216"/>
       <c r="P40" s="217"/>
-      <c r="R40" s="305"/>
-      <c r="S40" s="306"/>
-      <c r="T40" s="306"/>
-      <c r="U40" s="307"/>
+      <c r="R40" s="304"/>
+      <c r="S40" s="305"/>
+      <c r="T40" s="305"/>
+      <c r="U40" s="306"/>
     </row>
     <row r="41" spans="2:21" ht="20.25" customHeight="1">
       <c r="B41" s="218"/>
@@ -16329,10 +16397,10 @@
       <c r="N41" s="231"/>
       <c r="O41" s="216"/>
       <c r="P41" s="217"/>
-      <c r="R41" s="305"/>
-      <c r="S41" s="306"/>
-      <c r="T41" s="306"/>
-      <c r="U41" s="307"/>
+      <c r="R41" s="304"/>
+      <c r="S41" s="305"/>
+      <c r="T41" s="305"/>
+      <c r="U41" s="306"/>
     </row>
     <row r="42" spans="2:21" ht="20.25" customHeight="1">
       <c r="B42" s="218"/>
@@ -16350,10 +16418,10 @@
       <c r="N42" s="231"/>
       <c r="O42" s="216"/>
       <c r="P42" s="217"/>
-      <c r="R42" s="305"/>
-      <c r="S42" s="306"/>
-      <c r="T42" s="306"/>
-      <c r="U42" s="307"/>
+      <c r="R42" s="304"/>
+      <c r="S42" s="305"/>
+      <c r="T42" s="305"/>
+      <c r="U42" s="306"/>
     </row>
     <row r="43" spans="2:21" ht="20.25" customHeight="1">
       <c r="B43" s="218"/>
@@ -16371,10 +16439,10 @@
       <c r="N43" s="231"/>
       <c r="O43" s="216"/>
       <c r="P43" s="217"/>
-      <c r="R43" s="305"/>
-      <c r="S43" s="306"/>
-      <c r="T43" s="306"/>
-      <c r="U43" s="307"/>
+      <c r="R43" s="304"/>
+      <c r="S43" s="305"/>
+      <c r="T43" s="305"/>
+      <c r="U43" s="306"/>
     </row>
     <row r="44" spans="2:21" ht="20.25" customHeight="1">
       <c r="B44" s="218"/>
@@ -16392,10 +16460,10 @@
       <c r="N44" s="231"/>
       <c r="O44" s="216"/>
       <c r="P44" s="217"/>
-      <c r="R44" s="305"/>
-      <c r="S44" s="306"/>
-      <c r="T44" s="306"/>
-      <c r="U44" s="307"/>
+      <c r="R44" s="304"/>
+      <c r="S44" s="305"/>
+      <c r="T44" s="305"/>
+      <c r="U44" s="306"/>
     </row>
     <row r="45" spans="2:21" ht="20.25" customHeight="1">
       <c r="B45" s="218"/>
@@ -16413,10 +16481,10 @@
       <c r="N45" s="231"/>
       <c r="O45" s="216"/>
       <c r="P45" s="217"/>
-      <c r="R45" s="305"/>
-      <c r="S45" s="306"/>
-      <c r="T45" s="306"/>
-      <c r="U45" s="307"/>
+      <c r="R45" s="304"/>
+      <c r="S45" s="305"/>
+      <c r="T45" s="305"/>
+      <c r="U45" s="306"/>
     </row>
     <row r="46" spans="2:21" ht="20.25" customHeight="1">
       <c r="B46" s="218"/>
@@ -16434,10 +16502,10 @@
       <c r="N46" s="231"/>
       <c r="O46" s="216"/>
       <c r="P46" s="217"/>
-      <c r="R46" s="305"/>
-      <c r="S46" s="306"/>
-      <c r="T46" s="306"/>
-      <c r="U46" s="307"/>
+      <c r="R46" s="304"/>
+      <c r="S46" s="305"/>
+      <c r="T46" s="305"/>
+      <c r="U46" s="306"/>
     </row>
     <row r="47" spans="2:21" ht="20.25" customHeight="1">
       <c r="B47" s="218"/>
@@ -16455,10 +16523,10 @@
       <c r="N47" s="231"/>
       <c r="O47" s="216"/>
       <c r="P47" s="217"/>
-      <c r="R47" s="305"/>
-      <c r="S47" s="306"/>
-      <c r="T47" s="306"/>
-      <c r="U47" s="307"/>
+      <c r="R47" s="304"/>
+      <c r="S47" s="305"/>
+      <c r="T47" s="305"/>
+      <c r="U47" s="306"/>
     </row>
     <row r="48" spans="2:21" ht="20.25" customHeight="1">
       <c r="B48" s="218"/>
@@ -16476,10 +16544,10 @@
       <c r="N48" s="231"/>
       <c r="O48" s="216"/>
       <c r="P48" s="217"/>
-      <c r="R48" s="305"/>
-      <c r="S48" s="306"/>
-      <c r="T48" s="306"/>
-      <c r="U48" s="307"/>
+      <c r="R48" s="304"/>
+      <c r="S48" s="305"/>
+      <c r="T48" s="305"/>
+      <c r="U48" s="306"/>
     </row>
     <row r="49" spans="2:21" ht="20.25" customHeight="1">
       <c r="B49" s="218"/>
@@ -16497,10 +16565,10 @@
       <c r="N49" s="231"/>
       <c r="O49" s="216"/>
       <c r="P49" s="217"/>
-      <c r="R49" s="305"/>
-      <c r="S49" s="306"/>
-      <c r="T49" s="306"/>
-      <c r="U49" s="307"/>
+      <c r="R49" s="304"/>
+      <c r="S49" s="305"/>
+      <c r="T49" s="305"/>
+      <c r="U49" s="306"/>
     </row>
     <row r="50" spans="2:21" ht="20.25" customHeight="1">
       <c r="B50" s="218"/>
@@ -16518,10 +16586,10 @@
       <c r="N50" s="231"/>
       <c r="O50" s="216"/>
       <c r="P50" s="217"/>
-      <c r="R50" s="305"/>
-      <c r="S50" s="306"/>
-      <c r="T50" s="306"/>
-      <c r="U50" s="307"/>
+      <c r="R50" s="304"/>
+      <c r="S50" s="305"/>
+      <c r="T50" s="305"/>
+      <c r="U50" s="306"/>
     </row>
     <row r="51" spans="2:21" ht="20.25" customHeight="1">
       <c r="B51" s="218"/>
@@ -16539,10 +16607,10 @@
       <c r="N51" s="231"/>
       <c r="O51" s="216"/>
       <c r="P51" s="217"/>
-      <c r="R51" s="305"/>
-      <c r="S51" s="306"/>
-      <c r="T51" s="306"/>
-      <c r="U51" s="307"/>
+      <c r="R51" s="304"/>
+      <c r="S51" s="305"/>
+      <c r="T51" s="305"/>
+      <c r="U51" s="306"/>
     </row>
     <row r="52" spans="2:21" ht="20.25" customHeight="1">
       <c r="B52" s="218"/>
@@ -16560,10 +16628,10 @@
       <c r="N52" s="231"/>
       <c r="O52" s="216"/>
       <c r="P52" s="217"/>
-      <c r="R52" s="305"/>
-      <c r="S52" s="306"/>
-      <c r="T52" s="306"/>
-      <c r="U52" s="307"/>
+      <c r="R52" s="304"/>
+      <c r="S52" s="305"/>
+      <c r="T52" s="305"/>
+      <c r="U52" s="306"/>
     </row>
     <row r="53" spans="2:21" ht="20.25" customHeight="1">
       <c r="B53" s="218"/>
@@ -16581,10 +16649,10 @@
       <c r="N53" s="231"/>
       <c r="O53" s="216"/>
       <c r="P53" s="217"/>
-      <c r="R53" s="305"/>
-      <c r="S53" s="306"/>
-      <c r="T53" s="306"/>
-      <c r="U53" s="307"/>
+      <c r="R53" s="304"/>
+      <c r="S53" s="305"/>
+      <c r="T53" s="305"/>
+      <c r="U53" s="306"/>
     </row>
     <row r="54" spans="2:21" ht="20.25" customHeight="1">
       <c r="B54" s="218"/>
@@ -16602,10 +16670,10 @@
       <c r="N54" s="231"/>
       <c r="O54" s="216"/>
       <c r="P54" s="217"/>
-      <c r="R54" s="305"/>
-      <c r="S54" s="306"/>
-      <c r="T54" s="306"/>
-      <c r="U54" s="307"/>
+      <c r="R54" s="304"/>
+      <c r="S54" s="305"/>
+      <c r="T54" s="305"/>
+      <c r="U54" s="306"/>
     </row>
     <row r="55" spans="2:21" ht="20.25" customHeight="1">
       <c r="B55" s="218"/>
@@ -16623,10 +16691,10 @@
       <c r="N55" s="231"/>
       <c r="O55" s="216"/>
       <c r="P55" s="217"/>
-      <c r="R55" s="305"/>
-      <c r="S55" s="306"/>
-      <c r="T55" s="306"/>
-      <c r="U55" s="307"/>
+      <c r="R55" s="304"/>
+      <c r="S55" s="305"/>
+      <c r="T55" s="305"/>
+      <c r="U55" s="306"/>
     </row>
     <row r="56" spans="2:21" ht="20.25" customHeight="1">
       <c r="B56" s="218"/>
@@ -16644,10 +16712,10 @@
       <c r="N56" s="231"/>
       <c r="O56" s="216"/>
       <c r="P56" s="217"/>
-      <c r="R56" s="305"/>
-      <c r="S56" s="306"/>
-      <c r="T56" s="306"/>
-      <c r="U56" s="307"/>
+      <c r="R56" s="304"/>
+      <c r="S56" s="305"/>
+      <c r="T56" s="305"/>
+      <c r="U56" s="306"/>
     </row>
     <row r="57" spans="2:21" ht="20.25" customHeight="1">
       <c r="B57" s="218"/>
@@ -16665,10 +16733,10 @@
       <c r="N57" s="231"/>
       <c r="O57" s="216"/>
       <c r="P57" s="217"/>
-      <c r="R57" s="305"/>
-      <c r="S57" s="306"/>
-      <c r="T57" s="306"/>
-      <c r="U57" s="307"/>
+      <c r="R57" s="304"/>
+      <c r="S57" s="305"/>
+      <c r="T57" s="305"/>
+      <c r="U57" s="306"/>
     </row>
     <row r="58" spans="2:21" ht="20.25" customHeight="1">
       <c r="B58" s="218"/>
@@ -16686,10 +16754,10 @@
       <c r="N58" s="231"/>
       <c r="O58" s="216"/>
       <c r="P58" s="217"/>
-      <c r="R58" s="305"/>
-      <c r="S58" s="306"/>
-      <c r="T58" s="306"/>
-      <c r="U58" s="307"/>
+      <c r="R58" s="304"/>
+      <c r="S58" s="305"/>
+      <c r="T58" s="305"/>
+      <c r="U58" s="306"/>
     </row>
     <row r="59" spans="2:21" ht="20.25" customHeight="1">
       <c r="B59" s="218"/>
@@ -16707,10 +16775,10 @@
       <c r="N59" s="231"/>
       <c r="O59" s="216"/>
       <c r="P59" s="217"/>
-      <c r="R59" s="305"/>
-      <c r="S59" s="306"/>
-      <c r="T59" s="306"/>
-      <c r="U59" s="307"/>
+      <c r="R59" s="304"/>
+      <c r="S59" s="305"/>
+      <c r="T59" s="305"/>
+      <c r="U59" s="306"/>
     </row>
     <row r="60" spans="2:21" ht="20.25" customHeight="1">
       <c r="B60" s="218"/>
@@ -16728,10 +16796,10 @@
       <c r="N60" s="231"/>
       <c r="O60" s="216"/>
       <c r="P60" s="217"/>
-      <c r="R60" s="305"/>
-      <c r="S60" s="306"/>
-      <c r="T60" s="306"/>
-      <c r="U60" s="307"/>
+      <c r="R60" s="304"/>
+      <c r="S60" s="305"/>
+      <c r="T60" s="305"/>
+      <c r="U60" s="306"/>
     </row>
     <row r="61" spans="2:21" ht="20.25" customHeight="1">
       <c r="B61" s="218"/>
@@ -16749,10 +16817,10 @@
       <c r="N61" s="231"/>
       <c r="O61" s="216"/>
       <c r="P61" s="217"/>
-      <c r="R61" s="305"/>
-      <c r="S61" s="306"/>
-      <c r="T61" s="306"/>
-      <c r="U61" s="307"/>
+      <c r="R61" s="304"/>
+      <c r="S61" s="305"/>
+      <c r="T61" s="305"/>
+      <c r="U61" s="306"/>
     </row>
     <row r="62" spans="2:21" ht="20.25" customHeight="1">
       <c r="B62" s="218"/>
@@ -16770,10 +16838,10 @@
       <c r="N62" s="231"/>
       <c r="O62" s="216"/>
       <c r="P62" s="217"/>
-      <c r="R62" s="305"/>
-      <c r="S62" s="306"/>
-      <c r="T62" s="306"/>
-      <c r="U62" s="307"/>
+      <c r="R62" s="304"/>
+      <c r="S62" s="305"/>
+      <c r="T62" s="305"/>
+      <c r="U62" s="306"/>
     </row>
     <row r="63" spans="2:21" ht="20.25" customHeight="1">
       <c r="B63" s="218"/>
@@ -16791,10 +16859,10 @@
       <c r="N63" s="231"/>
       <c r="O63" s="216"/>
       <c r="P63" s="217"/>
-      <c r="R63" s="305"/>
-      <c r="S63" s="306"/>
-      <c r="T63" s="306"/>
-      <c r="U63" s="307"/>
+      <c r="R63" s="304"/>
+      <c r="S63" s="305"/>
+      <c r="T63" s="305"/>
+      <c r="U63" s="306"/>
     </row>
     <row r="64" spans="2:21" ht="20.25" customHeight="1">
       <c r="B64" s="218"/>
@@ -16812,10 +16880,10 @@
       <c r="N64" s="231"/>
       <c r="O64" s="216"/>
       <c r="P64" s="217"/>
-      <c r="R64" s="305"/>
-      <c r="S64" s="306"/>
-      <c r="T64" s="306"/>
-      <c r="U64" s="307"/>
+      <c r="R64" s="304"/>
+      <c r="S64" s="305"/>
+      <c r="T64" s="305"/>
+      <c r="U64" s="306"/>
     </row>
     <row r="65" spans="2:21" ht="20.25" customHeight="1">
       <c r="B65" s="218"/>
@@ -16833,10 +16901,10 @@
       <c r="N65" s="231"/>
       <c r="O65" s="216"/>
       <c r="P65" s="217"/>
-      <c r="R65" s="305"/>
-      <c r="S65" s="306"/>
-      <c r="T65" s="306"/>
-      <c r="U65" s="307"/>
+      <c r="R65" s="304"/>
+      <c r="S65" s="305"/>
+      <c r="T65" s="305"/>
+      <c r="U65" s="306"/>
     </row>
     <row r="66" spans="2:21" ht="20.25" customHeight="1">
       <c r="B66" s="218"/>
@@ -16854,10 +16922,10 @@
       <c r="N66" s="231"/>
       <c r="O66" s="216"/>
       <c r="P66" s="217"/>
-      <c r="R66" s="305"/>
-      <c r="S66" s="306"/>
-      <c r="T66" s="306"/>
-      <c r="U66" s="307"/>
+      <c r="R66" s="304"/>
+      <c r="S66" s="305"/>
+      <c r="T66" s="305"/>
+      <c r="U66" s="306"/>
     </row>
     <row r="67" spans="2:21" ht="20.25" customHeight="1">
       <c r="B67" s="218"/>
@@ -16875,10 +16943,10 @@
       <c r="N67" s="231"/>
       <c r="O67" s="216"/>
       <c r="P67" s="217"/>
-      <c r="R67" s="305"/>
-      <c r="S67" s="306"/>
-      <c r="T67" s="306"/>
-      <c r="U67" s="307"/>
+      <c r="R67" s="304"/>
+      <c r="S67" s="305"/>
+      <c r="T67" s="305"/>
+      <c r="U67" s="306"/>
     </row>
     <row r="68" spans="2:21" ht="20.25" customHeight="1">
       <c r="B68" s="218"/>
@@ -16896,10 +16964,10 @@
       <c r="N68" s="231"/>
       <c r="O68" s="216"/>
       <c r="P68" s="217"/>
-      <c r="R68" s="305"/>
-      <c r="S68" s="306"/>
-      <c r="T68" s="306"/>
-      <c r="U68" s="307"/>
+      <c r="R68" s="304"/>
+      <c r="S68" s="305"/>
+      <c r="T68" s="305"/>
+      <c r="U68" s="306"/>
     </row>
     <row r="69" spans="2:21" ht="20.25" customHeight="1">
       <c r="B69" s="218"/>
@@ -16917,10 +16985,10 @@
       <c r="N69" s="231"/>
       <c r="O69" s="216"/>
       <c r="P69" s="217"/>
-      <c r="R69" s="305"/>
-      <c r="S69" s="306"/>
-      <c r="T69" s="306"/>
-      <c r="U69" s="307"/>
+      <c r="R69" s="304"/>
+      <c r="S69" s="305"/>
+      <c r="T69" s="305"/>
+      <c r="U69" s="306"/>
     </row>
     <row r="70" spans="2:21" ht="20.25" customHeight="1">
       <c r="B70" s="218"/>
@@ -16938,10 +17006,10 @@
       <c r="N70" s="231"/>
       <c r="O70" s="216"/>
       <c r="P70" s="217"/>
-      <c r="R70" s="305"/>
-      <c r="S70" s="306"/>
-      <c r="T70" s="306"/>
-      <c r="U70" s="307"/>
+      <c r="R70" s="304"/>
+      <c r="S70" s="305"/>
+      <c r="T70" s="305"/>
+      <c r="U70" s="306"/>
     </row>
     <row r="71" spans="2:21" ht="20.25" customHeight="1">
       <c r="B71" s="218"/>
@@ -16959,10 +17027,10 @@
       <c r="N71" s="231"/>
       <c r="O71" s="216"/>
       <c r="P71" s="217"/>
-      <c r="R71" s="305"/>
-      <c r="S71" s="306"/>
-      <c r="T71" s="306"/>
-      <c r="U71" s="307"/>
+      <c r="R71" s="304"/>
+      <c r="S71" s="305"/>
+      <c r="T71" s="305"/>
+      <c r="U71" s="306"/>
     </row>
     <row r="72" spans="2:21" ht="20.25" customHeight="1">
       <c r="B72" s="218"/>
@@ -16980,10 +17048,10 @@
       <c r="N72" s="231"/>
       <c r="O72" s="216"/>
       <c r="P72" s="217"/>
-      <c r="R72" s="305"/>
-      <c r="S72" s="306"/>
-      <c r="T72" s="306"/>
-      <c r="U72" s="307"/>
+      <c r="R72" s="304"/>
+      <c r="S72" s="305"/>
+      <c r="T72" s="305"/>
+      <c r="U72" s="306"/>
     </row>
     <row r="73" spans="2:21" ht="20.25" customHeight="1">
       <c r="B73" s="218"/>
@@ -17001,10 +17069,10 @@
       <c r="N73" s="231"/>
       <c r="O73" s="216"/>
       <c r="P73" s="217"/>
-      <c r="R73" s="305"/>
-      <c r="S73" s="306"/>
-      <c r="T73" s="306"/>
-      <c r="U73" s="307"/>
+      <c r="R73" s="304"/>
+      <c r="S73" s="305"/>
+      <c r="T73" s="305"/>
+      <c r="U73" s="306"/>
     </row>
     <row r="74" spans="2:21" ht="20.25" customHeight="1">
       <c r="B74" s="218"/>
@@ -17022,10 +17090,10 @@
       <c r="N74" s="231"/>
       <c r="O74" s="216"/>
       <c r="P74" s="217"/>
-      <c r="R74" s="305"/>
-      <c r="S74" s="306"/>
-      <c r="T74" s="306"/>
-      <c r="U74" s="307"/>
+      <c r="R74" s="304"/>
+      <c r="S74" s="305"/>
+      <c r="T74" s="305"/>
+      <c r="U74" s="306"/>
     </row>
     <row r="75" spans="2:21" ht="20.25" customHeight="1">
       <c r="B75" s="218"/>
@@ -17043,10 +17111,10 @@
       <c r="N75" s="231"/>
       <c r="O75" s="216"/>
       <c r="P75" s="217"/>
-      <c r="R75" s="305"/>
-      <c r="S75" s="306"/>
-      <c r="T75" s="306"/>
-      <c r="U75" s="307"/>
+      <c r="R75" s="304"/>
+      <c r="S75" s="305"/>
+      <c r="T75" s="305"/>
+      <c r="U75" s="306"/>
     </row>
     <row r="76" spans="2:21" ht="20.25" customHeight="1">
       <c r="B76" s="218"/>
@@ -17064,10 +17132,10 @@
       <c r="N76" s="231"/>
       <c r="O76" s="216"/>
       <c r="P76" s="217"/>
-      <c r="R76" s="305"/>
-      <c r="S76" s="306"/>
-      <c r="T76" s="306"/>
-      <c r="U76" s="307"/>
+      <c r="R76" s="304"/>
+      <c r="S76" s="305"/>
+      <c r="T76" s="305"/>
+      <c r="U76" s="306"/>
     </row>
     <row r="77" spans="2:21" ht="20.25" customHeight="1">
       <c r="B77" s="218"/>
@@ -17085,10 +17153,10 @@
       <c r="N77" s="231"/>
       <c r="O77" s="216"/>
       <c r="P77" s="217"/>
-      <c r="R77" s="305"/>
-      <c r="S77" s="306"/>
-      <c r="T77" s="306"/>
-      <c r="U77" s="307"/>
+      <c r="R77" s="304"/>
+      <c r="S77" s="305"/>
+      <c r="T77" s="305"/>
+      <c r="U77" s="306"/>
     </row>
     <row r="78" spans="2:21" ht="20.25" customHeight="1">
       <c r="B78" s="218"/>
@@ -17106,10 +17174,10 @@
       <c r="N78" s="231"/>
       <c r="O78" s="216"/>
       <c r="P78" s="217"/>
-      <c r="R78" s="305"/>
-      <c r="S78" s="306"/>
-      <c r="T78" s="306"/>
-      <c r="U78" s="307"/>
+      <c r="R78" s="304"/>
+      <c r="S78" s="305"/>
+      <c r="T78" s="305"/>
+      <c r="U78" s="306"/>
     </row>
     <row r="79" spans="2:21" ht="20.25" customHeight="1">
       <c r="B79" s="218"/>
@@ -17127,10 +17195,10 @@
       <c r="N79" s="231"/>
       <c r="O79" s="216"/>
       <c r="P79" s="217"/>
-      <c r="R79" s="305"/>
-      <c r="S79" s="306"/>
-      <c r="T79" s="306"/>
-      <c r="U79" s="307"/>
+      <c r="R79" s="304"/>
+      <c r="S79" s="305"/>
+      <c r="T79" s="305"/>
+      <c r="U79" s="306"/>
     </row>
     <row r="80" spans="2:21" ht="20.25" customHeight="1">
       <c r="B80" s="218"/>
@@ -17148,10 +17216,10 @@
       <c r="N80" s="231"/>
       <c r="O80" s="216"/>
       <c r="P80" s="217"/>
-      <c r="R80" s="305"/>
-      <c r="S80" s="306"/>
-      <c r="T80" s="306"/>
-      <c r="U80" s="307"/>
+      <c r="R80" s="304"/>
+      <c r="S80" s="305"/>
+      <c r="T80" s="305"/>
+      <c r="U80" s="306"/>
     </row>
     <row r="81" spans="2:21" ht="20.25" customHeight="1">
       <c r="B81" s="218"/>
@@ -17169,10 +17237,10 @@
       <c r="N81" s="231"/>
       <c r="O81" s="216"/>
       <c r="P81" s="217"/>
-      <c r="R81" s="305"/>
-      <c r="S81" s="306"/>
-      <c r="T81" s="306"/>
-      <c r="U81" s="307"/>
+      <c r="R81" s="304"/>
+      <c r="S81" s="305"/>
+      <c r="T81" s="305"/>
+      <c r="U81" s="306"/>
     </row>
     <row r="82" spans="2:21" ht="20.25" customHeight="1">
       <c r="B82" s="218"/>
@@ -17190,10 +17258,10 @@
       <c r="N82" s="231"/>
       <c r="O82" s="216"/>
       <c r="P82" s="217"/>
-      <c r="R82" s="305"/>
-      <c r="S82" s="306"/>
-      <c r="T82" s="306"/>
-      <c r="U82" s="307"/>
+      <c r="R82" s="304"/>
+      <c r="S82" s="305"/>
+      <c r="T82" s="305"/>
+      <c r="U82" s="306"/>
     </row>
     <row r="83" spans="2:21" ht="20.25" customHeight="1">
       <c r="B83" s="218"/>
@@ -17211,10 +17279,10 @@
       <c r="N83" s="231"/>
       <c r="O83" s="216"/>
       <c r="P83" s="217"/>
-      <c r="R83" s="305"/>
-      <c r="S83" s="306"/>
-      <c r="T83" s="306"/>
-      <c r="U83" s="307"/>
+      <c r="R83" s="304"/>
+      <c r="S83" s="305"/>
+      <c r="T83" s="305"/>
+      <c r="U83" s="306"/>
     </row>
     <row r="84" spans="2:21" ht="20.25" customHeight="1">
       <c r="B84" s="218"/>
@@ -17232,10 +17300,10 @@
       <c r="N84" s="231"/>
       <c r="O84" s="216"/>
       <c r="P84" s="217"/>
-      <c r="R84" s="305"/>
-      <c r="S84" s="306"/>
-      <c r="T84" s="306"/>
-      <c r="U84" s="307"/>
+      <c r="R84" s="304"/>
+      <c r="S84" s="305"/>
+      <c r="T84" s="305"/>
+      <c r="U84" s="306"/>
     </row>
     <row r="85" spans="2:21" ht="20.25" customHeight="1">
       <c r="B85" s="218"/>
@@ -17253,10 +17321,10 @@
       <c r="N85" s="231"/>
       <c r="O85" s="216"/>
       <c r="P85" s="217"/>
-      <c r="R85" s="305"/>
-      <c r="S85" s="306"/>
-      <c r="T85" s="306"/>
-      <c r="U85" s="307"/>
+      <c r="R85" s="304"/>
+      <c r="S85" s="305"/>
+      <c r="T85" s="305"/>
+      <c r="U85" s="306"/>
     </row>
     <row r="86" spans="2:21" ht="20.25" customHeight="1">
       <c r="B86" s="218"/>
@@ -17274,10 +17342,10 @@
       <c r="N86" s="231"/>
       <c r="O86" s="216"/>
       <c r="P86" s="217"/>
-      <c r="R86" s="305"/>
-      <c r="S86" s="306"/>
-      <c r="T86" s="306"/>
-      <c r="U86" s="307"/>
+      <c r="R86" s="304"/>
+      <c r="S86" s="305"/>
+      <c r="T86" s="305"/>
+      <c r="U86" s="306"/>
     </row>
     <row r="87" spans="2:21" ht="20.25" customHeight="1">
       <c r="B87" s="218"/>
@@ -17295,10 +17363,10 @@
       <c r="N87" s="231"/>
       <c r="O87" s="216"/>
       <c r="P87" s="217"/>
-      <c r="R87" s="305"/>
-      <c r="S87" s="306"/>
-      <c r="T87" s="306"/>
-      <c r="U87" s="307"/>
+      <c r="R87" s="304"/>
+      <c r="S87" s="305"/>
+      <c r="T87" s="305"/>
+      <c r="U87" s="306"/>
     </row>
     <row r="88" spans="2:21" ht="20.25" customHeight="1">
       <c r="B88" s="218"/>
@@ -17316,10 +17384,10 @@
       <c r="N88" s="231"/>
       <c r="O88" s="216"/>
       <c r="P88" s="217"/>
-      <c r="R88" s="305"/>
-      <c r="S88" s="306"/>
-      <c r="T88" s="306"/>
-      <c r="U88" s="307"/>
+      <c r="R88" s="304"/>
+      <c r="S88" s="305"/>
+      <c r="T88" s="305"/>
+      <c r="U88" s="306"/>
     </row>
     <row r="89" spans="2:21" ht="20.25" customHeight="1">
       <c r="B89" s="218"/>
@@ -17337,10 +17405,10 @@
       <c r="N89" s="231"/>
       <c r="O89" s="216"/>
       <c r="P89" s="217"/>
-      <c r="R89" s="305"/>
-      <c r="S89" s="306"/>
-      <c r="T89" s="306"/>
-      <c r="U89" s="307"/>
+      <c r="R89" s="304"/>
+      <c r="S89" s="305"/>
+      <c r="T89" s="305"/>
+      <c r="U89" s="306"/>
     </row>
     <row r="90" spans="2:21" ht="20.25" customHeight="1">
       <c r="B90" s="218"/>
@@ -17358,10 +17426,10 @@
       <c r="N90" s="231"/>
       <c r="O90" s="216"/>
       <c r="P90" s="217"/>
-      <c r="R90" s="305"/>
-      <c r="S90" s="306"/>
-      <c r="T90" s="306"/>
-      <c r="U90" s="307"/>
+      <c r="R90" s="304"/>
+      <c r="S90" s="305"/>
+      <c r="T90" s="305"/>
+      <c r="U90" s="306"/>
     </row>
     <row r="91" spans="2:21" ht="20.25" customHeight="1">
       <c r="B91" s="218"/>
@@ -17379,10 +17447,10 @@
       <c r="N91" s="231"/>
       <c r="O91" s="216"/>
       <c r="P91" s="217"/>
-      <c r="R91" s="305"/>
-      <c r="S91" s="306"/>
-      <c r="T91" s="306"/>
-      <c r="U91" s="307"/>
+      <c r="R91" s="304"/>
+      <c r="S91" s="305"/>
+      <c r="T91" s="305"/>
+      <c r="U91" s="306"/>
     </row>
     <row r="92" spans="2:21" ht="20.25" customHeight="1">
       <c r="B92" s="218"/>
@@ -17400,10 +17468,10 @@
       <c r="N92" s="231"/>
       <c r="O92" s="216"/>
       <c r="P92" s="217"/>
-      <c r="R92" s="305"/>
-      <c r="S92" s="306"/>
-      <c r="T92" s="306"/>
-      <c r="U92" s="307"/>
+      <c r="R92" s="304"/>
+      <c r="S92" s="305"/>
+      <c r="T92" s="305"/>
+      <c r="U92" s="306"/>
     </row>
     <row r="93" spans="2:21" ht="20.25" customHeight="1">
       <c r="B93" s="218"/>
@@ -17421,10 +17489,10 @@
       <c r="N93" s="231"/>
       <c r="O93" s="216"/>
       <c r="P93" s="217"/>
-      <c r="R93" s="305"/>
-      <c r="S93" s="306"/>
-      <c r="T93" s="306"/>
-      <c r="U93" s="307"/>
+      <c r="R93" s="304"/>
+      <c r="S93" s="305"/>
+      <c r="T93" s="305"/>
+      <c r="U93" s="306"/>
     </row>
     <row r="94" spans="2:21" ht="20.25" customHeight="1">
       <c r="B94" s="218"/>
@@ -17442,10 +17510,10 @@
       <c r="N94" s="231"/>
       <c r="O94" s="216"/>
       <c r="P94" s="217"/>
-      <c r="R94" s="305"/>
-      <c r="S94" s="306"/>
-      <c r="T94" s="306"/>
-      <c r="U94" s="307"/>
+      <c r="R94" s="304"/>
+      <c r="S94" s="305"/>
+      <c r="T94" s="305"/>
+      <c r="U94" s="306"/>
     </row>
     <row r="95" spans="2:21" ht="20.25" customHeight="1">
       <c r="B95" s="218"/>
@@ -17463,10 +17531,10 @@
       <c r="N95" s="231"/>
       <c r="O95" s="216"/>
       <c r="P95" s="217"/>
-      <c r="R95" s="305"/>
-      <c r="S95" s="306"/>
-      <c r="T95" s="306"/>
-      <c r="U95" s="307"/>
+      <c r="R95" s="304"/>
+      <c r="S95" s="305"/>
+      <c r="T95" s="305"/>
+      <c r="U95" s="306"/>
     </row>
     <row r="96" spans="2:21" ht="20.25" customHeight="1">
       <c r="B96" s="218"/>
@@ -17484,10 +17552,10 @@
       <c r="N96" s="231"/>
       <c r="O96" s="216"/>
       <c r="P96" s="217"/>
-      <c r="R96" s="305"/>
-      <c r="S96" s="306"/>
-      <c r="T96" s="306"/>
-      <c r="U96" s="307"/>
+      <c r="R96" s="304"/>
+      <c r="S96" s="305"/>
+      <c r="T96" s="305"/>
+      <c r="U96" s="306"/>
     </row>
     <row r="97" spans="2:21" ht="20.25" customHeight="1">
       <c r="B97" s="218"/>
@@ -17505,10 +17573,10 @@
       <c r="N97" s="231"/>
       <c r="O97" s="216"/>
       <c r="P97" s="217"/>
-      <c r="R97" s="305"/>
-      <c r="S97" s="306"/>
-      <c r="T97" s="306"/>
-      <c r="U97" s="307"/>
+      <c r="R97" s="304"/>
+      <c r="S97" s="305"/>
+      <c r="T97" s="305"/>
+      <c r="U97" s="306"/>
     </row>
     <row r="98" spans="2:21" ht="20.25" customHeight="1">
       <c r="B98" s="218"/>
@@ -17526,10 +17594,10 @@
       <c r="N98" s="231"/>
       <c r="O98" s="216"/>
       <c r="P98" s="217"/>
-      <c r="R98" s="305"/>
-      <c r="S98" s="306"/>
-      <c r="T98" s="306"/>
-      <c r="U98" s="307"/>
+      <c r="R98" s="304"/>
+      <c r="S98" s="305"/>
+      <c r="T98" s="305"/>
+      <c r="U98" s="306"/>
     </row>
     <row r="99" spans="2:21" ht="20.25" customHeight="1">
       <c r="B99" s="218"/>
@@ -17547,10 +17615,10 @@
       <c r="N99" s="231"/>
       <c r="O99" s="216"/>
       <c r="P99" s="217"/>
-      <c r="R99" s="305"/>
-      <c r="S99" s="306"/>
-      <c r="T99" s="306"/>
-      <c r="U99" s="307"/>
+      <c r="R99" s="304"/>
+      <c r="S99" s="305"/>
+      <c r="T99" s="305"/>
+      <c r="U99" s="306"/>
     </row>
     <row r="100" spans="2:21" ht="20.25" customHeight="1">
       <c r="B100" s="218"/>
@@ -17568,10 +17636,10 @@
       <c r="N100" s="231"/>
       <c r="O100" s="216"/>
       <c r="P100" s="217"/>
-      <c r="R100" s="305"/>
-      <c r="S100" s="306"/>
-      <c r="T100" s="306"/>
-      <c r="U100" s="307"/>
+      <c r="R100" s="304"/>
+      <c r="S100" s="305"/>
+      <c r="T100" s="305"/>
+      <c r="U100" s="306"/>
     </row>
     <row r="101" spans="2:21" ht="20.25" customHeight="1">
       <c r="B101" s="218"/>
@@ -17589,10 +17657,10 @@
       <c r="N101" s="231"/>
       <c r="O101" s="216"/>
       <c r="P101" s="217"/>
-      <c r="R101" s="305"/>
-      <c r="S101" s="306"/>
-      <c r="T101" s="306"/>
-      <c r="U101" s="307"/>
+      <c r="R101" s="304"/>
+      <c r="S101" s="305"/>
+      <c r="T101" s="305"/>
+      <c r="U101" s="306"/>
     </row>
     <row r="102" spans="2:21" ht="20.25" customHeight="1">
       <c r="B102" s="218"/>
@@ -17610,10 +17678,10 @@
       <c r="N102" s="231"/>
       <c r="O102" s="216"/>
       <c r="P102" s="217"/>
-      <c r="R102" s="305"/>
-      <c r="S102" s="306"/>
-      <c r="T102" s="306"/>
-      <c r="U102" s="307"/>
+      <c r="R102" s="304"/>
+      <c r="S102" s="305"/>
+      <c r="T102" s="305"/>
+      <c r="U102" s="306"/>
     </row>
     <row r="103" spans="2:21" ht="20.25" customHeight="1">
       <c r="B103" s="218"/>
@@ -17631,10 +17699,10 @@
       <c r="N103" s="231"/>
       <c r="O103" s="216"/>
       <c r="P103" s="217"/>
-      <c r="R103" s="305"/>
-      <c r="S103" s="306"/>
-      <c r="T103" s="306"/>
-      <c r="U103" s="307"/>
+      <c r="R103" s="304"/>
+      <c r="S103" s="305"/>
+      <c r="T103" s="305"/>
+      <c r="U103" s="306"/>
     </row>
     <row r="104" spans="2:21" ht="20.25" customHeight="1">
       <c r="B104" s="218"/>
@@ -17652,10 +17720,10 @@
       <c r="N104" s="231"/>
       <c r="O104" s="216"/>
       <c r="P104" s="217"/>
-      <c r="R104" s="305"/>
-      <c r="S104" s="306"/>
-      <c r="T104" s="306"/>
-      <c r="U104" s="307"/>
+      <c r="R104" s="304"/>
+      <c r="S104" s="305"/>
+      <c r="T104" s="305"/>
+      <c r="U104" s="306"/>
     </row>
     <row r="105" spans="2:21" ht="20.25" customHeight="1">
       <c r="B105" s="218"/>
@@ -17673,10 +17741,10 @@
       <c r="N105" s="231"/>
       <c r="O105" s="216"/>
       <c r="P105" s="217"/>
-      <c r="R105" s="305"/>
-      <c r="S105" s="306"/>
-      <c r="T105" s="306"/>
-      <c r="U105" s="307"/>
+      <c r="R105" s="304"/>
+      <c r="S105" s="305"/>
+      <c r="T105" s="305"/>
+      <c r="U105" s="306"/>
     </row>
     <row r="106" spans="2:21" ht="20.25" customHeight="1">
       <c r="B106" s="218"/>
@@ -17694,10 +17762,10 @@
       <c r="N106" s="231"/>
       <c r="O106" s="216"/>
       <c r="P106" s="217"/>
-      <c r="R106" s="305"/>
-      <c r="S106" s="306"/>
-      <c r="T106" s="306"/>
-      <c r="U106" s="307"/>
+      <c r="R106" s="304"/>
+      <c r="S106" s="305"/>
+      <c r="T106" s="305"/>
+      <c r="U106" s="306"/>
     </row>
     <row r="107" spans="2:21" ht="20.25" customHeight="1">
       <c r="B107" s="218"/>
@@ -17715,10 +17783,10 @@
       <c r="N107" s="231"/>
       <c r="O107" s="216"/>
       <c r="P107" s="217"/>
-      <c r="R107" s="305"/>
-      <c r="S107" s="306"/>
-      <c r="T107" s="306"/>
-      <c r="U107" s="307"/>
+      <c r="R107" s="304"/>
+      <c r="S107" s="305"/>
+      <c r="T107" s="305"/>
+      <c r="U107" s="306"/>
     </row>
     <row r="108" spans="2:21" ht="20.25" customHeight="1">
       <c r="B108" s="218"/>
@@ -17736,10 +17804,10 @@
       <c r="N108" s="231"/>
       <c r="O108" s="216"/>
       <c r="P108" s="217"/>
-      <c r="R108" s="305"/>
-      <c r="S108" s="306"/>
-      <c r="T108" s="306"/>
-      <c r="U108" s="307"/>
+      <c r="R108" s="304"/>
+      <c r="S108" s="305"/>
+      <c r="T108" s="305"/>
+      <c r="U108" s="306"/>
     </row>
     <row r="109" spans="2:21" ht="20.25" customHeight="1">
       <c r="B109" s="218"/>
@@ -17757,10 +17825,10 @@
       <c r="N109" s="231"/>
       <c r="O109" s="216"/>
       <c r="P109" s="217"/>
-      <c r="R109" s="305"/>
-      <c r="S109" s="306"/>
-      <c r="T109" s="306"/>
-      <c r="U109" s="307"/>
+      <c r="R109" s="304"/>
+      <c r="S109" s="305"/>
+      <c r="T109" s="305"/>
+      <c r="U109" s="306"/>
     </row>
     <row r="110" spans="2:21" ht="20.25" customHeight="1">
       <c r="B110" s="218"/>
@@ -17778,10 +17846,10 @@
       <c r="N110" s="231"/>
       <c r="O110" s="216"/>
       <c r="P110" s="217"/>
-      <c r="R110" s="305"/>
-      <c r="S110" s="306"/>
-      <c r="T110" s="306"/>
-      <c r="U110" s="307"/>
+      <c r="R110" s="304"/>
+      <c r="S110" s="305"/>
+      <c r="T110" s="305"/>
+      <c r="U110" s="306"/>
     </row>
     <row r="111" spans="2:21" ht="20.25" customHeight="1">
       <c r="B111" s="218"/>
@@ -17799,10 +17867,10 @@
       <c r="N111" s="231"/>
       <c r="O111" s="216"/>
       <c r="P111" s="217"/>
-      <c r="R111" s="305"/>
-      <c r="S111" s="306"/>
-      <c r="T111" s="306"/>
-      <c r="U111" s="307"/>
+      <c r="R111" s="304"/>
+      <c r="S111" s="305"/>
+      <c r="T111" s="305"/>
+      <c r="U111" s="306"/>
     </row>
     <row r="112" spans="2:21" ht="20.25" customHeight="1">
       <c r="B112" s="218"/>
@@ -17820,10 +17888,10 @@
       <c r="N112" s="231"/>
       <c r="O112" s="216"/>
       <c r="P112" s="217"/>
-      <c r="R112" s="305"/>
-      <c r="S112" s="306"/>
-      <c r="T112" s="306"/>
-      <c r="U112" s="307"/>
+      <c r="R112" s="304"/>
+      <c r="S112" s="305"/>
+      <c r="T112" s="305"/>
+      <c r="U112" s="306"/>
     </row>
     <row r="113" spans="2:21" ht="20.25" customHeight="1">
       <c r="B113" s="218"/>
@@ -17841,10 +17909,10 @@
       <c r="N113" s="231"/>
       <c r="O113" s="216"/>
       <c r="P113" s="217"/>
-      <c r="R113" s="305"/>
-      <c r="S113" s="306"/>
-      <c r="T113" s="306"/>
-      <c r="U113" s="307"/>
+      <c r="R113" s="304"/>
+      <c r="S113" s="305"/>
+      <c r="T113" s="305"/>
+      <c r="U113" s="306"/>
     </row>
     <row r="114" spans="2:21" ht="20.25" customHeight="1">
       <c r="B114" s="218"/>
@@ -17862,10 +17930,10 @@
       <c r="N114" s="231"/>
       <c r="O114" s="216"/>
       <c r="P114" s="217"/>
-      <c r="R114" s="305"/>
-      <c r="S114" s="306"/>
-      <c r="T114" s="306"/>
-      <c r="U114" s="307"/>
+      <c r="R114" s="304"/>
+      <c r="S114" s="305"/>
+      <c r="T114" s="305"/>
+      <c r="U114" s="306"/>
     </row>
     <row r="115" spans="2:21" ht="20.25" customHeight="1">
       <c r="B115" s="218"/>
@@ -17883,10 +17951,10 @@
       <c r="N115" s="231"/>
       <c r="O115" s="216"/>
       <c r="P115" s="217"/>
-      <c r="R115" s="305"/>
-      <c r="S115" s="306"/>
-      <c r="T115" s="306"/>
-      <c r="U115" s="307"/>
+      <c r="R115" s="304"/>
+      <c r="S115" s="305"/>
+      <c r="T115" s="305"/>
+      <c r="U115" s="306"/>
     </row>
     <row r="116" spans="2:21" ht="20.25" customHeight="1">
       <c r="B116" s="218"/>
@@ -17904,10 +17972,10 @@
       <c r="N116" s="231"/>
       <c r="O116" s="216"/>
       <c r="P116" s="217"/>
-      <c r="R116" s="305"/>
-      <c r="S116" s="306"/>
-      <c r="T116" s="306"/>
-      <c r="U116" s="307"/>
+      <c r="R116" s="304"/>
+      <c r="S116" s="305"/>
+      <c r="T116" s="305"/>
+      <c r="U116" s="306"/>
     </row>
     <row r="117" spans="2:21" ht="20.25" customHeight="1">
       <c r="B117" s="218"/>
@@ -17925,10 +17993,10 @@
       <c r="N117" s="231"/>
       <c r="O117" s="216"/>
       <c r="P117" s="217"/>
-      <c r="R117" s="305"/>
-      <c r="S117" s="306"/>
-      <c r="T117" s="306"/>
-      <c r="U117" s="307"/>
+      <c r="R117" s="304"/>
+      <c r="S117" s="305"/>
+      <c r="T117" s="305"/>
+      <c r="U117" s="306"/>
     </row>
     <row r="118" spans="2:21" ht="20.25" customHeight="1">
       <c r="B118" s="218"/>
@@ -17946,10 +18014,10 @@
       <c r="N118" s="231"/>
       <c r="O118" s="216"/>
       <c r="P118" s="217"/>
-      <c r="R118" s="305"/>
-      <c r="S118" s="306"/>
-      <c r="T118" s="306"/>
-      <c r="U118" s="307"/>
+      <c r="R118" s="304"/>
+      <c r="S118" s="305"/>
+      <c r="T118" s="305"/>
+      <c r="U118" s="306"/>
     </row>
     <row r="119" spans="2:21" ht="20.25" customHeight="1">
       <c r="B119" s="218"/>
@@ -17967,10 +18035,10 @@
       <c r="N119" s="231"/>
       <c r="O119" s="216"/>
       <c r="P119" s="217"/>
-      <c r="R119" s="305"/>
-      <c r="S119" s="306"/>
-      <c r="T119" s="306"/>
-      <c r="U119" s="307"/>
+      <c r="R119" s="304"/>
+      <c r="S119" s="305"/>
+      <c r="T119" s="305"/>
+      <c r="U119" s="306"/>
     </row>
     <row r="120" spans="2:21" ht="20.25" customHeight="1">
       <c r="B120" s="218"/>
@@ -17988,10 +18056,10 @@
       <c r="N120" s="231"/>
       <c r="O120" s="216"/>
       <c r="P120" s="217"/>
-      <c r="R120" s="305"/>
-      <c r="S120" s="306"/>
-      <c r="T120" s="306"/>
-      <c r="U120" s="307"/>
+      <c r="R120" s="304"/>
+      <c r="S120" s="305"/>
+      <c r="T120" s="305"/>
+      <c r="U120" s="306"/>
     </row>
     <row r="121" spans="2:21" ht="20.25" customHeight="1">
       <c r="B121" s="218"/>
@@ -18009,10 +18077,10 @@
       <c r="N121" s="231"/>
       <c r="O121" s="216"/>
       <c r="P121" s="217"/>
-      <c r="R121" s="305"/>
-      <c r="S121" s="306"/>
-      <c r="T121" s="306"/>
-      <c r="U121" s="307"/>
+      <c r="R121" s="304"/>
+      <c r="S121" s="305"/>
+      <c r="T121" s="305"/>
+      <c r="U121" s="306"/>
     </row>
     <row r="122" spans="2:21" ht="20.25" customHeight="1">
       <c r="B122" s="218"/>
@@ -18030,10 +18098,10 @@
       <c r="N122" s="231"/>
       <c r="O122" s="216"/>
       <c r="P122" s="217"/>
-      <c r="R122" s="305"/>
-      <c r="S122" s="306"/>
-      <c r="T122" s="306"/>
-      <c r="U122" s="307"/>
+      <c r="R122" s="304"/>
+      <c r="S122" s="305"/>
+      <c r="T122" s="305"/>
+      <c r="U122" s="306"/>
     </row>
     <row r="123" spans="2:21" ht="20.25" customHeight="1">
       <c r="B123" s="218"/>
@@ -18051,10 +18119,10 @@
       <c r="N123" s="231"/>
       <c r="O123" s="216"/>
       <c r="P123" s="217"/>
-      <c r="R123" s="305"/>
-      <c r="S123" s="306"/>
-      <c r="T123" s="306"/>
-      <c r="U123" s="307"/>
+      <c r="R123" s="304"/>
+      <c r="S123" s="305"/>
+      <c r="T123" s="305"/>
+      <c r="U123" s="306"/>
     </row>
     <row r="124" spans="2:21" ht="20.25" customHeight="1">
       <c r="B124" s="218"/>
@@ -18072,10 +18140,10 @@
       <c r="N124" s="231"/>
       <c r="O124" s="216"/>
       <c r="P124" s="217"/>
-      <c r="R124" s="305"/>
-      <c r="S124" s="306"/>
-      <c r="T124" s="306"/>
-      <c r="U124" s="307"/>
+      <c r="R124" s="304"/>
+      <c r="S124" s="305"/>
+      <c r="T124" s="305"/>
+      <c r="U124" s="306"/>
     </row>
     <row r="125" spans="2:21" ht="20.25" customHeight="1">
       <c r="B125" s="218"/>
@@ -18093,10 +18161,10 @@
       <c r="N125" s="231"/>
       <c r="O125" s="216"/>
       <c r="P125" s="217"/>
-      <c r="R125" s="305"/>
-      <c r="S125" s="306"/>
-      <c r="T125" s="306"/>
-      <c r="U125" s="307"/>
+      <c r="R125" s="304"/>
+      <c r="S125" s="305"/>
+      <c r="T125" s="305"/>
+      <c r="U125" s="306"/>
     </row>
     <row r="126" spans="2:21" ht="20.25" customHeight="1">
       <c r="B126" s="218"/>
@@ -18114,10 +18182,10 @@
       <c r="N126" s="231"/>
       <c r="O126" s="216"/>
       <c r="P126" s="217"/>
-      <c r="R126" s="305"/>
-      <c r="S126" s="306"/>
-      <c r="T126" s="306"/>
-      <c r="U126" s="307"/>
+      <c r="R126" s="304"/>
+      <c r="S126" s="305"/>
+      <c r="T126" s="305"/>
+      <c r="U126" s="306"/>
     </row>
     <row r="127" spans="2:21" ht="20.25" customHeight="1">
       <c r="B127" s="218"/>
@@ -18135,10 +18203,10 @@
       <c r="N127" s="231"/>
       <c r="O127" s="216"/>
       <c r="P127" s="217"/>
-      <c r="R127" s="305"/>
-      <c r="S127" s="306"/>
-      <c r="T127" s="306"/>
-      <c r="U127" s="307"/>
+      <c r="R127" s="304"/>
+      <c r="S127" s="305"/>
+      <c r="T127" s="305"/>
+      <c r="U127" s="306"/>
     </row>
     <row r="128" spans="2:21" ht="20.25" customHeight="1">
       <c r="B128" s="218"/>
@@ -18156,10 +18224,10 @@
       <c r="N128" s="231"/>
       <c r="O128" s="216"/>
       <c r="P128" s="217"/>
-      <c r="R128" s="305"/>
-      <c r="S128" s="306"/>
-      <c r="T128" s="306"/>
-      <c r="U128" s="307"/>
+      <c r="R128" s="304"/>
+      <c r="S128" s="305"/>
+      <c r="T128" s="305"/>
+      <c r="U128" s="306"/>
     </row>
     <row r="129" spans="2:21" ht="20.25" customHeight="1">
       <c r="B129" s="218"/>
@@ -18177,10 +18245,10 @@
       <c r="N129" s="231"/>
       <c r="O129" s="216"/>
       <c r="P129" s="217"/>
-      <c r="R129" s="305"/>
-      <c r="S129" s="306"/>
-      <c r="T129" s="306"/>
-      <c r="U129" s="307"/>
+      <c r="R129" s="304"/>
+      <c r="S129" s="305"/>
+      <c r="T129" s="305"/>
+      <c r="U129" s="306"/>
     </row>
     <row r="130" spans="2:21" ht="20.25" customHeight="1">
       <c r="B130" s="218"/>
@@ -18198,10 +18266,10 @@
       <c r="N130" s="231"/>
       <c r="O130" s="216"/>
       <c r="P130" s="217"/>
-      <c r="R130" s="305"/>
-      <c r="S130" s="306"/>
-      <c r="T130" s="306"/>
-      <c r="U130" s="307"/>
+      <c r="R130" s="304"/>
+      <c r="S130" s="305"/>
+      <c r="T130" s="305"/>
+      <c r="U130" s="306"/>
     </row>
     <row r="131" spans="2:21" ht="20.25" customHeight="1">
       <c r="B131" s="218"/>
@@ -18219,10 +18287,10 @@
       <c r="N131" s="231"/>
       <c r="O131" s="216"/>
       <c r="P131" s="217"/>
-      <c r="R131" s="305"/>
-      <c r="S131" s="306"/>
-      <c r="T131" s="306"/>
-      <c r="U131" s="307"/>
+      <c r="R131" s="304"/>
+      <c r="S131" s="305"/>
+      <c r="T131" s="305"/>
+      <c r="U131" s="306"/>
     </row>
     <row r="132" spans="2:21" ht="20.25" customHeight="1">
       <c r="B132" s="218"/>
@@ -18240,10 +18308,10 @@
       <c r="N132" s="231"/>
       <c r="O132" s="216"/>
       <c r="P132" s="217"/>
-      <c r="R132" s="305"/>
-      <c r="S132" s="306"/>
-      <c r="T132" s="306"/>
-      <c r="U132" s="307"/>
+      <c r="R132" s="304"/>
+      <c r="S132" s="305"/>
+      <c r="T132" s="305"/>
+      <c r="U132" s="306"/>
     </row>
     <row r="133" spans="2:21" ht="20.25" customHeight="1">
       <c r="B133" s="218"/>
@@ -18261,10 +18329,10 @@
       <c r="N133" s="231"/>
       <c r="O133" s="216"/>
       <c r="P133" s="217"/>
-      <c r="R133" s="305"/>
-      <c r="S133" s="306"/>
-      <c r="T133" s="306"/>
-      <c r="U133" s="307"/>
+      <c r="R133" s="304"/>
+      <c r="S133" s="305"/>
+      <c r="T133" s="305"/>
+      <c r="U133" s="306"/>
     </row>
     <row r="134" spans="2:21" ht="20.25" customHeight="1">
       <c r="B134" s="218"/>
@@ -18282,10 +18350,10 @@
       <c r="N134" s="231"/>
       <c r="O134" s="216"/>
       <c r="P134" s="217"/>
-      <c r="R134" s="305"/>
-      <c r="S134" s="306"/>
-      <c r="T134" s="306"/>
-      <c r="U134" s="307"/>
+      <c r="R134" s="304"/>
+      <c r="S134" s="305"/>
+      <c r="T134" s="305"/>
+      <c r="U134" s="306"/>
     </row>
     <row r="135" spans="2:21" ht="20.25" customHeight="1">
       <c r="B135" s="218"/>
@@ -18303,10 +18371,10 @@
       <c r="N135" s="231"/>
       <c r="O135" s="216"/>
       <c r="P135" s="217"/>
-      <c r="R135" s="305"/>
-      <c r="S135" s="306"/>
-      <c r="T135" s="306"/>
-      <c r="U135" s="307"/>
+      <c r="R135" s="304"/>
+      <c r="S135" s="305"/>
+      <c r="T135" s="305"/>
+      <c r="U135" s="306"/>
     </row>
     <row r="136" spans="2:21" ht="20.25" customHeight="1">
       <c r="B136" s="218"/>
@@ -18324,10 +18392,10 @@
       <c r="N136" s="231"/>
       <c r="O136" s="216"/>
       <c r="P136" s="217"/>
-      <c r="R136" s="305"/>
-      <c r="S136" s="306"/>
-      <c r="T136" s="306"/>
-      <c r="U136" s="307"/>
+      <c r="R136" s="304"/>
+      <c r="S136" s="305"/>
+      <c r="T136" s="305"/>
+      <c r="U136" s="306"/>
     </row>
     <row r="137" spans="2:21" ht="20.25" customHeight="1">
       <c r="B137" s="218"/>
@@ -18345,10 +18413,10 @@
       <c r="N137" s="231"/>
       <c r="O137" s="216"/>
       <c r="P137" s="217"/>
-      <c r="R137" s="305"/>
-      <c r="S137" s="306"/>
-      <c r="T137" s="306"/>
-      <c r="U137" s="307"/>
+      <c r="R137" s="304"/>
+      <c r="S137" s="305"/>
+      <c r="T137" s="305"/>
+      <c r="U137" s="306"/>
     </row>
     <row r="138" spans="2:21" ht="20.25" customHeight="1">
       <c r="B138" s="218"/>
@@ -18366,10 +18434,10 @@
       <c r="N138" s="231"/>
       <c r="O138" s="216"/>
       <c r="P138" s="217"/>
-      <c r="R138" s="305"/>
-      <c r="S138" s="306"/>
-      <c r="T138" s="306"/>
-      <c r="U138" s="307"/>
+      <c r="R138" s="304"/>
+      <c r="S138" s="305"/>
+      <c r="T138" s="305"/>
+      <c r="U138" s="306"/>
     </row>
     <row r="139" spans="2:21" ht="20.25" customHeight="1">
       <c r="B139" s="218"/>
@@ -18387,10 +18455,10 @@
       <c r="N139" s="231"/>
       <c r="O139" s="216"/>
       <c r="P139" s="217"/>
-      <c r="R139" s="305"/>
-      <c r="S139" s="306"/>
-      <c r="T139" s="306"/>
-      <c r="U139" s="307"/>
+      <c r="R139" s="304"/>
+      <c r="S139" s="305"/>
+      <c r="T139" s="305"/>
+      <c r="U139" s="306"/>
     </row>
     <row r="140" spans="2:21" ht="20.25" customHeight="1">
       <c r="B140" s="218"/>
@@ -18408,10 +18476,10 @@
       <c r="N140" s="231"/>
       <c r="O140" s="216"/>
       <c r="P140" s="217"/>
-      <c r="R140" s="305"/>
-      <c r="S140" s="306"/>
-      <c r="T140" s="306"/>
-      <c r="U140" s="307"/>
+      <c r="R140" s="304"/>
+      <c r="S140" s="305"/>
+      <c r="T140" s="305"/>
+      <c r="U140" s="306"/>
     </row>
     <row r="141" spans="2:21" ht="20.25" customHeight="1">
       <c r="B141" s="218"/>
@@ -18429,10 +18497,10 @@
       <c r="N141" s="231"/>
       <c r="O141" s="216"/>
       <c r="P141" s="217"/>
-      <c r="R141" s="305"/>
-      <c r="S141" s="306"/>
-      <c r="T141" s="306"/>
-      <c r="U141" s="307"/>
+      <c r="R141" s="304"/>
+      <c r="S141" s="305"/>
+      <c r="T141" s="305"/>
+      <c r="U141" s="306"/>
     </row>
     <row r="142" spans="2:21" ht="20.25" customHeight="1">
       <c r="B142" s="218"/>
@@ -18450,10 +18518,10 @@
       <c r="N142" s="231"/>
       <c r="O142" s="216"/>
       <c r="P142" s="217"/>
-      <c r="R142" s="305"/>
-      <c r="S142" s="306"/>
-      <c r="T142" s="306"/>
-      <c r="U142" s="307"/>
+      <c r="R142" s="304"/>
+      <c r="S142" s="305"/>
+      <c r="T142" s="305"/>
+      <c r="U142" s="306"/>
     </row>
     <row r="143" spans="2:21" ht="20.25" customHeight="1">
       <c r="B143" s="218"/>
@@ -18471,10 +18539,10 @@
       <c r="N143" s="231"/>
       <c r="O143" s="216"/>
       <c r="P143" s="217"/>
-      <c r="R143" s="305"/>
-      <c r="S143" s="306"/>
-      <c r="T143" s="306"/>
-      <c r="U143" s="307"/>
+      <c r="R143" s="304"/>
+      <c r="S143" s="305"/>
+      <c r="T143" s="305"/>
+      <c r="U143" s="306"/>
     </row>
     <row r="144" spans="2:21" ht="20.25" customHeight="1">
       <c r="B144" s="218"/>
@@ -18492,10 +18560,10 @@
       <c r="N144" s="231"/>
       <c r="O144" s="216"/>
       <c r="P144" s="217"/>
-      <c r="R144" s="305"/>
-      <c r="S144" s="306"/>
-      <c r="T144" s="306"/>
-      <c r="U144" s="307"/>
+      <c r="R144" s="304"/>
+      <c r="S144" s="305"/>
+      <c r="T144" s="305"/>
+      <c r="U144" s="306"/>
     </row>
     <row r="145" spans="2:21" ht="20.25" customHeight="1">
       <c r="B145" s="218"/>
@@ -18513,10 +18581,10 @@
       <c r="N145" s="231"/>
       <c r="O145" s="216"/>
       <c r="P145" s="217"/>
-      <c r="R145" s="305"/>
-      <c r="S145" s="306"/>
-      <c r="T145" s="306"/>
-      <c r="U145" s="307"/>
+      <c r="R145" s="304"/>
+      <c r="S145" s="305"/>
+      <c r="T145" s="305"/>
+      <c r="U145" s="306"/>
     </row>
     <row r="146" spans="2:21" ht="20.25" customHeight="1">
       <c r="B146" s="218"/>
@@ -18534,10 +18602,10 @@
       <c r="N146" s="231"/>
       <c r="O146" s="216"/>
       <c r="P146" s="217"/>
-      <c r="R146" s="305"/>
-      <c r="S146" s="306"/>
-      <c r="T146" s="306"/>
-      <c r="U146" s="307"/>
+      <c r="R146" s="304"/>
+      <c r="S146" s="305"/>
+      <c r="T146" s="305"/>
+      <c r="U146" s="306"/>
     </row>
     <row r="147" spans="2:21" ht="20.25" customHeight="1">
       <c r="B147" s="218"/>
@@ -18555,10 +18623,10 @@
       <c r="N147" s="231"/>
       <c r="O147" s="216"/>
       <c r="P147" s="217"/>
-      <c r="R147" s="305"/>
-      <c r="S147" s="306"/>
-      <c r="T147" s="306"/>
-      <c r="U147" s="307"/>
+      <c r="R147" s="304"/>
+      <c r="S147" s="305"/>
+      <c r="T147" s="305"/>
+      <c r="U147" s="306"/>
     </row>
     <row r="148" spans="2:21" ht="20.25" customHeight="1">
       <c r="B148" s="218"/>
@@ -18576,10 +18644,10 @@
       <c r="N148" s="231"/>
       <c r="O148" s="216"/>
       <c r="P148" s="217"/>
-      <c r="R148" s="305"/>
-      <c r="S148" s="306"/>
-      <c r="T148" s="306"/>
-      <c r="U148" s="307"/>
+      <c r="R148" s="304"/>
+      <c r="S148" s="305"/>
+      <c r="T148" s="305"/>
+      <c r="U148" s="306"/>
     </row>
     <row r="149" spans="2:21" ht="20.25" customHeight="1">
       <c r="B149" s="218"/>
@@ -18597,10 +18665,10 @@
       <c r="N149" s="231"/>
       <c r="O149" s="216"/>
       <c r="P149" s="217"/>
-      <c r="R149" s="305"/>
-      <c r="S149" s="306"/>
-      <c r="T149" s="306"/>
-      <c r="U149" s="307"/>
+      <c r="R149" s="304"/>
+      <c r="S149" s="305"/>
+      <c r="T149" s="305"/>
+      <c r="U149" s="306"/>
     </row>
     <row r="150" spans="2:21" ht="20.25" customHeight="1">
       <c r="B150" s="218"/>
@@ -18618,10 +18686,10 @@
       <c r="N150" s="231"/>
       <c r="O150" s="216"/>
       <c r="P150" s="217"/>
-      <c r="R150" s="305"/>
-      <c r="S150" s="306"/>
-      <c r="T150" s="306"/>
-      <c r="U150" s="307"/>
+      <c r="R150" s="304"/>
+      <c r="S150" s="305"/>
+      <c r="T150" s="305"/>
+      <c r="U150" s="306"/>
     </row>
     <row r="151" spans="2:21" ht="20.25" customHeight="1">
       <c r="B151" s="218"/>
@@ -18639,10 +18707,10 @@
       <c r="N151" s="231"/>
       <c r="O151" s="216"/>
       <c r="P151" s="217"/>
-      <c r="R151" s="305"/>
-      <c r="S151" s="306"/>
-      <c r="T151" s="306"/>
-      <c r="U151" s="307"/>
+      <c r="R151" s="304"/>
+      <c r="S151" s="305"/>
+      <c r="T151" s="305"/>
+      <c r="U151" s="306"/>
     </row>
     <row r="152" spans="2:21" ht="20.25" customHeight="1">
       <c r="B152" s="218"/>
@@ -18660,10 +18728,10 @@
       <c r="N152" s="231"/>
       <c r="O152" s="216"/>
       <c r="P152" s="217"/>
-      <c r="R152" s="305"/>
-      <c r="S152" s="306"/>
-      <c r="T152" s="306"/>
-      <c r="U152" s="307"/>
+      <c r="R152" s="304"/>
+      <c r="S152" s="305"/>
+      <c r="T152" s="305"/>
+      <c r="U152" s="306"/>
     </row>
     <row r="153" spans="2:21" ht="20.25" customHeight="1">
       <c r="B153" s="218"/>
@@ -18681,10 +18749,10 @@
       <c r="N153" s="231"/>
       <c r="O153" s="216"/>
       <c r="P153" s="217"/>
-      <c r="R153" s="305"/>
-      <c r="S153" s="306"/>
-      <c r="T153" s="306"/>
-      <c r="U153" s="307"/>
+      <c r="R153" s="304"/>
+      <c r="S153" s="305"/>
+      <c r="T153" s="305"/>
+      <c r="U153" s="306"/>
     </row>
     <row r="154" spans="2:21" ht="20.25" customHeight="1">
       <c r="B154" s="218"/>
@@ -18702,10 +18770,10 @@
       <c r="N154" s="231"/>
       <c r="O154" s="216"/>
       <c r="P154" s="217"/>
-      <c r="R154" s="305"/>
-      <c r="S154" s="306"/>
-      <c r="T154" s="306"/>
-      <c r="U154" s="307"/>
+      <c r="R154" s="304"/>
+      <c r="S154" s="305"/>
+      <c r="T154" s="305"/>
+      <c r="U154" s="306"/>
     </row>
     <row r="155" spans="2:21" ht="20.25" customHeight="1">
       <c r="B155" s="218"/>
@@ -18723,10 +18791,10 @@
       <c r="N155" s="231"/>
       <c r="O155" s="216"/>
       <c r="P155" s="217"/>
-      <c r="R155" s="305"/>
-      <c r="S155" s="306"/>
-      <c r="T155" s="306"/>
-      <c r="U155" s="307"/>
+      <c r="R155" s="304"/>
+      <c r="S155" s="305"/>
+      <c r="T155" s="305"/>
+      <c r="U155" s="306"/>
     </row>
     <row r="156" spans="2:21" ht="20.25" customHeight="1">
       <c r="B156" s="218"/>
@@ -18744,10 +18812,10 @@
       <c r="N156" s="231"/>
       <c r="O156" s="216"/>
       <c r="P156" s="217"/>
-      <c r="R156" s="305"/>
-      <c r="S156" s="306"/>
-      <c r="T156" s="306"/>
-      <c r="U156" s="307"/>
+      <c r="R156" s="304"/>
+      <c r="S156" s="305"/>
+      <c r="T156" s="305"/>
+      <c r="U156" s="306"/>
     </row>
     <row r="157" spans="2:21" ht="20.25" customHeight="1">
       <c r="B157" s="218"/>
@@ -18765,10 +18833,10 @@
       <c r="N157" s="231"/>
       <c r="O157" s="216"/>
       <c r="P157" s="217"/>
-      <c r="R157" s="305"/>
-      <c r="S157" s="306"/>
-      <c r="T157" s="306"/>
-      <c r="U157" s="307"/>
+      <c r="R157" s="304"/>
+      <c r="S157" s="305"/>
+      <c r="T157" s="305"/>
+      <c r="U157" s="306"/>
     </row>
     <row r="158" spans="2:21" ht="20.25" customHeight="1">
       <c r="B158" s="218"/>
@@ -18786,10 +18854,10 @@
       <c r="N158" s="231"/>
       <c r="O158" s="216"/>
       <c r="P158" s="217"/>
-      <c r="R158" s="305"/>
-      <c r="S158" s="306"/>
-      <c r="T158" s="306"/>
-      <c r="U158" s="307"/>
+      <c r="R158" s="304"/>
+      <c r="S158" s="305"/>
+      <c r="T158" s="305"/>
+      <c r="U158" s="306"/>
     </row>
     <row r="159" spans="2:21" ht="20.25" customHeight="1">
       <c r="B159" s="218"/>
@@ -18807,10 +18875,10 @@
       <c r="N159" s="231"/>
       <c r="O159" s="216"/>
       <c r="P159" s="217"/>
-      <c r="R159" s="305"/>
-      <c r="S159" s="306"/>
-      <c r="T159" s="306"/>
-      <c r="U159" s="307"/>
+      <c r="R159" s="304"/>
+      <c r="S159" s="305"/>
+      <c r="T159" s="305"/>
+      <c r="U159" s="306"/>
     </row>
     <row r="160" spans="2:21" ht="20.25" customHeight="1">
       <c r="B160" s="218"/>
@@ -18828,10 +18896,10 @@
       <c r="N160" s="231"/>
       <c r="O160" s="216"/>
       <c r="P160" s="217"/>
-      <c r="R160" s="305"/>
-      <c r="S160" s="306"/>
-      <c r="T160" s="306"/>
-      <c r="U160" s="307"/>
+      <c r="R160" s="304"/>
+      <c r="S160" s="305"/>
+      <c r="T160" s="305"/>
+      <c r="U160" s="306"/>
     </row>
     <row r="161" spans="2:21" ht="20.25" customHeight="1">
       <c r="B161" s="218"/>
@@ -18849,10 +18917,10 @@
       <c r="N161" s="231"/>
       <c r="O161" s="216"/>
       <c r="P161" s="217"/>
-      <c r="R161" s="305"/>
-      <c r="S161" s="306"/>
-      <c r="T161" s="306"/>
-      <c r="U161" s="307"/>
+      <c r="R161" s="304"/>
+      <c r="S161" s="305"/>
+      <c r="T161" s="305"/>
+      <c r="U161" s="306"/>
     </row>
     <row r="162" spans="2:21" ht="20.25" customHeight="1">
       <c r="B162" s="218"/>
@@ -18870,10 +18938,10 @@
       <c r="N162" s="231"/>
       <c r="O162" s="216"/>
       <c r="P162" s="217"/>
-      <c r="R162" s="305"/>
-      <c r="S162" s="306"/>
-      <c r="T162" s="306"/>
-      <c r="U162" s="307"/>
+      <c r="R162" s="304"/>
+      <c r="S162" s="305"/>
+      <c r="T162" s="305"/>
+      <c r="U162" s="306"/>
     </row>
     <row r="163" spans="2:21" ht="20.25" customHeight="1">
       <c r="B163" s="218"/>
@@ -18891,10 +18959,10 @@
       <c r="N163" s="231"/>
       <c r="O163" s="216"/>
       <c r="P163" s="217"/>
-      <c r="R163" s="305"/>
-      <c r="S163" s="306"/>
-      <c r="T163" s="306"/>
-      <c r="U163" s="307"/>
+      <c r="R163" s="304"/>
+      <c r="S163" s="305"/>
+      <c r="T163" s="305"/>
+      <c r="U163" s="306"/>
     </row>
     <row r="164" spans="2:21" ht="20.25" customHeight="1">
       <c r="B164" s="218"/>
@@ -18912,10 +18980,10 @@
       <c r="N164" s="231"/>
       <c r="O164" s="216"/>
       <c r="P164" s="217"/>
-      <c r="R164" s="305"/>
-      <c r="S164" s="306"/>
-      <c r="T164" s="306"/>
-      <c r="U164" s="307"/>
+      <c r="R164" s="304"/>
+      <c r="S164" s="305"/>
+      <c r="T164" s="305"/>
+      <c r="U164" s="306"/>
     </row>
     <row r="165" spans="2:21" ht="20.25" customHeight="1">
       <c r="B165" s="218"/>
@@ -18933,10 +19001,10 @@
       <c r="N165" s="231"/>
       <c r="O165" s="216"/>
       <c r="P165" s="217"/>
-      <c r="R165" s="305"/>
-      <c r="S165" s="306"/>
-      <c r="T165" s="306"/>
-      <c r="U165" s="307"/>
+      <c r="R165" s="304"/>
+      <c r="S165" s="305"/>
+      <c r="T165" s="305"/>
+      <c r="U165" s="306"/>
     </row>
     <row r="166" spans="2:21" ht="20.25" customHeight="1">
       <c r="B166" s="218"/>
@@ -18954,10 +19022,10 @@
       <c r="N166" s="231"/>
       <c r="O166" s="216"/>
       <c r="P166" s="217"/>
-      <c r="R166" s="305"/>
-      <c r="S166" s="306"/>
-      <c r="T166" s="306"/>
-      <c r="U166" s="307"/>
+      <c r="R166" s="304"/>
+      <c r="S166" s="305"/>
+      <c r="T166" s="305"/>
+      <c r="U166" s="306"/>
     </row>
     <row r="167" spans="2:21" ht="20.25" customHeight="1">
       <c r="B167" s="218"/>
@@ -18975,10 +19043,10 @@
       <c r="N167" s="231"/>
       <c r="O167" s="216"/>
       <c r="P167" s="217"/>
-      <c r="R167" s="305"/>
-      <c r="S167" s="306"/>
-      <c r="T167" s="306"/>
-      <c r="U167" s="307"/>
+      <c r="R167" s="304"/>
+      <c r="S167" s="305"/>
+      <c r="T167" s="305"/>
+      <c r="U167" s="306"/>
     </row>
     <row r="168" spans="2:21" ht="20.25" customHeight="1">
       <c r="B168" s="218"/>
@@ -18996,10 +19064,10 @@
       <c r="N168" s="231"/>
       <c r="O168" s="216"/>
       <c r="P168" s="217"/>
-      <c r="R168" s="305"/>
-      <c r="S168" s="306"/>
-      <c r="T168" s="306"/>
-      <c r="U168" s="307"/>
+      <c r="R168" s="304"/>
+      <c r="S168" s="305"/>
+      <c r="T168" s="305"/>
+      <c r="U168" s="306"/>
     </row>
     <row r="169" spans="2:21" ht="20.25" customHeight="1">
       <c r="B169" s="218"/>
@@ -19017,10 +19085,10 @@
       <c r="N169" s="231"/>
       <c r="O169" s="216"/>
       <c r="P169" s="217"/>
-      <c r="R169" s="305"/>
-      <c r="S169" s="306"/>
-      <c r="T169" s="306"/>
-      <c r="U169" s="307"/>
+      <c r="R169" s="304"/>
+      <c r="S169" s="305"/>
+      <c r="T169" s="305"/>
+      <c r="U169" s="306"/>
     </row>
     <row r="170" spans="2:21" ht="20.25" customHeight="1">
       <c r="B170" s="218"/>
@@ -19038,10 +19106,10 @@
       <c r="N170" s="231"/>
       <c r="O170" s="216"/>
       <c r="P170" s="217"/>
-      <c r="R170" s="305"/>
-      <c r="S170" s="306"/>
-      <c r="T170" s="306"/>
-      <c r="U170" s="307"/>
+      <c r="R170" s="304"/>
+      <c r="S170" s="305"/>
+      <c r="T170" s="305"/>
+      <c r="U170" s="306"/>
     </row>
     <row r="171" spans="2:21" ht="20.25" customHeight="1">
       <c r="B171" s="218"/>
@@ -19059,10 +19127,10 @@
       <c r="N171" s="231"/>
       <c r="O171" s="216"/>
       <c r="P171" s="217"/>
-      <c r="R171" s="305"/>
-      <c r="S171" s="306"/>
-      <c r="T171" s="306"/>
-      <c r="U171" s="307"/>
+      <c r="R171" s="304"/>
+      <c r="S171" s="305"/>
+      <c r="T171" s="305"/>
+      <c r="U171" s="306"/>
     </row>
     <row r="172" spans="2:21" ht="20.25" customHeight="1">
       <c r="B172" s="218"/>
@@ -19080,10 +19148,10 @@
       <c r="N172" s="231"/>
       <c r="O172" s="216"/>
       <c r="P172" s="217"/>
-      <c r="R172" s="305"/>
-      <c r="S172" s="306"/>
-      <c r="T172" s="306"/>
-      <c r="U172" s="307"/>
+      <c r="R172" s="304"/>
+      <c r="S172" s="305"/>
+      <c r="T172" s="305"/>
+      <c r="U172" s="306"/>
     </row>
     <row r="173" spans="2:21" ht="20.25" customHeight="1">
       <c r="B173" s="218"/>
@@ -19101,10 +19169,10 @@
       <c r="N173" s="219"/>
       <c r="O173" s="218"/>
       <c r="P173" s="221"/>
-      <c r="R173" s="305"/>
-      <c r="S173" s="306"/>
-      <c r="T173" s="306"/>
-      <c r="U173" s="307"/>
+      <c r="R173" s="304"/>
+      <c r="S173" s="305"/>
+      <c r="T173" s="305"/>
+      <c r="U173" s="306"/>
     </row>
     <row r="174" spans="2:21" ht="20.25" customHeight="1">
       <c r="B174" s="218"/>
@@ -19122,10 +19190,10 @@
       <c r="N174" s="222"/>
       <c r="O174" s="218"/>
       <c r="P174" s="221"/>
-      <c r="R174" s="305"/>
-      <c r="S174" s="306"/>
-      <c r="T174" s="306"/>
-      <c r="U174" s="307"/>
+      <c r="R174" s="304"/>
+      <c r="S174" s="305"/>
+      <c r="T174" s="305"/>
+      <c r="U174" s="306"/>
     </row>
     <row r="175" spans="2:21" ht="20.25" customHeight="1">
       <c r="B175" s="218"/>
@@ -19143,10 +19211,10 @@
       <c r="N175" s="222"/>
       <c r="O175" s="218"/>
       <c r="P175" s="221"/>
-      <c r="R175" s="305"/>
-      <c r="S175" s="306"/>
-      <c r="T175" s="306"/>
-      <c r="U175" s="307"/>
+      <c r="R175" s="304"/>
+      <c r="S175" s="305"/>
+      <c r="T175" s="305"/>
+      <c r="U175" s="306"/>
     </row>
     <row r="176" spans="2:21" ht="20.25" customHeight="1">
       <c r="B176" s="218"/>
@@ -19164,10 +19232,10 @@
       <c r="N176" s="219"/>
       <c r="O176" s="223"/>
       <c r="P176" s="224"/>
-      <c r="R176" s="305"/>
-      <c r="S176" s="306"/>
-      <c r="T176" s="306"/>
-      <c r="U176" s="307"/>
+      <c r="R176" s="304"/>
+      <c r="S176" s="305"/>
+      <c r="T176" s="305"/>
+      <c r="U176" s="306"/>
     </row>
     <row r="177" spans="2:21" ht="20.25" customHeight="1">
       <c r="B177" s="218"/>
@@ -19185,10 +19253,10 @@
       <c r="N177" s="222"/>
       <c r="O177" s="223"/>
       <c r="P177" s="224"/>
-      <c r="R177" s="305"/>
-      <c r="S177" s="306"/>
-      <c r="T177" s="306"/>
-      <c r="U177" s="307"/>
+      <c r="R177" s="304"/>
+      <c r="S177" s="305"/>
+      <c r="T177" s="305"/>
+      <c r="U177" s="306"/>
     </row>
     <row r="178" spans="2:21" ht="20.25" customHeight="1">
       <c r="B178" s="229"/>
@@ -19206,10 +19274,10 @@
       <c r="N178" s="222"/>
       <c r="O178" s="223"/>
       <c r="P178" s="224"/>
-      <c r="R178" s="305"/>
-      <c r="S178" s="306"/>
-      <c r="T178" s="306"/>
-      <c r="U178" s="307"/>
+      <c r="R178" s="304"/>
+      <c r="S178" s="305"/>
+      <c r="T178" s="305"/>
+      <c r="U178" s="306"/>
     </row>
     <row r="179" spans="2:21" ht="20.25" customHeight="1">
       <c r="B179" s="218"/>
@@ -19227,10 +19295,10 @@
       <c r="N179" s="219"/>
       <c r="O179" s="223"/>
       <c r="P179" s="224"/>
-      <c r="R179" s="305"/>
-      <c r="S179" s="306"/>
-      <c r="T179" s="306"/>
-      <c r="U179" s="307"/>
+      <c r="R179" s="304"/>
+      <c r="S179" s="305"/>
+      <c r="T179" s="305"/>
+      <c r="U179" s="306"/>
     </row>
     <row r="180" spans="2:21" ht="20.25" customHeight="1">
       <c r="B180" s="218"/>
@@ -19248,10 +19316,10 @@
       <c r="N180" s="222"/>
       <c r="O180" s="223"/>
       <c r="P180" s="224"/>
-      <c r="R180" s="305"/>
-      <c r="S180" s="306"/>
-      <c r="T180" s="306"/>
-      <c r="U180" s="307"/>
+      <c r="R180" s="304"/>
+      <c r="S180" s="305"/>
+      <c r="T180" s="305"/>
+      <c r="U180" s="306"/>
     </row>
     <row r="181" spans="2:21" ht="20.25" customHeight="1">
       <c r="B181" s="218"/>
@@ -19269,10 +19337,10 @@
       <c r="N181" s="222"/>
       <c r="O181" s="223"/>
       <c r="P181" s="224"/>
-      <c r="R181" s="305"/>
-      <c r="S181" s="306"/>
-      <c r="T181" s="306"/>
-      <c r="U181" s="307"/>
+      <c r="R181" s="304"/>
+      <c r="S181" s="305"/>
+      <c r="T181" s="305"/>
+      <c r="U181" s="306"/>
     </row>
     <row r="182" spans="2:21" ht="20.25" customHeight="1">
       <c r="B182" s="218"/>
@@ -19290,10 +19358,10 @@
       <c r="N182" s="219"/>
       <c r="O182" s="223"/>
       <c r="P182" s="224"/>
-      <c r="R182" s="305"/>
-      <c r="S182" s="306"/>
-      <c r="T182" s="306"/>
-      <c r="U182" s="307"/>
+      <c r="R182" s="304"/>
+      <c r="S182" s="305"/>
+      <c r="T182" s="305"/>
+      <c r="U182" s="306"/>
     </row>
     <row r="183" spans="2:21" ht="20.25" customHeight="1" thickBot="1">
       <c r="B183" s="225"/>
@@ -19311,10 +19379,10 @@
       <c r="N183" s="230"/>
       <c r="O183" s="226"/>
       <c r="P183" s="228"/>
-      <c r="R183" s="308"/>
-      <c r="S183" s="309"/>
-      <c r="T183" s="309"/>
-      <c r="U183" s="310"/>
+      <c r="R183" s="307"/>
+      <c r="S183" s="308"/>
+      <c r="T183" s="308"/>
+      <c r="U183" s="309"/>
     </row>
     <row r="184" spans="2:21" ht="15.75" customHeight="1">
       <c r="B184" s="186"/>

--- a/doc/chiffrier_sim_vie.xlsx
+++ b/doc/chiffrier_sim_vie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\travail\sim_vie\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B83F683B-5150-41C6-A5AE-F21D9B309B6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E246FD2D-A955-4A07-A5F8-90D675EEAA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Méthodes SCRUM" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="639">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="645">
   <si>
     <t>Chiffrier de documentation de projets</t>
   </si>
@@ -2124,9 +2124,6 @@
     <t>Glandes</t>
   </si>
   <si>
-    <t>Implémenter les glandes aux neuronnes</t>
-  </si>
-  <si>
     <t>Implémenter les glandes dans le calcul de déplacement (neurones moteurs)</t>
   </si>
   <si>
@@ -2148,13 +2145,34 @@
     <t>Ajout du rôle de gestion de stimuli (bloquer ou laisser passer signaux)</t>
   </si>
   <si>
-    <t>Implémenter jauge besoins (envie de reproduction, faim, énergie)</t>
-  </si>
-  <si>
     <t>Implémenter rôle du système nerveux (envoyer message aux ganglions)</t>
   </si>
   <si>
     <t>…</t>
+  </si>
+  <si>
+    <t>SPRINT 2</t>
+  </si>
+  <si>
+    <t>Implémenter les glandes aux neurones</t>
+  </si>
+  <si>
+    <t>01/12/2025</t>
+  </si>
+  <si>
+    <t>Implémenter jauge besoins (envie de reproduction, faim, énergie) :</t>
+  </si>
+  <si>
+    <t>fonction du calcul de la santé (fonction quadratique, avec sommet, origine)</t>
+  </si>
+  <si>
+    <t>Guillaume + Mario</t>
+  </si>
+  <si>
+    <t>Yanis + Guillaume</t>
+  </si>
+  <si>
+    <t>Mario</t>
   </si>
 </sst>
 </file>
@@ -3426,7 +3444,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="312">
+  <cellXfs count="313">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3951,6 +3969,7 @@
     <xf numFmtId="164" fontId="29" fillId="4" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="29" fillId="4" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3981,14 +4000,110 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
@@ -3999,110 +4114,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4111,18 +4142,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4156,12 +4175,27 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="29" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4871,22 +4905,22 @@
       </c>
     </row>
     <row r="36" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F36" s="242"/>
-      <c r="G36" s="243"/>
-      <c r="H36" s="243"/>
-      <c r="I36" s="243"/>
+      <c r="F36" s="243"/>
+      <c r="G36" s="244"/>
+      <c r="H36" s="244"/>
+      <c r="I36" s="244"/>
     </row>
     <row r="37" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F37" s="243"/>
-      <c r="G37" s="243"/>
-      <c r="H37" s="243"/>
-      <c r="I37" s="243"/>
+      <c r="F37" s="244"/>
+      <c r="G37" s="244"/>
+      <c r="H37" s="244"/>
+      <c r="I37" s="244"/>
     </row>
     <row r="38" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F38" s="243"/>
-      <c r="G38" s="243"/>
-      <c r="H38" s="243"/>
-      <c r="I38" s="243"/>
+      <c r="F38" s="244"/>
+      <c r="G38" s="244"/>
+      <c r="H38" s="244"/>
+      <c r="I38" s="244"/>
     </row>
     <row r="39" spans="6:9" ht="17.25" customHeight="1">
       <c r="F39" s="29"/>
@@ -4895,22 +4929,22 @@
       <c r="I39" s="29"/>
     </row>
     <row r="40" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F40" s="242"/>
-      <c r="G40" s="243"/>
-      <c r="H40" s="243"/>
-      <c r="I40" s="243"/>
+      <c r="F40" s="243"/>
+      <c r="G40" s="244"/>
+      <c r="H40" s="244"/>
+      <c r="I40" s="244"/>
     </row>
     <row r="41" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F41" s="243"/>
-      <c r="G41" s="243"/>
-      <c r="H41" s="243"/>
-      <c r="I41" s="243"/>
+      <c r="F41" s="244"/>
+      <c r="G41" s="244"/>
+      <c r="H41" s="244"/>
+      <c r="I41" s="244"/>
     </row>
     <row r="42" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F42" s="243"/>
-      <c r="G42" s="243"/>
-      <c r="H42" s="243"/>
-      <c r="I42" s="243"/>
+      <c r="F42" s="244"/>
+      <c r="G42" s="244"/>
+      <c r="H42" s="244"/>
+      <c r="I42" s="244"/>
     </row>
     <row r="43" spans="6:9" ht="17.25" customHeight="1">
       <c r="F43" s="29"/>
@@ -4925,34 +4959,34 @@
       <c r="I44" s="29"/>
     </row>
     <row r="45" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F45" s="242"/>
-      <c r="G45" s="243"/>
-      <c r="H45" s="243"/>
-      <c r="I45" s="243"/>
+      <c r="F45" s="243"/>
+      <c r="G45" s="244"/>
+      <c r="H45" s="244"/>
+      <c r="I45" s="244"/>
     </row>
     <row r="46" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F46" s="243"/>
-      <c r="G46" s="243"/>
-      <c r="H46" s="243"/>
-      <c r="I46" s="243"/>
+      <c r="F46" s="244"/>
+      <c r="G46" s="244"/>
+      <c r="H46" s="244"/>
+      <c r="I46" s="244"/>
     </row>
     <row r="47" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F47" s="243"/>
-      <c r="G47" s="243"/>
-      <c r="H47" s="243"/>
-      <c r="I47" s="243"/>
+      <c r="F47" s="244"/>
+      <c r="G47" s="244"/>
+      <c r="H47" s="244"/>
+      <c r="I47" s="244"/>
     </row>
     <row r="48" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F48" s="243"/>
-      <c r="G48" s="243"/>
-      <c r="H48" s="243"/>
-      <c r="I48" s="243"/>
+      <c r="F48" s="244"/>
+      <c r="G48" s="244"/>
+      <c r="H48" s="244"/>
+      <c r="I48" s="244"/>
     </row>
     <row r="49" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F49" s="243"/>
-      <c r="G49" s="243"/>
-      <c r="H49" s="243"/>
-      <c r="I49" s="243"/>
+      <c r="F49" s="244"/>
+      <c r="G49" s="244"/>
+      <c r="H49" s="244"/>
+      <c r="I49" s="244"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5092,7 +5126,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B13" s="244" t="s">
+      <c r="B13" s="245" t="s">
         <v>60</v>
       </c>
       <c r="C13" s="49"/>
@@ -5101,7 +5135,7 @@
       <c r="H13" s="70"/>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B14" s="245"/>
+      <c r="B14" s="246"/>
       <c r="C14" s="50" t="s">
         <v>104</v>
       </c>
@@ -5114,13 +5148,13 @@
       <c r="H14" s="70"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B15" s="245"/>
+      <c r="B15" s="246"/>
       <c r="C15" s="53"/>
       <c r="D15" s="51"/>
       <c r="E15" s="52"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B16" s="245"/>
+      <c r="B16" s="246"/>
       <c r="C16" s="63" t="s">
         <v>171</v>
       </c>
@@ -5132,7 +5166,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B17" s="246"/>
+      <c r="B17" s="247"/>
       <c r="C17" s="53" t="s">
         <v>101</v>
       </c>
@@ -5140,7 +5174,7 @@
       <c r="E17" s="52"/>
     </row>
     <row r="18" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B18" s="246"/>
+      <c r="B18" s="247"/>
       <c r="C18" s="63" t="s">
         <v>172</v>
       </c>
@@ -5150,13 +5184,13 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B19" s="246"/>
+      <c r="B19" s="247"/>
       <c r="C19" s="53"/>
       <c r="D19" s="51"/>
       <c r="E19" s="52"/>
     </row>
     <row r="20" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B20" s="246"/>
+      <c r="B20" s="247"/>
       <c r="C20" s="50" t="s">
         <v>105</v>
       </c>
@@ -5168,13 +5202,13 @@
       </c>
     </row>
     <row r="21" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B21" s="246"/>
+      <c r="B21" s="247"/>
       <c r="C21" s="53"/>
       <c r="D21" s="51"/>
       <c r="E21" s="52"/>
     </row>
     <row r="22" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B22" s="246"/>
+      <c r="B22" s="247"/>
       <c r="C22" s="63" t="s">
         <v>174</v>
       </c>
@@ -5186,7 +5220,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B23" s="246"/>
+      <c r="B23" s="247"/>
       <c r="C23" s="68" t="s">
         <v>110</v>
       </c>
@@ -5198,7 +5232,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B24" s="246"/>
+      <c r="B24" s="247"/>
       <c r="C24" s="53"/>
       <c r="D24" s="64" t="s">
         <v>176</v>
@@ -5206,7 +5240,7 @@
       <c r="E24" s="65"/>
     </row>
     <row r="25" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B25" s="246"/>
+      <c r="B25" s="247"/>
       <c r="C25" s="63"/>
       <c r="D25" s="64" t="s">
         <v>113</v>
@@ -5214,7 +5248,7 @@
       <c r="E25" s="65"/>
     </row>
     <row r="26" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B26" s="246"/>
+      <c r="B26" s="247"/>
       <c r="C26" s="63" t="s">
         <v>114</v>
       </c>
@@ -5224,7 +5258,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B27" s="246"/>
+      <c r="B27" s="247"/>
       <c r="C27" s="63" t="s">
         <v>116</v>
       </c>
@@ -5234,13 +5268,13 @@
       </c>
     </row>
     <row r="28" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B28" s="246"/>
+      <c r="B28" s="247"/>
       <c r="C28" s="53"/>
       <c r="D28" s="51"/>
       <c r="E28" s="52"/>
     </row>
     <row r="29" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B29" s="246"/>
+      <c r="B29" s="247"/>
       <c r="C29" s="50" t="s">
         <v>118</v>
       </c>
@@ -5248,13 +5282,13 @@
       <c r="E29" s="52"/>
     </row>
     <row r="30" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B30" s="246"/>
+      <c r="B30" s="247"/>
       <c r="C30" s="53"/>
       <c r="D30" s="51"/>
       <c r="E30" s="52"/>
     </row>
     <row r="31" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B31" s="246"/>
+      <c r="B31" s="247"/>
       <c r="C31" s="63" t="s">
         <v>119</v>
       </c>
@@ -5264,7 +5298,7 @@
       <c r="E31" s="52"/>
     </row>
     <row r="32" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B32" s="246"/>
+      <c r="B32" s="247"/>
       <c r="C32" s="63" t="s">
         <v>120</v>
       </c>
@@ -5272,7 +5306,7 @@
       <c r="E32" s="52"/>
     </row>
     <row r="33" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B33" s="246"/>
+      <c r="B33" s="247"/>
       <c r="C33" s="63" t="s">
         <v>121</v>
       </c>
@@ -5280,7 +5314,7 @@
       <c r="E33" s="52"/>
     </row>
     <row r="34" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B34" s="246"/>
+      <c r="B34" s="247"/>
       <c r="C34" s="63" t="s">
         <v>122</v>
       </c>
@@ -5288,7 +5322,7 @@
       <c r="E34" s="52"/>
     </row>
     <row r="35" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B35" s="246"/>
+      <c r="B35" s="247"/>
       <c r="C35" s="63" t="s">
         <v>123</v>
       </c>
@@ -5296,13 +5330,13 @@
       <c r="E35" s="52"/>
     </row>
     <row r="36" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B36" s="246"/>
+      <c r="B36" s="247"/>
       <c r="C36" s="63"/>
       <c r="D36" s="64"/>
       <c r="E36" s="52"/>
     </row>
     <row r="37" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B37" s="246"/>
+      <c r="B37" s="247"/>
       <c r="C37" s="63" t="s">
         <v>177</v>
       </c>
@@ -5310,7 +5344,7 @@
       <c r="E37" s="52"/>
     </row>
     <row r="38" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B38" s="246"/>
+      <c r="B38" s="247"/>
       <c r="C38" s="63" t="s">
         <v>127</v>
       </c>
@@ -5318,7 +5352,7 @@
       <c r="E38" s="52"/>
     </row>
     <row r="39" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B39" s="246"/>
+      <c r="B39" s="247"/>
       <c r="C39" s="63" t="s">
         <v>125</v>
       </c>
@@ -5328,13 +5362,13 @@
       </c>
     </row>
     <row r="40" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B40" s="246"/>
+      <c r="B40" s="247"/>
       <c r="C40" s="63"/>
       <c r="D40" s="51"/>
       <c r="E40" s="52"/>
     </row>
     <row r="41" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B41" s="246"/>
+      <c r="B41" s="247"/>
       <c r="C41" s="50" t="s">
         <v>128</v>
       </c>
@@ -5342,13 +5376,13 @@
       <c r="E41" s="52"/>
     </row>
     <row r="42" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B42" s="246"/>
+      <c r="B42" s="247"/>
       <c r="C42" s="63"/>
       <c r="D42" s="51"/>
       <c r="E42" s="52"/>
     </row>
     <row r="43" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B43" s="246"/>
+      <c r="B43" s="247"/>
       <c r="C43" s="63" t="s">
         <v>129</v>
       </c>
@@ -5356,7 +5390,7 @@
       <c r="E43" s="52"/>
     </row>
     <row r="44" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B44" s="246"/>
+      <c r="B44" s="247"/>
       <c r="C44" s="63" t="s">
         <v>101</v>
       </c>
@@ -5366,7 +5400,7 @@
       <c r="E44" s="52"/>
     </row>
     <row r="45" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B45" s="246"/>
+      <c r="B45" s="247"/>
       <c r="C45" s="63" t="s">
         <v>131</v>
       </c>
@@ -5376,7 +5410,7 @@
       <c r="E45" s="52"/>
     </row>
     <row r="46" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B46" s="246"/>
+      <c r="B46" s="247"/>
       <c r="C46" s="63" t="s">
         <v>133</v>
       </c>
@@ -5386,7 +5420,7 @@
       <c r="E46" s="52"/>
     </row>
     <row r="47" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B47" s="246"/>
+      <c r="B47" s="247"/>
       <c r="C47" s="63" t="s">
         <v>135</v>
       </c>
@@ -5396,7 +5430,7 @@
       </c>
     </row>
     <row r="48" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B48" s="246"/>
+      <c r="B48" s="247"/>
       <c r="C48" s="68" t="s">
         <v>137</v>
       </c>
@@ -5404,7 +5438,7 @@
       <c r="E48" s="52"/>
     </row>
     <row r="49" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B49" s="246"/>
+      <c r="B49" s="247"/>
       <c r="C49" s="68" t="s">
         <v>138</v>
       </c>
@@ -5412,13 +5446,13 @@
       <c r="E49" s="52"/>
     </row>
     <row r="50" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B50" s="246"/>
+      <c r="B50" s="247"/>
       <c r="C50" s="63"/>
       <c r="D50" s="51"/>
       <c r="E50" s="52"/>
     </row>
     <row r="51" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B51" s="246"/>
+      <c r="B51" s="247"/>
       <c r="C51" s="50" t="s">
         <v>139</v>
       </c>
@@ -5426,13 +5460,13 @@
       <c r="E51" s="52"/>
     </row>
     <row r="52" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B52" s="246"/>
+      <c r="B52" s="247"/>
       <c r="C52" s="63"/>
       <c r="D52" s="51"/>
       <c r="E52" s="52"/>
     </row>
     <row r="53" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B53" s="246"/>
+      <c r="B53" s="247"/>
       <c r="C53" s="63" t="s">
         <v>140</v>
       </c>
@@ -5442,7 +5476,7 @@
       </c>
     </row>
     <row r="54" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B54" s="246"/>
+      <c r="B54" s="247"/>
       <c r="C54" s="63" t="s">
         <v>142</v>
       </c>
@@ -5450,7 +5484,7 @@
       <c r="E54" s="52"/>
     </row>
     <row r="55" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B55" s="246"/>
+      <c r="B55" s="247"/>
       <c r="C55" s="63" t="s">
         <v>143</v>
       </c>
@@ -5458,7 +5492,7 @@
       <c r="E55" s="52"/>
     </row>
     <row r="56" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B56" s="246"/>
+      <c r="B56" s="247"/>
       <c r="C56" s="63" t="s">
         <v>144</v>
       </c>
@@ -5466,7 +5500,7 @@
       <c r="E56" s="52"/>
     </row>
     <row r="57" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B57" s="246"/>
+      <c r="B57" s="247"/>
       <c r="C57" s="63" t="s">
         <v>145</v>
       </c>
@@ -5474,7 +5508,7 @@
       <c r="E57" s="52"/>
     </row>
     <row r="58" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B58" s="246"/>
+      <c r="B58" s="247"/>
       <c r="C58" s="63" t="s">
         <v>146</v>
       </c>
@@ -5484,7 +5518,7 @@
       <c r="E58" s="52"/>
     </row>
     <row r="59" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B59" s="246"/>
+      <c r="B59" s="247"/>
       <c r="C59" s="63" t="s">
         <v>138</v>
       </c>
@@ -5494,7 +5528,7 @@
       <c r="E59" s="52"/>
     </row>
     <row r="60" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B60" s="246"/>
+      <c r="B60" s="247"/>
       <c r="C60" s="63" t="s">
         <v>149</v>
       </c>
@@ -5502,7 +5536,7 @@
       <c r="E60" s="52"/>
     </row>
     <row r="61" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B61" s="246"/>
+      <c r="B61" s="247"/>
       <c r="C61" s="63" t="s">
         <v>150</v>
       </c>
@@ -5512,7 +5546,7 @@
       </c>
     </row>
     <row r="62" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B62" s="246"/>
+      <c r="B62" s="247"/>
       <c r="C62" s="63" t="s">
         <v>152</v>
       </c>
@@ -5520,13 +5554,13 @@
       <c r="E62" s="52"/>
     </row>
     <row r="63" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B63" s="246"/>
+      <c r="B63" s="247"/>
       <c r="C63" s="63"/>
       <c r="D63" s="51"/>
       <c r="E63" s="52"/>
     </row>
     <row r="64" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B64" s="246"/>
+      <c r="B64" s="247"/>
       <c r="C64" s="50" t="s">
         <v>153</v>
       </c>
@@ -5534,13 +5568,13 @@
       <c r="E64" s="52"/>
     </row>
     <row r="65" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B65" s="246"/>
+      <c r="B65" s="247"/>
       <c r="C65" s="63"/>
       <c r="D65" s="51"/>
       <c r="E65" s="52"/>
     </row>
     <row r="66" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B66" s="246"/>
+      <c r="B66" s="247"/>
       <c r="C66" s="63" t="s">
         <v>155</v>
       </c>
@@ -5548,7 +5582,7 @@
       <c r="E66" s="52"/>
     </row>
     <row r="67" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B67" s="246"/>
+      <c r="B67" s="247"/>
       <c r="C67" s="63" t="s">
         <v>156</v>
       </c>
@@ -5556,7 +5590,7 @@
       <c r="E67" s="52"/>
     </row>
     <row r="68" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B68" s="246"/>
+      <c r="B68" s="247"/>
       <c r="C68" s="63" t="s">
         <v>154</v>
       </c>
@@ -5564,7 +5598,7 @@
       <c r="E68" s="52"/>
     </row>
     <row r="69" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B69" s="246"/>
+      <c r="B69" s="247"/>
       <c r="C69" s="63" t="s">
         <v>157</v>
       </c>
@@ -5572,25 +5606,25 @@
       <c r="E69" s="52"/>
     </row>
     <row r="70" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B70" s="246"/>
+      <c r="B70" s="247"/>
       <c r="C70" s="63"/>
       <c r="D70" s="51"/>
       <c r="E70" s="52"/>
     </row>
     <row r="71" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B71" s="246"/>
+      <c r="B71" s="247"/>
       <c r="C71" s="63"/>
       <c r="D71" s="51"/>
       <c r="E71" s="52"/>
     </row>
     <row r="72" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B72" s="247"/>
+      <c r="B72" s="248"/>
       <c r="C72" s="54"/>
       <c r="D72" s="55"/>
       <c r="E72" s="56"/>
     </row>
     <row r="73" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B73" s="244" t="s">
+      <c r="B73" s="245" t="s">
         <v>61</v>
       </c>
       <c r="C73" s="63"/>
@@ -5602,7 +5636,7 @@
       </c>
     </row>
     <row r="74" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B74" s="246"/>
+      <c r="B74" s="247"/>
       <c r="C74" s="63" t="s">
         <v>188</v>
       </c>
@@ -5614,7 +5648,7 @@
       </c>
     </row>
     <row r="75" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B75" s="246"/>
+      <c r="B75" s="247"/>
       <c r="C75" s="53"/>
       <c r="D75" s="64" t="s">
         <v>162</v>
@@ -5624,7 +5658,7 @@
       </c>
     </row>
     <row r="76" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B76" s="246"/>
+      <c r="B76" s="247"/>
       <c r="C76" s="53"/>
       <c r="D76" s="51" t="s">
         <v>102</v>
@@ -5634,7 +5668,7 @@
       </c>
     </row>
     <row r="77" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B77" s="246"/>
+      <c r="B77" s="247"/>
       <c r="C77" s="53"/>
       <c r="D77" s="51" t="s">
         <v>103</v>
@@ -5644,7 +5678,7 @@
       </c>
     </row>
     <row r="78" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B78" s="246"/>
+      <c r="B78" s="247"/>
       <c r="C78" s="53"/>
       <c r="D78" s="64" t="s">
         <v>106</v>
@@ -5654,7 +5688,7 @@
       </c>
     </row>
     <row r="79" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B79" s="246"/>
+      <c r="B79" s="247"/>
       <c r="C79" s="53"/>
       <c r="D79" s="64" t="s">
         <v>179</v>
@@ -5664,7 +5698,7 @@
       </c>
     </row>
     <row r="80" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B80" s="246"/>
+      <c r="B80" s="247"/>
       <c r="C80" s="53"/>
       <c r="D80" s="64" t="s">
         <v>158</v>
@@ -5674,7 +5708,7 @@
       </c>
     </row>
     <row r="81" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B81" s="246"/>
+      <c r="B81" s="247"/>
       <c r="C81" s="53"/>
       <c r="D81" s="64" t="s">
         <v>159</v>
@@ -5684,7 +5718,7 @@
       </c>
     </row>
     <row r="82" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B82" s="246"/>
+      <c r="B82" s="247"/>
       <c r="C82" s="53"/>
       <c r="D82" s="64" t="s">
         <v>160</v>
@@ -5694,7 +5728,7 @@
       </c>
     </row>
     <row r="83" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B83" s="246"/>
+      <c r="B83" s="247"/>
       <c r="C83" s="63"/>
       <c r="D83" s="64" t="s">
         <v>180</v>
@@ -5704,7 +5738,7 @@
       </c>
     </row>
     <row r="84" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B84" s="246"/>
+      <c r="B84" s="247"/>
       <c r="C84" s="63"/>
       <c r="D84" s="64" t="s">
         <v>181</v>
@@ -5714,7 +5748,7 @@
       </c>
     </row>
     <row r="85" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B85" s="246"/>
+      <c r="B85" s="247"/>
       <c r="C85" s="53"/>
       <c r="D85" s="64" t="s">
         <v>182</v>
@@ -5724,7 +5758,7 @@
       </c>
     </row>
     <row r="86" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B86" s="246"/>
+      <c r="B86" s="247"/>
       <c r="C86" s="53"/>
       <c r="D86" s="64" t="s">
         <v>184</v>
@@ -5734,7 +5768,7 @@
       </c>
     </row>
     <row r="87" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B87" s="246"/>
+      <c r="B87" s="247"/>
       <c r="C87" s="53"/>
       <c r="D87" s="64" t="s">
         <v>193</v>
@@ -5744,7 +5778,7 @@
       </c>
     </row>
     <row r="88" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B88" s="246"/>
+      <c r="B88" s="247"/>
       <c r="C88" s="53"/>
       <c r="D88" s="64" t="s">
         <v>194</v>
@@ -5754,13 +5788,13 @@
       </c>
     </row>
     <row r="89" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B89" s="247"/>
+      <c r="B89" s="248"/>
       <c r="C89" s="54"/>
       <c r="D89" s="55"/>
       <c r="E89" s="56"/>
     </row>
     <row r="90" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B90" s="244" t="s">
+      <c r="B90" s="245" t="s">
         <v>62</v>
       </c>
       <c r="C90" s="57"/>
@@ -5768,7 +5802,7 @@
       <c r="E90" s="59"/>
     </row>
     <row r="91" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B91" s="246"/>
+      <c r="B91" s="247"/>
       <c r="C91" s="63" t="s">
         <v>189</v>
       </c>
@@ -5776,7 +5810,7 @@
       <c r="E91" s="52"/>
     </row>
     <row r="92" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B92" s="246"/>
+      <c r="B92" s="247"/>
       <c r="C92" s="63" t="s">
         <v>190</v>
       </c>
@@ -5784,7 +5818,7 @@
       <c r="E92" s="52"/>
     </row>
     <row r="93" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B93" s="246"/>
+      <c r="B93" s="247"/>
       <c r="C93" s="53" t="s">
         <v>191</v>
       </c>
@@ -5792,37 +5826,37 @@
       <c r="E93" s="52"/>
     </row>
     <row r="94" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B94" s="246"/>
+      <c r="B94" s="247"/>
       <c r="C94" s="53"/>
       <c r="D94" s="51"/>
       <c r="E94" s="52"/>
     </row>
     <row r="95" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B95" s="246"/>
+      <c r="B95" s="247"/>
       <c r="C95" s="53"/>
       <c r="D95" s="51"/>
       <c r="E95" s="52"/>
     </row>
     <row r="96" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B96" s="246"/>
+      <c r="B96" s="247"/>
       <c r="C96" s="53"/>
       <c r="D96" s="51"/>
       <c r="E96" s="52"/>
     </row>
     <row r="97" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B97" s="246"/>
+      <c r="B97" s="247"/>
       <c r="C97" s="53"/>
       <c r="D97" s="51"/>
       <c r="E97" s="52"/>
     </row>
     <row r="98" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B98" s="246"/>
+      <c r="B98" s="247"/>
       <c r="C98" s="53"/>
       <c r="D98" s="51"/>
       <c r="E98" s="52"/>
     </row>
     <row r="99" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B99" s="247"/>
+      <c r="B99" s="248"/>
       <c r="C99" s="60"/>
       <c r="D99" s="61"/>
       <c r="E99" s="62"/>
@@ -5885,11 +5919,11 @@
         <v>476</v>
       </c>
       <c r="C3" s="106"/>
-      <c r="D3" s="248" t="s">
+      <c r="D3" s="249" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="249"/>
-      <c r="F3" s="250"/>
+      <c r="E3" s="250"/>
+      <c r="F3" s="251"/>
       <c r="H3" s="75"/>
     </row>
     <row r="4" spans="1:8" s="76" customFormat="1" ht="30.75" customHeight="1">
@@ -5897,11 +5931,11 @@
         <v>477</v>
       </c>
       <c r="C4" s="106"/>
-      <c r="D4" s="251" t="s">
+      <c r="D4" s="252" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="249"/>
-      <c r="F4" s="250"/>
+      <c r="E4" s="250"/>
+      <c r="F4" s="251"/>
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1">
       <c r="A5" s="156" t="s">
@@ -7365,16 +7399,16 @@
       <c r="W10" s="29"/>
     </row>
     <row r="11" spans="1:107" thickBot="1">
-      <c r="G11" s="258" t="s">
+      <c r="G11" s="279" t="s">
         <v>324</v>
       </c>
-      <c r="H11" s="259"/>
-      <c r="I11" s="259"/>
-      <c r="J11" s="259"/>
-      <c r="K11" s="259"/>
-      <c r="L11" s="259"/>
-      <c r="M11" s="259"/>
-      <c r="N11" s="260"/>
+      <c r="H11" s="280"/>
+      <c r="I11" s="280"/>
+      <c r="J11" s="280"/>
+      <c r="K11" s="280"/>
+      <c r="L11" s="280"/>
+      <c r="M11" s="280"/>
+      <c r="N11" s="281"/>
       <c r="O11" s="48"/>
       <c r="P11" s="39"/>
       <c r="Q11" s="39"/>
@@ -7412,66 +7446,66 @@
       <c r="AW11" s="47"/>
       <c r="AX11" s="113"/>
       <c r="AY11" s="115"/>
-      <c r="BD11" s="258" t="s">
+      <c r="BD11" s="279" t="s">
         <v>324</v>
       </c>
-      <c r="BE11" s="259"/>
-      <c r="BF11" s="259"/>
-      <c r="BG11" s="259"/>
-      <c r="BH11" s="259"/>
-      <c r="BI11" s="259"/>
-      <c r="BJ11" s="259"/>
-      <c r="BK11" s="260"/>
-      <c r="BP11" s="258" t="s">
+      <c r="BE11" s="280"/>
+      <c r="BF11" s="280"/>
+      <c r="BG11" s="280"/>
+      <c r="BH11" s="280"/>
+      <c r="BI11" s="280"/>
+      <c r="BJ11" s="280"/>
+      <c r="BK11" s="281"/>
+      <c r="BP11" s="279" t="s">
         <v>324</v>
       </c>
-      <c r="BQ11" s="259"/>
-      <c r="BR11" s="259"/>
-      <c r="BS11" s="259"/>
-      <c r="BT11" s="259"/>
-      <c r="BU11" s="259"/>
-      <c r="BV11" s="259"/>
-      <c r="BW11" s="260"/>
-      <c r="CA11" s="258" t="s">
+      <c r="BQ11" s="280"/>
+      <c r="BR11" s="280"/>
+      <c r="BS11" s="280"/>
+      <c r="BT11" s="280"/>
+      <c r="BU11" s="280"/>
+      <c r="BV11" s="280"/>
+      <c r="BW11" s="281"/>
+      <c r="CA11" s="279" t="s">
         <v>324</v>
       </c>
-      <c r="CB11" s="259"/>
-      <c r="CC11" s="259"/>
-      <c r="CD11" s="259"/>
-      <c r="CE11" s="259"/>
-      <c r="CF11" s="259"/>
-      <c r="CG11" s="259"/>
-      <c r="CH11" s="260"/>
-      <c r="CL11" s="258" t="s">
+      <c r="CB11" s="280"/>
+      <c r="CC11" s="280"/>
+      <c r="CD11" s="280"/>
+      <c r="CE11" s="280"/>
+      <c r="CF11" s="280"/>
+      <c r="CG11" s="280"/>
+      <c r="CH11" s="281"/>
+      <c r="CL11" s="279" t="s">
         <v>324</v>
       </c>
-      <c r="CM11" s="259"/>
-      <c r="CN11" s="259"/>
-      <c r="CO11" s="259"/>
-      <c r="CP11" s="259"/>
-      <c r="CQ11" s="259"/>
-      <c r="CR11" s="259"/>
-      <c r="CS11" s="260"/>
-      <c r="CV11" s="258" t="s">
+      <c r="CM11" s="280"/>
+      <c r="CN11" s="280"/>
+      <c r="CO11" s="280"/>
+      <c r="CP11" s="280"/>
+      <c r="CQ11" s="280"/>
+      <c r="CR11" s="280"/>
+      <c r="CS11" s="281"/>
+      <c r="CV11" s="279" t="s">
         <v>324</v>
       </c>
-      <c r="CW11" s="259"/>
-      <c r="CX11" s="259"/>
-      <c r="CY11" s="259"/>
-      <c r="CZ11" s="259"/>
-      <c r="DA11" s="259"/>
-      <c r="DB11" s="259"/>
-      <c r="DC11" s="260"/>
+      <c r="CW11" s="280"/>
+      <c r="CX11" s="280"/>
+      <c r="CY11" s="280"/>
+      <c r="CZ11" s="280"/>
+      <c r="DA11" s="280"/>
+      <c r="DB11" s="280"/>
+      <c r="DC11" s="281"/>
     </row>
     <row r="12" spans="1:107" thickBot="1">
-      <c r="G12" s="261"/>
-      <c r="H12" s="262"/>
-      <c r="I12" s="262"/>
-      <c r="J12" s="262"/>
-      <c r="K12" s="262"/>
-      <c r="L12" s="262"/>
-      <c r="M12" s="262"/>
-      <c r="N12" s="263"/>
+      <c r="G12" s="282"/>
+      <c r="H12" s="283"/>
+      <c r="I12" s="283"/>
+      <c r="J12" s="283"/>
+      <c r="K12" s="283"/>
+      <c r="L12" s="283"/>
+      <c r="M12" s="283"/>
+      <c r="N12" s="284"/>
       <c r="O12" s="40"/>
       <c r="P12" s="29"/>
       <c r="Q12" s="29"/>
@@ -7482,49 +7516,49 @@
       <c r="V12" s="29"/>
       <c r="W12" s="29"/>
       <c r="AX12" s="42"/>
-      <c r="AY12" s="255" t="s">
+      <c r="AY12" s="288" t="s">
         <v>323</v>
       </c>
-      <c r="BD12" s="261"/>
-      <c r="BE12" s="262"/>
-      <c r="BF12" s="262"/>
-      <c r="BG12" s="262"/>
-      <c r="BH12" s="262"/>
-      <c r="BI12" s="262"/>
-      <c r="BJ12" s="262"/>
-      <c r="BK12" s="263"/>
-      <c r="BP12" s="261"/>
-      <c r="BQ12" s="262"/>
-      <c r="BR12" s="262"/>
-      <c r="BS12" s="262"/>
-      <c r="BT12" s="262"/>
-      <c r="BU12" s="262"/>
-      <c r="BV12" s="262"/>
-      <c r="BW12" s="263"/>
-      <c r="CA12" s="261"/>
-      <c r="CB12" s="262"/>
-      <c r="CC12" s="262"/>
-      <c r="CD12" s="262"/>
-      <c r="CE12" s="262"/>
-      <c r="CF12" s="262"/>
-      <c r="CG12" s="262"/>
-      <c r="CH12" s="263"/>
-      <c r="CL12" s="261"/>
-      <c r="CM12" s="262"/>
-      <c r="CN12" s="262"/>
-      <c r="CO12" s="262"/>
-      <c r="CP12" s="262"/>
-      <c r="CQ12" s="262"/>
-      <c r="CR12" s="262"/>
-      <c r="CS12" s="263"/>
-      <c r="CV12" s="261"/>
-      <c r="CW12" s="262"/>
-      <c r="CX12" s="262"/>
-      <c r="CY12" s="262"/>
-      <c r="CZ12" s="262"/>
-      <c r="DA12" s="262"/>
-      <c r="DB12" s="262"/>
-      <c r="DC12" s="263"/>
+      <c r="BD12" s="282"/>
+      <c r="BE12" s="283"/>
+      <c r="BF12" s="283"/>
+      <c r="BG12" s="283"/>
+      <c r="BH12" s="283"/>
+      <c r="BI12" s="283"/>
+      <c r="BJ12" s="283"/>
+      <c r="BK12" s="284"/>
+      <c r="BP12" s="282"/>
+      <c r="BQ12" s="283"/>
+      <c r="BR12" s="283"/>
+      <c r="BS12" s="283"/>
+      <c r="BT12" s="283"/>
+      <c r="BU12" s="283"/>
+      <c r="BV12" s="283"/>
+      <c r="BW12" s="284"/>
+      <c r="CA12" s="282"/>
+      <c r="CB12" s="283"/>
+      <c r="CC12" s="283"/>
+      <c r="CD12" s="283"/>
+      <c r="CE12" s="283"/>
+      <c r="CF12" s="283"/>
+      <c r="CG12" s="283"/>
+      <c r="CH12" s="284"/>
+      <c r="CL12" s="282"/>
+      <c r="CM12" s="283"/>
+      <c r="CN12" s="283"/>
+      <c r="CO12" s="283"/>
+      <c r="CP12" s="283"/>
+      <c r="CQ12" s="283"/>
+      <c r="CR12" s="283"/>
+      <c r="CS12" s="284"/>
+      <c r="CV12" s="282"/>
+      <c r="CW12" s="283"/>
+      <c r="CX12" s="283"/>
+      <c r="CY12" s="283"/>
+      <c r="CZ12" s="283"/>
+      <c r="DA12" s="283"/>
+      <c r="DB12" s="283"/>
+      <c r="DC12" s="284"/>
     </row>
     <row r="13" spans="1:107" thickBot="1">
       <c r="G13" s="40"/>
@@ -7543,7 +7577,7 @@
       <c r="V13" s="29"/>
       <c r="W13" s="29"/>
       <c r="AX13" s="42"/>
-      <c r="AY13" s="256"/>
+      <c r="AY13" s="289"/>
       <c r="BD13" s="40"/>
       <c r="BG13" s="29"/>
       <c r="BH13" s="29"/>
@@ -7568,16 +7602,16 @@
       <c r="DC13" s="42"/>
     </row>
     <row r="14" spans="1:107" thickBot="1">
-      <c r="G14" s="264" t="s">
+      <c r="G14" s="285" t="s">
         <v>325</v>
       </c>
-      <c r="H14" s="265"/>
-      <c r="I14" s="265"/>
-      <c r="J14" s="265"/>
-      <c r="K14" s="265"/>
-      <c r="L14" s="265"/>
-      <c r="M14" s="265"/>
-      <c r="N14" s="266"/>
+      <c r="H14" s="286"/>
+      <c r="I14" s="286"/>
+      <c r="J14" s="286"/>
+      <c r="K14" s="286"/>
+      <c r="L14" s="286"/>
+      <c r="M14" s="286"/>
+      <c r="N14" s="287"/>
       <c r="O14" s="40"/>
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
@@ -7588,57 +7622,57 @@
       <c r="V14" s="29"/>
       <c r="W14" s="29"/>
       <c r="AX14" s="42"/>
-      <c r="AY14" s="256"/>
-      <c r="BD14" s="264" t="s">
+      <c r="AY14" s="289"/>
+      <c r="BD14" s="285" t="s">
         <v>338</v>
       </c>
-      <c r="BE14" s="265"/>
-      <c r="BF14" s="265"/>
-      <c r="BG14" s="265"/>
-      <c r="BH14" s="265"/>
-      <c r="BI14" s="265"/>
-      <c r="BJ14" s="265"/>
-      <c r="BK14" s="266"/>
-      <c r="BP14" s="264" t="s">
+      <c r="BE14" s="286"/>
+      <c r="BF14" s="286"/>
+      <c r="BG14" s="286"/>
+      <c r="BH14" s="286"/>
+      <c r="BI14" s="286"/>
+      <c r="BJ14" s="286"/>
+      <c r="BK14" s="287"/>
+      <c r="BP14" s="285" t="s">
         <v>327</v>
       </c>
-      <c r="BQ14" s="265"/>
-      <c r="BR14" s="265"/>
-      <c r="BS14" s="265"/>
-      <c r="BT14" s="265"/>
-      <c r="BU14" s="265"/>
-      <c r="BV14" s="265"/>
-      <c r="BW14" s="266"/>
-      <c r="CA14" s="264" t="s">
+      <c r="BQ14" s="286"/>
+      <c r="BR14" s="286"/>
+      <c r="BS14" s="286"/>
+      <c r="BT14" s="286"/>
+      <c r="BU14" s="286"/>
+      <c r="BV14" s="286"/>
+      <c r="BW14" s="287"/>
+      <c r="CA14" s="285" t="s">
         <v>326</v>
       </c>
-      <c r="CB14" s="265"/>
-      <c r="CC14" s="265"/>
-      <c r="CD14" s="265"/>
-      <c r="CE14" s="265"/>
-      <c r="CF14" s="265"/>
-      <c r="CG14" s="265"/>
-      <c r="CH14" s="266"/>
-      <c r="CL14" s="264" t="s">
+      <c r="CB14" s="286"/>
+      <c r="CC14" s="286"/>
+      <c r="CD14" s="286"/>
+      <c r="CE14" s="286"/>
+      <c r="CF14" s="286"/>
+      <c r="CG14" s="286"/>
+      <c r="CH14" s="287"/>
+      <c r="CL14" s="285" t="s">
         <v>329</v>
       </c>
-      <c r="CM14" s="265"/>
-      <c r="CN14" s="265"/>
-      <c r="CO14" s="265"/>
-      <c r="CP14" s="265"/>
-      <c r="CQ14" s="265"/>
-      <c r="CR14" s="265"/>
-      <c r="CS14" s="266"/>
-      <c r="CV14" s="264" t="s">
+      <c r="CM14" s="286"/>
+      <c r="CN14" s="286"/>
+      <c r="CO14" s="286"/>
+      <c r="CP14" s="286"/>
+      <c r="CQ14" s="286"/>
+      <c r="CR14" s="286"/>
+      <c r="CS14" s="287"/>
+      <c r="CV14" s="285" t="s">
         <v>328</v>
       </c>
-      <c r="CW14" s="265"/>
-      <c r="CX14" s="265"/>
-      <c r="CY14" s="265"/>
-      <c r="CZ14" s="265"/>
-      <c r="DA14" s="265"/>
-      <c r="DB14" s="265"/>
-      <c r="DC14" s="266"/>
+      <c r="CW14" s="286"/>
+      <c r="CX14" s="286"/>
+      <c r="CY14" s="286"/>
+      <c r="CZ14" s="286"/>
+      <c r="DA14" s="286"/>
+      <c r="DB14" s="286"/>
+      <c r="DC14" s="287"/>
     </row>
     <row r="15" spans="1:107" thickBot="1">
       <c r="G15" s="117"/>
@@ -7659,7 +7693,7 @@
       <c r="V15" s="29"/>
       <c r="W15" s="29"/>
       <c r="AX15" s="42"/>
-      <c r="AY15" s="256"/>
+      <c r="AY15" s="289"/>
       <c r="BD15" s="117"/>
       <c r="BE15" s="116"/>
       <c r="BF15" s="114"/>
@@ -7720,7 +7754,7 @@
       <c r="V16" s="29"/>
       <c r="W16" s="29"/>
       <c r="AX16" s="42"/>
-      <c r="AY16" s="256"/>
+      <c r="AY16" s="289"/>
       <c r="BD16" s="40"/>
       <c r="BE16" s="29"/>
       <c r="BF16" s="29"/>
@@ -7772,16 +7806,16 @@
       <c r="M17" s="29"/>
       <c r="N17" s="29"/>
       <c r="O17" s="40"/>
-      <c r="P17" s="267"/>
-      <c r="Q17" s="243"/>
-      <c r="R17" s="243"/>
+      <c r="P17" s="291"/>
+      <c r="Q17" s="244"/>
+      <c r="R17" s="244"/>
       <c r="S17" s="29"/>
-      <c r="T17" s="267"/>
-      <c r="U17" s="243"/>
-      <c r="V17" s="243"/>
-      <c r="W17" s="243"/>
+      <c r="T17" s="291"/>
+      <c r="U17" s="244"/>
+      <c r="V17" s="244"/>
+      <c r="W17" s="244"/>
       <c r="AX17" s="42"/>
-      <c r="AY17" s="256"/>
+      <c r="AY17" s="289"/>
       <c r="BD17" s="40"/>
       <c r="BE17" s="29"/>
       <c r="BF17" s="29"/>
@@ -7799,14 +7833,14 @@
       <c r="BV17" s="29"/>
       <c r="BW17" s="46"/>
       <c r="CA17" s="40"/>
-      <c r="CB17" s="268" t="s">
+      <c r="CB17" s="253" t="s">
         <v>349</v>
       </c>
-      <c r="CC17" s="253"/>
-      <c r="CD17" s="253"/>
-      <c r="CE17" s="253"/>
-      <c r="CF17" s="253"/>
-      <c r="CG17" s="254"/>
+      <c r="CC17" s="256"/>
+      <c r="CD17" s="256"/>
+      <c r="CE17" s="256"/>
+      <c r="CF17" s="256"/>
+      <c r="CG17" s="257"/>
       <c r="CH17" s="46"/>
       <c r="CL17" s="40"/>
       <c r="CM17" s="29"/>
@@ -7829,96 +7863,96 @@
       <c r="G18" s="41"/>
       <c r="O18" s="41"/>
       <c r="AX18" s="42"/>
-      <c r="AY18" s="256"/>
+      <c r="AY18" s="289"/>
       <c r="BD18" s="41"/>
-      <c r="BE18" s="252" t="s">
+      <c r="BE18" s="267" t="s">
         <v>335</v>
       </c>
-      <c r="BF18" s="253"/>
-      <c r="BG18" s="253"/>
-      <c r="BH18" s="253"/>
-      <c r="BI18" s="253"/>
-      <c r="BJ18" s="254"/>
+      <c r="BF18" s="256"/>
+      <c r="BG18" s="256"/>
+      <c r="BH18" s="256"/>
+      <c r="BI18" s="256"/>
+      <c r="BJ18" s="257"/>
       <c r="BK18" s="42"/>
       <c r="BP18" s="41"/>
-      <c r="BQ18" s="252" t="s">
+      <c r="BQ18" s="267" t="s">
         <v>331</v>
       </c>
-      <c r="BR18" s="253"/>
-      <c r="BS18" s="253"/>
-      <c r="BT18" s="253"/>
-      <c r="BU18" s="253"/>
-      <c r="BV18" s="254"/>
+      <c r="BR18" s="256"/>
+      <c r="BS18" s="256"/>
+      <c r="BT18" s="256"/>
+      <c r="BU18" s="256"/>
+      <c r="BV18" s="257"/>
       <c r="BW18" s="42"/>
       <c r="CA18" s="41"/>
-      <c r="CB18" s="269" t="s">
+      <c r="CB18" s="268" t="s">
         <v>342</v>
       </c>
-      <c r="CC18" s="270"/>
-      <c r="CD18" s="252"/>
-      <c r="CE18" s="254"/>
-      <c r="CF18" s="269" t="s">
+      <c r="CC18" s="269"/>
+      <c r="CD18" s="267"/>
+      <c r="CE18" s="257"/>
+      <c r="CF18" s="268" t="s">
         <v>341</v>
       </c>
-      <c r="CG18" s="270"/>
+      <c r="CG18" s="269"/>
       <c r="CH18" s="42"/>
       <c r="CL18" s="41"/>
-      <c r="CM18" s="268" t="s">
+      <c r="CM18" s="253" t="s">
         <v>354</v>
       </c>
-      <c r="CN18" s="253"/>
-      <c r="CO18" s="253"/>
-      <c r="CP18" s="253"/>
-      <c r="CQ18" s="253"/>
-      <c r="CR18" s="254"/>
+      <c r="CN18" s="256"/>
+      <c r="CO18" s="256"/>
+      <c r="CP18" s="256"/>
+      <c r="CQ18" s="256"/>
+      <c r="CR18" s="257"/>
       <c r="CS18" s="42"/>
       <c r="CV18" s="41"/>
-      <c r="CW18" s="268" t="s">
+      <c r="CW18" s="253" t="s">
         <v>359</v>
       </c>
-      <c r="CX18" s="253"/>
-      <c r="CY18" s="253"/>
-      <c r="CZ18" s="253"/>
-      <c r="DA18" s="253"/>
-      <c r="DB18" s="254"/>
+      <c r="CX18" s="256"/>
+      <c r="CY18" s="256"/>
+      <c r="CZ18" s="256"/>
+      <c r="DA18" s="256"/>
+      <c r="DB18" s="257"/>
       <c r="DC18" s="42"/>
     </row>
     <row r="19" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G19" s="41"/>
       <c r="O19" s="41"/>
       <c r="AX19" s="42"/>
-      <c r="AY19" s="256"/>
+      <c r="AY19" s="289"/>
       <c r="BD19" s="41"/>
-      <c r="BE19" s="252" t="s">
+      <c r="BE19" s="267" t="s">
         <v>336</v>
       </c>
-      <c r="BF19" s="253"/>
-      <c r="BG19" s="253"/>
-      <c r="BH19" s="253"/>
-      <c r="BI19" s="253"/>
-      <c r="BJ19" s="254"/>
+      <c r="BF19" s="256"/>
+      <c r="BG19" s="256"/>
+      <c r="BH19" s="256"/>
+      <c r="BI19" s="256"/>
+      <c r="BJ19" s="257"/>
       <c r="BK19" s="42"/>
       <c r="BP19" s="41"/>
-      <c r="BQ19" s="252" t="s">
+      <c r="BQ19" s="267" t="s">
         <v>330</v>
       </c>
-      <c r="BR19" s="253"/>
-      <c r="BS19" s="253"/>
-      <c r="BT19" s="253"/>
-      <c r="BU19" s="253"/>
-      <c r="BV19" s="254"/>
+      <c r="BR19" s="256"/>
+      <c r="BS19" s="256"/>
+      <c r="BT19" s="256"/>
+      <c r="BU19" s="256"/>
+      <c r="BV19" s="257"/>
       <c r="BW19" s="42"/>
       <c r="CA19" s="41"/>
       <c r="CH19" s="42"/>
       <c r="CL19" s="41"/>
-      <c r="CM19" s="268" t="s">
+      <c r="CM19" s="253" t="s">
         <v>355</v>
       </c>
-      <c r="CN19" s="253"/>
-      <c r="CO19" s="253"/>
-      <c r="CP19" s="253"/>
-      <c r="CQ19" s="253"/>
-      <c r="CR19" s="254"/>
+      <c r="CN19" s="256"/>
+      <c r="CO19" s="256"/>
+      <c r="CP19" s="256"/>
+      <c r="CQ19" s="256"/>
+      <c r="CR19" s="257"/>
       <c r="CS19" s="42"/>
       <c r="CV19" s="41"/>
       <c r="DC19" s="42"/>
@@ -7927,114 +7961,114 @@
       <c r="G20" s="41"/>
       <c r="O20" s="41"/>
       <c r="AX20" s="42"/>
-      <c r="AY20" s="256"/>
+      <c r="AY20" s="289"/>
       <c r="BD20" s="41"/>
       <c r="BK20" s="42"/>
       <c r="BP20" s="41"/>
       <c r="BW20" s="42"/>
       <c r="CA20" s="41"/>
-      <c r="CB20" s="268" t="s">
+      <c r="CB20" s="253" t="s">
         <v>350</v>
       </c>
-      <c r="CC20" s="253"/>
-      <c r="CD20" s="253"/>
-      <c r="CE20" s="253"/>
-      <c r="CF20" s="253"/>
-      <c r="CG20" s="254"/>
+      <c r="CC20" s="256"/>
+      <c r="CD20" s="256"/>
+      <c r="CE20" s="256"/>
+      <c r="CF20" s="256"/>
+      <c r="CG20" s="257"/>
       <c r="CH20" s="42"/>
       <c r="CL20" s="41"/>
       <c r="CS20" s="42"/>
       <c r="CV20" s="41"/>
-      <c r="CW20" s="268" t="s">
+      <c r="CW20" s="253" t="s">
         <v>360</v>
       </c>
-      <c r="CX20" s="253"/>
-      <c r="CY20" s="253"/>
-      <c r="CZ20" s="253"/>
-      <c r="DA20" s="253"/>
-      <c r="DB20" s="254"/>
+      <c r="CX20" s="256"/>
+      <c r="CY20" s="256"/>
+      <c r="CZ20" s="256"/>
+      <c r="DA20" s="256"/>
+      <c r="DB20" s="257"/>
       <c r="DC20" s="42"/>
     </row>
     <row r="21" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G21" s="41"/>
       <c r="O21" s="41"/>
       <c r="AX21" s="42"/>
-      <c r="AY21" s="256"/>
+      <c r="AY21" s="289"/>
       <c r="BD21" s="41"/>
-      <c r="BE21" s="252" t="s">
+      <c r="BE21" s="267" t="s">
         <v>337</v>
       </c>
-      <c r="BF21" s="253"/>
-      <c r="BG21" s="253"/>
-      <c r="BH21" s="253"/>
-      <c r="BI21" s="253"/>
-      <c r="BJ21" s="254"/>
+      <c r="BF21" s="256"/>
+      <c r="BG21" s="256"/>
+      <c r="BH21" s="256"/>
+      <c r="BI21" s="256"/>
+      <c r="BJ21" s="257"/>
       <c r="BK21" s="42"/>
       <c r="BP21" s="41"/>
-      <c r="BQ21" s="252" t="s">
+      <c r="BQ21" s="267" t="s">
         <v>332</v>
       </c>
-      <c r="BR21" s="253"/>
-      <c r="BS21" s="253"/>
-      <c r="BT21" s="253"/>
-      <c r="BU21" s="253"/>
-      <c r="BV21" s="254"/>
+      <c r="BR21" s="256"/>
+      <c r="BS21" s="256"/>
+      <c r="BT21" s="256"/>
+      <c r="BU21" s="256"/>
+      <c r="BV21" s="257"/>
       <c r="BW21" s="42"/>
       <c r="CA21" s="41"/>
-      <c r="CB21" s="268" t="s">
+      <c r="CB21" s="253" t="s">
         <v>336</v>
       </c>
-      <c r="CC21" s="253"/>
-      <c r="CD21" s="253"/>
-      <c r="CE21" s="253"/>
-      <c r="CF21" s="253"/>
-      <c r="CG21" s="254"/>
+      <c r="CC21" s="256"/>
+      <c r="CD21" s="256"/>
+      <c r="CE21" s="256"/>
+      <c r="CF21" s="256"/>
+      <c r="CG21" s="257"/>
       <c r="CH21" s="42"/>
       <c r="CL21" s="41"/>
-      <c r="CM21" s="268" t="s">
+      <c r="CM21" s="253" t="s">
         <v>356</v>
       </c>
-      <c r="CN21" s="253"/>
-      <c r="CO21" s="253"/>
-      <c r="CP21" s="253"/>
-      <c r="CQ21" s="253"/>
-      <c r="CR21" s="254"/>
+      <c r="CN21" s="256"/>
+      <c r="CO21" s="256"/>
+      <c r="CP21" s="256"/>
+      <c r="CQ21" s="256"/>
+      <c r="CR21" s="257"/>
       <c r="CS21" s="42"/>
       <c r="CV21" s="41"/>
-      <c r="CW21" s="268" t="s">
+      <c r="CW21" s="253" t="s">
         <v>355</v>
       </c>
-      <c r="CX21" s="253"/>
-      <c r="CY21" s="253"/>
-      <c r="CZ21" s="253"/>
-      <c r="DA21" s="253"/>
-      <c r="DB21" s="254"/>
+      <c r="CX21" s="256"/>
+      <c r="CY21" s="256"/>
+      <c r="CZ21" s="256"/>
+      <c r="DA21" s="256"/>
+      <c r="DB21" s="257"/>
       <c r="DC21" s="42"/>
     </row>
     <row r="22" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G22" s="41"/>
       <c r="O22" s="41"/>
       <c r="AX22" s="42"/>
-      <c r="AY22" s="256"/>
+      <c r="AY22" s="289"/>
       <c r="BD22" s="41"/>
-      <c r="BE22" s="252" t="s">
+      <c r="BE22" s="267" t="s">
         <v>336</v>
       </c>
-      <c r="BF22" s="253"/>
-      <c r="BG22" s="253"/>
-      <c r="BH22" s="253"/>
-      <c r="BI22" s="253"/>
-      <c r="BJ22" s="254"/>
+      <c r="BF22" s="256"/>
+      <c r="BG22" s="256"/>
+      <c r="BH22" s="256"/>
+      <c r="BI22" s="256"/>
+      <c r="BJ22" s="257"/>
       <c r="BK22" s="42"/>
       <c r="BP22" s="41"/>
-      <c r="BQ22" s="252" t="s">
+      <c r="BQ22" s="267" t="s">
         <v>330</v>
       </c>
-      <c r="BR22" s="253"/>
-      <c r="BS22" s="253"/>
-      <c r="BT22" s="253"/>
-      <c r="BU22" s="253"/>
-      <c r="BV22" s="254"/>
+      <c r="BR22" s="256"/>
+      <c r="BS22" s="256"/>
+      <c r="BT22" s="256"/>
+      <c r="BU22" s="256"/>
+      <c r="BV22" s="257"/>
       <c r="BW22" s="42"/>
       <c r="CA22" s="41"/>
       <c r="CH22" s="42"/>
@@ -8047,7 +8081,7 @@
       <c r="G23" s="41"/>
       <c r="O23" s="41"/>
       <c r="AX23" s="42"/>
-      <c r="AY23" s="256"/>
+      <c r="AY23" s="289"/>
       <c r="BD23" s="41"/>
       <c r="BK23" s="42"/>
       <c r="BP23" s="41"/>
@@ -8056,57 +8090,57 @@
       <c r="CB23" s="29"/>
       <c r="CC23" s="29"/>
       <c r="CD23" s="29"/>
-      <c r="CE23" s="279" t="s">
+      <c r="CE23" s="276" t="s">
         <v>348</v>
       </c>
-      <c r="CF23" s="280"/>
-      <c r="CG23" s="280"/>
-      <c r="CH23" s="281"/>
+      <c r="CF23" s="277"/>
+      <c r="CG23" s="277"/>
+      <c r="CH23" s="278"/>
       <c r="CL23" s="41"/>
-      <c r="CM23" s="268" t="s">
+      <c r="CM23" s="253" t="s">
         <v>357</v>
       </c>
-      <c r="CN23" s="253"/>
-      <c r="CO23" s="253"/>
-      <c r="CP23" s="253"/>
-      <c r="CQ23" s="253"/>
-      <c r="CR23" s="254"/>
+      <c r="CN23" s="256"/>
+      <c r="CO23" s="256"/>
+      <c r="CP23" s="256"/>
+      <c r="CQ23" s="256"/>
+      <c r="CR23" s="257"/>
       <c r="CS23" s="42"/>
       <c r="CV23" s="41"/>
-      <c r="CW23" s="268" t="s">
+      <c r="CW23" s="253" t="s">
         <v>361</v>
       </c>
-      <c r="CX23" s="253"/>
-      <c r="CY23" s="253"/>
-      <c r="CZ23" s="253"/>
-      <c r="DA23" s="253"/>
-      <c r="DB23" s="254"/>
+      <c r="CX23" s="256"/>
+      <c r="CY23" s="256"/>
+      <c r="CZ23" s="256"/>
+      <c r="DA23" s="256"/>
+      <c r="DB23" s="257"/>
       <c r="DC23" s="42"/>
     </row>
     <row r="24" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G24" s="41"/>
       <c r="O24" s="41"/>
       <c r="AX24" s="42"/>
-      <c r="AY24" s="256"/>
+      <c r="AY24" s="289"/>
       <c r="BD24" s="41"/>
-      <c r="BE24" s="252" t="s">
+      <c r="BE24" s="267" t="s">
         <v>339</v>
       </c>
-      <c r="BF24" s="253"/>
-      <c r="BG24" s="253"/>
-      <c r="BH24" s="253"/>
-      <c r="BI24" s="253"/>
-      <c r="BJ24" s="254"/>
+      <c r="BF24" s="256"/>
+      <c r="BG24" s="256"/>
+      <c r="BH24" s="256"/>
+      <c r="BI24" s="256"/>
+      <c r="BJ24" s="257"/>
       <c r="BK24" s="42"/>
       <c r="BP24" s="41"/>
-      <c r="BQ24" s="252" t="s">
+      <c r="BQ24" s="267" t="s">
         <v>333</v>
       </c>
-      <c r="BR24" s="253"/>
-      <c r="BS24" s="253"/>
-      <c r="BT24" s="253"/>
-      <c r="BU24" s="253"/>
-      <c r="BV24" s="254"/>
+      <c r="BR24" s="256"/>
+      <c r="BS24" s="256"/>
+      <c r="BT24" s="256"/>
+      <c r="BU24" s="256"/>
+      <c r="BV24" s="257"/>
       <c r="BW24" s="42"/>
       <c r="CA24" s="40"/>
       <c r="CB24" s="29"/>
@@ -8117,60 +8151,60 @@
       <c r="CG24" s="29"/>
       <c r="CH24" s="46"/>
       <c r="CL24" s="41"/>
-      <c r="CM24" s="268" t="s">
+      <c r="CM24" s="253" t="s">
         <v>355</v>
       </c>
-      <c r="CN24" s="253"/>
-      <c r="CO24" s="253"/>
-      <c r="CP24" s="253"/>
-      <c r="CQ24" s="253"/>
-      <c r="CR24" s="254"/>
+      <c r="CN24" s="256"/>
+      <c r="CO24" s="256"/>
+      <c r="CP24" s="256"/>
+      <c r="CQ24" s="256"/>
+      <c r="CR24" s="257"/>
       <c r="CS24" s="42"/>
       <c r="CV24" s="41"/>
-      <c r="CW24" s="268" t="s">
+      <c r="CW24" s="253" t="s">
         <v>355</v>
       </c>
-      <c r="CX24" s="253"/>
-      <c r="CY24" s="253"/>
-      <c r="CZ24" s="253"/>
-      <c r="DA24" s="253"/>
-      <c r="DB24" s="254"/>
+      <c r="CX24" s="256"/>
+      <c r="CY24" s="256"/>
+      <c r="CZ24" s="256"/>
+      <c r="DA24" s="256"/>
+      <c r="DB24" s="257"/>
       <c r="DC24" s="42"/>
     </row>
     <row r="25" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G25" s="41"/>
       <c r="O25" s="41"/>
       <c r="AX25" s="42"/>
-      <c r="AY25" s="256"/>
+      <c r="AY25" s="289"/>
       <c r="BD25" s="41"/>
-      <c r="BE25" s="252" t="s">
+      <c r="BE25" s="267" t="s">
         <v>336</v>
       </c>
-      <c r="BF25" s="253"/>
-      <c r="BG25" s="253"/>
-      <c r="BH25" s="253"/>
-      <c r="BI25" s="253"/>
-      <c r="BJ25" s="254"/>
+      <c r="BF25" s="256"/>
+      <c r="BG25" s="256"/>
+      <c r="BH25" s="256"/>
+      <c r="BI25" s="256"/>
+      <c r="BJ25" s="257"/>
       <c r="BK25" s="42"/>
       <c r="BP25" s="41"/>
-      <c r="BQ25" s="252" t="s">
+      <c r="BQ25" s="267" t="s">
         <v>330</v>
       </c>
-      <c r="BR25" s="253"/>
-      <c r="BS25" s="253"/>
-      <c r="BT25" s="253"/>
-      <c r="BU25" s="253"/>
-      <c r="BV25" s="254"/>
+      <c r="BR25" s="256"/>
+      <c r="BS25" s="256"/>
+      <c r="BT25" s="256"/>
+      <c r="BU25" s="256"/>
+      <c r="BV25" s="257"/>
       <c r="BW25" s="42"/>
       <c r="CA25" s="41"/>
-      <c r="CB25" s="268" t="s">
+      <c r="CB25" s="253" t="s">
         <v>343</v>
       </c>
-      <c r="CC25" s="277"/>
-      <c r="CD25" s="277"/>
-      <c r="CE25" s="277"/>
-      <c r="CF25" s="277"/>
-      <c r="CG25" s="278"/>
+      <c r="CC25" s="254"/>
+      <c r="CD25" s="254"/>
+      <c r="CE25" s="254"/>
+      <c r="CF25" s="254"/>
+      <c r="CG25" s="255"/>
       <c r="CH25" s="42"/>
       <c r="CL25" s="41"/>
       <c r="CS25" s="42"/>
@@ -8181,128 +8215,128 @@
       <c r="G26" s="41"/>
       <c r="O26" s="41"/>
       <c r="AX26" s="42"/>
-      <c r="AY26" s="256"/>
+      <c r="AY26" s="289"/>
       <c r="BD26" s="41"/>
       <c r="BK26" s="42"/>
       <c r="BP26" s="41"/>
       <c r="BW26" s="42"/>
       <c r="CA26" s="41"/>
-      <c r="CB26" s="269" t="s">
+      <c r="CB26" s="268" t="s">
         <v>342</v>
       </c>
-      <c r="CC26" s="270"/>
-      <c r="CD26" s="252"/>
-      <c r="CE26" s="254"/>
-      <c r="CF26" s="269" t="s">
+      <c r="CC26" s="269"/>
+      <c r="CD26" s="267"/>
+      <c r="CE26" s="257"/>
+      <c r="CF26" s="268" t="s">
         <v>341</v>
       </c>
-      <c r="CG26" s="270"/>
+      <c r="CG26" s="269"/>
       <c r="CH26" s="42"/>
       <c r="CL26" s="41"/>
-      <c r="CM26" s="252" t="s">
+      <c r="CM26" s="267" t="s">
         <v>331</v>
       </c>
-      <c r="CN26" s="253"/>
-      <c r="CO26" s="253"/>
-      <c r="CP26" s="253"/>
-      <c r="CQ26" s="253"/>
-      <c r="CR26" s="254"/>
+      <c r="CN26" s="256"/>
+      <c r="CO26" s="256"/>
+      <c r="CP26" s="256"/>
+      <c r="CQ26" s="256"/>
+      <c r="CR26" s="257"/>
       <c r="CS26" s="42"/>
       <c r="CV26" s="41"/>
-      <c r="CW26" s="268" t="s">
+      <c r="CW26" s="253" t="s">
         <v>362</v>
       </c>
-      <c r="CX26" s="253"/>
-      <c r="CY26" s="253"/>
-      <c r="CZ26" s="253"/>
-      <c r="DA26" s="253"/>
-      <c r="DB26" s="254"/>
+      <c r="CX26" s="256"/>
+      <c r="CY26" s="256"/>
+      <c r="CZ26" s="256"/>
+      <c r="DA26" s="256"/>
+      <c r="DB26" s="257"/>
       <c r="DC26" s="42"/>
     </row>
     <row r="27" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G27" s="41"/>
       <c r="O27" s="41"/>
       <c r="AX27" s="42"/>
-      <c r="AY27" s="256"/>
+      <c r="AY27" s="289"/>
       <c r="BD27" s="41"/>
-      <c r="BE27" s="252" t="s">
+      <c r="BE27" s="267" t="s">
         <v>340</v>
       </c>
-      <c r="BF27" s="253"/>
-      <c r="BG27" s="253"/>
-      <c r="BH27" s="253"/>
-      <c r="BI27" s="253"/>
-      <c r="BJ27" s="254"/>
+      <c r="BF27" s="256"/>
+      <c r="BG27" s="256"/>
+      <c r="BH27" s="256"/>
+      <c r="BI27" s="256"/>
+      <c r="BJ27" s="257"/>
       <c r="BK27" s="42"/>
       <c r="BP27" s="41"/>
-      <c r="BQ27" s="252" t="s">
+      <c r="BQ27" s="267" t="s">
         <v>334</v>
       </c>
-      <c r="BR27" s="253"/>
-      <c r="BS27" s="253"/>
-      <c r="BT27" s="253"/>
-      <c r="BU27" s="253"/>
-      <c r="BV27" s="254"/>
+      <c r="BR27" s="256"/>
+      <c r="BS27" s="256"/>
+      <c r="BT27" s="256"/>
+      <c r="BU27" s="256"/>
+      <c r="BV27" s="257"/>
       <c r="BW27" s="42"/>
       <c r="CA27" s="41"/>
       <c r="CH27" s="42"/>
       <c r="CL27" s="41"/>
-      <c r="CM27" s="268" t="s">
+      <c r="CM27" s="253" t="s">
         <v>355</v>
       </c>
-      <c r="CN27" s="253"/>
-      <c r="CO27" s="253"/>
-      <c r="CP27" s="253"/>
-      <c r="CQ27" s="253"/>
-      <c r="CR27" s="254"/>
+      <c r="CN27" s="256"/>
+      <c r="CO27" s="256"/>
+      <c r="CP27" s="256"/>
+      <c r="CQ27" s="256"/>
+      <c r="CR27" s="257"/>
       <c r="CS27" s="42"/>
       <c r="CV27" s="41"/>
-      <c r="CW27" s="268" t="s">
+      <c r="CW27" s="253" t="s">
         <v>355</v>
       </c>
-      <c r="CX27" s="253"/>
-      <c r="CY27" s="253"/>
-      <c r="CZ27" s="253"/>
-      <c r="DA27" s="253"/>
-      <c r="DB27" s="254"/>
+      <c r="CX27" s="256"/>
+      <c r="CY27" s="256"/>
+      <c r="CZ27" s="256"/>
+      <c r="DA27" s="256"/>
+      <c r="DB27" s="257"/>
       <c r="DC27" s="42"/>
     </row>
     <row r="28" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G28" s="41"/>
       <c r="O28" s="41"/>
       <c r="AX28" s="42"/>
-      <c r="AY28" s="256"/>
+      <c r="AY28" s="289"/>
       <c r="BD28" s="119"/>
-      <c r="BE28" s="269" t="s">
+      <c r="BE28" s="268" t="s">
         <v>342</v>
       </c>
-      <c r="BF28" s="270"/>
-      <c r="BG28" s="252"/>
-      <c r="BH28" s="254"/>
-      <c r="BI28" s="269" t="s">
+      <c r="BF28" s="269"/>
+      <c r="BG28" s="267"/>
+      <c r="BH28" s="257"/>
+      <c r="BI28" s="268" t="s">
         <v>341</v>
       </c>
-      <c r="BJ28" s="270"/>
+      <c r="BJ28" s="269"/>
       <c r="BK28" s="42"/>
       <c r="BP28" s="41"/>
-      <c r="BQ28" s="252" t="s">
+      <c r="BQ28" s="267" t="s">
         <v>330</v>
       </c>
-      <c r="BR28" s="253"/>
-      <c r="BS28" s="253"/>
-      <c r="BT28" s="253"/>
-      <c r="BU28" s="253"/>
-      <c r="BV28" s="254"/>
+      <c r="BR28" s="256"/>
+      <c r="BS28" s="256"/>
+      <c r="BT28" s="256"/>
+      <c r="BU28" s="256"/>
+      <c r="BV28" s="257"/>
       <c r="BW28" s="42"/>
       <c r="CA28" s="41"/>
-      <c r="CB28" s="268" t="s">
+      <c r="CB28" s="253" t="s">
         <v>344</v>
       </c>
-      <c r="CC28" s="277"/>
-      <c r="CD28" s="277"/>
-      <c r="CE28" s="277"/>
-      <c r="CF28" s="277"/>
-      <c r="CG28" s="278"/>
+      <c r="CC28" s="254"/>
+      <c r="CD28" s="254"/>
+      <c r="CE28" s="254"/>
+      <c r="CF28" s="254"/>
+      <c r="CG28" s="255"/>
       <c r="CH28" s="42"/>
       <c r="CL28" s="41"/>
       <c r="CS28" s="42"/>
@@ -8313,49 +8347,49 @@
       <c r="G29" s="41"/>
       <c r="O29" s="41"/>
       <c r="AX29" s="42"/>
-      <c r="AY29" s="256"/>
+      <c r="AY29" s="289"/>
       <c r="BD29" s="41"/>
       <c r="BK29" s="42"/>
       <c r="BP29" s="41"/>
       <c r="BW29" s="42"/>
       <c r="CA29" s="41"/>
-      <c r="CB29" s="269" t="s">
+      <c r="CB29" s="268" t="s">
         <v>342</v>
       </c>
-      <c r="CC29" s="270"/>
-      <c r="CD29" s="252"/>
-      <c r="CE29" s="254"/>
-      <c r="CF29" s="269" t="s">
+      <c r="CC29" s="269"/>
+      <c r="CD29" s="267"/>
+      <c r="CE29" s="257"/>
+      <c r="CF29" s="268" t="s">
         <v>341</v>
       </c>
-      <c r="CG29" s="270"/>
+      <c r="CG29" s="269"/>
       <c r="CH29" s="42"/>
       <c r="CL29" s="41"/>
-      <c r="CM29" s="252" t="s">
+      <c r="CM29" s="267" t="s">
         <v>332</v>
       </c>
-      <c r="CN29" s="253"/>
-      <c r="CO29" s="253"/>
-      <c r="CP29" s="253"/>
-      <c r="CQ29" s="253"/>
-      <c r="CR29" s="254"/>
+      <c r="CN29" s="256"/>
+      <c r="CO29" s="256"/>
+      <c r="CP29" s="256"/>
+      <c r="CQ29" s="256"/>
+      <c r="CR29" s="257"/>
       <c r="CS29" s="42"/>
       <c r="CV29" s="41"/>
-      <c r="CW29" s="268" t="s">
+      <c r="CW29" s="253" t="s">
         <v>363</v>
       </c>
-      <c r="CX29" s="253"/>
-      <c r="CY29" s="253"/>
-      <c r="CZ29" s="253"/>
-      <c r="DA29" s="253"/>
-      <c r="DB29" s="254"/>
+      <c r="CX29" s="256"/>
+      <c r="CY29" s="256"/>
+      <c r="CZ29" s="256"/>
+      <c r="DA29" s="256"/>
+      <c r="DB29" s="257"/>
       <c r="DC29" s="42"/>
     </row>
     <row r="30" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G30" s="41"/>
       <c r="O30" s="41"/>
       <c r="AX30" s="42"/>
-      <c r="AY30" s="256"/>
+      <c r="AY30" s="289"/>
       <c r="BD30" s="41"/>
       <c r="BK30" s="42"/>
       <c r="BP30" s="41"/>
@@ -8363,44 +8397,44 @@
       <c r="CA30" s="41"/>
       <c r="CH30" s="42"/>
       <c r="CL30" s="41"/>
-      <c r="CM30" s="268" t="s">
+      <c r="CM30" s="253" t="s">
         <v>355</v>
       </c>
-      <c r="CN30" s="253"/>
-      <c r="CO30" s="253"/>
-      <c r="CP30" s="253"/>
-      <c r="CQ30" s="253"/>
-      <c r="CR30" s="254"/>
+      <c r="CN30" s="256"/>
+      <c r="CO30" s="256"/>
+      <c r="CP30" s="256"/>
+      <c r="CQ30" s="256"/>
+      <c r="CR30" s="257"/>
       <c r="CS30" s="42"/>
       <c r="CV30" s="41"/>
-      <c r="CW30" s="268" t="s">
+      <c r="CW30" s="253" t="s">
         <v>355</v>
       </c>
-      <c r="CX30" s="277"/>
-      <c r="CY30" s="277"/>
-      <c r="CZ30" s="277"/>
-      <c r="DA30" s="277"/>
-      <c r="DB30" s="278"/>
+      <c r="CX30" s="254"/>
+      <c r="CY30" s="254"/>
+      <c r="CZ30" s="254"/>
+      <c r="DA30" s="254"/>
+      <c r="DB30" s="255"/>
       <c r="DC30" s="42"/>
     </row>
     <row r="31" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G31" s="41"/>
       <c r="O31" s="41"/>
       <c r="AX31" s="42"/>
-      <c r="AY31" s="256"/>
+      <c r="AY31" s="289"/>
       <c r="BD31" s="41"/>
       <c r="BK31" s="42"/>
       <c r="BP31" s="41"/>
       <c r="BW31" s="42"/>
       <c r="CA31" s="41"/>
-      <c r="CB31" s="268" t="s">
+      <c r="CB31" s="253" t="s">
         <v>345</v>
       </c>
-      <c r="CC31" s="277"/>
-      <c r="CD31" s="277"/>
-      <c r="CE31" s="277"/>
-      <c r="CF31" s="277"/>
-      <c r="CG31" s="278"/>
+      <c r="CC31" s="254"/>
+      <c r="CD31" s="254"/>
+      <c r="CE31" s="254"/>
+      <c r="CF31" s="254"/>
+      <c r="CG31" s="255"/>
       <c r="CH31" s="42"/>
       <c r="CL31" s="41"/>
       <c r="CS31" s="42"/>
@@ -8411,122 +8445,122 @@
       <c r="G32" s="41"/>
       <c r="O32" s="41"/>
       <c r="AX32" s="42"/>
-      <c r="AY32" s="256"/>
+      <c r="AY32" s="289"/>
       <c r="BD32" s="41"/>
-      <c r="BE32" s="271" t="s">
+      <c r="BE32" s="270" t="s">
         <v>277</v>
       </c>
-      <c r="BF32" s="272"/>
-      <c r="BG32" s="272"/>
-      <c r="BH32" s="272"/>
-      <c r="BI32" s="272"/>
-      <c r="BJ32" s="273"/>
+      <c r="BF32" s="271"/>
+      <c r="BG32" s="271"/>
+      <c r="BH32" s="271"/>
+      <c r="BI32" s="271"/>
+      <c r="BJ32" s="272"/>
       <c r="BK32" s="42"/>
       <c r="BP32" s="41"/>
-      <c r="BQ32" s="271" t="s">
+      <c r="BQ32" s="270" t="s">
         <v>352</v>
       </c>
-      <c r="BR32" s="272"/>
-      <c r="BS32" s="272"/>
-      <c r="BT32" s="272"/>
-      <c r="BU32" s="272"/>
-      <c r="BV32" s="273"/>
+      <c r="BR32" s="271"/>
+      <c r="BS32" s="271"/>
+      <c r="BT32" s="271"/>
+      <c r="BU32" s="271"/>
+      <c r="BV32" s="272"/>
       <c r="BW32" s="42"/>
       <c r="CA32" s="41"/>
-      <c r="CB32" s="269" t="s">
+      <c r="CB32" s="268" t="s">
         <v>342</v>
       </c>
-      <c r="CC32" s="270"/>
-      <c r="CD32" s="252"/>
-      <c r="CE32" s="254"/>
-      <c r="CF32" s="269" t="s">
+      <c r="CC32" s="269"/>
+      <c r="CD32" s="267"/>
+      <c r="CE32" s="257"/>
+      <c r="CF32" s="268" t="s">
         <v>341</v>
       </c>
-      <c r="CG32" s="270"/>
+      <c r="CG32" s="269"/>
       <c r="CH32" s="42"/>
       <c r="CL32" s="41"/>
-      <c r="CM32" s="252" t="s">
+      <c r="CM32" s="267" t="s">
         <v>333</v>
       </c>
-      <c r="CN32" s="253"/>
-      <c r="CO32" s="253"/>
-      <c r="CP32" s="253"/>
-      <c r="CQ32" s="253"/>
-      <c r="CR32" s="254"/>
+      <c r="CN32" s="256"/>
+      <c r="CO32" s="256"/>
+      <c r="CP32" s="256"/>
+      <c r="CQ32" s="256"/>
+      <c r="CR32" s="257"/>
       <c r="CS32" s="42"/>
       <c r="CV32" s="41"/>
-      <c r="CW32" s="268" t="s">
+      <c r="CW32" s="253" t="s">
         <v>364</v>
       </c>
-      <c r="CX32" s="253"/>
-      <c r="CY32" s="253"/>
-      <c r="CZ32" s="253"/>
-      <c r="DA32" s="253"/>
-      <c r="DB32" s="254"/>
+      <c r="CX32" s="256"/>
+      <c r="CY32" s="256"/>
+      <c r="CZ32" s="256"/>
+      <c r="DA32" s="256"/>
+      <c r="DB32" s="257"/>
       <c r="DC32" s="42"/>
     </row>
     <row r="33" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G33" s="41"/>
       <c r="O33" s="41"/>
       <c r="AX33" s="42"/>
-      <c r="AY33" s="256"/>
+      <c r="AY33" s="289"/>
       <c r="BD33" s="41"/>
-      <c r="BE33" s="274"/>
-      <c r="BF33" s="275"/>
-      <c r="BG33" s="275"/>
-      <c r="BH33" s="275"/>
-      <c r="BI33" s="275"/>
-      <c r="BJ33" s="276"/>
+      <c r="BE33" s="273"/>
+      <c r="BF33" s="274"/>
+      <c r="BG33" s="274"/>
+      <c r="BH33" s="274"/>
+      <c r="BI33" s="274"/>
+      <c r="BJ33" s="275"/>
       <c r="BK33" s="42"/>
       <c r="BP33" s="41"/>
-      <c r="BQ33" s="274"/>
-      <c r="BR33" s="275"/>
-      <c r="BS33" s="275"/>
-      <c r="BT33" s="275"/>
-      <c r="BU33" s="275"/>
-      <c r="BV33" s="276"/>
+      <c r="BQ33" s="273"/>
+      <c r="BR33" s="274"/>
+      <c r="BS33" s="274"/>
+      <c r="BT33" s="274"/>
+      <c r="BU33" s="274"/>
+      <c r="BV33" s="275"/>
       <c r="BW33" s="42"/>
       <c r="CA33" s="41"/>
       <c r="CH33" s="42"/>
       <c r="CL33" s="41"/>
-      <c r="CM33" s="268" t="s">
+      <c r="CM33" s="253" t="s">
         <v>355</v>
       </c>
-      <c r="CN33" s="277"/>
-      <c r="CO33" s="277"/>
-      <c r="CP33" s="277"/>
-      <c r="CQ33" s="277"/>
-      <c r="CR33" s="278"/>
+      <c r="CN33" s="254"/>
+      <c r="CO33" s="254"/>
+      <c r="CP33" s="254"/>
+      <c r="CQ33" s="254"/>
+      <c r="CR33" s="255"/>
       <c r="CS33" s="42"/>
       <c r="CV33" s="41"/>
-      <c r="CW33" s="268" t="s">
+      <c r="CW33" s="253" t="s">
         <v>355</v>
       </c>
-      <c r="CX33" s="277"/>
-      <c r="CY33" s="277"/>
-      <c r="CZ33" s="277"/>
-      <c r="DA33" s="277"/>
-      <c r="DB33" s="278"/>
+      <c r="CX33" s="254"/>
+      <c r="CY33" s="254"/>
+      <c r="CZ33" s="254"/>
+      <c r="DA33" s="254"/>
+      <c r="DB33" s="255"/>
       <c r="DC33" s="42"/>
     </row>
     <row r="34" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G34" s="41"/>
       <c r="O34" s="41"/>
       <c r="AX34" s="42"/>
-      <c r="AY34" s="256"/>
+      <c r="AY34" s="289"/>
       <c r="BD34" s="41"/>
       <c r="BK34" s="42"/>
       <c r="BP34" s="41"/>
       <c r="BW34" s="42"/>
       <c r="CA34" s="41"/>
-      <c r="CB34" s="268" t="s">
+      <c r="CB34" s="253" t="s">
         <v>346</v>
       </c>
-      <c r="CC34" s="277"/>
-      <c r="CD34" s="277"/>
-      <c r="CE34" s="277"/>
-      <c r="CF34" s="277"/>
-      <c r="CG34" s="278"/>
+      <c r="CC34" s="254"/>
+      <c r="CD34" s="254"/>
+      <c r="CE34" s="254"/>
+      <c r="CF34" s="254"/>
+      <c r="CG34" s="255"/>
       <c r="CH34" s="42"/>
       <c r="CL34" s="41"/>
       <c r="CS34" s="42"/>
@@ -8537,95 +8571,95 @@
       <c r="G35" s="41"/>
       <c r="O35" s="41"/>
       <c r="AX35" s="42"/>
-      <c r="AY35" s="256"/>
+      <c r="AY35" s="289"/>
       <c r="BD35" s="41"/>
       <c r="BK35" s="42"/>
       <c r="BP35" s="41"/>
-      <c r="BQ35" s="268" t="s">
+      <c r="BQ35" s="253" t="s">
         <v>351</v>
       </c>
-      <c r="BR35" s="253"/>
-      <c r="BS35" s="253"/>
-      <c r="BT35" s="253"/>
-      <c r="BU35" s="253"/>
-      <c r="BV35" s="254"/>
+      <c r="BR35" s="256"/>
+      <c r="BS35" s="256"/>
+      <c r="BT35" s="256"/>
+      <c r="BU35" s="256"/>
+      <c r="BV35" s="257"/>
       <c r="BW35" s="42"/>
       <c r="CA35" s="41"/>
-      <c r="CB35" s="269" t="s">
+      <c r="CB35" s="268" t="s">
         <v>342</v>
       </c>
-      <c r="CC35" s="270"/>
-      <c r="CD35" s="252"/>
-      <c r="CE35" s="254"/>
-      <c r="CF35" s="269" t="s">
+      <c r="CC35" s="269"/>
+      <c r="CD35" s="267"/>
+      <c r="CE35" s="257"/>
+      <c r="CF35" s="268" t="s">
         <v>341</v>
       </c>
-      <c r="CG35" s="270"/>
+      <c r="CG35" s="269"/>
       <c r="CH35" s="42"/>
       <c r="CL35" s="41"/>
-      <c r="CM35" s="268" t="s">
+      <c r="CM35" s="253" t="s">
         <v>358</v>
       </c>
-      <c r="CN35" s="253"/>
-      <c r="CO35" s="253"/>
-      <c r="CP35" s="253"/>
-      <c r="CQ35" s="253"/>
-      <c r="CR35" s="254"/>
+      <c r="CN35" s="256"/>
+      <c r="CO35" s="256"/>
+      <c r="CP35" s="256"/>
+      <c r="CQ35" s="256"/>
+      <c r="CR35" s="257"/>
       <c r="CS35" s="42"/>
       <c r="CV35" s="41"/>
-      <c r="CW35" s="268" t="s">
+      <c r="CW35" s="253" t="s">
         <v>365</v>
       </c>
-      <c r="CX35" s="253"/>
-      <c r="CY35" s="253"/>
-      <c r="CZ35" s="253"/>
-      <c r="DA35" s="253"/>
-      <c r="DB35" s="254"/>
+      <c r="CX35" s="256"/>
+      <c r="CY35" s="256"/>
+      <c r="CZ35" s="256"/>
+      <c r="DA35" s="256"/>
+      <c r="DB35" s="257"/>
       <c r="DC35" s="42"/>
     </row>
     <row r="36" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G36" s="41"/>
       <c r="O36" s="41"/>
       <c r="AX36" s="42"/>
-      <c r="AY36" s="256"/>
+      <c r="AY36" s="289"/>
       <c r="BD36" s="41"/>
       <c r="BK36" s="42"/>
       <c r="BP36" s="41"/>
-      <c r="BQ36" s="268" t="s">
+      <c r="BQ36" s="253" t="s">
         <v>353</v>
       </c>
-      <c r="BR36" s="253"/>
-      <c r="BS36" s="253"/>
-      <c r="BT36" s="253"/>
-      <c r="BU36" s="253"/>
-      <c r="BV36" s="254"/>
+      <c r="BR36" s="256"/>
+      <c r="BS36" s="256"/>
+      <c r="BT36" s="256"/>
+      <c r="BU36" s="256"/>
+      <c r="BV36" s="257"/>
       <c r="BW36" s="42"/>
       <c r="CA36" s="41"/>
       <c r="CH36" s="42"/>
       <c r="CL36" s="41"/>
-      <c r="CM36" s="268" t="s">
+      <c r="CM36" s="253" t="s">
         <v>355</v>
       </c>
-      <c r="CN36" s="277"/>
-      <c r="CO36" s="277"/>
-      <c r="CP36" s="277"/>
-      <c r="CQ36" s="277"/>
-      <c r="CR36" s="278"/>
+      <c r="CN36" s="254"/>
+      <c r="CO36" s="254"/>
+      <c r="CP36" s="254"/>
+      <c r="CQ36" s="254"/>
+      <c r="CR36" s="255"/>
       <c r="CS36" s="42"/>
       <c r="CV36" s="41"/>
-      <c r="CW36" s="282"/>
-      <c r="CX36" s="283"/>
-      <c r="CY36" s="283"/>
-      <c r="CZ36" s="283"/>
-      <c r="DA36" s="283"/>
-      <c r="DB36" s="284"/>
+      <c r="CW36" s="258"/>
+      <c r="CX36" s="259"/>
+      <c r="CY36" s="259"/>
+      <c r="CZ36" s="259"/>
+      <c r="DA36" s="259"/>
+      <c r="DB36" s="260"/>
       <c r="DC36" s="42"/>
     </row>
     <row r="37" spans="7:107" ht="15.75" customHeight="1">
       <c r="G37" s="41"/>
       <c r="O37" s="41"/>
       <c r="AX37" s="42"/>
-      <c r="AY37" s="256"/>
+      <c r="AY37" s="289"/>
       <c r="BD37" s="41"/>
       <c r="BK37" s="42"/>
       <c r="BP37" s="41"/>
@@ -8635,19 +8669,19 @@
       <c r="CL37" s="41"/>
       <c r="CS37" s="42"/>
       <c r="CV37" s="41"/>
-      <c r="CW37" s="285"/>
-      <c r="CX37" s="286"/>
-      <c r="CY37" s="286"/>
-      <c r="CZ37" s="286"/>
-      <c r="DA37" s="286"/>
-      <c r="DB37" s="287"/>
+      <c r="CW37" s="261"/>
+      <c r="CX37" s="262"/>
+      <c r="CY37" s="262"/>
+      <c r="CZ37" s="262"/>
+      <c r="DA37" s="262"/>
+      <c r="DB37" s="263"/>
       <c r="DC37" s="42"/>
     </row>
     <row r="38" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G38" s="41"/>
       <c r="O38" s="41"/>
       <c r="AX38" s="42"/>
-      <c r="AY38" s="256"/>
+      <c r="AY38" s="289"/>
       <c r="BD38" s="41"/>
       <c r="BK38" s="42"/>
       <c r="BP38" s="41"/>
@@ -8657,70 +8691,70 @@
       <c r="CL38" s="41"/>
       <c r="CS38" s="42"/>
       <c r="CV38" s="41"/>
-      <c r="CW38" s="285"/>
-      <c r="CX38" s="286"/>
-      <c r="CY38" s="286"/>
-      <c r="CZ38" s="286"/>
-      <c r="DA38" s="286"/>
-      <c r="DB38" s="287"/>
+      <c r="CW38" s="261"/>
+      <c r="CX38" s="262"/>
+      <c r="CY38" s="262"/>
+      <c r="CZ38" s="262"/>
+      <c r="DA38" s="262"/>
+      <c r="DB38" s="263"/>
       <c r="DC38" s="42"/>
     </row>
     <row r="39" spans="7:107" ht="15.75" customHeight="1">
       <c r="G39" s="41"/>
       <c r="O39" s="41"/>
       <c r="AX39" s="42"/>
-      <c r="AY39" s="256"/>
+      <c r="AY39" s="289"/>
       <c r="BD39" s="41"/>
       <c r="BK39" s="42"/>
       <c r="BP39" s="41"/>
       <c r="BW39" s="42"/>
       <c r="CA39" s="41"/>
-      <c r="CB39" s="271" t="s">
+      <c r="CB39" s="270" t="s">
         <v>347</v>
       </c>
-      <c r="CC39" s="272"/>
-      <c r="CD39" s="272"/>
-      <c r="CE39" s="272"/>
-      <c r="CF39" s="272"/>
-      <c r="CG39" s="273"/>
+      <c r="CC39" s="271"/>
+      <c r="CD39" s="271"/>
+      <c r="CE39" s="271"/>
+      <c r="CF39" s="271"/>
+      <c r="CG39" s="272"/>
       <c r="CH39" s="42"/>
       <c r="CL39" s="41"/>
       <c r="CS39" s="42"/>
       <c r="CV39" s="41"/>
-      <c r="CW39" s="285"/>
-      <c r="CX39" s="286"/>
-      <c r="CY39" s="286"/>
-      <c r="CZ39" s="286"/>
-      <c r="DA39" s="286"/>
-      <c r="DB39" s="287"/>
+      <c r="CW39" s="261"/>
+      <c r="CX39" s="262"/>
+      <c r="CY39" s="262"/>
+      <c r="CZ39" s="262"/>
+      <c r="DA39" s="262"/>
+      <c r="DB39" s="263"/>
       <c r="DC39" s="42"/>
     </row>
     <row r="40" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G40" s="41"/>
       <c r="O40" s="41"/>
       <c r="AX40" s="42"/>
-      <c r="AY40" s="257"/>
+      <c r="AY40" s="290"/>
       <c r="BD40" s="41"/>
       <c r="BK40" s="42"/>
       <c r="BP40" s="41"/>
       <c r="BW40" s="42"/>
       <c r="CA40" s="41"/>
-      <c r="CB40" s="274"/>
-      <c r="CC40" s="275"/>
-      <c r="CD40" s="275"/>
-      <c r="CE40" s="275"/>
-      <c r="CF40" s="275"/>
-      <c r="CG40" s="276"/>
+      <c r="CB40" s="273"/>
+      <c r="CC40" s="274"/>
+      <c r="CD40" s="274"/>
+      <c r="CE40" s="274"/>
+      <c r="CF40" s="274"/>
+      <c r="CG40" s="275"/>
       <c r="CH40" s="42"/>
       <c r="CL40" s="41"/>
       <c r="CS40" s="42"/>
       <c r="CV40" s="41"/>
-      <c r="CW40" s="288"/>
-      <c r="CX40" s="289"/>
-      <c r="CY40" s="289"/>
-      <c r="CZ40" s="289"/>
-      <c r="DA40" s="289"/>
-      <c r="DB40" s="290"/>
+      <c r="CW40" s="264"/>
+      <c r="CX40" s="265"/>
+      <c r="CY40" s="265"/>
+      <c r="CZ40" s="265"/>
+      <c r="DA40" s="265"/>
+      <c r="DB40" s="266"/>
       <c r="DC40" s="42"/>
     </row>
     <row r="41" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
@@ -8783,43 +8817,43 @@
       <c r="M42" s="44"/>
       <c r="N42" s="44"/>
       <c r="O42" s="115"/>
-      <c r="P42" s="252" t="s">
+      <c r="P42" s="267" t="s">
         <v>323</v>
       </c>
-      <c r="Q42" s="253"/>
-      <c r="R42" s="253"/>
-      <c r="S42" s="253"/>
-      <c r="T42" s="253"/>
-      <c r="U42" s="253"/>
-      <c r="V42" s="253"/>
-      <c r="W42" s="253"/>
-      <c r="X42" s="253"/>
-      <c r="Y42" s="253"/>
-      <c r="Z42" s="253"/>
-      <c r="AA42" s="253"/>
-      <c r="AB42" s="253"/>
-      <c r="AC42" s="253"/>
-      <c r="AD42" s="253"/>
-      <c r="AE42" s="253"/>
-      <c r="AF42" s="253"/>
-      <c r="AG42" s="253"/>
-      <c r="AH42" s="253"/>
-      <c r="AI42" s="253"/>
-      <c r="AJ42" s="253"/>
-      <c r="AK42" s="253"/>
-      <c r="AL42" s="253"/>
-      <c r="AM42" s="253"/>
-      <c r="AN42" s="253"/>
-      <c r="AO42" s="253"/>
-      <c r="AP42" s="253"/>
-      <c r="AQ42" s="253"/>
-      <c r="AR42" s="253"/>
-      <c r="AS42" s="253"/>
-      <c r="AT42" s="253"/>
-      <c r="AU42" s="253"/>
-      <c r="AV42" s="253"/>
-      <c r="AW42" s="253"/>
-      <c r="AX42" s="254"/>
+      <c r="Q42" s="256"/>
+      <c r="R42" s="256"/>
+      <c r="S42" s="256"/>
+      <c r="T42" s="256"/>
+      <c r="U42" s="256"/>
+      <c r="V42" s="256"/>
+      <c r="W42" s="256"/>
+      <c r="X42" s="256"/>
+      <c r="Y42" s="256"/>
+      <c r="Z42" s="256"/>
+      <c r="AA42" s="256"/>
+      <c r="AB42" s="256"/>
+      <c r="AC42" s="256"/>
+      <c r="AD42" s="256"/>
+      <c r="AE42" s="256"/>
+      <c r="AF42" s="256"/>
+      <c r="AG42" s="256"/>
+      <c r="AH42" s="256"/>
+      <c r="AI42" s="256"/>
+      <c r="AJ42" s="256"/>
+      <c r="AK42" s="256"/>
+      <c r="AL42" s="256"/>
+      <c r="AM42" s="256"/>
+      <c r="AN42" s="256"/>
+      <c r="AO42" s="256"/>
+      <c r="AP42" s="256"/>
+      <c r="AQ42" s="256"/>
+      <c r="AR42" s="256"/>
+      <c r="AS42" s="256"/>
+      <c r="AT42" s="256"/>
+      <c r="AU42" s="256"/>
+      <c r="AV42" s="256"/>
+      <c r="AW42" s="256"/>
+      <c r="AX42" s="257"/>
       <c r="AY42" s="115"/>
       <c r="BD42" s="43"/>
       <c r="BE42" s="44"/>
@@ -8864,6 +8898,78 @@
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="P42:AX42"/>
+    <mergeCell ref="AY12:AY40"/>
+    <mergeCell ref="G11:N12"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="BD11:BK12"/>
+    <mergeCell ref="BD14:BK14"/>
+    <mergeCell ref="BP11:BW12"/>
+    <mergeCell ref="BP14:BW14"/>
+    <mergeCell ref="CA11:CH12"/>
+    <mergeCell ref="CA14:CH14"/>
+    <mergeCell ref="CL11:CS12"/>
+    <mergeCell ref="CL14:CS14"/>
+    <mergeCell ref="CV11:DC12"/>
+    <mergeCell ref="CV14:DC14"/>
+    <mergeCell ref="BQ24:BV24"/>
+    <mergeCell ref="CM18:CR18"/>
+    <mergeCell ref="CM19:CR19"/>
+    <mergeCell ref="CM21:CR21"/>
+    <mergeCell ref="CM24:CR24"/>
+    <mergeCell ref="CM23:CR23"/>
+    <mergeCell ref="BE19:BJ19"/>
+    <mergeCell ref="BE18:BJ18"/>
+    <mergeCell ref="BE21:BJ21"/>
+    <mergeCell ref="BE22:BJ22"/>
+    <mergeCell ref="BQ19:BV19"/>
+    <mergeCell ref="BQ18:BV18"/>
+    <mergeCell ref="BQ21:BV21"/>
+    <mergeCell ref="BQ22:BV22"/>
+    <mergeCell ref="BE24:BJ24"/>
+    <mergeCell ref="BE25:BJ25"/>
+    <mergeCell ref="BE27:BJ27"/>
+    <mergeCell ref="BE28:BF28"/>
+    <mergeCell ref="BI28:BJ28"/>
+    <mergeCell ref="BG28:BH28"/>
+    <mergeCell ref="BE32:BJ33"/>
+    <mergeCell ref="CF29:CG29"/>
+    <mergeCell ref="CD29:CE29"/>
+    <mergeCell ref="CB29:CC29"/>
+    <mergeCell ref="CB28:CG28"/>
+    <mergeCell ref="BQ28:BV28"/>
+    <mergeCell ref="CB39:CG40"/>
+    <mergeCell ref="CB17:CG17"/>
+    <mergeCell ref="CB18:CC18"/>
+    <mergeCell ref="CD18:CE18"/>
+    <mergeCell ref="CF18:CG18"/>
+    <mergeCell ref="CB20:CG20"/>
+    <mergeCell ref="CF26:CG26"/>
+    <mergeCell ref="CD26:CE26"/>
+    <mergeCell ref="CB26:CC26"/>
+    <mergeCell ref="CB25:CG25"/>
+    <mergeCell ref="CE23:CH23"/>
+    <mergeCell ref="CB21:CG21"/>
+    <mergeCell ref="BQ36:BV36"/>
+    <mergeCell ref="CB31:CG31"/>
+    <mergeCell ref="CB32:CC32"/>
+    <mergeCell ref="CD32:CE32"/>
+    <mergeCell ref="CF32:CG32"/>
+    <mergeCell ref="CB34:CG34"/>
+    <mergeCell ref="CB35:CC35"/>
+    <mergeCell ref="CD35:CE35"/>
+    <mergeCell ref="CF35:CG35"/>
+    <mergeCell ref="BQ32:BV33"/>
+    <mergeCell ref="BQ25:BV25"/>
+    <mergeCell ref="BQ27:BV27"/>
+    <mergeCell ref="CM32:CR32"/>
+    <mergeCell ref="CM33:CR33"/>
+    <mergeCell ref="CM35:CR35"/>
+    <mergeCell ref="CM27:CR27"/>
+    <mergeCell ref="CM26:CR26"/>
+    <mergeCell ref="BQ35:BV35"/>
     <mergeCell ref="CM36:CR36"/>
     <mergeCell ref="CW18:DB18"/>
     <mergeCell ref="CW20:DB20"/>
@@ -8880,78 +8986,6 @@
     <mergeCell ref="CW36:DB40"/>
     <mergeCell ref="CM29:CR29"/>
     <mergeCell ref="CM30:CR30"/>
-    <mergeCell ref="BQ25:BV25"/>
-    <mergeCell ref="BQ27:BV27"/>
-    <mergeCell ref="CM32:CR32"/>
-    <mergeCell ref="CM33:CR33"/>
-    <mergeCell ref="CM35:CR35"/>
-    <mergeCell ref="CM27:CR27"/>
-    <mergeCell ref="CM26:CR26"/>
-    <mergeCell ref="BQ35:BV35"/>
-    <mergeCell ref="BQ36:BV36"/>
-    <mergeCell ref="CB31:CG31"/>
-    <mergeCell ref="CB32:CC32"/>
-    <mergeCell ref="CD32:CE32"/>
-    <mergeCell ref="CF32:CG32"/>
-    <mergeCell ref="CB34:CG34"/>
-    <mergeCell ref="CB35:CC35"/>
-    <mergeCell ref="CD35:CE35"/>
-    <mergeCell ref="CF35:CG35"/>
-    <mergeCell ref="BQ32:BV33"/>
-    <mergeCell ref="CB39:CG40"/>
-    <mergeCell ref="CB17:CG17"/>
-    <mergeCell ref="CB18:CC18"/>
-    <mergeCell ref="CD18:CE18"/>
-    <mergeCell ref="CF18:CG18"/>
-    <mergeCell ref="CB20:CG20"/>
-    <mergeCell ref="CF26:CG26"/>
-    <mergeCell ref="CD26:CE26"/>
-    <mergeCell ref="CB26:CC26"/>
-    <mergeCell ref="CB25:CG25"/>
-    <mergeCell ref="CE23:CH23"/>
-    <mergeCell ref="CB21:CG21"/>
-    <mergeCell ref="BE32:BJ33"/>
-    <mergeCell ref="CF29:CG29"/>
-    <mergeCell ref="CD29:CE29"/>
-    <mergeCell ref="CB29:CC29"/>
-    <mergeCell ref="CB28:CG28"/>
-    <mergeCell ref="BQ28:BV28"/>
-    <mergeCell ref="BE24:BJ24"/>
-    <mergeCell ref="BE25:BJ25"/>
-    <mergeCell ref="BE27:BJ27"/>
-    <mergeCell ref="BE28:BF28"/>
-    <mergeCell ref="BI28:BJ28"/>
-    <mergeCell ref="BG28:BH28"/>
-    <mergeCell ref="BE19:BJ19"/>
-    <mergeCell ref="BE18:BJ18"/>
-    <mergeCell ref="BE21:BJ21"/>
-    <mergeCell ref="BE22:BJ22"/>
-    <mergeCell ref="BQ19:BV19"/>
-    <mergeCell ref="BQ18:BV18"/>
-    <mergeCell ref="BQ21:BV21"/>
-    <mergeCell ref="BQ22:BV22"/>
-    <mergeCell ref="CL11:CS12"/>
-    <mergeCell ref="CL14:CS14"/>
-    <mergeCell ref="CV11:DC12"/>
-    <mergeCell ref="CV14:DC14"/>
-    <mergeCell ref="BQ24:BV24"/>
-    <mergeCell ref="CM18:CR18"/>
-    <mergeCell ref="CM19:CR19"/>
-    <mergeCell ref="CM21:CR21"/>
-    <mergeCell ref="CM24:CR24"/>
-    <mergeCell ref="CM23:CR23"/>
-    <mergeCell ref="BD11:BK12"/>
-    <mergeCell ref="BD14:BK14"/>
-    <mergeCell ref="BP11:BW12"/>
-    <mergeCell ref="BP14:BW14"/>
-    <mergeCell ref="CA11:CH12"/>
-    <mergeCell ref="CA14:CH14"/>
-    <mergeCell ref="P42:AX42"/>
-    <mergeCell ref="AY12:AY40"/>
-    <mergeCell ref="G11:N12"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="P17:R17"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9010,14 +9044,14 @@
         <v>476</v>
       </c>
       <c r="C3" s="28"/>
-      <c r="D3" s="296" t="s">
+      <c r="D3" s="294" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="297"/>
-      <c r="F3" s="297"/>
-      <c r="G3" s="297"/>
-      <c r="H3" s="297"/>
-      <c r="I3" s="298"/>
+      <c r="E3" s="295"/>
+      <c r="F3" s="295"/>
+      <c r="G3" s="295"/>
+      <c r="H3" s="295"/>
+      <c r="I3" s="296"/>
     </row>
     <row r="4" spans="1:16" ht="21" customHeight="1">
       <c r="A4" s="156" t="s">
@@ -9156,18 +9190,18 @@
         <v>375</v>
       </c>
       <c r="F12" s="132"/>
-      <c r="H12" s="291" t="s">
+      <c r="H12" s="297" t="s">
         <v>400</v>
       </c>
-      <c r="I12" s="299"/>
+      <c r="I12" s="298"/>
       <c r="J12" s="140" t="s">
         <v>404</v>
       </c>
       <c r="K12" s="132"/>
-      <c r="M12" s="291" t="s">
+      <c r="M12" s="297" t="s">
         <v>415</v>
       </c>
-      <c r="N12" s="292"/>
+      <c r="N12" s="293"/>
       <c r="O12" s="140" t="s">
         <v>422</v>
       </c>
@@ -9181,18 +9215,18 @@
         <v>368</v>
       </c>
       <c r="F13" s="132"/>
-      <c r="H13" s="291" t="s">
+      <c r="H13" s="297" t="s">
         <v>401</v>
       </c>
-      <c r="I13" s="299"/>
+      <c r="I13" s="298"/>
       <c r="J13" s="140" t="s">
         <v>403</v>
       </c>
       <c r="K13" s="132"/>
-      <c r="M13" s="291" t="s">
+      <c r="M13" s="297" t="s">
         <v>216</v>
       </c>
-      <c r="N13" s="292"/>
+      <c r="N13" s="293"/>
       <c r="O13" s="131" t="s">
         <v>417</v>
       </c>
@@ -9204,18 +9238,18 @@
       </c>
       <c r="E14" s="131"/>
       <c r="F14" s="132"/>
-      <c r="H14" s="291" t="s">
+      <c r="H14" s="297" t="s">
         <v>402</v>
       </c>
-      <c r="I14" s="299"/>
+      <c r="I14" s="298"/>
       <c r="J14" s="140" t="s">
         <v>369</v>
       </c>
       <c r="K14" s="132"/>
-      <c r="M14" s="291" t="s">
+      <c r="M14" s="297" t="s">
         <v>215</v>
       </c>
-      <c r="N14" s="292"/>
+      <c r="N14" s="293"/>
       <c r="O14" s="131" t="s">
         <v>418</v>
       </c>
@@ -9227,14 +9261,14 @@
       </c>
       <c r="E15" s="140"/>
       <c r="F15" s="132"/>
-      <c r="H15" s="294"/>
-      <c r="I15" s="295"/>
+      <c r="H15" s="299"/>
+      <c r="I15" s="300"/>
       <c r="J15" s="140"/>
       <c r="K15" s="132"/>
-      <c r="M15" s="291" t="s">
+      <c r="M15" s="297" t="s">
         <v>211</v>
       </c>
-      <c r="N15" s="292"/>
+      <c r="N15" s="293"/>
       <c r="O15" s="131" t="s">
         <v>419</v>
       </c>
@@ -9246,14 +9280,14 @@
       </c>
       <c r="E16" s="131"/>
       <c r="F16" s="134"/>
-      <c r="H16" s="294"/>
-      <c r="I16" s="295"/>
+      <c r="H16" s="299"/>
+      <c r="I16" s="300"/>
       <c r="J16" s="140"/>
       <c r="K16" s="132"/>
-      <c r="M16" s="291" t="s">
+      <c r="M16" s="297" t="s">
         <v>212</v>
       </c>
-      <c r="N16" s="292"/>
+      <c r="N16" s="293"/>
       <c r="O16" s="131" t="s">
         <v>169</v>
       </c>
@@ -9269,10 +9303,10 @@
       <c r="I17" s="135"/>
       <c r="J17" s="136"/>
       <c r="K17" s="137"/>
-      <c r="M17" s="291" t="s">
+      <c r="M17" s="297" t="s">
         <v>416</v>
       </c>
-      <c r="N17" s="292"/>
+      <c r="N17" s="293"/>
       <c r="O17" s="131" t="s">
         <v>420</v>
       </c>
@@ -9282,10 +9316,10 @@
       <c r="C18" s="133"/>
       <c r="E18" s="131"/>
       <c r="F18" s="134"/>
-      <c r="M18" s="291" t="s">
+      <c r="M18" s="297" t="s">
         <v>213</v>
       </c>
-      <c r="N18" s="292"/>
+      <c r="N18" s="293"/>
       <c r="O18" s="131" t="s">
         <v>421</v>
       </c>
@@ -9305,10 +9339,10 @@
       <c r="K19" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="M19" s="291" t="s">
+      <c r="M19" s="297" t="s">
         <v>290</v>
       </c>
-      <c r="N19" s="292"/>
+      <c r="N19" s="293"/>
       <c r="O19" s="131" t="s">
         <v>427</v>
       </c>
@@ -9326,10 +9360,10 @@
       <c r="I20" s="29"/>
       <c r="J20" s="29"/>
       <c r="K20" s="127"/>
-      <c r="M20" s="293" t="s">
+      <c r="M20" s="292" t="s">
         <v>423</v>
       </c>
-      <c r="N20" s="292"/>
+      <c r="N20" s="293"/>
       <c r="O20" s="140" t="s">
         <v>480</v>
       </c>
@@ -9343,10 +9377,10 @@
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
       <c r="K21" s="127"/>
-      <c r="M21" s="293" t="s">
+      <c r="M21" s="292" t="s">
         <v>424</v>
       </c>
-      <c r="N21" s="292"/>
+      <c r="N21" s="293"/>
       <c r="O21" s="131"/>
       <c r="P21" s="132"/>
     </row>
@@ -9363,22 +9397,22 @@
         <v>84</v>
       </c>
       <c r="K22" s="130"/>
-      <c r="M22" s="293"/>
-      <c r="N22" s="292"/>
+      <c r="M22" s="292"/>
+      <c r="N22" s="293"/>
       <c r="O22" s="131"/>
       <c r="P22" s="132"/>
     </row>
     <row r="23" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="H23" s="291" t="s">
+      <c r="H23" s="297" t="s">
         <v>405</v>
       </c>
-      <c r="I23" s="299"/>
+      <c r="I23" s="298"/>
       <c r="J23" s="140" t="s">
         <v>369</v>
       </c>
       <c r="K23" s="132"/>
-      <c r="M23" s="293"/>
-      <c r="N23" s="292"/>
+      <c r="M23" s="292"/>
+      <c r="N23" s="293"/>
       <c r="O23" s="131"/>
       <c r="P23" s="132"/>
     </row>
@@ -9391,12 +9425,12 @@
       <c r="F24" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="H24" s="291"/>
-      <c r="I24" s="299"/>
+      <c r="H24" s="297"/>
+      <c r="I24" s="298"/>
       <c r="J24" s="140"/>
       <c r="K24" s="132"/>
-      <c r="M24" s="293"/>
-      <c r="N24" s="292"/>
+      <c r="M24" s="292"/>
+      <c r="N24" s="293"/>
       <c r="O24" s="131"/>
       <c r="P24" s="132"/>
     </row>
@@ -9409,12 +9443,12 @@
       <c r="F25" s="143" t="s">
         <v>373</v>
       </c>
-      <c r="H25" s="291"/>
-      <c r="I25" s="299"/>
+      <c r="H25" s="297"/>
+      <c r="I25" s="298"/>
       <c r="J25" s="140"/>
       <c r="K25" s="132"/>
-      <c r="M25" s="293"/>
-      <c r="N25" s="292"/>
+      <c r="M25" s="292"/>
+      <c r="N25" s="293"/>
       <c r="O25" s="131"/>
       <c r="P25" s="132"/>
     </row>
@@ -9423,12 +9457,12 @@
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
       <c r="F26" s="127"/>
-      <c r="H26" s="294"/>
-      <c r="I26" s="295"/>
+      <c r="H26" s="299"/>
+      <c r="I26" s="300"/>
       <c r="J26" s="140"/>
       <c r="K26" s="132"/>
-      <c r="M26" s="293"/>
-      <c r="N26" s="292"/>
+      <c r="M26" s="292"/>
+      <c r="N26" s="293"/>
       <c r="O26" s="131"/>
       <c r="P26" s="132"/>
     </row>
@@ -9441,12 +9475,12 @@
         <v>84</v>
       </c>
       <c r="F27" s="130"/>
-      <c r="H27" s="294"/>
-      <c r="I27" s="295"/>
+      <c r="H27" s="299"/>
+      <c r="I27" s="300"/>
       <c r="J27" s="140"/>
       <c r="K27" s="132"/>
-      <c r="M27" s="293"/>
-      <c r="N27" s="292"/>
+      <c r="M27" s="292"/>
+      <c r="N27" s="293"/>
       <c r="O27" s="131"/>
       <c r="P27" s="132"/>
     </row>
@@ -9462,8 +9496,8 @@
       <c r="I28" s="135"/>
       <c r="J28" s="136"/>
       <c r="K28" s="137"/>
-      <c r="M28" s="293"/>
-      <c r="N28" s="292"/>
+      <c r="M28" s="292"/>
+      <c r="N28" s="293"/>
       <c r="O28" s="131"/>
       <c r="P28" s="132"/>
     </row>
@@ -9475,8 +9509,8 @@
         <v>388</v>
       </c>
       <c r="F29" s="132"/>
-      <c r="M29" s="293"/>
-      <c r="N29" s="292"/>
+      <c r="M29" s="292"/>
+      <c r="N29" s="293"/>
       <c r="O29" s="131"/>
       <c r="P29" s="132"/>
     </row>
@@ -9486,8 +9520,8 @@
       </c>
       <c r="E30" s="140"/>
       <c r="F30" s="132"/>
-      <c r="M30" s="293"/>
-      <c r="N30" s="292"/>
+      <c r="M30" s="292"/>
+      <c r="N30" s="293"/>
       <c r="O30" s="131"/>
       <c r="P30" s="132"/>
     </row>
@@ -9567,10 +9601,10 @@
       <c r="C37" s="133"/>
       <c r="E37" s="131"/>
       <c r="F37" s="134"/>
-      <c r="M37" s="291" t="s">
+      <c r="M37" s="297" t="s">
         <v>428</v>
       </c>
-      <c r="N37" s="292"/>
+      <c r="N37" s="293"/>
       <c r="O37" s="131" t="s">
         <v>430</v>
       </c>
@@ -9580,10 +9614,10 @@
       <c r="C38" s="133"/>
       <c r="E38" s="131"/>
       <c r="F38" s="134"/>
-      <c r="M38" s="293" t="s">
+      <c r="M38" s="292" t="s">
         <v>429</v>
       </c>
-      <c r="N38" s="292"/>
+      <c r="N38" s="293"/>
       <c r="O38" s="131" t="s">
         <v>431</v>
       </c>
@@ -9594,16 +9628,16 @@
       <c r="D39" s="135"/>
       <c r="E39" s="136"/>
       <c r="F39" s="139"/>
-      <c r="M39" s="293"/>
-      <c r="N39" s="292"/>
+      <c r="M39" s="292"/>
+      <c r="N39" s="293"/>
       <c r="O39" s="131" t="s">
         <v>432</v>
       </c>
       <c r="P39" s="132"/>
     </row>
     <row r="40" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="M40" s="293"/>
-      <c r="N40" s="292"/>
+      <c r="M40" s="292"/>
+      <c r="N40" s="293"/>
       <c r="O40" s="131" t="s">
         <v>433</v>
       </c>
@@ -9618,8 +9652,8 @@
       <c r="F41" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="M41" s="293"/>
-      <c r="N41" s="292"/>
+      <c r="M41" s="292"/>
+      <c r="N41" s="293"/>
       <c r="O41" s="131" t="s">
         <v>435</v>
       </c>
@@ -9634,8 +9668,8 @@
       <c r="F42" s="143" t="s">
         <v>373</v>
       </c>
-      <c r="M42" s="293"/>
-      <c r="N42" s="292"/>
+      <c r="M42" s="292"/>
+      <c r="N42" s="293"/>
       <c r="O42" s="131" t="s">
         <v>434</v>
       </c>
@@ -9729,10 +9763,10 @@
         <v>397</v>
       </c>
       <c r="F49" s="134"/>
-      <c r="M49" s="291" t="s">
+      <c r="M49" s="297" t="s">
         <v>436</v>
       </c>
-      <c r="N49" s="292"/>
+      <c r="N49" s="293"/>
       <c r="O49" s="131" t="s">
         <v>439</v>
       </c>
@@ -9746,10 +9780,10 @@
         <v>334</v>
       </c>
       <c r="F50" s="134"/>
-      <c r="M50" s="293" t="s">
+      <c r="M50" s="292" t="s">
         <v>437</v>
       </c>
-      <c r="N50" s="292"/>
+      <c r="N50" s="293"/>
       <c r="O50" s="131" t="s">
         <v>440</v>
       </c>
@@ -9763,10 +9797,10 @@
         <v>369</v>
       </c>
       <c r="F51" s="134"/>
-      <c r="M51" s="293" t="s">
+      <c r="M51" s="292" t="s">
         <v>438</v>
       </c>
-      <c r="N51" s="292"/>
+      <c r="N51" s="293"/>
       <c r="O51" s="131"/>
       <c r="P51" s="132"/>
     </row>
@@ -9776,10 +9810,10 @@
         <v>456</v>
       </c>
       <c r="F52" s="134"/>
-      <c r="M52" s="293" t="s">
+      <c r="M52" s="292" t="s">
         <v>441</v>
       </c>
-      <c r="N52" s="292"/>
+      <c r="N52" s="293"/>
       <c r="O52" s="131"/>
       <c r="P52" s="132"/>
     </row>
@@ -9790,8 +9824,8 @@
         <v>457</v>
       </c>
       <c r="F53" s="137"/>
-      <c r="M53" s="293"/>
-      <c r="N53" s="292"/>
+      <c r="M53" s="292"/>
+      <c r="N53" s="293"/>
       <c r="O53" s="131"/>
       <c r="P53" s="132"/>
     </row>
@@ -9843,10 +9877,10 @@
       </c>
     </row>
     <row r="60" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M60" s="291" t="s">
+      <c r="M60" s="297" t="s">
         <v>442</v>
       </c>
-      <c r="N60" s="292"/>
+      <c r="N60" s="293"/>
       <c r="O60" s="140" t="s">
         <v>446</v>
       </c>
@@ -9855,10 +9889,10 @@
       </c>
     </row>
     <row r="61" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M61" s="293" t="s">
+      <c r="M61" s="292" t="s">
         <v>443</v>
       </c>
-      <c r="N61" s="292"/>
+      <c r="N61" s="293"/>
       <c r="O61" s="140" t="s">
         <v>447</v>
       </c>
@@ -9867,10 +9901,10 @@
       </c>
     </row>
     <row r="62" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M62" s="291" t="s">
+      <c r="M62" s="297" t="s">
         <v>448</v>
       </c>
-      <c r="N62" s="292"/>
+      <c r="N62" s="293"/>
       <c r="O62" s="140" t="s">
         <v>85</v>
       </c>
@@ -9879,14 +9913,14 @@
       </c>
     </row>
     <row r="63" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M63" s="293"/>
-      <c r="N63" s="292"/>
+      <c r="M63" s="292"/>
+      <c r="N63" s="293"/>
       <c r="O63" s="131"/>
       <c r="P63" s="132"/>
     </row>
     <row r="64" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M64" s="293"/>
-      <c r="N64" s="292"/>
+      <c r="M64" s="292"/>
+      <c r="N64" s="293"/>
       <c r="O64" s="131"/>
       <c r="P64" s="132"/>
     </row>
@@ -9934,40 +9968,40 @@
       <c r="P70" s="130"/>
     </row>
     <row r="71" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M71" s="291" t="s">
+      <c r="M71" s="297" t="s">
         <v>449</v>
       </c>
-      <c r="N71" s="292"/>
+      <c r="N71" s="293"/>
       <c r="O71" s="140" t="s">
         <v>369</v>
       </c>
       <c r="P71" s="132"/>
     </row>
     <row r="72" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M72" s="291" t="s">
+      <c r="M72" s="297" t="s">
         <v>450</v>
       </c>
-      <c r="N72" s="292"/>
+      <c r="N72" s="293"/>
       <c r="O72" s="140" t="s">
         <v>451</v>
       </c>
       <c r="P72" s="132"/>
     </row>
     <row r="73" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M73" s="293"/>
-      <c r="N73" s="292"/>
+      <c r="M73" s="292"/>
+      <c r="N73" s="293"/>
       <c r="O73" s="131"/>
       <c r="P73" s="132"/>
     </row>
     <row r="74" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M74" s="293"/>
-      <c r="N74" s="292"/>
+      <c r="M74" s="292"/>
+      <c r="N74" s="293"/>
       <c r="O74" s="131"/>
       <c r="P74" s="132"/>
     </row>
     <row r="75" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M75" s="293"/>
-      <c r="N75" s="292"/>
+      <c r="M75" s="292"/>
+      <c r="N75" s="293"/>
       <c r="O75" s="131"/>
       <c r="P75" s="132"/>
     </row>
@@ -10015,40 +10049,40 @@
       <c r="P81" s="130"/>
     </row>
     <row r="82" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M82" s="291" t="s">
+      <c r="M82" s="297" t="s">
         <v>449</v>
       </c>
-      <c r="N82" s="292"/>
+      <c r="N82" s="293"/>
       <c r="O82" s="140" t="s">
         <v>369</v>
       </c>
       <c r="P82" s="132"/>
     </row>
     <row r="83" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M83" s="291" t="s">
+      <c r="M83" s="297" t="s">
         <v>452</v>
       </c>
-      <c r="N83" s="292"/>
+      <c r="N83" s="293"/>
       <c r="O83" s="140" t="s">
         <v>451</v>
       </c>
       <c r="P83" s="132"/>
     </row>
     <row r="84" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M84" s="293"/>
-      <c r="N84" s="292"/>
+      <c r="M84" s="292"/>
+      <c r="N84" s="293"/>
       <c r="O84" s="131"/>
       <c r="P84" s="132"/>
     </row>
     <row r="85" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M85" s="293"/>
-      <c r="N85" s="292"/>
+      <c r="M85" s="292"/>
+      <c r="N85" s="293"/>
       <c r="O85" s="131"/>
       <c r="P85" s="132"/>
     </row>
     <row r="86" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M86" s="293"/>
-      <c r="N86" s="292"/>
+      <c r="M86" s="292"/>
+      <c r="N86" s="293"/>
       <c r="O86" s="131"/>
       <c r="P86" s="132"/>
     </row>
@@ -10094,40 +10128,40 @@
       <c r="P92" s="130"/>
     </row>
     <row r="93" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M93" s="291" t="s">
+      <c r="M93" s="297" t="s">
         <v>216</v>
       </c>
-      <c r="N93" s="292"/>
+      <c r="N93" s="293"/>
       <c r="O93" s="140" t="s">
         <v>453</v>
       </c>
       <c r="P93" s="132"/>
     </row>
     <row r="94" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M94" s="293"/>
-      <c r="N94" s="292"/>
+      <c r="M94" s="292"/>
+      <c r="N94" s="293"/>
       <c r="O94" s="140" t="s">
         <v>454</v>
       </c>
       <c r="P94" s="132"/>
     </row>
     <row r="95" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M95" s="293"/>
-      <c r="N95" s="292"/>
+      <c r="M95" s="292"/>
+      <c r="N95" s="293"/>
       <c r="O95" s="140" t="s">
         <v>455</v>
       </c>
       <c r="P95" s="132"/>
     </row>
     <row r="96" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M96" s="293"/>
-      <c r="N96" s="292"/>
+      <c r="M96" s="292"/>
+      <c r="N96" s="293"/>
       <c r="O96" s="131"/>
       <c r="P96" s="132"/>
     </row>
     <row r="97" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M97" s="293"/>
-      <c r="N97" s="292"/>
+      <c r="M97" s="292"/>
+      <c r="N97" s="293"/>
       <c r="O97" s="131"/>
       <c r="P97" s="132"/>
     </row>
@@ -10173,46 +10207,46 @@
       <c r="P103" s="130"/>
     </row>
     <row r="104" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M104" s="291" t="s">
+      <c r="M104" s="297" t="s">
         <v>465</v>
       </c>
-      <c r="N104" s="292"/>
+      <c r="N104" s="293"/>
       <c r="O104" s="140" t="s">
         <v>462</v>
       </c>
       <c r="P104" s="132"/>
     </row>
     <row r="105" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M105" s="291" t="s">
+      <c r="M105" s="297" t="s">
         <v>466</v>
       </c>
-      <c r="N105" s="292"/>
+      <c r="N105" s="293"/>
       <c r="O105" s="140" t="s">
         <v>461</v>
       </c>
       <c r="P105" s="132"/>
     </row>
     <row r="106" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M106" s="291" t="s">
+      <c r="M106" s="297" t="s">
         <v>467</v>
       </c>
-      <c r="N106" s="292"/>
+      <c r="N106" s="293"/>
       <c r="O106" s="140" t="s">
         <v>463</v>
       </c>
       <c r="P106" s="132"/>
     </row>
     <row r="107" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M107" s="293"/>
-      <c r="N107" s="292"/>
+      <c r="M107" s="292"/>
+      <c r="N107" s="293"/>
       <c r="O107" s="140" t="s">
         <v>464</v>
       </c>
       <c r="P107" s="132"/>
     </row>
     <row r="108" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M108" s="293"/>
-      <c r="N108" s="292"/>
+      <c r="M108" s="292"/>
+      <c r="N108" s="293"/>
       <c r="O108" s="131"/>
       <c r="P108" s="132"/>
     </row>
@@ -10260,42 +10294,42 @@
       <c r="P114" s="130"/>
     </row>
     <row r="115" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M115" s="291" t="s">
+      <c r="M115" s="297" t="s">
         <v>482</v>
       </c>
-      <c r="N115" s="292"/>
+      <c r="N115" s="293"/>
       <c r="O115" s="140" t="s">
         <v>483</v>
       </c>
       <c r="P115" s="132"/>
     </row>
     <row r="116" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M116" s="293"/>
-      <c r="N116" s="292"/>
+      <c r="M116" s="292"/>
+      <c r="N116" s="293"/>
       <c r="O116" s="131"/>
       <c r="P116" s="132"/>
     </row>
     <row r="117" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M117" s="293"/>
-      <c r="N117" s="292"/>
+      <c r="M117" s="292"/>
+      <c r="N117" s="293"/>
       <c r="O117" s="131"/>
       <c r="P117" s="132"/>
     </row>
     <row r="118" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M118" s="293"/>
-      <c r="N118" s="292"/>
+      <c r="M118" s="292"/>
+      <c r="N118" s="293"/>
       <c r="O118" s="131"/>
       <c r="P118" s="132"/>
     </row>
     <row r="119" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M119" s="293"/>
-      <c r="N119" s="292"/>
+      <c r="M119" s="292"/>
+      <c r="N119" s="293"/>
       <c r="O119" s="131"/>
       <c r="P119" s="132"/>
     </row>
     <row r="120" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M120" s="293"/>
-      <c r="N120" s="292"/>
+      <c r="M120" s="292"/>
+      <c r="N120" s="293"/>
       <c r="O120" s="131"/>
       <c r="P120" s="132"/>
     </row>
@@ -10307,6 +10341,62 @@
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="M107:N107"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="M95:N95"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="M104:N104"/>
+    <mergeCell ref="M83:N83"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="M82:N82"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
     <mergeCell ref="M119:N119"/>
     <mergeCell ref="M120:N120"/>
     <mergeCell ref="D3:I3"/>
@@ -10323,62 +10413,6 @@
     <mergeCell ref="H24:I24"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="H26:I26"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="M75:N75"/>
-    <mergeCell ref="M82:N82"/>
-    <mergeCell ref="M83:N83"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="M86:N86"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="M105:N105"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="M107:N107"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="M95:N95"/>
-    <mergeCell ref="M96:N96"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="M104:N104"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
@@ -11948,15 +11982,15 @@
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
-      <c r="H3" s="300"/>
-      <c r="I3" s="243"/>
-      <c r="J3" s="243"/>
-      <c r="K3" s="243"/>
-      <c r="L3" s="243"/>
-      <c r="M3" s="243"/>
-      <c r="N3" s="243"/>
-      <c r="O3" s="243"/>
-      <c r="P3" s="243"/>
+      <c r="H3" s="301"/>
+      <c r="I3" s="244"/>
+      <c r="J3" s="244"/>
+      <c r="K3" s="244"/>
+      <c r="L3" s="244"/>
+      <c r="M3" s="244"/>
+      <c r="N3" s="244"/>
+      <c r="O3" s="244"/>
+      <c r="P3" s="244"/>
     </row>
     <row r="4" spans="2:21" ht="21.75" customHeight="1" thickBot="1">
       <c r="B4" s="26"/>
@@ -12009,12 +12043,12 @@
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
       <c r="N6" s="26"/>
-      <c r="R6" s="301" t="s">
+      <c r="R6" s="302" t="s">
         <v>600</v>
       </c>
-      <c r="S6" s="302"/>
-      <c r="T6" s="302"/>
-      <c r="U6" s="303"/>
+      <c r="S6" s="303"/>
+      <c r="T6" s="303"/>
+      <c r="U6" s="304"/>
     </row>
     <row r="7" spans="2:21" ht="21.75" customHeight="1" thickBot="1">
       <c r="B7" s="183" t="s">
@@ -12032,10 +12066,10 @@
       <c r="L7" s="184"/>
       <c r="M7" s="184"/>
       <c r="N7" s="184"/>
-      <c r="R7" s="304"/>
-      <c r="S7" s="305"/>
-      <c r="T7" s="305"/>
-      <c r="U7" s="306"/>
+      <c r="R7" s="305"/>
+      <c r="S7" s="306"/>
+      <c r="T7" s="306"/>
+      <c r="U7" s="307"/>
     </row>
     <row r="8" spans="2:21" ht="15">
       <c r="B8" s="187" t="s">
@@ -12057,10 +12091,10 @@
       <c r="L8" s="184"/>
       <c r="M8" s="184"/>
       <c r="N8" s="190"/>
-      <c r="R8" s="304"/>
-      <c r="S8" s="305"/>
-      <c r="T8" s="305"/>
-      <c r="U8" s="306"/>
+      <c r="R8" s="305"/>
+      <c r="S8" s="306"/>
+      <c r="T8" s="306"/>
+      <c r="U8" s="307"/>
     </row>
     <row r="9" spans="2:21" thickBot="1">
       <c r="B9" s="191" t="s">
@@ -12082,10 +12116,10 @@
       <c r="L9" s="194"/>
       <c r="M9" s="194"/>
       <c r="N9" s="194"/>
-      <c r="R9" s="304"/>
-      <c r="S9" s="305"/>
-      <c r="T9" s="305"/>
-      <c r="U9" s="306"/>
+      <c r="R9" s="305"/>
+      <c r="S9" s="306"/>
+      <c r="T9" s="306"/>
+      <c r="U9" s="307"/>
     </row>
     <row r="10" spans="2:21" thickBot="1">
       <c r="B10" s="191" t="s">
@@ -12117,10 +12151,10 @@
       </c>
       <c r="O10" s="200"/>
       <c r="P10" s="201"/>
-      <c r="R10" s="304"/>
-      <c r="S10" s="305"/>
-      <c r="T10" s="305"/>
-      <c r="U10" s="306"/>
+      <c r="R10" s="305"/>
+      <c r="S10" s="306"/>
+      <c r="T10" s="306"/>
+      <c r="U10" s="307"/>
     </row>
     <row r="11" spans="2:21" ht="15" customHeight="1" thickBot="1">
       <c r="B11" s="202"/>
@@ -12162,10 +12196,10 @@
       <c r="P11" s="211" t="s">
         <v>100</v>
       </c>
-      <c r="R11" s="304"/>
-      <c r="S11" s="305"/>
-      <c r="T11" s="305"/>
-      <c r="U11" s="306"/>
+      <c r="R11" s="305"/>
+      <c r="S11" s="306"/>
+      <c r="T11" s="306"/>
+      <c r="U11" s="307"/>
     </row>
     <row r="12" spans="2:21" ht="20.25" customHeight="1">
       <c r="B12" s="171" t="s">
@@ -12187,10 +12221,10 @@
       <c r="N12" s="231"/>
       <c r="O12" s="216"/>
       <c r="P12" s="217"/>
-      <c r="R12" s="304"/>
-      <c r="S12" s="305"/>
-      <c r="T12" s="305"/>
-      <c r="U12" s="306"/>
+      <c r="R12" s="305"/>
+      <c r="S12" s="306"/>
+      <c r="T12" s="306"/>
+      <c r="U12" s="307"/>
     </row>
     <row r="13" spans="2:21" ht="20.25" customHeight="1">
       <c r="B13" s="172"/>
@@ -12214,10 +12248,10 @@
       <c r="N13" s="231"/>
       <c r="O13" s="216"/>
       <c r="P13" s="217"/>
-      <c r="R13" s="304"/>
-      <c r="S13" s="305"/>
-      <c r="T13" s="305"/>
-      <c r="U13" s="306"/>
+      <c r="R13" s="305"/>
+      <c r="S13" s="306"/>
+      <c r="T13" s="306"/>
+      <c r="U13" s="307"/>
     </row>
     <row r="14" spans="2:21" ht="20.25" customHeight="1">
       <c r="B14" s="174"/>
@@ -12235,10 +12269,10 @@
       <c r="N14" s="231"/>
       <c r="O14" s="216"/>
       <c r="P14" s="217"/>
-      <c r="R14" s="304"/>
-      <c r="S14" s="305"/>
-      <c r="T14" s="305"/>
-      <c r="U14" s="306"/>
+      <c r="R14" s="305"/>
+      <c r="S14" s="306"/>
+      <c r="T14" s="306"/>
+      <c r="U14" s="307"/>
     </row>
     <row r="15" spans="2:21" ht="20.25" customHeight="1">
       <c r="B15" s="174" t="s">
@@ -12260,10 +12294,10 @@
       <c r="N15" s="231"/>
       <c r="O15" s="216"/>
       <c r="P15" s="217"/>
-      <c r="R15" s="304"/>
-      <c r="S15" s="305"/>
-      <c r="T15" s="305"/>
-      <c r="U15" s="306"/>
+      <c r="R15" s="305"/>
+      <c r="S15" s="306"/>
+      <c r="T15" s="306"/>
+      <c r="U15" s="307"/>
     </row>
     <row r="16" spans="2:21" ht="20.25" customHeight="1">
       <c r="B16" s="172"/>
@@ -12287,10 +12321,10 @@
       <c r="N16" s="231"/>
       <c r="O16" s="216"/>
       <c r="P16" s="217"/>
-      <c r="R16" s="304"/>
-      <c r="S16" s="305"/>
-      <c r="T16" s="305"/>
-      <c r="U16" s="306"/>
+      <c r="R16" s="305"/>
+      <c r="S16" s="306"/>
+      <c r="T16" s="306"/>
+      <c r="U16" s="307"/>
     </row>
     <row r="17" spans="2:21" ht="20.25" customHeight="1">
       <c r="B17" s="172"/>
@@ -12314,10 +12348,10 @@
       <c r="N17" s="231"/>
       <c r="O17" s="216"/>
       <c r="P17" s="217"/>
-      <c r="R17" s="304"/>
-      <c r="S17" s="305"/>
-      <c r="T17" s="305"/>
-      <c r="U17" s="306"/>
+      <c r="R17" s="305"/>
+      <c r="S17" s="306"/>
+      <c r="T17" s="306"/>
+      <c r="U17" s="307"/>
     </row>
     <row r="18" spans="2:21" ht="20.25" customHeight="1">
       <c r="B18" s="172"/>
@@ -12337,10 +12371,10 @@
       <c r="N18" s="231"/>
       <c r="O18" s="216"/>
       <c r="P18" s="217"/>
-      <c r="R18" s="304"/>
-      <c r="S18" s="305"/>
-      <c r="T18" s="305"/>
-      <c r="U18" s="306"/>
+      <c r="R18" s="305"/>
+      <c r="S18" s="306"/>
+      <c r="T18" s="306"/>
+      <c r="U18" s="307"/>
     </row>
     <row r="19" spans="2:21" ht="20.25" customHeight="1">
       <c r="B19" s="172"/>
@@ -12364,10 +12398,10 @@
       <c r="N19" s="231"/>
       <c r="O19" s="216"/>
       <c r="P19" s="217"/>
-      <c r="R19" s="304"/>
-      <c r="S19" s="305"/>
-      <c r="T19" s="305"/>
-      <c r="U19" s="306"/>
+      <c r="R19" s="305"/>
+      <c r="S19" s="306"/>
+      <c r="T19" s="306"/>
+      <c r="U19" s="307"/>
     </row>
     <row r="20" spans="2:21" ht="20.25" customHeight="1">
       <c r="B20" s="172"/>
@@ -12385,10 +12419,10 @@
       <c r="N20" s="231"/>
       <c r="O20" s="216"/>
       <c r="P20" s="217"/>
-      <c r="R20" s="304"/>
-      <c r="S20" s="305"/>
-      <c r="T20" s="305"/>
-      <c r="U20" s="306"/>
+      <c r="R20" s="305"/>
+      <c r="S20" s="306"/>
+      <c r="T20" s="306"/>
+      <c r="U20" s="307"/>
     </row>
     <row r="21" spans="2:21" ht="20.25" customHeight="1">
       <c r="B21" s="174" t="s">
@@ -12410,10 +12444,10 @@
       <c r="N21" s="231"/>
       <c r="O21" s="216"/>
       <c r="P21" s="217"/>
-      <c r="R21" s="304"/>
-      <c r="S21" s="305"/>
-      <c r="T21" s="305"/>
-      <c r="U21" s="306"/>
+      <c r="R21" s="305"/>
+      <c r="S21" s="306"/>
+      <c r="T21" s="306"/>
+      <c r="U21" s="307"/>
     </row>
     <row r="22" spans="2:21" ht="20.25" customHeight="1">
       <c r="B22" s="172"/>
@@ -12437,10 +12471,10 @@
       <c r="N22" s="231"/>
       <c r="O22" s="216"/>
       <c r="P22" s="217"/>
-      <c r="R22" s="304"/>
-      <c r="S22" s="305"/>
-      <c r="T22" s="305"/>
-      <c r="U22" s="306"/>
+      <c r="R22" s="305"/>
+      <c r="S22" s="306"/>
+      <c r="T22" s="306"/>
+      <c r="U22" s="307"/>
     </row>
     <row r="23" spans="2:21" ht="20.25" customHeight="1">
       <c r="B23" s="172"/>
@@ -12464,10 +12498,10 @@
       <c r="N23" s="231"/>
       <c r="O23" s="216"/>
       <c r="P23" s="217"/>
-      <c r="R23" s="304"/>
-      <c r="S23" s="305"/>
-      <c r="T23" s="305"/>
-      <c r="U23" s="306"/>
+      <c r="R23" s="305"/>
+      <c r="S23" s="306"/>
+      <c r="T23" s="306"/>
+      <c r="U23" s="307"/>
     </row>
     <row r="24" spans="2:21" ht="20.25" customHeight="1">
       <c r="B24" s="172"/>
@@ -12491,10 +12525,10 @@
       <c r="N24" s="231"/>
       <c r="O24" s="216"/>
       <c r="P24" s="217"/>
-      <c r="R24" s="304"/>
-      <c r="S24" s="305"/>
-      <c r="T24" s="305"/>
-      <c r="U24" s="306"/>
+      <c r="R24" s="305"/>
+      <c r="S24" s="306"/>
+      <c r="T24" s="306"/>
+      <c r="U24" s="307"/>
     </row>
     <row r="25" spans="2:21" ht="20.25" customHeight="1">
       <c r="B25" s="172"/>
@@ -12518,10 +12552,10 @@
       <c r="N25" s="231"/>
       <c r="O25" s="216"/>
       <c r="P25" s="217"/>
-      <c r="R25" s="304"/>
-      <c r="S25" s="305"/>
-      <c r="T25" s="305"/>
-      <c r="U25" s="306"/>
+      <c r="R25" s="305"/>
+      <c r="S25" s="306"/>
+      <c r="T25" s="306"/>
+      <c r="U25" s="307"/>
     </row>
     <row r="26" spans="2:21" ht="20.25" customHeight="1">
       <c r="B26" s="169"/>
@@ -12545,10 +12579,10 @@
       <c r="N26" s="231"/>
       <c r="O26" s="216"/>
       <c r="P26" s="217"/>
-      <c r="R26" s="304"/>
-      <c r="S26" s="305"/>
-      <c r="T26" s="305"/>
-      <c r="U26" s="306"/>
+      <c r="R26" s="305"/>
+      <c r="S26" s="306"/>
+      <c r="T26" s="306"/>
+      <c r="U26" s="307"/>
     </row>
     <row r="27" spans="2:21" ht="20.25" customHeight="1">
       <c r="B27" s="169"/>
@@ -12572,10 +12606,10 @@
       <c r="N27" s="231"/>
       <c r="O27" s="216"/>
       <c r="P27" s="217"/>
-      <c r="R27" s="304"/>
-      <c r="S27" s="305"/>
-      <c r="T27" s="305"/>
-      <c r="U27" s="306"/>
+      <c r="R27" s="305"/>
+      <c r="S27" s="306"/>
+      <c r="T27" s="306"/>
+      <c r="U27" s="307"/>
     </row>
     <row r="28" spans="2:21" ht="20.25" customHeight="1">
       <c r="B28" s="169"/>
@@ -12593,10 +12627,10 @@
       <c r="N28" s="231"/>
       <c r="O28" s="216"/>
       <c r="P28" s="217"/>
-      <c r="R28" s="304"/>
-      <c r="S28" s="305"/>
-      <c r="T28" s="305"/>
-      <c r="U28" s="306"/>
+      <c r="R28" s="305"/>
+      <c r="S28" s="306"/>
+      <c r="T28" s="306"/>
+      <c r="U28" s="307"/>
     </row>
     <row r="29" spans="2:21" ht="20.25" customHeight="1">
       <c r="B29" s="174" t="s">
@@ -12618,10 +12652,10 @@
       <c r="N29" s="231"/>
       <c r="O29" s="216"/>
       <c r="P29" s="217"/>
-      <c r="R29" s="304"/>
-      <c r="S29" s="305"/>
-      <c r="T29" s="305"/>
-      <c r="U29" s="306"/>
+      <c r="R29" s="305"/>
+      <c r="S29" s="306"/>
+      <c r="T29" s="306"/>
+      <c r="U29" s="307"/>
     </row>
     <row r="30" spans="2:21" ht="20.25" customHeight="1">
       <c r="B30" s="172"/>
@@ -12641,10 +12675,10 @@
       <c r="N30" s="231"/>
       <c r="O30" s="216"/>
       <c r="P30" s="217"/>
-      <c r="R30" s="304"/>
-      <c r="S30" s="305"/>
-      <c r="T30" s="305"/>
-      <c r="U30" s="306"/>
+      <c r="R30" s="305"/>
+      <c r="S30" s="306"/>
+      <c r="T30" s="306"/>
+      <c r="U30" s="307"/>
     </row>
     <row r="31" spans="2:21" ht="20.25" customHeight="1">
       <c r="B31" s="172"/>
@@ -12664,10 +12698,10 @@
       <c r="N31" s="231"/>
       <c r="O31" s="216"/>
       <c r="P31" s="217"/>
-      <c r="R31" s="304"/>
-      <c r="S31" s="305"/>
-      <c r="T31" s="305"/>
-      <c r="U31" s="306"/>
+      <c r="R31" s="305"/>
+      <c r="S31" s="306"/>
+      <c r="T31" s="306"/>
+      <c r="U31" s="307"/>
     </row>
     <row r="32" spans="2:21" ht="20.25" customHeight="1">
       <c r="B32" s="169"/>
@@ -12687,10 +12721,10 @@
       <c r="N32" s="231"/>
       <c r="O32" s="216"/>
       <c r="P32" s="217"/>
-      <c r="R32" s="304"/>
-      <c r="S32" s="305"/>
-      <c r="T32" s="305"/>
-      <c r="U32" s="306"/>
+      <c r="R32" s="305"/>
+      <c r="S32" s="306"/>
+      <c r="T32" s="306"/>
+      <c r="U32" s="307"/>
     </row>
     <row r="33" spans="2:21" ht="20.25" customHeight="1">
       <c r="B33" s="169"/>
@@ -12708,10 +12742,10 @@
       <c r="N33" s="231"/>
       <c r="O33" s="216"/>
       <c r="P33" s="217"/>
-      <c r="R33" s="304"/>
-      <c r="S33" s="305"/>
-      <c r="T33" s="305"/>
-      <c r="U33" s="306"/>
+      <c r="R33" s="305"/>
+      <c r="S33" s="306"/>
+      <c r="T33" s="306"/>
+      <c r="U33" s="307"/>
     </row>
     <row r="34" spans="2:21" ht="20.25" customHeight="1">
       <c r="B34" s="174" t="s">
@@ -12731,10 +12765,10 @@
       <c r="N34" s="231"/>
       <c r="O34" s="216"/>
       <c r="P34" s="217"/>
-      <c r="R34" s="304"/>
-      <c r="S34" s="305"/>
-      <c r="T34" s="305"/>
-      <c r="U34" s="306"/>
+      <c r="R34" s="305"/>
+      <c r="S34" s="306"/>
+      <c r="T34" s="306"/>
+      <c r="U34" s="307"/>
     </row>
     <row r="35" spans="2:21" ht="20.25" customHeight="1">
       <c r="B35" s="172"/>
@@ -12758,10 +12792,10 @@
       <c r="N35" s="231"/>
       <c r="O35" s="216"/>
       <c r="P35" s="217"/>
-      <c r="R35" s="304"/>
-      <c r="S35" s="305"/>
-      <c r="T35" s="305"/>
-      <c r="U35" s="306"/>
+      <c r="R35" s="305"/>
+      <c r="S35" s="306"/>
+      <c r="T35" s="306"/>
+      <c r="U35" s="307"/>
     </row>
     <row r="36" spans="2:21" ht="20.25" customHeight="1">
       <c r="B36" s="172"/>
@@ -12785,10 +12819,10 @@
       <c r="N36" s="231"/>
       <c r="O36" s="216"/>
       <c r="P36" s="217"/>
-      <c r="R36" s="304"/>
-      <c r="S36" s="305"/>
-      <c r="T36" s="305"/>
-      <c r="U36" s="306"/>
+      <c r="R36" s="305"/>
+      <c r="S36" s="306"/>
+      <c r="T36" s="306"/>
+      <c r="U36" s="307"/>
     </row>
     <row r="37" spans="2:21" ht="20.25" customHeight="1">
       <c r="B37" s="169"/>
@@ -12806,10 +12840,10 @@
       <c r="N37" s="231"/>
       <c r="O37" s="216"/>
       <c r="P37" s="217"/>
-      <c r="R37" s="304"/>
-      <c r="S37" s="305"/>
-      <c r="T37" s="305"/>
-      <c r="U37" s="306"/>
+      <c r="R37" s="305"/>
+      <c r="S37" s="306"/>
+      <c r="T37" s="306"/>
+      <c r="U37" s="307"/>
     </row>
     <row r="38" spans="2:21" ht="20.25" customHeight="1">
       <c r="B38" s="174" t="s">
@@ -12829,10 +12863,10 @@
       <c r="N38" s="231"/>
       <c r="O38" s="216"/>
       <c r="P38" s="217"/>
-      <c r="R38" s="304"/>
-      <c r="S38" s="305"/>
-      <c r="T38" s="305"/>
-      <c r="U38" s="306"/>
+      <c r="R38" s="305"/>
+      <c r="S38" s="306"/>
+      <c r="T38" s="306"/>
+      <c r="U38" s="307"/>
     </row>
     <row r="39" spans="2:21" ht="20.25" customHeight="1">
       <c r="B39" s="172"/>
@@ -12854,10 +12888,10 @@
       <c r="N39" s="231"/>
       <c r="O39" s="216"/>
       <c r="P39" s="217"/>
-      <c r="R39" s="304"/>
-      <c r="S39" s="305"/>
-      <c r="T39" s="305"/>
-      <c r="U39" s="306"/>
+      <c r="R39" s="305"/>
+      <c r="S39" s="306"/>
+      <c r="T39" s="306"/>
+      <c r="U39" s="307"/>
     </row>
     <row r="40" spans="2:21" ht="20.25" customHeight="1">
       <c r="B40" s="172"/>
@@ -12879,10 +12913,10 @@
       <c r="N40" s="231"/>
       <c r="O40" s="216"/>
       <c r="P40" s="217"/>
-      <c r="R40" s="304"/>
-      <c r="S40" s="305"/>
-      <c r="T40" s="305"/>
-      <c r="U40" s="306"/>
+      <c r="R40" s="305"/>
+      <c r="S40" s="306"/>
+      <c r="T40" s="306"/>
+      <c r="U40" s="307"/>
     </row>
     <row r="41" spans="2:21" ht="20.25" customHeight="1">
       <c r="B41" s="172"/>
@@ -12904,10 +12938,10 @@
       <c r="N41" s="231"/>
       <c r="O41" s="216"/>
       <c r="P41" s="217"/>
-      <c r="R41" s="304"/>
-      <c r="S41" s="305"/>
-      <c r="T41" s="305"/>
-      <c r="U41" s="306"/>
+      <c r="R41" s="305"/>
+      <c r="S41" s="306"/>
+      <c r="T41" s="306"/>
+      <c r="U41" s="307"/>
     </row>
     <row r="42" spans="2:21" ht="20.25" customHeight="1">
       <c r="B42" s="172"/>
@@ -12929,10 +12963,10 @@
       <c r="N42" s="231"/>
       <c r="O42" s="216"/>
       <c r="P42" s="217"/>
-      <c r="R42" s="304"/>
-      <c r="S42" s="305"/>
-      <c r="T42" s="305"/>
-      <c r="U42" s="306"/>
+      <c r="R42" s="305"/>
+      <c r="S42" s="306"/>
+      <c r="T42" s="306"/>
+      <c r="U42" s="307"/>
     </row>
     <row r="43" spans="2:21" ht="20.25" customHeight="1">
       <c r="B43" s="172"/>
@@ -12954,10 +12988,10 @@
       <c r="N43" s="231"/>
       <c r="O43" s="216"/>
       <c r="P43" s="217"/>
-      <c r="R43" s="304"/>
-      <c r="S43" s="305"/>
-      <c r="T43" s="305"/>
-      <c r="U43" s="306"/>
+      <c r="R43" s="305"/>
+      <c r="S43" s="306"/>
+      <c r="T43" s="306"/>
+      <c r="U43" s="307"/>
     </row>
     <row r="44" spans="2:21" ht="20.25" customHeight="1">
       <c r="B44" s="172"/>
@@ -12979,10 +13013,10 @@
       <c r="N44" s="231"/>
       <c r="O44" s="216"/>
       <c r="P44" s="217"/>
-      <c r="R44" s="304"/>
-      <c r="S44" s="305"/>
-      <c r="T44" s="305"/>
-      <c r="U44" s="306"/>
+      <c r="R44" s="305"/>
+      <c r="S44" s="306"/>
+      <c r="T44" s="306"/>
+      <c r="U44" s="307"/>
     </row>
     <row r="45" spans="2:21" ht="20.25" customHeight="1">
       <c r="B45" s="172"/>
@@ -13004,10 +13038,10 @@
       <c r="N45" s="231"/>
       <c r="O45" s="216"/>
       <c r="P45" s="217"/>
-      <c r="R45" s="304"/>
-      <c r="S45" s="305"/>
-      <c r="T45" s="305"/>
-      <c r="U45" s="306"/>
+      <c r="R45" s="305"/>
+      <c r="S45" s="306"/>
+      <c r="T45" s="306"/>
+      <c r="U45" s="307"/>
     </row>
     <row r="46" spans="2:21" ht="20.25" customHeight="1">
       <c r="B46" s="172"/>
@@ -13029,10 +13063,10 @@
       <c r="N46" s="231"/>
       <c r="O46" s="216"/>
       <c r="P46" s="217"/>
-      <c r="R46" s="304"/>
-      <c r="S46" s="305"/>
-      <c r="T46" s="305"/>
-      <c r="U46" s="306"/>
+      <c r="R46" s="305"/>
+      <c r="S46" s="306"/>
+      <c r="T46" s="306"/>
+      <c r="U46" s="307"/>
     </row>
     <row r="47" spans="2:21" ht="20.25" customHeight="1">
       <c r="B47" s="172"/>
@@ -13054,10 +13088,10 @@
       <c r="N47" s="231"/>
       <c r="O47" s="216"/>
       <c r="P47" s="217"/>
-      <c r="R47" s="304"/>
-      <c r="S47" s="305"/>
-      <c r="T47" s="305"/>
-      <c r="U47" s="306"/>
+      <c r="R47" s="305"/>
+      <c r="S47" s="306"/>
+      <c r="T47" s="306"/>
+      <c r="U47" s="307"/>
     </row>
     <row r="48" spans="2:21" ht="20.25" customHeight="1">
       <c r="B48" s="169"/>
@@ -13075,10 +13109,10 @@
       <c r="N48" s="231"/>
       <c r="O48" s="216"/>
       <c r="P48" s="217"/>
-      <c r="R48" s="304"/>
-      <c r="S48" s="305"/>
-      <c r="T48" s="305"/>
-      <c r="U48" s="306"/>
+      <c r="R48" s="305"/>
+      <c r="S48" s="306"/>
+      <c r="T48" s="306"/>
+      <c r="U48" s="307"/>
     </row>
     <row r="49" spans="2:21" ht="20.25" customHeight="1">
       <c r="B49" s="174" t="s">
@@ -13098,10 +13132,10 @@
       <c r="N49" s="231"/>
       <c r="O49" s="216"/>
       <c r="P49" s="217"/>
-      <c r="R49" s="304"/>
-      <c r="S49" s="305"/>
-      <c r="T49" s="305"/>
-      <c r="U49" s="306"/>
+      <c r="R49" s="305"/>
+      <c r="S49" s="306"/>
+      <c r="T49" s="306"/>
+      <c r="U49" s="307"/>
     </row>
     <row r="50" spans="2:21" ht="20.25" customHeight="1">
       <c r="B50" s="172"/>
@@ -13123,10 +13157,10 @@
       <c r="N50" s="231"/>
       <c r="O50" s="216"/>
       <c r="P50" s="217"/>
-      <c r="R50" s="304"/>
-      <c r="S50" s="305"/>
-      <c r="T50" s="305"/>
-      <c r="U50" s="306"/>
+      <c r="R50" s="305"/>
+      <c r="S50" s="306"/>
+      <c r="T50" s="306"/>
+      <c r="U50" s="307"/>
     </row>
     <row r="51" spans="2:21" ht="20.25" customHeight="1">
       <c r="B51" s="172"/>
@@ -13148,10 +13182,10 @@
       <c r="N51" s="231"/>
       <c r="O51" s="216"/>
       <c r="P51" s="217"/>
-      <c r="R51" s="304"/>
-      <c r="S51" s="305"/>
-      <c r="T51" s="305"/>
-      <c r="U51" s="306"/>
+      <c r="R51" s="305"/>
+      <c r="S51" s="306"/>
+      <c r="T51" s="306"/>
+      <c r="U51" s="307"/>
     </row>
     <row r="52" spans="2:21" ht="20.25" customHeight="1">
       <c r="B52" s="172"/>
@@ -13173,10 +13207,10 @@
       <c r="N52" s="231"/>
       <c r="O52" s="216"/>
       <c r="P52" s="217"/>
-      <c r="R52" s="304"/>
-      <c r="S52" s="305"/>
-      <c r="T52" s="305"/>
-      <c r="U52" s="306"/>
+      <c r="R52" s="305"/>
+      <c r="S52" s="306"/>
+      <c r="T52" s="306"/>
+      <c r="U52" s="307"/>
     </row>
     <row r="53" spans="2:21" ht="20.25" customHeight="1">
       <c r="B53" s="172"/>
@@ -13198,10 +13232,10 @@
       <c r="N53" s="231"/>
       <c r="O53" s="216"/>
       <c r="P53" s="217"/>
-      <c r="R53" s="304"/>
-      <c r="S53" s="305"/>
-      <c r="T53" s="305"/>
-      <c r="U53" s="306"/>
+      <c r="R53" s="305"/>
+      <c r="S53" s="306"/>
+      <c r="T53" s="306"/>
+      <c r="U53" s="307"/>
     </row>
     <row r="54" spans="2:21" ht="20.25" customHeight="1">
       <c r="B54" s="172"/>
@@ -13219,10 +13253,10 @@
       <c r="N54" s="231"/>
       <c r="O54" s="216"/>
       <c r="P54" s="217"/>
-      <c r="R54" s="304"/>
-      <c r="S54" s="305"/>
-      <c r="T54" s="305"/>
-      <c r="U54" s="306"/>
+      <c r="R54" s="305"/>
+      <c r="S54" s="306"/>
+      <c r="T54" s="306"/>
+      <c r="U54" s="307"/>
     </row>
     <row r="55" spans="2:21" ht="20.25" customHeight="1">
       <c r="B55" s="174" t="s">
@@ -13242,10 +13276,10 @@
       <c r="N55" s="231"/>
       <c r="O55" s="216"/>
       <c r="P55" s="217"/>
-      <c r="R55" s="304"/>
-      <c r="S55" s="305"/>
-      <c r="T55" s="305"/>
-      <c r="U55" s="306"/>
+      <c r="R55" s="305"/>
+      <c r="S55" s="306"/>
+      <c r="T55" s="306"/>
+      <c r="U55" s="307"/>
     </row>
     <row r="56" spans="2:21" ht="20.25" customHeight="1">
       <c r="B56" s="172"/>
@@ -13267,10 +13301,10 @@
       <c r="N56" s="231"/>
       <c r="O56" s="216"/>
       <c r="P56" s="217"/>
-      <c r="R56" s="304"/>
-      <c r="S56" s="305"/>
-      <c r="T56" s="305"/>
-      <c r="U56" s="306"/>
+      <c r="R56" s="305"/>
+      <c r="S56" s="306"/>
+      <c r="T56" s="306"/>
+      <c r="U56" s="307"/>
     </row>
     <row r="57" spans="2:21" ht="20.25" customHeight="1">
       <c r="B57" s="172"/>
@@ -13292,10 +13326,10 @@
       <c r="N57" s="231"/>
       <c r="O57" s="216"/>
       <c r="P57" s="217"/>
-      <c r="R57" s="304"/>
-      <c r="S57" s="305"/>
-      <c r="T57" s="305"/>
-      <c r="U57" s="306"/>
+      <c r="R57" s="305"/>
+      <c r="S57" s="306"/>
+      <c r="T57" s="306"/>
+      <c r="U57" s="307"/>
     </row>
     <row r="58" spans="2:21" ht="20.25" customHeight="1">
       <c r="B58" s="172"/>
@@ -13317,10 +13351,10 @@
       <c r="N58" s="231"/>
       <c r="O58" s="216"/>
       <c r="P58" s="217"/>
-      <c r="R58" s="304"/>
-      <c r="S58" s="305"/>
-      <c r="T58" s="305"/>
-      <c r="U58" s="306"/>
+      <c r="R58" s="305"/>
+      <c r="S58" s="306"/>
+      <c r="T58" s="306"/>
+      <c r="U58" s="307"/>
     </row>
     <row r="59" spans="2:21" ht="20.25" customHeight="1">
       <c r="B59" s="172"/>
@@ -13342,10 +13376,10 @@
       <c r="N59" s="231"/>
       <c r="O59" s="216"/>
       <c r="P59" s="217"/>
-      <c r="R59" s="304"/>
-      <c r="S59" s="305"/>
-      <c r="T59" s="305"/>
-      <c r="U59" s="306"/>
+      <c r="R59" s="305"/>
+      <c r="S59" s="306"/>
+      <c r="T59" s="306"/>
+      <c r="U59" s="307"/>
     </row>
     <row r="60" spans="2:21" ht="20.25" customHeight="1">
       <c r="B60" s="172"/>
@@ -13367,10 +13401,10 @@
       <c r="N60" s="231"/>
       <c r="O60" s="216"/>
       <c r="P60" s="217"/>
-      <c r="R60" s="304"/>
-      <c r="S60" s="305"/>
-      <c r="T60" s="305"/>
-      <c r="U60" s="306"/>
+      <c r="R60" s="305"/>
+      <c r="S60" s="306"/>
+      <c r="T60" s="306"/>
+      <c r="U60" s="307"/>
     </row>
     <row r="61" spans="2:21" ht="20.25" customHeight="1">
       <c r="B61" s="218"/>
@@ -13388,10 +13422,10 @@
       <c r="N61" s="231"/>
       <c r="O61" s="216"/>
       <c r="P61" s="217"/>
-      <c r="R61" s="304"/>
-      <c r="S61" s="305"/>
-      <c r="T61" s="305"/>
-      <c r="U61" s="306"/>
+      <c r="R61" s="305"/>
+      <c r="S61" s="306"/>
+      <c r="T61" s="306"/>
+      <c r="U61" s="307"/>
     </row>
     <row r="62" spans="2:21" ht="20.25" customHeight="1">
       <c r="B62" s="174" t="s">
@@ -13411,10 +13445,10 @@
       <c r="N62" s="231"/>
       <c r="O62" s="216"/>
       <c r="P62" s="217"/>
-      <c r="R62" s="304"/>
-      <c r="S62" s="305"/>
-      <c r="T62" s="305"/>
-      <c r="U62" s="306"/>
+      <c r="R62" s="305"/>
+      <c r="S62" s="306"/>
+      <c r="T62" s="306"/>
+      <c r="U62" s="307"/>
     </row>
     <row r="63" spans="2:21" ht="20.25" customHeight="1">
       <c r="B63" s="172"/>
@@ -13436,10 +13470,10 @@
       <c r="N63" s="231"/>
       <c r="O63" s="216"/>
       <c r="P63" s="217"/>
-      <c r="R63" s="304"/>
-      <c r="S63" s="305"/>
-      <c r="T63" s="305"/>
-      <c r="U63" s="306"/>
+      <c r="R63" s="305"/>
+      <c r="S63" s="306"/>
+      <c r="T63" s="306"/>
+      <c r="U63" s="307"/>
     </row>
     <row r="64" spans="2:21" ht="20.25" customHeight="1">
       <c r="B64" s="172"/>
@@ -13461,10 +13495,10 @@
       <c r="N64" s="231"/>
       <c r="O64" s="216"/>
       <c r="P64" s="217"/>
-      <c r="R64" s="304"/>
-      <c r="S64" s="305"/>
-      <c r="T64" s="305"/>
-      <c r="U64" s="306"/>
+      <c r="R64" s="305"/>
+      <c r="S64" s="306"/>
+      <c r="T64" s="306"/>
+      <c r="U64" s="307"/>
     </row>
     <row r="65" spans="2:21" ht="20.25" customHeight="1">
       <c r="B65" s="169"/>
@@ -13482,10 +13516,10 @@
       <c r="N65" s="231"/>
       <c r="O65" s="216"/>
       <c r="P65" s="217"/>
-      <c r="R65" s="304"/>
-      <c r="S65" s="305"/>
-      <c r="T65" s="305"/>
-      <c r="U65" s="306"/>
+      <c r="R65" s="305"/>
+      <c r="S65" s="306"/>
+      <c r="T65" s="306"/>
+      <c r="U65" s="307"/>
     </row>
     <row r="66" spans="2:21" ht="20.25" customHeight="1">
       <c r="B66" s="174" t="s">
@@ -13507,10 +13541,10 @@
       </c>
       <c r="O66" s="216"/>
       <c r="P66" s="217"/>
-      <c r="R66" s="304"/>
-      <c r="S66" s="305"/>
-      <c r="T66" s="305"/>
-      <c r="U66" s="306"/>
+      <c r="R66" s="305"/>
+      <c r="S66" s="306"/>
+      <c r="T66" s="306"/>
+      <c r="U66" s="307"/>
     </row>
     <row r="67" spans="2:21" ht="20.25" customHeight="1">
       <c r="B67" s="172"/>
@@ -13532,10 +13566,10 @@
       </c>
       <c r="O67" s="216"/>
       <c r="P67" s="217"/>
-      <c r="R67" s="304"/>
-      <c r="S67" s="305"/>
-      <c r="T67" s="305"/>
-      <c r="U67" s="306"/>
+      <c r="R67" s="305"/>
+      <c r="S67" s="306"/>
+      <c r="T67" s="306"/>
+      <c r="U67" s="307"/>
     </row>
     <row r="68" spans="2:21" ht="20.25" customHeight="1">
       <c r="B68" s="169"/>
@@ -13557,10 +13591,10 @@
       </c>
       <c r="O68" s="216"/>
       <c r="P68" s="217"/>
-      <c r="R68" s="304"/>
-      <c r="S68" s="305"/>
-      <c r="T68" s="305"/>
-      <c r="U68" s="306"/>
+      <c r="R68" s="305"/>
+      <c r="S68" s="306"/>
+      <c r="T68" s="306"/>
+      <c r="U68" s="307"/>
     </row>
     <row r="69" spans="2:21" ht="20.25" customHeight="1">
       <c r="B69" s="169"/>
@@ -13582,10 +13616,10 @@
       </c>
       <c r="O69" s="216"/>
       <c r="P69" s="217"/>
-      <c r="R69" s="304"/>
-      <c r="S69" s="305"/>
-      <c r="T69" s="305"/>
-      <c r="U69" s="306"/>
+      <c r="R69" s="305"/>
+      <c r="S69" s="306"/>
+      <c r="T69" s="306"/>
+      <c r="U69" s="307"/>
     </row>
     <row r="70" spans="2:21" ht="20.25" customHeight="1">
       <c r="B70" s="169"/>
@@ -13607,10 +13641,10 @@
       </c>
       <c r="O70" s="216"/>
       <c r="P70" s="217"/>
-      <c r="R70" s="304"/>
-      <c r="S70" s="305"/>
-      <c r="T70" s="305"/>
-      <c r="U70" s="306"/>
+      <c r="R70" s="305"/>
+      <c r="S70" s="306"/>
+      <c r="T70" s="306"/>
+      <c r="U70" s="307"/>
     </row>
     <row r="71" spans="2:21" ht="20.25" customHeight="1">
       <c r="B71" s="169"/>
@@ -13632,10 +13666,10 @@
       </c>
       <c r="O71" s="216"/>
       <c r="P71" s="217"/>
-      <c r="R71" s="304"/>
-      <c r="S71" s="305"/>
-      <c r="T71" s="305"/>
-      <c r="U71" s="306"/>
+      <c r="R71" s="305"/>
+      <c r="S71" s="306"/>
+      <c r="T71" s="306"/>
+      <c r="U71" s="307"/>
     </row>
     <row r="72" spans="2:21" ht="20.25" customHeight="1">
       <c r="B72" s="169"/>
@@ -13657,10 +13691,10 @@
       </c>
       <c r="O72" s="216"/>
       <c r="P72" s="217"/>
-      <c r="R72" s="304"/>
-      <c r="S72" s="305"/>
-      <c r="T72" s="305"/>
-      <c r="U72" s="306"/>
+      <c r="R72" s="305"/>
+      <c r="S72" s="306"/>
+      <c r="T72" s="306"/>
+      <c r="U72" s="307"/>
     </row>
     <row r="73" spans="2:21" ht="20.25" customHeight="1">
       <c r="B73" s="169"/>
@@ -13682,10 +13716,10 @@
       </c>
       <c r="O73" s="216"/>
       <c r="P73" s="217"/>
-      <c r="R73" s="304"/>
-      <c r="S73" s="305"/>
-      <c r="T73" s="305"/>
-      <c r="U73" s="306"/>
+      <c r="R73" s="305"/>
+      <c r="S73" s="306"/>
+      <c r="T73" s="306"/>
+      <c r="U73" s="307"/>
     </row>
     <row r="74" spans="2:21" ht="20.25" customHeight="1">
       <c r="B74" s="169"/>
@@ -13707,10 +13741,10 @@
       </c>
       <c r="O74" s="216"/>
       <c r="P74" s="217"/>
-      <c r="R74" s="304"/>
-      <c r="S74" s="305"/>
-      <c r="T74" s="305"/>
-      <c r="U74" s="306"/>
+      <c r="R74" s="305"/>
+      <c r="S74" s="306"/>
+      <c r="T74" s="306"/>
+      <c r="U74" s="307"/>
     </row>
     <row r="75" spans="2:21" ht="20.25" customHeight="1">
       <c r="B75" s="169"/>
@@ -13732,10 +13766,10 @@
       </c>
       <c r="O75" s="216"/>
       <c r="P75" s="217"/>
-      <c r="R75" s="304"/>
-      <c r="S75" s="305"/>
-      <c r="T75" s="305"/>
-      <c r="U75" s="306"/>
+      <c r="R75" s="305"/>
+      <c r="S75" s="306"/>
+      <c r="T75" s="306"/>
+      <c r="U75" s="307"/>
     </row>
     <row r="76" spans="2:21" ht="20.25" customHeight="1">
       <c r="B76" s="169"/>
@@ -13753,10 +13787,10 @@
       <c r="N76" s="231"/>
       <c r="O76" s="216"/>
       <c r="P76" s="217"/>
-      <c r="R76" s="304"/>
-      <c r="S76" s="305"/>
-      <c r="T76" s="305"/>
-      <c r="U76" s="306"/>
+      <c r="R76" s="305"/>
+      <c r="S76" s="306"/>
+      <c r="T76" s="306"/>
+      <c r="U76" s="307"/>
     </row>
     <row r="77" spans="2:21" ht="20.25" customHeight="1">
       <c r="B77" s="174" t="s">
@@ -13778,10 +13812,10 @@
       </c>
       <c r="O77" s="216"/>
       <c r="P77" s="217"/>
-      <c r="R77" s="304"/>
-      <c r="S77" s="305"/>
-      <c r="T77" s="305"/>
-      <c r="U77" s="306"/>
+      <c r="R77" s="305"/>
+      <c r="S77" s="306"/>
+      <c r="T77" s="306"/>
+      <c r="U77" s="307"/>
     </row>
     <row r="78" spans="2:21" ht="20.25" customHeight="1">
       <c r="B78" s="172"/>
@@ -13803,10 +13837,10 @@
       </c>
       <c r="O78" s="216"/>
       <c r="P78" s="217"/>
-      <c r="R78" s="304"/>
-      <c r="S78" s="305"/>
-      <c r="T78" s="305"/>
-      <c r="U78" s="306"/>
+      <c r="R78" s="305"/>
+      <c r="S78" s="306"/>
+      <c r="T78" s="306"/>
+      <c r="U78" s="307"/>
     </row>
     <row r="79" spans="2:21" ht="20.25" customHeight="1">
       <c r="B79" s="172"/>
@@ -13828,10 +13862,10 @@
       </c>
       <c r="O79" s="216"/>
       <c r="P79" s="217"/>
-      <c r="R79" s="304"/>
-      <c r="S79" s="305"/>
-      <c r="T79" s="305"/>
-      <c r="U79" s="306"/>
+      <c r="R79" s="305"/>
+      <c r="S79" s="306"/>
+      <c r="T79" s="306"/>
+      <c r="U79" s="307"/>
     </row>
     <row r="80" spans="2:21" ht="20.25" customHeight="1">
       <c r="B80" s="169"/>
@@ -13849,10 +13883,10 @@
       <c r="N80" s="231"/>
       <c r="O80" s="216"/>
       <c r="P80" s="217"/>
-      <c r="R80" s="304"/>
-      <c r="S80" s="305"/>
-      <c r="T80" s="305"/>
-      <c r="U80" s="306"/>
+      <c r="R80" s="305"/>
+      <c r="S80" s="306"/>
+      <c r="T80" s="306"/>
+      <c r="U80" s="307"/>
     </row>
     <row r="81" spans="2:21" ht="20.25" customHeight="1">
       <c r="B81" s="174" t="s">
@@ -13874,10 +13908,10 @@
       </c>
       <c r="O81" s="216"/>
       <c r="P81" s="217"/>
-      <c r="R81" s="304"/>
-      <c r="S81" s="305"/>
-      <c r="T81" s="305"/>
-      <c r="U81" s="306"/>
+      <c r="R81" s="305"/>
+      <c r="S81" s="306"/>
+      <c r="T81" s="306"/>
+      <c r="U81" s="307"/>
     </row>
     <row r="82" spans="2:21" ht="20.25" customHeight="1">
       <c r="B82" s="172"/>
@@ -13899,10 +13933,10 @@
       </c>
       <c r="O82" s="216"/>
       <c r="P82" s="217"/>
-      <c r="R82" s="304"/>
-      <c r="S82" s="305"/>
-      <c r="T82" s="305"/>
-      <c r="U82" s="306"/>
+      <c r="R82" s="305"/>
+      <c r="S82" s="306"/>
+      <c r="T82" s="306"/>
+      <c r="U82" s="307"/>
     </row>
     <row r="83" spans="2:21" ht="20.25" customHeight="1">
       <c r="B83" s="172"/>
@@ -13924,10 +13958,10 @@
       </c>
       <c r="O83" s="216"/>
       <c r="P83" s="217"/>
-      <c r="R83" s="304"/>
-      <c r="S83" s="305"/>
-      <c r="T83" s="305"/>
-      <c r="U83" s="306"/>
+      <c r="R83" s="305"/>
+      <c r="S83" s="306"/>
+      <c r="T83" s="306"/>
+      <c r="U83" s="307"/>
     </row>
     <row r="84" spans="2:21" ht="20.25" customHeight="1">
       <c r="B84" s="172"/>
@@ -13949,10 +13983,10 @@
       </c>
       <c r="O84" s="216"/>
       <c r="P84" s="217"/>
-      <c r="R84" s="304"/>
-      <c r="S84" s="305"/>
-      <c r="T84" s="305"/>
-      <c r="U84" s="306"/>
+      <c r="R84" s="305"/>
+      <c r="S84" s="306"/>
+      <c r="T84" s="306"/>
+      <c r="U84" s="307"/>
     </row>
     <row r="85" spans="2:21" ht="20.25" customHeight="1">
       <c r="B85" s="172"/>
@@ -13974,10 +14008,10 @@
       </c>
       <c r="O85" s="216"/>
       <c r="P85" s="217"/>
-      <c r="R85" s="304"/>
-      <c r="S85" s="305"/>
-      <c r="T85" s="305"/>
-      <c r="U85" s="306"/>
+      <c r="R85" s="305"/>
+      <c r="S85" s="306"/>
+      <c r="T85" s="306"/>
+      <c r="U85" s="307"/>
     </row>
     <row r="86" spans="2:21" ht="20.25" customHeight="1">
       <c r="B86" s="172"/>
@@ -13999,10 +14033,10 @@
       </c>
       <c r="O86" s="216"/>
       <c r="P86" s="217"/>
-      <c r="R86" s="304"/>
-      <c r="S86" s="305"/>
-      <c r="T86" s="305"/>
-      <c r="U86" s="306"/>
+      <c r="R86" s="305"/>
+      <c r="S86" s="306"/>
+      <c r="T86" s="306"/>
+      <c r="U86" s="307"/>
     </row>
     <row r="87" spans="2:21" ht="20.25" customHeight="1">
       <c r="B87" s="169"/>
@@ -14020,10 +14054,10 @@
       <c r="N87" s="231"/>
       <c r="O87" s="216"/>
       <c r="P87" s="217"/>
-      <c r="R87" s="304"/>
-      <c r="S87" s="305"/>
-      <c r="T87" s="305"/>
-      <c r="U87" s="306"/>
+      <c r="R87" s="305"/>
+      <c r="S87" s="306"/>
+      <c r="T87" s="306"/>
+      <c r="U87" s="307"/>
     </row>
     <row r="88" spans="2:21" ht="20.25" customHeight="1">
       <c r="B88" s="174" t="s">
@@ -14045,10 +14079,10 @@
       </c>
       <c r="O88" s="216"/>
       <c r="P88" s="217"/>
-      <c r="R88" s="304"/>
-      <c r="S88" s="305"/>
-      <c r="T88" s="305"/>
-      <c r="U88" s="306"/>
+      <c r="R88" s="305"/>
+      <c r="S88" s="306"/>
+      <c r="T88" s="306"/>
+      <c r="U88" s="307"/>
     </row>
     <row r="89" spans="2:21" ht="20.25" customHeight="1">
       <c r="B89" s="172"/>
@@ -14070,10 +14104,10 @@
       </c>
       <c r="O89" s="216"/>
       <c r="P89" s="217"/>
-      <c r="R89" s="304"/>
-      <c r="S89" s="305"/>
-      <c r="T89" s="305"/>
-      <c r="U89" s="306"/>
+      <c r="R89" s="305"/>
+      <c r="S89" s="306"/>
+      <c r="T89" s="306"/>
+      <c r="U89" s="307"/>
     </row>
     <row r="90" spans="2:21" ht="20.25" customHeight="1">
       <c r="B90" s="172"/>
@@ -14095,10 +14129,10 @@
       </c>
       <c r="O90" s="216"/>
       <c r="P90" s="217"/>
-      <c r="R90" s="304"/>
-      <c r="S90" s="305"/>
-      <c r="T90" s="305"/>
-      <c r="U90" s="306"/>
+      <c r="R90" s="305"/>
+      <c r="S90" s="306"/>
+      <c r="T90" s="306"/>
+      <c r="U90" s="307"/>
     </row>
     <row r="91" spans="2:21" ht="20.25" customHeight="1">
       <c r="B91" s="172"/>
@@ -14120,10 +14154,10 @@
       </c>
       <c r="O91" s="216"/>
       <c r="P91" s="217"/>
-      <c r="R91" s="304"/>
-      <c r="S91" s="305"/>
-      <c r="T91" s="305"/>
-      <c r="U91" s="306"/>
+      <c r="R91" s="305"/>
+      <c r="S91" s="306"/>
+      <c r="T91" s="306"/>
+      <c r="U91" s="307"/>
     </row>
     <row r="92" spans="2:21" ht="20.25" customHeight="1">
       <c r="B92" s="169"/>
@@ -14145,10 +14179,10 @@
       </c>
       <c r="O92" s="216"/>
       <c r="P92" s="217"/>
-      <c r="R92" s="304"/>
-      <c r="S92" s="305"/>
-      <c r="T92" s="305"/>
-      <c r="U92" s="306"/>
+      <c r="R92" s="305"/>
+      <c r="S92" s="306"/>
+      <c r="T92" s="306"/>
+      <c r="U92" s="307"/>
     </row>
     <row r="93" spans="2:21" ht="20.25" customHeight="1">
       <c r="B93" s="218"/>
@@ -14166,10 +14200,10 @@
       <c r="N93" s="231"/>
       <c r="O93" s="216"/>
       <c r="P93" s="217"/>
-      <c r="R93" s="304"/>
-      <c r="S93" s="305"/>
-      <c r="T93" s="305"/>
-      <c r="U93" s="306"/>
+      <c r="R93" s="305"/>
+      <c r="S93" s="306"/>
+      <c r="T93" s="306"/>
+      <c r="U93" s="307"/>
     </row>
     <row r="94" spans="2:21" ht="20.25" customHeight="1" thickBot="1">
       <c r="B94" s="225"/>
@@ -14187,10 +14221,10 @@
       <c r="N94" s="230"/>
       <c r="O94" s="226"/>
       <c r="P94" s="228"/>
-      <c r="R94" s="307"/>
-      <c r="S94" s="308"/>
-      <c r="T94" s="308"/>
-      <c r="U94" s="309"/>
+      <c r="R94" s="308"/>
+      <c r="S94" s="309"/>
+      <c r="T94" s="309"/>
+      <c r="U94" s="310"/>
     </row>
     <row r="95" spans="2:21" ht="15.75" customHeight="1">
       <c r="B95" s="186"/>
@@ -14273,15 +14307,15 @@
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
-      <c r="H3" s="300"/>
-      <c r="I3" s="243"/>
-      <c r="J3" s="243"/>
-      <c r="K3" s="243"/>
-      <c r="L3" s="243"/>
-      <c r="M3" s="243"/>
-      <c r="N3" s="243"/>
-      <c r="O3" s="243"/>
-      <c r="P3" s="243"/>
+      <c r="H3" s="301"/>
+      <c r="I3" s="244"/>
+      <c r="J3" s="244"/>
+      <c r="K3" s="244"/>
+      <c r="L3" s="244"/>
+      <c r="M3" s="244"/>
+      <c r="N3" s="244"/>
+      <c r="O3" s="244"/>
+      <c r="P3" s="244"/>
     </row>
     <row r="4" spans="2:21" ht="21.75" customHeight="1" thickBot="1">
       <c r="B4" s="26"/>
@@ -14334,12 +14368,12 @@
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
       <c r="N6" s="26"/>
-      <c r="R6" s="310" t="s">
+      <c r="R6" s="311" t="s">
         <v>626</v>
       </c>
-      <c r="S6" s="302"/>
-      <c r="T6" s="302"/>
-      <c r="U6" s="303"/>
+      <c r="S6" s="303"/>
+      <c r="T6" s="303"/>
+      <c r="U6" s="304"/>
     </row>
     <row r="7" spans="2:21" ht="21.75" customHeight="1" thickBot="1">
       <c r="B7" s="183" t="s">
@@ -14357,10 +14391,10 @@
       <c r="L7" s="184"/>
       <c r="M7" s="184"/>
       <c r="N7" s="184"/>
-      <c r="R7" s="304"/>
-      <c r="S7" s="305"/>
-      <c r="T7" s="305"/>
-      <c r="U7" s="306"/>
+      <c r="R7" s="305"/>
+      <c r="S7" s="306"/>
+      <c r="T7" s="306"/>
+      <c r="U7" s="307"/>
     </row>
     <row r="8" spans="2:21" ht="15">
       <c r="B8" s="187" t="s">
@@ -14382,10 +14416,10 @@
       <c r="L8" s="184"/>
       <c r="M8" s="184"/>
       <c r="N8" s="190"/>
-      <c r="R8" s="304"/>
-      <c r="S8" s="305"/>
-      <c r="T8" s="305"/>
-      <c r="U8" s="306"/>
+      <c r="R8" s="305"/>
+      <c r="S8" s="306"/>
+      <c r="T8" s="306"/>
+      <c r="U8" s="307"/>
     </row>
     <row r="9" spans="2:21" thickBot="1">
       <c r="B9" s="191" t="s">
@@ -14407,10 +14441,10 @@
       <c r="L9" s="194"/>
       <c r="M9" s="194"/>
       <c r="N9" s="194"/>
-      <c r="R9" s="304"/>
-      <c r="S9" s="305"/>
-      <c r="T9" s="305"/>
-      <c r="U9" s="306"/>
+      <c r="R9" s="305"/>
+      <c r="S9" s="306"/>
+      <c r="T9" s="306"/>
+      <c r="U9" s="307"/>
     </row>
     <row r="10" spans="2:21" thickBot="1">
       <c r="B10" s="191" t="s">
@@ -14442,10 +14476,10 @@
       </c>
       <c r="O10" s="200"/>
       <c r="P10" s="201"/>
-      <c r="R10" s="304"/>
-      <c r="S10" s="305"/>
-      <c r="T10" s="305"/>
-      <c r="U10" s="306"/>
+      <c r="R10" s="305"/>
+      <c r="S10" s="306"/>
+      <c r="T10" s="306"/>
+      <c r="U10" s="307"/>
     </row>
     <row r="11" spans="2:21" ht="15" customHeight="1" thickBot="1">
       <c r="B11" s="202"/>
@@ -14487,10 +14521,10 @@
       <c r="P11" s="211" t="s">
         <v>100</v>
       </c>
-      <c r="R11" s="304"/>
-      <c r="S11" s="305"/>
-      <c r="T11" s="305"/>
-      <c r="U11" s="306"/>
+      <c r="R11" s="305"/>
+      <c r="S11" s="306"/>
+      <c r="T11" s="306"/>
+      <c r="U11" s="307"/>
     </row>
     <row r="12" spans="2:21" ht="20.25" customHeight="1">
       <c r="B12" s="171"/>
@@ -14508,10 +14542,10 @@
       <c r="N12" s="231"/>
       <c r="O12" s="216"/>
       <c r="P12" s="217"/>
-      <c r="R12" s="304"/>
-      <c r="S12" s="305"/>
-      <c r="T12" s="305"/>
-      <c r="U12" s="306"/>
+      <c r="R12" s="305"/>
+      <c r="S12" s="306"/>
+      <c r="T12" s="306"/>
+      <c r="U12" s="307"/>
     </row>
     <row r="13" spans="2:21" ht="20.25" customHeight="1">
       <c r="B13" s="174" t="s">
@@ -14531,10 +14565,10 @@
       <c r="N13" s="231"/>
       <c r="O13" s="216"/>
       <c r="P13" s="217"/>
-      <c r="R13" s="304"/>
-      <c r="S13" s="305"/>
-      <c r="T13" s="305"/>
-      <c r="U13" s="306"/>
+      <c r="R13" s="305"/>
+      <c r="S13" s="306"/>
+      <c r="T13" s="306"/>
+      <c r="U13" s="307"/>
     </row>
     <row r="14" spans="2:21" ht="20.25" customHeight="1">
       <c r="B14" s="172"/>
@@ -14558,10 +14592,10 @@
       <c r="N14" s="231"/>
       <c r="O14" s="216"/>
       <c r="P14" s="217"/>
-      <c r="R14" s="304"/>
-      <c r="S14" s="305"/>
-      <c r="T14" s="305"/>
-      <c r="U14" s="306"/>
+      <c r="R14" s="305"/>
+      <c r="S14" s="306"/>
+      <c r="T14" s="306"/>
+      <c r="U14" s="307"/>
     </row>
     <row r="15" spans="2:21" ht="20.25" customHeight="1">
       <c r="B15" s="172"/>
@@ -14585,10 +14619,10 @@
       <c r="N15" s="231"/>
       <c r="O15" s="216"/>
       <c r="P15" s="217"/>
-      <c r="R15" s="304"/>
-      <c r="S15" s="305"/>
-      <c r="T15" s="305"/>
-      <c r="U15" s="306"/>
+      <c r="R15" s="305"/>
+      <c r="S15" s="306"/>
+      <c r="T15" s="306"/>
+      <c r="U15" s="307"/>
     </row>
     <row r="16" spans="2:21" ht="20.25" customHeight="1">
       <c r="B16" s="172"/>
@@ -14612,10 +14646,10 @@
       <c r="N16" s="231"/>
       <c r="O16" s="216"/>
       <c r="P16" s="217"/>
-      <c r="R16" s="304"/>
-      <c r="S16" s="305"/>
-      <c r="T16" s="305"/>
-      <c r="U16" s="306"/>
+      <c r="R16" s="305"/>
+      <c r="S16" s="306"/>
+      <c r="T16" s="306"/>
+      <c r="U16" s="307"/>
     </row>
     <row r="17" spans="2:21" ht="20.25" customHeight="1">
       <c r="B17" s="172"/>
@@ -14639,10 +14673,10 @@
       <c r="N17" s="231"/>
       <c r="O17" s="216"/>
       <c r="P17" s="217"/>
-      <c r="R17" s="304"/>
-      <c r="S17" s="305"/>
-      <c r="T17" s="305"/>
-      <c r="U17" s="306"/>
+      <c r="R17" s="305"/>
+      <c r="S17" s="306"/>
+      <c r="T17" s="306"/>
+      <c r="U17" s="307"/>
     </row>
     <row r="18" spans="2:21" ht="20.25" customHeight="1">
       <c r="B18" s="172"/>
@@ -14660,10 +14694,10 @@
       <c r="N18" s="231"/>
       <c r="O18" s="216"/>
       <c r="P18" s="217"/>
-      <c r="R18" s="304"/>
-      <c r="S18" s="305"/>
-      <c r="T18" s="305"/>
-      <c r="U18" s="306"/>
+      <c r="R18" s="305"/>
+      <c r="S18" s="306"/>
+      <c r="T18" s="306"/>
+      <c r="U18" s="307"/>
     </row>
     <row r="19" spans="2:21" ht="20.25" customHeight="1">
       <c r="B19" s="174" t="s">
@@ -14683,10 +14717,10 @@
       <c r="N19" s="231"/>
       <c r="O19" s="216"/>
       <c r="P19" s="217"/>
-      <c r="R19" s="304"/>
-      <c r="S19" s="305"/>
-      <c r="T19" s="305"/>
-      <c r="U19" s="306"/>
+      <c r="R19" s="305"/>
+      <c r="S19" s="306"/>
+      <c r="T19" s="306"/>
+      <c r="U19" s="307"/>
     </row>
     <row r="20" spans="2:21" ht="20.25" customHeight="1">
       <c r="B20" s="174"/>
@@ -14710,10 +14744,10 @@
       <c r="N20" s="231"/>
       <c r="O20" s="216"/>
       <c r="P20" s="217"/>
-      <c r="R20" s="304"/>
-      <c r="S20" s="305"/>
-      <c r="T20" s="305"/>
-      <c r="U20" s="306"/>
+      <c r="R20" s="305"/>
+      <c r="S20" s="306"/>
+      <c r="T20" s="306"/>
+      <c r="U20" s="307"/>
     </row>
     <row r="21" spans="2:21" ht="20.25" customHeight="1">
       <c r="B21" s="172"/>
@@ -14737,10 +14771,10 @@
       <c r="N21" s="231"/>
       <c r="O21" s="216"/>
       <c r="P21" s="217"/>
-      <c r="R21" s="304"/>
-      <c r="S21" s="305"/>
-      <c r="T21" s="305"/>
-      <c r="U21" s="306"/>
+      <c r="R21" s="305"/>
+      <c r="S21" s="306"/>
+      <c r="T21" s="306"/>
+      <c r="U21" s="307"/>
     </row>
     <row r="22" spans="2:21" ht="20.25" customHeight="1">
       <c r="B22" s="172"/>
@@ -14764,10 +14798,10 @@
       <c r="N22" s="231"/>
       <c r="O22" s="216"/>
       <c r="P22" s="217"/>
-      <c r="R22" s="304"/>
-      <c r="S22" s="305"/>
-      <c r="T22" s="305"/>
-      <c r="U22" s="306"/>
+      <c r="R22" s="305"/>
+      <c r="S22" s="306"/>
+      <c r="T22" s="306"/>
+      <c r="U22" s="307"/>
     </row>
     <row r="23" spans="2:21" ht="20.25" customHeight="1">
       <c r="B23" s="172"/>
@@ -14791,10 +14825,10 @@
       <c r="N23" s="231"/>
       <c r="O23" s="216"/>
       <c r="P23" s="217"/>
-      <c r="R23" s="304"/>
-      <c r="S23" s="305"/>
-      <c r="T23" s="305"/>
-      <c r="U23" s="306"/>
+      <c r="R23" s="305"/>
+      <c r="S23" s="306"/>
+      <c r="T23" s="306"/>
+      <c r="U23" s="307"/>
     </row>
     <row r="24" spans="2:21" ht="20.25" customHeight="1">
       <c r="B24" s="172"/>
@@ -14818,10 +14852,10 @@
       <c r="N24" s="231"/>
       <c r="O24" s="216"/>
       <c r="P24" s="217"/>
-      <c r="R24" s="304"/>
-      <c r="S24" s="305"/>
-      <c r="T24" s="305"/>
-      <c r="U24" s="306"/>
+      <c r="R24" s="305"/>
+      <c r="S24" s="306"/>
+      <c r="T24" s="306"/>
+      <c r="U24" s="307"/>
     </row>
     <row r="25" spans="2:21" ht="20.25" customHeight="1">
       <c r="B25" s="172"/>
@@ -14845,10 +14879,10 @@
       <c r="N25" s="231"/>
       <c r="O25" s="216"/>
       <c r="P25" s="217"/>
-      <c r="R25" s="304"/>
-      <c r="S25" s="305"/>
-      <c r="T25" s="305"/>
-      <c r="U25" s="306"/>
+      <c r="R25" s="305"/>
+      <c r="S25" s="306"/>
+      <c r="T25" s="306"/>
+      <c r="U25" s="307"/>
     </row>
     <row r="26" spans="2:21" ht="20.25" customHeight="1">
       <c r="B26" s="237"/>
@@ -14872,10 +14906,10 @@
       <c r="P26" s="234" t="s">
         <v>625</v>
       </c>
-      <c r="R26" s="304"/>
-      <c r="S26" s="305"/>
-      <c r="T26" s="305"/>
-      <c r="U26" s="306"/>
+      <c r="R26" s="305"/>
+      <c r="S26" s="306"/>
+      <c r="T26" s="306"/>
+      <c r="U26" s="307"/>
     </row>
     <row r="27" spans="2:21" ht="20.25" customHeight="1">
       <c r="B27" s="172"/>
@@ -14893,10 +14927,10 @@
       <c r="N27" s="231"/>
       <c r="O27" s="216"/>
       <c r="P27" s="217"/>
-      <c r="R27" s="304"/>
-      <c r="S27" s="305"/>
-      <c r="T27" s="305"/>
-      <c r="U27" s="306"/>
+      <c r="R27" s="305"/>
+      <c r="S27" s="306"/>
+      <c r="T27" s="306"/>
+      <c r="U27" s="307"/>
     </row>
     <row r="28" spans="2:21" ht="20.25" customHeight="1">
       <c r="B28" s="174" t="s">
@@ -14916,10 +14950,10 @@
       <c r="N28" s="231"/>
       <c r="O28" s="216"/>
       <c r="P28" s="217"/>
-      <c r="R28" s="304"/>
-      <c r="S28" s="305"/>
-      <c r="T28" s="305"/>
-      <c r="U28" s="306"/>
+      <c r="R28" s="305"/>
+      <c r="S28" s="306"/>
+      <c r="T28" s="306"/>
+      <c r="U28" s="307"/>
     </row>
     <row r="29" spans="2:21" ht="20.25" customHeight="1">
       <c r="B29" s="172"/>
@@ -14943,10 +14977,10 @@
       <c r="N29" s="231"/>
       <c r="O29" s="216"/>
       <c r="P29" s="217"/>
-      <c r="R29" s="304"/>
-      <c r="S29" s="305"/>
-      <c r="T29" s="305"/>
-      <c r="U29" s="306"/>
+      <c r="R29" s="305"/>
+      <c r="S29" s="306"/>
+      <c r="T29" s="306"/>
+      <c r="U29" s="307"/>
     </row>
     <row r="30" spans="2:21" ht="20.25" customHeight="1">
       <c r="B30" s="172"/>
@@ -14970,10 +15004,10 @@
       <c r="N30" s="231"/>
       <c r="O30" s="216"/>
       <c r="P30" s="217"/>
-      <c r="R30" s="304"/>
-      <c r="S30" s="305"/>
-      <c r="T30" s="305"/>
-      <c r="U30" s="306"/>
+      <c r="R30" s="305"/>
+      <c r="S30" s="306"/>
+      <c r="T30" s="306"/>
+      <c r="U30" s="307"/>
     </row>
     <row r="31" spans="2:21" ht="20.25" customHeight="1">
       <c r="B31" s="172"/>
@@ -14997,10 +15031,10 @@
       <c r="N31" s="231"/>
       <c r="O31" s="216"/>
       <c r="P31" s="217"/>
-      <c r="R31" s="304"/>
-      <c r="S31" s="305"/>
-      <c r="T31" s="305"/>
-      <c r="U31" s="306"/>
+      <c r="R31" s="305"/>
+      <c r="S31" s="306"/>
+      <c r="T31" s="306"/>
+      <c r="U31" s="307"/>
     </row>
     <row r="32" spans="2:21" ht="20.25" customHeight="1">
       <c r="B32" s="172"/>
@@ -15018,10 +15052,10 @@
       <c r="N32" s="231"/>
       <c r="O32" s="216"/>
       <c r="P32" s="217"/>
-      <c r="R32" s="304"/>
-      <c r="S32" s="305"/>
-      <c r="T32" s="305"/>
-      <c r="U32" s="306"/>
+      <c r="R32" s="305"/>
+      <c r="S32" s="306"/>
+      <c r="T32" s="306"/>
+      <c r="U32" s="307"/>
     </row>
     <row r="33" spans="2:21" ht="20.25" customHeight="1">
       <c r="B33" s="174" t="s">
@@ -15041,10 +15075,10 @@
       <c r="N33" s="231"/>
       <c r="O33" s="216"/>
       <c r="P33" s="217"/>
-      <c r="R33" s="304"/>
-      <c r="S33" s="305"/>
-      <c r="T33" s="305"/>
-      <c r="U33" s="306"/>
+      <c r="R33" s="305"/>
+      <c r="S33" s="306"/>
+      <c r="T33" s="306"/>
+      <c r="U33" s="307"/>
     </row>
     <row r="34" spans="2:21" ht="20.25" customHeight="1">
       <c r="B34" s="169"/>
@@ -15068,10 +15102,10 @@
       <c r="N34" s="231"/>
       <c r="O34" s="216"/>
       <c r="P34" s="217"/>
-      <c r="R34" s="304"/>
-      <c r="S34" s="305"/>
-      <c r="T34" s="305"/>
-      <c r="U34" s="306"/>
+      <c r="R34" s="305"/>
+      <c r="S34" s="306"/>
+      <c r="T34" s="306"/>
+      <c r="U34" s="307"/>
     </row>
     <row r="35" spans="2:21" ht="20.25" customHeight="1">
       <c r="B35" s="169"/>
@@ -15095,10 +15129,10 @@
       <c r="N35" s="231"/>
       <c r="O35" s="216"/>
       <c r="P35" s="217"/>
-      <c r="R35" s="304"/>
-      <c r="S35" s="305"/>
-      <c r="T35" s="305"/>
-      <c r="U35" s="306"/>
+      <c r="R35" s="305"/>
+      <c r="S35" s="306"/>
+      <c r="T35" s="306"/>
+      <c r="U35" s="307"/>
     </row>
     <row r="36" spans="2:21" ht="20.25" customHeight="1">
       <c r="B36" s="169"/>
@@ -15116,10 +15150,10 @@
       <c r="N36" s="231"/>
       <c r="O36" s="216"/>
       <c r="P36" s="217"/>
-      <c r="R36" s="304"/>
-      <c r="S36" s="305"/>
-      <c r="T36" s="305"/>
-      <c r="U36" s="306"/>
+      <c r="R36" s="305"/>
+      <c r="S36" s="306"/>
+      <c r="T36" s="306"/>
+      <c r="U36" s="307"/>
     </row>
     <row r="37" spans="2:21" ht="20.25" customHeight="1">
       <c r="B37" s="174" t="s">
@@ -15139,10 +15173,10 @@
       <c r="N37" s="231"/>
       <c r="O37" s="216"/>
       <c r="P37" s="217"/>
-      <c r="R37" s="304"/>
-      <c r="S37" s="305"/>
-      <c r="T37" s="305"/>
-      <c r="U37" s="306"/>
+      <c r="R37" s="305"/>
+      <c r="S37" s="306"/>
+      <c r="T37" s="306"/>
+      <c r="U37" s="307"/>
     </row>
     <row r="38" spans="2:21" ht="20.25" customHeight="1">
       <c r="B38" s="169"/>
@@ -15166,10 +15200,10 @@
       <c r="N38" s="231"/>
       <c r="O38" s="216"/>
       <c r="P38" s="217"/>
-      <c r="R38" s="304"/>
-      <c r="S38" s="305"/>
-      <c r="T38" s="305"/>
-      <c r="U38" s="306"/>
+      <c r="R38" s="305"/>
+      <c r="S38" s="306"/>
+      <c r="T38" s="306"/>
+      <c r="U38" s="307"/>
     </row>
     <row r="39" spans="2:21" ht="20.25" customHeight="1">
       <c r="B39" s="169"/>
@@ -15193,10 +15227,10 @@
       <c r="N39" s="231"/>
       <c r="O39" s="216"/>
       <c r="P39" s="217"/>
-      <c r="R39" s="304"/>
-      <c r="S39" s="305"/>
-      <c r="T39" s="305"/>
-      <c r="U39" s="306"/>
+      <c r="R39" s="305"/>
+      <c r="S39" s="306"/>
+      <c r="T39" s="306"/>
+      <c r="U39" s="307"/>
     </row>
     <row r="40" spans="2:21" ht="20.25" customHeight="1">
       <c r="B40" s="169"/>
@@ -15220,10 +15254,10 @@
       <c r="N40" s="231"/>
       <c r="O40" s="216"/>
       <c r="P40" s="217"/>
-      <c r="R40" s="304"/>
-      <c r="S40" s="305"/>
-      <c r="T40" s="305"/>
-      <c r="U40" s="306"/>
+      <c r="R40" s="305"/>
+      <c r="S40" s="306"/>
+      <c r="T40" s="306"/>
+      <c r="U40" s="307"/>
     </row>
     <row r="41" spans="2:21" ht="20.25" customHeight="1">
       <c r="B41" s="169"/>
@@ -15241,10 +15275,10 @@
       <c r="N41" s="231"/>
       <c r="O41" s="216"/>
       <c r="P41" s="217"/>
-      <c r="R41" s="304"/>
-      <c r="S41" s="305"/>
-      <c r="T41" s="305"/>
-      <c r="U41" s="306"/>
+      <c r="R41" s="305"/>
+      <c r="S41" s="306"/>
+      <c r="T41" s="306"/>
+      <c r="U41" s="307"/>
     </row>
     <row r="42" spans="2:21" ht="20.25" customHeight="1">
       <c r="B42" s="174" t="s">
@@ -15264,10 +15298,10 @@
       <c r="N42" s="231"/>
       <c r="O42" s="216"/>
       <c r="P42" s="217"/>
-      <c r="R42" s="304"/>
-      <c r="S42" s="305"/>
-      <c r="T42" s="305"/>
-      <c r="U42" s="306"/>
+      <c r="R42" s="305"/>
+      <c r="S42" s="306"/>
+      <c r="T42" s="306"/>
+      <c r="U42" s="307"/>
     </row>
     <row r="43" spans="2:21" ht="20.25" customHeight="1">
       <c r="B43" s="169"/>
@@ -15291,10 +15325,10 @@
       </c>
       <c r="O43" s="233"/>
       <c r="P43" s="217"/>
-      <c r="R43" s="304"/>
-      <c r="S43" s="305"/>
-      <c r="T43" s="305"/>
-      <c r="U43" s="306"/>
+      <c r="R43" s="305"/>
+      <c r="S43" s="306"/>
+      <c r="T43" s="306"/>
+      <c r="U43" s="307"/>
     </row>
     <row r="44" spans="2:21" ht="20.25" customHeight="1">
       <c r="B44" s="169"/>
@@ -15318,10 +15352,10 @@
       </c>
       <c r="O44" s="233"/>
       <c r="P44" s="217"/>
-      <c r="R44" s="304"/>
-      <c r="S44" s="305"/>
-      <c r="T44" s="305"/>
-      <c r="U44" s="306"/>
+      <c r="R44" s="305"/>
+      <c r="S44" s="306"/>
+      <c r="T44" s="306"/>
+      <c r="U44" s="307"/>
     </row>
     <row r="45" spans="2:21" ht="20.25" customHeight="1">
       <c r="B45" s="169"/>
@@ -15345,10 +15379,10 @@
       </c>
       <c r="O45" s="233"/>
       <c r="P45" s="217"/>
-      <c r="R45" s="304"/>
-      <c r="S45" s="305"/>
-      <c r="T45" s="305"/>
-      <c r="U45" s="306"/>
+      <c r="R45" s="305"/>
+      <c r="S45" s="306"/>
+      <c r="T45" s="306"/>
+      <c r="U45" s="307"/>
     </row>
     <row r="46" spans="2:21" ht="20.25" customHeight="1">
       <c r="B46" s="169"/>
@@ -15366,10 +15400,10 @@
       <c r="N46" s="231"/>
       <c r="O46" s="216"/>
       <c r="P46" s="217"/>
-      <c r="R46" s="304"/>
-      <c r="S46" s="305"/>
-      <c r="T46" s="305"/>
-      <c r="U46" s="306"/>
+      <c r="R46" s="305"/>
+      <c r="S46" s="306"/>
+      <c r="T46" s="306"/>
+      <c r="U46" s="307"/>
     </row>
     <row r="47" spans="2:21" ht="20.25" customHeight="1">
       <c r="B47" s="174" t="s">
@@ -15389,10 +15423,10 @@
       <c r="N47" s="231"/>
       <c r="O47" s="216"/>
       <c r="P47" s="217"/>
-      <c r="R47" s="304"/>
-      <c r="S47" s="305"/>
-      <c r="T47" s="305"/>
-      <c r="U47" s="306"/>
+      <c r="R47" s="305"/>
+      <c r="S47" s="306"/>
+      <c r="T47" s="306"/>
+      <c r="U47" s="307"/>
     </row>
     <row r="48" spans="2:21" ht="20.25" customHeight="1">
       <c r="B48" s="169"/>
@@ -15416,10 +15450,10 @@
       </c>
       <c r="O48" s="233"/>
       <c r="P48" s="217"/>
-      <c r="R48" s="304"/>
-      <c r="S48" s="305"/>
-      <c r="T48" s="305"/>
-      <c r="U48" s="306"/>
+      <c r="R48" s="305"/>
+      <c r="S48" s="306"/>
+      <c r="T48" s="306"/>
+      <c r="U48" s="307"/>
     </row>
     <row r="49" spans="2:21" ht="20.25" customHeight="1" thickBot="1">
       <c r="B49" s="225"/>
@@ -15437,10 +15471,10 @@
       <c r="N49" s="230"/>
       <c r="O49" s="226"/>
       <c r="P49" s="228"/>
-      <c r="R49" s="307"/>
-      <c r="S49" s="308"/>
-      <c r="T49" s="308"/>
-      <c r="U49" s="309"/>
+      <c r="R49" s="308"/>
+      <c r="S49" s="309"/>
+      <c r="T49" s="309"/>
+      <c r="U49" s="310"/>
     </row>
     <row r="50" spans="2:21" ht="15.75" customHeight="1">
       <c r="B50" s="186"/>
@@ -15475,10 +15509,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:U184"/>
+  <dimension ref="B2:U187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
@@ -15486,8 +15520,9 @@
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="69.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.42578125" customWidth="1"/>
-    <col min="5" max="6" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" customWidth="1"/>
     <col min="7" max="7" width="20.5703125" customWidth="1"/>
     <col min="8" max="9" width="9.42578125" customWidth="1"/>
     <col min="10" max="10" width="20.5703125" customWidth="1"/>
@@ -15523,15 +15558,15 @@
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
-      <c r="H3" s="300"/>
-      <c r="I3" s="243"/>
-      <c r="J3" s="243"/>
-      <c r="K3" s="243"/>
-      <c r="L3" s="243"/>
-      <c r="M3" s="243"/>
-      <c r="N3" s="243"/>
-      <c r="O3" s="243"/>
-      <c r="P3" s="243"/>
+      <c r="H3" s="301"/>
+      <c r="I3" s="244"/>
+      <c r="J3" s="244"/>
+      <c r="K3" s="244"/>
+      <c r="L3" s="244"/>
+      <c r="M3" s="244"/>
+      <c r="N3" s="244"/>
+      <c r="O3" s="244"/>
+      <c r="P3" s="244"/>
     </row>
     <row r="4" spans="2:21" ht="21.75" customHeight="1" thickBot="1">
       <c r="B4" s="26"/>
@@ -15584,14 +15619,14 @@
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
       <c r="N6" s="26"/>
-      <c r="R6" s="301"/>
-      <c r="S6" s="302"/>
-      <c r="T6" s="302"/>
-      <c r="U6" s="303"/>
+      <c r="R6" s="302"/>
+      <c r="S6" s="303"/>
+      <c r="T6" s="303"/>
+      <c r="U6" s="304"/>
     </row>
     <row r="7" spans="2:21" ht="21.75" customHeight="1" thickBot="1">
       <c r="B7" s="183" t="s">
-        <v>590</v>
+        <v>637</v>
       </c>
       <c r="C7" s="184"/>
       <c r="D7" s="185"/>
@@ -15605,10 +15640,10 @@
       <c r="L7" s="184"/>
       <c r="M7" s="184"/>
       <c r="N7" s="184"/>
-      <c r="R7" s="304"/>
-      <c r="S7" s="305"/>
-      <c r="T7" s="305"/>
-      <c r="U7" s="306"/>
+      <c r="R7" s="305"/>
+      <c r="S7" s="306"/>
+      <c r="T7" s="306"/>
+      <c r="U7" s="307"/>
     </row>
     <row r="8" spans="2:21" ht="15">
       <c r="B8" s="187" t="s">
@@ -15630,10 +15665,10 @@
       <c r="L8" s="184"/>
       <c r="M8" s="184"/>
       <c r="N8" s="190"/>
-      <c r="R8" s="304"/>
-      <c r="S8" s="305"/>
-      <c r="T8" s="305"/>
-      <c r="U8" s="306"/>
+      <c r="R8" s="305"/>
+      <c r="S8" s="306"/>
+      <c r="T8" s="306"/>
+      <c r="U8" s="307"/>
     </row>
     <row r="9" spans="2:21" thickBot="1">
       <c r="B9" s="191" t="s">
@@ -15655,10 +15690,10 @@
       <c r="L9" s="194"/>
       <c r="M9" s="194"/>
       <c r="N9" s="194"/>
-      <c r="R9" s="304"/>
-      <c r="S9" s="305"/>
-      <c r="T9" s="305"/>
-      <c r="U9" s="306"/>
+      <c r="R9" s="305"/>
+      <c r="S9" s="306"/>
+      <c r="T9" s="306"/>
+      <c r="U9" s="307"/>
     </row>
     <row r="10" spans="2:21" thickBot="1">
       <c r="B10" s="191" t="s">
@@ -15690,10 +15725,10 @@
       </c>
       <c r="O10" s="200"/>
       <c r="P10" s="201"/>
-      <c r="R10" s="304"/>
-      <c r="S10" s="305"/>
-      <c r="T10" s="305"/>
-      <c r="U10" s="306"/>
+      <c r="R10" s="305"/>
+      <c r="S10" s="306"/>
+      <c r="T10" s="306"/>
+      <c r="U10" s="307"/>
     </row>
     <row r="11" spans="2:21" ht="15" customHeight="1" thickBot="1">
       <c r="B11" s="202"/>
@@ -15735,10 +15770,10 @@
       <c r="P11" s="211" t="s">
         <v>100</v>
       </c>
-      <c r="R11" s="304"/>
-      <c r="S11" s="305"/>
-      <c r="T11" s="305"/>
-      <c r="U11" s="306"/>
+      <c r="R11" s="305"/>
+      <c r="S11" s="306"/>
+      <c r="T11" s="306"/>
+      <c r="U11" s="307"/>
     </row>
     <row r="12" spans="2:21" ht="20.25" customHeight="1">
       <c r="B12" s="218"/>
@@ -15756,13 +15791,13 @@
       <c r="N12" s="213"/>
       <c r="O12" s="212"/>
       <c r="P12" s="215"/>
-      <c r="R12" s="304"/>
-      <c r="S12" s="305"/>
-      <c r="T12" s="305"/>
-      <c r="U12" s="306"/>
+      <c r="R12" s="305"/>
+      <c r="S12" s="306"/>
+      <c r="T12" s="306"/>
+      <c r="U12" s="307"/>
     </row>
     <row r="13" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B13" s="311" t="s">
+      <c r="B13" s="242" t="s">
         <v>627</v>
       </c>
       <c r="C13" s="218"/>
@@ -15779,19 +15814,23 @@
       <c r="N13" s="231"/>
       <c r="O13" s="216"/>
       <c r="P13" s="217"/>
-      <c r="R13" s="304"/>
-      <c r="S13" s="305"/>
-      <c r="T13" s="305"/>
-      <c r="U13" s="306"/>
+      <c r="R13" s="305"/>
+      <c r="S13" s="306"/>
+      <c r="T13" s="306"/>
+      <c r="U13" s="307"/>
     </row>
     <row r="14" spans="2:21" ht="20.25" customHeight="1">
       <c r="B14" s="218"/>
       <c r="C14" s="229" t="s">
-        <v>628</v>
-      </c>
-      <c r="D14" s="218"/>
-      <c r="E14" s="231"/>
-      <c r="F14" s="232"/>
+        <v>638</v>
+      </c>
+      <c r="D14" s="218" t="s">
+        <v>642</v>
+      </c>
+      <c r="E14" s="231" t="s">
+        <v>639</v>
+      </c>
+      <c r="F14" s="312"/>
       <c r="G14" s="217"/>
       <c r="H14" s="231"/>
       <c r="I14" s="216"/>
@@ -15802,19 +15841,23 @@
       <c r="N14" s="231"/>
       <c r="O14" s="216"/>
       <c r="P14" s="217"/>
-      <c r="R14" s="304"/>
-      <c r="S14" s="305"/>
-      <c r="T14" s="305"/>
-      <c r="U14" s="306"/>
+      <c r="R14" s="305"/>
+      <c r="S14" s="306"/>
+      <c r="T14" s="306"/>
+      <c r="U14" s="307"/>
     </row>
     <row r="15" spans="2:21" ht="20.25" customHeight="1">
       <c r="B15" s="218"/>
       <c r="C15" s="229" t="s">
-        <v>629</v>
-      </c>
-      <c r="D15" s="218"/>
-      <c r="E15" s="231"/>
-      <c r="F15" s="232"/>
+        <v>628</v>
+      </c>
+      <c r="D15" s="218" t="s">
+        <v>642</v>
+      </c>
+      <c r="E15" s="231" t="s">
+        <v>639</v>
+      </c>
+      <c r="F15" s="312"/>
       <c r="G15" s="217"/>
       <c r="H15" s="231"/>
       <c r="I15" s="216"/>
@@ -15825,19 +15868,23 @@
       <c r="N15" s="231"/>
       <c r="O15" s="216"/>
       <c r="P15" s="217"/>
-      <c r="R15" s="304"/>
-      <c r="S15" s="305"/>
-      <c r="T15" s="305"/>
-      <c r="U15" s="306"/>
+      <c r="R15" s="305"/>
+      <c r="S15" s="306"/>
+      <c r="T15" s="306"/>
+      <c r="U15" s="307"/>
     </row>
     <row r="16" spans="2:21" ht="20.25" customHeight="1">
       <c r="B16" s="218"/>
       <c r="C16" s="229" t="s">
-        <v>630</v>
-      </c>
-      <c r="D16" s="218"/>
-      <c r="E16" s="231"/>
-      <c r="F16" s="232"/>
+        <v>629</v>
+      </c>
+      <c r="D16" s="218" t="s">
+        <v>642</v>
+      </c>
+      <c r="E16" s="231" t="s">
+        <v>639</v>
+      </c>
+      <c r="F16" s="312"/>
       <c r="G16" s="217"/>
       <c r="H16" s="231"/>
       <c r="I16" s="216"/>
@@ -15848,10 +15895,10 @@
       <c r="N16" s="231"/>
       <c r="O16" s="216"/>
       <c r="P16" s="217"/>
-      <c r="R16" s="304"/>
-      <c r="S16" s="305"/>
-      <c r="T16" s="305"/>
-      <c r="U16" s="306"/>
+      <c r="R16" s="305"/>
+      <c r="S16" s="306"/>
+      <c r="T16" s="306"/>
+      <c r="U16" s="307"/>
     </row>
     <row r="17" spans="2:21" ht="20.25" customHeight="1">
       <c r="B17" s="218"/>
@@ -15869,14 +15916,14 @@
       <c r="N17" s="231"/>
       <c r="O17" s="216"/>
       <c r="P17" s="217"/>
-      <c r="R17" s="304"/>
-      <c r="S17" s="305"/>
-      <c r="T17" s="305"/>
-      <c r="U17" s="306"/>
+      <c r="R17" s="305"/>
+      <c r="S17" s="306"/>
+      <c r="T17" s="306"/>
+      <c r="U17" s="307"/>
     </row>
     <row r="18" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B18" s="311" t="s">
-        <v>631</v>
+      <c r="B18" s="242" t="s">
+        <v>630</v>
       </c>
       <c r="C18" s="218"/>
       <c r="D18" s="218"/>
@@ -15892,19 +15939,23 @@
       <c r="N18" s="231"/>
       <c r="O18" s="216"/>
       <c r="P18" s="217"/>
-      <c r="R18" s="304"/>
-      <c r="S18" s="305"/>
-      <c r="T18" s="305"/>
-      <c r="U18" s="306"/>
+      <c r="R18" s="305"/>
+      <c r="S18" s="306"/>
+      <c r="T18" s="306"/>
+      <c r="U18" s="307"/>
     </row>
     <row r="19" spans="2:21" ht="20.25" customHeight="1">
       <c r="B19" s="218"/>
       <c r="C19" s="229" t="s">
-        <v>632</v>
-      </c>
-      <c r="D19" s="218"/>
-      <c r="E19" s="231"/>
-      <c r="F19" s="232"/>
+        <v>631</v>
+      </c>
+      <c r="D19" s="218" t="s">
+        <v>643</v>
+      </c>
+      <c r="E19" s="231" t="s">
+        <v>639</v>
+      </c>
+      <c r="F19" s="312"/>
       <c r="G19" s="217"/>
       <c r="H19" s="231"/>
       <c r="I19" s="216"/>
@@ -15915,19 +15966,23 @@
       <c r="N19" s="231"/>
       <c r="O19" s="216"/>
       <c r="P19" s="217"/>
-      <c r="R19" s="304"/>
-      <c r="S19" s="305"/>
-      <c r="T19" s="305"/>
-      <c r="U19" s="306"/>
+      <c r="R19" s="305"/>
+      <c r="S19" s="306"/>
+      <c r="T19" s="306"/>
+      <c r="U19" s="307"/>
     </row>
     <row r="20" spans="2:21" ht="20.25" customHeight="1">
       <c r="B20" s="218"/>
       <c r="C20" s="229" t="s">
-        <v>633</v>
-      </c>
-      <c r="D20" s="218"/>
-      <c r="E20" s="231"/>
-      <c r="F20" s="232"/>
+        <v>632</v>
+      </c>
+      <c r="D20" s="218" t="s">
+        <v>643</v>
+      </c>
+      <c r="E20" s="231" t="s">
+        <v>639</v>
+      </c>
+      <c r="F20" s="312"/>
       <c r="G20" s="217"/>
       <c r="H20" s="231"/>
       <c r="I20" s="216"/>
@@ -15938,10 +15993,10 @@
       <c r="N20" s="231"/>
       <c r="O20" s="216"/>
       <c r="P20" s="217"/>
-      <c r="R20" s="304"/>
-      <c r="S20" s="305"/>
-      <c r="T20" s="305"/>
-      <c r="U20" s="306"/>
+      <c r="R20" s="305"/>
+      <c r="S20" s="306"/>
+      <c r="T20" s="306"/>
+      <c r="U20" s="307"/>
     </row>
     <row r="21" spans="2:21" ht="20.25" customHeight="1">
       <c r="B21" s="218"/>
@@ -15959,14 +16014,14 @@
       <c r="N21" s="231"/>
       <c r="O21" s="216"/>
       <c r="P21" s="217"/>
-      <c r="R21" s="304"/>
-      <c r="S21" s="305"/>
-      <c r="T21" s="305"/>
-      <c r="U21" s="306"/>
+      <c r="R21" s="305"/>
+      <c r="S21" s="306"/>
+      <c r="T21" s="306"/>
+      <c r="U21" s="307"/>
     </row>
     <row r="22" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B22" s="311" t="s">
-        <v>634</v>
+      <c r="B22" s="242" t="s">
+        <v>633</v>
       </c>
       <c r="C22" s="218"/>
       <c r="D22" s="218"/>
@@ -15982,19 +16037,23 @@
       <c r="N22" s="231"/>
       <c r="O22" s="216"/>
       <c r="P22" s="217"/>
-      <c r="R22" s="304"/>
-      <c r="S22" s="305"/>
-      <c r="T22" s="305"/>
-      <c r="U22" s="306"/>
+      <c r="R22" s="305"/>
+      <c r="S22" s="306"/>
+      <c r="T22" s="306"/>
+      <c r="U22" s="307"/>
     </row>
     <row r="23" spans="2:21" ht="20.25" customHeight="1">
       <c r="B23" s="218"/>
       <c r="C23" s="229" t="s">
-        <v>635</v>
-      </c>
-      <c r="D23" s="218"/>
-      <c r="E23" s="231"/>
-      <c r="F23" s="232"/>
+        <v>634</v>
+      </c>
+      <c r="D23" s="218" t="s">
+        <v>644</v>
+      </c>
+      <c r="E23" s="231" t="s">
+        <v>639</v>
+      </c>
+      <c r="F23" s="312"/>
       <c r="G23" s="217"/>
       <c r="H23" s="231"/>
       <c r="I23" s="216"/>
@@ -16005,10 +16064,10 @@
       <c r="N23" s="231"/>
       <c r="O23" s="216"/>
       <c r="P23" s="217"/>
-      <c r="R23" s="304"/>
-      <c r="S23" s="305"/>
-      <c r="T23" s="305"/>
-      <c r="U23" s="306"/>
+      <c r="R23" s="305"/>
+      <c r="S23" s="306"/>
+      <c r="T23" s="306"/>
+      <c r="U23" s="307"/>
     </row>
     <row r="24" spans="2:21" ht="20.25" customHeight="1">
       <c r="B24" s="218"/>
@@ -16026,13 +16085,13 @@
       <c r="N24" s="231"/>
       <c r="O24" s="216"/>
       <c r="P24" s="217"/>
-      <c r="R24" s="304"/>
-      <c r="S24" s="305"/>
-      <c r="T24" s="305"/>
-      <c r="U24" s="306"/>
+      <c r="R24" s="305"/>
+      <c r="S24" s="306"/>
+      <c r="T24" s="306"/>
+      <c r="U24" s="307"/>
     </row>
     <row r="25" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B25" s="229" t="s">
+      <c r="B25" s="242" t="s">
         <v>425</v>
       </c>
       <c r="C25" s="218"/>
@@ -16049,15 +16108,15 @@
       <c r="N25" s="231"/>
       <c r="O25" s="216"/>
       <c r="P25" s="217"/>
-      <c r="R25" s="304"/>
-      <c r="S25" s="305"/>
-      <c r="T25" s="305"/>
-      <c r="U25" s="306"/>
+      <c r="R25" s="305"/>
+      <c r="S25" s="306"/>
+      <c r="T25" s="306"/>
+      <c r="U25" s="307"/>
     </row>
     <row r="26" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B26" s="218"/>
+      <c r="B26" s="242"/>
       <c r="C26" s="229" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="D26" s="218"/>
       <c r="E26" s="231"/>
@@ -16072,15 +16131,15 @@
       <c r="N26" s="231"/>
       <c r="O26" s="216"/>
       <c r="P26" s="217"/>
-      <c r="R26" s="304"/>
-      <c r="S26" s="305"/>
-      <c r="T26" s="305"/>
-      <c r="U26" s="306"/>
+      <c r="R26" s="305"/>
+      <c r="S26" s="306"/>
+      <c r="T26" s="306"/>
+      <c r="U26" s="307"/>
     </row>
     <row r="27" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B27" s="218"/>
+      <c r="B27" s="242"/>
       <c r="C27" s="229" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D27" s="218"/>
       <c r="E27" s="231"/>
@@ -16095,14 +16154,16 @@
       <c r="N27" s="231"/>
       <c r="O27" s="216"/>
       <c r="P27" s="217"/>
-      <c r="R27" s="304"/>
-      <c r="S27" s="305"/>
-      <c r="T27" s="305"/>
-      <c r="U27" s="306"/>
+      <c r="R27" s="305"/>
+      <c r="S27" s="306"/>
+      <c r="T27" s="306"/>
+      <c r="U27" s="307"/>
     </row>
     <row r="28" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B28" s="218"/>
-      <c r="C28" s="218"/>
+      <c r="B28" s="242" t="s">
+        <v>360</v>
+      </c>
+      <c r="C28" s="229"/>
       <c r="D28" s="218"/>
       <c r="E28" s="231"/>
       <c r="F28" s="232"/>
@@ -16116,19 +16177,23 @@
       <c r="N28" s="231"/>
       <c r="O28" s="216"/>
       <c r="P28" s="217"/>
-      <c r="R28" s="304"/>
-      <c r="S28" s="305"/>
-      <c r="T28" s="305"/>
-      <c r="U28" s="306"/>
+      <c r="R28" s="305"/>
+      <c r="S28" s="306"/>
+      <c r="T28" s="306"/>
+      <c r="U28" s="307"/>
     </row>
     <row r="29" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B29" s="229" t="s">
-        <v>479</v>
-      </c>
-      <c r="C29" s="218"/>
-      <c r="D29" s="218"/>
-      <c r="E29" s="231"/>
-      <c r="F29" s="232"/>
+      <c r="B29" s="242"/>
+      <c r="C29" s="229" t="s">
+        <v>641</v>
+      </c>
+      <c r="D29" s="218" t="s">
+        <v>644</v>
+      </c>
+      <c r="E29" s="231" t="s">
+        <v>639</v>
+      </c>
+      <c r="F29" s="312"/>
       <c r="G29" s="217"/>
       <c r="H29" s="231"/>
       <c r="I29" s="216"/>
@@ -16139,16 +16204,14 @@
       <c r="N29" s="231"/>
       <c r="O29" s="216"/>
       <c r="P29" s="217"/>
-      <c r="R29" s="304"/>
-      <c r="S29" s="305"/>
-      <c r="T29" s="305"/>
-      <c r="U29" s="306"/>
+      <c r="R29" s="305"/>
+      <c r="S29" s="306"/>
+      <c r="T29" s="306"/>
+      <c r="U29" s="307"/>
     </row>
     <row r="30" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B30" s="218"/>
-      <c r="C30" s="229" t="s">
-        <v>638</v>
-      </c>
+      <c r="B30" s="242"/>
+      <c r="C30" s="229"/>
       <c r="D30" s="218"/>
       <c r="E30" s="231"/>
       <c r="F30" s="232"/>
@@ -16162,13 +16225,13 @@
       <c r="N30" s="231"/>
       <c r="O30" s="216"/>
       <c r="P30" s="217"/>
-      <c r="R30" s="304"/>
-      <c r="S30" s="305"/>
-      <c r="T30" s="305"/>
-      <c r="U30" s="306"/>
+      <c r="R30" s="305"/>
+      <c r="S30" s="306"/>
+      <c r="T30" s="306"/>
+      <c r="U30" s="307"/>
     </row>
     <row r="31" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B31" s="218"/>
+      <c r="B31" s="242"/>
       <c r="C31" s="218"/>
       <c r="D31" s="218"/>
       <c r="E31" s="231"/>
@@ -16183,14 +16246,14 @@
       <c r="N31" s="231"/>
       <c r="O31" s="216"/>
       <c r="P31" s="217"/>
-      <c r="R31" s="304"/>
-      <c r="S31" s="305"/>
-      <c r="T31" s="305"/>
-      <c r="U31" s="306"/>
+      <c r="R31" s="305"/>
+      <c r="S31" s="306"/>
+      <c r="T31" s="306"/>
+      <c r="U31" s="307"/>
     </row>
     <row r="32" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B32" s="229" t="s">
-        <v>427</v>
+      <c r="B32" s="242" t="s">
+        <v>479</v>
       </c>
       <c r="C32" s="218"/>
       <c r="D32" s="218"/>
@@ -16206,15 +16269,15 @@
       <c r="N32" s="231"/>
       <c r="O32" s="216"/>
       <c r="P32" s="217"/>
-      <c r="R32" s="304"/>
-      <c r="S32" s="305"/>
-      <c r="T32" s="305"/>
-      <c r="U32" s="306"/>
+      <c r="R32" s="305"/>
+      <c r="S32" s="306"/>
+      <c r="T32" s="306"/>
+      <c r="U32" s="307"/>
     </row>
     <row r="33" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B33" s="218"/>
+      <c r="B33" s="242"/>
       <c r="C33" s="229" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D33" s="218"/>
       <c r="E33" s="231"/>
@@ -16229,13 +16292,13 @@
       <c r="N33" s="231"/>
       <c r="O33" s="216"/>
       <c r="P33" s="217"/>
-      <c r="R33" s="304"/>
-      <c r="S33" s="305"/>
-      <c r="T33" s="305"/>
-      <c r="U33" s="306"/>
+      <c r="R33" s="305"/>
+      <c r="S33" s="306"/>
+      <c r="T33" s="306"/>
+      <c r="U33" s="307"/>
     </row>
     <row r="34" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B34" s="218"/>
+      <c r="B34" s="242"/>
       <c r="C34" s="218"/>
       <c r="D34" s="218"/>
       <c r="E34" s="231"/>
@@ -16250,13 +16313,15 @@
       <c r="N34" s="231"/>
       <c r="O34" s="216"/>
       <c r="P34" s="217"/>
-      <c r="R34" s="304"/>
-      <c r="S34" s="305"/>
-      <c r="T34" s="305"/>
-      <c r="U34" s="306"/>
+      <c r="R34" s="305"/>
+      <c r="S34" s="306"/>
+      <c r="T34" s="306"/>
+      <c r="U34" s="307"/>
     </row>
     <row r="35" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B35" s="218"/>
+      <c r="B35" s="242" t="s">
+        <v>427</v>
+      </c>
       <c r="C35" s="218"/>
       <c r="D35" s="218"/>
       <c r="E35" s="231"/>
@@ -16271,14 +16336,16 @@
       <c r="N35" s="231"/>
       <c r="O35" s="216"/>
       <c r="P35" s="217"/>
-      <c r="R35" s="304"/>
-      <c r="S35" s="305"/>
-      <c r="T35" s="305"/>
-      <c r="U35" s="306"/>
+      <c r="R35" s="305"/>
+      <c r="S35" s="306"/>
+      <c r="T35" s="306"/>
+      <c r="U35" s="307"/>
     </row>
     <row r="36" spans="2:21" ht="20.25" customHeight="1">
       <c r="B36" s="218"/>
-      <c r="C36" s="218"/>
+      <c r="C36" s="229" t="s">
+        <v>636</v>
+      </c>
       <c r="D36" s="218"/>
       <c r="E36" s="231"/>
       <c r="F36" s="232"/>
@@ -16292,10 +16359,10 @@
       <c r="N36" s="231"/>
       <c r="O36" s="216"/>
       <c r="P36" s="217"/>
-      <c r="R36" s="304"/>
-      <c r="S36" s="305"/>
-      <c r="T36" s="305"/>
-      <c r="U36" s="306"/>
+      <c r="R36" s="305"/>
+      <c r="S36" s="306"/>
+      <c r="T36" s="306"/>
+      <c r="U36" s="307"/>
     </row>
     <row r="37" spans="2:21" ht="20.25" customHeight="1">
       <c r="B37" s="218"/>
@@ -16313,10 +16380,10 @@
       <c r="N37" s="231"/>
       <c r="O37" s="216"/>
       <c r="P37" s="217"/>
-      <c r="R37" s="304"/>
-      <c r="S37" s="305"/>
-      <c r="T37" s="305"/>
-      <c r="U37" s="306"/>
+      <c r="R37" s="305"/>
+      <c r="S37" s="306"/>
+      <c r="T37" s="306"/>
+      <c r="U37" s="307"/>
     </row>
     <row r="38" spans="2:21" ht="20.25" customHeight="1">
       <c r="B38" s="218"/>
@@ -16334,10 +16401,10 @@
       <c r="N38" s="231"/>
       <c r="O38" s="216"/>
       <c r="P38" s="217"/>
-      <c r="R38" s="304"/>
-      <c r="S38" s="305"/>
-      <c r="T38" s="305"/>
-      <c r="U38" s="306"/>
+      <c r="R38" s="305"/>
+      <c r="S38" s="306"/>
+      <c r="T38" s="306"/>
+      <c r="U38" s="307"/>
     </row>
     <row r="39" spans="2:21" ht="20.25" customHeight="1">
       <c r="B39" s="218"/>
@@ -16355,10 +16422,10 @@
       <c r="N39" s="231"/>
       <c r="O39" s="216"/>
       <c r="P39" s="217"/>
-      <c r="R39" s="304"/>
-      <c r="S39" s="305"/>
-      <c r="T39" s="305"/>
-      <c r="U39" s="306"/>
+      <c r="R39" s="305"/>
+      <c r="S39" s="306"/>
+      <c r="T39" s="306"/>
+      <c r="U39" s="307"/>
     </row>
     <row r="40" spans="2:21" ht="20.25" customHeight="1">
       <c r="B40" s="218"/>
@@ -16376,10 +16443,10 @@
       <c r="N40" s="231"/>
       <c r="O40" s="216"/>
       <c r="P40" s="217"/>
-      <c r="R40" s="304"/>
-      <c r="S40" s="305"/>
-      <c r="T40" s="305"/>
-      <c r="U40" s="306"/>
+      <c r="R40" s="305"/>
+      <c r="S40" s="306"/>
+      <c r="T40" s="306"/>
+      <c r="U40" s="307"/>
     </row>
     <row r="41" spans="2:21" ht="20.25" customHeight="1">
       <c r="B41" s="218"/>
@@ -16397,10 +16464,10 @@
       <c r="N41" s="231"/>
       <c r="O41" s="216"/>
       <c r="P41" s="217"/>
-      <c r="R41" s="304"/>
-      <c r="S41" s="305"/>
-      <c r="T41" s="305"/>
-      <c r="U41" s="306"/>
+      <c r="R41" s="305"/>
+      <c r="S41" s="306"/>
+      <c r="T41" s="306"/>
+      <c r="U41" s="307"/>
     </row>
     <row r="42" spans="2:21" ht="20.25" customHeight="1">
       <c r="B42" s="218"/>
@@ -16418,10 +16485,10 @@
       <c r="N42" s="231"/>
       <c r="O42" s="216"/>
       <c r="P42" s="217"/>
-      <c r="R42" s="304"/>
-      <c r="S42" s="305"/>
-      <c r="T42" s="305"/>
-      <c r="U42" s="306"/>
+      <c r="R42" s="305"/>
+      <c r="S42" s="306"/>
+      <c r="T42" s="306"/>
+      <c r="U42" s="307"/>
     </row>
     <row r="43" spans="2:21" ht="20.25" customHeight="1">
       <c r="B43" s="218"/>
@@ -16439,10 +16506,10 @@
       <c r="N43" s="231"/>
       <c r="O43" s="216"/>
       <c r="P43" s="217"/>
-      <c r="R43" s="304"/>
-      <c r="S43" s="305"/>
-      <c r="T43" s="305"/>
-      <c r="U43" s="306"/>
+      <c r="R43" s="305"/>
+      <c r="S43" s="306"/>
+      <c r="T43" s="306"/>
+      <c r="U43" s="307"/>
     </row>
     <row r="44" spans="2:21" ht="20.25" customHeight="1">
       <c r="B44" s="218"/>
@@ -16460,10 +16527,10 @@
       <c r="N44" s="231"/>
       <c r="O44" s="216"/>
       <c r="P44" s="217"/>
-      <c r="R44" s="304"/>
-      <c r="S44" s="305"/>
-      <c r="T44" s="305"/>
-      <c r="U44" s="306"/>
+      <c r="R44" s="305"/>
+      <c r="S44" s="306"/>
+      <c r="T44" s="306"/>
+      <c r="U44" s="307"/>
     </row>
     <row r="45" spans="2:21" ht="20.25" customHeight="1">
       <c r="B45" s="218"/>
@@ -16481,10 +16548,10 @@
       <c r="N45" s="231"/>
       <c r="O45" s="216"/>
       <c r="P45" s="217"/>
-      <c r="R45" s="304"/>
-      <c r="S45" s="305"/>
-      <c r="T45" s="305"/>
-      <c r="U45" s="306"/>
+      <c r="R45" s="305"/>
+      <c r="S45" s="306"/>
+      <c r="T45" s="306"/>
+      <c r="U45" s="307"/>
     </row>
     <row r="46" spans="2:21" ht="20.25" customHeight="1">
       <c r="B46" s="218"/>
@@ -16502,10 +16569,10 @@
       <c r="N46" s="231"/>
       <c r="O46" s="216"/>
       <c r="P46" s="217"/>
-      <c r="R46" s="304"/>
-      <c r="S46" s="305"/>
-      <c r="T46" s="305"/>
-      <c r="U46" s="306"/>
+      <c r="R46" s="305"/>
+      <c r="S46" s="306"/>
+      <c r="T46" s="306"/>
+      <c r="U46" s="307"/>
     </row>
     <row r="47" spans="2:21" ht="20.25" customHeight="1">
       <c r="B47" s="218"/>
@@ -16523,10 +16590,10 @@
       <c r="N47" s="231"/>
       <c r="O47" s="216"/>
       <c r="P47" s="217"/>
-      <c r="R47" s="304"/>
-      <c r="S47" s="305"/>
-      <c r="T47" s="305"/>
-      <c r="U47" s="306"/>
+      <c r="R47" s="305"/>
+      <c r="S47" s="306"/>
+      <c r="T47" s="306"/>
+      <c r="U47" s="307"/>
     </row>
     <row r="48" spans="2:21" ht="20.25" customHeight="1">
       <c r="B48" s="218"/>
@@ -16544,10 +16611,10 @@
       <c r="N48" s="231"/>
       <c r="O48" s="216"/>
       <c r="P48" s="217"/>
-      <c r="R48" s="304"/>
-      <c r="S48" s="305"/>
-      <c r="T48" s="305"/>
-      <c r="U48" s="306"/>
+      <c r="R48" s="305"/>
+      <c r="S48" s="306"/>
+      <c r="T48" s="306"/>
+      <c r="U48" s="307"/>
     </row>
     <row r="49" spans="2:21" ht="20.25" customHeight="1">
       <c r="B49" s="218"/>
@@ -16565,10 +16632,10 @@
       <c r="N49" s="231"/>
       <c r="O49" s="216"/>
       <c r="P49" s="217"/>
-      <c r="R49" s="304"/>
-      <c r="S49" s="305"/>
-      <c r="T49" s="305"/>
-      <c r="U49" s="306"/>
+      <c r="R49" s="305"/>
+      <c r="S49" s="306"/>
+      <c r="T49" s="306"/>
+      <c r="U49" s="307"/>
     </row>
     <row r="50" spans="2:21" ht="20.25" customHeight="1">
       <c r="B50" s="218"/>
@@ -16586,10 +16653,10 @@
       <c r="N50" s="231"/>
       <c r="O50" s="216"/>
       <c r="P50" s="217"/>
-      <c r="R50" s="304"/>
-      <c r="S50" s="305"/>
-      <c r="T50" s="305"/>
-      <c r="U50" s="306"/>
+      <c r="R50" s="305"/>
+      <c r="S50" s="306"/>
+      <c r="T50" s="306"/>
+      <c r="U50" s="307"/>
     </row>
     <row r="51" spans="2:21" ht="20.25" customHeight="1">
       <c r="B51" s="218"/>
@@ -16607,10 +16674,10 @@
       <c r="N51" s="231"/>
       <c r="O51" s="216"/>
       <c r="P51" s="217"/>
-      <c r="R51" s="304"/>
-      <c r="S51" s="305"/>
-      <c r="T51" s="305"/>
-      <c r="U51" s="306"/>
+      <c r="R51" s="305"/>
+      <c r="S51" s="306"/>
+      <c r="T51" s="306"/>
+      <c r="U51" s="307"/>
     </row>
     <row r="52" spans="2:21" ht="20.25" customHeight="1">
       <c r="B52" s="218"/>
@@ -16628,10 +16695,10 @@
       <c r="N52" s="231"/>
       <c r="O52" s="216"/>
       <c r="P52" s="217"/>
-      <c r="R52" s="304"/>
-      <c r="S52" s="305"/>
-      <c r="T52" s="305"/>
-      <c r="U52" s="306"/>
+      <c r="R52" s="305"/>
+      <c r="S52" s="306"/>
+      <c r="T52" s="306"/>
+      <c r="U52" s="307"/>
     </row>
     <row r="53" spans="2:21" ht="20.25" customHeight="1">
       <c r="B53" s="218"/>
@@ -16649,10 +16716,10 @@
       <c r="N53" s="231"/>
       <c r="O53" s="216"/>
       <c r="P53" s="217"/>
-      <c r="R53" s="304"/>
-      <c r="S53" s="305"/>
-      <c r="T53" s="305"/>
-      <c r="U53" s="306"/>
+      <c r="R53" s="305"/>
+      <c r="S53" s="306"/>
+      <c r="T53" s="306"/>
+      <c r="U53" s="307"/>
     </row>
     <row r="54" spans="2:21" ht="20.25" customHeight="1">
       <c r="B54" s="218"/>
@@ -16670,10 +16737,10 @@
       <c r="N54" s="231"/>
       <c r="O54" s="216"/>
       <c r="P54" s="217"/>
-      <c r="R54" s="304"/>
-      <c r="S54" s="305"/>
-      <c r="T54" s="305"/>
-      <c r="U54" s="306"/>
+      <c r="R54" s="305"/>
+      <c r="S54" s="306"/>
+      <c r="T54" s="306"/>
+      <c r="U54" s="307"/>
     </row>
     <row r="55" spans="2:21" ht="20.25" customHeight="1">
       <c r="B55" s="218"/>
@@ -16691,10 +16758,10 @@
       <c r="N55" s="231"/>
       <c r="O55" s="216"/>
       <c r="P55" s="217"/>
-      <c r="R55" s="304"/>
-      <c r="S55" s="305"/>
-      <c r="T55" s="305"/>
-      <c r="U55" s="306"/>
+      <c r="R55" s="305"/>
+      <c r="S55" s="306"/>
+      <c r="T55" s="306"/>
+      <c r="U55" s="307"/>
     </row>
     <row r="56" spans="2:21" ht="20.25" customHeight="1">
       <c r="B56" s="218"/>
@@ -16712,10 +16779,10 @@
       <c r="N56" s="231"/>
       <c r="O56" s="216"/>
       <c r="P56" s="217"/>
-      <c r="R56" s="304"/>
-      <c r="S56" s="305"/>
-      <c r="T56" s="305"/>
-      <c r="U56" s="306"/>
+      <c r="R56" s="305"/>
+      <c r="S56" s="306"/>
+      <c r="T56" s="306"/>
+      <c r="U56" s="307"/>
     </row>
     <row r="57" spans="2:21" ht="20.25" customHeight="1">
       <c r="B57" s="218"/>
@@ -16733,10 +16800,10 @@
       <c r="N57" s="231"/>
       <c r="O57" s="216"/>
       <c r="P57" s="217"/>
-      <c r="R57" s="304"/>
-      <c r="S57" s="305"/>
-      <c r="T57" s="305"/>
-      <c r="U57" s="306"/>
+      <c r="R57" s="305"/>
+      <c r="S57" s="306"/>
+      <c r="T57" s="306"/>
+      <c r="U57" s="307"/>
     </row>
     <row r="58" spans="2:21" ht="20.25" customHeight="1">
       <c r="B58" s="218"/>
@@ -16754,10 +16821,10 @@
       <c r="N58" s="231"/>
       <c r="O58" s="216"/>
       <c r="P58" s="217"/>
-      <c r="R58" s="304"/>
-      <c r="S58" s="305"/>
-      <c r="T58" s="305"/>
-      <c r="U58" s="306"/>
+      <c r="R58" s="305"/>
+      <c r="S58" s="306"/>
+      <c r="T58" s="306"/>
+      <c r="U58" s="307"/>
     </row>
     <row r="59" spans="2:21" ht="20.25" customHeight="1">
       <c r="B59" s="218"/>
@@ -16775,10 +16842,10 @@
       <c r="N59" s="231"/>
       <c r="O59" s="216"/>
       <c r="P59" s="217"/>
-      <c r="R59" s="304"/>
-      <c r="S59" s="305"/>
-      <c r="T59" s="305"/>
-      <c r="U59" s="306"/>
+      <c r="R59" s="305"/>
+      <c r="S59" s="306"/>
+      <c r="T59" s="306"/>
+      <c r="U59" s="307"/>
     </row>
     <row r="60" spans="2:21" ht="20.25" customHeight="1">
       <c r="B60" s="218"/>
@@ -16796,10 +16863,10 @@
       <c r="N60" s="231"/>
       <c r="O60" s="216"/>
       <c r="P60" s="217"/>
-      <c r="R60" s="304"/>
-      <c r="S60" s="305"/>
-      <c r="T60" s="305"/>
-      <c r="U60" s="306"/>
+      <c r="R60" s="305"/>
+      <c r="S60" s="306"/>
+      <c r="T60" s="306"/>
+      <c r="U60" s="307"/>
     </row>
     <row r="61" spans="2:21" ht="20.25" customHeight="1">
       <c r="B61" s="218"/>
@@ -16817,10 +16884,10 @@
       <c r="N61" s="231"/>
       <c r="O61" s="216"/>
       <c r="P61" s="217"/>
-      <c r="R61" s="304"/>
-      <c r="S61" s="305"/>
-      <c r="T61" s="305"/>
-      <c r="U61" s="306"/>
+      <c r="R61" s="305"/>
+      <c r="S61" s="306"/>
+      <c r="T61" s="306"/>
+      <c r="U61" s="307"/>
     </row>
     <row r="62" spans="2:21" ht="20.25" customHeight="1">
       <c r="B62" s="218"/>
@@ -16838,10 +16905,10 @@
       <c r="N62" s="231"/>
       <c r="O62" s="216"/>
       <c r="P62" s="217"/>
-      <c r="R62" s="304"/>
-      <c r="S62" s="305"/>
-      <c r="T62" s="305"/>
-      <c r="U62" s="306"/>
+      <c r="R62" s="305"/>
+      <c r="S62" s="306"/>
+      <c r="T62" s="306"/>
+      <c r="U62" s="307"/>
     </row>
     <row r="63" spans="2:21" ht="20.25" customHeight="1">
       <c r="B63" s="218"/>
@@ -16859,10 +16926,10 @@
       <c r="N63" s="231"/>
       <c r="O63" s="216"/>
       <c r="P63" s="217"/>
-      <c r="R63" s="304"/>
-      <c r="S63" s="305"/>
-      <c r="T63" s="305"/>
-      <c r="U63" s="306"/>
+      <c r="R63" s="305"/>
+      <c r="S63" s="306"/>
+      <c r="T63" s="306"/>
+      <c r="U63" s="307"/>
     </row>
     <row r="64" spans="2:21" ht="20.25" customHeight="1">
       <c r="B64" s="218"/>
@@ -16880,10 +16947,10 @@
       <c r="N64" s="231"/>
       <c r="O64" s="216"/>
       <c r="P64" s="217"/>
-      <c r="R64" s="304"/>
-      <c r="S64" s="305"/>
-      <c r="T64" s="305"/>
-      <c r="U64" s="306"/>
+      <c r="R64" s="305"/>
+      <c r="S64" s="306"/>
+      <c r="T64" s="306"/>
+      <c r="U64" s="307"/>
     </row>
     <row r="65" spans="2:21" ht="20.25" customHeight="1">
       <c r="B65" s="218"/>
@@ -16901,10 +16968,10 @@
       <c r="N65" s="231"/>
       <c r="O65" s="216"/>
       <c r="P65" s="217"/>
-      <c r="R65" s="304"/>
-      <c r="S65" s="305"/>
-      <c r="T65" s="305"/>
-      <c r="U65" s="306"/>
+      <c r="R65" s="305"/>
+      <c r="S65" s="306"/>
+      <c r="T65" s="306"/>
+      <c r="U65" s="307"/>
     </row>
     <row r="66" spans="2:21" ht="20.25" customHeight="1">
       <c r="B66" s="218"/>
@@ -16922,10 +16989,10 @@
       <c r="N66" s="231"/>
       <c r="O66" s="216"/>
       <c r="P66" s="217"/>
-      <c r="R66" s="304"/>
-      <c r="S66" s="305"/>
-      <c r="T66" s="305"/>
-      <c r="U66" s="306"/>
+      <c r="R66" s="305"/>
+      <c r="S66" s="306"/>
+      <c r="T66" s="306"/>
+      <c r="U66" s="307"/>
     </row>
     <row r="67" spans="2:21" ht="20.25" customHeight="1">
       <c r="B67" s="218"/>
@@ -16943,10 +17010,10 @@
       <c r="N67" s="231"/>
       <c r="O67" s="216"/>
       <c r="P67" s="217"/>
-      <c r="R67" s="304"/>
-      <c r="S67" s="305"/>
-      <c r="T67" s="305"/>
-      <c r="U67" s="306"/>
+      <c r="R67" s="305"/>
+      <c r="S67" s="306"/>
+      <c r="T67" s="306"/>
+      <c r="U67" s="307"/>
     </row>
     <row r="68" spans="2:21" ht="20.25" customHeight="1">
       <c r="B68" s="218"/>
@@ -16964,10 +17031,10 @@
       <c r="N68" s="231"/>
       <c r="O68" s="216"/>
       <c r="P68" s="217"/>
-      <c r="R68" s="304"/>
-      <c r="S68" s="305"/>
-      <c r="T68" s="305"/>
-      <c r="U68" s="306"/>
+      <c r="R68" s="305"/>
+      <c r="S68" s="306"/>
+      <c r="T68" s="306"/>
+      <c r="U68" s="307"/>
     </row>
     <row r="69" spans="2:21" ht="20.25" customHeight="1">
       <c r="B69" s="218"/>
@@ -16985,10 +17052,10 @@
       <c r="N69" s="231"/>
       <c r="O69" s="216"/>
       <c r="P69" s="217"/>
-      <c r="R69" s="304"/>
-      <c r="S69" s="305"/>
-      <c r="T69" s="305"/>
-      <c r="U69" s="306"/>
+      <c r="R69" s="305"/>
+      <c r="S69" s="306"/>
+      <c r="T69" s="306"/>
+      <c r="U69" s="307"/>
     </row>
     <row r="70" spans="2:21" ht="20.25" customHeight="1">
       <c r="B70" s="218"/>
@@ -17006,10 +17073,10 @@
       <c r="N70" s="231"/>
       <c r="O70" s="216"/>
       <c r="P70" s="217"/>
-      <c r="R70" s="304"/>
-      <c r="S70" s="305"/>
-      <c r="T70" s="305"/>
-      <c r="U70" s="306"/>
+      <c r="R70" s="305"/>
+      <c r="S70" s="306"/>
+      <c r="T70" s="306"/>
+      <c r="U70" s="307"/>
     </row>
     <row r="71" spans="2:21" ht="20.25" customHeight="1">
       <c r="B71" s="218"/>
@@ -17027,10 +17094,10 @@
       <c r="N71" s="231"/>
       <c r="O71" s="216"/>
       <c r="P71" s="217"/>
-      <c r="R71" s="304"/>
-      <c r="S71" s="305"/>
-      <c r="T71" s="305"/>
-      <c r="U71" s="306"/>
+      <c r="R71" s="305"/>
+      <c r="S71" s="306"/>
+      <c r="T71" s="306"/>
+      <c r="U71" s="307"/>
     </row>
     <row r="72" spans="2:21" ht="20.25" customHeight="1">
       <c r="B72" s="218"/>
@@ -17048,10 +17115,10 @@
       <c r="N72" s="231"/>
       <c r="O72" s="216"/>
       <c r="P72" s="217"/>
-      <c r="R72" s="304"/>
-      <c r="S72" s="305"/>
-      <c r="T72" s="305"/>
-      <c r="U72" s="306"/>
+      <c r="R72" s="305"/>
+      <c r="S72" s="306"/>
+      <c r="T72" s="306"/>
+      <c r="U72" s="307"/>
     </row>
     <row r="73" spans="2:21" ht="20.25" customHeight="1">
       <c r="B73" s="218"/>
@@ -17069,10 +17136,10 @@
       <c r="N73" s="231"/>
       <c r="O73" s="216"/>
       <c r="P73" s="217"/>
-      <c r="R73" s="304"/>
-      <c r="S73" s="305"/>
-      <c r="T73" s="305"/>
-      <c r="U73" s="306"/>
+      <c r="R73" s="305"/>
+      <c r="S73" s="306"/>
+      <c r="T73" s="306"/>
+      <c r="U73" s="307"/>
     </row>
     <row r="74" spans="2:21" ht="20.25" customHeight="1">
       <c r="B74" s="218"/>
@@ -17090,10 +17157,10 @@
       <c r="N74" s="231"/>
       <c r="O74" s="216"/>
       <c r="P74" s="217"/>
-      <c r="R74" s="304"/>
-      <c r="S74" s="305"/>
-      <c r="T74" s="305"/>
-      <c r="U74" s="306"/>
+      <c r="R74" s="305"/>
+      <c r="S74" s="306"/>
+      <c r="T74" s="306"/>
+      <c r="U74" s="307"/>
     </row>
     <row r="75" spans="2:21" ht="20.25" customHeight="1">
       <c r="B75" s="218"/>
@@ -17111,10 +17178,10 @@
       <c r="N75" s="231"/>
       <c r="O75" s="216"/>
       <c r="P75" s="217"/>
-      <c r="R75" s="304"/>
-      <c r="S75" s="305"/>
-      <c r="T75" s="305"/>
-      <c r="U75" s="306"/>
+      <c r="R75" s="305"/>
+      <c r="S75" s="306"/>
+      <c r="T75" s="306"/>
+      <c r="U75" s="307"/>
     </row>
     <row r="76" spans="2:21" ht="20.25" customHeight="1">
       <c r="B76" s="218"/>
@@ -17132,10 +17199,10 @@
       <c r="N76" s="231"/>
       <c r="O76" s="216"/>
       <c r="P76" s="217"/>
-      <c r="R76" s="304"/>
-      <c r="S76" s="305"/>
-      <c r="T76" s="305"/>
-      <c r="U76" s="306"/>
+      <c r="R76" s="305"/>
+      <c r="S76" s="306"/>
+      <c r="T76" s="306"/>
+      <c r="U76" s="307"/>
     </row>
     <row r="77" spans="2:21" ht="20.25" customHeight="1">
       <c r="B77" s="218"/>
@@ -17153,10 +17220,10 @@
       <c r="N77" s="231"/>
       <c r="O77" s="216"/>
       <c r="P77" s="217"/>
-      <c r="R77" s="304"/>
-      <c r="S77" s="305"/>
-      <c r="T77" s="305"/>
-      <c r="U77" s="306"/>
+      <c r="R77" s="305"/>
+      <c r="S77" s="306"/>
+      <c r="T77" s="306"/>
+      <c r="U77" s="307"/>
     </row>
     <row r="78" spans="2:21" ht="20.25" customHeight="1">
       <c r="B78" s="218"/>
@@ -17174,10 +17241,10 @@
       <c r="N78" s="231"/>
       <c r="O78" s="216"/>
       <c r="P78" s="217"/>
-      <c r="R78" s="304"/>
-      <c r="S78" s="305"/>
-      <c r="T78" s="305"/>
-      <c r="U78" s="306"/>
+      <c r="R78" s="305"/>
+      <c r="S78" s="306"/>
+      <c r="T78" s="306"/>
+      <c r="U78" s="307"/>
     </row>
     <row r="79" spans="2:21" ht="20.25" customHeight="1">
       <c r="B79" s="218"/>
@@ -17195,10 +17262,10 @@
       <c r="N79" s="231"/>
       <c r="O79" s="216"/>
       <c r="P79" s="217"/>
-      <c r="R79" s="304"/>
-      <c r="S79" s="305"/>
-      <c r="T79" s="305"/>
-      <c r="U79" s="306"/>
+      <c r="R79" s="305"/>
+      <c r="S79" s="306"/>
+      <c r="T79" s="306"/>
+      <c r="U79" s="307"/>
     </row>
     <row r="80" spans="2:21" ht="20.25" customHeight="1">
       <c r="B80" s="218"/>
@@ -17216,10 +17283,10 @@
       <c r="N80" s="231"/>
       <c r="O80" s="216"/>
       <c r="P80" s="217"/>
-      <c r="R80" s="304"/>
-      <c r="S80" s="305"/>
-      <c r="T80" s="305"/>
-      <c r="U80" s="306"/>
+      <c r="R80" s="305"/>
+      <c r="S80" s="306"/>
+      <c r="T80" s="306"/>
+      <c r="U80" s="307"/>
     </row>
     <row r="81" spans="2:21" ht="20.25" customHeight="1">
       <c r="B81" s="218"/>
@@ -17237,10 +17304,10 @@
       <c r="N81" s="231"/>
       <c r="O81" s="216"/>
       <c r="P81" s="217"/>
-      <c r="R81" s="304"/>
-      <c r="S81" s="305"/>
-      <c r="T81" s="305"/>
-      <c r="U81" s="306"/>
+      <c r="R81" s="305"/>
+      <c r="S81" s="306"/>
+      <c r="T81" s="306"/>
+      <c r="U81" s="307"/>
     </row>
     <row r="82" spans="2:21" ht="20.25" customHeight="1">
       <c r="B82" s="218"/>
@@ -17258,10 +17325,10 @@
       <c r="N82" s="231"/>
       <c r="O82" s="216"/>
       <c r="P82" s="217"/>
-      <c r="R82" s="304"/>
-      <c r="S82" s="305"/>
-      <c r="T82" s="305"/>
-      <c r="U82" s="306"/>
+      <c r="R82" s="305"/>
+      <c r="S82" s="306"/>
+      <c r="T82" s="306"/>
+      <c r="U82" s="307"/>
     </row>
     <row r="83" spans="2:21" ht="20.25" customHeight="1">
       <c r="B83" s="218"/>
@@ -17279,10 +17346,10 @@
       <c r="N83" s="231"/>
       <c r="O83" s="216"/>
       <c r="P83" s="217"/>
-      <c r="R83" s="304"/>
-      <c r="S83" s="305"/>
-      <c r="T83" s="305"/>
-      <c r="U83" s="306"/>
+      <c r="R83" s="305"/>
+      <c r="S83" s="306"/>
+      <c r="T83" s="306"/>
+      <c r="U83" s="307"/>
     </row>
     <row r="84" spans="2:21" ht="20.25" customHeight="1">
       <c r="B84" s="218"/>
@@ -17300,10 +17367,10 @@
       <c r="N84" s="231"/>
       <c r="O84" s="216"/>
       <c r="P84" s="217"/>
-      <c r="R84" s="304"/>
-      <c r="S84" s="305"/>
-      <c r="T84" s="305"/>
-      <c r="U84" s="306"/>
+      <c r="R84" s="305"/>
+      <c r="S84" s="306"/>
+      <c r="T84" s="306"/>
+      <c r="U84" s="307"/>
     </row>
     <row r="85" spans="2:21" ht="20.25" customHeight="1">
       <c r="B85" s="218"/>
@@ -17321,10 +17388,10 @@
       <c r="N85" s="231"/>
       <c r="O85" s="216"/>
       <c r="P85" s="217"/>
-      <c r="R85" s="304"/>
-      <c r="S85" s="305"/>
-      <c r="T85" s="305"/>
-      <c r="U85" s="306"/>
+      <c r="R85" s="305"/>
+      <c r="S85" s="306"/>
+      <c r="T85" s="306"/>
+      <c r="U85" s="307"/>
     </row>
     <row r="86" spans="2:21" ht="20.25" customHeight="1">
       <c r="B86" s="218"/>
@@ -17342,10 +17409,10 @@
       <c r="N86" s="231"/>
       <c r="O86" s="216"/>
       <c r="P86" s="217"/>
-      <c r="R86" s="304"/>
-      <c r="S86" s="305"/>
-      <c r="T86" s="305"/>
-      <c r="U86" s="306"/>
+      <c r="R86" s="305"/>
+      <c r="S86" s="306"/>
+      <c r="T86" s="306"/>
+      <c r="U86" s="307"/>
     </row>
     <row r="87" spans="2:21" ht="20.25" customHeight="1">
       <c r="B87" s="218"/>
@@ -17363,10 +17430,10 @@
       <c r="N87" s="231"/>
       <c r="O87" s="216"/>
       <c r="P87" s="217"/>
-      <c r="R87" s="304"/>
-      <c r="S87" s="305"/>
-      <c r="T87" s="305"/>
-      <c r="U87" s="306"/>
+      <c r="R87" s="305"/>
+      <c r="S87" s="306"/>
+      <c r="T87" s="306"/>
+      <c r="U87" s="307"/>
     </row>
     <row r="88" spans="2:21" ht="20.25" customHeight="1">
       <c r="B88" s="218"/>
@@ -17384,10 +17451,10 @@
       <c r="N88" s="231"/>
       <c r="O88" s="216"/>
       <c r="P88" s="217"/>
-      <c r="R88" s="304"/>
-      <c r="S88" s="305"/>
-      <c r="T88" s="305"/>
-      <c r="U88" s="306"/>
+      <c r="R88" s="305"/>
+      <c r="S88" s="306"/>
+      <c r="T88" s="306"/>
+      <c r="U88" s="307"/>
     </row>
     <row r="89" spans="2:21" ht="20.25" customHeight="1">
       <c r="B89" s="218"/>
@@ -17405,10 +17472,10 @@
       <c r="N89" s="231"/>
       <c r="O89" s="216"/>
       <c r="P89" s="217"/>
-      <c r="R89" s="304"/>
-      <c r="S89" s="305"/>
-      <c r="T89" s="305"/>
-      <c r="U89" s="306"/>
+      <c r="R89" s="305"/>
+      <c r="S89" s="306"/>
+      <c r="T89" s="306"/>
+      <c r="U89" s="307"/>
     </row>
     <row r="90" spans="2:21" ht="20.25" customHeight="1">
       <c r="B90" s="218"/>
@@ -17426,10 +17493,10 @@
       <c r="N90" s="231"/>
       <c r="O90" s="216"/>
       <c r="P90" s="217"/>
-      <c r="R90" s="304"/>
-      <c r="S90" s="305"/>
-      <c r="T90" s="305"/>
-      <c r="U90" s="306"/>
+      <c r="R90" s="305"/>
+      <c r="S90" s="306"/>
+      <c r="T90" s="306"/>
+      <c r="U90" s="307"/>
     </row>
     <row r="91" spans="2:21" ht="20.25" customHeight="1">
       <c r="B91" s="218"/>
@@ -17447,10 +17514,10 @@
       <c r="N91" s="231"/>
       <c r="O91" s="216"/>
       <c r="P91" s="217"/>
-      <c r="R91" s="304"/>
-      <c r="S91" s="305"/>
-      <c r="T91" s="305"/>
-      <c r="U91" s="306"/>
+      <c r="R91" s="305"/>
+      <c r="S91" s="306"/>
+      <c r="T91" s="306"/>
+      <c r="U91" s="307"/>
     </row>
     <row r="92" spans="2:21" ht="20.25" customHeight="1">
       <c r="B92" s="218"/>
@@ -17468,10 +17535,10 @@
       <c r="N92" s="231"/>
       <c r="O92" s="216"/>
       <c r="P92" s="217"/>
-      <c r="R92" s="304"/>
-      <c r="S92" s="305"/>
-      <c r="T92" s="305"/>
-      <c r="U92" s="306"/>
+      <c r="R92" s="305"/>
+      <c r="S92" s="306"/>
+      <c r="T92" s="306"/>
+      <c r="U92" s="307"/>
     </row>
     <row r="93" spans="2:21" ht="20.25" customHeight="1">
       <c r="B93" s="218"/>
@@ -17489,10 +17556,10 @@
       <c r="N93" s="231"/>
       <c r="O93" s="216"/>
       <c r="P93" s="217"/>
-      <c r="R93" s="304"/>
-      <c r="S93" s="305"/>
-      <c r="T93" s="305"/>
-      <c r="U93" s="306"/>
+      <c r="R93" s="305"/>
+      <c r="S93" s="306"/>
+      <c r="T93" s="306"/>
+      <c r="U93" s="307"/>
     </row>
     <row r="94" spans="2:21" ht="20.25" customHeight="1">
       <c r="B94" s="218"/>
@@ -17510,10 +17577,10 @@
       <c r="N94" s="231"/>
       <c r="O94" s="216"/>
       <c r="P94" s="217"/>
-      <c r="R94" s="304"/>
-      <c r="S94" s="305"/>
-      <c r="T94" s="305"/>
-      <c r="U94" s="306"/>
+      <c r="R94" s="305"/>
+      <c r="S94" s="306"/>
+      <c r="T94" s="306"/>
+      <c r="U94" s="307"/>
     </row>
     <row r="95" spans="2:21" ht="20.25" customHeight="1">
       <c r="B95" s="218"/>
@@ -17531,10 +17598,10 @@
       <c r="N95" s="231"/>
       <c r="O95" s="216"/>
       <c r="P95" s="217"/>
-      <c r="R95" s="304"/>
-      <c r="S95" s="305"/>
-      <c r="T95" s="305"/>
-      <c r="U95" s="306"/>
+      <c r="R95" s="305"/>
+      <c r="S95" s="306"/>
+      <c r="T95" s="306"/>
+      <c r="U95" s="307"/>
     </row>
     <row r="96" spans="2:21" ht="20.25" customHeight="1">
       <c r="B96" s="218"/>
@@ -17552,10 +17619,10 @@
       <c r="N96" s="231"/>
       <c r="O96" s="216"/>
       <c r="P96" s="217"/>
-      <c r="R96" s="304"/>
-      <c r="S96" s="305"/>
-      <c r="T96" s="305"/>
-      <c r="U96" s="306"/>
+      <c r="R96" s="305"/>
+      <c r="S96" s="306"/>
+      <c r="T96" s="306"/>
+      <c r="U96" s="307"/>
     </row>
     <row r="97" spans="2:21" ht="20.25" customHeight="1">
       <c r="B97" s="218"/>
@@ -17573,10 +17640,10 @@
       <c r="N97" s="231"/>
       <c r="O97" s="216"/>
       <c r="P97" s="217"/>
-      <c r="R97" s="304"/>
-      <c r="S97" s="305"/>
-      <c r="T97" s="305"/>
-      <c r="U97" s="306"/>
+      <c r="R97" s="305"/>
+      <c r="S97" s="306"/>
+      <c r="T97" s="306"/>
+      <c r="U97" s="307"/>
     </row>
     <row r="98" spans="2:21" ht="20.25" customHeight="1">
       <c r="B98" s="218"/>
@@ -17594,10 +17661,10 @@
       <c r="N98" s="231"/>
       <c r="O98" s="216"/>
       <c r="P98" s="217"/>
-      <c r="R98" s="304"/>
-      <c r="S98" s="305"/>
-      <c r="T98" s="305"/>
-      <c r="U98" s="306"/>
+      <c r="R98" s="305"/>
+      <c r="S98" s="306"/>
+      <c r="T98" s="306"/>
+      <c r="U98" s="307"/>
     </row>
     <row r="99" spans="2:21" ht="20.25" customHeight="1">
       <c r="B99" s="218"/>
@@ -17615,10 +17682,10 @@
       <c r="N99" s="231"/>
       <c r="O99" s="216"/>
       <c r="P99" s="217"/>
-      <c r="R99" s="304"/>
-      <c r="S99" s="305"/>
-      <c r="T99" s="305"/>
-      <c r="U99" s="306"/>
+      <c r="R99" s="305"/>
+      <c r="S99" s="306"/>
+      <c r="T99" s="306"/>
+      <c r="U99" s="307"/>
     </row>
     <row r="100" spans="2:21" ht="20.25" customHeight="1">
       <c r="B100" s="218"/>
@@ -17636,10 +17703,10 @@
       <c r="N100" s="231"/>
       <c r="O100" s="216"/>
       <c r="P100" s="217"/>
-      <c r="R100" s="304"/>
-      <c r="S100" s="305"/>
-      <c r="T100" s="305"/>
-      <c r="U100" s="306"/>
+      <c r="R100" s="305"/>
+      <c r="S100" s="306"/>
+      <c r="T100" s="306"/>
+      <c r="U100" s="307"/>
     </row>
     <row r="101" spans="2:21" ht="20.25" customHeight="1">
       <c r="B101" s="218"/>
@@ -17657,10 +17724,10 @@
       <c r="N101" s="231"/>
       <c r="O101" s="216"/>
       <c r="P101" s="217"/>
-      <c r="R101" s="304"/>
-      <c r="S101" s="305"/>
-      <c r="T101" s="305"/>
-      <c r="U101" s="306"/>
+      <c r="R101" s="305"/>
+      <c r="S101" s="306"/>
+      <c r="T101" s="306"/>
+      <c r="U101" s="307"/>
     </row>
     <row r="102" spans="2:21" ht="20.25" customHeight="1">
       <c r="B102" s="218"/>
@@ -17678,10 +17745,10 @@
       <c r="N102" s="231"/>
       <c r="O102" s="216"/>
       <c r="P102" s="217"/>
-      <c r="R102" s="304"/>
-      <c r="S102" s="305"/>
-      <c r="T102" s="305"/>
-      <c r="U102" s="306"/>
+      <c r="R102" s="305"/>
+      <c r="S102" s="306"/>
+      <c r="T102" s="306"/>
+      <c r="U102" s="307"/>
     </row>
     <row r="103" spans="2:21" ht="20.25" customHeight="1">
       <c r="B103" s="218"/>
@@ -17699,10 +17766,10 @@
       <c r="N103" s="231"/>
       <c r="O103" s="216"/>
       <c r="P103" s="217"/>
-      <c r="R103" s="304"/>
-      <c r="S103" s="305"/>
-      <c r="T103" s="305"/>
-      <c r="U103" s="306"/>
+      <c r="R103" s="305"/>
+      <c r="S103" s="306"/>
+      <c r="T103" s="306"/>
+      <c r="U103" s="307"/>
     </row>
     <row r="104" spans="2:21" ht="20.25" customHeight="1">
       <c r="B104" s="218"/>
@@ -17720,10 +17787,10 @@
       <c r="N104" s="231"/>
       <c r="O104" s="216"/>
       <c r="P104" s="217"/>
-      <c r="R104" s="304"/>
-      <c r="S104" s="305"/>
-      <c r="T104" s="305"/>
-      <c r="U104" s="306"/>
+      <c r="R104" s="305"/>
+      <c r="S104" s="306"/>
+      <c r="T104" s="306"/>
+      <c r="U104" s="307"/>
     </row>
     <row r="105" spans="2:21" ht="20.25" customHeight="1">
       <c r="B105" s="218"/>
@@ -17741,10 +17808,10 @@
       <c r="N105" s="231"/>
       <c r="O105" s="216"/>
       <c r="P105" s="217"/>
-      <c r="R105" s="304"/>
-      <c r="S105" s="305"/>
-      <c r="T105" s="305"/>
-      <c r="U105" s="306"/>
+      <c r="R105" s="305"/>
+      <c r="S105" s="306"/>
+      <c r="T105" s="306"/>
+      <c r="U105" s="307"/>
     </row>
     <row r="106" spans="2:21" ht="20.25" customHeight="1">
       <c r="B106" s="218"/>
@@ -17762,10 +17829,10 @@
       <c r="N106" s="231"/>
       <c r="O106" s="216"/>
       <c r="P106" s="217"/>
-      <c r="R106" s="304"/>
-      <c r="S106" s="305"/>
-      <c r="T106" s="305"/>
-      <c r="U106" s="306"/>
+      <c r="R106" s="305"/>
+      <c r="S106" s="306"/>
+      <c r="T106" s="306"/>
+      <c r="U106" s="307"/>
     </row>
     <row r="107" spans="2:21" ht="20.25" customHeight="1">
       <c r="B107" s="218"/>
@@ -17783,10 +17850,10 @@
       <c r="N107" s="231"/>
       <c r="O107" s="216"/>
       <c r="P107" s="217"/>
-      <c r="R107" s="304"/>
-      <c r="S107" s="305"/>
-      <c r="T107" s="305"/>
-      <c r="U107" s="306"/>
+      <c r="R107" s="305"/>
+      <c r="S107" s="306"/>
+      <c r="T107" s="306"/>
+      <c r="U107" s="307"/>
     </row>
     <row r="108" spans="2:21" ht="20.25" customHeight="1">
       <c r="B108" s="218"/>
@@ -17804,10 +17871,10 @@
       <c r="N108" s="231"/>
       <c r="O108" s="216"/>
       <c r="P108" s="217"/>
-      <c r="R108" s="304"/>
-      <c r="S108" s="305"/>
-      <c r="T108" s="305"/>
-      <c r="U108" s="306"/>
+      <c r="R108" s="305"/>
+      <c r="S108" s="306"/>
+      <c r="T108" s="306"/>
+      <c r="U108" s="307"/>
     </row>
     <row r="109" spans="2:21" ht="20.25" customHeight="1">
       <c r="B109" s="218"/>
@@ -17825,10 +17892,10 @@
       <c r="N109" s="231"/>
       <c r="O109" s="216"/>
       <c r="P109" s="217"/>
-      <c r="R109" s="304"/>
-      <c r="S109" s="305"/>
-      <c r="T109" s="305"/>
-      <c r="U109" s="306"/>
+      <c r="R109" s="305"/>
+      <c r="S109" s="306"/>
+      <c r="T109" s="306"/>
+      <c r="U109" s="307"/>
     </row>
     <row r="110" spans="2:21" ht="20.25" customHeight="1">
       <c r="B110" s="218"/>
@@ -17846,10 +17913,10 @@
       <c r="N110" s="231"/>
       <c r="O110" s="216"/>
       <c r="P110" s="217"/>
-      <c r="R110" s="304"/>
-      <c r="S110" s="305"/>
-      <c r="T110" s="305"/>
-      <c r="U110" s="306"/>
+      <c r="R110" s="305"/>
+      <c r="S110" s="306"/>
+      <c r="T110" s="306"/>
+      <c r="U110" s="307"/>
     </row>
     <row r="111" spans="2:21" ht="20.25" customHeight="1">
       <c r="B111" s="218"/>
@@ -17867,10 +17934,10 @@
       <c r="N111" s="231"/>
       <c r="O111" s="216"/>
       <c r="P111" s="217"/>
-      <c r="R111" s="304"/>
-      <c r="S111" s="305"/>
-      <c r="T111" s="305"/>
-      <c r="U111" s="306"/>
+      <c r="R111" s="305"/>
+      <c r="S111" s="306"/>
+      <c r="T111" s="306"/>
+      <c r="U111" s="307"/>
     </row>
     <row r="112" spans="2:21" ht="20.25" customHeight="1">
       <c r="B112" s="218"/>
@@ -17888,10 +17955,10 @@
       <c r="N112" s="231"/>
       <c r="O112" s="216"/>
       <c r="P112" s="217"/>
-      <c r="R112" s="304"/>
-      <c r="S112" s="305"/>
-      <c r="T112" s="305"/>
-      <c r="U112" s="306"/>
+      <c r="R112" s="305"/>
+      <c r="S112" s="306"/>
+      <c r="T112" s="306"/>
+      <c r="U112" s="307"/>
     </row>
     <row r="113" spans="2:21" ht="20.25" customHeight="1">
       <c r="B113" s="218"/>
@@ -17909,10 +17976,10 @@
       <c r="N113" s="231"/>
       <c r="O113" s="216"/>
       <c r="P113" s="217"/>
-      <c r="R113" s="304"/>
-      <c r="S113" s="305"/>
-      <c r="T113" s="305"/>
-      <c r="U113" s="306"/>
+      <c r="R113" s="305"/>
+      <c r="S113" s="306"/>
+      <c r="T113" s="306"/>
+      <c r="U113" s="307"/>
     </row>
     <row r="114" spans="2:21" ht="20.25" customHeight="1">
       <c r="B114" s="218"/>
@@ -17930,10 +17997,10 @@
       <c r="N114" s="231"/>
       <c r="O114" s="216"/>
       <c r="P114" s="217"/>
-      <c r="R114" s="304"/>
-      <c r="S114" s="305"/>
-      <c r="T114" s="305"/>
-      <c r="U114" s="306"/>
+      <c r="R114" s="305"/>
+      <c r="S114" s="306"/>
+      <c r="T114" s="306"/>
+      <c r="U114" s="307"/>
     </row>
     <row r="115" spans="2:21" ht="20.25" customHeight="1">
       <c r="B115" s="218"/>
@@ -17951,10 +18018,10 @@
       <c r="N115" s="231"/>
       <c r="O115" s="216"/>
       <c r="P115" s="217"/>
-      <c r="R115" s="304"/>
-      <c r="S115" s="305"/>
-      <c r="T115" s="305"/>
-      <c r="U115" s="306"/>
+      <c r="R115" s="305"/>
+      <c r="S115" s="306"/>
+      <c r="T115" s="306"/>
+      <c r="U115" s="307"/>
     </row>
     <row r="116" spans="2:21" ht="20.25" customHeight="1">
       <c r="B116" s="218"/>
@@ -17972,10 +18039,10 @@
       <c r="N116" s="231"/>
       <c r="O116" s="216"/>
       <c r="P116" s="217"/>
-      <c r="R116" s="304"/>
-      <c r="S116" s="305"/>
-      <c r="T116" s="305"/>
-      <c r="U116" s="306"/>
+      <c r="R116" s="305"/>
+      <c r="S116" s="306"/>
+      <c r="T116" s="306"/>
+      <c r="U116" s="307"/>
     </row>
     <row r="117" spans="2:21" ht="20.25" customHeight="1">
       <c r="B117" s="218"/>
@@ -17993,10 +18060,10 @@
       <c r="N117" s="231"/>
       <c r="O117" s="216"/>
       <c r="P117" s="217"/>
-      <c r="R117" s="304"/>
-      <c r="S117" s="305"/>
-      <c r="T117" s="305"/>
-      <c r="U117" s="306"/>
+      <c r="R117" s="305"/>
+      <c r="S117" s="306"/>
+      <c r="T117" s="306"/>
+      <c r="U117" s="307"/>
     </row>
     <row r="118" spans="2:21" ht="20.25" customHeight="1">
       <c r="B118" s="218"/>
@@ -18014,10 +18081,10 @@
       <c r="N118" s="231"/>
       <c r="O118" s="216"/>
       <c r="P118" s="217"/>
-      <c r="R118" s="304"/>
-      <c r="S118" s="305"/>
-      <c r="T118" s="305"/>
-      <c r="U118" s="306"/>
+      <c r="R118" s="305"/>
+      <c r="S118" s="306"/>
+      <c r="T118" s="306"/>
+      <c r="U118" s="307"/>
     </row>
     <row r="119" spans="2:21" ht="20.25" customHeight="1">
       <c r="B119" s="218"/>
@@ -18035,10 +18102,10 @@
       <c r="N119" s="231"/>
       <c r="O119" s="216"/>
       <c r="P119" s="217"/>
-      <c r="R119" s="304"/>
-      <c r="S119" s="305"/>
-      <c r="T119" s="305"/>
-      <c r="U119" s="306"/>
+      <c r="R119" s="305"/>
+      <c r="S119" s="306"/>
+      <c r="T119" s="306"/>
+      <c r="U119" s="307"/>
     </row>
     <row r="120" spans="2:21" ht="20.25" customHeight="1">
       <c r="B120" s="218"/>
@@ -18056,10 +18123,10 @@
       <c r="N120" s="231"/>
       <c r="O120" s="216"/>
       <c r="P120" s="217"/>
-      <c r="R120" s="304"/>
-      <c r="S120" s="305"/>
-      <c r="T120" s="305"/>
-      <c r="U120" s="306"/>
+      <c r="R120" s="305"/>
+      <c r="S120" s="306"/>
+      <c r="T120" s="306"/>
+      <c r="U120" s="307"/>
     </row>
     <row r="121" spans="2:21" ht="20.25" customHeight="1">
       <c r="B121" s="218"/>
@@ -18077,10 +18144,10 @@
       <c r="N121" s="231"/>
       <c r="O121" s="216"/>
       <c r="P121" s="217"/>
-      <c r="R121" s="304"/>
-      <c r="S121" s="305"/>
-      <c r="T121" s="305"/>
-      <c r="U121" s="306"/>
+      <c r="R121" s="305"/>
+      <c r="S121" s="306"/>
+      <c r="T121" s="306"/>
+      <c r="U121" s="307"/>
     </row>
     <row r="122" spans="2:21" ht="20.25" customHeight="1">
       <c r="B122" s="218"/>
@@ -18098,10 +18165,10 @@
       <c r="N122" s="231"/>
       <c r="O122" s="216"/>
       <c r="P122" s="217"/>
-      <c r="R122" s="304"/>
-      <c r="S122" s="305"/>
-      <c r="T122" s="305"/>
-      <c r="U122" s="306"/>
+      <c r="R122" s="305"/>
+      <c r="S122" s="306"/>
+      <c r="T122" s="306"/>
+      <c r="U122" s="307"/>
     </row>
     <row r="123" spans="2:21" ht="20.25" customHeight="1">
       <c r="B123" s="218"/>
@@ -18119,10 +18186,10 @@
       <c r="N123" s="231"/>
       <c r="O123" s="216"/>
       <c r="P123" s="217"/>
-      <c r="R123" s="304"/>
-      <c r="S123" s="305"/>
-      <c r="T123" s="305"/>
-      <c r="U123" s="306"/>
+      <c r="R123" s="305"/>
+      <c r="S123" s="306"/>
+      <c r="T123" s="306"/>
+      <c r="U123" s="307"/>
     </row>
     <row r="124" spans="2:21" ht="20.25" customHeight="1">
       <c r="B124" s="218"/>
@@ -18140,10 +18207,10 @@
       <c r="N124" s="231"/>
       <c r="O124" s="216"/>
       <c r="P124" s="217"/>
-      <c r="R124" s="304"/>
-      <c r="S124" s="305"/>
-      <c r="T124" s="305"/>
-      <c r="U124" s="306"/>
+      <c r="R124" s="305"/>
+      <c r="S124" s="306"/>
+      <c r="T124" s="306"/>
+      <c r="U124" s="307"/>
     </row>
     <row r="125" spans="2:21" ht="20.25" customHeight="1">
       <c r="B125" s="218"/>
@@ -18161,10 +18228,10 @@
       <c r="N125" s="231"/>
       <c r="O125" s="216"/>
       <c r="P125" s="217"/>
-      <c r="R125" s="304"/>
-      <c r="S125" s="305"/>
-      <c r="T125" s="305"/>
-      <c r="U125" s="306"/>
+      <c r="R125" s="305"/>
+      <c r="S125" s="306"/>
+      <c r="T125" s="306"/>
+      <c r="U125" s="307"/>
     </row>
     <row r="126" spans="2:21" ht="20.25" customHeight="1">
       <c r="B126" s="218"/>
@@ -18182,10 +18249,10 @@
       <c r="N126" s="231"/>
       <c r="O126" s="216"/>
       <c r="P126" s="217"/>
-      <c r="R126" s="304"/>
-      <c r="S126" s="305"/>
-      <c r="T126" s="305"/>
-      <c r="U126" s="306"/>
+      <c r="R126" s="305"/>
+      <c r="S126" s="306"/>
+      <c r="T126" s="306"/>
+      <c r="U126" s="307"/>
     </row>
     <row r="127" spans="2:21" ht="20.25" customHeight="1">
       <c r="B127" s="218"/>
@@ -18203,10 +18270,10 @@
       <c r="N127" s="231"/>
       <c r="O127" s="216"/>
       <c r="P127" s="217"/>
-      <c r="R127" s="304"/>
-      <c r="S127" s="305"/>
-      <c r="T127" s="305"/>
-      <c r="U127" s="306"/>
+      <c r="R127" s="305"/>
+      <c r="S127" s="306"/>
+      <c r="T127" s="306"/>
+      <c r="U127" s="307"/>
     </row>
     <row r="128" spans="2:21" ht="20.25" customHeight="1">
       <c r="B128" s="218"/>
@@ -18224,10 +18291,10 @@
       <c r="N128" s="231"/>
       <c r="O128" s="216"/>
       <c r="P128" s="217"/>
-      <c r="R128" s="304"/>
-      <c r="S128" s="305"/>
-      <c r="T128" s="305"/>
-      <c r="U128" s="306"/>
+      <c r="R128" s="305"/>
+      <c r="S128" s="306"/>
+      <c r="T128" s="306"/>
+      <c r="U128" s="307"/>
     </row>
     <row r="129" spans="2:21" ht="20.25" customHeight="1">
       <c r="B129" s="218"/>
@@ -18245,10 +18312,10 @@
       <c r="N129" s="231"/>
       <c r="O129" s="216"/>
       <c r="P129" s="217"/>
-      <c r="R129" s="304"/>
-      <c r="S129" s="305"/>
-      <c r="T129" s="305"/>
-      <c r="U129" s="306"/>
+      <c r="R129" s="305"/>
+      <c r="S129" s="306"/>
+      <c r="T129" s="306"/>
+      <c r="U129" s="307"/>
     </row>
     <row r="130" spans="2:21" ht="20.25" customHeight="1">
       <c r="B130" s="218"/>
@@ -18266,10 +18333,10 @@
       <c r="N130" s="231"/>
       <c r="O130" s="216"/>
       <c r="P130" s="217"/>
-      <c r="R130" s="304"/>
-      <c r="S130" s="305"/>
-      <c r="T130" s="305"/>
-      <c r="U130" s="306"/>
+      <c r="R130" s="305"/>
+      <c r="S130" s="306"/>
+      <c r="T130" s="306"/>
+      <c r="U130" s="307"/>
     </row>
     <row r="131" spans="2:21" ht="20.25" customHeight="1">
       <c r="B131" s="218"/>
@@ -18287,10 +18354,10 @@
       <c r="N131" s="231"/>
       <c r="O131" s="216"/>
       <c r="P131" s="217"/>
-      <c r="R131" s="304"/>
-      <c r="S131" s="305"/>
-      <c r="T131" s="305"/>
-      <c r="U131" s="306"/>
+      <c r="R131" s="305"/>
+      <c r="S131" s="306"/>
+      <c r="T131" s="306"/>
+      <c r="U131" s="307"/>
     </row>
     <row r="132" spans="2:21" ht="20.25" customHeight="1">
       <c r="B132" s="218"/>
@@ -18308,10 +18375,10 @@
       <c r="N132" s="231"/>
       <c r="O132" s="216"/>
       <c r="P132" s="217"/>
-      <c r="R132" s="304"/>
-      <c r="S132" s="305"/>
-      <c r="T132" s="305"/>
-      <c r="U132" s="306"/>
+      <c r="R132" s="305"/>
+      <c r="S132" s="306"/>
+      <c r="T132" s="306"/>
+      <c r="U132" s="307"/>
     </row>
     <row r="133" spans="2:21" ht="20.25" customHeight="1">
       <c r="B133" s="218"/>
@@ -18329,10 +18396,10 @@
       <c r="N133" s="231"/>
       <c r="O133" s="216"/>
       <c r="P133" s="217"/>
-      <c r="R133" s="304"/>
-      <c r="S133" s="305"/>
-      <c r="T133" s="305"/>
-      <c r="U133" s="306"/>
+      <c r="R133" s="305"/>
+      <c r="S133" s="306"/>
+      <c r="T133" s="306"/>
+      <c r="U133" s="307"/>
     </row>
     <row r="134" spans="2:21" ht="20.25" customHeight="1">
       <c r="B134" s="218"/>
@@ -18350,10 +18417,10 @@
       <c r="N134" s="231"/>
       <c r="O134" s="216"/>
       <c r="P134" s="217"/>
-      <c r="R134" s="304"/>
-      <c r="S134" s="305"/>
-      <c r="T134" s="305"/>
-      <c r="U134" s="306"/>
+      <c r="R134" s="305"/>
+      <c r="S134" s="306"/>
+      <c r="T134" s="306"/>
+      <c r="U134" s="307"/>
     </row>
     <row r="135" spans="2:21" ht="20.25" customHeight="1">
       <c r="B135" s="218"/>
@@ -18371,10 +18438,10 @@
       <c r="N135" s="231"/>
       <c r="O135" s="216"/>
       <c r="P135" s="217"/>
-      <c r="R135" s="304"/>
-      <c r="S135" s="305"/>
-      <c r="T135" s="305"/>
-      <c r="U135" s="306"/>
+      <c r="R135" s="305"/>
+      <c r="S135" s="306"/>
+      <c r="T135" s="306"/>
+      <c r="U135" s="307"/>
     </row>
     <row r="136" spans="2:21" ht="20.25" customHeight="1">
       <c r="B136" s="218"/>
@@ -18392,10 +18459,10 @@
       <c r="N136" s="231"/>
       <c r="O136" s="216"/>
       <c r="P136" s="217"/>
-      <c r="R136" s="304"/>
-      <c r="S136" s="305"/>
-      <c r="T136" s="305"/>
-      <c r="U136" s="306"/>
+      <c r="R136" s="305"/>
+      <c r="S136" s="306"/>
+      <c r="T136" s="306"/>
+      <c r="U136" s="307"/>
     </row>
     <row r="137" spans="2:21" ht="20.25" customHeight="1">
       <c r="B137" s="218"/>
@@ -18413,10 +18480,10 @@
       <c r="N137" s="231"/>
       <c r="O137" s="216"/>
       <c r="P137" s="217"/>
-      <c r="R137" s="304"/>
-      <c r="S137" s="305"/>
-      <c r="T137" s="305"/>
-      <c r="U137" s="306"/>
+      <c r="R137" s="305"/>
+      <c r="S137" s="306"/>
+      <c r="T137" s="306"/>
+      <c r="U137" s="307"/>
     </row>
     <row r="138" spans="2:21" ht="20.25" customHeight="1">
       <c r="B138" s="218"/>
@@ -18434,10 +18501,10 @@
       <c r="N138" s="231"/>
       <c r="O138" s="216"/>
       <c r="P138" s="217"/>
-      <c r="R138" s="304"/>
-      <c r="S138" s="305"/>
-      <c r="T138" s="305"/>
-      <c r="U138" s="306"/>
+      <c r="R138" s="305"/>
+      <c r="S138" s="306"/>
+      <c r="T138" s="306"/>
+      <c r="U138" s="307"/>
     </row>
     <row r="139" spans="2:21" ht="20.25" customHeight="1">
       <c r="B139" s="218"/>
@@ -18455,10 +18522,10 @@
       <c r="N139" s="231"/>
       <c r="O139" s="216"/>
       <c r="P139" s="217"/>
-      <c r="R139" s="304"/>
-      <c r="S139" s="305"/>
-      <c r="T139" s="305"/>
-      <c r="U139" s="306"/>
+      <c r="R139" s="305"/>
+      <c r="S139" s="306"/>
+      <c r="T139" s="306"/>
+      <c r="U139" s="307"/>
     </row>
     <row r="140" spans="2:21" ht="20.25" customHeight="1">
       <c r="B140" s="218"/>
@@ -18476,10 +18543,10 @@
       <c r="N140" s="231"/>
       <c r="O140" s="216"/>
       <c r="P140" s="217"/>
-      <c r="R140" s="304"/>
-      <c r="S140" s="305"/>
-      <c r="T140" s="305"/>
-      <c r="U140" s="306"/>
+      <c r="R140" s="305"/>
+      <c r="S140" s="306"/>
+      <c r="T140" s="306"/>
+      <c r="U140" s="307"/>
     </row>
     <row r="141" spans="2:21" ht="20.25" customHeight="1">
       <c r="B141" s="218"/>
@@ -18497,10 +18564,10 @@
       <c r="N141" s="231"/>
       <c r="O141" s="216"/>
       <c r="P141" s="217"/>
-      <c r="R141" s="304"/>
-      <c r="S141" s="305"/>
-      <c r="T141" s="305"/>
-      <c r="U141" s="306"/>
+      <c r="R141" s="305"/>
+      <c r="S141" s="306"/>
+      <c r="T141" s="306"/>
+      <c r="U141" s="307"/>
     </row>
     <row r="142" spans="2:21" ht="20.25" customHeight="1">
       <c r="B142" s="218"/>
@@ -18518,10 +18585,10 @@
       <c r="N142" s="231"/>
       <c r="O142" s="216"/>
       <c r="P142" s="217"/>
-      <c r="R142" s="304"/>
-      <c r="S142" s="305"/>
-      <c r="T142" s="305"/>
-      <c r="U142" s="306"/>
+      <c r="R142" s="305"/>
+      <c r="S142" s="306"/>
+      <c r="T142" s="306"/>
+      <c r="U142" s="307"/>
     </row>
     <row r="143" spans="2:21" ht="20.25" customHeight="1">
       <c r="B143" s="218"/>
@@ -18539,10 +18606,10 @@
       <c r="N143" s="231"/>
       <c r="O143" s="216"/>
       <c r="P143" s="217"/>
-      <c r="R143" s="304"/>
-      <c r="S143" s="305"/>
-      <c r="T143" s="305"/>
-      <c r="U143" s="306"/>
+      <c r="R143" s="305"/>
+      <c r="S143" s="306"/>
+      <c r="T143" s="306"/>
+      <c r="U143" s="307"/>
     </row>
     <row r="144" spans="2:21" ht="20.25" customHeight="1">
       <c r="B144" s="218"/>
@@ -18560,10 +18627,10 @@
       <c r="N144" s="231"/>
       <c r="O144" s="216"/>
       <c r="P144" s="217"/>
-      <c r="R144" s="304"/>
-      <c r="S144" s="305"/>
-      <c r="T144" s="305"/>
-      <c r="U144" s="306"/>
+      <c r="R144" s="305"/>
+      <c r="S144" s="306"/>
+      <c r="T144" s="306"/>
+      <c r="U144" s="307"/>
     </row>
     <row r="145" spans="2:21" ht="20.25" customHeight="1">
       <c r="B145" s="218"/>
@@ -18581,10 +18648,10 @@
       <c r="N145" s="231"/>
       <c r="O145" s="216"/>
       <c r="P145" s="217"/>
-      <c r="R145" s="304"/>
-      <c r="S145" s="305"/>
-      <c r="T145" s="305"/>
-      <c r="U145" s="306"/>
+      <c r="R145" s="305"/>
+      <c r="S145" s="306"/>
+      <c r="T145" s="306"/>
+      <c r="U145" s="307"/>
     </row>
     <row r="146" spans="2:21" ht="20.25" customHeight="1">
       <c r="B146" s="218"/>
@@ -18602,10 +18669,10 @@
       <c r="N146" s="231"/>
       <c r="O146" s="216"/>
       <c r="P146" s="217"/>
-      <c r="R146" s="304"/>
-      <c r="S146" s="305"/>
-      <c r="T146" s="305"/>
-      <c r="U146" s="306"/>
+      <c r="R146" s="305"/>
+      <c r="S146" s="306"/>
+      <c r="T146" s="306"/>
+      <c r="U146" s="307"/>
     </row>
     <row r="147" spans="2:21" ht="20.25" customHeight="1">
       <c r="B147" s="218"/>
@@ -18623,10 +18690,10 @@
       <c r="N147" s="231"/>
       <c r="O147" s="216"/>
       <c r="P147" s="217"/>
-      <c r="R147" s="304"/>
-      <c r="S147" s="305"/>
-      <c r="T147" s="305"/>
-      <c r="U147" s="306"/>
+      <c r="R147" s="305"/>
+      <c r="S147" s="306"/>
+      <c r="T147" s="306"/>
+      <c r="U147" s="307"/>
     </row>
     <row r="148" spans="2:21" ht="20.25" customHeight="1">
       <c r="B148" s="218"/>
@@ -18644,10 +18711,10 @@
       <c r="N148" s="231"/>
       <c r="O148" s="216"/>
       <c r="P148" s="217"/>
-      <c r="R148" s="304"/>
-      <c r="S148" s="305"/>
-      <c r="T148" s="305"/>
-      <c r="U148" s="306"/>
+      <c r="R148" s="305"/>
+      <c r="S148" s="306"/>
+      <c r="T148" s="306"/>
+      <c r="U148" s="307"/>
     </row>
     <row r="149" spans="2:21" ht="20.25" customHeight="1">
       <c r="B149" s="218"/>
@@ -18665,10 +18732,10 @@
       <c r="N149" s="231"/>
       <c r="O149" s="216"/>
       <c r="P149" s="217"/>
-      <c r="R149" s="304"/>
-      <c r="S149" s="305"/>
-      <c r="T149" s="305"/>
-      <c r="U149" s="306"/>
+      <c r="R149" s="305"/>
+      <c r="S149" s="306"/>
+      <c r="T149" s="306"/>
+      <c r="U149" s="307"/>
     </row>
     <row r="150" spans="2:21" ht="20.25" customHeight="1">
       <c r="B150" s="218"/>
@@ -18686,10 +18753,10 @@
       <c r="N150" s="231"/>
       <c r="O150" s="216"/>
       <c r="P150" s="217"/>
-      <c r="R150" s="304"/>
-      <c r="S150" s="305"/>
-      <c r="T150" s="305"/>
-      <c r="U150" s="306"/>
+      <c r="R150" s="305"/>
+      <c r="S150" s="306"/>
+      <c r="T150" s="306"/>
+      <c r="U150" s="307"/>
     </row>
     <row r="151" spans="2:21" ht="20.25" customHeight="1">
       <c r="B151" s="218"/>
@@ -18707,10 +18774,10 @@
       <c r="N151" s="231"/>
       <c r="O151" s="216"/>
       <c r="P151" s="217"/>
-      <c r="R151" s="304"/>
-      <c r="S151" s="305"/>
-      <c r="T151" s="305"/>
-      <c r="U151" s="306"/>
+      <c r="R151" s="305"/>
+      <c r="S151" s="306"/>
+      <c r="T151" s="306"/>
+      <c r="U151" s="307"/>
     </row>
     <row r="152" spans="2:21" ht="20.25" customHeight="1">
       <c r="B152" s="218"/>
@@ -18728,10 +18795,10 @@
       <c r="N152" s="231"/>
       <c r="O152" s="216"/>
       <c r="P152" s="217"/>
-      <c r="R152" s="304"/>
-      <c r="S152" s="305"/>
-      <c r="T152" s="305"/>
-      <c r="U152" s="306"/>
+      <c r="R152" s="305"/>
+      <c r="S152" s="306"/>
+      <c r="T152" s="306"/>
+      <c r="U152" s="307"/>
     </row>
     <row r="153" spans="2:21" ht="20.25" customHeight="1">
       <c r="B153" s="218"/>
@@ -18749,10 +18816,10 @@
       <c r="N153" s="231"/>
       <c r="O153" s="216"/>
       <c r="P153" s="217"/>
-      <c r="R153" s="304"/>
-      <c r="S153" s="305"/>
-      <c r="T153" s="305"/>
-      <c r="U153" s="306"/>
+      <c r="R153" s="305"/>
+      <c r="S153" s="306"/>
+      <c r="T153" s="306"/>
+      <c r="U153" s="307"/>
     </row>
     <row r="154" spans="2:21" ht="20.25" customHeight="1">
       <c r="B154" s="218"/>
@@ -18770,10 +18837,10 @@
       <c r="N154" s="231"/>
       <c r="O154" s="216"/>
       <c r="P154" s="217"/>
-      <c r="R154" s="304"/>
-      <c r="S154" s="305"/>
-      <c r="T154" s="305"/>
-      <c r="U154" s="306"/>
+      <c r="R154" s="305"/>
+      <c r="S154" s="306"/>
+      <c r="T154" s="306"/>
+      <c r="U154" s="307"/>
     </row>
     <row r="155" spans="2:21" ht="20.25" customHeight="1">
       <c r="B155" s="218"/>
@@ -18791,10 +18858,10 @@
       <c r="N155" s="231"/>
       <c r="O155" s="216"/>
       <c r="P155" s="217"/>
-      <c r="R155" s="304"/>
-      <c r="S155" s="305"/>
-      <c r="T155" s="305"/>
-      <c r="U155" s="306"/>
+      <c r="R155" s="305"/>
+      <c r="S155" s="306"/>
+      <c r="T155" s="306"/>
+      <c r="U155" s="307"/>
     </row>
     <row r="156" spans="2:21" ht="20.25" customHeight="1">
       <c r="B156" s="218"/>
@@ -18812,10 +18879,10 @@
       <c r="N156" s="231"/>
       <c r="O156" s="216"/>
       <c r="P156" s="217"/>
-      <c r="R156" s="304"/>
-      <c r="S156" s="305"/>
-      <c r="T156" s="305"/>
-      <c r="U156" s="306"/>
+      <c r="R156" s="305"/>
+      <c r="S156" s="306"/>
+      <c r="T156" s="306"/>
+      <c r="U156" s="307"/>
     </row>
     <row r="157" spans="2:21" ht="20.25" customHeight="1">
       <c r="B157" s="218"/>
@@ -18833,10 +18900,10 @@
       <c r="N157" s="231"/>
       <c r="O157" s="216"/>
       <c r="P157" s="217"/>
-      <c r="R157" s="304"/>
-      <c r="S157" s="305"/>
-      <c r="T157" s="305"/>
-      <c r="U157" s="306"/>
+      <c r="R157" s="305"/>
+      <c r="S157" s="306"/>
+      <c r="T157" s="306"/>
+      <c r="U157" s="307"/>
     </row>
     <row r="158" spans="2:21" ht="20.25" customHeight="1">
       <c r="B158" s="218"/>
@@ -18854,10 +18921,10 @@
       <c r="N158" s="231"/>
       <c r="O158" s="216"/>
       <c r="P158" s="217"/>
-      <c r="R158" s="304"/>
-      <c r="S158" s="305"/>
-      <c r="T158" s="305"/>
-      <c r="U158" s="306"/>
+      <c r="R158" s="305"/>
+      <c r="S158" s="306"/>
+      <c r="T158" s="306"/>
+      <c r="U158" s="307"/>
     </row>
     <row r="159" spans="2:21" ht="20.25" customHeight="1">
       <c r="B159" s="218"/>
@@ -18875,10 +18942,10 @@
       <c r="N159" s="231"/>
       <c r="O159" s="216"/>
       <c r="P159" s="217"/>
-      <c r="R159" s="304"/>
-      <c r="S159" s="305"/>
-      <c r="T159" s="305"/>
-      <c r="U159" s="306"/>
+      <c r="R159" s="305"/>
+      <c r="S159" s="306"/>
+      <c r="T159" s="306"/>
+      <c r="U159" s="307"/>
     </row>
     <row r="160" spans="2:21" ht="20.25" customHeight="1">
       <c r="B160" s="218"/>
@@ -18896,10 +18963,10 @@
       <c r="N160" s="231"/>
       <c r="O160" s="216"/>
       <c r="P160" s="217"/>
-      <c r="R160" s="304"/>
-      <c r="S160" s="305"/>
-      <c r="T160" s="305"/>
-      <c r="U160" s="306"/>
+      <c r="R160" s="305"/>
+      <c r="S160" s="306"/>
+      <c r="T160" s="306"/>
+      <c r="U160" s="307"/>
     </row>
     <row r="161" spans="2:21" ht="20.25" customHeight="1">
       <c r="B161" s="218"/>
@@ -18917,10 +18984,10 @@
       <c r="N161" s="231"/>
       <c r="O161" s="216"/>
       <c r="P161" s="217"/>
-      <c r="R161" s="304"/>
-      <c r="S161" s="305"/>
-      <c r="T161" s="305"/>
-      <c r="U161" s="306"/>
+      <c r="R161" s="305"/>
+      <c r="S161" s="306"/>
+      <c r="T161" s="306"/>
+      <c r="U161" s="307"/>
     </row>
     <row r="162" spans="2:21" ht="20.25" customHeight="1">
       <c r="B162" s="218"/>
@@ -18938,10 +19005,10 @@
       <c r="N162" s="231"/>
       <c r="O162" s="216"/>
       <c r="P162" s="217"/>
-      <c r="R162" s="304"/>
-      <c r="S162" s="305"/>
-      <c r="T162" s="305"/>
-      <c r="U162" s="306"/>
+      <c r="R162" s="305"/>
+      <c r="S162" s="306"/>
+      <c r="T162" s="306"/>
+      <c r="U162" s="307"/>
     </row>
     <row r="163" spans="2:21" ht="20.25" customHeight="1">
       <c r="B163" s="218"/>
@@ -18959,10 +19026,10 @@
       <c r="N163" s="231"/>
       <c r="O163" s="216"/>
       <c r="P163" s="217"/>
-      <c r="R163" s="304"/>
-      <c r="S163" s="305"/>
-      <c r="T163" s="305"/>
-      <c r="U163" s="306"/>
+      <c r="R163" s="305"/>
+      <c r="S163" s="306"/>
+      <c r="T163" s="306"/>
+      <c r="U163" s="307"/>
     </row>
     <row r="164" spans="2:21" ht="20.25" customHeight="1">
       <c r="B164" s="218"/>
@@ -18980,10 +19047,10 @@
       <c r="N164" s="231"/>
       <c r="O164" s="216"/>
       <c r="P164" s="217"/>
-      <c r="R164" s="304"/>
-      <c r="S164" s="305"/>
-      <c r="T164" s="305"/>
-      <c r="U164" s="306"/>
+      <c r="R164" s="305"/>
+      <c r="S164" s="306"/>
+      <c r="T164" s="306"/>
+      <c r="U164" s="307"/>
     </row>
     <row r="165" spans="2:21" ht="20.25" customHeight="1">
       <c r="B165" s="218"/>
@@ -19001,10 +19068,10 @@
       <c r="N165" s="231"/>
       <c r="O165" s="216"/>
       <c r="P165" s="217"/>
-      <c r="R165" s="304"/>
-      <c r="S165" s="305"/>
-      <c r="T165" s="305"/>
-      <c r="U165" s="306"/>
+      <c r="R165" s="305"/>
+      <c r="S165" s="306"/>
+      <c r="T165" s="306"/>
+      <c r="U165" s="307"/>
     </row>
     <row r="166" spans="2:21" ht="20.25" customHeight="1">
       <c r="B166" s="218"/>
@@ -19022,10 +19089,10 @@
       <c r="N166" s="231"/>
       <c r="O166" s="216"/>
       <c r="P166" s="217"/>
-      <c r="R166" s="304"/>
-      <c r="S166" s="305"/>
-      <c r="T166" s="305"/>
-      <c r="U166" s="306"/>
+      <c r="R166" s="305"/>
+      <c r="S166" s="306"/>
+      <c r="T166" s="306"/>
+      <c r="U166" s="307"/>
     </row>
     <row r="167" spans="2:21" ht="20.25" customHeight="1">
       <c r="B167" s="218"/>
@@ -19043,10 +19110,10 @@
       <c r="N167" s="231"/>
       <c r="O167" s="216"/>
       <c r="P167" s="217"/>
-      <c r="R167" s="304"/>
-      <c r="S167" s="305"/>
-      <c r="T167" s="305"/>
-      <c r="U167" s="306"/>
+      <c r="R167" s="305"/>
+      <c r="S167" s="306"/>
+      <c r="T167" s="306"/>
+      <c r="U167" s="307"/>
     </row>
     <row r="168" spans="2:21" ht="20.25" customHeight="1">
       <c r="B168" s="218"/>
@@ -19064,10 +19131,10 @@
       <c r="N168" s="231"/>
       <c r="O168" s="216"/>
       <c r="P168" s="217"/>
-      <c r="R168" s="304"/>
-      <c r="S168" s="305"/>
-      <c r="T168" s="305"/>
-      <c r="U168" s="306"/>
+      <c r="R168" s="305"/>
+      <c r="S168" s="306"/>
+      <c r="T168" s="306"/>
+      <c r="U168" s="307"/>
     </row>
     <row r="169" spans="2:21" ht="20.25" customHeight="1">
       <c r="B169" s="218"/>
@@ -19085,10 +19152,10 @@
       <c r="N169" s="231"/>
       <c r="O169" s="216"/>
       <c r="P169" s="217"/>
-      <c r="R169" s="304"/>
-      <c r="S169" s="305"/>
-      <c r="T169" s="305"/>
-      <c r="U169" s="306"/>
+      <c r="R169" s="305"/>
+      <c r="S169" s="306"/>
+      <c r="T169" s="306"/>
+      <c r="U169" s="307"/>
     </row>
     <row r="170" spans="2:21" ht="20.25" customHeight="1">
       <c r="B170" s="218"/>
@@ -19106,10 +19173,10 @@
       <c r="N170" s="231"/>
       <c r="O170" s="216"/>
       <c r="P170" s="217"/>
-      <c r="R170" s="304"/>
-      <c r="S170" s="305"/>
-      <c r="T170" s="305"/>
-      <c r="U170" s="306"/>
+      <c r="R170" s="305"/>
+      <c r="S170" s="306"/>
+      <c r="T170" s="306"/>
+      <c r="U170" s="307"/>
     </row>
     <row r="171" spans="2:21" ht="20.25" customHeight="1">
       <c r="B171" s="218"/>
@@ -19127,10 +19194,10 @@
       <c r="N171" s="231"/>
       <c r="O171" s="216"/>
       <c r="P171" s="217"/>
-      <c r="R171" s="304"/>
-      <c r="S171" s="305"/>
-      <c r="T171" s="305"/>
-      <c r="U171" s="306"/>
+      <c r="R171" s="305"/>
+      <c r="S171" s="306"/>
+      <c r="T171" s="306"/>
+      <c r="U171" s="307"/>
     </row>
     <row r="172" spans="2:21" ht="20.25" customHeight="1">
       <c r="B172" s="218"/>
@@ -19148,136 +19215,136 @@
       <c r="N172" s="231"/>
       <c r="O172" s="216"/>
       <c r="P172" s="217"/>
-      <c r="R172" s="304"/>
-      <c r="S172" s="305"/>
-      <c r="T172" s="305"/>
-      <c r="U172" s="306"/>
+      <c r="R172" s="305"/>
+      <c r="S172" s="306"/>
+      <c r="T172" s="306"/>
+      <c r="U172" s="307"/>
     </row>
     <row r="173" spans="2:21" ht="20.25" customHeight="1">
       <c r="B173" s="218"/>
       <c r="C173" s="218"/>
       <c r="D173" s="218"/>
-      <c r="E173" s="219"/>
-      <c r="F173" s="220"/>
-      <c r="G173" s="221"/>
-      <c r="H173" s="219"/>
-      <c r="I173" s="218"/>
-      <c r="J173" s="221"/>
-      <c r="K173" s="219"/>
-      <c r="L173" s="218"/>
-      <c r="M173" s="221"/>
-      <c r="N173" s="219"/>
-      <c r="O173" s="218"/>
-      <c r="P173" s="221"/>
-      <c r="R173" s="304"/>
-      <c r="S173" s="305"/>
-      <c r="T173" s="305"/>
-      <c r="U173" s="306"/>
+      <c r="E173" s="231"/>
+      <c r="F173" s="232"/>
+      <c r="G173" s="217"/>
+      <c r="H173" s="231"/>
+      <c r="I173" s="216"/>
+      <c r="J173" s="217"/>
+      <c r="K173" s="231"/>
+      <c r="L173" s="216"/>
+      <c r="M173" s="217"/>
+      <c r="N173" s="231"/>
+      <c r="O173" s="216"/>
+      <c r="P173" s="217"/>
+      <c r="R173" s="305"/>
+      <c r="S173" s="306"/>
+      <c r="T173" s="306"/>
+      <c r="U173" s="307"/>
     </row>
     <row r="174" spans="2:21" ht="20.25" customHeight="1">
       <c r="B174" s="218"/>
       <c r="C174" s="218"/>
       <c r="D174" s="218"/>
-      <c r="E174" s="222"/>
-      <c r="F174" s="218"/>
-      <c r="G174" s="221"/>
-      <c r="H174" s="222"/>
-      <c r="I174" s="218"/>
-      <c r="J174" s="221"/>
-      <c r="K174" s="222"/>
-      <c r="L174" s="218"/>
-      <c r="M174" s="221"/>
-      <c r="N174" s="222"/>
-      <c r="O174" s="218"/>
-      <c r="P174" s="221"/>
-      <c r="R174" s="304"/>
-      <c r="S174" s="305"/>
-      <c r="T174" s="305"/>
-      <c r="U174" s="306"/>
+      <c r="E174" s="231"/>
+      <c r="F174" s="232"/>
+      <c r="G174" s="217"/>
+      <c r="H174" s="231"/>
+      <c r="I174" s="216"/>
+      <c r="J174" s="217"/>
+      <c r="K174" s="231"/>
+      <c r="L174" s="216"/>
+      <c r="M174" s="217"/>
+      <c r="N174" s="231"/>
+      <c r="O174" s="216"/>
+      <c r="P174" s="217"/>
+      <c r="R174" s="305"/>
+      <c r="S174" s="306"/>
+      <c r="T174" s="306"/>
+      <c r="U174" s="307"/>
     </row>
     <row r="175" spans="2:21" ht="20.25" customHeight="1">
       <c r="B175" s="218"/>
       <c r="C175" s="218"/>
       <c r="D175" s="218"/>
-      <c r="E175" s="222"/>
-      <c r="F175" s="218"/>
-      <c r="G175" s="221"/>
-      <c r="H175" s="222"/>
-      <c r="I175" s="218"/>
-      <c r="J175" s="221"/>
-      <c r="K175" s="222"/>
-      <c r="L175" s="218"/>
-      <c r="M175" s="221"/>
-      <c r="N175" s="222"/>
-      <c r="O175" s="218"/>
-      <c r="P175" s="221"/>
-      <c r="R175" s="304"/>
-      <c r="S175" s="305"/>
-      <c r="T175" s="305"/>
-      <c r="U175" s="306"/>
+      <c r="E175" s="231"/>
+      <c r="F175" s="232"/>
+      <c r="G175" s="217"/>
+      <c r="H175" s="231"/>
+      <c r="I175" s="216"/>
+      <c r="J175" s="217"/>
+      <c r="K175" s="231"/>
+      <c r="L175" s="216"/>
+      <c r="M175" s="217"/>
+      <c r="N175" s="231"/>
+      <c r="O175" s="216"/>
+      <c r="P175" s="217"/>
+      <c r="R175" s="305"/>
+      <c r="S175" s="306"/>
+      <c r="T175" s="306"/>
+      <c r="U175" s="307"/>
     </row>
     <row r="176" spans="2:21" ht="20.25" customHeight="1">
       <c r="B176" s="218"/>
       <c r="C176" s="218"/>
       <c r="D176" s="218"/>
       <c r="E176" s="219"/>
-      <c r="F176" s="223"/>
-      <c r="G176" s="224"/>
+      <c r="F176" s="220"/>
+      <c r="G176" s="221"/>
       <c r="H176" s="219"/>
-      <c r="I176" s="223"/>
-      <c r="J176" s="224"/>
+      <c r="I176" s="218"/>
+      <c r="J176" s="221"/>
       <c r="K176" s="219"/>
-      <c r="L176" s="223"/>
-      <c r="M176" s="224"/>
+      <c r="L176" s="218"/>
+      <c r="M176" s="221"/>
       <c r="N176" s="219"/>
-      <c r="O176" s="223"/>
-      <c r="P176" s="224"/>
-      <c r="R176" s="304"/>
-      <c r="S176" s="305"/>
-      <c r="T176" s="305"/>
-      <c r="U176" s="306"/>
+      <c r="O176" s="218"/>
+      <c r="P176" s="221"/>
+      <c r="R176" s="305"/>
+      <c r="S176" s="306"/>
+      <c r="T176" s="306"/>
+      <c r="U176" s="307"/>
     </row>
     <row r="177" spans="2:21" ht="20.25" customHeight="1">
       <c r="B177" s="218"/>
       <c r="C177" s="218"/>
       <c r="D177" s="218"/>
       <c r="E177" s="222"/>
-      <c r="F177" s="223"/>
-      <c r="G177" s="224"/>
+      <c r="F177" s="218"/>
+      <c r="G177" s="221"/>
       <c r="H177" s="222"/>
-      <c r="I177" s="223"/>
-      <c r="J177" s="224"/>
+      <c r="I177" s="218"/>
+      <c r="J177" s="221"/>
       <c r="K177" s="222"/>
-      <c r="L177" s="223"/>
-      <c r="M177" s="224"/>
+      <c r="L177" s="218"/>
+      <c r="M177" s="221"/>
       <c r="N177" s="222"/>
-      <c r="O177" s="223"/>
-      <c r="P177" s="224"/>
-      <c r="R177" s="304"/>
-      <c r="S177" s="305"/>
-      <c r="T177" s="305"/>
-      <c r="U177" s="306"/>
+      <c r="O177" s="218"/>
+      <c r="P177" s="221"/>
+      <c r="R177" s="305"/>
+      <c r="S177" s="306"/>
+      <c r="T177" s="306"/>
+      <c r="U177" s="307"/>
     </row>
     <row r="178" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B178" s="229"/>
+      <c r="B178" s="218"/>
       <c r="C178" s="218"/>
       <c r="D178" s="218"/>
       <c r="E178" s="222"/>
-      <c r="F178" s="223"/>
-      <c r="G178" s="224"/>
+      <c r="F178" s="218"/>
+      <c r="G178" s="221"/>
       <c r="H178" s="222"/>
-      <c r="I178" s="223"/>
-      <c r="J178" s="224"/>
+      <c r="I178" s="218"/>
+      <c r="J178" s="221"/>
       <c r="K178" s="222"/>
-      <c r="L178" s="223"/>
-      <c r="M178" s="224"/>
+      <c r="L178" s="218"/>
+      <c r="M178" s="221"/>
       <c r="N178" s="222"/>
-      <c r="O178" s="223"/>
-      <c r="P178" s="224"/>
-      <c r="R178" s="304"/>
-      <c r="S178" s="305"/>
-      <c r="T178" s="305"/>
-      <c r="U178" s="306"/>
+      <c r="O178" s="218"/>
+      <c r="P178" s="221"/>
+      <c r="R178" s="305"/>
+      <c r="S178" s="306"/>
+      <c r="T178" s="306"/>
+      <c r="U178" s="307"/>
     </row>
     <row r="179" spans="2:21" ht="20.25" customHeight="1">
       <c r="B179" s="218"/>
@@ -19295,10 +19362,10 @@
       <c r="N179" s="219"/>
       <c r="O179" s="223"/>
       <c r="P179" s="224"/>
-      <c r="R179" s="304"/>
-      <c r="S179" s="305"/>
-      <c r="T179" s="305"/>
-      <c r="U179" s="306"/>
+      <c r="R179" s="305"/>
+      <c r="S179" s="306"/>
+      <c r="T179" s="306"/>
+      <c r="U179" s="307"/>
     </row>
     <row r="180" spans="2:21" ht="20.25" customHeight="1">
       <c r="B180" s="218"/>
@@ -19316,13 +19383,13 @@
       <c r="N180" s="222"/>
       <c r="O180" s="223"/>
       <c r="P180" s="224"/>
-      <c r="R180" s="304"/>
-      <c r="S180" s="305"/>
-      <c r="T180" s="305"/>
-      <c r="U180" s="306"/>
+      <c r="R180" s="305"/>
+      <c r="S180" s="306"/>
+      <c r="T180" s="306"/>
+      <c r="U180" s="307"/>
     </row>
     <row r="181" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B181" s="218"/>
+      <c r="B181" s="229"/>
       <c r="C181" s="218"/>
       <c r="D181" s="218"/>
       <c r="E181" s="222"/>
@@ -19337,10 +19404,10 @@
       <c r="N181" s="222"/>
       <c r="O181" s="223"/>
       <c r="P181" s="224"/>
-      <c r="R181" s="304"/>
-      <c r="S181" s="305"/>
-      <c r="T181" s="305"/>
-      <c r="U181" s="306"/>
+      <c r="R181" s="305"/>
+      <c r="S181" s="306"/>
+      <c r="T181" s="306"/>
+      <c r="U181" s="307"/>
     </row>
     <row r="182" spans="2:21" ht="20.25" customHeight="1">
       <c r="B182" s="218"/>
@@ -19358,60 +19425,129 @@
       <c r="N182" s="219"/>
       <c r="O182" s="223"/>
       <c r="P182" s="224"/>
-      <c r="R182" s="304"/>
-      <c r="S182" s="305"/>
-      <c r="T182" s="305"/>
-      <c r="U182" s="306"/>
-    </row>
-    <row r="183" spans="2:21" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B183" s="225"/>
-      <c r="C183" s="226"/>
-      <c r="D183" s="227"/>
-      <c r="E183" s="230"/>
-      <c r="F183" s="226"/>
-      <c r="G183" s="228"/>
-      <c r="H183" s="230"/>
-      <c r="I183" s="226"/>
-      <c r="J183" s="228"/>
-      <c r="K183" s="230"/>
-      <c r="L183" s="226"/>
-      <c r="M183" s="228"/>
-      <c r="N183" s="230"/>
-      <c r="O183" s="226"/>
-      <c r="P183" s="228"/>
-      <c r="R183" s="307"/>
-      <c r="S183" s="308"/>
-      <c r="T183" s="308"/>
-      <c r="U183" s="309"/>
-    </row>
-    <row r="184" spans="2:21" ht="15.75" customHeight="1">
-      <c r="B184" s="186"/>
-      <c r="C184" s="186"/>
-      <c r="D184" s="186"/>
-      <c r="E184" s="186"/>
-      <c r="F184" s="186"/>
-      <c r="G184" s="186"/>
-      <c r="H184" s="186"/>
-      <c r="I184" s="186"/>
-      <c r="J184" s="186"/>
-      <c r="K184" s="186"/>
-      <c r="L184" s="186"/>
-      <c r="M184" s="186"/>
-      <c r="N184" s="186"/>
-      <c r="O184" s="186"/>
-      <c r="P184" s="186"/>
-      <c r="Q184" s="186"/>
+      <c r="R182" s="305"/>
+      <c r="S182" s="306"/>
+      <c r="T182" s="306"/>
+      <c r="U182" s="307"/>
+    </row>
+    <row r="183" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B183" s="218"/>
+      <c r="C183" s="218"/>
+      <c r="D183" s="218"/>
+      <c r="E183" s="222"/>
+      <c r="F183" s="223"/>
+      <c r="G183" s="224"/>
+      <c r="H183" s="222"/>
+      <c r="I183" s="223"/>
+      <c r="J183" s="224"/>
+      <c r="K183" s="222"/>
+      <c r="L183" s="223"/>
+      <c r="M183" s="224"/>
+      <c r="N183" s="222"/>
+      <c r="O183" s="223"/>
+      <c r="P183" s="224"/>
+      <c r="R183" s="305"/>
+      <c r="S183" s="306"/>
+      <c r="T183" s="306"/>
+      <c r="U183" s="307"/>
+    </row>
+    <row r="184" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B184" s="218"/>
+      <c r="C184" s="218"/>
+      <c r="D184" s="218"/>
+      <c r="E184" s="222"/>
+      <c r="F184" s="223"/>
+      <c r="G184" s="224"/>
+      <c r="H184" s="222"/>
+      <c r="I184" s="223"/>
+      <c r="J184" s="224"/>
+      <c r="K184" s="222"/>
+      <c r="L184" s="223"/>
+      <c r="M184" s="224"/>
+      <c r="N184" s="222"/>
+      <c r="O184" s="223"/>
+      <c r="P184" s="224"/>
+      <c r="R184" s="305"/>
+      <c r="S184" s="306"/>
+      <c r="T184" s="306"/>
+      <c r="U184" s="307"/>
+    </row>
+    <row r="185" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B185" s="218"/>
+      <c r="C185" s="218"/>
+      <c r="D185" s="218"/>
+      <c r="E185" s="219"/>
+      <c r="F185" s="223"/>
+      <c r="G185" s="224"/>
+      <c r="H185" s="219"/>
+      <c r="I185" s="223"/>
+      <c r="J185" s="224"/>
+      <c r="K185" s="219"/>
+      <c r="L185" s="223"/>
+      <c r="M185" s="224"/>
+      <c r="N185" s="219"/>
+      <c r="O185" s="223"/>
+      <c r="P185" s="224"/>
+      <c r="R185" s="305"/>
+      <c r="S185" s="306"/>
+      <c r="T185" s="306"/>
+      <c r="U185" s="307"/>
+    </row>
+    <row r="186" spans="2:21" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B186" s="225"/>
+      <c r="C186" s="226"/>
+      <c r="D186" s="227"/>
+      <c r="E186" s="230"/>
+      <c r="F186" s="226"/>
+      <c r="G186" s="228"/>
+      <c r="H186" s="230"/>
+      <c r="I186" s="226"/>
+      <c r="J186" s="228"/>
+      <c r="K186" s="230"/>
+      <c r="L186" s="226"/>
+      <c r="M186" s="228"/>
+      <c r="N186" s="230"/>
+      <c r="O186" s="226"/>
+      <c r="P186" s="228"/>
+      <c r="R186" s="308"/>
+      <c r="S186" s="309"/>
+      <c r="T186" s="309"/>
+      <c r="U186" s="310"/>
+    </row>
+    <row r="187" spans="2:21" ht="15.75" customHeight="1">
+      <c r="B187" s="186"/>
+      <c r="C187" s="186"/>
+      <c r="D187" s="186"/>
+      <c r="E187" s="186"/>
+      <c r="F187" s="186"/>
+      <c r="G187" s="186"/>
+      <c r="H187" s="186"/>
+      <c r="I187" s="186"/>
+      <c r="J187" s="186"/>
+      <c r="K187" s="186"/>
+      <c r="L187" s="186"/>
+      <c r="M187" s="186"/>
+      <c r="N187" s="186"/>
+      <c r="O187" s="186"/>
+      <c r="P187" s="186"/>
+      <c r="Q187" s="186"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="H3:P3"/>
-    <mergeCell ref="R6:U183"/>
+    <mergeCell ref="R6:U186"/>
   </mergeCells>
-  <conditionalFormatting sqref="B12:B182 D12:D182 C12:C189">
-    <cfRule type="expression" dxfId="0" priority="1">
+  <conditionalFormatting sqref="B12:B185 D12:D185 C12:C25 C27:C192">
+    <cfRule type="expression" dxfId="1" priority="1">
       <formula>IF((B12&lt;&gt;"")*AND(F12&lt;&gt;""),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>IF((C26&lt;&gt;"")*AND(G27&lt;&gt;""),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/chiffrier_sim_vie.xlsx
+++ b/doc/chiffrier_sim_vie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\travail\sim_vie\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E246FD2D-A955-4A07-A5F8-90D675EEAA16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27425D42-986F-4C75-AECB-727442574D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Méthodes SCRUM" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="645">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="654">
   <si>
     <t>Chiffrier de documentation de projets</t>
   </si>
@@ -2160,9 +2160,6 @@
     <t>01/12/2025</t>
   </si>
   <si>
-    <t>Implémenter jauge besoins (envie de reproduction, faim, énergie) :</t>
-  </si>
-  <si>
     <t>fonction du calcul de la santé (fonction quadratique, avec sommet, origine)</t>
   </si>
   <si>
@@ -2173,6 +2170,36 @@
   </si>
   <si>
     <t>Mario</t>
+  </si>
+  <si>
+    <t>implémenter la santé à sa fonction pour que le valeur se mette à jour à chaque cycle</t>
+  </si>
+  <si>
+    <t>Implémenter jauge besoins (envie de reproduction, faim, énergie, santé) :</t>
+  </si>
+  <si>
+    <t>Détection des cliques sur un organisme pour afficher ses infos</t>
+  </si>
+  <si>
+    <t>Ajout d'un onglet pour les infos d'un organisme (jauges santé, repro, faim, énergie)</t>
+  </si>
+  <si>
+    <t>Guillaume</t>
+  </si>
+  <si>
+    <t>Jauge envie reproduction</t>
+  </si>
+  <si>
+    <t>fonction calculant l'envie de reproduction selon la jauge santé</t>
+  </si>
+  <si>
+    <t>implémenter la jauge pour que le valeur se mette à jour à chaque cycle</t>
+  </si>
+  <si>
+    <t>implémenter la jauge pour que sa valeur se mette à jour à chaque cycle (linéaire)</t>
+  </si>
+  <si>
+    <t>Yanis</t>
   </si>
 </sst>
 </file>
@@ -3444,7 +3471,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="313">
+  <cellXfs count="315">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3970,6 +3997,10 @@
     <xf numFmtId="164" fontId="29" fillId="4" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4000,20 +4031,93 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4042,84 +4146,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4130,18 +4170,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4175,12 +4206,72 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4905,22 +4996,22 @@
       </c>
     </row>
     <row r="36" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F36" s="243"/>
-      <c r="G36" s="244"/>
-      <c r="H36" s="244"/>
-      <c r="I36" s="244"/>
+      <c r="F36" s="245"/>
+      <c r="G36" s="246"/>
+      <c r="H36" s="246"/>
+      <c r="I36" s="246"/>
     </row>
     <row r="37" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F37" s="244"/>
-      <c r="G37" s="244"/>
-      <c r="H37" s="244"/>
-      <c r="I37" s="244"/>
+      <c r="F37" s="246"/>
+      <c r="G37" s="246"/>
+      <c r="H37" s="246"/>
+      <c r="I37" s="246"/>
     </row>
     <row r="38" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F38" s="244"/>
-      <c r="G38" s="244"/>
-      <c r="H38" s="244"/>
-      <c r="I38" s="244"/>
+      <c r="F38" s="246"/>
+      <c r="G38" s="246"/>
+      <c r="H38" s="246"/>
+      <c r="I38" s="246"/>
     </row>
     <row r="39" spans="6:9" ht="17.25" customHeight="1">
       <c r="F39" s="29"/>
@@ -4929,22 +5020,22 @@
       <c r="I39" s="29"/>
     </row>
     <row r="40" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F40" s="243"/>
-      <c r="G40" s="244"/>
-      <c r="H40" s="244"/>
-      <c r="I40" s="244"/>
+      <c r="F40" s="245"/>
+      <c r="G40" s="246"/>
+      <c r="H40" s="246"/>
+      <c r="I40" s="246"/>
     </row>
     <row r="41" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F41" s="244"/>
-      <c r="G41" s="244"/>
-      <c r="H41" s="244"/>
-      <c r="I41" s="244"/>
+      <c r="F41" s="246"/>
+      <c r="G41" s="246"/>
+      <c r="H41" s="246"/>
+      <c r="I41" s="246"/>
     </row>
     <row r="42" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F42" s="244"/>
-      <c r="G42" s="244"/>
-      <c r="H42" s="244"/>
-      <c r="I42" s="244"/>
+      <c r="F42" s="246"/>
+      <c r="G42" s="246"/>
+      <c r="H42" s="246"/>
+      <c r="I42" s="246"/>
     </row>
     <row r="43" spans="6:9" ht="17.25" customHeight="1">
       <c r="F43" s="29"/>
@@ -4959,34 +5050,34 @@
       <c r="I44" s="29"/>
     </row>
     <row r="45" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F45" s="243"/>
-      <c r="G45" s="244"/>
-      <c r="H45" s="244"/>
-      <c r="I45" s="244"/>
+      <c r="F45" s="245"/>
+      <c r="G45" s="246"/>
+      <c r="H45" s="246"/>
+      <c r="I45" s="246"/>
     </row>
     <row r="46" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F46" s="244"/>
-      <c r="G46" s="244"/>
-      <c r="H46" s="244"/>
-      <c r="I46" s="244"/>
+      <c r="F46" s="246"/>
+      <c r="G46" s="246"/>
+      <c r="H46" s="246"/>
+      <c r="I46" s="246"/>
     </row>
     <row r="47" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F47" s="244"/>
-      <c r="G47" s="244"/>
-      <c r="H47" s="244"/>
-      <c r="I47" s="244"/>
+      <c r="F47" s="246"/>
+      <c r="G47" s="246"/>
+      <c r="H47" s="246"/>
+      <c r="I47" s="246"/>
     </row>
     <row r="48" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F48" s="244"/>
-      <c r="G48" s="244"/>
-      <c r="H48" s="244"/>
-      <c r="I48" s="244"/>
+      <c r="F48" s="246"/>
+      <c r="G48" s="246"/>
+      <c r="H48" s="246"/>
+      <c r="I48" s="246"/>
     </row>
     <row r="49" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F49" s="244"/>
-      <c r="G49" s="244"/>
-      <c r="H49" s="244"/>
-      <c r="I49" s="244"/>
+      <c r="F49" s="246"/>
+      <c r="G49" s="246"/>
+      <c r="H49" s="246"/>
+      <c r="I49" s="246"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5126,7 +5217,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B13" s="245" t="s">
+      <c r="B13" s="247" t="s">
         <v>60</v>
       </c>
       <c r="C13" s="49"/>
@@ -5135,7 +5226,7 @@
       <c r="H13" s="70"/>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B14" s="246"/>
+      <c r="B14" s="248"/>
       <c r="C14" s="50" t="s">
         <v>104</v>
       </c>
@@ -5148,13 +5239,13 @@
       <c r="H14" s="70"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B15" s="246"/>
+      <c r="B15" s="248"/>
       <c r="C15" s="53"/>
       <c r="D15" s="51"/>
       <c r="E15" s="52"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B16" s="246"/>
+      <c r="B16" s="248"/>
       <c r="C16" s="63" t="s">
         <v>171</v>
       </c>
@@ -5166,7 +5257,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B17" s="247"/>
+      <c r="B17" s="249"/>
       <c r="C17" s="53" t="s">
         <v>101</v>
       </c>
@@ -5174,7 +5265,7 @@
       <c r="E17" s="52"/>
     </row>
     <row r="18" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B18" s="247"/>
+      <c r="B18" s="249"/>
       <c r="C18" s="63" t="s">
         <v>172</v>
       </c>
@@ -5184,13 +5275,13 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B19" s="247"/>
+      <c r="B19" s="249"/>
       <c r="C19" s="53"/>
       <c r="D19" s="51"/>
       <c r="E19" s="52"/>
     </row>
     <row r="20" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B20" s="247"/>
+      <c r="B20" s="249"/>
       <c r="C20" s="50" t="s">
         <v>105</v>
       </c>
@@ -5202,13 +5293,13 @@
       </c>
     </row>
     <row r="21" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B21" s="247"/>
+      <c r="B21" s="249"/>
       <c r="C21" s="53"/>
       <c r="D21" s="51"/>
       <c r="E21" s="52"/>
     </row>
     <row r="22" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B22" s="247"/>
+      <c r="B22" s="249"/>
       <c r="C22" s="63" t="s">
         <v>174</v>
       </c>
@@ -5220,7 +5311,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B23" s="247"/>
+      <c r="B23" s="249"/>
       <c r="C23" s="68" t="s">
         <v>110</v>
       </c>
@@ -5232,7 +5323,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B24" s="247"/>
+      <c r="B24" s="249"/>
       <c r="C24" s="53"/>
       <c r="D24" s="64" t="s">
         <v>176</v>
@@ -5240,7 +5331,7 @@
       <c r="E24" s="65"/>
     </row>
     <row r="25" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B25" s="247"/>
+      <c r="B25" s="249"/>
       <c r="C25" s="63"/>
       <c r="D25" s="64" t="s">
         <v>113</v>
@@ -5248,7 +5339,7 @@
       <c r="E25" s="65"/>
     </row>
     <row r="26" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B26" s="247"/>
+      <c r="B26" s="249"/>
       <c r="C26" s="63" t="s">
         <v>114</v>
       </c>
@@ -5258,7 +5349,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B27" s="247"/>
+      <c r="B27" s="249"/>
       <c r="C27" s="63" t="s">
         <v>116</v>
       </c>
@@ -5268,13 +5359,13 @@
       </c>
     </row>
     <row r="28" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B28" s="247"/>
+      <c r="B28" s="249"/>
       <c r="C28" s="53"/>
       <c r="D28" s="51"/>
       <c r="E28" s="52"/>
     </row>
     <row r="29" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B29" s="247"/>
+      <c r="B29" s="249"/>
       <c r="C29" s="50" t="s">
         <v>118</v>
       </c>
@@ -5282,13 +5373,13 @@
       <c r="E29" s="52"/>
     </row>
     <row r="30" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B30" s="247"/>
+      <c r="B30" s="249"/>
       <c r="C30" s="53"/>
       <c r="D30" s="51"/>
       <c r="E30" s="52"/>
     </row>
     <row r="31" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B31" s="247"/>
+      <c r="B31" s="249"/>
       <c r="C31" s="63" t="s">
         <v>119</v>
       </c>
@@ -5298,7 +5389,7 @@
       <c r="E31" s="52"/>
     </row>
     <row r="32" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B32" s="247"/>
+      <c r="B32" s="249"/>
       <c r="C32" s="63" t="s">
         <v>120</v>
       </c>
@@ -5306,7 +5397,7 @@
       <c r="E32" s="52"/>
     </row>
     <row r="33" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B33" s="247"/>
+      <c r="B33" s="249"/>
       <c r="C33" s="63" t="s">
         <v>121</v>
       </c>
@@ -5314,7 +5405,7 @@
       <c r="E33" s="52"/>
     </row>
     <row r="34" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B34" s="247"/>
+      <c r="B34" s="249"/>
       <c r="C34" s="63" t="s">
         <v>122</v>
       </c>
@@ -5322,7 +5413,7 @@
       <c r="E34" s="52"/>
     </row>
     <row r="35" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B35" s="247"/>
+      <c r="B35" s="249"/>
       <c r="C35" s="63" t="s">
         <v>123</v>
       </c>
@@ -5330,13 +5421,13 @@
       <c r="E35" s="52"/>
     </row>
     <row r="36" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B36" s="247"/>
+      <c r="B36" s="249"/>
       <c r="C36" s="63"/>
       <c r="D36" s="64"/>
       <c r="E36" s="52"/>
     </row>
     <row r="37" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B37" s="247"/>
+      <c r="B37" s="249"/>
       <c r="C37" s="63" t="s">
         <v>177</v>
       </c>
@@ -5344,7 +5435,7 @@
       <c r="E37" s="52"/>
     </row>
     <row r="38" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B38" s="247"/>
+      <c r="B38" s="249"/>
       <c r="C38" s="63" t="s">
         <v>127</v>
       </c>
@@ -5352,7 +5443,7 @@
       <c r="E38" s="52"/>
     </row>
     <row r="39" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B39" s="247"/>
+      <c r="B39" s="249"/>
       <c r="C39" s="63" t="s">
         <v>125</v>
       </c>
@@ -5362,13 +5453,13 @@
       </c>
     </row>
     <row r="40" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B40" s="247"/>
+      <c r="B40" s="249"/>
       <c r="C40" s="63"/>
       <c r="D40" s="51"/>
       <c r="E40" s="52"/>
     </row>
     <row r="41" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B41" s="247"/>
+      <c r="B41" s="249"/>
       <c r="C41" s="50" t="s">
         <v>128</v>
       </c>
@@ -5376,13 +5467,13 @@
       <c r="E41" s="52"/>
     </row>
     <row r="42" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B42" s="247"/>
+      <c r="B42" s="249"/>
       <c r="C42" s="63"/>
       <c r="D42" s="51"/>
       <c r="E42" s="52"/>
     </row>
     <row r="43" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B43" s="247"/>
+      <c r="B43" s="249"/>
       <c r="C43" s="63" t="s">
         <v>129</v>
       </c>
@@ -5390,7 +5481,7 @@
       <c r="E43" s="52"/>
     </row>
     <row r="44" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B44" s="247"/>
+      <c r="B44" s="249"/>
       <c r="C44" s="63" t="s">
         <v>101</v>
       </c>
@@ -5400,7 +5491,7 @@
       <c r="E44" s="52"/>
     </row>
     <row r="45" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B45" s="247"/>
+      <c r="B45" s="249"/>
       <c r="C45" s="63" t="s">
         <v>131</v>
       </c>
@@ -5410,7 +5501,7 @@
       <c r="E45" s="52"/>
     </row>
     <row r="46" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B46" s="247"/>
+      <c r="B46" s="249"/>
       <c r="C46" s="63" t="s">
         <v>133</v>
       </c>
@@ -5420,7 +5511,7 @@
       <c r="E46" s="52"/>
     </row>
     <row r="47" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B47" s="247"/>
+      <c r="B47" s="249"/>
       <c r="C47" s="63" t="s">
         <v>135</v>
       </c>
@@ -5430,7 +5521,7 @@
       </c>
     </row>
     <row r="48" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B48" s="247"/>
+      <c r="B48" s="249"/>
       <c r="C48" s="68" t="s">
         <v>137</v>
       </c>
@@ -5438,7 +5529,7 @@
       <c r="E48" s="52"/>
     </row>
     <row r="49" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B49" s="247"/>
+      <c r="B49" s="249"/>
       <c r="C49" s="68" t="s">
         <v>138</v>
       </c>
@@ -5446,13 +5537,13 @@
       <c r="E49" s="52"/>
     </row>
     <row r="50" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B50" s="247"/>
+      <c r="B50" s="249"/>
       <c r="C50" s="63"/>
       <c r="D50" s="51"/>
       <c r="E50" s="52"/>
     </row>
     <row r="51" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B51" s="247"/>
+      <c r="B51" s="249"/>
       <c r="C51" s="50" t="s">
         <v>139</v>
       </c>
@@ -5460,13 +5551,13 @@
       <c r="E51" s="52"/>
     </row>
     <row r="52" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B52" s="247"/>
+      <c r="B52" s="249"/>
       <c r="C52" s="63"/>
       <c r="D52" s="51"/>
       <c r="E52" s="52"/>
     </row>
     <row r="53" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B53" s="247"/>
+      <c r="B53" s="249"/>
       <c r="C53" s="63" t="s">
         <v>140</v>
       </c>
@@ -5476,7 +5567,7 @@
       </c>
     </row>
     <row r="54" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B54" s="247"/>
+      <c r="B54" s="249"/>
       <c r="C54" s="63" t="s">
         <v>142</v>
       </c>
@@ -5484,7 +5575,7 @@
       <c r="E54" s="52"/>
     </row>
     <row r="55" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B55" s="247"/>
+      <c r="B55" s="249"/>
       <c r="C55" s="63" t="s">
         <v>143</v>
       </c>
@@ -5492,7 +5583,7 @@
       <c r="E55" s="52"/>
     </row>
     <row r="56" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B56" s="247"/>
+      <c r="B56" s="249"/>
       <c r="C56" s="63" t="s">
         <v>144</v>
       </c>
@@ -5500,7 +5591,7 @@
       <c r="E56" s="52"/>
     </row>
     <row r="57" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B57" s="247"/>
+      <c r="B57" s="249"/>
       <c r="C57" s="63" t="s">
         <v>145</v>
       </c>
@@ -5508,7 +5599,7 @@
       <c r="E57" s="52"/>
     </row>
     <row r="58" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B58" s="247"/>
+      <c r="B58" s="249"/>
       <c r="C58" s="63" t="s">
         <v>146</v>
       </c>
@@ -5518,7 +5609,7 @@
       <c r="E58" s="52"/>
     </row>
     <row r="59" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B59" s="247"/>
+      <c r="B59" s="249"/>
       <c r="C59" s="63" t="s">
         <v>138</v>
       </c>
@@ -5528,7 +5619,7 @@
       <c r="E59" s="52"/>
     </row>
     <row r="60" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B60" s="247"/>
+      <c r="B60" s="249"/>
       <c r="C60" s="63" t="s">
         <v>149</v>
       </c>
@@ -5536,7 +5627,7 @@
       <c r="E60" s="52"/>
     </row>
     <row r="61" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B61" s="247"/>
+      <c r="B61" s="249"/>
       <c r="C61" s="63" t="s">
         <v>150</v>
       </c>
@@ -5546,7 +5637,7 @@
       </c>
     </row>
     <row r="62" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B62" s="247"/>
+      <c r="B62" s="249"/>
       <c r="C62" s="63" t="s">
         <v>152</v>
       </c>
@@ -5554,13 +5645,13 @@
       <c r="E62" s="52"/>
     </row>
     <row r="63" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B63" s="247"/>
+      <c r="B63" s="249"/>
       <c r="C63" s="63"/>
       <c r="D63" s="51"/>
       <c r="E63" s="52"/>
     </row>
     <row r="64" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B64" s="247"/>
+      <c r="B64" s="249"/>
       <c r="C64" s="50" t="s">
         <v>153</v>
       </c>
@@ -5568,13 +5659,13 @@
       <c r="E64" s="52"/>
     </row>
     <row r="65" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B65" s="247"/>
+      <c r="B65" s="249"/>
       <c r="C65" s="63"/>
       <c r="D65" s="51"/>
       <c r="E65" s="52"/>
     </row>
     <row r="66" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B66" s="247"/>
+      <c r="B66" s="249"/>
       <c r="C66" s="63" t="s">
         <v>155</v>
       </c>
@@ -5582,7 +5673,7 @@
       <c r="E66" s="52"/>
     </row>
     <row r="67" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B67" s="247"/>
+      <c r="B67" s="249"/>
       <c r="C67" s="63" t="s">
         <v>156</v>
       </c>
@@ -5590,7 +5681,7 @@
       <c r="E67" s="52"/>
     </row>
     <row r="68" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B68" s="247"/>
+      <c r="B68" s="249"/>
       <c r="C68" s="63" t="s">
         <v>154</v>
       </c>
@@ -5598,7 +5689,7 @@
       <c r="E68" s="52"/>
     </row>
     <row r="69" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B69" s="247"/>
+      <c r="B69" s="249"/>
       <c r="C69" s="63" t="s">
         <v>157</v>
       </c>
@@ -5606,25 +5697,25 @@
       <c r="E69" s="52"/>
     </row>
     <row r="70" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B70" s="247"/>
+      <c r="B70" s="249"/>
       <c r="C70" s="63"/>
       <c r="D70" s="51"/>
       <c r="E70" s="52"/>
     </row>
     <row r="71" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B71" s="247"/>
+      <c r="B71" s="249"/>
       <c r="C71" s="63"/>
       <c r="D71" s="51"/>
       <c r="E71" s="52"/>
     </row>
     <row r="72" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B72" s="248"/>
+      <c r="B72" s="250"/>
       <c r="C72" s="54"/>
       <c r="D72" s="55"/>
       <c r="E72" s="56"/>
     </row>
     <row r="73" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B73" s="245" t="s">
+      <c r="B73" s="247" t="s">
         <v>61</v>
       </c>
       <c r="C73" s="63"/>
@@ -5636,7 +5727,7 @@
       </c>
     </row>
     <row r="74" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B74" s="247"/>
+      <c r="B74" s="249"/>
       <c r="C74" s="63" t="s">
         <v>188</v>
       </c>
@@ -5648,7 +5739,7 @@
       </c>
     </row>
     <row r="75" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B75" s="247"/>
+      <c r="B75" s="249"/>
       <c r="C75" s="53"/>
       <c r="D75" s="64" t="s">
         <v>162</v>
@@ -5658,7 +5749,7 @@
       </c>
     </row>
     <row r="76" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B76" s="247"/>
+      <c r="B76" s="249"/>
       <c r="C76" s="53"/>
       <c r="D76" s="51" t="s">
         <v>102</v>
@@ -5668,7 +5759,7 @@
       </c>
     </row>
     <row r="77" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B77" s="247"/>
+      <c r="B77" s="249"/>
       <c r="C77" s="53"/>
       <c r="D77" s="51" t="s">
         <v>103</v>
@@ -5678,7 +5769,7 @@
       </c>
     </row>
     <row r="78" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B78" s="247"/>
+      <c r="B78" s="249"/>
       <c r="C78" s="53"/>
       <c r="D78" s="64" t="s">
         <v>106</v>
@@ -5688,7 +5779,7 @@
       </c>
     </row>
     <row r="79" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B79" s="247"/>
+      <c r="B79" s="249"/>
       <c r="C79" s="53"/>
       <c r="D79" s="64" t="s">
         <v>179</v>
@@ -5698,7 +5789,7 @@
       </c>
     </row>
     <row r="80" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B80" s="247"/>
+      <c r="B80" s="249"/>
       <c r="C80" s="53"/>
       <c r="D80" s="64" t="s">
         <v>158</v>
@@ -5708,7 +5799,7 @@
       </c>
     </row>
     <row r="81" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B81" s="247"/>
+      <c r="B81" s="249"/>
       <c r="C81" s="53"/>
       <c r="D81" s="64" t="s">
         <v>159</v>
@@ -5718,7 +5809,7 @@
       </c>
     </row>
     <row r="82" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B82" s="247"/>
+      <c r="B82" s="249"/>
       <c r="C82" s="53"/>
       <c r="D82" s="64" t="s">
         <v>160</v>
@@ -5728,7 +5819,7 @@
       </c>
     </row>
     <row r="83" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B83" s="247"/>
+      <c r="B83" s="249"/>
       <c r="C83" s="63"/>
       <c r="D83" s="64" t="s">
         <v>180</v>
@@ -5738,7 +5829,7 @@
       </c>
     </row>
     <row r="84" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B84" s="247"/>
+      <c r="B84" s="249"/>
       <c r="C84" s="63"/>
       <c r="D84" s="64" t="s">
         <v>181</v>
@@ -5748,7 +5839,7 @@
       </c>
     </row>
     <row r="85" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B85" s="247"/>
+      <c r="B85" s="249"/>
       <c r="C85" s="53"/>
       <c r="D85" s="64" t="s">
         <v>182</v>
@@ -5758,7 +5849,7 @@
       </c>
     </row>
     <row r="86" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B86" s="247"/>
+      <c r="B86" s="249"/>
       <c r="C86" s="53"/>
       <c r="D86" s="64" t="s">
         <v>184</v>
@@ -5768,7 +5859,7 @@
       </c>
     </row>
     <row r="87" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B87" s="247"/>
+      <c r="B87" s="249"/>
       <c r="C87" s="53"/>
       <c r="D87" s="64" t="s">
         <v>193</v>
@@ -5778,7 +5869,7 @@
       </c>
     </row>
     <row r="88" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B88" s="247"/>
+      <c r="B88" s="249"/>
       <c r="C88" s="53"/>
       <c r="D88" s="64" t="s">
         <v>194</v>
@@ -5788,13 +5879,13 @@
       </c>
     </row>
     <row r="89" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B89" s="248"/>
+      <c r="B89" s="250"/>
       <c r="C89" s="54"/>
       <c r="D89" s="55"/>
       <c r="E89" s="56"/>
     </row>
     <row r="90" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B90" s="245" t="s">
+      <c r="B90" s="247" t="s">
         <v>62</v>
       </c>
       <c r="C90" s="57"/>
@@ -5802,7 +5893,7 @@
       <c r="E90" s="59"/>
     </row>
     <row r="91" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B91" s="247"/>
+      <c r="B91" s="249"/>
       <c r="C91" s="63" t="s">
         <v>189</v>
       </c>
@@ -5810,7 +5901,7 @@
       <c r="E91" s="52"/>
     </row>
     <row r="92" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B92" s="247"/>
+      <c r="B92" s="249"/>
       <c r="C92" s="63" t="s">
         <v>190</v>
       </c>
@@ -5818,7 +5909,7 @@
       <c r="E92" s="52"/>
     </row>
     <row r="93" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B93" s="247"/>
+      <c r="B93" s="249"/>
       <c r="C93" s="53" t="s">
         <v>191</v>
       </c>
@@ -5826,37 +5917,37 @@
       <c r="E93" s="52"/>
     </row>
     <row r="94" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B94" s="247"/>
+      <c r="B94" s="249"/>
       <c r="C94" s="53"/>
       <c r="D94" s="51"/>
       <c r="E94" s="52"/>
     </row>
     <row r="95" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B95" s="247"/>
+      <c r="B95" s="249"/>
       <c r="C95" s="53"/>
       <c r="D95" s="51"/>
       <c r="E95" s="52"/>
     </row>
     <row r="96" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B96" s="247"/>
+      <c r="B96" s="249"/>
       <c r="C96" s="53"/>
       <c r="D96" s="51"/>
       <c r="E96" s="52"/>
     </row>
     <row r="97" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B97" s="247"/>
+      <c r="B97" s="249"/>
       <c r="C97" s="53"/>
       <c r="D97" s="51"/>
       <c r="E97" s="52"/>
     </row>
     <row r="98" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B98" s="247"/>
+      <c r="B98" s="249"/>
       <c r="C98" s="53"/>
       <c r="D98" s="51"/>
       <c r="E98" s="52"/>
     </row>
     <row r="99" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B99" s="248"/>
+      <c r="B99" s="250"/>
       <c r="C99" s="60"/>
       <c r="D99" s="61"/>
       <c r="E99" s="62"/>
@@ -5919,11 +6010,11 @@
         <v>476</v>
       </c>
       <c r="C3" s="106"/>
-      <c r="D3" s="249" t="s">
+      <c r="D3" s="251" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="250"/>
-      <c r="F3" s="251"/>
+      <c r="E3" s="252"/>
+      <c r="F3" s="253"/>
       <c r="H3" s="75"/>
     </row>
     <row r="4" spans="1:8" s="76" customFormat="1" ht="30.75" customHeight="1">
@@ -5931,11 +6022,11 @@
         <v>477</v>
       </c>
       <c r="C4" s="106"/>
-      <c r="D4" s="252" t="s">
+      <c r="D4" s="254" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="250"/>
-      <c r="F4" s="251"/>
+      <c r="E4" s="252"/>
+      <c r="F4" s="253"/>
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1">
       <c r="A5" s="156" t="s">
@@ -7209,8 +7300,8 @@
   </sheetPr>
   <dimension ref="A1:DC42"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q43" sqref="Q43"/>
+    <sheetView topLeftCell="P3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="CF49" sqref="CF49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -7399,16 +7490,16 @@
       <c r="W10" s="29"/>
     </row>
     <row r="11" spans="1:107" thickBot="1">
-      <c r="G11" s="279" t="s">
+      <c r="G11" s="261" t="s">
         <v>324</v>
       </c>
-      <c r="H11" s="280"/>
-      <c r="I11" s="280"/>
-      <c r="J11" s="280"/>
-      <c r="K11" s="280"/>
-      <c r="L11" s="280"/>
-      <c r="M11" s="280"/>
-      <c r="N11" s="281"/>
+      <c r="H11" s="262"/>
+      <c r="I11" s="262"/>
+      <c r="J11" s="262"/>
+      <c r="K11" s="262"/>
+      <c r="L11" s="262"/>
+      <c r="M11" s="262"/>
+      <c r="N11" s="263"/>
       <c r="O11" s="48"/>
       <c r="P11" s="39"/>
       <c r="Q11" s="39"/>
@@ -7446,66 +7537,66 @@
       <c r="AW11" s="47"/>
       <c r="AX11" s="113"/>
       <c r="AY11" s="115"/>
-      <c r="BD11" s="279" t="s">
+      <c r="BD11" s="261" t="s">
         <v>324</v>
       </c>
-      <c r="BE11" s="280"/>
-      <c r="BF11" s="280"/>
-      <c r="BG11" s="280"/>
-      <c r="BH11" s="280"/>
-      <c r="BI11" s="280"/>
-      <c r="BJ11" s="280"/>
-      <c r="BK11" s="281"/>
-      <c r="BP11" s="279" t="s">
+      <c r="BE11" s="262"/>
+      <c r="BF11" s="262"/>
+      <c r="BG11" s="262"/>
+      <c r="BH11" s="262"/>
+      <c r="BI11" s="262"/>
+      <c r="BJ11" s="262"/>
+      <c r="BK11" s="263"/>
+      <c r="BP11" s="261" t="s">
         <v>324</v>
       </c>
-      <c r="BQ11" s="280"/>
-      <c r="BR11" s="280"/>
-      <c r="BS11" s="280"/>
-      <c r="BT11" s="280"/>
-      <c r="BU11" s="280"/>
-      <c r="BV11" s="280"/>
-      <c r="BW11" s="281"/>
-      <c r="CA11" s="279" t="s">
+      <c r="BQ11" s="262"/>
+      <c r="BR11" s="262"/>
+      <c r="BS11" s="262"/>
+      <c r="BT11" s="262"/>
+      <c r="BU11" s="262"/>
+      <c r="BV11" s="262"/>
+      <c r="BW11" s="263"/>
+      <c r="CA11" s="261" t="s">
         <v>324</v>
       </c>
-      <c r="CB11" s="280"/>
-      <c r="CC11" s="280"/>
-      <c r="CD11" s="280"/>
-      <c r="CE11" s="280"/>
-      <c r="CF11" s="280"/>
-      <c r="CG11" s="280"/>
-      <c r="CH11" s="281"/>
-      <c r="CL11" s="279" t="s">
+      <c r="CB11" s="262"/>
+      <c r="CC11" s="262"/>
+      <c r="CD11" s="262"/>
+      <c r="CE11" s="262"/>
+      <c r="CF11" s="262"/>
+      <c r="CG11" s="262"/>
+      <c r="CH11" s="263"/>
+      <c r="CL11" s="261" t="s">
         <v>324</v>
       </c>
-      <c r="CM11" s="280"/>
-      <c r="CN11" s="280"/>
-      <c r="CO11" s="280"/>
-      <c r="CP11" s="280"/>
-      <c r="CQ11" s="280"/>
-      <c r="CR11" s="280"/>
-      <c r="CS11" s="281"/>
-      <c r="CV11" s="279" t="s">
+      <c r="CM11" s="262"/>
+      <c r="CN11" s="262"/>
+      <c r="CO11" s="262"/>
+      <c r="CP11" s="262"/>
+      <c r="CQ11" s="262"/>
+      <c r="CR11" s="262"/>
+      <c r="CS11" s="263"/>
+      <c r="CV11" s="261" t="s">
         <v>324</v>
       </c>
-      <c r="CW11" s="280"/>
-      <c r="CX11" s="280"/>
-      <c r="CY11" s="280"/>
-      <c r="CZ11" s="280"/>
-      <c r="DA11" s="280"/>
-      <c r="DB11" s="280"/>
-      <c r="DC11" s="281"/>
+      <c r="CW11" s="262"/>
+      <c r="CX11" s="262"/>
+      <c r="CY11" s="262"/>
+      <c r="CZ11" s="262"/>
+      <c r="DA11" s="262"/>
+      <c r="DB11" s="262"/>
+      <c r="DC11" s="263"/>
     </row>
     <row r="12" spans="1:107" thickBot="1">
-      <c r="G12" s="282"/>
-      <c r="H12" s="283"/>
-      <c r="I12" s="283"/>
-      <c r="J12" s="283"/>
-      <c r="K12" s="283"/>
-      <c r="L12" s="283"/>
-      <c r="M12" s="283"/>
-      <c r="N12" s="284"/>
+      <c r="G12" s="264"/>
+      <c r="H12" s="265"/>
+      <c r="I12" s="265"/>
+      <c r="J12" s="265"/>
+      <c r="K12" s="265"/>
+      <c r="L12" s="265"/>
+      <c r="M12" s="265"/>
+      <c r="N12" s="266"/>
       <c r="O12" s="40"/>
       <c r="P12" s="29"/>
       <c r="Q12" s="29"/>
@@ -7516,49 +7607,49 @@
       <c r="V12" s="29"/>
       <c r="W12" s="29"/>
       <c r="AX12" s="42"/>
-      <c r="AY12" s="288" t="s">
+      <c r="AY12" s="258" t="s">
         <v>323</v>
       </c>
-      <c r="BD12" s="282"/>
-      <c r="BE12" s="283"/>
-      <c r="BF12" s="283"/>
-      <c r="BG12" s="283"/>
-      <c r="BH12" s="283"/>
-      <c r="BI12" s="283"/>
-      <c r="BJ12" s="283"/>
-      <c r="BK12" s="284"/>
-      <c r="BP12" s="282"/>
-      <c r="BQ12" s="283"/>
-      <c r="BR12" s="283"/>
-      <c r="BS12" s="283"/>
-      <c r="BT12" s="283"/>
-      <c r="BU12" s="283"/>
-      <c r="BV12" s="283"/>
-      <c r="BW12" s="284"/>
-      <c r="CA12" s="282"/>
-      <c r="CB12" s="283"/>
-      <c r="CC12" s="283"/>
-      <c r="CD12" s="283"/>
-      <c r="CE12" s="283"/>
-      <c r="CF12" s="283"/>
-      <c r="CG12" s="283"/>
-      <c r="CH12" s="284"/>
-      <c r="CL12" s="282"/>
-      <c r="CM12" s="283"/>
-      <c r="CN12" s="283"/>
-      <c r="CO12" s="283"/>
-      <c r="CP12" s="283"/>
-      <c r="CQ12" s="283"/>
-      <c r="CR12" s="283"/>
-      <c r="CS12" s="284"/>
-      <c r="CV12" s="282"/>
-      <c r="CW12" s="283"/>
-      <c r="CX12" s="283"/>
-      <c r="CY12" s="283"/>
-      <c r="CZ12" s="283"/>
-      <c r="DA12" s="283"/>
-      <c r="DB12" s="283"/>
-      <c r="DC12" s="284"/>
+      <c r="BD12" s="264"/>
+      <c r="BE12" s="265"/>
+      <c r="BF12" s="265"/>
+      <c r="BG12" s="265"/>
+      <c r="BH12" s="265"/>
+      <c r="BI12" s="265"/>
+      <c r="BJ12" s="265"/>
+      <c r="BK12" s="266"/>
+      <c r="BP12" s="264"/>
+      <c r="BQ12" s="265"/>
+      <c r="BR12" s="265"/>
+      <c r="BS12" s="265"/>
+      <c r="BT12" s="265"/>
+      <c r="BU12" s="265"/>
+      <c r="BV12" s="265"/>
+      <c r="BW12" s="266"/>
+      <c r="CA12" s="264"/>
+      <c r="CB12" s="265"/>
+      <c r="CC12" s="265"/>
+      <c r="CD12" s="265"/>
+      <c r="CE12" s="265"/>
+      <c r="CF12" s="265"/>
+      <c r="CG12" s="265"/>
+      <c r="CH12" s="266"/>
+      <c r="CL12" s="264"/>
+      <c r="CM12" s="265"/>
+      <c r="CN12" s="265"/>
+      <c r="CO12" s="265"/>
+      <c r="CP12" s="265"/>
+      <c r="CQ12" s="265"/>
+      <c r="CR12" s="265"/>
+      <c r="CS12" s="266"/>
+      <c r="CV12" s="264"/>
+      <c r="CW12" s="265"/>
+      <c r="CX12" s="265"/>
+      <c r="CY12" s="265"/>
+      <c r="CZ12" s="265"/>
+      <c r="DA12" s="265"/>
+      <c r="DB12" s="265"/>
+      <c r="DC12" s="266"/>
     </row>
     <row r="13" spans="1:107" thickBot="1">
       <c r="G13" s="40"/>
@@ -7577,7 +7668,7 @@
       <c r="V13" s="29"/>
       <c r="W13" s="29"/>
       <c r="AX13" s="42"/>
-      <c r="AY13" s="289"/>
+      <c r="AY13" s="259"/>
       <c r="BD13" s="40"/>
       <c r="BG13" s="29"/>
       <c r="BH13" s="29"/>
@@ -7602,16 +7693,16 @@
       <c r="DC13" s="42"/>
     </row>
     <row r="14" spans="1:107" thickBot="1">
-      <c r="G14" s="285" t="s">
+      <c r="G14" s="267" t="s">
         <v>325</v>
       </c>
-      <c r="H14" s="286"/>
-      <c r="I14" s="286"/>
-      <c r="J14" s="286"/>
-      <c r="K14" s="286"/>
-      <c r="L14" s="286"/>
-      <c r="M14" s="286"/>
-      <c r="N14" s="287"/>
+      <c r="H14" s="268"/>
+      <c r="I14" s="268"/>
+      <c r="J14" s="268"/>
+      <c r="K14" s="268"/>
+      <c r="L14" s="268"/>
+      <c r="M14" s="268"/>
+      <c r="N14" s="269"/>
       <c r="O14" s="40"/>
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
@@ -7622,57 +7713,57 @@
       <c r="V14" s="29"/>
       <c r="W14" s="29"/>
       <c r="AX14" s="42"/>
-      <c r="AY14" s="289"/>
-      <c r="BD14" s="285" t="s">
+      <c r="AY14" s="259"/>
+      <c r="BD14" s="267" t="s">
         <v>338</v>
       </c>
-      <c r="BE14" s="286"/>
-      <c r="BF14" s="286"/>
-      <c r="BG14" s="286"/>
-      <c r="BH14" s="286"/>
-      <c r="BI14" s="286"/>
-      <c r="BJ14" s="286"/>
-      <c r="BK14" s="287"/>
-      <c r="BP14" s="285" t="s">
+      <c r="BE14" s="268"/>
+      <c r="BF14" s="268"/>
+      <c r="BG14" s="268"/>
+      <c r="BH14" s="268"/>
+      <c r="BI14" s="268"/>
+      <c r="BJ14" s="268"/>
+      <c r="BK14" s="269"/>
+      <c r="BP14" s="267" t="s">
         <v>327</v>
       </c>
-      <c r="BQ14" s="286"/>
-      <c r="BR14" s="286"/>
-      <c r="BS14" s="286"/>
-      <c r="BT14" s="286"/>
-      <c r="BU14" s="286"/>
-      <c r="BV14" s="286"/>
-      <c r="BW14" s="287"/>
-      <c r="CA14" s="285" t="s">
+      <c r="BQ14" s="268"/>
+      <c r="BR14" s="268"/>
+      <c r="BS14" s="268"/>
+      <c r="BT14" s="268"/>
+      <c r="BU14" s="268"/>
+      <c r="BV14" s="268"/>
+      <c r="BW14" s="269"/>
+      <c r="CA14" s="267" t="s">
         <v>326</v>
       </c>
-      <c r="CB14" s="286"/>
-      <c r="CC14" s="286"/>
-      <c r="CD14" s="286"/>
-      <c r="CE14" s="286"/>
-      <c r="CF14" s="286"/>
-      <c r="CG14" s="286"/>
-      <c r="CH14" s="287"/>
-      <c r="CL14" s="285" t="s">
+      <c r="CB14" s="268"/>
+      <c r="CC14" s="268"/>
+      <c r="CD14" s="268"/>
+      <c r="CE14" s="268"/>
+      <c r="CF14" s="268"/>
+      <c r="CG14" s="268"/>
+      <c r="CH14" s="269"/>
+      <c r="CL14" s="267" t="s">
         <v>329</v>
       </c>
-      <c r="CM14" s="286"/>
-      <c r="CN14" s="286"/>
-      <c r="CO14" s="286"/>
-      <c r="CP14" s="286"/>
-      <c r="CQ14" s="286"/>
-      <c r="CR14" s="286"/>
-      <c r="CS14" s="287"/>
-      <c r="CV14" s="285" t="s">
+      <c r="CM14" s="268"/>
+      <c r="CN14" s="268"/>
+      <c r="CO14" s="268"/>
+      <c r="CP14" s="268"/>
+      <c r="CQ14" s="268"/>
+      <c r="CR14" s="268"/>
+      <c r="CS14" s="269"/>
+      <c r="CV14" s="267" t="s">
         <v>328</v>
       </c>
-      <c r="CW14" s="286"/>
-      <c r="CX14" s="286"/>
-      <c r="CY14" s="286"/>
-      <c r="CZ14" s="286"/>
-      <c r="DA14" s="286"/>
-      <c r="DB14" s="286"/>
-      <c r="DC14" s="287"/>
+      <c r="CW14" s="268"/>
+      <c r="CX14" s="268"/>
+      <c r="CY14" s="268"/>
+      <c r="CZ14" s="268"/>
+      <c r="DA14" s="268"/>
+      <c r="DB14" s="268"/>
+      <c r="DC14" s="269"/>
     </row>
     <row r="15" spans="1:107" thickBot="1">
       <c r="G15" s="117"/>
@@ -7693,7 +7784,7 @@
       <c r="V15" s="29"/>
       <c r="W15" s="29"/>
       <c r="AX15" s="42"/>
-      <c r="AY15" s="289"/>
+      <c r="AY15" s="259"/>
       <c r="BD15" s="117"/>
       <c r="BE15" s="116"/>
       <c r="BF15" s="114"/>
@@ -7754,7 +7845,7 @@
       <c r="V16" s="29"/>
       <c r="W16" s="29"/>
       <c r="AX16" s="42"/>
-      <c r="AY16" s="289"/>
+      <c r="AY16" s="259"/>
       <c r="BD16" s="40"/>
       <c r="BE16" s="29"/>
       <c r="BF16" s="29"/>
@@ -7806,16 +7897,16 @@
       <c r="M17" s="29"/>
       <c r="N17" s="29"/>
       <c r="O17" s="40"/>
-      <c r="P17" s="291"/>
-      <c r="Q17" s="244"/>
-      <c r="R17" s="244"/>
+      <c r="P17" s="270"/>
+      <c r="Q17" s="246"/>
+      <c r="R17" s="246"/>
       <c r="S17" s="29"/>
-      <c r="T17" s="291"/>
-      <c r="U17" s="244"/>
-      <c r="V17" s="244"/>
-      <c r="W17" s="244"/>
+      <c r="T17" s="270"/>
+      <c r="U17" s="246"/>
+      <c r="V17" s="246"/>
+      <c r="W17" s="246"/>
       <c r="AX17" s="42"/>
-      <c r="AY17" s="289"/>
+      <c r="AY17" s="259"/>
       <c r="BD17" s="40"/>
       <c r="BE17" s="29"/>
       <c r="BF17" s="29"/>
@@ -7833,7 +7924,7 @@
       <c r="BV17" s="29"/>
       <c r="BW17" s="46"/>
       <c r="CA17" s="40"/>
-      <c r="CB17" s="253" t="s">
+      <c r="CB17" s="271" t="s">
         <v>349</v>
       </c>
       <c r="CC17" s="256"/>
@@ -7863,9 +7954,9 @@
       <c r="G18" s="41"/>
       <c r="O18" s="41"/>
       <c r="AX18" s="42"/>
-      <c r="AY18" s="289"/>
+      <c r="AY18" s="259"/>
       <c r="BD18" s="41"/>
-      <c r="BE18" s="267" t="s">
+      <c r="BE18" s="255" t="s">
         <v>335</v>
       </c>
       <c r="BF18" s="256"/>
@@ -7875,7 +7966,7 @@
       <c r="BJ18" s="257"/>
       <c r="BK18" s="42"/>
       <c r="BP18" s="41"/>
-      <c r="BQ18" s="267" t="s">
+      <c r="BQ18" s="255" t="s">
         <v>331</v>
       </c>
       <c r="BR18" s="256"/>
@@ -7885,19 +7976,19 @@
       <c r="BV18" s="257"/>
       <c r="BW18" s="42"/>
       <c r="CA18" s="41"/>
-      <c r="CB18" s="268" t="s">
+      <c r="CB18" s="272" t="s">
         <v>342</v>
       </c>
-      <c r="CC18" s="269"/>
-      <c r="CD18" s="267"/>
+      <c r="CC18" s="273"/>
+      <c r="CD18" s="255"/>
       <c r="CE18" s="257"/>
-      <c r="CF18" s="268" t="s">
+      <c r="CF18" s="272" t="s">
         <v>341</v>
       </c>
-      <c r="CG18" s="269"/>
+      <c r="CG18" s="273"/>
       <c r="CH18" s="42"/>
       <c r="CL18" s="41"/>
-      <c r="CM18" s="253" t="s">
+      <c r="CM18" s="271" t="s">
         <v>354</v>
       </c>
       <c r="CN18" s="256"/>
@@ -7907,7 +7998,7 @@
       <c r="CR18" s="257"/>
       <c r="CS18" s="42"/>
       <c r="CV18" s="41"/>
-      <c r="CW18" s="253" t="s">
+      <c r="CW18" s="271" t="s">
         <v>359</v>
       </c>
       <c r="CX18" s="256"/>
@@ -7921,9 +8012,9 @@
       <c r="G19" s="41"/>
       <c r="O19" s="41"/>
       <c r="AX19" s="42"/>
-      <c r="AY19" s="289"/>
+      <c r="AY19" s="259"/>
       <c r="BD19" s="41"/>
-      <c r="BE19" s="267" t="s">
+      <c r="BE19" s="255" t="s">
         <v>336</v>
       </c>
       <c r="BF19" s="256"/>
@@ -7933,7 +8024,7 @@
       <c r="BJ19" s="257"/>
       <c r="BK19" s="42"/>
       <c r="BP19" s="41"/>
-      <c r="BQ19" s="267" t="s">
+      <c r="BQ19" s="255" t="s">
         <v>330</v>
       </c>
       <c r="BR19" s="256"/>
@@ -7945,7 +8036,7 @@
       <c r="CA19" s="41"/>
       <c r="CH19" s="42"/>
       <c r="CL19" s="41"/>
-      <c r="CM19" s="253" t="s">
+      <c r="CM19" s="271" t="s">
         <v>355</v>
       </c>
       <c r="CN19" s="256"/>
@@ -7961,13 +8052,13 @@
       <c r="G20" s="41"/>
       <c r="O20" s="41"/>
       <c r="AX20" s="42"/>
-      <c r="AY20" s="289"/>
+      <c r="AY20" s="259"/>
       <c r="BD20" s="41"/>
       <c r="BK20" s="42"/>
       <c r="BP20" s="41"/>
       <c r="BW20" s="42"/>
       <c r="CA20" s="41"/>
-      <c r="CB20" s="253" t="s">
+      <c r="CB20" s="271" t="s">
         <v>350</v>
       </c>
       <c r="CC20" s="256"/>
@@ -7979,7 +8070,7 @@
       <c r="CL20" s="41"/>
       <c r="CS20" s="42"/>
       <c r="CV20" s="41"/>
-      <c r="CW20" s="253" t="s">
+      <c r="CW20" s="271" t="s">
         <v>360</v>
       </c>
       <c r="CX20" s="256"/>
@@ -7993,9 +8084,9 @@
       <c r="G21" s="41"/>
       <c r="O21" s="41"/>
       <c r="AX21" s="42"/>
-      <c r="AY21" s="289"/>
+      <c r="AY21" s="259"/>
       <c r="BD21" s="41"/>
-      <c r="BE21" s="267" t="s">
+      <c r="BE21" s="255" t="s">
         <v>337</v>
       </c>
       <c r="BF21" s="256"/>
@@ -8005,7 +8096,7 @@
       <c r="BJ21" s="257"/>
       <c r="BK21" s="42"/>
       <c r="BP21" s="41"/>
-      <c r="BQ21" s="267" t="s">
+      <c r="BQ21" s="255" t="s">
         <v>332</v>
       </c>
       <c r="BR21" s="256"/>
@@ -8015,7 +8106,7 @@
       <c r="BV21" s="257"/>
       <c r="BW21" s="42"/>
       <c r="CA21" s="41"/>
-      <c r="CB21" s="253" t="s">
+      <c r="CB21" s="271" t="s">
         <v>336</v>
       </c>
       <c r="CC21" s="256"/>
@@ -8025,7 +8116,7 @@
       <c r="CG21" s="257"/>
       <c r="CH21" s="42"/>
       <c r="CL21" s="41"/>
-      <c r="CM21" s="253" t="s">
+      <c r="CM21" s="271" t="s">
         <v>356</v>
       </c>
       <c r="CN21" s="256"/>
@@ -8035,7 +8126,7 @@
       <c r="CR21" s="257"/>
       <c r="CS21" s="42"/>
       <c r="CV21" s="41"/>
-      <c r="CW21" s="253" t="s">
+      <c r="CW21" s="271" t="s">
         <v>355</v>
       </c>
       <c r="CX21" s="256"/>
@@ -8049,9 +8140,9 @@
       <c r="G22" s="41"/>
       <c r="O22" s="41"/>
       <c r="AX22" s="42"/>
-      <c r="AY22" s="289"/>
+      <c r="AY22" s="259"/>
       <c r="BD22" s="41"/>
-      <c r="BE22" s="267" t="s">
+      <c r="BE22" s="255" t="s">
         <v>336</v>
       </c>
       <c r="BF22" s="256"/>
@@ -8061,7 +8152,7 @@
       <c r="BJ22" s="257"/>
       <c r="BK22" s="42"/>
       <c r="BP22" s="41"/>
-      <c r="BQ22" s="267" t="s">
+      <c r="BQ22" s="255" t="s">
         <v>330</v>
       </c>
       <c r="BR22" s="256"/>
@@ -8081,7 +8172,7 @@
       <c r="G23" s="41"/>
       <c r="O23" s="41"/>
       <c r="AX23" s="42"/>
-      <c r="AY23" s="289"/>
+      <c r="AY23" s="259"/>
       <c r="BD23" s="41"/>
       <c r="BK23" s="42"/>
       <c r="BP23" s="41"/>
@@ -8090,14 +8181,14 @@
       <c r="CB23" s="29"/>
       <c r="CC23" s="29"/>
       <c r="CD23" s="29"/>
-      <c r="CE23" s="276" t="s">
+      <c r="CE23" s="282" t="s">
         <v>348</v>
       </c>
-      <c r="CF23" s="277"/>
-      <c r="CG23" s="277"/>
-      <c r="CH23" s="278"/>
+      <c r="CF23" s="283"/>
+      <c r="CG23" s="283"/>
+      <c r="CH23" s="284"/>
       <c r="CL23" s="41"/>
-      <c r="CM23" s="253" t="s">
+      <c r="CM23" s="271" t="s">
         <v>357</v>
       </c>
       <c r="CN23" s="256"/>
@@ -8107,7 +8198,7 @@
       <c r="CR23" s="257"/>
       <c r="CS23" s="42"/>
       <c r="CV23" s="41"/>
-      <c r="CW23" s="253" t="s">
+      <c r="CW23" s="271" t="s">
         <v>361</v>
       </c>
       <c r="CX23" s="256"/>
@@ -8121,9 +8212,9 @@
       <c r="G24" s="41"/>
       <c r="O24" s="41"/>
       <c r="AX24" s="42"/>
-      <c r="AY24" s="289"/>
+      <c r="AY24" s="259"/>
       <c r="BD24" s="41"/>
-      <c r="BE24" s="267" t="s">
+      <c r="BE24" s="255" t="s">
         <v>339</v>
       </c>
       <c r="BF24" s="256"/>
@@ -8133,7 +8224,7 @@
       <c r="BJ24" s="257"/>
       <c r="BK24" s="42"/>
       <c r="BP24" s="41"/>
-      <c r="BQ24" s="267" t="s">
+      <c r="BQ24" s="255" t="s">
         <v>333</v>
       </c>
       <c r="BR24" s="256"/>
@@ -8151,7 +8242,7 @@
       <c r="CG24" s="29"/>
       <c r="CH24" s="46"/>
       <c r="CL24" s="41"/>
-      <c r="CM24" s="253" t="s">
+      <c r="CM24" s="271" t="s">
         <v>355</v>
       </c>
       <c r="CN24" s="256"/>
@@ -8161,7 +8252,7 @@
       <c r="CR24" s="257"/>
       <c r="CS24" s="42"/>
       <c r="CV24" s="41"/>
-      <c r="CW24" s="253" t="s">
+      <c r="CW24" s="271" t="s">
         <v>355</v>
       </c>
       <c r="CX24" s="256"/>
@@ -8175,9 +8266,9 @@
       <c r="G25" s="41"/>
       <c r="O25" s="41"/>
       <c r="AX25" s="42"/>
-      <c r="AY25" s="289"/>
+      <c r="AY25" s="259"/>
       <c r="BD25" s="41"/>
-      <c r="BE25" s="267" t="s">
+      <c r="BE25" s="255" t="s">
         <v>336</v>
       </c>
       <c r="BF25" s="256"/>
@@ -8187,7 +8278,7 @@
       <c r="BJ25" s="257"/>
       <c r="BK25" s="42"/>
       <c r="BP25" s="41"/>
-      <c r="BQ25" s="267" t="s">
+      <c r="BQ25" s="255" t="s">
         <v>330</v>
       </c>
       <c r="BR25" s="256"/>
@@ -8197,14 +8288,14 @@
       <c r="BV25" s="257"/>
       <c r="BW25" s="42"/>
       <c r="CA25" s="41"/>
-      <c r="CB25" s="253" t="s">
+      <c r="CB25" s="271" t="s">
         <v>343</v>
       </c>
-      <c r="CC25" s="254"/>
-      <c r="CD25" s="254"/>
-      <c r="CE25" s="254"/>
-      <c r="CF25" s="254"/>
-      <c r="CG25" s="255"/>
+      <c r="CC25" s="280"/>
+      <c r="CD25" s="280"/>
+      <c r="CE25" s="280"/>
+      <c r="CF25" s="280"/>
+      <c r="CG25" s="281"/>
       <c r="CH25" s="42"/>
       <c r="CL25" s="41"/>
       <c r="CS25" s="42"/>
@@ -8215,25 +8306,25 @@
       <c r="G26" s="41"/>
       <c r="O26" s="41"/>
       <c r="AX26" s="42"/>
-      <c r="AY26" s="289"/>
+      <c r="AY26" s="259"/>
       <c r="BD26" s="41"/>
       <c r="BK26" s="42"/>
       <c r="BP26" s="41"/>
       <c r="BW26" s="42"/>
       <c r="CA26" s="41"/>
-      <c r="CB26" s="268" t="s">
+      <c r="CB26" s="272" t="s">
         <v>342</v>
       </c>
-      <c r="CC26" s="269"/>
-      <c r="CD26" s="267"/>
+      <c r="CC26" s="273"/>
+      <c r="CD26" s="255"/>
       <c r="CE26" s="257"/>
-      <c r="CF26" s="268" t="s">
+      <c r="CF26" s="272" t="s">
         <v>341</v>
       </c>
-      <c r="CG26" s="269"/>
+      <c r="CG26" s="273"/>
       <c r="CH26" s="42"/>
       <c r="CL26" s="41"/>
-      <c r="CM26" s="267" t="s">
+      <c r="CM26" s="255" t="s">
         <v>331</v>
       </c>
       <c r="CN26" s="256"/>
@@ -8243,7 +8334,7 @@
       <c r="CR26" s="257"/>
       <c r="CS26" s="42"/>
       <c r="CV26" s="41"/>
-      <c r="CW26" s="253" t="s">
+      <c r="CW26" s="271" t="s">
         <v>362</v>
       </c>
       <c r="CX26" s="256"/>
@@ -8257,9 +8348,9 @@
       <c r="G27" s="41"/>
       <c r="O27" s="41"/>
       <c r="AX27" s="42"/>
-      <c r="AY27" s="289"/>
+      <c r="AY27" s="259"/>
       <c r="BD27" s="41"/>
-      <c r="BE27" s="267" t="s">
+      <c r="BE27" s="255" t="s">
         <v>340</v>
       </c>
       <c r="BF27" s="256"/>
@@ -8269,7 +8360,7 @@
       <c r="BJ27" s="257"/>
       <c r="BK27" s="42"/>
       <c r="BP27" s="41"/>
-      <c r="BQ27" s="267" t="s">
+      <c r="BQ27" s="255" t="s">
         <v>334</v>
       </c>
       <c r="BR27" s="256"/>
@@ -8281,7 +8372,7 @@
       <c r="CA27" s="41"/>
       <c r="CH27" s="42"/>
       <c r="CL27" s="41"/>
-      <c r="CM27" s="253" t="s">
+      <c r="CM27" s="271" t="s">
         <v>355</v>
       </c>
       <c r="CN27" s="256"/>
@@ -8291,7 +8382,7 @@
       <c r="CR27" s="257"/>
       <c r="CS27" s="42"/>
       <c r="CV27" s="41"/>
-      <c r="CW27" s="253" t="s">
+      <c r="CW27" s="271" t="s">
         <v>355</v>
       </c>
       <c r="CX27" s="256"/>
@@ -8305,21 +8396,21 @@
       <c r="G28" s="41"/>
       <c r="O28" s="41"/>
       <c r="AX28" s="42"/>
-      <c r="AY28" s="289"/>
+      <c r="AY28" s="259"/>
       <c r="BD28" s="119"/>
-      <c r="BE28" s="268" t="s">
+      <c r="BE28" s="272" t="s">
         <v>342</v>
       </c>
-      <c r="BF28" s="269"/>
-      <c r="BG28" s="267"/>
+      <c r="BF28" s="273"/>
+      <c r="BG28" s="255"/>
       <c r="BH28" s="257"/>
-      <c r="BI28" s="268" t="s">
+      <c r="BI28" s="272" t="s">
         <v>341</v>
       </c>
-      <c r="BJ28" s="269"/>
+      <c r="BJ28" s="273"/>
       <c r="BK28" s="42"/>
       <c r="BP28" s="41"/>
-      <c r="BQ28" s="267" t="s">
+      <c r="BQ28" s="255" t="s">
         <v>330</v>
       </c>
       <c r="BR28" s="256"/>
@@ -8329,14 +8420,14 @@
       <c r="BV28" s="257"/>
       <c r="BW28" s="42"/>
       <c r="CA28" s="41"/>
-      <c r="CB28" s="253" t="s">
+      <c r="CB28" s="271" t="s">
         <v>344</v>
       </c>
-      <c r="CC28" s="254"/>
-      <c r="CD28" s="254"/>
-      <c r="CE28" s="254"/>
-      <c r="CF28" s="254"/>
-      <c r="CG28" s="255"/>
+      <c r="CC28" s="280"/>
+      <c r="CD28" s="280"/>
+      <c r="CE28" s="280"/>
+      <c r="CF28" s="280"/>
+      <c r="CG28" s="281"/>
       <c r="CH28" s="42"/>
       <c r="CL28" s="41"/>
       <c r="CS28" s="42"/>
@@ -8347,25 +8438,25 @@
       <c r="G29" s="41"/>
       <c r="O29" s="41"/>
       <c r="AX29" s="42"/>
-      <c r="AY29" s="289"/>
+      <c r="AY29" s="259"/>
       <c r="BD29" s="41"/>
       <c r="BK29" s="42"/>
       <c r="BP29" s="41"/>
       <c r="BW29" s="42"/>
       <c r="CA29" s="41"/>
-      <c r="CB29" s="268" t="s">
+      <c r="CB29" s="272" t="s">
         <v>342</v>
       </c>
-      <c r="CC29" s="269"/>
-      <c r="CD29" s="267"/>
+      <c r="CC29" s="273"/>
+      <c r="CD29" s="255"/>
       <c r="CE29" s="257"/>
-      <c r="CF29" s="268" t="s">
+      <c r="CF29" s="272" t="s">
         <v>341</v>
       </c>
-      <c r="CG29" s="269"/>
+      <c r="CG29" s="273"/>
       <c r="CH29" s="42"/>
       <c r="CL29" s="41"/>
-      <c r="CM29" s="267" t="s">
+      <c r="CM29" s="255" t="s">
         <v>332</v>
       </c>
       <c r="CN29" s="256"/>
@@ -8375,7 +8466,7 @@
       <c r="CR29" s="257"/>
       <c r="CS29" s="42"/>
       <c r="CV29" s="41"/>
-      <c r="CW29" s="253" t="s">
+      <c r="CW29" s="271" t="s">
         <v>363</v>
       </c>
       <c r="CX29" s="256"/>
@@ -8389,7 +8480,7 @@
       <c r="G30" s="41"/>
       <c r="O30" s="41"/>
       <c r="AX30" s="42"/>
-      <c r="AY30" s="289"/>
+      <c r="AY30" s="259"/>
       <c r="BD30" s="41"/>
       <c r="BK30" s="42"/>
       <c r="BP30" s="41"/>
@@ -8397,7 +8488,7 @@
       <c r="CA30" s="41"/>
       <c r="CH30" s="42"/>
       <c r="CL30" s="41"/>
-      <c r="CM30" s="253" t="s">
+      <c r="CM30" s="271" t="s">
         <v>355</v>
       </c>
       <c r="CN30" s="256"/>
@@ -8407,34 +8498,34 @@
       <c r="CR30" s="257"/>
       <c r="CS30" s="42"/>
       <c r="CV30" s="41"/>
-      <c r="CW30" s="253" t="s">
+      <c r="CW30" s="271" t="s">
         <v>355</v>
       </c>
-      <c r="CX30" s="254"/>
-      <c r="CY30" s="254"/>
-      <c r="CZ30" s="254"/>
-      <c r="DA30" s="254"/>
-      <c r="DB30" s="255"/>
+      <c r="CX30" s="280"/>
+      <c r="CY30" s="280"/>
+      <c r="CZ30" s="280"/>
+      <c r="DA30" s="280"/>
+      <c r="DB30" s="281"/>
       <c r="DC30" s="42"/>
     </row>
     <row r="31" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G31" s="41"/>
       <c r="O31" s="41"/>
       <c r="AX31" s="42"/>
-      <c r="AY31" s="289"/>
+      <c r="AY31" s="259"/>
       <c r="BD31" s="41"/>
       <c r="BK31" s="42"/>
       <c r="BP31" s="41"/>
       <c r="BW31" s="42"/>
       <c r="CA31" s="41"/>
-      <c r="CB31" s="253" t="s">
+      <c r="CB31" s="271" t="s">
         <v>345</v>
       </c>
-      <c r="CC31" s="254"/>
-      <c r="CD31" s="254"/>
-      <c r="CE31" s="254"/>
-      <c r="CF31" s="254"/>
-      <c r="CG31" s="255"/>
+      <c r="CC31" s="280"/>
+      <c r="CD31" s="280"/>
+      <c r="CE31" s="280"/>
+      <c r="CF31" s="280"/>
+      <c r="CG31" s="281"/>
       <c r="CH31" s="42"/>
       <c r="CL31" s="41"/>
       <c r="CS31" s="42"/>
@@ -8445,41 +8536,41 @@
       <c r="G32" s="41"/>
       <c r="O32" s="41"/>
       <c r="AX32" s="42"/>
-      <c r="AY32" s="289"/>
+      <c r="AY32" s="259"/>
       <c r="BD32" s="41"/>
-      <c r="BE32" s="270" t="s">
+      <c r="BE32" s="274" t="s">
         <v>277</v>
       </c>
-      <c r="BF32" s="271"/>
-      <c r="BG32" s="271"/>
-      <c r="BH32" s="271"/>
-      <c r="BI32" s="271"/>
-      <c r="BJ32" s="272"/>
+      <c r="BF32" s="275"/>
+      <c r="BG32" s="275"/>
+      <c r="BH32" s="275"/>
+      <c r="BI32" s="275"/>
+      <c r="BJ32" s="276"/>
       <c r="BK32" s="42"/>
       <c r="BP32" s="41"/>
-      <c r="BQ32" s="270" t="s">
+      <c r="BQ32" s="274" t="s">
         <v>352</v>
       </c>
-      <c r="BR32" s="271"/>
-      <c r="BS32" s="271"/>
-      <c r="BT32" s="271"/>
-      <c r="BU32" s="271"/>
-      <c r="BV32" s="272"/>
+      <c r="BR32" s="275"/>
+      <c r="BS32" s="275"/>
+      <c r="BT32" s="275"/>
+      <c r="BU32" s="275"/>
+      <c r="BV32" s="276"/>
       <c r="BW32" s="42"/>
       <c r="CA32" s="41"/>
-      <c r="CB32" s="268" t="s">
+      <c r="CB32" s="272" t="s">
         <v>342</v>
       </c>
-      <c r="CC32" s="269"/>
-      <c r="CD32" s="267"/>
+      <c r="CC32" s="273"/>
+      <c r="CD32" s="255"/>
       <c r="CE32" s="257"/>
-      <c r="CF32" s="268" t="s">
+      <c r="CF32" s="272" t="s">
         <v>341</v>
       </c>
-      <c r="CG32" s="269"/>
+      <c r="CG32" s="273"/>
       <c r="CH32" s="42"/>
       <c r="CL32" s="41"/>
-      <c r="CM32" s="267" t="s">
+      <c r="CM32" s="255" t="s">
         <v>333</v>
       </c>
       <c r="CN32" s="256"/>
@@ -8489,7 +8580,7 @@
       <c r="CR32" s="257"/>
       <c r="CS32" s="42"/>
       <c r="CV32" s="41"/>
-      <c r="CW32" s="253" t="s">
+      <c r="CW32" s="271" t="s">
         <v>364</v>
       </c>
       <c r="CX32" s="256"/>
@@ -8503,64 +8594,64 @@
       <c r="G33" s="41"/>
       <c r="O33" s="41"/>
       <c r="AX33" s="42"/>
-      <c r="AY33" s="289"/>
+      <c r="AY33" s="259"/>
       <c r="BD33" s="41"/>
-      <c r="BE33" s="273"/>
-      <c r="BF33" s="274"/>
-      <c r="BG33" s="274"/>
-      <c r="BH33" s="274"/>
-      <c r="BI33" s="274"/>
-      <c r="BJ33" s="275"/>
+      <c r="BE33" s="277"/>
+      <c r="BF33" s="278"/>
+      <c r="BG33" s="278"/>
+      <c r="BH33" s="278"/>
+      <c r="BI33" s="278"/>
+      <c r="BJ33" s="279"/>
       <c r="BK33" s="42"/>
       <c r="BP33" s="41"/>
-      <c r="BQ33" s="273"/>
-      <c r="BR33" s="274"/>
-      <c r="BS33" s="274"/>
-      <c r="BT33" s="274"/>
-      <c r="BU33" s="274"/>
-      <c r="BV33" s="275"/>
+      <c r="BQ33" s="277"/>
+      <c r="BR33" s="278"/>
+      <c r="BS33" s="278"/>
+      <c r="BT33" s="278"/>
+      <c r="BU33" s="278"/>
+      <c r="BV33" s="279"/>
       <c r="BW33" s="42"/>
       <c r="CA33" s="41"/>
       <c r="CH33" s="42"/>
       <c r="CL33" s="41"/>
-      <c r="CM33" s="253" t="s">
+      <c r="CM33" s="271" t="s">
         <v>355</v>
       </c>
-      <c r="CN33" s="254"/>
-      <c r="CO33" s="254"/>
-      <c r="CP33" s="254"/>
-      <c r="CQ33" s="254"/>
-      <c r="CR33" s="255"/>
+      <c r="CN33" s="280"/>
+      <c r="CO33" s="280"/>
+      <c r="CP33" s="280"/>
+      <c r="CQ33" s="280"/>
+      <c r="CR33" s="281"/>
       <c r="CS33" s="42"/>
       <c r="CV33" s="41"/>
-      <c r="CW33" s="253" t="s">
+      <c r="CW33" s="271" t="s">
         <v>355</v>
       </c>
-      <c r="CX33" s="254"/>
-      <c r="CY33" s="254"/>
-      <c r="CZ33" s="254"/>
-      <c r="DA33" s="254"/>
-      <c r="DB33" s="255"/>
+      <c r="CX33" s="280"/>
+      <c r="CY33" s="280"/>
+      <c r="CZ33" s="280"/>
+      <c r="DA33" s="280"/>
+      <c r="DB33" s="281"/>
       <c r="DC33" s="42"/>
     </row>
     <row r="34" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G34" s="41"/>
       <c r="O34" s="41"/>
       <c r="AX34" s="42"/>
-      <c r="AY34" s="289"/>
+      <c r="AY34" s="259"/>
       <c r="BD34" s="41"/>
       <c r="BK34" s="42"/>
       <c r="BP34" s="41"/>
       <c r="BW34" s="42"/>
       <c r="CA34" s="41"/>
-      <c r="CB34" s="253" t="s">
+      <c r="CB34" s="271" t="s">
         <v>346</v>
       </c>
-      <c r="CC34" s="254"/>
-      <c r="CD34" s="254"/>
-      <c r="CE34" s="254"/>
-      <c r="CF34" s="254"/>
-      <c r="CG34" s="255"/>
+      <c r="CC34" s="280"/>
+      <c r="CD34" s="280"/>
+      <c r="CE34" s="280"/>
+      <c r="CF34" s="280"/>
+      <c r="CG34" s="281"/>
       <c r="CH34" s="42"/>
       <c r="CL34" s="41"/>
       <c r="CS34" s="42"/>
@@ -8571,11 +8662,11 @@
       <c r="G35" s="41"/>
       <c r="O35" s="41"/>
       <c r="AX35" s="42"/>
-      <c r="AY35" s="289"/>
+      <c r="AY35" s="259"/>
       <c r="BD35" s="41"/>
       <c r="BK35" s="42"/>
       <c r="BP35" s="41"/>
-      <c r="BQ35" s="253" t="s">
+      <c r="BQ35" s="271" t="s">
         <v>351</v>
       </c>
       <c r="BR35" s="256"/>
@@ -8585,19 +8676,19 @@
       <c r="BV35" s="257"/>
       <c r="BW35" s="42"/>
       <c r="CA35" s="41"/>
-      <c r="CB35" s="268" t="s">
+      <c r="CB35" s="272" t="s">
         <v>342</v>
       </c>
-      <c r="CC35" s="269"/>
-      <c r="CD35" s="267"/>
+      <c r="CC35" s="273"/>
+      <c r="CD35" s="255"/>
       <c r="CE35" s="257"/>
-      <c r="CF35" s="268" t="s">
+      <c r="CF35" s="272" t="s">
         <v>341</v>
       </c>
-      <c r="CG35" s="269"/>
+      <c r="CG35" s="273"/>
       <c r="CH35" s="42"/>
       <c r="CL35" s="41"/>
-      <c r="CM35" s="253" t="s">
+      <c r="CM35" s="271" t="s">
         <v>358</v>
       </c>
       <c r="CN35" s="256"/>
@@ -8607,7 +8698,7 @@
       <c r="CR35" s="257"/>
       <c r="CS35" s="42"/>
       <c r="CV35" s="41"/>
-      <c r="CW35" s="253" t="s">
+      <c r="CW35" s="271" t="s">
         <v>365</v>
       </c>
       <c r="CX35" s="256"/>
@@ -8621,11 +8712,11 @@
       <c r="G36" s="41"/>
       <c r="O36" s="41"/>
       <c r="AX36" s="42"/>
-      <c r="AY36" s="289"/>
+      <c r="AY36" s="259"/>
       <c r="BD36" s="41"/>
       <c r="BK36" s="42"/>
       <c r="BP36" s="41"/>
-      <c r="BQ36" s="253" t="s">
+      <c r="BQ36" s="271" t="s">
         <v>353</v>
       </c>
       <c r="BR36" s="256"/>
@@ -8637,29 +8728,29 @@
       <c r="CA36" s="41"/>
       <c r="CH36" s="42"/>
       <c r="CL36" s="41"/>
-      <c r="CM36" s="253" t="s">
+      <c r="CM36" s="271" t="s">
         <v>355</v>
       </c>
-      <c r="CN36" s="254"/>
-      <c r="CO36" s="254"/>
-      <c r="CP36" s="254"/>
-      <c r="CQ36" s="254"/>
-      <c r="CR36" s="255"/>
+      <c r="CN36" s="280"/>
+      <c r="CO36" s="280"/>
+      <c r="CP36" s="280"/>
+      <c r="CQ36" s="280"/>
+      <c r="CR36" s="281"/>
       <c r="CS36" s="42"/>
       <c r="CV36" s="41"/>
-      <c r="CW36" s="258"/>
-      <c r="CX36" s="259"/>
-      <c r="CY36" s="259"/>
-      <c r="CZ36" s="259"/>
-      <c r="DA36" s="259"/>
-      <c r="DB36" s="260"/>
+      <c r="CW36" s="285"/>
+      <c r="CX36" s="286"/>
+      <c r="CY36" s="286"/>
+      <c r="CZ36" s="286"/>
+      <c r="DA36" s="286"/>
+      <c r="DB36" s="287"/>
       <c r="DC36" s="42"/>
     </row>
     <row r="37" spans="7:107" ht="15.75" customHeight="1">
       <c r="G37" s="41"/>
       <c r="O37" s="41"/>
       <c r="AX37" s="42"/>
-      <c r="AY37" s="289"/>
+      <c r="AY37" s="259"/>
       <c r="BD37" s="41"/>
       <c r="BK37" s="42"/>
       <c r="BP37" s="41"/>
@@ -8669,19 +8760,19 @@
       <c r="CL37" s="41"/>
       <c r="CS37" s="42"/>
       <c r="CV37" s="41"/>
-      <c r="CW37" s="261"/>
-      <c r="CX37" s="262"/>
-      <c r="CY37" s="262"/>
-      <c r="CZ37" s="262"/>
-      <c r="DA37" s="262"/>
-      <c r="DB37" s="263"/>
+      <c r="CW37" s="288"/>
+      <c r="CX37" s="289"/>
+      <c r="CY37" s="289"/>
+      <c r="CZ37" s="289"/>
+      <c r="DA37" s="289"/>
+      <c r="DB37" s="290"/>
       <c r="DC37" s="42"/>
     </row>
     <row r="38" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G38" s="41"/>
       <c r="O38" s="41"/>
       <c r="AX38" s="42"/>
-      <c r="AY38" s="289"/>
+      <c r="AY38" s="259"/>
       <c r="BD38" s="41"/>
       <c r="BK38" s="42"/>
       <c r="BP38" s="41"/>
@@ -8691,70 +8782,70 @@
       <c r="CL38" s="41"/>
       <c r="CS38" s="42"/>
       <c r="CV38" s="41"/>
-      <c r="CW38" s="261"/>
-      <c r="CX38" s="262"/>
-      <c r="CY38" s="262"/>
-      <c r="CZ38" s="262"/>
-      <c r="DA38" s="262"/>
-      <c r="DB38" s="263"/>
+      <c r="CW38" s="288"/>
+      <c r="CX38" s="289"/>
+      <c r="CY38" s="289"/>
+      <c r="CZ38" s="289"/>
+      <c r="DA38" s="289"/>
+      <c r="DB38" s="290"/>
       <c r="DC38" s="42"/>
     </row>
     <row r="39" spans="7:107" ht="15.75" customHeight="1">
       <c r="G39" s="41"/>
       <c r="O39" s="41"/>
       <c r="AX39" s="42"/>
-      <c r="AY39" s="289"/>
+      <c r="AY39" s="259"/>
       <c r="BD39" s="41"/>
       <c r="BK39" s="42"/>
       <c r="BP39" s="41"/>
       <c r="BW39" s="42"/>
       <c r="CA39" s="41"/>
-      <c r="CB39" s="270" t="s">
+      <c r="CB39" s="274" t="s">
         <v>347</v>
       </c>
-      <c r="CC39" s="271"/>
-      <c r="CD39" s="271"/>
-      <c r="CE39" s="271"/>
-      <c r="CF39" s="271"/>
-      <c r="CG39" s="272"/>
+      <c r="CC39" s="275"/>
+      <c r="CD39" s="275"/>
+      <c r="CE39" s="275"/>
+      <c r="CF39" s="275"/>
+      <c r="CG39" s="276"/>
       <c r="CH39" s="42"/>
       <c r="CL39" s="41"/>
       <c r="CS39" s="42"/>
       <c r="CV39" s="41"/>
-      <c r="CW39" s="261"/>
-      <c r="CX39" s="262"/>
-      <c r="CY39" s="262"/>
-      <c r="CZ39" s="262"/>
-      <c r="DA39" s="262"/>
-      <c r="DB39" s="263"/>
+      <c r="CW39" s="288"/>
+      <c r="CX39" s="289"/>
+      <c r="CY39" s="289"/>
+      <c r="CZ39" s="289"/>
+      <c r="DA39" s="289"/>
+      <c r="DB39" s="290"/>
       <c r="DC39" s="42"/>
     </row>
     <row r="40" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G40" s="41"/>
       <c r="O40" s="41"/>
       <c r="AX40" s="42"/>
-      <c r="AY40" s="290"/>
+      <c r="AY40" s="260"/>
       <c r="BD40" s="41"/>
       <c r="BK40" s="42"/>
       <c r="BP40" s="41"/>
       <c r="BW40" s="42"/>
       <c r="CA40" s="41"/>
-      <c r="CB40" s="273"/>
-      <c r="CC40" s="274"/>
-      <c r="CD40" s="274"/>
-      <c r="CE40" s="274"/>
-      <c r="CF40" s="274"/>
-      <c r="CG40" s="275"/>
+      <c r="CB40" s="277"/>
+      <c r="CC40" s="278"/>
+      <c r="CD40" s="278"/>
+      <c r="CE40" s="278"/>
+      <c r="CF40" s="278"/>
+      <c r="CG40" s="279"/>
       <c r="CH40" s="42"/>
       <c r="CL40" s="41"/>
       <c r="CS40" s="42"/>
       <c r="CV40" s="41"/>
-      <c r="CW40" s="264"/>
-      <c r="CX40" s="265"/>
-      <c r="CY40" s="265"/>
-      <c r="CZ40" s="265"/>
-      <c r="DA40" s="265"/>
-      <c r="DB40" s="266"/>
+      <c r="CW40" s="291"/>
+      <c r="CX40" s="292"/>
+      <c r="CY40" s="292"/>
+      <c r="CZ40" s="292"/>
+      <c r="DA40" s="292"/>
+      <c r="DB40" s="293"/>
       <c r="DC40" s="42"/>
     </row>
     <row r="41" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
@@ -8817,7 +8908,7 @@
       <c r="M42" s="44"/>
       <c r="N42" s="44"/>
       <c r="O42" s="115"/>
-      <c r="P42" s="267" t="s">
+      <c r="P42" s="255" t="s">
         <v>323</v>
       </c>
       <c r="Q42" s="256"/>
@@ -8898,78 +8989,6 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="P42:AX42"/>
-    <mergeCell ref="AY12:AY40"/>
-    <mergeCell ref="G11:N12"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="BD11:BK12"/>
-    <mergeCell ref="BD14:BK14"/>
-    <mergeCell ref="BP11:BW12"/>
-    <mergeCell ref="BP14:BW14"/>
-    <mergeCell ref="CA11:CH12"/>
-    <mergeCell ref="CA14:CH14"/>
-    <mergeCell ref="CL11:CS12"/>
-    <mergeCell ref="CL14:CS14"/>
-    <mergeCell ref="CV11:DC12"/>
-    <mergeCell ref="CV14:DC14"/>
-    <mergeCell ref="BQ24:BV24"/>
-    <mergeCell ref="CM18:CR18"/>
-    <mergeCell ref="CM19:CR19"/>
-    <mergeCell ref="CM21:CR21"/>
-    <mergeCell ref="CM24:CR24"/>
-    <mergeCell ref="CM23:CR23"/>
-    <mergeCell ref="BE19:BJ19"/>
-    <mergeCell ref="BE18:BJ18"/>
-    <mergeCell ref="BE21:BJ21"/>
-    <mergeCell ref="BE22:BJ22"/>
-    <mergeCell ref="BQ19:BV19"/>
-    <mergeCell ref="BQ18:BV18"/>
-    <mergeCell ref="BQ21:BV21"/>
-    <mergeCell ref="BQ22:BV22"/>
-    <mergeCell ref="BE24:BJ24"/>
-    <mergeCell ref="BE25:BJ25"/>
-    <mergeCell ref="BE27:BJ27"/>
-    <mergeCell ref="BE28:BF28"/>
-    <mergeCell ref="BI28:BJ28"/>
-    <mergeCell ref="BG28:BH28"/>
-    <mergeCell ref="BE32:BJ33"/>
-    <mergeCell ref="CF29:CG29"/>
-    <mergeCell ref="CD29:CE29"/>
-    <mergeCell ref="CB29:CC29"/>
-    <mergeCell ref="CB28:CG28"/>
-    <mergeCell ref="BQ28:BV28"/>
-    <mergeCell ref="CB39:CG40"/>
-    <mergeCell ref="CB17:CG17"/>
-    <mergeCell ref="CB18:CC18"/>
-    <mergeCell ref="CD18:CE18"/>
-    <mergeCell ref="CF18:CG18"/>
-    <mergeCell ref="CB20:CG20"/>
-    <mergeCell ref="CF26:CG26"/>
-    <mergeCell ref="CD26:CE26"/>
-    <mergeCell ref="CB26:CC26"/>
-    <mergeCell ref="CB25:CG25"/>
-    <mergeCell ref="CE23:CH23"/>
-    <mergeCell ref="CB21:CG21"/>
-    <mergeCell ref="BQ36:BV36"/>
-    <mergeCell ref="CB31:CG31"/>
-    <mergeCell ref="CB32:CC32"/>
-    <mergeCell ref="CD32:CE32"/>
-    <mergeCell ref="CF32:CG32"/>
-    <mergeCell ref="CB34:CG34"/>
-    <mergeCell ref="CB35:CC35"/>
-    <mergeCell ref="CD35:CE35"/>
-    <mergeCell ref="CF35:CG35"/>
-    <mergeCell ref="BQ32:BV33"/>
-    <mergeCell ref="BQ25:BV25"/>
-    <mergeCell ref="BQ27:BV27"/>
-    <mergeCell ref="CM32:CR32"/>
-    <mergeCell ref="CM33:CR33"/>
-    <mergeCell ref="CM35:CR35"/>
-    <mergeCell ref="CM27:CR27"/>
-    <mergeCell ref="CM26:CR26"/>
-    <mergeCell ref="BQ35:BV35"/>
     <mergeCell ref="CM36:CR36"/>
     <mergeCell ref="CW18:DB18"/>
     <mergeCell ref="CW20:DB20"/>
@@ -8986,6 +9005,78 @@
     <mergeCell ref="CW36:DB40"/>
     <mergeCell ref="CM29:CR29"/>
     <mergeCell ref="CM30:CR30"/>
+    <mergeCell ref="BQ25:BV25"/>
+    <mergeCell ref="BQ27:BV27"/>
+    <mergeCell ref="CM32:CR32"/>
+    <mergeCell ref="CM33:CR33"/>
+    <mergeCell ref="CM35:CR35"/>
+    <mergeCell ref="CM27:CR27"/>
+    <mergeCell ref="CM26:CR26"/>
+    <mergeCell ref="BQ35:BV35"/>
+    <mergeCell ref="BQ36:BV36"/>
+    <mergeCell ref="CB31:CG31"/>
+    <mergeCell ref="CB32:CC32"/>
+    <mergeCell ref="CD32:CE32"/>
+    <mergeCell ref="CF32:CG32"/>
+    <mergeCell ref="CB34:CG34"/>
+    <mergeCell ref="CB35:CC35"/>
+    <mergeCell ref="CD35:CE35"/>
+    <mergeCell ref="CF35:CG35"/>
+    <mergeCell ref="BQ32:BV33"/>
+    <mergeCell ref="CB39:CG40"/>
+    <mergeCell ref="CB17:CG17"/>
+    <mergeCell ref="CB18:CC18"/>
+    <mergeCell ref="CD18:CE18"/>
+    <mergeCell ref="CF18:CG18"/>
+    <mergeCell ref="CB20:CG20"/>
+    <mergeCell ref="CF26:CG26"/>
+    <mergeCell ref="CD26:CE26"/>
+    <mergeCell ref="CB26:CC26"/>
+    <mergeCell ref="CB25:CG25"/>
+    <mergeCell ref="CE23:CH23"/>
+    <mergeCell ref="CB21:CG21"/>
+    <mergeCell ref="BE32:BJ33"/>
+    <mergeCell ref="CF29:CG29"/>
+    <mergeCell ref="CD29:CE29"/>
+    <mergeCell ref="CB29:CC29"/>
+    <mergeCell ref="CB28:CG28"/>
+    <mergeCell ref="BQ28:BV28"/>
+    <mergeCell ref="BE24:BJ24"/>
+    <mergeCell ref="BE25:BJ25"/>
+    <mergeCell ref="BE27:BJ27"/>
+    <mergeCell ref="BE28:BF28"/>
+    <mergeCell ref="BI28:BJ28"/>
+    <mergeCell ref="BG28:BH28"/>
+    <mergeCell ref="BE19:BJ19"/>
+    <mergeCell ref="BE18:BJ18"/>
+    <mergeCell ref="BE21:BJ21"/>
+    <mergeCell ref="BE22:BJ22"/>
+    <mergeCell ref="BQ19:BV19"/>
+    <mergeCell ref="BQ18:BV18"/>
+    <mergeCell ref="BQ21:BV21"/>
+    <mergeCell ref="BQ22:BV22"/>
+    <mergeCell ref="CL11:CS12"/>
+    <mergeCell ref="CL14:CS14"/>
+    <mergeCell ref="CV11:DC12"/>
+    <mergeCell ref="CV14:DC14"/>
+    <mergeCell ref="BQ24:BV24"/>
+    <mergeCell ref="CM18:CR18"/>
+    <mergeCell ref="CM19:CR19"/>
+    <mergeCell ref="CM21:CR21"/>
+    <mergeCell ref="CM24:CR24"/>
+    <mergeCell ref="CM23:CR23"/>
+    <mergeCell ref="BD11:BK12"/>
+    <mergeCell ref="BD14:BK14"/>
+    <mergeCell ref="BP11:BW12"/>
+    <mergeCell ref="BP14:BW14"/>
+    <mergeCell ref="CA11:CH12"/>
+    <mergeCell ref="CA14:CH14"/>
+    <mergeCell ref="P42:AX42"/>
+    <mergeCell ref="AY12:AY40"/>
+    <mergeCell ref="G11:N12"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="P17:R17"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9044,14 +9135,14 @@
         <v>476</v>
       </c>
       <c r="C3" s="28"/>
-      <c r="D3" s="294" t="s">
+      <c r="D3" s="299" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="295"/>
-      <c r="F3" s="295"/>
-      <c r="G3" s="295"/>
-      <c r="H3" s="295"/>
-      <c r="I3" s="296"/>
+      <c r="E3" s="300"/>
+      <c r="F3" s="300"/>
+      <c r="G3" s="300"/>
+      <c r="H3" s="300"/>
+      <c r="I3" s="301"/>
     </row>
     <row r="4" spans="1:16" ht="21" customHeight="1">
       <c r="A4" s="156" t="s">
@@ -9190,18 +9281,18 @@
         <v>375</v>
       </c>
       <c r="F12" s="132"/>
-      <c r="H12" s="297" t="s">
+      <c r="H12" s="294" t="s">
         <v>400</v>
       </c>
-      <c r="I12" s="298"/>
+      <c r="I12" s="302"/>
       <c r="J12" s="140" t="s">
         <v>404</v>
       </c>
       <c r="K12" s="132"/>
-      <c r="M12" s="297" t="s">
+      <c r="M12" s="294" t="s">
         <v>415</v>
       </c>
-      <c r="N12" s="293"/>
+      <c r="N12" s="295"/>
       <c r="O12" s="140" t="s">
         <v>422</v>
       </c>
@@ -9215,18 +9306,18 @@
         <v>368</v>
       </c>
       <c r="F13" s="132"/>
-      <c r="H13" s="297" t="s">
+      <c r="H13" s="294" t="s">
         <v>401</v>
       </c>
-      <c r="I13" s="298"/>
+      <c r="I13" s="302"/>
       <c r="J13" s="140" t="s">
         <v>403</v>
       </c>
       <c r="K13" s="132"/>
-      <c r="M13" s="297" t="s">
+      <c r="M13" s="294" t="s">
         <v>216</v>
       </c>
-      <c r="N13" s="293"/>
+      <c r="N13" s="295"/>
       <c r="O13" s="131" t="s">
         <v>417</v>
       </c>
@@ -9238,18 +9329,18 @@
       </c>
       <c r="E14" s="131"/>
       <c r="F14" s="132"/>
-      <c r="H14" s="297" t="s">
+      <c r="H14" s="294" t="s">
         <v>402</v>
       </c>
-      <c r="I14" s="298"/>
+      <c r="I14" s="302"/>
       <c r="J14" s="140" t="s">
         <v>369</v>
       </c>
       <c r="K14" s="132"/>
-      <c r="M14" s="297" t="s">
+      <c r="M14" s="294" t="s">
         <v>215</v>
       </c>
-      <c r="N14" s="293"/>
+      <c r="N14" s="295"/>
       <c r="O14" s="131" t="s">
         <v>418</v>
       </c>
@@ -9261,14 +9352,14 @@
       </c>
       <c r="E15" s="140"/>
       <c r="F15" s="132"/>
-      <c r="H15" s="299"/>
-      <c r="I15" s="300"/>
+      <c r="H15" s="297"/>
+      <c r="I15" s="298"/>
       <c r="J15" s="140"/>
       <c r="K15" s="132"/>
-      <c r="M15" s="297" t="s">
+      <c r="M15" s="294" t="s">
         <v>211</v>
       </c>
-      <c r="N15" s="293"/>
+      <c r="N15" s="295"/>
       <c r="O15" s="131" t="s">
         <v>419</v>
       </c>
@@ -9280,14 +9371,14 @@
       </c>
       <c r="E16" s="131"/>
       <c r="F16" s="134"/>
-      <c r="H16" s="299"/>
-      <c r="I16" s="300"/>
+      <c r="H16" s="297"/>
+      <c r="I16" s="298"/>
       <c r="J16" s="140"/>
       <c r="K16" s="132"/>
-      <c r="M16" s="297" t="s">
+      <c r="M16" s="294" t="s">
         <v>212</v>
       </c>
-      <c r="N16" s="293"/>
+      <c r="N16" s="295"/>
       <c r="O16" s="131" t="s">
         <v>169</v>
       </c>
@@ -9303,10 +9394,10 @@
       <c r="I17" s="135"/>
       <c r="J17" s="136"/>
       <c r="K17" s="137"/>
-      <c r="M17" s="297" t="s">
+      <c r="M17" s="294" t="s">
         <v>416</v>
       </c>
-      <c r="N17" s="293"/>
+      <c r="N17" s="295"/>
       <c r="O17" s="131" t="s">
         <v>420</v>
       </c>
@@ -9316,10 +9407,10 @@
       <c r="C18" s="133"/>
       <c r="E18" s="131"/>
       <c r="F18" s="134"/>
-      <c r="M18" s="297" t="s">
+      <c r="M18" s="294" t="s">
         <v>213</v>
       </c>
-      <c r="N18" s="293"/>
+      <c r="N18" s="295"/>
       <c r="O18" s="131" t="s">
         <v>421</v>
       </c>
@@ -9339,10 +9430,10 @@
       <c r="K19" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="M19" s="297" t="s">
+      <c r="M19" s="294" t="s">
         <v>290</v>
       </c>
-      <c r="N19" s="293"/>
+      <c r="N19" s="295"/>
       <c r="O19" s="131" t="s">
         <v>427</v>
       </c>
@@ -9360,10 +9451,10 @@
       <c r="I20" s="29"/>
       <c r="J20" s="29"/>
       <c r="K20" s="127"/>
-      <c r="M20" s="292" t="s">
+      <c r="M20" s="296" t="s">
         <v>423</v>
       </c>
-      <c r="N20" s="293"/>
+      <c r="N20" s="295"/>
       <c r="O20" s="140" t="s">
         <v>480</v>
       </c>
@@ -9377,10 +9468,10 @@
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
       <c r="K21" s="127"/>
-      <c r="M21" s="292" t="s">
+      <c r="M21" s="296" t="s">
         <v>424</v>
       </c>
-      <c r="N21" s="293"/>
+      <c r="N21" s="295"/>
       <c r="O21" s="131"/>
       <c r="P21" s="132"/>
     </row>
@@ -9397,22 +9488,22 @@
         <v>84</v>
       </c>
       <c r="K22" s="130"/>
-      <c r="M22" s="292"/>
-      <c r="N22" s="293"/>
+      <c r="M22" s="296"/>
+      <c r="N22" s="295"/>
       <c r="O22" s="131"/>
       <c r="P22" s="132"/>
     </row>
     <row r="23" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="H23" s="297" t="s">
+      <c r="H23" s="294" t="s">
         <v>405</v>
       </c>
-      <c r="I23" s="298"/>
+      <c r="I23" s="302"/>
       <c r="J23" s="140" t="s">
         <v>369</v>
       </c>
       <c r="K23" s="132"/>
-      <c r="M23" s="292"/>
-      <c r="N23" s="293"/>
+      <c r="M23" s="296"/>
+      <c r="N23" s="295"/>
       <c r="O23" s="131"/>
       <c r="P23" s="132"/>
     </row>
@@ -9425,12 +9516,12 @@
       <c r="F24" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="H24" s="297"/>
-      <c r="I24" s="298"/>
+      <c r="H24" s="294"/>
+      <c r="I24" s="302"/>
       <c r="J24" s="140"/>
       <c r="K24" s="132"/>
-      <c r="M24" s="292"/>
-      <c r="N24" s="293"/>
+      <c r="M24" s="296"/>
+      <c r="N24" s="295"/>
       <c r="O24" s="131"/>
       <c r="P24" s="132"/>
     </row>
@@ -9443,12 +9534,12 @@
       <c r="F25" s="143" t="s">
         <v>373</v>
       </c>
-      <c r="H25" s="297"/>
-      <c r="I25" s="298"/>
+      <c r="H25" s="294"/>
+      <c r="I25" s="302"/>
       <c r="J25" s="140"/>
       <c r="K25" s="132"/>
-      <c r="M25" s="292"/>
-      <c r="N25" s="293"/>
+      <c r="M25" s="296"/>
+      <c r="N25" s="295"/>
       <c r="O25" s="131"/>
       <c r="P25" s="132"/>
     </row>
@@ -9457,12 +9548,12 @@
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
       <c r="F26" s="127"/>
-      <c r="H26" s="299"/>
-      <c r="I26" s="300"/>
+      <c r="H26" s="297"/>
+      <c r="I26" s="298"/>
       <c r="J26" s="140"/>
       <c r="K26" s="132"/>
-      <c r="M26" s="292"/>
-      <c r="N26" s="293"/>
+      <c r="M26" s="296"/>
+      <c r="N26" s="295"/>
       <c r="O26" s="131"/>
       <c r="P26" s="132"/>
     </row>
@@ -9475,12 +9566,12 @@
         <v>84</v>
       </c>
       <c r="F27" s="130"/>
-      <c r="H27" s="299"/>
-      <c r="I27" s="300"/>
+      <c r="H27" s="297"/>
+      <c r="I27" s="298"/>
       <c r="J27" s="140"/>
       <c r="K27" s="132"/>
-      <c r="M27" s="292"/>
-      <c r="N27" s="293"/>
+      <c r="M27" s="296"/>
+      <c r="N27" s="295"/>
       <c r="O27" s="131"/>
       <c r="P27" s="132"/>
     </row>
@@ -9496,8 +9587,8 @@
       <c r="I28" s="135"/>
       <c r="J28" s="136"/>
       <c r="K28" s="137"/>
-      <c r="M28" s="292"/>
-      <c r="N28" s="293"/>
+      <c r="M28" s="296"/>
+      <c r="N28" s="295"/>
       <c r="O28" s="131"/>
       <c r="P28" s="132"/>
     </row>
@@ -9509,8 +9600,8 @@
         <v>388</v>
       </c>
       <c r="F29" s="132"/>
-      <c r="M29" s="292"/>
-      <c r="N29" s="293"/>
+      <c r="M29" s="296"/>
+      <c r="N29" s="295"/>
       <c r="O29" s="131"/>
       <c r="P29" s="132"/>
     </row>
@@ -9520,8 +9611,8 @@
       </c>
       <c r="E30" s="140"/>
       <c r="F30" s="132"/>
-      <c r="M30" s="292"/>
-      <c r="N30" s="293"/>
+      <c r="M30" s="296"/>
+      <c r="N30" s="295"/>
       <c r="O30" s="131"/>
       <c r="P30" s="132"/>
     </row>
@@ -9601,10 +9692,10 @@
       <c r="C37" s="133"/>
       <c r="E37" s="131"/>
       <c r="F37" s="134"/>
-      <c r="M37" s="297" t="s">
+      <c r="M37" s="294" t="s">
         <v>428</v>
       </c>
-      <c r="N37" s="293"/>
+      <c r="N37" s="295"/>
       <c r="O37" s="131" t="s">
         <v>430</v>
       </c>
@@ -9614,10 +9705,10 @@
       <c r="C38" s="133"/>
       <c r="E38" s="131"/>
       <c r="F38" s="134"/>
-      <c r="M38" s="292" t="s">
+      <c r="M38" s="296" t="s">
         <v>429</v>
       </c>
-      <c r="N38" s="293"/>
+      <c r="N38" s="295"/>
       <c r="O38" s="131" t="s">
         <v>431</v>
       </c>
@@ -9628,16 +9719,16 @@
       <c r="D39" s="135"/>
       <c r="E39" s="136"/>
       <c r="F39" s="139"/>
-      <c r="M39" s="292"/>
-      <c r="N39" s="293"/>
+      <c r="M39" s="296"/>
+      <c r="N39" s="295"/>
       <c r="O39" s="131" t="s">
         <v>432</v>
       </c>
       <c r="P39" s="132"/>
     </row>
     <row r="40" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="M40" s="292"/>
-      <c r="N40" s="293"/>
+      <c r="M40" s="296"/>
+      <c r="N40" s="295"/>
       <c r="O40" s="131" t="s">
         <v>433</v>
       </c>
@@ -9652,8 +9743,8 @@
       <c r="F41" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="M41" s="292"/>
-      <c r="N41" s="293"/>
+      <c r="M41" s="296"/>
+      <c r="N41" s="295"/>
       <c r="O41" s="131" t="s">
         <v>435</v>
       </c>
@@ -9668,8 +9759,8 @@
       <c r="F42" s="143" t="s">
         <v>373</v>
       </c>
-      <c r="M42" s="292"/>
-      <c r="N42" s="293"/>
+      <c r="M42" s="296"/>
+      <c r="N42" s="295"/>
       <c r="O42" s="131" t="s">
         <v>434</v>
       </c>
@@ -9763,10 +9854,10 @@
         <v>397</v>
       </c>
       <c r="F49" s="134"/>
-      <c r="M49" s="297" t="s">
+      <c r="M49" s="294" t="s">
         <v>436</v>
       </c>
-      <c r="N49" s="293"/>
+      <c r="N49" s="295"/>
       <c r="O49" s="131" t="s">
         <v>439</v>
       </c>
@@ -9780,10 +9871,10 @@
         <v>334</v>
       </c>
       <c r="F50" s="134"/>
-      <c r="M50" s="292" t="s">
+      <c r="M50" s="296" t="s">
         <v>437</v>
       </c>
-      <c r="N50" s="293"/>
+      <c r="N50" s="295"/>
       <c r="O50" s="131" t="s">
         <v>440</v>
       </c>
@@ -9797,10 +9888,10 @@
         <v>369</v>
       </c>
       <c r="F51" s="134"/>
-      <c r="M51" s="292" t="s">
+      <c r="M51" s="296" t="s">
         <v>438</v>
       </c>
-      <c r="N51" s="293"/>
+      <c r="N51" s="295"/>
       <c r="O51" s="131"/>
       <c r="P51" s="132"/>
     </row>
@@ -9810,10 +9901,10 @@
         <v>456</v>
       </c>
       <c r="F52" s="134"/>
-      <c r="M52" s="292" t="s">
+      <c r="M52" s="296" t="s">
         <v>441</v>
       </c>
-      <c r="N52" s="293"/>
+      <c r="N52" s="295"/>
       <c r="O52" s="131"/>
       <c r="P52" s="132"/>
     </row>
@@ -9824,8 +9915,8 @@
         <v>457</v>
       </c>
       <c r="F53" s="137"/>
-      <c r="M53" s="292"/>
-      <c r="N53" s="293"/>
+      <c r="M53" s="296"/>
+      <c r="N53" s="295"/>
       <c r="O53" s="131"/>
       <c r="P53" s="132"/>
     </row>
@@ -9877,10 +9968,10 @@
       </c>
     </row>
     <row r="60" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M60" s="297" t="s">
+      <c r="M60" s="294" t="s">
         <v>442</v>
       </c>
-      <c r="N60" s="293"/>
+      <c r="N60" s="295"/>
       <c r="O60" s="140" t="s">
         <v>446</v>
       </c>
@@ -9889,10 +9980,10 @@
       </c>
     </row>
     <row r="61" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M61" s="292" t="s">
+      <c r="M61" s="296" t="s">
         <v>443</v>
       </c>
-      <c r="N61" s="293"/>
+      <c r="N61" s="295"/>
       <c r="O61" s="140" t="s">
         <v>447</v>
       </c>
@@ -9901,10 +9992,10 @@
       </c>
     </row>
     <row r="62" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M62" s="297" t="s">
+      <c r="M62" s="294" t="s">
         <v>448</v>
       </c>
-      <c r="N62" s="293"/>
+      <c r="N62" s="295"/>
       <c r="O62" s="140" t="s">
         <v>85</v>
       </c>
@@ -9913,14 +10004,14 @@
       </c>
     </row>
     <row r="63" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M63" s="292"/>
-      <c r="N63" s="293"/>
+      <c r="M63" s="296"/>
+      <c r="N63" s="295"/>
       <c r="O63" s="131"/>
       <c r="P63" s="132"/>
     </row>
     <row r="64" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M64" s="292"/>
-      <c r="N64" s="293"/>
+      <c r="M64" s="296"/>
+      <c r="N64" s="295"/>
       <c r="O64" s="131"/>
       <c r="P64" s="132"/>
     </row>
@@ -9968,40 +10059,40 @@
       <c r="P70" s="130"/>
     </row>
     <row r="71" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M71" s="297" t="s">
+      <c r="M71" s="294" t="s">
         <v>449</v>
       </c>
-      <c r="N71" s="293"/>
+      <c r="N71" s="295"/>
       <c r="O71" s="140" t="s">
         <v>369</v>
       </c>
       <c r="P71" s="132"/>
     </row>
     <row r="72" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M72" s="297" t="s">
+      <c r="M72" s="294" t="s">
         <v>450</v>
       </c>
-      <c r="N72" s="293"/>
+      <c r="N72" s="295"/>
       <c r="O72" s="140" t="s">
         <v>451</v>
       </c>
       <c r="P72" s="132"/>
     </row>
     <row r="73" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M73" s="292"/>
-      <c r="N73" s="293"/>
+      <c r="M73" s="296"/>
+      <c r="N73" s="295"/>
       <c r="O73" s="131"/>
       <c r="P73" s="132"/>
     </row>
     <row r="74" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M74" s="292"/>
-      <c r="N74" s="293"/>
+      <c r="M74" s="296"/>
+      <c r="N74" s="295"/>
       <c r="O74" s="131"/>
       <c r="P74" s="132"/>
     </row>
     <row r="75" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M75" s="292"/>
-      <c r="N75" s="293"/>
+      <c r="M75" s="296"/>
+      <c r="N75" s="295"/>
       <c r="O75" s="131"/>
       <c r="P75" s="132"/>
     </row>
@@ -10049,40 +10140,40 @@
       <c r="P81" s="130"/>
     </row>
     <row r="82" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M82" s="297" t="s">
+      <c r="M82" s="294" t="s">
         <v>449</v>
       </c>
-      <c r="N82" s="293"/>
+      <c r="N82" s="295"/>
       <c r="O82" s="140" t="s">
         <v>369</v>
       </c>
       <c r="P82" s="132"/>
     </row>
     <row r="83" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M83" s="297" t="s">
+      <c r="M83" s="294" t="s">
         <v>452</v>
       </c>
-      <c r="N83" s="293"/>
+      <c r="N83" s="295"/>
       <c r="O83" s="140" t="s">
         <v>451</v>
       </c>
       <c r="P83" s="132"/>
     </row>
     <row r="84" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M84" s="292"/>
-      <c r="N84" s="293"/>
+      <c r="M84" s="296"/>
+      <c r="N84" s="295"/>
       <c r="O84" s="131"/>
       <c r="P84" s="132"/>
     </row>
     <row r="85" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M85" s="292"/>
-      <c r="N85" s="293"/>
+      <c r="M85" s="296"/>
+      <c r="N85" s="295"/>
       <c r="O85" s="131"/>
       <c r="P85" s="132"/>
     </row>
     <row r="86" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M86" s="292"/>
-      <c r="N86" s="293"/>
+      <c r="M86" s="296"/>
+      <c r="N86" s="295"/>
       <c r="O86" s="131"/>
       <c r="P86" s="132"/>
     </row>
@@ -10128,40 +10219,40 @@
       <c r="P92" s="130"/>
     </row>
     <row r="93" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M93" s="297" t="s">
+      <c r="M93" s="294" t="s">
         <v>216</v>
       </c>
-      <c r="N93" s="293"/>
+      <c r="N93" s="295"/>
       <c r="O93" s="140" t="s">
         <v>453</v>
       </c>
       <c r="P93" s="132"/>
     </row>
     <row r="94" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M94" s="292"/>
-      <c r="N94" s="293"/>
+      <c r="M94" s="296"/>
+      <c r="N94" s="295"/>
       <c r="O94" s="140" t="s">
         <v>454</v>
       </c>
       <c r="P94" s="132"/>
     </row>
     <row r="95" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M95" s="292"/>
-      <c r="N95" s="293"/>
+      <c r="M95" s="296"/>
+      <c r="N95" s="295"/>
       <c r="O95" s="140" t="s">
         <v>455</v>
       </c>
       <c r="P95" s="132"/>
     </row>
     <row r="96" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M96" s="292"/>
-      <c r="N96" s="293"/>
+      <c r="M96" s="296"/>
+      <c r="N96" s="295"/>
       <c r="O96" s="131"/>
       <c r="P96" s="132"/>
     </row>
     <row r="97" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M97" s="292"/>
-      <c r="N97" s="293"/>
+      <c r="M97" s="296"/>
+      <c r="N97" s="295"/>
       <c r="O97" s="131"/>
       <c r="P97" s="132"/>
     </row>
@@ -10207,46 +10298,46 @@
       <c r="P103" s="130"/>
     </row>
     <row r="104" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M104" s="297" t="s">
+      <c r="M104" s="294" t="s">
         <v>465</v>
       </c>
-      <c r="N104" s="293"/>
+      <c r="N104" s="295"/>
       <c r="O104" s="140" t="s">
         <v>462</v>
       </c>
       <c r="P104" s="132"/>
     </row>
     <row r="105" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M105" s="297" t="s">
+      <c r="M105" s="294" t="s">
         <v>466</v>
       </c>
-      <c r="N105" s="293"/>
+      <c r="N105" s="295"/>
       <c r="O105" s="140" t="s">
         <v>461</v>
       </c>
       <c r="P105" s="132"/>
     </row>
     <row r="106" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M106" s="297" t="s">
+      <c r="M106" s="294" t="s">
         <v>467</v>
       </c>
-      <c r="N106" s="293"/>
+      <c r="N106" s="295"/>
       <c r="O106" s="140" t="s">
         <v>463</v>
       </c>
       <c r="P106" s="132"/>
     </row>
     <row r="107" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M107" s="292"/>
-      <c r="N107" s="293"/>
+      <c r="M107" s="296"/>
+      <c r="N107" s="295"/>
       <c r="O107" s="140" t="s">
         <v>464</v>
       </c>
       <c r="P107" s="132"/>
     </row>
     <row r="108" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M108" s="292"/>
-      <c r="N108" s="293"/>
+      <c r="M108" s="296"/>
+      <c r="N108" s="295"/>
       <c r="O108" s="131"/>
       <c r="P108" s="132"/>
     </row>
@@ -10294,42 +10385,42 @@
       <c r="P114" s="130"/>
     </row>
     <row r="115" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M115" s="297" t="s">
+      <c r="M115" s="294" t="s">
         <v>482</v>
       </c>
-      <c r="N115" s="293"/>
+      <c r="N115" s="295"/>
       <c r="O115" s="140" t="s">
         <v>483</v>
       </c>
       <c r="P115" s="132"/>
     </row>
     <row r="116" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M116" s="292"/>
-      <c r="N116" s="293"/>
+      <c r="M116" s="296"/>
+      <c r="N116" s="295"/>
       <c r="O116" s="131"/>
       <c r="P116" s="132"/>
     </row>
     <row r="117" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M117" s="292"/>
-      <c r="N117" s="293"/>
+      <c r="M117" s="296"/>
+      <c r="N117" s="295"/>
       <c r="O117" s="131"/>
       <c r="P117" s="132"/>
     </row>
     <row r="118" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M118" s="292"/>
-      <c r="N118" s="293"/>
+      <c r="M118" s="296"/>
+      <c r="N118" s="295"/>
       <c r="O118" s="131"/>
       <c r="P118" s="132"/>
     </row>
     <row r="119" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M119" s="292"/>
-      <c r="N119" s="293"/>
+      <c r="M119" s="296"/>
+      <c r="N119" s="295"/>
       <c r="O119" s="131"/>
       <c r="P119" s="132"/>
     </row>
     <row r="120" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M120" s="292"/>
-      <c r="N120" s="293"/>
+      <c r="M120" s="296"/>
+      <c r="N120" s="295"/>
       <c r="O120" s="131"/>
       <c r="P120" s="132"/>
     </row>
@@ -10341,46 +10432,22 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="M105:N105"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="M107:N107"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="M95:N95"/>
-    <mergeCell ref="M96:N96"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="M104:N104"/>
-    <mergeCell ref="M83:N83"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="M86:N86"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="M75:N75"/>
-    <mergeCell ref="M82:N82"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M119:N119"/>
+    <mergeCell ref="M120:N120"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="M115:N115"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="M117:N117"/>
+    <mergeCell ref="M118:N118"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
     <mergeCell ref="M37:N37"/>
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="M12:N12"/>
@@ -10397,22 +10464,46 @@
     <mergeCell ref="M21:N21"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M119:N119"/>
-    <mergeCell ref="M120:N120"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="M115:N115"/>
-    <mergeCell ref="M116:N116"/>
-    <mergeCell ref="M117:N117"/>
-    <mergeCell ref="M118:N118"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="M82:N82"/>
+    <mergeCell ref="M83:N83"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="M107:N107"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="M95:N95"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="M104:N104"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
@@ -11982,15 +12073,15 @@
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
-      <c r="H3" s="301"/>
-      <c r="I3" s="244"/>
-      <c r="J3" s="244"/>
-      <c r="K3" s="244"/>
-      <c r="L3" s="244"/>
-      <c r="M3" s="244"/>
-      <c r="N3" s="244"/>
-      <c r="O3" s="244"/>
-      <c r="P3" s="244"/>
+      <c r="H3" s="303"/>
+      <c r="I3" s="246"/>
+      <c r="J3" s="246"/>
+      <c r="K3" s="246"/>
+      <c r="L3" s="246"/>
+      <c r="M3" s="246"/>
+      <c r="N3" s="246"/>
+      <c r="O3" s="246"/>
+      <c r="P3" s="246"/>
     </row>
     <row r="4" spans="2:21" ht="21.75" customHeight="1" thickBot="1">
       <c r="B4" s="26"/>
@@ -12043,12 +12134,12 @@
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
       <c r="N6" s="26"/>
-      <c r="R6" s="302" t="s">
+      <c r="R6" s="304" t="s">
         <v>600</v>
       </c>
-      <c r="S6" s="303"/>
-      <c r="T6" s="303"/>
-      <c r="U6" s="304"/>
+      <c r="S6" s="305"/>
+      <c r="T6" s="305"/>
+      <c r="U6" s="306"/>
     </row>
     <row r="7" spans="2:21" ht="21.75" customHeight="1" thickBot="1">
       <c r="B7" s="183" t="s">
@@ -12066,10 +12157,10 @@
       <c r="L7" s="184"/>
       <c r="M7" s="184"/>
       <c r="N7" s="184"/>
-      <c r="R7" s="305"/>
-      <c r="S7" s="306"/>
-      <c r="T7" s="306"/>
-      <c r="U7" s="307"/>
+      <c r="R7" s="307"/>
+      <c r="S7" s="308"/>
+      <c r="T7" s="308"/>
+      <c r="U7" s="309"/>
     </row>
     <row r="8" spans="2:21" ht="15">
       <c r="B8" s="187" t="s">
@@ -12091,10 +12182,10 @@
       <c r="L8" s="184"/>
       <c r="M8" s="184"/>
       <c r="N8" s="190"/>
-      <c r="R8" s="305"/>
-      <c r="S8" s="306"/>
-      <c r="T8" s="306"/>
-      <c r="U8" s="307"/>
+      <c r="R8" s="307"/>
+      <c r="S8" s="308"/>
+      <c r="T8" s="308"/>
+      <c r="U8" s="309"/>
     </row>
     <row r="9" spans="2:21" thickBot="1">
       <c r="B9" s="191" t="s">
@@ -12116,10 +12207,10 @@
       <c r="L9" s="194"/>
       <c r="M9" s="194"/>
       <c r="N9" s="194"/>
-      <c r="R9" s="305"/>
-      <c r="S9" s="306"/>
-      <c r="T9" s="306"/>
-      <c r="U9" s="307"/>
+      <c r="R9" s="307"/>
+      <c r="S9" s="308"/>
+      <c r="T9" s="308"/>
+      <c r="U9" s="309"/>
     </row>
     <row r="10" spans="2:21" thickBot="1">
       <c r="B10" s="191" t="s">
@@ -12151,10 +12242,10 @@
       </c>
       <c r="O10" s="200"/>
       <c r="P10" s="201"/>
-      <c r="R10" s="305"/>
-      <c r="S10" s="306"/>
-      <c r="T10" s="306"/>
-      <c r="U10" s="307"/>
+      <c r="R10" s="307"/>
+      <c r="S10" s="308"/>
+      <c r="T10" s="308"/>
+      <c r="U10" s="309"/>
     </row>
     <row r="11" spans="2:21" ht="15" customHeight="1" thickBot="1">
       <c r="B11" s="202"/>
@@ -12196,10 +12287,10 @@
       <c r="P11" s="211" t="s">
         <v>100</v>
       </c>
-      <c r="R11" s="305"/>
-      <c r="S11" s="306"/>
-      <c r="T11" s="306"/>
-      <c r="U11" s="307"/>
+      <c r="R11" s="307"/>
+      <c r="S11" s="308"/>
+      <c r="T11" s="308"/>
+      <c r="U11" s="309"/>
     </row>
     <row r="12" spans="2:21" ht="20.25" customHeight="1">
       <c r="B12" s="171" t="s">
@@ -12221,10 +12312,10 @@
       <c r="N12" s="231"/>
       <c r="O12" s="216"/>
       <c r="P12" s="217"/>
-      <c r="R12" s="305"/>
-      <c r="S12" s="306"/>
-      <c r="T12" s="306"/>
-      <c r="U12" s="307"/>
+      <c r="R12" s="307"/>
+      <c r="S12" s="308"/>
+      <c r="T12" s="308"/>
+      <c r="U12" s="309"/>
     </row>
     <row r="13" spans="2:21" ht="20.25" customHeight="1">
       <c r="B13" s="172"/>
@@ -12248,10 +12339,10 @@
       <c r="N13" s="231"/>
       <c r="O13" s="216"/>
       <c r="P13" s="217"/>
-      <c r="R13" s="305"/>
-      <c r="S13" s="306"/>
-      <c r="T13" s="306"/>
-      <c r="U13" s="307"/>
+      <c r="R13" s="307"/>
+      <c r="S13" s="308"/>
+      <c r="T13" s="308"/>
+      <c r="U13" s="309"/>
     </row>
     <row r="14" spans="2:21" ht="20.25" customHeight="1">
       <c r="B14" s="174"/>
@@ -12269,10 +12360,10 @@
       <c r="N14" s="231"/>
       <c r="O14" s="216"/>
       <c r="P14" s="217"/>
-      <c r="R14" s="305"/>
-      <c r="S14" s="306"/>
-      <c r="T14" s="306"/>
-      <c r="U14" s="307"/>
+      <c r="R14" s="307"/>
+      <c r="S14" s="308"/>
+      <c r="T14" s="308"/>
+      <c r="U14" s="309"/>
     </row>
     <row r="15" spans="2:21" ht="20.25" customHeight="1">
       <c r="B15" s="174" t="s">
@@ -12294,10 +12385,10 @@
       <c r="N15" s="231"/>
       <c r="O15" s="216"/>
       <c r="P15" s="217"/>
-      <c r="R15" s="305"/>
-      <c r="S15" s="306"/>
-      <c r="T15" s="306"/>
-      <c r="U15" s="307"/>
+      <c r="R15" s="307"/>
+      <c r="S15" s="308"/>
+      <c r="T15" s="308"/>
+      <c r="U15" s="309"/>
     </row>
     <row r="16" spans="2:21" ht="20.25" customHeight="1">
       <c r="B16" s="172"/>
@@ -12321,10 +12412,10 @@
       <c r="N16" s="231"/>
       <c r="O16" s="216"/>
       <c r="P16" s="217"/>
-      <c r="R16" s="305"/>
-      <c r="S16" s="306"/>
-      <c r="T16" s="306"/>
-      <c r="U16" s="307"/>
+      <c r="R16" s="307"/>
+      <c r="S16" s="308"/>
+      <c r="T16" s="308"/>
+      <c r="U16" s="309"/>
     </row>
     <row r="17" spans="2:21" ht="20.25" customHeight="1">
       <c r="B17" s="172"/>
@@ -12348,10 +12439,10 @@
       <c r="N17" s="231"/>
       <c r="O17" s="216"/>
       <c r="P17" s="217"/>
-      <c r="R17" s="305"/>
-      <c r="S17" s="306"/>
-      <c r="T17" s="306"/>
-      <c r="U17" s="307"/>
+      <c r="R17" s="307"/>
+      <c r="S17" s="308"/>
+      <c r="T17" s="308"/>
+      <c r="U17" s="309"/>
     </row>
     <row r="18" spans="2:21" ht="20.25" customHeight="1">
       <c r="B18" s="172"/>
@@ -12371,10 +12462,10 @@
       <c r="N18" s="231"/>
       <c r="O18" s="216"/>
       <c r="P18" s="217"/>
-      <c r="R18" s="305"/>
-      <c r="S18" s="306"/>
-      <c r="T18" s="306"/>
-      <c r="U18" s="307"/>
+      <c r="R18" s="307"/>
+      <c r="S18" s="308"/>
+      <c r="T18" s="308"/>
+      <c r="U18" s="309"/>
     </row>
     <row r="19" spans="2:21" ht="20.25" customHeight="1">
       <c r="B19" s="172"/>
@@ -12398,10 +12489,10 @@
       <c r="N19" s="231"/>
       <c r="O19" s="216"/>
       <c r="P19" s="217"/>
-      <c r="R19" s="305"/>
-      <c r="S19" s="306"/>
-      <c r="T19" s="306"/>
-      <c r="U19" s="307"/>
+      <c r="R19" s="307"/>
+      <c r="S19" s="308"/>
+      <c r="T19" s="308"/>
+      <c r="U19" s="309"/>
     </row>
     <row r="20" spans="2:21" ht="20.25" customHeight="1">
       <c r="B20" s="172"/>
@@ -12419,10 +12510,10 @@
       <c r="N20" s="231"/>
       <c r="O20" s="216"/>
       <c r="P20" s="217"/>
-      <c r="R20" s="305"/>
-      <c r="S20" s="306"/>
-      <c r="T20" s="306"/>
-      <c r="U20" s="307"/>
+      <c r="R20" s="307"/>
+      <c r="S20" s="308"/>
+      <c r="T20" s="308"/>
+      <c r="U20" s="309"/>
     </row>
     <row r="21" spans="2:21" ht="20.25" customHeight="1">
       <c r="B21" s="174" t="s">
@@ -12444,10 +12535,10 @@
       <c r="N21" s="231"/>
       <c r="O21" s="216"/>
       <c r="P21" s="217"/>
-      <c r="R21" s="305"/>
-      <c r="S21" s="306"/>
-      <c r="T21" s="306"/>
-      <c r="U21" s="307"/>
+      <c r="R21" s="307"/>
+      <c r="S21" s="308"/>
+      <c r="T21" s="308"/>
+      <c r="U21" s="309"/>
     </row>
     <row r="22" spans="2:21" ht="20.25" customHeight="1">
       <c r="B22" s="172"/>
@@ -12471,10 +12562,10 @@
       <c r="N22" s="231"/>
       <c r="O22" s="216"/>
       <c r="P22" s="217"/>
-      <c r="R22" s="305"/>
-      <c r="S22" s="306"/>
-      <c r="T22" s="306"/>
-      <c r="U22" s="307"/>
+      <c r="R22" s="307"/>
+      <c r="S22" s="308"/>
+      <c r="T22" s="308"/>
+      <c r="U22" s="309"/>
     </row>
     <row r="23" spans="2:21" ht="20.25" customHeight="1">
       <c r="B23" s="172"/>
@@ -12498,10 +12589,10 @@
       <c r="N23" s="231"/>
       <c r="O23" s="216"/>
       <c r="P23" s="217"/>
-      <c r="R23" s="305"/>
-      <c r="S23" s="306"/>
-      <c r="T23" s="306"/>
-      <c r="U23" s="307"/>
+      <c r="R23" s="307"/>
+      <c r="S23" s="308"/>
+      <c r="T23" s="308"/>
+      <c r="U23" s="309"/>
     </row>
     <row r="24" spans="2:21" ht="20.25" customHeight="1">
       <c r="B24" s="172"/>
@@ -12525,10 +12616,10 @@
       <c r="N24" s="231"/>
       <c r="O24" s="216"/>
       <c r="P24" s="217"/>
-      <c r="R24" s="305"/>
-      <c r="S24" s="306"/>
-      <c r="T24" s="306"/>
-      <c r="U24" s="307"/>
+      <c r="R24" s="307"/>
+      <c r="S24" s="308"/>
+      <c r="T24" s="308"/>
+      <c r="U24" s="309"/>
     </row>
     <row r="25" spans="2:21" ht="20.25" customHeight="1">
       <c r="B25" s="172"/>
@@ -12552,10 +12643,10 @@
       <c r="N25" s="231"/>
       <c r="O25" s="216"/>
       <c r="P25" s="217"/>
-      <c r="R25" s="305"/>
-      <c r="S25" s="306"/>
-      <c r="T25" s="306"/>
-      <c r="U25" s="307"/>
+      <c r="R25" s="307"/>
+      <c r="S25" s="308"/>
+      <c r="T25" s="308"/>
+      <c r="U25" s="309"/>
     </row>
     <row r="26" spans="2:21" ht="20.25" customHeight="1">
       <c r="B26" s="169"/>
@@ -12579,10 +12670,10 @@
       <c r="N26" s="231"/>
       <c r="O26" s="216"/>
       <c r="P26" s="217"/>
-      <c r="R26" s="305"/>
-      <c r="S26" s="306"/>
-      <c r="T26" s="306"/>
-      <c r="U26" s="307"/>
+      <c r="R26" s="307"/>
+      <c r="S26" s="308"/>
+      <c r="T26" s="308"/>
+      <c r="U26" s="309"/>
     </row>
     <row r="27" spans="2:21" ht="20.25" customHeight="1">
       <c r="B27" s="169"/>
@@ -12606,10 +12697,10 @@
       <c r="N27" s="231"/>
       <c r="O27" s="216"/>
       <c r="P27" s="217"/>
-      <c r="R27" s="305"/>
-      <c r="S27" s="306"/>
-      <c r="T27" s="306"/>
-      <c r="U27" s="307"/>
+      <c r="R27" s="307"/>
+      <c r="S27" s="308"/>
+      <c r="T27" s="308"/>
+      <c r="U27" s="309"/>
     </row>
     <row r="28" spans="2:21" ht="20.25" customHeight="1">
       <c r="B28" s="169"/>
@@ -12627,10 +12718,10 @@
       <c r="N28" s="231"/>
       <c r="O28" s="216"/>
       <c r="P28" s="217"/>
-      <c r="R28" s="305"/>
-      <c r="S28" s="306"/>
-      <c r="T28" s="306"/>
-      <c r="U28" s="307"/>
+      <c r="R28" s="307"/>
+      <c r="S28" s="308"/>
+      <c r="T28" s="308"/>
+      <c r="U28" s="309"/>
     </row>
     <row r="29" spans="2:21" ht="20.25" customHeight="1">
       <c r="B29" s="174" t="s">
@@ -12652,10 +12743,10 @@
       <c r="N29" s="231"/>
       <c r="O29" s="216"/>
       <c r="P29" s="217"/>
-      <c r="R29" s="305"/>
-      <c r="S29" s="306"/>
-      <c r="T29" s="306"/>
-      <c r="U29" s="307"/>
+      <c r="R29" s="307"/>
+      <c r="S29" s="308"/>
+      <c r="T29" s="308"/>
+      <c r="U29" s="309"/>
     </row>
     <row r="30" spans="2:21" ht="20.25" customHeight="1">
       <c r="B30" s="172"/>
@@ -12675,10 +12766,10 @@
       <c r="N30" s="231"/>
       <c r="O30" s="216"/>
       <c r="P30" s="217"/>
-      <c r="R30" s="305"/>
-      <c r="S30" s="306"/>
-      <c r="T30" s="306"/>
-      <c r="U30" s="307"/>
+      <c r="R30" s="307"/>
+      <c r="S30" s="308"/>
+      <c r="T30" s="308"/>
+      <c r="U30" s="309"/>
     </row>
     <row r="31" spans="2:21" ht="20.25" customHeight="1">
       <c r="B31" s="172"/>
@@ -12698,10 +12789,10 @@
       <c r="N31" s="231"/>
       <c r="O31" s="216"/>
       <c r="P31" s="217"/>
-      <c r="R31" s="305"/>
-      <c r="S31" s="306"/>
-      <c r="T31" s="306"/>
-      <c r="U31" s="307"/>
+      <c r="R31" s="307"/>
+      <c r="S31" s="308"/>
+      <c r="T31" s="308"/>
+      <c r="U31" s="309"/>
     </row>
     <row r="32" spans="2:21" ht="20.25" customHeight="1">
       <c r="B32" s="169"/>
@@ -12721,10 +12812,10 @@
       <c r="N32" s="231"/>
       <c r="O32" s="216"/>
       <c r="P32" s="217"/>
-      <c r="R32" s="305"/>
-      <c r="S32" s="306"/>
-      <c r="T32" s="306"/>
-      <c r="U32" s="307"/>
+      <c r="R32" s="307"/>
+      <c r="S32" s="308"/>
+      <c r="T32" s="308"/>
+      <c r="U32" s="309"/>
     </row>
     <row r="33" spans="2:21" ht="20.25" customHeight="1">
       <c r="B33" s="169"/>
@@ -12742,10 +12833,10 @@
       <c r="N33" s="231"/>
       <c r="O33" s="216"/>
       <c r="P33" s="217"/>
-      <c r="R33" s="305"/>
-      <c r="S33" s="306"/>
-      <c r="T33" s="306"/>
-      <c r="U33" s="307"/>
+      <c r="R33" s="307"/>
+      <c r="S33" s="308"/>
+      <c r="T33" s="308"/>
+      <c r="U33" s="309"/>
     </row>
     <row r="34" spans="2:21" ht="20.25" customHeight="1">
       <c r="B34" s="174" t="s">
@@ -12765,10 +12856,10 @@
       <c r="N34" s="231"/>
       <c r="O34" s="216"/>
       <c r="P34" s="217"/>
-      <c r="R34" s="305"/>
-      <c r="S34" s="306"/>
-      <c r="T34" s="306"/>
-      <c r="U34" s="307"/>
+      <c r="R34" s="307"/>
+      <c r="S34" s="308"/>
+      <c r="T34" s="308"/>
+      <c r="U34" s="309"/>
     </row>
     <row r="35" spans="2:21" ht="20.25" customHeight="1">
       <c r="B35" s="172"/>
@@ -12792,10 +12883,10 @@
       <c r="N35" s="231"/>
       <c r="O35" s="216"/>
       <c r="P35" s="217"/>
-      <c r="R35" s="305"/>
-      <c r="S35" s="306"/>
-      <c r="T35" s="306"/>
-      <c r="U35" s="307"/>
+      <c r="R35" s="307"/>
+      <c r="S35" s="308"/>
+      <c r="T35" s="308"/>
+      <c r="U35" s="309"/>
     </row>
     <row r="36" spans="2:21" ht="20.25" customHeight="1">
       <c r="B36" s="172"/>
@@ -12819,10 +12910,10 @@
       <c r="N36" s="231"/>
       <c r="O36" s="216"/>
       <c r="P36" s="217"/>
-      <c r="R36" s="305"/>
-      <c r="S36" s="306"/>
-      <c r="T36" s="306"/>
-      <c r="U36" s="307"/>
+      <c r="R36" s="307"/>
+      <c r="S36" s="308"/>
+      <c r="T36" s="308"/>
+      <c r="U36" s="309"/>
     </row>
     <row r="37" spans="2:21" ht="20.25" customHeight="1">
       <c r="B37" s="169"/>
@@ -12840,10 +12931,10 @@
       <c r="N37" s="231"/>
       <c r="O37" s="216"/>
       <c r="P37" s="217"/>
-      <c r="R37" s="305"/>
-      <c r="S37" s="306"/>
-      <c r="T37" s="306"/>
-      <c r="U37" s="307"/>
+      <c r="R37" s="307"/>
+      <c r="S37" s="308"/>
+      <c r="T37" s="308"/>
+      <c r="U37" s="309"/>
     </row>
     <row r="38" spans="2:21" ht="20.25" customHeight="1">
       <c r="B38" s="174" t="s">
@@ -12863,10 +12954,10 @@
       <c r="N38" s="231"/>
       <c r="O38" s="216"/>
       <c r="P38" s="217"/>
-      <c r="R38" s="305"/>
-      <c r="S38" s="306"/>
-      <c r="T38" s="306"/>
-      <c r="U38" s="307"/>
+      <c r="R38" s="307"/>
+      <c r="S38" s="308"/>
+      <c r="T38" s="308"/>
+      <c r="U38" s="309"/>
     </row>
     <row r="39" spans="2:21" ht="20.25" customHeight="1">
       <c r="B39" s="172"/>
@@ -12888,10 +12979,10 @@
       <c r="N39" s="231"/>
       <c r="O39" s="216"/>
       <c r="P39" s="217"/>
-      <c r="R39" s="305"/>
-      <c r="S39" s="306"/>
-      <c r="T39" s="306"/>
-      <c r="U39" s="307"/>
+      <c r="R39" s="307"/>
+      <c r="S39" s="308"/>
+      <c r="T39" s="308"/>
+      <c r="U39" s="309"/>
     </row>
     <row r="40" spans="2:21" ht="20.25" customHeight="1">
       <c r="B40" s="172"/>
@@ -12913,10 +13004,10 @@
       <c r="N40" s="231"/>
       <c r="O40" s="216"/>
       <c r="P40" s="217"/>
-      <c r="R40" s="305"/>
-      <c r="S40" s="306"/>
-      <c r="T40" s="306"/>
-      <c r="U40" s="307"/>
+      <c r="R40" s="307"/>
+      <c r="S40" s="308"/>
+      <c r="T40" s="308"/>
+      <c r="U40" s="309"/>
     </row>
     <row r="41" spans="2:21" ht="20.25" customHeight="1">
       <c r="B41" s="172"/>
@@ -12938,10 +13029,10 @@
       <c r="N41" s="231"/>
       <c r="O41" s="216"/>
       <c r="P41" s="217"/>
-      <c r="R41" s="305"/>
-      <c r="S41" s="306"/>
-      <c r="T41" s="306"/>
-      <c r="U41" s="307"/>
+      <c r="R41" s="307"/>
+      <c r="S41" s="308"/>
+      <c r="T41" s="308"/>
+      <c r="U41" s="309"/>
     </row>
     <row r="42" spans="2:21" ht="20.25" customHeight="1">
       <c r="B42" s="172"/>
@@ -12963,10 +13054,10 @@
       <c r="N42" s="231"/>
       <c r="O42" s="216"/>
       <c r="P42" s="217"/>
-      <c r="R42" s="305"/>
-      <c r="S42" s="306"/>
-      <c r="T42" s="306"/>
-      <c r="U42" s="307"/>
+      <c r="R42" s="307"/>
+      <c r="S42" s="308"/>
+      <c r="T42" s="308"/>
+      <c r="U42" s="309"/>
     </row>
     <row r="43" spans="2:21" ht="20.25" customHeight="1">
       <c r="B43" s="172"/>
@@ -12988,10 +13079,10 @@
       <c r="N43" s="231"/>
       <c r="O43" s="216"/>
       <c r="P43" s="217"/>
-      <c r="R43" s="305"/>
-      <c r="S43" s="306"/>
-      <c r="T43" s="306"/>
-      <c r="U43" s="307"/>
+      <c r="R43" s="307"/>
+      <c r="S43" s="308"/>
+      <c r="T43" s="308"/>
+      <c r="U43" s="309"/>
     </row>
     <row r="44" spans="2:21" ht="20.25" customHeight="1">
       <c r="B44" s="172"/>
@@ -13013,10 +13104,10 @@
       <c r="N44" s="231"/>
       <c r="O44" s="216"/>
       <c r="P44" s="217"/>
-      <c r="R44" s="305"/>
-      <c r="S44" s="306"/>
-      <c r="T44" s="306"/>
-      <c r="U44" s="307"/>
+      <c r="R44" s="307"/>
+      <c r="S44" s="308"/>
+      <c r="T44" s="308"/>
+      <c r="U44" s="309"/>
     </row>
     <row r="45" spans="2:21" ht="20.25" customHeight="1">
       <c r="B45" s="172"/>
@@ -13038,10 +13129,10 @@
       <c r="N45" s="231"/>
       <c r="O45" s="216"/>
       <c r="P45" s="217"/>
-      <c r="R45" s="305"/>
-      <c r="S45" s="306"/>
-      <c r="T45" s="306"/>
-      <c r="U45" s="307"/>
+      <c r="R45" s="307"/>
+      <c r="S45" s="308"/>
+      <c r="T45" s="308"/>
+      <c r="U45" s="309"/>
     </row>
     <row r="46" spans="2:21" ht="20.25" customHeight="1">
       <c r="B46" s="172"/>
@@ -13063,10 +13154,10 @@
       <c r="N46" s="231"/>
       <c r="O46" s="216"/>
       <c r="P46" s="217"/>
-      <c r="R46" s="305"/>
-      <c r="S46" s="306"/>
-      <c r="T46" s="306"/>
-      <c r="U46" s="307"/>
+      <c r="R46" s="307"/>
+      <c r="S46" s="308"/>
+      <c r="T46" s="308"/>
+      <c r="U46" s="309"/>
     </row>
     <row r="47" spans="2:21" ht="20.25" customHeight="1">
       <c r="B47" s="172"/>
@@ -13088,10 +13179,10 @@
       <c r="N47" s="231"/>
       <c r="O47" s="216"/>
       <c r="P47" s="217"/>
-      <c r="R47" s="305"/>
-      <c r="S47" s="306"/>
-      <c r="T47" s="306"/>
-      <c r="U47" s="307"/>
+      <c r="R47" s="307"/>
+      <c r="S47" s="308"/>
+      <c r="T47" s="308"/>
+      <c r="U47" s="309"/>
     </row>
     <row r="48" spans="2:21" ht="20.25" customHeight="1">
       <c r="B48" s="169"/>
@@ -13109,10 +13200,10 @@
       <c r="N48" s="231"/>
       <c r="O48" s="216"/>
       <c r="P48" s="217"/>
-      <c r="R48" s="305"/>
-      <c r="S48" s="306"/>
-      <c r="T48" s="306"/>
-      <c r="U48" s="307"/>
+      <c r="R48" s="307"/>
+      <c r="S48" s="308"/>
+      <c r="T48" s="308"/>
+      <c r="U48" s="309"/>
     </row>
     <row r="49" spans="2:21" ht="20.25" customHeight="1">
       <c r="B49" s="174" t="s">
@@ -13132,10 +13223,10 @@
       <c r="N49" s="231"/>
       <c r="O49" s="216"/>
       <c r="P49" s="217"/>
-      <c r="R49" s="305"/>
-      <c r="S49" s="306"/>
-      <c r="T49" s="306"/>
-      <c r="U49" s="307"/>
+      <c r="R49" s="307"/>
+      <c r="S49" s="308"/>
+      <c r="T49" s="308"/>
+      <c r="U49" s="309"/>
     </row>
     <row r="50" spans="2:21" ht="20.25" customHeight="1">
       <c r="B50" s="172"/>
@@ -13157,10 +13248,10 @@
       <c r="N50" s="231"/>
       <c r="O50" s="216"/>
       <c r="P50" s="217"/>
-      <c r="R50" s="305"/>
-      <c r="S50" s="306"/>
-      <c r="T50" s="306"/>
-      <c r="U50" s="307"/>
+      <c r="R50" s="307"/>
+      <c r="S50" s="308"/>
+      <c r="T50" s="308"/>
+      <c r="U50" s="309"/>
     </row>
     <row r="51" spans="2:21" ht="20.25" customHeight="1">
       <c r="B51" s="172"/>
@@ -13182,10 +13273,10 @@
       <c r="N51" s="231"/>
       <c r="O51" s="216"/>
       <c r="P51" s="217"/>
-      <c r="R51" s="305"/>
-      <c r="S51" s="306"/>
-      <c r="T51" s="306"/>
-      <c r="U51" s="307"/>
+      <c r="R51" s="307"/>
+      <c r="S51" s="308"/>
+      <c r="T51" s="308"/>
+      <c r="U51" s="309"/>
     </row>
     <row r="52" spans="2:21" ht="20.25" customHeight="1">
       <c r="B52" s="172"/>
@@ -13207,10 +13298,10 @@
       <c r="N52" s="231"/>
       <c r="O52" s="216"/>
       <c r="P52" s="217"/>
-      <c r="R52" s="305"/>
-      <c r="S52" s="306"/>
-      <c r="T52" s="306"/>
-      <c r="U52" s="307"/>
+      <c r="R52" s="307"/>
+      <c r="S52" s="308"/>
+      <c r="T52" s="308"/>
+      <c r="U52" s="309"/>
     </row>
     <row r="53" spans="2:21" ht="20.25" customHeight="1">
       <c r="B53" s="172"/>
@@ -13232,10 +13323,10 @@
       <c r="N53" s="231"/>
       <c r="O53" s="216"/>
       <c r="P53" s="217"/>
-      <c r="R53" s="305"/>
-      <c r="S53" s="306"/>
-      <c r="T53" s="306"/>
-      <c r="U53" s="307"/>
+      <c r="R53" s="307"/>
+      <c r="S53" s="308"/>
+      <c r="T53" s="308"/>
+      <c r="U53" s="309"/>
     </row>
     <row r="54" spans="2:21" ht="20.25" customHeight="1">
       <c r="B54" s="172"/>
@@ -13253,10 +13344,10 @@
       <c r="N54" s="231"/>
       <c r="O54" s="216"/>
       <c r="P54" s="217"/>
-      <c r="R54" s="305"/>
-      <c r="S54" s="306"/>
-      <c r="T54" s="306"/>
-      <c r="U54" s="307"/>
+      <c r="R54" s="307"/>
+      <c r="S54" s="308"/>
+      <c r="T54" s="308"/>
+      <c r="U54" s="309"/>
     </row>
     <row r="55" spans="2:21" ht="20.25" customHeight="1">
       <c r="B55" s="174" t="s">
@@ -13276,10 +13367,10 @@
       <c r="N55" s="231"/>
       <c r="O55" s="216"/>
       <c r="P55" s="217"/>
-      <c r="R55" s="305"/>
-      <c r="S55" s="306"/>
-      <c r="T55" s="306"/>
-      <c r="U55" s="307"/>
+      <c r="R55" s="307"/>
+      <c r="S55" s="308"/>
+      <c r="T55" s="308"/>
+      <c r="U55" s="309"/>
     </row>
     <row r="56" spans="2:21" ht="20.25" customHeight="1">
       <c r="B56" s="172"/>
@@ -13301,10 +13392,10 @@
       <c r="N56" s="231"/>
       <c r="O56" s="216"/>
       <c r="P56" s="217"/>
-      <c r="R56" s="305"/>
-      <c r="S56" s="306"/>
-      <c r="T56" s="306"/>
-      <c r="U56" s="307"/>
+      <c r="R56" s="307"/>
+      <c r="S56" s="308"/>
+      <c r="T56" s="308"/>
+      <c r="U56" s="309"/>
     </row>
     <row r="57" spans="2:21" ht="20.25" customHeight="1">
       <c r="B57" s="172"/>
@@ -13326,10 +13417,10 @@
       <c r="N57" s="231"/>
       <c r="O57" s="216"/>
       <c r="P57" s="217"/>
-      <c r="R57" s="305"/>
-      <c r="S57" s="306"/>
-      <c r="T57" s="306"/>
-      <c r="U57" s="307"/>
+      <c r="R57" s="307"/>
+      <c r="S57" s="308"/>
+      <c r="T57" s="308"/>
+      <c r="U57" s="309"/>
     </row>
     <row r="58" spans="2:21" ht="20.25" customHeight="1">
       <c r="B58" s="172"/>
@@ -13351,10 +13442,10 @@
       <c r="N58" s="231"/>
       <c r="O58" s="216"/>
       <c r="P58" s="217"/>
-      <c r="R58" s="305"/>
-      <c r="S58" s="306"/>
-      <c r="T58" s="306"/>
-      <c r="U58" s="307"/>
+      <c r="R58" s="307"/>
+      <c r="S58" s="308"/>
+      <c r="T58" s="308"/>
+      <c r="U58" s="309"/>
     </row>
     <row r="59" spans="2:21" ht="20.25" customHeight="1">
       <c r="B59" s="172"/>
@@ -13376,10 +13467,10 @@
       <c r="N59" s="231"/>
       <c r="O59" s="216"/>
       <c r="P59" s="217"/>
-      <c r="R59" s="305"/>
-      <c r="S59" s="306"/>
-      <c r="T59" s="306"/>
-      <c r="U59" s="307"/>
+      <c r="R59" s="307"/>
+      <c r="S59" s="308"/>
+      <c r="T59" s="308"/>
+      <c r="U59" s="309"/>
     </row>
     <row r="60" spans="2:21" ht="20.25" customHeight="1">
       <c r="B60" s="172"/>
@@ -13401,10 +13492,10 @@
       <c r="N60" s="231"/>
       <c r="O60" s="216"/>
       <c r="P60" s="217"/>
-      <c r="R60" s="305"/>
-      <c r="S60" s="306"/>
-      <c r="T60" s="306"/>
-      <c r="U60" s="307"/>
+      <c r="R60" s="307"/>
+      <c r="S60" s="308"/>
+      <c r="T60" s="308"/>
+      <c r="U60" s="309"/>
     </row>
     <row r="61" spans="2:21" ht="20.25" customHeight="1">
       <c r="B61" s="218"/>
@@ -13422,10 +13513,10 @@
       <c r="N61" s="231"/>
       <c r="O61" s="216"/>
       <c r="P61" s="217"/>
-      <c r="R61" s="305"/>
-      <c r="S61" s="306"/>
-      <c r="T61" s="306"/>
-      <c r="U61" s="307"/>
+      <c r="R61" s="307"/>
+      <c r="S61" s="308"/>
+      <c r="T61" s="308"/>
+      <c r="U61" s="309"/>
     </row>
     <row r="62" spans="2:21" ht="20.25" customHeight="1">
       <c r="B62" s="174" t="s">
@@ -13445,10 +13536,10 @@
       <c r="N62" s="231"/>
       <c r="O62" s="216"/>
       <c r="P62" s="217"/>
-      <c r="R62" s="305"/>
-      <c r="S62" s="306"/>
-      <c r="T62" s="306"/>
-      <c r="U62" s="307"/>
+      <c r="R62" s="307"/>
+      <c r="S62" s="308"/>
+      <c r="T62" s="308"/>
+      <c r="U62" s="309"/>
     </row>
     <row r="63" spans="2:21" ht="20.25" customHeight="1">
       <c r="B63" s="172"/>
@@ -13470,10 +13561,10 @@
       <c r="N63" s="231"/>
       <c r="O63" s="216"/>
       <c r="P63" s="217"/>
-      <c r="R63" s="305"/>
-      <c r="S63" s="306"/>
-      <c r="T63" s="306"/>
-      <c r="U63" s="307"/>
+      <c r="R63" s="307"/>
+      <c r="S63" s="308"/>
+      <c r="T63" s="308"/>
+      <c r="U63" s="309"/>
     </row>
     <row r="64" spans="2:21" ht="20.25" customHeight="1">
       <c r="B64" s="172"/>
@@ -13495,10 +13586,10 @@
       <c r="N64" s="231"/>
       <c r="O64" s="216"/>
       <c r="P64" s="217"/>
-      <c r="R64" s="305"/>
-      <c r="S64" s="306"/>
-      <c r="T64" s="306"/>
-      <c r="U64" s="307"/>
+      <c r="R64" s="307"/>
+      <c r="S64" s="308"/>
+      <c r="T64" s="308"/>
+      <c r="U64" s="309"/>
     </row>
     <row r="65" spans="2:21" ht="20.25" customHeight="1">
       <c r="B65" s="169"/>
@@ -13516,10 +13607,10 @@
       <c r="N65" s="231"/>
       <c r="O65" s="216"/>
       <c r="P65" s="217"/>
-      <c r="R65" s="305"/>
-      <c r="S65" s="306"/>
-      <c r="T65" s="306"/>
-      <c r="U65" s="307"/>
+      <c r="R65" s="307"/>
+      <c r="S65" s="308"/>
+      <c r="T65" s="308"/>
+      <c r="U65" s="309"/>
     </row>
     <row r="66" spans="2:21" ht="20.25" customHeight="1">
       <c r="B66" s="174" t="s">
@@ -13541,10 +13632,10 @@
       </c>
       <c r="O66" s="216"/>
       <c r="P66" s="217"/>
-      <c r="R66" s="305"/>
-      <c r="S66" s="306"/>
-      <c r="T66" s="306"/>
-      <c r="U66" s="307"/>
+      <c r="R66" s="307"/>
+      <c r="S66" s="308"/>
+      <c r="T66" s="308"/>
+      <c r="U66" s="309"/>
     </row>
     <row r="67" spans="2:21" ht="20.25" customHeight="1">
       <c r="B67" s="172"/>
@@ -13566,10 +13657,10 @@
       </c>
       <c r="O67" s="216"/>
       <c r="P67" s="217"/>
-      <c r="R67" s="305"/>
-      <c r="S67" s="306"/>
-      <c r="T67" s="306"/>
-      <c r="U67" s="307"/>
+      <c r="R67" s="307"/>
+      <c r="S67" s="308"/>
+      <c r="T67" s="308"/>
+      <c r="U67" s="309"/>
     </row>
     <row r="68" spans="2:21" ht="20.25" customHeight="1">
       <c r="B68" s="169"/>
@@ -13591,10 +13682,10 @@
       </c>
       <c r="O68" s="216"/>
       <c r="P68" s="217"/>
-      <c r="R68" s="305"/>
-      <c r="S68" s="306"/>
-      <c r="T68" s="306"/>
-      <c r="U68" s="307"/>
+      <c r="R68" s="307"/>
+      <c r="S68" s="308"/>
+      <c r="T68" s="308"/>
+      <c r="U68" s="309"/>
     </row>
     <row r="69" spans="2:21" ht="20.25" customHeight="1">
       <c r="B69" s="169"/>
@@ -13616,10 +13707,10 @@
       </c>
       <c r="O69" s="216"/>
       <c r="P69" s="217"/>
-      <c r="R69" s="305"/>
-      <c r="S69" s="306"/>
-      <c r="T69" s="306"/>
-      <c r="U69" s="307"/>
+      <c r="R69" s="307"/>
+      <c r="S69" s="308"/>
+      <c r="T69" s="308"/>
+      <c r="U69" s="309"/>
     </row>
     <row r="70" spans="2:21" ht="20.25" customHeight="1">
       <c r="B70" s="169"/>
@@ -13641,10 +13732,10 @@
       </c>
       <c r="O70" s="216"/>
       <c r="P70" s="217"/>
-      <c r="R70" s="305"/>
-      <c r="S70" s="306"/>
-      <c r="T70" s="306"/>
-      <c r="U70" s="307"/>
+      <c r="R70" s="307"/>
+      <c r="S70" s="308"/>
+      <c r="T70" s="308"/>
+      <c r="U70" s="309"/>
     </row>
     <row r="71" spans="2:21" ht="20.25" customHeight="1">
       <c r="B71" s="169"/>
@@ -13666,10 +13757,10 @@
       </c>
       <c r="O71" s="216"/>
       <c r="P71" s="217"/>
-      <c r="R71" s="305"/>
-      <c r="S71" s="306"/>
-      <c r="T71" s="306"/>
-      <c r="U71" s="307"/>
+      <c r="R71" s="307"/>
+      <c r="S71" s="308"/>
+      <c r="T71" s="308"/>
+      <c r="U71" s="309"/>
     </row>
     <row r="72" spans="2:21" ht="20.25" customHeight="1">
       <c r="B72" s="169"/>
@@ -13691,10 +13782,10 @@
       </c>
       <c r="O72" s="216"/>
       <c r="P72" s="217"/>
-      <c r="R72" s="305"/>
-      <c r="S72" s="306"/>
-      <c r="T72" s="306"/>
-      <c r="U72" s="307"/>
+      <c r="R72" s="307"/>
+      <c r="S72" s="308"/>
+      <c r="T72" s="308"/>
+      <c r="U72" s="309"/>
     </row>
     <row r="73" spans="2:21" ht="20.25" customHeight="1">
       <c r="B73" s="169"/>
@@ -13716,10 +13807,10 @@
       </c>
       <c r="O73" s="216"/>
       <c r="P73" s="217"/>
-      <c r="R73" s="305"/>
-      <c r="S73" s="306"/>
-      <c r="T73" s="306"/>
-      <c r="U73" s="307"/>
+      <c r="R73" s="307"/>
+      <c r="S73" s="308"/>
+      <c r="T73" s="308"/>
+      <c r="U73" s="309"/>
     </row>
     <row r="74" spans="2:21" ht="20.25" customHeight="1">
       <c r="B74" s="169"/>
@@ -13741,10 +13832,10 @@
       </c>
       <c r="O74" s="216"/>
       <c r="P74" s="217"/>
-      <c r="R74" s="305"/>
-      <c r="S74" s="306"/>
-      <c r="T74" s="306"/>
-      <c r="U74" s="307"/>
+      <c r="R74" s="307"/>
+      <c r="S74" s="308"/>
+      <c r="T74" s="308"/>
+      <c r="U74" s="309"/>
     </row>
     <row r="75" spans="2:21" ht="20.25" customHeight="1">
       <c r="B75" s="169"/>
@@ -13766,10 +13857,10 @@
       </c>
       <c r="O75" s="216"/>
       <c r="P75" s="217"/>
-      <c r="R75" s="305"/>
-      <c r="S75" s="306"/>
-      <c r="T75" s="306"/>
-      <c r="U75" s="307"/>
+      <c r="R75" s="307"/>
+      <c r="S75" s="308"/>
+      <c r="T75" s="308"/>
+      <c r="U75" s="309"/>
     </row>
     <row r="76" spans="2:21" ht="20.25" customHeight="1">
       <c r="B76" s="169"/>
@@ -13787,10 +13878,10 @@
       <c r="N76" s="231"/>
       <c r="O76" s="216"/>
       <c r="P76" s="217"/>
-      <c r="R76" s="305"/>
-      <c r="S76" s="306"/>
-      <c r="T76" s="306"/>
-      <c r="U76" s="307"/>
+      <c r="R76" s="307"/>
+      <c r="S76" s="308"/>
+      <c r="T76" s="308"/>
+      <c r="U76" s="309"/>
     </row>
     <row r="77" spans="2:21" ht="20.25" customHeight="1">
       <c r="B77" s="174" t="s">
@@ -13812,10 +13903,10 @@
       </c>
       <c r="O77" s="216"/>
       <c r="P77" s="217"/>
-      <c r="R77" s="305"/>
-      <c r="S77" s="306"/>
-      <c r="T77" s="306"/>
-      <c r="U77" s="307"/>
+      <c r="R77" s="307"/>
+      <c r="S77" s="308"/>
+      <c r="T77" s="308"/>
+      <c r="U77" s="309"/>
     </row>
     <row r="78" spans="2:21" ht="20.25" customHeight="1">
       <c r="B78" s="172"/>
@@ -13837,10 +13928,10 @@
       </c>
       <c r="O78" s="216"/>
       <c r="P78" s="217"/>
-      <c r="R78" s="305"/>
-      <c r="S78" s="306"/>
-      <c r="T78" s="306"/>
-      <c r="U78" s="307"/>
+      <c r="R78" s="307"/>
+      <c r="S78" s="308"/>
+      <c r="T78" s="308"/>
+      <c r="U78" s="309"/>
     </row>
     <row r="79" spans="2:21" ht="20.25" customHeight="1">
       <c r="B79" s="172"/>
@@ -13862,10 +13953,10 @@
       </c>
       <c r="O79" s="216"/>
       <c r="P79" s="217"/>
-      <c r="R79" s="305"/>
-      <c r="S79" s="306"/>
-      <c r="T79" s="306"/>
-      <c r="U79" s="307"/>
+      <c r="R79" s="307"/>
+      <c r="S79" s="308"/>
+      <c r="T79" s="308"/>
+      <c r="U79" s="309"/>
     </row>
     <row r="80" spans="2:21" ht="20.25" customHeight="1">
       <c r="B80" s="169"/>
@@ -13883,10 +13974,10 @@
       <c r="N80" s="231"/>
       <c r="O80" s="216"/>
       <c r="P80" s="217"/>
-      <c r="R80" s="305"/>
-      <c r="S80" s="306"/>
-      <c r="T80" s="306"/>
-      <c r="U80" s="307"/>
+      <c r="R80" s="307"/>
+      <c r="S80" s="308"/>
+      <c r="T80" s="308"/>
+      <c r="U80" s="309"/>
     </row>
     <row r="81" spans="2:21" ht="20.25" customHeight="1">
       <c r="B81" s="174" t="s">
@@ -13908,10 +13999,10 @@
       </c>
       <c r="O81" s="216"/>
       <c r="P81" s="217"/>
-      <c r="R81" s="305"/>
-      <c r="S81" s="306"/>
-      <c r="T81" s="306"/>
-      <c r="U81" s="307"/>
+      <c r="R81" s="307"/>
+      <c r="S81" s="308"/>
+      <c r="T81" s="308"/>
+      <c r="U81" s="309"/>
     </row>
     <row r="82" spans="2:21" ht="20.25" customHeight="1">
       <c r="B82" s="172"/>
@@ -13933,10 +14024,10 @@
       </c>
       <c r="O82" s="216"/>
       <c r="P82" s="217"/>
-      <c r="R82" s="305"/>
-      <c r="S82" s="306"/>
-      <c r="T82" s="306"/>
-      <c r="U82" s="307"/>
+      <c r="R82" s="307"/>
+      <c r="S82" s="308"/>
+      <c r="T82" s="308"/>
+      <c r="U82" s="309"/>
     </row>
     <row r="83" spans="2:21" ht="20.25" customHeight="1">
       <c r="B83" s="172"/>
@@ -13958,10 +14049,10 @@
       </c>
       <c r="O83" s="216"/>
       <c r="P83" s="217"/>
-      <c r="R83" s="305"/>
-      <c r="S83" s="306"/>
-      <c r="T83" s="306"/>
-      <c r="U83" s="307"/>
+      <c r="R83" s="307"/>
+      <c r="S83" s="308"/>
+      <c r="T83" s="308"/>
+      <c r="U83" s="309"/>
     </row>
     <row r="84" spans="2:21" ht="20.25" customHeight="1">
       <c r="B84" s="172"/>
@@ -13983,10 +14074,10 @@
       </c>
       <c r="O84" s="216"/>
       <c r="P84" s="217"/>
-      <c r="R84" s="305"/>
-      <c r="S84" s="306"/>
-      <c r="T84" s="306"/>
-      <c r="U84" s="307"/>
+      <c r="R84" s="307"/>
+      <c r="S84" s="308"/>
+      <c r="T84" s="308"/>
+      <c r="U84" s="309"/>
     </row>
     <row r="85" spans="2:21" ht="20.25" customHeight="1">
       <c r="B85" s="172"/>
@@ -14008,10 +14099,10 @@
       </c>
       <c r="O85" s="216"/>
       <c r="P85" s="217"/>
-      <c r="R85" s="305"/>
-      <c r="S85" s="306"/>
-      <c r="T85" s="306"/>
-      <c r="U85" s="307"/>
+      <c r="R85" s="307"/>
+      <c r="S85" s="308"/>
+      <c r="T85" s="308"/>
+      <c r="U85" s="309"/>
     </row>
     <row r="86" spans="2:21" ht="20.25" customHeight="1">
       <c r="B86" s="172"/>
@@ -14033,10 +14124,10 @@
       </c>
       <c r="O86" s="216"/>
       <c r="P86" s="217"/>
-      <c r="R86" s="305"/>
-      <c r="S86" s="306"/>
-      <c r="T86" s="306"/>
-      <c r="U86" s="307"/>
+      <c r="R86" s="307"/>
+      <c r="S86" s="308"/>
+      <c r="T86" s="308"/>
+      <c r="U86" s="309"/>
     </row>
     <row r="87" spans="2:21" ht="20.25" customHeight="1">
       <c r="B87" s="169"/>
@@ -14054,10 +14145,10 @@
       <c r="N87" s="231"/>
       <c r="O87" s="216"/>
       <c r="P87" s="217"/>
-      <c r="R87" s="305"/>
-      <c r="S87" s="306"/>
-      <c r="T87" s="306"/>
-      <c r="U87" s="307"/>
+      <c r="R87" s="307"/>
+      <c r="S87" s="308"/>
+      <c r="T87" s="308"/>
+      <c r="U87" s="309"/>
     </row>
     <row r="88" spans="2:21" ht="20.25" customHeight="1">
       <c r="B88" s="174" t="s">
@@ -14079,10 +14170,10 @@
       </c>
       <c r="O88" s="216"/>
       <c r="P88" s="217"/>
-      <c r="R88" s="305"/>
-      <c r="S88" s="306"/>
-      <c r="T88" s="306"/>
-      <c r="U88" s="307"/>
+      <c r="R88" s="307"/>
+      <c r="S88" s="308"/>
+      <c r="T88" s="308"/>
+      <c r="U88" s="309"/>
     </row>
     <row r="89" spans="2:21" ht="20.25" customHeight="1">
       <c r="B89" s="172"/>
@@ -14104,10 +14195,10 @@
       </c>
       <c r="O89" s="216"/>
       <c r="P89" s="217"/>
-      <c r="R89" s="305"/>
-      <c r="S89" s="306"/>
-      <c r="T89" s="306"/>
-      <c r="U89" s="307"/>
+      <c r="R89" s="307"/>
+      <c r="S89" s="308"/>
+      <c r="T89" s="308"/>
+      <c r="U89" s="309"/>
     </row>
     <row r="90" spans="2:21" ht="20.25" customHeight="1">
       <c r="B90" s="172"/>
@@ -14129,10 +14220,10 @@
       </c>
       <c r="O90" s="216"/>
       <c r="P90" s="217"/>
-      <c r="R90" s="305"/>
-      <c r="S90" s="306"/>
-      <c r="T90" s="306"/>
-      <c r="U90" s="307"/>
+      <c r="R90" s="307"/>
+      <c r="S90" s="308"/>
+      <c r="T90" s="308"/>
+      <c r="U90" s="309"/>
     </row>
     <row r="91" spans="2:21" ht="20.25" customHeight="1">
       <c r="B91" s="172"/>
@@ -14154,10 +14245,10 @@
       </c>
       <c r="O91" s="216"/>
       <c r="P91" s="217"/>
-      <c r="R91" s="305"/>
-      <c r="S91" s="306"/>
-      <c r="T91" s="306"/>
-      <c r="U91" s="307"/>
+      <c r="R91" s="307"/>
+      <c r="S91" s="308"/>
+      <c r="T91" s="308"/>
+      <c r="U91" s="309"/>
     </row>
     <row r="92" spans="2:21" ht="20.25" customHeight="1">
       <c r="B92" s="169"/>
@@ -14179,10 +14270,10 @@
       </c>
       <c r="O92" s="216"/>
       <c r="P92" s="217"/>
-      <c r="R92" s="305"/>
-      <c r="S92" s="306"/>
-      <c r="T92" s="306"/>
-      <c r="U92" s="307"/>
+      <c r="R92" s="307"/>
+      <c r="S92" s="308"/>
+      <c r="T92" s="308"/>
+      <c r="U92" s="309"/>
     </row>
     <row r="93" spans="2:21" ht="20.25" customHeight="1">
       <c r="B93" s="218"/>
@@ -14200,10 +14291,10 @@
       <c r="N93" s="231"/>
       <c r="O93" s="216"/>
       <c r="P93" s="217"/>
-      <c r="R93" s="305"/>
-      <c r="S93" s="306"/>
-      <c r="T93" s="306"/>
-      <c r="U93" s="307"/>
+      <c r="R93" s="307"/>
+      <c r="S93" s="308"/>
+      <c r="T93" s="308"/>
+      <c r="U93" s="309"/>
     </row>
     <row r="94" spans="2:21" ht="20.25" customHeight="1" thickBot="1">
       <c r="B94" s="225"/>
@@ -14221,10 +14312,10 @@
       <c r="N94" s="230"/>
       <c r="O94" s="226"/>
       <c r="P94" s="228"/>
-      <c r="R94" s="308"/>
-      <c r="S94" s="309"/>
-      <c r="T94" s="309"/>
-      <c r="U94" s="310"/>
+      <c r="R94" s="310"/>
+      <c r="S94" s="311"/>
+      <c r="T94" s="311"/>
+      <c r="U94" s="312"/>
     </row>
     <row r="95" spans="2:21" ht="15.75" customHeight="1">
       <c r="B95" s="186"/>
@@ -14307,15 +14398,15 @@
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
-      <c r="H3" s="301"/>
-      <c r="I3" s="244"/>
-      <c r="J3" s="244"/>
-      <c r="K3" s="244"/>
-      <c r="L3" s="244"/>
-      <c r="M3" s="244"/>
-      <c r="N3" s="244"/>
-      <c r="O3" s="244"/>
-      <c r="P3" s="244"/>
+      <c r="H3" s="303"/>
+      <c r="I3" s="246"/>
+      <c r="J3" s="246"/>
+      <c r="K3" s="246"/>
+      <c r="L3" s="246"/>
+      <c r="M3" s="246"/>
+      <c r="N3" s="246"/>
+      <c r="O3" s="246"/>
+      <c r="P3" s="246"/>
     </row>
     <row r="4" spans="2:21" ht="21.75" customHeight="1" thickBot="1">
       <c r="B4" s="26"/>
@@ -14368,12 +14459,12 @@
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
       <c r="N6" s="26"/>
-      <c r="R6" s="311" t="s">
+      <c r="R6" s="313" t="s">
         <v>626</v>
       </c>
-      <c r="S6" s="303"/>
-      <c r="T6" s="303"/>
-      <c r="U6" s="304"/>
+      <c r="S6" s="305"/>
+      <c r="T6" s="305"/>
+      <c r="U6" s="306"/>
     </row>
     <row r="7" spans="2:21" ht="21.75" customHeight="1" thickBot="1">
       <c r="B7" s="183" t="s">
@@ -14391,10 +14482,10 @@
       <c r="L7" s="184"/>
       <c r="M7" s="184"/>
       <c r="N7" s="184"/>
-      <c r="R7" s="305"/>
-      <c r="S7" s="306"/>
-      <c r="T7" s="306"/>
-      <c r="U7" s="307"/>
+      <c r="R7" s="307"/>
+      <c r="S7" s="308"/>
+      <c r="T7" s="308"/>
+      <c r="U7" s="309"/>
     </row>
     <row r="8" spans="2:21" ht="15">
       <c r="B8" s="187" t="s">
@@ -14416,10 +14507,10 @@
       <c r="L8" s="184"/>
       <c r="M8" s="184"/>
       <c r="N8" s="190"/>
-      <c r="R8" s="305"/>
-      <c r="S8" s="306"/>
-      <c r="T8" s="306"/>
-      <c r="U8" s="307"/>
+      <c r="R8" s="307"/>
+      <c r="S8" s="308"/>
+      <c r="T8" s="308"/>
+      <c r="U8" s="309"/>
     </row>
     <row r="9" spans="2:21" thickBot="1">
       <c r="B9" s="191" t="s">
@@ -14441,10 +14532,10 @@
       <c r="L9" s="194"/>
       <c r="M9" s="194"/>
       <c r="N9" s="194"/>
-      <c r="R9" s="305"/>
-      <c r="S9" s="306"/>
-      <c r="T9" s="306"/>
-      <c r="U9" s="307"/>
+      <c r="R9" s="307"/>
+      <c r="S9" s="308"/>
+      <c r="T9" s="308"/>
+      <c r="U9" s="309"/>
     </row>
     <row r="10" spans="2:21" thickBot="1">
       <c r="B10" s="191" t="s">
@@ -14476,10 +14567,10 @@
       </c>
       <c r="O10" s="200"/>
       <c r="P10" s="201"/>
-      <c r="R10" s="305"/>
-      <c r="S10" s="306"/>
-      <c r="T10" s="306"/>
-      <c r="U10" s="307"/>
+      <c r="R10" s="307"/>
+      <c r="S10" s="308"/>
+      <c r="T10" s="308"/>
+      <c r="U10" s="309"/>
     </row>
     <row r="11" spans="2:21" ht="15" customHeight="1" thickBot="1">
       <c r="B11" s="202"/>
@@ -14521,10 +14612,10 @@
       <c r="P11" s="211" t="s">
         <v>100</v>
       </c>
-      <c r="R11" s="305"/>
-      <c r="S11" s="306"/>
-      <c r="T11" s="306"/>
-      <c r="U11" s="307"/>
+      <c r="R11" s="307"/>
+      <c r="S11" s="308"/>
+      <c r="T11" s="308"/>
+      <c r="U11" s="309"/>
     </row>
     <row r="12" spans="2:21" ht="20.25" customHeight="1">
       <c r="B12" s="171"/>
@@ -14542,10 +14633,10 @@
       <c r="N12" s="231"/>
       <c r="O12" s="216"/>
       <c r="P12" s="217"/>
-      <c r="R12" s="305"/>
-      <c r="S12" s="306"/>
-      <c r="T12" s="306"/>
-      <c r="U12" s="307"/>
+      <c r="R12" s="307"/>
+      <c r="S12" s="308"/>
+      <c r="T12" s="308"/>
+      <c r="U12" s="309"/>
     </row>
     <row r="13" spans="2:21" ht="20.25" customHeight="1">
       <c r="B13" s="174" t="s">
@@ -14565,10 +14656,10 @@
       <c r="N13" s="231"/>
       <c r="O13" s="216"/>
       <c r="P13" s="217"/>
-      <c r="R13" s="305"/>
-      <c r="S13" s="306"/>
-      <c r="T13" s="306"/>
-      <c r="U13" s="307"/>
+      <c r="R13" s="307"/>
+      <c r="S13" s="308"/>
+      <c r="T13" s="308"/>
+      <c r="U13" s="309"/>
     </row>
     <row r="14" spans="2:21" ht="20.25" customHeight="1">
       <c r="B14" s="172"/>
@@ -14592,10 +14683,10 @@
       <c r="N14" s="231"/>
       <c r="O14" s="216"/>
       <c r="P14" s="217"/>
-      <c r="R14" s="305"/>
-      <c r="S14" s="306"/>
-      <c r="T14" s="306"/>
-      <c r="U14" s="307"/>
+      <c r="R14" s="307"/>
+      <c r="S14" s="308"/>
+      <c r="T14" s="308"/>
+      <c r="U14" s="309"/>
     </row>
     <row r="15" spans="2:21" ht="20.25" customHeight="1">
       <c r="B15" s="172"/>
@@ -14619,10 +14710,10 @@
       <c r="N15" s="231"/>
       <c r="O15" s="216"/>
       <c r="P15" s="217"/>
-      <c r="R15" s="305"/>
-      <c r="S15" s="306"/>
-      <c r="T15" s="306"/>
-      <c r="U15" s="307"/>
+      <c r="R15" s="307"/>
+      <c r="S15" s="308"/>
+      <c r="T15" s="308"/>
+      <c r="U15" s="309"/>
     </row>
     <row r="16" spans="2:21" ht="20.25" customHeight="1">
       <c r="B16" s="172"/>
@@ -14646,10 +14737,10 @@
       <c r="N16" s="231"/>
       <c r="O16" s="216"/>
       <c r="P16" s="217"/>
-      <c r="R16" s="305"/>
-      <c r="S16" s="306"/>
-      <c r="T16" s="306"/>
-      <c r="U16" s="307"/>
+      <c r="R16" s="307"/>
+      <c r="S16" s="308"/>
+      <c r="T16" s="308"/>
+      <c r="U16" s="309"/>
     </row>
     <row r="17" spans="2:21" ht="20.25" customHeight="1">
       <c r="B17" s="172"/>
@@ -14673,10 +14764,10 @@
       <c r="N17" s="231"/>
       <c r="O17" s="216"/>
       <c r="P17" s="217"/>
-      <c r="R17" s="305"/>
-      <c r="S17" s="306"/>
-      <c r="T17" s="306"/>
-      <c r="U17" s="307"/>
+      <c r="R17" s="307"/>
+      <c r="S17" s="308"/>
+      <c r="T17" s="308"/>
+      <c r="U17" s="309"/>
     </row>
     <row r="18" spans="2:21" ht="20.25" customHeight="1">
       <c r="B18" s="172"/>
@@ -14694,10 +14785,10 @@
       <c r="N18" s="231"/>
       <c r="O18" s="216"/>
       <c r="P18" s="217"/>
-      <c r="R18" s="305"/>
-      <c r="S18" s="306"/>
-      <c r="T18" s="306"/>
-      <c r="U18" s="307"/>
+      <c r="R18" s="307"/>
+      <c r="S18" s="308"/>
+      <c r="T18" s="308"/>
+      <c r="U18" s="309"/>
     </row>
     <row r="19" spans="2:21" ht="20.25" customHeight="1">
       <c r="B19" s="174" t="s">
@@ -14717,10 +14808,10 @@
       <c r="N19" s="231"/>
       <c r="O19" s="216"/>
       <c r="P19" s="217"/>
-      <c r="R19" s="305"/>
-      <c r="S19" s="306"/>
-      <c r="T19" s="306"/>
-      <c r="U19" s="307"/>
+      <c r="R19" s="307"/>
+      <c r="S19" s="308"/>
+      <c r="T19" s="308"/>
+      <c r="U19" s="309"/>
     </row>
     <row r="20" spans="2:21" ht="20.25" customHeight="1">
       <c r="B20" s="174"/>
@@ -14744,10 +14835,10 @@
       <c r="N20" s="231"/>
       <c r="O20" s="216"/>
       <c r="P20" s="217"/>
-      <c r="R20" s="305"/>
-      <c r="S20" s="306"/>
-      <c r="T20" s="306"/>
-      <c r="U20" s="307"/>
+      <c r="R20" s="307"/>
+      <c r="S20" s="308"/>
+      <c r="T20" s="308"/>
+      <c r="U20" s="309"/>
     </row>
     <row r="21" spans="2:21" ht="20.25" customHeight="1">
       <c r="B21" s="172"/>
@@ -14771,10 +14862,10 @@
       <c r="N21" s="231"/>
       <c r="O21" s="216"/>
       <c r="P21" s="217"/>
-      <c r="R21" s="305"/>
-      <c r="S21" s="306"/>
-      <c r="T21" s="306"/>
-      <c r="U21" s="307"/>
+      <c r="R21" s="307"/>
+      <c r="S21" s="308"/>
+      <c r="T21" s="308"/>
+      <c r="U21" s="309"/>
     </row>
     <row r="22" spans="2:21" ht="20.25" customHeight="1">
       <c r="B22" s="172"/>
@@ -14798,10 +14889,10 @@
       <c r="N22" s="231"/>
       <c r="O22" s="216"/>
       <c r="P22" s="217"/>
-      <c r="R22" s="305"/>
-      <c r="S22" s="306"/>
-      <c r="T22" s="306"/>
-      <c r="U22" s="307"/>
+      <c r="R22" s="307"/>
+      <c r="S22" s="308"/>
+      <c r="T22" s="308"/>
+      <c r="U22" s="309"/>
     </row>
     <row r="23" spans="2:21" ht="20.25" customHeight="1">
       <c r="B23" s="172"/>
@@ -14825,10 +14916,10 @@
       <c r="N23" s="231"/>
       <c r="O23" s="216"/>
       <c r="P23" s="217"/>
-      <c r="R23" s="305"/>
-      <c r="S23" s="306"/>
-      <c r="T23" s="306"/>
-      <c r="U23" s="307"/>
+      <c r="R23" s="307"/>
+      <c r="S23" s="308"/>
+      <c r="T23" s="308"/>
+      <c r="U23" s="309"/>
     </row>
     <row r="24" spans="2:21" ht="20.25" customHeight="1">
       <c r="B24" s="172"/>
@@ -14852,10 +14943,10 @@
       <c r="N24" s="231"/>
       <c r="O24" s="216"/>
       <c r="P24" s="217"/>
-      <c r="R24" s="305"/>
-      <c r="S24" s="306"/>
-      <c r="T24" s="306"/>
-      <c r="U24" s="307"/>
+      <c r="R24" s="307"/>
+      <c r="S24" s="308"/>
+      <c r="T24" s="308"/>
+      <c r="U24" s="309"/>
     </row>
     <row r="25" spans="2:21" ht="20.25" customHeight="1">
       <c r="B25" s="172"/>
@@ -14879,10 +14970,10 @@
       <c r="N25" s="231"/>
       <c r="O25" s="216"/>
       <c r="P25" s="217"/>
-      <c r="R25" s="305"/>
-      <c r="S25" s="306"/>
-      <c r="T25" s="306"/>
-      <c r="U25" s="307"/>
+      <c r="R25" s="307"/>
+      <c r="S25" s="308"/>
+      <c r="T25" s="308"/>
+      <c r="U25" s="309"/>
     </row>
     <row r="26" spans="2:21" ht="20.25" customHeight="1">
       <c r="B26" s="237"/>
@@ -14906,10 +14997,10 @@
       <c r="P26" s="234" t="s">
         <v>625</v>
       </c>
-      <c r="R26" s="305"/>
-      <c r="S26" s="306"/>
-      <c r="T26" s="306"/>
-      <c r="U26" s="307"/>
+      <c r="R26" s="307"/>
+      <c r="S26" s="308"/>
+      <c r="T26" s="308"/>
+      <c r="U26" s="309"/>
     </row>
     <row r="27" spans="2:21" ht="20.25" customHeight="1">
       <c r="B27" s="172"/>
@@ -14927,10 +15018,10 @@
       <c r="N27" s="231"/>
       <c r="O27" s="216"/>
       <c r="P27" s="217"/>
-      <c r="R27" s="305"/>
-      <c r="S27" s="306"/>
-      <c r="T27" s="306"/>
-      <c r="U27" s="307"/>
+      <c r="R27" s="307"/>
+      <c r="S27" s="308"/>
+      <c r="T27" s="308"/>
+      <c r="U27" s="309"/>
     </row>
     <row r="28" spans="2:21" ht="20.25" customHeight="1">
       <c r="B28" s="174" t="s">
@@ -14950,10 +15041,10 @@
       <c r="N28" s="231"/>
       <c r="O28" s="216"/>
       <c r="P28" s="217"/>
-      <c r="R28" s="305"/>
-      <c r="S28" s="306"/>
-      <c r="T28" s="306"/>
-      <c r="U28" s="307"/>
+      <c r="R28" s="307"/>
+      <c r="S28" s="308"/>
+      <c r="T28" s="308"/>
+      <c r="U28" s="309"/>
     </row>
     <row r="29" spans="2:21" ht="20.25" customHeight="1">
       <c r="B29" s="172"/>
@@ -14977,10 +15068,10 @@
       <c r="N29" s="231"/>
       <c r="O29" s="216"/>
       <c r="P29" s="217"/>
-      <c r="R29" s="305"/>
-      <c r="S29" s="306"/>
-      <c r="T29" s="306"/>
-      <c r="U29" s="307"/>
+      <c r="R29" s="307"/>
+      <c r="S29" s="308"/>
+      <c r="T29" s="308"/>
+      <c r="U29" s="309"/>
     </row>
     <row r="30" spans="2:21" ht="20.25" customHeight="1">
       <c r="B30" s="172"/>
@@ -15004,10 +15095,10 @@
       <c r="N30" s="231"/>
       <c r="O30" s="216"/>
       <c r="P30" s="217"/>
-      <c r="R30" s="305"/>
-      <c r="S30" s="306"/>
-      <c r="T30" s="306"/>
-      <c r="U30" s="307"/>
+      <c r="R30" s="307"/>
+      <c r="S30" s="308"/>
+      <c r="T30" s="308"/>
+      <c r="U30" s="309"/>
     </row>
     <row r="31" spans="2:21" ht="20.25" customHeight="1">
       <c r="B31" s="172"/>
@@ -15031,10 +15122,10 @@
       <c r="N31" s="231"/>
       <c r="O31" s="216"/>
       <c r="P31" s="217"/>
-      <c r="R31" s="305"/>
-      <c r="S31" s="306"/>
-      <c r="T31" s="306"/>
-      <c r="U31" s="307"/>
+      <c r="R31" s="307"/>
+      <c r="S31" s="308"/>
+      <c r="T31" s="308"/>
+      <c r="U31" s="309"/>
     </row>
     <row r="32" spans="2:21" ht="20.25" customHeight="1">
       <c r="B32" s="172"/>
@@ -15052,10 +15143,10 @@
       <c r="N32" s="231"/>
       <c r="O32" s="216"/>
       <c r="P32" s="217"/>
-      <c r="R32" s="305"/>
-      <c r="S32" s="306"/>
-      <c r="T32" s="306"/>
-      <c r="U32" s="307"/>
+      <c r="R32" s="307"/>
+      <c r="S32" s="308"/>
+      <c r="T32" s="308"/>
+      <c r="U32" s="309"/>
     </row>
     <row r="33" spans="2:21" ht="20.25" customHeight="1">
       <c r="B33" s="174" t="s">
@@ -15075,10 +15166,10 @@
       <c r="N33" s="231"/>
       <c r="O33" s="216"/>
       <c r="P33" s="217"/>
-      <c r="R33" s="305"/>
-      <c r="S33" s="306"/>
-      <c r="T33" s="306"/>
-      <c r="U33" s="307"/>
+      <c r="R33" s="307"/>
+      <c r="S33" s="308"/>
+      <c r="T33" s="308"/>
+      <c r="U33" s="309"/>
     </row>
     <row r="34" spans="2:21" ht="20.25" customHeight="1">
       <c r="B34" s="169"/>
@@ -15102,10 +15193,10 @@
       <c r="N34" s="231"/>
       <c r="O34" s="216"/>
       <c r="P34" s="217"/>
-      <c r="R34" s="305"/>
-      <c r="S34" s="306"/>
-      <c r="T34" s="306"/>
-      <c r="U34" s="307"/>
+      <c r="R34" s="307"/>
+      <c r="S34" s="308"/>
+      <c r="T34" s="308"/>
+      <c r="U34" s="309"/>
     </row>
     <row r="35" spans="2:21" ht="20.25" customHeight="1">
       <c r="B35" s="169"/>
@@ -15129,10 +15220,10 @@
       <c r="N35" s="231"/>
       <c r="O35" s="216"/>
       <c r="P35" s="217"/>
-      <c r="R35" s="305"/>
-      <c r="S35" s="306"/>
-      <c r="T35" s="306"/>
-      <c r="U35" s="307"/>
+      <c r="R35" s="307"/>
+      <c r="S35" s="308"/>
+      <c r="T35" s="308"/>
+      <c r="U35" s="309"/>
     </row>
     <row r="36" spans="2:21" ht="20.25" customHeight="1">
       <c r="B36" s="169"/>
@@ -15150,10 +15241,10 @@
       <c r="N36" s="231"/>
       <c r="O36" s="216"/>
       <c r="P36" s="217"/>
-      <c r="R36" s="305"/>
-      <c r="S36" s="306"/>
-      <c r="T36" s="306"/>
-      <c r="U36" s="307"/>
+      <c r="R36" s="307"/>
+      <c r="S36" s="308"/>
+      <c r="T36" s="308"/>
+      <c r="U36" s="309"/>
     </row>
     <row r="37" spans="2:21" ht="20.25" customHeight="1">
       <c r="B37" s="174" t="s">
@@ -15173,10 +15264,10 @@
       <c r="N37" s="231"/>
       <c r="O37" s="216"/>
       <c r="P37" s="217"/>
-      <c r="R37" s="305"/>
-      <c r="S37" s="306"/>
-      <c r="T37" s="306"/>
-      <c r="U37" s="307"/>
+      <c r="R37" s="307"/>
+      <c r="S37" s="308"/>
+      <c r="T37" s="308"/>
+      <c r="U37" s="309"/>
     </row>
     <row r="38" spans="2:21" ht="20.25" customHeight="1">
       <c r="B38" s="169"/>
@@ -15200,10 +15291,10 @@
       <c r="N38" s="231"/>
       <c r="O38" s="216"/>
       <c r="P38" s="217"/>
-      <c r="R38" s="305"/>
-      <c r="S38" s="306"/>
-      <c r="T38" s="306"/>
-      <c r="U38" s="307"/>
+      <c r="R38" s="307"/>
+      <c r="S38" s="308"/>
+      <c r="T38" s="308"/>
+      <c r="U38" s="309"/>
     </row>
     <row r="39" spans="2:21" ht="20.25" customHeight="1">
       <c r="B39" s="169"/>
@@ -15227,10 +15318,10 @@
       <c r="N39" s="231"/>
       <c r="O39" s="216"/>
       <c r="P39" s="217"/>
-      <c r="R39" s="305"/>
-      <c r="S39" s="306"/>
-      <c r="T39" s="306"/>
-      <c r="U39" s="307"/>
+      <c r="R39" s="307"/>
+      <c r="S39" s="308"/>
+      <c r="T39" s="308"/>
+      <c r="U39" s="309"/>
     </row>
     <row r="40" spans="2:21" ht="20.25" customHeight="1">
       <c r="B40" s="169"/>
@@ -15254,10 +15345,10 @@
       <c r="N40" s="231"/>
       <c r="O40" s="216"/>
       <c r="P40" s="217"/>
-      <c r="R40" s="305"/>
-      <c r="S40" s="306"/>
-      <c r="T40" s="306"/>
-      <c r="U40" s="307"/>
+      <c r="R40" s="307"/>
+      <c r="S40" s="308"/>
+      <c r="T40" s="308"/>
+      <c r="U40" s="309"/>
     </row>
     <row r="41" spans="2:21" ht="20.25" customHeight="1">
       <c r="B41" s="169"/>
@@ -15275,10 +15366,10 @@
       <c r="N41" s="231"/>
       <c r="O41" s="216"/>
       <c r="P41" s="217"/>
-      <c r="R41" s="305"/>
-      <c r="S41" s="306"/>
-      <c r="T41" s="306"/>
-      <c r="U41" s="307"/>
+      <c r="R41" s="307"/>
+      <c r="S41" s="308"/>
+      <c r="T41" s="308"/>
+      <c r="U41" s="309"/>
     </row>
     <row r="42" spans="2:21" ht="20.25" customHeight="1">
       <c r="B42" s="174" t="s">
@@ -15298,10 +15389,10 @@
       <c r="N42" s="231"/>
       <c r="O42" s="216"/>
       <c r="P42" s="217"/>
-      <c r="R42" s="305"/>
-      <c r="S42" s="306"/>
-      <c r="T42" s="306"/>
-      <c r="U42" s="307"/>
+      <c r="R42" s="307"/>
+      <c r="S42" s="308"/>
+      <c r="T42" s="308"/>
+      <c r="U42" s="309"/>
     </row>
     <row r="43" spans="2:21" ht="20.25" customHeight="1">
       <c r="B43" s="169"/>
@@ -15325,10 +15416,10 @@
       </c>
       <c r="O43" s="233"/>
       <c r="P43" s="217"/>
-      <c r="R43" s="305"/>
-      <c r="S43" s="306"/>
-      <c r="T43" s="306"/>
-      <c r="U43" s="307"/>
+      <c r="R43" s="307"/>
+      <c r="S43" s="308"/>
+      <c r="T43" s="308"/>
+      <c r="U43" s="309"/>
     </row>
     <row r="44" spans="2:21" ht="20.25" customHeight="1">
       <c r="B44" s="169"/>
@@ -15352,10 +15443,10 @@
       </c>
       <c r="O44" s="233"/>
       <c r="P44" s="217"/>
-      <c r="R44" s="305"/>
-      <c r="S44" s="306"/>
-      <c r="T44" s="306"/>
-      <c r="U44" s="307"/>
+      <c r="R44" s="307"/>
+      <c r="S44" s="308"/>
+      <c r="T44" s="308"/>
+      <c r="U44" s="309"/>
     </row>
     <row r="45" spans="2:21" ht="20.25" customHeight="1">
       <c r="B45" s="169"/>
@@ -15379,10 +15470,10 @@
       </c>
       <c r="O45" s="233"/>
       <c r="P45" s="217"/>
-      <c r="R45" s="305"/>
-      <c r="S45" s="306"/>
-      <c r="T45" s="306"/>
-      <c r="U45" s="307"/>
+      <c r="R45" s="307"/>
+      <c r="S45" s="308"/>
+      <c r="T45" s="308"/>
+      <c r="U45" s="309"/>
     </row>
     <row r="46" spans="2:21" ht="20.25" customHeight="1">
       <c r="B46" s="169"/>
@@ -15400,10 +15491,10 @@
       <c r="N46" s="231"/>
       <c r="O46" s="216"/>
       <c r="P46" s="217"/>
-      <c r="R46" s="305"/>
-      <c r="S46" s="306"/>
-      <c r="T46" s="306"/>
-      <c r="U46" s="307"/>
+      <c r="R46" s="307"/>
+      <c r="S46" s="308"/>
+      <c r="T46" s="308"/>
+      <c r="U46" s="309"/>
     </row>
     <row r="47" spans="2:21" ht="20.25" customHeight="1">
       <c r="B47" s="174" t="s">
@@ -15423,10 +15514,10 @@
       <c r="N47" s="231"/>
       <c r="O47" s="216"/>
       <c r="P47" s="217"/>
-      <c r="R47" s="305"/>
-      <c r="S47" s="306"/>
-      <c r="T47" s="306"/>
-      <c r="U47" s="307"/>
+      <c r="R47" s="307"/>
+      <c r="S47" s="308"/>
+      <c r="T47" s="308"/>
+      <c r="U47" s="309"/>
     </row>
     <row r="48" spans="2:21" ht="20.25" customHeight="1">
       <c r="B48" s="169"/>
@@ -15450,10 +15541,10 @@
       </c>
       <c r="O48" s="233"/>
       <c r="P48" s="217"/>
-      <c r="R48" s="305"/>
-      <c r="S48" s="306"/>
-      <c r="T48" s="306"/>
-      <c r="U48" s="307"/>
+      <c r="R48" s="307"/>
+      <c r="S48" s="308"/>
+      <c r="T48" s="308"/>
+      <c r="U48" s="309"/>
     </row>
     <row r="49" spans="2:21" ht="20.25" customHeight="1" thickBot="1">
       <c r="B49" s="225"/>
@@ -15471,10 +15562,10 @@
       <c r="N49" s="230"/>
       <c r="O49" s="226"/>
       <c r="P49" s="228"/>
-      <c r="R49" s="308"/>
-      <c r="S49" s="309"/>
-      <c r="T49" s="309"/>
-      <c r="U49" s="310"/>
+      <c r="R49" s="310"/>
+      <c r="S49" s="311"/>
+      <c r="T49" s="311"/>
+      <c r="U49" s="312"/>
     </row>
     <row r="50" spans="2:21" ht="15.75" customHeight="1">
       <c r="B50" s="186"/>
@@ -15509,17 +15600,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:U187"/>
+  <dimension ref="B2:U200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="69.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="76.7109375" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" customWidth="1"/>
@@ -15558,15 +15649,15 @@
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
-      <c r="H3" s="301"/>
-      <c r="I3" s="244"/>
-      <c r="J3" s="244"/>
-      <c r="K3" s="244"/>
-      <c r="L3" s="244"/>
-      <c r="M3" s="244"/>
-      <c r="N3" s="244"/>
-      <c r="O3" s="244"/>
-      <c r="P3" s="244"/>
+      <c r="H3" s="303"/>
+      <c r="I3" s="246"/>
+      <c r="J3" s="246"/>
+      <c r="K3" s="246"/>
+      <c r="L3" s="246"/>
+      <c r="M3" s="246"/>
+      <c r="N3" s="246"/>
+      <c r="O3" s="246"/>
+      <c r="P3" s="246"/>
     </row>
     <row r="4" spans="2:21" ht="21.75" customHeight="1" thickBot="1">
       <c r="B4" s="26"/>
@@ -15619,10 +15710,10 @@
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
       <c r="N6" s="26"/>
-      <c r="R6" s="302"/>
-      <c r="S6" s="303"/>
-      <c r="T6" s="303"/>
-      <c r="U6" s="304"/>
+      <c r="R6" s="304"/>
+      <c r="S6" s="305"/>
+      <c r="T6" s="305"/>
+      <c r="U6" s="306"/>
     </row>
     <row r="7" spans="2:21" ht="21.75" customHeight="1" thickBot="1">
       <c r="B7" s="183" t="s">
@@ -15640,10 +15731,10 @@
       <c r="L7" s="184"/>
       <c r="M7" s="184"/>
       <c r="N7" s="184"/>
-      <c r="R7" s="305"/>
-      <c r="S7" s="306"/>
-      <c r="T7" s="306"/>
-      <c r="U7" s="307"/>
+      <c r="R7" s="307"/>
+      <c r="S7" s="308"/>
+      <c r="T7" s="308"/>
+      <c r="U7" s="309"/>
     </row>
     <row r="8" spans="2:21" ht="15">
       <c r="B8" s="187" t="s">
@@ -15665,10 +15756,10 @@
       <c r="L8" s="184"/>
       <c r="M8" s="184"/>
       <c r="N8" s="190"/>
-      <c r="R8" s="305"/>
-      <c r="S8" s="306"/>
-      <c r="T8" s="306"/>
-      <c r="U8" s="307"/>
+      <c r="R8" s="307"/>
+      <c r="S8" s="308"/>
+      <c r="T8" s="308"/>
+      <c r="U8" s="309"/>
     </row>
     <row r="9" spans="2:21" thickBot="1">
       <c r="B9" s="191" t="s">
@@ -15690,10 +15781,10 @@
       <c r="L9" s="194"/>
       <c r="M9" s="194"/>
       <c r="N9" s="194"/>
-      <c r="R9" s="305"/>
-      <c r="S9" s="306"/>
-      <c r="T9" s="306"/>
-      <c r="U9" s="307"/>
+      <c r="R9" s="307"/>
+      <c r="S9" s="308"/>
+      <c r="T9" s="308"/>
+      <c r="U9" s="309"/>
     </row>
     <row r="10" spans="2:21" thickBot="1">
       <c r="B10" s="191" t="s">
@@ -15725,10 +15816,10 @@
       </c>
       <c r="O10" s="200"/>
       <c r="P10" s="201"/>
-      <c r="R10" s="305"/>
-      <c r="S10" s="306"/>
-      <c r="T10" s="306"/>
-      <c r="U10" s="307"/>
+      <c r="R10" s="307"/>
+      <c r="S10" s="308"/>
+      <c r="T10" s="308"/>
+      <c r="U10" s="309"/>
     </row>
     <row r="11" spans="2:21" ht="15" customHeight="1" thickBot="1">
       <c r="B11" s="202"/>
@@ -15770,10 +15861,10 @@
       <c r="P11" s="211" t="s">
         <v>100</v>
       </c>
-      <c r="R11" s="305"/>
-      <c r="S11" s="306"/>
-      <c r="T11" s="306"/>
-      <c r="U11" s="307"/>
+      <c r="R11" s="307"/>
+      <c r="S11" s="308"/>
+      <c r="T11" s="308"/>
+      <c r="U11" s="309"/>
     </row>
     <row r="12" spans="2:21" ht="20.25" customHeight="1">
       <c r="B12" s="218"/>
@@ -15791,10 +15882,10 @@
       <c r="N12" s="213"/>
       <c r="O12" s="212"/>
       <c r="P12" s="215"/>
-      <c r="R12" s="305"/>
-      <c r="S12" s="306"/>
-      <c r="T12" s="306"/>
-      <c r="U12" s="307"/>
+      <c r="R12" s="307"/>
+      <c r="S12" s="308"/>
+      <c r="T12" s="308"/>
+      <c r="U12" s="309"/>
     </row>
     <row r="13" spans="2:21" ht="20.25" customHeight="1">
       <c r="B13" s="242" t="s">
@@ -15814,10 +15905,10 @@
       <c r="N13" s="231"/>
       <c r="O13" s="216"/>
       <c r="P13" s="217"/>
-      <c r="R13" s="305"/>
-      <c r="S13" s="306"/>
-      <c r="T13" s="306"/>
-      <c r="U13" s="307"/>
+      <c r="R13" s="307"/>
+      <c r="S13" s="308"/>
+      <c r="T13" s="308"/>
+      <c r="U13" s="309"/>
     </row>
     <row r="14" spans="2:21" ht="20.25" customHeight="1">
       <c r="B14" s="218"/>
@@ -15825,12 +15916,12 @@
         <v>638</v>
       </c>
       <c r="D14" s="218" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E14" s="231" t="s">
         <v>639</v>
       </c>
-      <c r="F14" s="312"/>
+      <c r="F14" s="244"/>
       <c r="G14" s="217"/>
       <c r="H14" s="231"/>
       <c r="I14" s="216"/>
@@ -15841,10 +15932,10 @@
       <c r="N14" s="231"/>
       <c r="O14" s="216"/>
       <c r="P14" s="217"/>
-      <c r="R14" s="305"/>
-      <c r="S14" s="306"/>
-      <c r="T14" s="306"/>
-      <c r="U14" s="307"/>
+      <c r="R14" s="307"/>
+      <c r="S14" s="308"/>
+      <c r="T14" s="308"/>
+      <c r="U14" s="309"/>
     </row>
     <row r="15" spans="2:21" ht="20.25" customHeight="1">
       <c r="B15" s="218"/>
@@ -15852,12 +15943,12 @@
         <v>628</v>
       </c>
       <c r="D15" s="218" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E15" s="231" t="s">
         <v>639</v>
       </c>
-      <c r="F15" s="312"/>
+      <c r="F15" s="244"/>
       <c r="G15" s="217"/>
       <c r="H15" s="231"/>
       <c r="I15" s="216"/>
@@ -15868,10 +15959,10 @@
       <c r="N15" s="231"/>
       <c r="O15" s="216"/>
       <c r="P15" s="217"/>
-      <c r="R15" s="305"/>
-      <c r="S15" s="306"/>
-      <c r="T15" s="306"/>
-      <c r="U15" s="307"/>
+      <c r="R15" s="307"/>
+      <c r="S15" s="308"/>
+      <c r="T15" s="308"/>
+      <c r="U15" s="309"/>
     </row>
     <row r="16" spans="2:21" ht="20.25" customHeight="1">
       <c r="B16" s="218"/>
@@ -15879,12 +15970,12 @@
         <v>629</v>
       </c>
       <c r="D16" s="218" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E16" s="231" t="s">
         <v>639</v>
       </c>
-      <c r="F16" s="312"/>
+      <c r="F16" s="244"/>
       <c r="G16" s="217"/>
       <c r="H16" s="231"/>
       <c r="I16" s="216"/>
@@ -15895,10 +15986,10 @@
       <c r="N16" s="231"/>
       <c r="O16" s="216"/>
       <c r="P16" s="217"/>
-      <c r="R16" s="305"/>
-      <c r="S16" s="306"/>
-      <c r="T16" s="306"/>
-      <c r="U16" s="307"/>
+      <c r="R16" s="307"/>
+      <c r="S16" s="308"/>
+      <c r="T16" s="308"/>
+      <c r="U16" s="309"/>
     </row>
     <row r="17" spans="2:21" ht="20.25" customHeight="1">
       <c r="B17" s="218"/>
@@ -15916,10 +16007,10 @@
       <c r="N17" s="231"/>
       <c r="O17" s="216"/>
       <c r="P17" s="217"/>
-      <c r="R17" s="305"/>
-      <c r="S17" s="306"/>
-      <c r="T17" s="306"/>
-      <c r="U17" s="307"/>
+      <c r="R17" s="307"/>
+      <c r="S17" s="308"/>
+      <c r="T17" s="308"/>
+      <c r="U17" s="309"/>
     </row>
     <row r="18" spans="2:21" ht="20.25" customHeight="1">
       <c r="B18" s="242" t="s">
@@ -15939,10 +16030,10 @@
       <c r="N18" s="231"/>
       <c r="O18" s="216"/>
       <c r="P18" s="217"/>
-      <c r="R18" s="305"/>
-      <c r="S18" s="306"/>
-      <c r="T18" s="306"/>
-      <c r="U18" s="307"/>
+      <c r="R18" s="307"/>
+      <c r="S18" s="308"/>
+      <c r="T18" s="308"/>
+      <c r="U18" s="309"/>
     </row>
     <row r="19" spans="2:21" ht="20.25" customHeight="1">
       <c r="B19" s="218"/>
@@ -15950,12 +16041,12 @@
         <v>631</v>
       </c>
       <c r="D19" s="218" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E19" s="231" t="s">
         <v>639</v>
       </c>
-      <c r="F19" s="312"/>
+      <c r="F19" s="244"/>
       <c r="G19" s="217"/>
       <c r="H19" s="231"/>
       <c r="I19" s="216"/>
@@ -15966,10 +16057,10 @@
       <c r="N19" s="231"/>
       <c r="O19" s="216"/>
       <c r="P19" s="217"/>
-      <c r="R19" s="305"/>
-      <c r="S19" s="306"/>
-      <c r="T19" s="306"/>
-      <c r="U19" s="307"/>
+      <c r="R19" s="307"/>
+      <c r="S19" s="308"/>
+      <c r="T19" s="308"/>
+      <c r="U19" s="309"/>
     </row>
     <row r="20" spans="2:21" ht="20.25" customHeight="1">
       <c r="B20" s="218"/>
@@ -15977,12 +16068,12 @@
         <v>632</v>
       </c>
       <c r="D20" s="218" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E20" s="231" t="s">
         <v>639</v>
       </c>
-      <c r="F20" s="312"/>
+      <c r="F20" s="244"/>
       <c r="G20" s="217"/>
       <c r="H20" s="231"/>
       <c r="I20" s="216"/>
@@ -15993,10 +16084,10 @@
       <c r="N20" s="231"/>
       <c r="O20" s="216"/>
       <c r="P20" s="217"/>
-      <c r="R20" s="305"/>
-      <c r="S20" s="306"/>
-      <c r="T20" s="306"/>
-      <c r="U20" s="307"/>
+      <c r="R20" s="307"/>
+      <c r="S20" s="308"/>
+      <c r="T20" s="308"/>
+      <c r="U20" s="309"/>
     </row>
     <row r="21" spans="2:21" ht="20.25" customHeight="1">
       <c r="B21" s="218"/>
@@ -16014,10 +16105,10 @@
       <c r="N21" s="231"/>
       <c r="O21" s="216"/>
       <c r="P21" s="217"/>
-      <c r="R21" s="305"/>
-      <c r="S21" s="306"/>
-      <c r="T21" s="306"/>
-      <c r="U21" s="307"/>
+      <c r="R21" s="307"/>
+      <c r="S21" s="308"/>
+      <c r="T21" s="308"/>
+      <c r="U21" s="309"/>
     </row>
     <row r="22" spans="2:21" ht="20.25" customHeight="1">
       <c r="B22" s="242" t="s">
@@ -16037,10 +16128,10 @@
       <c r="N22" s="231"/>
       <c r="O22" s="216"/>
       <c r="P22" s="217"/>
-      <c r="R22" s="305"/>
-      <c r="S22" s="306"/>
-      <c r="T22" s="306"/>
-      <c r="U22" s="307"/>
+      <c r="R22" s="307"/>
+      <c r="S22" s="308"/>
+      <c r="T22" s="308"/>
+      <c r="U22" s="309"/>
     </row>
     <row r="23" spans="2:21" ht="20.25" customHeight="1">
       <c r="B23" s="218"/>
@@ -16048,12 +16139,12 @@
         <v>634</v>
       </c>
       <c r="D23" s="218" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E23" s="231" t="s">
         <v>639</v>
       </c>
-      <c r="F23" s="312"/>
+      <c r="F23" s="244"/>
       <c r="G23" s="217"/>
       <c r="H23" s="231"/>
       <c r="I23" s="216"/>
@@ -16064,17 +16155,17 @@
       <c r="N23" s="231"/>
       <c r="O23" s="216"/>
       <c r="P23" s="217"/>
-      <c r="R23" s="305"/>
-      <c r="S23" s="306"/>
-      <c r="T23" s="306"/>
-      <c r="U23" s="307"/>
-    </row>
-    <row r="24" spans="2:21" ht="20.25" customHeight="1">
+      <c r="R23" s="307"/>
+      <c r="S23" s="308"/>
+      <c r="T23" s="308"/>
+      <c r="U23" s="309"/>
+    </row>
+    <row r="24" spans="2:21" s="243" customFormat="1" ht="20.25" customHeight="1">
       <c r="B24" s="218"/>
-      <c r="C24" s="218"/>
+      <c r="C24" s="229"/>
       <c r="D24" s="218"/>
       <c r="E24" s="231"/>
-      <c r="F24" s="232"/>
+      <c r="F24" s="314"/>
       <c r="G24" s="217"/>
       <c r="H24" s="231"/>
       <c r="I24" s="216"/>
@@ -16085,19 +16176,19 @@
       <c r="N24" s="231"/>
       <c r="O24" s="216"/>
       <c r="P24" s="217"/>
-      <c r="R24" s="305"/>
-      <c r="S24" s="306"/>
-      <c r="T24" s="306"/>
-      <c r="U24" s="307"/>
-    </row>
-    <row r="25" spans="2:21" ht="20.25" customHeight="1">
+      <c r="R24" s="307"/>
+      <c r="S24" s="308"/>
+      <c r="T24" s="308"/>
+      <c r="U24" s="309"/>
+    </row>
+    <row r="25" spans="2:21" s="243" customFormat="1" ht="20.25" customHeight="1">
       <c r="B25" s="242" t="s">
-        <v>425</v>
-      </c>
-      <c r="C25" s="218"/>
+        <v>630</v>
+      </c>
+      <c r="C25" s="229"/>
       <c r="D25" s="218"/>
       <c r="E25" s="231"/>
-      <c r="F25" s="232"/>
+      <c r="F25" s="314"/>
       <c r="G25" s="217"/>
       <c r="H25" s="231"/>
       <c r="I25" s="216"/>
@@ -16108,19 +16199,21 @@
       <c r="N25" s="231"/>
       <c r="O25" s="216"/>
       <c r="P25" s="217"/>
-      <c r="R25" s="305"/>
-      <c r="S25" s="306"/>
-      <c r="T25" s="306"/>
-      <c r="U25" s="307"/>
-    </row>
-    <row r="26" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B26" s="242"/>
+      <c r="R25" s="307"/>
+      <c r="S25" s="308"/>
+      <c r="T25" s="308"/>
+      <c r="U25" s="309"/>
+    </row>
+    <row r="26" spans="2:21" s="243" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B26" s="218"/>
       <c r="C26" s="229" t="s">
-        <v>640</v>
-      </c>
-      <c r="D26" s="218"/>
+        <v>647</v>
+      </c>
+      <c r="D26" s="229" t="s">
+        <v>648</v>
+      </c>
       <c r="E26" s="231"/>
-      <c r="F26" s="232"/>
+      <c r="F26" s="314"/>
       <c r="G26" s="217"/>
       <c r="H26" s="231"/>
       <c r="I26" s="216"/>
@@ -16131,19 +16224,21 @@
       <c r="N26" s="231"/>
       <c r="O26" s="216"/>
       <c r="P26" s="217"/>
-      <c r="R26" s="305"/>
-      <c r="S26" s="306"/>
-      <c r="T26" s="306"/>
-      <c r="U26" s="307"/>
-    </row>
-    <row r="27" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B27" s="242"/>
+      <c r="R26" s="307"/>
+      <c r="S26" s="308"/>
+      <c r="T26" s="308"/>
+      <c r="U26" s="309"/>
+    </row>
+    <row r="27" spans="2:21" s="243" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B27" s="218"/>
       <c r="C27" s="229" t="s">
-        <v>635</v>
-      </c>
-      <c r="D27" s="218"/>
+        <v>646</v>
+      </c>
+      <c r="D27" s="229" t="s">
+        <v>648</v>
+      </c>
       <c r="E27" s="231"/>
-      <c r="F27" s="232"/>
+      <c r="F27" s="314"/>
       <c r="G27" s="217"/>
       <c r="H27" s="231"/>
       <c r="I27" s="216"/>
@@ -16154,12 +16249,12 @@
       <c r="N27" s="231"/>
       <c r="O27" s="216"/>
       <c r="P27" s="217"/>
-      <c r="R27" s="305"/>
-      <c r="S27" s="306"/>
-      <c r="T27" s="306"/>
-      <c r="U27" s="307"/>
-    </row>
-    <row r="28" spans="2:21" ht="20.25" customHeight="1">
+      <c r="R27" s="307"/>
+      <c r="S27" s="308"/>
+      <c r="T27" s="308"/>
+      <c r="U27" s="309"/>
+    </row>
+    <row r="28" spans="2:21" s="243" customFormat="1" ht="20.25" customHeight="1">
       <c r="B28" s="242" t="s">
         <v>360</v>
       </c>
@@ -16177,23 +16272,23 @@
       <c r="N28" s="231"/>
       <c r="O28" s="216"/>
       <c r="P28" s="217"/>
-      <c r="R28" s="305"/>
-      <c r="S28" s="306"/>
-      <c r="T28" s="306"/>
-      <c r="U28" s="307"/>
+      <c r="R28" s="307"/>
+      <c r="S28" s="308"/>
+      <c r="T28" s="308"/>
+      <c r="U28" s="309"/>
     </row>
     <row r="29" spans="2:21" ht="20.25" customHeight="1">
       <c r="B29" s="242"/>
       <c r="C29" s="229" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D29" s="218" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E29" s="231" t="s">
         <v>639</v>
       </c>
-      <c r="F29" s="312"/>
+      <c r="F29" s="244"/>
       <c r="G29" s="217"/>
       <c r="H29" s="231"/>
       <c r="I29" s="216"/>
@@ -16204,17 +16299,21 @@
       <c r="N29" s="231"/>
       <c r="O29" s="216"/>
       <c r="P29" s="217"/>
-      <c r="R29" s="305"/>
-      <c r="S29" s="306"/>
-      <c r="T29" s="306"/>
-      <c r="U29" s="307"/>
-    </row>
-    <row r="30" spans="2:21" ht="20.25" customHeight="1">
+      <c r="R29" s="307"/>
+      <c r="S29" s="308"/>
+      <c r="T29" s="308"/>
+      <c r="U29" s="309"/>
+    </row>
+    <row r="30" spans="2:21" s="243" customFormat="1" ht="20.25" customHeight="1">
       <c r="B30" s="242"/>
-      <c r="C30" s="229"/>
-      <c r="D30" s="218"/>
+      <c r="C30" s="229" t="s">
+        <v>644</v>
+      </c>
+      <c r="D30" s="218" t="s">
+        <v>643</v>
+      </c>
       <c r="E30" s="231"/>
-      <c r="F30" s="232"/>
+      <c r="F30" s="314"/>
       <c r="G30" s="217"/>
       <c r="H30" s="231"/>
       <c r="I30" s="216"/>
@@ -16225,17 +16324,19 @@
       <c r="N30" s="231"/>
       <c r="O30" s="216"/>
       <c r="P30" s="217"/>
-      <c r="R30" s="305"/>
-      <c r="S30" s="306"/>
-      <c r="T30" s="306"/>
-      <c r="U30" s="307"/>
-    </row>
-    <row r="31" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B31" s="242"/>
-      <c r="C31" s="218"/>
+      <c r="R30" s="307"/>
+      <c r="S30" s="308"/>
+      <c r="T30" s="308"/>
+      <c r="U30" s="309"/>
+    </row>
+    <row r="31" spans="2:21" s="243" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B31" s="242" t="s">
+        <v>649</v>
+      </c>
+      <c r="C31" s="229"/>
       <c r="D31" s="218"/>
       <c r="E31" s="231"/>
-      <c r="F31" s="232"/>
+      <c r="F31" s="314"/>
       <c r="G31" s="217"/>
       <c r="H31" s="231"/>
       <c r="I31" s="216"/>
@@ -16246,19 +16347,21 @@
       <c r="N31" s="231"/>
       <c r="O31" s="216"/>
       <c r="P31" s="217"/>
-      <c r="R31" s="305"/>
-      <c r="S31" s="306"/>
-      <c r="T31" s="306"/>
-      <c r="U31" s="307"/>
-    </row>
-    <row r="32" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B32" s="242" t="s">
-        <v>479</v>
-      </c>
-      <c r="C32" s="218"/>
-      <c r="D32" s="218"/>
+      <c r="R31" s="307"/>
+      <c r="S31" s="308"/>
+      <c r="T31" s="308"/>
+      <c r="U31" s="309"/>
+    </row>
+    <row r="32" spans="2:21" s="243" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B32" s="242"/>
+      <c r="C32" s="229" t="s">
+        <v>650</v>
+      </c>
+      <c r="D32" s="218" t="s">
+        <v>643</v>
+      </c>
       <c r="E32" s="231"/>
-      <c r="F32" s="232"/>
+      <c r="F32" s="314"/>
       <c r="G32" s="217"/>
       <c r="H32" s="231"/>
       <c r="I32" s="216"/>
@@ -16269,19 +16372,21 @@
       <c r="N32" s="231"/>
       <c r="O32" s="216"/>
       <c r="P32" s="217"/>
-      <c r="R32" s="305"/>
-      <c r="S32" s="306"/>
-      <c r="T32" s="306"/>
-      <c r="U32" s="307"/>
-    </row>
-    <row r="33" spans="2:21" ht="20.25" customHeight="1">
+      <c r="R32" s="307"/>
+      <c r="S32" s="308"/>
+      <c r="T32" s="308"/>
+      <c r="U32" s="309"/>
+    </row>
+    <row r="33" spans="2:21" s="243" customFormat="1" ht="20.25" customHeight="1">
       <c r="B33" s="242"/>
       <c r="C33" s="229" t="s">
-        <v>636</v>
-      </c>
-      <c r="D33" s="218"/>
+        <v>651</v>
+      </c>
+      <c r="D33" s="218" t="s">
+        <v>643</v>
+      </c>
       <c r="E33" s="231"/>
-      <c r="F33" s="232"/>
+      <c r="F33" s="314"/>
       <c r="G33" s="217"/>
       <c r="H33" s="231"/>
       <c r="I33" s="216"/>
@@ -16292,17 +16397,19 @@
       <c r="N33" s="231"/>
       <c r="O33" s="216"/>
       <c r="P33" s="217"/>
-      <c r="R33" s="305"/>
-      <c r="S33" s="306"/>
-      <c r="T33" s="306"/>
-      <c r="U33" s="307"/>
-    </row>
-    <row r="34" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B34" s="242"/>
-      <c r="C34" s="218"/>
+      <c r="R33" s="307"/>
+      <c r="S33" s="308"/>
+      <c r="T33" s="308"/>
+      <c r="U33" s="309"/>
+    </row>
+    <row r="34" spans="2:21" s="243" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B34" s="242" t="s">
+        <v>361</v>
+      </c>
+      <c r="C34" s="229"/>
       <c r="D34" s="218"/>
       <c r="E34" s="231"/>
-      <c r="F34" s="232"/>
+      <c r="F34" s="314"/>
       <c r="G34" s="217"/>
       <c r="H34" s="231"/>
       <c r="I34" s="216"/>
@@ -16313,19 +16420,21 @@
       <c r="N34" s="231"/>
       <c r="O34" s="216"/>
       <c r="P34" s="217"/>
-      <c r="R34" s="305"/>
-      <c r="S34" s="306"/>
-      <c r="T34" s="306"/>
-      <c r="U34" s="307"/>
-    </row>
-    <row r="35" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B35" s="242" t="s">
-        <v>427</v>
-      </c>
-      <c r="C35" s="218"/>
-      <c r="D35" s="218"/>
+      <c r="R34" s="307"/>
+      <c r="S34" s="308"/>
+      <c r="T34" s="308"/>
+      <c r="U34" s="309"/>
+    </row>
+    <row r="35" spans="2:21" s="243" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B35" s="242"/>
+      <c r="C35" s="229" t="s">
+        <v>652</v>
+      </c>
+      <c r="D35" s="218" t="s">
+        <v>643</v>
+      </c>
       <c r="E35" s="231"/>
-      <c r="F35" s="232"/>
+      <c r="F35" s="314"/>
       <c r="G35" s="217"/>
       <c r="H35" s="231"/>
       <c r="I35" s="216"/>
@@ -16336,19 +16445,19 @@
       <c r="N35" s="231"/>
       <c r="O35" s="216"/>
       <c r="P35" s="217"/>
-      <c r="R35" s="305"/>
-      <c r="S35" s="306"/>
-      <c r="T35" s="306"/>
-      <c r="U35" s="307"/>
-    </row>
-    <row r="36" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B36" s="218"/>
-      <c r="C36" s="229" t="s">
-        <v>636</v>
-      </c>
+      <c r="R35" s="307"/>
+      <c r="S35" s="308"/>
+      <c r="T35" s="308"/>
+      <c r="U35" s="309"/>
+    </row>
+    <row r="36" spans="2:21" s="243" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B36" s="242" t="s">
+        <v>362</v>
+      </c>
+      <c r="C36" s="229"/>
       <c r="D36" s="218"/>
       <c r="E36" s="231"/>
-      <c r="F36" s="232"/>
+      <c r="F36" s="314"/>
       <c r="G36" s="217"/>
       <c r="H36" s="231"/>
       <c r="I36" s="216"/>
@@ -16359,17 +16468,21 @@
       <c r="N36" s="231"/>
       <c r="O36" s="216"/>
       <c r="P36" s="217"/>
-      <c r="R36" s="305"/>
-      <c r="S36" s="306"/>
-      <c r="T36" s="306"/>
-      <c r="U36" s="307"/>
-    </row>
-    <row r="37" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B37" s="218"/>
-      <c r="C37" s="218"/>
-      <c r="D37" s="218"/>
+      <c r="R36" s="307"/>
+      <c r="S36" s="308"/>
+      <c r="T36" s="308"/>
+      <c r="U36" s="309"/>
+    </row>
+    <row r="37" spans="2:21" s="243" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B37" s="242"/>
+      <c r="C37" s="229" t="s">
+        <v>652</v>
+      </c>
+      <c r="D37" s="218" t="s">
+        <v>643</v>
+      </c>
       <c r="E37" s="231"/>
-      <c r="F37" s="232"/>
+      <c r="F37" s="314"/>
       <c r="G37" s="217"/>
       <c r="H37" s="231"/>
       <c r="I37" s="216"/>
@@ -16380,17 +16493,17 @@
       <c r="N37" s="231"/>
       <c r="O37" s="216"/>
       <c r="P37" s="217"/>
-      <c r="R37" s="305"/>
-      <c r="S37" s="306"/>
-      <c r="T37" s="306"/>
-      <c r="U37" s="307"/>
-    </row>
-    <row r="38" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B38" s="218"/>
-      <c r="C38" s="218"/>
+      <c r="R37" s="307"/>
+      <c r="S37" s="308"/>
+      <c r="T37" s="308"/>
+      <c r="U37" s="309"/>
+    </row>
+    <row r="38" spans="2:21" s="243" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B38" s="242"/>
+      <c r="C38" s="229"/>
       <c r="D38" s="218"/>
       <c r="E38" s="231"/>
-      <c r="F38" s="232"/>
+      <c r="F38" s="314"/>
       <c r="G38" s="217"/>
       <c r="H38" s="231"/>
       <c r="I38" s="216"/>
@@ -16401,17 +16514,17 @@
       <c r="N38" s="231"/>
       <c r="O38" s="216"/>
       <c r="P38" s="217"/>
-      <c r="R38" s="305"/>
-      <c r="S38" s="306"/>
-      <c r="T38" s="306"/>
-      <c r="U38" s="307"/>
-    </row>
-    <row r="39" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B39" s="218"/>
-      <c r="C39" s="218"/>
+      <c r="R38" s="307"/>
+      <c r="S38" s="308"/>
+      <c r="T38" s="308"/>
+      <c r="U38" s="309"/>
+    </row>
+    <row r="39" spans="2:21" s="243" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B39" s="242"/>
+      <c r="C39" s="229"/>
       <c r="D39" s="218"/>
       <c r="E39" s="231"/>
-      <c r="F39" s="232"/>
+      <c r="F39" s="314"/>
       <c r="G39" s="217"/>
       <c r="H39" s="231"/>
       <c r="I39" s="216"/>
@@ -16422,13 +16535,15 @@
       <c r="N39" s="231"/>
       <c r="O39" s="216"/>
       <c r="P39" s="217"/>
-      <c r="R39" s="305"/>
-      <c r="S39" s="306"/>
-      <c r="T39" s="306"/>
-      <c r="U39" s="307"/>
+      <c r="R39" s="307"/>
+      <c r="S39" s="308"/>
+      <c r="T39" s="308"/>
+      <c r="U39" s="309"/>
     </row>
     <row r="40" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B40" s="218"/>
+      <c r="B40" s="242" t="s">
+        <v>425</v>
+      </c>
       <c r="C40" s="218"/>
       <c r="D40" s="218"/>
       <c r="E40" s="231"/>
@@ -16443,15 +16558,19 @@
       <c r="N40" s="231"/>
       <c r="O40" s="216"/>
       <c r="P40" s="217"/>
-      <c r="R40" s="305"/>
-      <c r="S40" s="306"/>
-      <c r="T40" s="306"/>
-      <c r="U40" s="307"/>
+      <c r="R40" s="307"/>
+      <c r="S40" s="308"/>
+      <c r="T40" s="308"/>
+      <c r="U40" s="309"/>
     </row>
     <row r="41" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B41" s="218"/>
-      <c r="C41" s="218"/>
-      <c r="D41" s="218"/>
+      <c r="B41" s="242"/>
+      <c r="C41" s="229" t="s">
+        <v>645</v>
+      </c>
+      <c r="D41" s="229" t="s">
+        <v>653</v>
+      </c>
       <c r="E41" s="231"/>
       <c r="F41" s="232"/>
       <c r="G41" s="217"/>
@@ -16464,15 +16583,19 @@
       <c r="N41" s="231"/>
       <c r="O41" s="216"/>
       <c r="P41" s="217"/>
-      <c r="R41" s="305"/>
-      <c r="S41" s="306"/>
-      <c r="T41" s="306"/>
-      <c r="U41" s="307"/>
+      <c r="R41" s="307"/>
+      <c r="S41" s="308"/>
+      <c r="T41" s="308"/>
+      <c r="U41" s="309"/>
     </row>
     <row r="42" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B42" s="218"/>
-      <c r="C42" s="218"/>
-      <c r="D42" s="218"/>
+      <c r="B42" s="242"/>
+      <c r="C42" s="229" t="s">
+        <v>635</v>
+      </c>
+      <c r="D42" s="229" t="s">
+        <v>653</v>
+      </c>
       <c r="E42" s="231"/>
       <c r="F42" s="232"/>
       <c r="G42" s="217"/>
@@ -16485,13 +16608,13 @@
       <c r="N42" s="231"/>
       <c r="O42" s="216"/>
       <c r="P42" s="217"/>
-      <c r="R42" s="305"/>
-      <c r="S42" s="306"/>
-      <c r="T42" s="306"/>
-      <c r="U42" s="307"/>
+      <c r="R42" s="307"/>
+      <c r="S42" s="308"/>
+      <c r="T42" s="308"/>
+      <c r="U42" s="309"/>
     </row>
     <row r="43" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B43" s="218"/>
+      <c r="B43" s="242"/>
       <c r="C43" s="218"/>
       <c r="D43" s="218"/>
       <c r="E43" s="231"/>
@@ -16506,14 +16629,13 @@
       <c r="N43" s="231"/>
       <c r="O43" s="216"/>
       <c r="P43" s="217"/>
-      <c r="R43" s="305"/>
-      <c r="S43" s="306"/>
-      <c r="T43" s="306"/>
-      <c r="U43" s="307"/>
+      <c r="R43" s="307"/>
+      <c r="S43" s="308"/>
+      <c r="T43" s="308"/>
+      <c r="U43" s="309"/>
     </row>
     <row r="44" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B44" s="218"/>
-      <c r="C44" s="218"/>
+      <c r="B44" s="242"/>
       <c r="D44" s="218"/>
       <c r="E44" s="231"/>
       <c r="F44" s="232"/>
@@ -16527,13 +16649,15 @@
       <c r="N44" s="231"/>
       <c r="O44" s="216"/>
       <c r="P44" s="217"/>
-      <c r="R44" s="305"/>
-      <c r="S44" s="306"/>
-      <c r="T44" s="306"/>
-      <c r="U44" s="307"/>
+      <c r="R44" s="307"/>
+      <c r="S44" s="308"/>
+      <c r="T44" s="308"/>
+      <c r="U44" s="309"/>
     </row>
     <row r="45" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B45" s="218"/>
+      <c r="B45" s="242" t="s">
+        <v>479</v>
+      </c>
       <c r="C45" s="218"/>
       <c r="D45" s="218"/>
       <c r="E45" s="231"/>
@@ -16548,14 +16672,16 @@
       <c r="N45" s="231"/>
       <c r="O45" s="216"/>
       <c r="P45" s="217"/>
-      <c r="R45" s="305"/>
-      <c r="S45" s="306"/>
-      <c r="T45" s="306"/>
-      <c r="U45" s="307"/>
+      <c r="R45" s="307"/>
+      <c r="S45" s="308"/>
+      <c r="T45" s="308"/>
+      <c r="U45" s="309"/>
     </row>
     <row r="46" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B46" s="218"/>
-      <c r="C46" s="218"/>
+      <c r="B46" s="242"/>
+      <c r="C46" s="229" t="s">
+        <v>636</v>
+      </c>
       <c r="D46" s="218"/>
       <c r="E46" s="231"/>
       <c r="F46" s="232"/>
@@ -16569,14 +16695,13 @@
       <c r="N46" s="231"/>
       <c r="O46" s="216"/>
       <c r="P46" s="217"/>
-      <c r="R46" s="305"/>
-      <c r="S46" s="306"/>
-      <c r="T46" s="306"/>
-      <c r="U46" s="307"/>
+      <c r="R46" s="307"/>
+      <c r="S46" s="308"/>
+      <c r="T46" s="308"/>
+      <c r="U46" s="309"/>
     </row>
     <row r="47" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B47" s="218"/>
-      <c r="C47" s="218"/>
+      <c r="B47" s="242"/>
       <c r="D47" s="218"/>
       <c r="E47" s="231"/>
       <c r="F47" s="232"/>
@@ -16590,13 +16715,15 @@
       <c r="N47" s="231"/>
       <c r="O47" s="216"/>
       <c r="P47" s="217"/>
-      <c r="R47" s="305"/>
-      <c r="S47" s="306"/>
-      <c r="T47" s="306"/>
-      <c r="U47" s="307"/>
+      <c r="R47" s="307"/>
+      <c r="S47" s="308"/>
+      <c r="T47" s="308"/>
+      <c r="U47" s="309"/>
     </row>
     <row r="48" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B48" s="218"/>
+      <c r="B48" s="242" t="s">
+        <v>427</v>
+      </c>
       <c r="C48" s="218"/>
       <c r="D48" s="218"/>
       <c r="E48" s="231"/>
@@ -16611,14 +16738,16 @@
       <c r="N48" s="231"/>
       <c r="O48" s="216"/>
       <c r="P48" s="217"/>
-      <c r="R48" s="305"/>
-      <c r="S48" s="306"/>
-      <c r="T48" s="306"/>
-      <c r="U48" s="307"/>
+      <c r="R48" s="307"/>
+      <c r="S48" s="308"/>
+      <c r="T48" s="308"/>
+      <c r="U48" s="309"/>
     </row>
     <row r="49" spans="2:21" ht="20.25" customHeight="1">
       <c r="B49" s="218"/>
-      <c r="C49" s="218"/>
+      <c r="C49" s="229" t="s">
+        <v>636</v>
+      </c>
       <c r="D49" s="218"/>
       <c r="E49" s="231"/>
       <c r="F49" s="232"/>
@@ -16632,10 +16761,10 @@
       <c r="N49" s="231"/>
       <c r="O49" s="216"/>
       <c r="P49" s="217"/>
-      <c r="R49" s="305"/>
-      <c r="S49" s="306"/>
-      <c r="T49" s="306"/>
-      <c r="U49" s="307"/>
+      <c r="R49" s="307"/>
+      <c r="S49" s="308"/>
+      <c r="T49" s="308"/>
+      <c r="U49" s="309"/>
     </row>
     <row r="50" spans="2:21" ht="20.25" customHeight="1">
       <c r="B50" s="218"/>
@@ -16653,10 +16782,10 @@
       <c r="N50" s="231"/>
       <c r="O50" s="216"/>
       <c r="P50" s="217"/>
-      <c r="R50" s="305"/>
-      <c r="S50" s="306"/>
-      <c r="T50" s="306"/>
-      <c r="U50" s="307"/>
+      <c r="R50" s="307"/>
+      <c r="S50" s="308"/>
+      <c r="T50" s="308"/>
+      <c r="U50" s="309"/>
     </row>
     <row r="51" spans="2:21" ht="20.25" customHeight="1">
       <c r="B51" s="218"/>
@@ -16674,10 +16803,10 @@
       <c r="N51" s="231"/>
       <c r="O51" s="216"/>
       <c r="P51" s="217"/>
-      <c r="R51" s="305"/>
-      <c r="S51" s="306"/>
-      <c r="T51" s="306"/>
-      <c r="U51" s="307"/>
+      <c r="R51" s="307"/>
+      <c r="S51" s="308"/>
+      <c r="T51" s="308"/>
+      <c r="U51" s="309"/>
     </row>
     <row r="52" spans="2:21" ht="20.25" customHeight="1">
       <c r="B52" s="218"/>
@@ -16695,10 +16824,10 @@
       <c r="N52" s="231"/>
       <c r="O52" s="216"/>
       <c r="P52" s="217"/>
-      <c r="R52" s="305"/>
-      <c r="S52" s="306"/>
-      <c r="T52" s="306"/>
-      <c r="U52" s="307"/>
+      <c r="R52" s="307"/>
+      <c r="S52" s="308"/>
+      <c r="T52" s="308"/>
+      <c r="U52" s="309"/>
     </row>
     <row r="53" spans="2:21" ht="20.25" customHeight="1">
       <c r="B53" s="218"/>
@@ -16716,10 +16845,10 @@
       <c r="N53" s="231"/>
       <c r="O53" s="216"/>
       <c r="P53" s="217"/>
-      <c r="R53" s="305"/>
-      <c r="S53" s="306"/>
-      <c r="T53" s="306"/>
-      <c r="U53" s="307"/>
+      <c r="R53" s="307"/>
+      <c r="S53" s="308"/>
+      <c r="T53" s="308"/>
+      <c r="U53" s="309"/>
     </row>
     <row r="54" spans="2:21" ht="20.25" customHeight="1">
       <c r="B54" s="218"/>
@@ -16737,10 +16866,10 @@
       <c r="N54" s="231"/>
       <c r="O54" s="216"/>
       <c r="P54" s="217"/>
-      <c r="R54" s="305"/>
-      <c r="S54" s="306"/>
-      <c r="T54" s="306"/>
-      <c r="U54" s="307"/>
+      <c r="R54" s="307"/>
+      <c r="S54" s="308"/>
+      <c r="T54" s="308"/>
+      <c r="U54" s="309"/>
     </row>
     <row r="55" spans="2:21" ht="20.25" customHeight="1">
       <c r="B55" s="218"/>
@@ -16758,10 +16887,10 @@
       <c r="N55" s="231"/>
       <c r="O55" s="216"/>
       <c r="P55" s="217"/>
-      <c r="R55" s="305"/>
-      <c r="S55" s="306"/>
-      <c r="T55" s="306"/>
-      <c r="U55" s="307"/>
+      <c r="R55" s="307"/>
+      <c r="S55" s="308"/>
+      <c r="T55" s="308"/>
+      <c r="U55" s="309"/>
     </row>
     <row r="56" spans="2:21" ht="20.25" customHeight="1">
       <c r="B56" s="218"/>
@@ -16779,10 +16908,10 @@
       <c r="N56" s="231"/>
       <c r="O56" s="216"/>
       <c r="P56" s="217"/>
-      <c r="R56" s="305"/>
-      <c r="S56" s="306"/>
-      <c r="T56" s="306"/>
-      <c r="U56" s="307"/>
+      <c r="R56" s="307"/>
+      <c r="S56" s="308"/>
+      <c r="T56" s="308"/>
+      <c r="U56" s="309"/>
     </row>
     <row r="57" spans="2:21" ht="20.25" customHeight="1">
       <c r="B57" s="218"/>
@@ -16800,10 +16929,10 @@
       <c r="N57" s="231"/>
       <c r="O57" s="216"/>
       <c r="P57" s="217"/>
-      <c r="R57" s="305"/>
-      <c r="S57" s="306"/>
-      <c r="T57" s="306"/>
-      <c r="U57" s="307"/>
+      <c r="R57" s="307"/>
+      <c r="S57" s="308"/>
+      <c r="T57" s="308"/>
+      <c r="U57" s="309"/>
     </row>
     <row r="58" spans="2:21" ht="20.25" customHeight="1">
       <c r="B58" s="218"/>
@@ -16821,10 +16950,10 @@
       <c r="N58" s="231"/>
       <c r="O58" s="216"/>
       <c r="P58" s="217"/>
-      <c r="R58" s="305"/>
-      <c r="S58" s="306"/>
-      <c r="T58" s="306"/>
-      <c r="U58" s="307"/>
+      <c r="R58" s="307"/>
+      <c r="S58" s="308"/>
+      <c r="T58" s="308"/>
+      <c r="U58" s="309"/>
     </row>
     <row r="59" spans="2:21" ht="20.25" customHeight="1">
       <c r="B59" s="218"/>
@@ -16842,10 +16971,10 @@
       <c r="N59" s="231"/>
       <c r="O59" s="216"/>
       <c r="P59" s="217"/>
-      <c r="R59" s="305"/>
-      <c r="S59" s="306"/>
-      <c r="T59" s="306"/>
-      <c r="U59" s="307"/>
+      <c r="R59" s="307"/>
+      <c r="S59" s="308"/>
+      <c r="T59" s="308"/>
+      <c r="U59" s="309"/>
     </row>
     <row r="60" spans="2:21" ht="20.25" customHeight="1">
       <c r="B60" s="218"/>
@@ -16863,10 +16992,10 @@
       <c r="N60" s="231"/>
       <c r="O60" s="216"/>
       <c r="P60" s="217"/>
-      <c r="R60" s="305"/>
-      <c r="S60" s="306"/>
-      <c r="T60" s="306"/>
-      <c r="U60" s="307"/>
+      <c r="R60" s="307"/>
+      <c r="S60" s="308"/>
+      <c r="T60" s="308"/>
+      <c r="U60" s="309"/>
     </row>
     <row r="61" spans="2:21" ht="20.25" customHeight="1">
       <c r="B61" s="218"/>
@@ -16884,10 +17013,10 @@
       <c r="N61" s="231"/>
       <c r="O61" s="216"/>
       <c r="P61" s="217"/>
-      <c r="R61" s="305"/>
-      <c r="S61" s="306"/>
-      <c r="T61" s="306"/>
-      <c r="U61" s="307"/>
+      <c r="R61" s="307"/>
+      <c r="S61" s="308"/>
+      <c r="T61" s="308"/>
+      <c r="U61" s="309"/>
     </row>
     <row r="62" spans="2:21" ht="20.25" customHeight="1">
       <c r="B62" s="218"/>
@@ -16905,10 +17034,10 @@
       <c r="N62" s="231"/>
       <c r="O62" s="216"/>
       <c r="P62" s="217"/>
-      <c r="R62" s="305"/>
-      <c r="S62" s="306"/>
-      <c r="T62" s="306"/>
-      <c r="U62" s="307"/>
+      <c r="R62" s="307"/>
+      <c r="S62" s="308"/>
+      <c r="T62" s="308"/>
+      <c r="U62" s="309"/>
     </row>
     <row r="63" spans="2:21" ht="20.25" customHeight="1">
       <c r="B63" s="218"/>
@@ -16926,10 +17055,10 @@
       <c r="N63" s="231"/>
       <c r="O63" s="216"/>
       <c r="P63" s="217"/>
-      <c r="R63" s="305"/>
-      <c r="S63" s="306"/>
-      <c r="T63" s="306"/>
-      <c r="U63" s="307"/>
+      <c r="R63" s="307"/>
+      <c r="S63" s="308"/>
+      <c r="T63" s="308"/>
+      <c r="U63" s="309"/>
     </row>
     <row r="64" spans="2:21" ht="20.25" customHeight="1">
       <c r="B64" s="218"/>
@@ -16947,10 +17076,10 @@
       <c r="N64" s="231"/>
       <c r="O64" s="216"/>
       <c r="P64" s="217"/>
-      <c r="R64" s="305"/>
-      <c r="S64" s="306"/>
-      <c r="T64" s="306"/>
-      <c r="U64" s="307"/>
+      <c r="R64" s="307"/>
+      <c r="S64" s="308"/>
+      <c r="T64" s="308"/>
+      <c r="U64" s="309"/>
     </row>
     <row r="65" spans="2:21" ht="20.25" customHeight="1">
       <c r="B65" s="218"/>
@@ -16968,10 +17097,10 @@
       <c r="N65" s="231"/>
       <c r="O65" s="216"/>
       <c r="P65" s="217"/>
-      <c r="R65" s="305"/>
-      <c r="S65" s="306"/>
-      <c r="T65" s="306"/>
-      <c r="U65" s="307"/>
+      <c r="R65" s="307"/>
+      <c r="S65" s="308"/>
+      <c r="T65" s="308"/>
+      <c r="U65" s="309"/>
     </row>
     <row r="66" spans="2:21" ht="20.25" customHeight="1">
       <c r="B66" s="218"/>
@@ -16989,10 +17118,10 @@
       <c r="N66" s="231"/>
       <c r="O66" s="216"/>
       <c r="P66" s="217"/>
-      <c r="R66" s="305"/>
-      <c r="S66" s="306"/>
-      <c r="T66" s="306"/>
-      <c r="U66" s="307"/>
+      <c r="R66" s="307"/>
+      <c r="S66" s="308"/>
+      <c r="T66" s="308"/>
+      <c r="U66" s="309"/>
     </row>
     <row r="67" spans="2:21" ht="20.25" customHeight="1">
       <c r="B67" s="218"/>
@@ -17010,10 +17139,10 @@
       <c r="N67" s="231"/>
       <c r="O67" s="216"/>
       <c r="P67" s="217"/>
-      <c r="R67" s="305"/>
-      <c r="S67" s="306"/>
-      <c r="T67" s="306"/>
-      <c r="U67" s="307"/>
+      <c r="R67" s="307"/>
+      <c r="S67" s="308"/>
+      <c r="T67" s="308"/>
+      <c r="U67" s="309"/>
     </row>
     <row r="68" spans="2:21" ht="20.25" customHeight="1">
       <c r="B68" s="218"/>
@@ -17031,10 +17160,10 @@
       <c r="N68" s="231"/>
       <c r="O68" s="216"/>
       <c r="P68" s="217"/>
-      <c r="R68" s="305"/>
-      <c r="S68" s="306"/>
-      <c r="T68" s="306"/>
-      <c r="U68" s="307"/>
+      <c r="R68" s="307"/>
+      <c r="S68" s="308"/>
+      <c r="T68" s="308"/>
+      <c r="U68" s="309"/>
     </row>
     <row r="69" spans="2:21" ht="20.25" customHeight="1">
       <c r="B69" s="218"/>
@@ -17052,10 +17181,10 @@
       <c r="N69" s="231"/>
       <c r="O69" s="216"/>
       <c r="P69" s="217"/>
-      <c r="R69" s="305"/>
-      <c r="S69" s="306"/>
-      <c r="T69" s="306"/>
-      <c r="U69" s="307"/>
+      <c r="R69" s="307"/>
+      <c r="S69" s="308"/>
+      <c r="T69" s="308"/>
+      <c r="U69" s="309"/>
     </row>
     <row r="70" spans="2:21" ht="20.25" customHeight="1">
       <c r="B70" s="218"/>
@@ -17073,10 +17202,10 @@
       <c r="N70" s="231"/>
       <c r="O70" s="216"/>
       <c r="P70" s="217"/>
-      <c r="R70" s="305"/>
-      <c r="S70" s="306"/>
-      <c r="T70" s="306"/>
-      <c r="U70" s="307"/>
+      <c r="R70" s="307"/>
+      <c r="S70" s="308"/>
+      <c r="T70" s="308"/>
+      <c r="U70" s="309"/>
     </row>
     <row r="71" spans="2:21" ht="20.25" customHeight="1">
       <c r="B71" s="218"/>
@@ -17094,10 +17223,10 @@
       <c r="N71" s="231"/>
       <c r="O71" s="216"/>
       <c r="P71" s="217"/>
-      <c r="R71" s="305"/>
-      <c r="S71" s="306"/>
-      <c r="T71" s="306"/>
-      <c r="U71" s="307"/>
+      <c r="R71" s="307"/>
+      <c r="S71" s="308"/>
+      <c r="T71" s="308"/>
+      <c r="U71" s="309"/>
     </row>
     <row r="72" spans="2:21" ht="20.25" customHeight="1">
       <c r="B72" s="218"/>
@@ -17115,10 +17244,10 @@
       <c r="N72" s="231"/>
       <c r="O72" s="216"/>
       <c r="P72" s="217"/>
-      <c r="R72" s="305"/>
-      <c r="S72" s="306"/>
-      <c r="T72" s="306"/>
-      <c r="U72" s="307"/>
+      <c r="R72" s="307"/>
+      <c r="S72" s="308"/>
+      <c r="T72" s="308"/>
+      <c r="U72" s="309"/>
     </row>
     <row r="73" spans="2:21" ht="20.25" customHeight="1">
       <c r="B73" s="218"/>
@@ -17136,10 +17265,10 @@
       <c r="N73" s="231"/>
       <c r="O73" s="216"/>
       <c r="P73" s="217"/>
-      <c r="R73" s="305"/>
-      <c r="S73" s="306"/>
-      <c r="T73" s="306"/>
-      <c r="U73" s="307"/>
+      <c r="R73" s="307"/>
+      <c r="S73" s="308"/>
+      <c r="T73" s="308"/>
+      <c r="U73" s="309"/>
     </row>
     <row r="74" spans="2:21" ht="20.25" customHeight="1">
       <c r="B74" s="218"/>
@@ -17157,10 +17286,10 @@
       <c r="N74" s="231"/>
       <c r="O74" s="216"/>
       <c r="P74" s="217"/>
-      <c r="R74" s="305"/>
-      <c r="S74" s="306"/>
-      <c r="T74" s="306"/>
-      <c r="U74" s="307"/>
+      <c r="R74" s="307"/>
+      <c r="S74" s="308"/>
+      <c r="T74" s="308"/>
+      <c r="U74" s="309"/>
     </row>
     <row r="75" spans="2:21" ht="20.25" customHeight="1">
       <c r="B75" s="218"/>
@@ -17178,10 +17307,10 @@
       <c r="N75" s="231"/>
       <c r="O75" s="216"/>
       <c r="P75" s="217"/>
-      <c r="R75" s="305"/>
-      <c r="S75" s="306"/>
-      <c r="T75" s="306"/>
-      <c r="U75" s="307"/>
+      <c r="R75" s="307"/>
+      <c r="S75" s="308"/>
+      <c r="T75" s="308"/>
+      <c r="U75" s="309"/>
     </row>
     <row r="76" spans="2:21" ht="20.25" customHeight="1">
       <c r="B76" s="218"/>
@@ -17199,10 +17328,10 @@
       <c r="N76" s="231"/>
       <c r="O76" s="216"/>
       <c r="P76" s="217"/>
-      <c r="R76" s="305"/>
-      <c r="S76" s="306"/>
-      <c r="T76" s="306"/>
-      <c r="U76" s="307"/>
+      <c r="R76" s="307"/>
+      <c r="S76" s="308"/>
+      <c r="T76" s="308"/>
+      <c r="U76" s="309"/>
     </row>
     <row r="77" spans="2:21" ht="20.25" customHeight="1">
       <c r="B77" s="218"/>
@@ -17220,10 +17349,10 @@
       <c r="N77" s="231"/>
       <c r="O77" s="216"/>
       <c r="P77" s="217"/>
-      <c r="R77" s="305"/>
-      <c r="S77" s="306"/>
-      <c r="T77" s="306"/>
-      <c r="U77" s="307"/>
+      <c r="R77" s="307"/>
+      <c r="S77" s="308"/>
+      <c r="T77" s="308"/>
+      <c r="U77" s="309"/>
     </row>
     <row r="78" spans="2:21" ht="20.25" customHeight="1">
       <c r="B78" s="218"/>
@@ -17241,10 +17370,10 @@
       <c r="N78" s="231"/>
       <c r="O78" s="216"/>
       <c r="P78" s="217"/>
-      <c r="R78" s="305"/>
-      <c r="S78" s="306"/>
-      <c r="T78" s="306"/>
-      <c r="U78" s="307"/>
+      <c r="R78" s="307"/>
+      <c r="S78" s="308"/>
+      <c r="T78" s="308"/>
+      <c r="U78" s="309"/>
     </row>
     <row r="79" spans="2:21" ht="20.25" customHeight="1">
       <c r="B79" s="218"/>
@@ -17262,10 +17391,10 @@
       <c r="N79" s="231"/>
       <c r="O79" s="216"/>
       <c r="P79" s="217"/>
-      <c r="R79" s="305"/>
-      <c r="S79" s="306"/>
-      <c r="T79" s="306"/>
-      <c r="U79" s="307"/>
+      <c r="R79" s="307"/>
+      <c r="S79" s="308"/>
+      <c r="T79" s="308"/>
+      <c r="U79" s="309"/>
     </row>
     <row r="80" spans="2:21" ht="20.25" customHeight="1">
       <c r="B80" s="218"/>
@@ -17283,10 +17412,10 @@
       <c r="N80" s="231"/>
       <c r="O80" s="216"/>
       <c r="P80" s="217"/>
-      <c r="R80" s="305"/>
-      <c r="S80" s="306"/>
-      <c r="T80" s="306"/>
-      <c r="U80" s="307"/>
+      <c r="R80" s="307"/>
+      <c r="S80" s="308"/>
+      <c r="T80" s="308"/>
+      <c r="U80" s="309"/>
     </row>
     <row r="81" spans="2:21" ht="20.25" customHeight="1">
       <c r="B81" s="218"/>
@@ -17304,10 +17433,10 @@
       <c r="N81" s="231"/>
       <c r="O81" s="216"/>
       <c r="P81" s="217"/>
-      <c r="R81" s="305"/>
-      <c r="S81" s="306"/>
-      <c r="T81" s="306"/>
-      <c r="U81" s="307"/>
+      <c r="R81" s="307"/>
+      <c r="S81" s="308"/>
+      <c r="T81" s="308"/>
+      <c r="U81" s="309"/>
     </row>
     <row r="82" spans="2:21" ht="20.25" customHeight="1">
       <c r="B82" s="218"/>
@@ -17325,10 +17454,10 @@
       <c r="N82" s="231"/>
       <c r="O82" s="216"/>
       <c r="P82" s="217"/>
-      <c r="R82" s="305"/>
-      <c r="S82" s="306"/>
-      <c r="T82" s="306"/>
-      <c r="U82" s="307"/>
+      <c r="R82" s="307"/>
+      <c r="S82" s="308"/>
+      <c r="T82" s="308"/>
+      <c r="U82" s="309"/>
     </row>
     <row r="83" spans="2:21" ht="20.25" customHeight="1">
       <c r="B83" s="218"/>
@@ -17346,10 +17475,10 @@
       <c r="N83" s="231"/>
       <c r="O83" s="216"/>
       <c r="P83" s="217"/>
-      <c r="R83" s="305"/>
-      <c r="S83" s="306"/>
-      <c r="T83" s="306"/>
-      <c r="U83" s="307"/>
+      <c r="R83" s="307"/>
+      <c r="S83" s="308"/>
+      <c r="T83" s="308"/>
+      <c r="U83" s="309"/>
     </row>
     <row r="84" spans="2:21" ht="20.25" customHeight="1">
       <c r="B84" s="218"/>
@@ -17367,10 +17496,10 @@
       <c r="N84" s="231"/>
       <c r="O84" s="216"/>
       <c r="P84" s="217"/>
-      <c r="R84" s="305"/>
-      <c r="S84" s="306"/>
-      <c r="T84" s="306"/>
-      <c r="U84" s="307"/>
+      <c r="R84" s="307"/>
+      <c r="S84" s="308"/>
+      <c r="T84" s="308"/>
+      <c r="U84" s="309"/>
     </row>
     <row r="85" spans="2:21" ht="20.25" customHeight="1">
       <c r="B85" s="218"/>
@@ -17388,10 +17517,10 @@
       <c r="N85" s="231"/>
       <c r="O85" s="216"/>
       <c r="P85" s="217"/>
-      <c r="R85" s="305"/>
-      <c r="S85" s="306"/>
-      <c r="T85" s="306"/>
-      <c r="U85" s="307"/>
+      <c r="R85" s="307"/>
+      <c r="S85" s="308"/>
+      <c r="T85" s="308"/>
+      <c r="U85" s="309"/>
     </row>
     <row r="86" spans="2:21" ht="20.25" customHeight="1">
       <c r="B86" s="218"/>
@@ -17409,10 +17538,10 @@
       <c r="N86" s="231"/>
       <c r="O86" s="216"/>
       <c r="P86" s="217"/>
-      <c r="R86" s="305"/>
-      <c r="S86" s="306"/>
-      <c r="T86" s="306"/>
-      <c r="U86" s="307"/>
+      <c r="R86" s="307"/>
+      <c r="S86" s="308"/>
+      <c r="T86" s="308"/>
+      <c r="U86" s="309"/>
     </row>
     <row r="87" spans="2:21" ht="20.25" customHeight="1">
       <c r="B87" s="218"/>
@@ -17430,10 +17559,10 @@
       <c r="N87" s="231"/>
       <c r="O87" s="216"/>
       <c r="P87" s="217"/>
-      <c r="R87" s="305"/>
-      <c r="S87" s="306"/>
-      <c r="T87" s="306"/>
-      <c r="U87" s="307"/>
+      <c r="R87" s="307"/>
+      <c r="S87" s="308"/>
+      <c r="T87" s="308"/>
+      <c r="U87" s="309"/>
     </row>
     <row r="88" spans="2:21" ht="20.25" customHeight="1">
       <c r="B88" s="218"/>
@@ -17451,10 +17580,10 @@
       <c r="N88" s="231"/>
       <c r="O88" s="216"/>
       <c r="P88" s="217"/>
-      <c r="R88" s="305"/>
-      <c r="S88" s="306"/>
-      <c r="T88" s="306"/>
-      <c r="U88" s="307"/>
+      <c r="R88" s="307"/>
+      <c r="S88" s="308"/>
+      <c r="T88" s="308"/>
+      <c r="U88" s="309"/>
     </row>
     <row r="89" spans="2:21" ht="20.25" customHeight="1">
       <c r="B89" s="218"/>
@@ -17472,10 +17601,10 @@
       <c r="N89" s="231"/>
       <c r="O89" s="216"/>
       <c r="P89" s="217"/>
-      <c r="R89" s="305"/>
-      <c r="S89" s="306"/>
-      <c r="T89" s="306"/>
-      <c r="U89" s="307"/>
+      <c r="R89" s="307"/>
+      <c r="S89" s="308"/>
+      <c r="T89" s="308"/>
+      <c r="U89" s="309"/>
     </row>
     <row r="90" spans="2:21" ht="20.25" customHeight="1">
       <c r="B90" s="218"/>
@@ -17493,10 +17622,10 @@
       <c r="N90" s="231"/>
       <c r="O90" s="216"/>
       <c r="P90" s="217"/>
-      <c r="R90" s="305"/>
-      <c r="S90" s="306"/>
-      <c r="T90" s="306"/>
-      <c r="U90" s="307"/>
+      <c r="R90" s="307"/>
+      <c r="S90" s="308"/>
+      <c r="T90" s="308"/>
+      <c r="U90" s="309"/>
     </row>
     <row r="91" spans="2:21" ht="20.25" customHeight="1">
       <c r="B91" s="218"/>
@@ -17514,10 +17643,10 @@
       <c r="N91" s="231"/>
       <c r="O91" s="216"/>
       <c r="P91" s="217"/>
-      <c r="R91" s="305"/>
-      <c r="S91" s="306"/>
-      <c r="T91" s="306"/>
-      <c r="U91" s="307"/>
+      <c r="R91" s="307"/>
+      <c r="S91" s="308"/>
+      <c r="T91" s="308"/>
+      <c r="U91" s="309"/>
     </row>
     <row r="92" spans="2:21" ht="20.25" customHeight="1">
       <c r="B92" s="218"/>
@@ -17535,10 +17664,10 @@
       <c r="N92" s="231"/>
       <c r="O92" s="216"/>
       <c r="P92" s="217"/>
-      <c r="R92" s="305"/>
-      <c r="S92" s="306"/>
-      <c r="T92" s="306"/>
-      <c r="U92" s="307"/>
+      <c r="R92" s="307"/>
+      <c r="S92" s="308"/>
+      <c r="T92" s="308"/>
+      <c r="U92" s="309"/>
     </row>
     <row r="93" spans="2:21" ht="20.25" customHeight="1">
       <c r="B93" s="218"/>
@@ -17556,10 +17685,10 @@
       <c r="N93" s="231"/>
       <c r="O93" s="216"/>
       <c r="P93" s="217"/>
-      <c r="R93" s="305"/>
-      <c r="S93" s="306"/>
-      <c r="T93" s="306"/>
-      <c r="U93" s="307"/>
+      <c r="R93" s="307"/>
+      <c r="S93" s="308"/>
+      <c r="T93" s="308"/>
+      <c r="U93" s="309"/>
     </row>
     <row r="94" spans="2:21" ht="20.25" customHeight="1">
       <c r="B94" s="218"/>
@@ -17577,10 +17706,10 @@
       <c r="N94" s="231"/>
       <c r="O94" s="216"/>
       <c r="P94" s="217"/>
-      <c r="R94" s="305"/>
-      <c r="S94" s="306"/>
-      <c r="T94" s="306"/>
-      <c r="U94" s="307"/>
+      <c r="R94" s="307"/>
+      <c r="S94" s="308"/>
+      <c r="T94" s="308"/>
+      <c r="U94" s="309"/>
     </row>
     <row r="95" spans="2:21" ht="20.25" customHeight="1">
       <c r="B95" s="218"/>
@@ -17598,10 +17727,10 @@
       <c r="N95" s="231"/>
       <c r="O95" s="216"/>
       <c r="P95" s="217"/>
-      <c r="R95" s="305"/>
-      <c r="S95" s="306"/>
-      <c r="T95" s="306"/>
-      <c r="U95" s="307"/>
+      <c r="R95" s="307"/>
+      <c r="S95" s="308"/>
+      <c r="T95" s="308"/>
+      <c r="U95" s="309"/>
     </row>
     <row r="96" spans="2:21" ht="20.25" customHeight="1">
       <c r="B96" s="218"/>
@@ -17619,10 +17748,10 @@
       <c r="N96" s="231"/>
       <c r="O96" s="216"/>
       <c r="P96" s="217"/>
-      <c r="R96" s="305"/>
-      <c r="S96" s="306"/>
-      <c r="T96" s="306"/>
-      <c r="U96" s="307"/>
+      <c r="R96" s="307"/>
+      <c r="S96" s="308"/>
+      <c r="T96" s="308"/>
+      <c r="U96" s="309"/>
     </row>
     <row r="97" spans="2:21" ht="20.25" customHeight="1">
       <c r="B97" s="218"/>
@@ -17640,10 +17769,10 @@
       <c r="N97" s="231"/>
       <c r="O97" s="216"/>
       <c r="P97" s="217"/>
-      <c r="R97" s="305"/>
-      <c r="S97" s="306"/>
-      <c r="T97" s="306"/>
-      <c r="U97" s="307"/>
+      <c r="R97" s="307"/>
+      <c r="S97" s="308"/>
+      <c r="T97" s="308"/>
+      <c r="U97" s="309"/>
     </row>
     <row r="98" spans="2:21" ht="20.25" customHeight="1">
       <c r="B98" s="218"/>
@@ -17661,10 +17790,10 @@
       <c r="N98" s="231"/>
       <c r="O98" s="216"/>
       <c r="P98" s="217"/>
-      <c r="R98" s="305"/>
-      <c r="S98" s="306"/>
-      <c r="T98" s="306"/>
-      <c r="U98" s="307"/>
+      <c r="R98" s="307"/>
+      <c r="S98" s="308"/>
+      <c r="T98" s="308"/>
+      <c r="U98" s="309"/>
     </row>
     <row r="99" spans="2:21" ht="20.25" customHeight="1">
       <c r="B99" s="218"/>
@@ -17682,10 +17811,10 @@
       <c r="N99" s="231"/>
       <c r="O99" s="216"/>
       <c r="P99" s="217"/>
-      <c r="R99" s="305"/>
-      <c r="S99" s="306"/>
-      <c r="T99" s="306"/>
-      <c r="U99" s="307"/>
+      <c r="R99" s="307"/>
+      <c r="S99" s="308"/>
+      <c r="T99" s="308"/>
+      <c r="U99" s="309"/>
     </row>
     <row r="100" spans="2:21" ht="20.25" customHeight="1">
       <c r="B100" s="218"/>
@@ -17703,10 +17832,10 @@
       <c r="N100" s="231"/>
       <c r="O100" s="216"/>
       <c r="P100" s="217"/>
-      <c r="R100" s="305"/>
-      <c r="S100" s="306"/>
-      <c r="T100" s="306"/>
-      <c r="U100" s="307"/>
+      <c r="R100" s="307"/>
+      <c r="S100" s="308"/>
+      <c r="T100" s="308"/>
+      <c r="U100" s="309"/>
     </row>
     <row r="101" spans="2:21" ht="20.25" customHeight="1">
       <c r="B101" s="218"/>
@@ -17724,10 +17853,10 @@
       <c r="N101" s="231"/>
       <c r="O101" s="216"/>
       <c r="P101" s="217"/>
-      <c r="R101" s="305"/>
-      <c r="S101" s="306"/>
-      <c r="T101" s="306"/>
-      <c r="U101" s="307"/>
+      <c r="R101" s="307"/>
+      <c r="S101" s="308"/>
+      <c r="T101" s="308"/>
+      <c r="U101" s="309"/>
     </row>
     <row r="102" spans="2:21" ht="20.25" customHeight="1">
       <c r="B102" s="218"/>
@@ -17745,10 +17874,10 @@
       <c r="N102" s="231"/>
       <c r="O102" s="216"/>
       <c r="P102" s="217"/>
-      <c r="R102" s="305"/>
-      <c r="S102" s="306"/>
-      <c r="T102" s="306"/>
-      <c r="U102" s="307"/>
+      <c r="R102" s="307"/>
+      <c r="S102" s="308"/>
+      <c r="T102" s="308"/>
+      <c r="U102" s="309"/>
     </row>
     <row r="103" spans="2:21" ht="20.25" customHeight="1">
       <c r="B103" s="218"/>
@@ -17766,10 +17895,10 @@
       <c r="N103" s="231"/>
       <c r="O103" s="216"/>
       <c r="P103" s="217"/>
-      <c r="R103" s="305"/>
-      <c r="S103" s="306"/>
-      <c r="T103" s="306"/>
-      <c r="U103" s="307"/>
+      <c r="R103" s="307"/>
+      <c r="S103" s="308"/>
+      <c r="T103" s="308"/>
+      <c r="U103" s="309"/>
     </row>
     <row r="104" spans="2:21" ht="20.25" customHeight="1">
       <c r="B104" s="218"/>
@@ -17787,10 +17916,10 @@
       <c r="N104" s="231"/>
       <c r="O104" s="216"/>
       <c r="P104" s="217"/>
-      <c r="R104" s="305"/>
-      <c r="S104" s="306"/>
-      <c r="T104" s="306"/>
-      <c r="U104" s="307"/>
+      <c r="R104" s="307"/>
+      <c r="S104" s="308"/>
+      <c r="T104" s="308"/>
+      <c r="U104" s="309"/>
     </row>
     <row r="105" spans="2:21" ht="20.25" customHeight="1">
       <c r="B105" s="218"/>
@@ -17808,10 +17937,10 @@
       <c r="N105" s="231"/>
       <c r="O105" s="216"/>
       <c r="P105" s="217"/>
-      <c r="R105" s="305"/>
-      <c r="S105" s="306"/>
-      <c r="T105" s="306"/>
-      <c r="U105" s="307"/>
+      <c r="R105" s="307"/>
+      <c r="S105" s="308"/>
+      <c r="T105" s="308"/>
+      <c r="U105" s="309"/>
     </row>
     <row r="106" spans="2:21" ht="20.25" customHeight="1">
       <c r="B106" s="218"/>
@@ -17829,10 +17958,10 @@
       <c r="N106" s="231"/>
       <c r="O106" s="216"/>
       <c r="P106" s="217"/>
-      <c r="R106" s="305"/>
-      <c r="S106" s="306"/>
-      <c r="T106" s="306"/>
-      <c r="U106" s="307"/>
+      <c r="R106" s="307"/>
+      <c r="S106" s="308"/>
+      <c r="T106" s="308"/>
+      <c r="U106" s="309"/>
     </row>
     <row r="107" spans="2:21" ht="20.25" customHeight="1">
       <c r="B107" s="218"/>
@@ -17850,10 +17979,10 @@
       <c r="N107" s="231"/>
       <c r="O107" s="216"/>
       <c r="P107" s="217"/>
-      <c r="R107" s="305"/>
-      <c r="S107" s="306"/>
-      <c r="T107" s="306"/>
-      <c r="U107" s="307"/>
+      <c r="R107" s="307"/>
+      <c r="S107" s="308"/>
+      <c r="T107" s="308"/>
+      <c r="U107" s="309"/>
     </row>
     <row r="108" spans="2:21" ht="20.25" customHeight="1">
       <c r="B108" s="218"/>
@@ -17871,10 +18000,10 @@
       <c r="N108" s="231"/>
       <c r="O108" s="216"/>
       <c r="P108" s="217"/>
-      <c r="R108" s="305"/>
-      <c r="S108" s="306"/>
-      <c r="T108" s="306"/>
-      <c r="U108" s="307"/>
+      <c r="R108" s="307"/>
+      <c r="S108" s="308"/>
+      <c r="T108" s="308"/>
+      <c r="U108" s="309"/>
     </row>
     <row r="109" spans="2:21" ht="20.25" customHeight="1">
       <c r="B109" s="218"/>
@@ -17892,10 +18021,10 @@
       <c r="N109" s="231"/>
       <c r="O109" s="216"/>
       <c r="P109" s="217"/>
-      <c r="R109" s="305"/>
-      <c r="S109" s="306"/>
-      <c r="T109" s="306"/>
-      <c r="U109" s="307"/>
+      <c r="R109" s="307"/>
+      <c r="S109" s="308"/>
+      <c r="T109" s="308"/>
+      <c r="U109" s="309"/>
     </row>
     <row r="110" spans="2:21" ht="20.25" customHeight="1">
       <c r="B110" s="218"/>
@@ -17913,10 +18042,10 @@
       <c r="N110" s="231"/>
       <c r="O110" s="216"/>
       <c r="P110" s="217"/>
-      <c r="R110" s="305"/>
-      <c r="S110" s="306"/>
-      <c r="T110" s="306"/>
-      <c r="U110" s="307"/>
+      <c r="R110" s="307"/>
+      <c r="S110" s="308"/>
+      <c r="T110" s="308"/>
+      <c r="U110" s="309"/>
     </row>
     <row r="111" spans="2:21" ht="20.25" customHeight="1">
       <c r="B111" s="218"/>
@@ -17934,10 +18063,10 @@
       <c r="N111" s="231"/>
       <c r="O111" s="216"/>
       <c r="P111" s="217"/>
-      <c r="R111" s="305"/>
-      <c r="S111" s="306"/>
-      <c r="T111" s="306"/>
-      <c r="U111" s="307"/>
+      <c r="R111" s="307"/>
+      <c r="S111" s="308"/>
+      <c r="T111" s="308"/>
+      <c r="U111" s="309"/>
     </row>
     <row r="112" spans="2:21" ht="20.25" customHeight="1">
       <c r="B112" s="218"/>
@@ -17955,10 +18084,10 @@
       <c r="N112" s="231"/>
       <c r="O112" s="216"/>
       <c r="P112" s="217"/>
-      <c r="R112" s="305"/>
-      <c r="S112" s="306"/>
-      <c r="T112" s="306"/>
-      <c r="U112" s="307"/>
+      <c r="R112" s="307"/>
+      <c r="S112" s="308"/>
+      <c r="T112" s="308"/>
+      <c r="U112" s="309"/>
     </row>
     <row r="113" spans="2:21" ht="20.25" customHeight="1">
       <c r="B113" s="218"/>
@@ -17976,10 +18105,10 @@
       <c r="N113" s="231"/>
       <c r="O113" s="216"/>
       <c r="P113" s="217"/>
-      <c r="R113" s="305"/>
-      <c r="S113" s="306"/>
-      <c r="T113" s="306"/>
-      <c r="U113" s="307"/>
+      <c r="R113" s="307"/>
+      <c r="S113" s="308"/>
+      <c r="T113" s="308"/>
+      <c r="U113" s="309"/>
     </row>
     <row r="114" spans="2:21" ht="20.25" customHeight="1">
       <c r="B114" s="218"/>
@@ -17997,10 +18126,10 @@
       <c r="N114" s="231"/>
       <c r="O114" s="216"/>
       <c r="P114" s="217"/>
-      <c r="R114" s="305"/>
-      <c r="S114" s="306"/>
-      <c r="T114" s="306"/>
-      <c r="U114" s="307"/>
+      <c r="R114" s="307"/>
+      <c r="S114" s="308"/>
+      <c r="T114" s="308"/>
+      <c r="U114" s="309"/>
     </row>
     <row r="115" spans="2:21" ht="20.25" customHeight="1">
       <c r="B115" s="218"/>
@@ -18018,10 +18147,10 @@
       <c r="N115" s="231"/>
       <c r="O115" s="216"/>
       <c r="P115" s="217"/>
-      <c r="R115" s="305"/>
-      <c r="S115" s="306"/>
-      <c r="T115" s="306"/>
-      <c r="U115" s="307"/>
+      <c r="R115" s="307"/>
+      <c r="S115" s="308"/>
+      <c r="T115" s="308"/>
+      <c r="U115" s="309"/>
     </row>
     <row r="116" spans="2:21" ht="20.25" customHeight="1">
       <c r="B116" s="218"/>
@@ -18039,10 +18168,10 @@
       <c r="N116" s="231"/>
       <c r="O116" s="216"/>
       <c r="P116" s="217"/>
-      <c r="R116" s="305"/>
-      <c r="S116" s="306"/>
-      <c r="T116" s="306"/>
-      <c r="U116" s="307"/>
+      <c r="R116" s="307"/>
+      <c r="S116" s="308"/>
+      <c r="T116" s="308"/>
+      <c r="U116" s="309"/>
     </row>
     <row r="117" spans="2:21" ht="20.25" customHeight="1">
       <c r="B117" s="218"/>
@@ -18060,10 +18189,10 @@
       <c r="N117" s="231"/>
       <c r="O117" s="216"/>
       <c r="P117" s="217"/>
-      <c r="R117" s="305"/>
-      <c r="S117" s="306"/>
-      <c r="T117" s="306"/>
-      <c r="U117" s="307"/>
+      <c r="R117" s="307"/>
+      <c r="S117" s="308"/>
+      <c r="T117" s="308"/>
+      <c r="U117" s="309"/>
     </row>
     <row r="118" spans="2:21" ht="20.25" customHeight="1">
       <c r="B118" s="218"/>
@@ -18081,10 +18210,10 @@
       <c r="N118" s="231"/>
       <c r="O118" s="216"/>
       <c r="P118" s="217"/>
-      <c r="R118" s="305"/>
-      <c r="S118" s="306"/>
-      <c r="T118" s="306"/>
-      <c r="U118" s="307"/>
+      <c r="R118" s="307"/>
+      <c r="S118" s="308"/>
+      <c r="T118" s="308"/>
+      <c r="U118" s="309"/>
     </row>
     <row r="119" spans="2:21" ht="20.25" customHeight="1">
       <c r="B119" s="218"/>
@@ -18102,10 +18231,10 @@
       <c r="N119" s="231"/>
       <c r="O119" s="216"/>
       <c r="P119" s="217"/>
-      <c r="R119" s="305"/>
-      <c r="S119" s="306"/>
-      <c r="T119" s="306"/>
-      <c r="U119" s="307"/>
+      <c r="R119" s="307"/>
+      <c r="S119" s="308"/>
+      <c r="T119" s="308"/>
+      <c r="U119" s="309"/>
     </row>
     <row r="120" spans="2:21" ht="20.25" customHeight="1">
       <c r="B120" s="218"/>
@@ -18123,10 +18252,10 @@
       <c r="N120" s="231"/>
       <c r="O120" s="216"/>
       <c r="P120" s="217"/>
-      <c r="R120" s="305"/>
-      <c r="S120" s="306"/>
-      <c r="T120" s="306"/>
-      <c r="U120" s="307"/>
+      <c r="R120" s="307"/>
+      <c r="S120" s="308"/>
+      <c r="T120" s="308"/>
+      <c r="U120" s="309"/>
     </row>
     <row r="121" spans="2:21" ht="20.25" customHeight="1">
       <c r="B121" s="218"/>
@@ -18144,10 +18273,10 @@
       <c r="N121" s="231"/>
       <c r="O121" s="216"/>
       <c r="P121" s="217"/>
-      <c r="R121" s="305"/>
-      <c r="S121" s="306"/>
-      <c r="T121" s="306"/>
-      <c r="U121" s="307"/>
+      <c r="R121" s="307"/>
+      <c r="S121" s="308"/>
+      <c r="T121" s="308"/>
+      <c r="U121" s="309"/>
     </row>
     <row r="122" spans="2:21" ht="20.25" customHeight="1">
       <c r="B122" s="218"/>
@@ -18165,10 +18294,10 @@
       <c r="N122" s="231"/>
       <c r="O122" s="216"/>
       <c r="P122" s="217"/>
-      <c r="R122" s="305"/>
-      <c r="S122" s="306"/>
-      <c r="T122" s="306"/>
-      <c r="U122" s="307"/>
+      <c r="R122" s="307"/>
+      <c r="S122" s="308"/>
+      <c r="T122" s="308"/>
+      <c r="U122" s="309"/>
     </row>
     <row r="123" spans="2:21" ht="20.25" customHeight="1">
       <c r="B123" s="218"/>
@@ -18186,10 +18315,10 @@
       <c r="N123" s="231"/>
       <c r="O123" s="216"/>
       <c r="P123" s="217"/>
-      <c r="R123" s="305"/>
-      <c r="S123" s="306"/>
-      <c r="T123" s="306"/>
-      <c r="U123" s="307"/>
+      <c r="R123" s="307"/>
+      <c r="S123" s="308"/>
+      <c r="T123" s="308"/>
+      <c r="U123" s="309"/>
     </row>
     <row r="124" spans="2:21" ht="20.25" customHeight="1">
       <c r="B124" s="218"/>
@@ -18207,10 +18336,10 @@
       <c r="N124" s="231"/>
       <c r="O124" s="216"/>
       <c r="P124" s="217"/>
-      <c r="R124" s="305"/>
-      <c r="S124" s="306"/>
-      <c r="T124" s="306"/>
-      <c r="U124" s="307"/>
+      <c r="R124" s="307"/>
+      <c r="S124" s="308"/>
+      <c r="T124" s="308"/>
+      <c r="U124" s="309"/>
     </row>
     <row r="125" spans="2:21" ht="20.25" customHeight="1">
       <c r="B125" s="218"/>
@@ -18228,10 +18357,10 @@
       <c r="N125" s="231"/>
       <c r="O125" s="216"/>
       <c r="P125" s="217"/>
-      <c r="R125" s="305"/>
-      <c r="S125" s="306"/>
-      <c r="T125" s="306"/>
-      <c r="U125" s="307"/>
+      <c r="R125" s="307"/>
+      <c r="S125" s="308"/>
+      <c r="T125" s="308"/>
+      <c r="U125" s="309"/>
     </row>
     <row r="126" spans="2:21" ht="20.25" customHeight="1">
       <c r="B126" s="218"/>
@@ -18249,10 +18378,10 @@
       <c r="N126" s="231"/>
       <c r="O126" s="216"/>
       <c r="P126" s="217"/>
-      <c r="R126" s="305"/>
-      <c r="S126" s="306"/>
-      <c r="T126" s="306"/>
-      <c r="U126" s="307"/>
+      <c r="R126" s="307"/>
+      <c r="S126" s="308"/>
+      <c r="T126" s="308"/>
+      <c r="U126" s="309"/>
     </row>
     <row r="127" spans="2:21" ht="20.25" customHeight="1">
       <c r="B127" s="218"/>
@@ -18270,10 +18399,10 @@
       <c r="N127" s="231"/>
       <c r="O127" s="216"/>
       <c r="P127" s="217"/>
-      <c r="R127" s="305"/>
-      <c r="S127" s="306"/>
-      <c r="T127" s="306"/>
-      <c r="U127" s="307"/>
+      <c r="R127" s="307"/>
+      <c r="S127" s="308"/>
+      <c r="T127" s="308"/>
+      <c r="U127" s="309"/>
     </row>
     <row r="128" spans="2:21" ht="20.25" customHeight="1">
       <c r="B128" s="218"/>
@@ -18291,10 +18420,10 @@
       <c r="N128" s="231"/>
       <c r="O128" s="216"/>
       <c r="P128" s="217"/>
-      <c r="R128" s="305"/>
-      <c r="S128" s="306"/>
-      <c r="T128" s="306"/>
-      <c r="U128" s="307"/>
+      <c r="R128" s="307"/>
+      <c r="S128" s="308"/>
+      <c r="T128" s="308"/>
+      <c r="U128" s="309"/>
     </row>
     <row r="129" spans="2:21" ht="20.25" customHeight="1">
       <c r="B129" s="218"/>
@@ -18312,10 +18441,10 @@
       <c r="N129" s="231"/>
       <c r="O129" s="216"/>
       <c r="P129" s="217"/>
-      <c r="R129" s="305"/>
-      <c r="S129" s="306"/>
-      <c r="T129" s="306"/>
-      <c r="U129" s="307"/>
+      <c r="R129" s="307"/>
+      <c r="S129" s="308"/>
+      <c r="T129" s="308"/>
+      <c r="U129" s="309"/>
     </row>
     <row r="130" spans="2:21" ht="20.25" customHeight="1">
       <c r="B130" s="218"/>
@@ -18333,10 +18462,10 @@
       <c r="N130" s="231"/>
       <c r="O130" s="216"/>
       <c r="P130" s="217"/>
-      <c r="R130" s="305"/>
-      <c r="S130" s="306"/>
-      <c r="T130" s="306"/>
-      <c r="U130" s="307"/>
+      <c r="R130" s="307"/>
+      <c r="S130" s="308"/>
+      <c r="T130" s="308"/>
+      <c r="U130" s="309"/>
     </row>
     <row r="131" spans="2:21" ht="20.25" customHeight="1">
       <c r="B131" s="218"/>
@@ -18354,10 +18483,10 @@
       <c r="N131" s="231"/>
       <c r="O131" s="216"/>
       <c r="P131" s="217"/>
-      <c r="R131" s="305"/>
-      <c r="S131" s="306"/>
-      <c r="T131" s="306"/>
-      <c r="U131" s="307"/>
+      <c r="R131" s="307"/>
+      <c r="S131" s="308"/>
+      <c r="T131" s="308"/>
+      <c r="U131" s="309"/>
     </row>
     <row r="132" spans="2:21" ht="20.25" customHeight="1">
       <c r="B132" s="218"/>
@@ -18375,10 +18504,10 @@
       <c r="N132" s="231"/>
       <c r="O132" s="216"/>
       <c r="P132" s="217"/>
-      <c r="R132" s="305"/>
-      <c r="S132" s="306"/>
-      <c r="T132" s="306"/>
-      <c r="U132" s="307"/>
+      <c r="R132" s="307"/>
+      <c r="S132" s="308"/>
+      <c r="T132" s="308"/>
+      <c r="U132" s="309"/>
     </row>
     <row r="133" spans="2:21" ht="20.25" customHeight="1">
       <c r="B133" s="218"/>
@@ -18396,10 +18525,10 @@
       <c r="N133" s="231"/>
       <c r="O133" s="216"/>
       <c r="P133" s="217"/>
-      <c r="R133" s="305"/>
-      <c r="S133" s="306"/>
-      <c r="T133" s="306"/>
-      <c r="U133" s="307"/>
+      <c r="R133" s="307"/>
+      <c r="S133" s="308"/>
+      <c r="T133" s="308"/>
+      <c r="U133" s="309"/>
     </row>
     <row r="134" spans="2:21" ht="20.25" customHeight="1">
       <c r="B134" s="218"/>
@@ -18417,10 +18546,10 @@
       <c r="N134" s="231"/>
       <c r="O134" s="216"/>
       <c r="P134" s="217"/>
-      <c r="R134" s="305"/>
-      <c r="S134" s="306"/>
-      <c r="T134" s="306"/>
-      <c r="U134" s="307"/>
+      <c r="R134" s="307"/>
+      <c r="S134" s="308"/>
+      <c r="T134" s="308"/>
+      <c r="U134" s="309"/>
     </row>
     <row r="135" spans="2:21" ht="20.25" customHeight="1">
       <c r="B135" s="218"/>
@@ -18438,10 +18567,10 @@
       <c r="N135" s="231"/>
       <c r="O135" s="216"/>
       <c r="P135" s="217"/>
-      <c r="R135" s="305"/>
-      <c r="S135" s="306"/>
-      <c r="T135" s="306"/>
-      <c r="U135" s="307"/>
+      <c r="R135" s="307"/>
+      <c r="S135" s="308"/>
+      <c r="T135" s="308"/>
+      <c r="U135" s="309"/>
     </row>
     <row r="136" spans="2:21" ht="20.25" customHeight="1">
       <c r="B136" s="218"/>
@@ -18459,10 +18588,10 @@
       <c r="N136" s="231"/>
       <c r="O136" s="216"/>
       <c r="P136" s="217"/>
-      <c r="R136" s="305"/>
-      <c r="S136" s="306"/>
-      <c r="T136" s="306"/>
-      <c r="U136" s="307"/>
+      <c r="R136" s="307"/>
+      <c r="S136" s="308"/>
+      <c r="T136" s="308"/>
+      <c r="U136" s="309"/>
     </row>
     <row r="137" spans="2:21" ht="20.25" customHeight="1">
       <c r="B137" s="218"/>
@@ -18480,10 +18609,10 @@
       <c r="N137" s="231"/>
       <c r="O137" s="216"/>
       <c r="P137" s="217"/>
-      <c r="R137" s="305"/>
-      <c r="S137" s="306"/>
-      <c r="T137" s="306"/>
-      <c r="U137" s="307"/>
+      <c r="R137" s="307"/>
+      <c r="S137" s="308"/>
+      <c r="T137" s="308"/>
+      <c r="U137" s="309"/>
     </row>
     <row r="138" spans="2:21" ht="20.25" customHeight="1">
       <c r="B138" s="218"/>
@@ -18501,10 +18630,10 @@
       <c r="N138" s="231"/>
       <c r="O138" s="216"/>
       <c r="P138" s="217"/>
-      <c r="R138" s="305"/>
-      <c r="S138" s="306"/>
-      <c r="T138" s="306"/>
-      <c r="U138" s="307"/>
+      <c r="R138" s="307"/>
+      <c r="S138" s="308"/>
+      <c r="T138" s="308"/>
+      <c r="U138" s="309"/>
     </row>
     <row r="139" spans="2:21" ht="20.25" customHeight="1">
       <c r="B139" s="218"/>
@@ -18522,10 +18651,10 @@
       <c r="N139" s="231"/>
       <c r="O139" s="216"/>
       <c r="P139" s="217"/>
-      <c r="R139" s="305"/>
-      <c r="S139" s="306"/>
-      <c r="T139" s="306"/>
-      <c r="U139" s="307"/>
+      <c r="R139" s="307"/>
+      <c r="S139" s="308"/>
+      <c r="T139" s="308"/>
+      <c r="U139" s="309"/>
     </row>
     <row r="140" spans="2:21" ht="20.25" customHeight="1">
       <c r="B140" s="218"/>
@@ -18543,10 +18672,10 @@
       <c r="N140" s="231"/>
       <c r="O140" s="216"/>
       <c r="P140" s="217"/>
-      <c r="R140" s="305"/>
-      <c r="S140" s="306"/>
-      <c r="T140" s="306"/>
-      <c r="U140" s="307"/>
+      <c r="R140" s="307"/>
+      <c r="S140" s="308"/>
+      <c r="T140" s="308"/>
+      <c r="U140" s="309"/>
     </row>
     <row r="141" spans="2:21" ht="20.25" customHeight="1">
       <c r="B141" s="218"/>
@@ -18564,10 +18693,10 @@
       <c r="N141" s="231"/>
       <c r="O141" s="216"/>
       <c r="P141" s="217"/>
-      <c r="R141" s="305"/>
-      <c r="S141" s="306"/>
-      <c r="T141" s="306"/>
-      <c r="U141" s="307"/>
+      <c r="R141" s="307"/>
+      <c r="S141" s="308"/>
+      <c r="T141" s="308"/>
+      <c r="U141" s="309"/>
     </row>
     <row r="142" spans="2:21" ht="20.25" customHeight="1">
       <c r="B142" s="218"/>
@@ -18585,10 +18714,10 @@
       <c r="N142" s="231"/>
       <c r="O142" s="216"/>
       <c r="P142" s="217"/>
-      <c r="R142" s="305"/>
-      <c r="S142" s="306"/>
-      <c r="T142" s="306"/>
-      <c r="U142" s="307"/>
+      <c r="R142" s="307"/>
+      <c r="S142" s="308"/>
+      <c r="T142" s="308"/>
+      <c r="U142" s="309"/>
     </row>
     <row r="143" spans="2:21" ht="20.25" customHeight="1">
       <c r="B143" s="218"/>
@@ -18606,10 +18735,10 @@
       <c r="N143" s="231"/>
       <c r="O143" s="216"/>
       <c r="P143" s="217"/>
-      <c r="R143" s="305"/>
-      <c r="S143" s="306"/>
-      <c r="T143" s="306"/>
-      <c r="U143" s="307"/>
+      <c r="R143" s="307"/>
+      <c r="S143" s="308"/>
+      <c r="T143" s="308"/>
+      <c r="U143" s="309"/>
     </row>
     <row r="144" spans="2:21" ht="20.25" customHeight="1">
       <c r="B144" s="218"/>
@@ -18627,10 +18756,10 @@
       <c r="N144" s="231"/>
       <c r="O144" s="216"/>
       <c r="P144" s="217"/>
-      <c r="R144" s="305"/>
-      <c r="S144" s="306"/>
-      <c r="T144" s="306"/>
-      <c r="U144" s="307"/>
+      <c r="R144" s="307"/>
+      <c r="S144" s="308"/>
+      <c r="T144" s="308"/>
+      <c r="U144" s="309"/>
     </row>
     <row r="145" spans="2:21" ht="20.25" customHeight="1">
       <c r="B145" s="218"/>
@@ -18648,10 +18777,10 @@
       <c r="N145" s="231"/>
       <c r="O145" s="216"/>
       <c r="P145" s="217"/>
-      <c r="R145" s="305"/>
-      <c r="S145" s="306"/>
-      <c r="T145" s="306"/>
-      <c r="U145" s="307"/>
+      <c r="R145" s="307"/>
+      <c r="S145" s="308"/>
+      <c r="T145" s="308"/>
+      <c r="U145" s="309"/>
     </row>
     <row r="146" spans="2:21" ht="20.25" customHeight="1">
       <c r="B146" s="218"/>
@@ -18669,10 +18798,10 @@
       <c r="N146" s="231"/>
       <c r="O146" s="216"/>
       <c r="P146" s="217"/>
-      <c r="R146" s="305"/>
-      <c r="S146" s="306"/>
-      <c r="T146" s="306"/>
-      <c r="U146" s="307"/>
+      <c r="R146" s="307"/>
+      <c r="S146" s="308"/>
+      <c r="T146" s="308"/>
+      <c r="U146" s="309"/>
     </row>
     <row r="147" spans="2:21" ht="20.25" customHeight="1">
       <c r="B147" s="218"/>
@@ -18690,10 +18819,10 @@
       <c r="N147" s="231"/>
       <c r="O147" s="216"/>
       <c r="P147" s="217"/>
-      <c r="R147" s="305"/>
-      <c r="S147" s="306"/>
-      <c r="T147" s="306"/>
-      <c r="U147" s="307"/>
+      <c r="R147" s="307"/>
+      <c r="S147" s="308"/>
+      <c r="T147" s="308"/>
+      <c r="U147" s="309"/>
     </row>
     <row r="148" spans="2:21" ht="20.25" customHeight="1">
       <c r="B148" s="218"/>
@@ -18711,10 +18840,10 @@
       <c r="N148" s="231"/>
       <c r="O148" s="216"/>
       <c r="P148" s="217"/>
-      <c r="R148" s="305"/>
-      <c r="S148" s="306"/>
-      <c r="T148" s="306"/>
-      <c r="U148" s="307"/>
+      <c r="R148" s="307"/>
+      <c r="S148" s="308"/>
+      <c r="T148" s="308"/>
+      <c r="U148" s="309"/>
     </row>
     <row r="149" spans="2:21" ht="20.25" customHeight="1">
       <c r="B149" s="218"/>
@@ -18732,10 +18861,10 @@
       <c r="N149" s="231"/>
       <c r="O149" s="216"/>
       <c r="P149" s="217"/>
-      <c r="R149" s="305"/>
-      <c r="S149" s="306"/>
-      <c r="T149" s="306"/>
-      <c r="U149" s="307"/>
+      <c r="R149" s="307"/>
+      <c r="S149" s="308"/>
+      <c r="T149" s="308"/>
+      <c r="U149" s="309"/>
     </row>
     <row r="150" spans="2:21" ht="20.25" customHeight="1">
       <c r="B150" s="218"/>
@@ -18753,10 +18882,10 @@
       <c r="N150" s="231"/>
       <c r="O150" s="216"/>
       <c r="P150" s="217"/>
-      <c r="R150" s="305"/>
-      <c r="S150" s="306"/>
-      <c r="T150" s="306"/>
-      <c r="U150" s="307"/>
+      <c r="R150" s="307"/>
+      <c r="S150" s="308"/>
+      <c r="T150" s="308"/>
+      <c r="U150" s="309"/>
     </row>
     <row r="151" spans="2:21" ht="20.25" customHeight="1">
       <c r="B151" s="218"/>
@@ -18774,10 +18903,10 @@
       <c r="N151" s="231"/>
       <c r="O151" s="216"/>
       <c r="P151" s="217"/>
-      <c r="R151" s="305"/>
-      <c r="S151" s="306"/>
-      <c r="T151" s="306"/>
-      <c r="U151" s="307"/>
+      <c r="R151" s="307"/>
+      <c r="S151" s="308"/>
+      <c r="T151" s="308"/>
+      <c r="U151" s="309"/>
     </row>
     <row r="152" spans="2:21" ht="20.25" customHeight="1">
       <c r="B152" s="218"/>
@@ -18795,10 +18924,10 @@
       <c r="N152" s="231"/>
       <c r="O152" s="216"/>
       <c r="P152" s="217"/>
-      <c r="R152" s="305"/>
-      <c r="S152" s="306"/>
-      <c r="T152" s="306"/>
-      <c r="U152" s="307"/>
+      <c r="R152" s="307"/>
+      <c r="S152" s="308"/>
+      <c r="T152" s="308"/>
+      <c r="U152" s="309"/>
     </row>
     <row r="153" spans="2:21" ht="20.25" customHeight="1">
       <c r="B153" s="218"/>
@@ -18816,10 +18945,10 @@
       <c r="N153" s="231"/>
       <c r="O153" s="216"/>
       <c r="P153" s="217"/>
-      <c r="R153" s="305"/>
-      <c r="S153" s="306"/>
-      <c r="T153" s="306"/>
-      <c r="U153" s="307"/>
+      <c r="R153" s="307"/>
+      <c r="S153" s="308"/>
+      <c r="T153" s="308"/>
+      <c r="U153" s="309"/>
     </row>
     <row r="154" spans="2:21" ht="20.25" customHeight="1">
       <c r="B154" s="218"/>
@@ -18837,10 +18966,10 @@
       <c r="N154" s="231"/>
       <c r="O154" s="216"/>
       <c r="P154" s="217"/>
-      <c r="R154" s="305"/>
-      <c r="S154" s="306"/>
-      <c r="T154" s="306"/>
-      <c r="U154" s="307"/>
+      <c r="R154" s="307"/>
+      <c r="S154" s="308"/>
+      <c r="T154" s="308"/>
+      <c r="U154" s="309"/>
     </row>
     <row r="155" spans="2:21" ht="20.25" customHeight="1">
       <c r="B155" s="218"/>
@@ -18858,10 +18987,10 @@
       <c r="N155" s="231"/>
       <c r="O155" s="216"/>
       <c r="P155" s="217"/>
-      <c r="R155" s="305"/>
-      <c r="S155" s="306"/>
-      <c r="T155" s="306"/>
-      <c r="U155" s="307"/>
+      <c r="R155" s="307"/>
+      <c r="S155" s="308"/>
+      <c r="T155" s="308"/>
+      <c r="U155" s="309"/>
     </row>
     <row r="156" spans="2:21" ht="20.25" customHeight="1">
       <c r="B156" s="218"/>
@@ -18879,10 +19008,10 @@
       <c r="N156" s="231"/>
       <c r="O156" s="216"/>
       <c r="P156" s="217"/>
-      <c r="R156" s="305"/>
-      <c r="S156" s="306"/>
-      <c r="T156" s="306"/>
-      <c r="U156" s="307"/>
+      <c r="R156" s="307"/>
+      <c r="S156" s="308"/>
+      <c r="T156" s="308"/>
+      <c r="U156" s="309"/>
     </row>
     <row r="157" spans="2:21" ht="20.25" customHeight="1">
       <c r="B157" s="218"/>
@@ -18900,10 +19029,10 @@
       <c r="N157" s="231"/>
       <c r="O157" s="216"/>
       <c r="P157" s="217"/>
-      <c r="R157" s="305"/>
-      <c r="S157" s="306"/>
-      <c r="T157" s="306"/>
-      <c r="U157" s="307"/>
+      <c r="R157" s="307"/>
+      <c r="S157" s="308"/>
+      <c r="T157" s="308"/>
+      <c r="U157" s="309"/>
     </row>
     <row r="158" spans="2:21" ht="20.25" customHeight="1">
       <c r="B158" s="218"/>
@@ -18921,10 +19050,10 @@
       <c r="N158" s="231"/>
       <c r="O158" s="216"/>
       <c r="P158" s="217"/>
-      <c r="R158" s="305"/>
-      <c r="S158" s="306"/>
-      <c r="T158" s="306"/>
-      <c r="U158" s="307"/>
+      <c r="R158" s="307"/>
+      <c r="S158" s="308"/>
+      <c r="T158" s="308"/>
+      <c r="U158" s="309"/>
     </row>
     <row r="159" spans="2:21" ht="20.25" customHeight="1">
       <c r="B159" s="218"/>
@@ -18942,10 +19071,10 @@
       <c r="N159" s="231"/>
       <c r="O159" s="216"/>
       <c r="P159" s="217"/>
-      <c r="R159" s="305"/>
-      <c r="S159" s="306"/>
-      <c r="T159" s="306"/>
-      <c r="U159" s="307"/>
+      <c r="R159" s="307"/>
+      <c r="S159" s="308"/>
+      <c r="T159" s="308"/>
+      <c r="U159" s="309"/>
     </row>
     <row r="160" spans="2:21" ht="20.25" customHeight="1">
       <c r="B160" s="218"/>
@@ -18963,10 +19092,10 @@
       <c r="N160" s="231"/>
       <c r="O160" s="216"/>
       <c r="P160" s="217"/>
-      <c r="R160" s="305"/>
-      <c r="S160" s="306"/>
-      <c r="T160" s="306"/>
-      <c r="U160" s="307"/>
+      <c r="R160" s="307"/>
+      <c r="S160" s="308"/>
+      <c r="T160" s="308"/>
+      <c r="U160" s="309"/>
     </row>
     <row r="161" spans="2:21" ht="20.25" customHeight="1">
       <c r="B161" s="218"/>
@@ -18984,10 +19113,10 @@
       <c r="N161" s="231"/>
       <c r="O161" s="216"/>
       <c r="P161" s="217"/>
-      <c r="R161" s="305"/>
-      <c r="S161" s="306"/>
-      <c r="T161" s="306"/>
-      <c r="U161" s="307"/>
+      <c r="R161" s="307"/>
+      <c r="S161" s="308"/>
+      <c r="T161" s="308"/>
+      <c r="U161" s="309"/>
     </row>
     <row r="162" spans="2:21" ht="20.25" customHeight="1">
       <c r="B162" s="218"/>
@@ -19005,10 +19134,10 @@
       <c r="N162" s="231"/>
       <c r="O162" s="216"/>
       <c r="P162" s="217"/>
-      <c r="R162" s="305"/>
-      <c r="S162" s="306"/>
-      <c r="T162" s="306"/>
-      <c r="U162" s="307"/>
+      <c r="R162" s="307"/>
+      <c r="S162" s="308"/>
+      <c r="T162" s="308"/>
+      <c r="U162" s="309"/>
     </row>
     <row r="163" spans="2:21" ht="20.25" customHeight="1">
       <c r="B163" s="218"/>
@@ -19026,10 +19155,10 @@
       <c r="N163" s="231"/>
       <c r="O163" s="216"/>
       <c r="P163" s="217"/>
-      <c r="R163" s="305"/>
-      <c r="S163" s="306"/>
-      <c r="T163" s="306"/>
-      <c r="U163" s="307"/>
+      <c r="R163" s="307"/>
+      <c r="S163" s="308"/>
+      <c r="T163" s="308"/>
+      <c r="U163" s="309"/>
     </row>
     <row r="164" spans="2:21" ht="20.25" customHeight="1">
       <c r="B164" s="218"/>
@@ -19047,10 +19176,10 @@
       <c r="N164" s="231"/>
       <c r="O164" s="216"/>
       <c r="P164" s="217"/>
-      <c r="R164" s="305"/>
-      <c r="S164" s="306"/>
-      <c r="T164" s="306"/>
-      <c r="U164" s="307"/>
+      <c r="R164" s="307"/>
+      <c r="S164" s="308"/>
+      <c r="T164" s="308"/>
+      <c r="U164" s="309"/>
     </row>
     <row r="165" spans="2:21" ht="20.25" customHeight="1">
       <c r="B165" s="218"/>
@@ -19068,10 +19197,10 @@
       <c r="N165" s="231"/>
       <c r="O165" s="216"/>
       <c r="P165" s="217"/>
-      <c r="R165" s="305"/>
-      <c r="S165" s="306"/>
-      <c r="T165" s="306"/>
-      <c r="U165" s="307"/>
+      <c r="R165" s="307"/>
+      <c r="S165" s="308"/>
+      <c r="T165" s="308"/>
+      <c r="U165" s="309"/>
     </row>
     <row r="166" spans="2:21" ht="20.25" customHeight="1">
       <c r="B166" s="218"/>
@@ -19089,10 +19218,10 @@
       <c r="N166" s="231"/>
       <c r="O166" s="216"/>
       <c r="P166" s="217"/>
-      <c r="R166" s="305"/>
-      <c r="S166" s="306"/>
-      <c r="T166" s="306"/>
-      <c r="U166" s="307"/>
+      <c r="R166" s="307"/>
+      <c r="S166" s="308"/>
+      <c r="T166" s="308"/>
+      <c r="U166" s="309"/>
     </row>
     <row r="167" spans="2:21" ht="20.25" customHeight="1">
       <c r="B167" s="218"/>
@@ -19110,10 +19239,10 @@
       <c r="N167" s="231"/>
       <c r="O167" s="216"/>
       <c r="P167" s="217"/>
-      <c r="R167" s="305"/>
-      <c r="S167" s="306"/>
-      <c r="T167" s="306"/>
-      <c r="U167" s="307"/>
+      <c r="R167" s="307"/>
+      <c r="S167" s="308"/>
+      <c r="T167" s="308"/>
+      <c r="U167" s="309"/>
     </row>
     <row r="168" spans="2:21" ht="20.25" customHeight="1">
       <c r="B168" s="218"/>
@@ -19131,10 +19260,10 @@
       <c r="N168" s="231"/>
       <c r="O168" s="216"/>
       <c r="P168" s="217"/>
-      <c r="R168" s="305"/>
-      <c r="S168" s="306"/>
-      <c r="T168" s="306"/>
-      <c r="U168" s="307"/>
+      <c r="R168" s="307"/>
+      <c r="S168" s="308"/>
+      <c r="T168" s="308"/>
+      <c r="U168" s="309"/>
     </row>
     <row r="169" spans="2:21" ht="20.25" customHeight="1">
       <c r="B169" s="218"/>
@@ -19152,10 +19281,10 @@
       <c r="N169" s="231"/>
       <c r="O169" s="216"/>
       <c r="P169" s="217"/>
-      <c r="R169" s="305"/>
-      <c r="S169" s="306"/>
-      <c r="T169" s="306"/>
-      <c r="U169" s="307"/>
+      <c r="R169" s="307"/>
+      <c r="S169" s="308"/>
+      <c r="T169" s="308"/>
+      <c r="U169" s="309"/>
     </row>
     <row r="170" spans="2:21" ht="20.25" customHeight="1">
       <c r="B170" s="218"/>
@@ -19173,10 +19302,10 @@
       <c r="N170" s="231"/>
       <c r="O170" s="216"/>
       <c r="P170" s="217"/>
-      <c r="R170" s="305"/>
-      <c r="S170" s="306"/>
-      <c r="T170" s="306"/>
-      <c r="U170" s="307"/>
+      <c r="R170" s="307"/>
+      <c r="S170" s="308"/>
+      <c r="T170" s="308"/>
+      <c r="U170" s="309"/>
     </row>
     <row r="171" spans="2:21" ht="20.25" customHeight="1">
       <c r="B171" s="218"/>
@@ -19194,10 +19323,10 @@
       <c r="N171" s="231"/>
       <c r="O171" s="216"/>
       <c r="P171" s="217"/>
-      <c r="R171" s="305"/>
-      <c r="S171" s="306"/>
-      <c r="T171" s="306"/>
-      <c r="U171" s="307"/>
+      <c r="R171" s="307"/>
+      <c r="S171" s="308"/>
+      <c r="T171" s="308"/>
+      <c r="U171" s="309"/>
     </row>
     <row r="172" spans="2:21" ht="20.25" customHeight="1">
       <c r="B172" s="218"/>
@@ -19215,10 +19344,10 @@
       <c r="N172" s="231"/>
       <c r="O172" s="216"/>
       <c r="P172" s="217"/>
-      <c r="R172" s="305"/>
-      <c r="S172" s="306"/>
-      <c r="T172" s="306"/>
-      <c r="U172" s="307"/>
+      <c r="R172" s="307"/>
+      <c r="S172" s="308"/>
+      <c r="T172" s="308"/>
+      <c r="U172" s="309"/>
     </row>
     <row r="173" spans="2:21" ht="20.25" customHeight="1">
       <c r="B173" s="218"/>
@@ -19236,10 +19365,10 @@
       <c r="N173" s="231"/>
       <c r="O173" s="216"/>
       <c r="P173" s="217"/>
-      <c r="R173" s="305"/>
-      <c r="S173" s="306"/>
-      <c r="T173" s="306"/>
-      <c r="U173" s="307"/>
+      <c r="R173" s="307"/>
+      <c r="S173" s="308"/>
+      <c r="T173" s="308"/>
+      <c r="U173" s="309"/>
     </row>
     <row r="174" spans="2:21" ht="20.25" customHeight="1">
       <c r="B174" s="218"/>
@@ -19257,10 +19386,10 @@
       <c r="N174" s="231"/>
       <c r="O174" s="216"/>
       <c r="P174" s="217"/>
-      <c r="R174" s="305"/>
-      <c r="S174" s="306"/>
-      <c r="T174" s="306"/>
-      <c r="U174" s="307"/>
+      <c r="R174" s="307"/>
+      <c r="S174" s="308"/>
+      <c r="T174" s="308"/>
+      <c r="U174" s="309"/>
     </row>
     <row r="175" spans="2:21" ht="20.25" customHeight="1">
       <c r="B175" s="218"/>
@@ -19278,273 +19407,566 @@
       <c r="N175" s="231"/>
       <c r="O175" s="216"/>
       <c r="P175" s="217"/>
-      <c r="R175" s="305"/>
-      <c r="S175" s="306"/>
-      <c r="T175" s="306"/>
-      <c r="U175" s="307"/>
+      <c r="R175" s="307"/>
+      <c r="S175" s="308"/>
+      <c r="T175" s="308"/>
+      <c r="U175" s="309"/>
     </row>
     <row r="176" spans="2:21" ht="20.25" customHeight="1">
       <c r="B176" s="218"/>
       <c r="C176" s="218"/>
       <c r="D176" s="218"/>
-      <c r="E176" s="219"/>
-      <c r="F176" s="220"/>
-      <c r="G176" s="221"/>
-      <c r="H176" s="219"/>
-      <c r="I176" s="218"/>
-      <c r="J176" s="221"/>
-      <c r="K176" s="219"/>
-      <c r="L176" s="218"/>
-      <c r="M176" s="221"/>
-      <c r="N176" s="219"/>
-      <c r="O176" s="218"/>
-      <c r="P176" s="221"/>
-      <c r="R176" s="305"/>
-      <c r="S176" s="306"/>
-      <c r="T176" s="306"/>
-      <c r="U176" s="307"/>
+      <c r="E176" s="231"/>
+      <c r="F176" s="232"/>
+      <c r="G176" s="217"/>
+      <c r="H176" s="231"/>
+      <c r="I176" s="216"/>
+      <c r="J176" s="217"/>
+      <c r="K176" s="231"/>
+      <c r="L176" s="216"/>
+      <c r="M176" s="217"/>
+      <c r="N176" s="231"/>
+      <c r="O176" s="216"/>
+      <c r="P176" s="217"/>
+      <c r="R176" s="307"/>
+      <c r="S176" s="308"/>
+      <c r="T176" s="308"/>
+      <c r="U176" s="309"/>
     </row>
     <row r="177" spans="2:21" ht="20.25" customHeight="1">
       <c r="B177" s="218"/>
       <c r="C177" s="218"/>
       <c r="D177" s="218"/>
-      <c r="E177" s="222"/>
-      <c r="F177" s="218"/>
-      <c r="G177" s="221"/>
-      <c r="H177" s="222"/>
-      <c r="I177" s="218"/>
-      <c r="J177" s="221"/>
-      <c r="K177" s="222"/>
-      <c r="L177" s="218"/>
-      <c r="M177" s="221"/>
-      <c r="N177" s="222"/>
-      <c r="O177" s="218"/>
-      <c r="P177" s="221"/>
-      <c r="R177" s="305"/>
-      <c r="S177" s="306"/>
-      <c r="T177" s="306"/>
-      <c r="U177" s="307"/>
+      <c r="E177" s="231"/>
+      <c r="F177" s="232"/>
+      <c r="G177" s="217"/>
+      <c r="H177" s="231"/>
+      <c r="I177" s="216"/>
+      <c r="J177" s="217"/>
+      <c r="K177" s="231"/>
+      <c r="L177" s="216"/>
+      <c r="M177" s="217"/>
+      <c r="N177" s="231"/>
+      <c r="O177" s="216"/>
+      <c r="P177" s="217"/>
+      <c r="R177" s="307"/>
+      <c r="S177" s="308"/>
+      <c r="T177" s="308"/>
+      <c r="U177" s="309"/>
     </row>
     <row r="178" spans="2:21" ht="20.25" customHeight="1">
       <c r="B178" s="218"/>
       <c r="C178" s="218"/>
       <c r="D178" s="218"/>
-      <c r="E178" s="222"/>
-      <c r="F178" s="218"/>
-      <c r="G178" s="221"/>
-      <c r="H178" s="222"/>
-      <c r="I178" s="218"/>
-      <c r="J178" s="221"/>
-      <c r="K178" s="222"/>
-      <c r="L178" s="218"/>
-      <c r="M178" s="221"/>
-      <c r="N178" s="222"/>
-      <c r="O178" s="218"/>
-      <c r="P178" s="221"/>
-      <c r="R178" s="305"/>
-      <c r="S178" s="306"/>
-      <c r="T178" s="306"/>
-      <c r="U178" s="307"/>
+      <c r="E178" s="231"/>
+      <c r="F178" s="232"/>
+      <c r="G178" s="217"/>
+      <c r="H178" s="231"/>
+      <c r="I178" s="216"/>
+      <c r="J178" s="217"/>
+      <c r="K178" s="231"/>
+      <c r="L178" s="216"/>
+      <c r="M178" s="217"/>
+      <c r="N178" s="231"/>
+      <c r="O178" s="216"/>
+      <c r="P178" s="217"/>
+      <c r="R178" s="307"/>
+      <c r="S178" s="308"/>
+      <c r="T178" s="308"/>
+      <c r="U178" s="309"/>
     </row>
     <row r="179" spans="2:21" ht="20.25" customHeight="1">
       <c r="B179" s="218"/>
       <c r="C179" s="218"/>
       <c r="D179" s="218"/>
-      <c r="E179" s="219"/>
-      <c r="F179" s="223"/>
-      <c r="G179" s="224"/>
-      <c r="H179" s="219"/>
-      <c r="I179" s="223"/>
-      <c r="J179" s="224"/>
-      <c r="K179" s="219"/>
-      <c r="L179" s="223"/>
-      <c r="M179" s="224"/>
-      <c r="N179" s="219"/>
-      <c r="O179" s="223"/>
-      <c r="P179" s="224"/>
-      <c r="R179" s="305"/>
-      <c r="S179" s="306"/>
-      <c r="T179" s="306"/>
-      <c r="U179" s="307"/>
+      <c r="E179" s="231"/>
+      <c r="F179" s="232"/>
+      <c r="G179" s="217"/>
+      <c r="H179" s="231"/>
+      <c r="I179" s="216"/>
+      <c r="J179" s="217"/>
+      <c r="K179" s="231"/>
+      <c r="L179" s="216"/>
+      <c r="M179" s="217"/>
+      <c r="N179" s="231"/>
+      <c r="O179" s="216"/>
+      <c r="P179" s="217"/>
+      <c r="R179" s="307"/>
+      <c r="S179" s="308"/>
+      <c r="T179" s="308"/>
+      <c r="U179" s="309"/>
     </row>
     <row r="180" spans="2:21" ht="20.25" customHeight="1">
       <c r="B180" s="218"/>
       <c r="C180" s="218"/>
       <c r="D180" s="218"/>
-      <c r="E180" s="222"/>
-      <c r="F180" s="223"/>
-      <c r="G180" s="224"/>
-      <c r="H180" s="222"/>
-      <c r="I180" s="223"/>
-      <c r="J180" s="224"/>
-      <c r="K180" s="222"/>
-      <c r="L180" s="223"/>
-      <c r="M180" s="224"/>
-      <c r="N180" s="222"/>
-      <c r="O180" s="223"/>
-      <c r="P180" s="224"/>
-      <c r="R180" s="305"/>
-      <c r="S180" s="306"/>
-      <c r="T180" s="306"/>
-      <c r="U180" s="307"/>
+      <c r="E180" s="231"/>
+      <c r="F180" s="232"/>
+      <c r="G180" s="217"/>
+      <c r="H180" s="231"/>
+      <c r="I180" s="216"/>
+      <c r="J180" s="217"/>
+      <c r="K180" s="231"/>
+      <c r="L180" s="216"/>
+      <c r="M180" s="217"/>
+      <c r="N180" s="231"/>
+      <c r="O180" s="216"/>
+      <c r="P180" s="217"/>
+      <c r="R180" s="307"/>
+      <c r="S180" s="308"/>
+      <c r="T180" s="308"/>
+      <c r="U180" s="309"/>
     </row>
     <row r="181" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B181" s="229"/>
+      <c r="B181" s="218"/>
       <c r="C181" s="218"/>
       <c r="D181" s="218"/>
-      <c r="E181" s="222"/>
-      <c r="F181" s="223"/>
-      <c r="G181" s="224"/>
-      <c r="H181" s="222"/>
-      <c r="I181" s="223"/>
-      <c r="J181" s="224"/>
-      <c r="K181" s="222"/>
-      <c r="L181" s="223"/>
-      <c r="M181" s="224"/>
-      <c r="N181" s="222"/>
-      <c r="O181" s="223"/>
-      <c r="P181" s="224"/>
-      <c r="R181" s="305"/>
-      <c r="S181" s="306"/>
-      <c r="T181" s="306"/>
-      <c r="U181" s="307"/>
+      <c r="E181" s="231"/>
+      <c r="F181" s="232"/>
+      <c r="G181" s="217"/>
+      <c r="H181" s="231"/>
+      <c r="I181" s="216"/>
+      <c r="J181" s="217"/>
+      <c r="K181" s="231"/>
+      <c r="L181" s="216"/>
+      <c r="M181" s="217"/>
+      <c r="N181" s="231"/>
+      <c r="O181" s="216"/>
+      <c r="P181" s="217"/>
+      <c r="R181" s="307"/>
+      <c r="S181" s="308"/>
+      <c r="T181" s="308"/>
+      <c r="U181" s="309"/>
     </row>
     <row r="182" spans="2:21" ht="20.25" customHeight="1">
       <c r="B182" s="218"/>
       <c r="C182" s="218"/>
       <c r="D182" s="218"/>
-      <c r="E182" s="219"/>
-      <c r="F182" s="223"/>
-      <c r="G182" s="224"/>
-      <c r="H182" s="219"/>
-      <c r="I182" s="223"/>
-      <c r="J182" s="224"/>
-      <c r="K182" s="219"/>
-      <c r="L182" s="223"/>
-      <c r="M182" s="224"/>
-      <c r="N182" s="219"/>
-      <c r="O182" s="223"/>
-      <c r="P182" s="224"/>
-      <c r="R182" s="305"/>
-      <c r="S182" s="306"/>
-      <c r="T182" s="306"/>
-      <c r="U182" s="307"/>
+      <c r="E182" s="231"/>
+      <c r="F182" s="232"/>
+      <c r="G182" s="217"/>
+      <c r="H182" s="231"/>
+      <c r="I182" s="216"/>
+      <c r="J182" s="217"/>
+      <c r="K182" s="231"/>
+      <c r="L182" s="216"/>
+      <c r="M182" s="217"/>
+      <c r="N182" s="231"/>
+      <c r="O182" s="216"/>
+      <c r="P182" s="217"/>
+      <c r="R182" s="307"/>
+      <c r="S182" s="308"/>
+      <c r="T182" s="308"/>
+      <c r="U182" s="309"/>
     </row>
     <row r="183" spans="2:21" ht="20.25" customHeight="1">
       <c r="B183" s="218"/>
       <c r="C183" s="218"/>
       <c r="D183" s="218"/>
-      <c r="E183" s="222"/>
-      <c r="F183" s="223"/>
-      <c r="G183" s="224"/>
-      <c r="H183" s="222"/>
-      <c r="I183" s="223"/>
-      <c r="J183" s="224"/>
-      <c r="K183" s="222"/>
-      <c r="L183" s="223"/>
-      <c r="M183" s="224"/>
-      <c r="N183" s="222"/>
-      <c r="O183" s="223"/>
-      <c r="P183" s="224"/>
-      <c r="R183" s="305"/>
-      <c r="S183" s="306"/>
-      <c r="T183" s="306"/>
-      <c r="U183" s="307"/>
+      <c r="E183" s="231"/>
+      <c r="F183" s="232"/>
+      <c r="G183" s="217"/>
+      <c r="H183" s="231"/>
+      <c r="I183" s="216"/>
+      <c r="J183" s="217"/>
+      <c r="K183" s="231"/>
+      <c r="L183" s="216"/>
+      <c r="M183" s="217"/>
+      <c r="N183" s="231"/>
+      <c r="O183" s="216"/>
+      <c r="P183" s="217"/>
+      <c r="R183" s="307"/>
+      <c r="S183" s="308"/>
+      <c r="T183" s="308"/>
+      <c r="U183" s="309"/>
     </row>
     <row r="184" spans="2:21" ht="20.25" customHeight="1">
       <c r="B184" s="218"/>
       <c r="C184" s="218"/>
       <c r="D184" s="218"/>
-      <c r="E184" s="222"/>
-      <c r="F184" s="223"/>
-      <c r="G184" s="224"/>
-      <c r="H184" s="222"/>
-      <c r="I184" s="223"/>
-      <c r="J184" s="224"/>
-      <c r="K184" s="222"/>
-      <c r="L184" s="223"/>
-      <c r="M184" s="224"/>
-      <c r="N184" s="222"/>
-      <c r="O184" s="223"/>
-      <c r="P184" s="224"/>
-      <c r="R184" s="305"/>
-      <c r="S184" s="306"/>
-      <c r="T184" s="306"/>
-      <c r="U184" s="307"/>
+      <c r="E184" s="231"/>
+      <c r="F184" s="232"/>
+      <c r="G184" s="217"/>
+      <c r="H184" s="231"/>
+      <c r="I184" s="216"/>
+      <c r="J184" s="217"/>
+      <c r="K184" s="231"/>
+      <c r="L184" s="216"/>
+      <c r="M184" s="217"/>
+      <c r="N184" s="231"/>
+      <c r="O184" s="216"/>
+      <c r="P184" s="217"/>
+      <c r="R184" s="307"/>
+      <c r="S184" s="308"/>
+      <c r="T184" s="308"/>
+      <c r="U184" s="309"/>
     </row>
     <row r="185" spans="2:21" ht="20.25" customHeight="1">
       <c r="B185" s="218"/>
       <c r="C185" s="218"/>
       <c r="D185" s="218"/>
-      <c r="E185" s="219"/>
-      <c r="F185" s="223"/>
-      <c r="G185" s="224"/>
-      <c r="H185" s="219"/>
-      <c r="I185" s="223"/>
-      <c r="J185" s="224"/>
-      <c r="K185" s="219"/>
-      <c r="L185" s="223"/>
-      <c r="M185" s="224"/>
-      <c r="N185" s="219"/>
-      <c r="O185" s="223"/>
-      <c r="P185" s="224"/>
-      <c r="R185" s="305"/>
-      <c r="S185" s="306"/>
-      <c r="T185" s="306"/>
-      <c r="U185" s="307"/>
-    </row>
-    <row r="186" spans="2:21" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B186" s="225"/>
-      <c r="C186" s="226"/>
-      <c r="D186" s="227"/>
-      <c r="E186" s="230"/>
-      <c r="F186" s="226"/>
-      <c r="G186" s="228"/>
-      <c r="H186" s="230"/>
-      <c r="I186" s="226"/>
-      <c r="J186" s="228"/>
-      <c r="K186" s="230"/>
-      <c r="L186" s="226"/>
-      <c r="M186" s="228"/>
-      <c r="N186" s="230"/>
-      <c r="O186" s="226"/>
-      <c r="P186" s="228"/>
-      <c r="R186" s="308"/>
-      <c r="S186" s="309"/>
-      <c r="T186" s="309"/>
-      <c r="U186" s="310"/>
-    </row>
-    <row r="187" spans="2:21" ht="15.75" customHeight="1">
-      <c r="B187" s="186"/>
-      <c r="C187" s="186"/>
-      <c r="D187" s="186"/>
-      <c r="E187" s="186"/>
-      <c r="F187" s="186"/>
-      <c r="G187" s="186"/>
-      <c r="H187" s="186"/>
-      <c r="I187" s="186"/>
-      <c r="J187" s="186"/>
-      <c r="K187" s="186"/>
-      <c r="L187" s="186"/>
-      <c r="M187" s="186"/>
-      <c r="N187" s="186"/>
-      <c r="O187" s="186"/>
-      <c r="P187" s="186"/>
-      <c r="Q187" s="186"/>
+      <c r="E185" s="231"/>
+      <c r="F185" s="232"/>
+      <c r="G185" s="217"/>
+      <c r="H185" s="231"/>
+      <c r="I185" s="216"/>
+      <c r="J185" s="217"/>
+      <c r="K185" s="231"/>
+      <c r="L185" s="216"/>
+      <c r="M185" s="217"/>
+      <c r="N185" s="231"/>
+      <c r="O185" s="216"/>
+      <c r="P185" s="217"/>
+      <c r="R185" s="307"/>
+      <c r="S185" s="308"/>
+      <c r="T185" s="308"/>
+      <c r="U185" s="309"/>
+    </row>
+    <row r="186" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B186" s="218"/>
+      <c r="C186" s="218"/>
+      <c r="D186" s="218"/>
+      <c r="E186" s="231"/>
+      <c r="F186" s="232"/>
+      <c r="G186" s="217"/>
+      <c r="H186" s="231"/>
+      <c r="I186" s="216"/>
+      <c r="J186" s="217"/>
+      <c r="K186" s="231"/>
+      <c r="L186" s="216"/>
+      <c r="M186" s="217"/>
+      <c r="N186" s="231"/>
+      <c r="O186" s="216"/>
+      <c r="P186" s="217"/>
+      <c r="R186" s="307"/>
+      <c r="S186" s="308"/>
+      <c r="T186" s="308"/>
+      <c r="U186" s="309"/>
+    </row>
+    <row r="187" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B187" s="218"/>
+      <c r="C187" s="218"/>
+      <c r="D187" s="218"/>
+      <c r="E187" s="231"/>
+      <c r="F187" s="232"/>
+      <c r="G187" s="217"/>
+      <c r="H187" s="231"/>
+      <c r="I187" s="216"/>
+      <c r="J187" s="217"/>
+      <c r="K187" s="231"/>
+      <c r="L187" s="216"/>
+      <c r="M187" s="217"/>
+      <c r="N187" s="231"/>
+      <c r="O187" s="216"/>
+      <c r="P187" s="217"/>
+      <c r="R187" s="307"/>
+      <c r="S187" s="308"/>
+      <c r="T187" s="308"/>
+      <c r="U187" s="309"/>
+    </row>
+    <row r="188" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B188" s="218"/>
+      <c r="C188" s="218"/>
+      <c r="D188" s="218"/>
+      <c r="E188" s="231"/>
+      <c r="F188" s="232"/>
+      <c r="G188" s="217"/>
+      <c r="H188" s="231"/>
+      <c r="I188" s="216"/>
+      <c r="J188" s="217"/>
+      <c r="K188" s="231"/>
+      <c r="L188" s="216"/>
+      <c r="M188" s="217"/>
+      <c r="N188" s="231"/>
+      <c r="O188" s="216"/>
+      <c r="P188" s="217"/>
+      <c r="R188" s="307"/>
+      <c r="S188" s="308"/>
+      <c r="T188" s="308"/>
+      <c r="U188" s="309"/>
+    </row>
+    <row r="189" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B189" s="218"/>
+      <c r="C189" s="218"/>
+      <c r="D189" s="218"/>
+      <c r="E189" s="219"/>
+      <c r="F189" s="220"/>
+      <c r="G189" s="221"/>
+      <c r="H189" s="219"/>
+      <c r="I189" s="218"/>
+      <c r="J189" s="221"/>
+      <c r="K189" s="219"/>
+      <c r="L189" s="218"/>
+      <c r="M189" s="221"/>
+      <c r="N189" s="219"/>
+      <c r="O189" s="218"/>
+      <c r="P189" s="221"/>
+      <c r="R189" s="307"/>
+      <c r="S189" s="308"/>
+      <c r="T189" s="308"/>
+      <c r="U189" s="309"/>
+    </row>
+    <row r="190" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B190" s="218"/>
+      <c r="C190" s="218"/>
+      <c r="D190" s="218"/>
+      <c r="E190" s="222"/>
+      <c r="F190" s="218"/>
+      <c r="G190" s="221"/>
+      <c r="H190" s="222"/>
+      <c r="I190" s="218"/>
+      <c r="J190" s="221"/>
+      <c r="K190" s="222"/>
+      <c r="L190" s="218"/>
+      <c r="M190" s="221"/>
+      <c r="N190" s="222"/>
+      <c r="O190" s="218"/>
+      <c r="P190" s="221"/>
+      <c r="R190" s="307"/>
+      <c r="S190" s="308"/>
+      <c r="T190" s="308"/>
+      <c r="U190" s="309"/>
+    </row>
+    <row r="191" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B191" s="218"/>
+      <c r="C191" s="218"/>
+      <c r="D191" s="218"/>
+      <c r="E191" s="222"/>
+      <c r="F191" s="218"/>
+      <c r="G191" s="221"/>
+      <c r="H191" s="222"/>
+      <c r="I191" s="218"/>
+      <c r="J191" s="221"/>
+      <c r="K191" s="222"/>
+      <c r="L191" s="218"/>
+      <c r="M191" s="221"/>
+      <c r="N191" s="222"/>
+      <c r="O191" s="218"/>
+      <c r="P191" s="221"/>
+      <c r="R191" s="307"/>
+      <c r="S191" s="308"/>
+      <c r="T191" s="308"/>
+      <c r="U191" s="309"/>
+    </row>
+    <row r="192" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B192" s="218"/>
+      <c r="C192" s="218"/>
+      <c r="D192" s="218"/>
+      <c r="E192" s="219"/>
+      <c r="F192" s="223"/>
+      <c r="G192" s="224"/>
+      <c r="H192" s="219"/>
+      <c r="I192" s="223"/>
+      <c r="J192" s="224"/>
+      <c r="K192" s="219"/>
+      <c r="L192" s="223"/>
+      <c r="M192" s="224"/>
+      <c r="N192" s="219"/>
+      <c r="O192" s="223"/>
+      <c r="P192" s="224"/>
+      <c r="R192" s="307"/>
+      <c r="S192" s="308"/>
+      <c r="T192" s="308"/>
+      <c r="U192" s="309"/>
+    </row>
+    <row r="193" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B193" s="218"/>
+      <c r="C193" s="218"/>
+      <c r="D193" s="218"/>
+      <c r="E193" s="222"/>
+      <c r="F193" s="223"/>
+      <c r="G193" s="224"/>
+      <c r="H193" s="222"/>
+      <c r="I193" s="223"/>
+      <c r="J193" s="224"/>
+      <c r="K193" s="222"/>
+      <c r="L193" s="223"/>
+      <c r="M193" s="224"/>
+      <c r="N193" s="222"/>
+      <c r="O193" s="223"/>
+      <c r="P193" s="224"/>
+      <c r="R193" s="307"/>
+      <c r="S193" s="308"/>
+      <c r="T193" s="308"/>
+      <c r="U193" s="309"/>
+    </row>
+    <row r="194" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B194" s="229"/>
+      <c r="C194" s="218"/>
+      <c r="D194" s="218"/>
+      <c r="E194" s="222"/>
+      <c r="F194" s="223"/>
+      <c r="G194" s="224"/>
+      <c r="H194" s="222"/>
+      <c r="I194" s="223"/>
+      <c r="J194" s="224"/>
+      <c r="K194" s="222"/>
+      <c r="L194" s="223"/>
+      <c r="M194" s="224"/>
+      <c r="N194" s="222"/>
+      <c r="O194" s="223"/>
+      <c r="P194" s="224"/>
+      <c r="R194" s="307"/>
+      <c r="S194" s="308"/>
+      <c r="T194" s="308"/>
+      <c r="U194" s="309"/>
+    </row>
+    <row r="195" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B195" s="218"/>
+      <c r="C195" s="218"/>
+      <c r="D195" s="218"/>
+      <c r="E195" s="219"/>
+      <c r="F195" s="223"/>
+      <c r="G195" s="224"/>
+      <c r="H195" s="219"/>
+      <c r="I195" s="223"/>
+      <c r="J195" s="224"/>
+      <c r="K195" s="219"/>
+      <c r="L195" s="223"/>
+      <c r="M195" s="224"/>
+      <c r="N195" s="219"/>
+      <c r="O195" s="223"/>
+      <c r="P195" s="224"/>
+      <c r="R195" s="307"/>
+      <c r="S195" s="308"/>
+      <c r="T195" s="308"/>
+      <c r="U195" s="309"/>
+    </row>
+    <row r="196" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B196" s="218"/>
+      <c r="C196" s="218"/>
+      <c r="D196" s="218"/>
+      <c r="E196" s="222"/>
+      <c r="F196" s="223"/>
+      <c r="G196" s="224"/>
+      <c r="H196" s="222"/>
+      <c r="I196" s="223"/>
+      <c r="J196" s="224"/>
+      <c r="K196" s="222"/>
+      <c r="L196" s="223"/>
+      <c r="M196" s="224"/>
+      <c r="N196" s="222"/>
+      <c r="O196" s="223"/>
+      <c r="P196" s="224"/>
+      <c r="R196" s="307"/>
+      <c r="S196" s="308"/>
+      <c r="T196" s="308"/>
+      <c r="U196" s="309"/>
+    </row>
+    <row r="197" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B197" s="218"/>
+      <c r="C197" s="218"/>
+      <c r="D197" s="218"/>
+      <c r="E197" s="222"/>
+      <c r="F197" s="223"/>
+      <c r="G197" s="224"/>
+      <c r="H197" s="222"/>
+      <c r="I197" s="223"/>
+      <c r="J197" s="224"/>
+      <c r="K197" s="222"/>
+      <c r="L197" s="223"/>
+      <c r="M197" s="224"/>
+      <c r="N197" s="222"/>
+      <c r="O197" s="223"/>
+      <c r="P197" s="224"/>
+      <c r="R197" s="307"/>
+      <c r="S197" s="308"/>
+      <c r="T197" s="308"/>
+      <c r="U197" s="309"/>
+    </row>
+    <row r="198" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B198" s="218"/>
+      <c r="C198" s="218"/>
+      <c r="D198" s="218"/>
+      <c r="E198" s="219"/>
+      <c r="F198" s="223"/>
+      <c r="G198" s="224"/>
+      <c r="H198" s="219"/>
+      <c r="I198" s="223"/>
+      <c r="J198" s="224"/>
+      <c r="K198" s="219"/>
+      <c r="L198" s="223"/>
+      <c r="M198" s="224"/>
+      <c r="N198" s="219"/>
+      <c r="O198" s="223"/>
+      <c r="P198" s="224"/>
+      <c r="R198" s="307"/>
+      <c r="S198" s="308"/>
+      <c r="T198" s="308"/>
+      <c r="U198" s="309"/>
+    </row>
+    <row r="199" spans="2:21" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B199" s="225"/>
+      <c r="C199" s="226"/>
+      <c r="D199" s="227"/>
+      <c r="E199" s="230"/>
+      <c r="F199" s="226"/>
+      <c r="G199" s="228"/>
+      <c r="H199" s="230"/>
+      <c r="I199" s="226"/>
+      <c r="J199" s="228"/>
+      <c r="K199" s="230"/>
+      <c r="L199" s="226"/>
+      <c r="M199" s="228"/>
+      <c r="N199" s="230"/>
+      <c r="O199" s="226"/>
+      <c r="P199" s="228"/>
+      <c r="R199" s="310"/>
+      <c r="S199" s="311"/>
+      <c r="T199" s="311"/>
+      <c r="U199" s="312"/>
+    </row>
+    <row r="200" spans="2:21" ht="15.75" customHeight="1">
+      <c r="B200" s="186"/>
+      <c r="C200" s="186"/>
+      <c r="D200" s="186"/>
+      <c r="E200" s="186"/>
+      <c r="F200" s="186"/>
+      <c r="G200" s="186"/>
+      <c r="H200" s="186"/>
+      <c r="I200" s="186"/>
+      <c r="J200" s="186"/>
+      <c r="K200" s="186"/>
+      <c r="L200" s="186"/>
+      <c r="M200" s="186"/>
+      <c r="N200" s="186"/>
+      <c r="O200" s="186"/>
+      <c r="P200" s="186"/>
+      <c r="Q200" s="186"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="H3:P3"/>
-    <mergeCell ref="R6:U186"/>
+    <mergeCell ref="R6:U199"/>
   </mergeCells>
-  <conditionalFormatting sqref="B12:B185 D12:D185 C12:C25 C27:C192">
-    <cfRule type="expression" dxfId="1" priority="1">
+  <conditionalFormatting sqref="D40:D198 B28:B198 B12:D27 C42 C28:C34 C36:C40 C45:C46 C49:C205">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>IF((B12&lt;&gt;"")*AND(F12&lt;&gt;""),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26">
-    <cfRule type="expression" dxfId="0" priority="3">
-      <formula>IF((C26&lt;&gt;"")*AND(G27&lt;&gt;""),1,0)</formula>
+  <conditionalFormatting sqref="C41 C43">
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>IF((C41&lt;&gt;"")*AND(G42&lt;&gt;""),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:D39">
+    <cfRule type="expression" dxfId="3" priority="9">
+      <formula>IF((C28&lt;&gt;"")*AND(#REF!&lt;&gt;""),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="expression" dxfId="2" priority="11">
+      <formula>IF((C35&lt;&gt;"")*AND(G38&lt;&gt;""),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="expression" dxfId="1" priority="1">
+      <formula>IF((C37&lt;&gt;"")*AND(G40&lt;&gt;""),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C48">
+    <cfRule type="expression" dxfId="0" priority="13">
+      <formula>IF((C48&lt;&gt;"")*AND(G47&lt;&gt;""),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/doc/chiffrier_sim_vie.xlsx
+++ b/doc/chiffrier_sim_vie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\travail\sim_vie\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27425D42-986F-4C75-AECB-727442574D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACE011D-EBC5-4434-A56F-45A41A297269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="655">
   <si>
     <t>Chiffrier de documentation de projets</t>
   </si>
@@ -2200,6 +2200,9 @@
   </si>
   <si>
     <t>Yanis</t>
+  </si>
+  <si>
+    <t>05/12/2025</t>
   </si>
 </sst>
 </file>
@@ -3471,7 +3474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="315">
+  <cellXfs count="314">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -3997,10 +4000,10 @@
     <xf numFmtId="164" fontId="29" fillId="4" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="29" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4206,7 +4209,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10516,8 +10518,8 @@
   </sheetPr>
   <dimension ref="B1:H141"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="B41" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
@@ -15600,10 +15602,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:U200"/>
+  <dimension ref="B2:U198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
@@ -15615,7 +15617,8 @@
     <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" customWidth="1"/>
     <col min="7" max="7" width="20.5703125" customWidth="1"/>
-    <col min="8" max="9" width="9.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.42578125" customWidth="1"/>
     <col min="10" max="10" width="20.5703125" customWidth="1"/>
     <col min="11" max="12" width="9.42578125" customWidth="1"/>
     <col min="13" max="13" width="20.5703125" customWidth="1"/>
@@ -15921,7 +15924,7 @@
       <c r="E14" s="231" t="s">
         <v>639</v>
       </c>
-      <c r="F14" s="244"/>
+      <c r="F14" s="243"/>
       <c r="G14" s="217"/>
       <c r="H14" s="231"/>
       <c r="I14" s="216"/>
@@ -15948,7 +15951,7 @@
       <c r="E15" s="231" t="s">
         <v>639</v>
       </c>
-      <c r="F15" s="244"/>
+      <c r="F15" s="243"/>
       <c r="G15" s="217"/>
       <c r="H15" s="231"/>
       <c r="I15" s="216"/>
@@ -15975,7 +15978,7 @@
       <c r="E16" s="231" t="s">
         <v>639</v>
       </c>
-      <c r="F16" s="244"/>
+      <c r="F16" s="243"/>
       <c r="G16" s="217"/>
       <c r="H16" s="231"/>
       <c r="I16" s="216"/>
@@ -16046,7 +16049,7 @@
       <c r="E19" s="231" t="s">
         <v>639</v>
       </c>
-      <c r="F19" s="244"/>
+      <c r="F19" s="243"/>
       <c r="G19" s="217"/>
       <c r="H19" s="231"/>
       <c r="I19" s="216"/>
@@ -16073,7 +16076,7 @@
       <c r="E20" s="231" t="s">
         <v>639</v>
       </c>
-      <c r="F20" s="244"/>
+      <c r="F20" s="243"/>
       <c r="G20" s="217"/>
       <c r="H20" s="231"/>
       <c r="I20" s="216"/>
@@ -16144,7 +16147,7 @@
       <c r="E23" s="231" t="s">
         <v>639</v>
       </c>
-      <c r="F23" s="244"/>
+      <c r="F23" s="243"/>
       <c r="G23" s="217"/>
       <c r="H23" s="231"/>
       <c r="I23" s="216"/>
@@ -16160,12 +16163,12 @@
       <c r="T23" s="308"/>
       <c r="U23" s="309"/>
     </row>
-    <row r="24" spans="2:21" s="243" customFormat="1" ht="20.25" customHeight="1">
+    <row r="24" spans="2:21" ht="20.25" customHeight="1">
       <c r="B24" s="218"/>
       <c r="C24" s="229"/>
       <c r="D24" s="218"/>
       <c r="E24" s="231"/>
-      <c r="F24" s="314"/>
+      <c r="F24" s="232"/>
       <c r="G24" s="217"/>
       <c r="H24" s="231"/>
       <c r="I24" s="216"/>
@@ -16181,14 +16184,14 @@
       <c r="T24" s="308"/>
       <c r="U24" s="309"/>
     </row>
-    <row r="25" spans="2:21" s="243" customFormat="1" ht="20.25" customHeight="1">
+    <row r="25" spans="2:21" ht="20.25" customHeight="1">
       <c r="B25" s="242" t="s">
         <v>630</v>
       </c>
       <c r="C25" s="229"/>
       <c r="D25" s="218"/>
       <c r="E25" s="231"/>
-      <c r="F25" s="314"/>
+      <c r="F25" s="232"/>
       <c r="G25" s="217"/>
       <c r="H25" s="231"/>
       <c r="I25" s="216"/>
@@ -16204,7 +16207,7 @@
       <c r="T25" s="308"/>
       <c r="U25" s="309"/>
     </row>
-    <row r="26" spans="2:21" s="243" customFormat="1" ht="20.25" customHeight="1">
+    <row r="26" spans="2:21" ht="20.25" customHeight="1">
       <c r="B26" s="218"/>
       <c r="C26" s="229" t="s">
         <v>647</v>
@@ -16213,7 +16216,7 @@
         <v>648</v>
       </c>
       <c r="E26" s="231"/>
-      <c r="F26" s="314"/>
+      <c r="F26" s="232"/>
       <c r="G26" s="217"/>
       <c r="H26" s="231"/>
       <c r="I26" s="216"/>
@@ -16229,7 +16232,7 @@
       <c r="T26" s="308"/>
       <c r="U26" s="309"/>
     </row>
-    <row r="27" spans="2:21" s="243" customFormat="1" ht="20.25" customHeight="1">
+    <row r="27" spans="2:21" ht="20.25" customHeight="1">
       <c r="B27" s="218"/>
       <c r="C27" s="229" t="s">
         <v>646</v>
@@ -16238,7 +16241,7 @@
         <v>648</v>
       </c>
       <c r="E27" s="231"/>
-      <c r="F27" s="314"/>
+      <c r="F27" s="232"/>
       <c r="G27" s="217"/>
       <c r="H27" s="231"/>
       <c r="I27" s="216"/>
@@ -16254,7 +16257,7 @@
       <c r="T27" s="308"/>
       <c r="U27" s="309"/>
     </row>
-    <row r="28" spans="2:21" s="243" customFormat="1" ht="20.25" customHeight="1">
+    <row r="28" spans="2:21" ht="20.25" customHeight="1">
       <c r="B28" s="242" t="s">
         <v>360</v>
       </c>
@@ -16288,7 +16291,7 @@
       <c r="E29" s="231" t="s">
         <v>639</v>
       </c>
-      <c r="F29" s="244"/>
+      <c r="F29" s="243"/>
       <c r="G29" s="217"/>
       <c r="H29" s="231"/>
       <c r="I29" s="216"/>
@@ -16304,7 +16307,7 @@
       <c r="T29" s="308"/>
       <c r="U29" s="309"/>
     </row>
-    <row r="30" spans="2:21" s="243" customFormat="1" ht="20.25" customHeight="1">
+    <row r="30" spans="2:21" ht="20.25" customHeight="1">
       <c r="B30" s="242"/>
       <c r="C30" s="229" t="s">
         <v>644</v>
@@ -16313,10 +16316,12 @@
         <v>643</v>
       </c>
       <c r="E30" s="231"/>
-      <c r="F30" s="314"/>
+      <c r="F30" s="232"/>
       <c r="G30" s="217"/>
-      <c r="H30" s="231"/>
-      <c r="I30" s="216"/>
+      <c r="H30" s="244" t="s">
+        <v>654</v>
+      </c>
+      <c r="I30" s="243"/>
       <c r="J30" s="217"/>
       <c r="K30" s="231"/>
       <c r="L30" s="216"/>
@@ -16329,14 +16334,14 @@
       <c r="T30" s="308"/>
       <c r="U30" s="309"/>
     </row>
-    <row r="31" spans="2:21" s="243" customFormat="1" ht="20.25" customHeight="1">
+    <row r="31" spans="2:21" ht="20.25" customHeight="1">
       <c r="B31" s="242" t="s">
         <v>649</v>
       </c>
       <c r="C31" s="229"/>
       <c r="D31" s="218"/>
       <c r="E31" s="231"/>
-      <c r="F31" s="314"/>
+      <c r="F31" s="232"/>
       <c r="G31" s="217"/>
       <c r="H31" s="231"/>
       <c r="I31" s="216"/>
@@ -16352,7 +16357,7 @@
       <c r="T31" s="308"/>
       <c r="U31" s="309"/>
     </row>
-    <row r="32" spans="2:21" s="243" customFormat="1" ht="20.25" customHeight="1">
+    <row r="32" spans="2:21" ht="20.25" customHeight="1">
       <c r="B32" s="242"/>
       <c r="C32" s="229" t="s">
         <v>650</v>
@@ -16361,10 +16366,12 @@
         <v>643</v>
       </c>
       <c r="E32" s="231"/>
-      <c r="F32" s="314"/>
+      <c r="F32" s="232"/>
       <c r="G32" s="217"/>
-      <c r="H32" s="231"/>
-      <c r="I32" s="216"/>
+      <c r="H32" s="244" t="s">
+        <v>654</v>
+      </c>
+      <c r="I32" s="243"/>
       <c r="J32" s="217"/>
       <c r="K32" s="231"/>
       <c r="L32" s="216"/>
@@ -16377,7 +16384,7 @@
       <c r="T32" s="308"/>
       <c r="U32" s="309"/>
     </row>
-    <row r="33" spans="2:21" s="243" customFormat="1" ht="20.25" customHeight="1">
+    <row r="33" spans="2:21" ht="20.25" customHeight="1">
       <c r="B33" s="242"/>
       <c r="C33" s="229" t="s">
         <v>651</v>
@@ -16386,10 +16393,12 @@
         <v>643</v>
       </c>
       <c r="E33" s="231"/>
-      <c r="F33" s="314"/>
+      <c r="F33" s="232"/>
       <c r="G33" s="217"/>
-      <c r="H33" s="231"/>
-      <c r="I33" s="216"/>
+      <c r="H33" s="244" t="s">
+        <v>654</v>
+      </c>
+      <c r="I33" s="243"/>
       <c r="J33" s="217"/>
       <c r="K33" s="231"/>
       <c r="L33" s="216"/>
@@ -16402,14 +16411,14 @@
       <c r="T33" s="308"/>
       <c r="U33" s="309"/>
     </row>
-    <row r="34" spans="2:21" s="243" customFormat="1" ht="20.25" customHeight="1">
+    <row r="34" spans="2:21" ht="20.25" customHeight="1">
       <c r="B34" s="242" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C34" s="229"/>
       <c r="D34" s="218"/>
       <c r="E34" s="231"/>
-      <c r="F34" s="314"/>
+      <c r="F34" s="232"/>
       <c r="G34" s="217"/>
       <c r="H34" s="231"/>
       <c r="I34" s="216"/>
@@ -16425,7 +16434,7 @@
       <c r="T34" s="308"/>
       <c r="U34" s="309"/>
     </row>
-    <row r="35" spans="2:21" s="243" customFormat="1" ht="20.25" customHeight="1">
+    <row r="35" spans="2:21" ht="20.25" customHeight="1">
       <c r="B35" s="242"/>
       <c r="C35" s="229" t="s">
         <v>652</v>
@@ -16434,10 +16443,12 @@
         <v>643</v>
       </c>
       <c r="E35" s="231"/>
-      <c r="F35" s="314"/>
+      <c r="F35" s="232"/>
       <c r="G35" s="217"/>
-      <c r="H35" s="231"/>
-      <c r="I35" s="216"/>
+      <c r="H35" s="244" t="s">
+        <v>654</v>
+      </c>
+      <c r="I35" s="243"/>
       <c r="J35" s="217"/>
       <c r="K35" s="231"/>
       <c r="L35" s="216"/>
@@ -16450,14 +16461,12 @@
       <c r="T35" s="308"/>
       <c r="U35" s="309"/>
     </row>
-    <row r="36" spans="2:21" s="243" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B36" s="242" t="s">
-        <v>362</v>
-      </c>
+    <row r="36" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B36" s="242"/>
       <c r="C36" s="229"/>
       <c r="D36" s="218"/>
       <c r="E36" s="231"/>
-      <c r="F36" s="314"/>
+      <c r="F36" s="232"/>
       <c r="G36" s="217"/>
       <c r="H36" s="231"/>
       <c r="I36" s="216"/>
@@ -16473,16 +16482,12 @@
       <c r="T36" s="308"/>
       <c r="U36" s="309"/>
     </row>
-    <row r="37" spans="2:21" s="243" customFormat="1" ht="20.25" customHeight="1">
+    <row r="37" spans="2:21" ht="20.25" customHeight="1">
       <c r="B37" s="242"/>
-      <c r="C37" s="229" t="s">
-        <v>652</v>
-      </c>
-      <c r="D37" s="218" t="s">
-        <v>643</v>
-      </c>
+      <c r="C37" s="229"/>
+      <c r="D37" s="218"/>
       <c r="E37" s="231"/>
-      <c r="F37" s="314"/>
+      <c r="F37" s="232"/>
       <c r="G37" s="217"/>
       <c r="H37" s="231"/>
       <c r="I37" s="216"/>
@@ -16498,12 +16503,14 @@
       <c r="T37" s="308"/>
       <c r="U37" s="309"/>
     </row>
-    <row r="38" spans="2:21" s="243" customFormat="1" ht="20.25" customHeight="1">
-      <c r="B38" s="242"/>
-      <c r="C38" s="229"/>
+    <row r="38" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B38" s="242" t="s">
+        <v>425</v>
+      </c>
+      <c r="C38" s="218"/>
       <c r="D38" s="218"/>
       <c r="E38" s="231"/>
-      <c r="F38" s="314"/>
+      <c r="F38" s="232"/>
       <c r="G38" s="217"/>
       <c r="H38" s="231"/>
       <c r="I38" s="216"/>
@@ -16519,15 +16526,21 @@
       <c r="T38" s="308"/>
       <c r="U38" s="309"/>
     </row>
-    <row r="39" spans="2:21" s="243" customFormat="1" ht="20.25" customHeight="1">
+    <row r="39" spans="2:21" ht="20.25" customHeight="1">
       <c r="B39" s="242"/>
-      <c r="C39" s="229"/>
-      <c r="D39" s="218"/>
+      <c r="C39" s="229" t="s">
+        <v>645</v>
+      </c>
+      <c r="D39" s="218" t="s">
+        <v>653</v>
+      </c>
       <c r="E39" s="231"/>
-      <c r="F39" s="314"/>
+      <c r="F39" s="232"/>
       <c r="G39" s="217"/>
-      <c r="H39" s="231"/>
-      <c r="I39" s="216"/>
+      <c r="H39" s="244" t="s">
+        <v>654</v>
+      </c>
+      <c r="I39" s="243"/>
       <c r="J39" s="217"/>
       <c r="K39" s="231"/>
       <c r="L39" s="216"/>
@@ -16541,16 +16554,20 @@
       <c r="U39" s="309"/>
     </row>
     <row r="40" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B40" s="242" t="s">
-        <v>425</v>
-      </c>
-      <c r="C40" s="218"/>
-      <c r="D40" s="218"/>
+      <c r="B40" s="242"/>
+      <c r="C40" s="229" t="s">
+        <v>635</v>
+      </c>
+      <c r="D40" s="218" t="s">
+        <v>653</v>
+      </c>
       <c r="E40" s="231"/>
       <c r="F40" s="232"/>
       <c r="G40" s="217"/>
-      <c r="H40" s="231"/>
-      <c r="I40" s="216"/>
+      <c r="H40" s="244" t="s">
+        <v>654</v>
+      </c>
+      <c r="I40" s="243"/>
       <c r="J40" s="217"/>
       <c r="K40" s="231"/>
       <c r="L40" s="216"/>
@@ -16565,12 +16582,8 @@
     </row>
     <row r="41" spans="2:21" ht="20.25" customHeight="1">
       <c r="B41" s="242"/>
-      <c r="C41" s="229" t="s">
-        <v>645</v>
-      </c>
-      <c r="D41" s="229" t="s">
-        <v>653</v>
-      </c>
+      <c r="C41" s="218"/>
+      <c r="D41" s="218"/>
       <c r="E41" s="231"/>
       <c r="F41" s="232"/>
       <c r="G41" s="217"/>
@@ -16590,12 +16603,7 @@
     </row>
     <row r="42" spans="2:21" ht="20.25" customHeight="1">
       <c r="B42" s="242"/>
-      <c r="C42" s="229" t="s">
-        <v>635</v>
-      </c>
-      <c r="D42" s="229" t="s">
-        <v>653</v>
-      </c>
+      <c r="D42" s="218"/>
       <c r="E42" s="231"/>
       <c r="F42" s="232"/>
       <c r="G42" s="217"/>
@@ -16614,7 +16622,9 @@
       <c r="U42" s="309"/>
     </row>
     <row r="43" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B43" s="242"/>
+      <c r="B43" s="242" t="s">
+        <v>479</v>
+      </c>
       <c r="C43" s="218"/>
       <c r="D43" s="218"/>
       <c r="E43" s="231"/>
@@ -16636,6 +16646,9 @@
     </row>
     <row r="44" spans="2:21" ht="20.25" customHeight="1">
       <c r="B44" s="242"/>
+      <c r="C44" s="229" t="s">
+        <v>636</v>
+      </c>
       <c r="D44" s="218"/>
       <c r="E44" s="231"/>
       <c r="F44" s="232"/>
@@ -16655,10 +16668,7 @@
       <c r="U44" s="309"/>
     </row>
     <row r="45" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B45" s="242" t="s">
-        <v>479</v>
-      </c>
-      <c r="C45" s="218"/>
+      <c r="B45" s="242"/>
       <c r="D45" s="218"/>
       <c r="E45" s="231"/>
       <c r="F45" s="232"/>
@@ -16678,10 +16688,10 @@
       <c r="U45" s="309"/>
     </row>
     <row r="46" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B46" s="242"/>
-      <c r="C46" s="229" t="s">
-        <v>636</v>
-      </c>
+      <c r="B46" s="242" t="s">
+        <v>427</v>
+      </c>
+      <c r="C46" s="218"/>
       <c r="D46" s="218"/>
       <c r="E46" s="231"/>
       <c r="F46" s="232"/>
@@ -16701,7 +16711,10 @@
       <c r="U46" s="309"/>
     </row>
     <row r="47" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B47" s="242"/>
+      <c r="B47" s="218"/>
+      <c r="C47" s="229" t="s">
+        <v>636</v>
+      </c>
       <c r="D47" s="218"/>
       <c r="E47" s="231"/>
       <c r="F47" s="232"/>
@@ -16721,9 +16734,7 @@
       <c r="U47" s="309"/>
     </row>
     <row r="48" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B48" s="242" t="s">
-        <v>427</v>
-      </c>
+      <c r="B48" s="218"/>
       <c r="C48" s="218"/>
       <c r="D48" s="218"/>
       <c r="E48" s="231"/>
@@ -16745,9 +16756,7 @@
     </row>
     <row r="49" spans="2:21" ht="20.25" customHeight="1">
       <c r="B49" s="218"/>
-      <c r="C49" s="229" t="s">
-        <v>636</v>
-      </c>
+      <c r="C49" s="218"/>
       <c r="D49" s="218"/>
       <c r="E49" s="231"/>
       <c r="F49" s="232"/>
@@ -19647,18 +19656,18 @@
       <c r="B187" s="218"/>
       <c r="C187" s="218"/>
       <c r="D187" s="218"/>
-      <c r="E187" s="231"/>
-      <c r="F187" s="232"/>
-      <c r="G187" s="217"/>
-      <c r="H187" s="231"/>
-      <c r="I187" s="216"/>
-      <c r="J187" s="217"/>
-      <c r="K187" s="231"/>
-      <c r="L187" s="216"/>
-      <c r="M187" s="217"/>
-      <c r="N187" s="231"/>
-      <c r="O187" s="216"/>
-      <c r="P187" s="217"/>
+      <c r="E187" s="219"/>
+      <c r="F187" s="220"/>
+      <c r="G187" s="221"/>
+      <c r="H187" s="219"/>
+      <c r="I187" s="218"/>
+      <c r="J187" s="221"/>
+      <c r="K187" s="219"/>
+      <c r="L187" s="218"/>
+      <c r="M187" s="221"/>
+      <c r="N187" s="219"/>
+      <c r="O187" s="218"/>
+      <c r="P187" s="221"/>
       <c r="R187" s="307"/>
       <c r="S187" s="308"/>
       <c r="T187" s="308"/>
@@ -19668,18 +19677,18 @@
       <c r="B188" s="218"/>
       <c r="C188" s="218"/>
       <c r="D188" s="218"/>
-      <c r="E188" s="231"/>
-      <c r="F188" s="232"/>
-      <c r="G188" s="217"/>
-      <c r="H188" s="231"/>
-      <c r="I188" s="216"/>
-      <c r="J188" s="217"/>
-      <c r="K188" s="231"/>
-      <c r="L188" s="216"/>
-      <c r="M188" s="217"/>
-      <c r="N188" s="231"/>
-      <c r="O188" s="216"/>
-      <c r="P188" s="217"/>
+      <c r="E188" s="222"/>
+      <c r="F188" s="218"/>
+      <c r="G188" s="221"/>
+      <c r="H188" s="222"/>
+      <c r="I188" s="218"/>
+      <c r="J188" s="221"/>
+      <c r="K188" s="222"/>
+      <c r="L188" s="218"/>
+      <c r="M188" s="221"/>
+      <c r="N188" s="222"/>
+      <c r="O188" s="218"/>
+      <c r="P188" s="221"/>
       <c r="R188" s="307"/>
       <c r="S188" s="308"/>
       <c r="T188" s="308"/>
@@ -19689,16 +19698,16 @@
       <c r="B189" s="218"/>
       <c r="C189" s="218"/>
       <c r="D189" s="218"/>
-      <c r="E189" s="219"/>
-      <c r="F189" s="220"/>
+      <c r="E189" s="222"/>
+      <c r="F189" s="218"/>
       <c r="G189" s="221"/>
-      <c r="H189" s="219"/>
+      <c r="H189" s="222"/>
       <c r="I189" s="218"/>
       <c r="J189" s="221"/>
-      <c r="K189" s="219"/>
+      <c r="K189" s="222"/>
       <c r="L189" s="218"/>
       <c r="M189" s="221"/>
-      <c r="N189" s="219"/>
+      <c r="N189" s="222"/>
       <c r="O189" s="218"/>
       <c r="P189" s="221"/>
       <c r="R189" s="307"/>
@@ -19710,18 +19719,18 @@
       <c r="B190" s="218"/>
       <c r="C190" s="218"/>
       <c r="D190" s="218"/>
-      <c r="E190" s="222"/>
-      <c r="F190" s="218"/>
-      <c r="G190" s="221"/>
-      <c r="H190" s="222"/>
-      <c r="I190" s="218"/>
-      <c r="J190" s="221"/>
-      <c r="K190" s="222"/>
-      <c r="L190" s="218"/>
-      <c r="M190" s="221"/>
-      <c r="N190" s="222"/>
-      <c r="O190" s="218"/>
-      <c r="P190" s="221"/>
+      <c r="E190" s="219"/>
+      <c r="F190" s="223"/>
+      <c r="G190" s="224"/>
+      <c r="H190" s="219"/>
+      <c r="I190" s="223"/>
+      <c r="J190" s="224"/>
+      <c r="K190" s="219"/>
+      <c r="L190" s="223"/>
+      <c r="M190" s="224"/>
+      <c r="N190" s="219"/>
+      <c r="O190" s="223"/>
+      <c r="P190" s="224"/>
       <c r="R190" s="307"/>
       <c r="S190" s="308"/>
       <c r="T190" s="308"/>
@@ -19732,36 +19741,36 @@
       <c r="C191" s="218"/>
       <c r="D191" s="218"/>
       <c r="E191" s="222"/>
-      <c r="F191" s="218"/>
-      <c r="G191" s="221"/>
+      <c r="F191" s="223"/>
+      <c r="G191" s="224"/>
       <c r="H191" s="222"/>
-      <c r="I191" s="218"/>
-      <c r="J191" s="221"/>
+      <c r="I191" s="223"/>
+      <c r="J191" s="224"/>
       <c r="K191" s="222"/>
-      <c r="L191" s="218"/>
-      <c r="M191" s="221"/>
+      <c r="L191" s="223"/>
+      <c r="M191" s="224"/>
       <c r="N191" s="222"/>
-      <c r="O191" s="218"/>
-      <c r="P191" s="221"/>
+      <c r="O191" s="223"/>
+      <c r="P191" s="224"/>
       <c r="R191" s="307"/>
       <c r="S191" s="308"/>
       <c r="T191" s="308"/>
       <c r="U191" s="309"/>
     </row>
     <row r="192" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B192" s="218"/>
+      <c r="B192" s="229"/>
       <c r="C192" s="218"/>
       <c r="D192" s="218"/>
-      <c r="E192" s="219"/>
+      <c r="E192" s="222"/>
       <c r="F192" s="223"/>
       <c r="G192" s="224"/>
-      <c r="H192" s="219"/>
+      <c r="H192" s="222"/>
       <c r="I192" s="223"/>
       <c r="J192" s="224"/>
-      <c r="K192" s="219"/>
+      <c r="K192" s="222"/>
       <c r="L192" s="223"/>
       <c r="M192" s="224"/>
-      <c r="N192" s="219"/>
+      <c r="N192" s="222"/>
       <c r="O192" s="223"/>
       <c r="P192" s="224"/>
       <c r="R192" s="307"/>
@@ -19773,16 +19782,16 @@
       <c r="B193" s="218"/>
       <c r="C193" s="218"/>
       <c r="D193" s="218"/>
-      <c r="E193" s="222"/>
+      <c r="E193" s="219"/>
       <c r="F193" s="223"/>
       <c r="G193" s="224"/>
-      <c r="H193" s="222"/>
+      <c r="H193" s="219"/>
       <c r="I193" s="223"/>
       <c r="J193" s="224"/>
-      <c r="K193" s="222"/>
+      <c r="K193" s="219"/>
       <c r="L193" s="223"/>
       <c r="M193" s="224"/>
-      <c r="N193" s="222"/>
+      <c r="N193" s="219"/>
       <c r="O193" s="223"/>
       <c r="P193" s="224"/>
       <c r="R193" s="307"/>
@@ -19791,7 +19800,7 @@
       <c r="U193" s="309"/>
     </row>
     <row r="194" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B194" s="229"/>
+      <c r="B194" s="218"/>
       <c r="C194" s="218"/>
       <c r="D194" s="218"/>
       <c r="E194" s="222"/>
@@ -19815,16 +19824,16 @@
       <c r="B195" s="218"/>
       <c r="C195" s="218"/>
       <c r="D195" s="218"/>
-      <c r="E195" s="219"/>
+      <c r="E195" s="222"/>
       <c r="F195" s="223"/>
       <c r="G195" s="224"/>
-      <c r="H195" s="219"/>
+      <c r="H195" s="222"/>
       <c r="I195" s="223"/>
       <c r="J195" s="224"/>
-      <c r="K195" s="219"/>
+      <c r="K195" s="222"/>
       <c r="L195" s="223"/>
       <c r="M195" s="224"/>
-      <c r="N195" s="219"/>
+      <c r="N195" s="222"/>
       <c r="O195" s="223"/>
       <c r="P195" s="224"/>
       <c r="R195" s="307"/>
@@ -19836,16 +19845,16 @@
       <c r="B196" s="218"/>
       <c r="C196" s="218"/>
       <c r="D196" s="218"/>
-      <c r="E196" s="222"/>
+      <c r="E196" s="219"/>
       <c r="F196" s="223"/>
       <c r="G196" s="224"/>
-      <c r="H196" s="222"/>
+      <c r="H196" s="219"/>
       <c r="I196" s="223"/>
       <c r="J196" s="224"/>
-      <c r="K196" s="222"/>
+      <c r="K196" s="219"/>
       <c r="L196" s="223"/>
       <c r="M196" s="224"/>
-      <c r="N196" s="222"/>
+      <c r="N196" s="219"/>
       <c r="O196" s="223"/>
       <c r="P196" s="224"/>
       <c r="R196" s="307"/>
@@ -19853,120 +19862,78 @@
       <c r="T196" s="308"/>
       <c r="U196" s="309"/>
     </row>
-    <row r="197" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B197" s="218"/>
-      <c r="C197" s="218"/>
-      <c r="D197" s="218"/>
-      <c r="E197" s="222"/>
-      <c r="F197" s="223"/>
-      <c r="G197" s="224"/>
-      <c r="H197" s="222"/>
-      <c r="I197" s="223"/>
-      <c r="J197" s="224"/>
-      <c r="K197" s="222"/>
-      <c r="L197" s="223"/>
-      <c r="M197" s="224"/>
-      <c r="N197" s="222"/>
-      <c r="O197" s="223"/>
-      <c r="P197" s="224"/>
-      <c r="R197" s="307"/>
-      <c r="S197" s="308"/>
-      <c r="T197" s="308"/>
-      <c r="U197" s="309"/>
-    </row>
-    <row r="198" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B198" s="218"/>
-      <c r="C198" s="218"/>
-      <c r="D198" s="218"/>
-      <c r="E198" s="219"/>
-      <c r="F198" s="223"/>
-      <c r="G198" s="224"/>
-      <c r="H198" s="219"/>
-      <c r="I198" s="223"/>
-      <c r="J198" s="224"/>
-      <c r="K198" s="219"/>
-      <c r="L198" s="223"/>
-      <c r="M198" s="224"/>
-      <c r="N198" s="219"/>
-      <c r="O198" s="223"/>
-      <c r="P198" s="224"/>
-      <c r="R198" s="307"/>
-      <c r="S198" s="308"/>
-      <c r="T198" s="308"/>
-      <c r="U198" s="309"/>
-    </row>
-    <row r="199" spans="2:21" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B199" s="225"/>
-      <c r="C199" s="226"/>
-      <c r="D199" s="227"/>
-      <c r="E199" s="230"/>
-      <c r="F199" s="226"/>
-      <c r="G199" s="228"/>
-      <c r="H199" s="230"/>
-      <c r="I199" s="226"/>
-      <c r="J199" s="228"/>
-      <c r="K199" s="230"/>
-      <c r="L199" s="226"/>
-      <c r="M199" s="228"/>
-      <c r="N199" s="230"/>
-      <c r="O199" s="226"/>
-      <c r="P199" s="228"/>
-      <c r="R199" s="310"/>
-      <c r="S199" s="311"/>
-      <c r="T199" s="311"/>
-      <c r="U199" s="312"/>
-    </row>
-    <row r="200" spans="2:21" ht="15.75" customHeight="1">
-      <c r="B200" s="186"/>
-      <c r="C200" s="186"/>
-      <c r="D200" s="186"/>
-      <c r="E200" s="186"/>
-      <c r="F200" s="186"/>
-      <c r="G200" s="186"/>
-      <c r="H200" s="186"/>
-      <c r="I200" s="186"/>
-      <c r="J200" s="186"/>
-      <c r="K200" s="186"/>
-      <c r="L200" s="186"/>
-      <c r="M200" s="186"/>
-      <c r="N200" s="186"/>
-      <c r="O200" s="186"/>
-      <c r="P200" s="186"/>
-      <c r="Q200" s="186"/>
+    <row r="197" spans="2:21" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B197" s="225"/>
+      <c r="C197" s="226"/>
+      <c r="D197" s="227"/>
+      <c r="E197" s="230"/>
+      <c r="F197" s="226"/>
+      <c r="G197" s="228"/>
+      <c r="H197" s="230"/>
+      <c r="I197" s="226"/>
+      <c r="J197" s="228"/>
+      <c r="K197" s="230"/>
+      <c r="L197" s="226"/>
+      <c r="M197" s="228"/>
+      <c r="N197" s="230"/>
+      <c r="O197" s="226"/>
+      <c r="P197" s="228"/>
+      <c r="R197" s="310"/>
+      <c r="S197" s="311"/>
+      <c r="T197" s="311"/>
+      <c r="U197" s="312"/>
+    </row>
+    <row r="198" spans="2:21" ht="15.75" customHeight="1">
+      <c r="B198" s="186"/>
+      <c r="C198" s="186"/>
+      <c r="D198" s="186"/>
+      <c r="E198" s="186"/>
+      <c r="F198" s="186"/>
+      <c r="G198" s="186"/>
+      <c r="H198" s="186"/>
+      <c r="I198" s="186"/>
+      <c r="J198" s="186"/>
+      <c r="K198" s="186"/>
+      <c r="L198" s="186"/>
+      <c r="M198" s="186"/>
+      <c r="N198" s="186"/>
+      <c r="O198" s="186"/>
+      <c r="P198" s="186"/>
+      <c r="Q198" s="186"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="H3:P3"/>
-    <mergeCell ref="R6:U199"/>
+    <mergeCell ref="R6:U197"/>
   </mergeCells>
-  <conditionalFormatting sqref="D40:D198 B28:B198 B12:D27 C42 C28:C34 C36:C40 C45:C46 C49:C205">
-    <cfRule type="expression" dxfId="5" priority="2">
+  <conditionalFormatting sqref="B12:D27 C28:C38 B28:B196 D38 C40 C43:C44 C47:C203 D41:D196">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>IF((B12&lt;&gt;"")*AND(F12&lt;&gt;""),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C41 C43">
-    <cfRule type="expression" dxfId="4" priority="4">
-      <formula>IF((C41&lt;&gt;"")*AND(G42&lt;&gt;""),1,0)</formula>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>IF((C35&lt;&gt;"")*AND(G38&lt;&gt;""),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:D39">
-    <cfRule type="expression" dxfId="3" priority="9">
+  <conditionalFormatting sqref="C39 C41">
+    <cfRule type="expression" dxfId="3" priority="5">
+      <formula>IF((C39&lt;&gt;"")*AND(G40&lt;&gt;""),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C46">
+    <cfRule type="expression" dxfId="2" priority="14">
+      <formula>IF((C46&lt;&gt;"")*AND(G45&lt;&gt;""),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28:D37">
+    <cfRule type="expression" dxfId="1" priority="10">
       <formula>IF((C28&lt;&gt;"")*AND(#REF!&lt;&gt;""),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="2" priority="11">
-      <formula>IF((C35&lt;&gt;"")*AND(G38&lt;&gt;""),1,0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>IF((C37&lt;&gt;"")*AND(G40&lt;&gt;""),1,0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C48">
-    <cfRule type="expression" dxfId="0" priority="13">
-      <formula>IF((C48&lt;&gt;"")*AND(G47&lt;&gt;""),1,0)</formula>
+  <conditionalFormatting sqref="D39:D40">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>IF((D39&lt;&gt;"")*AND(#REF!&lt;&gt;""),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/doc/chiffrier_sim_vie.xlsx
+++ b/doc/chiffrier_sim_vie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\travail\sim_vie\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ACE011D-EBC5-4434-A56F-45A41A297269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C994FE-BE65-4586-9275-53CF16CB40CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Méthodes SCRUM" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="673">
   <si>
     <t>Chiffrier de documentation de projets</t>
   </si>
@@ -2203,6 +2203,60 @@
   </si>
   <si>
     <t>05/12/2025</t>
+  </si>
+  <si>
+    <t>Expérimentations neuronales</t>
+  </si>
+  <si>
+    <t>Tenter un système d'accumulation des stimulis</t>
+  </si>
+  <si>
+    <t>Explorer l'orientation pour la rendre plus fluide</t>
+  </si>
+  <si>
+    <t>Réduire le champ sensoriel</t>
+  </si>
+  <si>
+    <t>Incorporer immobilisation de la créature</t>
+  </si>
+  <si>
+    <t>Ajouter une notion de : ça prend du temps pour manger</t>
+  </si>
+  <si>
+    <t>Vérifiier si on peut implémenter un peu plus de gestion de jauges dans l'action manger</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>Manger :</t>
+  </si>
+  <si>
+    <t>Reproduction :</t>
+  </si>
+  <si>
+    <t>Une notion de temps</t>
+  </si>
+  <si>
+    <t>Créer une nouvelle créature</t>
+  </si>
+  <si>
+    <t>Revoir les jauges qui sont concernés par cette action (envie_reproduction dans maj)</t>
+  </si>
+  <si>
+    <t>Interface :</t>
+  </si>
+  <si>
+    <t>Créer le deuxième onglet (infos créatures)</t>
+  </si>
+  <si>
+    <t>Ajouter la connexion des jauges à l'onglet</t>
+  </si>
+  <si>
+    <t>Ajouter la gestion de clique sur une créature</t>
+  </si>
+  <si>
+    <t>Effacer les créatures qui sont mortes</t>
   </si>
 </sst>
 </file>
@@ -4034,14 +4088,110 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
@@ -4052,110 +4202,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4163,18 +4229,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4213,7 +4267,67 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="10">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFF0000"/>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+      <alignment wrapText="0" shrinkToFit="0"/>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -7492,16 +7606,16 @@
       <c r="W10" s="29"/>
     </row>
     <row r="11" spans="1:107" thickBot="1">
-      <c r="G11" s="261" t="s">
+      <c r="G11" s="281" t="s">
         <v>324</v>
       </c>
-      <c r="H11" s="262"/>
-      <c r="I11" s="262"/>
-      <c r="J11" s="262"/>
-      <c r="K11" s="262"/>
-      <c r="L11" s="262"/>
-      <c r="M11" s="262"/>
-      <c r="N11" s="263"/>
+      <c r="H11" s="282"/>
+      <c r="I11" s="282"/>
+      <c r="J11" s="282"/>
+      <c r="K11" s="282"/>
+      <c r="L11" s="282"/>
+      <c r="M11" s="282"/>
+      <c r="N11" s="283"/>
       <c r="O11" s="48"/>
       <c r="P11" s="39"/>
       <c r="Q11" s="39"/>
@@ -7539,66 +7653,66 @@
       <c r="AW11" s="47"/>
       <c r="AX11" s="113"/>
       <c r="AY11" s="115"/>
-      <c r="BD11" s="261" t="s">
+      <c r="BD11" s="281" t="s">
         <v>324</v>
       </c>
-      <c r="BE11" s="262"/>
-      <c r="BF11" s="262"/>
-      <c r="BG11" s="262"/>
-      <c r="BH11" s="262"/>
-      <c r="BI11" s="262"/>
-      <c r="BJ11" s="262"/>
-      <c r="BK11" s="263"/>
-      <c r="BP11" s="261" t="s">
+      <c r="BE11" s="282"/>
+      <c r="BF11" s="282"/>
+      <c r="BG11" s="282"/>
+      <c r="BH11" s="282"/>
+      <c r="BI11" s="282"/>
+      <c r="BJ11" s="282"/>
+      <c r="BK11" s="283"/>
+      <c r="BP11" s="281" t="s">
         <v>324</v>
       </c>
-      <c r="BQ11" s="262"/>
-      <c r="BR11" s="262"/>
-      <c r="BS11" s="262"/>
-      <c r="BT11" s="262"/>
-      <c r="BU11" s="262"/>
-      <c r="BV11" s="262"/>
-      <c r="BW11" s="263"/>
-      <c r="CA11" s="261" t="s">
+      <c r="BQ11" s="282"/>
+      <c r="BR11" s="282"/>
+      <c r="BS11" s="282"/>
+      <c r="BT11" s="282"/>
+      <c r="BU11" s="282"/>
+      <c r="BV11" s="282"/>
+      <c r="BW11" s="283"/>
+      <c r="CA11" s="281" t="s">
         <v>324</v>
       </c>
-      <c r="CB11" s="262"/>
-      <c r="CC11" s="262"/>
-      <c r="CD11" s="262"/>
-      <c r="CE11" s="262"/>
-      <c r="CF11" s="262"/>
-      <c r="CG11" s="262"/>
-      <c r="CH11" s="263"/>
-      <c r="CL11" s="261" t="s">
+      <c r="CB11" s="282"/>
+      <c r="CC11" s="282"/>
+      <c r="CD11" s="282"/>
+      <c r="CE11" s="282"/>
+      <c r="CF11" s="282"/>
+      <c r="CG11" s="282"/>
+      <c r="CH11" s="283"/>
+      <c r="CL11" s="281" t="s">
         <v>324</v>
       </c>
-      <c r="CM11" s="262"/>
-      <c r="CN11" s="262"/>
-      <c r="CO11" s="262"/>
-      <c r="CP11" s="262"/>
-      <c r="CQ11" s="262"/>
-      <c r="CR11" s="262"/>
-      <c r="CS11" s="263"/>
-      <c r="CV11" s="261" t="s">
+      <c r="CM11" s="282"/>
+      <c r="CN11" s="282"/>
+      <c r="CO11" s="282"/>
+      <c r="CP11" s="282"/>
+      <c r="CQ11" s="282"/>
+      <c r="CR11" s="282"/>
+      <c r="CS11" s="283"/>
+      <c r="CV11" s="281" t="s">
         <v>324</v>
       </c>
-      <c r="CW11" s="262"/>
-      <c r="CX11" s="262"/>
-      <c r="CY11" s="262"/>
-      <c r="CZ11" s="262"/>
-      <c r="DA11" s="262"/>
-      <c r="DB11" s="262"/>
-      <c r="DC11" s="263"/>
+      <c r="CW11" s="282"/>
+      <c r="CX11" s="282"/>
+      <c r="CY11" s="282"/>
+      <c r="CZ11" s="282"/>
+      <c r="DA11" s="282"/>
+      <c r="DB11" s="282"/>
+      <c r="DC11" s="283"/>
     </row>
     <row r="12" spans="1:107" thickBot="1">
-      <c r="G12" s="264"/>
-      <c r="H12" s="265"/>
-      <c r="I12" s="265"/>
-      <c r="J12" s="265"/>
-      <c r="K12" s="265"/>
-      <c r="L12" s="265"/>
-      <c r="M12" s="265"/>
-      <c r="N12" s="266"/>
+      <c r="G12" s="284"/>
+      <c r="H12" s="285"/>
+      <c r="I12" s="285"/>
+      <c r="J12" s="285"/>
+      <c r="K12" s="285"/>
+      <c r="L12" s="285"/>
+      <c r="M12" s="285"/>
+      <c r="N12" s="286"/>
       <c r="O12" s="40"/>
       <c r="P12" s="29"/>
       <c r="Q12" s="29"/>
@@ -7609,49 +7723,49 @@
       <c r="V12" s="29"/>
       <c r="W12" s="29"/>
       <c r="AX12" s="42"/>
-      <c r="AY12" s="258" t="s">
+      <c r="AY12" s="290" t="s">
         <v>323</v>
       </c>
-      <c r="BD12" s="264"/>
-      <c r="BE12" s="265"/>
-      <c r="BF12" s="265"/>
-      <c r="BG12" s="265"/>
-      <c r="BH12" s="265"/>
-      <c r="BI12" s="265"/>
-      <c r="BJ12" s="265"/>
-      <c r="BK12" s="266"/>
-      <c r="BP12" s="264"/>
-      <c r="BQ12" s="265"/>
-      <c r="BR12" s="265"/>
-      <c r="BS12" s="265"/>
-      <c r="BT12" s="265"/>
-      <c r="BU12" s="265"/>
-      <c r="BV12" s="265"/>
-      <c r="BW12" s="266"/>
-      <c r="CA12" s="264"/>
-      <c r="CB12" s="265"/>
-      <c r="CC12" s="265"/>
-      <c r="CD12" s="265"/>
-      <c r="CE12" s="265"/>
-      <c r="CF12" s="265"/>
-      <c r="CG12" s="265"/>
-      <c r="CH12" s="266"/>
-      <c r="CL12" s="264"/>
-      <c r="CM12" s="265"/>
-      <c r="CN12" s="265"/>
-      <c r="CO12" s="265"/>
-      <c r="CP12" s="265"/>
-      <c r="CQ12" s="265"/>
-      <c r="CR12" s="265"/>
-      <c r="CS12" s="266"/>
-      <c r="CV12" s="264"/>
-      <c r="CW12" s="265"/>
-      <c r="CX12" s="265"/>
-      <c r="CY12" s="265"/>
-      <c r="CZ12" s="265"/>
-      <c r="DA12" s="265"/>
-      <c r="DB12" s="265"/>
-      <c r="DC12" s="266"/>
+      <c r="BD12" s="284"/>
+      <c r="BE12" s="285"/>
+      <c r="BF12" s="285"/>
+      <c r="BG12" s="285"/>
+      <c r="BH12" s="285"/>
+      <c r="BI12" s="285"/>
+      <c r="BJ12" s="285"/>
+      <c r="BK12" s="286"/>
+      <c r="BP12" s="284"/>
+      <c r="BQ12" s="285"/>
+      <c r="BR12" s="285"/>
+      <c r="BS12" s="285"/>
+      <c r="BT12" s="285"/>
+      <c r="BU12" s="285"/>
+      <c r="BV12" s="285"/>
+      <c r="BW12" s="286"/>
+      <c r="CA12" s="284"/>
+      <c r="CB12" s="285"/>
+      <c r="CC12" s="285"/>
+      <c r="CD12" s="285"/>
+      <c r="CE12" s="285"/>
+      <c r="CF12" s="285"/>
+      <c r="CG12" s="285"/>
+      <c r="CH12" s="286"/>
+      <c r="CL12" s="284"/>
+      <c r="CM12" s="285"/>
+      <c r="CN12" s="285"/>
+      <c r="CO12" s="285"/>
+      <c r="CP12" s="285"/>
+      <c r="CQ12" s="285"/>
+      <c r="CR12" s="285"/>
+      <c r="CS12" s="286"/>
+      <c r="CV12" s="284"/>
+      <c r="CW12" s="285"/>
+      <c r="CX12" s="285"/>
+      <c r="CY12" s="285"/>
+      <c r="CZ12" s="285"/>
+      <c r="DA12" s="285"/>
+      <c r="DB12" s="285"/>
+      <c r="DC12" s="286"/>
     </row>
     <row r="13" spans="1:107" thickBot="1">
       <c r="G13" s="40"/>
@@ -7670,7 +7784,7 @@
       <c r="V13" s="29"/>
       <c r="W13" s="29"/>
       <c r="AX13" s="42"/>
-      <c r="AY13" s="259"/>
+      <c r="AY13" s="291"/>
       <c r="BD13" s="40"/>
       <c r="BG13" s="29"/>
       <c r="BH13" s="29"/>
@@ -7695,16 +7809,16 @@
       <c r="DC13" s="42"/>
     </row>
     <row r="14" spans="1:107" thickBot="1">
-      <c r="G14" s="267" t="s">
+      <c r="G14" s="287" t="s">
         <v>325</v>
       </c>
-      <c r="H14" s="268"/>
-      <c r="I14" s="268"/>
-      <c r="J14" s="268"/>
-      <c r="K14" s="268"/>
-      <c r="L14" s="268"/>
-      <c r="M14" s="268"/>
-      <c r="N14" s="269"/>
+      <c r="H14" s="288"/>
+      <c r="I14" s="288"/>
+      <c r="J14" s="288"/>
+      <c r="K14" s="288"/>
+      <c r="L14" s="288"/>
+      <c r="M14" s="288"/>
+      <c r="N14" s="289"/>
       <c r="O14" s="40"/>
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
@@ -7715,57 +7829,57 @@
       <c r="V14" s="29"/>
       <c r="W14" s="29"/>
       <c r="AX14" s="42"/>
-      <c r="AY14" s="259"/>
-      <c r="BD14" s="267" t="s">
+      <c r="AY14" s="291"/>
+      <c r="BD14" s="287" t="s">
         <v>338</v>
       </c>
-      <c r="BE14" s="268"/>
-      <c r="BF14" s="268"/>
-      <c r="BG14" s="268"/>
-      <c r="BH14" s="268"/>
-      <c r="BI14" s="268"/>
-      <c r="BJ14" s="268"/>
-      <c r="BK14" s="269"/>
-      <c r="BP14" s="267" t="s">
+      <c r="BE14" s="288"/>
+      <c r="BF14" s="288"/>
+      <c r="BG14" s="288"/>
+      <c r="BH14" s="288"/>
+      <c r="BI14" s="288"/>
+      <c r="BJ14" s="288"/>
+      <c r="BK14" s="289"/>
+      <c r="BP14" s="287" t="s">
         <v>327</v>
       </c>
-      <c r="BQ14" s="268"/>
-      <c r="BR14" s="268"/>
-      <c r="BS14" s="268"/>
-      <c r="BT14" s="268"/>
-      <c r="BU14" s="268"/>
-      <c r="BV14" s="268"/>
-      <c r="BW14" s="269"/>
-      <c r="CA14" s="267" t="s">
+      <c r="BQ14" s="288"/>
+      <c r="BR14" s="288"/>
+      <c r="BS14" s="288"/>
+      <c r="BT14" s="288"/>
+      <c r="BU14" s="288"/>
+      <c r="BV14" s="288"/>
+      <c r="BW14" s="289"/>
+      <c r="CA14" s="287" t="s">
         <v>326</v>
       </c>
-      <c r="CB14" s="268"/>
-      <c r="CC14" s="268"/>
-      <c r="CD14" s="268"/>
-      <c r="CE14" s="268"/>
-      <c r="CF14" s="268"/>
-      <c r="CG14" s="268"/>
-      <c r="CH14" s="269"/>
-      <c r="CL14" s="267" t="s">
+      <c r="CB14" s="288"/>
+      <c r="CC14" s="288"/>
+      <c r="CD14" s="288"/>
+      <c r="CE14" s="288"/>
+      <c r="CF14" s="288"/>
+      <c r="CG14" s="288"/>
+      <c r="CH14" s="289"/>
+      <c r="CL14" s="287" t="s">
         <v>329</v>
       </c>
-      <c r="CM14" s="268"/>
-      <c r="CN14" s="268"/>
-      <c r="CO14" s="268"/>
-      <c r="CP14" s="268"/>
-      <c r="CQ14" s="268"/>
-      <c r="CR14" s="268"/>
-      <c r="CS14" s="269"/>
-      <c r="CV14" s="267" t="s">
+      <c r="CM14" s="288"/>
+      <c r="CN14" s="288"/>
+      <c r="CO14" s="288"/>
+      <c r="CP14" s="288"/>
+      <c r="CQ14" s="288"/>
+      <c r="CR14" s="288"/>
+      <c r="CS14" s="289"/>
+      <c r="CV14" s="287" t="s">
         <v>328</v>
       </c>
-      <c r="CW14" s="268"/>
-      <c r="CX14" s="268"/>
-      <c r="CY14" s="268"/>
-      <c r="CZ14" s="268"/>
-      <c r="DA14" s="268"/>
-      <c r="DB14" s="268"/>
-      <c r="DC14" s="269"/>
+      <c r="CW14" s="288"/>
+      <c r="CX14" s="288"/>
+      <c r="CY14" s="288"/>
+      <c r="CZ14" s="288"/>
+      <c r="DA14" s="288"/>
+      <c r="DB14" s="288"/>
+      <c r="DC14" s="289"/>
     </row>
     <row r="15" spans="1:107" thickBot="1">
       <c r="G15" s="117"/>
@@ -7786,7 +7900,7 @@
       <c r="V15" s="29"/>
       <c r="W15" s="29"/>
       <c r="AX15" s="42"/>
-      <c r="AY15" s="259"/>
+      <c r="AY15" s="291"/>
       <c r="BD15" s="117"/>
       <c r="BE15" s="116"/>
       <c r="BF15" s="114"/>
@@ -7847,7 +7961,7 @@
       <c r="V16" s="29"/>
       <c r="W16" s="29"/>
       <c r="AX16" s="42"/>
-      <c r="AY16" s="259"/>
+      <c r="AY16" s="291"/>
       <c r="BD16" s="40"/>
       <c r="BE16" s="29"/>
       <c r="BF16" s="29"/>
@@ -7899,16 +8013,16 @@
       <c r="M17" s="29"/>
       <c r="N17" s="29"/>
       <c r="O17" s="40"/>
-      <c r="P17" s="270"/>
+      <c r="P17" s="293"/>
       <c r="Q17" s="246"/>
       <c r="R17" s="246"/>
       <c r="S17" s="29"/>
-      <c r="T17" s="270"/>
+      <c r="T17" s="293"/>
       <c r="U17" s="246"/>
       <c r="V17" s="246"/>
       <c r="W17" s="246"/>
       <c r="AX17" s="42"/>
-      <c r="AY17" s="259"/>
+      <c r="AY17" s="291"/>
       <c r="BD17" s="40"/>
       <c r="BE17" s="29"/>
       <c r="BF17" s="29"/>
@@ -7926,14 +8040,14 @@
       <c r="BV17" s="29"/>
       <c r="BW17" s="46"/>
       <c r="CA17" s="40"/>
-      <c r="CB17" s="271" t="s">
+      <c r="CB17" s="255" t="s">
         <v>349</v>
       </c>
-      <c r="CC17" s="256"/>
-      <c r="CD17" s="256"/>
-      <c r="CE17" s="256"/>
-      <c r="CF17" s="256"/>
-      <c r="CG17" s="257"/>
+      <c r="CC17" s="258"/>
+      <c r="CD17" s="258"/>
+      <c r="CE17" s="258"/>
+      <c r="CF17" s="258"/>
+      <c r="CG17" s="259"/>
       <c r="CH17" s="46"/>
       <c r="CL17" s="40"/>
       <c r="CM17" s="29"/>
@@ -7956,96 +8070,96 @@
       <c r="G18" s="41"/>
       <c r="O18" s="41"/>
       <c r="AX18" s="42"/>
-      <c r="AY18" s="259"/>
+      <c r="AY18" s="291"/>
       <c r="BD18" s="41"/>
-      <c r="BE18" s="255" t="s">
+      <c r="BE18" s="269" t="s">
         <v>335</v>
       </c>
-      <c r="BF18" s="256"/>
-      <c r="BG18" s="256"/>
-      <c r="BH18" s="256"/>
-      <c r="BI18" s="256"/>
-      <c r="BJ18" s="257"/>
+      <c r="BF18" s="258"/>
+      <c r="BG18" s="258"/>
+      <c r="BH18" s="258"/>
+      <c r="BI18" s="258"/>
+      <c r="BJ18" s="259"/>
       <c r="BK18" s="42"/>
       <c r="BP18" s="41"/>
-      <c r="BQ18" s="255" t="s">
+      <c r="BQ18" s="269" t="s">
         <v>331</v>
       </c>
-      <c r="BR18" s="256"/>
-      <c r="BS18" s="256"/>
-      <c r="BT18" s="256"/>
-      <c r="BU18" s="256"/>
-      <c r="BV18" s="257"/>
+      <c r="BR18" s="258"/>
+      <c r="BS18" s="258"/>
+      <c r="BT18" s="258"/>
+      <c r="BU18" s="258"/>
+      <c r="BV18" s="259"/>
       <c r="BW18" s="42"/>
       <c r="CA18" s="41"/>
-      <c r="CB18" s="272" t="s">
+      <c r="CB18" s="270" t="s">
         <v>342</v>
       </c>
-      <c r="CC18" s="273"/>
-      <c r="CD18" s="255"/>
-      <c r="CE18" s="257"/>
-      <c r="CF18" s="272" t="s">
+      <c r="CC18" s="271"/>
+      <c r="CD18" s="269"/>
+      <c r="CE18" s="259"/>
+      <c r="CF18" s="270" t="s">
         <v>341</v>
       </c>
-      <c r="CG18" s="273"/>
+      <c r="CG18" s="271"/>
       <c r="CH18" s="42"/>
       <c r="CL18" s="41"/>
-      <c r="CM18" s="271" t="s">
+      <c r="CM18" s="255" t="s">
         <v>354</v>
       </c>
-      <c r="CN18" s="256"/>
-      <c r="CO18" s="256"/>
-      <c r="CP18" s="256"/>
-      <c r="CQ18" s="256"/>
-      <c r="CR18" s="257"/>
+      <c r="CN18" s="258"/>
+      <c r="CO18" s="258"/>
+      <c r="CP18" s="258"/>
+      <c r="CQ18" s="258"/>
+      <c r="CR18" s="259"/>
       <c r="CS18" s="42"/>
       <c r="CV18" s="41"/>
-      <c r="CW18" s="271" t="s">
+      <c r="CW18" s="255" t="s">
         <v>359</v>
       </c>
-      <c r="CX18" s="256"/>
-      <c r="CY18" s="256"/>
-      <c r="CZ18" s="256"/>
-      <c r="DA18" s="256"/>
-      <c r="DB18" s="257"/>
+      <c r="CX18" s="258"/>
+      <c r="CY18" s="258"/>
+      <c r="CZ18" s="258"/>
+      <c r="DA18" s="258"/>
+      <c r="DB18" s="259"/>
       <c r="DC18" s="42"/>
     </row>
     <row r="19" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G19" s="41"/>
       <c r="O19" s="41"/>
       <c r="AX19" s="42"/>
-      <c r="AY19" s="259"/>
+      <c r="AY19" s="291"/>
       <c r="BD19" s="41"/>
-      <c r="BE19" s="255" t="s">
+      <c r="BE19" s="269" t="s">
         <v>336</v>
       </c>
-      <c r="BF19" s="256"/>
-      <c r="BG19" s="256"/>
-      <c r="BH19" s="256"/>
-      <c r="BI19" s="256"/>
-      <c r="BJ19" s="257"/>
+      <c r="BF19" s="258"/>
+      <c r="BG19" s="258"/>
+      <c r="BH19" s="258"/>
+      <c r="BI19" s="258"/>
+      <c r="BJ19" s="259"/>
       <c r="BK19" s="42"/>
       <c r="BP19" s="41"/>
-      <c r="BQ19" s="255" t="s">
+      <c r="BQ19" s="269" t="s">
         <v>330</v>
       </c>
-      <c r="BR19" s="256"/>
-      <c r="BS19" s="256"/>
-      <c r="BT19" s="256"/>
-      <c r="BU19" s="256"/>
-      <c r="BV19" s="257"/>
+      <c r="BR19" s="258"/>
+      <c r="BS19" s="258"/>
+      <c r="BT19" s="258"/>
+      <c r="BU19" s="258"/>
+      <c r="BV19" s="259"/>
       <c r="BW19" s="42"/>
       <c r="CA19" s="41"/>
       <c r="CH19" s="42"/>
       <c r="CL19" s="41"/>
-      <c r="CM19" s="271" t="s">
+      <c r="CM19" s="255" t="s">
         <v>355</v>
       </c>
-      <c r="CN19" s="256"/>
-      <c r="CO19" s="256"/>
-      <c r="CP19" s="256"/>
-      <c r="CQ19" s="256"/>
-      <c r="CR19" s="257"/>
+      <c r="CN19" s="258"/>
+      <c r="CO19" s="258"/>
+      <c r="CP19" s="258"/>
+      <c r="CQ19" s="258"/>
+      <c r="CR19" s="259"/>
       <c r="CS19" s="42"/>
       <c r="CV19" s="41"/>
       <c r="DC19" s="42"/>
@@ -8054,114 +8168,114 @@
       <c r="G20" s="41"/>
       <c r="O20" s="41"/>
       <c r="AX20" s="42"/>
-      <c r="AY20" s="259"/>
+      <c r="AY20" s="291"/>
       <c r="BD20" s="41"/>
       <c r="BK20" s="42"/>
       <c r="BP20" s="41"/>
       <c r="BW20" s="42"/>
       <c r="CA20" s="41"/>
-      <c r="CB20" s="271" t="s">
+      <c r="CB20" s="255" t="s">
         <v>350</v>
       </c>
-      <c r="CC20" s="256"/>
-      <c r="CD20" s="256"/>
-      <c r="CE20" s="256"/>
-      <c r="CF20" s="256"/>
-      <c r="CG20" s="257"/>
+      <c r="CC20" s="258"/>
+      <c r="CD20" s="258"/>
+      <c r="CE20" s="258"/>
+      <c r="CF20" s="258"/>
+      <c r="CG20" s="259"/>
       <c r="CH20" s="42"/>
       <c r="CL20" s="41"/>
       <c r="CS20" s="42"/>
       <c r="CV20" s="41"/>
-      <c r="CW20" s="271" t="s">
+      <c r="CW20" s="255" t="s">
         <v>360</v>
       </c>
-      <c r="CX20" s="256"/>
-      <c r="CY20" s="256"/>
-      <c r="CZ20" s="256"/>
-      <c r="DA20" s="256"/>
-      <c r="DB20" s="257"/>
+      <c r="CX20" s="258"/>
+      <c r="CY20" s="258"/>
+      <c r="CZ20" s="258"/>
+      <c r="DA20" s="258"/>
+      <c r="DB20" s="259"/>
       <c r="DC20" s="42"/>
     </row>
     <row r="21" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G21" s="41"/>
       <c r="O21" s="41"/>
       <c r="AX21" s="42"/>
-      <c r="AY21" s="259"/>
+      <c r="AY21" s="291"/>
       <c r="BD21" s="41"/>
-      <c r="BE21" s="255" t="s">
+      <c r="BE21" s="269" t="s">
         <v>337</v>
       </c>
-      <c r="BF21" s="256"/>
-      <c r="BG21" s="256"/>
-      <c r="BH21" s="256"/>
-      <c r="BI21" s="256"/>
-      <c r="BJ21" s="257"/>
+      <c r="BF21" s="258"/>
+      <c r="BG21" s="258"/>
+      <c r="BH21" s="258"/>
+      <c r="BI21" s="258"/>
+      <c r="BJ21" s="259"/>
       <c r="BK21" s="42"/>
       <c r="BP21" s="41"/>
-      <c r="BQ21" s="255" t="s">
+      <c r="BQ21" s="269" t="s">
         <v>332</v>
       </c>
-      <c r="BR21" s="256"/>
-      <c r="BS21" s="256"/>
-      <c r="BT21" s="256"/>
-      <c r="BU21" s="256"/>
-      <c r="BV21" s="257"/>
+      <c r="BR21" s="258"/>
+      <c r="BS21" s="258"/>
+      <c r="BT21" s="258"/>
+      <c r="BU21" s="258"/>
+      <c r="BV21" s="259"/>
       <c r="BW21" s="42"/>
       <c r="CA21" s="41"/>
-      <c r="CB21" s="271" t="s">
+      <c r="CB21" s="255" t="s">
         <v>336</v>
       </c>
-      <c r="CC21" s="256"/>
-      <c r="CD21" s="256"/>
-      <c r="CE21" s="256"/>
-      <c r="CF21" s="256"/>
-      <c r="CG21" s="257"/>
+      <c r="CC21" s="258"/>
+      <c r="CD21" s="258"/>
+      <c r="CE21" s="258"/>
+      <c r="CF21" s="258"/>
+      <c r="CG21" s="259"/>
       <c r="CH21" s="42"/>
       <c r="CL21" s="41"/>
-      <c r="CM21" s="271" t="s">
+      <c r="CM21" s="255" t="s">
         <v>356</v>
       </c>
-      <c r="CN21" s="256"/>
-      <c r="CO21" s="256"/>
-      <c r="CP21" s="256"/>
-      <c r="CQ21" s="256"/>
-      <c r="CR21" s="257"/>
+      <c r="CN21" s="258"/>
+      <c r="CO21" s="258"/>
+      <c r="CP21" s="258"/>
+      <c r="CQ21" s="258"/>
+      <c r="CR21" s="259"/>
       <c r="CS21" s="42"/>
       <c r="CV21" s="41"/>
-      <c r="CW21" s="271" t="s">
+      <c r="CW21" s="255" t="s">
         <v>355</v>
       </c>
-      <c r="CX21" s="256"/>
-      <c r="CY21" s="256"/>
-      <c r="CZ21" s="256"/>
-      <c r="DA21" s="256"/>
-      <c r="DB21" s="257"/>
+      <c r="CX21" s="258"/>
+      <c r="CY21" s="258"/>
+      <c r="CZ21" s="258"/>
+      <c r="DA21" s="258"/>
+      <c r="DB21" s="259"/>
       <c r="DC21" s="42"/>
     </row>
     <row r="22" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G22" s="41"/>
       <c r="O22" s="41"/>
       <c r="AX22" s="42"/>
-      <c r="AY22" s="259"/>
+      <c r="AY22" s="291"/>
       <c r="BD22" s="41"/>
-      <c r="BE22" s="255" t="s">
+      <c r="BE22" s="269" t="s">
         <v>336</v>
       </c>
-      <c r="BF22" s="256"/>
-      <c r="BG22" s="256"/>
-      <c r="BH22" s="256"/>
-      <c r="BI22" s="256"/>
-      <c r="BJ22" s="257"/>
+      <c r="BF22" s="258"/>
+      <c r="BG22" s="258"/>
+      <c r="BH22" s="258"/>
+      <c r="BI22" s="258"/>
+      <c r="BJ22" s="259"/>
       <c r="BK22" s="42"/>
       <c r="BP22" s="41"/>
-      <c r="BQ22" s="255" t="s">
+      <c r="BQ22" s="269" t="s">
         <v>330</v>
       </c>
-      <c r="BR22" s="256"/>
-      <c r="BS22" s="256"/>
-      <c r="BT22" s="256"/>
-      <c r="BU22" s="256"/>
-      <c r="BV22" s="257"/>
+      <c r="BR22" s="258"/>
+      <c r="BS22" s="258"/>
+      <c r="BT22" s="258"/>
+      <c r="BU22" s="258"/>
+      <c r="BV22" s="259"/>
       <c r="BW22" s="42"/>
       <c r="CA22" s="41"/>
       <c r="CH22" s="42"/>
@@ -8174,7 +8288,7 @@
       <c r="G23" s="41"/>
       <c r="O23" s="41"/>
       <c r="AX23" s="42"/>
-      <c r="AY23" s="259"/>
+      <c r="AY23" s="291"/>
       <c r="BD23" s="41"/>
       <c r="BK23" s="42"/>
       <c r="BP23" s="41"/>
@@ -8183,57 +8297,57 @@
       <c r="CB23" s="29"/>
       <c r="CC23" s="29"/>
       <c r="CD23" s="29"/>
-      <c r="CE23" s="282" t="s">
+      <c r="CE23" s="278" t="s">
         <v>348</v>
       </c>
-      <c r="CF23" s="283"/>
-      <c r="CG23" s="283"/>
-      <c r="CH23" s="284"/>
+      <c r="CF23" s="279"/>
+      <c r="CG23" s="279"/>
+      <c r="CH23" s="280"/>
       <c r="CL23" s="41"/>
-      <c r="CM23" s="271" t="s">
+      <c r="CM23" s="255" t="s">
         <v>357</v>
       </c>
-      <c r="CN23" s="256"/>
-      <c r="CO23" s="256"/>
-      <c r="CP23" s="256"/>
-      <c r="CQ23" s="256"/>
-      <c r="CR23" s="257"/>
+      <c r="CN23" s="258"/>
+      <c r="CO23" s="258"/>
+      <c r="CP23" s="258"/>
+      <c r="CQ23" s="258"/>
+      <c r="CR23" s="259"/>
       <c r="CS23" s="42"/>
       <c r="CV23" s="41"/>
-      <c r="CW23" s="271" t="s">
+      <c r="CW23" s="255" t="s">
         <v>361</v>
       </c>
-      <c r="CX23" s="256"/>
-      <c r="CY23" s="256"/>
-      <c r="CZ23" s="256"/>
-      <c r="DA23" s="256"/>
-      <c r="DB23" s="257"/>
+      <c r="CX23" s="258"/>
+      <c r="CY23" s="258"/>
+      <c r="CZ23" s="258"/>
+      <c r="DA23" s="258"/>
+      <c r="DB23" s="259"/>
       <c r="DC23" s="42"/>
     </row>
     <row r="24" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G24" s="41"/>
       <c r="O24" s="41"/>
       <c r="AX24" s="42"/>
-      <c r="AY24" s="259"/>
+      <c r="AY24" s="291"/>
       <c r="BD24" s="41"/>
-      <c r="BE24" s="255" t="s">
+      <c r="BE24" s="269" t="s">
         <v>339</v>
       </c>
-      <c r="BF24" s="256"/>
-      <c r="BG24" s="256"/>
-      <c r="BH24" s="256"/>
-      <c r="BI24" s="256"/>
-      <c r="BJ24" s="257"/>
+      <c r="BF24" s="258"/>
+      <c r="BG24" s="258"/>
+      <c r="BH24" s="258"/>
+      <c r="BI24" s="258"/>
+      <c r="BJ24" s="259"/>
       <c r="BK24" s="42"/>
       <c r="BP24" s="41"/>
-      <c r="BQ24" s="255" t="s">
+      <c r="BQ24" s="269" t="s">
         <v>333</v>
       </c>
-      <c r="BR24" s="256"/>
-      <c r="BS24" s="256"/>
-      <c r="BT24" s="256"/>
-      <c r="BU24" s="256"/>
-      <c r="BV24" s="257"/>
+      <c r="BR24" s="258"/>
+      <c r="BS24" s="258"/>
+      <c r="BT24" s="258"/>
+      <c r="BU24" s="258"/>
+      <c r="BV24" s="259"/>
       <c r="BW24" s="42"/>
       <c r="CA24" s="40"/>
       <c r="CB24" s="29"/>
@@ -8244,60 +8358,60 @@
       <c r="CG24" s="29"/>
       <c r="CH24" s="46"/>
       <c r="CL24" s="41"/>
-      <c r="CM24" s="271" t="s">
+      <c r="CM24" s="255" t="s">
         <v>355</v>
       </c>
-      <c r="CN24" s="256"/>
-      <c r="CO24" s="256"/>
-      <c r="CP24" s="256"/>
-      <c r="CQ24" s="256"/>
-      <c r="CR24" s="257"/>
+      <c r="CN24" s="258"/>
+      <c r="CO24" s="258"/>
+      <c r="CP24" s="258"/>
+      <c r="CQ24" s="258"/>
+      <c r="CR24" s="259"/>
       <c r="CS24" s="42"/>
       <c r="CV24" s="41"/>
-      <c r="CW24" s="271" t="s">
+      <c r="CW24" s="255" t="s">
         <v>355</v>
       </c>
-      <c r="CX24" s="256"/>
-      <c r="CY24" s="256"/>
-      <c r="CZ24" s="256"/>
-      <c r="DA24" s="256"/>
-      <c r="DB24" s="257"/>
+      <c r="CX24" s="258"/>
+      <c r="CY24" s="258"/>
+      <c r="CZ24" s="258"/>
+      <c r="DA24" s="258"/>
+      <c r="DB24" s="259"/>
       <c r="DC24" s="42"/>
     </row>
     <row r="25" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G25" s="41"/>
       <c r="O25" s="41"/>
       <c r="AX25" s="42"/>
-      <c r="AY25" s="259"/>
+      <c r="AY25" s="291"/>
       <c r="BD25" s="41"/>
-      <c r="BE25" s="255" t="s">
+      <c r="BE25" s="269" t="s">
         <v>336</v>
       </c>
-      <c r="BF25" s="256"/>
-      <c r="BG25" s="256"/>
-      <c r="BH25" s="256"/>
-      <c r="BI25" s="256"/>
-      <c r="BJ25" s="257"/>
+      <c r="BF25" s="258"/>
+      <c r="BG25" s="258"/>
+      <c r="BH25" s="258"/>
+      <c r="BI25" s="258"/>
+      <c r="BJ25" s="259"/>
       <c r="BK25" s="42"/>
       <c r="BP25" s="41"/>
-      <c r="BQ25" s="255" t="s">
+      <c r="BQ25" s="269" t="s">
         <v>330</v>
       </c>
-      <c r="BR25" s="256"/>
-      <c r="BS25" s="256"/>
-      <c r="BT25" s="256"/>
-      <c r="BU25" s="256"/>
-      <c r="BV25" s="257"/>
+      <c r="BR25" s="258"/>
+      <c r="BS25" s="258"/>
+      <c r="BT25" s="258"/>
+      <c r="BU25" s="258"/>
+      <c r="BV25" s="259"/>
       <c r="BW25" s="42"/>
       <c r="CA25" s="41"/>
-      <c r="CB25" s="271" t="s">
+      <c r="CB25" s="255" t="s">
         <v>343</v>
       </c>
-      <c r="CC25" s="280"/>
-      <c r="CD25" s="280"/>
-      <c r="CE25" s="280"/>
-      <c r="CF25" s="280"/>
-      <c r="CG25" s="281"/>
+      <c r="CC25" s="256"/>
+      <c r="CD25" s="256"/>
+      <c r="CE25" s="256"/>
+      <c r="CF25" s="256"/>
+      <c r="CG25" s="257"/>
       <c r="CH25" s="42"/>
       <c r="CL25" s="41"/>
       <c r="CS25" s="42"/>
@@ -8308,128 +8422,128 @@
       <c r="G26" s="41"/>
       <c r="O26" s="41"/>
       <c r="AX26" s="42"/>
-      <c r="AY26" s="259"/>
+      <c r="AY26" s="291"/>
       <c r="BD26" s="41"/>
       <c r="BK26" s="42"/>
       <c r="BP26" s="41"/>
       <c r="BW26" s="42"/>
       <c r="CA26" s="41"/>
-      <c r="CB26" s="272" t="s">
+      <c r="CB26" s="270" t="s">
         <v>342</v>
       </c>
-      <c r="CC26" s="273"/>
-      <c r="CD26" s="255"/>
-      <c r="CE26" s="257"/>
-      <c r="CF26" s="272" t="s">
+      <c r="CC26" s="271"/>
+      <c r="CD26" s="269"/>
+      <c r="CE26" s="259"/>
+      <c r="CF26" s="270" t="s">
         <v>341</v>
       </c>
-      <c r="CG26" s="273"/>
+      <c r="CG26" s="271"/>
       <c r="CH26" s="42"/>
       <c r="CL26" s="41"/>
-      <c r="CM26" s="255" t="s">
+      <c r="CM26" s="269" t="s">
         <v>331</v>
       </c>
-      <c r="CN26" s="256"/>
-      <c r="CO26" s="256"/>
-      <c r="CP26" s="256"/>
-      <c r="CQ26" s="256"/>
-      <c r="CR26" s="257"/>
+      <c r="CN26" s="258"/>
+      <c r="CO26" s="258"/>
+      <c r="CP26" s="258"/>
+      <c r="CQ26" s="258"/>
+      <c r="CR26" s="259"/>
       <c r="CS26" s="42"/>
       <c r="CV26" s="41"/>
-      <c r="CW26" s="271" t="s">
+      <c r="CW26" s="255" t="s">
         <v>362</v>
       </c>
-      <c r="CX26" s="256"/>
-      <c r="CY26" s="256"/>
-      <c r="CZ26" s="256"/>
-      <c r="DA26" s="256"/>
-      <c r="DB26" s="257"/>
+      <c r="CX26" s="258"/>
+      <c r="CY26" s="258"/>
+      <c r="CZ26" s="258"/>
+      <c r="DA26" s="258"/>
+      <c r="DB26" s="259"/>
       <c r="DC26" s="42"/>
     </row>
     <row r="27" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G27" s="41"/>
       <c r="O27" s="41"/>
       <c r="AX27" s="42"/>
-      <c r="AY27" s="259"/>
+      <c r="AY27" s="291"/>
       <c r="BD27" s="41"/>
-      <c r="BE27" s="255" t="s">
+      <c r="BE27" s="269" t="s">
         <v>340</v>
       </c>
-      <c r="BF27" s="256"/>
-      <c r="BG27" s="256"/>
-      <c r="BH27" s="256"/>
-      <c r="BI27" s="256"/>
-      <c r="BJ27" s="257"/>
+      <c r="BF27" s="258"/>
+      <c r="BG27" s="258"/>
+      <c r="BH27" s="258"/>
+      <c r="BI27" s="258"/>
+      <c r="BJ27" s="259"/>
       <c r="BK27" s="42"/>
       <c r="BP27" s="41"/>
-      <c r="BQ27" s="255" t="s">
+      <c r="BQ27" s="269" t="s">
         <v>334</v>
       </c>
-      <c r="BR27" s="256"/>
-      <c r="BS27" s="256"/>
-      <c r="BT27" s="256"/>
-      <c r="BU27" s="256"/>
-      <c r="BV27" s="257"/>
+      <c r="BR27" s="258"/>
+      <c r="BS27" s="258"/>
+      <c r="BT27" s="258"/>
+      <c r="BU27" s="258"/>
+      <c r="BV27" s="259"/>
       <c r="BW27" s="42"/>
       <c r="CA27" s="41"/>
       <c r="CH27" s="42"/>
       <c r="CL27" s="41"/>
-      <c r="CM27" s="271" t="s">
+      <c r="CM27" s="255" t="s">
         <v>355</v>
       </c>
-      <c r="CN27" s="256"/>
-      <c r="CO27" s="256"/>
-      <c r="CP27" s="256"/>
-      <c r="CQ27" s="256"/>
-      <c r="CR27" s="257"/>
+      <c r="CN27" s="258"/>
+      <c r="CO27" s="258"/>
+      <c r="CP27" s="258"/>
+      <c r="CQ27" s="258"/>
+      <c r="CR27" s="259"/>
       <c r="CS27" s="42"/>
       <c r="CV27" s="41"/>
-      <c r="CW27" s="271" t="s">
+      <c r="CW27" s="255" t="s">
         <v>355</v>
       </c>
-      <c r="CX27" s="256"/>
-      <c r="CY27" s="256"/>
-      <c r="CZ27" s="256"/>
-      <c r="DA27" s="256"/>
-      <c r="DB27" s="257"/>
+      <c r="CX27" s="258"/>
+      <c r="CY27" s="258"/>
+      <c r="CZ27" s="258"/>
+      <c r="DA27" s="258"/>
+      <c r="DB27" s="259"/>
       <c r="DC27" s="42"/>
     </row>
     <row r="28" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G28" s="41"/>
       <c r="O28" s="41"/>
       <c r="AX28" s="42"/>
-      <c r="AY28" s="259"/>
+      <c r="AY28" s="291"/>
       <c r="BD28" s="119"/>
-      <c r="BE28" s="272" t="s">
+      <c r="BE28" s="270" t="s">
         <v>342</v>
       </c>
-      <c r="BF28" s="273"/>
-      <c r="BG28" s="255"/>
-      <c r="BH28" s="257"/>
-      <c r="BI28" s="272" t="s">
+      <c r="BF28" s="271"/>
+      <c r="BG28" s="269"/>
+      <c r="BH28" s="259"/>
+      <c r="BI28" s="270" t="s">
         <v>341</v>
       </c>
-      <c r="BJ28" s="273"/>
+      <c r="BJ28" s="271"/>
       <c r="BK28" s="42"/>
       <c r="BP28" s="41"/>
-      <c r="BQ28" s="255" t="s">
+      <c r="BQ28" s="269" t="s">
         <v>330</v>
       </c>
-      <c r="BR28" s="256"/>
-      <c r="BS28" s="256"/>
-      <c r="BT28" s="256"/>
-      <c r="BU28" s="256"/>
-      <c r="BV28" s="257"/>
+      <c r="BR28" s="258"/>
+      <c r="BS28" s="258"/>
+      <c r="BT28" s="258"/>
+      <c r="BU28" s="258"/>
+      <c r="BV28" s="259"/>
       <c r="BW28" s="42"/>
       <c r="CA28" s="41"/>
-      <c r="CB28" s="271" t="s">
+      <c r="CB28" s="255" t="s">
         <v>344</v>
       </c>
-      <c r="CC28" s="280"/>
-      <c r="CD28" s="280"/>
-      <c r="CE28" s="280"/>
-      <c r="CF28" s="280"/>
-      <c r="CG28" s="281"/>
+      <c r="CC28" s="256"/>
+      <c r="CD28" s="256"/>
+      <c r="CE28" s="256"/>
+      <c r="CF28" s="256"/>
+      <c r="CG28" s="257"/>
       <c r="CH28" s="42"/>
       <c r="CL28" s="41"/>
       <c r="CS28" s="42"/>
@@ -8440,49 +8554,49 @@
       <c r="G29" s="41"/>
       <c r="O29" s="41"/>
       <c r="AX29" s="42"/>
-      <c r="AY29" s="259"/>
+      <c r="AY29" s="291"/>
       <c r="BD29" s="41"/>
       <c r="BK29" s="42"/>
       <c r="BP29" s="41"/>
       <c r="BW29" s="42"/>
       <c r="CA29" s="41"/>
-      <c r="CB29" s="272" t="s">
+      <c r="CB29" s="270" t="s">
         <v>342</v>
       </c>
-      <c r="CC29" s="273"/>
-      <c r="CD29" s="255"/>
-      <c r="CE29" s="257"/>
-      <c r="CF29" s="272" t="s">
+      <c r="CC29" s="271"/>
+      <c r="CD29" s="269"/>
+      <c r="CE29" s="259"/>
+      <c r="CF29" s="270" t="s">
         <v>341</v>
       </c>
-      <c r="CG29" s="273"/>
+      <c r="CG29" s="271"/>
       <c r="CH29" s="42"/>
       <c r="CL29" s="41"/>
-      <c r="CM29" s="255" t="s">
+      <c r="CM29" s="269" t="s">
         <v>332</v>
       </c>
-      <c r="CN29" s="256"/>
-      <c r="CO29" s="256"/>
-      <c r="CP29" s="256"/>
-      <c r="CQ29" s="256"/>
-      <c r="CR29" s="257"/>
+      <c r="CN29" s="258"/>
+      <c r="CO29" s="258"/>
+      <c r="CP29" s="258"/>
+      <c r="CQ29" s="258"/>
+      <c r="CR29" s="259"/>
       <c r="CS29" s="42"/>
       <c r="CV29" s="41"/>
-      <c r="CW29" s="271" t="s">
+      <c r="CW29" s="255" t="s">
         <v>363</v>
       </c>
-      <c r="CX29" s="256"/>
-      <c r="CY29" s="256"/>
-      <c r="CZ29" s="256"/>
-      <c r="DA29" s="256"/>
-      <c r="DB29" s="257"/>
+      <c r="CX29" s="258"/>
+      <c r="CY29" s="258"/>
+      <c r="CZ29" s="258"/>
+      <c r="DA29" s="258"/>
+      <c r="DB29" s="259"/>
       <c r="DC29" s="42"/>
     </row>
     <row r="30" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G30" s="41"/>
       <c r="O30" s="41"/>
       <c r="AX30" s="42"/>
-      <c r="AY30" s="259"/>
+      <c r="AY30" s="291"/>
       <c r="BD30" s="41"/>
       <c r="BK30" s="42"/>
       <c r="BP30" s="41"/>
@@ -8490,44 +8604,44 @@
       <c r="CA30" s="41"/>
       <c r="CH30" s="42"/>
       <c r="CL30" s="41"/>
-      <c r="CM30" s="271" t="s">
+      <c r="CM30" s="255" t="s">
         <v>355</v>
       </c>
-      <c r="CN30" s="256"/>
-      <c r="CO30" s="256"/>
-      <c r="CP30" s="256"/>
-      <c r="CQ30" s="256"/>
-      <c r="CR30" s="257"/>
+      <c r="CN30" s="258"/>
+      <c r="CO30" s="258"/>
+      <c r="CP30" s="258"/>
+      <c r="CQ30" s="258"/>
+      <c r="CR30" s="259"/>
       <c r="CS30" s="42"/>
       <c r="CV30" s="41"/>
-      <c r="CW30" s="271" t="s">
+      <c r="CW30" s="255" t="s">
         <v>355</v>
       </c>
-      <c r="CX30" s="280"/>
-      <c r="CY30" s="280"/>
-      <c r="CZ30" s="280"/>
-      <c r="DA30" s="280"/>
-      <c r="DB30" s="281"/>
+      <c r="CX30" s="256"/>
+      <c r="CY30" s="256"/>
+      <c r="CZ30" s="256"/>
+      <c r="DA30" s="256"/>
+      <c r="DB30" s="257"/>
       <c r="DC30" s="42"/>
     </row>
     <row r="31" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G31" s="41"/>
       <c r="O31" s="41"/>
       <c r="AX31" s="42"/>
-      <c r="AY31" s="259"/>
+      <c r="AY31" s="291"/>
       <c r="BD31" s="41"/>
       <c r="BK31" s="42"/>
       <c r="BP31" s="41"/>
       <c r="BW31" s="42"/>
       <c r="CA31" s="41"/>
-      <c r="CB31" s="271" t="s">
+      <c r="CB31" s="255" t="s">
         <v>345</v>
       </c>
-      <c r="CC31" s="280"/>
-      <c r="CD31" s="280"/>
-      <c r="CE31" s="280"/>
-      <c r="CF31" s="280"/>
-      <c r="CG31" s="281"/>
+      <c r="CC31" s="256"/>
+      <c r="CD31" s="256"/>
+      <c r="CE31" s="256"/>
+      <c r="CF31" s="256"/>
+      <c r="CG31" s="257"/>
       <c r="CH31" s="42"/>
       <c r="CL31" s="41"/>
       <c r="CS31" s="42"/>
@@ -8538,122 +8652,122 @@
       <c r="G32" s="41"/>
       <c r="O32" s="41"/>
       <c r="AX32" s="42"/>
-      <c r="AY32" s="259"/>
+      <c r="AY32" s="291"/>
       <c r="BD32" s="41"/>
-      <c r="BE32" s="274" t="s">
+      <c r="BE32" s="272" t="s">
         <v>277</v>
       </c>
-      <c r="BF32" s="275"/>
-      <c r="BG32" s="275"/>
-      <c r="BH32" s="275"/>
-      <c r="BI32" s="275"/>
-      <c r="BJ32" s="276"/>
+      <c r="BF32" s="273"/>
+      <c r="BG32" s="273"/>
+      <c r="BH32" s="273"/>
+      <c r="BI32" s="273"/>
+      <c r="BJ32" s="274"/>
       <c r="BK32" s="42"/>
       <c r="BP32" s="41"/>
-      <c r="BQ32" s="274" t="s">
+      <c r="BQ32" s="272" t="s">
         <v>352</v>
       </c>
-      <c r="BR32" s="275"/>
-      <c r="BS32" s="275"/>
-      <c r="BT32" s="275"/>
-      <c r="BU32" s="275"/>
-      <c r="BV32" s="276"/>
+      <c r="BR32" s="273"/>
+      <c r="BS32" s="273"/>
+      <c r="BT32" s="273"/>
+      <c r="BU32" s="273"/>
+      <c r="BV32" s="274"/>
       <c r="BW32" s="42"/>
       <c r="CA32" s="41"/>
-      <c r="CB32" s="272" t="s">
+      <c r="CB32" s="270" t="s">
         <v>342</v>
       </c>
-      <c r="CC32" s="273"/>
-      <c r="CD32" s="255"/>
-      <c r="CE32" s="257"/>
-      <c r="CF32" s="272" t="s">
+      <c r="CC32" s="271"/>
+      <c r="CD32" s="269"/>
+      <c r="CE32" s="259"/>
+      <c r="CF32" s="270" t="s">
         <v>341</v>
       </c>
-      <c r="CG32" s="273"/>
+      <c r="CG32" s="271"/>
       <c r="CH32" s="42"/>
       <c r="CL32" s="41"/>
-      <c r="CM32" s="255" t="s">
+      <c r="CM32" s="269" t="s">
         <v>333</v>
       </c>
-      <c r="CN32" s="256"/>
-      <c r="CO32" s="256"/>
-      <c r="CP32" s="256"/>
-      <c r="CQ32" s="256"/>
-      <c r="CR32" s="257"/>
+      <c r="CN32" s="258"/>
+      <c r="CO32" s="258"/>
+      <c r="CP32" s="258"/>
+      <c r="CQ32" s="258"/>
+      <c r="CR32" s="259"/>
       <c r="CS32" s="42"/>
       <c r="CV32" s="41"/>
-      <c r="CW32" s="271" t="s">
+      <c r="CW32" s="255" t="s">
         <v>364</v>
       </c>
-      <c r="CX32" s="256"/>
-      <c r="CY32" s="256"/>
-      <c r="CZ32" s="256"/>
-      <c r="DA32" s="256"/>
-      <c r="DB32" s="257"/>
+      <c r="CX32" s="258"/>
+      <c r="CY32" s="258"/>
+      <c r="CZ32" s="258"/>
+      <c r="DA32" s="258"/>
+      <c r="DB32" s="259"/>
       <c r="DC32" s="42"/>
     </row>
     <row r="33" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G33" s="41"/>
       <c r="O33" s="41"/>
       <c r="AX33" s="42"/>
-      <c r="AY33" s="259"/>
+      <c r="AY33" s="291"/>
       <c r="BD33" s="41"/>
-      <c r="BE33" s="277"/>
-      <c r="BF33" s="278"/>
-      <c r="BG33" s="278"/>
-      <c r="BH33" s="278"/>
-      <c r="BI33" s="278"/>
-      <c r="BJ33" s="279"/>
+      <c r="BE33" s="275"/>
+      <c r="BF33" s="276"/>
+      <c r="BG33" s="276"/>
+      <c r="BH33" s="276"/>
+      <c r="BI33" s="276"/>
+      <c r="BJ33" s="277"/>
       <c r="BK33" s="42"/>
       <c r="BP33" s="41"/>
-      <c r="BQ33" s="277"/>
-      <c r="BR33" s="278"/>
-      <c r="BS33" s="278"/>
-      <c r="BT33" s="278"/>
-      <c r="BU33" s="278"/>
-      <c r="BV33" s="279"/>
+      <c r="BQ33" s="275"/>
+      <c r="BR33" s="276"/>
+      <c r="BS33" s="276"/>
+      <c r="BT33" s="276"/>
+      <c r="BU33" s="276"/>
+      <c r="BV33" s="277"/>
       <c r="BW33" s="42"/>
       <c r="CA33" s="41"/>
       <c r="CH33" s="42"/>
       <c r="CL33" s="41"/>
-      <c r="CM33" s="271" t="s">
+      <c r="CM33" s="255" t="s">
         <v>355</v>
       </c>
-      <c r="CN33" s="280"/>
-      <c r="CO33" s="280"/>
-      <c r="CP33" s="280"/>
-      <c r="CQ33" s="280"/>
-      <c r="CR33" s="281"/>
+      <c r="CN33" s="256"/>
+      <c r="CO33" s="256"/>
+      <c r="CP33" s="256"/>
+      <c r="CQ33" s="256"/>
+      <c r="CR33" s="257"/>
       <c r="CS33" s="42"/>
       <c r="CV33" s="41"/>
-      <c r="CW33" s="271" t="s">
+      <c r="CW33" s="255" t="s">
         <v>355</v>
       </c>
-      <c r="CX33" s="280"/>
-      <c r="CY33" s="280"/>
-      <c r="CZ33" s="280"/>
-      <c r="DA33" s="280"/>
-      <c r="DB33" s="281"/>
+      <c r="CX33" s="256"/>
+      <c r="CY33" s="256"/>
+      <c r="CZ33" s="256"/>
+      <c r="DA33" s="256"/>
+      <c r="DB33" s="257"/>
       <c r="DC33" s="42"/>
     </row>
     <row r="34" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G34" s="41"/>
       <c r="O34" s="41"/>
       <c r="AX34" s="42"/>
-      <c r="AY34" s="259"/>
+      <c r="AY34" s="291"/>
       <c r="BD34" s="41"/>
       <c r="BK34" s="42"/>
       <c r="BP34" s="41"/>
       <c r="BW34" s="42"/>
       <c r="CA34" s="41"/>
-      <c r="CB34" s="271" t="s">
+      <c r="CB34" s="255" t="s">
         <v>346</v>
       </c>
-      <c r="CC34" s="280"/>
-      <c r="CD34" s="280"/>
-      <c r="CE34" s="280"/>
-      <c r="CF34" s="280"/>
-      <c r="CG34" s="281"/>
+      <c r="CC34" s="256"/>
+      <c r="CD34" s="256"/>
+      <c r="CE34" s="256"/>
+      <c r="CF34" s="256"/>
+      <c r="CG34" s="257"/>
       <c r="CH34" s="42"/>
       <c r="CL34" s="41"/>
       <c r="CS34" s="42"/>
@@ -8664,95 +8778,95 @@
       <c r="G35" s="41"/>
       <c r="O35" s="41"/>
       <c r="AX35" s="42"/>
-      <c r="AY35" s="259"/>
+      <c r="AY35" s="291"/>
       <c r="BD35" s="41"/>
       <c r="BK35" s="42"/>
       <c r="BP35" s="41"/>
-      <c r="BQ35" s="271" t="s">
+      <c r="BQ35" s="255" t="s">
         <v>351</v>
       </c>
-      <c r="BR35" s="256"/>
-      <c r="BS35" s="256"/>
-      <c r="BT35" s="256"/>
-      <c r="BU35" s="256"/>
-      <c r="BV35" s="257"/>
+      <c r="BR35" s="258"/>
+      <c r="BS35" s="258"/>
+      <c r="BT35" s="258"/>
+      <c r="BU35" s="258"/>
+      <c r="BV35" s="259"/>
       <c r="BW35" s="42"/>
       <c r="CA35" s="41"/>
-      <c r="CB35" s="272" t="s">
+      <c r="CB35" s="270" t="s">
         <v>342</v>
       </c>
-      <c r="CC35" s="273"/>
-      <c r="CD35" s="255"/>
-      <c r="CE35" s="257"/>
-      <c r="CF35" s="272" t="s">
+      <c r="CC35" s="271"/>
+      <c r="CD35" s="269"/>
+      <c r="CE35" s="259"/>
+      <c r="CF35" s="270" t="s">
         <v>341</v>
       </c>
-      <c r="CG35" s="273"/>
+      <c r="CG35" s="271"/>
       <c r="CH35" s="42"/>
       <c r="CL35" s="41"/>
-      <c r="CM35" s="271" t="s">
+      <c r="CM35" s="255" t="s">
         <v>358</v>
       </c>
-      <c r="CN35" s="256"/>
-      <c r="CO35" s="256"/>
-      <c r="CP35" s="256"/>
-      <c r="CQ35" s="256"/>
-      <c r="CR35" s="257"/>
+      <c r="CN35" s="258"/>
+      <c r="CO35" s="258"/>
+      <c r="CP35" s="258"/>
+      <c r="CQ35" s="258"/>
+      <c r="CR35" s="259"/>
       <c r="CS35" s="42"/>
       <c r="CV35" s="41"/>
-      <c r="CW35" s="271" t="s">
+      <c r="CW35" s="255" t="s">
         <v>365</v>
       </c>
-      <c r="CX35" s="256"/>
-      <c r="CY35" s="256"/>
-      <c r="CZ35" s="256"/>
-      <c r="DA35" s="256"/>
-      <c r="DB35" s="257"/>
+      <c r="CX35" s="258"/>
+      <c r="CY35" s="258"/>
+      <c r="CZ35" s="258"/>
+      <c r="DA35" s="258"/>
+      <c r="DB35" s="259"/>
       <c r="DC35" s="42"/>
     </row>
     <row r="36" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G36" s="41"/>
       <c r="O36" s="41"/>
       <c r="AX36" s="42"/>
-      <c r="AY36" s="259"/>
+      <c r="AY36" s="291"/>
       <c r="BD36" s="41"/>
       <c r="BK36" s="42"/>
       <c r="BP36" s="41"/>
-      <c r="BQ36" s="271" t="s">
+      <c r="BQ36" s="255" t="s">
         <v>353</v>
       </c>
-      <c r="BR36" s="256"/>
-      <c r="BS36" s="256"/>
-      <c r="BT36" s="256"/>
-      <c r="BU36" s="256"/>
-      <c r="BV36" s="257"/>
+      <c r="BR36" s="258"/>
+      <c r="BS36" s="258"/>
+      <c r="BT36" s="258"/>
+      <c r="BU36" s="258"/>
+      <c r="BV36" s="259"/>
       <c r="BW36" s="42"/>
       <c r="CA36" s="41"/>
       <c r="CH36" s="42"/>
       <c r="CL36" s="41"/>
-      <c r="CM36" s="271" t="s">
+      <c r="CM36" s="255" t="s">
         <v>355</v>
       </c>
-      <c r="CN36" s="280"/>
-      <c r="CO36" s="280"/>
-      <c r="CP36" s="280"/>
-      <c r="CQ36" s="280"/>
-      <c r="CR36" s="281"/>
+      <c r="CN36" s="256"/>
+      <c r="CO36" s="256"/>
+      <c r="CP36" s="256"/>
+      <c r="CQ36" s="256"/>
+      <c r="CR36" s="257"/>
       <c r="CS36" s="42"/>
       <c r="CV36" s="41"/>
-      <c r="CW36" s="285"/>
-      <c r="CX36" s="286"/>
-      <c r="CY36" s="286"/>
-      <c r="CZ36" s="286"/>
-      <c r="DA36" s="286"/>
-      <c r="DB36" s="287"/>
+      <c r="CW36" s="260"/>
+      <c r="CX36" s="261"/>
+      <c r="CY36" s="261"/>
+      <c r="CZ36" s="261"/>
+      <c r="DA36" s="261"/>
+      <c r="DB36" s="262"/>
       <c r="DC36" s="42"/>
     </row>
     <row r="37" spans="7:107" ht="15.75" customHeight="1">
       <c r="G37" s="41"/>
       <c r="O37" s="41"/>
       <c r="AX37" s="42"/>
-      <c r="AY37" s="259"/>
+      <c r="AY37" s="291"/>
       <c r="BD37" s="41"/>
       <c r="BK37" s="42"/>
       <c r="BP37" s="41"/>
@@ -8762,19 +8876,19 @@
       <c r="CL37" s="41"/>
       <c r="CS37" s="42"/>
       <c r="CV37" s="41"/>
-      <c r="CW37" s="288"/>
-      <c r="CX37" s="289"/>
-      <c r="CY37" s="289"/>
-      <c r="CZ37" s="289"/>
-      <c r="DA37" s="289"/>
-      <c r="DB37" s="290"/>
+      <c r="CW37" s="263"/>
+      <c r="CX37" s="264"/>
+      <c r="CY37" s="264"/>
+      <c r="CZ37" s="264"/>
+      <c r="DA37" s="264"/>
+      <c r="DB37" s="265"/>
       <c r="DC37" s="42"/>
     </row>
     <row r="38" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G38" s="41"/>
       <c r="O38" s="41"/>
       <c r="AX38" s="42"/>
-      <c r="AY38" s="259"/>
+      <c r="AY38" s="291"/>
       <c r="BD38" s="41"/>
       <c r="BK38" s="42"/>
       <c r="BP38" s="41"/>
@@ -8784,70 +8898,70 @@
       <c r="CL38" s="41"/>
       <c r="CS38" s="42"/>
       <c r="CV38" s="41"/>
-      <c r="CW38" s="288"/>
-      <c r="CX38" s="289"/>
-      <c r="CY38" s="289"/>
-      <c r="CZ38" s="289"/>
-      <c r="DA38" s="289"/>
-      <c r="DB38" s="290"/>
+      <c r="CW38" s="263"/>
+      <c r="CX38" s="264"/>
+      <c r="CY38" s="264"/>
+      <c r="CZ38" s="264"/>
+      <c r="DA38" s="264"/>
+      <c r="DB38" s="265"/>
       <c r="DC38" s="42"/>
     </row>
     <row r="39" spans="7:107" ht="15.75" customHeight="1">
       <c r="G39" s="41"/>
       <c r="O39" s="41"/>
       <c r="AX39" s="42"/>
-      <c r="AY39" s="259"/>
+      <c r="AY39" s="291"/>
       <c r="BD39" s="41"/>
       <c r="BK39" s="42"/>
       <c r="BP39" s="41"/>
       <c r="BW39" s="42"/>
       <c r="CA39" s="41"/>
-      <c r="CB39" s="274" t="s">
+      <c r="CB39" s="272" t="s">
         <v>347</v>
       </c>
-      <c r="CC39" s="275"/>
-      <c r="CD39" s="275"/>
-      <c r="CE39" s="275"/>
-      <c r="CF39" s="275"/>
-      <c r="CG39" s="276"/>
+      <c r="CC39" s="273"/>
+      <c r="CD39" s="273"/>
+      <c r="CE39" s="273"/>
+      <c r="CF39" s="273"/>
+      <c r="CG39" s="274"/>
       <c r="CH39" s="42"/>
       <c r="CL39" s="41"/>
       <c r="CS39" s="42"/>
       <c r="CV39" s="41"/>
-      <c r="CW39" s="288"/>
-      <c r="CX39" s="289"/>
-      <c r="CY39" s="289"/>
-      <c r="CZ39" s="289"/>
-      <c r="DA39" s="289"/>
-      <c r="DB39" s="290"/>
+      <c r="CW39" s="263"/>
+      <c r="CX39" s="264"/>
+      <c r="CY39" s="264"/>
+      <c r="CZ39" s="264"/>
+      <c r="DA39" s="264"/>
+      <c r="DB39" s="265"/>
       <c r="DC39" s="42"/>
     </row>
     <row r="40" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G40" s="41"/>
       <c r="O40" s="41"/>
       <c r="AX40" s="42"/>
-      <c r="AY40" s="260"/>
+      <c r="AY40" s="292"/>
       <c r="BD40" s="41"/>
       <c r="BK40" s="42"/>
       <c r="BP40" s="41"/>
       <c r="BW40" s="42"/>
       <c r="CA40" s="41"/>
-      <c r="CB40" s="277"/>
-      <c r="CC40" s="278"/>
-      <c r="CD40" s="278"/>
-      <c r="CE40" s="278"/>
-      <c r="CF40" s="278"/>
-      <c r="CG40" s="279"/>
+      <c r="CB40" s="275"/>
+      <c r="CC40" s="276"/>
+      <c r="CD40" s="276"/>
+      <c r="CE40" s="276"/>
+      <c r="CF40" s="276"/>
+      <c r="CG40" s="277"/>
       <c r="CH40" s="42"/>
       <c r="CL40" s="41"/>
       <c r="CS40" s="42"/>
       <c r="CV40" s="41"/>
-      <c r="CW40" s="291"/>
-      <c r="CX40" s="292"/>
-      <c r="CY40" s="292"/>
-      <c r="CZ40" s="292"/>
-      <c r="DA40" s="292"/>
-      <c r="DB40" s="293"/>
+      <c r="CW40" s="266"/>
+      <c r="CX40" s="267"/>
+      <c r="CY40" s="267"/>
+      <c r="CZ40" s="267"/>
+      <c r="DA40" s="267"/>
+      <c r="DB40" s="268"/>
       <c r="DC40" s="42"/>
     </row>
     <row r="41" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
@@ -8910,43 +9024,43 @@
       <c r="M42" s="44"/>
       <c r="N42" s="44"/>
       <c r="O42" s="115"/>
-      <c r="P42" s="255" t="s">
+      <c r="P42" s="269" t="s">
         <v>323</v>
       </c>
-      <c r="Q42" s="256"/>
-      <c r="R42" s="256"/>
-      <c r="S42" s="256"/>
-      <c r="T42" s="256"/>
-      <c r="U42" s="256"/>
-      <c r="V42" s="256"/>
-      <c r="W42" s="256"/>
-      <c r="X42" s="256"/>
-      <c r="Y42" s="256"/>
-      <c r="Z42" s="256"/>
-      <c r="AA42" s="256"/>
-      <c r="AB42" s="256"/>
-      <c r="AC42" s="256"/>
-      <c r="AD42" s="256"/>
-      <c r="AE42" s="256"/>
-      <c r="AF42" s="256"/>
-      <c r="AG42" s="256"/>
-      <c r="AH42" s="256"/>
-      <c r="AI42" s="256"/>
-      <c r="AJ42" s="256"/>
-      <c r="AK42" s="256"/>
-      <c r="AL42" s="256"/>
-      <c r="AM42" s="256"/>
-      <c r="AN42" s="256"/>
-      <c r="AO42" s="256"/>
-      <c r="AP42" s="256"/>
-      <c r="AQ42" s="256"/>
-      <c r="AR42" s="256"/>
-      <c r="AS42" s="256"/>
-      <c r="AT42" s="256"/>
-      <c r="AU42" s="256"/>
-      <c r="AV42" s="256"/>
-      <c r="AW42" s="256"/>
-      <c r="AX42" s="257"/>
+      <c r="Q42" s="258"/>
+      <c r="R42" s="258"/>
+      <c r="S42" s="258"/>
+      <c r="T42" s="258"/>
+      <c r="U42" s="258"/>
+      <c r="V42" s="258"/>
+      <c r="W42" s="258"/>
+      <c r="X42" s="258"/>
+      <c r="Y42" s="258"/>
+      <c r="Z42" s="258"/>
+      <c r="AA42" s="258"/>
+      <c r="AB42" s="258"/>
+      <c r="AC42" s="258"/>
+      <c r="AD42" s="258"/>
+      <c r="AE42" s="258"/>
+      <c r="AF42" s="258"/>
+      <c r="AG42" s="258"/>
+      <c r="AH42" s="258"/>
+      <c r="AI42" s="258"/>
+      <c r="AJ42" s="258"/>
+      <c r="AK42" s="258"/>
+      <c r="AL42" s="258"/>
+      <c r="AM42" s="258"/>
+      <c r="AN42" s="258"/>
+      <c r="AO42" s="258"/>
+      <c r="AP42" s="258"/>
+      <c r="AQ42" s="258"/>
+      <c r="AR42" s="258"/>
+      <c r="AS42" s="258"/>
+      <c r="AT42" s="258"/>
+      <c r="AU42" s="258"/>
+      <c r="AV42" s="258"/>
+      <c r="AW42" s="258"/>
+      <c r="AX42" s="259"/>
       <c r="AY42" s="115"/>
       <c r="BD42" s="43"/>
       <c r="BE42" s="44"/>
@@ -8991,6 +9105,78 @@
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="P42:AX42"/>
+    <mergeCell ref="AY12:AY40"/>
+    <mergeCell ref="G11:N12"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="BD11:BK12"/>
+    <mergeCell ref="BD14:BK14"/>
+    <mergeCell ref="BP11:BW12"/>
+    <mergeCell ref="BP14:BW14"/>
+    <mergeCell ref="CA11:CH12"/>
+    <mergeCell ref="CA14:CH14"/>
+    <mergeCell ref="CL11:CS12"/>
+    <mergeCell ref="CL14:CS14"/>
+    <mergeCell ref="CV11:DC12"/>
+    <mergeCell ref="CV14:DC14"/>
+    <mergeCell ref="BQ24:BV24"/>
+    <mergeCell ref="CM18:CR18"/>
+    <mergeCell ref="CM19:CR19"/>
+    <mergeCell ref="CM21:CR21"/>
+    <mergeCell ref="CM24:CR24"/>
+    <mergeCell ref="CM23:CR23"/>
+    <mergeCell ref="BE19:BJ19"/>
+    <mergeCell ref="BE18:BJ18"/>
+    <mergeCell ref="BE21:BJ21"/>
+    <mergeCell ref="BE22:BJ22"/>
+    <mergeCell ref="BQ19:BV19"/>
+    <mergeCell ref="BQ18:BV18"/>
+    <mergeCell ref="BQ21:BV21"/>
+    <mergeCell ref="BQ22:BV22"/>
+    <mergeCell ref="BE24:BJ24"/>
+    <mergeCell ref="BE25:BJ25"/>
+    <mergeCell ref="BE27:BJ27"/>
+    <mergeCell ref="BE28:BF28"/>
+    <mergeCell ref="BI28:BJ28"/>
+    <mergeCell ref="BG28:BH28"/>
+    <mergeCell ref="BE32:BJ33"/>
+    <mergeCell ref="CF29:CG29"/>
+    <mergeCell ref="CD29:CE29"/>
+    <mergeCell ref="CB29:CC29"/>
+    <mergeCell ref="CB28:CG28"/>
+    <mergeCell ref="BQ28:BV28"/>
+    <mergeCell ref="CB39:CG40"/>
+    <mergeCell ref="CB17:CG17"/>
+    <mergeCell ref="CB18:CC18"/>
+    <mergeCell ref="CD18:CE18"/>
+    <mergeCell ref="CF18:CG18"/>
+    <mergeCell ref="CB20:CG20"/>
+    <mergeCell ref="CF26:CG26"/>
+    <mergeCell ref="CD26:CE26"/>
+    <mergeCell ref="CB26:CC26"/>
+    <mergeCell ref="CB25:CG25"/>
+    <mergeCell ref="CE23:CH23"/>
+    <mergeCell ref="CB21:CG21"/>
+    <mergeCell ref="BQ36:BV36"/>
+    <mergeCell ref="CB31:CG31"/>
+    <mergeCell ref="CB32:CC32"/>
+    <mergeCell ref="CD32:CE32"/>
+    <mergeCell ref="CF32:CG32"/>
+    <mergeCell ref="CB34:CG34"/>
+    <mergeCell ref="CB35:CC35"/>
+    <mergeCell ref="CD35:CE35"/>
+    <mergeCell ref="CF35:CG35"/>
+    <mergeCell ref="BQ32:BV33"/>
+    <mergeCell ref="BQ25:BV25"/>
+    <mergeCell ref="BQ27:BV27"/>
+    <mergeCell ref="CM32:CR32"/>
+    <mergeCell ref="CM33:CR33"/>
+    <mergeCell ref="CM35:CR35"/>
+    <mergeCell ref="CM27:CR27"/>
+    <mergeCell ref="CM26:CR26"/>
+    <mergeCell ref="BQ35:BV35"/>
     <mergeCell ref="CM36:CR36"/>
     <mergeCell ref="CW18:DB18"/>
     <mergeCell ref="CW20:DB20"/>
@@ -9007,78 +9193,6 @@
     <mergeCell ref="CW36:DB40"/>
     <mergeCell ref="CM29:CR29"/>
     <mergeCell ref="CM30:CR30"/>
-    <mergeCell ref="BQ25:BV25"/>
-    <mergeCell ref="BQ27:BV27"/>
-    <mergeCell ref="CM32:CR32"/>
-    <mergeCell ref="CM33:CR33"/>
-    <mergeCell ref="CM35:CR35"/>
-    <mergeCell ref="CM27:CR27"/>
-    <mergeCell ref="CM26:CR26"/>
-    <mergeCell ref="BQ35:BV35"/>
-    <mergeCell ref="BQ36:BV36"/>
-    <mergeCell ref="CB31:CG31"/>
-    <mergeCell ref="CB32:CC32"/>
-    <mergeCell ref="CD32:CE32"/>
-    <mergeCell ref="CF32:CG32"/>
-    <mergeCell ref="CB34:CG34"/>
-    <mergeCell ref="CB35:CC35"/>
-    <mergeCell ref="CD35:CE35"/>
-    <mergeCell ref="CF35:CG35"/>
-    <mergeCell ref="BQ32:BV33"/>
-    <mergeCell ref="CB39:CG40"/>
-    <mergeCell ref="CB17:CG17"/>
-    <mergeCell ref="CB18:CC18"/>
-    <mergeCell ref="CD18:CE18"/>
-    <mergeCell ref="CF18:CG18"/>
-    <mergeCell ref="CB20:CG20"/>
-    <mergeCell ref="CF26:CG26"/>
-    <mergeCell ref="CD26:CE26"/>
-    <mergeCell ref="CB26:CC26"/>
-    <mergeCell ref="CB25:CG25"/>
-    <mergeCell ref="CE23:CH23"/>
-    <mergeCell ref="CB21:CG21"/>
-    <mergeCell ref="BE32:BJ33"/>
-    <mergeCell ref="CF29:CG29"/>
-    <mergeCell ref="CD29:CE29"/>
-    <mergeCell ref="CB29:CC29"/>
-    <mergeCell ref="CB28:CG28"/>
-    <mergeCell ref="BQ28:BV28"/>
-    <mergeCell ref="BE24:BJ24"/>
-    <mergeCell ref="BE25:BJ25"/>
-    <mergeCell ref="BE27:BJ27"/>
-    <mergeCell ref="BE28:BF28"/>
-    <mergeCell ref="BI28:BJ28"/>
-    <mergeCell ref="BG28:BH28"/>
-    <mergeCell ref="BE19:BJ19"/>
-    <mergeCell ref="BE18:BJ18"/>
-    <mergeCell ref="BE21:BJ21"/>
-    <mergeCell ref="BE22:BJ22"/>
-    <mergeCell ref="BQ19:BV19"/>
-    <mergeCell ref="BQ18:BV18"/>
-    <mergeCell ref="BQ21:BV21"/>
-    <mergeCell ref="BQ22:BV22"/>
-    <mergeCell ref="CL11:CS12"/>
-    <mergeCell ref="CL14:CS14"/>
-    <mergeCell ref="CV11:DC12"/>
-    <mergeCell ref="CV14:DC14"/>
-    <mergeCell ref="BQ24:BV24"/>
-    <mergeCell ref="CM18:CR18"/>
-    <mergeCell ref="CM19:CR19"/>
-    <mergeCell ref="CM21:CR21"/>
-    <mergeCell ref="CM24:CR24"/>
-    <mergeCell ref="CM23:CR23"/>
-    <mergeCell ref="BD11:BK12"/>
-    <mergeCell ref="BD14:BK14"/>
-    <mergeCell ref="BP11:BW12"/>
-    <mergeCell ref="BP14:BW14"/>
-    <mergeCell ref="CA11:CH12"/>
-    <mergeCell ref="CA14:CH14"/>
-    <mergeCell ref="P42:AX42"/>
-    <mergeCell ref="AY12:AY40"/>
-    <mergeCell ref="G11:N12"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="P17:R17"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9137,14 +9251,14 @@
         <v>476</v>
       </c>
       <c r="C3" s="28"/>
-      <c r="D3" s="299" t="s">
+      <c r="D3" s="296" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="300"/>
-      <c r="F3" s="300"/>
-      <c r="G3" s="300"/>
-      <c r="H3" s="300"/>
-      <c r="I3" s="301"/>
+      <c r="E3" s="297"/>
+      <c r="F3" s="297"/>
+      <c r="G3" s="297"/>
+      <c r="H3" s="297"/>
+      <c r="I3" s="298"/>
     </row>
     <row r="4" spans="1:16" ht="21" customHeight="1">
       <c r="A4" s="156" t="s">
@@ -9283,15 +9397,15 @@
         <v>375</v>
       </c>
       <c r="F12" s="132"/>
-      <c r="H12" s="294" t="s">
+      <c r="H12" s="299" t="s">
         <v>400</v>
       </c>
-      <c r="I12" s="302"/>
+      <c r="I12" s="300"/>
       <c r="J12" s="140" t="s">
         <v>404</v>
       </c>
       <c r="K12" s="132"/>
-      <c r="M12" s="294" t="s">
+      <c r="M12" s="299" t="s">
         <v>415</v>
       </c>
       <c r="N12" s="295"/>
@@ -9308,15 +9422,15 @@
         <v>368</v>
       </c>
       <c r="F13" s="132"/>
-      <c r="H13" s="294" t="s">
+      <c r="H13" s="299" t="s">
         <v>401</v>
       </c>
-      <c r="I13" s="302"/>
+      <c r="I13" s="300"/>
       <c r="J13" s="140" t="s">
         <v>403</v>
       </c>
       <c r="K13" s="132"/>
-      <c r="M13" s="294" t="s">
+      <c r="M13" s="299" t="s">
         <v>216</v>
       </c>
       <c r="N13" s="295"/>
@@ -9331,15 +9445,15 @@
       </c>
       <c r="E14" s="131"/>
       <c r="F14" s="132"/>
-      <c r="H14" s="294" t="s">
+      <c r="H14" s="299" t="s">
         <v>402</v>
       </c>
-      <c r="I14" s="302"/>
+      <c r="I14" s="300"/>
       <c r="J14" s="140" t="s">
         <v>369</v>
       </c>
       <c r="K14" s="132"/>
-      <c r="M14" s="294" t="s">
+      <c r="M14" s="299" t="s">
         <v>215</v>
       </c>
       <c r="N14" s="295"/>
@@ -9354,11 +9468,11 @@
       </c>
       <c r="E15" s="140"/>
       <c r="F15" s="132"/>
-      <c r="H15" s="297"/>
-      <c r="I15" s="298"/>
+      <c r="H15" s="301"/>
+      <c r="I15" s="302"/>
       <c r="J15" s="140"/>
       <c r="K15" s="132"/>
-      <c r="M15" s="294" t="s">
+      <c r="M15" s="299" t="s">
         <v>211</v>
       </c>
       <c r="N15" s="295"/>
@@ -9373,11 +9487,11 @@
       </c>
       <c r="E16" s="131"/>
       <c r="F16" s="134"/>
-      <c r="H16" s="297"/>
-      <c r="I16" s="298"/>
+      <c r="H16" s="301"/>
+      <c r="I16" s="302"/>
       <c r="J16" s="140"/>
       <c r="K16" s="132"/>
-      <c r="M16" s="294" t="s">
+      <c r="M16" s="299" t="s">
         <v>212</v>
       </c>
       <c r="N16" s="295"/>
@@ -9396,7 +9510,7 @@
       <c r="I17" s="135"/>
       <c r="J17" s="136"/>
       <c r="K17" s="137"/>
-      <c r="M17" s="294" t="s">
+      <c r="M17" s="299" t="s">
         <v>416</v>
       </c>
       <c r="N17" s="295"/>
@@ -9409,7 +9523,7 @@
       <c r="C18" s="133"/>
       <c r="E18" s="131"/>
       <c r="F18" s="134"/>
-      <c r="M18" s="294" t="s">
+      <c r="M18" s="299" t="s">
         <v>213</v>
       </c>
       <c r="N18" s="295"/>
@@ -9432,7 +9546,7 @@
       <c r="K19" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="M19" s="294" t="s">
+      <c r="M19" s="299" t="s">
         <v>290</v>
       </c>
       <c r="N19" s="295"/>
@@ -9453,7 +9567,7 @@
       <c r="I20" s="29"/>
       <c r="J20" s="29"/>
       <c r="K20" s="127"/>
-      <c r="M20" s="296" t="s">
+      <c r="M20" s="294" t="s">
         <v>423</v>
       </c>
       <c r="N20" s="295"/>
@@ -9470,7 +9584,7 @@
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
       <c r="K21" s="127"/>
-      <c r="M21" s="296" t="s">
+      <c r="M21" s="294" t="s">
         <v>424</v>
       </c>
       <c r="N21" s="295"/>
@@ -9490,21 +9604,21 @@
         <v>84</v>
       </c>
       <c r="K22" s="130"/>
-      <c r="M22" s="296"/>
+      <c r="M22" s="294"/>
       <c r="N22" s="295"/>
       <c r="O22" s="131"/>
       <c r="P22" s="132"/>
     </row>
     <row r="23" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="H23" s="294" t="s">
+      <c r="H23" s="299" t="s">
         <v>405</v>
       </c>
-      <c r="I23" s="302"/>
+      <c r="I23" s="300"/>
       <c r="J23" s="140" t="s">
         <v>369</v>
       </c>
       <c r="K23" s="132"/>
-      <c r="M23" s="296"/>
+      <c r="M23" s="294"/>
       <c r="N23" s="295"/>
       <c r="O23" s="131"/>
       <c r="P23" s="132"/>
@@ -9518,11 +9632,11 @@
       <c r="F24" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="H24" s="294"/>
-      <c r="I24" s="302"/>
+      <c r="H24" s="299"/>
+      <c r="I24" s="300"/>
       <c r="J24" s="140"/>
       <c r="K24" s="132"/>
-      <c r="M24" s="296"/>
+      <c r="M24" s="294"/>
       <c r="N24" s="295"/>
       <c r="O24" s="131"/>
       <c r="P24" s="132"/>
@@ -9536,11 +9650,11 @@
       <c r="F25" s="143" t="s">
         <v>373</v>
       </c>
-      <c r="H25" s="294"/>
-      <c r="I25" s="302"/>
+      <c r="H25" s="299"/>
+      <c r="I25" s="300"/>
       <c r="J25" s="140"/>
       <c r="K25" s="132"/>
-      <c r="M25" s="296"/>
+      <c r="M25" s="294"/>
       <c r="N25" s="295"/>
       <c r="O25" s="131"/>
       <c r="P25" s="132"/>
@@ -9550,11 +9664,11 @@
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
       <c r="F26" s="127"/>
-      <c r="H26" s="297"/>
-      <c r="I26" s="298"/>
+      <c r="H26" s="301"/>
+      <c r="I26" s="302"/>
       <c r="J26" s="140"/>
       <c r="K26" s="132"/>
-      <c r="M26" s="296"/>
+      <c r="M26" s="294"/>
       <c r="N26" s="295"/>
       <c r="O26" s="131"/>
       <c r="P26" s="132"/>
@@ -9568,11 +9682,11 @@
         <v>84</v>
       </c>
       <c r="F27" s="130"/>
-      <c r="H27" s="297"/>
-      <c r="I27" s="298"/>
+      <c r="H27" s="301"/>
+      <c r="I27" s="302"/>
       <c r="J27" s="140"/>
       <c r="K27" s="132"/>
-      <c r="M27" s="296"/>
+      <c r="M27" s="294"/>
       <c r="N27" s="295"/>
       <c r="O27" s="131"/>
       <c r="P27" s="132"/>
@@ -9589,7 +9703,7 @@
       <c r="I28" s="135"/>
       <c r="J28" s="136"/>
       <c r="K28" s="137"/>
-      <c r="M28" s="296"/>
+      <c r="M28" s="294"/>
       <c r="N28" s="295"/>
       <c r="O28" s="131"/>
       <c r="P28" s="132"/>
@@ -9602,7 +9716,7 @@
         <v>388</v>
       </c>
       <c r="F29" s="132"/>
-      <c r="M29" s="296"/>
+      <c r="M29" s="294"/>
       <c r="N29" s="295"/>
       <c r="O29" s="131"/>
       <c r="P29" s="132"/>
@@ -9613,7 +9727,7 @@
       </c>
       <c r="E30" s="140"/>
       <c r="F30" s="132"/>
-      <c r="M30" s="296"/>
+      <c r="M30" s="294"/>
       <c r="N30" s="295"/>
       <c r="O30" s="131"/>
       <c r="P30" s="132"/>
@@ -9694,7 +9808,7 @@
       <c r="C37" s="133"/>
       <c r="E37" s="131"/>
       <c r="F37" s="134"/>
-      <c r="M37" s="294" t="s">
+      <c r="M37" s="299" t="s">
         <v>428</v>
       </c>
       <c r="N37" s="295"/>
@@ -9707,7 +9821,7 @@
       <c r="C38" s="133"/>
       <c r="E38" s="131"/>
       <c r="F38" s="134"/>
-      <c r="M38" s="296" t="s">
+      <c r="M38" s="294" t="s">
         <v>429</v>
       </c>
       <c r="N38" s="295"/>
@@ -9721,7 +9835,7 @@
       <c r="D39" s="135"/>
       <c r="E39" s="136"/>
       <c r="F39" s="139"/>
-      <c r="M39" s="296"/>
+      <c r="M39" s="294"/>
       <c r="N39" s="295"/>
       <c r="O39" s="131" t="s">
         <v>432</v>
@@ -9729,7 +9843,7 @@
       <c r="P39" s="132"/>
     </row>
     <row r="40" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="M40" s="296"/>
+      <c r="M40" s="294"/>
       <c r="N40" s="295"/>
       <c r="O40" s="131" t="s">
         <v>433</v>
@@ -9745,7 +9859,7 @@
       <c r="F41" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="M41" s="296"/>
+      <c r="M41" s="294"/>
       <c r="N41" s="295"/>
       <c r="O41" s="131" t="s">
         <v>435</v>
@@ -9761,7 +9875,7 @@
       <c r="F42" s="143" t="s">
         <v>373</v>
       </c>
-      <c r="M42" s="296"/>
+      <c r="M42" s="294"/>
       <c r="N42" s="295"/>
       <c r="O42" s="131" t="s">
         <v>434</v>
@@ -9856,7 +9970,7 @@
         <v>397</v>
       </c>
       <c r="F49" s="134"/>
-      <c r="M49" s="294" t="s">
+      <c r="M49" s="299" t="s">
         <v>436</v>
       </c>
       <c r="N49" s="295"/>
@@ -9873,7 +9987,7 @@
         <v>334</v>
       </c>
       <c r="F50" s="134"/>
-      <c r="M50" s="296" t="s">
+      <c r="M50" s="294" t="s">
         <v>437</v>
       </c>
       <c r="N50" s="295"/>
@@ -9890,7 +10004,7 @@
         <v>369</v>
       </c>
       <c r="F51" s="134"/>
-      <c r="M51" s="296" t="s">
+      <c r="M51" s="294" t="s">
         <v>438</v>
       </c>
       <c r="N51" s="295"/>
@@ -9903,7 +10017,7 @@
         <v>456</v>
       </c>
       <c r="F52" s="134"/>
-      <c r="M52" s="296" t="s">
+      <c r="M52" s="294" t="s">
         <v>441</v>
       </c>
       <c r="N52" s="295"/>
@@ -9917,7 +10031,7 @@
         <v>457</v>
       </c>
       <c r="F53" s="137"/>
-      <c r="M53" s="296"/>
+      <c r="M53" s="294"/>
       <c r="N53" s="295"/>
       <c r="O53" s="131"/>
       <c r="P53" s="132"/>
@@ -9970,7 +10084,7 @@
       </c>
     </row>
     <row r="60" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M60" s="294" t="s">
+      <c r="M60" s="299" t="s">
         <v>442</v>
       </c>
       <c r="N60" s="295"/>
@@ -9982,7 +10096,7 @@
       </c>
     </row>
     <row r="61" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M61" s="296" t="s">
+      <c r="M61" s="294" t="s">
         <v>443</v>
       </c>
       <c r="N61" s="295"/>
@@ -9994,7 +10108,7 @@
       </c>
     </row>
     <row r="62" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M62" s="294" t="s">
+      <c r="M62" s="299" t="s">
         <v>448</v>
       </c>
       <c r="N62" s="295"/>
@@ -10006,13 +10120,13 @@
       </c>
     </row>
     <row r="63" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M63" s="296"/>
+      <c r="M63" s="294"/>
       <c r="N63" s="295"/>
       <c r="O63" s="131"/>
       <c r="P63" s="132"/>
     </row>
     <row r="64" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M64" s="296"/>
+      <c r="M64" s="294"/>
       <c r="N64" s="295"/>
       <c r="O64" s="131"/>
       <c r="P64" s="132"/>
@@ -10061,7 +10175,7 @@
       <c r="P70" s="130"/>
     </row>
     <row r="71" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M71" s="294" t="s">
+      <c r="M71" s="299" t="s">
         <v>449</v>
       </c>
       <c r="N71" s="295"/>
@@ -10071,7 +10185,7 @@
       <c r="P71" s="132"/>
     </row>
     <row r="72" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M72" s="294" t="s">
+      <c r="M72" s="299" t="s">
         <v>450</v>
       </c>
       <c r="N72" s="295"/>
@@ -10081,19 +10195,19 @@
       <c r="P72" s="132"/>
     </row>
     <row r="73" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M73" s="296"/>
+      <c r="M73" s="294"/>
       <c r="N73" s="295"/>
       <c r="O73" s="131"/>
       <c r="P73" s="132"/>
     </row>
     <row r="74" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M74" s="296"/>
+      <c r="M74" s="294"/>
       <c r="N74" s="295"/>
       <c r="O74" s="131"/>
       <c r="P74" s="132"/>
     </row>
     <row r="75" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M75" s="296"/>
+      <c r="M75" s="294"/>
       <c r="N75" s="295"/>
       <c r="O75" s="131"/>
       <c r="P75" s="132"/>
@@ -10142,7 +10256,7 @@
       <c r="P81" s="130"/>
     </row>
     <row r="82" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M82" s="294" t="s">
+      <c r="M82" s="299" t="s">
         <v>449</v>
       </c>
       <c r="N82" s="295"/>
@@ -10152,7 +10266,7 @@
       <c r="P82" s="132"/>
     </row>
     <row r="83" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M83" s="294" t="s">
+      <c r="M83" s="299" t="s">
         <v>452</v>
       </c>
       <c r="N83" s="295"/>
@@ -10162,19 +10276,19 @@
       <c r="P83" s="132"/>
     </row>
     <row r="84" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M84" s="296"/>
+      <c r="M84" s="294"/>
       <c r="N84" s="295"/>
       <c r="O84" s="131"/>
       <c r="P84" s="132"/>
     </row>
     <row r="85" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M85" s="296"/>
+      <c r="M85" s="294"/>
       <c r="N85" s="295"/>
       <c r="O85" s="131"/>
       <c r="P85" s="132"/>
     </row>
     <row r="86" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M86" s="296"/>
+      <c r="M86" s="294"/>
       <c r="N86" s="295"/>
       <c r="O86" s="131"/>
       <c r="P86" s="132"/>
@@ -10221,7 +10335,7 @@
       <c r="P92" s="130"/>
     </row>
     <row r="93" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M93" s="294" t="s">
+      <c r="M93" s="299" t="s">
         <v>216</v>
       </c>
       <c r="N93" s="295"/>
@@ -10231,7 +10345,7 @@
       <c r="P93" s="132"/>
     </row>
     <row r="94" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M94" s="296"/>
+      <c r="M94" s="294"/>
       <c r="N94" s="295"/>
       <c r="O94" s="140" t="s">
         <v>454</v>
@@ -10239,7 +10353,7 @@
       <c r="P94" s="132"/>
     </row>
     <row r="95" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M95" s="296"/>
+      <c r="M95" s="294"/>
       <c r="N95" s="295"/>
       <c r="O95" s="140" t="s">
         <v>455</v>
@@ -10247,13 +10361,13 @@
       <c r="P95" s="132"/>
     </row>
     <row r="96" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M96" s="296"/>
+      <c r="M96" s="294"/>
       <c r="N96" s="295"/>
       <c r="O96" s="131"/>
       <c r="P96" s="132"/>
     </row>
     <row r="97" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M97" s="296"/>
+      <c r="M97" s="294"/>
       <c r="N97" s="295"/>
       <c r="O97" s="131"/>
       <c r="P97" s="132"/>
@@ -10300,7 +10414,7 @@
       <c r="P103" s="130"/>
     </row>
     <row r="104" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M104" s="294" t="s">
+      <c r="M104" s="299" t="s">
         <v>465</v>
       </c>
       <c r="N104" s="295"/>
@@ -10310,7 +10424,7 @@
       <c r="P104" s="132"/>
     </row>
     <row r="105" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M105" s="294" t="s">
+      <c r="M105" s="299" t="s">
         <v>466</v>
       </c>
       <c r="N105" s="295"/>
@@ -10320,7 +10434,7 @@
       <c r="P105" s="132"/>
     </row>
     <row r="106" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M106" s="294" t="s">
+      <c r="M106" s="299" t="s">
         <v>467</v>
       </c>
       <c r="N106" s="295"/>
@@ -10330,7 +10444,7 @@
       <c r="P106" s="132"/>
     </row>
     <row r="107" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M107" s="296"/>
+      <c r="M107" s="294"/>
       <c r="N107" s="295"/>
       <c r="O107" s="140" t="s">
         <v>464</v>
@@ -10338,7 +10452,7 @@
       <c r="P107" s="132"/>
     </row>
     <row r="108" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M108" s="296"/>
+      <c r="M108" s="294"/>
       <c r="N108" s="295"/>
       <c r="O108" s="131"/>
       <c r="P108" s="132"/>
@@ -10387,7 +10501,7 @@
       <c r="P114" s="130"/>
     </row>
     <row r="115" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M115" s="294" t="s">
+      <c r="M115" s="299" t="s">
         <v>482</v>
       </c>
       <c r="N115" s="295"/>
@@ -10397,31 +10511,31 @@
       <c r="P115" s="132"/>
     </row>
     <row r="116" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M116" s="296"/>
+      <c r="M116" s="294"/>
       <c r="N116" s="295"/>
       <c r="O116" s="131"/>
       <c r="P116" s="132"/>
     </row>
     <row r="117" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M117" s="296"/>
+      <c r="M117" s="294"/>
       <c r="N117" s="295"/>
       <c r="O117" s="131"/>
       <c r="P117" s="132"/>
     </row>
     <row r="118" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M118" s="296"/>
+      <c r="M118" s="294"/>
       <c r="N118" s="295"/>
       <c r="O118" s="131"/>
       <c r="P118" s="132"/>
     </row>
     <row r="119" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M119" s="296"/>
+      <c r="M119" s="294"/>
       <c r="N119" s="295"/>
       <c r="O119" s="131"/>
       <c r="P119" s="132"/>
     </row>
     <row r="120" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M120" s="296"/>
+      <c r="M120" s="294"/>
       <c r="N120" s="295"/>
       <c r="O120" s="131"/>
       <c r="P120" s="132"/>
@@ -10434,6 +10548,62 @@
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="M107:N107"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="M95:N95"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="M104:N104"/>
+    <mergeCell ref="M83:N83"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="M82:N82"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
     <mergeCell ref="M119:N119"/>
     <mergeCell ref="M120:N120"/>
     <mergeCell ref="D3:I3"/>
@@ -10450,62 +10620,6 @@
     <mergeCell ref="H24:I24"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="H26:I26"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="M75:N75"/>
-    <mergeCell ref="M82:N82"/>
-    <mergeCell ref="M83:N83"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="M86:N86"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="M105:N105"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="M107:N107"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="M95:N95"/>
-    <mergeCell ref="M96:N96"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="M104:N104"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
@@ -15602,10 +15716,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:U198"/>
+  <dimension ref="B2:U215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
@@ -16582,12 +16696,12 @@
     </row>
     <row r="41" spans="2:21" ht="20.25" customHeight="1">
       <c r="B41" s="242"/>
-      <c r="C41" s="218"/>
+      <c r="C41" s="229"/>
       <c r="D41" s="218"/>
       <c r="E41" s="231"/>
       <c r="F41" s="232"/>
       <c r="G41" s="217"/>
-      <c r="H41" s="231"/>
+      <c r="H41" s="244"/>
       <c r="I41" s="216"/>
       <c r="J41" s="217"/>
       <c r="K41" s="231"/>
@@ -16602,12 +16716,15 @@
       <c r="U41" s="309"/>
     </row>
     <row r="42" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B42" s="242"/>
+      <c r="B42" s="242" t="s">
+        <v>655</v>
+      </c>
+      <c r="C42" s="229"/>
       <c r="D42" s="218"/>
       <c r="E42" s="231"/>
       <c r="F42" s="232"/>
       <c r="G42" s="217"/>
-      <c r="H42" s="231"/>
+      <c r="H42" s="244"/>
       <c r="I42" s="216"/>
       <c r="J42" s="217"/>
       <c r="K42" s="231"/>
@@ -16622,15 +16739,17 @@
       <c r="U42" s="309"/>
     </row>
     <row r="43" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B43" s="242" t="s">
-        <v>479</v>
-      </c>
-      <c r="C43" s="218"/>
-      <c r="D43" s="218"/>
+      <c r="B43" s="242"/>
+      <c r="C43" s="229" t="s">
+        <v>656</v>
+      </c>
+      <c r="D43" s="218" t="s">
+        <v>643</v>
+      </c>
       <c r="E43" s="231"/>
       <c r="F43" s="232"/>
       <c r="G43" s="217"/>
-      <c r="H43" s="231"/>
+      <c r="H43" s="244"/>
       <c r="I43" s="216"/>
       <c r="J43" s="217"/>
       <c r="K43" s="231"/>
@@ -16647,13 +16766,15 @@
     <row r="44" spans="2:21" ht="20.25" customHeight="1">
       <c r="B44" s="242"/>
       <c r="C44" s="229" t="s">
-        <v>636</v>
-      </c>
-      <c r="D44" s="218"/>
+        <v>657</v>
+      </c>
+      <c r="D44" s="218" t="s">
+        <v>643</v>
+      </c>
       <c r="E44" s="231"/>
       <c r="F44" s="232"/>
       <c r="G44" s="217"/>
-      <c r="H44" s="231"/>
+      <c r="H44" s="244"/>
       <c r="I44" s="216"/>
       <c r="J44" s="217"/>
       <c r="K44" s="231"/>
@@ -16669,11 +16790,16 @@
     </row>
     <row r="45" spans="2:21" ht="20.25" customHeight="1">
       <c r="B45" s="242"/>
-      <c r="D45" s="218"/>
+      <c r="C45" s="229" t="s">
+        <v>658</v>
+      </c>
+      <c r="D45" s="218" t="s">
+        <v>643</v>
+      </c>
       <c r="E45" s="231"/>
       <c r="F45" s="232"/>
       <c r="G45" s="217"/>
-      <c r="H45" s="231"/>
+      <c r="H45" s="244"/>
       <c r="I45" s="216"/>
       <c r="J45" s="217"/>
       <c r="K45" s="231"/>
@@ -16688,15 +16814,17 @@
       <c r="U45" s="309"/>
     </row>
     <row r="46" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B46" s="242" t="s">
-        <v>427</v>
-      </c>
-      <c r="C46" s="218"/>
-      <c r="D46" s="218"/>
+      <c r="B46" s="242"/>
+      <c r="C46" s="229" t="s">
+        <v>659</v>
+      </c>
+      <c r="D46" s="218" t="s">
+        <v>643</v>
+      </c>
       <c r="E46" s="231"/>
       <c r="F46" s="232"/>
       <c r="G46" s="217"/>
-      <c r="H46" s="231"/>
+      <c r="H46" s="244"/>
       <c r="I46" s="216"/>
       <c r="J46" s="217"/>
       <c r="K46" s="231"/>
@@ -16711,15 +16839,13 @@
       <c r="U46" s="309"/>
     </row>
     <row r="47" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B47" s="218"/>
-      <c r="C47" s="229" t="s">
-        <v>636</v>
-      </c>
+      <c r="B47" s="242"/>
+      <c r="C47" s="229"/>
       <c r="D47" s="218"/>
       <c r="E47" s="231"/>
       <c r="F47" s="232"/>
       <c r="G47" s="217"/>
-      <c r="H47" s="231"/>
+      <c r="H47" s="244"/>
       <c r="I47" s="216"/>
       <c r="J47" s="217"/>
       <c r="K47" s="231"/>
@@ -16734,13 +16860,15 @@
       <c r="U47" s="309"/>
     </row>
     <row r="48" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B48" s="218"/>
-      <c r="C48" s="218"/>
+      <c r="B48" s="242" t="s">
+        <v>662</v>
+      </c>
+      <c r="C48" s="229"/>
       <c r="D48" s="218"/>
       <c r="E48" s="231"/>
       <c r="F48" s="232"/>
       <c r="G48" s="217"/>
-      <c r="H48" s="231"/>
+      <c r="H48" s="244"/>
       <c r="I48" s="216"/>
       <c r="J48" s="217"/>
       <c r="K48" s="231"/>
@@ -16755,9 +16883,15 @@
       <c r="U48" s="309"/>
     </row>
     <row r="49" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B49" s="218"/>
-      <c r="C49" s="218"/>
-      <c r="D49" s="218"/>
+      <c r="B49" s="242" t="s">
+        <v>663</v>
+      </c>
+      <c r="C49" s="218" t="s">
+        <v>660</v>
+      </c>
+      <c r="D49" s="218" t="s">
+        <v>653</v>
+      </c>
       <c r="E49" s="231"/>
       <c r="F49" s="232"/>
       <c r="G49" s="217"/>
@@ -16776,9 +16910,13 @@
       <c r="U49" s="309"/>
     </row>
     <row r="50" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B50" s="218"/>
-      <c r="C50" s="218"/>
-      <c r="D50" s="218"/>
+      <c r="B50" s="242"/>
+      <c r="C50" s="70" t="s">
+        <v>661</v>
+      </c>
+      <c r="D50" s="218" t="s">
+        <v>653</v>
+      </c>
       <c r="E50" s="231"/>
       <c r="F50" s="232"/>
       <c r="G50" s="217"/>
@@ -16797,7 +16935,9 @@
       <c r="U50" s="309"/>
     </row>
     <row r="51" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B51" s="218"/>
+      <c r="B51" s="242" t="s">
+        <v>664</v>
+      </c>
       <c r="C51" s="218"/>
       <c r="D51" s="218"/>
       <c r="E51" s="231"/>
@@ -16818,9 +16958,13 @@
       <c r="U51" s="309"/>
     </row>
     <row r="52" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B52" s="218"/>
-      <c r="C52" s="218"/>
-      <c r="D52" s="218"/>
+      <c r="B52" s="242"/>
+      <c r="C52" s="229" t="s">
+        <v>665</v>
+      </c>
+      <c r="D52" s="218" t="s">
+        <v>653</v>
+      </c>
       <c r="E52" s="231"/>
       <c r="F52" s="232"/>
       <c r="G52" s="217"/>
@@ -16839,9 +16983,13 @@
       <c r="U52" s="309"/>
     </row>
     <row r="53" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B53" s="218"/>
-      <c r="C53" s="218"/>
-      <c r="D53" s="218"/>
+      <c r="B53" s="242"/>
+      <c r="C53" s="229" t="s">
+        <v>666</v>
+      </c>
+      <c r="D53" s="218" t="s">
+        <v>653</v>
+      </c>
       <c r="E53" s="231"/>
       <c r="F53" s="232"/>
       <c r="G53" s="217"/>
@@ -16860,9 +17008,13 @@
       <c r="U53" s="309"/>
     </row>
     <row r="54" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B54" s="218"/>
-      <c r="C54" s="218"/>
-      <c r="D54" s="218"/>
+      <c r="B54" s="242"/>
+      <c r="C54" s="229" t="s">
+        <v>667</v>
+      </c>
+      <c r="D54" s="218" t="s">
+        <v>653</v>
+      </c>
       <c r="E54" s="231"/>
       <c r="F54" s="232"/>
       <c r="G54" s="217"/>
@@ -16881,8 +17033,8 @@
       <c r="U54" s="309"/>
     </row>
     <row r="55" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B55" s="218"/>
-      <c r="C55" s="218"/>
+      <c r="B55" s="242"/>
+      <c r="C55" s="229"/>
       <c r="D55" s="218"/>
       <c r="E55" s="231"/>
       <c r="F55" s="232"/>
@@ -16902,8 +17054,10 @@
       <c r="U55" s="309"/>
     </row>
     <row r="56" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B56" s="218"/>
-      <c r="C56" s="218"/>
+      <c r="B56" s="242" t="s">
+        <v>668</v>
+      </c>
+      <c r="C56" s="229"/>
       <c r="D56" s="218"/>
       <c r="E56" s="231"/>
       <c r="F56" s="232"/>
@@ -16923,9 +17077,13 @@
       <c r="U56" s="309"/>
     </row>
     <row r="57" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B57" s="218"/>
-      <c r="C57" s="218"/>
-      <c r="D57" s="218"/>
+      <c r="B57" s="242"/>
+      <c r="C57" s="229" t="s">
+        <v>669</v>
+      </c>
+      <c r="D57" s="229" t="s">
+        <v>648</v>
+      </c>
       <c r="E57" s="231"/>
       <c r="F57" s="232"/>
       <c r="G57" s="217"/>
@@ -16944,9 +17102,13 @@
       <c r="U57" s="309"/>
     </row>
     <row r="58" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B58" s="218"/>
-      <c r="C58" s="218"/>
-      <c r="D58" s="218"/>
+      <c r="B58" s="242"/>
+      <c r="C58" s="229" t="s">
+        <v>670</v>
+      </c>
+      <c r="D58" s="229" t="s">
+        <v>648</v>
+      </c>
       <c r="E58" s="231"/>
       <c r="F58" s="232"/>
       <c r="G58" s="217"/>
@@ -16965,9 +17127,13 @@
       <c r="U58" s="309"/>
     </row>
     <row r="59" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B59" s="218"/>
-      <c r="C59" s="218"/>
-      <c r="D59" s="218"/>
+      <c r="B59" s="242"/>
+      <c r="C59" s="229" t="s">
+        <v>671</v>
+      </c>
+      <c r="D59" s="229" t="s">
+        <v>648</v>
+      </c>
       <c r="E59" s="231"/>
       <c r="F59" s="232"/>
       <c r="G59" s="217"/>
@@ -16986,9 +17152,13 @@
       <c r="U59" s="309"/>
     </row>
     <row r="60" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B60" s="218"/>
-      <c r="C60" s="218"/>
-      <c r="D60" s="218"/>
+      <c r="B60" s="242"/>
+      <c r="C60" s="229" t="s">
+        <v>672</v>
+      </c>
+      <c r="D60" s="229" t="s">
+        <v>648</v>
+      </c>
       <c r="E60" s="231"/>
       <c r="F60" s="232"/>
       <c r="G60" s="217"/>
@@ -17007,8 +17177,8 @@
       <c r="U60" s="309"/>
     </row>
     <row r="61" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B61" s="218"/>
-      <c r="C61" s="218"/>
+      <c r="B61" s="242"/>
+      <c r="C61" s="229"/>
       <c r="D61" s="218"/>
       <c r="E61" s="231"/>
       <c r="F61" s="232"/>
@@ -17028,8 +17198,7 @@
       <c r="U61" s="309"/>
     </row>
     <row r="62" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B62" s="218"/>
-      <c r="C62" s="218"/>
+      <c r="B62" s="242"/>
       <c r="D62" s="218"/>
       <c r="E62" s="231"/>
       <c r="F62" s="232"/>
@@ -17049,7 +17218,9 @@
       <c r="U62" s="309"/>
     </row>
     <row r="63" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B63" s="218"/>
+      <c r="B63" s="242" t="s">
+        <v>427</v>
+      </c>
       <c r="C63" s="218"/>
       <c r="D63" s="218"/>
       <c r="E63" s="231"/>
@@ -17071,7 +17242,9 @@
     </row>
     <row r="64" spans="2:21" ht="20.25" customHeight="1">
       <c r="B64" s="218"/>
-      <c r="C64" s="218"/>
+      <c r="C64" s="229" t="s">
+        <v>636</v>
+      </c>
       <c r="D64" s="218"/>
       <c r="E64" s="231"/>
       <c r="F64" s="232"/>
@@ -19656,18 +19829,18 @@
       <c r="B187" s="218"/>
       <c r="C187" s="218"/>
       <c r="D187" s="218"/>
-      <c r="E187" s="219"/>
-      <c r="F187" s="220"/>
-      <c r="G187" s="221"/>
-      <c r="H187" s="219"/>
-      <c r="I187" s="218"/>
-      <c r="J187" s="221"/>
-      <c r="K187" s="219"/>
-      <c r="L187" s="218"/>
-      <c r="M187" s="221"/>
-      <c r="N187" s="219"/>
-      <c r="O187" s="218"/>
-      <c r="P187" s="221"/>
+      <c r="E187" s="231"/>
+      <c r="F187" s="232"/>
+      <c r="G187" s="217"/>
+      <c r="H187" s="231"/>
+      <c r="I187" s="216"/>
+      <c r="J187" s="217"/>
+      <c r="K187" s="231"/>
+      <c r="L187" s="216"/>
+      <c r="M187" s="217"/>
+      <c r="N187" s="231"/>
+      <c r="O187" s="216"/>
+      <c r="P187" s="217"/>
       <c r="R187" s="307"/>
       <c r="S187" s="308"/>
       <c r="T187" s="308"/>
@@ -19677,18 +19850,18 @@
       <c r="B188" s="218"/>
       <c r="C188" s="218"/>
       <c r="D188" s="218"/>
-      <c r="E188" s="222"/>
-      <c r="F188" s="218"/>
-      <c r="G188" s="221"/>
-      <c r="H188" s="222"/>
-      <c r="I188" s="218"/>
-      <c r="J188" s="221"/>
-      <c r="K188" s="222"/>
-      <c r="L188" s="218"/>
-      <c r="M188" s="221"/>
-      <c r="N188" s="222"/>
-      <c r="O188" s="218"/>
-      <c r="P188" s="221"/>
+      <c r="E188" s="231"/>
+      <c r="F188" s="232"/>
+      <c r="G188" s="217"/>
+      <c r="H188" s="231"/>
+      <c r="I188" s="216"/>
+      <c r="J188" s="217"/>
+      <c r="K188" s="231"/>
+      <c r="L188" s="216"/>
+      <c r="M188" s="217"/>
+      <c r="N188" s="231"/>
+      <c r="O188" s="216"/>
+      <c r="P188" s="217"/>
       <c r="R188" s="307"/>
       <c r="S188" s="308"/>
       <c r="T188" s="308"/>
@@ -19698,18 +19871,18 @@
       <c r="B189" s="218"/>
       <c r="C189" s="218"/>
       <c r="D189" s="218"/>
-      <c r="E189" s="222"/>
-      <c r="F189" s="218"/>
-      <c r="G189" s="221"/>
-      <c r="H189" s="222"/>
-      <c r="I189" s="218"/>
-      <c r="J189" s="221"/>
-      <c r="K189" s="222"/>
-      <c r="L189" s="218"/>
-      <c r="M189" s="221"/>
-      <c r="N189" s="222"/>
-      <c r="O189" s="218"/>
-      <c r="P189" s="221"/>
+      <c r="E189" s="231"/>
+      <c r="F189" s="232"/>
+      <c r="G189" s="217"/>
+      <c r="H189" s="231"/>
+      <c r="I189" s="216"/>
+      <c r="J189" s="217"/>
+      <c r="K189" s="231"/>
+      <c r="L189" s="216"/>
+      <c r="M189" s="217"/>
+      <c r="N189" s="231"/>
+      <c r="O189" s="216"/>
+      <c r="P189" s="217"/>
       <c r="R189" s="307"/>
       <c r="S189" s="308"/>
       <c r="T189" s="308"/>
@@ -19719,18 +19892,18 @@
       <c r="B190" s="218"/>
       <c r="C190" s="218"/>
       <c r="D190" s="218"/>
-      <c r="E190" s="219"/>
-      <c r="F190" s="223"/>
-      <c r="G190" s="224"/>
-      <c r="H190" s="219"/>
-      <c r="I190" s="223"/>
-      <c r="J190" s="224"/>
-      <c r="K190" s="219"/>
-      <c r="L190" s="223"/>
-      <c r="M190" s="224"/>
-      <c r="N190" s="219"/>
-      <c r="O190" s="223"/>
-      <c r="P190" s="224"/>
+      <c r="E190" s="231"/>
+      <c r="F190" s="232"/>
+      <c r="G190" s="217"/>
+      <c r="H190" s="231"/>
+      <c r="I190" s="216"/>
+      <c r="J190" s="217"/>
+      <c r="K190" s="231"/>
+      <c r="L190" s="216"/>
+      <c r="M190" s="217"/>
+      <c r="N190" s="231"/>
+      <c r="O190" s="216"/>
+      <c r="P190" s="217"/>
       <c r="R190" s="307"/>
       <c r="S190" s="308"/>
       <c r="T190" s="308"/>
@@ -19740,39 +19913,39 @@
       <c r="B191" s="218"/>
       <c r="C191" s="218"/>
       <c r="D191" s="218"/>
-      <c r="E191" s="222"/>
-      <c r="F191" s="223"/>
-      <c r="G191" s="224"/>
-      <c r="H191" s="222"/>
-      <c r="I191" s="223"/>
-      <c r="J191" s="224"/>
-      <c r="K191" s="222"/>
-      <c r="L191" s="223"/>
-      <c r="M191" s="224"/>
-      <c r="N191" s="222"/>
-      <c r="O191" s="223"/>
-      <c r="P191" s="224"/>
+      <c r="E191" s="231"/>
+      <c r="F191" s="232"/>
+      <c r="G191" s="217"/>
+      <c r="H191" s="231"/>
+      <c r="I191" s="216"/>
+      <c r="J191" s="217"/>
+      <c r="K191" s="231"/>
+      <c r="L191" s="216"/>
+      <c r="M191" s="217"/>
+      <c r="N191" s="231"/>
+      <c r="O191" s="216"/>
+      <c r="P191" s="217"/>
       <c r="R191" s="307"/>
       <c r="S191" s="308"/>
       <c r="T191" s="308"/>
       <c r="U191" s="309"/>
     </row>
     <row r="192" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B192" s="229"/>
+      <c r="B192" s="218"/>
       <c r="C192" s="218"/>
       <c r="D192" s="218"/>
-      <c r="E192" s="222"/>
-      <c r="F192" s="223"/>
-      <c r="G192" s="224"/>
-      <c r="H192" s="222"/>
-      <c r="I192" s="223"/>
-      <c r="J192" s="224"/>
-      <c r="K192" s="222"/>
-      <c r="L192" s="223"/>
-      <c r="M192" s="224"/>
-      <c r="N192" s="222"/>
-      <c r="O192" s="223"/>
-      <c r="P192" s="224"/>
+      <c r="E192" s="231"/>
+      <c r="F192" s="232"/>
+      <c r="G192" s="217"/>
+      <c r="H192" s="231"/>
+      <c r="I192" s="216"/>
+      <c r="J192" s="217"/>
+      <c r="K192" s="231"/>
+      <c r="L192" s="216"/>
+      <c r="M192" s="217"/>
+      <c r="N192" s="231"/>
+      <c r="O192" s="216"/>
+      <c r="P192" s="217"/>
       <c r="R192" s="307"/>
       <c r="S192" s="308"/>
       <c r="T192" s="308"/>
@@ -19782,18 +19955,18 @@
       <c r="B193" s="218"/>
       <c r="C193" s="218"/>
       <c r="D193" s="218"/>
-      <c r="E193" s="219"/>
-      <c r="F193" s="223"/>
-      <c r="G193" s="224"/>
-      <c r="H193" s="219"/>
-      <c r="I193" s="223"/>
-      <c r="J193" s="224"/>
-      <c r="K193" s="219"/>
-      <c r="L193" s="223"/>
-      <c r="M193" s="224"/>
-      <c r="N193" s="219"/>
-      <c r="O193" s="223"/>
-      <c r="P193" s="224"/>
+      <c r="E193" s="231"/>
+      <c r="F193" s="232"/>
+      <c r="G193" s="217"/>
+      <c r="H193" s="231"/>
+      <c r="I193" s="216"/>
+      <c r="J193" s="217"/>
+      <c r="K193" s="231"/>
+      <c r="L193" s="216"/>
+      <c r="M193" s="217"/>
+      <c r="N193" s="231"/>
+      <c r="O193" s="216"/>
+      <c r="P193" s="217"/>
       <c r="R193" s="307"/>
       <c r="S193" s="308"/>
       <c r="T193" s="308"/>
@@ -19803,18 +19976,18 @@
       <c r="B194" s="218"/>
       <c r="C194" s="218"/>
       <c r="D194" s="218"/>
-      <c r="E194" s="222"/>
-      <c r="F194" s="223"/>
-      <c r="G194" s="224"/>
-      <c r="H194" s="222"/>
-      <c r="I194" s="223"/>
-      <c r="J194" s="224"/>
-      <c r="K194" s="222"/>
-      <c r="L194" s="223"/>
-      <c r="M194" s="224"/>
-      <c r="N194" s="222"/>
-      <c r="O194" s="223"/>
-      <c r="P194" s="224"/>
+      <c r="E194" s="231"/>
+      <c r="F194" s="232"/>
+      <c r="G194" s="217"/>
+      <c r="H194" s="231"/>
+      <c r="I194" s="216"/>
+      <c r="J194" s="217"/>
+      <c r="K194" s="231"/>
+      <c r="L194" s="216"/>
+      <c r="M194" s="217"/>
+      <c r="N194" s="231"/>
+      <c r="O194" s="216"/>
+      <c r="P194" s="217"/>
       <c r="R194" s="307"/>
       <c r="S194" s="308"/>
       <c r="T194" s="308"/>
@@ -19824,18 +19997,18 @@
       <c r="B195" s="218"/>
       <c r="C195" s="218"/>
       <c r="D195" s="218"/>
-      <c r="E195" s="222"/>
-      <c r="F195" s="223"/>
-      <c r="G195" s="224"/>
-      <c r="H195" s="222"/>
-      <c r="I195" s="223"/>
-      <c r="J195" s="224"/>
-      <c r="K195" s="222"/>
-      <c r="L195" s="223"/>
-      <c r="M195" s="224"/>
-      <c r="N195" s="222"/>
-      <c r="O195" s="223"/>
-      <c r="P195" s="224"/>
+      <c r="E195" s="231"/>
+      <c r="F195" s="232"/>
+      <c r="G195" s="217"/>
+      <c r="H195" s="231"/>
+      <c r="I195" s="216"/>
+      <c r="J195" s="217"/>
+      <c r="K195" s="231"/>
+      <c r="L195" s="216"/>
+      <c r="M195" s="217"/>
+      <c r="N195" s="231"/>
+      <c r="O195" s="216"/>
+      <c r="P195" s="217"/>
       <c r="R195" s="307"/>
       <c r="S195" s="308"/>
       <c r="T195" s="308"/>
@@ -19845,95 +20018,472 @@
       <c r="B196" s="218"/>
       <c r="C196" s="218"/>
       <c r="D196" s="218"/>
-      <c r="E196" s="219"/>
-      <c r="F196" s="223"/>
-      <c r="G196" s="224"/>
-      <c r="H196" s="219"/>
-      <c r="I196" s="223"/>
-      <c r="J196" s="224"/>
-      <c r="K196" s="219"/>
-      <c r="L196" s="223"/>
-      <c r="M196" s="224"/>
-      <c r="N196" s="219"/>
-      <c r="O196" s="223"/>
-      <c r="P196" s="224"/>
+      <c r="E196" s="231"/>
+      <c r="F196" s="232"/>
+      <c r="G196" s="217"/>
+      <c r="H196" s="231"/>
+      <c r="I196" s="216"/>
+      <c r="J196" s="217"/>
+      <c r="K196" s="231"/>
+      <c r="L196" s="216"/>
+      <c r="M196" s="217"/>
+      <c r="N196" s="231"/>
+      <c r="O196" s="216"/>
+      <c r="P196" s="217"/>
       <c r="R196" s="307"/>
       <c r="S196" s="308"/>
       <c r="T196" s="308"/>
       <c r="U196" s="309"/>
     </row>
-    <row r="197" spans="2:21" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B197" s="225"/>
-      <c r="C197" s="226"/>
-      <c r="D197" s="227"/>
-      <c r="E197" s="230"/>
-      <c r="F197" s="226"/>
-      <c r="G197" s="228"/>
-      <c r="H197" s="230"/>
-      <c r="I197" s="226"/>
-      <c r="J197" s="228"/>
-      <c r="K197" s="230"/>
-      <c r="L197" s="226"/>
-      <c r="M197" s="228"/>
-      <c r="N197" s="230"/>
-      <c r="O197" s="226"/>
-      <c r="P197" s="228"/>
-      <c r="R197" s="310"/>
-      <c r="S197" s="311"/>
-      <c r="T197" s="311"/>
-      <c r="U197" s="312"/>
-    </row>
-    <row r="198" spans="2:21" ht="15.75" customHeight="1">
-      <c r="B198" s="186"/>
-      <c r="C198" s="186"/>
-      <c r="D198" s="186"/>
-      <c r="E198" s="186"/>
-      <c r="F198" s="186"/>
-      <c r="G198" s="186"/>
-      <c r="H198" s="186"/>
-      <c r="I198" s="186"/>
-      <c r="J198" s="186"/>
-      <c r="K198" s="186"/>
-      <c r="L198" s="186"/>
-      <c r="M198" s="186"/>
-      <c r="N198" s="186"/>
-      <c r="O198" s="186"/>
-      <c r="P198" s="186"/>
-      <c r="Q198" s="186"/>
+    <row r="197" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B197" s="218"/>
+      <c r="C197" s="218"/>
+      <c r="D197" s="218"/>
+      <c r="E197" s="231"/>
+      <c r="F197" s="232"/>
+      <c r="G197" s="217"/>
+      <c r="H197" s="231"/>
+      <c r="I197" s="216"/>
+      <c r="J197" s="217"/>
+      <c r="K197" s="231"/>
+      <c r="L197" s="216"/>
+      <c r="M197" s="217"/>
+      <c r="N197" s="231"/>
+      <c r="O197" s="216"/>
+      <c r="P197" s="217"/>
+      <c r="R197" s="307"/>
+      <c r="S197" s="308"/>
+      <c r="T197" s="308"/>
+      <c r="U197" s="309"/>
+    </row>
+    <row r="198" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B198" s="218"/>
+      <c r="C198" s="218"/>
+      <c r="D198" s="218"/>
+      <c r="E198" s="231"/>
+      <c r="F198" s="232"/>
+      <c r="G198" s="217"/>
+      <c r="H198" s="231"/>
+      <c r="I198" s="216"/>
+      <c r="J198" s="217"/>
+      <c r="K198" s="231"/>
+      <c r="L198" s="216"/>
+      <c r="M198" s="217"/>
+      <c r="N198" s="231"/>
+      <c r="O198" s="216"/>
+      <c r="P198" s="217"/>
+      <c r="R198" s="307"/>
+      <c r="S198" s="308"/>
+      <c r="T198" s="308"/>
+      <c r="U198" s="309"/>
+    </row>
+    <row r="199" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B199" s="218"/>
+      <c r="C199" s="218"/>
+      <c r="D199" s="218"/>
+      <c r="E199" s="231"/>
+      <c r="F199" s="232"/>
+      <c r="G199" s="217"/>
+      <c r="H199" s="231"/>
+      <c r="I199" s="216"/>
+      <c r="J199" s="217"/>
+      <c r="K199" s="231"/>
+      <c r="L199" s="216"/>
+      <c r="M199" s="217"/>
+      <c r="N199" s="231"/>
+      <c r="O199" s="216"/>
+      <c r="P199" s="217"/>
+      <c r="R199" s="307"/>
+      <c r="S199" s="308"/>
+      <c r="T199" s="308"/>
+      <c r="U199" s="309"/>
+    </row>
+    <row r="200" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B200" s="218"/>
+      <c r="C200" s="218"/>
+      <c r="D200" s="218"/>
+      <c r="E200" s="231"/>
+      <c r="F200" s="232"/>
+      <c r="G200" s="217"/>
+      <c r="H200" s="231"/>
+      <c r="I200" s="216"/>
+      <c r="J200" s="217"/>
+      <c r="K200" s="231"/>
+      <c r="L200" s="216"/>
+      <c r="M200" s="217"/>
+      <c r="N200" s="231"/>
+      <c r="O200" s="216"/>
+      <c r="P200" s="217"/>
+      <c r="R200" s="307"/>
+      <c r="S200" s="308"/>
+      <c r="T200" s="308"/>
+      <c r="U200" s="309"/>
+    </row>
+    <row r="201" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B201" s="218"/>
+      <c r="C201" s="218"/>
+      <c r="D201" s="218"/>
+      <c r="E201" s="231"/>
+      <c r="F201" s="232"/>
+      <c r="G201" s="217"/>
+      <c r="H201" s="231"/>
+      <c r="I201" s="216"/>
+      <c r="J201" s="217"/>
+      <c r="K201" s="231"/>
+      <c r="L201" s="216"/>
+      <c r="M201" s="217"/>
+      <c r="N201" s="231"/>
+      <c r="O201" s="216"/>
+      <c r="P201" s="217"/>
+      <c r="R201" s="307"/>
+      <c r="S201" s="308"/>
+      <c r="T201" s="308"/>
+      <c r="U201" s="309"/>
+    </row>
+    <row r="202" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B202" s="218"/>
+      <c r="C202" s="218"/>
+      <c r="D202" s="218"/>
+      <c r="E202" s="231"/>
+      <c r="F202" s="232"/>
+      <c r="G202" s="217"/>
+      <c r="H202" s="231"/>
+      <c r="I202" s="216"/>
+      <c r="J202" s="217"/>
+      <c r="K202" s="231"/>
+      <c r="L202" s="216"/>
+      <c r="M202" s="217"/>
+      <c r="N202" s="231"/>
+      <c r="O202" s="216"/>
+      <c r="P202" s="217"/>
+      <c r="R202" s="307"/>
+      <c r="S202" s="308"/>
+      <c r="T202" s="308"/>
+      <c r="U202" s="309"/>
+    </row>
+    <row r="203" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B203" s="218"/>
+      <c r="C203" s="218"/>
+      <c r="D203" s="218"/>
+      <c r="E203" s="231"/>
+      <c r="F203" s="232"/>
+      <c r="G203" s="217"/>
+      <c r="H203" s="231"/>
+      <c r="I203" s="216"/>
+      <c r="J203" s="217"/>
+      <c r="K203" s="231"/>
+      <c r="L203" s="216"/>
+      <c r="M203" s="217"/>
+      <c r="N203" s="231"/>
+      <c r="O203" s="216"/>
+      <c r="P203" s="217"/>
+      <c r="R203" s="307"/>
+      <c r="S203" s="308"/>
+      <c r="T203" s="308"/>
+      <c r="U203" s="309"/>
+    </row>
+    <row r="204" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B204" s="218"/>
+      <c r="C204" s="218"/>
+      <c r="D204" s="218"/>
+      <c r="E204" s="219"/>
+      <c r="F204" s="220"/>
+      <c r="G204" s="221"/>
+      <c r="H204" s="219"/>
+      <c r="I204" s="218"/>
+      <c r="J204" s="221"/>
+      <c r="K204" s="219"/>
+      <c r="L204" s="218"/>
+      <c r="M204" s="221"/>
+      <c r="N204" s="219"/>
+      <c r="O204" s="218"/>
+      <c r="P204" s="221"/>
+      <c r="R204" s="307"/>
+      <c r="S204" s="308"/>
+      <c r="T204" s="308"/>
+      <c r="U204" s="309"/>
+    </row>
+    <row r="205" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B205" s="218"/>
+      <c r="C205" s="218"/>
+      <c r="D205" s="218"/>
+      <c r="E205" s="222"/>
+      <c r="F205" s="218"/>
+      <c r="G205" s="221"/>
+      <c r="H205" s="222"/>
+      <c r="I205" s="218"/>
+      <c r="J205" s="221"/>
+      <c r="K205" s="222"/>
+      <c r="L205" s="218"/>
+      <c r="M205" s="221"/>
+      <c r="N205" s="222"/>
+      <c r="O205" s="218"/>
+      <c r="P205" s="221"/>
+      <c r="R205" s="307"/>
+      <c r="S205" s="308"/>
+      <c r="T205" s="308"/>
+      <c r="U205" s="309"/>
+    </row>
+    <row r="206" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B206" s="218"/>
+      <c r="C206" s="218"/>
+      <c r="D206" s="218"/>
+      <c r="E206" s="222"/>
+      <c r="F206" s="218"/>
+      <c r="G206" s="221"/>
+      <c r="H206" s="222"/>
+      <c r="I206" s="218"/>
+      <c r="J206" s="221"/>
+      <c r="K206" s="222"/>
+      <c r="L206" s="218"/>
+      <c r="M206" s="221"/>
+      <c r="N206" s="222"/>
+      <c r="O206" s="218"/>
+      <c r="P206" s="221"/>
+      <c r="R206" s="307"/>
+      <c r="S206" s="308"/>
+      <c r="T206" s="308"/>
+      <c r="U206" s="309"/>
+    </row>
+    <row r="207" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B207" s="218"/>
+      <c r="C207" s="218"/>
+      <c r="D207" s="218"/>
+      <c r="E207" s="219"/>
+      <c r="F207" s="223"/>
+      <c r="G207" s="224"/>
+      <c r="H207" s="219"/>
+      <c r="I207" s="223"/>
+      <c r="J207" s="224"/>
+      <c r="K207" s="219"/>
+      <c r="L207" s="223"/>
+      <c r="M207" s="224"/>
+      <c r="N207" s="219"/>
+      <c r="O207" s="223"/>
+      <c r="P207" s="224"/>
+      <c r="R207" s="307"/>
+      <c r="S207" s="308"/>
+      <c r="T207" s="308"/>
+      <c r="U207" s="309"/>
+    </row>
+    <row r="208" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B208" s="218"/>
+      <c r="C208" s="218"/>
+      <c r="D208" s="218"/>
+      <c r="E208" s="222"/>
+      <c r="F208" s="223"/>
+      <c r="G208" s="224"/>
+      <c r="H208" s="222"/>
+      <c r="I208" s="223"/>
+      <c r="J208" s="224"/>
+      <c r="K208" s="222"/>
+      <c r="L208" s="223"/>
+      <c r="M208" s="224"/>
+      <c r="N208" s="222"/>
+      <c r="O208" s="223"/>
+      <c r="P208" s="224"/>
+      <c r="R208" s="307"/>
+      <c r="S208" s="308"/>
+      <c r="T208" s="308"/>
+      <c r="U208" s="309"/>
+    </row>
+    <row r="209" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B209" s="229"/>
+      <c r="C209" s="218"/>
+      <c r="D209" s="218"/>
+      <c r="E209" s="222"/>
+      <c r="F209" s="223"/>
+      <c r="G209" s="224"/>
+      <c r="H209" s="222"/>
+      <c r="I209" s="223"/>
+      <c r="J209" s="224"/>
+      <c r="K209" s="222"/>
+      <c r="L209" s="223"/>
+      <c r="M209" s="224"/>
+      <c r="N209" s="222"/>
+      <c r="O209" s="223"/>
+      <c r="P209" s="224"/>
+      <c r="R209" s="307"/>
+      <c r="S209" s="308"/>
+      <c r="T209" s="308"/>
+      <c r="U209" s="309"/>
+    </row>
+    <row r="210" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B210" s="218"/>
+      <c r="C210" s="218"/>
+      <c r="D210" s="218"/>
+      <c r="E210" s="219"/>
+      <c r="F210" s="223"/>
+      <c r="G210" s="224"/>
+      <c r="H210" s="219"/>
+      <c r="I210" s="223"/>
+      <c r="J210" s="224"/>
+      <c r="K210" s="219"/>
+      <c r="L210" s="223"/>
+      <c r="M210" s="224"/>
+      <c r="N210" s="219"/>
+      <c r="O210" s="223"/>
+      <c r="P210" s="224"/>
+      <c r="R210" s="307"/>
+      <c r="S210" s="308"/>
+      <c r="T210" s="308"/>
+      <c r="U210" s="309"/>
+    </row>
+    <row r="211" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B211" s="218"/>
+      <c r="C211" s="218"/>
+      <c r="D211" s="218"/>
+      <c r="E211" s="222"/>
+      <c r="F211" s="223"/>
+      <c r="G211" s="224"/>
+      <c r="H211" s="222"/>
+      <c r="I211" s="223"/>
+      <c r="J211" s="224"/>
+      <c r="K211" s="222"/>
+      <c r="L211" s="223"/>
+      <c r="M211" s="224"/>
+      <c r="N211" s="222"/>
+      <c r="O211" s="223"/>
+      <c r="P211" s="224"/>
+      <c r="R211" s="307"/>
+      <c r="S211" s="308"/>
+      <c r="T211" s="308"/>
+      <c r="U211" s="309"/>
+    </row>
+    <row r="212" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B212" s="218"/>
+      <c r="C212" s="218"/>
+      <c r="D212" s="218"/>
+      <c r="E212" s="222"/>
+      <c r="F212" s="223"/>
+      <c r="G212" s="224"/>
+      <c r="H212" s="222"/>
+      <c r="I212" s="223"/>
+      <c r="J212" s="224"/>
+      <c r="K212" s="222"/>
+      <c r="L212" s="223"/>
+      <c r="M212" s="224"/>
+      <c r="N212" s="222"/>
+      <c r="O212" s="223"/>
+      <c r="P212" s="224"/>
+      <c r="R212" s="307"/>
+      <c r="S212" s="308"/>
+      <c r="T212" s="308"/>
+      <c r="U212" s="309"/>
+    </row>
+    <row r="213" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B213" s="218"/>
+      <c r="C213" s="218"/>
+      <c r="D213" s="218"/>
+      <c r="E213" s="219"/>
+      <c r="F213" s="223"/>
+      <c r="G213" s="224"/>
+      <c r="H213" s="219"/>
+      <c r="I213" s="223"/>
+      <c r="J213" s="224"/>
+      <c r="K213" s="219"/>
+      <c r="L213" s="223"/>
+      <c r="M213" s="224"/>
+      <c r="N213" s="219"/>
+      <c r="O213" s="223"/>
+      <c r="P213" s="224"/>
+      <c r="R213" s="307"/>
+      <c r="S213" s="308"/>
+      <c r="T213" s="308"/>
+      <c r="U213" s="309"/>
+    </row>
+    <row r="214" spans="2:21" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B214" s="225"/>
+      <c r="C214" s="226"/>
+      <c r="D214" s="227"/>
+      <c r="E214" s="230"/>
+      <c r="F214" s="226"/>
+      <c r="G214" s="228"/>
+      <c r="H214" s="230"/>
+      <c r="I214" s="226"/>
+      <c r="J214" s="228"/>
+      <c r="K214" s="230"/>
+      <c r="L214" s="226"/>
+      <c r="M214" s="228"/>
+      <c r="N214" s="230"/>
+      <c r="O214" s="226"/>
+      <c r="P214" s="228"/>
+      <c r="R214" s="310"/>
+      <c r="S214" s="311"/>
+      <c r="T214" s="311"/>
+      <c r="U214" s="312"/>
+    </row>
+    <row r="215" spans="2:21" ht="15.75" customHeight="1">
+      <c r="B215" s="186"/>
+      <c r="C215" s="186"/>
+      <c r="D215" s="186"/>
+      <c r="E215" s="186"/>
+      <c r="F215" s="186"/>
+      <c r="G215" s="186"/>
+      <c r="H215" s="186"/>
+      <c r="I215" s="186"/>
+      <c r="J215" s="186"/>
+      <c r="K215" s="186"/>
+      <c r="L215" s="186"/>
+      <c r="M215" s="186"/>
+      <c r="N215" s="186"/>
+      <c r="O215" s="186"/>
+      <c r="P215" s="186"/>
+      <c r="Q215" s="186"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="H3:P3"/>
-    <mergeCell ref="R6:U197"/>
+    <mergeCell ref="R6:U214"/>
   </mergeCells>
-  <conditionalFormatting sqref="B12:D27 C28:C38 B28:B196 D38 C40 C43:C44 C47:C203 D41:D196">
-    <cfRule type="expression" dxfId="5" priority="3">
+  <conditionalFormatting sqref="B12:D27 C28:C38 B28:B213 D38 C40:C48 D51 C51:C61 C64:C220 D59:D213">
+    <cfRule type="expression" dxfId="9" priority="7">
       <formula>IF((B12&lt;&gt;"")*AND(F12&lt;&gt;""),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="8" priority="6">
       <formula>IF((C35&lt;&gt;"")*AND(G38&lt;&gt;""),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C39 C41">
-    <cfRule type="expression" dxfId="3" priority="5">
+  <conditionalFormatting sqref="C39 C49">
+    <cfRule type="expression" dxfId="7" priority="9">
       <formula>IF((C39&lt;&gt;"")*AND(G40&lt;&gt;""),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46">
-    <cfRule type="expression" dxfId="2" priority="14">
-      <formula>IF((C46&lt;&gt;"")*AND(G45&lt;&gt;""),1,0)</formula>
+  <conditionalFormatting sqref="C63">
+    <cfRule type="expression" dxfId="6" priority="18">
+      <formula>IF((C63&lt;&gt;"")*AND(G62&lt;&gt;""),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:D37">
-    <cfRule type="expression" dxfId="1" priority="10">
+    <cfRule type="expression" dxfId="5" priority="14">
       <formula>IF((C28&lt;&gt;"")*AND(#REF!&lt;&gt;""),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39:D40">
+  <conditionalFormatting sqref="D39:D42 D47:D48">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>IF((D39&lt;&gt;"")*AND(#REF!&lt;&gt;""),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D43:D46">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>IF((D43&lt;&gt;"")*AND(#REF!&lt;&gt;""),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52:D56">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>IF((D52&lt;&gt;"")*AND(#REF!&lt;&gt;""),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D49:D50">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>IF((D49&lt;&gt;"")*AND(#REF!&lt;&gt;""),1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D57:D58">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>IF((D39&lt;&gt;"")*AND(#REF!&lt;&gt;""),1,0)</formula>
+      <formula>IF((D57&lt;&gt;"")*AND(H57&lt;&gt;""),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/doc/chiffrier_sim_vie.xlsx
+++ b/doc/chiffrier_sim_vie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\travail\sim_vie\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C994FE-BE65-4586-9275-53CF16CB40CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2A7237-7C6B-4C8E-86B5-F79748EEAA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4088,20 +4088,93 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -4130,84 +4203,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -4218,17 +4227,8 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -4267,37 +4267,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFF0000"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-      <alignment wrapText="0" shrinkToFit="0"/>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -7606,16 +7576,16 @@
       <c r="W10" s="29"/>
     </row>
     <row r="11" spans="1:107" thickBot="1">
-      <c r="G11" s="281" t="s">
+      <c r="G11" s="261" t="s">
         <v>324</v>
       </c>
-      <c r="H11" s="282"/>
-      <c r="I11" s="282"/>
-      <c r="J11" s="282"/>
-      <c r="K11" s="282"/>
-      <c r="L11" s="282"/>
-      <c r="M11" s="282"/>
-      <c r="N11" s="283"/>
+      <c r="H11" s="262"/>
+      <c r="I11" s="262"/>
+      <c r="J11" s="262"/>
+      <c r="K11" s="262"/>
+      <c r="L11" s="262"/>
+      <c r="M11" s="262"/>
+      <c r="N11" s="263"/>
       <c r="O11" s="48"/>
       <c r="P11" s="39"/>
       <c r="Q11" s="39"/>
@@ -7653,66 +7623,66 @@
       <c r="AW11" s="47"/>
       <c r="AX11" s="113"/>
       <c r="AY11" s="115"/>
-      <c r="BD11" s="281" t="s">
+      <c r="BD11" s="261" t="s">
         <v>324</v>
       </c>
-      <c r="BE11" s="282"/>
-      <c r="BF11" s="282"/>
-      <c r="BG11" s="282"/>
-      <c r="BH11" s="282"/>
-      <c r="BI11" s="282"/>
-      <c r="BJ11" s="282"/>
-      <c r="BK11" s="283"/>
-      <c r="BP11" s="281" t="s">
+      <c r="BE11" s="262"/>
+      <c r="BF11" s="262"/>
+      <c r="BG11" s="262"/>
+      <c r="BH11" s="262"/>
+      <c r="BI11" s="262"/>
+      <c r="BJ11" s="262"/>
+      <c r="BK11" s="263"/>
+      <c r="BP11" s="261" t="s">
         <v>324</v>
       </c>
-      <c r="BQ11" s="282"/>
-      <c r="BR11" s="282"/>
-      <c r="BS11" s="282"/>
-      <c r="BT11" s="282"/>
-      <c r="BU11" s="282"/>
-      <c r="BV11" s="282"/>
-      <c r="BW11" s="283"/>
-      <c r="CA11" s="281" t="s">
+      <c r="BQ11" s="262"/>
+      <c r="BR11" s="262"/>
+      <c r="BS11" s="262"/>
+      <c r="BT11" s="262"/>
+      <c r="BU11" s="262"/>
+      <c r="BV11" s="262"/>
+      <c r="BW11" s="263"/>
+      <c r="CA11" s="261" t="s">
         <v>324</v>
       </c>
-      <c r="CB11" s="282"/>
-      <c r="CC11" s="282"/>
-      <c r="CD11" s="282"/>
-      <c r="CE11" s="282"/>
-      <c r="CF11" s="282"/>
-      <c r="CG11" s="282"/>
-      <c r="CH11" s="283"/>
-      <c r="CL11" s="281" t="s">
+      <c r="CB11" s="262"/>
+      <c r="CC11" s="262"/>
+      <c r="CD11" s="262"/>
+      <c r="CE11" s="262"/>
+      <c r="CF11" s="262"/>
+      <c r="CG11" s="262"/>
+      <c r="CH11" s="263"/>
+      <c r="CL11" s="261" t="s">
         <v>324</v>
       </c>
-      <c r="CM11" s="282"/>
-      <c r="CN11" s="282"/>
-      <c r="CO11" s="282"/>
-      <c r="CP11" s="282"/>
-      <c r="CQ11" s="282"/>
-      <c r="CR11" s="282"/>
-      <c r="CS11" s="283"/>
-      <c r="CV11" s="281" t="s">
+      <c r="CM11" s="262"/>
+      <c r="CN11" s="262"/>
+      <c r="CO11" s="262"/>
+      <c r="CP11" s="262"/>
+      <c r="CQ11" s="262"/>
+      <c r="CR11" s="262"/>
+      <c r="CS11" s="263"/>
+      <c r="CV11" s="261" t="s">
         <v>324</v>
       </c>
-      <c r="CW11" s="282"/>
-      <c r="CX11" s="282"/>
-      <c r="CY11" s="282"/>
-      <c r="CZ11" s="282"/>
-      <c r="DA11" s="282"/>
-      <c r="DB11" s="282"/>
-      <c r="DC11" s="283"/>
+      <c r="CW11" s="262"/>
+      <c r="CX11" s="262"/>
+      <c r="CY11" s="262"/>
+      <c r="CZ11" s="262"/>
+      <c r="DA11" s="262"/>
+      <c r="DB11" s="262"/>
+      <c r="DC11" s="263"/>
     </row>
     <row r="12" spans="1:107" thickBot="1">
-      <c r="G12" s="284"/>
-      <c r="H12" s="285"/>
-      <c r="I12" s="285"/>
-      <c r="J12" s="285"/>
-      <c r="K12" s="285"/>
-      <c r="L12" s="285"/>
-      <c r="M12" s="285"/>
-      <c r="N12" s="286"/>
+      <c r="G12" s="264"/>
+      <c r="H12" s="265"/>
+      <c r="I12" s="265"/>
+      <c r="J12" s="265"/>
+      <c r="K12" s="265"/>
+      <c r="L12" s="265"/>
+      <c r="M12" s="265"/>
+      <c r="N12" s="266"/>
       <c r="O12" s="40"/>
       <c r="P12" s="29"/>
       <c r="Q12" s="29"/>
@@ -7723,49 +7693,49 @@
       <c r="V12" s="29"/>
       <c r="W12" s="29"/>
       <c r="AX12" s="42"/>
-      <c r="AY12" s="290" t="s">
+      <c r="AY12" s="258" t="s">
         <v>323</v>
       </c>
-      <c r="BD12" s="284"/>
-      <c r="BE12" s="285"/>
-      <c r="BF12" s="285"/>
-      <c r="BG12" s="285"/>
-      <c r="BH12" s="285"/>
-      <c r="BI12" s="285"/>
-      <c r="BJ12" s="285"/>
-      <c r="BK12" s="286"/>
-      <c r="BP12" s="284"/>
-      <c r="BQ12" s="285"/>
-      <c r="BR12" s="285"/>
-      <c r="BS12" s="285"/>
-      <c r="BT12" s="285"/>
-      <c r="BU12" s="285"/>
-      <c r="BV12" s="285"/>
-      <c r="BW12" s="286"/>
-      <c r="CA12" s="284"/>
-      <c r="CB12" s="285"/>
-      <c r="CC12" s="285"/>
-      <c r="CD12" s="285"/>
-      <c r="CE12" s="285"/>
-      <c r="CF12" s="285"/>
-      <c r="CG12" s="285"/>
-      <c r="CH12" s="286"/>
-      <c r="CL12" s="284"/>
-      <c r="CM12" s="285"/>
-      <c r="CN12" s="285"/>
-      <c r="CO12" s="285"/>
-      <c r="CP12" s="285"/>
-      <c r="CQ12" s="285"/>
-      <c r="CR12" s="285"/>
-      <c r="CS12" s="286"/>
-      <c r="CV12" s="284"/>
-      <c r="CW12" s="285"/>
-      <c r="CX12" s="285"/>
-      <c r="CY12" s="285"/>
-      <c r="CZ12" s="285"/>
-      <c r="DA12" s="285"/>
-      <c r="DB12" s="285"/>
-      <c r="DC12" s="286"/>
+      <c r="BD12" s="264"/>
+      <c r="BE12" s="265"/>
+      <c r="BF12" s="265"/>
+      <c r="BG12" s="265"/>
+      <c r="BH12" s="265"/>
+      <c r="BI12" s="265"/>
+      <c r="BJ12" s="265"/>
+      <c r="BK12" s="266"/>
+      <c r="BP12" s="264"/>
+      <c r="BQ12" s="265"/>
+      <c r="BR12" s="265"/>
+      <c r="BS12" s="265"/>
+      <c r="BT12" s="265"/>
+      <c r="BU12" s="265"/>
+      <c r="BV12" s="265"/>
+      <c r="BW12" s="266"/>
+      <c r="CA12" s="264"/>
+      <c r="CB12" s="265"/>
+      <c r="CC12" s="265"/>
+      <c r="CD12" s="265"/>
+      <c r="CE12" s="265"/>
+      <c r="CF12" s="265"/>
+      <c r="CG12" s="265"/>
+      <c r="CH12" s="266"/>
+      <c r="CL12" s="264"/>
+      <c r="CM12" s="265"/>
+      <c r="CN12" s="265"/>
+      <c r="CO12" s="265"/>
+      <c r="CP12" s="265"/>
+      <c r="CQ12" s="265"/>
+      <c r="CR12" s="265"/>
+      <c r="CS12" s="266"/>
+      <c r="CV12" s="264"/>
+      <c r="CW12" s="265"/>
+      <c r="CX12" s="265"/>
+      <c r="CY12" s="265"/>
+      <c r="CZ12" s="265"/>
+      <c r="DA12" s="265"/>
+      <c r="DB12" s="265"/>
+      <c r="DC12" s="266"/>
     </row>
     <row r="13" spans="1:107" thickBot="1">
       <c r="G13" s="40"/>
@@ -7784,7 +7754,7 @@
       <c r="V13" s="29"/>
       <c r="W13" s="29"/>
       <c r="AX13" s="42"/>
-      <c r="AY13" s="291"/>
+      <c r="AY13" s="259"/>
       <c r="BD13" s="40"/>
       <c r="BG13" s="29"/>
       <c r="BH13" s="29"/>
@@ -7809,16 +7779,16 @@
       <c r="DC13" s="42"/>
     </row>
     <row r="14" spans="1:107" thickBot="1">
-      <c r="G14" s="287" t="s">
+      <c r="G14" s="267" t="s">
         <v>325</v>
       </c>
-      <c r="H14" s="288"/>
-      <c r="I14" s="288"/>
-      <c r="J14" s="288"/>
-      <c r="K14" s="288"/>
-      <c r="L14" s="288"/>
-      <c r="M14" s="288"/>
-      <c r="N14" s="289"/>
+      <c r="H14" s="268"/>
+      <c r="I14" s="268"/>
+      <c r="J14" s="268"/>
+      <c r="K14" s="268"/>
+      <c r="L14" s="268"/>
+      <c r="M14" s="268"/>
+      <c r="N14" s="269"/>
       <c r="O14" s="40"/>
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
@@ -7829,57 +7799,57 @@
       <c r="V14" s="29"/>
       <c r="W14" s="29"/>
       <c r="AX14" s="42"/>
-      <c r="AY14" s="291"/>
-      <c r="BD14" s="287" t="s">
+      <c r="AY14" s="259"/>
+      <c r="BD14" s="267" t="s">
         <v>338</v>
       </c>
-      <c r="BE14" s="288"/>
-      <c r="BF14" s="288"/>
-      <c r="BG14" s="288"/>
-      <c r="BH14" s="288"/>
-      <c r="BI14" s="288"/>
-      <c r="BJ14" s="288"/>
-      <c r="BK14" s="289"/>
-      <c r="BP14" s="287" t="s">
+      <c r="BE14" s="268"/>
+      <c r="BF14" s="268"/>
+      <c r="BG14" s="268"/>
+      <c r="BH14" s="268"/>
+      <c r="BI14" s="268"/>
+      <c r="BJ14" s="268"/>
+      <c r="BK14" s="269"/>
+      <c r="BP14" s="267" t="s">
         <v>327</v>
       </c>
-      <c r="BQ14" s="288"/>
-      <c r="BR14" s="288"/>
-      <c r="BS14" s="288"/>
-      <c r="BT14" s="288"/>
-      <c r="BU14" s="288"/>
-      <c r="BV14" s="288"/>
-      <c r="BW14" s="289"/>
-      <c r="CA14" s="287" t="s">
+      <c r="BQ14" s="268"/>
+      <c r="BR14" s="268"/>
+      <c r="BS14" s="268"/>
+      <c r="BT14" s="268"/>
+      <c r="BU14" s="268"/>
+      <c r="BV14" s="268"/>
+      <c r="BW14" s="269"/>
+      <c r="CA14" s="267" t="s">
         <v>326</v>
       </c>
-      <c r="CB14" s="288"/>
-      <c r="CC14" s="288"/>
-      <c r="CD14" s="288"/>
-      <c r="CE14" s="288"/>
-      <c r="CF14" s="288"/>
-      <c r="CG14" s="288"/>
-      <c r="CH14" s="289"/>
-      <c r="CL14" s="287" t="s">
+      <c r="CB14" s="268"/>
+      <c r="CC14" s="268"/>
+      <c r="CD14" s="268"/>
+      <c r="CE14" s="268"/>
+      <c r="CF14" s="268"/>
+      <c r="CG14" s="268"/>
+      <c r="CH14" s="269"/>
+      <c r="CL14" s="267" t="s">
         <v>329</v>
       </c>
-      <c r="CM14" s="288"/>
-      <c r="CN14" s="288"/>
-      <c r="CO14" s="288"/>
-      <c r="CP14" s="288"/>
-      <c r="CQ14" s="288"/>
-      <c r="CR14" s="288"/>
-      <c r="CS14" s="289"/>
-      <c r="CV14" s="287" t="s">
+      <c r="CM14" s="268"/>
+      <c r="CN14" s="268"/>
+      <c r="CO14" s="268"/>
+      <c r="CP14" s="268"/>
+      <c r="CQ14" s="268"/>
+      <c r="CR14" s="268"/>
+      <c r="CS14" s="269"/>
+      <c r="CV14" s="267" t="s">
         <v>328</v>
       </c>
-      <c r="CW14" s="288"/>
-      <c r="CX14" s="288"/>
-      <c r="CY14" s="288"/>
-      <c r="CZ14" s="288"/>
-      <c r="DA14" s="288"/>
-      <c r="DB14" s="288"/>
-      <c r="DC14" s="289"/>
+      <c r="CW14" s="268"/>
+      <c r="CX14" s="268"/>
+      <c r="CY14" s="268"/>
+      <c r="CZ14" s="268"/>
+      <c r="DA14" s="268"/>
+      <c r="DB14" s="268"/>
+      <c r="DC14" s="269"/>
     </row>
     <row r="15" spans="1:107" thickBot="1">
       <c r="G15" s="117"/>
@@ -7900,7 +7870,7 @@
       <c r="V15" s="29"/>
       <c r="W15" s="29"/>
       <c r="AX15" s="42"/>
-      <c r="AY15" s="291"/>
+      <c r="AY15" s="259"/>
       <c r="BD15" s="117"/>
       <c r="BE15" s="116"/>
       <c r="BF15" s="114"/>
@@ -7961,7 +7931,7 @@
       <c r="V16" s="29"/>
       <c r="W16" s="29"/>
       <c r="AX16" s="42"/>
-      <c r="AY16" s="291"/>
+      <c r="AY16" s="259"/>
       <c r="BD16" s="40"/>
       <c r="BE16" s="29"/>
       <c r="BF16" s="29"/>
@@ -8013,16 +7983,16 @@
       <c r="M17" s="29"/>
       <c r="N17" s="29"/>
       <c r="O17" s="40"/>
-      <c r="P17" s="293"/>
+      <c r="P17" s="270"/>
       <c r="Q17" s="246"/>
       <c r="R17" s="246"/>
       <c r="S17" s="29"/>
-      <c r="T17" s="293"/>
+      <c r="T17" s="270"/>
       <c r="U17" s="246"/>
       <c r="V17" s="246"/>
       <c r="W17" s="246"/>
       <c r="AX17" s="42"/>
-      <c r="AY17" s="291"/>
+      <c r="AY17" s="259"/>
       <c r="BD17" s="40"/>
       <c r="BE17" s="29"/>
       <c r="BF17" s="29"/>
@@ -8040,14 +8010,14 @@
       <c r="BV17" s="29"/>
       <c r="BW17" s="46"/>
       <c r="CA17" s="40"/>
-      <c r="CB17" s="255" t="s">
+      <c r="CB17" s="271" t="s">
         <v>349</v>
       </c>
-      <c r="CC17" s="258"/>
-      <c r="CD17" s="258"/>
-      <c r="CE17" s="258"/>
-      <c r="CF17" s="258"/>
-      <c r="CG17" s="259"/>
+      <c r="CC17" s="256"/>
+      <c r="CD17" s="256"/>
+      <c r="CE17" s="256"/>
+      <c r="CF17" s="256"/>
+      <c r="CG17" s="257"/>
       <c r="CH17" s="46"/>
       <c r="CL17" s="40"/>
       <c r="CM17" s="29"/>
@@ -8070,96 +8040,96 @@
       <c r="G18" s="41"/>
       <c r="O18" s="41"/>
       <c r="AX18" s="42"/>
-      <c r="AY18" s="291"/>
+      <c r="AY18" s="259"/>
       <c r="BD18" s="41"/>
-      <c r="BE18" s="269" t="s">
+      <c r="BE18" s="255" t="s">
         <v>335</v>
       </c>
-      <c r="BF18" s="258"/>
-      <c r="BG18" s="258"/>
-      <c r="BH18" s="258"/>
-      <c r="BI18" s="258"/>
-      <c r="BJ18" s="259"/>
+      <c r="BF18" s="256"/>
+      <c r="BG18" s="256"/>
+      <c r="BH18" s="256"/>
+      <c r="BI18" s="256"/>
+      <c r="BJ18" s="257"/>
       <c r="BK18" s="42"/>
       <c r="BP18" s="41"/>
-      <c r="BQ18" s="269" t="s">
+      <c r="BQ18" s="255" t="s">
         <v>331</v>
       </c>
-      <c r="BR18" s="258"/>
-      <c r="BS18" s="258"/>
-      <c r="BT18" s="258"/>
-      <c r="BU18" s="258"/>
-      <c r="BV18" s="259"/>
+      <c r="BR18" s="256"/>
+      <c r="BS18" s="256"/>
+      <c r="BT18" s="256"/>
+      <c r="BU18" s="256"/>
+      <c r="BV18" s="257"/>
       <c r="BW18" s="42"/>
       <c r="CA18" s="41"/>
-      <c r="CB18" s="270" t="s">
+      <c r="CB18" s="272" t="s">
         <v>342</v>
       </c>
-      <c r="CC18" s="271"/>
-      <c r="CD18" s="269"/>
-      <c r="CE18" s="259"/>
-      <c r="CF18" s="270" t="s">
+      <c r="CC18" s="273"/>
+      <c r="CD18" s="255"/>
+      <c r="CE18" s="257"/>
+      <c r="CF18" s="272" t="s">
         <v>341</v>
       </c>
-      <c r="CG18" s="271"/>
+      <c r="CG18" s="273"/>
       <c r="CH18" s="42"/>
       <c r="CL18" s="41"/>
-      <c r="CM18" s="255" t="s">
+      <c r="CM18" s="271" t="s">
         <v>354</v>
       </c>
-      <c r="CN18" s="258"/>
-      <c r="CO18" s="258"/>
-      <c r="CP18" s="258"/>
-      <c r="CQ18" s="258"/>
-      <c r="CR18" s="259"/>
+      <c r="CN18" s="256"/>
+      <c r="CO18" s="256"/>
+      <c r="CP18" s="256"/>
+      <c r="CQ18" s="256"/>
+      <c r="CR18" s="257"/>
       <c r="CS18" s="42"/>
       <c r="CV18" s="41"/>
-      <c r="CW18" s="255" t="s">
+      <c r="CW18" s="271" t="s">
         <v>359</v>
       </c>
-      <c r="CX18" s="258"/>
-      <c r="CY18" s="258"/>
-      <c r="CZ18" s="258"/>
-      <c r="DA18" s="258"/>
-      <c r="DB18" s="259"/>
+      <c r="CX18" s="256"/>
+      <c r="CY18" s="256"/>
+      <c r="CZ18" s="256"/>
+      <c r="DA18" s="256"/>
+      <c r="DB18" s="257"/>
       <c r="DC18" s="42"/>
     </row>
     <row r="19" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G19" s="41"/>
       <c r="O19" s="41"/>
       <c r="AX19" s="42"/>
-      <c r="AY19" s="291"/>
+      <c r="AY19" s="259"/>
       <c r="BD19" s="41"/>
-      <c r="BE19" s="269" t="s">
+      <c r="BE19" s="255" t="s">
         <v>336</v>
       </c>
-      <c r="BF19" s="258"/>
-      <c r="BG19" s="258"/>
-      <c r="BH19" s="258"/>
-      <c r="BI19" s="258"/>
-      <c r="BJ19" s="259"/>
+      <c r="BF19" s="256"/>
+      <c r="BG19" s="256"/>
+      <c r="BH19" s="256"/>
+      <c r="BI19" s="256"/>
+      <c r="BJ19" s="257"/>
       <c r="BK19" s="42"/>
       <c r="BP19" s="41"/>
-      <c r="BQ19" s="269" t="s">
+      <c r="BQ19" s="255" t="s">
         <v>330</v>
       </c>
-      <c r="BR19" s="258"/>
-      <c r="BS19" s="258"/>
-      <c r="BT19" s="258"/>
-      <c r="BU19" s="258"/>
-      <c r="BV19" s="259"/>
+      <c r="BR19" s="256"/>
+      <c r="BS19" s="256"/>
+      <c r="BT19" s="256"/>
+      <c r="BU19" s="256"/>
+      <c r="BV19" s="257"/>
       <c r="BW19" s="42"/>
       <c r="CA19" s="41"/>
       <c r="CH19" s="42"/>
       <c r="CL19" s="41"/>
-      <c r="CM19" s="255" t="s">
+      <c r="CM19" s="271" t="s">
         <v>355</v>
       </c>
-      <c r="CN19" s="258"/>
-      <c r="CO19" s="258"/>
-      <c r="CP19" s="258"/>
-      <c r="CQ19" s="258"/>
-      <c r="CR19" s="259"/>
+      <c r="CN19" s="256"/>
+      <c r="CO19" s="256"/>
+      <c r="CP19" s="256"/>
+      <c r="CQ19" s="256"/>
+      <c r="CR19" s="257"/>
       <c r="CS19" s="42"/>
       <c r="CV19" s="41"/>
       <c r="DC19" s="42"/>
@@ -8168,114 +8138,114 @@
       <c r="G20" s="41"/>
       <c r="O20" s="41"/>
       <c r="AX20" s="42"/>
-      <c r="AY20" s="291"/>
+      <c r="AY20" s="259"/>
       <c r="BD20" s="41"/>
       <c r="BK20" s="42"/>
       <c r="BP20" s="41"/>
       <c r="BW20" s="42"/>
       <c r="CA20" s="41"/>
-      <c r="CB20" s="255" t="s">
+      <c r="CB20" s="271" t="s">
         <v>350</v>
       </c>
-      <c r="CC20" s="258"/>
-      <c r="CD20" s="258"/>
-      <c r="CE20" s="258"/>
-      <c r="CF20" s="258"/>
-      <c r="CG20" s="259"/>
+      <c r="CC20" s="256"/>
+      <c r="CD20" s="256"/>
+      <c r="CE20" s="256"/>
+      <c r="CF20" s="256"/>
+      <c r="CG20" s="257"/>
       <c r="CH20" s="42"/>
       <c r="CL20" s="41"/>
       <c r="CS20" s="42"/>
       <c r="CV20" s="41"/>
-      <c r="CW20" s="255" t="s">
+      <c r="CW20" s="271" t="s">
         <v>360</v>
       </c>
-      <c r="CX20" s="258"/>
-      <c r="CY20" s="258"/>
-      <c r="CZ20" s="258"/>
-      <c r="DA20" s="258"/>
-      <c r="DB20" s="259"/>
+      <c r="CX20" s="256"/>
+      <c r="CY20" s="256"/>
+      <c r="CZ20" s="256"/>
+      <c r="DA20" s="256"/>
+      <c r="DB20" s="257"/>
       <c r="DC20" s="42"/>
     </row>
     <row r="21" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G21" s="41"/>
       <c r="O21" s="41"/>
       <c r="AX21" s="42"/>
-      <c r="AY21" s="291"/>
+      <c r="AY21" s="259"/>
       <c r="BD21" s="41"/>
-      <c r="BE21" s="269" t="s">
+      <c r="BE21" s="255" t="s">
         <v>337</v>
       </c>
-      <c r="BF21" s="258"/>
-      <c r="BG21" s="258"/>
-      <c r="BH21" s="258"/>
-      <c r="BI21" s="258"/>
-      <c r="BJ21" s="259"/>
+      <c r="BF21" s="256"/>
+      <c r="BG21" s="256"/>
+      <c r="BH21" s="256"/>
+      <c r="BI21" s="256"/>
+      <c r="BJ21" s="257"/>
       <c r="BK21" s="42"/>
       <c r="BP21" s="41"/>
-      <c r="BQ21" s="269" t="s">
+      <c r="BQ21" s="255" t="s">
         <v>332</v>
       </c>
-      <c r="BR21" s="258"/>
-      <c r="BS21" s="258"/>
-      <c r="BT21" s="258"/>
-      <c r="BU21" s="258"/>
-      <c r="BV21" s="259"/>
+      <c r="BR21" s="256"/>
+      <c r="BS21" s="256"/>
+      <c r="BT21" s="256"/>
+      <c r="BU21" s="256"/>
+      <c r="BV21" s="257"/>
       <c r="BW21" s="42"/>
       <c r="CA21" s="41"/>
-      <c r="CB21" s="255" t="s">
+      <c r="CB21" s="271" t="s">
         <v>336</v>
       </c>
-      <c r="CC21" s="258"/>
-      <c r="CD21" s="258"/>
-      <c r="CE21" s="258"/>
-      <c r="CF21" s="258"/>
-      <c r="CG21" s="259"/>
+      <c r="CC21" s="256"/>
+      <c r="CD21" s="256"/>
+      <c r="CE21" s="256"/>
+      <c r="CF21" s="256"/>
+      <c r="CG21" s="257"/>
       <c r="CH21" s="42"/>
       <c r="CL21" s="41"/>
-      <c r="CM21" s="255" t="s">
+      <c r="CM21" s="271" t="s">
         <v>356</v>
       </c>
-      <c r="CN21" s="258"/>
-      <c r="CO21" s="258"/>
-      <c r="CP21" s="258"/>
-      <c r="CQ21" s="258"/>
-      <c r="CR21" s="259"/>
+      <c r="CN21" s="256"/>
+      <c r="CO21" s="256"/>
+      <c r="CP21" s="256"/>
+      <c r="CQ21" s="256"/>
+      <c r="CR21" s="257"/>
       <c r="CS21" s="42"/>
       <c r="CV21" s="41"/>
-      <c r="CW21" s="255" t="s">
+      <c r="CW21" s="271" t="s">
         <v>355</v>
       </c>
-      <c r="CX21" s="258"/>
-      <c r="CY21" s="258"/>
-      <c r="CZ21" s="258"/>
-      <c r="DA21" s="258"/>
-      <c r="DB21" s="259"/>
+      <c r="CX21" s="256"/>
+      <c r="CY21" s="256"/>
+      <c r="CZ21" s="256"/>
+      <c r="DA21" s="256"/>
+      <c r="DB21" s="257"/>
       <c r="DC21" s="42"/>
     </row>
     <row r="22" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G22" s="41"/>
       <c r="O22" s="41"/>
       <c r="AX22" s="42"/>
-      <c r="AY22" s="291"/>
+      <c r="AY22" s="259"/>
       <c r="BD22" s="41"/>
-      <c r="BE22" s="269" t="s">
+      <c r="BE22" s="255" t="s">
         <v>336</v>
       </c>
-      <c r="BF22" s="258"/>
-      <c r="BG22" s="258"/>
-      <c r="BH22" s="258"/>
-      <c r="BI22" s="258"/>
-      <c r="BJ22" s="259"/>
+      <c r="BF22" s="256"/>
+      <c r="BG22" s="256"/>
+      <c r="BH22" s="256"/>
+      <c r="BI22" s="256"/>
+      <c r="BJ22" s="257"/>
       <c r="BK22" s="42"/>
       <c r="BP22" s="41"/>
-      <c r="BQ22" s="269" t="s">
+      <c r="BQ22" s="255" t="s">
         <v>330</v>
       </c>
-      <c r="BR22" s="258"/>
-      <c r="BS22" s="258"/>
-      <c r="BT22" s="258"/>
-      <c r="BU22" s="258"/>
-      <c r="BV22" s="259"/>
+      <c r="BR22" s="256"/>
+      <c r="BS22" s="256"/>
+      <c r="BT22" s="256"/>
+      <c r="BU22" s="256"/>
+      <c r="BV22" s="257"/>
       <c r="BW22" s="42"/>
       <c r="CA22" s="41"/>
       <c r="CH22" s="42"/>
@@ -8288,7 +8258,7 @@
       <c r="G23" s="41"/>
       <c r="O23" s="41"/>
       <c r="AX23" s="42"/>
-      <c r="AY23" s="291"/>
+      <c r="AY23" s="259"/>
       <c r="BD23" s="41"/>
       <c r="BK23" s="42"/>
       <c r="BP23" s="41"/>
@@ -8297,57 +8267,57 @@
       <c r="CB23" s="29"/>
       <c r="CC23" s="29"/>
       <c r="CD23" s="29"/>
-      <c r="CE23" s="278" t="s">
+      <c r="CE23" s="282" t="s">
         <v>348</v>
       </c>
-      <c r="CF23" s="279"/>
-      <c r="CG23" s="279"/>
-      <c r="CH23" s="280"/>
+      <c r="CF23" s="283"/>
+      <c r="CG23" s="283"/>
+      <c r="CH23" s="284"/>
       <c r="CL23" s="41"/>
-      <c r="CM23" s="255" t="s">
+      <c r="CM23" s="271" t="s">
         <v>357</v>
       </c>
-      <c r="CN23" s="258"/>
-      <c r="CO23" s="258"/>
-      <c r="CP23" s="258"/>
-      <c r="CQ23" s="258"/>
-      <c r="CR23" s="259"/>
+      <c r="CN23" s="256"/>
+      <c r="CO23" s="256"/>
+      <c r="CP23" s="256"/>
+      <c r="CQ23" s="256"/>
+      <c r="CR23" s="257"/>
       <c r="CS23" s="42"/>
       <c r="CV23" s="41"/>
-      <c r="CW23" s="255" t="s">
+      <c r="CW23" s="271" t="s">
         <v>361</v>
       </c>
-      <c r="CX23" s="258"/>
-      <c r="CY23" s="258"/>
-      <c r="CZ23" s="258"/>
-      <c r="DA23" s="258"/>
-      <c r="DB23" s="259"/>
+      <c r="CX23" s="256"/>
+      <c r="CY23" s="256"/>
+      <c r="CZ23" s="256"/>
+      <c r="DA23" s="256"/>
+      <c r="DB23" s="257"/>
       <c r="DC23" s="42"/>
     </row>
     <row r="24" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G24" s="41"/>
       <c r="O24" s="41"/>
       <c r="AX24" s="42"/>
-      <c r="AY24" s="291"/>
+      <c r="AY24" s="259"/>
       <c r="BD24" s="41"/>
-      <c r="BE24" s="269" t="s">
+      <c r="BE24" s="255" t="s">
         <v>339</v>
       </c>
-      <c r="BF24" s="258"/>
-      <c r="BG24" s="258"/>
-      <c r="BH24" s="258"/>
-      <c r="BI24" s="258"/>
-      <c r="BJ24" s="259"/>
+      <c r="BF24" s="256"/>
+      <c r="BG24" s="256"/>
+      <c r="BH24" s="256"/>
+      <c r="BI24" s="256"/>
+      <c r="BJ24" s="257"/>
       <c r="BK24" s="42"/>
       <c r="BP24" s="41"/>
-      <c r="BQ24" s="269" t="s">
+      <c r="BQ24" s="255" t="s">
         <v>333</v>
       </c>
-      <c r="BR24" s="258"/>
-      <c r="BS24" s="258"/>
-      <c r="BT24" s="258"/>
-      <c r="BU24" s="258"/>
-      <c r="BV24" s="259"/>
+      <c r="BR24" s="256"/>
+      <c r="BS24" s="256"/>
+      <c r="BT24" s="256"/>
+      <c r="BU24" s="256"/>
+      <c r="BV24" s="257"/>
       <c r="BW24" s="42"/>
       <c r="CA24" s="40"/>
       <c r="CB24" s="29"/>
@@ -8358,60 +8328,60 @@
       <c r="CG24" s="29"/>
       <c r="CH24" s="46"/>
       <c r="CL24" s="41"/>
-      <c r="CM24" s="255" t="s">
+      <c r="CM24" s="271" t="s">
         <v>355</v>
       </c>
-      <c r="CN24" s="258"/>
-      <c r="CO24" s="258"/>
-      <c r="CP24" s="258"/>
-      <c r="CQ24" s="258"/>
-      <c r="CR24" s="259"/>
+      <c r="CN24" s="256"/>
+      <c r="CO24" s="256"/>
+      <c r="CP24" s="256"/>
+      <c r="CQ24" s="256"/>
+      <c r="CR24" s="257"/>
       <c r="CS24" s="42"/>
       <c r="CV24" s="41"/>
-      <c r="CW24" s="255" t="s">
+      <c r="CW24" s="271" t="s">
         <v>355</v>
       </c>
-      <c r="CX24" s="258"/>
-      <c r="CY24" s="258"/>
-      <c r="CZ24" s="258"/>
-      <c r="DA24" s="258"/>
-      <c r="DB24" s="259"/>
+      <c r="CX24" s="256"/>
+      <c r="CY24" s="256"/>
+      <c r="CZ24" s="256"/>
+      <c r="DA24" s="256"/>
+      <c r="DB24" s="257"/>
       <c r="DC24" s="42"/>
     </row>
     <row r="25" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G25" s="41"/>
       <c r="O25" s="41"/>
       <c r="AX25" s="42"/>
-      <c r="AY25" s="291"/>
+      <c r="AY25" s="259"/>
       <c r="BD25" s="41"/>
-      <c r="BE25" s="269" t="s">
+      <c r="BE25" s="255" t="s">
         <v>336</v>
       </c>
-      <c r="BF25" s="258"/>
-      <c r="BG25" s="258"/>
-      <c r="BH25" s="258"/>
-      <c r="BI25" s="258"/>
-      <c r="BJ25" s="259"/>
+      <c r="BF25" s="256"/>
+      <c r="BG25" s="256"/>
+      <c r="BH25" s="256"/>
+      <c r="BI25" s="256"/>
+      <c r="BJ25" s="257"/>
       <c r="BK25" s="42"/>
       <c r="BP25" s="41"/>
-      <c r="BQ25" s="269" t="s">
+      <c r="BQ25" s="255" t="s">
         <v>330</v>
       </c>
-      <c r="BR25" s="258"/>
-      <c r="BS25" s="258"/>
-      <c r="BT25" s="258"/>
-      <c r="BU25" s="258"/>
-      <c r="BV25" s="259"/>
+      <c r="BR25" s="256"/>
+      <c r="BS25" s="256"/>
+      <c r="BT25" s="256"/>
+      <c r="BU25" s="256"/>
+      <c r="BV25" s="257"/>
       <c r="BW25" s="42"/>
       <c r="CA25" s="41"/>
-      <c r="CB25" s="255" t="s">
+      <c r="CB25" s="271" t="s">
         <v>343</v>
       </c>
-      <c r="CC25" s="256"/>
-      <c r="CD25" s="256"/>
-      <c r="CE25" s="256"/>
-      <c r="CF25" s="256"/>
-      <c r="CG25" s="257"/>
+      <c r="CC25" s="280"/>
+      <c r="CD25" s="280"/>
+      <c r="CE25" s="280"/>
+      <c r="CF25" s="280"/>
+      <c r="CG25" s="281"/>
       <c r="CH25" s="42"/>
       <c r="CL25" s="41"/>
       <c r="CS25" s="42"/>
@@ -8422,128 +8392,128 @@
       <c r="G26" s="41"/>
       <c r="O26" s="41"/>
       <c r="AX26" s="42"/>
-      <c r="AY26" s="291"/>
+      <c r="AY26" s="259"/>
       <c r="BD26" s="41"/>
       <c r="BK26" s="42"/>
       <c r="BP26" s="41"/>
       <c r="BW26" s="42"/>
       <c r="CA26" s="41"/>
-      <c r="CB26" s="270" t="s">
+      <c r="CB26" s="272" t="s">
         <v>342</v>
       </c>
-      <c r="CC26" s="271"/>
-      <c r="CD26" s="269"/>
-      <c r="CE26" s="259"/>
-      <c r="CF26" s="270" t="s">
+      <c r="CC26" s="273"/>
+      <c r="CD26" s="255"/>
+      <c r="CE26" s="257"/>
+      <c r="CF26" s="272" t="s">
         <v>341</v>
       </c>
-      <c r="CG26" s="271"/>
+      <c r="CG26" s="273"/>
       <c r="CH26" s="42"/>
       <c r="CL26" s="41"/>
-      <c r="CM26" s="269" t="s">
+      <c r="CM26" s="255" t="s">
         <v>331</v>
       </c>
-      <c r="CN26" s="258"/>
-      <c r="CO26" s="258"/>
-      <c r="CP26" s="258"/>
-      <c r="CQ26" s="258"/>
-      <c r="CR26" s="259"/>
+      <c r="CN26" s="256"/>
+      <c r="CO26" s="256"/>
+      <c r="CP26" s="256"/>
+      <c r="CQ26" s="256"/>
+      <c r="CR26" s="257"/>
       <c r="CS26" s="42"/>
       <c r="CV26" s="41"/>
-      <c r="CW26" s="255" t="s">
+      <c r="CW26" s="271" t="s">
         <v>362</v>
       </c>
-      <c r="CX26" s="258"/>
-      <c r="CY26" s="258"/>
-      <c r="CZ26" s="258"/>
-      <c r="DA26" s="258"/>
-      <c r="DB26" s="259"/>
+      <c r="CX26" s="256"/>
+      <c r="CY26" s="256"/>
+      <c r="CZ26" s="256"/>
+      <c r="DA26" s="256"/>
+      <c r="DB26" s="257"/>
       <c r="DC26" s="42"/>
     </row>
     <row r="27" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G27" s="41"/>
       <c r="O27" s="41"/>
       <c r="AX27" s="42"/>
-      <c r="AY27" s="291"/>
+      <c r="AY27" s="259"/>
       <c r="BD27" s="41"/>
-      <c r="BE27" s="269" t="s">
+      <c r="BE27" s="255" t="s">
         <v>340</v>
       </c>
-      <c r="BF27" s="258"/>
-      <c r="BG27" s="258"/>
-      <c r="BH27" s="258"/>
-      <c r="BI27" s="258"/>
-      <c r="BJ27" s="259"/>
+      <c r="BF27" s="256"/>
+      <c r="BG27" s="256"/>
+      <c r="BH27" s="256"/>
+      <c r="BI27" s="256"/>
+      <c r="BJ27" s="257"/>
       <c r="BK27" s="42"/>
       <c r="BP27" s="41"/>
-      <c r="BQ27" s="269" t="s">
+      <c r="BQ27" s="255" t="s">
         <v>334</v>
       </c>
-      <c r="BR27" s="258"/>
-      <c r="BS27" s="258"/>
-      <c r="BT27" s="258"/>
-      <c r="BU27" s="258"/>
-      <c r="BV27" s="259"/>
+      <c r="BR27" s="256"/>
+      <c r="BS27" s="256"/>
+      <c r="BT27" s="256"/>
+      <c r="BU27" s="256"/>
+      <c r="BV27" s="257"/>
       <c r="BW27" s="42"/>
       <c r="CA27" s="41"/>
       <c r="CH27" s="42"/>
       <c r="CL27" s="41"/>
-      <c r="CM27" s="255" t="s">
+      <c r="CM27" s="271" t="s">
         <v>355</v>
       </c>
-      <c r="CN27" s="258"/>
-      <c r="CO27" s="258"/>
-      <c r="CP27" s="258"/>
-      <c r="CQ27" s="258"/>
-      <c r="CR27" s="259"/>
+      <c r="CN27" s="256"/>
+      <c r="CO27" s="256"/>
+      <c r="CP27" s="256"/>
+      <c r="CQ27" s="256"/>
+      <c r="CR27" s="257"/>
       <c r="CS27" s="42"/>
       <c r="CV27" s="41"/>
-      <c r="CW27" s="255" t="s">
+      <c r="CW27" s="271" t="s">
         <v>355</v>
       </c>
-      <c r="CX27" s="258"/>
-      <c r="CY27" s="258"/>
-      <c r="CZ27" s="258"/>
-      <c r="DA27" s="258"/>
-      <c r="DB27" s="259"/>
+      <c r="CX27" s="256"/>
+      <c r="CY27" s="256"/>
+      <c r="CZ27" s="256"/>
+      <c r="DA27" s="256"/>
+      <c r="DB27" s="257"/>
       <c r="DC27" s="42"/>
     </row>
     <row r="28" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G28" s="41"/>
       <c r="O28" s="41"/>
       <c r="AX28" s="42"/>
-      <c r="AY28" s="291"/>
+      <c r="AY28" s="259"/>
       <c r="BD28" s="119"/>
-      <c r="BE28" s="270" t="s">
+      <c r="BE28" s="272" t="s">
         <v>342</v>
       </c>
-      <c r="BF28" s="271"/>
-      <c r="BG28" s="269"/>
-      <c r="BH28" s="259"/>
-      <c r="BI28" s="270" t="s">
+      <c r="BF28" s="273"/>
+      <c r="BG28" s="255"/>
+      <c r="BH28" s="257"/>
+      <c r="BI28" s="272" t="s">
         <v>341</v>
       </c>
-      <c r="BJ28" s="271"/>
+      <c r="BJ28" s="273"/>
       <c r="BK28" s="42"/>
       <c r="BP28" s="41"/>
-      <c r="BQ28" s="269" t="s">
+      <c r="BQ28" s="255" t="s">
         <v>330</v>
       </c>
-      <c r="BR28" s="258"/>
-      <c r="BS28" s="258"/>
-      <c r="BT28" s="258"/>
-      <c r="BU28" s="258"/>
-      <c r="BV28" s="259"/>
+      <c r="BR28" s="256"/>
+      <c r="BS28" s="256"/>
+      <c r="BT28" s="256"/>
+      <c r="BU28" s="256"/>
+      <c r="BV28" s="257"/>
       <c r="BW28" s="42"/>
       <c r="CA28" s="41"/>
-      <c r="CB28" s="255" t="s">
+      <c r="CB28" s="271" t="s">
         <v>344</v>
       </c>
-      <c r="CC28" s="256"/>
-      <c r="CD28" s="256"/>
-      <c r="CE28" s="256"/>
-      <c r="CF28" s="256"/>
-      <c r="CG28" s="257"/>
+      <c r="CC28" s="280"/>
+      <c r="CD28" s="280"/>
+      <c r="CE28" s="280"/>
+      <c r="CF28" s="280"/>
+      <c r="CG28" s="281"/>
       <c r="CH28" s="42"/>
       <c r="CL28" s="41"/>
       <c r="CS28" s="42"/>
@@ -8554,49 +8524,49 @@
       <c r="G29" s="41"/>
       <c r="O29" s="41"/>
       <c r="AX29" s="42"/>
-      <c r="AY29" s="291"/>
+      <c r="AY29" s="259"/>
       <c r="BD29" s="41"/>
       <c r="BK29" s="42"/>
       <c r="BP29" s="41"/>
       <c r="BW29" s="42"/>
       <c r="CA29" s="41"/>
-      <c r="CB29" s="270" t="s">
+      <c r="CB29" s="272" t="s">
         <v>342</v>
       </c>
-      <c r="CC29" s="271"/>
-      <c r="CD29" s="269"/>
-      <c r="CE29" s="259"/>
-      <c r="CF29" s="270" t="s">
+      <c r="CC29" s="273"/>
+      <c r="CD29" s="255"/>
+      <c r="CE29" s="257"/>
+      <c r="CF29" s="272" t="s">
         <v>341</v>
       </c>
-      <c r="CG29" s="271"/>
+      <c r="CG29" s="273"/>
       <c r="CH29" s="42"/>
       <c r="CL29" s="41"/>
-      <c r="CM29" s="269" t="s">
+      <c r="CM29" s="255" t="s">
         <v>332</v>
       </c>
-      <c r="CN29" s="258"/>
-      <c r="CO29" s="258"/>
-      <c r="CP29" s="258"/>
-      <c r="CQ29" s="258"/>
-      <c r="CR29" s="259"/>
+      <c r="CN29" s="256"/>
+      <c r="CO29" s="256"/>
+      <c r="CP29" s="256"/>
+      <c r="CQ29" s="256"/>
+      <c r="CR29" s="257"/>
       <c r="CS29" s="42"/>
       <c r="CV29" s="41"/>
-      <c r="CW29" s="255" t="s">
+      <c r="CW29" s="271" t="s">
         <v>363</v>
       </c>
-      <c r="CX29" s="258"/>
-      <c r="CY29" s="258"/>
-      <c r="CZ29" s="258"/>
-      <c r="DA29" s="258"/>
-      <c r="DB29" s="259"/>
+      <c r="CX29" s="256"/>
+      <c r="CY29" s="256"/>
+      <c r="CZ29" s="256"/>
+      <c r="DA29" s="256"/>
+      <c r="DB29" s="257"/>
       <c r="DC29" s="42"/>
     </row>
     <row r="30" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G30" s="41"/>
       <c r="O30" s="41"/>
       <c r="AX30" s="42"/>
-      <c r="AY30" s="291"/>
+      <c r="AY30" s="259"/>
       <c r="BD30" s="41"/>
       <c r="BK30" s="42"/>
       <c r="BP30" s="41"/>
@@ -8604,44 +8574,44 @@
       <c r="CA30" s="41"/>
       <c r="CH30" s="42"/>
       <c r="CL30" s="41"/>
-      <c r="CM30" s="255" t="s">
+      <c r="CM30" s="271" t="s">
         <v>355</v>
       </c>
-      <c r="CN30" s="258"/>
-      <c r="CO30" s="258"/>
-      <c r="CP30" s="258"/>
-      <c r="CQ30" s="258"/>
-      <c r="CR30" s="259"/>
+      <c r="CN30" s="256"/>
+      <c r="CO30" s="256"/>
+      <c r="CP30" s="256"/>
+      <c r="CQ30" s="256"/>
+      <c r="CR30" s="257"/>
       <c r="CS30" s="42"/>
       <c r="CV30" s="41"/>
-      <c r="CW30" s="255" t="s">
+      <c r="CW30" s="271" t="s">
         <v>355</v>
       </c>
-      <c r="CX30" s="256"/>
-      <c r="CY30" s="256"/>
-      <c r="CZ30" s="256"/>
-      <c r="DA30" s="256"/>
-      <c r="DB30" s="257"/>
+      <c r="CX30" s="280"/>
+      <c r="CY30" s="280"/>
+      <c r="CZ30" s="280"/>
+      <c r="DA30" s="280"/>
+      <c r="DB30" s="281"/>
       <c r="DC30" s="42"/>
     </row>
     <row r="31" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G31" s="41"/>
       <c r="O31" s="41"/>
       <c r="AX31" s="42"/>
-      <c r="AY31" s="291"/>
+      <c r="AY31" s="259"/>
       <c r="BD31" s="41"/>
       <c r="BK31" s="42"/>
       <c r="BP31" s="41"/>
       <c r="BW31" s="42"/>
       <c r="CA31" s="41"/>
-      <c r="CB31" s="255" t="s">
+      <c r="CB31" s="271" t="s">
         <v>345</v>
       </c>
-      <c r="CC31" s="256"/>
-      <c r="CD31" s="256"/>
-      <c r="CE31" s="256"/>
-      <c r="CF31" s="256"/>
-      <c r="CG31" s="257"/>
+      <c r="CC31" s="280"/>
+      <c r="CD31" s="280"/>
+      <c r="CE31" s="280"/>
+      <c r="CF31" s="280"/>
+      <c r="CG31" s="281"/>
       <c r="CH31" s="42"/>
       <c r="CL31" s="41"/>
       <c r="CS31" s="42"/>
@@ -8652,122 +8622,122 @@
       <c r="G32" s="41"/>
       <c r="O32" s="41"/>
       <c r="AX32" s="42"/>
-      <c r="AY32" s="291"/>
+      <c r="AY32" s="259"/>
       <c r="BD32" s="41"/>
-      <c r="BE32" s="272" t="s">
+      <c r="BE32" s="274" t="s">
         <v>277</v>
       </c>
-      <c r="BF32" s="273"/>
-      <c r="BG32" s="273"/>
-      <c r="BH32" s="273"/>
-      <c r="BI32" s="273"/>
-      <c r="BJ32" s="274"/>
+      <c r="BF32" s="275"/>
+      <c r="BG32" s="275"/>
+      <c r="BH32" s="275"/>
+      <c r="BI32" s="275"/>
+      <c r="BJ32" s="276"/>
       <c r="BK32" s="42"/>
       <c r="BP32" s="41"/>
-      <c r="BQ32" s="272" t="s">
+      <c r="BQ32" s="274" t="s">
         <v>352</v>
       </c>
-      <c r="BR32" s="273"/>
-      <c r="BS32" s="273"/>
-      <c r="BT32" s="273"/>
-      <c r="BU32" s="273"/>
-      <c r="BV32" s="274"/>
+      <c r="BR32" s="275"/>
+      <c r="BS32" s="275"/>
+      <c r="BT32" s="275"/>
+      <c r="BU32" s="275"/>
+      <c r="BV32" s="276"/>
       <c r="BW32" s="42"/>
       <c r="CA32" s="41"/>
-      <c r="CB32" s="270" t="s">
+      <c r="CB32" s="272" t="s">
         <v>342</v>
       </c>
-      <c r="CC32" s="271"/>
-      <c r="CD32" s="269"/>
-      <c r="CE32" s="259"/>
-      <c r="CF32" s="270" t="s">
+      <c r="CC32" s="273"/>
+      <c r="CD32" s="255"/>
+      <c r="CE32" s="257"/>
+      <c r="CF32" s="272" t="s">
         <v>341</v>
       </c>
-      <c r="CG32" s="271"/>
+      <c r="CG32" s="273"/>
       <c r="CH32" s="42"/>
       <c r="CL32" s="41"/>
-      <c r="CM32" s="269" t="s">
+      <c r="CM32" s="255" t="s">
         <v>333</v>
       </c>
-      <c r="CN32" s="258"/>
-      <c r="CO32" s="258"/>
-      <c r="CP32" s="258"/>
-      <c r="CQ32" s="258"/>
-      <c r="CR32" s="259"/>
+      <c r="CN32" s="256"/>
+      <c r="CO32" s="256"/>
+      <c r="CP32" s="256"/>
+      <c r="CQ32" s="256"/>
+      <c r="CR32" s="257"/>
       <c r="CS32" s="42"/>
       <c r="CV32" s="41"/>
-      <c r="CW32" s="255" t="s">
+      <c r="CW32" s="271" t="s">
         <v>364</v>
       </c>
-      <c r="CX32" s="258"/>
-      <c r="CY32" s="258"/>
-      <c r="CZ32" s="258"/>
-      <c r="DA32" s="258"/>
-      <c r="DB32" s="259"/>
+      <c r="CX32" s="256"/>
+      <c r="CY32" s="256"/>
+      <c r="CZ32" s="256"/>
+      <c r="DA32" s="256"/>
+      <c r="DB32" s="257"/>
       <c r="DC32" s="42"/>
     </row>
     <row r="33" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G33" s="41"/>
       <c r="O33" s="41"/>
       <c r="AX33" s="42"/>
-      <c r="AY33" s="291"/>
+      <c r="AY33" s="259"/>
       <c r="BD33" s="41"/>
-      <c r="BE33" s="275"/>
-      <c r="BF33" s="276"/>
-      <c r="BG33" s="276"/>
-      <c r="BH33" s="276"/>
-      <c r="BI33" s="276"/>
-      <c r="BJ33" s="277"/>
+      <c r="BE33" s="277"/>
+      <c r="BF33" s="278"/>
+      <c r="BG33" s="278"/>
+      <c r="BH33" s="278"/>
+      <c r="BI33" s="278"/>
+      <c r="BJ33" s="279"/>
       <c r="BK33" s="42"/>
       <c r="BP33" s="41"/>
-      <c r="BQ33" s="275"/>
-      <c r="BR33" s="276"/>
-      <c r="BS33" s="276"/>
-      <c r="BT33" s="276"/>
-      <c r="BU33" s="276"/>
-      <c r="BV33" s="277"/>
+      <c r="BQ33" s="277"/>
+      <c r="BR33" s="278"/>
+      <c r="BS33" s="278"/>
+      <c r="BT33" s="278"/>
+      <c r="BU33" s="278"/>
+      <c r="BV33" s="279"/>
       <c r="BW33" s="42"/>
       <c r="CA33" s="41"/>
       <c r="CH33" s="42"/>
       <c r="CL33" s="41"/>
-      <c r="CM33" s="255" t="s">
+      <c r="CM33" s="271" t="s">
         <v>355</v>
       </c>
-      <c r="CN33" s="256"/>
-      <c r="CO33" s="256"/>
-      <c r="CP33" s="256"/>
-      <c r="CQ33" s="256"/>
-      <c r="CR33" s="257"/>
+      <c r="CN33" s="280"/>
+      <c r="CO33" s="280"/>
+      <c r="CP33" s="280"/>
+      <c r="CQ33" s="280"/>
+      <c r="CR33" s="281"/>
       <c r="CS33" s="42"/>
       <c r="CV33" s="41"/>
-      <c r="CW33" s="255" t="s">
+      <c r="CW33" s="271" t="s">
         <v>355</v>
       </c>
-      <c r="CX33" s="256"/>
-      <c r="CY33" s="256"/>
-      <c r="CZ33" s="256"/>
-      <c r="DA33" s="256"/>
-      <c r="DB33" s="257"/>
+      <c r="CX33" s="280"/>
+      <c r="CY33" s="280"/>
+      <c r="CZ33" s="280"/>
+      <c r="DA33" s="280"/>
+      <c r="DB33" s="281"/>
       <c r="DC33" s="42"/>
     </row>
     <row r="34" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G34" s="41"/>
       <c r="O34" s="41"/>
       <c r="AX34" s="42"/>
-      <c r="AY34" s="291"/>
+      <c r="AY34" s="259"/>
       <c r="BD34" s="41"/>
       <c r="BK34" s="42"/>
       <c r="BP34" s="41"/>
       <c r="BW34" s="42"/>
       <c r="CA34" s="41"/>
-      <c r="CB34" s="255" t="s">
+      <c r="CB34" s="271" t="s">
         <v>346</v>
       </c>
-      <c r="CC34" s="256"/>
-      <c r="CD34" s="256"/>
-      <c r="CE34" s="256"/>
-      <c r="CF34" s="256"/>
-      <c r="CG34" s="257"/>
+      <c r="CC34" s="280"/>
+      <c r="CD34" s="280"/>
+      <c r="CE34" s="280"/>
+      <c r="CF34" s="280"/>
+      <c r="CG34" s="281"/>
       <c r="CH34" s="42"/>
       <c r="CL34" s="41"/>
       <c r="CS34" s="42"/>
@@ -8778,95 +8748,95 @@
       <c r="G35" s="41"/>
       <c r="O35" s="41"/>
       <c r="AX35" s="42"/>
-      <c r="AY35" s="291"/>
+      <c r="AY35" s="259"/>
       <c r="BD35" s="41"/>
       <c r="BK35" s="42"/>
       <c r="BP35" s="41"/>
-      <c r="BQ35" s="255" t="s">
+      <c r="BQ35" s="271" t="s">
         <v>351</v>
       </c>
-      <c r="BR35" s="258"/>
-      <c r="BS35" s="258"/>
-      <c r="BT35" s="258"/>
-      <c r="BU35" s="258"/>
-      <c r="BV35" s="259"/>
+      <c r="BR35" s="256"/>
+      <c r="BS35" s="256"/>
+      <c r="BT35" s="256"/>
+      <c r="BU35" s="256"/>
+      <c r="BV35" s="257"/>
       <c r="BW35" s="42"/>
       <c r="CA35" s="41"/>
-      <c r="CB35" s="270" t="s">
+      <c r="CB35" s="272" t="s">
         <v>342</v>
       </c>
-      <c r="CC35" s="271"/>
-      <c r="CD35" s="269"/>
-      <c r="CE35" s="259"/>
-      <c r="CF35" s="270" t="s">
+      <c r="CC35" s="273"/>
+      <c r="CD35" s="255"/>
+      <c r="CE35" s="257"/>
+      <c r="CF35" s="272" t="s">
         <v>341</v>
       </c>
-      <c r="CG35" s="271"/>
+      <c r="CG35" s="273"/>
       <c r="CH35" s="42"/>
       <c r="CL35" s="41"/>
-      <c r="CM35" s="255" t="s">
+      <c r="CM35" s="271" t="s">
         <v>358</v>
       </c>
-      <c r="CN35" s="258"/>
-      <c r="CO35" s="258"/>
-      <c r="CP35" s="258"/>
-      <c r="CQ35" s="258"/>
-      <c r="CR35" s="259"/>
+      <c r="CN35" s="256"/>
+      <c r="CO35" s="256"/>
+      <c r="CP35" s="256"/>
+      <c r="CQ35" s="256"/>
+      <c r="CR35" s="257"/>
       <c r="CS35" s="42"/>
       <c r="CV35" s="41"/>
-      <c r="CW35" s="255" t="s">
+      <c r="CW35" s="271" t="s">
         <v>365</v>
       </c>
-      <c r="CX35" s="258"/>
-      <c r="CY35" s="258"/>
-      <c r="CZ35" s="258"/>
-      <c r="DA35" s="258"/>
-      <c r="DB35" s="259"/>
+      <c r="CX35" s="256"/>
+      <c r="CY35" s="256"/>
+      <c r="CZ35" s="256"/>
+      <c r="DA35" s="256"/>
+      <c r="DB35" s="257"/>
       <c r="DC35" s="42"/>
     </row>
     <row r="36" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G36" s="41"/>
       <c r="O36" s="41"/>
       <c r="AX36" s="42"/>
-      <c r="AY36" s="291"/>
+      <c r="AY36" s="259"/>
       <c r="BD36" s="41"/>
       <c r="BK36" s="42"/>
       <c r="BP36" s="41"/>
-      <c r="BQ36" s="255" t="s">
+      <c r="BQ36" s="271" t="s">
         <v>353</v>
       </c>
-      <c r="BR36" s="258"/>
-      <c r="BS36" s="258"/>
-      <c r="BT36" s="258"/>
-      <c r="BU36" s="258"/>
-      <c r="BV36" s="259"/>
+      <c r="BR36" s="256"/>
+      <c r="BS36" s="256"/>
+      <c r="BT36" s="256"/>
+      <c r="BU36" s="256"/>
+      <c r="BV36" s="257"/>
       <c r="BW36" s="42"/>
       <c r="CA36" s="41"/>
       <c r="CH36" s="42"/>
       <c r="CL36" s="41"/>
-      <c r="CM36" s="255" t="s">
+      <c r="CM36" s="271" t="s">
         <v>355</v>
       </c>
-      <c r="CN36" s="256"/>
-      <c r="CO36" s="256"/>
-      <c r="CP36" s="256"/>
-      <c r="CQ36" s="256"/>
-      <c r="CR36" s="257"/>
+      <c r="CN36" s="280"/>
+      <c r="CO36" s="280"/>
+      <c r="CP36" s="280"/>
+      <c r="CQ36" s="280"/>
+      <c r="CR36" s="281"/>
       <c r="CS36" s="42"/>
       <c r="CV36" s="41"/>
-      <c r="CW36" s="260"/>
-      <c r="CX36" s="261"/>
-      <c r="CY36" s="261"/>
-      <c r="CZ36" s="261"/>
-      <c r="DA36" s="261"/>
-      <c r="DB36" s="262"/>
+      <c r="CW36" s="285"/>
+      <c r="CX36" s="286"/>
+      <c r="CY36" s="286"/>
+      <c r="CZ36" s="286"/>
+      <c r="DA36" s="286"/>
+      <c r="DB36" s="287"/>
       <c r="DC36" s="42"/>
     </row>
     <row r="37" spans="7:107" ht="15.75" customHeight="1">
       <c r="G37" s="41"/>
       <c r="O37" s="41"/>
       <c r="AX37" s="42"/>
-      <c r="AY37" s="291"/>
+      <c r="AY37" s="259"/>
       <c r="BD37" s="41"/>
       <c r="BK37" s="42"/>
       <c r="BP37" s="41"/>
@@ -8876,19 +8846,19 @@
       <c r="CL37" s="41"/>
       <c r="CS37" s="42"/>
       <c r="CV37" s="41"/>
-      <c r="CW37" s="263"/>
-      <c r="CX37" s="264"/>
-      <c r="CY37" s="264"/>
-      <c r="CZ37" s="264"/>
-      <c r="DA37" s="264"/>
-      <c r="DB37" s="265"/>
+      <c r="CW37" s="288"/>
+      <c r="CX37" s="289"/>
+      <c r="CY37" s="289"/>
+      <c r="CZ37" s="289"/>
+      <c r="DA37" s="289"/>
+      <c r="DB37" s="290"/>
       <c r="DC37" s="42"/>
     </row>
     <row r="38" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G38" s="41"/>
       <c r="O38" s="41"/>
       <c r="AX38" s="42"/>
-      <c r="AY38" s="291"/>
+      <c r="AY38" s="259"/>
       <c r="BD38" s="41"/>
       <c r="BK38" s="42"/>
       <c r="BP38" s="41"/>
@@ -8898,70 +8868,70 @@
       <c r="CL38" s="41"/>
       <c r="CS38" s="42"/>
       <c r="CV38" s="41"/>
-      <c r="CW38" s="263"/>
-      <c r="CX38" s="264"/>
-      <c r="CY38" s="264"/>
-      <c r="CZ38" s="264"/>
-      <c r="DA38" s="264"/>
-      <c r="DB38" s="265"/>
+      <c r="CW38" s="288"/>
+      <c r="CX38" s="289"/>
+      <c r="CY38" s="289"/>
+      <c r="CZ38" s="289"/>
+      <c r="DA38" s="289"/>
+      <c r="DB38" s="290"/>
       <c r="DC38" s="42"/>
     </row>
     <row r="39" spans="7:107" ht="15.75" customHeight="1">
       <c r="G39" s="41"/>
       <c r="O39" s="41"/>
       <c r="AX39" s="42"/>
-      <c r="AY39" s="291"/>
+      <c r="AY39" s="259"/>
       <c r="BD39" s="41"/>
       <c r="BK39" s="42"/>
       <c r="BP39" s="41"/>
       <c r="BW39" s="42"/>
       <c r="CA39" s="41"/>
-      <c r="CB39" s="272" t="s">
+      <c r="CB39" s="274" t="s">
         <v>347</v>
       </c>
-      <c r="CC39" s="273"/>
-      <c r="CD39" s="273"/>
-      <c r="CE39" s="273"/>
-      <c r="CF39" s="273"/>
-      <c r="CG39" s="274"/>
+      <c r="CC39" s="275"/>
+      <c r="CD39" s="275"/>
+      <c r="CE39" s="275"/>
+      <c r="CF39" s="275"/>
+      <c r="CG39" s="276"/>
       <c r="CH39" s="42"/>
       <c r="CL39" s="41"/>
       <c r="CS39" s="42"/>
       <c r="CV39" s="41"/>
-      <c r="CW39" s="263"/>
-      <c r="CX39" s="264"/>
-      <c r="CY39" s="264"/>
-      <c r="CZ39" s="264"/>
-      <c r="DA39" s="264"/>
-      <c r="DB39" s="265"/>
+      <c r="CW39" s="288"/>
+      <c r="CX39" s="289"/>
+      <c r="CY39" s="289"/>
+      <c r="CZ39" s="289"/>
+      <c r="DA39" s="289"/>
+      <c r="DB39" s="290"/>
       <c r="DC39" s="42"/>
     </row>
     <row r="40" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G40" s="41"/>
       <c r="O40" s="41"/>
       <c r="AX40" s="42"/>
-      <c r="AY40" s="292"/>
+      <c r="AY40" s="260"/>
       <c r="BD40" s="41"/>
       <c r="BK40" s="42"/>
       <c r="BP40" s="41"/>
       <c r="BW40" s="42"/>
       <c r="CA40" s="41"/>
-      <c r="CB40" s="275"/>
-      <c r="CC40" s="276"/>
-      <c r="CD40" s="276"/>
-      <c r="CE40" s="276"/>
-      <c r="CF40" s="276"/>
-      <c r="CG40" s="277"/>
+      <c r="CB40" s="277"/>
+      <c r="CC40" s="278"/>
+      <c r="CD40" s="278"/>
+      <c r="CE40" s="278"/>
+      <c r="CF40" s="278"/>
+      <c r="CG40" s="279"/>
       <c r="CH40" s="42"/>
       <c r="CL40" s="41"/>
       <c r="CS40" s="42"/>
       <c r="CV40" s="41"/>
-      <c r="CW40" s="266"/>
-      <c r="CX40" s="267"/>
-      <c r="CY40" s="267"/>
-      <c r="CZ40" s="267"/>
-      <c r="DA40" s="267"/>
-      <c r="DB40" s="268"/>
+      <c r="CW40" s="291"/>
+      <c r="CX40" s="292"/>
+      <c r="CY40" s="292"/>
+      <c r="CZ40" s="292"/>
+      <c r="DA40" s="292"/>
+      <c r="DB40" s="293"/>
       <c r="DC40" s="42"/>
     </row>
     <row r="41" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
@@ -9024,43 +8994,43 @@
       <c r="M42" s="44"/>
       <c r="N42" s="44"/>
       <c r="O42" s="115"/>
-      <c r="P42" s="269" t="s">
+      <c r="P42" s="255" t="s">
         <v>323</v>
       </c>
-      <c r="Q42" s="258"/>
-      <c r="R42" s="258"/>
-      <c r="S42" s="258"/>
-      <c r="T42" s="258"/>
-      <c r="U42" s="258"/>
-      <c r="V42" s="258"/>
-      <c r="W42" s="258"/>
-      <c r="X42" s="258"/>
-      <c r="Y42" s="258"/>
-      <c r="Z42" s="258"/>
-      <c r="AA42" s="258"/>
-      <c r="AB42" s="258"/>
-      <c r="AC42" s="258"/>
-      <c r="AD42" s="258"/>
-      <c r="AE42" s="258"/>
-      <c r="AF42" s="258"/>
-      <c r="AG42" s="258"/>
-      <c r="AH42" s="258"/>
-      <c r="AI42" s="258"/>
-      <c r="AJ42" s="258"/>
-      <c r="AK42" s="258"/>
-      <c r="AL42" s="258"/>
-      <c r="AM42" s="258"/>
-      <c r="AN42" s="258"/>
-      <c r="AO42" s="258"/>
-      <c r="AP42" s="258"/>
-      <c r="AQ42" s="258"/>
-      <c r="AR42" s="258"/>
-      <c r="AS42" s="258"/>
-      <c r="AT42" s="258"/>
-      <c r="AU42" s="258"/>
-      <c r="AV42" s="258"/>
-      <c r="AW42" s="258"/>
-      <c r="AX42" s="259"/>
+      <c r="Q42" s="256"/>
+      <c r="R42" s="256"/>
+      <c r="S42" s="256"/>
+      <c r="T42" s="256"/>
+      <c r="U42" s="256"/>
+      <c r="V42" s="256"/>
+      <c r="W42" s="256"/>
+      <c r="X42" s="256"/>
+      <c r="Y42" s="256"/>
+      <c r="Z42" s="256"/>
+      <c r="AA42" s="256"/>
+      <c r="AB42" s="256"/>
+      <c r="AC42" s="256"/>
+      <c r="AD42" s="256"/>
+      <c r="AE42" s="256"/>
+      <c r="AF42" s="256"/>
+      <c r="AG42" s="256"/>
+      <c r="AH42" s="256"/>
+      <c r="AI42" s="256"/>
+      <c r="AJ42" s="256"/>
+      <c r="AK42" s="256"/>
+      <c r="AL42" s="256"/>
+      <c r="AM42" s="256"/>
+      <c r="AN42" s="256"/>
+      <c r="AO42" s="256"/>
+      <c r="AP42" s="256"/>
+      <c r="AQ42" s="256"/>
+      <c r="AR42" s="256"/>
+      <c r="AS42" s="256"/>
+      <c r="AT42" s="256"/>
+      <c r="AU42" s="256"/>
+      <c r="AV42" s="256"/>
+      <c r="AW42" s="256"/>
+      <c r="AX42" s="257"/>
       <c r="AY42" s="115"/>
       <c r="BD42" s="43"/>
       <c r="BE42" s="44"/>
@@ -9105,78 +9075,6 @@
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="P42:AX42"/>
-    <mergeCell ref="AY12:AY40"/>
-    <mergeCell ref="G11:N12"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="P17:R17"/>
-    <mergeCell ref="BD11:BK12"/>
-    <mergeCell ref="BD14:BK14"/>
-    <mergeCell ref="BP11:BW12"/>
-    <mergeCell ref="BP14:BW14"/>
-    <mergeCell ref="CA11:CH12"/>
-    <mergeCell ref="CA14:CH14"/>
-    <mergeCell ref="CL11:CS12"/>
-    <mergeCell ref="CL14:CS14"/>
-    <mergeCell ref="CV11:DC12"/>
-    <mergeCell ref="CV14:DC14"/>
-    <mergeCell ref="BQ24:BV24"/>
-    <mergeCell ref="CM18:CR18"/>
-    <mergeCell ref="CM19:CR19"/>
-    <mergeCell ref="CM21:CR21"/>
-    <mergeCell ref="CM24:CR24"/>
-    <mergeCell ref="CM23:CR23"/>
-    <mergeCell ref="BE19:BJ19"/>
-    <mergeCell ref="BE18:BJ18"/>
-    <mergeCell ref="BE21:BJ21"/>
-    <mergeCell ref="BE22:BJ22"/>
-    <mergeCell ref="BQ19:BV19"/>
-    <mergeCell ref="BQ18:BV18"/>
-    <mergeCell ref="BQ21:BV21"/>
-    <mergeCell ref="BQ22:BV22"/>
-    <mergeCell ref="BE24:BJ24"/>
-    <mergeCell ref="BE25:BJ25"/>
-    <mergeCell ref="BE27:BJ27"/>
-    <mergeCell ref="BE28:BF28"/>
-    <mergeCell ref="BI28:BJ28"/>
-    <mergeCell ref="BG28:BH28"/>
-    <mergeCell ref="BE32:BJ33"/>
-    <mergeCell ref="CF29:CG29"/>
-    <mergeCell ref="CD29:CE29"/>
-    <mergeCell ref="CB29:CC29"/>
-    <mergeCell ref="CB28:CG28"/>
-    <mergeCell ref="BQ28:BV28"/>
-    <mergeCell ref="CB39:CG40"/>
-    <mergeCell ref="CB17:CG17"/>
-    <mergeCell ref="CB18:CC18"/>
-    <mergeCell ref="CD18:CE18"/>
-    <mergeCell ref="CF18:CG18"/>
-    <mergeCell ref="CB20:CG20"/>
-    <mergeCell ref="CF26:CG26"/>
-    <mergeCell ref="CD26:CE26"/>
-    <mergeCell ref="CB26:CC26"/>
-    <mergeCell ref="CB25:CG25"/>
-    <mergeCell ref="CE23:CH23"/>
-    <mergeCell ref="CB21:CG21"/>
-    <mergeCell ref="BQ36:BV36"/>
-    <mergeCell ref="CB31:CG31"/>
-    <mergeCell ref="CB32:CC32"/>
-    <mergeCell ref="CD32:CE32"/>
-    <mergeCell ref="CF32:CG32"/>
-    <mergeCell ref="CB34:CG34"/>
-    <mergeCell ref="CB35:CC35"/>
-    <mergeCell ref="CD35:CE35"/>
-    <mergeCell ref="CF35:CG35"/>
-    <mergeCell ref="BQ32:BV33"/>
-    <mergeCell ref="BQ25:BV25"/>
-    <mergeCell ref="BQ27:BV27"/>
-    <mergeCell ref="CM32:CR32"/>
-    <mergeCell ref="CM33:CR33"/>
-    <mergeCell ref="CM35:CR35"/>
-    <mergeCell ref="CM27:CR27"/>
-    <mergeCell ref="CM26:CR26"/>
-    <mergeCell ref="BQ35:BV35"/>
     <mergeCell ref="CM36:CR36"/>
     <mergeCell ref="CW18:DB18"/>
     <mergeCell ref="CW20:DB20"/>
@@ -9193,6 +9091,78 @@
     <mergeCell ref="CW36:DB40"/>
     <mergeCell ref="CM29:CR29"/>
     <mergeCell ref="CM30:CR30"/>
+    <mergeCell ref="BQ25:BV25"/>
+    <mergeCell ref="BQ27:BV27"/>
+    <mergeCell ref="CM32:CR32"/>
+    <mergeCell ref="CM33:CR33"/>
+    <mergeCell ref="CM35:CR35"/>
+    <mergeCell ref="CM27:CR27"/>
+    <mergeCell ref="CM26:CR26"/>
+    <mergeCell ref="BQ35:BV35"/>
+    <mergeCell ref="BQ36:BV36"/>
+    <mergeCell ref="CB31:CG31"/>
+    <mergeCell ref="CB32:CC32"/>
+    <mergeCell ref="CD32:CE32"/>
+    <mergeCell ref="CF32:CG32"/>
+    <mergeCell ref="CB34:CG34"/>
+    <mergeCell ref="CB35:CC35"/>
+    <mergeCell ref="CD35:CE35"/>
+    <mergeCell ref="CF35:CG35"/>
+    <mergeCell ref="BQ32:BV33"/>
+    <mergeCell ref="CB39:CG40"/>
+    <mergeCell ref="CB17:CG17"/>
+    <mergeCell ref="CB18:CC18"/>
+    <mergeCell ref="CD18:CE18"/>
+    <mergeCell ref="CF18:CG18"/>
+    <mergeCell ref="CB20:CG20"/>
+    <mergeCell ref="CF26:CG26"/>
+    <mergeCell ref="CD26:CE26"/>
+    <mergeCell ref="CB26:CC26"/>
+    <mergeCell ref="CB25:CG25"/>
+    <mergeCell ref="CE23:CH23"/>
+    <mergeCell ref="CB21:CG21"/>
+    <mergeCell ref="BE32:BJ33"/>
+    <mergeCell ref="CF29:CG29"/>
+    <mergeCell ref="CD29:CE29"/>
+    <mergeCell ref="CB29:CC29"/>
+    <mergeCell ref="CB28:CG28"/>
+    <mergeCell ref="BQ28:BV28"/>
+    <mergeCell ref="BE24:BJ24"/>
+    <mergeCell ref="BE25:BJ25"/>
+    <mergeCell ref="BE27:BJ27"/>
+    <mergeCell ref="BE28:BF28"/>
+    <mergeCell ref="BI28:BJ28"/>
+    <mergeCell ref="BG28:BH28"/>
+    <mergeCell ref="BE19:BJ19"/>
+    <mergeCell ref="BE18:BJ18"/>
+    <mergeCell ref="BE21:BJ21"/>
+    <mergeCell ref="BE22:BJ22"/>
+    <mergeCell ref="BQ19:BV19"/>
+    <mergeCell ref="BQ18:BV18"/>
+    <mergeCell ref="BQ21:BV21"/>
+    <mergeCell ref="BQ22:BV22"/>
+    <mergeCell ref="CL11:CS12"/>
+    <mergeCell ref="CL14:CS14"/>
+    <mergeCell ref="CV11:DC12"/>
+    <mergeCell ref="CV14:DC14"/>
+    <mergeCell ref="BQ24:BV24"/>
+    <mergeCell ref="CM18:CR18"/>
+    <mergeCell ref="CM19:CR19"/>
+    <mergeCell ref="CM21:CR21"/>
+    <mergeCell ref="CM24:CR24"/>
+    <mergeCell ref="CM23:CR23"/>
+    <mergeCell ref="BD11:BK12"/>
+    <mergeCell ref="BD14:BK14"/>
+    <mergeCell ref="BP11:BW12"/>
+    <mergeCell ref="BP14:BW14"/>
+    <mergeCell ref="CA11:CH12"/>
+    <mergeCell ref="CA14:CH14"/>
+    <mergeCell ref="P42:AX42"/>
+    <mergeCell ref="AY12:AY40"/>
+    <mergeCell ref="G11:N12"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="P17:R17"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9251,14 +9221,14 @@
         <v>476</v>
       </c>
       <c r="C3" s="28"/>
-      <c r="D3" s="296" t="s">
+      <c r="D3" s="299" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="297"/>
-      <c r="F3" s="297"/>
-      <c r="G3" s="297"/>
-      <c r="H3" s="297"/>
-      <c r="I3" s="298"/>
+      <c r="E3" s="300"/>
+      <c r="F3" s="300"/>
+      <c r="G3" s="300"/>
+      <c r="H3" s="300"/>
+      <c r="I3" s="301"/>
     </row>
     <row r="4" spans="1:16" ht="21" customHeight="1">
       <c r="A4" s="156" t="s">
@@ -9397,15 +9367,15 @@
         <v>375</v>
       </c>
       <c r="F12" s="132"/>
-      <c r="H12" s="299" t="s">
+      <c r="H12" s="294" t="s">
         <v>400</v>
       </c>
-      <c r="I12" s="300"/>
+      <c r="I12" s="302"/>
       <c r="J12" s="140" t="s">
         <v>404</v>
       </c>
       <c r="K12" s="132"/>
-      <c r="M12" s="299" t="s">
+      <c r="M12" s="294" t="s">
         <v>415</v>
       </c>
       <c r="N12" s="295"/>
@@ -9422,15 +9392,15 @@
         <v>368</v>
       </c>
       <c r="F13" s="132"/>
-      <c r="H13" s="299" t="s">
+      <c r="H13" s="294" t="s">
         <v>401</v>
       </c>
-      <c r="I13" s="300"/>
+      <c r="I13" s="302"/>
       <c r="J13" s="140" t="s">
         <v>403</v>
       </c>
       <c r="K13" s="132"/>
-      <c r="M13" s="299" t="s">
+      <c r="M13" s="294" t="s">
         <v>216</v>
       </c>
       <c r="N13" s="295"/>
@@ -9445,15 +9415,15 @@
       </c>
       <c r="E14" s="131"/>
       <c r="F14" s="132"/>
-      <c r="H14" s="299" t="s">
+      <c r="H14" s="294" t="s">
         <v>402</v>
       </c>
-      <c r="I14" s="300"/>
+      <c r="I14" s="302"/>
       <c r="J14" s="140" t="s">
         <v>369</v>
       </c>
       <c r="K14" s="132"/>
-      <c r="M14" s="299" t="s">
+      <c r="M14" s="294" t="s">
         <v>215</v>
       </c>
       <c r="N14" s="295"/>
@@ -9468,11 +9438,11 @@
       </c>
       <c r="E15" s="140"/>
       <c r="F15" s="132"/>
-      <c r="H15" s="301"/>
-      <c r="I15" s="302"/>
+      <c r="H15" s="297"/>
+      <c r="I15" s="298"/>
       <c r="J15" s="140"/>
       <c r="K15" s="132"/>
-      <c r="M15" s="299" t="s">
+      <c r="M15" s="294" t="s">
         <v>211</v>
       </c>
       <c r="N15" s="295"/>
@@ -9487,11 +9457,11 @@
       </c>
       <c r="E16" s="131"/>
       <c r="F16" s="134"/>
-      <c r="H16" s="301"/>
-      <c r="I16" s="302"/>
+      <c r="H16" s="297"/>
+      <c r="I16" s="298"/>
       <c r="J16" s="140"/>
       <c r="K16" s="132"/>
-      <c r="M16" s="299" t="s">
+      <c r="M16" s="294" t="s">
         <v>212</v>
       </c>
       <c r="N16" s="295"/>
@@ -9510,7 +9480,7 @@
       <c r="I17" s="135"/>
       <c r="J17" s="136"/>
       <c r="K17" s="137"/>
-      <c r="M17" s="299" t="s">
+      <c r="M17" s="294" t="s">
         <v>416</v>
       </c>
       <c r="N17" s="295"/>
@@ -9523,7 +9493,7 @@
       <c r="C18" s="133"/>
       <c r="E18" s="131"/>
       <c r="F18" s="134"/>
-      <c r="M18" s="299" t="s">
+      <c r="M18" s="294" t="s">
         <v>213</v>
       </c>
       <c r="N18" s="295"/>
@@ -9546,7 +9516,7 @@
       <c r="K19" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="M19" s="299" t="s">
+      <c r="M19" s="294" t="s">
         <v>290</v>
       </c>
       <c r="N19" s="295"/>
@@ -9567,7 +9537,7 @@
       <c r="I20" s="29"/>
       <c r="J20" s="29"/>
       <c r="K20" s="127"/>
-      <c r="M20" s="294" t="s">
+      <c r="M20" s="296" t="s">
         <v>423</v>
       </c>
       <c r="N20" s="295"/>
@@ -9584,7 +9554,7 @@
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
       <c r="K21" s="127"/>
-      <c r="M21" s="294" t="s">
+      <c r="M21" s="296" t="s">
         <v>424</v>
       </c>
       <c r="N21" s="295"/>
@@ -9604,21 +9574,21 @@
         <v>84</v>
       </c>
       <c r="K22" s="130"/>
-      <c r="M22" s="294"/>
+      <c r="M22" s="296"/>
       <c r="N22" s="295"/>
       <c r="O22" s="131"/>
       <c r="P22" s="132"/>
     </row>
     <row r="23" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="H23" s="299" t="s">
+      <c r="H23" s="294" t="s">
         <v>405</v>
       </c>
-      <c r="I23" s="300"/>
+      <c r="I23" s="302"/>
       <c r="J23" s="140" t="s">
         <v>369</v>
       </c>
       <c r="K23" s="132"/>
-      <c r="M23" s="294"/>
+      <c r="M23" s="296"/>
       <c r="N23" s="295"/>
       <c r="O23" s="131"/>
       <c r="P23" s="132"/>
@@ -9632,11 +9602,11 @@
       <c r="F24" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="H24" s="299"/>
-      <c r="I24" s="300"/>
+      <c r="H24" s="294"/>
+      <c r="I24" s="302"/>
       <c r="J24" s="140"/>
       <c r="K24" s="132"/>
-      <c r="M24" s="294"/>
+      <c r="M24" s="296"/>
       <c r="N24" s="295"/>
       <c r="O24" s="131"/>
       <c r="P24" s="132"/>
@@ -9650,11 +9620,11 @@
       <c r="F25" s="143" t="s">
         <v>373</v>
       </c>
-      <c r="H25" s="299"/>
-      <c r="I25" s="300"/>
+      <c r="H25" s="294"/>
+      <c r="I25" s="302"/>
       <c r="J25" s="140"/>
       <c r="K25" s="132"/>
-      <c r="M25" s="294"/>
+      <c r="M25" s="296"/>
       <c r="N25" s="295"/>
       <c r="O25" s="131"/>
       <c r="P25" s="132"/>
@@ -9664,11 +9634,11 @@
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
       <c r="F26" s="127"/>
-      <c r="H26" s="301"/>
-      <c r="I26" s="302"/>
+      <c r="H26" s="297"/>
+      <c r="I26" s="298"/>
       <c r="J26" s="140"/>
       <c r="K26" s="132"/>
-      <c r="M26" s="294"/>
+      <c r="M26" s="296"/>
       <c r="N26" s="295"/>
       <c r="O26" s="131"/>
       <c r="P26" s="132"/>
@@ -9682,11 +9652,11 @@
         <v>84</v>
       </c>
       <c r="F27" s="130"/>
-      <c r="H27" s="301"/>
-      <c r="I27" s="302"/>
+      <c r="H27" s="297"/>
+      <c r="I27" s="298"/>
       <c r="J27" s="140"/>
       <c r="K27" s="132"/>
-      <c r="M27" s="294"/>
+      <c r="M27" s="296"/>
       <c r="N27" s="295"/>
       <c r="O27" s="131"/>
       <c r="P27" s="132"/>
@@ -9703,7 +9673,7 @@
       <c r="I28" s="135"/>
       <c r="J28" s="136"/>
       <c r="K28" s="137"/>
-      <c r="M28" s="294"/>
+      <c r="M28" s="296"/>
       <c r="N28" s="295"/>
       <c r="O28" s="131"/>
       <c r="P28" s="132"/>
@@ -9716,7 +9686,7 @@
         <v>388</v>
       </c>
       <c r="F29" s="132"/>
-      <c r="M29" s="294"/>
+      <c r="M29" s="296"/>
       <c r="N29" s="295"/>
       <c r="O29" s="131"/>
       <c r="P29" s="132"/>
@@ -9727,7 +9697,7 @@
       </c>
       <c r="E30" s="140"/>
       <c r="F30" s="132"/>
-      <c r="M30" s="294"/>
+      <c r="M30" s="296"/>
       <c r="N30" s="295"/>
       <c r="O30" s="131"/>
       <c r="P30" s="132"/>
@@ -9808,7 +9778,7 @@
       <c r="C37" s="133"/>
       <c r="E37" s="131"/>
       <c r="F37" s="134"/>
-      <c r="M37" s="299" t="s">
+      <c r="M37" s="294" t="s">
         <v>428</v>
       </c>
       <c r="N37" s="295"/>
@@ -9821,7 +9791,7 @@
       <c r="C38" s="133"/>
       <c r="E38" s="131"/>
       <c r="F38" s="134"/>
-      <c r="M38" s="294" t="s">
+      <c r="M38" s="296" t="s">
         <v>429</v>
       </c>
       <c r="N38" s="295"/>
@@ -9835,7 +9805,7 @@
       <c r="D39" s="135"/>
       <c r="E39" s="136"/>
       <c r="F39" s="139"/>
-      <c r="M39" s="294"/>
+      <c r="M39" s="296"/>
       <c r="N39" s="295"/>
       <c r="O39" s="131" t="s">
         <v>432</v>
@@ -9843,7 +9813,7 @@
       <c r="P39" s="132"/>
     </row>
     <row r="40" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="M40" s="294"/>
+      <c r="M40" s="296"/>
       <c r="N40" s="295"/>
       <c r="O40" s="131" t="s">
         <v>433</v>
@@ -9859,7 +9829,7 @@
       <c r="F41" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="M41" s="294"/>
+      <c r="M41" s="296"/>
       <c r="N41" s="295"/>
       <c r="O41" s="131" t="s">
         <v>435</v>
@@ -9875,7 +9845,7 @@
       <c r="F42" s="143" t="s">
         <v>373</v>
       </c>
-      <c r="M42" s="294"/>
+      <c r="M42" s="296"/>
       <c r="N42" s="295"/>
       <c r="O42" s="131" t="s">
         <v>434</v>
@@ -9970,7 +9940,7 @@
         <v>397</v>
       </c>
       <c r="F49" s="134"/>
-      <c r="M49" s="299" t="s">
+      <c r="M49" s="294" t="s">
         <v>436</v>
       </c>
       <c r="N49" s="295"/>
@@ -9987,7 +9957,7 @@
         <v>334</v>
       </c>
       <c r="F50" s="134"/>
-      <c r="M50" s="294" t="s">
+      <c r="M50" s="296" t="s">
         <v>437</v>
       </c>
       <c r="N50" s="295"/>
@@ -10004,7 +9974,7 @@
         <v>369</v>
       </c>
       <c r="F51" s="134"/>
-      <c r="M51" s="294" t="s">
+      <c r="M51" s="296" t="s">
         <v>438</v>
       </c>
       <c r="N51" s="295"/>
@@ -10017,7 +9987,7 @@
         <v>456</v>
       </c>
       <c r="F52" s="134"/>
-      <c r="M52" s="294" t="s">
+      <c r="M52" s="296" t="s">
         <v>441</v>
       </c>
       <c r="N52" s="295"/>
@@ -10031,7 +10001,7 @@
         <v>457</v>
       </c>
       <c r="F53" s="137"/>
-      <c r="M53" s="294"/>
+      <c r="M53" s="296"/>
       <c r="N53" s="295"/>
       <c r="O53" s="131"/>
       <c r="P53" s="132"/>
@@ -10084,7 +10054,7 @@
       </c>
     </row>
     <row r="60" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M60" s="299" t="s">
+      <c r="M60" s="294" t="s">
         <v>442</v>
       </c>
       <c r="N60" s="295"/>
@@ -10096,7 +10066,7 @@
       </c>
     </row>
     <row r="61" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M61" s="294" t="s">
+      <c r="M61" s="296" t="s">
         <v>443</v>
       </c>
       <c r="N61" s="295"/>
@@ -10108,7 +10078,7 @@
       </c>
     </row>
     <row r="62" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M62" s="299" t="s">
+      <c r="M62" s="294" t="s">
         <v>448</v>
       </c>
       <c r="N62" s="295"/>
@@ -10120,13 +10090,13 @@
       </c>
     </row>
     <row r="63" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M63" s="294"/>
+      <c r="M63" s="296"/>
       <c r="N63" s="295"/>
       <c r="O63" s="131"/>
       <c r="P63" s="132"/>
     </row>
     <row r="64" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M64" s="294"/>
+      <c r="M64" s="296"/>
       <c r="N64" s="295"/>
       <c r="O64" s="131"/>
       <c r="P64" s="132"/>
@@ -10175,7 +10145,7 @@
       <c r="P70" s="130"/>
     </row>
     <row r="71" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M71" s="299" t="s">
+      <c r="M71" s="294" t="s">
         <v>449</v>
       </c>
       <c r="N71" s="295"/>
@@ -10185,7 +10155,7 @@
       <c r="P71" s="132"/>
     </row>
     <row r="72" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M72" s="299" t="s">
+      <c r="M72" s="294" t="s">
         <v>450</v>
       </c>
       <c r="N72" s="295"/>
@@ -10195,19 +10165,19 @@
       <c r="P72" s="132"/>
     </row>
     <row r="73" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M73" s="294"/>
+      <c r="M73" s="296"/>
       <c r="N73" s="295"/>
       <c r="O73" s="131"/>
       <c r="P73" s="132"/>
     </row>
     <row r="74" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M74" s="294"/>
+      <c r="M74" s="296"/>
       <c r="N74" s="295"/>
       <c r="O74" s="131"/>
       <c r="P74" s="132"/>
     </row>
     <row r="75" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M75" s="294"/>
+      <c r="M75" s="296"/>
       <c r="N75" s="295"/>
       <c r="O75" s="131"/>
       <c r="P75" s="132"/>
@@ -10256,7 +10226,7 @@
       <c r="P81" s="130"/>
     </row>
     <row r="82" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M82" s="299" t="s">
+      <c r="M82" s="294" t="s">
         <v>449</v>
       </c>
       <c r="N82" s="295"/>
@@ -10266,7 +10236,7 @@
       <c r="P82" s="132"/>
     </row>
     <row r="83" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M83" s="299" t="s">
+      <c r="M83" s="294" t="s">
         <v>452</v>
       </c>
       <c r="N83" s="295"/>
@@ -10276,19 +10246,19 @@
       <c r="P83" s="132"/>
     </row>
     <row r="84" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M84" s="294"/>
+      <c r="M84" s="296"/>
       <c r="N84" s="295"/>
       <c r="O84" s="131"/>
       <c r="P84" s="132"/>
     </row>
     <row r="85" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M85" s="294"/>
+      <c r="M85" s="296"/>
       <c r="N85" s="295"/>
       <c r="O85" s="131"/>
       <c r="P85" s="132"/>
     </row>
     <row r="86" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M86" s="294"/>
+      <c r="M86" s="296"/>
       <c r="N86" s="295"/>
       <c r="O86" s="131"/>
       <c r="P86" s="132"/>
@@ -10335,7 +10305,7 @@
       <c r="P92" s="130"/>
     </row>
     <row r="93" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M93" s="299" t="s">
+      <c r="M93" s="294" t="s">
         <v>216</v>
       </c>
       <c r="N93" s="295"/>
@@ -10345,7 +10315,7 @@
       <c r="P93" s="132"/>
     </row>
     <row r="94" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M94" s="294"/>
+      <c r="M94" s="296"/>
       <c r="N94" s="295"/>
       <c r="O94" s="140" t="s">
         <v>454</v>
@@ -10353,7 +10323,7 @@
       <c r="P94" s="132"/>
     </row>
     <row r="95" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M95" s="294"/>
+      <c r="M95" s="296"/>
       <c r="N95" s="295"/>
       <c r="O95" s="140" t="s">
         <v>455</v>
@@ -10361,13 +10331,13 @@
       <c r="P95" s="132"/>
     </row>
     <row r="96" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M96" s="294"/>
+      <c r="M96" s="296"/>
       <c r="N96" s="295"/>
       <c r="O96" s="131"/>
       <c r="P96" s="132"/>
     </row>
     <row r="97" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M97" s="294"/>
+      <c r="M97" s="296"/>
       <c r="N97" s="295"/>
       <c r="O97" s="131"/>
       <c r="P97" s="132"/>
@@ -10414,7 +10384,7 @@
       <c r="P103" s="130"/>
     </row>
     <row r="104" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M104" s="299" t="s">
+      <c r="M104" s="294" t="s">
         <v>465</v>
       </c>
       <c r="N104" s="295"/>
@@ -10424,7 +10394,7 @@
       <c r="P104" s="132"/>
     </row>
     <row r="105" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M105" s="299" t="s">
+      <c r="M105" s="294" t="s">
         <v>466</v>
       </c>
       <c r="N105" s="295"/>
@@ -10434,7 +10404,7 @@
       <c r="P105" s="132"/>
     </row>
     <row r="106" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M106" s="299" t="s">
+      <c r="M106" s="294" t="s">
         <v>467</v>
       </c>
       <c r="N106" s="295"/>
@@ -10444,7 +10414,7 @@
       <c r="P106" s="132"/>
     </row>
     <row r="107" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M107" s="294"/>
+      <c r="M107" s="296"/>
       <c r="N107" s="295"/>
       <c r="O107" s="140" t="s">
         <v>464</v>
@@ -10452,7 +10422,7 @@
       <c r="P107" s="132"/>
     </row>
     <row r="108" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M108" s="294"/>
+      <c r="M108" s="296"/>
       <c r="N108" s="295"/>
       <c r="O108" s="131"/>
       <c r="P108" s="132"/>
@@ -10501,7 +10471,7 @@
       <c r="P114" s="130"/>
     </row>
     <row r="115" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M115" s="299" t="s">
+      <c r="M115" s="294" t="s">
         <v>482</v>
       </c>
       <c r="N115" s="295"/>
@@ -10511,31 +10481,31 @@
       <c r="P115" s="132"/>
     </row>
     <row r="116" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M116" s="294"/>
+      <c r="M116" s="296"/>
       <c r="N116" s="295"/>
       <c r="O116" s="131"/>
       <c r="P116" s="132"/>
     </row>
     <row r="117" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M117" s="294"/>
+      <c r="M117" s="296"/>
       <c r="N117" s="295"/>
       <c r="O117" s="131"/>
       <c r="P117" s="132"/>
     </row>
     <row r="118" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M118" s="294"/>
+      <c r="M118" s="296"/>
       <c r="N118" s="295"/>
       <c r="O118" s="131"/>
       <c r="P118" s="132"/>
     </row>
     <row r="119" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M119" s="294"/>
+      <c r="M119" s="296"/>
       <c r="N119" s="295"/>
       <c r="O119" s="131"/>
       <c r="P119" s="132"/>
     </row>
     <row r="120" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M120" s="294"/>
+      <c r="M120" s="296"/>
       <c r="N120" s="295"/>
       <c r="O120" s="131"/>
       <c r="P120" s="132"/>
@@ -10548,46 +10518,22 @@
     </row>
   </sheetData>
   <mergeCells count="72">
-    <mergeCell ref="M105:N105"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="M107:N107"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="M95:N95"/>
-    <mergeCell ref="M96:N96"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="M104:N104"/>
-    <mergeCell ref="M83:N83"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="M86:N86"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="M75:N75"/>
-    <mergeCell ref="M82:N82"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M119:N119"/>
+    <mergeCell ref="M120:N120"/>
+    <mergeCell ref="D3:I3"/>
+    <mergeCell ref="M115:N115"/>
+    <mergeCell ref="M116:N116"/>
+    <mergeCell ref="M117:N117"/>
+    <mergeCell ref="M118:N118"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="H26:I26"/>
     <mergeCell ref="M37:N37"/>
     <mergeCell ref="H27:I27"/>
     <mergeCell ref="M12:N12"/>
@@ -10604,22 +10550,46 @@
     <mergeCell ref="M21:N21"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M119:N119"/>
-    <mergeCell ref="M120:N120"/>
-    <mergeCell ref="D3:I3"/>
-    <mergeCell ref="M115:N115"/>
-    <mergeCell ref="M116:N116"/>
-    <mergeCell ref="M117:N117"/>
-    <mergeCell ref="M118:N118"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="M82:N82"/>
+    <mergeCell ref="M83:N83"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="M107:N107"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="M95:N95"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="M104:N104"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
@@ -15718,8 +15688,8 @@
   </sheetPr>
   <dimension ref="B2:U215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
@@ -20436,52 +20406,42 @@
     <mergeCell ref="H3:P3"/>
     <mergeCell ref="R6:U214"/>
   </mergeCells>
-  <conditionalFormatting sqref="B12:D27 C28:C38 B28:B213 D38 C40:C48 D51 C51:C61 C64:C220 D59:D213">
-    <cfRule type="expression" dxfId="9" priority="7">
+  <conditionalFormatting sqref="B12:D27 C28:C38 B28:B213 D38 C40:C48 D51 C51:C61 C64:C220">
+    <cfRule type="expression" dxfId="7" priority="7">
       <formula>IF((B12&lt;&gt;"")*AND(F12&lt;&gt;""),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="expression" dxfId="8" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>IF((C35&lt;&gt;"")*AND(G38&lt;&gt;""),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39 C49">
-    <cfRule type="expression" dxfId="7" priority="9">
+    <cfRule type="expression" dxfId="5" priority="9">
       <formula>IF((C39&lt;&gt;"")*AND(G40&lt;&gt;""),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C63">
-    <cfRule type="expression" dxfId="6" priority="18">
+    <cfRule type="expression" dxfId="4" priority="18">
       <formula>IF((C63&lt;&gt;"")*AND(G62&lt;&gt;""),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:D37">
-    <cfRule type="expression" dxfId="5" priority="14">
+    <cfRule type="expression" dxfId="3" priority="14">
       <formula>IF((C28&lt;&gt;"")*AND(#REF!&lt;&gt;""),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39:D42 D47:D48">
-    <cfRule type="expression" dxfId="4" priority="5">
+  <conditionalFormatting sqref="D39:D50">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>IF((D39&lt;&gt;"")*AND(#REF!&lt;&gt;""),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D43:D46">
-    <cfRule type="expression" dxfId="3" priority="4">
-      <formula>IF((D43&lt;&gt;"")*AND(#REF!&lt;&gt;""),1,0)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D52:D56">
-    <cfRule type="expression" dxfId="2" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>IF((D52&lt;&gt;"")*AND(#REF!&lt;&gt;""),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D49:D50">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>IF((D49&lt;&gt;"")*AND(#REF!&lt;&gt;""),1,0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D57:D58">
+  <conditionalFormatting sqref="D57:D213">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>IF((D57&lt;&gt;"")*AND(H57&lt;&gt;""),1,0)</formula>
     </cfRule>

--- a/doc/chiffrier_sim_vie.xlsx
+++ b/doc/chiffrier_sim_vie.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\travail\sim_vie\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2A7237-7C6B-4C8E-86B5-F79748EEAA6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9125064A-2A74-417C-BF99-9F900AFE1E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Méthodes SCRUM" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="677">
   <si>
     <t>Chiffrier de documentation de projets</t>
   </si>
@@ -2220,9 +2220,6 @@
     <t>Incorporer immobilisation de la créature</t>
   </si>
   <si>
-    <t>Ajouter une notion de : ça prend du temps pour manger</t>
-  </si>
-  <si>
     <t>Vérifiier si on peut implémenter un peu plus de gestion de jauges dans l'action manger</t>
   </si>
   <si>
@@ -2235,9 +2232,6 @@
     <t>Reproduction :</t>
   </si>
   <si>
-    <t>Une notion de temps</t>
-  </si>
-  <si>
     <t>Créer une nouvelle créature</t>
   </si>
   <si>
@@ -2257,6 +2251,24 @@
   </si>
   <si>
     <t>Effacer les créatures qui sont mortes</t>
+  </si>
+  <si>
+    <t>08/12/2025</t>
+  </si>
+  <si>
+    <t>Ajout d'état : disponible / en train de manger</t>
+  </si>
+  <si>
+    <t>Ajout d'état : en train de se reproduire</t>
+  </si>
+  <si>
+    <t>ils tournent parfois en rond, pourquoi ?</t>
+  </si>
+  <si>
+    <t>Régler le problème où les créatures tournent en rond : exploration</t>
+  </si>
+  <si>
+    <t>Réimplementer les phéromones</t>
   </si>
 </sst>
 </file>
@@ -2479,7 +2491,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2501,6 +2513,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3528,7 +3546,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="314">
+  <cellXfs count="318">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4058,6 +4076,9 @@
     <xf numFmtId="164" fontId="29" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4088,14 +4109,110 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
@@ -4106,110 +4223,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4218,18 +4251,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -4263,6 +4284,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="36" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5082,22 +5106,22 @@
       </c>
     </row>
     <row r="36" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F36" s="245"/>
-      <c r="G36" s="246"/>
-      <c r="H36" s="246"/>
-      <c r="I36" s="246"/>
+      <c r="F36" s="246"/>
+      <c r="G36" s="247"/>
+      <c r="H36" s="247"/>
+      <c r="I36" s="247"/>
     </row>
     <row r="37" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F37" s="246"/>
-      <c r="G37" s="246"/>
-      <c r="H37" s="246"/>
-      <c r="I37" s="246"/>
+      <c r="F37" s="247"/>
+      <c r="G37" s="247"/>
+      <c r="H37" s="247"/>
+      <c r="I37" s="247"/>
     </row>
     <row r="38" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F38" s="246"/>
-      <c r="G38" s="246"/>
-      <c r="H38" s="246"/>
-      <c r="I38" s="246"/>
+      <c r="F38" s="247"/>
+      <c r="G38" s="247"/>
+      <c r="H38" s="247"/>
+      <c r="I38" s="247"/>
     </row>
     <row r="39" spans="6:9" ht="17.25" customHeight="1">
       <c r="F39" s="29"/>
@@ -5106,22 +5130,22 @@
       <c r="I39" s="29"/>
     </row>
     <row r="40" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F40" s="245"/>
-      <c r="G40" s="246"/>
-      <c r="H40" s="246"/>
-      <c r="I40" s="246"/>
+      <c r="F40" s="246"/>
+      <c r="G40" s="247"/>
+      <c r="H40" s="247"/>
+      <c r="I40" s="247"/>
     </row>
     <row r="41" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F41" s="246"/>
-      <c r="G41" s="246"/>
-      <c r="H41" s="246"/>
-      <c r="I41" s="246"/>
+      <c r="F41" s="247"/>
+      <c r="G41" s="247"/>
+      <c r="H41" s="247"/>
+      <c r="I41" s="247"/>
     </row>
     <row r="42" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F42" s="246"/>
-      <c r="G42" s="246"/>
-      <c r="H42" s="246"/>
-      <c r="I42" s="246"/>
+      <c r="F42" s="247"/>
+      <c r="G42" s="247"/>
+      <c r="H42" s="247"/>
+      <c r="I42" s="247"/>
     </row>
     <row r="43" spans="6:9" ht="17.25" customHeight="1">
       <c r="F43" s="29"/>
@@ -5136,34 +5160,34 @@
       <c r="I44" s="29"/>
     </row>
     <row r="45" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F45" s="245"/>
-      <c r="G45" s="246"/>
-      <c r="H45" s="246"/>
-      <c r="I45" s="246"/>
+      <c r="F45" s="246"/>
+      <c r="G45" s="247"/>
+      <c r="H45" s="247"/>
+      <c r="I45" s="247"/>
     </row>
     <row r="46" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F46" s="246"/>
-      <c r="G46" s="246"/>
-      <c r="H46" s="246"/>
-      <c r="I46" s="246"/>
+      <c r="F46" s="247"/>
+      <c r="G46" s="247"/>
+      <c r="H46" s="247"/>
+      <c r="I46" s="247"/>
     </row>
     <row r="47" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F47" s="246"/>
-      <c r="G47" s="246"/>
-      <c r="H47" s="246"/>
-      <c r="I47" s="246"/>
+      <c r="F47" s="247"/>
+      <c r="G47" s="247"/>
+      <c r="H47" s="247"/>
+      <c r="I47" s="247"/>
     </row>
     <row r="48" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F48" s="246"/>
-      <c r="G48" s="246"/>
-      <c r="H48" s="246"/>
-      <c r="I48" s="246"/>
+      <c r="F48" s="247"/>
+      <c r="G48" s="247"/>
+      <c r="H48" s="247"/>
+      <c r="I48" s="247"/>
     </row>
     <row r="49" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F49" s="246"/>
-      <c r="G49" s="246"/>
-      <c r="H49" s="246"/>
-      <c r="I49" s="246"/>
+      <c r="F49" s="247"/>
+      <c r="G49" s="247"/>
+      <c r="H49" s="247"/>
+      <c r="I49" s="247"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5303,7 +5327,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B13" s="247" t="s">
+      <c r="B13" s="248" t="s">
         <v>60</v>
       </c>
       <c r="C13" s="49"/>
@@ -5312,7 +5336,7 @@
       <c r="H13" s="70"/>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B14" s="248"/>
+      <c r="B14" s="249"/>
       <c r="C14" s="50" t="s">
         <v>104</v>
       </c>
@@ -5325,13 +5349,13 @@
       <c r="H14" s="70"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B15" s="248"/>
+      <c r="B15" s="249"/>
       <c r="C15" s="53"/>
       <c r="D15" s="51"/>
       <c r="E15" s="52"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B16" s="248"/>
+      <c r="B16" s="249"/>
       <c r="C16" s="63" t="s">
         <v>171</v>
       </c>
@@ -5343,7 +5367,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B17" s="249"/>
+      <c r="B17" s="250"/>
       <c r="C17" s="53" t="s">
         <v>101</v>
       </c>
@@ -5351,7 +5375,7 @@
       <c r="E17" s="52"/>
     </row>
     <row r="18" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B18" s="249"/>
+      <c r="B18" s="250"/>
       <c r="C18" s="63" t="s">
         <v>172</v>
       </c>
@@ -5361,13 +5385,13 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B19" s="249"/>
+      <c r="B19" s="250"/>
       <c r="C19" s="53"/>
       <c r="D19" s="51"/>
       <c r="E19" s="52"/>
     </row>
     <row r="20" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B20" s="249"/>
+      <c r="B20" s="250"/>
       <c r="C20" s="50" t="s">
         <v>105</v>
       </c>
@@ -5379,13 +5403,13 @@
       </c>
     </row>
     <row r="21" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B21" s="249"/>
+      <c r="B21" s="250"/>
       <c r="C21" s="53"/>
       <c r="D21" s="51"/>
       <c r="E21" s="52"/>
     </row>
     <row r="22" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B22" s="249"/>
+      <c r="B22" s="250"/>
       <c r="C22" s="63" t="s">
         <v>174</v>
       </c>
@@ -5397,7 +5421,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B23" s="249"/>
+      <c r="B23" s="250"/>
       <c r="C23" s="68" t="s">
         <v>110</v>
       </c>
@@ -5409,7 +5433,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B24" s="249"/>
+      <c r="B24" s="250"/>
       <c r="C24" s="53"/>
       <c r="D24" s="64" t="s">
         <v>176</v>
@@ -5417,7 +5441,7 @@
       <c r="E24" s="65"/>
     </row>
     <row r="25" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B25" s="249"/>
+      <c r="B25" s="250"/>
       <c r="C25" s="63"/>
       <c r="D25" s="64" t="s">
         <v>113</v>
@@ -5425,7 +5449,7 @@
       <c r="E25" s="65"/>
     </row>
     <row r="26" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B26" s="249"/>
+      <c r="B26" s="250"/>
       <c r="C26" s="63" t="s">
         <v>114</v>
       </c>
@@ -5435,7 +5459,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B27" s="249"/>
+      <c r="B27" s="250"/>
       <c r="C27" s="63" t="s">
         <v>116</v>
       </c>
@@ -5445,13 +5469,13 @@
       </c>
     </row>
     <row r="28" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B28" s="249"/>
+      <c r="B28" s="250"/>
       <c r="C28" s="53"/>
       <c r="D28" s="51"/>
       <c r="E28" s="52"/>
     </row>
     <row r="29" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B29" s="249"/>
+      <c r="B29" s="250"/>
       <c r="C29" s="50" t="s">
         <v>118</v>
       </c>
@@ -5459,13 +5483,13 @@
       <c r="E29" s="52"/>
     </row>
     <row r="30" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B30" s="249"/>
+      <c r="B30" s="250"/>
       <c r="C30" s="53"/>
       <c r="D30" s="51"/>
       <c r="E30" s="52"/>
     </row>
     <row r="31" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B31" s="249"/>
+      <c r="B31" s="250"/>
       <c r="C31" s="63" t="s">
         <v>119</v>
       </c>
@@ -5475,7 +5499,7 @@
       <c r="E31" s="52"/>
     </row>
     <row r="32" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B32" s="249"/>
+      <c r="B32" s="250"/>
       <c r="C32" s="63" t="s">
         <v>120</v>
       </c>
@@ -5483,7 +5507,7 @@
       <c r="E32" s="52"/>
     </row>
     <row r="33" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B33" s="249"/>
+      <c r="B33" s="250"/>
       <c r="C33" s="63" t="s">
         <v>121</v>
       </c>
@@ -5491,7 +5515,7 @@
       <c r="E33" s="52"/>
     </row>
     <row r="34" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B34" s="249"/>
+      <c r="B34" s="250"/>
       <c r="C34" s="63" t="s">
         <v>122</v>
       </c>
@@ -5499,7 +5523,7 @@
       <c r="E34" s="52"/>
     </row>
     <row r="35" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B35" s="249"/>
+      <c r="B35" s="250"/>
       <c r="C35" s="63" t="s">
         <v>123</v>
       </c>
@@ -5507,13 +5531,13 @@
       <c r="E35" s="52"/>
     </row>
     <row r="36" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B36" s="249"/>
+      <c r="B36" s="250"/>
       <c r="C36" s="63"/>
       <c r="D36" s="64"/>
       <c r="E36" s="52"/>
     </row>
     <row r="37" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B37" s="249"/>
+      <c r="B37" s="250"/>
       <c r="C37" s="63" t="s">
         <v>177</v>
       </c>
@@ -5521,7 +5545,7 @@
       <c r="E37" s="52"/>
     </row>
     <row r="38" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B38" s="249"/>
+      <c r="B38" s="250"/>
       <c r="C38" s="63" t="s">
         <v>127</v>
       </c>
@@ -5529,7 +5553,7 @@
       <c r="E38" s="52"/>
     </row>
     <row r="39" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B39" s="249"/>
+      <c r="B39" s="250"/>
       <c r="C39" s="63" t="s">
         <v>125</v>
       </c>
@@ -5539,13 +5563,13 @@
       </c>
     </row>
     <row r="40" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B40" s="249"/>
+      <c r="B40" s="250"/>
       <c r="C40" s="63"/>
       <c r="D40" s="51"/>
       <c r="E40" s="52"/>
     </row>
     <row r="41" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B41" s="249"/>
+      <c r="B41" s="250"/>
       <c r="C41" s="50" t="s">
         <v>128</v>
       </c>
@@ -5553,13 +5577,13 @@
       <c r="E41" s="52"/>
     </row>
     <row r="42" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B42" s="249"/>
+      <c r="B42" s="250"/>
       <c r="C42" s="63"/>
       <c r="D42" s="51"/>
       <c r="E42" s="52"/>
     </row>
     <row r="43" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B43" s="249"/>
+      <c r="B43" s="250"/>
       <c r="C43" s="63" t="s">
         <v>129</v>
       </c>
@@ -5567,7 +5591,7 @@
       <c r="E43" s="52"/>
     </row>
     <row r="44" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B44" s="249"/>
+      <c r="B44" s="250"/>
       <c r="C44" s="63" t="s">
         <v>101</v>
       </c>
@@ -5577,7 +5601,7 @@
       <c r="E44" s="52"/>
     </row>
     <row r="45" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B45" s="249"/>
+      <c r="B45" s="250"/>
       <c r="C45" s="63" t="s">
         <v>131</v>
       </c>
@@ -5587,7 +5611,7 @@
       <c r="E45" s="52"/>
     </row>
     <row r="46" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B46" s="249"/>
+      <c r="B46" s="250"/>
       <c r="C46" s="63" t="s">
         <v>133</v>
       </c>
@@ -5597,7 +5621,7 @@
       <c r="E46" s="52"/>
     </row>
     <row r="47" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B47" s="249"/>
+      <c r="B47" s="250"/>
       <c r="C47" s="63" t="s">
         <v>135</v>
       </c>
@@ -5607,7 +5631,7 @@
       </c>
     </row>
     <row r="48" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B48" s="249"/>
+      <c r="B48" s="250"/>
       <c r="C48" s="68" t="s">
         <v>137</v>
       </c>
@@ -5615,7 +5639,7 @@
       <c r="E48" s="52"/>
     </row>
     <row r="49" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B49" s="249"/>
+      <c r="B49" s="250"/>
       <c r="C49" s="68" t="s">
         <v>138</v>
       </c>
@@ -5623,13 +5647,13 @@
       <c r="E49" s="52"/>
     </row>
     <row r="50" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B50" s="249"/>
+      <c r="B50" s="250"/>
       <c r="C50" s="63"/>
       <c r="D50" s="51"/>
       <c r="E50" s="52"/>
     </row>
     <row r="51" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B51" s="249"/>
+      <c r="B51" s="250"/>
       <c r="C51" s="50" t="s">
         <v>139</v>
       </c>
@@ -5637,13 +5661,13 @@
       <c r="E51" s="52"/>
     </row>
     <row r="52" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B52" s="249"/>
+      <c r="B52" s="250"/>
       <c r="C52" s="63"/>
       <c r="D52" s="51"/>
       <c r="E52" s="52"/>
     </row>
     <row r="53" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B53" s="249"/>
+      <c r="B53" s="250"/>
       <c r="C53" s="63" t="s">
         <v>140</v>
       </c>
@@ -5653,7 +5677,7 @@
       </c>
     </row>
     <row r="54" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B54" s="249"/>
+      <c r="B54" s="250"/>
       <c r="C54" s="63" t="s">
         <v>142</v>
       </c>
@@ -5661,7 +5685,7 @@
       <c r="E54" s="52"/>
     </row>
     <row r="55" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B55" s="249"/>
+      <c r="B55" s="250"/>
       <c r="C55" s="63" t="s">
         <v>143</v>
       </c>
@@ -5669,7 +5693,7 @@
       <c r="E55" s="52"/>
     </row>
     <row r="56" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B56" s="249"/>
+      <c r="B56" s="250"/>
       <c r="C56" s="63" t="s">
         <v>144</v>
       </c>
@@ -5677,7 +5701,7 @@
       <c r="E56" s="52"/>
     </row>
     <row r="57" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B57" s="249"/>
+      <c r="B57" s="250"/>
       <c r="C57" s="63" t="s">
         <v>145</v>
       </c>
@@ -5685,7 +5709,7 @@
       <c r="E57" s="52"/>
     </row>
     <row r="58" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B58" s="249"/>
+      <c r="B58" s="250"/>
       <c r="C58" s="63" t="s">
         <v>146</v>
       </c>
@@ -5695,7 +5719,7 @@
       <c r="E58" s="52"/>
     </row>
     <row r="59" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B59" s="249"/>
+      <c r="B59" s="250"/>
       <c r="C59" s="63" t="s">
         <v>138</v>
       </c>
@@ -5705,7 +5729,7 @@
       <c r="E59" s="52"/>
     </row>
     <row r="60" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B60" s="249"/>
+      <c r="B60" s="250"/>
       <c r="C60" s="63" t="s">
         <v>149</v>
       </c>
@@ -5713,7 +5737,7 @@
       <c r="E60" s="52"/>
     </row>
     <row r="61" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B61" s="249"/>
+      <c r="B61" s="250"/>
       <c r="C61" s="63" t="s">
         <v>150</v>
       </c>
@@ -5723,7 +5747,7 @@
       </c>
     </row>
     <row r="62" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B62" s="249"/>
+      <c r="B62" s="250"/>
       <c r="C62" s="63" t="s">
         <v>152</v>
       </c>
@@ -5731,13 +5755,13 @@
       <c r="E62" s="52"/>
     </row>
     <row r="63" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B63" s="249"/>
+      <c r="B63" s="250"/>
       <c r="C63" s="63"/>
       <c r="D63" s="51"/>
       <c r="E63" s="52"/>
     </row>
     <row r="64" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B64" s="249"/>
+      <c r="B64" s="250"/>
       <c r="C64" s="50" t="s">
         <v>153</v>
       </c>
@@ -5745,13 +5769,13 @@
       <c r="E64" s="52"/>
     </row>
     <row r="65" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B65" s="249"/>
+      <c r="B65" s="250"/>
       <c r="C65" s="63"/>
       <c r="D65" s="51"/>
       <c r="E65" s="52"/>
     </row>
     <row r="66" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B66" s="249"/>
+      <c r="B66" s="250"/>
       <c r="C66" s="63" t="s">
         <v>155</v>
       </c>
@@ -5759,7 +5783,7 @@
       <c r="E66" s="52"/>
     </row>
     <row r="67" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B67" s="249"/>
+      <c r="B67" s="250"/>
       <c r="C67" s="63" t="s">
         <v>156</v>
       </c>
@@ -5767,7 +5791,7 @@
       <c r="E67" s="52"/>
     </row>
     <row r="68" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B68" s="249"/>
+      <c r="B68" s="250"/>
       <c r="C68" s="63" t="s">
         <v>154</v>
       </c>
@@ -5775,7 +5799,7 @@
       <c r="E68" s="52"/>
     </row>
     <row r="69" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B69" s="249"/>
+      <c r="B69" s="250"/>
       <c r="C69" s="63" t="s">
         <v>157</v>
       </c>
@@ -5783,25 +5807,25 @@
       <c r="E69" s="52"/>
     </row>
     <row r="70" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B70" s="249"/>
+      <c r="B70" s="250"/>
       <c r="C70" s="63"/>
       <c r="D70" s="51"/>
       <c r="E70" s="52"/>
     </row>
     <row r="71" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B71" s="249"/>
+      <c r="B71" s="250"/>
       <c r="C71" s="63"/>
       <c r="D71" s="51"/>
       <c r="E71" s="52"/>
     </row>
     <row r="72" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B72" s="250"/>
+      <c r="B72" s="251"/>
       <c r="C72" s="54"/>
       <c r="D72" s="55"/>
       <c r="E72" s="56"/>
     </row>
     <row r="73" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B73" s="247" t="s">
+      <c r="B73" s="248" t="s">
         <v>61</v>
       </c>
       <c r="C73" s="63"/>
@@ -5813,7 +5837,7 @@
       </c>
     </row>
     <row r="74" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B74" s="249"/>
+      <c r="B74" s="250"/>
       <c r="C74" s="63" t="s">
         <v>188</v>
       </c>
@@ -5825,7 +5849,7 @@
       </c>
     </row>
     <row r="75" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B75" s="249"/>
+      <c r="B75" s="250"/>
       <c r="C75" s="53"/>
       <c r="D75" s="64" t="s">
         <v>162</v>
@@ -5835,7 +5859,7 @@
       </c>
     </row>
     <row r="76" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B76" s="249"/>
+      <c r="B76" s="250"/>
       <c r="C76" s="53"/>
       <c r="D76" s="51" t="s">
         <v>102</v>
@@ -5845,7 +5869,7 @@
       </c>
     </row>
     <row r="77" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B77" s="249"/>
+      <c r="B77" s="250"/>
       <c r="C77" s="53"/>
       <c r="D77" s="51" t="s">
         <v>103</v>
@@ -5855,7 +5879,7 @@
       </c>
     </row>
     <row r="78" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B78" s="249"/>
+      <c r="B78" s="250"/>
       <c r="C78" s="53"/>
       <c r="D78" s="64" t="s">
         <v>106</v>
@@ -5865,7 +5889,7 @@
       </c>
     </row>
     <row r="79" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B79" s="249"/>
+      <c r="B79" s="250"/>
       <c r="C79" s="53"/>
       <c r="D79" s="64" t="s">
         <v>179</v>
@@ -5875,7 +5899,7 @@
       </c>
     </row>
     <row r="80" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B80" s="249"/>
+      <c r="B80" s="250"/>
       <c r="C80" s="53"/>
       <c r="D80" s="64" t="s">
         <v>158</v>
@@ -5885,7 +5909,7 @@
       </c>
     </row>
     <row r="81" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B81" s="249"/>
+      <c r="B81" s="250"/>
       <c r="C81" s="53"/>
       <c r="D81" s="64" t="s">
         <v>159</v>
@@ -5895,7 +5919,7 @@
       </c>
     </row>
     <row r="82" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B82" s="249"/>
+      <c r="B82" s="250"/>
       <c r="C82" s="53"/>
       <c r="D82" s="64" t="s">
         <v>160</v>
@@ -5905,7 +5929,7 @@
       </c>
     </row>
     <row r="83" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B83" s="249"/>
+      <c r="B83" s="250"/>
       <c r="C83" s="63"/>
       <c r="D83" s="64" t="s">
         <v>180</v>
@@ -5915,7 +5939,7 @@
       </c>
     </row>
     <row r="84" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B84" s="249"/>
+      <c r="B84" s="250"/>
       <c r="C84" s="63"/>
       <c r="D84" s="64" t="s">
         <v>181</v>
@@ -5925,7 +5949,7 @@
       </c>
     </row>
     <row r="85" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B85" s="249"/>
+      <c r="B85" s="250"/>
       <c r="C85" s="53"/>
       <c r="D85" s="64" t="s">
         <v>182</v>
@@ -5935,7 +5959,7 @@
       </c>
     </row>
     <row r="86" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B86" s="249"/>
+      <c r="B86" s="250"/>
       <c r="C86" s="53"/>
       <c r="D86" s="64" t="s">
         <v>184</v>
@@ -5945,7 +5969,7 @@
       </c>
     </row>
     <row r="87" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B87" s="249"/>
+      <c r="B87" s="250"/>
       <c r="C87" s="53"/>
       <c r="D87" s="64" t="s">
         <v>193</v>
@@ -5955,7 +5979,7 @@
       </c>
     </row>
     <row r="88" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B88" s="249"/>
+      <c r="B88" s="250"/>
       <c r="C88" s="53"/>
       <c r="D88" s="64" t="s">
         <v>194</v>
@@ -5965,13 +5989,13 @@
       </c>
     </row>
     <row r="89" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B89" s="250"/>
+      <c r="B89" s="251"/>
       <c r="C89" s="54"/>
       <c r="D89" s="55"/>
       <c r="E89" s="56"/>
     </row>
     <row r="90" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B90" s="247" t="s">
+      <c r="B90" s="248" t="s">
         <v>62</v>
       </c>
       <c r="C90" s="57"/>
@@ -5979,7 +6003,7 @@
       <c r="E90" s="59"/>
     </row>
     <row r="91" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B91" s="249"/>
+      <c r="B91" s="250"/>
       <c r="C91" s="63" t="s">
         <v>189</v>
       </c>
@@ -5987,7 +6011,7 @@
       <c r="E91" s="52"/>
     </row>
     <row r="92" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B92" s="249"/>
+      <c r="B92" s="250"/>
       <c r="C92" s="63" t="s">
         <v>190</v>
       </c>
@@ -5995,7 +6019,7 @@
       <c r="E92" s="52"/>
     </row>
     <row r="93" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B93" s="249"/>
+      <c r="B93" s="250"/>
       <c r="C93" s="53" t="s">
         <v>191</v>
       </c>
@@ -6003,37 +6027,37 @@
       <c r="E93" s="52"/>
     </row>
     <row r="94" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B94" s="249"/>
+      <c r="B94" s="250"/>
       <c r="C94" s="53"/>
       <c r="D94" s="51"/>
       <c r="E94" s="52"/>
     </row>
     <row r="95" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B95" s="249"/>
+      <c r="B95" s="250"/>
       <c r="C95" s="53"/>
       <c r="D95" s="51"/>
       <c r="E95" s="52"/>
     </row>
     <row r="96" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B96" s="249"/>
+      <c r="B96" s="250"/>
       <c r="C96" s="53"/>
       <c r="D96" s="51"/>
       <c r="E96" s="52"/>
     </row>
     <row r="97" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B97" s="249"/>
+      <c r="B97" s="250"/>
       <c r="C97" s="53"/>
       <c r="D97" s="51"/>
       <c r="E97" s="52"/>
     </row>
     <row r="98" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B98" s="249"/>
+      <c r="B98" s="250"/>
       <c r="C98" s="53"/>
       <c r="D98" s="51"/>
       <c r="E98" s="52"/>
     </row>
     <row r="99" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B99" s="250"/>
+      <c r="B99" s="251"/>
       <c r="C99" s="60"/>
       <c r="D99" s="61"/>
       <c r="E99" s="62"/>
@@ -6096,11 +6120,11 @@
         <v>476</v>
       </c>
       <c r="C3" s="106"/>
-      <c r="D3" s="251" t="s">
+      <c r="D3" s="252" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="252"/>
-      <c r="F3" s="253"/>
+      <c r="E3" s="253"/>
+      <c r="F3" s="254"/>
       <c r="H3" s="75"/>
     </row>
     <row r="4" spans="1:8" s="76" customFormat="1" ht="30.75" customHeight="1">
@@ -6108,11 +6132,11 @@
         <v>477</v>
       </c>
       <c r="C4" s="106"/>
-      <c r="D4" s="254" t="s">
+      <c r="D4" s="255" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="252"/>
-      <c r="F4" s="253"/>
+      <c r="E4" s="253"/>
+      <c r="F4" s="254"/>
     </row>
     <row r="5" spans="1:8" ht="21" customHeight="1">
       <c r="A5" s="156" t="s">
@@ -7576,16 +7600,16 @@
       <c r="W10" s="29"/>
     </row>
     <row r="11" spans="1:107" thickBot="1">
-      <c r="G11" s="261" t="s">
+      <c r="G11" s="282" t="s">
         <v>324</v>
       </c>
-      <c r="H11" s="262"/>
-      <c r="I11" s="262"/>
-      <c r="J11" s="262"/>
-      <c r="K11" s="262"/>
-      <c r="L11" s="262"/>
-      <c r="M11" s="262"/>
-      <c r="N11" s="263"/>
+      <c r="H11" s="283"/>
+      <c r="I11" s="283"/>
+      <c r="J11" s="283"/>
+      <c r="K11" s="283"/>
+      <c r="L11" s="283"/>
+      <c r="M11" s="283"/>
+      <c r="N11" s="284"/>
       <c r="O11" s="48"/>
       <c r="P11" s="39"/>
       <c r="Q11" s="39"/>
@@ -7623,66 +7647,66 @@
       <c r="AW11" s="47"/>
       <c r="AX11" s="113"/>
       <c r="AY11" s="115"/>
-      <c r="BD11" s="261" t="s">
+      <c r="BD11" s="282" t="s">
         <v>324</v>
       </c>
-      <c r="BE11" s="262"/>
-      <c r="BF11" s="262"/>
-      <c r="BG11" s="262"/>
-      <c r="BH11" s="262"/>
-      <c r="BI11" s="262"/>
-      <c r="BJ11" s="262"/>
-      <c r="BK11" s="263"/>
-      <c r="BP11" s="261" t="s">
+      <c r="BE11" s="283"/>
+      <c r="BF11" s="283"/>
+      <c r="BG11" s="283"/>
+      <c r="BH11" s="283"/>
+      <c r="BI11" s="283"/>
+      <c r="BJ11" s="283"/>
+      <c r="BK11" s="284"/>
+      <c r="BP11" s="282" t="s">
         <v>324</v>
       </c>
-      <c r="BQ11" s="262"/>
-      <c r="BR11" s="262"/>
-      <c r="BS11" s="262"/>
-      <c r="BT11" s="262"/>
-      <c r="BU11" s="262"/>
-      <c r="BV11" s="262"/>
-      <c r="BW11" s="263"/>
-      <c r="CA11" s="261" t="s">
+      <c r="BQ11" s="283"/>
+      <c r="BR11" s="283"/>
+      <c r="BS11" s="283"/>
+      <c r="BT11" s="283"/>
+      <c r="BU11" s="283"/>
+      <c r="BV11" s="283"/>
+      <c r="BW11" s="284"/>
+      <c r="CA11" s="282" t="s">
         <v>324</v>
       </c>
-      <c r="CB11" s="262"/>
-      <c r="CC11" s="262"/>
-      <c r="CD11" s="262"/>
-      <c r="CE11" s="262"/>
-      <c r="CF11" s="262"/>
-      <c r="CG11" s="262"/>
-      <c r="CH11" s="263"/>
-      <c r="CL11" s="261" t="s">
+      <c r="CB11" s="283"/>
+      <c r="CC11" s="283"/>
+      <c r="CD11" s="283"/>
+      <c r="CE11" s="283"/>
+      <c r="CF11" s="283"/>
+      <c r="CG11" s="283"/>
+      <c r="CH11" s="284"/>
+      <c r="CL11" s="282" t="s">
         <v>324</v>
       </c>
-      <c r="CM11" s="262"/>
-      <c r="CN11" s="262"/>
-      <c r="CO11" s="262"/>
-      <c r="CP11" s="262"/>
-      <c r="CQ11" s="262"/>
-      <c r="CR11" s="262"/>
-      <c r="CS11" s="263"/>
-      <c r="CV11" s="261" t="s">
+      <c r="CM11" s="283"/>
+      <c r="CN11" s="283"/>
+      <c r="CO11" s="283"/>
+      <c r="CP11" s="283"/>
+      <c r="CQ11" s="283"/>
+      <c r="CR11" s="283"/>
+      <c r="CS11" s="284"/>
+      <c r="CV11" s="282" t="s">
         <v>324</v>
       </c>
-      <c r="CW11" s="262"/>
-      <c r="CX11" s="262"/>
-      <c r="CY11" s="262"/>
-      <c r="CZ11" s="262"/>
-      <c r="DA11" s="262"/>
-      <c r="DB11" s="262"/>
-      <c r="DC11" s="263"/>
+      <c r="CW11" s="283"/>
+      <c r="CX11" s="283"/>
+      <c r="CY11" s="283"/>
+      <c r="CZ11" s="283"/>
+      <c r="DA11" s="283"/>
+      <c r="DB11" s="283"/>
+      <c r="DC11" s="284"/>
     </row>
     <row r="12" spans="1:107" thickBot="1">
-      <c r="G12" s="264"/>
-      <c r="H12" s="265"/>
-      <c r="I12" s="265"/>
-      <c r="J12" s="265"/>
-      <c r="K12" s="265"/>
-      <c r="L12" s="265"/>
-      <c r="M12" s="265"/>
-      <c r="N12" s="266"/>
+      <c r="G12" s="285"/>
+      <c r="H12" s="286"/>
+      <c r="I12" s="286"/>
+      <c r="J12" s="286"/>
+      <c r="K12" s="286"/>
+      <c r="L12" s="286"/>
+      <c r="M12" s="286"/>
+      <c r="N12" s="287"/>
       <c r="O12" s="40"/>
       <c r="P12" s="29"/>
       <c r="Q12" s="29"/>
@@ -7693,49 +7717,49 @@
       <c r="V12" s="29"/>
       <c r="W12" s="29"/>
       <c r="AX12" s="42"/>
-      <c r="AY12" s="258" t="s">
+      <c r="AY12" s="291" t="s">
         <v>323</v>
       </c>
-      <c r="BD12" s="264"/>
-      <c r="BE12" s="265"/>
-      <c r="BF12" s="265"/>
-      <c r="BG12" s="265"/>
-      <c r="BH12" s="265"/>
-      <c r="BI12" s="265"/>
-      <c r="BJ12" s="265"/>
-      <c r="BK12" s="266"/>
-      <c r="BP12" s="264"/>
-      <c r="BQ12" s="265"/>
-      <c r="BR12" s="265"/>
-      <c r="BS12" s="265"/>
-      <c r="BT12" s="265"/>
-      <c r="BU12" s="265"/>
-      <c r="BV12" s="265"/>
-      <c r="BW12" s="266"/>
-      <c r="CA12" s="264"/>
-      <c r="CB12" s="265"/>
-      <c r="CC12" s="265"/>
-      <c r="CD12" s="265"/>
-      <c r="CE12" s="265"/>
-      <c r="CF12" s="265"/>
-      <c r="CG12" s="265"/>
-      <c r="CH12" s="266"/>
-      <c r="CL12" s="264"/>
-      <c r="CM12" s="265"/>
-      <c r="CN12" s="265"/>
-      <c r="CO12" s="265"/>
-      <c r="CP12" s="265"/>
-      <c r="CQ12" s="265"/>
-      <c r="CR12" s="265"/>
-      <c r="CS12" s="266"/>
-      <c r="CV12" s="264"/>
-      <c r="CW12" s="265"/>
-      <c r="CX12" s="265"/>
-      <c r="CY12" s="265"/>
-      <c r="CZ12" s="265"/>
-      <c r="DA12" s="265"/>
-      <c r="DB12" s="265"/>
-      <c r="DC12" s="266"/>
+      <c r="BD12" s="285"/>
+      <c r="BE12" s="286"/>
+      <c r="BF12" s="286"/>
+      <c r="BG12" s="286"/>
+      <c r="BH12" s="286"/>
+      <c r="BI12" s="286"/>
+      <c r="BJ12" s="286"/>
+      <c r="BK12" s="287"/>
+      <c r="BP12" s="285"/>
+      <c r="BQ12" s="286"/>
+      <c r="BR12" s="286"/>
+      <c r="BS12" s="286"/>
+      <c r="BT12" s="286"/>
+      <c r="BU12" s="286"/>
+      <c r="BV12" s="286"/>
+      <c r="BW12" s="287"/>
+      <c r="CA12" s="285"/>
+      <c r="CB12" s="286"/>
+      <c r="CC12" s="286"/>
+      <c r="CD12" s="286"/>
+      <c r="CE12" s="286"/>
+      <c r="CF12" s="286"/>
+      <c r="CG12" s="286"/>
+      <c r="CH12" s="287"/>
+      <c r="CL12" s="285"/>
+      <c r="CM12" s="286"/>
+      <c r="CN12" s="286"/>
+      <c r="CO12" s="286"/>
+      <c r="CP12" s="286"/>
+      <c r="CQ12" s="286"/>
+      <c r="CR12" s="286"/>
+      <c r="CS12" s="287"/>
+      <c r="CV12" s="285"/>
+      <c r="CW12" s="286"/>
+      <c r="CX12" s="286"/>
+      <c r="CY12" s="286"/>
+      <c r="CZ12" s="286"/>
+      <c r="DA12" s="286"/>
+      <c r="DB12" s="286"/>
+      <c r="DC12" s="287"/>
     </row>
     <row r="13" spans="1:107" thickBot="1">
       <c r="G13" s="40"/>
@@ -7754,7 +7778,7 @@
       <c r="V13" s="29"/>
       <c r="W13" s="29"/>
       <c r="AX13" s="42"/>
-      <c r="AY13" s="259"/>
+      <c r="AY13" s="292"/>
       <c r="BD13" s="40"/>
       <c r="BG13" s="29"/>
       <c r="BH13" s="29"/>
@@ -7779,16 +7803,16 @@
       <c r="DC13" s="42"/>
     </row>
     <row r="14" spans="1:107" thickBot="1">
-      <c r="G14" s="267" t="s">
+      <c r="G14" s="288" t="s">
         <v>325</v>
       </c>
-      <c r="H14" s="268"/>
-      <c r="I14" s="268"/>
-      <c r="J14" s="268"/>
-      <c r="K14" s="268"/>
-      <c r="L14" s="268"/>
-      <c r="M14" s="268"/>
-      <c r="N14" s="269"/>
+      <c r="H14" s="289"/>
+      <c r="I14" s="289"/>
+      <c r="J14" s="289"/>
+      <c r="K14" s="289"/>
+      <c r="L14" s="289"/>
+      <c r="M14" s="289"/>
+      <c r="N14" s="290"/>
       <c r="O14" s="40"/>
       <c r="P14" s="29"/>
       <c r="Q14" s="29"/>
@@ -7799,57 +7823,57 @@
       <c r="V14" s="29"/>
       <c r="W14" s="29"/>
       <c r="AX14" s="42"/>
-      <c r="AY14" s="259"/>
-      <c r="BD14" s="267" t="s">
+      <c r="AY14" s="292"/>
+      <c r="BD14" s="288" t="s">
         <v>338</v>
       </c>
-      <c r="BE14" s="268"/>
-      <c r="BF14" s="268"/>
-      <c r="BG14" s="268"/>
-      <c r="BH14" s="268"/>
-      <c r="BI14" s="268"/>
-      <c r="BJ14" s="268"/>
-      <c r="BK14" s="269"/>
-      <c r="BP14" s="267" t="s">
+      <c r="BE14" s="289"/>
+      <c r="BF14" s="289"/>
+      <c r="BG14" s="289"/>
+      <c r="BH14" s="289"/>
+      <c r="BI14" s="289"/>
+      <c r="BJ14" s="289"/>
+      <c r="BK14" s="290"/>
+      <c r="BP14" s="288" t="s">
         <v>327</v>
       </c>
-      <c r="BQ14" s="268"/>
-      <c r="BR14" s="268"/>
-      <c r="BS14" s="268"/>
-      <c r="BT14" s="268"/>
-      <c r="BU14" s="268"/>
-      <c r="BV14" s="268"/>
-      <c r="BW14" s="269"/>
-      <c r="CA14" s="267" t="s">
+      <c r="BQ14" s="289"/>
+      <c r="BR14" s="289"/>
+      <c r="BS14" s="289"/>
+      <c r="BT14" s="289"/>
+      <c r="BU14" s="289"/>
+      <c r="BV14" s="289"/>
+      <c r="BW14" s="290"/>
+      <c r="CA14" s="288" t="s">
         <v>326</v>
       </c>
-      <c r="CB14" s="268"/>
-      <c r="CC14" s="268"/>
-      <c r="CD14" s="268"/>
-      <c r="CE14" s="268"/>
-      <c r="CF14" s="268"/>
-      <c r="CG14" s="268"/>
-      <c r="CH14" s="269"/>
-      <c r="CL14" s="267" t="s">
+      <c r="CB14" s="289"/>
+      <c r="CC14" s="289"/>
+      <c r="CD14" s="289"/>
+      <c r="CE14" s="289"/>
+      <c r="CF14" s="289"/>
+      <c r="CG14" s="289"/>
+      <c r="CH14" s="290"/>
+      <c r="CL14" s="288" t="s">
         <v>329</v>
       </c>
-      <c r="CM14" s="268"/>
-      <c r="CN14" s="268"/>
-      <c r="CO14" s="268"/>
-      <c r="CP14" s="268"/>
-      <c r="CQ14" s="268"/>
-      <c r="CR14" s="268"/>
-      <c r="CS14" s="269"/>
-      <c r="CV14" s="267" t="s">
+      <c r="CM14" s="289"/>
+      <c r="CN14" s="289"/>
+      <c r="CO14" s="289"/>
+      <c r="CP14" s="289"/>
+      <c r="CQ14" s="289"/>
+      <c r="CR14" s="289"/>
+      <c r="CS14" s="290"/>
+      <c r="CV14" s="288" t="s">
         <v>328</v>
       </c>
-      <c r="CW14" s="268"/>
-      <c r="CX14" s="268"/>
-      <c r="CY14" s="268"/>
-      <c r="CZ14" s="268"/>
-      <c r="DA14" s="268"/>
-      <c r="DB14" s="268"/>
-      <c r="DC14" s="269"/>
+      <c r="CW14" s="289"/>
+      <c r="CX14" s="289"/>
+      <c r="CY14" s="289"/>
+      <c r="CZ14" s="289"/>
+      <c r="DA14" s="289"/>
+      <c r="DB14" s="289"/>
+      <c r="DC14" s="290"/>
     </row>
     <row r="15" spans="1:107" thickBot="1">
       <c r="G15" s="117"/>
@@ -7870,7 +7894,7 @@
       <c r="V15" s="29"/>
       <c r="W15" s="29"/>
       <c r="AX15" s="42"/>
-      <c r="AY15" s="259"/>
+      <c r="AY15" s="292"/>
       <c r="BD15" s="117"/>
       <c r="BE15" s="116"/>
       <c r="BF15" s="114"/>
@@ -7931,7 +7955,7 @@
       <c r="V16" s="29"/>
       <c r="W16" s="29"/>
       <c r="AX16" s="42"/>
-      <c r="AY16" s="259"/>
+      <c r="AY16" s="292"/>
       <c r="BD16" s="40"/>
       <c r="BE16" s="29"/>
       <c r="BF16" s="29"/>
@@ -7983,16 +8007,16 @@
       <c r="M17" s="29"/>
       <c r="N17" s="29"/>
       <c r="O17" s="40"/>
-      <c r="P17" s="270"/>
-      <c r="Q17" s="246"/>
-      <c r="R17" s="246"/>
+      <c r="P17" s="294"/>
+      <c r="Q17" s="247"/>
+      <c r="R17" s="247"/>
       <c r="S17" s="29"/>
-      <c r="T17" s="270"/>
-      <c r="U17" s="246"/>
-      <c r="V17" s="246"/>
-      <c r="W17" s="246"/>
+      <c r="T17" s="294"/>
+      <c r="U17" s="247"/>
+      <c r="V17" s="247"/>
+      <c r="W17" s="247"/>
       <c r="AX17" s="42"/>
-      <c r="AY17" s="259"/>
+      <c r="AY17" s="292"/>
       <c r="BD17" s="40"/>
       <c r="BE17" s="29"/>
       <c r="BF17" s="29"/>
@@ -8010,14 +8034,14 @@
       <c r="BV17" s="29"/>
       <c r="BW17" s="46"/>
       <c r="CA17" s="40"/>
-      <c r="CB17" s="271" t="s">
+      <c r="CB17" s="256" t="s">
         <v>349</v>
       </c>
-      <c r="CC17" s="256"/>
-      <c r="CD17" s="256"/>
-      <c r="CE17" s="256"/>
-      <c r="CF17" s="256"/>
-      <c r="CG17" s="257"/>
+      <c r="CC17" s="259"/>
+      <c r="CD17" s="259"/>
+      <c r="CE17" s="259"/>
+      <c r="CF17" s="259"/>
+      <c r="CG17" s="260"/>
       <c r="CH17" s="46"/>
       <c r="CL17" s="40"/>
       <c r="CM17" s="29"/>
@@ -8040,96 +8064,96 @@
       <c r="G18" s="41"/>
       <c r="O18" s="41"/>
       <c r="AX18" s="42"/>
-      <c r="AY18" s="259"/>
+      <c r="AY18" s="292"/>
       <c r="BD18" s="41"/>
-      <c r="BE18" s="255" t="s">
+      <c r="BE18" s="270" t="s">
         <v>335</v>
       </c>
-      <c r="BF18" s="256"/>
-      <c r="BG18" s="256"/>
-      <c r="BH18" s="256"/>
-      <c r="BI18" s="256"/>
-      <c r="BJ18" s="257"/>
+      <c r="BF18" s="259"/>
+      <c r="BG18" s="259"/>
+      <c r="BH18" s="259"/>
+      <c r="BI18" s="259"/>
+      <c r="BJ18" s="260"/>
       <c r="BK18" s="42"/>
       <c r="BP18" s="41"/>
-      <c r="BQ18" s="255" t="s">
+      <c r="BQ18" s="270" t="s">
         <v>331</v>
       </c>
-      <c r="BR18" s="256"/>
-      <c r="BS18" s="256"/>
-      <c r="BT18" s="256"/>
-      <c r="BU18" s="256"/>
-      <c r="BV18" s="257"/>
+      <c r="BR18" s="259"/>
+      <c r="BS18" s="259"/>
+      <c r="BT18" s="259"/>
+      <c r="BU18" s="259"/>
+      <c r="BV18" s="260"/>
       <c r="BW18" s="42"/>
       <c r="CA18" s="41"/>
-      <c r="CB18" s="272" t="s">
+      <c r="CB18" s="271" t="s">
         <v>342</v>
       </c>
-      <c r="CC18" s="273"/>
-      <c r="CD18" s="255"/>
-      <c r="CE18" s="257"/>
-      <c r="CF18" s="272" t="s">
+      <c r="CC18" s="272"/>
+      <c r="CD18" s="270"/>
+      <c r="CE18" s="260"/>
+      <c r="CF18" s="271" t="s">
         <v>341</v>
       </c>
-      <c r="CG18" s="273"/>
+      <c r="CG18" s="272"/>
       <c r="CH18" s="42"/>
       <c r="CL18" s="41"/>
-      <c r="CM18" s="271" t="s">
+      <c r="CM18" s="256" t="s">
         <v>354</v>
       </c>
-      <c r="CN18" s="256"/>
-      <c r="CO18" s="256"/>
-      <c r="CP18" s="256"/>
-      <c r="CQ18" s="256"/>
-      <c r="CR18" s="257"/>
+      <c r="CN18" s="259"/>
+      <c r="CO18" s="259"/>
+      <c r="CP18" s="259"/>
+      <c r="CQ18" s="259"/>
+      <c r="CR18" s="260"/>
       <c r="CS18" s="42"/>
       <c r="CV18" s="41"/>
-      <c r="CW18" s="271" t="s">
+      <c r="CW18" s="256" t="s">
         <v>359</v>
       </c>
-      <c r="CX18" s="256"/>
-      <c r="CY18" s="256"/>
-      <c r="CZ18" s="256"/>
-      <c r="DA18" s="256"/>
-      <c r="DB18" s="257"/>
+      <c r="CX18" s="259"/>
+      <c r="CY18" s="259"/>
+      <c r="CZ18" s="259"/>
+      <c r="DA18" s="259"/>
+      <c r="DB18" s="260"/>
       <c r="DC18" s="42"/>
     </row>
     <row r="19" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G19" s="41"/>
       <c r="O19" s="41"/>
       <c r="AX19" s="42"/>
-      <c r="AY19" s="259"/>
+      <c r="AY19" s="292"/>
       <c r="BD19" s="41"/>
-      <c r="BE19" s="255" t="s">
+      <c r="BE19" s="270" t="s">
         <v>336</v>
       </c>
-      <c r="BF19" s="256"/>
-      <c r="BG19" s="256"/>
-      <c r="BH19" s="256"/>
-      <c r="BI19" s="256"/>
-      <c r="BJ19" s="257"/>
+      <c r="BF19" s="259"/>
+      <c r="BG19" s="259"/>
+      <c r="BH19" s="259"/>
+      <c r="BI19" s="259"/>
+      <c r="BJ19" s="260"/>
       <c r="BK19" s="42"/>
       <c r="BP19" s="41"/>
-      <c r="BQ19" s="255" t="s">
+      <c r="BQ19" s="270" t="s">
         <v>330</v>
       </c>
-      <c r="BR19" s="256"/>
-      <c r="BS19" s="256"/>
-      <c r="BT19" s="256"/>
-      <c r="BU19" s="256"/>
-      <c r="BV19" s="257"/>
+      <c r="BR19" s="259"/>
+      <c r="BS19" s="259"/>
+      <c r="BT19" s="259"/>
+      <c r="BU19" s="259"/>
+      <c r="BV19" s="260"/>
       <c r="BW19" s="42"/>
       <c r="CA19" s="41"/>
       <c r="CH19" s="42"/>
       <c r="CL19" s="41"/>
-      <c r="CM19" s="271" t="s">
+      <c r="CM19" s="256" t="s">
         <v>355</v>
       </c>
-      <c r="CN19" s="256"/>
-      <c r="CO19" s="256"/>
-      <c r="CP19" s="256"/>
-      <c r="CQ19" s="256"/>
-      <c r="CR19" s="257"/>
+      <c r="CN19" s="259"/>
+      <c r="CO19" s="259"/>
+      <c r="CP19" s="259"/>
+      <c r="CQ19" s="259"/>
+      <c r="CR19" s="260"/>
       <c r="CS19" s="42"/>
       <c r="CV19" s="41"/>
       <c r="DC19" s="42"/>
@@ -8138,114 +8162,114 @@
       <c r="G20" s="41"/>
       <c r="O20" s="41"/>
       <c r="AX20" s="42"/>
-      <c r="AY20" s="259"/>
+      <c r="AY20" s="292"/>
       <c r="BD20" s="41"/>
       <c r="BK20" s="42"/>
       <c r="BP20" s="41"/>
       <c r="BW20" s="42"/>
       <c r="CA20" s="41"/>
-      <c r="CB20" s="271" t="s">
+      <c r="CB20" s="256" t="s">
         <v>350</v>
       </c>
-      <c r="CC20" s="256"/>
-      <c r="CD20" s="256"/>
-      <c r="CE20" s="256"/>
-      <c r="CF20" s="256"/>
-      <c r="CG20" s="257"/>
+      <c r="CC20" s="259"/>
+      <c r="CD20" s="259"/>
+      <c r="CE20" s="259"/>
+      <c r="CF20" s="259"/>
+      <c r="CG20" s="260"/>
       <c r="CH20" s="42"/>
       <c r="CL20" s="41"/>
       <c r="CS20" s="42"/>
       <c r="CV20" s="41"/>
-      <c r="CW20" s="271" t="s">
+      <c r="CW20" s="256" t="s">
         <v>360</v>
       </c>
-      <c r="CX20" s="256"/>
-      <c r="CY20" s="256"/>
-      <c r="CZ20" s="256"/>
-      <c r="DA20" s="256"/>
-      <c r="DB20" s="257"/>
+      <c r="CX20" s="259"/>
+      <c r="CY20" s="259"/>
+      <c r="CZ20" s="259"/>
+      <c r="DA20" s="259"/>
+      <c r="DB20" s="260"/>
       <c r="DC20" s="42"/>
     </row>
     <row r="21" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G21" s="41"/>
       <c r="O21" s="41"/>
       <c r="AX21" s="42"/>
-      <c r="AY21" s="259"/>
+      <c r="AY21" s="292"/>
       <c r="BD21" s="41"/>
-      <c r="BE21" s="255" t="s">
+      <c r="BE21" s="270" t="s">
         <v>337</v>
       </c>
-      <c r="BF21" s="256"/>
-      <c r="BG21" s="256"/>
-      <c r="BH21" s="256"/>
-      <c r="BI21" s="256"/>
-      <c r="BJ21" s="257"/>
+      <c r="BF21" s="259"/>
+      <c r="BG21" s="259"/>
+      <c r="BH21" s="259"/>
+      <c r="BI21" s="259"/>
+      <c r="BJ21" s="260"/>
       <c r="BK21" s="42"/>
       <c r="BP21" s="41"/>
-      <c r="BQ21" s="255" t="s">
+      <c r="BQ21" s="270" t="s">
         <v>332</v>
       </c>
-      <c r="BR21" s="256"/>
-      <c r="BS21" s="256"/>
-      <c r="BT21" s="256"/>
-      <c r="BU21" s="256"/>
-      <c r="BV21" s="257"/>
+      <c r="BR21" s="259"/>
+      <c r="BS21" s="259"/>
+      <c r="BT21" s="259"/>
+      <c r="BU21" s="259"/>
+      <c r="BV21" s="260"/>
       <c r="BW21" s="42"/>
       <c r="CA21" s="41"/>
-      <c r="CB21" s="271" t="s">
+      <c r="CB21" s="256" t="s">
         <v>336</v>
       </c>
-      <c r="CC21" s="256"/>
-      <c r="CD21" s="256"/>
-      <c r="CE21" s="256"/>
-      <c r="CF21" s="256"/>
-      <c r="CG21" s="257"/>
+      <c r="CC21" s="259"/>
+      <c r="CD21" s="259"/>
+      <c r="CE21" s="259"/>
+      <c r="CF21" s="259"/>
+      <c r="CG21" s="260"/>
       <c r="CH21" s="42"/>
       <c r="CL21" s="41"/>
-      <c r="CM21" s="271" t="s">
+      <c r="CM21" s="256" t="s">
         <v>356</v>
       </c>
-      <c r="CN21" s="256"/>
-      <c r="CO21" s="256"/>
-      <c r="CP21" s="256"/>
-      <c r="CQ21" s="256"/>
-      <c r="CR21" s="257"/>
+      <c r="CN21" s="259"/>
+      <c r="CO21" s="259"/>
+      <c r="CP21" s="259"/>
+      <c r="CQ21" s="259"/>
+      <c r="CR21" s="260"/>
       <c r="CS21" s="42"/>
       <c r="CV21" s="41"/>
-      <c r="CW21" s="271" t="s">
+      <c r="CW21" s="256" t="s">
         <v>355</v>
       </c>
-      <c r="CX21" s="256"/>
-      <c r="CY21" s="256"/>
-      <c r="CZ21" s="256"/>
-      <c r="DA21" s="256"/>
-      <c r="DB21" s="257"/>
+      <c r="CX21" s="259"/>
+      <c r="CY21" s="259"/>
+      <c r="CZ21" s="259"/>
+      <c r="DA21" s="259"/>
+      <c r="DB21" s="260"/>
       <c r="DC21" s="42"/>
     </row>
     <row r="22" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G22" s="41"/>
       <c r="O22" s="41"/>
       <c r="AX22" s="42"/>
-      <c r="AY22" s="259"/>
+      <c r="AY22" s="292"/>
       <c r="BD22" s="41"/>
-      <c r="BE22" s="255" t="s">
+      <c r="BE22" s="270" t="s">
         <v>336</v>
       </c>
-      <c r="BF22" s="256"/>
-      <c r="BG22" s="256"/>
-      <c r="BH22" s="256"/>
-      <c r="BI22" s="256"/>
-      <c r="BJ22" s="257"/>
+      <c r="BF22" s="259"/>
+      <c r="BG22" s="259"/>
+      <c r="BH22" s="259"/>
+      <c r="BI22" s="259"/>
+      <c r="BJ22" s="260"/>
       <c r="BK22" s="42"/>
       <c r="BP22" s="41"/>
-      <c r="BQ22" s="255" t="s">
+      <c r="BQ22" s="270" t="s">
         <v>330</v>
       </c>
-      <c r="BR22" s="256"/>
-      <c r="BS22" s="256"/>
-      <c r="BT22" s="256"/>
-      <c r="BU22" s="256"/>
-      <c r="BV22" s="257"/>
+      <c r="BR22" s="259"/>
+      <c r="BS22" s="259"/>
+      <c r="BT22" s="259"/>
+      <c r="BU22" s="259"/>
+      <c r="BV22" s="260"/>
       <c r="BW22" s="42"/>
       <c r="CA22" s="41"/>
       <c r="CH22" s="42"/>
@@ -8258,7 +8282,7 @@
       <c r="G23" s="41"/>
       <c r="O23" s="41"/>
       <c r="AX23" s="42"/>
-      <c r="AY23" s="259"/>
+      <c r="AY23" s="292"/>
       <c r="BD23" s="41"/>
       <c r="BK23" s="42"/>
       <c r="BP23" s="41"/>
@@ -8267,57 +8291,57 @@
       <c r="CB23" s="29"/>
       <c r="CC23" s="29"/>
       <c r="CD23" s="29"/>
-      <c r="CE23" s="282" t="s">
+      <c r="CE23" s="279" t="s">
         <v>348</v>
       </c>
-      <c r="CF23" s="283"/>
-      <c r="CG23" s="283"/>
-      <c r="CH23" s="284"/>
+      <c r="CF23" s="280"/>
+      <c r="CG23" s="280"/>
+      <c r="CH23" s="281"/>
       <c r="CL23" s="41"/>
-      <c r="CM23" s="271" t="s">
+      <c r="CM23" s="256" t="s">
         <v>357</v>
       </c>
-      <c r="CN23" s="256"/>
-      <c r="CO23" s="256"/>
-      <c r="CP23" s="256"/>
-      <c r="CQ23" s="256"/>
-      <c r="CR23" s="257"/>
+      <c r="CN23" s="259"/>
+      <c r="CO23" s="259"/>
+      <c r="CP23" s="259"/>
+      <c r="CQ23" s="259"/>
+      <c r="CR23" s="260"/>
       <c r="CS23" s="42"/>
       <c r="CV23" s="41"/>
-      <c r="CW23" s="271" t="s">
+      <c r="CW23" s="256" t="s">
         <v>361</v>
       </c>
-      <c r="CX23" s="256"/>
-      <c r="CY23" s="256"/>
-      <c r="CZ23" s="256"/>
-      <c r="DA23" s="256"/>
-      <c r="DB23" s="257"/>
+      <c r="CX23" s="259"/>
+      <c r="CY23" s="259"/>
+      <c r="CZ23" s="259"/>
+      <c r="DA23" s="259"/>
+      <c r="DB23" s="260"/>
       <c r="DC23" s="42"/>
     </row>
     <row r="24" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G24" s="41"/>
       <c r="O24" s="41"/>
       <c r="AX24" s="42"/>
-      <c r="AY24" s="259"/>
+      <c r="AY24" s="292"/>
       <c r="BD24" s="41"/>
-      <c r="BE24" s="255" t="s">
+      <c r="BE24" s="270" t="s">
         <v>339</v>
       </c>
-      <c r="BF24" s="256"/>
-      <c r="BG24" s="256"/>
-      <c r="BH24" s="256"/>
-      <c r="BI24" s="256"/>
-      <c r="BJ24" s="257"/>
+      <c r="BF24" s="259"/>
+      <c r="BG24" s="259"/>
+      <c r="BH24" s="259"/>
+      <c r="BI24" s="259"/>
+      <c r="BJ24" s="260"/>
       <c r="BK24" s="42"/>
       <c r="BP24" s="41"/>
-      <c r="BQ24" s="255" t="s">
+      <c r="BQ24" s="270" t="s">
         <v>333</v>
       </c>
-      <c r="BR24" s="256"/>
-      <c r="BS24" s="256"/>
-      <c r="BT24" s="256"/>
-      <c r="BU24" s="256"/>
-      <c r="BV24" s="257"/>
+      <c r="BR24" s="259"/>
+      <c r="BS24" s="259"/>
+      <c r="BT24" s="259"/>
+      <c r="BU24" s="259"/>
+      <c r="BV24" s="260"/>
       <c r="BW24" s="42"/>
       <c r="CA24" s="40"/>
       <c r="CB24" s="29"/>
@@ -8328,60 +8352,60 @@
       <c r="CG24" s="29"/>
       <c r="CH24" s="46"/>
       <c r="CL24" s="41"/>
-      <c r="CM24" s="271" t="s">
+      <c r="CM24" s="256" t="s">
         <v>355</v>
       </c>
-      <c r="CN24" s="256"/>
-      <c r="CO24" s="256"/>
-      <c r="CP24" s="256"/>
-      <c r="CQ24" s="256"/>
-      <c r="CR24" s="257"/>
+      <c r="CN24" s="259"/>
+      <c r="CO24" s="259"/>
+      <c r="CP24" s="259"/>
+      <c r="CQ24" s="259"/>
+      <c r="CR24" s="260"/>
       <c r="CS24" s="42"/>
       <c r="CV24" s="41"/>
-      <c r="CW24" s="271" t="s">
+      <c r="CW24" s="256" t="s">
         <v>355</v>
       </c>
-      <c r="CX24" s="256"/>
-      <c r="CY24" s="256"/>
-      <c r="CZ24" s="256"/>
-      <c r="DA24" s="256"/>
-      <c r="DB24" s="257"/>
+      <c r="CX24" s="259"/>
+      <c r="CY24" s="259"/>
+      <c r="CZ24" s="259"/>
+      <c r="DA24" s="259"/>
+      <c r="DB24" s="260"/>
       <c r="DC24" s="42"/>
     </row>
     <row r="25" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G25" s="41"/>
       <c r="O25" s="41"/>
       <c r="AX25" s="42"/>
-      <c r="AY25" s="259"/>
+      <c r="AY25" s="292"/>
       <c r="BD25" s="41"/>
-      <c r="BE25" s="255" t="s">
+      <c r="BE25" s="270" t="s">
         <v>336</v>
       </c>
-      <c r="BF25" s="256"/>
-      <c r="BG25" s="256"/>
-      <c r="BH25" s="256"/>
-      <c r="BI25" s="256"/>
-      <c r="BJ25" s="257"/>
+      <c r="BF25" s="259"/>
+      <c r="BG25" s="259"/>
+      <c r="BH25" s="259"/>
+      <c r="BI25" s="259"/>
+      <c r="BJ25" s="260"/>
       <c r="BK25" s="42"/>
       <c r="BP25" s="41"/>
-      <c r="BQ25" s="255" t="s">
+      <c r="BQ25" s="270" t="s">
         <v>330</v>
       </c>
-      <c r="BR25" s="256"/>
-      <c r="BS25" s="256"/>
-      <c r="BT25" s="256"/>
-      <c r="BU25" s="256"/>
-      <c r="BV25" s="257"/>
+      <c r="BR25" s="259"/>
+      <c r="BS25" s="259"/>
+      <c r="BT25" s="259"/>
+      <c r="BU25" s="259"/>
+      <c r="BV25" s="260"/>
       <c r="BW25" s="42"/>
       <c r="CA25" s="41"/>
-      <c r="CB25" s="271" t="s">
+      <c r="CB25" s="256" t="s">
         <v>343</v>
       </c>
-      <c r="CC25" s="280"/>
-      <c r="CD25" s="280"/>
-      <c r="CE25" s="280"/>
-      <c r="CF25" s="280"/>
-      <c r="CG25" s="281"/>
+      <c r="CC25" s="257"/>
+      <c r="CD25" s="257"/>
+      <c r="CE25" s="257"/>
+      <c r="CF25" s="257"/>
+      <c r="CG25" s="258"/>
       <c r="CH25" s="42"/>
       <c r="CL25" s="41"/>
       <c r="CS25" s="42"/>
@@ -8392,128 +8416,128 @@
       <c r="G26" s="41"/>
       <c r="O26" s="41"/>
       <c r="AX26" s="42"/>
-      <c r="AY26" s="259"/>
+      <c r="AY26" s="292"/>
       <c r="BD26" s="41"/>
       <c r="BK26" s="42"/>
       <c r="BP26" s="41"/>
       <c r="BW26" s="42"/>
       <c r="CA26" s="41"/>
-      <c r="CB26" s="272" t="s">
+      <c r="CB26" s="271" t="s">
         <v>342</v>
       </c>
-      <c r="CC26" s="273"/>
-      <c r="CD26" s="255"/>
-      <c r="CE26" s="257"/>
-      <c r="CF26" s="272" t="s">
+      <c r="CC26" s="272"/>
+      <c r="CD26" s="270"/>
+      <c r="CE26" s="260"/>
+      <c r="CF26" s="271" t="s">
         <v>341</v>
       </c>
-      <c r="CG26" s="273"/>
+      <c r="CG26" s="272"/>
       <c r="CH26" s="42"/>
       <c r="CL26" s="41"/>
-      <c r="CM26" s="255" t="s">
+      <c r="CM26" s="270" t="s">
         <v>331</v>
       </c>
-      <c r="CN26" s="256"/>
-      <c r="CO26" s="256"/>
-      <c r="CP26" s="256"/>
-      <c r="CQ26" s="256"/>
-      <c r="CR26" s="257"/>
+      <c r="CN26" s="259"/>
+      <c r="CO26" s="259"/>
+      <c r="CP26" s="259"/>
+      <c r="CQ26" s="259"/>
+      <c r="CR26" s="260"/>
       <c r="CS26" s="42"/>
       <c r="CV26" s="41"/>
-      <c r="CW26" s="271" t="s">
+      <c r="CW26" s="256" t="s">
         <v>362</v>
       </c>
-      <c r="CX26" s="256"/>
-      <c r="CY26" s="256"/>
-      <c r="CZ26" s="256"/>
-      <c r="DA26" s="256"/>
-      <c r="DB26" s="257"/>
+      <c r="CX26" s="259"/>
+      <c r="CY26" s="259"/>
+      <c r="CZ26" s="259"/>
+      <c r="DA26" s="259"/>
+      <c r="DB26" s="260"/>
       <c r="DC26" s="42"/>
     </row>
     <row r="27" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G27" s="41"/>
       <c r="O27" s="41"/>
       <c r="AX27" s="42"/>
-      <c r="AY27" s="259"/>
+      <c r="AY27" s="292"/>
       <c r="BD27" s="41"/>
-      <c r="BE27" s="255" t="s">
+      <c r="BE27" s="270" t="s">
         <v>340</v>
       </c>
-      <c r="BF27" s="256"/>
-      <c r="BG27" s="256"/>
-      <c r="BH27" s="256"/>
-      <c r="BI27" s="256"/>
-      <c r="BJ27" s="257"/>
+      <c r="BF27" s="259"/>
+      <c r="BG27" s="259"/>
+      <c r="BH27" s="259"/>
+      <c r="BI27" s="259"/>
+      <c r="BJ27" s="260"/>
       <c r="BK27" s="42"/>
       <c r="BP27" s="41"/>
-      <c r="BQ27" s="255" t="s">
+      <c r="BQ27" s="270" t="s">
         <v>334</v>
       </c>
-      <c r="BR27" s="256"/>
-      <c r="BS27" s="256"/>
-      <c r="BT27" s="256"/>
-      <c r="BU27" s="256"/>
-      <c r="BV27" s="257"/>
+      <c r="BR27" s="259"/>
+      <c r="BS27" s="259"/>
+      <c r="BT27" s="259"/>
+      <c r="BU27" s="259"/>
+      <c r="BV27" s="260"/>
       <c r="BW27" s="42"/>
       <c r="CA27" s="41"/>
       <c r="CH27" s="42"/>
       <c r="CL27" s="41"/>
-      <c r="CM27" s="271" t="s">
+      <c r="CM27" s="256" t="s">
         <v>355</v>
       </c>
-      <c r="CN27" s="256"/>
-      <c r="CO27" s="256"/>
-      <c r="CP27" s="256"/>
-      <c r="CQ27" s="256"/>
-      <c r="CR27" s="257"/>
+      <c r="CN27" s="259"/>
+      <c r="CO27" s="259"/>
+      <c r="CP27" s="259"/>
+      <c r="CQ27" s="259"/>
+      <c r="CR27" s="260"/>
       <c r="CS27" s="42"/>
       <c r="CV27" s="41"/>
-      <c r="CW27" s="271" t="s">
+      <c r="CW27" s="256" t="s">
         <v>355</v>
       </c>
-      <c r="CX27" s="256"/>
-      <c r="CY27" s="256"/>
-      <c r="CZ27" s="256"/>
-      <c r="DA27" s="256"/>
-      <c r="DB27" s="257"/>
+      <c r="CX27" s="259"/>
+      <c r="CY27" s="259"/>
+      <c r="CZ27" s="259"/>
+      <c r="DA27" s="259"/>
+      <c r="DB27" s="260"/>
       <c r="DC27" s="42"/>
     </row>
     <row r="28" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G28" s="41"/>
       <c r="O28" s="41"/>
       <c r="AX28" s="42"/>
-      <c r="AY28" s="259"/>
+      <c r="AY28" s="292"/>
       <c r="BD28" s="119"/>
-      <c r="BE28" s="272" t="s">
+      <c r="BE28" s="271" t="s">
         <v>342</v>
       </c>
-      <c r="BF28" s="273"/>
-      <c r="BG28" s="255"/>
-      <c r="BH28" s="257"/>
-      <c r="BI28" s="272" t="s">
+      <c r="BF28" s="272"/>
+      <c r="BG28" s="270"/>
+      <c r="BH28" s="260"/>
+      <c r="BI28" s="271" t="s">
         <v>341</v>
       </c>
-      <c r="BJ28" s="273"/>
+      <c r="BJ28" s="272"/>
       <c r="BK28" s="42"/>
       <c r="BP28" s="41"/>
-      <c r="BQ28" s="255" t="s">
+      <c r="BQ28" s="270" t="s">
         <v>330</v>
       </c>
-      <c r="BR28" s="256"/>
-      <c r="BS28" s="256"/>
-      <c r="BT28" s="256"/>
-      <c r="BU28" s="256"/>
-      <c r="BV28" s="257"/>
+      <c r="BR28" s="259"/>
+      <c r="BS28" s="259"/>
+      <c r="BT28" s="259"/>
+      <c r="BU28" s="259"/>
+      <c r="BV28" s="260"/>
       <c r="BW28" s="42"/>
       <c r="CA28" s="41"/>
-      <c r="CB28" s="271" t="s">
+      <c r="CB28" s="256" t="s">
         <v>344</v>
       </c>
-      <c r="CC28" s="280"/>
-      <c r="CD28" s="280"/>
-      <c r="CE28" s="280"/>
-      <c r="CF28" s="280"/>
-      <c r="CG28" s="281"/>
+      <c r="CC28" s="257"/>
+      <c r="CD28" s="257"/>
+      <c r="CE28" s="257"/>
+      <c r="CF28" s="257"/>
+      <c r="CG28" s="258"/>
       <c r="CH28" s="42"/>
       <c r="CL28" s="41"/>
       <c r="CS28" s="42"/>
@@ -8524,49 +8548,49 @@
       <c r="G29" s="41"/>
       <c r="O29" s="41"/>
       <c r="AX29" s="42"/>
-      <c r="AY29" s="259"/>
+      <c r="AY29" s="292"/>
       <c r="BD29" s="41"/>
       <c r="BK29" s="42"/>
       <c r="BP29" s="41"/>
       <c r="BW29" s="42"/>
       <c r="CA29" s="41"/>
-      <c r="CB29" s="272" t="s">
+      <c r="CB29" s="271" t="s">
         <v>342</v>
       </c>
-      <c r="CC29" s="273"/>
-      <c r="CD29" s="255"/>
-      <c r="CE29" s="257"/>
-      <c r="CF29" s="272" t="s">
+      <c r="CC29" s="272"/>
+      <c r="CD29" s="270"/>
+      <c r="CE29" s="260"/>
+      <c r="CF29" s="271" t="s">
         <v>341</v>
       </c>
-      <c r="CG29" s="273"/>
+      <c r="CG29" s="272"/>
       <c r="CH29" s="42"/>
       <c r="CL29" s="41"/>
-      <c r="CM29" s="255" t="s">
+      <c r="CM29" s="270" t="s">
         <v>332</v>
       </c>
-      <c r="CN29" s="256"/>
-      <c r="CO29" s="256"/>
-      <c r="CP29" s="256"/>
-      <c r="CQ29" s="256"/>
-      <c r="CR29" s="257"/>
+      <c r="CN29" s="259"/>
+      <c r="CO29" s="259"/>
+      <c r="CP29" s="259"/>
+      <c r="CQ29" s="259"/>
+      <c r="CR29" s="260"/>
       <c r="CS29" s="42"/>
       <c r="CV29" s="41"/>
-      <c r="CW29" s="271" t="s">
+      <c r="CW29" s="256" t="s">
         <v>363</v>
       </c>
-      <c r="CX29" s="256"/>
-      <c r="CY29" s="256"/>
-      <c r="CZ29" s="256"/>
-      <c r="DA29" s="256"/>
-      <c r="DB29" s="257"/>
+      <c r="CX29" s="259"/>
+      <c r="CY29" s="259"/>
+      <c r="CZ29" s="259"/>
+      <c r="DA29" s="259"/>
+      <c r="DB29" s="260"/>
       <c r="DC29" s="42"/>
     </row>
     <row r="30" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G30" s="41"/>
       <c r="O30" s="41"/>
       <c r="AX30" s="42"/>
-      <c r="AY30" s="259"/>
+      <c r="AY30" s="292"/>
       <c r="BD30" s="41"/>
       <c r="BK30" s="42"/>
       <c r="BP30" s="41"/>
@@ -8574,44 +8598,44 @@
       <c r="CA30" s="41"/>
       <c r="CH30" s="42"/>
       <c r="CL30" s="41"/>
-      <c r="CM30" s="271" t="s">
+      <c r="CM30" s="256" t="s">
         <v>355</v>
       </c>
-      <c r="CN30" s="256"/>
-      <c r="CO30" s="256"/>
-      <c r="CP30" s="256"/>
-      <c r="CQ30" s="256"/>
-      <c r="CR30" s="257"/>
+      <c r="CN30" s="259"/>
+      <c r="CO30" s="259"/>
+      <c r="CP30" s="259"/>
+      <c r="CQ30" s="259"/>
+      <c r="CR30" s="260"/>
       <c r="CS30" s="42"/>
       <c r="CV30" s="41"/>
-      <c r="CW30" s="271" t="s">
+      <c r="CW30" s="256" t="s">
         <v>355</v>
       </c>
-      <c r="CX30" s="280"/>
-      <c r="CY30" s="280"/>
-      <c r="CZ30" s="280"/>
-      <c r="DA30" s="280"/>
-      <c r="DB30" s="281"/>
+      <c r="CX30" s="257"/>
+      <c r="CY30" s="257"/>
+      <c r="CZ30" s="257"/>
+      <c r="DA30" s="257"/>
+      <c r="DB30" s="258"/>
       <c r="DC30" s="42"/>
     </row>
     <row r="31" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G31" s="41"/>
       <c r="O31" s="41"/>
       <c r="AX31" s="42"/>
-      <c r="AY31" s="259"/>
+      <c r="AY31" s="292"/>
       <c r="BD31" s="41"/>
       <c r="BK31" s="42"/>
       <c r="BP31" s="41"/>
       <c r="BW31" s="42"/>
       <c r="CA31" s="41"/>
-      <c r="CB31" s="271" t="s">
+      <c r="CB31" s="256" t="s">
         <v>345</v>
       </c>
-      <c r="CC31" s="280"/>
-      <c r="CD31" s="280"/>
-      <c r="CE31" s="280"/>
-      <c r="CF31" s="280"/>
-      <c r="CG31" s="281"/>
+      <c r="CC31" s="257"/>
+      <c r="CD31" s="257"/>
+      <c r="CE31" s="257"/>
+      <c r="CF31" s="257"/>
+      <c r="CG31" s="258"/>
       <c r="CH31" s="42"/>
       <c r="CL31" s="41"/>
       <c r="CS31" s="42"/>
@@ -8622,122 +8646,122 @@
       <c r="G32" s="41"/>
       <c r="O32" s="41"/>
       <c r="AX32" s="42"/>
-      <c r="AY32" s="259"/>
+      <c r="AY32" s="292"/>
       <c r="BD32" s="41"/>
-      <c r="BE32" s="274" t="s">
+      <c r="BE32" s="273" t="s">
         <v>277</v>
       </c>
-      <c r="BF32" s="275"/>
-      <c r="BG32" s="275"/>
-      <c r="BH32" s="275"/>
-      <c r="BI32" s="275"/>
-      <c r="BJ32" s="276"/>
+      <c r="BF32" s="274"/>
+      <c r="BG32" s="274"/>
+      <c r="BH32" s="274"/>
+      <c r="BI32" s="274"/>
+      <c r="BJ32" s="275"/>
       <c r="BK32" s="42"/>
       <c r="BP32" s="41"/>
-      <c r="BQ32" s="274" t="s">
+      <c r="BQ32" s="273" t="s">
         <v>352</v>
       </c>
-      <c r="BR32" s="275"/>
-      <c r="BS32" s="275"/>
-      <c r="BT32" s="275"/>
-      <c r="BU32" s="275"/>
-      <c r="BV32" s="276"/>
+      <c r="BR32" s="274"/>
+      <c r="BS32" s="274"/>
+      <c r="BT32" s="274"/>
+      <c r="BU32" s="274"/>
+      <c r="BV32" s="275"/>
       <c r="BW32" s="42"/>
       <c r="CA32" s="41"/>
-      <c r="CB32" s="272" t="s">
+      <c r="CB32" s="271" t="s">
         <v>342</v>
       </c>
-      <c r="CC32" s="273"/>
-      <c r="CD32" s="255"/>
-      <c r="CE32" s="257"/>
-      <c r="CF32" s="272" t="s">
+      <c r="CC32" s="272"/>
+      <c r="CD32" s="270"/>
+      <c r="CE32" s="260"/>
+      <c r="CF32" s="271" t="s">
         <v>341</v>
       </c>
-      <c r="CG32" s="273"/>
+      <c r="CG32" s="272"/>
       <c r="CH32" s="42"/>
       <c r="CL32" s="41"/>
-      <c r="CM32" s="255" t="s">
+      <c r="CM32" s="270" t="s">
         <v>333</v>
       </c>
-      <c r="CN32" s="256"/>
-      <c r="CO32" s="256"/>
-      <c r="CP32" s="256"/>
-      <c r="CQ32" s="256"/>
-      <c r="CR32" s="257"/>
+      <c r="CN32" s="259"/>
+      <c r="CO32" s="259"/>
+      <c r="CP32" s="259"/>
+      <c r="CQ32" s="259"/>
+      <c r="CR32" s="260"/>
       <c r="CS32" s="42"/>
       <c r="CV32" s="41"/>
-      <c r="CW32" s="271" t="s">
+      <c r="CW32" s="256" t="s">
         <v>364</v>
       </c>
-      <c r="CX32" s="256"/>
-      <c r="CY32" s="256"/>
-      <c r="CZ32" s="256"/>
-      <c r="DA32" s="256"/>
-      <c r="DB32" s="257"/>
+      <c r="CX32" s="259"/>
+      <c r="CY32" s="259"/>
+      <c r="CZ32" s="259"/>
+      <c r="DA32" s="259"/>
+      <c r="DB32" s="260"/>
       <c r="DC32" s="42"/>
     </row>
     <row r="33" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G33" s="41"/>
       <c r="O33" s="41"/>
       <c r="AX33" s="42"/>
-      <c r="AY33" s="259"/>
+      <c r="AY33" s="292"/>
       <c r="BD33" s="41"/>
-      <c r="BE33" s="277"/>
-      <c r="BF33" s="278"/>
-      <c r="BG33" s="278"/>
-      <c r="BH33" s="278"/>
-      <c r="BI33" s="278"/>
-      <c r="BJ33" s="279"/>
+      <c r="BE33" s="276"/>
+      <c r="BF33" s="277"/>
+      <c r="BG33" s="277"/>
+      <c r="BH33" s="277"/>
+      <c r="BI33" s="277"/>
+      <c r="BJ33" s="278"/>
       <c r="BK33" s="42"/>
       <c r="BP33" s="41"/>
-      <c r="BQ33" s="277"/>
-      <c r="BR33" s="278"/>
-      <c r="BS33" s="278"/>
-      <c r="BT33" s="278"/>
-      <c r="BU33" s="278"/>
-      <c r="BV33" s="279"/>
+      <c r="BQ33" s="276"/>
+      <c r="BR33" s="277"/>
+      <c r="BS33" s="277"/>
+      <c r="BT33" s="277"/>
+      <c r="BU33" s="277"/>
+      <c r="BV33" s="278"/>
       <c r="BW33" s="42"/>
       <c r="CA33" s="41"/>
       <c r="CH33" s="42"/>
       <c r="CL33" s="41"/>
-      <c r="CM33" s="271" t="s">
+      <c r="CM33" s="256" t="s">
         <v>355</v>
       </c>
-      <c r="CN33" s="280"/>
-      <c r="CO33" s="280"/>
-      <c r="CP33" s="280"/>
-      <c r="CQ33" s="280"/>
-      <c r="CR33" s="281"/>
+      <c r="CN33" s="257"/>
+      <c r="CO33" s="257"/>
+      <c r="CP33" s="257"/>
+      <c r="CQ33" s="257"/>
+      <c r="CR33" s="258"/>
       <c r="CS33" s="42"/>
       <c r="CV33" s="41"/>
-      <c r="CW33" s="271" t="s">
+      <c r="CW33" s="256" t="s">
         <v>355</v>
       </c>
-      <c r="CX33" s="280"/>
-      <c r="CY33" s="280"/>
-      <c r="CZ33" s="280"/>
-      <c r="DA33" s="280"/>
-      <c r="DB33" s="281"/>
+      <c r="CX33" s="257"/>
+      <c r="CY33" s="257"/>
+      <c r="CZ33" s="257"/>
+      <c r="DA33" s="257"/>
+      <c r="DB33" s="258"/>
       <c r="DC33" s="42"/>
     </row>
     <row r="34" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G34" s="41"/>
       <c r="O34" s="41"/>
       <c r="AX34" s="42"/>
-      <c r="AY34" s="259"/>
+      <c r="AY34" s="292"/>
       <c r="BD34" s="41"/>
       <c r="BK34" s="42"/>
       <c r="BP34" s="41"/>
       <c r="BW34" s="42"/>
       <c r="CA34" s="41"/>
-      <c r="CB34" s="271" t="s">
+      <c r="CB34" s="256" t="s">
         <v>346</v>
       </c>
-      <c r="CC34" s="280"/>
-      <c r="CD34" s="280"/>
-      <c r="CE34" s="280"/>
-      <c r="CF34" s="280"/>
-      <c r="CG34" s="281"/>
+      <c r="CC34" s="257"/>
+      <c r="CD34" s="257"/>
+      <c r="CE34" s="257"/>
+      <c r="CF34" s="257"/>
+      <c r="CG34" s="258"/>
       <c r="CH34" s="42"/>
       <c r="CL34" s="41"/>
       <c r="CS34" s="42"/>
@@ -8748,95 +8772,95 @@
       <c r="G35" s="41"/>
       <c r="O35" s="41"/>
       <c r="AX35" s="42"/>
-      <c r="AY35" s="259"/>
+      <c r="AY35" s="292"/>
       <c r="BD35" s="41"/>
       <c r="BK35" s="42"/>
       <c r="BP35" s="41"/>
-      <c r="BQ35" s="271" t="s">
+      <c r="BQ35" s="256" t="s">
         <v>351</v>
       </c>
-      <c r="BR35" s="256"/>
-      <c r="BS35" s="256"/>
-      <c r="BT35" s="256"/>
-      <c r="BU35" s="256"/>
-      <c r="BV35" s="257"/>
+      <c r="BR35" s="259"/>
+      <c r="BS35" s="259"/>
+      <c r="BT35" s="259"/>
+      <c r="BU35" s="259"/>
+      <c r="BV35" s="260"/>
       <c r="BW35" s="42"/>
       <c r="CA35" s="41"/>
-      <c r="CB35" s="272" t="s">
+      <c r="CB35" s="271" t="s">
         <v>342</v>
       </c>
-      <c r="CC35" s="273"/>
-      <c r="CD35" s="255"/>
-      <c r="CE35" s="257"/>
-      <c r="CF35" s="272" t="s">
+      <c r="CC35" s="272"/>
+      <c r="CD35" s="270"/>
+      <c r="CE35" s="260"/>
+      <c r="CF35" s="271" t="s">
         <v>341</v>
       </c>
-      <c r="CG35" s="273"/>
+      <c r="CG35" s="272"/>
       <c r="CH35" s="42"/>
       <c r="CL35" s="41"/>
-      <c r="CM35" s="271" t="s">
+      <c r="CM35" s="256" t="s">
         <v>358</v>
       </c>
-      <c r="CN35" s="256"/>
-      <c r="CO35" s="256"/>
-      <c r="CP35" s="256"/>
-      <c r="CQ35" s="256"/>
-      <c r="CR35" s="257"/>
+      <c r="CN35" s="259"/>
+      <c r="CO35" s="259"/>
+      <c r="CP35" s="259"/>
+      <c r="CQ35" s="259"/>
+      <c r="CR35" s="260"/>
       <c r="CS35" s="42"/>
       <c r="CV35" s="41"/>
-      <c r="CW35" s="271" t="s">
+      <c r="CW35" s="256" t="s">
         <v>365</v>
       </c>
-      <c r="CX35" s="256"/>
-      <c r="CY35" s="256"/>
-      <c r="CZ35" s="256"/>
-      <c r="DA35" s="256"/>
-      <c r="DB35" s="257"/>
+      <c r="CX35" s="259"/>
+      <c r="CY35" s="259"/>
+      <c r="CZ35" s="259"/>
+      <c r="DA35" s="259"/>
+      <c r="DB35" s="260"/>
       <c r="DC35" s="42"/>
     </row>
     <row r="36" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G36" s="41"/>
       <c r="O36" s="41"/>
       <c r="AX36" s="42"/>
-      <c r="AY36" s="259"/>
+      <c r="AY36" s="292"/>
       <c r="BD36" s="41"/>
       <c r="BK36" s="42"/>
       <c r="BP36" s="41"/>
-      <c r="BQ36" s="271" t="s">
+      <c r="BQ36" s="256" t="s">
         <v>353</v>
       </c>
-      <c r="BR36" s="256"/>
-      <c r="BS36" s="256"/>
-      <c r="BT36" s="256"/>
-      <c r="BU36" s="256"/>
-      <c r="BV36" s="257"/>
+      <c r="BR36" s="259"/>
+      <c r="BS36" s="259"/>
+      <c r="BT36" s="259"/>
+      <c r="BU36" s="259"/>
+      <c r="BV36" s="260"/>
       <c r="BW36" s="42"/>
       <c r="CA36" s="41"/>
       <c r="CH36" s="42"/>
       <c r="CL36" s="41"/>
-      <c r="CM36" s="271" t="s">
+      <c r="CM36" s="256" t="s">
         <v>355</v>
       </c>
-      <c r="CN36" s="280"/>
-      <c r="CO36" s="280"/>
-      <c r="CP36" s="280"/>
-      <c r="CQ36" s="280"/>
-      <c r="CR36" s="281"/>
+      <c r="CN36" s="257"/>
+      <c r="CO36" s="257"/>
+      <c r="CP36" s="257"/>
+      <c r="CQ36" s="257"/>
+      <c r="CR36" s="258"/>
       <c r="CS36" s="42"/>
       <c r="CV36" s="41"/>
-      <c r="CW36" s="285"/>
-      <c r="CX36" s="286"/>
-      <c r="CY36" s="286"/>
-      <c r="CZ36" s="286"/>
-      <c r="DA36" s="286"/>
-      <c r="DB36" s="287"/>
+      <c r="CW36" s="261"/>
+      <c r="CX36" s="262"/>
+      <c r="CY36" s="262"/>
+      <c r="CZ36" s="262"/>
+      <c r="DA36" s="262"/>
+      <c r="DB36" s="263"/>
       <c r="DC36" s="42"/>
     </row>
     <row r="37" spans="7:107" ht="15.75" customHeight="1">
       <c r="G37" s="41"/>
       <c r="O37" s="41"/>
       <c r="AX37" s="42"/>
-      <c r="AY37" s="259"/>
+      <c r="AY37" s="292"/>
       <c r="BD37" s="41"/>
       <c r="BK37" s="42"/>
       <c r="BP37" s="41"/>
@@ -8846,19 +8870,19 @@
       <c r="CL37" s="41"/>
       <c r="CS37" s="42"/>
       <c r="CV37" s="41"/>
-      <c r="CW37" s="288"/>
-      <c r="CX37" s="289"/>
-      <c r="CY37" s="289"/>
-      <c r="CZ37" s="289"/>
-      <c r="DA37" s="289"/>
-      <c r="DB37" s="290"/>
+      <c r="CW37" s="264"/>
+      <c r="CX37" s="265"/>
+      <c r="CY37" s="265"/>
+      <c r="CZ37" s="265"/>
+      <c r="DA37" s="265"/>
+      <c r="DB37" s="266"/>
       <c r="DC37" s="42"/>
     </row>
     <row r="38" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G38" s="41"/>
       <c r="O38" s="41"/>
       <c r="AX38" s="42"/>
-      <c r="AY38" s="259"/>
+      <c r="AY38" s="292"/>
       <c r="BD38" s="41"/>
       <c r="BK38" s="42"/>
       <c r="BP38" s="41"/>
@@ -8868,70 +8892,70 @@
       <c r="CL38" s="41"/>
       <c r="CS38" s="42"/>
       <c r="CV38" s="41"/>
-      <c r="CW38" s="288"/>
-      <c r="CX38" s="289"/>
-      <c r="CY38" s="289"/>
-      <c r="CZ38" s="289"/>
-      <c r="DA38" s="289"/>
-      <c r="DB38" s="290"/>
+      <c r="CW38" s="264"/>
+      <c r="CX38" s="265"/>
+      <c r="CY38" s="265"/>
+      <c r="CZ38" s="265"/>
+      <c r="DA38" s="265"/>
+      <c r="DB38" s="266"/>
       <c r="DC38" s="42"/>
     </row>
     <row r="39" spans="7:107" ht="15.75" customHeight="1">
       <c r="G39" s="41"/>
       <c r="O39" s="41"/>
       <c r="AX39" s="42"/>
-      <c r="AY39" s="259"/>
+      <c r="AY39" s="292"/>
       <c r="BD39" s="41"/>
       <c r="BK39" s="42"/>
       <c r="BP39" s="41"/>
       <c r="BW39" s="42"/>
       <c r="CA39" s="41"/>
-      <c r="CB39" s="274" t="s">
+      <c r="CB39" s="273" t="s">
         <v>347</v>
       </c>
-      <c r="CC39" s="275"/>
-      <c r="CD39" s="275"/>
-      <c r="CE39" s="275"/>
-      <c r="CF39" s="275"/>
-      <c r="CG39" s="276"/>
+      <c r="CC39" s="274"/>
+      <c r="CD39" s="274"/>
+      <c r="CE39" s="274"/>
+      <c r="CF39" s="274"/>
+      <c r="CG39" s="275"/>
       <c r="CH39" s="42"/>
       <c r="CL39" s="41"/>
       <c r="CS39" s="42"/>
       <c r="CV39" s="41"/>
-      <c r="CW39" s="288"/>
-      <c r="CX39" s="289"/>
-      <c r="CY39" s="289"/>
-      <c r="CZ39" s="289"/>
-      <c r="DA39" s="289"/>
-      <c r="DB39" s="290"/>
+      <c r="CW39" s="264"/>
+      <c r="CX39" s="265"/>
+      <c r="CY39" s="265"/>
+      <c r="CZ39" s="265"/>
+      <c r="DA39" s="265"/>
+      <c r="DB39" s="266"/>
       <c r="DC39" s="42"/>
     </row>
     <row r="40" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
       <c r="G40" s="41"/>
       <c r="O40" s="41"/>
       <c r="AX40" s="42"/>
-      <c r="AY40" s="260"/>
+      <c r="AY40" s="293"/>
       <c r="BD40" s="41"/>
       <c r="BK40" s="42"/>
       <c r="BP40" s="41"/>
       <c r="BW40" s="42"/>
       <c r="CA40" s="41"/>
-      <c r="CB40" s="277"/>
-      <c r="CC40" s="278"/>
-      <c r="CD40" s="278"/>
-      <c r="CE40" s="278"/>
-      <c r="CF40" s="278"/>
-      <c r="CG40" s="279"/>
+      <c r="CB40" s="276"/>
+      <c r="CC40" s="277"/>
+      <c r="CD40" s="277"/>
+      <c r="CE40" s="277"/>
+      <c r="CF40" s="277"/>
+      <c r="CG40" s="278"/>
       <c r="CH40" s="42"/>
       <c r="CL40" s="41"/>
       <c r="CS40" s="42"/>
       <c r="CV40" s="41"/>
-      <c r="CW40" s="291"/>
-      <c r="CX40" s="292"/>
-      <c r="CY40" s="292"/>
-      <c r="CZ40" s="292"/>
-      <c r="DA40" s="292"/>
-      <c r="DB40" s="293"/>
+      <c r="CW40" s="267"/>
+      <c r="CX40" s="268"/>
+      <c r="CY40" s="268"/>
+      <c r="CZ40" s="268"/>
+      <c r="DA40" s="268"/>
+      <c r="DB40" s="269"/>
       <c r="DC40" s="42"/>
     </row>
     <row r="41" spans="7:107" ht="15.75" customHeight="1" thickBot="1">
@@ -8994,43 +9018,43 @@
       <c r="M42" s="44"/>
       <c r="N42" s="44"/>
       <c r="O42" s="115"/>
-      <c r="P42" s="255" t="s">
+      <c r="P42" s="270" t="s">
         <v>323</v>
       </c>
-      <c r="Q42" s="256"/>
-      <c r="R42" s="256"/>
-      <c r="S42" s="256"/>
-      <c r="T42" s="256"/>
-      <c r="U42" s="256"/>
-      <c r="V42" s="256"/>
-      <c r="W42" s="256"/>
-      <c r="X42" s="256"/>
-      <c r="Y42" s="256"/>
-      <c r="Z42" s="256"/>
-      <c r="AA42" s="256"/>
-      <c r="AB42" s="256"/>
-      <c r="AC42" s="256"/>
-      <c r="AD42" s="256"/>
-      <c r="AE42" s="256"/>
-      <c r="AF42" s="256"/>
-      <c r="AG42" s="256"/>
-      <c r="AH42" s="256"/>
-      <c r="AI42" s="256"/>
-      <c r="AJ42" s="256"/>
-      <c r="AK42" s="256"/>
-      <c r="AL42" s="256"/>
-      <c r="AM42" s="256"/>
-      <c r="AN42" s="256"/>
-      <c r="AO42" s="256"/>
-      <c r="AP42" s="256"/>
-      <c r="AQ42" s="256"/>
-      <c r="AR42" s="256"/>
-      <c r="AS42" s="256"/>
-      <c r="AT42" s="256"/>
-      <c r="AU42" s="256"/>
-      <c r="AV42" s="256"/>
-      <c r="AW42" s="256"/>
-      <c r="AX42" s="257"/>
+      <c r="Q42" s="259"/>
+      <c r="R42" s="259"/>
+      <c r="S42" s="259"/>
+      <c r="T42" s="259"/>
+      <c r="U42" s="259"/>
+      <c r="V42" s="259"/>
+      <c r="W42" s="259"/>
+      <c r="X42" s="259"/>
+      <c r="Y42" s="259"/>
+      <c r="Z42" s="259"/>
+      <c r="AA42" s="259"/>
+      <c r="AB42" s="259"/>
+      <c r="AC42" s="259"/>
+      <c r="AD42" s="259"/>
+      <c r="AE42" s="259"/>
+      <c r="AF42" s="259"/>
+      <c r="AG42" s="259"/>
+      <c r="AH42" s="259"/>
+      <c r="AI42" s="259"/>
+      <c r="AJ42" s="259"/>
+      <c r="AK42" s="259"/>
+      <c r="AL42" s="259"/>
+      <c r="AM42" s="259"/>
+      <c r="AN42" s="259"/>
+      <c r="AO42" s="259"/>
+      <c r="AP42" s="259"/>
+      <c r="AQ42" s="259"/>
+      <c r="AR42" s="259"/>
+      <c r="AS42" s="259"/>
+      <c r="AT42" s="259"/>
+      <c r="AU42" s="259"/>
+      <c r="AV42" s="259"/>
+      <c r="AW42" s="259"/>
+      <c r="AX42" s="260"/>
       <c r="AY42" s="115"/>
       <c r="BD42" s="43"/>
       <c r="BE42" s="44"/>
@@ -9075,6 +9099,78 @@
     </row>
   </sheetData>
   <mergeCells count="88">
+    <mergeCell ref="P42:AX42"/>
+    <mergeCell ref="AY12:AY40"/>
+    <mergeCell ref="G11:N12"/>
+    <mergeCell ref="G14:N14"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="P17:R17"/>
+    <mergeCell ref="BD11:BK12"/>
+    <mergeCell ref="BD14:BK14"/>
+    <mergeCell ref="BP11:BW12"/>
+    <mergeCell ref="BP14:BW14"/>
+    <mergeCell ref="CA11:CH12"/>
+    <mergeCell ref="CA14:CH14"/>
+    <mergeCell ref="CL11:CS12"/>
+    <mergeCell ref="CL14:CS14"/>
+    <mergeCell ref="CV11:DC12"/>
+    <mergeCell ref="CV14:DC14"/>
+    <mergeCell ref="BQ24:BV24"/>
+    <mergeCell ref="CM18:CR18"/>
+    <mergeCell ref="CM19:CR19"/>
+    <mergeCell ref="CM21:CR21"/>
+    <mergeCell ref="CM24:CR24"/>
+    <mergeCell ref="CM23:CR23"/>
+    <mergeCell ref="BE19:BJ19"/>
+    <mergeCell ref="BE18:BJ18"/>
+    <mergeCell ref="BE21:BJ21"/>
+    <mergeCell ref="BE22:BJ22"/>
+    <mergeCell ref="BQ19:BV19"/>
+    <mergeCell ref="BQ18:BV18"/>
+    <mergeCell ref="BQ21:BV21"/>
+    <mergeCell ref="BQ22:BV22"/>
+    <mergeCell ref="BE24:BJ24"/>
+    <mergeCell ref="BE25:BJ25"/>
+    <mergeCell ref="BE27:BJ27"/>
+    <mergeCell ref="BE28:BF28"/>
+    <mergeCell ref="BI28:BJ28"/>
+    <mergeCell ref="BG28:BH28"/>
+    <mergeCell ref="BE32:BJ33"/>
+    <mergeCell ref="CF29:CG29"/>
+    <mergeCell ref="CD29:CE29"/>
+    <mergeCell ref="CB29:CC29"/>
+    <mergeCell ref="CB28:CG28"/>
+    <mergeCell ref="BQ28:BV28"/>
+    <mergeCell ref="CB39:CG40"/>
+    <mergeCell ref="CB17:CG17"/>
+    <mergeCell ref="CB18:CC18"/>
+    <mergeCell ref="CD18:CE18"/>
+    <mergeCell ref="CF18:CG18"/>
+    <mergeCell ref="CB20:CG20"/>
+    <mergeCell ref="CF26:CG26"/>
+    <mergeCell ref="CD26:CE26"/>
+    <mergeCell ref="CB26:CC26"/>
+    <mergeCell ref="CB25:CG25"/>
+    <mergeCell ref="CE23:CH23"/>
+    <mergeCell ref="CB21:CG21"/>
+    <mergeCell ref="BQ36:BV36"/>
+    <mergeCell ref="CB31:CG31"/>
+    <mergeCell ref="CB32:CC32"/>
+    <mergeCell ref="CD32:CE32"/>
+    <mergeCell ref="CF32:CG32"/>
+    <mergeCell ref="CB34:CG34"/>
+    <mergeCell ref="CB35:CC35"/>
+    <mergeCell ref="CD35:CE35"/>
+    <mergeCell ref="CF35:CG35"/>
+    <mergeCell ref="BQ32:BV33"/>
+    <mergeCell ref="BQ25:BV25"/>
+    <mergeCell ref="BQ27:BV27"/>
+    <mergeCell ref="CM32:CR32"/>
+    <mergeCell ref="CM33:CR33"/>
+    <mergeCell ref="CM35:CR35"/>
+    <mergeCell ref="CM27:CR27"/>
+    <mergeCell ref="CM26:CR26"/>
+    <mergeCell ref="BQ35:BV35"/>
     <mergeCell ref="CM36:CR36"/>
     <mergeCell ref="CW18:DB18"/>
     <mergeCell ref="CW20:DB20"/>
@@ -9091,78 +9187,6 @@
     <mergeCell ref="CW36:DB40"/>
     <mergeCell ref="CM29:CR29"/>
     <mergeCell ref="CM30:CR30"/>
-    <mergeCell ref="BQ25:BV25"/>
-    <mergeCell ref="BQ27:BV27"/>
-    <mergeCell ref="CM32:CR32"/>
-    <mergeCell ref="CM33:CR33"/>
-    <mergeCell ref="CM35:CR35"/>
-    <mergeCell ref="CM27:CR27"/>
-    <mergeCell ref="CM26:CR26"/>
-    <mergeCell ref="BQ35:BV35"/>
-    <mergeCell ref="BQ36:BV36"/>
-    <mergeCell ref="CB31:CG31"/>
-    <mergeCell ref="CB32:CC32"/>
-    <mergeCell ref="CD32:CE32"/>
-    <mergeCell ref="CF32:CG32"/>
-    <mergeCell ref="CB34:CG34"/>
-    <mergeCell ref="CB35:CC35"/>
-    <mergeCell ref="CD35:CE35"/>
-    <mergeCell ref="CF35:CG35"/>
-    <mergeCell ref="BQ32:BV33"/>
-    <mergeCell ref="CB39:CG40"/>
-    <mergeCell ref="CB17:CG17"/>
-    <mergeCell ref="CB18:CC18"/>
-    <mergeCell ref="CD18:CE18"/>
-    <mergeCell ref="CF18:CG18"/>
-    <mergeCell ref="CB20:CG20"/>
-    <mergeCell ref="CF26:CG26"/>
-    <mergeCell ref="CD26:CE26"/>
-    <mergeCell ref="CB26:CC26"/>
-    <mergeCell ref="CB25:CG25"/>
-    <mergeCell ref="CE23:CH23"/>
-    <mergeCell ref="CB21:CG21"/>
-    <mergeCell ref="BE32:BJ33"/>
-    <mergeCell ref="CF29:CG29"/>
-    <mergeCell ref="CD29:CE29"/>
-    <mergeCell ref="CB29:CC29"/>
-    <mergeCell ref="CB28:CG28"/>
-    <mergeCell ref="BQ28:BV28"/>
-    <mergeCell ref="BE24:BJ24"/>
-    <mergeCell ref="BE25:BJ25"/>
-    <mergeCell ref="BE27:BJ27"/>
-    <mergeCell ref="BE28:BF28"/>
-    <mergeCell ref="BI28:BJ28"/>
-    <mergeCell ref="BG28:BH28"/>
-    <mergeCell ref="BE19:BJ19"/>
-    <mergeCell ref="BE18:BJ18"/>
-    <mergeCell ref="BE21:BJ21"/>
-    <mergeCell ref="BE22:BJ22"/>
-    <mergeCell ref="BQ19:BV19"/>
-    <mergeCell ref="BQ18:BV18"/>
-    <mergeCell ref="BQ21:BV21"/>
-    <mergeCell ref="BQ22:BV22"/>
-    <mergeCell ref="CL11:CS12"/>
-    <mergeCell ref="CL14:CS14"/>
-    <mergeCell ref="CV11:DC12"/>
-    <mergeCell ref="CV14:DC14"/>
-    <mergeCell ref="BQ24:BV24"/>
-    <mergeCell ref="CM18:CR18"/>
-    <mergeCell ref="CM19:CR19"/>
-    <mergeCell ref="CM21:CR21"/>
-    <mergeCell ref="CM24:CR24"/>
-    <mergeCell ref="CM23:CR23"/>
-    <mergeCell ref="BD11:BK12"/>
-    <mergeCell ref="BD14:BK14"/>
-    <mergeCell ref="BP11:BW12"/>
-    <mergeCell ref="BP14:BW14"/>
-    <mergeCell ref="CA11:CH12"/>
-    <mergeCell ref="CA14:CH14"/>
-    <mergeCell ref="P42:AX42"/>
-    <mergeCell ref="AY12:AY40"/>
-    <mergeCell ref="G11:N12"/>
-    <mergeCell ref="G14:N14"/>
-    <mergeCell ref="T17:W17"/>
-    <mergeCell ref="P17:R17"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9221,14 +9245,14 @@
         <v>476</v>
       </c>
       <c r="C3" s="28"/>
-      <c r="D3" s="299" t="s">
+      <c r="D3" s="297" t="s">
         <v>80</v>
       </c>
-      <c r="E3" s="300"/>
-      <c r="F3" s="300"/>
-      <c r="G3" s="300"/>
-      <c r="H3" s="300"/>
-      <c r="I3" s="301"/>
+      <c r="E3" s="298"/>
+      <c r="F3" s="298"/>
+      <c r="G3" s="298"/>
+      <c r="H3" s="298"/>
+      <c r="I3" s="299"/>
     </row>
     <row r="4" spans="1:16" ht="21" customHeight="1">
       <c r="A4" s="156" t="s">
@@ -9367,18 +9391,18 @@
         <v>375</v>
       </c>
       <c r="F12" s="132"/>
-      <c r="H12" s="294" t="s">
+      <c r="H12" s="300" t="s">
         <v>400</v>
       </c>
-      <c r="I12" s="302"/>
+      <c r="I12" s="301"/>
       <c r="J12" s="140" t="s">
         <v>404</v>
       </c>
       <c r="K12" s="132"/>
-      <c r="M12" s="294" t="s">
+      <c r="M12" s="300" t="s">
         <v>415</v>
       </c>
-      <c r="N12" s="295"/>
+      <c r="N12" s="296"/>
       <c r="O12" s="140" t="s">
         <v>422</v>
       </c>
@@ -9392,18 +9416,18 @@
         <v>368</v>
       </c>
       <c r="F13" s="132"/>
-      <c r="H13" s="294" t="s">
+      <c r="H13" s="300" t="s">
         <v>401</v>
       </c>
-      <c r="I13" s="302"/>
+      <c r="I13" s="301"/>
       <c r="J13" s="140" t="s">
         <v>403</v>
       </c>
       <c r="K13" s="132"/>
-      <c r="M13" s="294" t="s">
+      <c r="M13" s="300" t="s">
         <v>216</v>
       </c>
-      <c r="N13" s="295"/>
+      <c r="N13" s="296"/>
       <c r="O13" s="131" t="s">
         <v>417</v>
       </c>
@@ -9415,18 +9439,18 @@
       </c>
       <c r="E14" s="131"/>
       <c r="F14" s="132"/>
-      <c r="H14" s="294" t="s">
+      <c r="H14" s="300" t="s">
         <v>402</v>
       </c>
-      <c r="I14" s="302"/>
+      <c r="I14" s="301"/>
       <c r="J14" s="140" t="s">
         <v>369</v>
       </c>
       <c r="K14" s="132"/>
-      <c r="M14" s="294" t="s">
+      <c r="M14" s="300" t="s">
         <v>215</v>
       </c>
-      <c r="N14" s="295"/>
+      <c r="N14" s="296"/>
       <c r="O14" s="131" t="s">
         <v>418</v>
       </c>
@@ -9438,14 +9462,14 @@
       </c>
       <c r="E15" s="140"/>
       <c r="F15" s="132"/>
-      <c r="H15" s="297"/>
-      <c r="I15" s="298"/>
+      <c r="H15" s="302"/>
+      <c r="I15" s="303"/>
       <c r="J15" s="140"/>
       <c r="K15" s="132"/>
-      <c r="M15" s="294" t="s">
+      <c r="M15" s="300" t="s">
         <v>211</v>
       </c>
-      <c r="N15" s="295"/>
+      <c r="N15" s="296"/>
       <c r="O15" s="131" t="s">
         <v>419</v>
       </c>
@@ -9457,14 +9481,14 @@
       </c>
       <c r="E16" s="131"/>
       <c r="F16" s="134"/>
-      <c r="H16" s="297"/>
-      <c r="I16" s="298"/>
+      <c r="H16" s="302"/>
+      <c r="I16" s="303"/>
       <c r="J16" s="140"/>
       <c r="K16" s="132"/>
-      <c r="M16" s="294" t="s">
+      <c r="M16" s="300" t="s">
         <v>212</v>
       </c>
-      <c r="N16" s="295"/>
+      <c r="N16" s="296"/>
       <c r="O16" s="131" t="s">
         <v>169</v>
       </c>
@@ -9480,10 +9504,10 @@
       <c r="I17" s="135"/>
       <c r="J17" s="136"/>
       <c r="K17" s="137"/>
-      <c r="M17" s="294" t="s">
+      <c r="M17" s="300" t="s">
         <v>416</v>
       </c>
-      <c r="N17" s="295"/>
+      <c r="N17" s="296"/>
       <c r="O17" s="131" t="s">
         <v>420</v>
       </c>
@@ -9493,10 +9517,10 @@
       <c r="C18" s="133"/>
       <c r="E18" s="131"/>
       <c r="F18" s="134"/>
-      <c r="M18" s="294" t="s">
+      <c r="M18" s="300" t="s">
         <v>213</v>
       </c>
-      <c r="N18" s="295"/>
+      <c r="N18" s="296"/>
       <c r="O18" s="131" t="s">
         <v>421</v>
       </c>
@@ -9516,10 +9540,10 @@
       <c r="K19" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="M19" s="294" t="s">
+      <c r="M19" s="300" t="s">
         <v>290</v>
       </c>
-      <c r="N19" s="295"/>
+      <c r="N19" s="296"/>
       <c r="O19" s="131" t="s">
         <v>427</v>
       </c>
@@ -9537,10 +9561,10 @@
       <c r="I20" s="29"/>
       <c r="J20" s="29"/>
       <c r="K20" s="127"/>
-      <c r="M20" s="296" t="s">
+      <c r="M20" s="295" t="s">
         <v>423</v>
       </c>
-      <c r="N20" s="295"/>
+      <c r="N20" s="296"/>
       <c r="O20" s="140" t="s">
         <v>480</v>
       </c>
@@ -9554,10 +9578,10 @@
       <c r="I21" s="29"/>
       <c r="J21" s="29"/>
       <c r="K21" s="127"/>
-      <c r="M21" s="296" t="s">
+      <c r="M21" s="295" t="s">
         <v>424</v>
       </c>
-      <c r="N21" s="295"/>
+      <c r="N21" s="296"/>
       <c r="O21" s="131"/>
       <c r="P21" s="132"/>
     </row>
@@ -9574,22 +9598,22 @@
         <v>84</v>
       </c>
       <c r="K22" s="130"/>
-      <c r="M22" s="296"/>
-      <c r="N22" s="295"/>
+      <c r="M22" s="295"/>
+      <c r="N22" s="296"/>
       <c r="O22" s="131"/>
       <c r="P22" s="132"/>
     </row>
     <row r="23" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="H23" s="294" t="s">
+      <c r="H23" s="300" t="s">
         <v>405</v>
       </c>
-      <c r="I23" s="302"/>
+      <c r="I23" s="301"/>
       <c r="J23" s="140" t="s">
         <v>369</v>
       </c>
       <c r="K23" s="132"/>
-      <c r="M23" s="296"/>
-      <c r="N23" s="295"/>
+      <c r="M23" s="295"/>
+      <c r="N23" s="296"/>
       <c r="O23" s="131"/>
       <c r="P23" s="132"/>
     </row>
@@ -9602,12 +9626,12 @@
       <c r="F24" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="H24" s="294"/>
-      <c r="I24" s="302"/>
+      <c r="H24" s="300"/>
+      <c r="I24" s="301"/>
       <c r="J24" s="140"/>
       <c r="K24" s="132"/>
-      <c r="M24" s="296"/>
-      <c r="N24" s="295"/>
+      <c r="M24" s="295"/>
+      <c r="N24" s="296"/>
       <c r="O24" s="131"/>
       <c r="P24" s="132"/>
     </row>
@@ -9620,12 +9644,12 @@
       <c r="F25" s="143" t="s">
         <v>373</v>
       </c>
-      <c r="H25" s="294"/>
-      <c r="I25" s="302"/>
+      <c r="H25" s="300"/>
+      <c r="I25" s="301"/>
       <c r="J25" s="140"/>
       <c r="K25" s="132"/>
-      <c r="M25" s="296"/>
-      <c r="N25" s="295"/>
+      <c r="M25" s="295"/>
+      <c r="N25" s="296"/>
       <c r="O25" s="131"/>
       <c r="P25" s="132"/>
     </row>
@@ -9634,12 +9658,12 @@
       <c r="D26" s="29"/>
       <c r="E26" s="29"/>
       <c r="F26" s="127"/>
-      <c r="H26" s="297"/>
-      <c r="I26" s="298"/>
+      <c r="H26" s="302"/>
+      <c r="I26" s="303"/>
       <c r="J26" s="140"/>
       <c r="K26" s="132"/>
-      <c r="M26" s="296"/>
-      <c r="N26" s="295"/>
+      <c r="M26" s="295"/>
+      <c r="N26" s="296"/>
       <c r="O26" s="131"/>
       <c r="P26" s="132"/>
     </row>
@@ -9652,12 +9676,12 @@
         <v>84</v>
       </c>
       <c r="F27" s="130"/>
-      <c r="H27" s="297"/>
-      <c r="I27" s="298"/>
+      <c r="H27" s="302"/>
+      <c r="I27" s="303"/>
       <c r="J27" s="140"/>
       <c r="K27" s="132"/>
-      <c r="M27" s="296"/>
-      <c r="N27" s="295"/>
+      <c r="M27" s="295"/>
+      <c r="N27" s="296"/>
       <c r="O27" s="131"/>
       <c r="P27" s="132"/>
     </row>
@@ -9673,8 +9697,8 @@
       <c r="I28" s="135"/>
       <c r="J28" s="136"/>
       <c r="K28" s="137"/>
-      <c r="M28" s="296"/>
-      <c r="N28" s="295"/>
+      <c r="M28" s="295"/>
+      <c r="N28" s="296"/>
       <c r="O28" s="131"/>
       <c r="P28" s="132"/>
     </row>
@@ -9686,8 +9710,8 @@
         <v>388</v>
       </c>
       <c r="F29" s="132"/>
-      <c r="M29" s="296"/>
-      <c r="N29" s="295"/>
+      <c r="M29" s="295"/>
+      <c r="N29" s="296"/>
       <c r="O29" s="131"/>
       <c r="P29" s="132"/>
     </row>
@@ -9697,8 +9721,8 @@
       </c>
       <c r="E30" s="140"/>
       <c r="F30" s="132"/>
-      <c r="M30" s="296"/>
-      <c r="N30" s="295"/>
+      <c r="M30" s="295"/>
+      <c r="N30" s="296"/>
       <c r="O30" s="131"/>
       <c r="P30" s="132"/>
     </row>
@@ -9778,10 +9802,10 @@
       <c r="C37" s="133"/>
       <c r="E37" s="131"/>
       <c r="F37" s="134"/>
-      <c r="M37" s="294" t="s">
+      <c r="M37" s="300" t="s">
         <v>428</v>
       </c>
-      <c r="N37" s="295"/>
+      <c r="N37" s="296"/>
       <c r="O37" s="131" t="s">
         <v>430</v>
       </c>
@@ -9791,10 +9815,10 @@
       <c r="C38" s="133"/>
       <c r="E38" s="131"/>
       <c r="F38" s="134"/>
-      <c r="M38" s="296" t="s">
+      <c r="M38" s="295" t="s">
         <v>429</v>
       </c>
-      <c r="N38" s="295"/>
+      <c r="N38" s="296"/>
       <c r="O38" s="131" t="s">
         <v>431</v>
       </c>
@@ -9805,16 +9829,16 @@
       <c r="D39" s="135"/>
       <c r="E39" s="136"/>
       <c r="F39" s="139"/>
-      <c r="M39" s="296"/>
-      <c r="N39" s="295"/>
+      <c r="M39" s="295"/>
+      <c r="N39" s="296"/>
       <c r="O39" s="131" t="s">
         <v>432</v>
       </c>
       <c r="P39" s="132"/>
     </row>
     <row r="40" spans="3:16" ht="15.75" customHeight="1" thickBot="1">
-      <c r="M40" s="296"/>
-      <c r="N40" s="295"/>
+      <c r="M40" s="295"/>
+      <c r="N40" s="296"/>
       <c r="O40" s="131" t="s">
         <v>433</v>
       </c>
@@ -9829,8 +9853,8 @@
       <c r="F41" s="125" t="s">
         <v>81</v>
       </c>
-      <c r="M41" s="296"/>
-      <c r="N41" s="295"/>
+      <c r="M41" s="295"/>
+      <c r="N41" s="296"/>
       <c r="O41" s="131" t="s">
         <v>435</v>
       </c>
@@ -9845,8 +9869,8 @@
       <c r="F42" s="143" t="s">
         <v>373</v>
       </c>
-      <c r="M42" s="296"/>
-      <c r="N42" s="295"/>
+      <c r="M42" s="295"/>
+      <c r="N42" s="296"/>
       <c r="O42" s="131" t="s">
         <v>434</v>
       </c>
@@ -9940,10 +9964,10 @@
         <v>397</v>
       </c>
       <c r="F49" s="134"/>
-      <c r="M49" s="294" t="s">
+      <c r="M49" s="300" t="s">
         <v>436</v>
       </c>
-      <c r="N49" s="295"/>
+      <c r="N49" s="296"/>
       <c r="O49" s="131" t="s">
         <v>439</v>
       </c>
@@ -9957,10 +9981,10 @@
         <v>334</v>
       </c>
       <c r="F50" s="134"/>
-      <c r="M50" s="296" t="s">
+      <c r="M50" s="295" t="s">
         <v>437</v>
       </c>
-      <c r="N50" s="295"/>
+      <c r="N50" s="296"/>
       <c r="O50" s="131" t="s">
         <v>440</v>
       </c>
@@ -9974,10 +9998,10 @@
         <v>369</v>
       </c>
       <c r="F51" s="134"/>
-      <c r="M51" s="296" t="s">
+      <c r="M51" s="295" t="s">
         <v>438</v>
       </c>
-      <c r="N51" s="295"/>
+      <c r="N51" s="296"/>
       <c r="O51" s="131"/>
       <c r="P51" s="132"/>
     </row>
@@ -9987,10 +10011,10 @@
         <v>456</v>
       </c>
       <c r="F52" s="134"/>
-      <c r="M52" s="296" t="s">
+      <c r="M52" s="295" t="s">
         <v>441</v>
       </c>
-      <c r="N52" s="295"/>
+      <c r="N52" s="296"/>
       <c r="O52" s="131"/>
       <c r="P52" s="132"/>
     </row>
@@ -10001,8 +10025,8 @@
         <v>457</v>
       </c>
       <c r="F53" s="137"/>
-      <c r="M53" s="296"/>
-      <c r="N53" s="295"/>
+      <c r="M53" s="295"/>
+      <c r="N53" s="296"/>
       <c r="O53" s="131"/>
       <c r="P53" s="132"/>
     </row>
@@ -10054,10 +10078,10 @@
       </c>
     </row>
     <row r="60" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M60" s="294" t="s">
+      <c r="M60" s="300" t="s">
         <v>442</v>
       </c>
-      <c r="N60" s="295"/>
+      <c r="N60" s="296"/>
       <c r="O60" s="140" t="s">
         <v>446</v>
       </c>
@@ -10066,10 +10090,10 @@
       </c>
     </row>
     <row r="61" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M61" s="296" t="s">
+      <c r="M61" s="295" t="s">
         <v>443</v>
       </c>
-      <c r="N61" s="295"/>
+      <c r="N61" s="296"/>
       <c r="O61" s="140" t="s">
         <v>447</v>
       </c>
@@ -10078,10 +10102,10 @@
       </c>
     </row>
     <row r="62" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M62" s="294" t="s">
+      <c r="M62" s="300" t="s">
         <v>448</v>
       </c>
-      <c r="N62" s="295"/>
+      <c r="N62" s="296"/>
       <c r="O62" s="140" t="s">
         <v>85</v>
       </c>
@@ -10090,14 +10114,14 @@
       </c>
     </row>
     <row r="63" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M63" s="296"/>
-      <c r="N63" s="295"/>
+      <c r="M63" s="295"/>
+      <c r="N63" s="296"/>
       <c r="O63" s="131"/>
       <c r="P63" s="132"/>
     </row>
     <row r="64" spans="3:16" ht="15.75" customHeight="1">
-      <c r="M64" s="296"/>
-      <c r="N64" s="295"/>
+      <c r="M64" s="295"/>
+      <c r="N64" s="296"/>
       <c r="O64" s="131"/>
       <c r="P64" s="132"/>
     </row>
@@ -10145,40 +10169,40 @@
       <c r="P70" s="130"/>
     </row>
     <row r="71" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M71" s="294" t="s">
+      <c r="M71" s="300" t="s">
         <v>449</v>
       </c>
-      <c r="N71" s="295"/>
+      <c r="N71" s="296"/>
       <c r="O71" s="140" t="s">
         <v>369</v>
       </c>
       <c r="P71" s="132"/>
     </row>
     <row r="72" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M72" s="294" t="s">
+      <c r="M72" s="300" t="s">
         <v>450</v>
       </c>
-      <c r="N72" s="295"/>
+      <c r="N72" s="296"/>
       <c r="O72" s="140" t="s">
         <v>451</v>
       </c>
       <c r="P72" s="132"/>
     </row>
     <row r="73" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M73" s="296"/>
-      <c r="N73" s="295"/>
+      <c r="M73" s="295"/>
+      <c r="N73" s="296"/>
       <c r="O73" s="131"/>
       <c r="P73" s="132"/>
     </row>
     <row r="74" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M74" s="296"/>
-      <c r="N74" s="295"/>
+      <c r="M74" s="295"/>
+      <c r="N74" s="296"/>
       <c r="O74" s="131"/>
       <c r="P74" s="132"/>
     </row>
     <row r="75" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M75" s="296"/>
-      <c r="N75" s="295"/>
+      <c r="M75" s="295"/>
+      <c r="N75" s="296"/>
       <c r="O75" s="131"/>
       <c r="P75" s="132"/>
     </row>
@@ -10226,40 +10250,40 @@
       <c r="P81" s="130"/>
     </row>
     <row r="82" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M82" s="294" t="s">
+      <c r="M82" s="300" t="s">
         <v>449</v>
       </c>
-      <c r="N82" s="295"/>
+      <c r="N82" s="296"/>
       <c r="O82" s="140" t="s">
         <v>369</v>
       </c>
       <c r="P82" s="132"/>
     </row>
     <row r="83" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M83" s="294" t="s">
+      <c r="M83" s="300" t="s">
         <v>452</v>
       </c>
-      <c r="N83" s="295"/>
+      <c r="N83" s="296"/>
       <c r="O83" s="140" t="s">
         <v>451</v>
       </c>
       <c r="P83" s="132"/>
     </row>
     <row r="84" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M84" s="296"/>
-      <c r="N84" s="295"/>
+      <c r="M84" s="295"/>
+      <c r="N84" s="296"/>
       <c r="O84" s="131"/>
       <c r="P84" s="132"/>
     </row>
     <row r="85" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M85" s="296"/>
-      <c r="N85" s="295"/>
+      <c r="M85" s="295"/>
+      <c r="N85" s="296"/>
       <c r="O85" s="131"/>
       <c r="P85" s="132"/>
     </row>
     <row r="86" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M86" s="296"/>
-      <c r="N86" s="295"/>
+      <c r="M86" s="295"/>
+      <c r="N86" s="296"/>
       <c r="O86" s="131"/>
       <c r="P86" s="132"/>
     </row>
@@ -10305,40 +10329,40 @@
       <c r="P92" s="130"/>
     </row>
     <row r="93" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M93" s="294" t="s">
+      <c r="M93" s="300" t="s">
         <v>216</v>
       </c>
-      <c r="N93" s="295"/>
+      <c r="N93" s="296"/>
       <c r="O93" s="140" t="s">
         <v>453</v>
       </c>
       <c r="P93" s="132"/>
     </row>
     <row r="94" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M94" s="296"/>
-      <c r="N94" s="295"/>
+      <c r="M94" s="295"/>
+      <c r="N94" s="296"/>
       <c r="O94" s="140" t="s">
         <v>454</v>
       </c>
       <c r="P94" s="132"/>
     </row>
     <row r="95" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M95" s="296"/>
-      <c r="N95" s="295"/>
+      <c r="M95" s="295"/>
+      <c r="N95" s="296"/>
       <c r="O95" s="140" t="s">
         <v>455</v>
       </c>
       <c r="P95" s="132"/>
     </row>
     <row r="96" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M96" s="296"/>
-      <c r="N96" s="295"/>
+      <c r="M96" s="295"/>
+      <c r="N96" s="296"/>
       <c r="O96" s="131"/>
       <c r="P96" s="132"/>
     </row>
     <row r="97" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M97" s="296"/>
-      <c r="N97" s="295"/>
+      <c r="M97" s="295"/>
+      <c r="N97" s="296"/>
       <c r="O97" s="131"/>
       <c r="P97" s="132"/>
     </row>
@@ -10384,46 +10408,46 @@
       <c r="P103" s="130"/>
     </row>
     <row r="104" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M104" s="294" t="s">
+      <c r="M104" s="300" t="s">
         <v>465</v>
       </c>
-      <c r="N104" s="295"/>
+      <c r="N104" s="296"/>
       <c r="O104" s="140" t="s">
         <v>462</v>
       </c>
       <c r="P104" s="132"/>
     </row>
     <row r="105" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M105" s="294" t="s">
+      <c r="M105" s="300" t="s">
         <v>466</v>
       </c>
-      <c r="N105" s="295"/>
+      <c r="N105" s="296"/>
       <c r="O105" s="140" t="s">
         <v>461</v>
       </c>
       <c r="P105" s="132"/>
     </row>
     <row r="106" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M106" s="294" t="s">
+      <c r="M106" s="300" t="s">
         <v>467</v>
       </c>
-      <c r="N106" s="295"/>
+      <c r="N106" s="296"/>
       <c r="O106" s="140" t="s">
         <v>463</v>
       </c>
       <c r="P106" s="132"/>
     </row>
     <row r="107" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M107" s="296"/>
-      <c r="N107" s="295"/>
+      <c r="M107" s="295"/>
+      <c r="N107" s="296"/>
       <c r="O107" s="140" t="s">
         <v>464</v>
       </c>
       <c r="P107" s="132"/>
     </row>
     <row r="108" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M108" s="296"/>
-      <c r="N108" s="295"/>
+      <c r="M108" s="295"/>
+      <c r="N108" s="296"/>
       <c r="O108" s="131"/>
       <c r="P108" s="132"/>
     </row>
@@ -10471,42 +10495,42 @@
       <c r="P114" s="130"/>
     </row>
     <row r="115" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M115" s="294" t="s">
+      <c r="M115" s="300" t="s">
         <v>482</v>
       </c>
-      <c r="N115" s="295"/>
+      <c r="N115" s="296"/>
       <c r="O115" s="140" t="s">
         <v>483</v>
       </c>
       <c r="P115" s="132"/>
     </row>
     <row r="116" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M116" s="296"/>
-      <c r="N116" s="295"/>
+      <c r="M116" s="295"/>
+      <c r="N116" s="296"/>
       <c r="O116" s="131"/>
       <c r="P116" s="132"/>
     </row>
     <row r="117" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M117" s="296"/>
-      <c r="N117" s="295"/>
+      <c r="M117" s="295"/>
+      <c r="N117" s="296"/>
       <c r="O117" s="131"/>
       <c r="P117" s="132"/>
     </row>
     <row r="118" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M118" s="296"/>
-      <c r="N118" s="295"/>
+      <c r="M118" s="295"/>
+      <c r="N118" s="296"/>
       <c r="O118" s="131"/>
       <c r="P118" s="132"/>
     </row>
     <row r="119" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M119" s="296"/>
-      <c r="N119" s="295"/>
+      <c r="M119" s="295"/>
+      <c r="N119" s="296"/>
       <c r="O119" s="131"/>
       <c r="P119" s="132"/>
     </row>
     <row r="120" spans="13:16" ht="15.75" customHeight="1">
-      <c r="M120" s="296"/>
-      <c r="N120" s="295"/>
+      <c r="M120" s="295"/>
+      <c r="N120" s="296"/>
       <c r="O120" s="131"/>
       <c r="P120" s="132"/>
     </row>
@@ -10518,6 +10542,62 @@
     </row>
   </sheetData>
   <mergeCells count="72">
+    <mergeCell ref="M105:N105"/>
+    <mergeCell ref="M106:N106"/>
+    <mergeCell ref="M107:N107"/>
+    <mergeCell ref="M108:N108"/>
+    <mergeCell ref="M94:N94"/>
+    <mergeCell ref="M95:N95"/>
+    <mergeCell ref="M96:N96"/>
+    <mergeCell ref="M97:N97"/>
+    <mergeCell ref="M104:N104"/>
+    <mergeCell ref="M83:N83"/>
+    <mergeCell ref="M84:N84"/>
+    <mergeCell ref="M85:N85"/>
+    <mergeCell ref="M86:N86"/>
+    <mergeCell ref="M93:N93"/>
+    <mergeCell ref="M72:N72"/>
+    <mergeCell ref="M73:N73"/>
+    <mergeCell ref="M74:N74"/>
+    <mergeCell ref="M75:N75"/>
+    <mergeCell ref="M82:N82"/>
+    <mergeCell ref="M61:N61"/>
+    <mergeCell ref="M62:N62"/>
+    <mergeCell ref="M63:N63"/>
+    <mergeCell ref="M64:N64"/>
+    <mergeCell ref="M71:N71"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="M52:N52"/>
+    <mergeCell ref="M53:N53"/>
+    <mergeCell ref="M60:N60"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="M40:N40"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="M23:N23"/>
     <mergeCell ref="M119:N119"/>
     <mergeCell ref="M120:N120"/>
     <mergeCell ref="D3:I3"/>
@@ -10534,62 +10614,6 @@
     <mergeCell ref="H24:I24"/>
     <mergeCell ref="H25:I25"/>
     <mergeCell ref="H26:I26"/>
-    <mergeCell ref="M37:N37"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="M38:N38"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="M41:N41"/>
-    <mergeCell ref="M49:N49"/>
-    <mergeCell ref="M42:N42"/>
-    <mergeCell ref="M50:N50"/>
-    <mergeCell ref="M51:N51"/>
-    <mergeCell ref="M52:N52"/>
-    <mergeCell ref="M53:N53"/>
-    <mergeCell ref="M60:N60"/>
-    <mergeCell ref="M61:N61"/>
-    <mergeCell ref="M62:N62"/>
-    <mergeCell ref="M63:N63"/>
-    <mergeCell ref="M64:N64"/>
-    <mergeCell ref="M71:N71"/>
-    <mergeCell ref="M72:N72"/>
-    <mergeCell ref="M73:N73"/>
-    <mergeCell ref="M74:N74"/>
-    <mergeCell ref="M75:N75"/>
-    <mergeCell ref="M82:N82"/>
-    <mergeCell ref="M83:N83"/>
-    <mergeCell ref="M84:N84"/>
-    <mergeCell ref="M85:N85"/>
-    <mergeCell ref="M86:N86"/>
-    <mergeCell ref="M93:N93"/>
-    <mergeCell ref="M105:N105"/>
-    <mergeCell ref="M106:N106"/>
-    <mergeCell ref="M107:N107"/>
-    <mergeCell ref="M108:N108"/>
-    <mergeCell ref="M94:N94"/>
-    <mergeCell ref="M95:N95"/>
-    <mergeCell ref="M96:N96"/>
-    <mergeCell ref="M97:N97"/>
-    <mergeCell ref="M104:N104"/>
   </mergeCells>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
 </worksheet>
@@ -12159,15 +12183,15 @@
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
-      <c r="H3" s="303"/>
-      <c r="I3" s="246"/>
-      <c r="J3" s="246"/>
-      <c r="K3" s="246"/>
-      <c r="L3" s="246"/>
-      <c r="M3" s="246"/>
-      <c r="N3" s="246"/>
-      <c r="O3" s="246"/>
-      <c r="P3" s="246"/>
+      <c r="H3" s="304"/>
+      <c r="I3" s="247"/>
+      <c r="J3" s="247"/>
+      <c r="K3" s="247"/>
+      <c r="L3" s="247"/>
+      <c r="M3" s="247"/>
+      <c r="N3" s="247"/>
+      <c r="O3" s="247"/>
+      <c r="P3" s="247"/>
     </row>
     <row r="4" spans="2:21" ht="21.75" customHeight="1" thickBot="1">
       <c r="B4" s="26"/>
@@ -12220,12 +12244,12 @@
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
       <c r="N6" s="26"/>
-      <c r="R6" s="304" t="s">
+      <c r="R6" s="305" t="s">
         <v>600</v>
       </c>
-      <c r="S6" s="305"/>
-      <c r="T6" s="305"/>
-      <c r="U6" s="306"/>
+      <c r="S6" s="306"/>
+      <c r="T6" s="306"/>
+      <c r="U6" s="307"/>
     </row>
     <row r="7" spans="2:21" ht="21.75" customHeight="1" thickBot="1">
       <c r="B7" s="183" t="s">
@@ -12243,10 +12267,10 @@
       <c r="L7" s="184"/>
       <c r="M7" s="184"/>
       <c r="N7" s="184"/>
-      <c r="R7" s="307"/>
-      <c r="S7" s="308"/>
-      <c r="T7" s="308"/>
-      <c r="U7" s="309"/>
+      <c r="R7" s="308"/>
+      <c r="S7" s="309"/>
+      <c r="T7" s="309"/>
+      <c r="U7" s="310"/>
     </row>
     <row r="8" spans="2:21" ht="15">
       <c r="B8" s="187" t="s">
@@ -12268,10 +12292,10 @@
       <c r="L8" s="184"/>
       <c r="M8" s="184"/>
       <c r="N8" s="190"/>
-      <c r="R8" s="307"/>
-      <c r="S8" s="308"/>
-      <c r="T8" s="308"/>
-      <c r="U8" s="309"/>
+      <c r="R8" s="308"/>
+      <c r="S8" s="309"/>
+      <c r="T8" s="309"/>
+      <c r="U8" s="310"/>
     </row>
     <row r="9" spans="2:21" thickBot="1">
       <c r="B9" s="191" t="s">
@@ -12293,10 +12317,10 @@
       <c r="L9" s="194"/>
       <c r="M9" s="194"/>
       <c r="N9" s="194"/>
-      <c r="R9" s="307"/>
-      <c r="S9" s="308"/>
-      <c r="T9" s="308"/>
-      <c r="U9" s="309"/>
+      <c r="R9" s="308"/>
+      <c r="S9" s="309"/>
+      <c r="T9" s="309"/>
+      <c r="U9" s="310"/>
     </row>
     <row r="10" spans="2:21" thickBot="1">
       <c r="B10" s="191" t="s">
@@ -12328,10 +12352,10 @@
       </c>
       <c r="O10" s="200"/>
       <c r="P10" s="201"/>
-      <c r="R10" s="307"/>
-      <c r="S10" s="308"/>
-      <c r="T10" s="308"/>
-      <c r="U10" s="309"/>
+      <c r="R10" s="308"/>
+      <c r="S10" s="309"/>
+      <c r="T10" s="309"/>
+      <c r="U10" s="310"/>
     </row>
     <row r="11" spans="2:21" ht="15" customHeight="1" thickBot="1">
       <c r="B11" s="202"/>
@@ -12373,10 +12397,10 @@
       <c r="P11" s="211" t="s">
         <v>100</v>
       </c>
-      <c r="R11" s="307"/>
-      <c r="S11" s="308"/>
-      <c r="T11" s="308"/>
-      <c r="U11" s="309"/>
+      <c r="R11" s="308"/>
+      <c r="S11" s="309"/>
+      <c r="T11" s="309"/>
+      <c r="U11" s="310"/>
     </row>
     <row r="12" spans="2:21" ht="20.25" customHeight="1">
       <c r="B12" s="171" t="s">
@@ -12398,10 +12422,10 @@
       <c r="N12" s="231"/>
       <c r="O12" s="216"/>
       <c r="P12" s="217"/>
-      <c r="R12" s="307"/>
-      <c r="S12" s="308"/>
-      <c r="T12" s="308"/>
-      <c r="U12" s="309"/>
+      <c r="R12" s="308"/>
+      <c r="S12" s="309"/>
+      <c r="T12" s="309"/>
+      <c r="U12" s="310"/>
     </row>
     <row r="13" spans="2:21" ht="20.25" customHeight="1">
       <c r="B13" s="172"/>
@@ -12425,10 +12449,10 @@
       <c r="N13" s="231"/>
       <c r="O13" s="216"/>
       <c r="P13" s="217"/>
-      <c r="R13" s="307"/>
-      <c r="S13" s="308"/>
-      <c r="T13" s="308"/>
-      <c r="U13" s="309"/>
+      <c r="R13" s="308"/>
+      <c r="S13" s="309"/>
+      <c r="T13" s="309"/>
+      <c r="U13" s="310"/>
     </row>
     <row r="14" spans="2:21" ht="20.25" customHeight="1">
       <c r="B14" s="174"/>
@@ -12446,10 +12470,10 @@
       <c r="N14" s="231"/>
       <c r="O14" s="216"/>
       <c r="P14" s="217"/>
-      <c r="R14" s="307"/>
-      <c r="S14" s="308"/>
-      <c r="T14" s="308"/>
-      <c r="U14" s="309"/>
+      <c r="R14" s="308"/>
+      <c r="S14" s="309"/>
+      <c r="T14" s="309"/>
+      <c r="U14" s="310"/>
     </row>
     <row r="15" spans="2:21" ht="20.25" customHeight="1">
       <c r="B15" s="174" t="s">
@@ -12471,10 +12495,10 @@
       <c r="N15" s="231"/>
       <c r="O15" s="216"/>
       <c r="P15" s="217"/>
-      <c r="R15" s="307"/>
-      <c r="S15" s="308"/>
-      <c r="T15" s="308"/>
-      <c r="U15" s="309"/>
+      <c r="R15" s="308"/>
+      <c r="S15" s="309"/>
+      <c r="T15" s="309"/>
+      <c r="U15" s="310"/>
     </row>
     <row r="16" spans="2:21" ht="20.25" customHeight="1">
       <c r="B16" s="172"/>
@@ -12498,10 +12522,10 @@
       <c r="N16" s="231"/>
       <c r="O16" s="216"/>
       <c r="P16" s="217"/>
-      <c r="R16" s="307"/>
-      <c r="S16" s="308"/>
-      <c r="T16" s="308"/>
-      <c r="U16" s="309"/>
+      <c r="R16" s="308"/>
+      <c r="S16" s="309"/>
+      <c r="T16" s="309"/>
+      <c r="U16" s="310"/>
     </row>
     <row r="17" spans="2:21" ht="20.25" customHeight="1">
       <c r="B17" s="172"/>
@@ -12525,10 +12549,10 @@
       <c r="N17" s="231"/>
       <c r="O17" s="216"/>
       <c r="P17" s="217"/>
-      <c r="R17" s="307"/>
-      <c r="S17" s="308"/>
-      <c r="T17" s="308"/>
-      <c r="U17" s="309"/>
+      <c r="R17" s="308"/>
+      <c r="S17" s="309"/>
+      <c r="T17" s="309"/>
+      <c r="U17" s="310"/>
     </row>
     <row r="18" spans="2:21" ht="20.25" customHeight="1">
       <c r="B18" s="172"/>
@@ -12548,10 +12572,10 @@
       <c r="N18" s="231"/>
       <c r="O18" s="216"/>
       <c r="P18" s="217"/>
-      <c r="R18" s="307"/>
-      <c r="S18" s="308"/>
-      <c r="T18" s="308"/>
-      <c r="U18" s="309"/>
+      <c r="R18" s="308"/>
+      <c r="S18" s="309"/>
+      <c r="T18" s="309"/>
+      <c r="U18" s="310"/>
     </row>
     <row r="19" spans="2:21" ht="20.25" customHeight="1">
       <c r="B19" s="172"/>
@@ -12575,10 +12599,10 @@
       <c r="N19" s="231"/>
       <c r="O19" s="216"/>
       <c r="P19" s="217"/>
-      <c r="R19" s="307"/>
-      <c r="S19" s="308"/>
-      <c r="T19" s="308"/>
-      <c r="U19" s="309"/>
+      <c r="R19" s="308"/>
+      <c r="S19" s="309"/>
+      <c r="T19" s="309"/>
+      <c r="U19" s="310"/>
     </row>
     <row r="20" spans="2:21" ht="20.25" customHeight="1">
       <c r="B20" s="172"/>
@@ -12596,10 +12620,10 @@
       <c r="N20" s="231"/>
       <c r="O20" s="216"/>
       <c r="P20" s="217"/>
-      <c r="R20" s="307"/>
-      <c r="S20" s="308"/>
-      <c r="T20" s="308"/>
-      <c r="U20" s="309"/>
+      <c r="R20" s="308"/>
+      <c r="S20" s="309"/>
+      <c r="T20" s="309"/>
+      <c r="U20" s="310"/>
     </row>
     <row r="21" spans="2:21" ht="20.25" customHeight="1">
       <c r="B21" s="174" t="s">
@@ -12621,10 +12645,10 @@
       <c r="N21" s="231"/>
       <c r="O21" s="216"/>
       <c r="P21" s="217"/>
-      <c r="R21" s="307"/>
-      <c r="S21" s="308"/>
-      <c r="T21" s="308"/>
-      <c r="U21" s="309"/>
+      <c r="R21" s="308"/>
+      <c r="S21" s="309"/>
+      <c r="T21" s="309"/>
+      <c r="U21" s="310"/>
     </row>
     <row r="22" spans="2:21" ht="20.25" customHeight="1">
       <c r="B22" s="172"/>
@@ -12648,10 +12672,10 @@
       <c r="N22" s="231"/>
       <c r="O22" s="216"/>
       <c r="P22" s="217"/>
-      <c r="R22" s="307"/>
-      <c r="S22" s="308"/>
-      <c r="T22" s="308"/>
-      <c r="U22" s="309"/>
+      <c r="R22" s="308"/>
+      <c r="S22" s="309"/>
+      <c r="T22" s="309"/>
+      <c r="U22" s="310"/>
     </row>
     <row r="23" spans="2:21" ht="20.25" customHeight="1">
       <c r="B23" s="172"/>
@@ -12675,10 +12699,10 @@
       <c r="N23" s="231"/>
       <c r="O23" s="216"/>
       <c r="P23" s="217"/>
-      <c r="R23" s="307"/>
-      <c r="S23" s="308"/>
-      <c r="T23" s="308"/>
-      <c r="U23" s="309"/>
+      <c r="R23" s="308"/>
+      <c r="S23" s="309"/>
+      <c r="T23" s="309"/>
+      <c r="U23" s="310"/>
     </row>
     <row r="24" spans="2:21" ht="20.25" customHeight="1">
       <c r="B24" s="172"/>
@@ -12702,10 +12726,10 @@
       <c r="N24" s="231"/>
       <c r="O24" s="216"/>
       <c r="P24" s="217"/>
-      <c r="R24" s="307"/>
-      <c r="S24" s="308"/>
-      <c r="T24" s="308"/>
-      <c r="U24" s="309"/>
+      <c r="R24" s="308"/>
+      <c r="S24" s="309"/>
+      <c r="T24" s="309"/>
+      <c r="U24" s="310"/>
     </row>
     <row r="25" spans="2:21" ht="20.25" customHeight="1">
       <c r="B25" s="172"/>
@@ -12729,10 +12753,10 @@
       <c r="N25" s="231"/>
       <c r="O25" s="216"/>
       <c r="P25" s="217"/>
-      <c r="R25" s="307"/>
-      <c r="S25" s="308"/>
-      <c r="T25" s="308"/>
-      <c r="U25" s="309"/>
+      <c r="R25" s="308"/>
+      <c r="S25" s="309"/>
+      <c r="T25" s="309"/>
+      <c r="U25" s="310"/>
     </row>
     <row r="26" spans="2:21" ht="20.25" customHeight="1">
       <c r="B26" s="169"/>
@@ -12756,10 +12780,10 @@
       <c r="N26" s="231"/>
       <c r="O26" s="216"/>
       <c r="P26" s="217"/>
-      <c r="R26" s="307"/>
-      <c r="S26" s="308"/>
-      <c r="T26" s="308"/>
-      <c r="U26" s="309"/>
+      <c r="R26" s="308"/>
+      <c r="S26" s="309"/>
+      <c r="T26" s="309"/>
+      <c r="U26" s="310"/>
     </row>
     <row r="27" spans="2:21" ht="20.25" customHeight="1">
       <c r="B27" s="169"/>
@@ -12783,10 +12807,10 @@
       <c r="N27" s="231"/>
       <c r="O27" s="216"/>
       <c r="P27" s="217"/>
-      <c r="R27" s="307"/>
-      <c r="S27" s="308"/>
-      <c r="T27" s="308"/>
-      <c r="U27" s="309"/>
+      <c r="R27" s="308"/>
+      <c r="S27" s="309"/>
+      <c r="T27" s="309"/>
+      <c r="U27" s="310"/>
     </row>
     <row r="28" spans="2:21" ht="20.25" customHeight="1">
       <c r="B28" s="169"/>
@@ -12804,10 +12828,10 @@
       <c r="N28" s="231"/>
       <c r="O28" s="216"/>
       <c r="P28" s="217"/>
-      <c r="R28" s="307"/>
-      <c r="S28" s="308"/>
-      <c r="T28" s="308"/>
-      <c r="U28" s="309"/>
+      <c r="R28" s="308"/>
+      <c r="S28" s="309"/>
+      <c r="T28" s="309"/>
+      <c r="U28" s="310"/>
     </row>
     <row r="29" spans="2:21" ht="20.25" customHeight="1">
       <c r="B29" s="174" t="s">
@@ -12829,10 +12853,10 @@
       <c r="N29" s="231"/>
       <c r="O29" s="216"/>
       <c r="P29" s="217"/>
-      <c r="R29" s="307"/>
-      <c r="S29" s="308"/>
-      <c r="T29" s="308"/>
-      <c r="U29" s="309"/>
+      <c r="R29" s="308"/>
+      <c r="S29" s="309"/>
+      <c r="T29" s="309"/>
+      <c r="U29" s="310"/>
     </row>
     <row r="30" spans="2:21" ht="20.25" customHeight="1">
       <c r="B30" s="172"/>
@@ -12852,10 +12876,10 @@
       <c r="N30" s="231"/>
       <c r="O30" s="216"/>
       <c r="P30" s="217"/>
-      <c r="R30" s="307"/>
-      <c r="S30" s="308"/>
-      <c r="T30" s="308"/>
-      <c r="U30" s="309"/>
+      <c r="R30" s="308"/>
+      <c r="S30" s="309"/>
+      <c r="T30" s="309"/>
+      <c r="U30" s="310"/>
     </row>
     <row r="31" spans="2:21" ht="20.25" customHeight="1">
       <c r="B31" s="172"/>
@@ -12875,10 +12899,10 @@
       <c r="N31" s="231"/>
       <c r="O31" s="216"/>
       <c r="P31" s="217"/>
-      <c r="R31" s="307"/>
-      <c r="S31" s="308"/>
-      <c r="T31" s="308"/>
-      <c r="U31" s="309"/>
+      <c r="R31" s="308"/>
+      <c r="S31" s="309"/>
+      <c r="T31" s="309"/>
+      <c r="U31" s="310"/>
     </row>
     <row r="32" spans="2:21" ht="20.25" customHeight="1">
       <c r="B32" s="169"/>
@@ -12898,10 +12922,10 @@
       <c r="N32" s="231"/>
       <c r="O32" s="216"/>
       <c r="P32" s="217"/>
-      <c r="R32" s="307"/>
-      <c r="S32" s="308"/>
-      <c r="T32" s="308"/>
-      <c r="U32" s="309"/>
+      <c r="R32" s="308"/>
+      <c r="S32" s="309"/>
+      <c r="T32" s="309"/>
+      <c r="U32" s="310"/>
     </row>
     <row r="33" spans="2:21" ht="20.25" customHeight="1">
       <c r="B33" s="169"/>
@@ -12919,10 +12943,10 @@
       <c r="N33" s="231"/>
       <c r="O33" s="216"/>
       <c r="P33" s="217"/>
-      <c r="R33" s="307"/>
-      <c r="S33" s="308"/>
-      <c r="T33" s="308"/>
-      <c r="U33" s="309"/>
+      <c r="R33" s="308"/>
+      <c r="S33" s="309"/>
+      <c r="T33" s="309"/>
+      <c r="U33" s="310"/>
     </row>
     <row r="34" spans="2:21" ht="20.25" customHeight="1">
       <c r="B34" s="174" t="s">
@@ -12942,10 +12966,10 @@
       <c r="N34" s="231"/>
       <c r="O34" s="216"/>
       <c r="P34" s="217"/>
-      <c r="R34" s="307"/>
-      <c r="S34" s="308"/>
-      <c r="T34" s="308"/>
-      <c r="U34" s="309"/>
+      <c r="R34" s="308"/>
+      <c r="S34" s="309"/>
+      <c r="T34" s="309"/>
+      <c r="U34" s="310"/>
     </row>
     <row r="35" spans="2:21" ht="20.25" customHeight="1">
       <c r="B35" s="172"/>
@@ -12969,10 +12993,10 @@
       <c r="N35" s="231"/>
       <c r="O35" s="216"/>
       <c r="P35" s="217"/>
-      <c r="R35" s="307"/>
-      <c r="S35" s="308"/>
-      <c r="T35" s="308"/>
-      <c r="U35" s="309"/>
+      <c r="R35" s="308"/>
+      <c r="S35" s="309"/>
+      <c r="T35" s="309"/>
+      <c r="U35" s="310"/>
     </row>
     <row r="36" spans="2:21" ht="20.25" customHeight="1">
       <c r="B36" s="172"/>
@@ -12996,10 +13020,10 @@
       <c r="N36" s="231"/>
       <c r="O36" s="216"/>
       <c r="P36" s="217"/>
-      <c r="R36" s="307"/>
-      <c r="S36" s="308"/>
-      <c r="T36" s="308"/>
-      <c r="U36" s="309"/>
+      <c r="R36" s="308"/>
+      <c r="S36" s="309"/>
+      <c r="T36" s="309"/>
+      <c r="U36" s="310"/>
     </row>
     <row r="37" spans="2:21" ht="20.25" customHeight="1">
       <c r="B37" s="169"/>
@@ -13017,10 +13041,10 @@
       <c r="N37" s="231"/>
       <c r="O37" s="216"/>
       <c r="P37" s="217"/>
-      <c r="R37" s="307"/>
-      <c r="S37" s="308"/>
-      <c r="T37" s="308"/>
-      <c r="U37" s="309"/>
+      <c r="R37" s="308"/>
+      <c r="S37" s="309"/>
+      <c r="T37" s="309"/>
+      <c r="U37" s="310"/>
     </row>
     <row r="38" spans="2:21" ht="20.25" customHeight="1">
       <c r="B38" s="174" t="s">
@@ -13040,10 +13064,10 @@
       <c r="N38" s="231"/>
       <c r="O38" s="216"/>
       <c r="P38" s="217"/>
-      <c r="R38" s="307"/>
-      <c r="S38" s="308"/>
-      <c r="T38" s="308"/>
-      <c r="U38" s="309"/>
+      <c r="R38" s="308"/>
+      <c r="S38" s="309"/>
+      <c r="T38" s="309"/>
+      <c r="U38" s="310"/>
     </row>
     <row r="39" spans="2:21" ht="20.25" customHeight="1">
       <c r="B39" s="172"/>
@@ -13065,10 +13089,10 @@
       <c r="N39" s="231"/>
       <c r="O39" s="216"/>
       <c r="P39" s="217"/>
-      <c r="R39" s="307"/>
-      <c r="S39" s="308"/>
-      <c r="T39" s="308"/>
-      <c r="U39" s="309"/>
+      <c r="R39" s="308"/>
+      <c r="S39" s="309"/>
+      <c r="T39" s="309"/>
+      <c r="U39" s="310"/>
     </row>
     <row r="40" spans="2:21" ht="20.25" customHeight="1">
       <c r="B40" s="172"/>
@@ -13090,10 +13114,10 @@
       <c r="N40" s="231"/>
       <c r="O40" s="216"/>
       <c r="P40" s="217"/>
-      <c r="R40" s="307"/>
-      <c r="S40" s="308"/>
-      <c r="T40" s="308"/>
-      <c r="U40" s="309"/>
+      <c r="R40" s="308"/>
+      <c r="S40" s="309"/>
+      <c r="T40" s="309"/>
+      <c r="U40" s="310"/>
     </row>
     <row r="41" spans="2:21" ht="20.25" customHeight="1">
       <c r="B41" s="172"/>
@@ -13115,10 +13139,10 @@
       <c r="N41" s="231"/>
       <c r="O41" s="216"/>
       <c r="P41" s="217"/>
-      <c r="R41" s="307"/>
-      <c r="S41" s="308"/>
-      <c r="T41" s="308"/>
-      <c r="U41" s="309"/>
+      <c r="R41" s="308"/>
+      <c r="S41" s="309"/>
+      <c r="T41" s="309"/>
+      <c r="U41" s="310"/>
     </row>
     <row r="42" spans="2:21" ht="20.25" customHeight="1">
       <c r="B42" s="172"/>
@@ -13140,10 +13164,10 @@
       <c r="N42" s="231"/>
       <c r="O42" s="216"/>
       <c r="P42" s="217"/>
-      <c r="R42" s="307"/>
-      <c r="S42" s="308"/>
-      <c r="T42" s="308"/>
-      <c r="U42" s="309"/>
+      <c r="R42" s="308"/>
+      <c r="S42" s="309"/>
+      <c r="T42" s="309"/>
+      <c r="U42" s="310"/>
     </row>
     <row r="43" spans="2:21" ht="20.25" customHeight="1">
       <c r="B43" s="172"/>
@@ -13165,10 +13189,10 @@
       <c r="N43" s="231"/>
       <c r="O43" s="216"/>
       <c r="P43" s="217"/>
-      <c r="R43" s="307"/>
-      <c r="S43" s="308"/>
-      <c r="T43" s="308"/>
-      <c r="U43" s="309"/>
+      <c r="R43" s="308"/>
+      <c r="S43" s="309"/>
+      <c r="T43" s="309"/>
+      <c r="U43" s="310"/>
     </row>
     <row r="44" spans="2:21" ht="20.25" customHeight="1">
       <c r="B44" s="172"/>
@@ -13190,10 +13214,10 @@
       <c r="N44" s="231"/>
       <c r="O44" s="216"/>
       <c r="P44" s="217"/>
-      <c r="R44" s="307"/>
-      <c r="S44" s="308"/>
-      <c r="T44" s="308"/>
-      <c r="U44" s="309"/>
+      <c r="R44" s="308"/>
+      <c r="S44" s="309"/>
+      <c r="T44" s="309"/>
+      <c r="U44" s="310"/>
     </row>
     <row r="45" spans="2:21" ht="20.25" customHeight="1">
       <c r="B45" s="172"/>
@@ -13215,10 +13239,10 @@
       <c r="N45" s="231"/>
       <c r="O45" s="216"/>
       <c r="P45" s="217"/>
-      <c r="R45" s="307"/>
-      <c r="S45" s="308"/>
-      <c r="T45" s="308"/>
-      <c r="U45" s="309"/>
+      <c r="R45" s="308"/>
+      <c r="S45" s="309"/>
+      <c r="T45" s="309"/>
+      <c r="U45" s="310"/>
     </row>
     <row r="46" spans="2:21" ht="20.25" customHeight="1">
       <c r="B46" s="172"/>
@@ -13240,10 +13264,10 @@
       <c r="N46" s="231"/>
       <c r="O46" s="216"/>
       <c r="P46" s="217"/>
-      <c r="R46" s="307"/>
-      <c r="S46" s="308"/>
-      <c r="T46" s="308"/>
-      <c r="U46" s="309"/>
+      <c r="R46" s="308"/>
+      <c r="S46" s="309"/>
+      <c r="T46" s="309"/>
+      <c r="U46" s="310"/>
     </row>
     <row r="47" spans="2:21" ht="20.25" customHeight="1">
       <c r="B47" s="172"/>
@@ -13265,10 +13289,10 @@
       <c r="N47" s="231"/>
       <c r="O47" s="216"/>
       <c r="P47" s="217"/>
-      <c r="R47" s="307"/>
-      <c r="S47" s="308"/>
-      <c r="T47" s="308"/>
-      <c r="U47" s="309"/>
+      <c r="R47" s="308"/>
+      <c r="S47" s="309"/>
+      <c r="T47" s="309"/>
+      <c r="U47" s="310"/>
     </row>
     <row r="48" spans="2:21" ht="20.25" customHeight="1">
       <c r="B48" s="169"/>
@@ -13286,10 +13310,10 @@
       <c r="N48" s="231"/>
       <c r="O48" s="216"/>
       <c r="P48" s="217"/>
-      <c r="R48" s="307"/>
-      <c r="S48" s="308"/>
-      <c r="T48" s="308"/>
-      <c r="U48" s="309"/>
+      <c r="R48" s="308"/>
+      <c r="S48" s="309"/>
+      <c r="T48" s="309"/>
+      <c r="U48" s="310"/>
     </row>
     <row r="49" spans="2:21" ht="20.25" customHeight="1">
       <c r="B49" s="174" t="s">
@@ -13309,10 +13333,10 @@
       <c r="N49" s="231"/>
       <c r="O49" s="216"/>
       <c r="P49" s="217"/>
-      <c r="R49" s="307"/>
-      <c r="S49" s="308"/>
-      <c r="T49" s="308"/>
-      <c r="U49" s="309"/>
+      <c r="R49" s="308"/>
+      <c r="S49" s="309"/>
+      <c r="T49" s="309"/>
+      <c r="U49" s="310"/>
     </row>
     <row r="50" spans="2:21" ht="20.25" customHeight="1">
       <c r="B50" s="172"/>
@@ -13334,10 +13358,10 @@
       <c r="N50" s="231"/>
       <c r="O50" s="216"/>
       <c r="P50" s="217"/>
-      <c r="R50" s="307"/>
-      <c r="S50" s="308"/>
-      <c r="T50" s="308"/>
-      <c r="U50" s="309"/>
+      <c r="R50" s="308"/>
+      <c r="S50" s="309"/>
+      <c r="T50" s="309"/>
+      <c r="U50" s="310"/>
     </row>
     <row r="51" spans="2:21" ht="20.25" customHeight="1">
       <c r="B51" s="172"/>
@@ -13359,10 +13383,10 @@
       <c r="N51" s="231"/>
       <c r="O51" s="216"/>
       <c r="P51" s="217"/>
-      <c r="R51" s="307"/>
-      <c r="S51" s="308"/>
-      <c r="T51" s="308"/>
-      <c r="U51" s="309"/>
+      <c r="R51" s="308"/>
+      <c r="S51" s="309"/>
+      <c r="T51" s="309"/>
+      <c r="U51" s="310"/>
     </row>
     <row r="52" spans="2:21" ht="20.25" customHeight="1">
       <c r="B52" s="172"/>
@@ -13384,10 +13408,10 @@
       <c r="N52" s="231"/>
       <c r="O52" s="216"/>
       <c r="P52" s="217"/>
-      <c r="R52" s="307"/>
-      <c r="S52" s="308"/>
-      <c r="T52" s="308"/>
-      <c r="U52" s="309"/>
+      <c r="R52" s="308"/>
+      <c r="S52" s="309"/>
+      <c r="T52" s="309"/>
+      <c r="U52" s="310"/>
     </row>
     <row r="53" spans="2:21" ht="20.25" customHeight="1">
       <c r="B53" s="172"/>
@@ -13409,10 +13433,10 @@
       <c r="N53" s="231"/>
       <c r="O53" s="216"/>
       <c r="P53" s="217"/>
-      <c r="R53" s="307"/>
-      <c r="S53" s="308"/>
-      <c r="T53" s="308"/>
-      <c r="U53" s="309"/>
+      <c r="R53" s="308"/>
+      <c r="S53" s="309"/>
+      <c r="T53" s="309"/>
+      <c r="U53" s="310"/>
     </row>
     <row r="54" spans="2:21" ht="20.25" customHeight="1">
       <c r="B54" s="172"/>
@@ -13430,10 +13454,10 @@
       <c r="N54" s="231"/>
       <c r="O54" s="216"/>
       <c r="P54" s="217"/>
-      <c r="R54" s="307"/>
-      <c r="S54" s="308"/>
-      <c r="T54" s="308"/>
-      <c r="U54" s="309"/>
+      <c r="R54" s="308"/>
+      <c r="S54" s="309"/>
+      <c r="T54" s="309"/>
+      <c r="U54" s="310"/>
     </row>
     <row r="55" spans="2:21" ht="20.25" customHeight="1">
       <c r="B55" s="174" t="s">
@@ -13453,10 +13477,10 @@
       <c r="N55" s="231"/>
       <c r="O55" s="216"/>
       <c r="P55" s="217"/>
-      <c r="R55" s="307"/>
-      <c r="S55" s="308"/>
-      <c r="T55" s="308"/>
-      <c r="U55" s="309"/>
+      <c r="R55" s="308"/>
+      <c r="S55" s="309"/>
+      <c r="T55" s="309"/>
+      <c r="U55" s="310"/>
     </row>
     <row r="56" spans="2:21" ht="20.25" customHeight="1">
       <c r="B56" s="172"/>
@@ -13478,10 +13502,10 @@
       <c r="N56" s="231"/>
       <c r="O56" s="216"/>
       <c r="P56" s="217"/>
-      <c r="R56" s="307"/>
-      <c r="S56" s="308"/>
-      <c r="T56" s="308"/>
-      <c r="U56" s="309"/>
+      <c r="R56" s="308"/>
+      <c r="S56" s="309"/>
+      <c r="T56" s="309"/>
+      <c r="U56" s="310"/>
     </row>
     <row r="57" spans="2:21" ht="20.25" customHeight="1">
       <c r="B57" s="172"/>
@@ -13503,10 +13527,10 @@
       <c r="N57" s="231"/>
       <c r="O57" s="216"/>
       <c r="P57" s="217"/>
-      <c r="R57" s="307"/>
-      <c r="S57" s="308"/>
-      <c r="T57" s="308"/>
-      <c r="U57" s="309"/>
+      <c r="R57" s="308"/>
+      <c r="S57" s="309"/>
+      <c r="T57" s="309"/>
+      <c r="U57" s="310"/>
     </row>
     <row r="58" spans="2:21" ht="20.25" customHeight="1">
       <c r="B58" s="172"/>
@@ -13528,10 +13552,10 @@
       <c r="N58" s="231"/>
       <c r="O58" s="216"/>
       <c r="P58" s="217"/>
-      <c r="R58" s="307"/>
-      <c r="S58" s="308"/>
-      <c r="T58" s="308"/>
-      <c r="U58" s="309"/>
+      <c r="R58" s="308"/>
+      <c r="S58" s="309"/>
+      <c r="T58" s="309"/>
+      <c r="U58" s="310"/>
     </row>
     <row r="59" spans="2:21" ht="20.25" customHeight="1">
       <c r="B59" s="172"/>
@@ -13553,10 +13577,10 @@
       <c r="N59" s="231"/>
       <c r="O59" s="216"/>
       <c r="P59" s="217"/>
-      <c r="R59" s="307"/>
-      <c r="S59" s="308"/>
-      <c r="T59" s="308"/>
-      <c r="U59" s="309"/>
+      <c r="R59" s="308"/>
+      <c r="S59" s="309"/>
+      <c r="T59" s="309"/>
+      <c r="U59" s="310"/>
     </row>
     <row r="60" spans="2:21" ht="20.25" customHeight="1">
       <c r="B60" s="172"/>
@@ -13578,10 +13602,10 @@
       <c r="N60" s="231"/>
       <c r="O60" s="216"/>
       <c r="P60" s="217"/>
-      <c r="R60" s="307"/>
-      <c r="S60" s="308"/>
-      <c r="T60" s="308"/>
-      <c r="U60" s="309"/>
+      <c r="R60" s="308"/>
+      <c r="S60" s="309"/>
+      <c r="T60" s="309"/>
+      <c r="U60" s="310"/>
     </row>
     <row r="61" spans="2:21" ht="20.25" customHeight="1">
       <c r="B61" s="218"/>
@@ -13599,10 +13623,10 @@
       <c r="N61" s="231"/>
       <c r="O61" s="216"/>
       <c r="P61" s="217"/>
-      <c r="R61" s="307"/>
-      <c r="S61" s="308"/>
-      <c r="T61" s="308"/>
-      <c r="U61" s="309"/>
+      <c r="R61" s="308"/>
+      <c r="S61" s="309"/>
+      <c r="T61" s="309"/>
+      <c r="U61" s="310"/>
     </row>
     <row r="62" spans="2:21" ht="20.25" customHeight="1">
       <c r="B62" s="174" t="s">
@@ -13622,10 +13646,10 @@
       <c r="N62" s="231"/>
       <c r="O62" s="216"/>
       <c r="P62" s="217"/>
-      <c r="R62" s="307"/>
-      <c r="S62" s="308"/>
-      <c r="T62" s="308"/>
-      <c r="U62" s="309"/>
+      <c r="R62" s="308"/>
+      <c r="S62" s="309"/>
+      <c r="T62" s="309"/>
+      <c r="U62" s="310"/>
     </row>
     <row r="63" spans="2:21" ht="20.25" customHeight="1">
       <c r="B63" s="172"/>
@@ -13647,10 +13671,10 @@
       <c r="N63" s="231"/>
       <c r="O63" s="216"/>
       <c r="P63" s="217"/>
-      <c r="R63" s="307"/>
-      <c r="S63" s="308"/>
-      <c r="T63" s="308"/>
-      <c r="U63" s="309"/>
+      <c r="R63" s="308"/>
+      <c r="S63" s="309"/>
+      <c r="T63" s="309"/>
+      <c r="U63" s="310"/>
     </row>
     <row r="64" spans="2:21" ht="20.25" customHeight="1">
       <c r="B64" s="172"/>
@@ -13672,10 +13696,10 @@
       <c r="N64" s="231"/>
       <c r="O64" s="216"/>
       <c r="P64" s="217"/>
-      <c r="R64" s="307"/>
-      <c r="S64" s="308"/>
-      <c r="T64" s="308"/>
-      <c r="U64" s="309"/>
+      <c r="R64" s="308"/>
+      <c r="S64" s="309"/>
+      <c r="T64" s="309"/>
+      <c r="U64" s="310"/>
     </row>
     <row r="65" spans="2:21" ht="20.25" customHeight="1">
       <c r="B65" s="169"/>
@@ -13693,10 +13717,10 @@
       <c r="N65" s="231"/>
       <c r="O65" s="216"/>
       <c r="P65" s="217"/>
-      <c r="R65" s="307"/>
-      <c r="S65" s="308"/>
-      <c r="T65" s="308"/>
-      <c r="U65" s="309"/>
+      <c r="R65" s="308"/>
+      <c r="S65" s="309"/>
+      <c r="T65" s="309"/>
+      <c r="U65" s="310"/>
     </row>
     <row r="66" spans="2:21" ht="20.25" customHeight="1">
       <c r="B66" s="174" t="s">
@@ -13718,10 +13742,10 @@
       </c>
       <c r="O66" s="216"/>
       <c r="P66" s="217"/>
-      <c r="R66" s="307"/>
-      <c r="S66" s="308"/>
-      <c r="T66" s="308"/>
-      <c r="U66" s="309"/>
+      <c r="R66" s="308"/>
+      <c r="S66" s="309"/>
+      <c r="T66" s="309"/>
+      <c r="U66" s="310"/>
     </row>
     <row r="67" spans="2:21" ht="20.25" customHeight="1">
       <c r="B67" s="172"/>
@@ -13743,10 +13767,10 @@
       </c>
       <c r="O67" s="216"/>
       <c r="P67" s="217"/>
-      <c r="R67" s="307"/>
-      <c r="S67" s="308"/>
-      <c r="T67" s="308"/>
-      <c r="U67" s="309"/>
+      <c r="R67" s="308"/>
+      <c r="S67" s="309"/>
+      <c r="T67" s="309"/>
+      <c r="U67" s="310"/>
     </row>
     <row r="68" spans="2:21" ht="20.25" customHeight="1">
       <c r="B68" s="169"/>
@@ -13768,10 +13792,10 @@
       </c>
       <c r="O68" s="216"/>
       <c r="P68" s="217"/>
-      <c r="R68" s="307"/>
-      <c r="S68" s="308"/>
-      <c r="T68" s="308"/>
-      <c r="U68" s="309"/>
+      <c r="R68" s="308"/>
+      <c r="S68" s="309"/>
+      <c r="T68" s="309"/>
+      <c r="U68" s="310"/>
     </row>
     <row r="69" spans="2:21" ht="20.25" customHeight="1">
       <c r="B69" s="169"/>
@@ -13793,10 +13817,10 @@
       </c>
       <c r="O69" s="216"/>
       <c r="P69" s="217"/>
-      <c r="R69" s="307"/>
-      <c r="S69" s="308"/>
-      <c r="T69" s="308"/>
-      <c r="U69" s="309"/>
+      <c r="R69" s="308"/>
+      <c r="S69" s="309"/>
+      <c r="T69" s="309"/>
+      <c r="U69" s="310"/>
     </row>
     <row r="70" spans="2:21" ht="20.25" customHeight="1">
       <c r="B70" s="169"/>
@@ -13818,10 +13842,10 @@
       </c>
       <c r="O70" s="216"/>
       <c r="P70" s="217"/>
-      <c r="R70" s="307"/>
-      <c r="S70" s="308"/>
-      <c r="T70" s="308"/>
-      <c r="U70" s="309"/>
+      <c r="R70" s="308"/>
+      <c r="S70" s="309"/>
+      <c r="T70" s="309"/>
+      <c r="U70" s="310"/>
     </row>
     <row r="71" spans="2:21" ht="20.25" customHeight="1">
       <c r="B71" s="169"/>
@@ -13843,10 +13867,10 @@
       </c>
       <c r="O71" s="216"/>
       <c r="P71" s="217"/>
-      <c r="R71" s="307"/>
-      <c r="S71" s="308"/>
-      <c r="T71" s="308"/>
-      <c r="U71" s="309"/>
+      <c r="R71" s="308"/>
+      <c r="S71" s="309"/>
+      <c r="T71" s="309"/>
+      <c r="U71" s="310"/>
     </row>
     <row r="72" spans="2:21" ht="20.25" customHeight="1">
       <c r="B72" s="169"/>
@@ -13868,10 +13892,10 @@
       </c>
       <c r="O72" s="216"/>
       <c r="P72" s="217"/>
-      <c r="R72" s="307"/>
-      <c r="S72" s="308"/>
-      <c r="T72" s="308"/>
-      <c r="U72" s="309"/>
+      <c r="R72" s="308"/>
+      <c r="S72" s="309"/>
+      <c r="T72" s="309"/>
+      <c r="U72" s="310"/>
     </row>
     <row r="73" spans="2:21" ht="20.25" customHeight="1">
       <c r="B73" s="169"/>
@@ -13893,10 +13917,10 @@
       </c>
       <c r="O73" s="216"/>
       <c r="P73" s="217"/>
-      <c r="R73" s="307"/>
-      <c r="S73" s="308"/>
-      <c r="T73" s="308"/>
-      <c r="U73" s="309"/>
+      <c r="R73" s="308"/>
+      <c r="S73" s="309"/>
+      <c r="T73" s="309"/>
+      <c r="U73" s="310"/>
     </row>
     <row r="74" spans="2:21" ht="20.25" customHeight="1">
       <c r="B74" s="169"/>
@@ -13918,10 +13942,10 @@
       </c>
       <c r="O74" s="216"/>
       <c r="P74" s="217"/>
-      <c r="R74" s="307"/>
-      <c r="S74" s="308"/>
-      <c r="T74" s="308"/>
-      <c r="U74" s="309"/>
+      <c r="R74" s="308"/>
+      <c r="S74" s="309"/>
+      <c r="T74" s="309"/>
+      <c r="U74" s="310"/>
     </row>
     <row r="75" spans="2:21" ht="20.25" customHeight="1">
       <c r="B75" s="169"/>
@@ -13943,10 +13967,10 @@
       </c>
       <c r="O75" s="216"/>
       <c r="P75" s="217"/>
-      <c r="R75" s="307"/>
-      <c r="S75" s="308"/>
-      <c r="T75" s="308"/>
-      <c r="U75" s="309"/>
+      <c r="R75" s="308"/>
+      <c r="S75" s="309"/>
+      <c r="T75" s="309"/>
+      <c r="U75" s="310"/>
     </row>
     <row r="76" spans="2:21" ht="20.25" customHeight="1">
       <c r="B76" s="169"/>
@@ -13964,10 +13988,10 @@
       <c r="N76" s="231"/>
       <c r="O76" s="216"/>
       <c r="P76" s="217"/>
-      <c r="R76" s="307"/>
-      <c r="S76" s="308"/>
-      <c r="T76" s="308"/>
-      <c r="U76" s="309"/>
+      <c r="R76" s="308"/>
+      <c r="S76" s="309"/>
+      <c r="T76" s="309"/>
+      <c r="U76" s="310"/>
     </row>
     <row r="77" spans="2:21" ht="20.25" customHeight="1">
       <c r="B77" s="174" t="s">
@@ -13989,10 +14013,10 @@
       </c>
       <c r="O77" s="216"/>
       <c r="P77" s="217"/>
-      <c r="R77" s="307"/>
-      <c r="S77" s="308"/>
-      <c r="T77" s="308"/>
-      <c r="U77" s="309"/>
+      <c r="R77" s="308"/>
+      <c r="S77" s="309"/>
+      <c r="T77" s="309"/>
+      <c r="U77" s="310"/>
     </row>
     <row r="78" spans="2:21" ht="20.25" customHeight="1">
       <c r="B78" s="172"/>
@@ -14014,10 +14038,10 @@
       </c>
       <c r="O78" s="216"/>
       <c r="P78" s="217"/>
-      <c r="R78" s="307"/>
-      <c r="S78" s="308"/>
-      <c r="T78" s="308"/>
-      <c r="U78" s="309"/>
+      <c r="R78" s="308"/>
+      <c r="S78" s="309"/>
+      <c r="T78" s="309"/>
+      <c r="U78" s="310"/>
     </row>
     <row r="79" spans="2:21" ht="20.25" customHeight="1">
       <c r="B79" s="172"/>
@@ -14039,10 +14063,10 @@
       </c>
       <c r="O79" s="216"/>
       <c r="P79" s="217"/>
-      <c r="R79" s="307"/>
-      <c r="S79" s="308"/>
-      <c r="T79" s="308"/>
-      <c r="U79" s="309"/>
+      <c r="R79" s="308"/>
+      <c r="S79" s="309"/>
+      <c r="T79" s="309"/>
+      <c r="U79" s="310"/>
     </row>
     <row r="80" spans="2:21" ht="20.25" customHeight="1">
       <c r="B80" s="169"/>
@@ -14060,10 +14084,10 @@
       <c r="N80" s="231"/>
       <c r="O80" s="216"/>
       <c r="P80" s="217"/>
-      <c r="R80" s="307"/>
-      <c r="S80" s="308"/>
-      <c r="T80" s="308"/>
-      <c r="U80" s="309"/>
+      <c r="R80" s="308"/>
+      <c r="S80" s="309"/>
+      <c r="T80" s="309"/>
+      <c r="U80" s="310"/>
     </row>
     <row r="81" spans="2:21" ht="20.25" customHeight="1">
       <c r="B81" s="174" t="s">
@@ -14085,10 +14109,10 @@
       </c>
       <c r="O81" s="216"/>
       <c r="P81" s="217"/>
-      <c r="R81" s="307"/>
-      <c r="S81" s="308"/>
-      <c r="T81" s="308"/>
-      <c r="U81" s="309"/>
+      <c r="R81" s="308"/>
+      <c r="S81" s="309"/>
+      <c r="T81" s="309"/>
+      <c r="U81" s="310"/>
     </row>
     <row r="82" spans="2:21" ht="20.25" customHeight="1">
       <c r="B82" s="172"/>
@@ -14110,10 +14134,10 @@
       </c>
       <c r="O82" s="216"/>
       <c r="P82" s="217"/>
-      <c r="R82" s="307"/>
-      <c r="S82" s="308"/>
-      <c r="T82" s="308"/>
-      <c r="U82" s="309"/>
+      <c r="R82" s="308"/>
+      <c r="S82" s="309"/>
+      <c r="T82" s="309"/>
+      <c r="U82" s="310"/>
     </row>
     <row r="83" spans="2:21" ht="20.25" customHeight="1">
       <c r="B83" s="172"/>
@@ -14135,10 +14159,10 @@
       </c>
       <c r="O83" s="216"/>
       <c r="P83" s="217"/>
-      <c r="R83" s="307"/>
-      <c r="S83" s="308"/>
-      <c r="T83" s="308"/>
-      <c r="U83" s="309"/>
+      <c r="R83" s="308"/>
+      <c r="S83" s="309"/>
+      <c r="T83" s="309"/>
+      <c r="U83" s="310"/>
     </row>
     <row r="84" spans="2:21" ht="20.25" customHeight="1">
       <c r="B84" s="172"/>
@@ -14160,10 +14184,10 @@
       </c>
       <c r="O84" s="216"/>
       <c r="P84" s="217"/>
-      <c r="R84" s="307"/>
-      <c r="S84" s="308"/>
-      <c r="T84" s="308"/>
-      <c r="U84" s="309"/>
+      <c r="R84" s="308"/>
+      <c r="S84" s="309"/>
+      <c r="T84" s="309"/>
+      <c r="U84" s="310"/>
     </row>
     <row r="85" spans="2:21" ht="20.25" customHeight="1">
       <c r="B85" s="172"/>
@@ -14185,10 +14209,10 @@
       </c>
       <c r="O85" s="216"/>
       <c r="P85" s="217"/>
-      <c r="R85" s="307"/>
-      <c r="S85" s="308"/>
-      <c r="T85" s="308"/>
-      <c r="U85" s="309"/>
+      <c r="R85" s="308"/>
+      <c r="S85" s="309"/>
+      <c r="T85" s="309"/>
+      <c r="U85" s="310"/>
     </row>
     <row r="86" spans="2:21" ht="20.25" customHeight="1">
       <c r="B86" s="172"/>
@@ -14210,10 +14234,10 @@
       </c>
       <c r="O86" s="216"/>
       <c r="P86" s="217"/>
-      <c r="R86" s="307"/>
-      <c r="S86" s="308"/>
-      <c r="T86" s="308"/>
-      <c r="U86" s="309"/>
+      <c r="R86" s="308"/>
+      <c r="S86" s="309"/>
+      <c r="T86" s="309"/>
+      <c r="U86" s="310"/>
     </row>
     <row r="87" spans="2:21" ht="20.25" customHeight="1">
       <c r="B87" s="169"/>
@@ -14231,10 +14255,10 @@
       <c r="N87" s="231"/>
       <c r="O87" s="216"/>
       <c r="P87" s="217"/>
-      <c r="R87" s="307"/>
-      <c r="S87" s="308"/>
-      <c r="T87" s="308"/>
-      <c r="U87" s="309"/>
+      <c r="R87" s="308"/>
+      <c r="S87" s="309"/>
+      <c r="T87" s="309"/>
+      <c r="U87" s="310"/>
     </row>
     <row r="88" spans="2:21" ht="20.25" customHeight="1">
       <c r="B88" s="174" t="s">
@@ -14256,10 +14280,10 @@
       </c>
       <c r="O88" s="216"/>
       <c r="P88" s="217"/>
-      <c r="R88" s="307"/>
-      <c r="S88" s="308"/>
-      <c r="T88" s="308"/>
-      <c r="U88" s="309"/>
+      <c r="R88" s="308"/>
+      <c r="S88" s="309"/>
+      <c r="T88" s="309"/>
+      <c r="U88" s="310"/>
     </row>
     <row r="89" spans="2:21" ht="20.25" customHeight="1">
       <c r="B89" s="172"/>
@@ -14281,10 +14305,10 @@
       </c>
       <c r="O89" s="216"/>
       <c r="P89" s="217"/>
-      <c r="R89" s="307"/>
-      <c r="S89" s="308"/>
-      <c r="T89" s="308"/>
-      <c r="U89" s="309"/>
+      <c r="R89" s="308"/>
+      <c r="S89" s="309"/>
+      <c r="T89" s="309"/>
+      <c r="U89" s="310"/>
     </row>
     <row r="90" spans="2:21" ht="20.25" customHeight="1">
       <c r="B90" s="172"/>
@@ -14306,10 +14330,10 @@
       </c>
       <c r="O90" s="216"/>
       <c r="P90" s="217"/>
-      <c r="R90" s="307"/>
-      <c r="S90" s="308"/>
-      <c r="T90" s="308"/>
-      <c r="U90" s="309"/>
+      <c r="R90" s="308"/>
+      <c r="S90" s="309"/>
+      <c r="T90" s="309"/>
+      <c r="U90" s="310"/>
     </row>
     <row r="91" spans="2:21" ht="20.25" customHeight="1">
       <c r="B91" s="172"/>
@@ -14331,10 +14355,10 @@
       </c>
       <c r="O91" s="216"/>
       <c r="P91" s="217"/>
-      <c r="R91" s="307"/>
-      <c r="S91" s="308"/>
-      <c r="T91" s="308"/>
-      <c r="U91" s="309"/>
+      <c r="R91" s="308"/>
+      <c r="S91" s="309"/>
+      <c r="T91" s="309"/>
+      <c r="U91" s="310"/>
     </row>
     <row r="92" spans="2:21" ht="20.25" customHeight="1">
       <c r="B92" s="169"/>
@@ -14356,10 +14380,10 @@
       </c>
       <c r="O92" s="216"/>
       <c r="P92" s="217"/>
-      <c r="R92" s="307"/>
-      <c r="S92" s="308"/>
-      <c r="T92" s="308"/>
-      <c r="U92" s="309"/>
+      <c r="R92" s="308"/>
+      <c r="S92" s="309"/>
+      <c r="T92" s="309"/>
+      <c r="U92" s="310"/>
     </row>
     <row r="93" spans="2:21" ht="20.25" customHeight="1">
       <c r="B93" s="218"/>
@@ -14377,10 +14401,10 @@
       <c r="N93" s="231"/>
       <c r="O93" s="216"/>
       <c r="P93" s="217"/>
-      <c r="R93" s="307"/>
-      <c r="S93" s="308"/>
-      <c r="T93" s="308"/>
-      <c r="U93" s="309"/>
+      <c r="R93" s="308"/>
+      <c r="S93" s="309"/>
+      <c r="T93" s="309"/>
+      <c r="U93" s="310"/>
     </row>
     <row r="94" spans="2:21" ht="20.25" customHeight="1" thickBot="1">
       <c r="B94" s="225"/>
@@ -14398,10 +14422,10 @@
       <c r="N94" s="230"/>
       <c r="O94" s="226"/>
       <c r="P94" s="228"/>
-      <c r="R94" s="310"/>
-      <c r="S94" s="311"/>
-      <c r="T94" s="311"/>
-      <c r="U94" s="312"/>
+      <c r="R94" s="311"/>
+      <c r="S94" s="312"/>
+      <c r="T94" s="312"/>
+      <c r="U94" s="313"/>
     </row>
     <row r="95" spans="2:21" ht="15.75" customHeight="1">
       <c r="B95" s="186"/>
@@ -14484,15 +14508,15 @@
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
-      <c r="H3" s="303"/>
-      <c r="I3" s="246"/>
-      <c r="J3" s="246"/>
-      <c r="K3" s="246"/>
-      <c r="L3" s="246"/>
-      <c r="M3" s="246"/>
-      <c r="N3" s="246"/>
-      <c r="O3" s="246"/>
-      <c r="P3" s="246"/>
+      <c r="H3" s="304"/>
+      <c r="I3" s="247"/>
+      <c r="J3" s="247"/>
+      <c r="K3" s="247"/>
+      <c r="L3" s="247"/>
+      <c r="M3" s="247"/>
+      <c r="N3" s="247"/>
+      <c r="O3" s="247"/>
+      <c r="P3" s="247"/>
     </row>
     <row r="4" spans="2:21" ht="21.75" customHeight="1" thickBot="1">
       <c r="B4" s="26"/>
@@ -14545,12 +14569,12 @@
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
       <c r="N6" s="26"/>
-      <c r="R6" s="313" t="s">
+      <c r="R6" s="314" t="s">
         <v>626</v>
       </c>
-      <c r="S6" s="305"/>
-      <c r="T6" s="305"/>
-      <c r="U6" s="306"/>
+      <c r="S6" s="306"/>
+      <c r="T6" s="306"/>
+      <c r="U6" s="307"/>
     </row>
     <row r="7" spans="2:21" ht="21.75" customHeight="1" thickBot="1">
       <c r="B7" s="183" t="s">
@@ -14568,10 +14592,10 @@
       <c r="L7" s="184"/>
       <c r="M7" s="184"/>
       <c r="N7" s="184"/>
-      <c r="R7" s="307"/>
-      <c r="S7" s="308"/>
-      <c r="T7" s="308"/>
-      <c r="U7" s="309"/>
+      <c r="R7" s="308"/>
+      <c r="S7" s="309"/>
+      <c r="T7" s="309"/>
+      <c r="U7" s="310"/>
     </row>
     <row r="8" spans="2:21" ht="15">
       <c r="B8" s="187" t="s">
@@ -14593,10 +14617,10 @@
       <c r="L8" s="184"/>
       <c r="M8" s="184"/>
       <c r="N8" s="190"/>
-      <c r="R8" s="307"/>
-      <c r="S8" s="308"/>
-      <c r="T8" s="308"/>
-      <c r="U8" s="309"/>
+      <c r="R8" s="308"/>
+      <c r="S8" s="309"/>
+      <c r="T8" s="309"/>
+      <c r="U8" s="310"/>
     </row>
     <row r="9" spans="2:21" thickBot="1">
       <c r="B9" s="191" t="s">
@@ -14618,10 +14642,10 @@
       <c r="L9" s="194"/>
       <c r="M9" s="194"/>
       <c r="N9" s="194"/>
-      <c r="R9" s="307"/>
-      <c r="S9" s="308"/>
-      <c r="T9" s="308"/>
-      <c r="U9" s="309"/>
+      <c r="R9" s="308"/>
+      <c r="S9" s="309"/>
+      <c r="T9" s="309"/>
+      <c r="U9" s="310"/>
     </row>
     <row r="10" spans="2:21" thickBot="1">
       <c r="B10" s="191" t="s">
@@ -14653,10 +14677,10 @@
       </c>
       <c r="O10" s="200"/>
       <c r="P10" s="201"/>
-      <c r="R10" s="307"/>
-      <c r="S10" s="308"/>
-      <c r="T10" s="308"/>
-      <c r="U10" s="309"/>
+      <c r="R10" s="308"/>
+      <c r="S10" s="309"/>
+      <c r="T10" s="309"/>
+      <c r="U10" s="310"/>
     </row>
     <row r="11" spans="2:21" ht="15" customHeight="1" thickBot="1">
       <c r="B11" s="202"/>
@@ -14698,10 +14722,10 @@
       <c r="P11" s="211" t="s">
         <v>100</v>
       </c>
-      <c r="R11" s="307"/>
-      <c r="S11" s="308"/>
-      <c r="T11" s="308"/>
-      <c r="U11" s="309"/>
+      <c r="R11" s="308"/>
+      <c r="S11" s="309"/>
+      <c r="T11" s="309"/>
+      <c r="U11" s="310"/>
     </row>
     <row r="12" spans="2:21" ht="20.25" customHeight="1">
       <c r="B12" s="171"/>
@@ -14719,10 +14743,10 @@
       <c r="N12" s="231"/>
       <c r="O12" s="216"/>
       <c r="P12" s="217"/>
-      <c r="R12" s="307"/>
-      <c r="S12" s="308"/>
-      <c r="T12" s="308"/>
-      <c r="U12" s="309"/>
+      <c r="R12" s="308"/>
+      <c r="S12" s="309"/>
+      <c r="T12" s="309"/>
+      <c r="U12" s="310"/>
     </row>
     <row r="13" spans="2:21" ht="20.25" customHeight="1">
       <c r="B13" s="174" t="s">
@@ -14742,10 +14766,10 @@
       <c r="N13" s="231"/>
       <c r="O13" s="216"/>
       <c r="P13" s="217"/>
-      <c r="R13" s="307"/>
-      <c r="S13" s="308"/>
-      <c r="T13" s="308"/>
-      <c r="U13" s="309"/>
+      <c r="R13" s="308"/>
+      <c r="S13" s="309"/>
+      <c r="T13" s="309"/>
+      <c r="U13" s="310"/>
     </row>
     <row r="14" spans="2:21" ht="20.25" customHeight="1">
       <c r="B14" s="172"/>
@@ -14769,10 +14793,10 @@
       <c r="N14" s="231"/>
       <c r="O14" s="216"/>
       <c r="P14" s="217"/>
-      <c r="R14" s="307"/>
-      <c r="S14" s="308"/>
-      <c r="T14" s="308"/>
-      <c r="U14" s="309"/>
+      <c r="R14" s="308"/>
+      <c r="S14" s="309"/>
+      <c r="T14" s="309"/>
+      <c r="U14" s="310"/>
     </row>
     <row r="15" spans="2:21" ht="20.25" customHeight="1">
       <c r="B15" s="172"/>
@@ -14796,10 +14820,10 @@
       <c r="N15" s="231"/>
       <c r="O15" s="216"/>
       <c r="P15" s="217"/>
-      <c r="R15" s="307"/>
-      <c r="S15" s="308"/>
-      <c r="T15" s="308"/>
-      <c r="U15" s="309"/>
+      <c r="R15" s="308"/>
+      <c r="S15" s="309"/>
+      <c r="T15" s="309"/>
+      <c r="U15" s="310"/>
     </row>
     <row r="16" spans="2:21" ht="20.25" customHeight="1">
       <c r="B16" s="172"/>
@@ -14823,10 +14847,10 @@
       <c r="N16" s="231"/>
       <c r="O16" s="216"/>
       <c r="P16" s="217"/>
-      <c r="R16" s="307"/>
-      <c r="S16" s="308"/>
-      <c r="T16" s="308"/>
-      <c r="U16" s="309"/>
+      <c r="R16" s="308"/>
+      <c r="S16" s="309"/>
+      <c r="T16" s="309"/>
+      <c r="U16" s="310"/>
     </row>
     <row r="17" spans="2:21" ht="20.25" customHeight="1">
       <c r="B17" s="172"/>
@@ -14850,10 +14874,10 @@
       <c r="N17" s="231"/>
       <c r="O17" s="216"/>
       <c r="P17" s="217"/>
-      <c r="R17" s="307"/>
-      <c r="S17" s="308"/>
-      <c r="T17" s="308"/>
-      <c r="U17" s="309"/>
+      <c r="R17" s="308"/>
+      <c r="S17" s="309"/>
+      <c r="T17" s="309"/>
+      <c r="U17" s="310"/>
     </row>
     <row r="18" spans="2:21" ht="20.25" customHeight="1">
       <c r="B18" s="172"/>
@@ -14871,10 +14895,10 @@
       <c r="N18" s="231"/>
       <c r="O18" s="216"/>
       <c r="P18" s="217"/>
-      <c r="R18" s="307"/>
-      <c r="S18" s="308"/>
-      <c r="T18" s="308"/>
-      <c r="U18" s="309"/>
+      <c r="R18" s="308"/>
+      <c r="S18" s="309"/>
+      <c r="T18" s="309"/>
+      <c r="U18" s="310"/>
     </row>
     <row r="19" spans="2:21" ht="20.25" customHeight="1">
       <c r="B19" s="174" t="s">
@@ -14894,10 +14918,10 @@
       <c r="N19" s="231"/>
       <c r="O19" s="216"/>
       <c r="P19" s="217"/>
-      <c r="R19" s="307"/>
-      <c r="S19" s="308"/>
-      <c r="T19" s="308"/>
-      <c r="U19" s="309"/>
+      <c r="R19" s="308"/>
+      <c r="S19" s="309"/>
+      <c r="T19" s="309"/>
+      <c r="U19" s="310"/>
     </row>
     <row r="20" spans="2:21" ht="20.25" customHeight="1">
       <c r="B20" s="174"/>
@@ -14921,10 +14945,10 @@
       <c r="N20" s="231"/>
       <c r="O20" s="216"/>
       <c r="P20" s="217"/>
-      <c r="R20" s="307"/>
-      <c r="S20" s="308"/>
-      <c r="T20" s="308"/>
-      <c r="U20" s="309"/>
+      <c r="R20" s="308"/>
+      <c r="S20" s="309"/>
+      <c r="T20" s="309"/>
+      <c r="U20" s="310"/>
     </row>
     <row r="21" spans="2:21" ht="20.25" customHeight="1">
       <c r="B21" s="172"/>
@@ -14948,10 +14972,10 @@
       <c r="N21" s="231"/>
       <c r="O21" s="216"/>
       <c r="P21" s="217"/>
-      <c r="R21" s="307"/>
-      <c r="S21" s="308"/>
-      <c r="T21" s="308"/>
-      <c r="U21" s="309"/>
+      <c r="R21" s="308"/>
+      <c r="S21" s="309"/>
+      <c r="T21" s="309"/>
+      <c r="U21" s="310"/>
     </row>
     <row r="22" spans="2:21" ht="20.25" customHeight="1">
       <c r="B22" s="172"/>
@@ -14975,10 +14999,10 @@
       <c r="N22" s="231"/>
       <c r="O22" s="216"/>
       <c r="P22" s="217"/>
-      <c r="R22" s="307"/>
-      <c r="S22" s="308"/>
-      <c r="T22" s="308"/>
-      <c r="U22" s="309"/>
+      <c r="R22" s="308"/>
+      <c r="S22" s="309"/>
+      <c r="T22" s="309"/>
+      <c r="U22" s="310"/>
     </row>
     <row r="23" spans="2:21" ht="20.25" customHeight="1">
       <c r="B23" s="172"/>
@@ -15002,10 +15026,10 @@
       <c r="N23" s="231"/>
       <c r="O23" s="216"/>
       <c r="P23" s="217"/>
-      <c r="R23" s="307"/>
-      <c r="S23" s="308"/>
-      <c r="T23" s="308"/>
-      <c r="U23" s="309"/>
+      <c r="R23" s="308"/>
+      <c r="S23" s="309"/>
+      <c r="T23" s="309"/>
+      <c r="U23" s="310"/>
     </row>
     <row r="24" spans="2:21" ht="20.25" customHeight="1">
       <c r="B24" s="172"/>
@@ -15029,10 +15053,10 @@
       <c r="N24" s="231"/>
       <c r="O24" s="216"/>
       <c r="P24" s="217"/>
-      <c r="R24" s="307"/>
-      <c r="S24" s="308"/>
-      <c r="T24" s="308"/>
-      <c r="U24" s="309"/>
+      <c r="R24" s="308"/>
+      <c r="S24" s="309"/>
+      <c r="T24" s="309"/>
+      <c r="U24" s="310"/>
     </row>
     <row r="25" spans="2:21" ht="20.25" customHeight="1">
       <c r="B25" s="172"/>
@@ -15056,10 +15080,10 @@
       <c r="N25" s="231"/>
       <c r="O25" s="216"/>
       <c r="P25" s="217"/>
-      <c r="R25" s="307"/>
-      <c r="S25" s="308"/>
-      <c r="T25" s="308"/>
-      <c r="U25" s="309"/>
+      <c r="R25" s="308"/>
+      <c r="S25" s="309"/>
+      <c r="T25" s="309"/>
+      <c r="U25" s="310"/>
     </row>
     <row r="26" spans="2:21" ht="20.25" customHeight="1">
       <c r="B26" s="237"/>
@@ -15083,10 +15107,10 @@
       <c r="P26" s="234" t="s">
         <v>625</v>
       </c>
-      <c r="R26" s="307"/>
-      <c r="S26" s="308"/>
-      <c r="T26" s="308"/>
-      <c r="U26" s="309"/>
+      <c r="R26" s="308"/>
+      <c r="S26" s="309"/>
+      <c r="T26" s="309"/>
+      <c r="U26" s="310"/>
     </row>
     <row r="27" spans="2:21" ht="20.25" customHeight="1">
       <c r="B27" s="172"/>
@@ -15104,10 +15128,10 @@
       <c r="N27" s="231"/>
       <c r="O27" s="216"/>
       <c r="P27" s="217"/>
-      <c r="R27" s="307"/>
-      <c r="S27" s="308"/>
-      <c r="T27" s="308"/>
-      <c r="U27" s="309"/>
+      <c r="R27" s="308"/>
+      <c r="S27" s="309"/>
+      <c r="T27" s="309"/>
+      <c r="U27" s="310"/>
     </row>
     <row r="28" spans="2:21" ht="20.25" customHeight="1">
       <c r="B28" s="174" t="s">
@@ -15127,10 +15151,10 @@
       <c r="N28" s="231"/>
       <c r="O28" s="216"/>
       <c r="P28" s="217"/>
-      <c r="R28" s="307"/>
-      <c r="S28" s="308"/>
-      <c r="T28" s="308"/>
-      <c r="U28" s="309"/>
+      <c r="R28" s="308"/>
+      <c r="S28" s="309"/>
+      <c r="T28" s="309"/>
+      <c r="U28" s="310"/>
     </row>
     <row r="29" spans="2:21" ht="20.25" customHeight="1">
       <c r="B29" s="172"/>
@@ -15154,10 +15178,10 @@
       <c r="N29" s="231"/>
       <c r="O29" s="216"/>
       <c r="P29" s="217"/>
-      <c r="R29" s="307"/>
-      <c r="S29" s="308"/>
-      <c r="T29" s="308"/>
-      <c r="U29" s="309"/>
+      <c r="R29" s="308"/>
+      <c r="S29" s="309"/>
+      <c r="T29" s="309"/>
+      <c r="U29" s="310"/>
     </row>
     <row r="30" spans="2:21" ht="20.25" customHeight="1">
       <c r="B30" s="172"/>
@@ -15181,10 +15205,10 @@
       <c r="N30" s="231"/>
       <c r="O30" s="216"/>
       <c r="P30" s="217"/>
-      <c r="R30" s="307"/>
-      <c r="S30" s="308"/>
-      <c r="T30" s="308"/>
-      <c r="U30" s="309"/>
+      <c r="R30" s="308"/>
+      <c r="S30" s="309"/>
+      <c r="T30" s="309"/>
+      <c r="U30" s="310"/>
     </row>
     <row r="31" spans="2:21" ht="20.25" customHeight="1">
       <c r="B31" s="172"/>
@@ -15208,10 +15232,10 @@
       <c r="N31" s="231"/>
       <c r="O31" s="216"/>
       <c r="P31" s="217"/>
-      <c r="R31" s="307"/>
-      <c r="S31" s="308"/>
-      <c r="T31" s="308"/>
-      <c r="U31" s="309"/>
+      <c r="R31" s="308"/>
+      <c r="S31" s="309"/>
+      <c r="T31" s="309"/>
+      <c r="U31" s="310"/>
     </row>
     <row r="32" spans="2:21" ht="20.25" customHeight="1">
       <c r="B32" s="172"/>
@@ -15229,10 +15253,10 @@
       <c r="N32" s="231"/>
       <c r="O32" s="216"/>
       <c r="P32" s="217"/>
-      <c r="R32" s="307"/>
-      <c r="S32" s="308"/>
-      <c r="T32" s="308"/>
-      <c r="U32" s="309"/>
+      <c r="R32" s="308"/>
+      <c r="S32" s="309"/>
+      <c r="T32" s="309"/>
+      <c r="U32" s="310"/>
     </row>
     <row r="33" spans="2:21" ht="20.25" customHeight="1">
       <c r="B33" s="174" t="s">
@@ -15252,10 +15276,10 @@
       <c r="N33" s="231"/>
       <c r="O33" s="216"/>
       <c r="P33" s="217"/>
-      <c r="R33" s="307"/>
-      <c r="S33" s="308"/>
-      <c r="T33" s="308"/>
-      <c r="U33" s="309"/>
+      <c r="R33" s="308"/>
+      <c r="S33" s="309"/>
+      <c r="T33" s="309"/>
+      <c r="U33" s="310"/>
     </row>
     <row r="34" spans="2:21" ht="20.25" customHeight="1">
       <c r="B34" s="169"/>
@@ -15279,10 +15303,10 @@
       <c r="N34" s="231"/>
       <c r="O34" s="216"/>
       <c r="P34" s="217"/>
-      <c r="R34" s="307"/>
-      <c r="S34" s="308"/>
-      <c r="T34" s="308"/>
-      <c r="U34" s="309"/>
+      <c r="R34" s="308"/>
+      <c r="S34" s="309"/>
+      <c r="T34" s="309"/>
+      <c r="U34" s="310"/>
     </row>
     <row r="35" spans="2:21" ht="20.25" customHeight="1">
       <c r="B35" s="169"/>
@@ -15306,10 +15330,10 @@
       <c r="N35" s="231"/>
       <c r="O35" s="216"/>
       <c r="P35" s="217"/>
-      <c r="R35" s="307"/>
-      <c r="S35" s="308"/>
-      <c r="T35" s="308"/>
-      <c r="U35" s="309"/>
+      <c r="R35" s="308"/>
+      <c r="S35" s="309"/>
+      <c r="T35" s="309"/>
+      <c r="U35" s="310"/>
     </row>
     <row r="36" spans="2:21" ht="20.25" customHeight="1">
       <c r="B36" s="169"/>
@@ -15327,10 +15351,10 @@
       <c r="N36" s="231"/>
       <c r="O36" s="216"/>
       <c r="P36" s="217"/>
-      <c r="R36" s="307"/>
-      <c r="S36" s="308"/>
-      <c r="T36" s="308"/>
-      <c r="U36" s="309"/>
+      <c r="R36" s="308"/>
+      <c r="S36" s="309"/>
+      <c r="T36" s="309"/>
+      <c r="U36" s="310"/>
     </row>
     <row r="37" spans="2:21" ht="20.25" customHeight="1">
       <c r="B37" s="174" t="s">
@@ -15350,10 +15374,10 @@
       <c r="N37" s="231"/>
       <c r="O37" s="216"/>
       <c r="P37" s="217"/>
-      <c r="R37" s="307"/>
-      <c r="S37" s="308"/>
-      <c r="T37" s="308"/>
-      <c r="U37" s="309"/>
+      <c r="R37" s="308"/>
+      <c r="S37" s="309"/>
+      <c r="T37" s="309"/>
+      <c r="U37" s="310"/>
     </row>
     <row r="38" spans="2:21" ht="20.25" customHeight="1">
       <c r="B38" s="169"/>
@@ -15377,10 +15401,10 @@
       <c r="N38" s="231"/>
       <c r="O38" s="216"/>
       <c r="P38" s="217"/>
-      <c r="R38" s="307"/>
-      <c r="S38" s="308"/>
-      <c r="T38" s="308"/>
-      <c r="U38" s="309"/>
+      <c r="R38" s="308"/>
+      <c r="S38" s="309"/>
+      <c r="T38" s="309"/>
+      <c r="U38" s="310"/>
     </row>
     <row r="39" spans="2:21" ht="20.25" customHeight="1">
       <c r="B39" s="169"/>
@@ -15404,10 +15428,10 @@
       <c r="N39" s="231"/>
       <c r="O39" s="216"/>
       <c r="P39" s="217"/>
-      <c r="R39" s="307"/>
-      <c r="S39" s="308"/>
-      <c r="T39" s="308"/>
-      <c r="U39" s="309"/>
+      <c r="R39" s="308"/>
+      <c r="S39" s="309"/>
+      <c r="T39" s="309"/>
+      <c r="U39" s="310"/>
     </row>
     <row r="40" spans="2:21" ht="20.25" customHeight="1">
       <c r="B40" s="169"/>
@@ -15431,10 +15455,10 @@
       <c r="N40" s="231"/>
       <c r="O40" s="216"/>
       <c r="P40" s="217"/>
-      <c r="R40" s="307"/>
-      <c r="S40" s="308"/>
-      <c r="T40" s="308"/>
-      <c r="U40" s="309"/>
+      <c r="R40" s="308"/>
+      <c r="S40" s="309"/>
+      <c r="T40" s="309"/>
+      <c r="U40" s="310"/>
     </row>
     <row r="41" spans="2:21" ht="20.25" customHeight="1">
       <c r="B41" s="169"/>
@@ -15452,10 +15476,10 @@
       <c r="N41" s="231"/>
       <c r="O41" s="216"/>
       <c r="P41" s="217"/>
-      <c r="R41" s="307"/>
-      <c r="S41" s="308"/>
-      <c r="T41" s="308"/>
-      <c r="U41" s="309"/>
+      <c r="R41" s="308"/>
+      <c r="S41" s="309"/>
+      <c r="T41" s="309"/>
+      <c r="U41" s="310"/>
     </row>
     <row r="42" spans="2:21" ht="20.25" customHeight="1">
       <c r="B42" s="174" t="s">
@@ -15475,10 +15499,10 @@
       <c r="N42" s="231"/>
       <c r="O42" s="216"/>
       <c r="P42" s="217"/>
-      <c r="R42" s="307"/>
-      <c r="S42" s="308"/>
-      <c r="T42" s="308"/>
-      <c r="U42" s="309"/>
+      <c r="R42" s="308"/>
+      <c r="S42" s="309"/>
+      <c r="T42" s="309"/>
+      <c r="U42" s="310"/>
     </row>
     <row r="43" spans="2:21" ht="20.25" customHeight="1">
       <c r="B43" s="169"/>
@@ -15502,10 +15526,10 @@
       </c>
       <c r="O43" s="233"/>
       <c r="P43" s="217"/>
-      <c r="R43" s="307"/>
-      <c r="S43" s="308"/>
-      <c r="T43" s="308"/>
-      <c r="U43" s="309"/>
+      <c r="R43" s="308"/>
+      <c r="S43" s="309"/>
+      <c r="T43" s="309"/>
+      <c r="U43" s="310"/>
     </row>
     <row r="44" spans="2:21" ht="20.25" customHeight="1">
       <c r="B44" s="169"/>
@@ -15529,10 +15553,10 @@
       </c>
       <c r="O44" s="233"/>
       <c r="P44" s="217"/>
-      <c r="R44" s="307"/>
-      <c r="S44" s="308"/>
-      <c r="T44" s="308"/>
-      <c r="U44" s="309"/>
+      <c r="R44" s="308"/>
+      <c r="S44" s="309"/>
+      <c r="T44" s="309"/>
+      <c r="U44" s="310"/>
     </row>
     <row r="45" spans="2:21" ht="20.25" customHeight="1">
       <c r="B45" s="169"/>
@@ -15556,10 +15580,10 @@
       </c>
       <c r="O45" s="233"/>
       <c r="P45" s="217"/>
-      <c r="R45" s="307"/>
-      <c r="S45" s="308"/>
-      <c r="T45" s="308"/>
-      <c r="U45" s="309"/>
+      <c r="R45" s="308"/>
+      <c r="S45" s="309"/>
+      <c r="T45" s="309"/>
+      <c r="U45" s="310"/>
     </row>
     <row r="46" spans="2:21" ht="20.25" customHeight="1">
       <c r="B46" s="169"/>
@@ -15577,10 +15601,10 @@
       <c r="N46" s="231"/>
       <c r="O46" s="216"/>
       <c r="P46" s="217"/>
-      <c r="R46" s="307"/>
-      <c r="S46" s="308"/>
-      <c r="T46" s="308"/>
-      <c r="U46" s="309"/>
+      <c r="R46" s="308"/>
+      <c r="S46" s="309"/>
+      <c r="T46" s="309"/>
+      <c r="U46" s="310"/>
     </row>
     <row r="47" spans="2:21" ht="20.25" customHeight="1">
       <c r="B47" s="174" t="s">
@@ -15600,10 +15624,10 @@
       <c r="N47" s="231"/>
       <c r="O47" s="216"/>
       <c r="P47" s="217"/>
-      <c r="R47" s="307"/>
-      <c r="S47" s="308"/>
-      <c r="T47" s="308"/>
-      <c r="U47" s="309"/>
+      <c r="R47" s="308"/>
+      <c r="S47" s="309"/>
+      <c r="T47" s="309"/>
+      <c r="U47" s="310"/>
     </row>
     <row r="48" spans="2:21" ht="20.25" customHeight="1">
       <c r="B48" s="169"/>
@@ -15627,10 +15651,10 @@
       </c>
       <c r="O48" s="233"/>
       <c r="P48" s="217"/>
-      <c r="R48" s="307"/>
-      <c r="S48" s="308"/>
-      <c r="T48" s="308"/>
-      <c r="U48" s="309"/>
+      <c r="R48" s="308"/>
+      <c r="S48" s="309"/>
+      <c r="T48" s="309"/>
+      <c r="U48" s="310"/>
     </row>
     <row r="49" spans="2:21" ht="20.25" customHeight="1" thickBot="1">
       <c r="B49" s="225"/>
@@ -15648,10 +15672,10 @@
       <c r="N49" s="230"/>
       <c r="O49" s="226"/>
       <c r="P49" s="228"/>
-      <c r="R49" s="310"/>
-      <c r="S49" s="311"/>
-      <c r="T49" s="311"/>
-      <c r="U49" s="312"/>
+      <c r="R49" s="311"/>
+      <c r="S49" s="312"/>
+      <c r="T49" s="312"/>
+      <c r="U49" s="313"/>
     </row>
     <row r="50" spans="2:21" ht="15.75" customHeight="1">
       <c r="B50" s="186"/>
@@ -15686,10 +15710,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B2:U215"/>
+  <dimension ref="B2:U217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15.75" customHeight="1"/>
@@ -15704,8 +15728,9 @@
     <col min="8" max="8" width="13.5703125" customWidth="1"/>
     <col min="9" max="9" width="9.42578125" customWidth="1"/>
     <col min="10" max="10" width="20.5703125" customWidth="1"/>
-    <col min="11" max="12" width="9.42578125" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.42578125" customWidth="1"/>
+    <col min="13" max="13" width="36.28515625" bestFit="1" customWidth="1"/>
     <col min="14" max="15" width="9.42578125" customWidth="1"/>
     <col min="16" max="16" width="17.140625" customWidth="1"/>
     <col min="17" max="17" width="3.85546875" customWidth="1"/>
@@ -15736,15 +15761,15 @@
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
       <c r="G3" s="24"/>
-      <c r="H3" s="303"/>
-      <c r="I3" s="246"/>
-      <c r="J3" s="246"/>
-      <c r="K3" s="246"/>
-      <c r="L3" s="246"/>
-      <c r="M3" s="246"/>
-      <c r="N3" s="246"/>
-      <c r="O3" s="246"/>
-      <c r="P3" s="246"/>
+      <c r="H3" s="304"/>
+      <c r="I3" s="247"/>
+      <c r="J3" s="247"/>
+      <c r="K3" s="247"/>
+      <c r="L3" s="247"/>
+      <c r="M3" s="247"/>
+      <c r="N3" s="247"/>
+      <c r="O3" s="247"/>
+      <c r="P3" s="247"/>
     </row>
     <row r="4" spans="2:21" ht="21.75" customHeight="1" thickBot="1">
       <c r="B4" s="26"/>
@@ -15797,10 +15822,10 @@
       <c r="L6" s="26"/>
       <c r="M6" s="26"/>
       <c r="N6" s="26"/>
-      <c r="R6" s="304"/>
-      <c r="S6" s="305"/>
-      <c r="T6" s="305"/>
-      <c r="U6" s="306"/>
+      <c r="R6" s="305"/>
+      <c r="S6" s="306"/>
+      <c r="T6" s="306"/>
+      <c r="U6" s="307"/>
     </row>
     <row r="7" spans="2:21" ht="21.75" customHeight="1" thickBot="1">
       <c r="B7" s="183" t="s">
@@ -15818,10 +15843,10 @@
       <c r="L7" s="184"/>
       <c r="M7" s="184"/>
       <c r="N7" s="184"/>
-      <c r="R7" s="307"/>
-      <c r="S7" s="308"/>
-      <c r="T7" s="308"/>
-      <c r="U7" s="309"/>
+      <c r="R7" s="308"/>
+      <c r="S7" s="309"/>
+      <c r="T7" s="309"/>
+      <c r="U7" s="310"/>
     </row>
     <row r="8" spans="2:21" ht="15">
       <c r="B8" s="187" t="s">
@@ -15843,10 +15868,10 @@
       <c r="L8" s="184"/>
       <c r="M8" s="184"/>
       <c r="N8" s="190"/>
-      <c r="R8" s="307"/>
-      <c r="S8" s="308"/>
-      <c r="T8" s="308"/>
-      <c r="U8" s="309"/>
+      <c r="R8" s="308"/>
+      <c r="S8" s="309"/>
+      <c r="T8" s="309"/>
+      <c r="U8" s="310"/>
     </row>
     <row r="9" spans="2:21" thickBot="1">
       <c r="B9" s="191" t="s">
@@ -15868,10 +15893,10 @@
       <c r="L9" s="194"/>
       <c r="M9" s="194"/>
       <c r="N9" s="194"/>
-      <c r="R9" s="307"/>
-      <c r="S9" s="308"/>
-      <c r="T9" s="308"/>
-      <c r="U9" s="309"/>
+      <c r="R9" s="308"/>
+      <c r="S9" s="309"/>
+      <c r="T9" s="309"/>
+      <c r="U9" s="310"/>
     </row>
     <row r="10" spans="2:21" thickBot="1">
       <c r="B10" s="191" t="s">
@@ -15903,10 +15928,10 @@
       </c>
       <c r="O10" s="200"/>
       <c r="P10" s="201"/>
-      <c r="R10" s="307"/>
-      <c r="S10" s="308"/>
-      <c r="T10" s="308"/>
-      <c r="U10" s="309"/>
+      <c r="R10" s="308"/>
+      <c r="S10" s="309"/>
+      <c r="T10" s="309"/>
+      <c r="U10" s="310"/>
     </row>
     <row r="11" spans="2:21" ht="15" customHeight="1" thickBot="1">
       <c r="B11" s="202"/>
@@ -15948,10 +15973,10 @@
       <c r="P11" s="211" t="s">
         <v>100</v>
       </c>
-      <c r="R11" s="307"/>
-      <c r="S11" s="308"/>
-      <c r="T11" s="308"/>
-      <c r="U11" s="309"/>
+      <c r="R11" s="308"/>
+      <c r="S11" s="309"/>
+      <c r="T11" s="309"/>
+      <c r="U11" s="310"/>
     </row>
     <row r="12" spans="2:21" ht="20.25" customHeight="1">
       <c r="B12" s="218"/>
@@ -15969,10 +15994,10 @@
       <c r="N12" s="213"/>
       <c r="O12" s="212"/>
       <c r="P12" s="215"/>
-      <c r="R12" s="307"/>
-      <c r="S12" s="308"/>
-      <c r="T12" s="308"/>
-      <c r="U12" s="309"/>
+      <c r="R12" s="308"/>
+      <c r="S12" s="309"/>
+      <c r="T12" s="309"/>
+      <c r="U12" s="310"/>
     </row>
     <row r="13" spans="2:21" ht="20.25" customHeight="1">
       <c r="B13" s="242" t="s">
@@ -15992,10 +16017,10 @@
       <c r="N13" s="231"/>
       <c r="O13" s="216"/>
       <c r="P13" s="217"/>
-      <c r="R13" s="307"/>
-      <c r="S13" s="308"/>
-      <c r="T13" s="308"/>
-      <c r="U13" s="309"/>
+      <c r="R13" s="308"/>
+      <c r="S13" s="309"/>
+      <c r="T13" s="309"/>
+      <c r="U13" s="310"/>
     </row>
     <row r="14" spans="2:21" ht="20.25" customHeight="1">
       <c r="B14" s="218"/>
@@ -16019,10 +16044,10 @@
       <c r="N14" s="231"/>
       <c r="O14" s="216"/>
       <c r="P14" s="217"/>
-      <c r="R14" s="307"/>
-      <c r="S14" s="308"/>
-      <c r="T14" s="308"/>
-      <c r="U14" s="309"/>
+      <c r="R14" s="308"/>
+      <c r="S14" s="309"/>
+      <c r="T14" s="309"/>
+      <c r="U14" s="310"/>
     </row>
     <row r="15" spans="2:21" ht="20.25" customHeight="1">
       <c r="B15" s="218"/>
@@ -16046,10 +16071,10 @@
       <c r="N15" s="231"/>
       <c r="O15" s="216"/>
       <c r="P15" s="217"/>
-      <c r="R15" s="307"/>
-      <c r="S15" s="308"/>
-      <c r="T15" s="308"/>
-      <c r="U15" s="309"/>
+      <c r="R15" s="308"/>
+      <c r="S15" s="309"/>
+      <c r="T15" s="309"/>
+      <c r="U15" s="310"/>
     </row>
     <row r="16" spans="2:21" ht="20.25" customHeight="1">
       <c r="B16" s="218"/>
@@ -16073,10 +16098,10 @@
       <c r="N16" s="231"/>
       <c r="O16" s="216"/>
       <c r="P16" s="217"/>
-      <c r="R16" s="307"/>
-      <c r="S16" s="308"/>
-      <c r="T16" s="308"/>
-      <c r="U16" s="309"/>
+      <c r="R16" s="308"/>
+      <c r="S16" s="309"/>
+      <c r="T16" s="309"/>
+      <c r="U16" s="310"/>
     </row>
     <row r="17" spans="2:21" ht="20.25" customHeight="1">
       <c r="B17" s="218"/>
@@ -16094,10 +16119,10 @@
       <c r="N17" s="231"/>
       <c r="O17" s="216"/>
       <c r="P17" s="217"/>
-      <c r="R17" s="307"/>
-      <c r="S17" s="308"/>
-      <c r="T17" s="308"/>
-      <c r="U17" s="309"/>
+      <c r="R17" s="308"/>
+      <c r="S17" s="309"/>
+      <c r="T17" s="309"/>
+      <c r="U17" s="310"/>
     </row>
     <row r="18" spans="2:21" ht="20.25" customHeight="1">
       <c r="B18" s="242" t="s">
@@ -16117,10 +16142,10 @@
       <c r="N18" s="231"/>
       <c r="O18" s="216"/>
       <c r="P18" s="217"/>
-      <c r="R18" s="307"/>
-      <c r="S18" s="308"/>
-      <c r="T18" s="308"/>
-      <c r="U18" s="309"/>
+      <c r="R18" s="308"/>
+      <c r="S18" s="309"/>
+      <c r="T18" s="309"/>
+      <c r="U18" s="310"/>
     </row>
     <row r="19" spans="2:21" ht="20.25" customHeight="1">
       <c r="B19" s="218"/>
@@ -16144,10 +16169,10 @@
       <c r="N19" s="231"/>
       <c r="O19" s="216"/>
       <c r="P19" s="217"/>
-      <c r="R19" s="307"/>
-      <c r="S19" s="308"/>
-      <c r="T19" s="308"/>
-      <c r="U19" s="309"/>
+      <c r="R19" s="308"/>
+      <c r="S19" s="309"/>
+      <c r="T19" s="309"/>
+      <c r="U19" s="310"/>
     </row>
     <row r="20" spans="2:21" ht="20.25" customHeight="1">
       <c r="B20" s="218"/>
@@ -16171,10 +16196,10 @@
       <c r="N20" s="231"/>
       <c r="O20" s="216"/>
       <c r="P20" s="217"/>
-      <c r="R20" s="307"/>
-      <c r="S20" s="308"/>
-      <c r="T20" s="308"/>
-      <c r="U20" s="309"/>
+      <c r="R20" s="308"/>
+      <c r="S20" s="309"/>
+      <c r="T20" s="309"/>
+      <c r="U20" s="310"/>
     </row>
     <row r="21" spans="2:21" ht="20.25" customHeight="1">
       <c r="B21" s="218"/>
@@ -16192,10 +16217,10 @@
       <c r="N21" s="231"/>
       <c r="O21" s="216"/>
       <c r="P21" s="217"/>
-      <c r="R21" s="307"/>
-      <c r="S21" s="308"/>
-      <c r="T21" s="308"/>
-      <c r="U21" s="309"/>
+      <c r="R21" s="308"/>
+      <c r="S21" s="309"/>
+      <c r="T21" s="309"/>
+      <c r="U21" s="310"/>
     </row>
     <row r="22" spans="2:21" ht="20.25" customHeight="1">
       <c r="B22" s="242" t="s">
@@ -16215,10 +16240,10 @@
       <c r="N22" s="231"/>
       <c r="O22" s="216"/>
       <c r="P22" s="217"/>
-      <c r="R22" s="307"/>
-      <c r="S22" s="308"/>
-      <c r="T22" s="308"/>
-      <c r="U22" s="309"/>
+      <c r="R22" s="308"/>
+      <c r="S22" s="309"/>
+      <c r="T22" s="309"/>
+      <c r="U22" s="310"/>
     </row>
     <row r="23" spans="2:21" ht="20.25" customHeight="1">
       <c r="B23" s="218"/>
@@ -16242,10 +16267,10 @@
       <c r="N23" s="231"/>
       <c r="O23" s="216"/>
       <c r="P23" s="217"/>
-      <c r="R23" s="307"/>
-      <c r="S23" s="308"/>
-      <c r="T23" s="308"/>
-      <c r="U23" s="309"/>
+      <c r="R23" s="308"/>
+      <c r="S23" s="309"/>
+      <c r="T23" s="309"/>
+      <c r="U23" s="310"/>
     </row>
     <row r="24" spans="2:21" ht="20.25" customHeight="1">
       <c r="B24" s="218"/>
@@ -16263,10 +16288,10 @@
       <c r="N24" s="231"/>
       <c r="O24" s="216"/>
       <c r="P24" s="217"/>
-      <c r="R24" s="307"/>
-      <c r="S24" s="308"/>
-      <c r="T24" s="308"/>
-      <c r="U24" s="309"/>
+      <c r="R24" s="308"/>
+      <c r="S24" s="309"/>
+      <c r="T24" s="309"/>
+      <c r="U24" s="310"/>
     </row>
     <row r="25" spans="2:21" ht="20.25" customHeight="1">
       <c r="B25" s="242" t="s">
@@ -16286,10 +16311,10 @@
       <c r="N25" s="231"/>
       <c r="O25" s="216"/>
       <c r="P25" s="217"/>
-      <c r="R25" s="307"/>
-      <c r="S25" s="308"/>
-      <c r="T25" s="308"/>
-      <c r="U25" s="309"/>
+      <c r="R25" s="308"/>
+      <c r="S25" s="309"/>
+      <c r="T25" s="309"/>
+      <c r="U25" s="310"/>
     </row>
     <row r="26" spans="2:21" ht="20.25" customHeight="1">
       <c r="B26" s="218"/>
@@ -16311,10 +16336,10 @@
       <c r="N26" s="231"/>
       <c r="O26" s="216"/>
       <c r="P26" s="217"/>
-      <c r="R26" s="307"/>
-      <c r="S26" s="308"/>
-      <c r="T26" s="308"/>
-      <c r="U26" s="309"/>
+      <c r="R26" s="308"/>
+      <c r="S26" s="309"/>
+      <c r="T26" s="309"/>
+      <c r="U26" s="310"/>
     </row>
     <row r="27" spans="2:21" ht="20.25" customHeight="1">
       <c r="B27" s="218"/>
@@ -16336,10 +16361,10 @@
       <c r="N27" s="231"/>
       <c r="O27" s="216"/>
       <c r="P27" s="217"/>
-      <c r="R27" s="307"/>
-      <c r="S27" s="308"/>
-      <c r="T27" s="308"/>
-      <c r="U27" s="309"/>
+      <c r="R27" s="308"/>
+      <c r="S27" s="309"/>
+      <c r="T27" s="309"/>
+      <c r="U27" s="310"/>
     </row>
     <row r="28" spans="2:21" ht="20.25" customHeight="1">
       <c r="B28" s="242" t="s">
@@ -16359,10 +16384,10 @@
       <c r="N28" s="231"/>
       <c r="O28" s="216"/>
       <c r="P28" s="217"/>
-      <c r="R28" s="307"/>
-      <c r="S28" s="308"/>
-      <c r="T28" s="308"/>
-      <c r="U28" s="309"/>
+      <c r="R28" s="308"/>
+      <c r="S28" s="309"/>
+      <c r="T28" s="309"/>
+      <c r="U28" s="310"/>
     </row>
     <row r="29" spans="2:21" ht="20.25" customHeight="1">
       <c r="B29" s="242"/>
@@ -16386,10 +16411,10 @@
       <c r="N29" s="231"/>
       <c r="O29" s="216"/>
       <c r="P29" s="217"/>
-      <c r="R29" s="307"/>
-      <c r="S29" s="308"/>
-      <c r="T29" s="308"/>
-      <c r="U29" s="309"/>
+      <c r="R29" s="308"/>
+      <c r="S29" s="309"/>
+      <c r="T29" s="309"/>
+      <c r="U29" s="310"/>
     </row>
     <row r="30" spans="2:21" ht="20.25" customHeight="1">
       <c r="B30" s="242"/>
@@ -16413,10 +16438,10 @@
       <c r="N30" s="231"/>
       <c r="O30" s="216"/>
       <c r="P30" s="217"/>
-      <c r="R30" s="307"/>
-      <c r="S30" s="308"/>
-      <c r="T30" s="308"/>
-      <c r="U30" s="309"/>
+      <c r="R30" s="308"/>
+      <c r="S30" s="309"/>
+      <c r="T30" s="309"/>
+      <c r="U30" s="310"/>
     </row>
     <row r="31" spans="2:21" ht="20.25" customHeight="1">
       <c r="B31" s="242" t="s">
@@ -16436,10 +16461,10 @@
       <c r="N31" s="231"/>
       <c r="O31" s="216"/>
       <c r="P31" s="217"/>
-      <c r="R31" s="307"/>
-      <c r="S31" s="308"/>
-      <c r="T31" s="308"/>
-      <c r="U31" s="309"/>
+      <c r="R31" s="308"/>
+      <c r="S31" s="309"/>
+      <c r="T31" s="309"/>
+      <c r="U31" s="310"/>
     </row>
     <row r="32" spans="2:21" ht="20.25" customHeight="1">
       <c r="B32" s="242"/>
@@ -16463,10 +16488,10 @@
       <c r="N32" s="231"/>
       <c r="O32" s="216"/>
       <c r="P32" s="217"/>
-      <c r="R32" s="307"/>
-      <c r="S32" s="308"/>
-      <c r="T32" s="308"/>
-      <c r="U32" s="309"/>
+      <c r="R32" s="308"/>
+      <c r="S32" s="309"/>
+      <c r="T32" s="309"/>
+      <c r="U32" s="310"/>
     </row>
     <row r="33" spans="2:21" ht="20.25" customHeight="1">
       <c r="B33" s="242"/>
@@ -16490,10 +16515,10 @@
       <c r="N33" s="231"/>
       <c r="O33" s="216"/>
       <c r="P33" s="217"/>
-      <c r="R33" s="307"/>
-      <c r="S33" s="308"/>
-      <c r="T33" s="308"/>
-      <c r="U33" s="309"/>
+      <c r="R33" s="308"/>
+      <c r="S33" s="309"/>
+      <c r="T33" s="309"/>
+      <c r="U33" s="310"/>
     </row>
     <row r="34" spans="2:21" ht="20.25" customHeight="1">
       <c r="B34" s="242" t="s">
@@ -16513,10 +16538,10 @@
       <c r="N34" s="231"/>
       <c r="O34" s="216"/>
       <c r="P34" s="217"/>
-      <c r="R34" s="307"/>
-      <c r="S34" s="308"/>
-      <c r="T34" s="308"/>
-      <c r="U34" s="309"/>
+      <c r="R34" s="308"/>
+      <c r="S34" s="309"/>
+      <c r="T34" s="309"/>
+      <c r="U34" s="310"/>
     </row>
     <row r="35" spans="2:21" ht="20.25" customHeight="1">
       <c r="B35" s="242"/>
@@ -16540,10 +16565,10 @@
       <c r="N35" s="231"/>
       <c r="O35" s="216"/>
       <c r="P35" s="217"/>
-      <c r="R35" s="307"/>
-      <c r="S35" s="308"/>
-      <c r="T35" s="308"/>
-      <c r="U35" s="309"/>
+      <c r="R35" s="308"/>
+      <c r="S35" s="309"/>
+      <c r="T35" s="309"/>
+      <c r="U35" s="310"/>
     </row>
     <row r="36" spans="2:21" ht="20.25" customHeight="1">
       <c r="B36" s="242"/>
@@ -16561,10 +16586,10 @@
       <c r="N36" s="231"/>
       <c r="O36" s="216"/>
       <c r="P36" s="217"/>
-      <c r="R36" s="307"/>
-      <c r="S36" s="308"/>
-      <c r="T36" s="308"/>
-      <c r="U36" s="309"/>
+      <c r="R36" s="308"/>
+      <c r="S36" s="309"/>
+      <c r="T36" s="309"/>
+      <c r="U36" s="310"/>
     </row>
     <row r="37" spans="2:21" ht="20.25" customHeight="1">
       <c r="B37" s="242"/>
@@ -16582,10 +16607,10 @@
       <c r="N37" s="231"/>
       <c r="O37" s="216"/>
       <c r="P37" s="217"/>
-      <c r="R37" s="307"/>
-      <c r="S37" s="308"/>
-      <c r="T37" s="308"/>
-      <c r="U37" s="309"/>
+      <c r="R37" s="308"/>
+      <c r="S37" s="309"/>
+      <c r="T37" s="309"/>
+      <c r="U37" s="310"/>
     </row>
     <row r="38" spans="2:21" ht="20.25" customHeight="1">
       <c r="B38" s="242" t="s">
@@ -16605,10 +16630,10 @@
       <c r="N38" s="231"/>
       <c r="O38" s="216"/>
       <c r="P38" s="217"/>
-      <c r="R38" s="307"/>
-      <c r="S38" s="308"/>
-      <c r="T38" s="308"/>
-      <c r="U38" s="309"/>
+      <c r="R38" s="308"/>
+      <c r="S38" s="309"/>
+      <c r="T38" s="309"/>
+      <c r="U38" s="310"/>
     </row>
     <row r="39" spans="2:21" ht="20.25" customHeight="1">
       <c r="B39" s="242"/>
@@ -16632,10 +16657,10 @@
       <c r="N39" s="231"/>
       <c r="O39" s="216"/>
       <c r="P39" s="217"/>
-      <c r="R39" s="307"/>
-      <c r="S39" s="308"/>
-      <c r="T39" s="308"/>
-      <c r="U39" s="309"/>
+      <c r="R39" s="308"/>
+      <c r="S39" s="309"/>
+      <c r="T39" s="309"/>
+      <c r="U39" s="310"/>
     </row>
     <row r="40" spans="2:21" ht="20.25" customHeight="1">
       <c r="B40" s="242"/>
@@ -16659,10 +16684,10 @@
       <c r="N40" s="231"/>
       <c r="O40" s="216"/>
       <c r="P40" s="217"/>
-      <c r="R40" s="307"/>
-      <c r="S40" s="308"/>
-      <c r="T40" s="308"/>
-      <c r="U40" s="309"/>
+      <c r="R40" s="308"/>
+      <c r="S40" s="309"/>
+      <c r="T40" s="309"/>
+      <c r="U40" s="310"/>
     </row>
     <row r="41" spans="2:21" ht="20.25" customHeight="1">
       <c r="B41" s="242"/>
@@ -16680,10 +16705,10 @@
       <c r="N41" s="231"/>
       <c r="O41" s="216"/>
       <c r="P41" s="217"/>
-      <c r="R41" s="307"/>
-      <c r="S41" s="308"/>
-      <c r="T41" s="308"/>
-      <c r="U41" s="309"/>
+      <c r="R41" s="308"/>
+      <c r="S41" s="309"/>
+      <c r="T41" s="309"/>
+      <c r="U41" s="310"/>
     </row>
     <row r="42" spans="2:21" ht="20.25" customHeight="1">
       <c r="B42" s="242" t="s">
@@ -16703,10 +16728,10 @@
       <c r="N42" s="231"/>
       <c r="O42" s="216"/>
       <c r="P42" s="217"/>
-      <c r="R42" s="307"/>
-      <c r="S42" s="308"/>
-      <c r="T42" s="308"/>
-      <c r="U42" s="309"/>
+      <c r="R42" s="308"/>
+      <c r="S42" s="309"/>
+      <c r="T42" s="309"/>
+      <c r="U42" s="310"/>
     </row>
     <row r="43" spans="2:21" ht="20.25" customHeight="1">
       <c r="B43" s="242"/>
@@ -16722,16 +16747,18 @@
       <c r="H43" s="244"/>
       <c r="I43" s="216"/>
       <c r="J43" s="217"/>
-      <c r="K43" s="231"/>
-      <c r="L43" s="216"/>
+      <c r="K43" s="244" t="s">
+        <v>671</v>
+      </c>
+      <c r="L43" s="243"/>
       <c r="M43" s="217"/>
       <c r="N43" s="231"/>
       <c r="O43" s="216"/>
       <c r="P43" s="217"/>
-      <c r="R43" s="307"/>
-      <c r="S43" s="308"/>
-      <c r="T43" s="308"/>
-      <c r="U43" s="309"/>
+      <c r="R43" s="308"/>
+      <c r="S43" s="309"/>
+      <c r="T43" s="309"/>
+      <c r="U43" s="310"/>
     </row>
     <row r="44" spans="2:21" ht="20.25" customHeight="1">
       <c r="B44" s="242"/>
@@ -16747,16 +16774,20 @@
       <c r="H44" s="244"/>
       <c r="I44" s="216"/>
       <c r="J44" s="217"/>
-      <c r="K44" s="231"/>
-      <c r="L44" s="216"/>
-      <c r="M44" s="217"/>
+      <c r="K44" s="244" t="s">
+        <v>671</v>
+      </c>
+      <c r="L44" s="243"/>
+      <c r="M44" s="217" t="s">
+        <v>674</v>
+      </c>
       <c r="N44" s="231"/>
       <c r="O44" s="216"/>
       <c r="P44" s="217"/>
-      <c r="R44" s="307"/>
-      <c r="S44" s="308"/>
-      <c r="T44" s="308"/>
-      <c r="U44" s="309"/>
+      <c r="R44" s="308"/>
+      <c r="S44" s="309"/>
+      <c r="T44" s="309"/>
+      <c r="U44" s="310"/>
     </row>
     <row r="45" spans="2:21" ht="20.25" customHeight="1">
       <c r="B45" s="242"/>
@@ -16772,16 +16803,18 @@
       <c r="H45" s="244"/>
       <c r="I45" s="216"/>
       <c r="J45" s="217"/>
-      <c r="K45" s="231"/>
-      <c r="L45" s="216"/>
+      <c r="K45" s="244" t="s">
+        <v>671</v>
+      </c>
+      <c r="L45" s="243"/>
       <c r="M45" s="217"/>
       <c r="N45" s="231"/>
       <c r="O45" s="216"/>
       <c r="P45" s="217"/>
-      <c r="R45" s="307"/>
-      <c r="S45" s="308"/>
-      <c r="T45" s="308"/>
-      <c r="U45" s="309"/>
+      <c r="R45" s="308"/>
+      <c r="S45" s="309"/>
+      <c r="T45" s="309"/>
+      <c r="U45" s="310"/>
     </row>
     <row r="46" spans="2:21" ht="20.25" customHeight="1">
       <c r="B46" s="242"/>
@@ -16797,75 +16830,77 @@
       <c r="H46" s="244"/>
       <c r="I46" s="216"/>
       <c r="J46" s="217"/>
-      <c r="K46" s="231"/>
-      <c r="L46" s="216"/>
+      <c r="K46" s="244" t="s">
+        <v>671</v>
+      </c>
+      <c r="L46" s="243"/>
       <c r="M46" s="217"/>
       <c r="N46" s="231"/>
       <c r="O46" s="216"/>
       <c r="P46" s="217"/>
-      <c r="R46" s="307"/>
-      <c r="S46" s="308"/>
-      <c r="T46" s="308"/>
-      <c r="U46" s="309"/>
-    </row>
-    <row r="47" spans="2:21" ht="20.25" customHeight="1">
+      <c r="R46" s="308"/>
+      <c r="S46" s="309"/>
+      <c r="T46" s="309"/>
+      <c r="U46" s="310"/>
+    </row>
+    <row r="47" spans="2:21" s="245" customFormat="1" ht="20.25" customHeight="1">
       <c r="B47" s="242"/>
-      <c r="C47" s="229"/>
-      <c r="D47" s="218"/>
+      <c r="C47" s="229" t="s">
+        <v>675</v>
+      </c>
+      <c r="D47" s="218" t="s">
+        <v>643</v>
+      </c>
       <c r="E47" s="231"/>
       <c r="F47" s="232"/>
       <c r="G47" s="217"/>
       <c r="H47" s="244"/>
       <c r="I47" s="216"/>
       <c r="J47" s="217"/>
-      <c r="K47" s="231"/>
+      <c r="K47" s="244"/>
       <c r="L47" s="216"/>
       <c r="M47" s="217"/>
       <c r="N47" s="231"/>
       <c r="O47" s="216"/>
       <c r="P47" s="217"/>
-      <c r="R47" s="307"/>
-      <c r="S47" s="308"/>
-      <c r="T47" s="308"/>
-      <c r="U47" s="309"/>
-    </row>
-    <row r="48" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B48" s="242" t="s">
-        <v>662</v>
-      </c>
-      <c r="C48" s="229"/>
-      <c r="D48" s="218"/>
+      <c r="R47" s="308"/>
+      <c r="S47" s="309"/>
+      <c r="T47" s="309"/>
+      <c r="U47" s="310"/>
+    </row>
+    <row r="48" spans="2:21" s="245" customFormat="1" ht="20.25" customHeight="1">
+      <c r="B48" s="242"/>
+      <c r="C48" s="229" t="s">
+        <v>676</v>
+      </c>
+      <c r="D48" s="218" t="s">
+        <v>643</v>
+      </c>
       <c r="E48" s="231"/>
       <c r="F48" s="232"/>
       <c r="G48" s="217"/>
       <c r="H48" s="244"/>
       <c r="I48" s="216"/>
       <c r="J48" s="217"/>
-      <c r="K48" s="231"/>
+      <c r="K48" s="244"/>
       <c r="L48" s="216"/>
       <c r="M48" s="217"/>
       <c r="N48" s="231"/>
       <c r="O48" s="216"/>
       <c r="P48" s="217"/>
-      <c r="R48" s="307"/>
-      <c r="S48" s="308"/>
-      <c r="T48" s="308"/>
-      <c r="U48" s="309"/>
+      <c r="R48" s="308"/>
+      <c r="S48" s="309"/>
+      <c r="T48" s="309"/>
+      <c r="U48" s="310"/>
     </row>
     <row r="49" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B49" s="242" t="s">
-        <v>663</v>
-      </c>
-      <c r="C49" s="218" t="s">
-        <v>660</v>
-      </c>
-      <c r="D49" s="218" t="s">
-        <v>653</v>
-      </c>
+      <c r="B49" s="242"/>
+      <c r="C49" s="229"/>
+      <c r="D49" s="218"/>
       <c r="E49" s="231"/>
       <c r="F49" s="232"/>
       <c r="G49" s="217"/>
-      <c r="H49" s="231"/>
+      <c r="H49" s="244"/>
       <c r="I49" s="216"/>
       <c r="J49" s="217"/>
       <c r="K49" s="231"/>
@@ -16874,23 +16909,21 @@
       <c r="N49" s="231"/>
       <c r="O49" s="216"/>
       <c r="P49" s="217"/>
-      <c r="R49" s="307"/>
-      <c r="S49" s="308"/>
-      <c r="T49" s="308"/>
-      <c r="U49" s="309"/>
+      <c r="R49" s="308"/>
+      <c r="S49" s="309"/>
+      <c r="T49" s="309"/>
+      <c r="U49" s="310"/>
     </row>
     <row r="50" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B50" s="242"/>
-      <c r="C50" s="70" t="s">
+      <c r="B50" s="242" t="s">
         <v>661</v>
       </c>
-      <c r="D50" s="218" t="s">
-        <v>653</v>
-      </c>
+      <c r="C50" s="229"/>
+      <c r="D50" s="218"/>
       <c r="E50" s="231"/>
       <c r="F50" s="232"/>
       <c r="G50" s="217"/>
-      <c r="H50" s="231"/>
+      <c r="H50" s="244"/>
       <c r="I50" s="216"/>
       <c r="J50" s="217"/>
       <c r="K50" s="231"/>
@@ -16899,17 +16932,21 @@
       <c r="N50" s="231"/>
       <c r="O50" s="216"/>
       <c r="P50" s="217"/>
-      <c r="R50" s="307"/>
-      <c r="S50" s="308"/>
-      <c r="T50" s="308"/>
-      <c r="U50" s="309"/>
+      <c r="R50" s="308"/>
+      <c r="S50" s="309"/>
+      <c r="T50" s="309"/>
+      <c r="U50" s="310"/>
     </row>
     <row r="51" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B51" s="242" t="s">
-        <v>664</v>
-      </c>
-      <c r="C51" s="218"/>
-      <c r="D51" s="218"/>
+      <c r="B51" s="315" t="s">
+        <v>662</v>
+      </c>
+      <c r="C51" s="316" t="s">
+        <v>672</v>
+      </c>
+      <c r="D51" s="218" t="s">
+        <v>653</v>
+      </c>
       <c r="E51" s="231"/>
       <c r="F51" s="232"/>
       <c r="G51" s="217"/>
@@ -16922,15 +16959,15 @@
       <c r="N51" s="231"/>
       <c r="O51" s="216"/>
       <c r="P51" s="217"/>
-      <c r="R51" s="307"/>
-      <c r="S51" s="308"/>
-      <c r="T51" s="308"/>
-      <c r="U51" s="309"/>
+      <c r="R51" s="308"/>
+      <c r="S51" s="309"/>
+      <c r="T51" s="309"/>
+      <c r="U51" s="310"/>
     </row>
     <row r="52" spans="2:21" ht="20.25" customHeight="1">
       <c r="B52" s="242"/>
-      <c r="C52" s="229" t="s">
-        <v>665</v>
+      <c r="C52" s="70" t="s">
+        <v>660</v>
       </c>
       <c r="D52" s="218" t="s">
         <v>653</v>
@@ -16947,19 +16984,17 @@
       <c r="N52" s="231"/>
       <c r="O52" s="216"/>
       <c r="P52" s="217"/>
-      <c r="R52" s="307"/>
-      <c r="S52" s="308"/>
-      <c r="T52" s="308"/>
-      <c r="U52" s="309"/>
+      <c r="R52" s="308"/>
+      <c r="S52" s="309"/>
+      <c r="T52" s="309"/>
+      <c r="U52" s="310"/>
     </row>
     <row r="53" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B53" s="242"/>
-      <c r="C53" s="229" t="s">
-        <v>666</v>
-      </c>
-      <c r="D53" s="218" t="s">
-        <v>653</v>
-      </c>
+      <c r="B53" s="242" t="s">
+        <v>663</v>
+      </c>
+      <c r="C53" s="218"/>
+      <c r="D53" s="218"/>
       <c r="E53" s="231"/>
       <c r="F53" s="232"/>
       <c r="G53" s="217"/>
@@ -16972,15 +17007,15 @@
       <c r="N53" s="231"/>
       <c r="O53" s="216"/>
       <c r="P53" s="217"/>
-      <c r="R53" s="307"/>
-      <c r="S53" s="308"/>
-      <c r="T53" s="308"/>
-      <c r="U53" s="309"/>
+      <c r="R53" s="308"/>
+      <c r="S53" s="309"/>
+      <c r="T53" s="309"/>
+      <c r="U53" s="310"/>
     </row>
     <row r="54" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B54" s="242"/>
-      <c r="C54" s="229" t="s">
-        <v>667</v>
+      <c r="B54" s="315"/>
+      <c r="C54" s="317" t="s">
+        <v>673</v>
       </c>
       <c r="D54" s="218" t="s">
         <v>653</v>
@@ -16997,15 +17032,19 @@
       <c r="N54" s="231"/>
       <c r="O54" s="216"/>
       <c r="P54" s="217"/>
-      <c r="R54" s="307"/>
-      <c r="S54" s="308"/>
-      <c r="T54" s="308"/>
-      <c r="U54" s="309"/>
+      <c r="R54" s="308"/>
+      <c r="S54" s="309"/>
+      <c r="T54" s="309"/>
+      <c r="U54" s="310"/>
     </row>
     <row r="55" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B55" s="242"/>
-      <c r="C55" s="229"/>
-      <c r="D55" s="218"/>
+      <c r="B55" s="315"/>
+      <c r="C55" s="317" t="s">
+        <v>664</v>
+      </c>
+      <c r="D55" s="218" t="s">
+        <v>653</v>
+      </c>
       <c r="E55" s="231"/>
       <c r="F55" s="232"/>
       <c r="G55" s="217"/>
@@ -17018,17 +17057,19 @@
       <c r="N55" s="231"/>
       <c r="O55" s="216"/>
       <c r="P55" s="217"/>
-      <c r="R55" s="307"/>
-      <c r="S55" s="308"/>
-      <c r="T55" s="308"/>
-      <c r="U55" s="309"/>
+      <c r="R55" s="308"/>
+      <c r="S55" s="309"/>
+      <c r="T55" s="309"/>
+      <c r="U55" s="310"/>
     </row>
     <row r="56" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B56" s="242" t="s">
-        <v>668</v>
-      </c>
-      <c r="C56" s="229"/>
-      <c r="D56" s="218"/>
+      <c r="B56" s="242"/>
+      <c r="C56" s="229" t="s">
+        <v>665</v>
+      </c>
+      <c r="D56" s="218" t="s">
+        <v>653</v>
+      </c>
       <c r="E56" s="231"/>
       <c r="F56" s="232"/>
       <c r="G56" s="217"/>
@@ -17041,19 +17082,15 @@
       <c r="N56" s="231"/>
       <c r="O56" s="216"/>
       <c r="P56" s="217"/>
-      <c r="R56" s="307"/>
-      <c r="S56" s="308"/>
-      <c r="T56" s="308"/>
-      <c r="U56" s="309"/>
+      <c r="R56" s="308"/>
+      <c r="S56" s="309"/>
+      <c r="T56" s="309"/>
+      <c r="U56" s="310"/>
     </row>
     <row r="57" spans="2:21" ht="20.25" customHeight="1">
       <c r="B57" s="242"/>
-      <c r="C57" s="229" t="s">
-        <v>669</v>
-      </c>
-      <c r="D57" s="229" t="s">
-        <v>648</v>
-      </c>
+      <c r="C57" s="229"/>
+      <c r="D57" s="218"/>
       <c r="E57" s="231"/>
       <c r="F57" s="232"/>
       <c r="G57" s="217"/>
@@ -17066,19 +17103,17 @@
       <c r="N57" s="231"/>
       <c r="O57" s="216"/>
       <c r="P57" s="217"/>
-      <c r="R57" s="307"/>
-      <c r="S57" s="308"/>
-      <c r="T57" s="308"/>
-      <c r="U57" s="309"/>
+      <c r="R57" s="308"/>
+      <c r="S57" s="309"/>
+      <c r="T57" s="309"/>
+      <c r="U57" s="310"/>
     </row>
     <row r="58" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B58" s="242"/>
-      <c r="C58" s="229" t="s">
-        <v>670</v>
-      </c>
-      <c r="D58" s="229" t="s">
-        <v>648</v>
-      </c>
+      <c r="B58" s="242" t="s">
+        <v>666</v>
+      </c>
+      <c r="C58" s="229"/>
+      <c r="D58" s="218"/>
       <c r="E58" s="231"/>
       <c r="F58" s="232"/>
       <c r="G58" s="217"/>
@@ -17091,15 +17126,15 @@
       <c r="N58" s="231"/>
       <c r="O58" s="216"/>
       <c r="P58" s="217"/>
-      <c r="R58" s="307"/>
-      <c r="S58" s="308"/>
-      <c r="T58" s="308"/>
-      <c r="U58" s="309"/>
+      <c r="R58" s="308"/>
+      <c r="S58" s="309"/>
+      <c r="T58" s="309"/>
+      <c r="U58" s="310"/>
     </row>
     <row r="59" spans="2:21" ht="20.25" customHeight="1">
       <c r="B59" s="242"/>
       <c r="C59" s="229" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="D59" s="229" t="s">
         <v>648</v>
@@ -17110,21 +17145,23 @@
       <c r="H59" s="231"/>
       <c r="I59" s="216"/>
       <c r="J59" s="217"/>
-      <c r="K59" s="231"/>
-      <c r="L59" s="216"/>
+      <c r="K59" s="244" t="s">
+        <v>671</v>
+      </c>
+      <c r="L59" s="243"/>
       <c r="M59" s="217"/>
       <c r="N59" s="231"/>
       <c r="O59" s="216"/>
       <c r="P59" s="217"/>
-      <c r="R59" s="307"/>
-      <c r="S59" s="308"/>
-      <c r="T59" s="308"/>
-      <c r="U59" s="309"/>
+      <c r="R59" s="308"/>
+      <c r="S59" s="309"/>
+      <c r="T59" s="309"/>
+      <c r="U59" s="310"/>
     </row>
     <row r="60" spans="2:21" ht="20.25" customHeight="1">
       <c r="B60" s="242"/>
       <c r="C60" s="229" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="D60" s="229" t="s">
         <v>648</v>
@@ -17141,15 +17178,19 @@
       <c r="N60" s="231"/>
       <c r="O60" s="216"/>
       <c r="P60" s="217"/>
-      <c r="R60" s="307"/>
-      <c r="S60" s="308"/>
-      <c r="T60" s="308"/>
-      <c r="U60" s="309"/>
+      <c r="R60" s="308"/>
+      <c r="S60" s="309"/>
+      <c r="T60" s="309"/>
+      <c r="U60" s="310"/>
     </row>
     <row r="61" spans="2:21" ht="20.25" customHeight="1">
       <c r="B61" s="242"/>
-      <c r="C61" s="229"/>
-      <c r="D61" s="218"/>
+      <c r="C61" s="229" t="s">
+        <v>669</v>
+      </c>
+      <c r="D61" s="229" t="s">
+        <v>648</v>
+      </c>
       <c r="E61" s="231"/>
       <c r="F61" s="232"/>
       <c r="G61" s="217"/>
@@ -17162,36 +17203,41 @@
       <c r="N61" s="231"/>
       <c r="O61" s="216"/>
       <c r="P61" s="217"/>
-      <c r="R61" s="307"/>
-      <c r="S61" s="308"/>
-      <c r="T61" s="308"/>
-      <c r="U61" s="309"/>
+      <c r="R61" s="308"/>
+      <c r="S61" s="309"/>
+      <c r="T61" s="309"/>
+      <c r="U61" s="310"/>
     </row>
     <row r="62" spans="2:21" ht="20.25" customHeight="1">
       <c r="B62" s="242"/>
-      <c r="D62" s="218"/>
+      <c r="C62" s="229" t="s">
+        <v>670</v>
+      </c>
+      <c r="D62" s="229" t="s">
+        <v>648</v>
+      </c>
       <c r="E62" s="231"/>
       <c r="F62" s="232"/>
       <c r="G62" s="217"/>
       <c r="H62" s="231"/>
       <c r="I62" s="216"/>
       <c r="J62" s="217"/>
-      <c r="K62" s="231"/>
-      <c r="L62" s="216"/>
+      <c r="K62" s="244" t="s">
+        <v>671</v>
+      </c>
+      <c r="L62" s="243"/>
       <c r="M62" s="217"/>
       <c r="N62" s="231"/>
       <c r="O62" s="216"/>
       <c r="P62" s="217"/>
-      <c r="R62" s="307"/>
-      <c r="S62" s="308"/>
-      <c r="T62" s="308"/>
-      <c r="U62" s="309"/>
+      <c r="R62" s="308"/>
+      <c r="S62" s="309"/>
+      <c r="T62" s="309"/>
+      <c r="U62" s="310"/>
     </row>
     <row r="63" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B63" s="242" t="s">
-        <v>427</v>
-      </c>
-      <c r="C63" s="218"/>
+      <c r="B63" s="242"/>
+      <c r="C63" s="229"/>
       <c r="D63" s="218"/>
       <c r="E63" s="231"/>
       <c r="F63" s="232"/>
@@ -17205,16 +17251,13 @@
       <c r="N63" s="231"/>
       <c r="O63" s="216"/>
       <c r="P63" s="217"/>
-      <c r="R63" s="307"/>
-      <c r="S63" s="308"/>
-      <c r="T63" s="308"/>
-      <c r="U63" s="309"/>
+      <c r="R63" s="308"/>
+      <c r="S63" s="309"/>
+      <c r="T63" s="309"/>
+      <c r="U63" s="310"/>
     </row>
     <row r="64" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B64" s="218"/>
-      <c r="C64" s="229" t="s">
-        <v>636</v>
-      </c>
+      <c r="B64" s="242"/>
       <c r="D64" s="218"/>
       <c r="E64" s="231"/>
       <c r="F64" s="232"/>
@@ -17228,13 +17271,15 @@
       <c r="N64" s="231"/>
       <c r="O64" s="216"/>
       <c r="P64" s="217"/>
-      <c r="R64" s="307"/>
-      <c r="S64" s="308"/>
-      <c r="T64" s="308"/>
-      <c r="U64" s="309"/>
+      <c r="R64" s="308"/>
+      <c r="S64" s="309"/>
+      <c r="T64" s="309"/>
+      <c r="U64" s="310"/>
     </row>
     <row r="65" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B65" s="218"/>
+      <c r="B65" s="242" t="s">
+        <v>427</v>
+      </c>
       <c r="C65" s="218"/>
       <c r="D65" s="218"/>
       <c r="E65" s="231"/>
@@ -17249,14 +17294,16 @@
       <c r="N65" s="231"/>
       <c r="O65" s="216"/>
       <c r="P65" s="217"/>
-      <c r="R65" s="307"/>
-      <c r="S65" s="308"/>
-      <c r="T65" s="308"/>
-      <c r="U65" s="309"/>
+      <c r="R65" s="308"/>
+      <c r="S65" s="309"/>
+      <c r="T65" s="309"/>
+      <c r="U65" s="310"/>
     </row>
     <row r="66" spans="2:21" ht="20.25" customHeight="1">
       <c r="B66" s="218"/>
-      <c r="C66" s="218"/>
+      <c r="C66" s="229" t="s">
+        <v>636</v>
+      </c>
       <c r="D66" s="218"/>
       <c r="E66" s="231"/>
       <c r="F66" s="232"/>
@@ -17270,10 +17317,10 @@
       <c r="N66" s="231"/>
       <c r="O66" s="216"/>
       <c r="P66" s="217"/>
-      <c r="R66" s="307"/>
-      <c r="S66" s="308"/>
-      <c r="T66" s="308"/>
-      <c r="U66" s="309"/>
+      <c r="R66" s="308"/>
+      <c r="S66" s="309"/>
+      <c r="T66" s="309"/>
+      <c r="U66" s="310"/>
     </row>
     <row r="67" spans="2:21" ht="20.25" customHeight="1">
       <c r="B67" s="218"/>
@@ -17291,10 +17338,10 @@
       <c r="N67" s="231"/>
       <c r="O67" s="216"/>
       <c r="P67" s="217"/>
-      <c r="R67" s="307"/>
-      <c r="S67" s="308"/>
-      <c r="T67" s="308"/>
-      <c r="U67" s="309"/>
+      <c r="R67" s="308"/>
+      <c r="S67" s="309"/>
+      <c r="T67" s="309"/>
+      <c r="U67" s="310"/>
     </row>
     <row r="68" spans="2:21" ht="20.25" customHeight="1">
       <c r="B68" s="218"/>
@@ -17312,10 +17359,10 @@
       <c r="N68" s="231"/>
       <c r="O68" s="216"/>
       <c r="P68" s="217"/>
-      <c r="R68" s="307"/>
-      <c r="S68" s="308"/>
-      <c r="T68" s="308"/>
-      <c r="U68" s="309"/>
+      <c r="R68" s="308"/>
+      <c r="S68" s="309"/>
+      <c r="T68" s="309"/>
+      <c r="U68" s="310"/>
     </row>
     <row r="69" spans="2:21" ht="20.25" customHeight="1">
       <c r="B69" s="218"/>
@@ -17333,10 +17380,10 @@
       <c r="N69" s="231"/>
       <c r="O69" s="216"/>
       <c r="P69" s="217"/>
-      <c r="R69" s="307"/>
-      <c r="S69" s="308"/>
-      <c r="T69" s="308"/>
-      <c r="U69" s="309"/>
+      <c r="R69" s="308"/>
+      <c r="S69" s="309"/>
+      <c r="T69" s="309"/>
+      <c r="U69" s="310"/>
     </row>
     <row r="70" spans="2:21" ht="20.25" customHeight="1">
       <c r="B70" s="218"/>
@@ -17354,10 +17401,10 @@
       <c r="N70" s="231"/>
       <c r="O70" s="216"/>
       <c r="P70" s="217"/>
-      <c r="R70" s="307"/>
-      <c r="S70" s="308"/>
-      <c r="T70" s="308"/>
-      <c r="U70" s="309"/>
+      <c r="R70" s="308"/>
+      <c r="S70" s="309"/>
+      <c r="T70" s="309"/>
+      <c r="U70" s="310"/>
     </row>
     <row r="71" spans="2:21" ht="20.25" customHeight="1">
       <c r="B71" s="218"/>
@@ -17375,10 +17422,10 @@
       <c r="N71" s="231"/>
       <c r="O71" s="216"/>
       <c r="P71" s="217"/>
-      <c r="R71" s="307"/>
-      <c r="S71" s="308"/>
-      <c r="T71" s="308"/>
-      <c r="U71" s="309"/>
+      <c r="R71" s="308"/>
+      <c r="S71" s="309"/>
+      <c r="T71" s="309"/>
+      <c r="U71" s="310"/>
     </row>
     <row r="72" spans="2:21" ht="20.25" customHeight="1">
       <c r="B72" s="218"/>
@@ -17396,10 +17443,10 @@
       <c r="N72" s="231"/>
       <c r="O72" s="216"/>
       <c r="P72" s="217"/>
-      <c r="R72" s="307"/>
-      <c r="S72" s="308"/>
-      <c r="T72" s="308"/>
-      <c r="U72" s="309"/>
+      <c r="R72" s="308"/>
+      <c r="S72" s="309"/>
+      <c r="T72" s="309"/>
+      <c r="U72" s="310"/>
     </row>
     <row r="73" spans="2:21" ht="20.25" customHeight="1">
       <c r="B73" s="218"/>
@@ -17417,10 +17464,10 @@
       <c r="N73" s="231"/>
       <c r="O73" s="216"/>
       <c r="P73" s="217"/>
-      <c r="R73" s="307"/>
-      <c r="S73" s="308"/>
-      <c r="T73" s="308"/>
-      <c r="U73" s="309"/>
+      <c r="R73" s="308"/>
+      <c r="S73" s="309"/>
+      <c r="T73" s="309"/>
+      <c r="U73" s="310"/>
     </row>
     <row r="74" spans="2:21" ht="20.25" customHeight="1">
       <c r="B74" s="218"/>
@@ -17438,10 +17485,10 @@
       <c r="N74" s="231"/>
       <c r="O74" s="216"/>
       <c r="P74" s="217"/>
-      <c r="R74" s="307"/>
-      <c r="S74" s="308"/>
-      <c r="T74" s="308"/>
-      <c r="U74" s="309"/>
+      <c r="R74" s="308"/>
+      <c r="S74" s="309"/>
+      <c r="T74" s="309"/>
+      <c r="U74" s="310"/>
     </row>
     <row r="75" spans="2:21" ht="20.25" customHeight="1">
       <c r="B75" s="218"/>
@@ -17459,10 +17506,10 @@
       <c r="N75" s="231"/>
       <c r="O75" s="216"/>
       <c r="P75" s="217"/>
-      <c r="R75" s="307"/>
-      <c r="S75" s="308"/>
-      <c r="T75" s="308"/>
-      <c r="U75" s="309"/>
+      <c r="R75" s="308"/>
+      <c r="S75" s="309"/>
+      <c r="T75" s="309"/>
+      <c r="U75" s="310"/>
     </row>
     <row r="76" spans="2:21" ht="20.25" customHeight="1">
       <c r="B76" s="218"/>
@@ -17480,10 +17527,10 @@
       <c r="N76" s="231"/>
       <c r="O76" s="216"/>
       <c r="P76" s="217"/>
-      <c r="R76" s="307"/>
-      <c r="S76" s="308"/>
-      <c r="T76" s="308"/>
-      <c r="U76" s="309"/>
+      <c r="R76" s="308"/>
+      <c r="S76" s="309"/>
+      <c r="T76" s="309"/>
+      <c r="U76" s="310"/>
     </row>
     <row r="77" spans="2:21" ht="20.25" customHeight="1">
       <c r="B77" s="218"/>
@@ -17501,10 +17548,10 @@
       <c r="N77" s="231"/>
       <c r="O77" s="216"/>
       <c r="P77" s="217"/>
-      <c r="R77" s="307"/>
-      <c r="S77" s="308"/>
-      <c r="T77" s="308"/>
-      <c r="U77" s="309"/>
+      <c r="R77" s="308"/>
+      <c r="S77" s="309"/>
+      <c r="T77" s="309"/>
+      <c r="U77" s="310"/>
     </row>
     <row r="78" spans="2:21" ht="20.25" customHeight="1">
       <c r="B78" s="218"/>
@@ -17522,10 +17569,10 @@
       <c r="N78" s="231"/>
       <c r="O78" s="216"/>
       <c r="P78" s="217"/>
-      <c r="R78" s="307"/>
-      <c r="S78" s="308"/>
-      <c r="T78" s="308"/>
-      <c r="U78" s="309"/>
+      <c r="R78" s="308"/>
+      <c r="S78" s="309"/>
+      <c r="T78" s="309"/>
+      <c r="U78" s="310"/>
     </row>
     <row r="79" spans="2:21" ht="20.25" customHeight="1">
       <c r="B79" s="218"/>
@@ -17543,10 +17590,10 @@
       <c r="N79" s="231"/>
       <c r="O79" s="216"/>
       <c r="P79" s="217"/>
-      <c r="R79" s="307"/>
-      <c r="S79" s="308"/>
-      <c r="T79" s="308"/>
-      <c r="U79" s="309"/>
+      <c r="R79" s="308"/>
+      <c r="S79" s="309"/>
+      <c r="T79" s="309"/>
+      <c r="U79" s="310"/>
     </row>
     <row r="80" spans="2:21" ht="20.25" customHeight="1">
       <c r="B80" s="218"/>
@@ -17564,10 +17611,10 @@
       <c r="N80" s="231"/>
       <c r="O80" s="216"/>
       <c r="P80" s="217"/>
-      <c r="R80" s="307"/>
-      <c r="S80" s="308"/>
-      <c r="T80" s="308"/>
-      <c r="U80" s="309"/>
+      <c r="R80" s="308"/>
+      <c r="S80" s="309"/>
+      <c r="T80" s="309"/>
+      <c r="U80" s="310"/>
     </row>
     <row r="81" spans="2:21" ht="20.25" customHeight="1">
       <c r="B81" s="218"/>
@@ -17585,10 +17632,10 @@
       <c r="N81" s="231"/>
       <c r="O81" s="216"/>
       <c r="P81" s="217"/>
-      <c r="R81" s="307"/>
-      <c r="S81" s="308"/>
-      <c r="T81" s="308"/>
-      <c r="U81" s="309"/>
+      <c r="R81" s="308"/>
+      <c r="S81" s="309"/>
+      <c r="T81" s="309"/>
+      <c r="U81" s="310"/>
     </row>
     <row r="82" spans="2:21" ht="20.25" customHeight="1">
       <c r="B82" s="218"/>
@@ -17606,10 +17653,10 @@
       <c r="N82" s="231"/>
       <c r="O82" s="216"/>
       <c r="P82" s="217"/>
-      <c r="R82" s="307"/>
-      <c r="S82" s="308"/>
-      <c r="T82" s="308"/>
-      <c r="U82" s="309"/>
+      <c r="R82" s="308"/>
+      <c r="S82" s="309"/>
+      <c r="T82" s="309"/>
+      <c r="U82" s="310"/>
     </row>
     <row r="83" spans="2:21" ht="20.25" customHeight="1">
       <c r="B83" s="218"/>
@@ -17627,10 +17674,10 @@
       <c r="N83" s="231"/>
       <c r="O83" s="216"/>
       <c r="P83" s="217"/>
-      <c r="R83" s="307"/>
-      <c r="S83" s="308"/>
-      <c r="T83" s="308"/>
-      <c r="U83" s="309"/>
+      <c r="R83" s="308"/>
+      <c r="S83" s="309"/>
+      <c r="T83" s="309"/>
+      <c r="U83" s="310"/>
     </row>
     <row r="84" spans="2:21" ht="20.25" customHeight="1">
       <c r="B84" s="218"/>
@@ -17648,10 +17695,10 @@
       <c r="N84" s="231"/>
       <c r="O84" s="216"/>
       <c r="P84" s="217"/>
-      <c r="R84" s="307"/>
-      <c r="S84" s="308"/>
-      <c r="T84" s="308"/>
-      <c r="U84" s="309"/>
+      <c r="R84" s="308"/>
+      <c r="S84" s="309"/>
+      <c r="T84" s="309"/>
+      <c r="U84" s="310"/>
     </row>
     <row r="85" spans="2:21" ht="20.25" customHeight="1">
       <c r="B85" s="218"/>
@@ -17669,10 +17716,10 @@
       <c r="N85" s="231"/>
       <c r="O85" s="216"/>
       <c r="P85" s="217"/>
-      <c r="R85" s="307"/>
-      <c r="S85" s="308"/>
-      <c r="T85" s="308"/>
-      <c r="U85" s="309"/>
+      <c r="R85" s="308"/>
+      <c r="S85" s="309"/>
+      <c r="T85" s="309"/>
+      <c r="U85" s="310"/>
     </row>
     <row r="86" spans="2:21" ht="20.25" customHeight="1">
       <c r="B86" s="218"/>
@@ -17690,10 +17737,10 @@
       <c r="N86" s="231"/>
       <c r="O86" s="216"/>
       <c r="P86" s="217"/>
-      <c r="R86" s="307"/>
-      <c r="S86" s="308"/>
-      <c r="T86" s="308"/>
-      <c r="U86" s="309"/>
+      <c r="R86" s="308"/>
+      <c r="S86" s="309"/>
+      <c r="T86" s="309"/>
+      <c r="U86" s="310"/>
     </row>
     <row r="87" spans="2:21" ht="20.25" customHeight="1">
       <c r="B87" s="218"/>
@@ -17711,10 +17758,10 @@
       <c r="N87" s="231"/>
       <c r="O87" s="216"/>
       <c r="P87" s="217"/>
-      <c r="R87" s="307"/>
-      <c r="S87" s="308"/>
-      <c r="T87" s="308"/>
-      <c r="U87" s="309"/>
+      <c r="R87" s="308"/>
+      <c r="S87" s="309"/>
+      <c r="T87" s="309"/>
+      <c r="U87" s="310"/>
     </row>
     <row r="88" spans="2:21" ht="20.25" customHeight="1">
       <c r="B88" s="218"/>
@@ -17732,10 +17779,10 @@
       <c r="N88" s="231"/>
       <c r="O88" s="216"/>
       <c r="P88" s="217"/>
-      <c r="R88" s="307"/>
-      <c r="S88" s="308"/>
-      <c r="T88" s="308"/>
-      <c r="U88" s="309"/>
+      <c r="R88" s="308"/>
+      <c r="S88" s="309"/>
+      <c r="T88" s="309"/>
+      <c r="U88" s="310"/>
     </row>
     <row r="89" spans="2:21" ht="20.25" customHeight="1">
       <c r="B89" s="218"/>
@@ -17753,10 +17800,10 @@
       <c r="N89" s="231"/>
       <c r="O89" s="216"/>
       <c r="P89" s="217"/>
-      <c r="R89" s="307"/>
-      <c r="S89" s="308"/>
-      <c r="T89" s="308"/>
-      <c r="U89" s="309"/>
+      <c r="R89" s="308"/>
+      <c r="S89" s="309"/>
+      <c r="T89" s="309"/>
+      <c r="U89" s="310"/>
     </row>
     <row r="90" spans="2:21" ht="20.25" customHeight="1">
       <c r="B90" s="218"/>
@@ -17774,10 +17821,10 @@
       <c r="N90" s="231"/>
       <c r="O90" s="216"/>
       <c r="P90" s="217"/>
-      <c r="R90" s="307"/>
-      <c r="S90" s="308"/>
-      <c r="T90" s="308"/>
-      <c r="U90" s="309"/>
+      <c r="R90" s="308"/>
+      <c r="S90" s="309"/>
+      <c r="T90" s="309"/>
+      <c r="U90" s="310"/>
     </row>
     <row r="91" spans="2:21" ht="20.25" customHeight="1">
       <c r="B91" s="218"/>
@@ -17795,10 +17842,10 @@
       <c r="N91" s="231"/>
       <c r="O91" s="216"/>
       <c r="P91" s="217"/>
-      <c r="R91" s="307"/>
-      <c r="S91" s="308"/>
-      <c r="T91" s="308"/>
-      <c r="U91" s="309"/>
+      <c r="R91" s="308"/>
+      <c r="S91" s="309"/>
+      <c r="T91" s="309"/>
+      <c r="U91" s="310"/>
     </row>
     <row r="92" spans="2:21" ht="20.25" customHeight="1">
       <c r="B92" s="218"/>
@@ -17816,10 +17863,10 @@
       <c r="N92" s="231"/>
       <c r="O92" s="216"/>
       <c r="P92" s="217"/>
-      <c r="R92" s="307"/>
-      <c r="S92" s="308"/>
-      <c r="T92" s="308"/>
-      <c r="U92" s="309"/>
+      <c r="R92" s="308"/>
+      <c r="S92" s="309"/>
+      <c r="T92" s="309"/>
+      <c r="U92" s="310"/>
     </row>
     <row r="93" spans="2:21" ht="20.25" customHeight="1">
       <c r="B93" s="218"/>
@@ -17837,10 +17884,10 @@
       <c r="N93" s="231"/>
       <c r="O93" s="216"/>
       <c r="P93" s="217"/>
-      <c r="R93" s="307"/>
-      <c r="S93" s="308"/>
-      <c r="T93" s="308"/>
-      <c r="U93" s="309"/>
+      <c r="R93" s="308"/>
+      <c r="S93" s="309"/>
+      <c r="T93" s="309"/>
+      <c r="U93" s="310"/>
     </row>
     <row r="94" spans="2:21" ht="20.25" customHeight="1">
       <c r="B94" s="218"/>
@@ -17858,10 +17905,10 @@
       <c r="N94" s="231"/>
       <c r="O94" s="216"/>
       <c r="P94" s="217"/>
-      <c r="R94" s="307"/>
-      <c r="S94" s="308"/>
-      <c r="T94" s="308"/>
-      <c r="U94" s="309"/>
+      <c r="R94" s="308"/>
+      <c r="S94" s="309"/>
+      <c r="T94" s="309"/>
+      <c r="U94" s="310"/>
     </row>
     <row r="95" spans="2:21" ht="20.25" customHeight="1">
       <c r="B95" s="218"/>
@@ -17879,10 +17926,10 @@
       <c r="N95" s="231"/>
       <c r="O95" s="216"/>
       <c r="P95" s="217"/>
-      <c r="R95" s="307"/>
-      <c r="S95" s="308"/>
-      <c r="T95" s="308"/>
-      <c r="U95" s="309"/>
+      <c r="R95" s="308"/>
+      <c r="S95" s="309"/>
+      <c r="T95" s="309"/>
+      <c r="U95" s="310"/>
     </row>
     <row r="96" spans="2:21" ht="20.25" customHeight="1">
       <c r="B96" s="218"/>
@@ -17900,10 +17947,10 @@
       <c r="N96" s="231"/>
       <c r="O96" s="216"/>
       <c r="P96" s="217"/>
-      <c r="R96" s="307"/>
-      <c r="S96" s="308"/>
-      <c r="T96" s="308"/>
-      <c r="U96" s="309"/>
+      <c r="R96" s="308"/>
+      <c r="S96" s="309"/>
+      <c r="T96" s="309"/>
+      <c r="U96" s="310"/>
     </row>
     <row r="97" spans="2:21" ht="20.25" customHeight="1">
       <c r="B97" s="218"/>
@@ -17921,10 +17968,10 @@
       <c r="N97" s="231"/>
       <c r="O97" s="216"/>
       <c r="P97" s="217"/>
-      <c r="R97" s="307"/>
-      <c r="S97" s="308"/>
-      <c r="T97" s="308"/>
-      <c r="U97" s="309"/>
+      <c r="R97" s="308"/>
+      <c r="S97" s="309"/>
+      <c r="T97" s="309"/>
+      <c r="U97" s="310"/>
     </row>
     <row r="98" spans="2:21" ht="20.25" customHeight="1">
       <c r="B98" s="218"/>
@@ -17942,10 +17989,10 @@
       <c r="N98" s="231"/>
       <c r="O98" s="216"/>
       <c r="P98" s="217"/>
-      <c r="R98" s="307"/>
-      <c r="S98" s="308"/>
-      <c r="T98" s="308"/>
-      <c r="U98" s="309"/>
+      <c r="R98" s="308"/>
+      <c r="S98" s="309"/>
+      <c r="T98" s="309"/>
+      <c r="U98" s="310"/>
     </row>
     <row r="99" spans="2:21" ht="20.25" customHeight="1">
       <c r="B99" s="218"/>
@@ -17963,10 +18010,10 @@
       <c r="N99" s="231"/>
       <c r="O99" s="216"/>
       <c r="P99" s="217"/>
-      <c r="R99" s="307"/>
-      <c r="S99" s="308"/>
-      <c r="T99" s="308"/>
-      <c r="U99" s="309"/>
+      <c r="R99" s="308"/>
+      <c r="S99" s="309"/>
+      <c r="T99" s="309"/>
+      <c r="U99" s="310"/>
     </row>
     <row r="100" spans="2:21" ht="20.25" customHeight="1">
       <c r="B100" s="218"/>
@@ -17984,10 +18031,10 @@
       <c r="N100" s="231"/>
       <c r="O100" s="216"/>
       <c r="P100" s="217"/>
-      <c r="R100" s="307"/>
-      <c r="S100" s="308"/>
-      <c r="T100" s="308"/>
-      <c r="U100" s="309"/>
+      <c r="R100" s="308"/>
+      <c r="S100" s="309"/>
+      <c r="T100" s="309"/>
+      <c r="U100" s="310"/>
     </row>
     <row r="101" spans="2:21" ht="20.25" customHeight="1">
       <c r="B101" s="218"/>
@@ -18005,10 +18052,10 @@
       <c r="N101" s="231"/>
       <c r="O101" s="216"/>
       <c r="P101" s="217"/>
-      <c r="R101" s="307"/>
-      <c r="S101" s="308"/>
-      <c r="T101" s="308"/>
-      <c r="U101" s="309"/>
+      <c r="R101" s="308"/>
+      <c r="S101" s="309"/>
+      <c r="T101" s="309"/>
+      <c r="U101" s="310"/>
     </row>
     <row r="102" spans="2:21" ht="20.25" customHeight="1">
       <c r="B102" s="218"/>
@@ -18026,10 +18073,10 @@
       <c r="N102" s="231"/>
       <c r="O102" s="216"/>
       <c r="P102" s="217"/>
-      <c r="R102" s="307"/>
-      <c r="S102" s="308"/>
-      <c r="T102" s="308"/>
-      <c r="U102" s="309"/>
+      <c r="R102" s="308"/>
+      <c r="S102" s="309"/>
+      <c r="T102" s="309"/>
+      <c r="U102" s="310"/>
     </row>
     <row r="103" spans="2:21" ht="20.25" customHeight="1">
       <c r="B103" s="218"/>
@@ -18047,10 +18094,10 @@
       <c r="N103" s="231"/>
       <c r="O103" s="216"/>
       <c r="P103" s="217"/>
-      <c r="R103" s="307"/>
-      <c r="S103" s="308"/>
-      <c r="T103" s="308"/>
-      <c r="U103" s="309"/>
+      <c r="R103" s="308"/>
+      <c r="S103" s="309"/>
+      <c r="T103" s="309"/>
+      <c r="U103" s="310"/>
     </row>
     <row r="104" spans="2:21" ht="20.25" customHeight="1">
       <c r="B104" s="218"/>
@@ -18068,10 +18115,10 @@
       <c r="N104" s="231"/>
       <c r="O104" s="216"/>
       <c r="P104" s="217"/>
-      <c r="R104" s="307"/>
-      <c r="S104" s="308"/>
-      <c r="T104" s="308"/>
-      <c r="U104" s="309"/>
+      <c r="R104" s="308"/>
+      <c r="S104" s="309"/>
+      <c r="T104" s="309"/>
+      <c r="U104" s="310"/>
     </row>
     <row r="105" spans="2:21" ht="20.25" customHeight="1">
       <c r="B105" s="218"/>
@@ -18089,10 +18136,10 @@
       <c r="N105" s="231"/>
       <c r="O105" s="216"/>
       <c r="P105" s="217"/>
-      <c r="R105" s="307"/>
-      <c r="S105" s="308"/>
-      <c r="T105" s="308"/>
-      <c r="U105" s="309"/>
+      <c r="R105" s="308"/>
+      <c r="S105" s="309"/>
+      <c r="T105" s="309"/>
+      <c r="U105" s="310"/>
     </row>
     <row r="106" spans="2:21" ht="20.25" customHeight="1">
       <c r="B106" s="218"/>
@@ -18110,10 +18157,10 @@
       <c r="N106" s="231"/>
       <c r="O106" s="216"/>
       <c r="P106" s="217"/>
-      <c r="R106" s="307"/>
-      <c r="S106" s="308"/>
-      <c r="T106" s="308"/>
-      <c r="U106" s="309"/>
+      <c r="R106" s="308"/>
+      <c r="S106" s="309"/>
+      <c r="T106" s="309"/>
+      <c r="U106" s="310"/>
     </row>
     <row r="107" spans="2:21" ht="20.25" customHeight="1">
       <c r="B107" s="218"/>
@@ -18131,10 +18178,10 @@
       <c r="N107" s="231"/>
       <c r="O107" s="216"/>
       <c r="P107" s="217"/>
-      <c r="R107" s="307"/>
-      <c r="S107" s="308"/>
-      <c r="T107" s="308"/>
-      <c r="U107" s="309"/>
+      <c r="R107" s="308"/>
+      <c r="S107" s="309"/>
+      <c r="T107" s="309"/>
+      <c r="U107" s="310"/>
     </row>
     <row r="108" spans="2:21" ht="20.25" customHeight="1">
       <c r="B108" s="218"/>
@@ -18152,10 +18199,10 @@
       <c r="N108" s="231"/>
       <c r="O108" s="216"/>
       <c r="P108" s="217"/>
-      <c r="R108" s="307"/>
-      <c r="S108" s="308"/>
-      <c r="T108" s="308"/>
-      <c r="U108" s="309"/>
+      <c r="R108" s="308"/>
+      <c r="S108" s="309"/>
+      <c r="T108" s="309"/>
+      <c r="U108" s="310"/>
     </row>
     <row r="109" spans="2:21" ht="20.25" customHeight="1">
       <c r="B109" s="218"/>
@@ -18173,10 +18220,10 @@
       <c r="N109" s="231"/>
       <c r="O109" s="216"/>
       <c r="P109" s="217"/>
-      <c r="R109" s="307"/>
-      <c r="S109" s="308"/>
-      <c r="T109" s="308"/>
-      <c r="U109" s="309"/>
+      <c r="R109" s="308"/>
+      <c r="S109" s="309"/>
+      <c r="T109" s="309"/>
+      <c r="U109" s="310"/>
     </row>
     <row r="110" spans="2:21" ht="20.25" customHeight="1">
       <c r="B110" s="218"/>
@@ -18194,10 +18241,10 @@
       <c r="N110" s="231"/>
       <c r="O110" s="216"/>
       <c r="P110" s="217"/>
-      <c r="R110" s="307"/>
-      <c r="S110" s="308"/>
-      <c r="T110" s="308"/>
-      <c r="U110" s="309"/>
+      <c r="R110" s="308"/>
+      <c r="S110" s="309"/>
+      <c r="T110" s="309"/>
+      <c r="U110" s="310"/>
     </row>
     <row r="111" spans="2:21" ht="20.25" customHeight="1">
       <c r="B111" s="218"/>
@@ -18215,10 +18262,10 @@
       <c r="N111" s="231"/>
       <c r="O111" s="216"/>
       <c r="P111" s="217"/>
-      <c r="R111" s="307"/>
-      <c r="S111" s="308"/>
-      <c r="T111" s="308"/>
-      <c r="U111" s="309"/>
+      <c r="R111" s="308"/>
+      <c r="S111" s="309"/>
+      <c r="T111" s="309"/>
+      <c r="U111" s="310"/>
     </row>
     <row r="112" spans="2:21" ht="20.25" customHeight="1">
       <c r="B112" s="218"/>
@@ -18236,10 +18283,10 @@
       <c r="N112" s="231"/>
       <c r="O112" s="216"/>
       <c r="P112" s="217"/>
-      <c r="R112" s="307"/>
-      <c r="S112" s="308"/>
-      <c r="T112" s="308"/>
-      <c r="U112" s="309"/>
+      <c r="R112" s="308"/>
+      <c r="S112" s="309"/>
+      <c r="T112" s="309"/>
+      <c r="U112" s="310"/>
     </row>
     <row r="113" spans="2:21" ht="20.25" customHeight="1">
       <c r="B113" s="218"/>
@@ -18257,10 +18304,10 @@
       <c r="N113" s="231"/>
       <c r="O113" s="216"/>
       <c r="P113" s="217"/>
-      <c r="R113" s="307"/>
-      <c r="S113" s="308"/>
-      <c r="T113" s="308"/>
-      <c r="U113" s="309"/>
+      <c r="R113" s="308"/>
+      <c r="S113" s="309"/>
+      <c r="T113" s="309"/>
+      <c r="U113" s="310"/>
     </row>
     <row r="114" spans="2:21" ht="20.25" customHeight="1">
       <c r="B114" s="218"/>
@@ -18278,10 +18325,10 @@
       <c r="N114" s="231"/>
       <c r="O114" s="216"/>
       <c r="P114" s="217"/>
-      <c r="R114" s="307"/>
-      <c r="S114" s="308"/>
-      <c r="T114" s="308"/>
-      <c r="U114" s="309"/>
+      <c r="R114" s="308"/>
+      <c r="S114" s="309"/>
+      <c r="T114" s="309"/>
+      <c r="U114" s="310"/>
     </row>
     <row r="115" spans="2:21" ht="20.25" customHeight="1">
       <c r="B115" s="218"/>
@@ -18299,10 +18346,10 @@
       <c r="N115" s="231"/>
       <c r="O115" s="216"/>
       <c r="P115" s="217"/>
-      <c r="R115" s="307"/>
-      <c r="S115" s="308"/>
-      <c r="T115" s="308"/>
-      <c r="U115" s="309"/>
+      <c r="R115" s="308"/>
+      <c r="S115" s="309"/>
+      <c r="T115" s="309"/>
+      <c r="U115" s="310"/>
     </row>
     <row r="116" spans="2:21" ht="20.25" customHeight="1">
       <c r="B116" s="218"/>
@@ -18320,10 +18367,10 @@
       <c r="N116" s="231"/>
       <c r="O116" s="216"/>
       <c r="P116" s="217"/>
-      <c r="R116" s="307"/>
-      <c r="S116" s="308"/>
-      <c r="T116" s="308"/>
-      <c r="U116" s="309"/>
+      <c r="R116" s="308"/>
+      <c r="S116" s="309"/>
+      <c r="T116" s="309"/>
+      <c r="U116" s="310"/>
     </row>
     <row r="117" spans="2:21" ht="20.25" customHeight="1">
       <c r="B117" s="218"/>
@@ -18341,10 +18388,10 @@
       <c r="N117" s="231"/>
       <c r="O117" s="216"/>
       <c r="P117" s="217"/>
-      <c r="R117" s="307"/>
-      <c r="S117" s="308"/>
-      <c r="T117" s="308"/>
-      <c r="U117" s="309"/>
+      <c r="R117" s="308"/>
+      <c r="S117" s="309"/>
+      <c r="T117" s="309"/>
+      <c r="U117" s="310"/>
     </row>
     <row r="118" spans="2:21" ht="20.25" customHeight="1">
       <c r="B118" s="218"/>
@@ -18362,10 +18409,10 @@
       <c r="N118" s="231"/>
       <c r="O118" s="216"/>
       <c r="P118" s="217"/>
-      <c r="R118" s="307"/>
-      <c r="S118" s="308"/>
-      <c r="T118" s="308"/>
-      <c r="U118" s="309"/>
+      <c r="R118" s="308"/>
+      <c r="S118" s="309"/>
+      <c r="T118" s="309"/>
+      <c r="U118" s="310"/>
     </row>
     <row r="119" spans="2:21" ht="20.25" customHeight="1">
       <c r="B119" s="218"/>
@@ -18383,10 +18430,10 @@
       <c r="N119" s="231"/>
       <c r="O119" s="216"/>
       <c r="P119" s="217"/>
-      <c r="R119" s="307"/>
-      <c r="S119" s="308"/>
-      <c r="T119" s="308"/>
-      <c r="U119" s="309"/>
+      <c r="R119" s="308"/>
+      <c r="S119" s="309"/>
+      <c r="T119" s="309"/>
+      <c r="U119" s="310"/>
     </row>
     <row r="120" spans="2:21" ht="20.25" customHeight="1">
       <c r="B120" s="218"/>
@@ -18404,10 +18451,10 @@
       <c r="N120" s="231"/>
       <c r="O120" s="216"/>
       <c r="P120" s="217"/>
-      <c r="R120" s="307"/>
-      <c r="S120" s="308"/>
-      <c r="T120" s="308"/>
-      <c r="U120" s="309"/>
+      <c r="R120" s="308"/>
+      <c r="S120" s="309"/>
+      <c r="T120" s="309"/>
+      <c r="U120" s="310"/>
     </row>
     <row r="121" spans="2:21" ht="20.25" customHeight="1">
       <c r="B121" s="218"/>
@@ -18425,10 +18472,10 @@
       <c r="N121" s="231"/>
       <c r="O121" s="216"/>
       <c r="P121" s="217"/>
-      <c r="R121" s="307"/>
-      <c r="S121" s="308"/>
-      <c r="T121" s="308"/>
-      <c r="U121" s="309"/>
+      <c r="R121" s="308"/>
+      <c r="S121" s="309"/>
+      <c r="T121" s="309"/>
+      <c r="U121" s="310"/>
     </row>
     <row r="122" spans="2:21" ht="20.25" customHeight="1">
       <c r="B122" s="218"/>
@@ -18446,10 +18493,10 @@
       <c r="N122" s="231"/>
       <c r="O122" s="216"/>
       <c r="P122" s="217"/>
-      <c r="R122" s="307"/>
-      <c r="S122" s="308"/>
-      <c r="T122" s="308"/>
-      <c r="U122" s="309"/>
+      <c r="R122" s="308"/>
+      <c r="S122" s="309"/>
+      <c r="T122" s="309"/>
+      <c r="U122" s="310"/>
     </row>
     <row r="123" spans="2:21" ht="20.25" customHeight="1">
       <c r="B123" s="218"/>
@@ -18467,10 +18514,10 @@
       <c r="N123" s="231"/>
       <c r="O123" s="216"/>
       <c r="P123" s="217"/>
-      <c r="R123" s="307"/>
-      <c r="S123" s="308"/>
-      <c r="T123" s="308"/>
-      <c r="U123" s="309"/>
+      <c r="R123" s="308"/>
+      <c r="S123" s="309"/>
+      <c r="T123" s="309"/>
+      <c r="U123" s="310"/>
     </row>
     <row r="124" spans="2:21" ht="20.25" customHeight="1">
       <c r="B124" s="218"/>
@@ -18488,10 +18535,10 @@
       <c r="N124" s="231"/>
       <c r="O124" s="216"/>
       <c r="P124" s="217"/>
-      <c r="R124" s="307"/>
-      <c r="S124" s="308"/>
-      <c r="T124" s="308"/>
-      <c r="U124" s="309"/>
+      <c r="R124" s="308"/>
+      <c r="S124" s="309"/>
+      <c r="T124" s="309"/>
+      <c r="U124" s="310"/>
     </row>
     <row r="125" spans="2:21" ht="20.25" customHeight="1">
       <c r="B125" s="218"/>
@@ -18509,10 +18556,10 @@
       <c r="N125" s="231"/>
       <c r="O125" s="216"/>
       <c r="P125" s="217"/>
-      <c r="R125" s="307"/>
-      <c r="S125" s="308"/>
-      <c r="T125" s="308"/>
-      <c r="U125" s="309"/>
+      <c r="R125" s="308"/>
+      <c r="S125" s="309"/>
+      <c r="T125" s="309"/>
+      <c r="U125" s="310"/>
     </row>
     <row r="126" spans="2:21" ht="20.25" customHeight="1">
       <c r="B126" s="218"/>
@@ -18530,10 +18577,10 @@
       <c r="N126" s="231"/>
       <c r="O126" s="216"/>
       <c r="P126" s="217"/>
-      <c r="R126" s="307"/>
-      <c r="S126" s="308"/>
-      <c r="T126" s="308"/>
-      <c r="U126" s="309"/>
+      <c r="R126" s="308"/>
+      <c r="S126" s="309"/>
+      <c r="T126" s="309"/>
+      <c r="U126" s="310"/>
     </row>
     <row r="127" spans="2:21" ht="20.25" customHeight="1">
       <c r="B127" s="218"/>
@@ -18551,10 +18598,10 @@
       <c r="N127" s="231"/>
       <c r="O127" s="216"/>
       <c r="P127" s="217"/>
-      <c r="R127" s="307"/>
-      <c r="S127" s="308"/>
-      <c r="T127" s="308"/>
-      <c r="U127" s="309"/>
+      <c r="R127" s="308"/>
+      <c r="S127" s="309"/>
+      <c r="T127" s="309"/>
+      <c r="U127" s="310"/>
     </row>
     <row r="128" spans="2:21" ht="20.25" customHeight="1">
       <c r="B128" s="218"/>
@@ -18572,10 +18619,10 @@
       <c r="N128" s="231"/>
       <c r="O128" s="216"/>
       <c r="P128" s="217"/>
-      <c r="R128" s="307"/>
-      <c r="S128" s="308"/>
-      <c r="T128" s="308"/>
-      <c r="U128" s="309"/>
+      <c r="R128" s="308"/>
+      <c r="S128" s="309"/>
+      <c r="T128" s="309"/>
+      <c r="U128" s="310"/>
     </row>
     <row r="129" spans="2:21" ht="20.25" customHeight="1">
       <c r="B129" s="218"/>
@@ -18593,10 +18640,10 @@
       <c r="N129" s="231"/>
       <c r="O129" s="216"/>
       <c r="P129" s="217"/>
-      <c r="R129" s="307"/>
-      <c r="S129" s="308"/>
-      <c r="T129" s="308"/>
-      <c r="U129" s="309"/>
+      <c r="R129" s="308"/>
+      <c r="S129" s="309"/>
+      <c r="T129" s="309"/>
+      <c r="U129" s="310"/>
     </row>
     <row r="130" spans="2:21" ht="20.25" customHeight="1">
       <c r="B130" s="218"/>
@@ -18614,10 +18661,10 @@
       <c r="N130" s="231"/>
       <c r="O130" s="216"/>
       <c r="P130" s="217"/>
-      <c r="R130" s="307"/>
-      <c r="S130" s="308"/>
-      <c r="T130" s="308"/>
-      <c r="U130" s="309"/>
+      <c r="R130" s="308"/>
+      <c r="S130" s="309"/>
+      <c r="T130" s="309"/>
+      <c r="U130" s="310"/>
     </row>
     <row r="131" spans="2:21" ht="20.25" customHeight="1">
       <c r="B131" s="218"/>
@@ -18635,10 +18682,10 @@
       <c r="N131" s="231"/>
       <c r="O131" s="216"/>
       <c r="P131" s="217"/>
-      <c r="R131" s="307"/>
-      <c r="S131" s="308"/>
-      <c r="T131" s="308"/>
-      <c r="U131" s="309"/>
+      <c r="R131" s="308"/>
+      <c r="S131" s="309"/>
+      <c r="T131" s="309"/>
+      <c r="U131" s="310"/>
     </row>
     <row r="132" spans="2:21" ht="20.25" customHeight="1">
       <c r="B132" s="218"/>
@@ -18656,10 +18703,10 @@
       <c r="N132" s="231"/>
       <c r="O132" s="216"/>
       <c r="P132" s="217"/>
-      <c r="R132" s="307"/>
-      <c r="S132" s="308"/>
-      <c r="T132" s="308"/>
-      <c r="U132" s="309"/>
+      <c r="R132" s="308"/>
+      <c r="S132" s="309"/>
+      <c r="T132" s="309"/>
+      <c r="U132" s="310"/>
     </row>
     <row r="133" spans="2:21" ht="20.25" customHeight="1">
       <c r="B133" s="218"/>
@@ -18677,10 +18724,10 @@
       <c r="N133" s="231"/>
       <c r="O133" s="216"/>
       <c r="P133" s="217"/>
-      <c r="R133" s="307"/>
-      <c r="S133" s="308"/>
-      <c r="T133" s="308"/>
-      <c r="U133" s="309"/>
+      <c r="R133" s="308"/>
+      <c r="S133" s="309"/>
+      <c r="T133" s="309"/>
+      <c r="U133" s="310"/>
     </row>
     <row r="134" spans="2:21" ht="20.25" customHeight="1">
       <c r="B134" s="218"/>
@@ -18698,10 +18745,10 @@
       <c r="N134" s="231"/>
       <c r="O134" s="216"/>
       <c r="P134" s="217"/>
-      <c r="R134" s="307"/>
-      <c r="S134" s="308"/>
-      <c r="T134" s="308"/>
-      <c r="U134" s="309"/>
+      <c r="R134" s="308"/>
+      <c r="S134" s="309"/>
+      <c r="T134" s="309"/>
+      <c r="U134" s="310"/>
     </row>
     <row r="135" spans="2:21" ht="20.25" customHeight="1">
       <c r="B135" s="218"/>
@@ -18719,10 +18766,10 @@
       <c r="N135" s="231"/>
       <c r="O135" s="216"/>
       <c r="P135" s="217"/>
-      <c r="R135" s="307"/>
-      <c r="S135" s="308"/>
-      <c r="T135" s="308"/>
-      <c r="U135" s="309"/>
+      <c r="R135" s="308"/>
+      <c r="S135" s="309"/>
+      <c r="T135" s="309"/>
+      <c r="U135" s="310"/>
     </row>
     <row r="136" spans="2:21" ht="20.25" customHeight="1">
       <c r="B136" s="218"/>
@@ -18740,10 +18787,10 @@
       <c r="N136" s="231"/>
       <c r="O136" s="216"/>
       <c r="P136" s="217"/>
-      <c r="R136" s="307"/>
-      <c r="S136" s="308"/>
-      <c r="T136" s="308"/>
-      <c r="U136" s="309"/>
+      <c r="R136" s="308"/>
+      <c r="S136" s="309"/>
+      <c r="T136" s="309"/>
+      <c r="U136" s="310"/>
     </row>
     <row r="137" spans="2:21" ht="20.25" customHeight="1">
       <c r="B137" s="218"/>
@@ -18761,10 +18808,10 @@
       <c r="N137" s="231"/>
       <c r="O137" s="216"/>
       <c r="P137" s="217"/>
-      <c r="R137" s="307"/>
-      <c r="S137" s="308"/>
-      <c r="T137" s="308"/>
-      <c r="U137" s="309"/>
+      <c r="R137" s="308"/>
+      <c r="S137" s="309"/>
+      <c r="T137" s="309"/>
+      <c r="U137" s="310"/>
     </row>
     <row r="138" spans="2:21" ht="20.25" customHeight="1">
       <c r="B138" s="218"/>
@@ -18782,10 +18829,10 @@
       <c r="N138" s="231"/>
       <c r="O138" s="216"/>
       <c r="P138" s="217"/>
-      <c r="R138" s="307"/>
-      <c r="S138" s="308"/>
-      <c r="T138" s="308"/>
-      <c r="U138" s="309"/>
+      <c r="R138" s="308"/>
+      <c r="S138" s="309"/>
+      <c r="T138" s="309"/>
+      <c r="U138" s="310"/>
     </row>
     <row r="139" spans="2:21" ht="20.25" customHeight="1">
       <c r="B139" s="218"/>
@@ -18803,10 +18850,10 @@
       <c r="N139" s="231"/>
       <c r="O139" s="216"/>
       <c r="P139" s="217"/>
-      <c r="R139" s="307"/>
-      <c r="S139" s="308"/>
-      <c r="T139" s="308"/>
-      <c r="U139" s="309"/>
+      <c r="R139" s="308"/>
+      <c r="S139" s="309"/>
+      <c r="T139" s="309"/>
+      <c r="U139" s="310"/>
     </row>
     <row r="140" spans="2:21" ht="20.25" customHeight="1">
       <c r="B140" s="218"/>
@@ -18824,10 +18871,10 @@
       <c r="N140" s="231"/>
       <c r="O140" s="216"/>
       <c r="P140" s="217"/>
-      <c r="R140" s="307"/>
-      <c r="S140" s="308"/>
-      <c r="T140" s="308"/>
-      <c r="U140" s="309"/>
+      <c r="R140" s="308"/>
+      <c r="S140" s="309"/>
+      <c r="T140" s="309"/>
+      <c r="U140" s="310"/>
     </row>
     <row r="141" spans="2:21" ht="20.25" customHeight="1">
       <c r="B141" s="218"/>
@@ -18845,10 +18892,10 @@
       <c r="N141" s="231"/>
       <c r="O141" s="216"/>
       <c r="P141" s="217"/>
-      <c r="R141" s="307"/>
-      <c r="S141" s="308"/>
-      <c r="T141" s="308"/>
-      <c r="U141" s="309"/>
+      <c r="R141" s="308"/>
+      <c r="S141" s="309"/>
+      <c r="T141" s="309"/>
+      <c r="U141" s="310"/>
     </row>
     <row r="142" spans="2:21" ht="20.25" customHeight="1">
       <c r="B142" s="218"/>
@@ -18866,10 +18913,10 @@
       <c r="N142" s="231"/>
       <c r="O142" s="216"/>
       <c r="P142" s="217"/>
-      <c r="R142" s="307"/>
-      <c r="S142" s="308"/>
-      <c r="T142" s="308"/>
-      <c r="U142" s="309"/>
+      <c r="R142" s="308"/>
+      <c r="S142" s="309"/>
+      <c r="T142" s="309"/>
+      <c r="U142" s="310"/>
     </row>
     <row r="143" spans="2:21" ht="20.25" customHeight="1">
       <c r="B143" s="218"/>
@@ -18887,10 +18934,10 @@
       <c r="N143" s="231"/>
       <c r="O143" s="216"/>
       <c r="P143" s="217"/>
-      <c r="R143" s="307"/>
-      <c r="S143" s="308"/>
-      <c r="T143" s="308"/>
-      <c r="U143" s="309"/>
+      <c r="R143" s="308"/>
+      <c r="S143" s="309"/>
+      <c r="T143" s="309"/>
+      <c r="U143" s="310"/>
     </row>
     <row r="144" spans="2:21" ht="20.25" customHeight="1">
       <c r="B144" s="218"/>
@@ -18908,10 +18955,10 @@
       <c r="N144" s="231"/>
       <c r="O144" s="216"/>
       <c r="P144" s="217"/>
-      <c r="R144" s="307"/>
-      <c r="S144" s="308"/>
-      <c r="T144" s="308"/>
-      <c r="U144" s="309"/>
+      <c r="R144" s="308"/>
+      <c r="S144" s="309"/>
+      <c r="T144" s="309"/>
+      <c r="U144" s="310"/>
     </row>
     <row r="145" spans="2:21" ht="20.25" customHeight="1">
       <c r="B145" s="218"/>
@@ -18929,10 +18976,10 @@
       <c r="N145" s="231"/>
       <c r="O145" s="216"/>
       <c r="P145" s="217"/>
-      <c r="R145" s="307"/>
-      <c r="S145" s="308"/>
-      <c r="T145" s="308"/>
-      <c r="U145" s="309"/>
+      <c r="R145" s="308"/>
+      <c r="S145" s="309"/>
+      <c r="T145" s="309"/>
+      <c r="U145" s="310"/>
     </row>
     <row r="146" spans="2:21" ht="20.25" customHeight="1">
       <c r="B146" s="218"/>
@@ -18950,10 +18997,10 @@
       <c r="N146" s="231"/>
       <c r="O146" s="216"/>
       <c r="P146" s="217"/>
-      <c r="R146" s="307"/>
-      <c r="S146" s="308"/>
-      <c r="T146" s="308"/>
-      <c r="U146" s="309"/>
+      <c r="R146" s="308"/>
+      <c r="S146" s="309"/>
+      <c r="T146" s="309"/>
+      <c r="U146" s="310"/>
     </row>
     <row r="147" spans="2:21" ht="20.25" customHeight="1">
       <c r="B147" s="218"/>
@@ -18971,10 +19018,10 @@
       <c r="N147" s="231"/>
       <c r="O147" s="216"/>
       <c r="P147" s="217"/>
-      <c r="R147" s="307"/>
-      <c r="S147" s="308"/>
-      <c r="T147" s="308"/>
-      <c r="U147" s="309"/>
+      <c r="R147" s="308"/>
+      <c r="S147" s="309"/>
+      <c r="T147" s="309"/>
+      <c r="U147" s="310"/>
     </row>
     <row r="148" spans="2:21" ht="20.25" customHeight="1">
       <c r="B148" s="218"/>
@@ -18992,10 +19039,10 @@
       <c r="N148" s="231"/>
       <c r="O148" s="216"/>
       <c r="P148" s="217"/>
-      <c r="R148" s="307"/>
-      <c r="S148" s="308"/>
-      <c r="T148" s="308"/>
-      <c r="U148" s="309"/>
+      <c r="R148" s="308"/>
+      <c r="S148" s="309"/>
+      <c r="T148" s="309"/>
+      <c r="U148" s="310"/>
     </row>
     <row r="149" spans="2:21" ht="20.25" customHeight="1">
       <c r="B149" s="218"/>
@@ -19013,10 +19060,10 @@
       <c r="N149" s="231"/>
       <c r="O149" s="216"/>
       <c r="P149" s="217"/>
-      <c r="R149" s="307"/>
-      <c r="S149" s="308"/>
-      <c r="T149" s="308"/>
-      <c r="U149" s="309"/>
+      <c r="R149" s="308"/>
+      <c r="S149" s="309"/>
+      <c r="T149" s="309"/>
+      <c r="U149" s="310"/>
     </row>
     <row r="150" spans="2:21" ht="20.25" customHeight="1">
       <c r="B150" s="218"/>
@@ -19034,10 +19081,10 @@
       <c r="N150" s="231"/>
       <c r="O150" s="216"/>
       <c r="P150" s="217"/>
-      <c r="R150" s="307"/>
-      <c r="S150" s="308"/>
-      <c r="T150" s="308"/>
-      <c r="U150" s="309"/>
+      <c r="R150" s="308"/>
+      <c r="S150" s="309"/>
+      <c r="T150" s="309"/>
+      <c r="U150" s="310"/>
     </row>
     <row r="151" spans="2:21" ht="20.25" customHeight="1">
       <c r="B151" s="218"/>
@@ -19055,10 +19102,10 @@
       <c r="N151" s="231"/>
       <c r="O151" s="216"/>
       <c r="P151" s="217"/>
-      <c r="R151" s="307"/>
-      <c r="S151" s="308"/>
-      <c r="T151" s="308"/>
-      <c r="U151" s="309"/>
+      <c r="R151" s="308"/>
+      <c r="S151" s="309"/>
+      <c r="T151" s="309"/>
+      <c r="U151" s="310"/>
     </row>
     <row r="152" spans="2:21" ht="20.25" customHeight="1">
       <c r="B152" s="218"/>
@@ -19076,10 +19123,10 @@
       <c r="N152" s="231"/>
       <c r="O152" s="216"/>
       <c r="P152" s="217"/>
-      <c r="R152" s="307"/>
-      <c r="S152" s="308"/>
-      <c r="T152" s="308"/>
-      <c r="U152" s="309"/>
+      <c r="R152" s="308"/>
+      <c r="S152" s="309"/>
+      <c r="T152" s="309"/>
+      <c r="U152" s="310"/>
     </row>
     <row r="153" spans="2:21" ht="20.25" customHeight="1">
       <c r="B153" s="218"/>
@@ -19097,10 +19144,10 @@
       <c r="N153" s="231"/>
       <c r="O153" s="216"/>
       <c r="P153" s="217"/>
-      <c r="R153" s="307"/>
-      <c r="S153" s="308"/>
-      <c r="T153" s="308"/>
-      <c r="U153" s="309"/>
+      <c r="R153" s="308"/>
+      <c r="S153" s="309"/>
+      <c r="T153" s="309"/>
+      <c r="U153" s="310"/>
     </row>
     <row r="154" spans="2:21" ht="20.25" customHeight="1">
       <c r="B154" s="218"/>
@@ -19118,10 +19165,10 @@
       <c r="N154" s="231"/>
       <c r="O154" s="216"/>
       <c r="P154" s="217"/>
-      <c r="R154" s="307"/>
-      <c r="S154" s="308"/>
-      <c r="T154" s="308"/>
-      <c r="U154" s="309"/>
+      <c r="R154" s="308"/>
+      <c r="S154" s="309"/>
+      <c r="T154" s="309"/>
+      <c r="U154" s="310"/>
     </row>
     <row r="155" spans="2:21" ht="20.25" customHeight="1">
       <c r="B155" s="218"/>
@@ -19139,10 +19186,10 @@
       <c r="N155" s="231"/>
       <c r="O155" s="216"/>
       <c r="P155" s="217"/>
-      <c r="R155" s="307"/>
-      <c r="S155" s="308"/>
-      <c r="T155" s="308"/>
-      <c r="U155" s="309"/>
+      <c r="R155" s="308"/>
+      <c r="S155" s="309"/>
+      <c r="T155" s="309"/>
+      <c r="U155" s="310"/>
     </row>
     <row r="156" spans="2:21" ht="20.25" customHeight="1">
       <c r="B156" s="218"/>
@@ -19160,10 +19207,10 @@
       <c r="N156" s="231"/>
       <c r="O156" s="216"/>
       <c r="P156" s="217"/>
-      <c r="R156" s="307"/>
-      <c r="S156" s="308"/>
-      <c r="T156" s="308"/>
-      <c r="U156" s="309"/>
+      <c r="R156" s="308"/>
+      <c r="S156" s="309"/>
+      <c r="T156" s="309"/>
+      <c r="U156" s="310"/>
     </row>
     <row r="157" spans="2:21" ht="20.25" customHeight="1">
       <c r="B157" s="218"/>
@@ -19181,10 +19228,10 @@
       <c r="N157" s="231"/>
       <c r="O157" s="216"/>
       <c r="P157" s="217"/>
-      <c r="R157" s="307"/>
-      <c r="S157" s="308"/>
-      <c r="T157" s="308"/>
-      <c r="U157" s="309"/>
+      <c r="R157" s="308"/>
+      <c r="S157" s="309"/>
+      <c r="T157" s="309"/>
+      <c r="U157" s="310"/>
     </row>
     <row r="158" spans="2:21" ht="20.25" customHeight="1">
       <c r="B158" s="218"/>
@@ -19202,10 +19249,10 @@
       <c r="N158" s="231"/>
       <c r="O158" s="216"/>
       <c r="P158" s="217"/>
-      <c r="R158" s="307"/>
-      <c r="S158" s="308"/>
-      <c r="T158" s="308"/>
-      <c r="U158" s="309"/>
+      <c r="R158" s="308"/>
+      <c r="S158" s="309"/>
+      <c r="T158" s="309"/>
+      <c r="U158" s="310"/>
     </row>
     <row r="159" spans="2:21" ht="20.25" customHeight="1">
       <c r="B159" s="218"/>
@@ -19223,10 +19270,10 @@
       <c r="N159" s="231"/>
       <c r="O159" s="216"/>
       <c r="P159" s="217"/>
-      <c r="R159" s="307"/>
-      <c r="S159" s="308"/>
-      <c r="T159" s="308"/>
-      <c r="U159" s="309"/>
+      <c r="R159" s="308"/>
+      <c r="S159" s="309"/>
+      <c r="T159" s="309"/>
+      <c r="U159" s="310"/>
     </row>
     <row r="160" spans="2:21" ht="20.25" customHeight="1">
       <c r="B160" s="218"/>
@@ -19244,10 +19291,10 @@
       <c r="N160" s="231"/>
       <c r="O160" s="216"/>
       <c r="P160" s="217"/>
-      <c r="R160" s="307"/>
-      <c r="S160" s="308"/>
-      <c r="T160" s="308"/>
-      <c r="U160" s="309"/>
+      <c r="R160" s="308"/>
+      <c r="S160" s="309"/>
+      <c r="T160" s="309"/>
+      <c r="U160" s="310"/>
     </row>
     <row r="161" spans="2:21" ht="20.25" customHeight="1">
       <c r="B161" s="218"/>
@@ -19265,10 +19312,10 @@
       <c r="N161" s="231"/>
       <c r="O161" s="216"/>
       <c r="P161" s="217"/>
-      <c r="R161" s="307"/>
-      <c r="S161" s="308"/>
-      <c r="T161" s="308"/>
-      <c r="U161" s="309"/>
+      <c r="R161" s="308"/>
+      <c r="S161" s="309"/>
+      <c r="T161" s="309"/>
+      <c r="U161" s="310"/>
     </row>
     <row r="162" spans="2:21" ht="20.25" customHeight="1">
       <c r="B162" s="218"/>
@@ -19286,10 +19333,10 @@
       <c r="N162" s="231"/>
       <c r="O162" s="216"/>
       <c r="P162" s="217"/>
-      <c r="R162" s="307"/>
-      <c r="S162" s="308"/>
-      <c r="T162" s="308"/>
-      <c r="U162" s="309"/>
+      <c r="R162" s="308"/>
+      <c r="S162" s="309"/>
+      <c r="T162" s="309"/>
+      <c r="U162" s="310"/>
     </row>
     <row r="163" spans="2:21" ht="20.25" customHeight="1">
       <c r="B163" s="218"/>
@@ -19307,10 +19354,10 @@
       <c r="N163" s="231"/>
       <c r="O163" s="216"/>
       <c r="P163" s="217"/>
-      <c r="R163" s="307"/>
-      <c r="S163" s="308"/>
-      <c r="T163" s="308"/>
-      <c r="U163" s="309"/>
+      <c r="R163" s="308"/>
+      <c r="S163" s="309"/>
+      <c r="T163" s="309"/>
+      <c r="U163" s="310"/>
     </row>
     <row r="164" spans="2:21" ht="20.25" customHeight="1">
       <c r="B164" s="218"/>
@@ -19328,10 +19375,10 @@
       <c r="N164" s="231"/>
       <c r="O164" s="216"/>
       <c r="P164" s="217"/>
-      <c r="R164" s="307"/>
-      <c r="S164" s="308"/>
-      <c r="T164" s="308"/>
-      <c r="U164" s="309"/>
+      <c r="R164" s="308"/>
+      <c r="S164" s="309"/>
+      <c r="T164" s="309"/>
+      <c r="U164" s="310"/>
     </row>
     <row r="165" spans="2:21" ht="20.25" customHeight="1">
       <c r="B165" s="218"/>
@@ -19349,10 +19396,10 @@
       <c r="N165" s="231"/>
       <c r="O165" s="216"/>
       <c r="P165" s="217"/>
-      <c r="R165" s="307"/>
-      <c r="S165" s="308"/>
-      <c r="T165" s="308"/>
-      <c r="U165" s="309"/>
+      <c r="R165" s="308"/>
+      <c r="S165" s="309"/>
+      <c r="T165" s="309"/>
+      <c r="U165" s="310"/>
     </row>
     <row r="166" spans="2:21" ht="20.25" customHeight="1">
       <c r="B166" s="218"/>
@@ -19370,10 +19417,10 @@
       <c r="N166" s="231"/>
       <c r="O166" s="216"/>
       <c r="P166" s="217"/>
-      <c r="R166" s="307"/>
-      <c r="S166" s="308"/>
-      <c r="T166" s="308"/>
-      <c r="U166" s="309"/>
+      <c r="R166" s="308"/>
+      <c r="S166" s="309"/>
+      <c r="T166" s="309"/>
+      <c r="U166" s="310"/>
     </row>
     <row r="167" spans="2:21" ht="20.25" customHeight="1">
       <c r="B167" s="218"/>
@@ -19391,10 +19438,10 @@
       <c r="N167" s="231"/>
       <c r="O167" s="216"/>
       <c r="P167" s="217"/>
-      <c r="R167" s="307"/>
-      <c r="S167" s="308"/>
-      <c r="T167" s="308"/>
-      <c r="U167" s="309"/>
+      <c r="R167" s="308"/>
+      <c r="S167" s="309"/>
+      <c r="T167" s="309"/>
+      <c r="U167" s="310"/>
     </row>
     <row r="168" spans="2:21" ht="20.25" customHeight="1">
       <c r="B168" s="218"/>
@@ -19412,10 +19459,10 @@
       <c r="N168" s="231"/>
       <c r="O168" s="216"/>
       <c r="P168" s="217"/>
-      <c r="R168" s="307"/>
-      <c r="S168" s="308"/>
-      <c r="T168" s="308"/>
-      <c r="U168" s="309"/>
+      <c r="R168" s="308"/>
+      <c r="S168" s="309"/>
+      <c r="T168" s="309"/>
+      <c r="U168" s="310"/>
     </row>
     <row r="169" spans="2:21" ht="20.25" customHeight="1">
       <c r="B169" s="218"/>
@@ -19433,10 +19480,10 @@
       <c r="N169" s="231"/>
       <c r="O169" s="216"/>
       <c r="P169" s="217"/>
-      <c r="R169" s="307"/>
-      <c r="S169" s="308"/>
-      <c r="T169" s="308"/>
-      <c r="U169" s="309"/>
+      <c r="R169" s="308"/>
+      <c r="S169" s="309"/>
+      <c r="T169" s="309"/>
+      <c r="U169" s="310"/>
     </row>
     <row r="170" spans="2:21" ht="20.25" customHeight="1">
       <c r="B170" s="218"/>
@@ -19454,10 +19501,10 @@
       <c r="N170" s="231"/>
       <c r="O170" s="216"/>
       <c r="P170" s="217"/>
-      <c r="R170" s="307"/>
-      <c r="S170" s="308"/>
-      <c r="T170" s="308"/>
-      <c r="U170" s="309"/>
+      <c r="R170" s="308"/>
+      <c r="S170" s="309"/>
+      <c r="T170" s="309"/>
+      <c r="U170" s="310"/>
     </row>
     <row r="171" spans="2:21" ht="20.25" customHeight="1">
       <c r="B171" s="218"/>
@@ -19475,10 +19522,10 @@
       <c r="N171" s="231"/>
       <c r="O171" s="216"/>
       <c r="P171" s="217"/>
-      <c r="R171" s="307"/>
-      <c r="S171" s="308"/>
-      <c r="T171" s="308"/>
-      <c r="U171" s="309"/>
+      <c r="R171" s="308"/>
+      <c r="S171" s="309"/>
+      <c r="T171" s="309"/>
+      <c r="U171" s="310"/>
     </row>
     <row r="172" spans="2:21" ht="20.25" customHeight="1">
       <c r="B172" s="218"/>
@@ -19496,10 +19543,10 @@
       <c r="N172" s="231"/>
       <c r="O172" s="216"/>
       <c r="P172" s="217"/>
-      <c r="R172" s="307"/>
-      <c r="S172" s="308"/>
-      <c r="T172" s="308"/>
-      <c r="U172" s="309"/>
+      <c r="R172" s="308"/>
+      <c r="S172" s="309"/>
+      <c r="T172" s="309"/>
+      <c r="U172" s="310"/>
     </row>
     <row r="173" spans="2:21" ht="20.25" customHeight="1">
       <c r="B173" s="218"/>
@@ -19517,10 +19564,10 @@
       <c r="N173" s="231"/>
       <c r="O173" s="216"/>
       <c r="P173" s="217"/>
-      <c r="R173" s="307"/>
-      <c r="S173" s="308"/>
-      <c r="T173" s="308"/>
-      <c r="U173" s="309"/>
+      <c r="R173" s="308"/>
+      <c r="S173" s="309"/>
+      <c r="T173" s="309"/>
+      <c r="U173" s="310"/>
     </row>
     <row r="174" spans="2:21" ht="20.25" customHeight="1">
       <c r="B174" s="218"/>
@@ -19538,10 +19585,10 @@
       <c r="N174" s="231"/>
       <c r="O174" s="216"/>
       <c r="P174" s="217"/>
-      <c r="R174" s="307"/>
-      <c r="S174" s="308"/>
-      <c r="T174" s="308"/>
-      <c r="U174" s="309"/>
+      <c r="R174" s="308"/>
+      <c r="S174" s="309"/>
+      <c r="T174" s="309"/>
+      <c r="U174" s="310"/>
     </row>
     <row r="175" spans="2:21" ht="20.25" customHeight="1">
       <c r="B175" s="218"/>
@@ -19559,10 +19606,10 @@
       <c r="N175" s="231"/>
       <c r="O175" s="216"/>
       <c r="P175" s="217"/>
-      <c r="R175" s="307"/>
-      <c r="S175" s="308"/>
-      <c r="T175" s="308"/>
-      <c r="U175" s="309"/>
+      <c r="R175" s="308"/>
+      <c r="S175" s="309"/>
+      <c r="T175" s="309"/>
+      <c r="U175" s="310"/>
     </row>
     <row r="176" spans="2:21" ht="20.25" customHeight="1">
       <c r="B176" s="218"/>
@@ -19580,10 +19627,10 @@
       <c r="N176" s="231"/>
       <c r="O176" s="216"/>
       <c r="P176" s="217"/>
-      <c r="R176" s="307"/>
-      <c r="S176" s="308"/>
-      <c r="T176" s="308"/>
-      <c r="U176" s="309"/>
+      <c r="R176" s="308"/>
+      <c r="S176" s="309"/>
+      <c r="T176" s="309"/>
+      <c r="U176" s="310"/>
     </row>
     <row r="177" spans="2:21" ht="20.25" customHeight="1">
       <c r="B177" s="218"/>
@@ -19601,10 +19648,10 @@
       <c r="N177" s="231"/>
       <c r="O177" s="216"/>
       <c r="P177" s="217"/>
-      <c r="R177" s="307"/>
-      <c r="S177" s="308"/>
-      <c r="T177" s="308"/>
-      <c r="U177" s="309"/>
+      <c r="R177" s="308"/>
+      <c r="S177" s="309"/>
+      <c r="T177" s="309"/>
+      <c r="U177" s="310"/>
     </row>
     <row r="178" spans="2:21" ht="20.25" customHeight="1">
       <c r="B178" s="218"/>
@@ -19622,10 +19669,10 @@
       <c r="N178" s="231"/>
       <c r="O178" s="216"/>
       <c r="P178" s="217"/>
-      <c r="R178" s="307"/>
-      <c r="S178" s="308"/>
-      <c r="T178" s="308"/>
-      <c r="U178" s="309"/>
+      <c r="R178" s="308"/>
+      <c r="S178" s="309"/>
+      <c r="T178" s="309"/>
+      <c r="U178" s="310"/>
     </row>
     <row r="179" spans="2:21" ht="20.25" customHeight="1">
       <c r="B179" s="218"/>
@@ -19643,10 +19690,10 @@
       <c r="N179" s="231"/>
       <c r="O179" s="216"/>
       <c r="P179" s="217"/>
-      <c r="R179" s="307"/>
-      <c r="S179" s="308"/>
-      <c r="T179" s="308"/>
-      <c r="U179" s="309"/>
+      <c r="R179" s="308"/>
+      <c r="S179" s="309"/>
+      <c r="T179" s="309"/>
+      <c r="U179" s="310"/>
     </row>
     <row r="180" spans="2:21" ht="20.25" customHeight="1">
       <c r="B180" s="218"/>
@@ -19664,10 +19711,10 @@
       <c r="N180" s="231"/>
       <c r="O180" s="216"/>
       <c r="P180" s="217"/>
-      <c r="R180" s="307"/>
-      <c r="S180" s="308"/>
-      <c r="T180" s="308"/>
-      <c r="U180" s="309"/>
+      <c r="R180" s="308"/>
+      <c r="S180" s="309"/>
+      <c r="T180" s="309"/>
+      <c r="U180" s="310"/>
     </row>
     <row r="181" spans="2:21" ht="20.25" customHeight="1">
       <c r="B181" s="218"/>
@@ -19685,10 +19732,10 @@
       <c r="N181" s="231"/>
       <c r="O181" s="216"/>
       <c r="P181" s="217"/>
-      <c r="R181" s="307"/>
-      <c r="S181" s="308"/>
-      <c r="T181" s="308"/>
-      <c r="U181" s="309"/>
+      <c r="R181" s="308"/>
+      <c r="S181" s="309"/>
+      <c r="T181" s="309"/>
+      <c r="U181" s="310"/>
     </row>
     <row r="182" spans="2:21" ht="20.25" customHeight="1">
       <c r="B182" s="218"/>
@@ -19706,10 +19753,10 @@
       <c r="N182" s="231"/>
       <c r="O182" s="216"/>
       <c r="P182" s="217"/>
-      <c r="R182" s="307"/>
-      <c r="S182" s="308"/>
-      <c r="T182" s="308"/>
-      <c r="U182" s="309"/>
+      <c r="R182" s="308"/>
+      <c r="S182" s="309"/>
+      <c r="T182" s="309"/>
+      <c r="U182" s="310"/>
     </row>
     <row r="183" spans="2:21" ht="20.25" customHeight="1">
       <c r="B183" s="218"/>
@@ -19727,10 +19774,10 @@
       <c r="N183" s="231"/>
       <c r="O183" s="216"/>
       <c r="P183" s="217"/>
-      <c r="R183" s="307"/>
-      <c r="S183" s="308"/>
-      <c r="T183" s="308"/>
-      <c r="U183" s="309"/>
+      <c r="R183" s="308"/>
+      <c r="S183" s="309"/>
+      <c r="T183" s="309"/>
+      <c r="U183" s="310"/>
     </row>
     <row r="184" spans="2:21" ht="20.25" customHeight="1">
       <c r="B184" s="218"/>
@@ -19748,10 +19795,10 @@
       <c r="N184" s="231"/>
       <c r="O184" s="216"/>
       <c r="P184" s="217"/>
-      <c r="R184" s="307"/>
-      <c r="S184" s="308"/>
-      <c r="T184" s="308"/>
-      <c r="U184" s="309"/>
+      <c r="R184" s="308"/>
+      <c r="S184" s="309"/>
+      <c r="T184" s="309"/>
+      <c r="U184" s="310"/>
     </row>
     <row r="185" spans="2:21" ht="20.25" customHeight="1">
       <c r="B185" s="218"/>
@@ -19769,10 +19816,10 @@
       <c r="N185" s="231"/>
       <c r="O185" s="216"/>
       <c r="P185" s="217"/>
-      <c r="R185" s="307"/>
-      <c r="S185" s="308"/>
-      <c r="T185" s="308"/>
-      <c r="U185" s="309"/>
+      <c r="R185" s="308"/>
+      <c r="S185" s="309"/>
+      <c r="T185" s="309"/>
+      <c r="U185" s="310"/>
     </row>
     <row r="186" spans="2:21" ht="20.25" customHeight="1">
       <c r="B186" s="218"/>
@@ -19790,10 +19837,10 @@
       <c r="N186" s="231"/>
       <c r="O186" s="216"/>
       <c r="P186" s="217"/>
-      <c r="R186" s="307"/>
-      <c r="S186" s="308"/>
-      <c r="T186" s="308"/>
-      <c r="U186" s="309"/>
+      <c r="R186" s="308"/>
+      <c r="S186" s="309"/>
+      <c r="T186" s="309"/>
+      <c r="U186" s="310"/>
     </row>
     <row r="187" spans="2:21" ht="20.25" customHeight="1">
       <c r="B187" s="218"/>
@@ -19811,10 +19858,10 @@
       <c r="N187" s="231"/>
       <c r="O187" s="216"/>
       <c r="P187" s="217"/>
-      <c r="R187" s="307"/>
-      <c r="S187" s="308"/>
-      <c r="T187" s="308"/>
-      <c r="U187" s="309"/>
+      <c r="R187" s="308"/>
+      <c r="S187" s="309"/>
+      <c r="T187" s="309"/>
+      <c r="U187" s="310"/>
     </row>
     <row r="188" spans="2:21" ht="20.25" customHeight="1">
       <c r="B188" s="218"/>
@@ -19832,10 +19879,10 @@
       <c r="N188" s="231"/>
       <c r="O188" s="216"/>
       <c r="P188" s="217"/>
-      <c r="R188" s="307"/>
-      <c r="S188" s="308"/>
-      <c r="T188" s="308"/>
-      <c r="U188" s="309"/>
+      <c r="R188" s="308"/>
+      <c r="S188" s="309"/>
+      <c r="T188" s="309"/>
+      <c r="U188" s="310"/>
     </row>
     <row r="189" spans="2:21" ht="20.25" customHeight="1">
       <c r="B189" s="218"/>
@@ -19853,10 +19900,10 @@
       <c r="N189" s="231"/>
       <c r="O189" s="216"/>
       <c r="P189" s="217"/>
-      <c r="R189" s="307"/>
-      <c r="S189" s="308"/>
-      <c r="T189" s="308"/>
-      <c r="U189" s="309"/>
+      <c r="R189" s="308"/>
+      <c r="S189" s="309"/>
+      <c r="T189" s="309"/>
+      <c r="U189" s="310"/>
     </row>
     <row r="190" spans="2:21" ht="20.25" customHeight="1">
       <c r="B190" s="218"/>
@@ -19874,10 +19921,10 @@
       <c r="N190" s="231"/>
       <c r="O190" s="216"/>
       <c r="P190" s="217"/>
-      <c r="R190" s="307"/>
-      <c r="S190" s="308"/>
-      <c r="T190" s="308"/>
-      <c r="U190" s="309"/>
+      <c r="R190" s="308"/>
+      <c r="S190" s="309"/>
+      <c r="T190" s="309"/>
+      <c r="U190" s="310"/>
     </row>
     <row r="191" spans="2:21" ht="20.25" customHeight="1">
       <c r="B191" s="218"/>
@@ -19895,10 +19942,10 @@
       <c r="N191" s="231"/>
       <c r="O191" s="216"/>
       <c r="P191" s="217"/>
-      <c r="R191" s="307"/>
-      <c r="S191" s="308"/>
-      <c r="T191" s="308"/>
-      <c r="U191" s="309"/>
+      <c r="R191" s="308"/>
+      <c r="S191" s="309"/>
+      <c r="T191" s="309"/>
+      <c r="U191" s="310"/>
     </row>
     <row r="192" spans="2:21" ht="20.25" customHeight="1">
       <c r="B192" s="218"/>
@@ -19916,10 +19963,10 @@
       <c r="N192" s="231"/>
       <c r="O192" s="216"/>
       <c r="P192" s="217"/>
-      <c r="R192" s="307"/>
-      <c r="S192" s="308"/>
-      <c r="T192" s="308"/>
-      <c r="U192" s="309"/>
+      <c r="R192" s="308"/>
+      <c r="S192" s="309"/>
+      <c r="T192" s="309"/>
+      <c r="U192" s="310"/>
     </row>
     <row r="193" spans="2:21" ht="20.25" customHeight="1">
       <c r="B193" s="218"/>
@@ -19937,10 +19984,10 @@
       <c r="N193" s="231"/>
       <c r="O193" s="216"/>
       <c r="P193" s="217"/>
-      <c r="R193" s="307"/>
-      <c r="S193" s="308"/>
-      <c r="T193" s="308"/>
-      <c r="U193" s="309"/>
+      <c r="R193" s="308"/>
+      <c r="S193" s="309"/>
+      <c r="T193" s="309"/>
+      <c r="U193" s="310"/>
     </row>
     <row r="194" spans="2:21" ht="20.25" customHeight="1">
       <c r="B194" s="218"/>
@@ -19958,10 +20005,10 @@
       <c r="N194" s="231"/>
       <c r="O194" s="216"/>
       <c r="P194" s="217"/>
-      <c r="R194" s="307"/>
-      <c r="S194" s="308"/>
-      <c r="T194" s="308"/>
-      <c r="U194" s="309"/>
+      <c r="R194" s="308"/>
+      <c r="S194" s="309"/>
+      <c r="T194" s="309"/>
+      <c r="U194" s="310"/>
     </row>
     <row r="195" spans="2:21" ht="20.25" customHeight="1">
       <c r="B195" s="218"/>
@@ -19979,10 +20026,10 @@
       <c r="N195" s="231"/>
       <c r="O195" s="216"/>
       <c r="P195" s="217"/>
-      <c r="R195" s="307"/>
-      <c r="S195" s="308"/>
-      <c r="T195" s="308"/>
-      <c r="U195" s="309"/>
+      <c r="R195" s="308"/>
+      <c r="S195" s="309"/>
+      <c r="T195" s="309"/>
+      <c r="U195" s="310"/>
     </row>
     <row r="196" spans="2:21" ht="20.25" customHeight="1">
       <c r="B196" s="218"/>
@@ -20000,10 +20047,10 @@
       <c r="N196" s="231"/>
       <c r="O196" s="216"/>
       <c r="P196" s="217"/>
-      <c r="R196" s="307"/>
-      <c r="S196" s="308"/>
-      <c r="T196" s="308"/>
-      <c r="U196" s="309"/>
+      <c r="R196" s="308"/>
+      <c r="S196" s="309"/>
+      <c r="T196" s="309"/>
+      <c r="U196" s="310"/>
     </row>
     <row r="197" spans="2:21" ht="20.25" customHeight="1">
       <c r="B197" s="218"/>
@@ -20021,10 +20068,10 @@
       <c r="N197" s="231"/>
       <c r="O197" s="216"/>
       <c r="P197" s="217"/>
-      <c r="R197" s="307"/>
-      <c r="S197" s="308"/>
-      <c r="T197" s="308"/>
-      <c r="U197" s="309"/>
+      <c r="R197" s="308"/>
+      <c r="S197" s="309"/>
+      <c r="T197" s="309"/>
+      <c r="U197" s="310"/>
     </row>
     <row r="198" spans="2:21" ht="20.25" customHeight="1">
       <c r="B198" s="218"/>
@@ -20042,10 +20089,10 @@
       <c r="N198" s="231"/>
       <c r="O198" s="216"/>
       <c r="P198" s="217"/>
-      <c r="R198" s="307"/>
-      <c r="S198" s="308"/>
-      <c r="T198" s="308"/>
-      <c r="U198" s="309"/>
+      <c r="R198" s="308"/>
+      <c r="S198" s="309"/>
+      <c r="T198" s="309"/>
+      <c r="U198" s="310"/>
     </row>
     <row r="199" spans="2:21" ht="20.25" customHeight="1">
       <c r="B199" s="218"/>
@@ -20063,10 +20110,10 @@
       <c r="N199" s="231"/>
       <c r="O199" s="216"/>
       <c r="P199" s="217"/>
-      <c r="R199" s="307"/>
-      <c r="S199" s="308"/>
-      <c r="T199" s="308"/>
-      <c r="U199" s="309"/>
+      <c r="R199" s="308"/>
+      <c r="S199" s="309"/>
+      <c r="T199" s="309"/>
+      <c r="U199" s="310"/>
     </row>
     <row r="200" spans="2:21" ht="20.25" customHeight="1">
       <c r="B200" s="218"/>
@@ -20084,10 +20131,10 @@
       <c r="N200" s="231"/>
       <c r="O200" s="216"/>
       <c r="P200" s="217"/>
-      <c r="R200" s="307"/>
-      <c r="S200" s="308"/>
-      <c r="T200" s="308"/>
-      <c r="U200" s="309"/>
+      <c r="R200" s="308"/>
+      <c r="S200" s="309"/>
+      <c r="T200" s="309"/>
+      <c r="U200" s="310"/>
     </row>
     <row r="201" spans="2:21" ht="20.25" customHeight="1">
       <c r="B201" s="218"/>
@@ -20105,10 +20152,10 @@
       <c r="N201" s="231"/>
       <c r="O201" s="216"/>
       <c r="P201" s="217"/>
-      <c r="R201" s="307"/>
-      <c r="S201" s="308"/>
-      <c r="T201" s="308"/>
-      <c r="U201" s="309"/>
+      <c r="R201" s="308"/>
+      <c r="S201" s="309"/>
+      <c r="T201" s="309"/>
+      <c r="U201" s="310"/>
     </row>
     <row r="202" spans="2:21" ht="20.25" customHeight="1">
       <c r="B202" s="218"/>
@@ -20126,10 +20173,10 @@
       <c r="N202" s="231"/>
       <c r="O202" s="216"/>
       <c r="P202" s="217"/>
-      <c r="R202" s="307"/>
-      <c r="S202" s="308"/>
-      <c r="T202" s="308"/>
-      <c r="U202" s="309"/>
+      <c r="R202" s="308"/>
+      <c r="S202" s="309"/>
+      <c r="T202" s="309"/>
+      <c r="U202" s="310"/>
     </row>
     <row r="203" spans="2:21" ht="20.25" customHeight="1">
       <c r="B203" s="218"/>
@@ -20147,160 +20194,160 @@
       <c r="N203" s="231"/>
       <c r="O203" s="216"/>
       <c r="P203" s="217"/>
-      <c r="R203" s="307"/>
-      <c r="S203" s="308"/>
-      <c r="T203" s="308"/>
-      <c r="U203" s="309"/>
+      <c r="R203" s="308"/>
+      <c r="S203" s="309"/>
+      <c r="T203" s="309"/>
+      <c r="U203" s="310"/>
     </row>
     <row r="204" spans="2:21" ht="20.25" customHeight="1">
       <c r="B204" s="218"/>
       <c r="C204" s="218"/>
       <c r="D204" s="218"/>
-      <c r="E204" s="219"/>
-      <c r="F204" s="220"/>
-      <c r="G204" s="221"/>
-      <c r="H204" s="219"/>
-      <c r="I204" s="218"/>
-      <c r="J204" s="221"/>
-      <c r="K204" s="219"/>
-      <c r="L204" s="218"/>
-      <c r="M204" s="221"/>
-      <c r="N204" s="219"/>
-      <c r="O204" s="218"/>
-      <c r="P204" s="221"/>
-      <c r="R204" s="307"/>
-      <c r="S204" s="308"/>
-      <c r="T204" s="308"/>
-      <c r="U204" s="309"/>
+      <c r="E204" s="231"/>
+      <c r="F204" s="232"/>
+      <c r="G204" s="217"/>
+      <c r="H204" s="231"/>
+      <c r="I204" s="216"/>
+      <c r="J204" s="217"/>
+      <c r="K204" s="231"/>
+      <c r="L204" s="216"/>
+      <c r="M204" s="217"/>
+      <c r="N204" s="231"/>
+      <c r="O204" s="216"/>
+      <c r="P204" s="217"/>
+      <c r="R204" s="308"/>
+      <c r="S204" s="309"/>
+      <c r="T204" s="309"/>
+      <c r="U204" s="310"/>
     </row>
     <row r="205" spans="2:21" ht="20.25" customHeight="1">
       <c r="B205" s="218"/>
       <c r="C205" s="218"/>
       <c r="D205" s="218"/>
-      <c r="E205" s="222"/>
-      <c r="F205" s="218"/>
-      <c r="G205" s="221"/>
-      <c r="H205" s="222"/>
-      <c r="I205" s="218"/>
-      <c r="J205" s="221"/>
-      <c r="K205" s="222"/>
-      <c r="L205" s="218"/>
-      <c r="M205" s="221"/>
-      <c r="N205" s="222"/>
-      <c r="O205" s="218"/>
-      <c r="P205" s="221"/>
-      <c r="R205" s="307"/>
-      <c r="S205" s="308"/>
-      <c r="T205" s="308"/>
-      <c r="U205" s="309"/>
+      <c r="E205" s="231"/>
+      <c r="F205" s="232"/>
+      <c r="G205" s="217"/>
+      <c r="H205" s="231"/>
+      <c r="I205" s="216"/>
+      <c r="J205" s="217"/>
+      <c r="K205" s="231"/>
+      <c r="L205" s="216"/>
+      <c r="M205" s="217"/>
+      <c r="N205" s="231"/>
+      <c r="O205" s="216"/>
+      <c r="P205" s="217"/>
+      <c r="R205" s="308"/>
+      <c r="S205" s="309"/>
+      <c r="T205" s="309"/>
+      <c r="U205" s="310"/>
     </row>
     <row r="206" spans="2:21" ht="20.25" customHeight="1">
       <c r="B206" s="218"/>
       <c r="C206" s="218"/>
       <c r="D206" s="218"/>
-      <c r="E206" s="222"/>
-      <c r="F206" s="218"/>
+      <c r="E206" s="219"/>
+      <c r="F206" s="220"/>
       <c r="G206" s="221"/>
-      <c r="H206" s="222"/>
+      <c r="H206" s="219"/>
       <c r="I206" s="218"/>
       <c r="J206" s="221"/>
-      <c r="K206" s="222"/>
+      <c r="K206" s="219"/>
       <c r="L206" s="218"/>
       <c r="M206" s="221"/>
-      <c r="N206" s="222"/>
+      <c r="N206" s="219"/>
       <c r="O206" s="218"/>
       <c r="P206" s="221"/>
-      <c r="R206" s="307"/>
-      <c r="S206" s="308"/>
-      <c r="T206" s="308"/>
-      <c r="U206" s="309"/>
+      <c r="R206" s="308"/>
+      <c r="S206" s="309"/>
+      <c r="T206" s="309"/>
+      <c r="U206" s="310"/>
     </row>
     <row r="207" spans="2:21" ht="20.25" customHeight="1">
       <c r="B207" s="218"/>
       <c r="C207" s="218"/>
       <c r="D207" s="218"/>
-      <c r="E207" s="219"/>
-      <c r="F207" s="223"/>
-      <c r="G207" s="224"/>
-      <c r="H207" s="219"/>
-      <c r="I207" s="223"/>
-      <c r="J207" s="224"/>
-      <c r="K207" s="219"/>
-      <c r="L207" s="223"/>
-      <c r="M207" s="224"/>
-      <c r="N207" s="219"/>
-      <c r="O207" s="223"/>
-      <c r="P207" s="224"/>
-      <c r="R207" s="307"/>
-      <c r="S207" s="308"/>
-      <c r="T207" s="308"/>
-      <c r="U207" s="309"/>
+      <c r="E207" s="222"/>
+      <c r="F207" s="218"/>
+      <c r="G207" s="221"/>
+      <c r="H207" s="222"/>
+      <c r="I207" s="218"/>
+      <c r="J207" s="221"/>
+      <c r="K207" s="222"/>
+      <c r="L207" s="218"/>
+      <c r="M207" s="221"/>
+      <c r="N207" s="222"/>
+      <c r="O207" s="218"/>
+      <c r="P207" s="221"/>
+      <c r="R207" s="308"/>
+      <c r="S207" s="309"/>
+      <c r="T207" s="309"/>
+      <c r="U207" s="310"/>
     </row>
     <row r="208" spans="2:21" ht="20.25" customHeight="1">
       <c r="B208" s="218"/>
       <c r="C208" s="218"/>
       <c r="D208" s="218"/>
       <c r="E208" s="222"/>
-      <c r="F208" s="223"/>
-      <c r="G208" s="224"/>
+      <c r="F208" s="218"/>
+      <c r="G208" s="221"/>
       <c r="H208" s="222"/>
-      <c r="I208" s="223"/>
-      <c r="J208" s="224"/>
+      <c r="I208" s="218"/>
+      <c r="J208" s="221"/>
       <c r="K208" s="222"/>
-      <c r="L208" s="223"/>
-      <c r="M208" s="224"/>
+      <c r="L208" s="218"/>
+      <c r="M208" s="221"/>
       <c r="N208" s="222"/>
-      <c r="O208" s="223"/>
-      <c r="P208" s="224"/>
-      <c r="R208" s="307"/>
-      <c r="S208" s="308"/>
-      <c r="T208" s="308"/>
-      <c r="U208" s="309"/>
+      <c r="O208" s="218"/>
+      <c r="P208" s="221"/>
+      <c r="R208" s="308"/>
+      <c r="S208" s="309"/>
+      <c r="T208" s="309"/>
+      <c r="U208" s="310"/>
     </row>
     <row r="209" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B209" s="229"/>
+      <c r="B209" s="218"/>
       <c r="C209" s="218"/>
       <c r="D209" s="218"/>
-      <c r="E209" s="222"/>
+      <c r="E209" s="219"/>
       <c r="F209" s="223"/>
       <c r="G209" s="224"/>
-      <c r="H209" s="222"/>
+      <c r="H209" s="219"/>
       <c r="I209" s="223"/>
       <c r="J209" s="224"/>
-      <c r="K209" s="222"/>
+      <c r="K209" s="219"/>
       <c r="L209" s="223"/>
       <c r="M209" s="224"/>
-      <c r="N209" s="222"/>
+      <c r="N209" s="219"/>
       <c r="O209" s="223"/>
       <c r="P209" s="224"/>
-      <c r="R209" s="307"/>
-      <c r="S209" s="308"/>
-      <c r="T209" s="308"/>
-      <c r="U209" s="309"/>
+      <c r="R209" s="308"/>
+      <c r="S209" s="309"/>
+      <c r="T209" s="309"/>
+      <c r="U209" s="310"/>
     </row>
     <row r="210" spans="2:21" ht="20.25" customHeight="1">
       <c r="B210" s="218"/>
       <c r="C210" s="218"/>
       <c r="D210" s="218"/>
-      <c r="E210" s="219"/>
+      <c r="E210" s="222"/>
       <c r="F210" s="223"/>
       <c r="G210" s="224"/>
-      <c r="H210" s="219"/>
+      <c r="H210" s="222"/>
       <c r="I210" s="223"/>
       <c r="J210" s="224"/>
-      <c r="K210" s="219"/>
+      <c r="K210" s="222"/>
       <c r="L210" s="223"/>
       <c r="M210" s="224"/>
-      <c r="N210" s="219"/>
+      <c r="N210" s="222"/>
       <c r="O210" s="223"/>
       <c r="P210" s="224"/>
-      <c r="R210" s="307"/>
-      <c r="S210" s="308"/>
-      <c r="T210" s="308"/>
-      <c r="U210" s="309"/>
+      <c r="R210" s="308"/>
+      <c r="S210" s="309"/>
+      <c r="T210" s="309"/>
+      <c r="U210" s="310"/>
     </row>
     <row r="211" spans="2:21" ht="20.25" customHeight="1">
-      <c r="B211" s="218"/>
+      <c r="B211" s="229"/>
       <c r="C211" s="218"/>
       <c r="D211" s="218"/>
       <c r="E211" s="222"/>
@@ -20315,98 +20362,140 @@
       <c r="N211" s="222"/>
       <c r="O211" s="223"/>
       <c r="P211" s="224"/>
-      <c r="R211" s="307"/>
-      <c r="S211" s="308"/>
-      <c r="T211" s="308"/>
-      <c r="U211" s="309"/>
+      <c r="R211" s="308"/>
+      <c r="S211" s="309"/>
+      <c r="T211" s="309"/>
+      <c r="U211" s="310"/>
     </row>
     <row r="212" spans="2:21" ht="20.25" customHeight="1">
       <c r="B212" s="218"/>
       <c r="C212" s="218"/>
       <c r="D212" s="218"/>
-      <c r="E212" s="222"/>
+      <c r="E212" s="219"/>
       <c r="F212" s="223"/>
       <c r="G212" s="224"/>
-      <c r="H212" s="222"/>
+      <c r="H212" s="219"/>
       <c r="I212" s="223"/>
       <c r="J212" s="224"/>
-      <c r="K212" s="222"/>
+      <c r="K212" s="219"/>
       <c r="L212" s="223"/>
       <c r="M212" s="224"/>
-      <c r="N212" s="222"/>
+      <c r="N212" s="219"/>
       <c r="O212" s="223"/>
       <c r="P212" s="224"/>
-      <c r="R212" s="307"/>
-      <c r="S212" s="308"/>
-      <c r="T212" s="308"/>
-      <c r="U212" s="309"/>
+      <c r="R212" s="308"/>
+      <c r="S212" s="309"/>
+      <c r="T212" s="309"/>
+      <c r="U212" s="310"/>
     </row>
     <row r="213" spans="2:21" ht="20.25" customHeight="1">
       <c r="B213" s="218"/>
       <c r="C213" s="218"/>
       <c r="D213" s="218"/>
-      <c r="E213" s="219"/>
+      <c r="E213" s="222"/>
       <c r="F213" s="223"/>
       <c r="G213" s="224"/>
-      <c r="H213" s="219"/>
+      <c r="H213" s="222"/>
       <c r="I213" s="223"/>
       <c r="J213" s="224"/>
-      <c r="K213" s="219"/>
+      <c r="K213" s="222"/>
       <c r="L213" s="223"/>
       <c r="M213" s="224"/>
-      <c r="N213" s="219"/>
+      <c r="N213" s="222"/>
       <c r="O213" s="223"/>
       <c r="P213" s="224"/>
-      <c r="R213" s="307"/>
-      <c r="S213" s="308"/>
-      <c r="T213" s="308"/>
-      <c r="U213" s="309"/>
-    </row>
-    <row r="214" spans="2:21" ht="20.25" customHeight="1" thickBot="1">
-      <c r="B214" s="225"/>
-      <c r="C214" s="226"/>
-      <c r="D214" s="227"/>
-      <c r="E214" s="230"/>
-      <c r="F214" s="226"/>
-      <c r="G214" s="228"/>
-      <c r="H214" s="230"/>
-      <c r="I214" s="226"/>
-      <c r="J214" s="228"/>
-      <c r="K214" s="230"/>
-      <c r="L214" s="226"/>
-      <c r="M214" s="228"/>
-      <c r="N214" s="230"/>
-      <c r="O214" s="226"/>
-      <c r="P214" s="228"/>
-      <c r="R214" s="310"/>
-      <c r="S214" s="311"/>
-      <c r="T214" s="311"/>
-      <c r="U214" s="312"/>
-    </row>
-    <row r="215" spans="2:21" ht="15.75" customHeight="1">
-      <c r="B215" s="186"/>
-      <c r="C215" s="186"/>
-      <c r="D215" s="186"/>
-      <c r="E215" s="186"/>
-      <c r="F215" s="186"/>
-      <c r="G215" s="186"/>
-      <c r="H215" s="186"/>
-      <c r="I215" s="186"/>
-      <c r="J215" s="186"/>
-      <c r="K215" s="186"/>
-      <c r="L215" s="186"/>
-      <c r="M215" s="186"/>
-      <c r="N215" s="186"/>
-      <c r="O215" s="186"/>
-      <c r="P215" s="186"/>
-      <c r="Q215" s="186"/>
+      <c r="R213" s="308"/>
+      <c r="S213" s="309"/>
+      <c r="T213" s="309"/>
+      <c r="U213" s="310"/>
+    </row>
+    <row r="214" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B214" s="218"/>
+      <c r="C214" s="218"/>
+      <c r="D214" s="218"/>
+      <c r="E214" s="222"/>
+      <c r="F214" s="223"/>
+      <c r="G214" s="224"/>
+      <c r="H214" s="222"/>
+      <c r="I214" s="223"/>
+      <c r="J214" s="224"/>
+      <c r="K214" s="222"/>
+      <c r="L214" s="223"/>
+      <c r="M214" s="224"/>
+      <c r="N214" s="222"/>
+      <c r="O214" s="223"/>
+      <c r="P214" s="224"/>
+      <c r="R214" s="308"/>
+      <c r="S214" s="309"/>
+      <c r="T214" s="309"/>
+      <c r="U214" s="310"/>
+    </row>
+    <row r="215" spans="2:21" ht="20.25" customHeight="1">
+      <c r="B215" s="218"/>
+      <c r="C215" s="218"/>
+      <c r="D215" s="218"/>
+      <c r="E215" s="219"/>
+      <c r="F215" s="223"/>
+      <c r="G215" s="224"/>
+      <c r="H215" s="219"/>
+      <c r="I215" s="223"/>
+      <c r="J215" s="224"/>
+      <c r="K215" s="219"/>
+      <c r="L215" s="223"/>
+      <c r="M215" s="224"/>
+      <c r="N215" s="219"/>
+      <c r="O215" s="223"/>
+      <c r="P215" s="224"/>
+      <c r="R215" s="308"/>
+      <c r="S215" s="309"/>
+      <c r="T215" s="309"/>
+      <c r="U215" s="310"/>
+    </row>
+    <row r="216" spans="2:21" ht="20.25" customHeight="1" thickBot="1">
+      <c r="B216" s="225"/>
+      <c r="C216" s="226"/>
+      <c r="D216" s="227"/>
+      <c r="E216" s="230"/>
+      <c r="F216" s="226"/>
+      <c r="G216" s="228"/>
+      <c r="H216" s="230"/>
+      <c r="I216" s="226"/>
+      <c r="J216" s="228"/>
+      <c r="K216" s="230"/>
+      <c r="L216" s="226"/>
+      <c r="M216" s="228"/>
+      <c r="N216" s="230"/>
+      <c r="O216" s="226"/>
+      <c r="P216" s="228"/>
+      <c r="R216" s="311"/>
+      <c r="S216" s="312"/>
+      <c r="T216" s="312"/>
+      <c r="U216" s="313"/>
+    </row>
+    <row r="217" spans="2:21" ht="15.75" customHeight="1">
+      <c r="B217" s="186"/>
+      <c r="C217" s="186"/>
+      <c r="D217" s="186"/>
+      <c r="E217" s="186"/>
+      <c r="F217" s="186"/>
+      <c r="G217" s="186"/>
+      <c r="H217" s="186"/>
+      <c r="I217" s="186"/>
+      <c r="J217" s="186"/>
+      <c r="K217" s="186"/>
+      <c r="L217" s="186"/>
+      <c r="M217" s="186"/>
+      <c r="N217" s="186"/>
+      <c r="O217" s="186"/>
+      <c r="P217" s="186"/>
+      <c r="Q217" s="186"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="H3:P3"/>
-    <mergeCell ref="R6:U214"/>
+    <mergeCell ref="R6:U216"/>
   </mergeCells>
-  <conditionalFormatting sqref="B12:D27 C28:C38 B28:B213 D38 C40:C48 D51 C51:C61 C64:C220">
+  <conditionalFormatting sqref="B12:D27 C28:C38 B28:B215 D38 C40:C50 D53 C53:C63 C66:C222">
     <cfRule type="expression" dxfId="7" priority="7">
       <formula>IF((B12&lt;&gt;"")*AND(F12&lt;&gt;""),1,0)</formula>
     </cfRule>
@@ -20416,14 +20505,14 @@
       <formula>IF((C35&lt;&gt;"")*AND(G38&lt;&gt;""),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C39 C49">
+  <conditionalFormatting sqref="C39 C51">
     <cfRule type="expression" dxfId="5" priority="9">
       <formula>IF((C39&lt;&gt;"")*AND(G40&lt;&gt;""),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C63">
+  <conditionalFormatting sqref="C65">
     <cfRule type="expression" dxfId="4" priority="18">
-      <formula>IF((C63&lt;&gt;"")*AND(G62&lt;&gt;""),1,0)</formula>
+      <formula>IF((C65&lt;&gt;"")*AND(G64&lt;&gt;""),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:D37">
@@ -20431,19 +20520,19 @@
       <formula>IF((C28&lt;&gt;"")*AND(#REF!&lt;&gt;""),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D39:D50">
+  <conditionalFormatting sqref="D39:D52">
     <cfRule type="expression" dxfId="2" priority="2">
       <formula>IF((D39&lt;&gt;"")*AND(#REF!&lt;&gt;""),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D52:D56">
+  <conditionalFormatting sqref="D54:D58">
     <cfRule type="expression" dxfId="1" priority="3">
-      <formula>IF((D52&lt;&gt;"")*AND(#REF!&lt;&gt;""),1,0)</formula>
+      <formula>IF((D54&lt;&gt;"")*AND(#REF!&lt;&gt;""),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D57:D213">
+  <conditionalFormatting sqref="D59:D215">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>IF((D57&lt;&gt;"")*AND(H57&lt;&gt;""),1,0)</formula>
+      <formula>IF((D59&lt;&gt;"")*AND(H59&lt;&gt;""),1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>

--- a/doc/chiffrier_sim_vie.xlsx
+++ b/doc/chiffrier_sim_vie.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\travail\sim_vie\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9125064A-2A74-417C-BF99-9F900AFE1E6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C628C40-6B93-4A24-89A1-C2360EC8E896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1092" uniqueCount="677">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1095" uniqueCount="678">
   <si>
     <t>Chiffrier de documentation de projets</t>
   </si>
@@ -2269,6 +2269,9 @@
   </si>
   <si>
     <t>Réimplementer les phéromones</t>
+  </si>
+  <si>
+    <t>12/12/2025</t>
   </si>
 </sst>
 </file>
@@ -3546,7 +3549,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="318">
+  <cellXfs count="317">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -4076,217 +4079,214 @@
     <xf numFmtId="164" fontId="29" fillId="0" borderId="75" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="64" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5106,22 +5106,22 @@
       </c>
     </row>
     <row r="36" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F36" s="246"/>
-      <c r="G36" s="247"/>
-      <c r="H36" s="247"/>
-      <c r="I36" s="247"/>
+      <c r="F36" s="248"/>
+      <c r="G36" s="249"/>
+      <c r="H36" s="249"/>
+      <c r="I36" s="249"/>
     </row>
     <row r="37" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F37" s="247"/>
-      <c r="G37" s="247"/>
-      <c r="H37" s="247"/>
-      <c r="I37" s="247"/>
+      <c r="F37" s="249"/>
+      <c r="G37" s="249"/>
+      <c r="H37" s="249"/>
+      <c r="I37" s="249"/>
     </row>
     <row r="38" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F38" s="247"/>
-      <c r="G38" s="247"/>
-      <c r="H38" s="247"/>
-      <c r="I38" s="247"/>
+      <c r="F38" s="249"/>
+      <c r="G38" s="249"/>
+      <c r="H38" s="249"/>
+      <c r="I38" s="249"/>
     </row>
     <row r="39" spans="6:9" ht="17.25" customHeight="1">
       <c r="F39" s="29"/>
@@ -5130,22 +5130,22 @@
       <c r="I39" s="29"/>
     </row>
     <row r="40" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F40" s="246"/>
-      <c r="G40" s="247"/>
-      <c r="H40" s="247"/>
-      <c r="I40" s="247"/>
+      <c r="F40" s="248"/>
+      <c r="G40" s="249"/>
+      <c r="H40" s="249"/>
+      <c r="I40" s="249"/>
     </row>
     <row r="41" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F41" s="247"/>
-      <c r="G41" s="247"/>
-      <c r="H41" s="247"/>
-      <c r="I41" s="247"/>
+      <c r="F41" s="249"/>
+      <c r="G41" s="249"/>
+      <c r="H41" s="249"/>
+      <c r="I41" s="249"/>
     </row>
     <row r="42" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F42" s="247"/>
-      <c r="G42" s="247"/>
-      <c r="H42" s="247"/>
-      <c r="I42" s="247"/>
+      <c r="F42" s="249"/>
+      <c r="G42" s="249"/>
+      <c r="H42" s="249"/>
+      <c r="I42" s="249"/>
     </row>
     <row r="43" spans="6:9" ht="17.25" customHeight="1">
       <c r="F43" s="29"/>
@@ -5160,34 +5160,34 @@
       <c r="I44" s="29"/>
     </row>
     <row r="45" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F45" s="246"/>
-      <c r="G45" s="247"/>
-      <c r="H45" s="247"/>
-      <c r="I45" s="247"/>
+      <c r="F45" s="248"/>
+      <c r="G45" s="249"/>
+      <c r="H45" s="249"/>
+      <c r="I45" s="249"/>
     </row>
     <row r="46" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F46" s="247"/>
-      <c r="G46" s="247"/>
-      <c r="H46" s="247"/>
-      <c r="I46" s="247"/>
+      <c r="F46" s="249"/>
+      <c r="G46" s="249"/>
+      <c r="H46" s="249"/>
+      <c r="I46" s="249"/>
     </row>
     <row r="47" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F47" s="247"/>
-      <c r="G47" s="247"/>
-      <c r="H47" s="247"/>
-      <c r="I47" s="247"/>
+      <c r="F47" s="249"/>
+      <c r="G47" s="249"/>
+      <c r="H47" s="249"/>
+      <c r="I47" s="249"/>
     </row>
     <row r="48" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F48" s="247"/>
-      <c r="G48" s="247"/>
-      <c r="H48" s="247"/>
-      <c r="I48" s="247"/>
+      <c r="F48" s="249"/>
+      <c r="G48" s="249"/>
+      <c r="H48" s="249"/>
+      <c r="I48" s="249"/>
     </row>
     <row r="49" spans="6:9" ht="17.25" customHeight="1">
-      <c r="F49" s="247"/>
-      <c r="G49" s="247"/>
-      <c r="H49" s="247"/>
-      <c r="I49" s="247"/>
+      <c r="F49" s="249"/>
+      <c r="G49" s="249"/>
+      <c r="H49" s="249"/>
+      <c r="I49" s="249"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5327,7 +5327,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B13" s="248" t="s">
+      <c r="B13" s="250" t="s">
         <v>60</v>
       </c>
       <c r="C13" s="49"/>
@@ -5336,7 +5336,7 @@
       <c r="H13" s="70"/>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B14" s="249"/>
+      <c r="B14" s="251"/>
       <c r="C14" s="50" t="s">
         <v>104</v>
       </c>
@@ -5349,13 +5349,13 @@
       <c r="H14" s="70"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B15" s="249"/>
+      <c r="B15" s="251"/>
       <c r="C15" s="53"/>
       <c r="D15" s="51"/>
       <c r="E15" s="52"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
-      <c r="B16" s="249"/>
+      <c r="B16" s="251"/>
       <c r="C16" s="63" t="s">
         <v>171</v>
       </c>
@@ -5367,7 +5367,7 @@
       </c>
     </row>
     <row r="17" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B17" s="250"/>
+      <c r="B17" s="252"/>
       <c r="C17" s="53" t="s">
         <v>101</v>
       </c>
@@ -5375,7 +5375,7 @@
       <c r="E17" s="52"/>
     </row>
     <row r="18" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B18" s="250"/>
+      <c r="B18" s="252"/>
       <c r="C18" s="63" t="s">
         <v>172</v>
       </c>
@@ -5385,13 +5385,13 @@
       </c>
     </row>
     <row r="19" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B19" s="250"/>
+      <c r="B19" s="252"/>
       <c r="C19" s="53"/>
       <c r="D19" s="51"/>
       <c r="E19" s="52"/>
     </row>
     <row r="20" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B20" s="250"/>
+      <c r="B20" s="252"/>
       <c r="C20" s="50" t="s">
         <v>105</v>
       </c>
@@ -5403,13 +5403,13 @@
       </c>
     </row>
     <row r="21" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B21" s="250"/>
+      <c r="B21" s="252"/>
       <c r="C21" s="53"/>
       <c r="D21" s="51"/>
       <c r="E21" s="52"/>
     </row>
     <row r="22" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B22" s="250"/>
+      <c r="B22" s="252"/>
       <c r="C22" s="63" t="s">
         <v>174</v>
       </c>
@@ -5421,7 +5421,7 @@
       </c>
     </row>
     <row r="23" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B23" s="250"/>
+      <c r="B23" s="252"/>
       <c r="C23" s="68" t="s">
         <v>110</v>
       </c>
@@ -5433,7 +5433,7 @@
       </c>
     </row>
     <row r="24" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B24" s="250"/>
+      <c r="B24" s="252"/>
       <c r="C24" s="53"/>
       <c r="D24" s="64" t="s">
         <v>176</v>
@@ -5441,7 +5441,7 @@
       <c r="E24" s="65"/>
     </row>
     <row r="25" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B25" s="250"/>
+      <c r="B25" s="252"/>
       <c r="C25" s="63"/>
       <c r="D25" s="64" t="s">
         <v>113</v>
@@ -5449,7 +5449,7 @@
       <c r="E25" s="65"/>
     </row>
     <row r="26" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B26" s="250"/>
+      <c r="B26" s="252"/>
       <c r="C26" s="63" t="s">
         <v>114</v>
       </c>
@@ -5459,7 +5459,7 @@
       </c>
     </row>
     <row r="27" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B27" s="250"/>
+      <c r="B27" s="252"/>
       <c r="C27" s="63" t="s">
         <v>116</v>
       </c>
@@ -5469,13 +5469,13 @@
       </c>
     </row>
     <row r="28" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B28" s="250"/>
+      <c r="B28" s="252"/>
       <c r="C28" s="53"/>
       <c r="D28" s="51"/>
       <c r="E28" s="52"/>
     </row>
     <row r="29" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B29" s="250"/>
+      <c r="B29" s="252"/>
       <c r="C29" s="50" t="s">
         <v>118</v>
       </c>
@@ -5483,13 +5483,13 @@
       <c r="E29" s="52"/>
     </row>
     <row r="30" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B30" s="250"/>
+      <c r="B30" s="252"/>
       <c r="C30" s="53"/>
       <c r="D30" s="51"/>
       <c r="E30" s="52"/>
     </row>
     <row r="31" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B31" s="250"/>
+      <c r="B31" s="252"/>
       <c r="C31" s="63" t="s">
         <v>119</v>
       </c>
@@ -5499,7 +5499,7 @@
       <c r="E31" s="52"/>
     </row>
     <row r="32" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B32" s="250"/>
+      <c r="B32" s="252"/>
       <c r="C32" s="63" t="s">
         <v>120</v>
       </c>
@@ -5507,7 +5507,7 @@
       <c r="E32" s="52"/>
     </row>
     <row r="33" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B33" s="250"/>
+      <c r="B33" s="252"/>
       <c r="C33" s="63" t="s">
         <v>121</v>
       </c>
@@ -5515,7 +5515,7 @@
       <c r="E33" s="52"/>
     </row>
     <row r="34" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B34" s="250"/>
+      <c r="B34" s="252"/>
       <c r="C34" s="63" t="s">
         <v>122</v>
       </c>
@@ -5523,7 +5523,7 @@
       <c r="E34" s="52"/>
     </row>
     <row r="35" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B35" s="250"/>
+      <c r="B35" s="252"/>
       <c r="C35" s="63" t="s">
         <v>123</v>
       </c>
@@ -5531,13 +5531,13 @@
       <c r="E35" s="52"/>
     </row>
     <row r="36" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B36" s="250"/>
+      <c r="B36" s="252"/>
       <c r="C36" s="63"/>
       <c r="D36" s="64"/>
       <c r="E36" s="52"/>
     </row>
     <row r="37" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B37" s="250"/>
+      <c r="B37" s="252"/>
       <c r="C37" s="63" t="s">
         <v>177</v>
       </c>
@@ -5545,7 +5545,7 @@
       <c r="E37" s="52"/>
     </row>
     <row r="38" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B38" s="250"/>
+      <c r="B38" s="252"/>
       <c r="C38" s="63" t="s">
         <v>127</v>
       </c>
@@ -5553,7 +5553,7 @@
       <c r="E38" s="52"/>
     </row>
     <row r="39" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B39" s="250"/>
+      <c r="B39" s="252"/>
       <c r="C39" s="63" t="s">
         <v>125</v>
       </c>
@@ -5563,13 +5563,13 @@
       </c>
     </row>
     <row r="40" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B40" s="250"/>
+      <c r="B40" s="252"/>
       <c r="C40" s="63"/>
       <c r="D40" s="51"/>
       <c r="E40" s="52"/>
     </row>
     <row r="41" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B41" s="250"/>
+      <c r="B41" s="252"/>
       <c r="C41" s="50" t="s">
         <v>128</v>
       </c>
@@ -5577,13 +5577,13 @@
       <c r="E41" s="52"/>
     </row>
     <row r="42" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B42" s="250"/>
+      <c r="B42" s="252"/>
       <c r="C42" s="63"/>
       <c r="D42" s="51"/>
       <c r="E42" s="52"/>
     </row>
     <row r="43" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B43" s="250"/>
+      <c r="B43" s="252"/>
       <c r="C43" s="63" t="s">
         <v>129</v>
       </c>
@@ -5591,7 +5591,7 @@
       <c r="E43" s="52"/>
     </row>
     <row r="44" spans="2:5" ht="12.75" customHeight="1">
-      <c r="B44" s="250"/>
+      <c r="B44" s="252"/>
       <c r="C4